--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Tomate.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Tomate.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R818"/>
+  <dimension ref="A1:R821"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -57717,7 +57717,7 @@
         </is>
       </c>
       <c r="D797" s="2" t="n">
-        <v>44167</v>
+        <v>44448</v>
       </c>
       <c r="E797" t="n">
         <v>13</v>
@@ -57737,20 +57737,20 @@
       </c>
       <c r="I797" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J797" t="n">
-        <v>1040</v>
+        <v>580</v>
       </c>
       <c r="K797" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L797" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M797" t="n">
-        <v>12538</v>
+        <v>14517</v>
       </c>
       <c r="N797" t="inlineStr">
         <is>
@@ -57763,7 +57763,7 @@
         </is>
       </c>
       <c r="P797" t="n">
-        <v>697</v>
+        <v>806</v>
       </c>
       <c r="Q797" t="n">
         <v>18</v>
@@ -57789,7 +57789,7 @@
         </is>
       </c>
       <c r="D798" s="2" t="n">
-        <v>44167</v>
+        <v>44448</v>
       </c>
       <c r="E798" t="n">
         <v>13</v>
@@ -57809,11 +57809,11 @@
       </c>
       <c r="I798" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J798" t="n">
-        <v>960</v>
+        <v>420</v>
       </c>
       <c r="K798" t="n">
         <v>10000</v>
@@ -57822,7 +57822,7 @@
         <v>11000</v>
       </c>
       <c r="M798" t="n">
-        <v>10583</v>
+        <v>10571</v>
       </c>
       <c r="N798" t="inlineStr">
         <is>
@@ -57835,7 +57835,7 @@
         </is>
       </c>
       <c r="P798" t="n">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="Q798" t="n">
         <v>18</v>
@@ -57861,7 +57861,7 @@
         </is>
       </c>
       <c r="D799" s="2" t="n">
-        <v>44167</v>
+        <v>44448</v>
       </c>
       <c r="E799" t="n">
         <v>13</v>
@@ -57885,16 +57885,16 @@
         </is>
       </c>
       <c r="J799" t="n">
-        <v>700</v>
+        <v>580</v>
       </c>
       <c r="K799" t="n">
-        <v>7000</v>
+        <v>19000</v>
       </c>
       <c r="L799" t="n">
-        <v>7500</v>
+        <v>20000</v>
       </c>
       <c r="M799" t="n">
-        <v>7214</v>
+        <v>19517</v>
       </c>
       <c r="N799" t="inlineStr">
         <is>
@@ -57903,11 +57903,11 @@
       </c>
       <c r="O799" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P799" t="n">
-        <v>401</v>
+        <v>1084</v>
       </c>
       <c r="Q799" t="n">
         <v>18</v>
@@ -57953,20 +57953,20 @@
       </c>
       <c r="I800" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J800" t="n">
-        <v>550</v>
+        <v>1040</v>
       </c>
       <c r="K800" t="n">
-        <v>4500</v>
+        <v>12000</v>
       </c>
       <c r="L800" t="n">
-        <v>5000</v>
+        <v>13000</v>
       </c>
       <c r="M800" t="n">
-        <v>4773</v>
+        <v>12538</v>
       </c>
       <c r="N800" t="inlineStr">
         <is>
@@ -57979,7 +57979,7 @@
         </is>
       </c>
       <c r="P800" t="n">
-        <v>265</v>
+        <v>697</v>
       </c>
       <c r="Q800" t="n">
         <v>18</v>
@@ -58005,7 +58005,7 @@
         </is>
       </c>
       <c r="D801" s="2" t="n">
-        <v>44238</v>
+        <v>44167</v>
       </c>
       <c r="E801" t="n">
         <v>13</v>
@@ -58025,20 +58025,20 @@
       </c>
       <c r="I801" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J801" t="n">
-        <v>295</v>
+        <v>960</v>
       </c>
       <c r="K801" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="L801" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M801" t="n">
-        <v>9508</v>
+        <v>10583</v>
       </c>
       <c r="N801" t="inlineStr">
         <is>
@@ -58047,11 +58047,11 @@
       </c>
       <c r="O801" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P801" t="n">
-        <v>528</v>
+        <v>588</v>
       </c>
       <c r="Q801" t="n">
         <v>18</v>
@@ -58077,7 +58077,7 @@
         </is>
       </c>
       <c r="D802" s="2" t="n">
-        <v>44238</v>
+        <v>44167</v>
       </c>
       <c r="E802" t="n">
         <v>13</v>
@@ -58097,20 +58097,20 @@
       </c>
       <c r="I802" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J802" t="n">
-        <v>60</v>
+        <v>700</v>
       </c>
       <c r="K802" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="L802" t="n">
-        <v>9000</v>
+        <v>7500</v>
       </c>
       <c r="M802" t="n">
-        <v>9000</v>
+        <v>7214</v>
       </c>
       <c r="N802" t="inlineStr">
         <is>
@@ -58119,11 +58119,11 @@
       </c>
       <c r="O802" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P802" t="n">
-        <v>500</v>
+        <v>401</v>
       </c>
       <c r="Q802" t="n">
         <v>18</v>
@@ -58149,7 +58149,7 @@
         </is>
       </c>
       <c r="D803" s="2" t="n">
-        <v>44238</v>
+        <v>44167</v>
       </c>
       <c r="E803" t="n">
         <v>13</v>
@@ -58169,20 +58169,20 @@
       </c>
       <c r="I803" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J803" t="n">
-        <v>360</v>
+        <v>550</v>
       </c>
       <c r="K803" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="L803" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="M803" t="n">
-        <v>7333</v>
+        <v>4773</v>
       </c>
       <c r="N803" t="inlineStr">
         <is>
@@ -58191,11 +58191,11 @@
       </c>
       <c r="O803" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P803" t="n">
-        <v>407</v>
+        <v>265</v>
       </c>
       <c r="Q803" t="n">
         <v>18</v>
@@ -58241,20 +58241,20 @@
       </c>
       <c r="I804" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J804" t="n">
-        <v>150</v>
+        <v>295</v>
       </c>
       <c r="K804" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L804" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M804" t="n">
-        <v>7000</v>
+        <v>9508</v>
       </c>
       <c r="N804" t="inlineStr">
         <is>
@@ -58263,11 +58263,11 @@
       </c>
       <c r="O804" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P804" t="n">
-        <v>389</v>
+        <v>528</v>
       </c>
       <c r="Q804" t="n">
         <v>18</v>
@@ -58313,20 +58313,20 @@
       </c>
       <c r="I805" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J805" t="n">
-        <v>180</v>
+        <v>60</v>
       </c>
       <c r="K805" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="L805" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="M805" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="N805" t="inlineStr">
         <is>
@@ -58335,11 +58335,11 @@
       </c>
       <c r="O805" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P805" t="n">
-        <v>278</v>
+        <v>500</v>
       </c>
       <c r="Q805" t="n">
         <v>18</v>
@@ -58385,20 +58385,20 @@
       </c>
       <c r="I806" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J806" t="n">
-        <v>100</v>
+        <v>360</v>
       </c>
       <c r="K806" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="L806" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="M806" t="n">
-        <v>5000</v>
+        <v>7333</v>
       </c>
       <c r="N806" t="inlineStr">
         <is>
@@ -58407,11 +58407,11 @@
       </c>
       <c r="O806" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P806" t="n">
-        <v>278</v>
+        <v>407</v>
       </c>
       <c r="Q806" t="n">
         <v>18</v>
@@ -58437,7 +58437,7 @@
         </is>
       </c>
       <c r="D807" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E807" t="n">
         <v>13</v>
@@ -58457,20 +58457,20 @@
       </c>
       <c r="I807" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J807" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="K807" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L807" t="n">
-        <v>8500</v>
+        <v>7000</v>
       </c>
       <c r="M807" t="n">
-        <v>8267</v>
+        <v>7000</v>
       </c>
       <c r="N807" t="inlineStr">
         <is>
@@ -58479,11 +58479,11 @@
       </c>
       <c r="O807" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P807" t="n">
-        <v>459</v>
+        <v>389</v>
       </c>
       <c r="Q807" t="n">
         <v>18</v>
@@ -58509,7 +58509,7 @@
         </is>
       </c>
       <c r="D808" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E808" t="n">
         <v>13</v>
@@ -58529,20 +58529,20 @@
       </c>
       <c r="I808" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J808" t="n">
-        <v>1030</v>
+        <v>180</v>
       </c>
       <c r="K808" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="L808" t="n">
-        <v>13000</v>
+        <v>5000</v>
       </c>
       <c r="M808" t="n">
-        <v>12563</v>
+        <v>5000</v>
       </c>
       <c r="N808" t="inlineStr">
         <is>
@@ -58551,11 +58551,11 @@
       </c>
       <c r="O808" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P808" t="n">
-        <v>698</v>
+        <v>278</v>
       </c>
       <c r="Q808" t="n">
         <v>18</v>
@@ -58581,7 +58581,7 @@
         </is>
       </c>
       <c r="D809" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E809" t="n">
         <v>13</v>
@@ -58601,20 +58601,20 @@
       </c>
       <c r="I809" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J809" t="n">
-        <v>420</v>
+        <v>100</v>
       </c>
       <c r="K809" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="L809" t="n">
-        <v>7500</v>
+        <v>5000</v>
       </c>
       <c r="M809" t="n">
-        <v>7262</v>
+        <v>5000</v>
       </c>
       <c r="N809" t="inlineStr">
         <is>
@@ -58623,11 +58623,11 @@
       </c>
       <c r="O809" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P809" t="n">
-        <v>403</v>
+        <v>278</v>
       </c>
       <c r="Q809" t="n">
         <v>18</v>
@@ -58673,20 +58673,20 @@
       </c>
       <c r="I810" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J810" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="K810" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="L810" t="n">
-        <v>11000</v>
+        <v>8500</v>
       </c>
       <c r="M810" t="n">
-        <v>10440</v>
+        <v>8267</v>
       </c>
       <c r="N810" t="inlineStr">
         <is>
@@ -58695,11 +58695,11 @@
       </c>
       <c r="O810" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P810" t="n">
-        <v>580</v>
+        <v>459</v>
       </c>
       <c r="Q810" t="n">
         <v>18</v>
@@ -58745,20 +58745,20 @@
       </c>
       <c r="I811" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J811" t="n">
-        <v>370</v>
+        <v>1030</v>
       </c>
       <c r="K811" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="L811" t="n">
-        <v>5500</v>
+        <v>13000</v>
       </c>
       <c r="M811" t="n">
-        <v>5270</v>
+        <v>12563</v>
       </c>
       <c r="N811" t="inlineStr">
         <is>
@@ -58767,11 +58767,11 @@
       </c>
       <c r="O811" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P811" t="n">
-        <v>293</v>
+        <v>698</v>
       </c>
       <c r="Q811" t="n">
         <v>18</v>
@@ -58817,20 +58817,20 @@
       </c>
       <c r="I812" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J812" t="n">
-        <v>520</v>
+        <v>420</v>
       </c>
       <c r="K812" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L812" t="n">
-        <v>9000</v>
+        <v>7500</v>
       </c>
       <c r="M812" t="n">
-        <v>8577</v>
+        <v>7262</v>
       </c>
       <c r="N812" t="inlineStr">
         <is>
@@ -58839,11 +58839,11 @@
       </c>
       <c r="O812" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P812" t="n">
-        <v>476</v>
+        <v>403</v>
       </c>
       <c r="Q812" t="n">
         <v>18</v>
@@ -58869,7 +58869,7 @@
         </is>
       </c>
       <c r="D813" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E813" t="n">
         <v>13</v>
@@ -58889,20 +58889,20 @@
       </c>
       <c r="I813" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J813" t="n">
-        <v>450</v>
+        <v>1000</v>
       </c>
       <c r="K813" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="L813" t="n">
-        <v>8500</v>
+        <v>11000</v>
       </c>
       <c r="M813" t="n">
-        <v>8278</v>
+        <v>10440</v>
       </c>
       <c r="N813" t="inlineStr">
         <is>
@@ -58911,11 +58911,11 @@
       </c>
       <c r="O813" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P813" t="n">
-        <v>460</v>
+        <v>580</v>
       </c>
       <c r="Q813" t="n">
         <v>18</v>
@@ -58941,7 +58941,7 @@
         </is>
       </c>
       <c r="D814" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E814" t="n">
         <v>13</v>
@@ -58961,20 +58961,20 @@
       </c>
       <c r="I814" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J814" t="n">
-        <v>960</v>
+        <v>370</v>
       </c>
       <c r="K814" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="L814" t="n">
-        <v>13000</v>
+        <v>5500</v>
       </c>
       <c r="M814" t="n">
-        <v>12583</v>
+        <v>5270</v>
       </c>
       <c r="N814" t="inlineStr">
         <is>
@@ -58983,11 +58983,11 @@
       </c>
       <c r="O814" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P814" t="n">
-        <v>699</v>
+        <v>293</v>
       </c>
       <c r="Q814" t="n">
         <v>18</v>
@@ -59013,7 +59013,7 @@
         </is>
       </c>
       <c r="D815" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E815" t="n">
         <v>13</v>
@@ -59033,20 +59033,20 @@
       </c>
       <c r="I815" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J815" t="n">
-        <v>620</v>
+        <v>520</v>
       </c>
       <c r="K815" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L815" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="M815" t="n">
-        <v>7274</v>
+        <v>8577</v>
       </c>
       <c r="N815" t="inlineStr">
         <is>
@@ -59055,11 +59055,11 @@
       </c>
       <c r="O815" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P815" t="n">
-        <v>404</v>
+        <v>476</v>
       </c>
       <c r="Q815" t="n">
         <v>18</v>
@@ -59105,20 +59105,20 @@
       </c>
       <c r="I816" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J816" t="n">
-        <v>920</v>
+        <v>450</v>
       </c>
       <c r="K816" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="L816" t="n">
-        <v>11000</v>
+        <v>8500</v>
       </c>
       <c r="M816" t="n">
-        <v>10522</v>
+        <v>8278</v>
       </c>
       <c r="N816" t="inlineStr">
         <is>
@@ -59127,11 +59127,11 @@
       </c>
       <c r="O816" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P816" t="n">
-        <v>585</v>
+        <v>460</v>
       </c>
       <c r="Q816" t="n">
         <v>18</v>
@@ -59177,20 +59177,20 @@
       </c>
       <c r="I817" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J817" t="n">
-        <v>230</v>
+        <v>960</v>
       </c>
       <c r="K817" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="L817" t="n">
-        <v>5500</v>
+        <v>13000</v>
       </c>
       <c r="M817" t="n">
-        <v>5283</v>
+        <v>12583</v>
       </c>
       <c r="N817" t="inlineStr">
         <is>
@@ -59199,11 +59199,11 @@
       </c>
       <c r="O817" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P817" t="n">
-        <v>294</v>
+        <v>699</v>
       </c>
       <c r="Q817" t="n">
         <v>18</v>
@@ -59249,38 +59249,254 @@
       </c>
       <c r="I818" t="inlineStr">
         <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J818" t="n">
+        <v>620</v>
+      </c>
+      <c r="K818" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L818" t="n">
+        <v>7500</v>
+      </c>
+      <c r="M818" t="n">
+        <v>7274</v>
+      </c>
+      <c r="N818" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O818" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="P818" t="n">
+        <v>404</v>
+      </c>
+      <c r="Q818" t="n">
+        <v>18</v>
+      </c>
+      <c r="R818" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="819">
+      <c r="A819" t="n">
+        <v>12</v>
+      </c>
+      <c r="B819" t="inlineStr">
+        <is>
+          <t>Mapocho Venta Directa de Santiago</t>
+        </is>
+      </c>
+      <c r="C819" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D819" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E819" t="n">
+        <v>13</v>
+      </c>
+      <c r="F819" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G819" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H819" t="inlineStr">
+        <is>
+          <t>Larga vida</t>
+        </is>
+      </c>
+      <c r="I819" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J819" t="n">
+        <v>920</v>
+      </c>
+      <c r="K819" t="n">
+        <v>10000</v>
+      </c>
+      <c r="L819" t="n">
+        <v>11000</v>
+      </c>
+      <c r="M819" t="n">
+        <v>10522</v>
+      </c>
+      <c r="N819" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O819" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P819" t="n">
+        <v>585</v>
+      </c>
+      <c r="Q819" t="n">
+        <v>18</v>
+      </c>
+      <c r="R819" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="820">
+      <c r="A820" t="n">
+        <v>12</v>
+      </c>
+      <c r="B820" t="inlineStr">
+        <is>
+          <t>Mapocho Venta Directa de Santiago</t>
+        </is>
+      </c>
+      <c r="C820" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D820" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E820" t="n">
+        <v>13</v>
+      </c>
+      <c r="F820" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G820" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H820" t="inlineStr">
+        <is>
+          <t>Larga vida</t>
+        </is>
+      </c>
+      <c r="I820" t="inlineStr">
+        <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="J818" t="n">
+      <c r="J820" t="n">
+        <v>230</v>
+      </c>
+      <c r="K820" t="n">
+        <v>5000</v>
+      </c>
+      <c r="L820" t="n">
+        <v>5500</v>
+      </c>
+      <c r="M820" t="n">
+        <v>5283</v>
+      </c>
+      <c r="N820" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O820" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="P820" t="n">
+        <v>294</v>
+      </c>
+      <c r="Q820" t="n">
+        <v>18</v>
+      </c>
+      <c r="R820" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="821">
+      <c r="A821" t="n">
+        <v>12</v>
+      </c>
+      <c r="B821" t="inlineStr">
+        <is>
+          <t>Mapocho Venta Directa de Santiago</t>
+        </is>
+      </c>
+      <c r="C821" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D821" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E821" t="n">
+        <v>13</v>
+      </c>
+      <c r="F821" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G821" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H821" t="inlineStr">
+        <is>
+          <t>Larga vida</t>
+        </is>
+      </c>
+      <c r="I821" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J821" t="n">
         <v>260</v>
       </c>
-      <c r="K818" t="n">
+      <c r="K821" t="n">
         <v>8000</v>
       </c>
-      <c r="L818" t="n">
+      <c r="L821" t="n">
         <v>9000</v>
       </c>
-      <c r="M818" t="n">
+      <c r="M821" t="n">
         <v>8538</v>
       </c>
-      <c r="N818" t="inlineStr">
-        <is>
-          <t>$/bandeja 18 kilos</t>
-        </is>
-      </c>
-      <c r="O818" t="inlineStr">
+      <c r="N821" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O821" t="inlineStr">
         <is>
           <t>Región de Arica y Parinacota</t>
         </is>
       </c>
-      <c r="P818" t="n">
+      <c r="P821" t="n">
         <v>474</v>
       </c>
-      <c r="Q818" t="n">
-        <v>18</v>
-      </c>
-      <c r="R818" t="inlineStr">
+      <c r="Q821" t="n">
+        <v>18</v>
+      </c>
+      <c r="R821" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Tomate.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Tomate.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R821"/>
+  <dimension ref="A1:R826"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -48449,24 +48449,24 @@
       </c>
       <c r="I668" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J668" t="n">
-        <v>1200</v>
+        <v>1150</v>
       </c>
       <c r="K668" t="n">
-        <v>17000</v>
+        <v>23000</v>
       </c>
       <c r="L668" t="n">
-        <v>18000</v>
+        <v>24000</v>
       </c>
       <c r="M668" t="n">
-        <v>17500</v>
+        <v>23435</v>
       </c>
       <c r="N668" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 20 kilos</t>
         </is>
       </c>
       <c r="O668" t="inlineStr">
@@ -48475,10 +48475,10 @@
         </is>
       </c>
       <c r="P668" t="n">
-        <v>972</v>
+        <v>1172</v>
       </c>
       <c r="Q668" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R668" t="inlineStr">
         <is>
@@ -48525,20 +48525,20 @@
         </is>
       </c>
       <c r="J669" t="n">
-        <v>1400</v>
+        <v>1200</v>
       </c>
       <c r="K669" t="n">
-        <v>21000</v>
+        <v>17000</v>
       </c>
       <c r="L669" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="M669" t="n">
-        <v>21571</v>
+        <v>17500</v>
       </c>
       <c r="N669" t="inlineStr">
         <is>
-          <t>$/bandeja 20 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O669" t="inlineStr">
@@ -48547,10 +48547,10 @@
         </is>
       </c>
       <c r="P669" t="n">
-        <v>1079</v>
+        <v>972</v>
       </c>
       <c r="Q669" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R669" t="inlineStr">
         <is>
@@ -48593,24 +48593,24 @@
       </c>
       <c r="I670" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J670" t="n">
-        <v>850</v>
+        <v>1400</v>
       </c>
       <c r="K670" t="n">
-        <v>15000</v>
+        <v>21000</v>
       </c>
       <c r="L670" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="M670" t="n">
-        <v>15529</v>
+        <v>21571</v>
       </c>
       <c r="N670" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 20 kilos</t>
         </is>
       </c>
       <c r="O670" t="inlineStr">
@@ -48619,10 +48619,10 @@
         </is>
       </c>
       <c r="P670" t="n">
-        <v>863</v>
+        <v>1079</v>
       </c>
       <c r="Q670" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R670" t="inlineStr">
         <is>
@@ -48669,20 +48669,20 @@
         </is>
       </c>
       <c r="J671" t="n">
-        <v>1450</v>
+        <v>850</v>
       </c>
       <c r="K671" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="L671" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="M671" t="n">
-        <v>18448</v>
+        <v>15529</v>
       </c>
       <c r="N671" t="inlineStr">
         <is>
-          <t>$/bandeja 20 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O671" t="inlineStr">
@@ -48691,10 +48691,10 @@
         </is>
       </c>
       <c r="P671" t="n">
-        <v>922</v>
+        <v>863</v>
       </c>
       <c r="Q671" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R671" t="inlineStr">
         <is>
@@ -48717,7 +48717,7 @@
         </is>
       </c>
       <c r="D672" s="2" t="n">
-        <v>44237</v>
+        <v>44441</v>
       </c>
       <c r="E672" t="n">
         <v>13</v>
@@ -48737,36 +48737,36 @@
       </c>
       <c r="I672" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J672" t="n">
-        <v>140</v>
+        <v>1450</v>
       </c>
       <c r="K672" t="n">
-        <v>9000</v>
+        <v>18000</v>
       </c>
       <c r="L672" t="n">
-        <v>9000</v>
+        <v>19000</v>
       </c>
       <c r="M672" t="n">
-        <v>9000</v>
+        <v>18448</v>
       </c>
       <c r="N672" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 20 kilos</t>
         </is>
       </c>
       <c r="O672" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P672" t="n">
-        <v>500</v>
+        <v>922</v>
       </c>
       <c r="Q672" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R672" t="inlineStr">
         <is>
@@ -48809,20 +48809,20 @@
       </c>
       <c r="I673" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J673" t="n">
-        <v>250</v>
+        <v>140</v>
       </c>
       <c r="K673" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L673" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M673" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="N673" t="inlineStr">
         <is>
@@ -48835,7 +48835,7 @@
         </is>
       </c>
       <c r="P673" t="n">
-        <v>389</v>
+        <v>500</v>
       </c>
       <c r="Q673" t="n">
         <v>18</v>
@@ -48881,20 +48881,20 @@
       </c>
       <c r="I674" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J674" t="n">
-        <v>180</v>
+        <v>250</v>
       </c>
       <c r="K674" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="L674" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="M674" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="N674" t="inlineStr">
         <is>
@@ -48907,7 +48907,7 @@
         </is>
       </c>
       <c r="P674" t="n">
-        <v>278</v>
+        <v>389</v>
       </c>
       <c r="Q674" t="n">
         <v>18</v>
@@ -48933,7 +48933,7 @@
         </is>
       </c>
       <c r="D675" s="2" t="n">
-        <v>44432</v>
+        <v>44237</v>
       </c>
       <c r="E675" t="n">
         <v>13</v>
@@ -48953,20 +48953,20 @@
       </c>
       <c r="I675" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J675" t="n">
-        <v>1180</v>
+        <v>180</v>
       </c>
       <c r="K675" t="n">
-        <v>11000</v>
+        <v>5000</v>
       </c>
       <c r="L675" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="M675" t="n">
-        <v>11525</v>
+        <v>5000</v>
       </c>
       <c r="N675" t="inlineStr">
         <is>
@@ -48975,11 +48975,11 @@
       </c>
       <c r="O675" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P675" t="n">
-        <v>640</v>
+        <v>278</v>
       </c>
       <c r="Q675" t="n">
         <v>18</v>
@@ -49025,20 +49025,20 @@
       </c>
       <c r="I676" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J676" t="n">
-        <v>820</v>
+        <v>1180</v>
       </c>
       <c r="K676" t="n">
-        <v>5000</v>
+        <v>11000</v>
       </c>
       <c r="L676" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="M676" t="n">
-        <v>5463</v>
+        <v>11525</v>
       </c>
       <c r="N676" t="inlineStr">
         <is>
@@ -49047,11 +49047,11 @@
       </c>
       <c r="O676" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P676" t="n">
-        <v>304</v>
+        <v>640</v>
       </c>
       <c r="Q676" t="n">
         <v>18</v>
@@ -49101,16 +49101,16 @@
         </is>
       </c>
       <c r="J677" t="n">
-        <v>1220</v>
+        <v>820</v>
       </c>
       <c r="K677" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="L677" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="M677" t="n">
-        <v>9541</v>
+        <v>5463</v>
       </c>
       <c r="N677" t="inlineStr">
         <is>
@@ -49119,11 +49119,11 @@
       </c>
       <c r="O677" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P677" t="n">
-        <v>530</v>
+        <v>304</v>
       </c>
       <c r="Q677" t="n">
         <v>18</v>
@@ -49169,20 +49169,20 @@
       </c>
       <c r="I678" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J678" t="n">
-        <v>450</v>
+        <v>1220</v>
       </c>
       <c r="K678" t="n">
-        <v>3000</v>
+        <v>9000</v>
       </c>
       <c r="L678" t="n">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="M678" t="n">
-        <v>3600</v>
+        <v>9541</v>
       </c>
       <c r="N678" t="inlineStr">
         <is>
@@ -49191,11 +49191,11 @@
       </c>
       <c r="O678" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P678" t="n">
-        <v>200</v>
+        <v>530</v>
       </c>
       <c r="Q678" t="n">
         <v>18</v>
@@ -49245,16 +49245,16 @@
         </is>
       </c>
       <c r="J679" t="n">
-        <v>840</v>
+        <v>450</v>
       </c>
       <c r="K679" t="n">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="L679" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="M679" t="n">
-        <v>6548</v>
+        <v>3600</v>
       </c>
       <c r="N679" t="inlineStr">
         <is>
@@ -49263,11 +49263,11 @@
       </c>
       <c r="O679" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P679" t="n">
-        <v>364</v>
+        <v>200</v>
       </c>
       <c r="Q679" t="n">
         <v>18</v>
@@ -49293,7 +49293,7 @@
         </is>
       </c>
       <c r="D680" s="2" t="n">
-        <v>44351</v>
+        <v>44432</v>
       </c>
       <c r="E680" t="n">
         <v>13</v>
@@ -49313,20 +49313,20 @@
       </c>
       <c r="I680" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J680" t="n">
-        <v>560</v>
+        <v>840</v>
       </c>
       <c r="K680" t="n">
-        <v>9500</v>
+        <v>6000</v>
       </c>
       <c r="L680" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="M680" t="n">
-        <v>9804</v>
+        <v>6548</v>
       </c>
       <c r="N680" t="inlineStr">
         <is>
@@ -49335,11 +49335,11 @@
       </c>
       <c r="O680" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P680" t="n">
-        <v>545</v>
+        <v>364</v>
       </c>
       <c r="Q680" t="n">
         <v>18</v>
@@ -49385,20 +49385,20 @@
       </c>
       <c r="I681" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J681" t="n">
-        <v>940</v>
+        <v>560</v>
       </c>
       <c r="K681" t="n">
-        <v>7000</v>
+        <v>9500</v>
       </c>
       <c r="L681" t="n">
-        <v>7500</v>
+        <v>10000</v>
       </c>
       <c r="M681" t="n">
-        <v>7298</v>
+        <v>9804</v>
       </c>
       <c r="N681" t="inlineStr">
         <is>
@@ -49411,7 +49411,7 @@
         </is>
       </c>
       <c r="P681" t="n">
-        <v>405</v>
+        <v>545</v>
       </c>
       <c r="Q681" t="n">
         <v>18</v>
@@ -49457,20 +49457,20 @@
       </c>
       <c r="I682" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J682" t="n">
-        <v>570</v>
+        <v>940</v>
       </c>
       <c r="K682" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="L682" t="n">
-        <v>5500</v>
+        <v>7500</v>
       </c>
       <c r="M682" t="n">
-        <v>5263</v>
+        <v>7298</v>
       </c>
       <c r="N682" t="inlineStr">
         <is>
@@ -49483,7 +49483,7 @@
         </is>
       </c>
       <c r="P682" t="n">
-        <v>292</v>
+        <v>405</v>
       </c>
       <c r="Q682" t="n">
         <v>18</v>
@@ -49509,7 +49509,7 @@
         </is>
       </c>
       <c r="D683" s="2" t="n">
-        <v>44369</v>
+        <v>44351</v>
       </c>
       <c r="E683" t="n">
         <v>13</v>
@@ -49529,20 +49529,20 @@
       </c>
       <c r="I683" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J683" t="n">
-        <v>290</v>
+        <v>570</v>
       </c>
       <c r="K683" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="L683" t="n">
-        <v>8000</v>
+        <v>5500</v>
       </c>
       <c r="M683" t="n">
-        <v>8000</v>
+        <v>5263</v>
       </c>
       <c r="N683" t="inlineStr">
         <is>
@@ -49555,7 +49555,7 @@
         </is>
       </c>
       <c r="P683" t="n">
-        <v>444</v>
+        <v>292</v>
       </c>
       <c r="Q683" t="n">
         <v>18</v>
@@ -49605,16 +49605,16 @@
         </is>
       </c>
       <c r="J684" t="n">
-        <v>580</v>
+        <v>290</v>
       </c>
       <c r="K684" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="L684" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="M684" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="N684" t="inlineStr">
         <is>
@@ -49623,11 +49623,11 @@
       </c>
       <c r="O684" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P684" t="n">
-        <v>611</v>
+        <v>444</v>
       </c>
       <c r="Q684" t="n">
         <v>18</v>
@@ -49673,20 +49673,20 @@
       </c>
       <c r="I685" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J685" t="n">
-        <v>320</v>
+        <v>580</v>
       </c>
       <c r="K685" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="L685" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="M685" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="N685" t="inlineStr">
         <is>
@@ -49695,11 +49695,11 @@
       </c>
       <c r="O685" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P685" t="n">
-        <v>389</v>
+        <v>611</v>
       </c>
       <c r="Q685" t="n">
         <v>18</v>
@@ -49749,16 +49749,16 @@
         </is>
       </c>
       <c r="J686" t="n">
-        <v>490</v>
+        <v>320</v>
       </c>
       <c r="K686" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="L686" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="M686" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="N686" t="inlineStr">
         <is>
@@ -49767,11 +49767,11 @@
       </c>
       <c r="O686" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P686" t="n">
-        <v>556</v>
+        <v>389</v>
       </c>
       <c r="Q686" t="n">
         <v>18</v>
@@ -49817,20 +49817,20 @@
       </c>
       <c r="I687" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J687" t="n">
-        <v>170</v>
+        <v>490</v>
       </c>
       <c r="K687" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="L687" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="M687" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="N687" t="inlineStr">
         <is>
@@ -49839,11 +49839,11 @@
       </c>
       <c r="O687" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P687" t="n">
-        <v>278</v>
+        <v>556</v>
       </c>
       <c r="Q687" t="n">
         <v>18</v>
@@ -49893,16 +49893,16 @@
         </is>
       </c>
       <c r="J688" t="n">
-        <v>370</v>
+        <v>170</v>
       </c>
       <c r="K688" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="L688" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="M688" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="N688" t="inlineStr">
         <is>
@@ -49911,11 +49911,11 @@
       </c>
       <c r="O688" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P688" t="n">
-        <v>500</v>
+        <v>278</v>
       </c>
       <c r="Q688" t="n">
         <v>18</v>
@@ -49941,7 +49941,7 @@
         </is>
       </c>
       <c r="D689" s="2" t="n">
-        <v>44257</v>
+        <v>44369</v>
       </c>
       <c r="E689" t="n">
         <v>13</v>
@@ -49961,20 +49961,20 @@
       </c>
       <c r="I689" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J689" t="n">
-        <v>440</v>
+        <v>370</v>
       </c>
       <c r="K689" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="L689" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="M689" t="n">
-        <v>14545</v>
+        <v>9000</v>
       </c>
       <c r="N689" t="inlineStr">
         <is>
@@ -49983,11 +49983,11 @@
       </c>
       <c r="O689" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P689" t="n">
-        <v>808</v>
+        <v>500</v>
       </c>
       <c r="Q689" t="n">
         <v>18</v>
@@ -50028,7 +50028,7 @@
       </c>
       <c r="H690" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I690" t="inlineStr">
@@ -50037,16 +50037,16 @@
         </is>
       </c>
       <c r="J690" t="n">
-        <v>310</v>
+        <v>440</v>
       </c>
       <c r="K690" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="L690" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="M690" t="n">
-        <v>11484</v>
+        <v>14545</v>
       </c>
       <c r="N690" t="inlineStr">
         <is>
@@ -50055,11 +50055,11 @@
       </c>
       <c r="O690" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P690" t="n">
-        <v>638</v>
+        <v>808</v>
       </c>
       <c r="Q690" t="n">
         <v>18</v>
@@ -50105,20 +50105,20 @@
       </c>
       <c r="I691" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J691" t="n">
-        <v>470</v>
+        <v>310</v>
       </c>
       <c r="K691" t="n">
-        <v>9500</v>
+        <v>11000</v>
       </c>
       <c r="L691" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M691" t="n">
-        <v>9734</v>
+        <v>11484</v>
       </c>
       <c r="N691" t="inlineStr">
         <is>
@@ -50131,7 +50131,7 @@
         </is>
       </c>
       <c r="P691" t="n">
-        <v>541</v>
+        <v>638</v>
       </c>
       <c r="Q691" t="n">
         <v>18</v>
@@ -50177,20 +50177,20 @@
       </c>
       <c r="I692" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J692" t="n">
-        <v>320</v>
+        <v>470</v>
       </c>
       <c r="K692" t="n">
-        <v>7000</v>
+        <v>9500</v>
       </c>
       <c r="L692" t="n">
-        <v>7500</v>
+        <v>10000</v>
       </c>
       <c r="M692" t="n">
-        <v>7219</v>
+        <v>9734</v>
       </c>
       <c r="N692" t="inlineStr">
         <is>
@@ -50203,7 +50203,7 @@
         </is>
       </c>
       <c r="P692" t="n">
-        <v>401</v>
+        <v>541</v>
       </c>
       <c r="Q692" t="n">
         <v>18</v>
@@ -50229,7 +50229,7 @@
         </is>
       </c>
       <c r="D693" s="2" t="n">
-        <v>44273</v>
+        <v>44257</v>
       </c>
       <c r="E693" t="n">
         <v>13</v>
@@ -50244,25 +50244,25 @@
       </c>
       <c r="H693" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I693" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J693" t="n">
-        <v>800</v>
+        <v>320</v>
       </c>
       <c r="K693" t="n">
-        <v>11500</v>
+        <v>7000</v>
       </c>
       <c r="L693" t="n">
-        <v>12000</v>
+        <v>7500</v>
       </c>
       <c r="M693" t="n">
-        <v>11762</v>
+        <v>7219</v>
       </c>
       <c r="N693" t="inlineStr">
         <is>
@@ -50271,11 +50271,11 @@
       </c>
       <c r="O693" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P693" t="n">
-        <v>653</v>
+        <v>401</v>
       </c>
       <c r="Q693" t="n">
         <v>18</v>
@@ -50321,20 +50321,20 @@
       </c>
       <c r="I694" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J694" t="n">
-        <v>860</v>
+        <v>800</v>
       </c>
       <c r="K694" t="n">
-        <v>9500</v>
+        <v>11500</v>
       </c>
       <c r="L694" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M694" t="n">
-        <v>9767</v>
+        <v>11762</v>
       </c>
       <c r="N694" t="inlineStr">
         <is>
@@ -50347,7 +50347,7 @@
         </is>
       </c>
       <c r="P694" t="n">
-        <v>543</v>
+        <v>653</v>
       </c>
       <c r="Q694" t="n">
         <v>18</v>
@@ -50393,20 +50393,20 @@
       </c>
       <c r="I695" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J695" t="n">
-        <v>550</v>
+        <v>860</v>
       </c>
       <c r="K695" t="n">
-        <v>8500</v>
+        <v>9500</v>
       </c>
       <c r="L695" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M695" t="n">
-        <v>8727</v>
+        <v>9767</v>
       </c>
       <c r="N695" t="inlineStr">
         <is>
@@ -50419,7 +50419,7 @@
         </is>
       </c>
       <c r="P695" t="n">
-        <v>485</v>
+        <v>543</v>
       </c>
       <c r="Q695" t="n">
         <v>18</v>
@@ -50460,25 +50460,25 @@
       </c>
       <c r="H696" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I696" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J696" t="n">
-        <v>180</v>
+        <v>550</v>
       </c>
       <c r="K696" t="n">
-        <v>7000</v>
+        <v>8500</v>
       </c>
       <c r="L696" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M696" t="n">
-        <v>7000</v>
+        <v>8727</v>
       </c>
       <c r="N696" t="inlineStr">
         <is>
@@ -50487,11 +50487,11 @@
       </c>
       <c r="O696" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P696" t="n">
-        <v>389</v>
+        <v>485</v>
       </c>
       <c r="Q696" t="n">
         <v>18</v>
@@ -50537,20 +50537,20 @@
       </c>
       <c r="I697" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J697" t="n">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="K697" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="L697" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="M697" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="N697" t="inlineStr">
         <is>
@@ -50563,7 +50563,7 @@
         </is>
       </c>
       <c r="P697" t="n">
-        <v>278</v>
+        <v>389</v>
       </c>
       <c r="Q697" t="n">
         <v>18</v>
@@ -50609,20 +50609,20 @@
       </c>
       <c r="I698" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J698" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="K698" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L698" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M698" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="N698" t="inlineStr">
         <is>
@@ -50635,7 +50635,7 @@
         </is>
       </c>
       <c r="P698" t="n">
-        <v>222</v>
+        <v>278</v>
       </c>
       <c r="Q698" t="n">
         <v>18</v>
@@ -50661,7 +50661,7 @@
         </is>
       </c>
       <c r="D699" s="2" t="n">
-        <v>44342</v>
+        <v>44273</v>
       </c>
       <c r="E699" t="n">
         <v>13</v>
@@ -50676,25 +50676,25 @@
       </c>
       <c r="H699" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I699" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J699" t="n">
-        <v>480</v>
+        <v>170</v>
       </c>
       <c r="K699" t="n">
-        <v>9500</v>
+        <v>4000</v>
       </c>
       <c r="L699" t="n">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="M699" t="n">
-        <v>9812</v>
+        <v>4000</v>
       </c>
       <c r="N699" t="inlineStr">
         <is>
@@ -50703,11 +50703,11 @@
       </c>
       <c r="O699" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P699" t="n">
-        <v>545</v>
+        <v>222</v>
       </c>
       <c r="Q699" t="n">
         <v>18</v>
@@ -50757,16 +50757,16 @@
         </is>
       </c>
       <c r="J700" t="n">
-        <v>520</v>
+        <v>480</v>
       </c>
       <c r="K700" t="n">
-        <v>11000</v>
+        <v>9500</v>
       </c>
       <c r="L700" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M700" t="n">
-        <v>11558</v>
+        <v>9812</v>
       </c>
       <c r="N700" t="inlineStr">
         <is>
@@ -50775,11 +50775,11 @@
       </c>
       <c r="O700" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P700" t="n">
-        <v>642</v>
+        <v>545</v>
       </c>
       <c r="Q700" t="n">
         <v>18</v>
@@ -50825,20 +50825,20 @@
       </c>
       <c r="I701" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J701" t="n">
-        <v>580</v>
+        <v>520</v>
       </c>
       <c r="K701" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="L701" t="n">
-        <v>7500</v>
+        <v>12000</v>
       </c>
       <c r="M701" t="n">
-        <v>7259</v>
+        <v>11558</v>
       </c>
       <c r="N701" t="inlineStr">
         <is>
@@ -50847,11 +50847,11 @@
       </c>
       <c r="O701" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P701" t="n">
-        <v>403</v>
+        <v>642</v>
       </c>
       <c r="Q701" t="n">
         <v>18</v>
@@ -50904,13 +50904,13 @@
         <v>580</v>
       </c>
       <c r="K702" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="L702" t="n">
-        <v>9500</v>
+        <v>7500</v>
       </c>
       <c r="M702" t="n">
-        <v>9241</v>
+        <v>7259</v>
       </c>
       <c r="N702" t="inlineStr">
         <is>
@@ -50919,11 +50919,11 @@
       </c>
       <c r="O702" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P702" t="n">
-        <v>513</v>
+        <v>403</v>
       </c>
       <c r="Q702" t="n">
         <v>18</v>
@@ -50969,20 +50969,20 @@
       </c>
       <c r="I703" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J703" t="n">
-        <v>540</v>
+        <v>580</v>
       </c>
       <c r="K703" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="L703" t="n">
-        <v>5500</v>
+        <v>9500</v>
       </c>
       <c r="M703" t="n">
-        <v>5222</v>
+        <v>9241</v>
       </c>
       <c r="N703" t="inlineStr">
         <is>
@@ -50991,11 +50991,11 @@
       </c>
       <c r="O703" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P703" t="n">
-        <v>290</v>
+        <v>513</v>
       </c>
       <c r="Q703" t="n">
         <v>18</v>
@@ -51021,7 +51021,7 @@
         </is>
       </c>
       <c r="D704" s="2" t="n">
-        <v>44294</v>
+        <v>44342</v>
       </c>
       <c r="E704" t="n">
         <v>13</v>
@@ -51041,20 +51041,20 @@
       </c>
       <c r="I704" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J704" t="n">
-        <v>1160</v>
+        <v>540</v>
       </c>
       <c r="K704" t="n">
-        <v>13000</v>
+        <v>5000</v>
       </c>
       <c r="L704" t="n">
-        <v>14000</v>
+        <v>5500</v>
       </c>
       <c r="M704" t="n">
-        <v>13517</v>
+        <v>5222</v>
       </c>
       <c r="N704" t="inlineStr">
         <is>
@@ -51067,7 +51067,7 @@
         </is>
       </c>
       <c r="P704" t="n">
-        <v>751</v>
+        <v>290</v>
       </c>
       <c r="Q704" t="n">
         <v>18</v>
@@ -51113,20 +51113,20 @@
       </c>
       <c r="I705" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J705" t="n">
-        <v>980</v>
+        <v>1160</v>
       </c>
       <c r="K705" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="L705" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="M705" t="n">
-        <v>11490</v>
+        <v>13517</v>
       </c>
       <c r="N705" t="inlineStr">
         <is>
@@ -51139,7 +51139,7 @@
         </is>
       </c>
       <c r="P705" t="n">
-        <v>638</v>
+        <v>751</v>
       </c>
       <c r="Q705" t="n">
         <v>18</v>
@@ -51185,20 +51185,20 @@
       </c>
       <c r="I706" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J706" t="n">
-        <v>800</v>
+        <v>980</v>
       </c>
       <c r="K706" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="L706" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M706" t="n">
-        <v>9525</v>
+        <v>11490</v>
       </c>
       <c r="N706" t="inlineStr">
         <is>
@@ -51211,7 +51211,7 @@
         </is>
       </c>
       <c r="P706" t="n">
-        <v>529</v>
+        <v>638</v>
       </c>
       <c r="Q706" t="n">
         <v>18</v>
@@ -51237,7 +51237,7 @@
         </is>
       </c>
       <c r="D707" s="2" t="n">
-        <v>44379</v>
+        <v>44294</v>
       </c>
       <c r="E707" t="n">
         <v>13</v>
@@ -51257,20 +51257,20 @@
       </c>
       <c r="I707" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J707" t="n">
-        <v>240</v>
+        <v>800</v>
       </c>
       <c r="K707" t="n">
+        <v>9000</v>
+      </c>
+      <c r="L707" t="n">
         <v>10000</v>
       </c>
-      <c r="L707" t="n">
-        <v>11000</v>
-      </c>
       <c r="M707" t="n">
-        <v>10500</v>
+        <v>9525</v>
       </c>
       <c r="N707" t="inlineStr">
         <is>
@@ -51279,11 +51279,11 @@
       </c>
       <c r="O707" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P707" t="n">
-        <v>583</v>
+        <v>529</v>
       </c>
       <c r="Q707" t="n">
         <v>18</v>
@@ -51329,20 +51329,20 @@
       </c>
       <c r="I708" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J708" t="n">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="K708" t="n">
-        <v>9500</v>
+        <v>10000</v>
       </c>
       <c r="L708" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M708" t="n">
-        <v>9750</v>
+        <v>10500</v>
       </c>
       <c r="N708" t="inlineStr">
         <is>
@@ -51355,7 +51355,7 @@
         </is>
       </c>
       <c r="P708" t="n">
-        <v>542</v>
+        <v>583</v>
       </c>
       <c r="Q708" t="n">
         <v>18</v>
@@ -51401,20 +51401,20 @@
       </c>
       <c r="I709" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J709" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="K709" t="n">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="L709" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M709" t="n">
-        <v>8500</v>
+        <v>9750</v>
       </c>
       <c r="N709" t="inlineStr">
         <is>
@@ -51427,7 +51427,7 @@
         </is>
       </c>
       <c r="P709" t="n">
-        <v>472</v>
+        <v>542</v>
       </c>
       <c r="Q709" t="n">
         <v>18</v>
@@ -51453,7 +51453,7 @@
         </is>
       </c>
       <c r="D710" s="2" t="n">
-        <v>44302</v>
+        <v>44379</v>
       </c>
       <c r="E710" t="n">
         <v>13</v>
@@ -51473,20 +51473,20 @@
       </c>
       <c r="I710" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J710" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="K710" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="L710" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="M710" t="n">
-        <v>12000</v>
+        <v>8500</v>
       </c>
       <c r="N710" t="inlineStr">
         <is>
@@ -51495,11 +51495,11 @@
       </c>
       <c r="O710" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P710" t="n">
-        <v>667</v>
+        <v>472</v>
       </c>
       <c r="Q710" t="n">
         <v>18</v>
@@ -51545,20 +51545,20 @@
       </c>
       <c r="I711" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J711" t="n">
-        <v>480</v>
+        <v>240</v>
       </c>
       <c r="K711" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L711" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M711" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="N711" t="inlineStr">
         <is>
@@ -51571,7 +51571,7 @@
         </is>
       </c>
       <c r="P711" t="n">
-        <v>556</v>
+        <v>667</v>
       </c>
       <c r="Q711" t="n">
         <v>18</v>
@@ -51617,20 +51617,20 @@
       </c>
       <c r="I712" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J712" t="n">
-        <v>360</v>
+        <v>480</v>
       </c>
       <c r="K712" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="L712" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M712" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="N712" t="inlineStr">
         <is>
@@ -51643,7 +51643,7 @@
         </is>
       </c>
       <c r="P712" t="n">
-        <v>444</v>
+        <v>556</v>
       </c>
       <c r="Q712" t="n">
         <v>18</v>
@@ -51689,20 +51689,20 @@
       </c>
       <c r="I713" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J713" t="n">
-        <v>180</v>
+        <v>360</v>
       </c>
       <c r="K713" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L713" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M713" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="N713" t="inlineStr">
         <is>
@@ -51715,7 +51715,7 @@
         </is>
       </c>
       <c r="P713" t="n">
-        <v>389</v>
+        <v>444</v>
       </c>
       <c r="Q713" t="n">
         <v>18</v>
@@ -51741,7 +51741,7 @@
         </is>
       </c>
       <c r="D714" s="2" t="n">
-        <v>44315</v>
+        <v>44302</v>
       </c>
       <c r="E714" t="n">
         <v>13</v>
@@ -51761,20 +51761,20 @@
       </c>
       <c r="I714" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J714" t="n">
-        <v>820</v>
+        <v>180</v>
       </c>
       <c r="K714" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="L714" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="M714" t="n">
-        <v>9537</v>
+        <v>7000</v>
       </c>
       <c r="N714" t="inlineStr">
         <is>
@@ -51783,11 +51783,11 @@
       </c>
       <c r="O714" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P714" t="n">
-        <v>530</v>
+        <v>389</v>
       </c>
       <c r="Q714" t="n">
         <v>18</v>
@@ -51833,20 +51833,20 @@
       </c>
       <c r="I715" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J715" t="n">
-        <v>1080</v>
+        <v>820</v>
       </c>
       <c r="K715" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L715" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M715" t="n">
-        <v>7556</v>
+        <v>9537</v>
       </c>
       <c r="N715" t="inlineStr">
         <is>
@@ -51859,7 +51859,7 @@
         </is>
       </c>
       <c r="P715" t="n">
-        <v>420</v>
+        <v>530</v>
       </c>
       <c r="Q715" t="n">
         <v>18</v>
@@ -51905,20 +51905,20 @@
       </c>
       <c r="I716" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J716" t="n">
-        <v>780</v>
+        <v>1080</v>
       </c>
       <c r="K716" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="L716" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M716" t="n">
-        <v>5513</v>
+        <v>7556</v>
       </c>
       <c r="N716" t="inlineStr">
         <is>
@@ -51931,7 +51931,7 @@
         </is>
       </c>
       <c r="P716" t="n">
-        <v>306</v>
+        <v>420</v>
       </c>
       <c r="Q716" t="n">
         <v>18</v>
@@ -51957,7 +51957,7 @@
         </is>
       </c>
       <c r="D717" s="2" t="n">
-        <v>44391</v>
+        <v>44315</v>
       </c>
       <c r="E717" t="n">
         <v>13</v>
@@ -51977,20 +51977,20 @@
       </c>
       <c r="I717" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J717" t="n">
-        <v>750</v>
+        <v>780</v>
       </c>
       <c r="K717" t="n">
-        <v>16000</v>
+        <v>5000</v>
       </c>
       <c r="L717" t="n">
-        <v>17000</v>
+        <v>6000</v>
       </c>
       <c r="M717" t="n">
-        <v>16600</v>
+        <v>5513</v>
       </c>
       <c r="N717" t="inlineStr">
         <is>
@@ -51999,11 +51999,11 @@
       </c>
       <c r="O717" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P717" t="n">
-        <v>922</v>
+        <v>306</v>
       </c>
       <c r="Q717" t="n">
         <v>18</v>
@@ -52049,20 +52049,20 @@
       </c>
       <c r="I718" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J718" t="n">
-        <v>840</v>
+        <v>750</v>
       </c>
       <c r="K718" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="L718" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="M718" t="n">
-        <v>14548</v>
+        <v>16600</v>
       </c>
       <c r="N718" t="inlineStr">
         <is>
@@ -52075,7 +52075,7 @@
         </is>
       </c>
       <c r="P718" t="n">
-        <v>808</v>
+        <v>922</v>
       </c>
       <c r="Q718" t="n">
         <v>18</v>
@@ -52121,20 +52121,20 @@
       </c>
       <c r="I719" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J719" t="n">
-        <v>370</v>
+        <v>840</v>
       </c>
       <c r="K719" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="L719" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="M719" t="n">
-        <v>10459</v>
+        <v>14548</v>
       </c>
       <c r="N719" t="inlineStr">
         <is>
@@ -52147,7 +52147,7 @@
         </is>
       </c>
       <c r="P719" t="n">
-        <v>581</v>
+        <v>808</v>
       </c>
       <c r="Q719" t="n">
         <v>18</v>
@@ -52173,7 +52173,7 @@
         </is>
       </c>
       <c r="D720" s="2" t="n">
-        <v>44446</v>
+        <v>44391</v>
       </c>
       <c r="E720" t="n">
         <v>13</v>
@@ -52193,20 +52193,20 @@
       </c>
       <c r="I720" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J720" t="n">
-        <v>630</v>
+        <v>370</v>
       </c>
       <c r="K720" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="L720" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="M720" t="n">
-        <v>14444</v>
+        <v>10459</v>
       </c>
       <c r="N720" t="inlineStr">
         <is>
@@ -52215,11 +52215,11 @@
       </c>
       <c r="O720" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P720" t="n">
-        <v>802</v>
+        <v>581</v>
       </c>
       <c r="Q720" t="n">
         <v>18</v>
@@ -52265,20 +52265,20 @@
       </c>
       <c r="I721" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J721" t="n">
-        <v>650</v>
+        <v>630</v>
       </c>
       <c r="K721" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L721" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M721" t="n">
-        <v>12538</v>
+        <v>14444</v>
       </c>
       <c r="N721" t="inlineStr">
         <is>
@@ -52291,7 +52291,7 @@
         </is>
       </c>
       <c r="P721" t="n">
-        <v>697</v>
+        <v>802</v>
       </c>
       <c r="Q721" t="n">
         <v>18</v>
@@ -52337,20 +52337,20 @@
       </c>
       <c r="I722" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J722" t="n">
-        <v>730</v>
+        <v>650</v>
       </c>
       <c r="K722" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="L722" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="M722" t="n">
-        <v>18904</v>
+        <v>12538</v>
       </c>
       <c r="N722" t="inlineStr">
         <is>
@@ -52359,11 +52359,11 @@
       </c>
       <c r="O722" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P722" t="n">
-        <v>1050</v>
+        <v>697</v>
       </c>
       <c r="Q722" t="n">
         <v>18</v>
@@ -52389,7 +52389,7 @@
         </is>
       </c>
       <c r="D723" s="2" t="n">
-        <v>44411</v>
+        <v>44446</v>
       </c>
       <c r="E723" t="n">
         <v>13</v>
@@ -52409,20 +52409,20 @@
       </c>
       <c r="I723" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J723" t="n">
-        <v>370</v>
+        <v>730</v>
       </c>
       <c r="K723" t="n">
-        <v>8500</v>
+        <v>18000</v>
       </c>
       <c r="L723" t="n">
-        <v>9000</v>
+        <v>20000</v>
       </c>
       <c r="M723" t="n">
-        <v>8838</v>
+        <v>18904</v>
       </c>
       <c r="N723" t="inlineStr">
         <is>
@@ -52431,11 +52431,11 @@
       </c>
       <c r="O723" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P723" t="n">
-        <v>491</v>
+        <v>1050</v>
       </c>
       <c r="Q723" t="n">
         <v>18</v>
@@ -52485,16 +52485,16 @@
         </is>
       </c>
       <c r="J724" t="n">
-        <v>960</v>
+        <v>370</v>
       </c>
       <c r="K724" t="n">
-        <v>12000</v>
+        <v>8500</v>
       </c>
       <c r="L724" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="M724" t="n">
-        <v>12583</v>
+        <v>8838</v>
       </c>
       <c r="N724" t="inlineStr">
         <is>
@@ -52503,11 +52503,11 @@
       </c>
       <c r="O724" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P724" t="n">
-        <v>699</v>
+        <v>491</v>
       </c>
       <c r="Q724" t="n">
         <v>18</v>
@@ -52553,20 +52553,20 @@
       </c>
       <c r="I725" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J725" t="n">
-        <v>780</v>
+        <v>960</v>
       </c>
       <c r="K725" t="n">
-        <v>6500</v>
+        <v>12000</v>
       </c>
       <c r="L725" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="M725" t="n">
-        <v>6756</v>
+        <v>12583</v>
       </c>
       <c r="N725" t="inlineStr">
         <is>
@@ -52575,11 +52575,11 @@
       </c>
       <c r="O725" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P725" t="n">
-        <v>375</v>
+        <v>699</v>
       </c>
       <c r="Q725" t="n">
         <v>18</v>
@@ -52629,16 +52629,16 @@
         </is>
       </c>
       <c r="J726" t="n">
-        <v>1130</v>
+        <v>780</v>
       </c>
       <c r="K726" t="n">
-        <v>10000</v>
+        <v>6500</v>
       </c>
       <c r="L726" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="M726" t="n">
-        <v>10575</v>
+        <v>6756</v>
       </c>
       <c r="N726" t="inlineStr">
         <is>
@@ -52647,11 +52647,11 @@
       </c>
       <c r="O726" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P726" t="n">
-        <v>588</v>
+        <v>375</v>
       </c>
       <c r="Q726" t="n">
         <v>18</v>
@@ -52697,20 +52697,20 @@
       </c>
       <c r="I727" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J727" t="n">
-        <v>360</v>
+        <v>1130</v>
       </c>
       <c r="K727" t="n">
-        <v>4500</v>
+        <v>10000</v>
       </c>
       <c r="L727" t="n">
-        <v>5000</v>
+        <v>11000</v>
       </c>
       <c r="M727" t="n">
-        <v>4833</v>
+        <v>10575</v>
       </c>
       <c r="N727" t="inlineStr">
         <is>
@@ -52719,11 +52719,11 @@
       </c>
       <c r="O727" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P727" t="n">
-        <v>268</v>
+        <v>588</v>
       </c>
       <c r="Q727" t="n">
         <v>18</v>
@@ -52773,16 +52773,16 @@
         </is>
       </c>
       <c r="J728" t="n">
-        <v>820</v>
+        <v>360</v>
       </c>
       <c r="K728" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="L728" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="M728" t="n">
-        <v>7451</v>
+        <v>4833</v>
       </c>
       <c r="N728" t="inlineStr">
         <is>
@@ -52791,11 +52791,11 @@
       </c>
       <c r="O728" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P728" t="n">
-        <v>414</v>
+        <v>268</v>
       </c>
       <c r="Q728" t="n">
         <v>18</v>
@@ -52821,7 +52821,7 @@
         </is>
       </c>
       <c r="D729" s="2" t="n">
-        <v>44313</v>
+        <v>44411</v>
       </c>
       <c r="E729" t="n">
         <v>13</v>
@@ -52841,20 +52841,20 @@
       </c>
       <c r="I729" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J729" t="n">
-        <v>730</v>
+        <v>820</v>
       </c>
       <c r="K729" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="L729" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M729" t="n">
-        <v>9616</v>
+        <v>7451</v>
       </c>
       <c r="N729" t="inlineStr">
         <is>
@@ -52863,11 +52863,11 @@
       </c>
       <c r="O729" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P729" t="n">
-        <v>534</v>
+        <v>414</v>
       </c>
       <c r="Q729" t="n">
         <v>18</v>
@@ -52913,20 +52913,20 @@
       </c>
       <c r="I730" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J730" t="n">
-        <v>1040</v>
+        <v>730</v>
       </c>
       <c r="K730" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L730" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M730" t="n">
-        <v>7538</v>
+        <v>9616</v>
       </c>
       <c r="N730" t="inlineStr">
         <is>
@@ -52939,7 +52939,7 @@
         </is>
       </c>
       <c r="P730" t="n">
-        <v>419</v>
+        <v>534</v>
       </c>
       <c r="Q730" t="n">
         <v>18</v>
@@ -52985,20 +52985,20 @@
       </c>
       <c r="I731" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J731" t="n">
-        <v>720</v>
+        <v>1040</v>
       </c>
       <c r="K731" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="L731" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="M731" t="n">
-        <v>4792</v>
+        <v>7538</v>
       </c>
       <c r="N731" t="inlineStr">
         <is>
@@ -53011,7 +53011,7 @@
         </is>
       </c>
       <c r="P731" t="n">
-        <v>266</v>
+        <v>419</v>
       </c>
       <c r="Q731" t="n">
         <v>18</v>
@@ -53037,7 +53037,7 @@
         </is>
       </c>
       <c r="D732" s="2" t="n">
-        <v>44329</v>
+        <v>44313</v>
       </c>
       <c r="E732" t="n">
         <v>13</v>
@@ -53057,20 +53057,20 @@
       </c>
       <c r="I732" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J732" t="n">
-        <v>750</v>
+        <v>720</v>
       </c>
       <c r="K732" t="n">
-        <v>10000</v>
+        <v>4500</v>
       </c>
       <c r="L732" t="n">
-        <v>11000</v>
+        <v>5000</v>
       </c>
       <c r="M732" t="n">
-        <v>10533</v>
+        <v>4792</v>
       </c>
       <c r="N732" t="inlineStr">
         <is>
@@ -53083,7 +53083,7 @@
         </is>
       </c>
       <c r="P732" t="n">
-        <v>585</v>
+        <v>266</v>
       </c>
       <c r="Q732" t="n">
         <v>18</v>
@@ -53133,16 +53133,16 @@
         </is>
       </c>
       <c r="J733" t="n">
-        <v>530</v>
+        <v>750</v>
       </c>
       <c r="K733" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="L733" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="M733" t="n">
-        <v>14528</v>
+        <v>10533</v>
       </c>
       <c r="N733" t="inlineStr">
         <is>
@@ -53151,11 +53151,11 @@
       </c>
       <c r="O733" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P733" t="n">
-        <v>807</v>
+        <v>585</v>
       </c>
       <c r="Q733" t="n">
         <v>18</v>
@@ -53201,20 +53201,20 @@
       </c>
       <c r="I734" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J734" t="n">
-        <v>720</v>
+        <v>530</v>
       </c>
       <c r="K734" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="L734" t="n">
-        <v>8500</v>
+        <v>15000</v>
       </c>
       <c r="M734" t="n">
-        <v>8278</v>
+        <v>14528</v>
       </c>
       <c r="N734" t="inlineStr">
         <is>
@@ -53223,11 +53223,11 @@
       </c>
       <c r="O734" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P734" t="n">
-        <v>460</v>
+        <v>807</v>
       </c>
       <c r="Q734" t="n">
         <v>18</v>
@@ -53277,16 +53277,16 @@
         </is>
       </c>
       <c r="J735" t="n">
-        <v>570</v>
+        <v>720</v>
       </c>
       <c r="K735" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="L735" t="n">
-        <v>13000</v>
+        <v>8500</v>
       </c>
       <c r="M735" t="n">
-        <v>12561</v>
+        <v>8278</v>
       </c>
       <c r="N735" t="inlineStr">
         <is>
@@ -53295,11 +53295,11 @@
       </c>
       <c r="O735" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P735" t="n">
-        <v>698</v>
+        <v>460</v>
       </c>
       <c r="Q735" t="n">
         <v>18</v>
@@ -53345,20 +53345,20 @@
       </c>
       <c r="I736" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J736" t="n">
-        <v>780</v>
+        <v>570</v>
       </c>
       <c r="K736" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="L736" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="M736" t="n">
-        <v>6513</v>
+        <v>12561</v>
       </c>
       <c r="N736" t="inlineStr">
         <is>
@@ -53367,11 +53367,11 @@
       </c>
       <c r="O736" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P736" t="n">
-        <v>362</v>
+        <v>698</v>
       </c>
       <c r="Q736" t="n">
         <v>18</v>
@@ -53421,16 +53421,16 @@
         </is>
       </c>
       <c r="J737" t="n">
-        <v>500</v>
+        <v>780</v>
       </c>
       <c r="K737" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L737" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M737" t="n">
-        <v>8560</v>
+        <v>6513</v>
       </c>
       <c r="N737" t="inlineStr">
         <is>
@@ -53439,11 +53439,11 @@
       </c>
       <c r="O737" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P737" t="n">
-        <v>476</v>
+        <v>362</v>
       </c>
       <c r="Q737" t="n">
         <v>18</v>
@@ -53469,7 +53469,7 @@
         </is>
       </c>
       <c r="D738" s="2" t="n">
-        <v>44161</v>
+        <v>44329</v>
       </c>
       <c r="E738" t="n">
         <v>13</v>
@@ -53489,11 +53489,11 @@
       </c>
       <c r="I738" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J738" t="n">
-        <v>1100</v>
+        <v>500</v>
       </c>
       <c r="K738" t="n">
         <v>8000</v>
@@ -53502,7 +53502,7 @@
         <v>9000</v>
       </c>
       <c r="M738" t="n">
-        <v>8564</v>
+        <v>8560</v>
       </c>
       <c r="N738" t="inlineStr">
         <is>
@@ -53511,7 +53511,7 @@
       </c>
       <c r="O738" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P738" t="n">
@@ -53541,7 +53541,7 @@
         </is>
       </c>
       <c r="D739" s="2" t="n">
-        <v>44161</v>
+        <v>44449</v>
       </c>
       <c r="E739" t="n">
         <v>13</v>
@@ -53561,20 +53561,20 @@
       </c>
       <c r="I739" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J739" t="n">
-        <v>1480</v>
+        <v>790</v>
       </c>
       <c r="K739" t="n">
-        <v>6000</v>
+        <v>19000</v>
       </c>
       <c r="L739" t="n">
-        <v>7000</v>
+        <v>20000</v>
       </c>
       <c r="M739" t="n">
-        <v>6459</v>
+        <v>19481</v>
       </c>
       <c r="N739" t="inlineStr">
         <is>
@@ -53587,7 +53587,7 @@
         </is>
       </c>
       <c r="P739" t="n">
-        <v>359</v>
+        <v>1082</v>
       </c>
       <c r="Q739" t="n">
         <v>18</v>
@@ -53613,7 +53613,7 @@
         </is>
       </c>
       <c r="D740" s="2" t="n">
-        <v>44161</v>
+        <v>44449</v>
       </c>
       <c r="E740" t="n">
         <v>13</v>
@@ -53633,20 +53633,20 @@
       </c>
       <c r="I740" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J740" t="n">
-        <v>1160</v>
+        <v>800</v>
       </c>
       <c r="K740" t="n">
-        <v>4000</v>
+        <v>15000</v>
       </c>
       <c r="L740" t="n">
-        <v>5000</v>
+        <v>16000</v>
       </c>
       <c r="M740" t="n">
-        <v>4483</v>
+        <v>15500</v>
       </c>
       <c r="N740" t="inlineStr">
         <is>
@@ -53659,7 +53659,7 @@
         </is>
       </c>
       <c r="P740" t="n">
-        <v>249</v>
+        <v>861</v>
       </c>
       <c r="Q740" t="n">
         <v>18</v>
@@ -53685,7 +53685,7 @@
         </is>
       </c>
       <c r="D741" s="2" t="n">
-        <v>44438</v>
+        <v>44449</v>
       </c>
       <c r="E741" t="n">
         <v>13</v>
@@ -53705,20 +53705,20 @@
       </c>
       <c r="I741" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J741" t="n">
-        <v>530</v>
+        <v>810</v>
       </c>
       <c r="K741" t="n">
-        <v>7500</v>
+        <v>11000</v>
       </c>
       <c r="L741" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="M741" t="n">
-        <v>7764</v>
+        <v>11432</v>
       </c>
       <c r="N741" t="inlineStr">
         <is>
@@ -53731,7 +53731,7 @@
         </is>
       </c>
       <c r="P741" t="n">
-        <v>431</v>
+        <v>635</v>
       </c>
       <c r="Q741" t="n">
         <v>18</v>
@@ -53757,7 +53757,7 @@
         </is>
       </c>
       <c r="D742" s="2" t="n">
-        <v>44438</v>
+        <v>44449</v>
       </c>
       <c r="E742" t="n">
         <v>13</v>
@@ -53777,20 +53777,20 @@
       </c>
       <c r="I742" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J742" t="n">
-        <v>630</v>
+        <v>860</v>
       </c>
       <c r="K742" t="n">
-        <v>6000</v>
+        <v>19000</v>
       </c>
       <c r="L742" t="n">
-        <v>6500</v>
+        <v>20000</v>
       </c>
       <c r="M742" t="n">
-        <v>6222</v>
+        <v>19523</v>
       </c>
       <c r="N742" t="inlineStr">
         <is>
@@ -53799,11 +53799,11 @@
       </c>
       <c r="O742" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P742" t="n">
-        <v>346</v>
+        <v>1085</v>
       </c>
       <c r="Q742" t="n">
         <v>18</v>
@@ -53829,7 +53829,7 @@
         </is>
       </c>
       <c r="D743" s="2" t="n">
-        <v>44438</v>
+        <v>44161</v>
       </c>
       <c r="E743" t="n">
         <v>13</v>
@@ -53849,20 +53849,20 @@
       </c>
       <c r="I743" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J743" t="n">
-        <v>560</v>
+        <v>1100</v>
       </c>
       <c r="K743" t="n">
-        <v>4500</v>
+        <v>8000</v>
       </c>
       <c r="L743" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="M743" t="n">
-        <v>4804</v>
+        <v>8564</v>
       </c>
       <c r="N743" t="inlineStr">
         <is>
@@ -53875,7 +53875,7 @@
         </is>
       </c>
       <c r="P743" t="n">
-        <v>267</v>
+        <v>476</v>
       </c>
       <c r="Q743" t="n">
         <v>18</v>
@@ -53901,7 +53901,7 @@
         </is>
       </c>
       <c r="D744" s="2" t="n">
-        <v>44251</v>
+        <v>44161</v>
       </c>
       <c r="E744" t="n">
         <v>13</v>
@@ -53921,20 +53921,20 @@
       </c>
       <c r="I744" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J744" t="n">
-        <v>420</v>
+        <v>1480</v>
       </c>
       <c r="K744" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="L744" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="M744" t="n">
-        <v>12429</v>
+        <v>6459</v>
       </c>
       <c r="N744" t="inlineStr">
         <is>
@@ -53947,7 +53947,7 @@
         </is>
       </c>
       <c r="P744" t="n">
-        <v>690</v>
+        <v>359</v>
       </c>
       <c r="Q744" t="n">
         <v>18</v>
@@ -53973,7 +53973,7 @@
         </is>
       </c>
       <c r="D745" s="2" t="n">
-        <v>44251</v>
+        <v>44161</v>
       </c>
       <c r="E745" t="n">
         <v>13</v>
@@ -53993,20 +53993,20 @@
       </c>
       <c r="I745" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J745" t="n">
-        <v>680</v>
+        <v>1160</v>
       </c>
       <c r="K745" t="n">
-        <v>9000</v>
+        <v>4000</v>
       </c>
       <c r="L745" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="M745" t="n">
-        <v>9559</v>
+        <v>4483</v>
       </c>
       <c r="N745" t="inlineStr">
         <is>
@@ -54019,7 +54019,7 @@
         </is>
       </c>
       <c r="P745" t="n">
-        <v>531</v>
+        <v>249</v>
       </c>
       <c r="Q745" t="n">
         <v>18</v>
@@ -54045,7 +54045,7 @@
         </is>
       </c>
       <c r="D746" s="2" t="n">
-        <v>44251</v>
+        <v>44438</v>
       </c>
       <c r="E746" t="n">
         <v>13</v>
@@ -54065,20 +54065,20 @@
       </c>
       <c r="I746" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J746" t="n">
-        <v>460</v>
+        <v>530</v>
       </c>
       <c r="K746" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="L746" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M746" t="n">
-        <v>6772</v>
+        <v>7764</v>
       </c>
       <c r="N746" t="inlineStr">
         <is>
@@ -54091,7 +54091,7 @@
         </is>
       </c>
       <c r="P746" t="n">
-        <v>376</v>
+        <v>431</v>
       </c>
       <c r="Q746" t="n">
         <v>18</v>
@@ -54117,7 +54117,7 @@
         </is>
       </c>
       <c r="D747" s="2" t="n">
-        <v>44251</v>
+        <v>44438</v>
       </c>
       <c r="E747" t="n">
         <v>13</v>
@@ -54132,25 +54132,25 @@
       </c>
       <c r="H747" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I747" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J747" t="n">
-        <v>160</v>
+        <v>630</v>
       </c>
       <c r="K747" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L747" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="M747" t="n">
-        <v>8000</v>
+        <v>6222</v>
       </c>
       <c r="N747" t="inlineStr">
         <is>
@@ -54159,11 +54159,11 @@
       </c>
       <c r="O747" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P747" t="n">
-        <v>444</v>
+        <v>346</v>
       </c>
       <c r="Q747" t="n">
         <v>18</v>
@@ -54189,7 +54189,7 @@
         </is>
       </c>
       <c r="D748" s="2" t="n">
-        <v>44251</v>
+        <v>44438</v>
       </c>
       <c r="E748" t="n">
         <v>13</v>
@@ -54204,25 +54204,25 @@
       </c>
       <c r="H748" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I748" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J748" t="n">
-        <v>210</v>
+        <v>560</v>
       </c>
       <c r="K748" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="L748" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="M748" t="n">
-        <v>6000</v>
+        <v>4804</v>
       </c>
       <c r="N748" t="inlineStr">
         <is>
@@ -54231,11 +54231,11 @@
       </c>
       <c r="O748" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P748" t="n">
-        <v>333</v>
+        <v>267</v>
       </c>
       <c r="Q748" t="n">
         <v>18</v>
@@ -54276,25 +54276,25 @@
       </c>
       <c r="H749" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I749" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J749" t="n">
-        <v>200</v>
+        <v>420</v>
       </c>
       <c r="K749" t="n">
-        <v>4000</v>
+        <v>12000</v>
       </c>
       <c r="L749" t="n">
-        <v>4000</v>
+        <v>13000</v>
       </c>
       <c r="M749" t="n">
-        <v>4000</v>
+        <v>12429</v>
       </c>
       <c r="N749" t="inlineStr">
         <is>
@@ -54303,11 +54303,11 @@
       </c>
       <c r="O749" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P749" t="n">
-        <v>222</v>
+        <v>690</v>
       </c>
       <c r="Q749" t="n">
         <v>18</v>
@@ -54333,7 +54333,7 @@
         </is>
       </c>
       <c r="D750" s="2" t="n">
-        <v>44428</v>
+        <v>44251</v>
       </c>
       <c r="E750" t="n">
         <v>13</v>
@@ -54353,20 +54353,20 @@
       </c>
       <c r="I750" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J750" t="n">
-        <v>580</v>
+        <v>680</v>
       </c>
       <c r="K750" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="L750" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M750" t="n">
-        <v>6517</v>
+        <v>9559</v>
       </c>
       <c r="N750" t="inlineStr">
         <is>
@@ -54379,7 +54379,7 @@
         </is>
       </c>
       <c r="P750" t="n">
-        <v>362</v>
+        <v>531</v>
       </c>
       <c r="Q750" t="n">
         <v>18</v>
@@ -54405,7 +54405,7 @@
         </is>
       </c>
       <c r="D751" s="2" t="n">
-        <v>44428</v>
+        <v>44251</v>
       </c>
       <c r="E751" t="n">
         <v>13</v>
@@ -54425,20 +54425,20 @@
       </c>
       <c r="I751" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J751" t="n">
-        <v>1040</v>
+        <v>460</v>
       </c>
       <c r="K751" t="n">
-        <v>11000</v>
+        <v>6500</v>
       </c>
       <c r="L751" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="M751" t="n">
-        <v>11538</v>
+        <v>6772</v>
       </c>
       <c r="N751" t="inlineStr">
         <is>
@@ -54447,11 +54447,11 @@
       </c>
       <c r="O751" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P751" t="n">
-        <v>641</v>
+        <v>376</v>
       </c>
       <c r="Q751" t="n">
         <v>18</v>
@@ -54477,7 +54477,7 @@
         </is>
       </c>
       <c r="D752" s="2" t="n">
-        <v>44428</v>
+        <v>44251</v>
       </c>
       <c r="E752" t="n">
         <v>13</v>
@@ -54492,25 +54492,25 @@
       </c>
       <c r="H752" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I752" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J752" t="n">
-        <v>480</v>
+        <v>160</v>
       </c>
       <c r="K752" t="n">
-        <v>4500</v>
+        <v>8000</v>
       </c>
       <c r="L752" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="M752" t="n">
-        <v>4781</v>
+        <v>8000</v>
       </c>
       <c r="N752" t="inlineStr">
         <is>
@@ -54519,11 +54519,11 @@
       </c>
       <c r="O752" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P752" t="n">
-        <v>266</v>
+        <v>444</v>
       </c>
       <c r="Q752" t="n">
         <v>18</v>
@@ -54549,7 +54549,7 @@
         </is>
       </c>
       <c r="D753" s="2" t="n">
-        <v>44428</v>
+        <v>44251</v>
       </c>
       <c r="E753" t="n">
         <v>13</v>
@@ -54564,7 +54564,7 @@
       </c>
       <c r="H753" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I753" t="inlineStr">
@@ -54573,16 +54573,16 @@
         </is>
       </c>
       <c r="J753" t="n">
-        <v>1020</v>
+        <v>210</v>
       </c>
       <c r="K753" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L753" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="M753" t="n">
-        <v>8549</v>
+        <v>6000</v>
       </c>
       <c r="N753" t="inlineStr">
         <is>
@@ -54591,11 +54591,11 @@
       </c>
       <c r="O753" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P753" t="n">
-        <v>475</v>
+        <v>333</v>
       </c>
       <c r="Q753" t="n">
         <v>18</v>
@@ -54621,7 +54621,7 @@
         </is>
       </c>
       <c r="D754" s="2" t="n">
-        <v>44428</v>
+        <v>44251</v>
       </c>
       <c r="E754" t="n">
         <v>13</v>
@@ -54636,7 +54636,7 @@
       </c>
       <c r="H754" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I754" t="inlineStr">
@@ -54645,16 +54645,16 @@
         </is>
       </c>
       <c r="J754" t="n">
-        <v>290</v>
+        <v>200</v>
       </c>
       <c r="K754" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="L754" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="M754" t="n">
-        <v>6621</v>
+        <v>4000</v>
       </c>
       <c r="N754" t="inlineStr">
         <is>
@@ -54663,11 +54663,11 @@
       </c>
       <c r="O754" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P754" t="n">
-        <v>368</v>
+        <v>222</v>
       </c>
       <c r="Q754" t="n">
         <v>18</v>
@@ -54693,7 +54693,7 @@
         </is>
       </c>
       <c r="D755" s="2" t="n">
-        <v>44442</v>
+        <v>44428</v>
       </c>
       <c r="E755" t="n">
         <v>13</v>
@@ -54713,20 +54713,20 @@
       </c>
       <c r="I755" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J755" t="n">
-        <v>730</v>
+        <v>580</v>
       </c>
       <c r="K755" t="n">
-        <v>18000</v>
+        <v>6000</v>
       </c>
       <c r="L755" t="n">
-        <v>19000</v>
+        <v>7000</v>
       </c>
       <c r="M755" t="n">
-        <v>18521</v>
+        <v>6517</v>
       </c>
       <c r="N755" t="inlineStr">
         <is>
@@ -54735,11 +54735,11 @@
       </c>
       <c r="O755" t="inlineStr">
         <is>
-          <t>Provincia de Copiapó</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P755" t="n">
-        <v>1029</v>
+        <v>362</v>
       </c>
       <c r="Q755" t="n">
         <v>18</v>
@@ -54765,7 +54765,7 @@
         </is>
       </c>
       <c r="D756" s="2" t="n">
-        <v>44442</v>
+        <v>44428</v>
       </c>
       <c r="E756" t="n">
         <v>13</v>
@@ -54785,20 +54785,20 @@
       </c>
       <c r="I756" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J756" t="n">
-        <v>1180</v>
+        <v>1040</v>
       </c>
       <c r="K756" t="n">
-        <v>20000</v>
+        <v>11000</v>
       </c>
       <c r="L756" t="n">
-        <v>21000</v>
+        <v>12000</v>
       </c>
       <c r="M756" t="n">
-        <v>20492</v>
+        <v>11538</v>
       </c>
       <c r="N756" t="inlineStr">
         <is>
@@ -54811,7 +54811,7 @@
         </is>
       </c>
       <c r="P756" t="n">
-        <v>1138</v>
+        <v>641</v>
       </c>
       <c r="Q756" t="n">
         <v>18</v>
@@ -54837,7 +54837,7 @@
         </is>
       </c>
       <c r="D757" s="2" t="n">
-        <v>44435</v>
+        <v>44428</v>
       </c>
       <c r="E757" t="n">
         <v>13</v>
@@ -54857,20 +54857,20 @@
       </c>
       <c r="I757" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J757" t="n">
-        <v>4470</v>
+        <v>480</v>
       </c>
       <c r="K757" t="n">
-        <v>11000</v>
+        <v>4500</v>
       </c>
       <c r="L757" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="M757" t="n">
-        <v>11535</v>
+        <v>4781</v>
       </c>
       <c r="N757" t="inlineStr">
         <is>
@@ -54879,11 +54879,11 @@
       </c>
       <c r="O757" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P757" t="n">
-        <v>641</v>
+        <v>266</v>
       </c>
       <c r="Q757" t="n">
         <v>18</v>
@@ -54909,7 +54909,7 @@
         </is>
       </c>
       <c r="D758" s="2" t="n">
-        <v>44435</v>
+        <v>44428</v>
       </c>
       <c r="E758" t="n">
         <v>13</v>
@@ -54933,16 +54933,16 @@
         </is>
       </c>
       <c r="J758" t="n">
-        <v>1240</v>
+        <v>1020</v>
       </c>
       <c r="K758" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="L758" t="n">
-        <v>5500</v>
+        <v>9000</v>
       </c>
       <c r="M758" t="n">
-        <v>5226</v>
+        <v>8549</v>
       </c>
       <c r="N758" t="inlineStr">
         <is>
@@ -54951,11 +54951,11 @@
       </c>
       <c r="O758" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P758" t="n">
-        <v>290</v>
+        <v>475</v>
       </c>
       <c r="Q758" t="n">
         <v>18</v>
@@ -54981,7 +54981,7 @@
         </is>
       </c>
       <c r="D759" s="2" t="n">
-        <v>44435</v>
+        <v>44428</v>
       </c>
       <c r="E759" t="n">
         <v>13</v>
@@ -55001,20 +55001,20 @@
       </c>
       <c r="I759" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J759" t="n">
-        <v>1920</v>
+        <v>290</v>
       </c>
       <c r="K759" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L759" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M759" t="n">
-        <v>5479</v>
+        <v>6621</v>
       </c>
       <c r="N759" t="inlineStr">
         <is>
@@ -55023,11 +55023,11 @@
       </c>
       <c r="O759" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P759" t="n">
-        <v>304</v>
+        <v>368</v>
       </c>
       <c r="Q759" t="n">
         <v>18</v>
@@ -55053,7 +55053,7 @@
         </is>
       </c>
       <c r="D760" s="2" t="n">
-        <v>44435</v>
+        <v>44442</v>
       </c>
       <c r="E760" t="n">
         <v>13</v>
@@ -55077,16 +55077,16 @@
         </is>
       </c>
       <c r="J760" t="n">
-        <v>4400</v>
+        <v>730</v>
       </c>
       <c r="K760" t="n">
-        <v>8000</v>
+        <v>18000</v>
       </c>
       <c r="L760" t="n">
-        <v>10000</v>
+        <v>19000</v>
       </c>
       <c r="M760" t="n">
-        <v>9295</v>
+        <v>18521</v>
       </c>
       <c r="N760" t="inlineStr">
         <is>
@@ -55095,11 +55095,11 @@
       </c>
       <c r="O760" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Copiapó</t>
         </is>
       </c>
       <c r="P760" t="n">
-        <v>516</v>
+        <v>1029</v>
       </c>
       <c r="Q760" t="n">
         <v>18</v>
@@ -55125,7 +55125,7 @@
         </is>
       </c>
       <c r="D761" s="2" t="n">
-        <v>44435</v>
+        <v>44442</v>
       </c>
       <c r="E761" t="n">
         <v>13</v>
@@ -55152,13 +55152,13 @@
         <v>1180</v>
       </c>
       <c r="K761" t="n">
-        <v>3000</v>
+        <v>20000</v>
       </c>
       <c r="L761" t="n">
-        <v>3500</v>
+        <v>21000</v>
       </c>
       <c r="M761" t="n">
-        <v>3280</v>
+        <v>20492</v>
       </c>
       <c r="N761" t="inlineStr">
         <is>
@@ -55167,11 +55167,11 @@
       </c>
       <c r="O761" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P761" t="n">
-        <v>182</v>
+        <v>1138</v>
       </c>
       <c r="Q761" t="n">
         <v>18</v>
@@ -55217,20 +55217,20 @@
       </c>
       <c r="I762" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J762" t="n">
-        <v>1560</v>
+        <v>4470</v>
       </c>
       <c r="K762" t="n">
-        <v>3000</v>
+        <v>11000</v>
       </c>
       <c r="L762" t="n">
-        <v>4000</v>
+        <v>12000</v>
       </c>
       <c r="M762" t="n">
-        <v>3558</v>
+        <v>11535</v>
       </c>
       <c r="N762" t="inlineStr">
         <is>
@@ -55239,11 +55239,11 @@
       </c>
       <c r="O762" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P762" t="n">
-        <v>198</v>
+        <v>641</v>
       </c>
       <c r="Q762" t="n">
         <v>18</v>
@@ -55289,20 +55289,20 @@
       </c>
       <c r="I763" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J763" t="n">
-        <v>2300</v>
+        <v>1240</v>
       </c>
       <c r="K763" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="L763" t="n">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="M763" t="n">
-        <v>6539</v>
+        <v>5226</v>
       </c>
       <c r="N763" t="inlineStr">
         <is>
@@ -55311,11 +55311,11 @@
       </c>
       <c r="O763" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P763" t="n">
-        <v>363</v>
+        <v>290</v>
       </c>
       <c r="Q763" t="n">
         <v>18</v>
@@ -55361,20 +55361,20 @@
       </c>
       <c r="I764" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J764" t="n">
-        <v>780</v>
+        <v>1920</v>
       </c>
       <c r="K764" t="n">
+        <v>5000</v>
+      </c>
+      <c r="L764" t="n">
         <v>6000</v>
       </c>
-      <c r="L764" t="n">
-        <v>7000</v>
-      </c>
       <c r="M764" t="n">
-        <v>6487</v>
+        <v>5479</v>
       </c>
       <c r="N764" t="inlineStr">
         <is>
@@ -55383,11 +55383,11 @@
       </c>
       <c r="O764" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P764" t="n">
-        <v>360</v>
+        <v>304</v>
       </c>
       <c r="Q764" t="n">
         <v>18</v>
@@ -55413,7 +55413,7 @@
         </is>
       </c>
       <c r="D765" s="2" t="n">
-        <v>44319</v>
+        <v>44435</v>
       </c>
       <c r="E765" t="n">
         <v>13</v>
@@ -55433,20 +55433,20 @@
       </c>
       <c r="I765" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J765" t="n">
-        <v>430</v>
+        <v>4400</v>
       </c>
       <c r="K765" t="n">
+        <v>8000</v>
+      </c>
+      <c r="L765" t="n">
         <v>10000</v>
       </c>
-      <c r="L765" t="n">
-        <v>11000</v>
-      </c>
       <c r="M765" t="n">
-        <v>10581</v>
+        <v>9295</v>
       </c>
       <c r="N765" t="inlineStr">
         <is>
@@ -55455,11 +55455,11 @@
       </c>
       <c r="O765" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P765" t="n">
-        <v>588</v>
+        <v>516</v>
       </c>
       <c r="Q765" t="n">
         <v>18</v>
@@ -55485,7 +55485,7 @@
         </is>
       </c>
       <c r="D766" s="2" t="n">
-        <v>44319</v>
+        <v>44435</v>
       </c>
       <c r="E766" t="n">
         <v>13</v>
@@ -55505,20 +55505,20 @@
       </c>
       <c r="I766" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J766" t="n">
-        <v>500</v>
+        <v>1180</v>
       </c>
       <c r="K766" t="n">
-        <v>8500</v>
+        <v>3000</v>
       </c>
       <c r="L766" t="n">
-        <v>9000</v>
+        <v>3500</v>
       </c>
       <c r="M766" t="n">
-        <v>8780</v>
+        <v>3280</v>
       </c>
       <c r="N766" t="inlineStr">
         <is>
@@ -55527,11 +55527,11 @@
       </c>
       <c r="O766" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P766" t="n">
-        <v>488</v>
+        <v>182</v>
       </c>
       <c r="Q766" t="n">
         <v>18</v>
@@ -55557,7 +55557,7 @@
         </is>
       </c>
       <c r="D767" s="2" t="n">
-        <v>44319</v>
+        <v>44435</v>
       </c>
       <c r="E767" t="n">
         <v>13</v>
@@ -55581,16 +55581,16 @@
         </is>
       </c>
       <c r="J767" t="n">
-        <v>370</v>
+        <v>1560</v>
       </c>
       <c r="K767" t="n">
-        <v>5500</v>
+        <v>3000</v>
       </c>
       <c r="L767" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="M767" t="n">
-        <v>5730</v>
+        <v>3558</v>
       </c>
       <c r="N767" t="inlineStr">
         <is>
@@ -55599,11 +55599,11 @@
       </c>
       <c r="O767" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P767" t="n">
-        <v>318</v>
+        <v>198</v>
       </c>
       <c r="Q767" t="n">
         <v>18</v>
@@ -55629,7 +55629,7 @@
         </is>
       </c>
       <c r="D768" s="2" t="n">
-        <v>44175</v>
+        <v>44435</v>
       </c>
       <c r="E768" t="n">
         <v>13</v>
@@ -55649,20 +55649,20 @@
       </c>
       <c r="I768" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J768" t="n">
-        <v>1080</v>
+        <v>2300</v>
       </c>
       <c r="K768" t="n">
-        <v>9500</v>
+        <v>6000</v>
       </c>
       <c r="L768" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="M768" t="n">
-        <v>9778</v>
+        <v>6539</v>
       </c>
       <c r="N768" t="inlineStr">
         <is>
@@ -55671,11 +55671,11 @@
       </c>
       <c r="O768" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P768" t="n">
-        <v>543</v>
+        <v>363</v>
       </c>
       <c r="Q768" t="n">
         <v>18</v>
@@ -55701,7 +55701,7 @@
         </is>
       </c>
       <c r="D769" s="2" t="n">
-        <v>44175</v>
+        <v>44435</v>
       </c>
       <c r="E769" t="n">
         <v>13</v>
@@ -55721,20 +55721,20 @@
       </c>
       <c r="I769" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J769" t="n">
-        <v>1280</v>
+        <v>780</v>
       </c>
       <c r="K769" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L769" t="n">
         <v>7000</v>
       </c>
-      <c r="L769" t="n">
-        <v>7500</v>
-      </c>
       <c r="M769" t="n">
-        <v>7266</v>
+        <v>6487</v>
       </c>
       <c r="N769" t="inlineStr">
         <is>
@@ -55743,11 +55743,11 @@
       </c>
       <c r="O769" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P769" t="n">
-        <v>404</v>
+        <v>360</v>
       </c>
       <c r="Q769" t="n">
         <v>18</v>
@@ -55773,7 +55773,7 @@
         </is>
       </c>
       <c r="D770" s="2" t="n">
-        <v>44175</v>
+        <v>44319</v>
       </c>
       <c r="E770" t="n">
         <v>13</v>
@@ -55793,20 +55793,20 @@
       </c>
       <c r="I770" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J770" t="n">
-        <v>880</v>
+        <v>430</v>
       </c>
       <c r="K770" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="L770" t="n">
-        <v>5500</v>
+        <v>11000</v>
       </c>
       <c r="M770" t="n">
-        <v>5273</v>
+        <v>10581</v>
       </c>
       <c r="N770" t="inlineStr">
         <is>
@@ -55815,11 +55815,11 @@
       </c>
       <c r="O770" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P770" t="n">
-        <v>293</v>
+        <v>588</v>
       </c>
       <c r="Q770" t="n">
         <v>18</v>
@@ -55845,7 +55845,7 @@
         </is>
       </c>
       <c r="D771" s="2" t="n">
-        <v>44376</v>
+        <v>44319</v>
       </c>
       <c r="E771" t="n">
         <v>13</v>
@@ -55865,20 +55865,20 @@
       </c>
       <c r="I771" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J771" t="n">
-        <v>470</v>
+        <v>500</v>
       </c>
       <c r="K771" t="n">
-        <v>7000</v>
+        <v>8500</v>
       </c>
       <c r="L771" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="M771" t="n">
-        <v>7234</v>
+        <v>8780</v>
       </c>
       <c r="N771" t="inlineStr">
         <is>
@@ -55887,11 +55887,11 @@
       </c>
       <c r="O771" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P771" t="n">
-        <v>402</v>
+        <v>488</v>
       </c>
       <c r="Q771" t="n">
         <v>18</v>
@@ -55917,7 +55917,7 @@
         </is>
       </c>
       <c r="D772" s="2" t="n">
-        <v>44376</v>
+        <v>44319</v>
       </c>
       <c r="E772" t="n">
         <v>13</v>
@@ -55937,20 +55937,20 @@
       </c>
       <c r="I772" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J772" t="n">
-        <v>450</v>
+        <v>370</v>
       </c>
       <c r="K772" t="n">
-        <v>9500</v>
+        <v>5500</v>
       </c>
       <c r="L772" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="M772" t="n">
-        <v>9722</v>
+        <v>5730</v>
       </c>
       <c r="N772" t="inlineStr">
         <is>
@@ -55959,11 +55959,11 @@
       </c>
       <c r="O772" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P772" t="n">
-        <v>540</v>
+        <v>318</v>
       </c>
       <c r="Q772" t="n">
         <v>18</v>
@@ -55989,7 +55989,7 @@
         </is>
       </c>
       <c r="D773" s="2" t="n">
-        <v>44376</v>
+        <v>44175</v>
       </c>
       <c r="E773" t="n">
         <v>13</v>
@@ -56009,20 +56009,20 @@
       </c>
       <c r="I773" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J773" t="n">
-        <v>550</v>
+        <v>1080</v>
       </c>
       <c r="K773" t="n">
-        <v>6000</v>
+        <v>9500</v>
       </c>
       <c r="L773" t="n">
-        <v>6500</v>
+        <v>10000</v>
       </c>
       <c r="M773" t="n">
-        <v>6227</v>
+        <v>9778</v>
       </c>
       <c r="N773" t="inlineStr">
         <is>
@@ -56035,7 +56035,7 @@
         </is>
       </c>
       <c r="P773" t="n">
-        <v>346</v>
+        <v>543</v>
       </c>
       <c r="Q773" t="n">
         <v>18</v>
@@ -56061,7 +56061,7 @@
         </is>
       </c>
       <c r="D774" s="2" t="n">
-        <v>44376</v>
+        <v>44175</v>
       </c>
       <c r="E774" t="n">
         <v>13</v>
@@ -56085,16 +56085,16 @@
         </is>
       </c>
       <c r="J774" t="n">
-        <v>780</v>
+        <v>1280</v>
       </c>
       <c r="K774" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L774" t="n">
-        <v>8500</v>
+        <v>7500</v>
       </c>
       <c r="M774" t="n">
-        <v>8244</v>
+        <v>7266</v>
       </c>
       <c r="N774" t="inlineStr">
         <is>
@@ -56103,11 +56103,11 @@
       </c>
       <c r="O774" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P774" t="n">
-        <v>458</v>
+        <v>404</v>
       </c>
       <c r="Q774" t="n">
         <v>18</v>
@@ -56133,7 +56133,7 @@
         </is>
       </c>
       <c r="D775" s="2" t="n">
-        <v>44376</v>
+        <v>44175</v>
       </c>
       <c r="E775" t="n">
         <v>13</v>
@@ -56157,7 +56157,7 @@
         </is>
       </c>
       <c r="J775" t="n">
-        <v>380</v>
+        <v>880</v>
       </c>
       <c r="K775" t="n">
         <v>5000</v>
@@ -56166,7 +56166,7 @@
         <v>5500</v>
       </c>
       <c r="M775" t="n">
-        <v>5237</v>
+        <v>5273</v>
       </c>
       <c r="N775" t="inlineStr">
         <is>
@@ -56179,7 +56179,7 @@
         </is>
       </c>
       <c r="P775" t="n">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Q775" t="n">
         <v>18</v>
@@ -56225,11 +56225,11 @@
       </c>
       <c r="I776" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J776" t="n">
-        <v>580</v>
+        <v>470</v>
       </c>
       <c r="K776" t="n">
         <v>7000</v>
@@ -56238,7 +56238,7 @@
         <v>7500</v>
       </c>
       <c r="M776" t="n">
-        <v>7276</v>
+        <v>7234</v>
       </c>
       <c r="N776" t="inlineStr">
         <is>
@@ -56247,11 +56247,11 @@
       </c>
       <c r="O776" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P776" t="n">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="Q776" t="n">
         <v>18</v>
@@ -56277,7 +56277,7 @@
         </is>
       </c>
       <c r="D777" s="2" t="n">
-        <v>44279</v>
+        <v>44376</v>
       </c>
       <c r="E777" t="n">
         <v>13</v>
@@ -56297,20 +56297,20 @@
       </c>
       <c r="I777" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J777" t="n">
-        <v>580</v>
+        <v>450</v>
       </c>
       <c r="K777" t="n">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="L777" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M777" t="n">
-        <v>8000</v>
+        <v>9722</v>
       </c>
       <c r="N777" t="inlineStr">
         <is>
@@ -56319,11 +56319,11 @@
       </c>
       <c r="O777" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P777" t="n">
-        <v>444</v>
+        <v>540</v>
       </c>
       <c r="Q777" t="n">
         <v>18</v>
@@ -56349,7 +56349,7 @@
         </is>
       </c>
       <c r="D778" s="2" t="n">
-        <v>44279</v>
+        <v>44376</v>
       </c>
       <c r="E778" t="n">
         <v>13</v>
@@ -56369,20 +56369,20 @@
       </c>
       <c r="I778" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J778" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="K778" t="n">
         <v>6000</v>
       </c>
       <c r="L778" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="M778" t="n">
-        <v>6000</v>
+        <v>6227</v>
       </c>
       <c r="N778" t="inlineStr">
         <is>
@@ -56395,7 +56395,7 @@
         </is>
       </c>
       <c r="P778" t="n">
-        <v>333</v>
+        <v>346</v>
       </c>
       <c r="Q778" t="n">
         <v>18</v>
@@ -56421,7 +56421,7 @@
         </is>
       </c>
       <c r="D779" s="2" t="n">
-        <v>44279</v>
+        <v>44376</v>
       </c>
       <c r="E779" t="n">
         <v>13</v>
@@ -56441,20 +56441,20 @@
       </c>
       <c r="I779" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J779" t="n">
-        <v>470</v>
+        <v>780</v>
       </c>
       <c r="K779" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="L779" t="n">
-        <v>4000</v>
+        <v>8500</v>
       </c>
       <c r="M779" t="n">
-        <v>4000</v>
+        <v>8244</v>
       </c>
       <c r="N779" t="inlineStr">
         <is>
@@ -56463,11 +56463,11 @@
       </c>
       <c r="O779" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P779" t="n">
-        <v>222</v>
+        <v>458</v>
       </c>
       <c r="Q779" t="n">
         <v>18</v>
@@ -56493,7 +56493,7 @@
         </is>
       </c>
       <c r="D780" s="2" t="n">
-        <v>44279</v>
+        <v>44376</v>
       </c>
       <c r="E780" t="n">
         <v>13</v>
@@ -56508,25 +56508,25 @@
       </c>
       <c r="H780" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I780" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J780" t="n">
-        <v>220</v>
+        <v>380</v>
       </c>
       <c r="K780" t="n">
         <v>5000</v>
       </c>
       <c r="L780" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="M780" t="n">
-        <v>5000</v>
+        <v>5237</v>
       </c>
       <c r="N780" t="inlineStr">
         <is>
@@ -56535,11 +56535,11 @@
       </c>
       <c r="O780" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P780" t="n">
-        <v>278</v>
+        <v>291</v>
       </c>
       <c r="Q780" t="n">
         <v>18</v>
@@ -56565,7 +56565,7 @@
         </is>
       </c>
       <c r="D781" s="2" t="n">
-        <v>44279</v>
+        <v>44376</v>
       </c>
       <c r="E781" t="n">
         <v>13</v>
@@ -56580,25 +56580,25 @@
       </c>
       <c r="H781" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I781" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J781" t="n">
-        <v>300</v>
+        <v>580</v>
       </c>
       <c r="K781" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="L781" t="n">
-        <v>4000</v>
+        <v>7500</v>
       </c>
       <c r="M781" t="n">
-        <v>4000</v>
+        <v>7276</v>
       </c>
       <c r="N781" t="inlineStr">
         <is>
@@ -56607,11 +56607,11 @@
       </c>
       <c r="O781" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P781" t="n">
-        <v>222</v>
+        <v>404</v>
       </c>
       <c r="Q781" t="n">
         <v>18</v>
@@ -56652,25 +56652,25 @@
       </c>
       <c r="H782" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I782" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J782" t="n">
-        <v>200</v>
+        <v>580</v>
       </c>
       <c r="K782" t="n">
-        <v>2500</v>
+        <v>8000</v>
       </c>
       <c r="L782" t="n">
-        <v>2500</v>
+        <v>8000</v>
       </c>
       <c r="M782" t="n">
-        <v>2500</v>
+        <v>8000</v>
       </c>
       <c r="N782" t="inlineStr">
         <is>
@@ -56679,11 +56679,11 @@
       </c>
       <c r="O782" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P782" t="n">
-        <v>139</v>
+        <v>444</v>
       </c>
       <c r="Q782" t="n">
         <v>18</v>
@@ -56709,7 +56709,7 @@
         </is>
       </c>
       <c r="D783" s="2" t="n">
-        <v>44412</v>
+        <v>44279</v>
       </c>
       <c r="E783" t="n">
         <v>13</v>
@@ -56729,20 +56729,20 @@
       </c>
       <c r="I783" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J783" t="n">
-        <v>1040</v>
+        <v>650</v>
       </c>
       <c r="K783" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="L783" t="n">
-        <v>13000</v>
+        <v>6000</v>
       </c>
       <c r="M783" t="n">
-        <v>12462</v>
+        <v>6000</v>
       </c>
       <c r="N783" t="inlineStr">
         <is>
@@ -56751,11 +56751,11 @@
       </c>
       <c r="O783" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P783" t="n">
-        <v>692</v>
+        <v>333</v>
       </c>
       <c r="Q783" t="n">
         <v>18</v>
@@ -56781,7 +56781,7 @@
         </is>
       </c>
       <c r="D784" s="2" t="n">
-        <v>44412</v>
+        <v>44279</v>
       </c>
       <c r="E784" t="n">
         <v>13</v>
@@ -56801,20 +56801,20 @@
       </c>
       <c r="I784" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J784" t="n">
-        <v>440</v>
+        <v>470</v>
       </c>
       <c r="K784" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="L784" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="M784" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="N784" t="inlineStr">
         <is>
@@ -56827,7 +56827,7 @@
         </is>
       </c>
       <c r="P784" t="n">
-        <v>389</v>
+        <v>222</v>
       </c>
       <c r="Q784" t="n">
         <v>18</v>
@@ -56853,7 +56853,7 @@
         </is>
       </c>
       <c r="D785" s="2" t="n">
-        <v>44412</v>
+        <v>44279</v>
       </c>
       <c r="E785" t="n">
         <v>13</v>
@@ -56868,25 +56868,25 @@
       </c>
       <c r="H785" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I785" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J785" t="n">
-        <v>820</v>
+        <v>220</v>
       </c>
       <c r="K785" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="L785" t="n">
-        <v>11000</v>
+        <v>5000</v>
       </c>
       <c r="M785" t="n">
-        <v>10537</v>
+        <v>5000</v>
       </c>
       <c r="N785" t="inlineStr">
         <is>
@@ -56895,11 +56895,11 @@
       </c>
       <c r="O785" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P785" t="n">
-        <v>585</v>
+        <v>278</v>
       </c>
       <c r="Q785" t="n">
         <v>18</v>
@@ -56925,7 +56925,7 @@
         </is>
       </c>
       <c r="D786" s="2" t="n">
-        <v>44412</v>
+        <v>44279</v>
       </c>
       <c r="E786" t="n">
         <v>13</v>
@@ -56940,25 +56940,25 @@
       </c>
       <c r="H786" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I786" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J786" t="n">
-        <v>380</v>
+        <v>300</v>
       </c>
       <c r="K786" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="L786" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="M786" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="N786" t="inlineStr">
         <is>
@@ -56967,11 +56967,11 @@
       </c>
       <c r="O786" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P786" t="n">
-        <v>278</v>
+        <v>222</v>
       </c>
       <c r="Q786" t="n">
         <v>18</v>
@@ -56997,7 +56997,7 @@
         </is>
       </c>
       <c r="D787" s="2" t="n">
-        <v>44412</v>
+        <v>44279</v>
       </c>
       <c r="E787" t="n">
         <v>13</v>
@@ -57012,7 +57012,7 @@
       </c>
       <c r="H787" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I787" t="inlineStr">
@@ -57021,16 +57021,16 @@
         </is>
       </c>
       <c r="J787" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="K787" t="n">
-        <v>6000</v>
+        <v>2500</v>
       </c>
       <c r="L787" t="n">
-        <v>7000</v>
+        <v>2500</v>
       </c>
       <c r="M787" t="n">
-        <v>6400</v>
+        <v>2500</v>
       </c>
       <c r="N787" t="inlineStr">
         <is>
@@ -57039,11 +57039,11 @@
       </c>
       <c r="O787" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P787" t="n">
-        <v>356</v>
+        <v>139</v>
       </c>
       <c r="Q787" t="n">
         <v>18</v>
@@ -57069,7 +57069,7 @@
         </is>
       </c>
       <c r="D788" s="2" t="n">
-        <v>44223</v>
+        <v>44412</v>
       </c>
       <c r="E788" t="n">
         <v>13</v>
@@ -57093,7 +57093,7 @@
         </is>
       </c>
       <c r="J788" t="n">
-        <v>820</v>
+        <v>1040</v>
       </c>
       <c r="K788" t="n">
         <v>12000</v>
@@ -57102,7 +57102,7 @@
         <v>13000</v>
       </c>
       <c r="M788" t="n">
-        <v>12463</v>
+        <v>12462</v>
       </c>
       <c r="N788" t="inlineStr">
         <is>
@@ -57111,7 +57111,7 @@
       </c>
       <c r="O788" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P788" t="n">
@@ -57141,7 +57141,7 @@
         </is>
       </c>
       <c r="D789" s="2" t="n">
-        <v>44223</v>
+        <v>44412</v>
       </c>
       <c r="E789" t="n">
         <v>13</v>
@@ -57165,16 +57165,16 @@
         </is>
       </c>
       <c r="J789" t="n">
-        <v>930</v>
+        <v>440</v>
       </c>
       <c r="K789" t="n">
-        <v>9500</v>
+        <v>7000</v>
       </c>
       <c r="L789" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="M789" t="n">
-        <v>9769</v>
+        <v>7000</v>
       </c>
       <c r="N789" t="inlineStr">
         <is>
@@ -57183,11 +57183,11 @@
       </c>
       <c r="O789" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P789" t="n">
-        <v>543</v>
+        <v>389</v>
       </c>
       <c r="Q789" t="n">
         <v>18</v>
@@ -57213,7 +57213,7 @@
         </is>
       </c>
       <c r="D790" s="2" t="n">
-        <v>44223</v>
+        <v>44412</v>
       </c>
       <c r="E790" t="n">
         <v>13</v>
@@ -57233,20 +57233,20 @@
       </c>
       <c r="I790" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J790" t="n">
-        <v>570</v>
+        <v>820</v>
       </c>
       <c r="K790" t="n">
-        <v>7500</v>
+        <v>10000</v>
       </c>
       <c r="L790" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="M790" t="n">
-        <v>7807</v>
+        <v>10537</v>
       </c>
       <c r="N790" t="inlineStr">
         <is>
@@ -57255,11 +57255,11 @@
       </c>
       <c r="O790" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P790" t="n">
-        <v>434</v>
+        <v>585</v>
       </c>
       <c r="Q790" t="n">
         <v>18</v>
@@ -57285,7 +57285,7 @@
         </is>
       </c>
       <c r="D791" s="2" t="n">
-        <v>44223</v>
+        <v>44412</v>
       </c>
       <c r="E791" t="n">
         <v>13</v>
@@ -57300,25 +57300,25 @@
       </c>
       <c r="H791" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I791" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J791" t="n">
-        <v>360</v>
+        <v>380</v>
       </c>
       <c r="K791" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="L791" t="n">
-        <v>8500</v>
+        <v>5000</v>
       </c>
       <c r="M791" t="n">
-        <v>8222</v>
+        <v>5000</v>
       </c>
       <c r="N791" t="inlineStr">
         <is>
@@ -57327,11 +57327,11 @@
       </c>
       <c r="O791" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P791" t="n">
-        <v>457</v>
+        <v>278</v>
       </c>
       <c r="Q791" t="n">
         <v>18</v>
@@ -57357,7 +57357,7 @@
         </is>
       </c>
       <c r="D792" s="2" t="n">
-        <v>44223</v>
+        <v>44412</v>
       </c>
       <c r="E792" t="n">
         <v>13</v>
@@ -57372,25 +57372,25 @@
       </c>
       <c r="H792" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I792" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J792" t="n">
-        <v>490</v>
+        <v>500</v>
       </c>
       <c r="K792" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L792" t="n">
         <v>7000</v>
       </c>
-      <c r="L792" t="n">
-        <v>7500</v>
-      </c>
       <c r="M792" t="n">
-        <v>7214</v>
+        <v>6400</v>
       </c>
       <c r="N792" t="inlineStr">
         <is>
@@ -57399,11 +57399,11 @@
       </c>
       <c r="O792" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P792" t="n">
-        <v>401</v>
+        <v>356</v>
       </c>
       <c r="Q792" t="n">
         <v>18</v>
@@ -57444,25 +57444,25 @@
       </c>
       <c r="H793" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I793" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J793" t="n">
-        <v>370</v>
+        <v>820</v>
       </c>
       <c r="K793" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="L793" t="n">
-        <v>5500</v>
+        <v>13000</v>
       </c>
       <c r="M793" t="n">
-        <v>5230</v>
+        <v>12463</v>
       </c>
       <c r="N793" t="inlineStr">
         <is>
@@ -57471,11 +57471,11 @@
       </c>
       <c r="O793" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P793" t="n">
-        <v>291</v>
+        <v>692</v>
       </c>
       <c r="Q793" t="n">
         <v>18</v>
@@ -57501,7 +57501,7 @@
         </is>
       </c>
       <c r="D794" s="2" t="n">
-        <v>44314</v>
+        <v>44223</v>
       </c>
       <c r="E794" t="n">
         <v>13</v>
@@ -57521,11 +57521,11 @@
       </c>
       <c r="I794" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J794" t="n">
-        <v>830</v>
+        <v>930</v>
       </c>
       <c r="K794" t="n">
         <v>9500</v>
@@ -57534,7 +57534,7 @@
         <v>10000</v>
       </c>
       <c r="M794" t="n">
-        <v>9771</v>
+        <v>9769</v>
       </c>
       <c r="N794" t="inlineStr">
         <is>
@@ -57543,7 +57543,7 @@
       </c>
       <c r="O794" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P794" t="n">
@@ -57573,7 +57573,7 @@
         </is>
       </c>
       <c r="D795" s="2" t="n">
-        <v>44314</v>
+        <v>44223</v>
       </c>
       <c r="E795" t="n">
         <v>13</v>
@@ -57593,11 +57593,11 @@
       </c>
       <c r="I795" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J795" t="n">
-        <v>1000</v>
+        <v>570</v>
       </c>
       <c r="K795" t="n">
         <v>7500</v>
@@ -57606,7 +57606,7 @@
         <v>8000</v>
       </c>
       <c r="M795" t="n">
-        <v>7780</v>
+        <v>7807</v>
       </c>
       <c r="N795" t="inlineStr">
         <is>
@@ -57615,11 +57615,11 @@
       </c>
       <c r="O795" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P795" t="n">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="Q795" t="n">
         <v>18</v>
@@ -57645,7 +57645,7 @@
         </is>
       </c>
       <c r="D796" s="2" t="n">
-        <v>44314</v>
+        <v>44223</v>
       </c>
       <c r="E796" t="n">
         <v>13</v>
@@ -57660,25 +57660,25 @@
       </c>
       <c r="H796" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I796" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J796" t="n">
-        <v>880</v>
+        <v>360</v>
       </c>
       <c r="K796" t="n">
-        <v>4500</v>
+        <v>8000</v>
       </c>
       <c r="L796" t="n">
-        <v>5000</v>
+        <v>8500</v>
       </c>
       <c r="M796" t="n">
-        <v>4773</v>
+        <v>8222</v>
       </c>
       <c r="N796" t="inlineStr">
         <is>
@@ -57687,11 +57687,11 @@
       </c>
       <c r="O796" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P796" t="n">
-        <v>265</v>
+        <v>457</v>
       </c>
       <c r="Q796" t="n">
         <v>18</v>
@@ -57717,7 +57717,7 @@
         </is>
       </c>
       <c r="D797" s="2" t="n">
-        <v>44448</v>
+        <v>44223</v>
       </c>
       <c r="E797" t="n">
         <v>13</v>
@@ -57732,7 +57732,7 @@
       </c>
       <c r="H797" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I797" t="inlineStr">
@@ -57741,16 +57741,16 @@
         </is>
       </c>
       <c r="J797" t="n">
-        <v>580</v>
+        <v>490</v>
       </c>
       <c r="K797" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="L797" t="n">
-        <v>15000</v>
+        <v>7500</v>
       </c>
       <c r="M797" t="n">
-        <v>14517</v>
+        <v>7214</v>
       </c>
       <c r="N797" t="inlineStr">
         <is>
@@ -57759,11 +57759,11 @@
       </c>
       <c r="O797" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P797" t="n">
-        <v>806</v>
+        <v>401</v>
       </c>
       <c r="Q797" t="n">
         <v>18</v>
@@ -57789,7 +57789,7 @@
         </is>
       </c>
       <c r="D798" s="2" t="n">
-        <v>44448</v>
+        <v>44223</v>
       </c>
       <c r="E798" t="n">
         <v>13</v>
@@ -57804,7 +57804,7 @@
       </c>
       <c r="H798" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I798" t="inlineStr">
@@ -57813,16 +57813,16 @@
         </is>
       </c>
       <c r="J798" t="n">
-        <v>420</v>
+        <v>370</v>
       </c>
       <c r="K798" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="L798" t="n">
-        <v>11000</v>
+        <v>5500</v>
       </c>
       <c r="M798" t="n">
-        <v>10571</v>
+        <v>5230</v>
       </c>
       <c r="N798" t="inlineStr">
         <is>
@@ -57831,11 +57831,11 @@
       </c>
       <c r="O798" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P798" t="n">
-        <v>587</v>
+        <v>291</v>
       </c>
       <c r="Q798" t="n">
         <v>18</v>
@@ -57861,7 +57861,7 @@
         </is>
       </c>
       <c r="D799" s="2" t="n">
-        <v>44448</v>
+        <v>44314</v>
       </c>
       <c r="E799" t="n">
         <v>13</v>
@@ -57881,20 +57881,20 @@
       </c>
       <c r="I799" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J799" t="n">
-        <v>580</v>
+        <v>830</v>
       </c>
       <c r="K799" t="n">
-        <v>19000</v>
+        <v>9500</v>
       </c>
       <c r="L799" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="M799" t="n">
-        <v>19517</v>
+        <v>9771</v>
       </c>
       <c r="N799" t="inlineStr">
         <is>
@@ -57903,11 +57903,11 @@
       </c>
       <c r="O799" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P799" t="n">
-        <v>1084</v>
+        <v>543</v>
       </c>
       <c r="Q799" t="n">
         <v>18</v>
@@ -57933,7 +57933,7 @@
         </is>
       </c>
       <c r="D800" s="2" t="n">
-        <v>44167</v>
+        <v>44314</v>
       </c>
       <c r="E800" t="n">
         <v>13</v>
@@ -57953,20 +57953,20 @@
       </c>
       <c r="I800" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J800" t="n">
-        <v>1040</v>
+        <v>1000</v>
       </c>
       <c r="K800" t="n">
-        <v>12000</v>
+        <v>7500</v>
       </c>
       <c r="L800" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="M800" t="n">
-        <v>12538</v>
+        <v>7780</v>
       </c>
       <c r="N800" t="inlineStr">
         <is>
@@ -57979,7 +57979,7 @@
         </is>
       </c>
       <c r="P800" t="n">
-        <v>697</v>
+        <v>432</v>
       </c>
       <c r="Q800" t="n">
         <v>18</v>
@@ -58005,7 +58005,7 @@
         </is>
       </c>
       <c r="D801" s="2" t="n">
-        <v>44167</v>
+        <v>44314</v>
       </c>
       <c r="E801" t="n">
         <v>13</v>
@@ -58025,20 +58025,20 @@
       </c>
       <c r="I801" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J801" t="n">
-        <v>960</v>
+        <v>880</v>
       </c>
       <c r="K801" t="n">
-        <v>10000</v>
+        <v>4500</v>
       </c>
       <c r="L801" t="n">
-        <v>11000</v>
+        <v>5000</v>
       </c>
       <c r="M801" t="n">
-        <v>10583</v>
+        <v>4773</v>
       </c>
       <c r="N801" t="inlineStr">
         <is>
@@ -58051,7 +58051,7 @@
         </is>
       </c>
       <c r="P801" t="n">
-        <v>588</v>
+        <v>265</v>
       </c>
       <c r="Q801" t="n">
         <v>18</v>
@@ -58077,7 +58077,7 @@
         </is>
       </c>
       <c r="D802" s="2" t="n">
-        <v>44167</v>
+        <v>44448</v>
       </c>
       <c r="E802" t="n">
         <v>13</v>
@@ -58097,20 +58097,20 @@
       </c>
       <c r="I802" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J802" t="n">
-        <v>700</v>
+        <v>580</v>
       </c>
       <c r="K802" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="L802" t="n">
-        <v>7500</v>
+        <v>15000</v>
       </c>
       <c r="M802" t="n">
-        <v>7214</v>
+        <v>14517</v>
       </c>
       <c r="N802" t="inlineStr">
         <is>
@@ -58123,7 +58123,7 @@
         </is>
       </c>
       <c r="P802" t="n">
-        <v>401</v>
+        <v>806</v>
       </c>
       <c r="Q802" t="n">
         <v>18</v>
@@ -58149,7 +58149,7 @@
         </is>
       </c>
       <c r="D803" s="2" t="n">
-        <v>44167</v>
+        <v>44448</v>
       </c>
       <c r="E803" t="n">
         <v>13</v>
@@ -58169,20 +58169,20 @@
       </c>
       <c r="I803" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J803" t="n">
-        <v>550</v>
+        <v>420</v>
       </c>
       <c r="K803" t="n">
-        <v>4500</v>
+        <v>10000</v>
       </c>
       <c r="L803" t="n">
-        <v>5000</v>
+        <v>11000</v>
       </c>
       <c r="M803" t="n">
-        <v>4773</v>
+        <v>10571</v>
       </c>
       <c r="N803" t="inlineStr">
         <is>
@@ -58195,7 +58195,7 @@
         </is>
       </c>
       <c r="P803" t="n">
-        <v>265</v>
+        <v>587</v>
       </c>
       <c r="Q803" t="n">
         <v>18</v>
@@ -58221,7 +58221,7 @@
         </is>
       </c>
       <c r="D804" s="2" t="n">
-        <v>44238</v>
+        <v>44448</v>
       </c>
       <c r="E804" t="n">
         <v>13</v>
@@ -58241,20 +58241,20 @@
       </c>
       <c r="I804" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J804" t="n">
-        <v>295</v>
+        <v>580</v>
       </c>
       <c r="K804" t="n">
-        <v>9000</v>
+        <v>19000</v>
       </c>
       <c r="L804" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="M804" t="n">
-        <v>9508</v>
+        <v>19517</v>
       </c>
       <c r="N804" t="inlineStr">
         <is>
@@ -58263,11 +58263,11 @@
       </c>
       <c r="O804" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P804" t="n">
-        <v>528</v>
+        <v>1084</v>
       </c>
       <c r="Q804" t="n">
         <v>18</v>
@@ -58293,7 +58293,7 @@
         </is>
       </c>
       <c r="D805" s="2" t="n">
-        <v>44238</v>
+        <v>44167</v>
       </c>
       <c r="E805" t="n">
         <v>13</v>
@@ -58317,16 +58317,16 @@
         </is>
       </c>
       <c r="J805" t="n">
-        <v>60</v>
+        <v>1040</v>
       </c>
       <c r="K805" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="L805" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="M805" t="n">
-        <v>9000</v>
+        <v>12538</v>
       </c>
       <c r="N805" t="inlineStr">
         <is>
@@ -58335,11 +58335,11 @@
       </c>
       <c r="O805" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P805" t="n">
-        <v>500</v>
+        <v>697</v>
       </c>
       <c r="Q805" t="n">
         <v>18</v>
@@ -58365,7 +58365,7 @@
         </is>
       </c>
       <c r="D806" s="2" t="n">
-        <v>44238</v>
+        <v>44167</v>
       </c>
       <c r="E806" t="n">
         <v>13</v>
@@ -58389,16 +58389,16 @@
         </is>
       </c>
       <c r="J806" t="n">
-        <v>360</v>
+        <v>960</v>
       </c>
       <c r="K806" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L806" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="M806" t="n">
-        <v>7333</v>
+        <v>10583</v>
       </c>
       <c r="N806" t="inlineStr">
         <is>
@@ -58407,11 +58407,11 @@
       </c>
       <c r="O806" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P806" t="n">
-        <v>407</v>
+        <v>588</v>
       </c>
       <c r="Q806" t="n">
         <v>18</v>
@@ -58437,7 +58437,7 @@
         </is>
       </c>
       <c r="D807" s="2" t="n">
-        <v>44238</v>
+        <v>44167</v>
       </c>
       <c r="E807" t="n">
         <v>13</v>
@@ -58457,20 +58457,20 @@
       </c>
       <c r="I807" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J807" t="n">
-        <v>150</v>
+        <v>700</v>
       </c>
       <c r="K807" t="n">
         <v>7000</v>
       </c>
       <c r="L807" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="M807" t="n">
-        <v>7000</v>
+        <v>7214</v>
       </c>
       <c r="N807" t="inlineStr">
         <is>
@@ -58479,11 +58479,11 @@
       </c>
       <c r="O807" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P807" t="n">
-        <v>389</v>
+        <v>401</v>
       </c>
       <c r="Q807" t="n">
         <v>18</v>
@@ -58509,7 +58509,7 @@
         </is>
       </c>
       <c r="D808" s="2" t="n">
-        <v>44238</v>
+        <v>44167</v>
       </c>
       <c r="E808" t="n">
         <v>13</v>
@@ -58529,20 +58529,20 @@
       </c>
       <c r="I808" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J808" t="n">
-        <v>180</v>
+        <v>550</v>
       </c>
       <c r="K808" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="L808" t="n">
         <v>5000</v>
       </c>
       <c r="M808" t="n">
-        <v>5000</v>
+        <v>4773</v>
       </c>
       <c r="N808" t="inlineStr">
         <is>
@@ -58551,11 +58551,11 @@
       </c>
       <c r="O808" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P808" t="n">
-        <v>278</v>
+        <v>265</v>
       </c>
       <c r="Q808" t="n">
         <v>18</v>
@@ -58601,20 +58601,20 @@
       </c>
       <c r="I809" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J809" t="n">
-        <v>100</v>
+        <v>295</v>
       </c>
       <c r="K809" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="L809" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="M809" t="n">
-        <v>5000</v>
+        <v>9508</v>
       </c>
       <c r="N809" t="inlineStr">
         <is>
@@ -58623,11 +58623,11 @@
       </c>
       <c r="O809" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P809" t="n">
-        <v>278</v>
+        <v>528</v>
       </c>
       <c r="Q809" t="n">
         <v>18</v>
@@ -58653,7 +58653,7 @@
         </is>
       </c>
       <c r="D810" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E810" t="n">
         <v>13</v>
@@ -58677,16 +58677,16 @@
         </is>
       </c>
       <c r="J810" t="n">
-        <v>300</v>
+        <v>60</v>
       </c>
       <c r="K810" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="L810" t="n">
-        <v>8500</v>
+        <v>9000</v>
       </c>
       <c r="M810" t="n">
-        <v>8267</v>
+        <v>9000</v>
       </c>
       <c r="N810" t="inlineStr">
         <is>
@@ -58695,11 +58695,11 @@
       </c>
       <c r="O810" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P810" t="n">
-        <v>459</v>
+        <v>500</v>
       </c>
       <c r="Q810" t="n">
         <v>18</v>
@@ -58725,7 +58725,7 @@
         </is>
       </c>
       <c r="D811" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E811" t="n">
         <v>13</v>
@@ -58745,20 +58745,20 @@
       </c>
       <c r="I811" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J811" t="n">
-        <v>1030</v>
+        <v>360</v>
       </c>
       <c r="K811" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="L811" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="M811" t="n">
-        <v>12563</v>
+        <v>7333</v>
       </c>
       <c r="N811" t="inlineStr">
         <is>
@@ -58767,11 +58767,11 @@
       </c>
       <c r="O811" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P811" t="n">
-        <v>698</v>
+        <v>407</v>
       </c>
       <c r="Q811" t="n">
         <v>18</v>
@@ -58797,7 +58797,7 @@
         </is>
       </c>
       <c r="D812" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E812" t="n">
         <v>13</v>
@@ -58821,16 +58821,16 @@
         </is>
       </c>
       <c r="J812" t="n">
-        <v>420</v>
+        <v>150</v>
       </c>
       <c r="K812" t="n">
         <v>7000</v>
       </c>
       <c r="L812" t="n">
-        <v>7500</v>
+        <v>7000</v>
       </c>
       <c r="M812" t="n">
-        <v>7262</v>
+        <v>7000</v>
       </c>
       <c r="N812" t="inlineStr">
         <is>
@@ -58839,11 +58839,11 @@
       </c>
       <c r="O812" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P812" t="n">
-        <v>403</v>
+        <v>389</v>
       </c>
       <c r="Q812" t="n">
         <v>18</v>
@@ -58869,7 +58869,7 @@
         </is>
       </c>
       <c r="D813" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E813" t="n">
         <v>13</v>
@@ -58889,20 +58889,20 @@
       </c>
       <c r="I813" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J813" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="K813" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="L813" t="n">
-        <v>11000</v>
+        <v>5000</v>
       </c>
       <c r="M813" t="n">
-        <v>10440</v>
+        <v>5000</v>
       </c>
       <c r="N813" t="inlineStr">
         <is>
@@ -58911,11 +58911,11 @@
       </c>
       <c r="O813" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P813" t="n">
-        <v>580</v>
+        <v>278</v>
       </c>
       <c r="Q813" t="n">
         <v>18</v>
@@ -58941,7 +58941,7 @@
         </is>
       </c>
       <c r="D814" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E814" t="n">
         <v>13</v>
@@ -58965,16 +58965,16 @@
         </is>
       </c>
       <c r="J814" t="n">
-        <v>370</v>
+        <v>100</v>
       </c>
       <c r="K814" t="n">
         <v>5000</v>
       </c>
       <c r="L814" t="n">
-        <v>5500</v>
+        <v>5000</v>
       </c>
       <c r="M814" t="n">
-        <v>5270</v>
+        <v>5000</v>
       </c>
       <c r="N814" t="inlineStr">
         <is>
@@ -58983,11 +58983,11 @@
       </c>
       <c r="O814" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P814" t="n">
-        <v>293</v>
+        <v>278</v>
       </c>
       <c r="Q814" t="n">
         <v>18</v>
@@ -59033,20 +59033,20 @@
       </c>
       <c r="I815" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J815" t="n">
-        <v>520</v>
+        <v>300</v>
       </c>
       <c r="K815" t="n">
         <v>8000</v>
       </c>
       <c r="L815" t="n">
-        <v>9000</v>
+        <v>8500</v>
       </c>
       <c r="M815" t="n">
-        <v>8577</v>
+        <v>8267</v>
       </c>
       <c r="N815" t="inlineStr">
         <is>
@@ -59055,11 +59055,11 @@
       </c>
       <c r="O815" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P815" t="n">
-        <v>476</v>
+        <v>459</v>
       </c>
       <c r="Q815" t="n">
         <v>18</v>
@@ -59085,7 +59085,7 @@
         </is>
       </c>
       <c r="D816" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E816" t="n">
         <v>13</v>
@@ -59109,16 +59109,16 @@
         </is>
       </c>
       <c r="J816" t="n">
-        <v>450</v>
+        <v>1030</v>
       </c>
       <c r="K816" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="L816" t="n">
-        <v>8500</v>
+        <v>13000</v>
       </c>
       <c r="M816" t="n">
-        <v>8278</v>
+        <v>12563</v>
       </c>
       <c r="N816" t="inlineStr">
         <is>
@@ -59127,11 +59127,11 @@
       </c>
       <c r="O816" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P816" t="n">
-        <v>460</v>
+        <v>698</v>
       </c>
       <c r="Q816" t="n">
         <v>18</v>
@@ -59157,7 +59157,7 @@
         </is>
       </c>
       <c r="D817" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E817" t="n">
         <v>13</v>
@@ -59177,20 +59177,20 @@
       </c>
       <c r="I817" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J817" t="n">
-        <v>960</v>
+        <v>420</v>
       </c>
       <c r="K817" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="L817" t="n">
-        <v>13000</v>
+        <v>7500</v>
       </c>
       <c r="M817" t="n">
-        <v>12583</v>
+        <v>7262</v>
       </c>
       <c r="N817" t="inlineStr">
         <is>
@@ -59199,11 +59199,11 @@
       </c>
       <c r="O817" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P817" t="n">
-        <v>699</v>
+        <v>403</v>
       </c>
       <c r="Q817" t="n">
         <v>18</v>
@@ -59229,7 +59229,7 @@
         </is>
       </c>
       <c r="D818" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E818" t="n">
         <v>13</v>
@@ -59253,16 +59253,16 @@
         </is>
       </c>
       <c r="J818" t="n">
-        <v>620</v>
+        <v>1000</v>
       </c>
       <c r="K818" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L818" t="n">
-        <v>7500</v>
+        <v>11000</v>
       </c>
       <c r="M818" t="n">
-        <v>7274</v>
+        <v>10440</v>
       </c>
       <c r="N818" t="inlineStr">
         <is>
@@ -59271,11 +59271,11 @@
       </c>
       <c r="O818" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P818" t="n">
-        <v>404</v>
+        <v>580</v>
       </c>
       <c r="Q818" t="n">
         <v>18</v>
@@ -59301,7 +59301,7 @@
         </is>
       </c>
       <c r="D819" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E819" t="n">
         <v>13</v>
@@ -59321,20 +59321,20 @@
       </c>
       <c r="I819" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J819" t="n">
-        <v>920</v>
+        <v>370</v>
       </c>
       <c r="K819" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="L819" t="n">
-        <v>11000</v>
+        <v>5500</v>
       </c>
       <c r="M819" t="n">
-        <v>10522</v>
+        <v>5270</v>
       </c>
       <c r="N819" t="inlineStr">
         <is>
@@ -59343,11 +59343,11 @@
       </c>
       <c r="O819" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P819" t="n">
-        <v>585</v>
+        <v>293</v>
       </c>
       <c r="Q819" t="n">
         <v>18</v>
@@ -59373,7 +59373,7 @@
         </is>
       </c>
       <c r="D820" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E820" t="n">
         <v>13</v>
@@ -59397,16 +59397,16 @@
         </is>
       </c>
       <c r="J820" t="n">
-        <v>230</v>
+        <v>520</v>
       </c>
       <c r="K820" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="L820" t="n">
-        <v>5500</v>
+        <v>9000</v>
       </c>
       <c r="M820" t="n">
-        <v>5283</v>
+        <v>8577</v>
       </c>
       <c r="N820" t="inlineStr">
         <is>
@@ -59415,11 +59415,11 @@
       </c>
       <c r="O820" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P820" t="n">
-        <v>294</v>
+        <v>476</v>
       </c>
       <c r="Q820" t="n">
         <v>18</v>
@@ -59465,38 +59465,398 @@
       </c>
       <c r="I821" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J821" t="n">
-        <v>260</v>
+        <v>450</v>
       </c>
       <c r="K821" t="n">
         <v>8000</v>
       </c>
       <c r="L821" t="n">
+        <v>8500</v>
+      </c>
+      <c r="M821" t="n">
+        <v>8278</v>
+      </c>
+      <c r="N821" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O821" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="P821" t="n">
+        <v>460</v>
+      </c>
+      <c r="Q821" t="n">
+        <v>18</v>
+      </c>
+      <c r="R821" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="822">
+      <c r="A822" t="n">
+        <v>12</v>
+      </c>
+      <c r="B822" t="inlineStr">
+        <is>
+          <t>Mapocho Venta Directa de Santiago</t>
+        </is>
+      </c>
+      <c r="C822" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D822" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E822" t="n">
+        <v>13</v>
+      </c>
+      <c r="F822" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G822" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H822" t="inlineStr">
+        <is>
+          <t>Larga vida</t>
+        </is>
+      </c>
+      <c r="I822" t="inlineStr">
+        <is>
+          <t>Extra</t>
+        </is>
+      </c>
+      <c r="J822" t="n">
+        <v>960</v>
+      </c>
+      <c r="K822" t="n">
+        <v>12000</v>
+      </c>
+      <c r="L822" t="n">
+        <v>13000</v>
+      </c>
+      <c r="M822" t="n">
+        <v>12583</v>
+      </c>
+      <c r="N822" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O822" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P822" t="n">
+        <v>699</v>
+      </c>
+      <c r="Q822" t="n">
+        <v>18</v>
+      </c>
+      <c r="R822" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="823">
+      <c r="A823" t="n">
+        <v>12</v>
+      </c>
+      <c r="B823" t="inlineStr">
+        <is>
+          <t>Mapocho Venta Directa de Santiago</t>
+        </is>
+      </c>
+      <c r="C823" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D823" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E823" t="n">
+        <v>13</v>
+      </c>
+      <c r="F823" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G823" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H823" t="inlineStr">
+        <is>
+          <t>Larga vida</t>
+        </is>
+      </c>
+      <c r="I823" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J823" t="n">
+        <v>620</v>
+      </c>
+      <c r="K823" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L823" t="n">
+        <v>7500</v>
+      </c>
+      <c r="M823" t="n">
+        <v>7274</v>
+      </c>
+      <c r="N823" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O823" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="P823" t="n">
+        <v>404</v>
+      </c>
+      <c r="Q823" t="n">
+        <v>18</v>
+      </c>
+      <c r="R823" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="824">
+      <c r="A824" t="n">
+        <v>12</v>
+      </c>
+      <c r="B824" t="inlineStr">
+        <is>
+          <t>Mapocho Venta Directa de Santiago</t>
+        </is>
+      </c>
+      <c r="C824" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D824" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E824" t="n">
+        <v>13</v>
+      </c>
+      <c r="F824" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G824" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H824" t="inlineStr">
+        <is>
+          <t>Larga vida</t>
+        </is>
+      </c>
+      <c r="I824" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J824" t="n">
+        <v>920</v>
+      </c>
+      <c r="K824" t="n">
+        <v>10000</v>
+      </c>
+      <c r="L824" t="n">
+        <v>11000</v>
+      </c>
+      <c r="M824" t="n">
+        <v>10522</v>
+      </c>
+      <c r="N824" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O824" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P824" t="n">
+        <v>585</v>
+      </c>
+      <c r="Q824" t="n">
+        <v>18</v>
+      </c>
+      <c r="R824" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="825">
+      <c r="A825" t="n">
+        <v>12</v>
+      </c>
+      <c r="B825" t="inlineStr">
+        <is>
+          <t>Mapocho Venta Directa de Santiago</t>
+        </is>
+      </c>
+      <c r="C825" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D825" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E825" t="n">
+        <v>13</v>
+      </c>
+      <c r="F825" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G825" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H825" t="inlineStr">
+        <is>
+          <t>Larga vida</t>
+        </is>
+      </c>
+      <c r="I825" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J825" t="n">
+        <v>230</v>
+      </c>
+      <c r="K825" t="n">
+        <v>5000</v>
+      </c>
+      <c r="L825" t="n">
+        <v>5500</v>
+      </c>
+      <c r="M825" t="n">
+        <v>5283</v>
+      </c>
+      <c r="N825" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O825" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="P825" t="n">
+        <v>294</v>
+      </c>
+      <c r="Q825" t="n">
+        <v>18</v>
+      </c>
+      <c r="R825" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="826">
+      <c r="A826" t="n">
+        <v>12</v>
+      </c>
+      <c r="B826" t="inlineStr">
+        <is>
+          <t>Mapocho Venta Directa de Santiago</t>
+        </is>
+      </c>
+      <c r="C826" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D826" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E826" t="n">
+        <v>13</v>
+      </c>
+      <c r="F826" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G826" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H826" t="inlineStr">
+        <is>
+          <t>Larga vida</t>
+        </is>
+      </c>
+      <c r="I826" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J826" t="n">
+        <v>260</v>
+      </c>
+      <c r="K826" t="n">
+        <v>8000</v>
+      </c>
+      <c r="L826" t="n">
         <v>9000</v>
       </c>
-      <c r="M821" t="n">
+      <c r="M826" t="n">
         <v>8538</v>
       </c>
-      <c r="N821" t="inlineStr">
-        <is>
-          <t>$/bandeja 18 kilos</t>
-        </is>
-      </c>
-      <c r="O821" t="inlineStr">
+      <c r="N826" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O826" t="inlineStr">
         <is>
           <t>Región de Arica y Parinacota</t>
         </is>
       </c>
-      <c r="P821" t="n">
+      <c r="P826" t="n">
         <v>474</v>
       </c>
-      <c r="Q821" t="n">
-        <v>18</v>
-      </c>
-      <c r="R821" t="inlineStr">
+      <c r="Q826" t="n">
+        <v>18</v>
+      </c>
+      <c r="R826" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Tomate.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Tomate.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R847"/>
+  <dimension ref="A1:R849"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -56997,7 +56997,7 @@
         </is>
       </c>
       <c r="D787" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E787" t="n">
         <v>13</v>
@@ -57017,20 +57017,20 @@
       </c>
       <c r="I787" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J787" t="n">
-        <v>340</v>
+        <v>790</v>
       </c>
       <c r="K787" t="n">
-        <v>12000</v>
+        <v>19000</v>
       </c>
       <c r="L787" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="M787" t="n">
-        <v>12500</v>
+        <v>19519</v>
       </c>
       <c r="N787" t="inlineStr">
         <is>
@@ -57043,7 +57043,7 @@
         </is>
       </c>
       <c r="P787" t="n">
-        <v>694</v>
+        <v>1084</v>
       </c>
       <c r="Q787" t="n">
         <v>18</v>
@@ -57069,7 +57069,7 @@
         </is>
       </c>
       <c r="D788" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E788" t="n">
         <v>13</v>
@@ -57089,20 +57089,20 @@
       </c>
       <c r="I788" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J788" t="n">
-        <v>300</v>
+        <v>780</v>
       </c>
       <c r="K788" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="L788" t="n">
-        <v>11000</v>
+        <v>18000</v>
       </c>
       <c r="M788" t="n">
-        <v>10500</v>
+        <v>17487</v>
       </c>
       <c r="N788" t="inlineStr">
         <is>
@@ -57115,7 +57115,7 @@
         </is>
       </c>
       <c r="P788" t="n">
-        <v>583</v>
+        <v>972</v>
       </c>
       <c r="Q788" t="n">
         <v>18</v>
@@ -57161,20 +57161,20 @@
       </c>
       <c r="I789" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J789" t="n">
-        <v>240</v>
+        <v>340</v>
       </c>
       <c r="K789" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="L789" t="n">
-        <v>9500</v>
+        <v>13000</v>
       </c>
       <c r="M789" t="n">
-        <v>9250</v>
+        <v>12500</v>
       </c>
       <c r="N789" t="inlineStr">
         <is>
@@ -57187,7 +57187,7 @@
         </is>
       </c>
       <c r="P789" t="n">
-        <v>514</v>
+        <v>694</v>
       </c>
       <c r="Q789" t="n">
         <v>18</v>
@@ -57233,20 +57233,20 @@
       </c>
       <c r="I790" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J790" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K790" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="L790" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="M790" t="n">
-        <v>8000</v>
+        <v>10500</v>
       </c>
       <c r="N790" t="inlineStr">
         <is>
@@ -57259,7 +57259,7 @@
         </is>
       </c>
       <c r="P790" t="n">
-        <v>444</v>
+        <v>583</v>
       </c>
       <c r="Q790" t="n">
         <v>18</v>
@@ -57285,7 +57285,7 @@
         </is>
       </c>
       <c r="D791" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E791" t="n">
         <v>13</v>
@@ -57305,20 +57305,20 @@
       </c>
       <c r="I791" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J791" t="n">
-        <v>1020</v>
+        <v>240</v>
       </c>
       <c r="K791" t="n">
-        <v>16000</v>
+        <v>9000</v>
       </c>
       <c r="L791" t="n">
-        <v>17000</v>
+        <v>9500</v>
       </c>
       <c r="M791" t="n">
-        <v>16529</v>
+        <v>9250</v>
       </c>
       <c r="N791" t="inlineStr">
         <is>
@@ -57327,11 +57327,11 @@
       </c>
       <c r="O791" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P791" t="n">
-        <v>918</v>
+        <v>514</v>
       </c>
       <c r="Q791" t="n">
         <v>18</v>
@@ -57357,7 +57357,7 @@
         </is>
       </c>
       <c r="D792" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E792" t="n">
         <v>13</v>
@@ -57377,20 +57377,20 @@
       </c>
       <c r="I792" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J792" t="n">
-        <v>1010</v>
+        <v>200</v>
       </c>
       <c r="K792" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="L792" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="M792" t="n">
-        <v>14406</v>
+        <v>8000</v>
       </c>
       <c r="N792" t="inlineStr">
         <is>
@@ -57399,11 +57399,11 @@
       </c>
       <c r="O792" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P792" t="n">
-        <v>800</v>
+        <v>444</v>
       </c>
       <c r="Q792" t="n">
         <v>18</v>
@@ -57449,20 +57449,20 @@
       </c>
       <c r="I793" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J793" t="n">
-        <v>770</v>
+        <v>1020</v>
       </c>
       <c r="K793" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="L793" t="n">
-        <v>11000</v>
+        <v>17000</v>
       </c>
       <c r="M793" t="n">
-        <v>10545</v>
+        <v>16529</v>
       </c>
       <c r="N793" t="inlineStr">
         <is>
@@ -57475,7 +57475,7 @@
         </is>
       </c>
       <c r="P793" t="n">
-        <v>586</v>
+        <v>918</v>
       </c>
       <c r="Q793" t="n">
         <v>18</v>
@@ -57501,7 +57501,7 @@
         </is>
       </c>
       <c r="D794" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E794" t="n">
         <v>13</v>
@@ -57521,20 +57521,20 @@
       </c>
       <c r="I794" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J794" t="n">
-        <v>920</v>
+        <v>1010</v>
       </c>
       <c r="K794" t="n">
-        <v>8500</v>
+        <v>14000</v>
       </c>
       <c r="L794" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="M794" t="n">
-        <v>8783</v>
+        <v>14406</v>
       </c>
       <c r="N794" t="inlineStr">
         <is>
@@ -57543,11 +57543,11 @@
       </c>
       <c r="O794" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P794" t="n">
-        <v>488</v>
+        <v>800</v>
       </c>
       <c r="Q794" t="n">
         <v>18</v>
@@ -57573,7 +57573,7 @@
         </is>
       </c>
       <c r="D795" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E795" t="n">
         <v>13</v>
@@ -57593,20 +57593,20 @@
       </c>
       <c r="I795" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J795" t="n">
-        <v>1000</v>
+        <v>770</v>
       </c>
       <c r="K795" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="L795" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="M795" t="n">
-        <v>6560</v>
+        <v>10545</v>
       </c>
       <c r="N795" t="inlineStr">
         <is>
@@ -57615,11 +57615,11 @@
       </c>
       <c r="O795" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P795" t="n">
-        <v>364</v>
+        <v>586</v>
       </c>
       <c r="Q795" t="n">
         <v>18</v>
@@ -57665,20 +57665,20 @@
       </c>
       <c r="I796" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J796" t="n">
-        <v>1120</v>
+        <v>920</v>
       </c>
       <c r="K796" t="n">
-        <v>5000</v>
+        <v>8500</v>
       </c>
       <c r="L796" t="n">
-        <v>5500</v>
+        <v>9000</v>
       </c>
       <c r="M796" t="n">
-        <v>5210</v>
+        <v>8783</v>
       </c>
       <c r="N796" t="inlineStr">
         <is>
@@ -57691,7 +57691,7 @@
         </is>
       </c>
       <c r="P796" t="n">
-        <v>289</v>
+        <v>488</v>
       </c>
       <c r="Q796" t="n">
         <v>18</v>
@@ -57737,20 +57737,20 @@
       </c>
       <c r="I797" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J797" t="n">
-        <v>750</v>
+        <v>1000</v>
       </c>
       <c r="K797" t="n">
-        <v>3500</v>
+        <v>6000</v>
       </c>
       <c r="L797" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="M797" t="n">
-        <v>3767</v>
+        <v>6560</v>
       </c>
       <c r="N797" t="inlineStr">
         <is>
@@ -57763,7 +57763,7 @@
         </is>
       </c>
       <c r="P797" t="n">
-        <v>209</v>
+        <v>364</v>
       </c>
       <c r="Q797" t="n">
         <v>18</v>
@@ -57789,7 +57789,7 @@
         </is>
       </c>
       <c r="D798" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E798" t="n">
         <v>13</v>
@@ -57809,20 +57809,20 @@
       </c>
       <c r="I798" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J798" t="n">
-        <v>730</v>
+        <v>1120</v>
       </c>
       <c r="K798" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="L798" t="n">
-        <v>13000</v>
+        <v>5500</v>
       </c>
       <c r="M798" t="n">
-        <v>12521</v>
+        <v>5210</v>
       </c>
       <c r="N798" t="inlineStr">
         <is>
@@ -57831,11 +57831,11 @@
       </c>
       <c r="O798" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P798" t="n">
-        <v>696</v>
+        <v>289</v>
       </c>
       <c r="Q798" t="n">
         <v>18</v>
@@ -57861,7 +57861,7 @@
         </is>
       </c>
       <c r="D799" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E799" t="n">
         <v>13</v>
@@ -57881,20 +57881,20 @@
       </c>
       <c r="I799" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J799" t="n">
         <v>750</v>
       </c>
       <c r="K799" t="n">
-        <v>10000</v>
+        <v>3500</v>
       </c>
       <c r="L799" t="n">
-        <v>11000</v>
+        <v>4000</v>
       </c>
       <c r="M799" t="n">
-        <v>10533</v>
+        <v>3767</v>
       </c>
       <c r="N799" t="inlineStr">
         <is>
@@ -57903,11 +57903,11 @@
       </c>
       <c r="O799" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P799" t="n">
-        <v>585</v>
+        <v>209</v>
       </c>
       <c r="Q799" t="n">
         <v>18</v>
@@ -57933,7 +57933,7 @@
         </is>
       </c>
       <c r="D800" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E800" t="n">
         <v>13</v>
@@ -57957,16 +57957,16 @@
         </is>
       </c>
       <c r="J800" t="n">
-        <v>370</v>
+        <v>730</v>
       </c>
       <c r="K800" t="n">
-        <v>8500</v>
+        <v>12000</v>
       </c>
       <c r="L800" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="M800" t="n">
-        <v>8838</v>
+        <v>12521</v>
       </c>
       <c r="N800" t="inlineStr">
         <is>
@@ -57975,11 +57975,11 @@
       </c>
       <c r="O800" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P800" t="n">
-        <v>491</v>
+        <v>696</v>
       </c>
       <c r="Q800" t="n">
         <v>18</v>
@@ -58005,7 +58005,7 @@
         </is>
       </c>
       <c r="D801" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E801" t="n">
         <v>13</v>
@@ -58025,20 +58025,20 @@
       </c>
       <c r="I801" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J801" t="n">
-        <v>960</v>
+        <v>750</v>
       </c>
       <c r="K801" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="L801" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="M801" t="n">
-        <v>12583</v>
+        <v>10533</v>
       </c>
       <c r="N801" t="inlineStr">
         <is>
@@ -58051,7 +58051,7 @@
         </is>
       </c>
       <c r="P801" t="n">
-        <v>699</v>
+        <v>585</v>
       </c>
       <c r="Q801" t="n">
         <v>18</v>
@@ -58097,20 +58097,20 @@
       </c>
       <c r="I802" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J802" t="n">
-        <v>780</v>
+        <v>370</v>
       </c>
       <c r="K802" t="n">
-        <v>6500</v>
+        <v>8500</v>
       </c>
       <c r="L802" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M802" t="n">
-        <v>6756</v>
+        <v>8838</v>
       </c>
       <c r="N802" t="inlineStr">
         <is>
@@ -58123,7 +58123,7 @@
         </is>
       </c>
       <c r="P802" t="n">
-        <v>375</v>
+        <v>491</v>
       </c>
       <c r="Q802" t="n">
         <v>18</v>
@@ -58169,20 +58169,20 @@
       </c>
       <c r="I803" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J803" t="n">
-        <v>1130</v>
+        <v>960</v>
       </c>
       <c r="K803" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L803" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="M803" t="n">
-        <v>10575</v>
+        <v>12583</v>
       </c>
       <c r="N803" t="inlineStr">
         <is>
@@ -58195,7 +58195,7 @@
         </is>
       </c>
       <c r="P803" t="n">
-        <v>588</v>
+        <v>699</v>
       </c>
       <c r="Q803" t="n">
         <v>18</v>
@@ -58241,20 +58241,20 @@
       </c>
       <c r="I804" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J804" t="n">
-        <v>360</v>
+        <v>780</v>
       </c>
       <c r="K804" t="n">
-        <v>4500</v>
+        <v>6500</v>
       </c>
       <c r="L804" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="M804" t="n">
-        <v>4833</v>
+        <v>6756</v>
       </c>
       <c r="N804" t="inlineStr">
         <is>
@@ -58267,7 +58267,7 @@
         </is>
       </c>
       <c r="P804" t="n">
-        <v>268</v>
+        <v>375</v>
       </c>
       <c r="Q804" t="n">
         <v>18</v>
@@ -58313,20 +58313,20 @@
       </c>
       <c r="I805" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J805" t="n">
-        <v>820</v>
+        <v>1130</v>
       </c>
       <c r="K805" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L805" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="M805" t="n">
-        <v>7451</v>
+        <v>10575</v>
       </c>
       <c r="N805" t="inlineStr">
         <is>
@@ -58339,7 +58339,7 @@
         </is>
       </c>
       <c r="P805" t="n">
-        <v>414</v>
+        <v>588</v>
       </c>
       <c r="Q805" t="n">
         <v>18</v>
@@ -58365,7 +58365,7 @@
         </is>
       </c>
       <c r="D806" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E806" t="n">
         <v>13</v>
@@ -58385,20 +58385,20 @@
       </c>
       <c r="I806" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J806" t="n">
-        <v>440</v>
+        <v>360</v>
       </c>
       <c r="K806" t="n">
-        <v>14000</v>
+        <v>4500</v>
       </c>
       <c r="L806" t="n">
-        <v>15000</v>
+        <v>5000</v>
       </c>
       <c r="M806" t="n">
-        <v>14545</v>
+        <v>4833</v>
       </c>
       <c r="N806" t="inlineStr">
         <is>
@@ -58411,7 +58411,7 @@
         </is>
       </c>
       <c r="P806" t="n">
-        <v>808</v>
+        <v>268</v>
       </c>
       <c r="Q806" t="n">
         <v>18</v>
@@ -58437,7 +58437,7 @@
         </is>
       </c>
       <c r="D807" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E807" t="n">
         <v>13</v>
@@ -58452,25 +58452,25 @@
       </c>
       <c r="H807" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I807" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J807" t="n">
-        <v>310</v>
+        <v>820</v>
       </c>
       <c r="K807" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="L807" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="M807" t="n">
-        <v>11484</v>
+        <v>7451</v>
       </c>
       <c r="N807" t="inlineStr">
         <is>
@@ -58479,11 +58479,11 @@
       </c>
       <c r="O807" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P807" t="n">
-        <v>638</v>
+        <v>414</v>
       </c>
       <c r="Q807" t="n">
         <v>18</v>
@@ -58524,25 +58524,25 @@
       </c>
       <c r="H808" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I808" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J808" t="n">
-        <v>470</v>
+        <v>440</v>
       </c>
       <c r="K808" t="n">
-        <v>9500</v>
+        <v>14000</v>
       </c>
       <c r="L808" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="M808" t="n">
-        <v>9734</v>
+        <v>14545</v>
       </c>
       <c r="N808" t="inlineStr">
         <is>
@@ -58551,11 +58551,11 @@
       </c>
       <c r="O808" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P808" t="n">
-        <v>541</v>
+        <v>808</v>
       </c>
       <c r="Q808" t="n">
         <v>18</v>
@@ -58601,20 +58601,20 @@
       </c>
       <c r="I809" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J809" t="n">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="K809" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="L809" t="n">
-        <v>7500</v>
+        <v>12000</v>
       </c>
       <c r="M809" t="n">
-        <v>7219</v>
+        <v>11484</v>
       </c>
       <c r="N809" t="inlineStr">
         <is>
@@ -58627,7 +58627,7 @@
         </is>
       </c>
       <c r="P809" t="n">
-        <v>401</v>
+        <v>638</v>
       </c>
       <c r="Q809" t="n">
         <v>18</v>
@@ -58653,7 +58653,7 @@
         </is>
       </c>
       <c r="D810" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E810" t="n">
         <v>13</v>
@@ -58668,25 +58668,25 @@
       </c>
       <c r="H810" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I810" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J810" t="n">
-        <v>760</v>
+        <v>470</v>
       </c>
       <c r="K810" t="n">
-        <v>12000</v>
+        <v>9500</v>
       </c>
       <c r="L810" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="M810" t="n">
-        <v>12474</v>
+        <v>9734</v>
       </c>
       <c r="N810" t="inlineStr">
         <is>
@@ -58695,11 +58695,11 @@
       </c>
       <c r="O810" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P810" t="n">
-        <v>693</v>
+        <v>541</v>
       </c>
       <c r="Q810" t="n">
         <v>18</v>
@@ -58725,7 +58725,7 @@
         </is>
       </c>
       <c r="D811" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E811" t="n">
         <v>13</v>
@@ -58740,25 +58740,25 @@
       </c>
       <c r="H811" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I811" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J811" t="n">
-        <v>890</v>
+        <v>320</v>
       </c>
       <c r="K811" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="L811" t="n">
-        <v>10000</v>
+        <v>7500</v>
       </c>
       <c r="M811" t="n">
-        <v>9494</v>
+        <v>7219</v>
       </c>
       <c r="N811" t="inlineStr">
         <is>
@@ -58767,11 +58767,11 @@
       </c>
       <c r="O811" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P811" t="n">
-        <v>527</v>
+        <v>401</v>
       </c>
       <c r="Q811" t="n">
         <v>18</v>
@@ -58817,20 +58817,20 @@
       </c>
       <c r="I812" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J812" t="n">
-        <v>630</v>
+        <v>760</v>
       </c>
       <c r="K812" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="L812" t="n">
-        <v>6000</v>
+        <v>13000</v>
       </c>
       <c r="M812" t="n">
-        <v>5556</v>
+        <v>12474</v>
       </c>
       <c r="N812" t="inlineStr">
         <is>
@@ -58843,7 +58843,7 @@
         </is>
       </c>
       <c r="P812" t="n">
-        <v>309</v>
+        <v>693</v>
       </c>
       <c r="Q812" t="n">
         <v>18</v>
@@ -58869,7 +58869,7 @@
         </is>
       </c>
       <c r="D813" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E813" t="n">
         <v>13</v>
@@ -58889,20 +58889,20 @@
       </c>
       <c r="I813" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J813" t="n">
-        <v>1010</v>
+        <v>890</v>
       </c>
       <c r="K813" t="n">
-        <v>9500</v>
+        <v>9000</v>
       </c>
       <c r="L813" t="n">
         <v>10000</v>
       </c>
       <c r="M813" t="n">
-        <v>9777</v>
+        <v>9494</v>
       </c>
       <c r="N813" t="inlineStr">
         <is>
@@ -58915,7 +58915,7 @@
         </is>
       </c>
       <c r="P813" t="n">
-        <v>543</v>
+        <v>527</v>
       </c>
       <c r="Q813" t="n">
         <v>18</v>
@@ -58941,7 +58941,7 @@
         </is>
       </c>
       <c r="D814" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E814" t="n">
         <v>13</v>
@@ -58961,20 +58961,20 @@
       </c>
       <c r="I814" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J814" t="n">
-        <v>1360</v>
+        <v>630</v>
       </c>
       <c r="K814" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="L814" t="n">
-        <v>7500</v>
+        <v>6000</v>
       </c>
       <c r="M814" t="n">
-        <v>7279</v>
+        <v>5556</v>
       </c>
       <c r="N814" t="inlineStr">
         <is>
@@ -58987,7 +58987,7 @@
         </is>
       </c>
       <c r="P814" t="n">
-        <v>404</v>
+        <v>309</v>
       </c>
       <c r="Q814" t="n">
         <v>18</v>
@@ -59033,20 +59033,20 @@
       </c>
       <c r="I815" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J815" t="n">
-        <v>940</v>
+        <v>1010</v>
       </c>
       <c r="K815" t="n">
-        <v>5000</v>
+        <v>9500</v>
       </c>
       <c r="L815" t="n">
-        <v>5500</v>
+        <v>10000</v>
       </c>
       <c r="M815" t="n">
-        <v>5255</v>
+        <v>9777</v>
       </c>
       <c r="N815" t="inlineStr">
         <is>
@@ -59059,7 +59059,7 @@
         </is>
       </c>
       <c r="P815" t="n">
-        <v>292</v>
+        <v>543</v>
       </c>
       <c r="Q815" t="n">
         <v>18</v>
@@ -59085,7 +59085,7 @@
         </is>
       </c>
       <c r="D816" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E816" t="n">
         <v>13</v>
@@ -59105,20 +59105,20 @@
       </c>
       <c r="I816" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J816" t="n">
-        <v>200</v>
+        <v>1360</v>
       </c>
       <c r="K816" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="L816" t="n">
-        <v>10000</v>
+        <v>7500</v>
       </c>
       <c r="M816" t="n">
-        <v>9500</v>
+        <v>7279</v>
       </c>
       <c r="N816" t="inlineStr">
         <is>
@@ -59127,11 +59127,11 @@
       </c>
       <c r="O816" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P816" t="n">
-        <v>528</v>
+        <v>404</v>
       </c>
       <c r="Q816" t="n">
         <v>18</v>
@@ -59157,7 +59157,7 @@
         </is>
       </c>
       <c r="D817" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E817" t="n">
         <v>13</v>
@@ -59177,20 +59177,20 @@
       </c>
       <c r="I817" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J817" t="n">
-        <v>240</v>
+        <v>940</v>
       </c>
       <c r="K817" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="L817" t="n">
-        <v>8000</v>
+        <v>5500</v>
       </c>
       <c r="M817" t="n">
-        <v>7500</v>
+        <v>5255</v>
       </c>
       <c r="N817" t="inlineStr">
         <is>
@@ -59199,11 +59199,11 @@
       </c>
       <c r="O817" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P817" t="n">
-        <v>417</v>
+        <v>292</v>
       </c>
       <c r="Q817" t="n">
         <v>18</v>
@@ -59249,20 +59249,20 @@
       </c>
       <c r="I818" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J818" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="K818" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="L818" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="M818" t="n">
-        <v>5000</v>
+        <v>9500</v>
       </c>
       <c r="N818" t="inlineStr">
         <is>
@@ -59275,7 +59275,7 @@
         </is>
       </c>
       <c r="P818" t="n">
-        <v>278</v>
+        <v>528</v>
       </c>
       <c r="Q818" t="n">
         <v>18</v>
@@ -59301,7 +59301,7 @@
         </is>
       </c>
       <c r="D819" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E819" t="n">
         <v>13</v>
@@ -59321,21 +59321,21 @@
       </c>
       <c r="I819" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J819" t="n">
-        <v>470</v>
+        <v>240</v>
       </c>
       <c r="K819" t="n">
         <v>7000</v>
       </c>
       <c r="L819" t="n">
+        <v>8000</v>
+      </c>
+      <c r="M819" t="n">
         <v>7500</v>
       </c>
-      <c r="M819" t="n">
-        <v>7234</v>
-      </c>
       <c r="N819" t="inlineStr">
         <is>
           <t>$/bandeja 18 kilos</t>
@@ -59343,11 +59343,11 @@
       </c>
       <c r="O819" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P819" t="n">
-        <v>402</v>
+        <v>417</v>
       </c>
       <c r="Q819" t="n">
         <v>18</v>
@@ -59373,7 +59373,7 @@
         </is>
       </c>
       <c r="D820" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E820" t="n">
         <v>13</v>
@@ -59393,20 +59393,20 @@
       </c>
       <c r="I820" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J820" t="n">
-        <v>450</v>
+        <v>150</v>
       </c>
       <c r="K820" t="n">
-        <v>9500</v>
+        <v>5000</v>
       </c>
       <c r="L820" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="M820" t="n">
-        <v>9722</v>
+        <v>5000</v>
       </c>
       <c r="N820" t="inlineStr">
         <is>
@@ -59415,11 +59415,11 @@
       </c>
       <c r="O820" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P820" t="n">
-        <v>540</v>
+        <v>278</v>
       </c>
       <c r="Q820" t="n">
         <v>18</v>
@@ -59465,20 +59465,20 @@
       </c>
       <c r="I821" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J821" t="n">
-        <v>550</v>
+        <v>470</v>
       </c>
       <c r="K821" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L821" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="M821" t="n">
-        <v>6227</v>
+        <v>7234</v>
       </c>
       <c r="N821" t="inlineStr">
         <is>
@@ -59491,7 +59491,7 @@
         </is>
       </c>
       <c r="P821" t="n">
-        <v>346</v>
+        <v>402</v>
       </c>
       <c r="Q821" t="n">
         <v>18</v>
@@ -59537,20 +59537,20 @@
       </c>
       <c r="I822" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J822" t="n">
-        <v>780</v>
+        <v>450</v>
       </c>
       <c r="K822" t="n">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="L822" t="n">
-        <v>8500</v>
+        <v>10000</v>
       </c>
       <c r="M822" t="n">
-        <v>8244</v>
+        <v>9722</v>
       </c>
       <c r="N822" t="inlineStr">
         <is>
@@ -59563,7 +59563,7 @@
         </is>
       </c>
       <c r="P822" t="n">
-        <v>458</v>
+        <v>540</v>
       </c>
       <c r="Q822" t="n">
         <v>18</v>
@@ -59609,20 +59609,20 @@
       </c>
       <c r="I823" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J823" t="n">
-        <v>380</v>
+        <v>550</v>
       </c>
       <c r="K823" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L823" t="n">
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="M823" t="n">
-        <v>5237</v>
+        <v>6227</v>
       </c>
       <c r="N823" t="inlineStr">
         <is>
@@ -59635,7 +59635,7 @@
         </is>
       </c>
       <c r="P823" t="n">
-        <v>291</v>
+        <v>346</v>
       </c>
       <c r="Q823" t="n">
         <v>18</v>
@@ -59681,20 +59681,20 @@
       </c>
       <c r="I824" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J824" t="n">
-        <v>580</v>
+        <v>780</v>
       </c>
       <c r="K824" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L824" t="n">
-        <v>7500</v>
+        <v>8500</v>
       </c>
       <c r="M824" t="n">
-        <v>7276</v>
+        <v>8244</v>
       </c>
       <c r="N824" t="inlineStr">
         <is>
@@ -59707,7 +59707,7 @@
         </is>
       </c>
       <c r="P824" t="n">
-        <v>404</v>
+        <v>458</v>
       </c>
       <c r="Q824" t="n">
         <v>18</v>
@@ -59733,7 +59733,7 @@
         </is>
       </c>
       <c r="D825" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E825" t="n">
         <v>13</v>
@@ -59753,20 +59753,20 @@
       </c>
       <c r="I825" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J825" t="n">
-        <v>760</v>
+        <v>380</v>
       </c>
       <c r="K825" t="n">
-        <v>19000</v>
+        <v>5000</v>
       </c>
       <c r="L825" t="n">
-        <v>20000</v>
+        <v>5500</v>
       </c>
       <c r="M825" t="n">
-        <v>19526</v>
+        <v>5237</v>
       </c>
       <c r="N825" t="inlineStr">
         <is>
@@ -59779,7 +59779,7 @@
         </is>
       </c>
       <c r="P825" t="n">
-        <v>1085</v>
+        <v>291</v>
       </c>
       <c r="Q825" t="n">
         <v>18</v>
@@ -59805,7 +59805,7 @@
         </is>
       </c>
       <c r="D826" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E826" t="n">
         <v>13</v>
@@ -59825,20 +59825,20 @@
       </c>
       <c r="I826" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J826" t="n">
-        <v>920</v>
+        <v>580</v>
       </c>
       <c r="K826" t="n">
-        <v>17000</v>
+        <v>7000</v>
       </c>
       <c r="L826" t="n">
-        <v>18000</v>
+        <v>7500</v>
       </c>
       <c r="M826" t="n">
-        <v>17522</v>
+        <v>7276</v>
       </c>
       <c r="N826" t="inlineStr">
         <is>
@@ -59847,11 +59847,11 @@
       </c>
       <c r="O826" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P826" t="n">
-        <v>973</v>
+        <v>404</v>
       </c>
       <c r="Q826" t="n">
         <v>18</v>
@@ -59897,20 +59897,20 @@
       </c>
       <c r="I827" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J827" t="n">
-        <v>580</v>
+        <v>760</v>
       </c>
       <c r="K827" t="n">
-        <v>14000</v>
+        <v>19000</v>
       </c>
       <c r="L827" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="M827" t="n">
-        <v>14517</v>
+        <v>19526</v>
       </c>
       <c r="N827" t="inlineStr">
         <is>
@@ -59923,7 +59923,7 @@
         </is>
       </c>
       <c r="P827" t="n">
-        <v>806</v>
+        <v>1085</v>
       </c>
       <c r="Q827" t="n">
         <v>18</v>
@@ -59949,7 +59949,7 @@
         </is>
       </c>
       <c r="D828" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E828" t="n">
         <v>13</v>
@@ -59969,20 +59969,20 @@
       </c>
       <c r="I828" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J828" t="n">
-        <v>255</v>
+        <v>920</v>
       </c>
       <c r="K828" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="L828" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="M828" t="n">
-        <v>12294</v>
+        <v>17522</v>
       </c>
       <c r="N828" t="inlineStr">
         <is>
@@ -59991,11 +59991,11 @@
       </c>
       <c r="O828" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P828" t="n">
-        <v>683</v>
+        <v>973</v>
       </c>
       <c r="Q828" t="n">
         <v>18</v>
@@ -60021,7 +60021,7 @@
         </is>
       </c>
       <c r="D829" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E829" t="n">
         <v>13</v>
@@ -60041,20 +60041,20 @@
       </c>
       <c r="I829" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J829" t="n">
-        <v>200</v>
+        <v>580</v>
       </c>
       <c r="K829" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="L829" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="M829" t="n">
-        <v>10000</v>
+        <v>14517</v>
       </c>
       <c r="N829" t="inlineStr">
         <is>
@@ -60063,11 +60063,11 @@
       </c>
       <c r="O829" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P829" t="n">
-        <v>556</v>
+        <v>806</v>
       </c>
       <c r="Q829" t="n">
         <v>18</v>
@@ -60113,20 +60113,20 @@
       </c>
       <c r="I830" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J830" t="n">
-        <v>150</v>
+        <v>255</v>
       </c>
       <c r="K830" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="L830" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="M830" t="n">
-        <v>8000</v>
+        <v>12294</v>
       </c>
       <c r="N830" t="inlineStr">
         <is>
@@ -60139,7 +60139,7 @@
         </is>
       </c>
       <c r="P830" t="n">
-        <v>444</v>
+        <v>683</v>
       </c>
       <c r="Q830" t="n">
         <v>18</v>
@@ -60165,7 +60165,7 @@
         </is>
       </c>
       <c r="D831" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E831" t="n">
         <v>13</v>
@@ -60185,20 +60185,20 @@
       </c>
       <c r="I831" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J831" t="n">
-        <v>840</v>
+        <v>200</v>
       </c>
       <c r="K831" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="L831" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="M831" t="n">
-        <v>13548</v>
+        <v>10000</v>
       </c>
       <c r="N831" t="inlineStr">
         <is>
@@ -60207,11 +60207,11 @@
       </c>
       <c r="O831" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P831" t="n">
-        <v>753</v>
+        <v>556</v>
       </c>
       <c r="Q831" t="n">
         <v>18</v>
@@ -60237,7 +60237,7 @@
         </is>
       </c>
       <c r="D832" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E832" t="n">
         <v>13</v>
@@ -60257,20 +60257,20 @@
       </c>
       <c r="I832" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J832" t="n">
-        <v>1130</v>
+        <v>150</v>
       </c>
       <c r="K832" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="L832" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="M832" t="n">
-        <v>11575</v>
+        <v>8000</v>
       </c>
       <c r="N832" t="inlineStr">
         <is>
@@ -60279,11 +60279,11 @@
       </c>
       <c r="O832" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P832" t="n">
-        <v>643</v>
+        <v>444</v>
       </c>
       <c r="Q832" t="n">
         <v>18</v>
@@ -60329,20 +60329,20 @@
       </c>
       <c r="I833" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J833" t="n">
-        <v>780</v>
+        <v>840</v>
       </c>
       <c r="K833" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="L833" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="M833" t="n">
-        <v>8615</v>
+        <v>13548</v>
       </c>
       <c r="N833" t="inlineStr">
         <is>
@@ -60355,7 +60355,7 @@
         </is>
       </c>
       <c r="P833" t="n">
-        <v>479</v>
+        <v>753</v>
       </c>
       <c r="Q833" t="n">
         <v>18</v>
@@ -60396,25 +60396,25 @@
       </c>
       <c r="H834" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I834" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J834" t="n">
-        <v>590</v>
+        <v>1130</v>
       </c>
       <c r="K834" t="n">
-        <v>9500</v>
+        <v>11000</v>
       </c>
       <c r="L834" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M834" t="n">
-        <v>9788</v>
+        <v>11575</v>
       </c>
       <c r="N834" t="inlineStr">
         <is>
@@ -60423,11 +60423,11 @@
       </c>
       <c r="O834" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P834" t="n">
-        <v>544</v>
+        <v>643</v>
       </c>
       <c r="Q834" t="n">
         <v>18</v>
@@ -60468,25 +60468,25 @@
       </c>
       <c r="H835" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I835" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J835" t="n">
-        <v>580</v>
+        <v>780</v>
       </c>
       <c r="K835" t="n">
         <v>8000</v>
       </c>
       <c r="L835" t="n">
-        <v>8500</v>
+        <v>9000</v>
       </c>
       <c r="M835" t="n">
-        <v>8259</v>
+        <v>8615</v>
       </c>
       <c r="N835" t="inlineStr">
         <is>
@@ -60495,11 +60495,11 @@
       </c>
       <c r="O835" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P835" t="n">
-        <v>459</v>
+        <v>479</v>
       </c>
       <c r="Q835" t="n">
         <v>18</v>
@@ -60545,20 +60545,20 @@
       </c>
       <c r="I836" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J836" t="n">
-        <v>550</v>
+        <v>590</v>
       </c>
       <c r="K836" t="n">
-        <v>5000</v>
+        <v>9500</v>
       </c>
       <c r="L836" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="M836" t="n">
-        <v>5545</v>
+        <v>9788</v>
       </c>
       <c r="N836" t="inlineStr">
         <is>
@@ -60571,7 +60571,7 @@
         </is>
       </c>
       <c r="P836" t="n">
-        <v>308</v>
+        <v>544</v>
       </c>
       <c r="Q836" t="n">
         <v>18</v>
@@ -60597,7 +60597,7 @@
         </is>
       </c>
       <c r="D837" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E837" t="n">
         <v>13</v>
@@ -60612,25 +60612,25 @@
       </c>
       <c r="H837" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I837" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J837" t="n">
-        <v>390</v>
+        <v>580</v>
       </c>
       <c r="K837" t="n">
         <v>8000</v>
       </c>
       <c r="L837" t="n">
-        <v>9000</v>
+        <v>8500</v>
       </c>
       <c r="M837" t="n">
-        <v>8462</v>
+        <v>8259</v>
       </c>
       <c r="N837" t="inlineStr">
         <is>
@@ -60639,11 +60639,11 @@
       </c>
       <c r="O837" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P837" t="n">
-        <v>470</v>
+        <v>459</v>
       </c>
       <c r="Q837" t="n">
         <v>18</v>
@@ -60669,7 +60669,7 @@
         </is>
       </c>
       <c r="D838" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E838" t="n">
         <v>13</v>
@@ -60684,25 +60684,25 @@
       </c>
       <c r="H838" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I838" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J838" t="n">
-        <v>1040</v>
+        <v>550</v>
       </c>
       <c r="K838" t="n">
-        <v>11000</v>
+        <v>5000</v>
       </c>
       <c r="L838" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="M838" t="n">
-        <v>11538</v>
+        <v>5545</v>
       </c>
       <c r="N838" t="inlineStr">
         <is>
@@ -60711,11 +60711,11 @@
       </c>
       <c r="O838" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P838" t="n">
-        <v>641</v>
+        <v>308</v>
       </c>
       <c r="Q838" t="n">
         <v>18</v>
@@ -60761,20 +60761,20 @@
       </c>
       <c r="I839" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J839" t="n">
-        <v>450</v>
+        <v>390</v>
       </c>
       <c r="K839" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L839" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M839" t="n">
-        <v>6444</v>
+        <v>8462</v>
       </c>
       <c r="N839" t="inlineStr">
         <is>
@@ -60787,7 +60787,7 @@
         </is>
       </c>
       <c r="P839" t="n">
-        <v>358</v>
+        <v>470</v>
       </c>
       <c r="Q839" t="n">
         <v>18</v>
@@ -60833,20 +60833,20 @@
       </c>
       <c r="I840" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J840" t="n">
-        <v>1030</v>
+        <v>1040</v>
       </c>
       <c r="K840" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="L840" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M840" t="n">
-        <v>9466</v>
+        <v>11538</v>
       </c>
       <c r="N840" t="inlineStr">
         <is>
@@ -60859,7 +60859,7 @@
         </is>
       </c>
       <c r="P840" t="n">
-        <v>526</v>
+        <v>641</v>
       </c>
       <c r="Q840" t="n">
         <v>18</v>
@@ -60905,20 +60905,20 @@
       </c>
       <c r="I841" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J841" t="n">
-        <v>440</v>
+        <v>450</v>
       </c>
       <c r="K841" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="L841" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="M841" t="n">
-        <v>4591</v>
+        <v>6444</v>
       </c>
       <c r="N841" t="inlineStr">
         <is>
@@ -60931,7 +60931,7 @@
         </is>
       </c>
       <c r="P841" t="n">
-        <v>255</v>
+        <v>358</v>
       </c>
       <c r="Q841" t="n">
         <v>18</v>
@@ -60977,20 +60977,20 @@
       </c>
       <c r="I842" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J842" t="n">
-        <v>820</v>
+        <v>1030</v>
       </c>
       <c r="K842" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L842" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M842" t="n">
-        <v>7537</v>
+        <v>9466</v>
       </c>
       <c r="N842" t="inlineStr">
         <is>
@@ -61003,7 +61003,7 @@
         </is>
       </c>
       <c r="P842" t="n">
-        <v>419</v>
+        <v>526</v>
       </c>
       <c r="Q842" t="n">
         <v>18</v>
@@ -61029,7 +61029,7 @@
         </is>
       </c>
       <c r="D843" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E843" t="n">
         <v>13</v>
@@ -61049,20 +61049,20 @@
       </c>
       <c r="I843" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J843" t="n">
-        <v>500</v>
+        <v>440</v>
       </c>
       <c r="K843" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="L843" t="n">
-        <v>8500</v>
+        <v>5000</v>
       </c>
       <c r="M843" t="n">
-        <v>8280</v>
+        <v>4591</v>
       </c>
       <c r="N843" t="inlineStr">
         <is>
@@ -61075,7 +61075,7 @@
         </is>
       </c>
       <c r="P843" t="n">
-        <v>460</v>
+        <v>255</v>
       </c>
       <c r="Q843" t="n">
         <v>18</v>
@@ -61101,7 +61101,7 @@
         </is>
       </c>
       <c r="D844" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E844" t="n">
         <v>13</v>
@@ -61121,20 +61121,20 @@
       </c>
       <c r="I844" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J844" t="n">
-        <v>680</v>
+        <v>820</v>
       </c>
       <c r="K844" t="n">
         <v>7000</v>
       </c>
       <c r="L844" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="M844" t="n">
-        <v>7279</v>
+        <v>7537</v>
       </c>
       <c r="N844" t="inlineStr">
         <is>
@@ -61143,11 +61143,11 @@
       </c>
       <c r="O844" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P844" t="n">
-        <v>404</v>
+        <v>419</v>
       </c>
       <c r="Q844" t="n">
         <v>18</v>
@@ -61188,25 +61188,25 @@
       </c>
       <c r="H845" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I845" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J845" t="n">
-        <v>420</v>
+        <v>500</v>
       </c>
       <c r="K845" t="n">
-        <v>5500</v>
+        <v>8000</v>
       </c>
       <c r="L845" t="n">
-        <v>6000</v>
+        <v>8500</v>
       </c>
       <c r="M845" t="n">
-        <v>5786</v>
+        <v>8280</v>
       </c>
       <c r="N845" t="inlineStr">
         <is>
@@ -61215,11 +61215,11 @@
       </c>
       <c r="O845" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P845" t="n">
-        <v>321</v>
+        <v>460</v>
       </c>
       <c r="Q845" t="n">
         <v>18</v>
@@ -61260,25 +61260,25 @@
       </c>
       <c r="H846" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I846" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J846" t="n">
-        <v>420</v>
+        <v>680</v>
       </c>
       <c r="K846" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="L846" t="n">
-        <v>4500</v>
+        <v>7500</v>
       </c>
       <c r="M846" t="n">
-        <v>4214</v>
+        <v>7279</v>
       </c>
       <c r="N846" t="inlineStr">
         <is>
@@ -61287,11 +61287,11 @@
       </c>
       <c r="O846" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P846" t="n">
-        <v>234</v>
+        <v>404</v>
       </c>
       <c r="Q846" t="n">
         <v>18</v>
@@ -61337,38 +61337,182 @@
       </c>
       <c r="I847" t="inlineStr">
         <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J847" t="n">
+        <v>420</v>
+      </c>
+      <c r="K847" t="n">
+        <v>5500</v>
+      </c>
+      <c r="L847" t="n">
+        <v>6000</v>
+      </c>
+      <c r="M847" t="n">
+        <v>5786</v>
+      </c>
+      <c r="N847" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O847" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P847" t="n">
+        <v>321</v>
+      </c>
+      <c r="Q847" t="n">
+        <v>18</v>
+      </c>
+      <c r="R847" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="848">
+      <c r="A848" t="n">
+        <v>12</v>
+      </c>
+      <c r="B848" t="inlineStr">
+        <is>
+          <t>Mapocho Venta Directa de Santiago</t>
+        </is>
+      </c>
+      <c r="C848" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D848" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E848" t="n">
+        <v>13</v>
+      </c>
+      <c r="F848" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G848" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H848" t="inlineStr">
+        <is>
+          <t>Semiduro</t>
+        </is>
+      </c>
+      <c r="I848" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J848" t="n">
+        <v>420</v>
+      </c>
+      <c r="K848" t="n">
+        <v>4000</v>
+      </c>
+      <c r="L848" t="n">
+        <v>4500</v>
+      </c>
+      <c r="M848" t="n">
+        <v>4214</v>
+      </c>
+      <c r="N848" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O848" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P848" t="n">
+        <v>234</v>
+      </c>
+      <c r="Q848" t="n">
+        <v>18</v>
+      </c>
+      <c r="R848" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="849">
+      <c r="A849" t="n">
+        <v>12</v>
+      </c>
+      <c r="B849" t="inlineStr">
+        <is>
+          <t>Mapocho Venta Directa de Santiago</t>
+        </is>
+      </c>
+      <c r="C849" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D849" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E849" t="n">
+        <v>13</v>
+      </c>
+      <c r="F849" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G849" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H849" t="inlineStr">
+        <is>
+          <t>Semiduro</t>
+        </is>
+      </c>
+      <c r="I849" t="inlineStr">
+        <is>
           <t>Tercera</t>
         </is>
       </c>
-      <c r="J847" t="n">
+      <c r="J849" t="n">
         <v>390</v>
       </c>
-      <c r="K847" t="n">
+      <c r="K849" t="n">
         <v>3000</v>
       </c>
-      <c r="L847" t="n">
+      <c r="L849" t="n">
         <v>3500</v>
       </c>
-      <c r="M847" t="n">
+      <c r="M849" t="n">
         <v>3269</v>
       </c>
-      <c r="N847" t="inlineStr">
-        <is>
-          <t>$/bandeja 18 kilos</t>
-        </is>
-      </c>
-      <c r="O847" t="inlineStr">
+      <c r="N849" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O849" t="inlineStr">
         <is>
           <t>Región de O'Higgins</t>
         </is>
       </c>
-      <c r="P847" t="n">
+      <c r="P849" t="n">
         <v>182</v>
       </c>
-      <c r="Q847" t="n">
-        <v>18</v>
-      </c>
-      <c r="R847" t="inlineStr">
+      <c r="Q849" t="n">
+        <v>18</v>
+      </c>
+      <c r="R849" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Tomate.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Tomate.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R854"/>
+  <dimension ref="A1:R857"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -47349,7 +47349,7 @@
         </is>
       </c>
       <c r="D653" s="2" t="n">
-        <v>44196</v>
+        <v>44463</v>
       </c>
       <c r="E653" t="n">
         <v>13</v>
@@ -47373,7 +47373,7 @@
         </is>
       </c>
       <c r="J653" t="n">
-        <v>1130</v>
+        <v>700</v>
       </c>
       <c r="K653" t="n">
         <v>15000</v>
@@ -47382,7 +47382,7 @@
         <v>16000</v>
       </c>
       <c r="M653" t="n">
-        <v>15575</v>
+        <v>15571</v>
       </c>
       <c r="N653" t="inlineStr">
         <is>
@@ -47391,7 +47391,7 @@
       </c>
       <c r="O653" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P653" t="n">
@@ -47421,7 +47421,7 @@
         </is>
       </c>
       <c r="D654" s="2" t="n">
-        <v>44196</v>
+        <v>44463</v>
       </c>
       <c r="E654" t="n">
         <v>13</v>
@@ -47445,7 +47445,7 @@
         </is>
       </c>
       <c r="J654" t="n">
-        <v>1400</v>
+        <v>790</v>
       </c>
       <c r="K654" t="n">
         <v>13000</v>
@@ -47454,7 +47454,7 @@
         <v>14000</v>
       </c>
       <c r="M654" t="n">
-        <v>13514</v>
+        <v>13519</v>
       </c>
       <c r="N654" t="inlineStr">
         <is>
@@ -47463,7 +47463,7 @@
       </c>
       <c r="O654" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P654" t="n">
@@ -47493,7 +47493,7 @@
         </is>
       </c>
       <c r="D655" s="2" t="n">
-        <v>44196</v>
+        <v>44463</v>
       </c>
       <c r="E655" t="n">
         <v>13</v>
@@ -47517,16 +47517,16 @@
         </is>
       </c>
       <c r="J655" t="n">
-        <v>1180</v>
+        <v>650</v>
       </c>
       <c r="K655" t="n">
-        <v>7500</v>
+        <v>10000</v>
       </c>
       <c r="L655" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="M655" t="n">
-        <v>7746</v>
+        <v>10538</v>
       </c>
       <c r="N655" t="inlineStr">
         <is>
@@ -47535,11 +47535,11 @@
       </c>
       <c r="O655" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P655" t="n">
-        <v>430</v>
+        <v>585</v>
       </c>
       <c r="Q655" t="n">
         <v>18</v>
@@ -47585,20 +47585,20 @@
       </c>
       <c r="I656" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J656" t="n">
-        <v>520</v>
+        <v>1130</v>
       </c>
       <c r="K656" t="n">
-        <v>4500</v>
+        <v>15000</v>
       </c>
       <c r="L656" t="n">
-        <v>5000</v>
+        <v>16000</v>
       </c>
       <c r="M656" t="n">
-        <v>4788</v>
+        <v>15575</v>
       </c>
       <c r="N656" t="inlineStr">
         <is>
@@ -47611,7 +47611,7 @@
         </is>
       </c>
       <c r="P656" t="n">
-        <v>266</v>
+        <v>865</v>
       </c>
       <c r="Q656" t="n">
         <v>18</v>
@@ -47637,7 +47637,7 @@
         </is>
       </c>
       <c r="D657" s="2" t="n">
-        <v>44301</v>
+        <v>44196</v>
       </c>
       <c r="E657" t="n">
         <v>13</v>
@@ -47657,20 +47657,20 @@
       </c>
       <c r="I657" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J657" t="n">
-        <v>360</v>
+        <v>1400</v>
       </c>
       <c r="K657" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="L657" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="M657" t="n">
-        <v>12000</v>
+        <v>13514</v>
       </c>
       <c r="N657" t="inlineStr">
         <is>
@@ -47683,7 +47683,7 @@
         </is>
       </c>
       <c r="P657" t="n">
-        <v>667</v>
+        <v>751</v>
       </c>
       <c r="Q657" t="n">
         <v>18</v>
@@ -47709,7 +47709,7 @@
         </is>
       </c>
       <c r="D658" s="2" t="n">
-        <v>44301</v>
+        <v>44196</v>
       </c>
       <c r="E658" t="n">
         <v>13</v>
@@ -47729,20 +47729,20 @@
       </c>
       <c r="I658" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J658" t="n">
-        <v>640</v>
+        <v>1180</v>
       </c>
       <c r="K658" t="n">
-        <v>10000</v>
+        <v>7500</v>
       </c>
       <c r="L658" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M658" t="n">
-        <v>10000</v>
+        <v>7746</v>
       </c>
       <c r="N658" t="inlineStr">
         <is>
@@ -47755,7 +47755,7 @@
         </is>
       </c>
       <c r="P658" t="n">
-        <v>556</v>
+        <v>430</v>
       </c>
       <c r="Q658" t="n">
         <v>18</v>
@@ -47781,7 +47781,7 @@
         </is>
       </c>
       <c r="D659" s="2" t="n">
-        <v>44301</v>
+        <v>44196</v>
       </c>
       <c r="E659" t="n">
         <v>13</v>
@@ -47801,20 +47801,20 @@
       </c>
       <c r="I659" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J659" t="n">
-        <v>240</v>
+        <v>520</v>
       </c>
       <c r="K659" t="n">
-        <v>9000</v>
+        <v>4500</v>
       </c>
       <c r="L659" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="M659" t="n">
-        <v>9000</v>
+        <v>4788</v>
       </c>
       <c r="N659" t="inlineStr">
         <is>
@@ -47827,7 +47827,7 @@
         </is>
       </c>
       <c r="P659" t="n">
-        <v>500</v>
+        <v>266</v>
       </c>
       <c r="Q659" t="n">
         <v>18</v>
@@ -47873,20 +47873,20 @@
       </c>
       <c r="I660" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J660" t="n">
-        <v>160</v>
+        <v>360</v>
       </c>
       <c r="K660" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="L660" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="M660" t="n">
-        <v>7500</v>
+        <v>12000</v>
       </c>
       <c r="N660" t="inlineStr">
         <is>
@@ -47899,7 +47899,7 @@
         </is>
       </c>
       <c r="P660" t="n">
-        <v>417</v>
+        <v>667</v>
       </c>
       <c r="Q660" t="n">
         <v>18</v>
@@ -47925,7 +47925,7 @@
         </is>
       </c>
       <c r="D661" s="2" t="n">
-        <v>44251</v>
+        <v>44301</v>
       </c>
       <c r="E661" t="n">
         <v>13</v>
@@ -47945,20 +47945,20 @@
       </c>
       <c r="I661" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J661" t="n">
-        <v>420</v>
+        <v>640</v>
       </c>
       <c r="K661" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="L661" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="M661" t="n">
-        <v>12429</v>
+        <v>10000</v>
       </c>
       <c r="N661" t="inlineStr">
         <is>
@@ -47967,11 +47967,11 @@
       </c>
       <c r="O661" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P661" t="n">
-        <v>690</v>
+        <v>556</v>
       </c>
       <c r="Q661" t="n">
         <v>18</v>
@@ -47997,7 +47997,7 @@
         </is>
       </c>
       <c r="D662" s="2" t="n">
-        <v>44251</v>
+        <v>44301</v>
       </c>
       <c r="E662" t="n">
         <v>13</v>
@@ -48017,20 +48017,20 @@
       </c>
       <c r="I662" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J662" t="n">
-        <v>680</v>
+        <v>240</v>
       </c>
       <c r="K662" t="n">
         <v>9000</v>
       </c>
       <c r="L662" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="M662" t="n">
-        <v>9559</v>
+        <v>9000</v>
       </c>
       <c r="N662" t="inlineStr">
         <is>
@@ -48039,11 +48039,11 @@
       </c>
       <c r="O662" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P662" t="n">
-        <v>531</v>
+        <v>500</v>
       </c>
       <c r="Q662" t="n">
         <v>18</v>
@@ -48069,7 +48069,7 @@
         </is>
       </c>
       <c r="D663" s="2" t="n">
-        <v>44251</v>
+        <v>44301</v>
       </c>
       <c r="E663" t="n">
         <v>13</v>
@@ -48089,20 +48089,20 @@
       </c>
       <c r="I663" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J663" t="n">
-        <v>460</v>
+        <v>160</v>
       </c>
       <c r="K663" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="L663" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M663" t="n">
-        <v>6772</v>
+        <v>7500</v>
       </c>
       <c r="N663" t="inlineStr">
         <is>
@@ -48111,11 +48111,11 @@
       </c>
       <c r="O663" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P663" t="n">
-        <v>376</v>
+        <v>417</v>
       </c>
       <c r="Q663" t="n">
         <v>18</v>
@@ -48156,7 +48156,7 @@
       </c>
       <c r="H664" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I664" t="inlineStr">
@@ -48165,16 +48165,16 @@
         </is>
       </c>
       <c r="J664" t="n">
-        <v>160</v>
+        <v>420</v>
       </c>
       <c r="K664" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="L664" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="M664" t="n">
-        <v>8000</v>
+        <v>12429</v>
       </c>
       <c r="N664" t="inlineStr">
         <is>
@@ -48183,11 +48183,11 @@
       </c>
       <c r="O664" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P664" t="n">
-        <v>444</v>
+        <v>690</v>
       </c>
       <c r="Q664" t="n">
         <v>18</v>
@@ -48228,7 +48228,7 @@
       </c>
       <c r="H665" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I665" t="inlineStr">
@@ -48237,16 +48237,16 @@
         </is>
       </c>
       <c r="J665" t="n">
-        <v>210</v>
+        <v>680</v>
       </c>
       <c r="K665" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="L665" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="M665" t="n">
-        <v>6000</v>
+        <v>9559</v>
       </c>
       <c r="N665" t="inlineStr">
         <is>
@@ -48255,11 +48255,11 @@
       </c>
       <c r="O665" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P665" t="n">
-        <v>333</v>
+        <v>531</v>
       </c>
       <c r="Q665" t="n">
         <v>18</v>
@@ -48300,7 +48300,7 @@
       </c>
       <c r="H666" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I666" t="inlineStr">
@@ -48309,16 +48309,16 @@
         </is>
       </c>
       <c r="J666" t="n">
-        <v>200</v>
+        <v>460</v>
       </c>
       <c r="K666" t="n">
-        <v>4000</v>
+        <v>6500</v>
       </c>
       <c r="L666" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="M666" t="n">
-        <v>4000</v>
+        <v>6772</v>
       </c>
       <c r="N666" t="inlineStr">
         <is>
@@ -48327,11 +48327,11 @@
       </c>
       <c r="O666" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P666" t="n">
-        <v>222</v>
+        <v>376</v>
       </c>
       <c r="Q666" t="n">
         <v>18</v>
@@ -48357,7 +48357,7 @@
         </is>
       </c>
       <c r="D667" s="2" t="n">
-        <v>44243</v>
+        <v>44251</v>
       </c>
       <c r="E667" t="n">
         <v>13</v>
@@ -48372,7 +48372,7 @@
       </c>
       <c r="H667" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I667" t="inlineStr">
@@ -48381,16 +48381,16 @@
         </is>
       </c>
       <c r="J667" t="n">
-        <v>1030</v>
+        <v>160</v>
       </c>
       <c r="K667" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="L667" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="M667" t="n">
-        <v>12456</v>
+        <v>8000</v>
       </c>
       <c r="N667" t="inlineStr">
         <is>
@@ -48399,11 +48399,11 @@
       </c>
       <c r="O667" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P667" t="n">
-        <v>692</v>
+        <v>444</v>
       </c>
       <c r="Q667" t="n">
         <v>18</v>
@@ -48429,7 +48429,7 @@
         </is>
       </c>
       <c r="D668" s="2" t="n">
-        <v>44243</v>
+        <v>44251</v>
       </c>
       <c r="E668" t="n">
         <v>13</v>
@@ -48444,25 +48444,25 @@
       </c>
       <c r="H668" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I668" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J668" t="n">
-        <v>750</v>
+        <v>210</v>
       </c>
       <c r="K668" t="n">
-        <v>12500</v>
+        <v>6000</v>
       </c>
       <c r="L668" t="n">
-        <v>13000</v>
+        <v>6000</v>
       </c>
       <c r="M668" t="n">
-        <v>12753</v>
+        <v>6000</v>
       </c>
       <c r="N668" t="inlineStr">
         <is>
@@ -48475,7 +48475,7 @@
         </is>
       </c>
       <c r="P668" t="n">
-        <v>708</v>
+        <v>333</v>
       </c>
       <c r="Q668" t="n">
         <v>18</v>
@@ -48501,7 +48501,7 @@
         </is>
       </c>
       <c r="D669" s="2" t="n">
-        <v>44243</v>
+        <v>44251</v>
       </c>
       <c r="E669" t="n">
         <v>13</v>
@@ -48516,25 +48516,25 @@
       </c>
       <c r="H669" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I669" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J669" t="n">
-        <v>1050</v>
+        <v>200</v>
       </c>
       <c r="K669" t="n">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="L669" t="n">
-        <v>11000</v>
+        <v>4000</v>
       </c>
       <c r="M669" t="n">
-        <v>10362</v>
+        <v>4000</v>
       </c>
       <c r="N669" t="inlineStr">
         <is>
@@ -48543,11 +48543,11 @@
       </c>
       <c r="O669" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P669" t="n">
-        <v>576</v>
+        <v>222</v>
       </c>
       <c r="Q669" t="n">
         <v>18</v>
@@ -48593,20 +48593,20 @@
       </c>
       <c r="I670" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J670" t="n">
-        <v>720</v>
+        <v>1030</v>
       </c>
       <c r="K670" t="n">
-        <v>10500</v>
+        <v>12000</v>
       </c>
       <c r="L670" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="M670" t="n">
-        <v>10833</v>
+        <v>12456</v>
       </c>
       <c r="N670" t="inlineStr">
         <is>
@@ -48615,11 +48615,11 @@
       </c>
       <c r="O670" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P670" t="n">
-        <v>602</v>
+        <v>692</v>
       </c>
       <c r="Q670" t="n">
         <v>18</v>
@@ -48665,20 +48665,20 @@
       </c>
       <c r="I671" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J671" t="n">
-        <v>380</v>
+        <v>750</v>
       </c>
       <c r="K671" t="n">
-        <v>9000</v>
+        <v>12500</v>
       </c>
       <c r="L671" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="M671" t="n">
-        <v>9000</v>
+        <v>12753</v>
       </c>
       <c r="N671" t="inlineStr">
         <is>
@@ -48687,11 +48687,11 @@
       </c>
       <c r="O671" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P671" t="n">
-        <v>500</v>
+        <v>708</v>
       </c>
       <c r="Q671" t="n">
         <v>18</v>
@@ -48737,20 +48737,20 @@
       </c>
       <c r="I672" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J672" t="n">
-        <v>460</v>
+        <v>1050</v>
       </c>
       <c r="K672" t="n">
-        <v>8500</v>
+        <v>10000</v>
       </c>
       <c r="L672" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="M672" t="n">
-        <v>8717</v>
+        <v>10362</v>
       </c>
       <c r="N672" t="inlineStr">
         <is>
@@ -48759,11 +48759,11 @@
       </c>
       <c r="O672" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P672" t="n">
-        <v>484</v>
+        <v>576</v>
       </c>
       <c r="Q672" t="n">
         <v>18</v>
@@ -48809,20 +48809,20 @@
       </c>
       <c r="I673" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J673" t="n">
-        <v>240</v>
+        <v>720</v>
       </c>
       <c r="K673" t="n">
-        <v>8000</v>
+        <v>10500</v>
       </c>
       <c r="L673" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="M673" t="n">
-        <v>8000</v>
+        <v>10833</v>
       </c>
       <c r="N673" t="inlineStr">
         <is>
@@ -48831,11 +48831,11 @@
       </c>
       <c r="O673" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P673" t="n">
-        <v>444</v>
+        <v>602</v>
       </c>
       <c r="Q673" t="n">
         <v>18</v>
@@ -48881,20 +48881,20 @@
       </c>
       <c r="I674" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J674" t="n">
-        <v>340</v>
+        <v>380</v>
       </c>
       <c r="K674" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L674" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="M674" t="n">
-        <v>7265</v>
+        <v>9000</v>
       </c>
       <c r="N674" t="inlineStr">
         <is>
@@ -48903,11 +48903,11 @@
       </c>
       <c r="O674" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P674" t="n">
-        <v>404</v>
+        <v>500</v>
       </c>
       <c r="Q674" t="n">
         <v>18</v>
@@ -48948,25 +48948,25 @@
       </c>
       <c r="H675" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I675" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J675" t="n">
-        <v>740</v>
+        <v>460</v>
       </c>
       <c r="K675" t="n">
-        <v>7000</v>
+        <v>8500</v>
       </c>
       <c r="L675" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="M675" t="n">
-        <v>7257</v>
+        <v>8717</v>
       </c>
       <c r="N675" t="inlineStr">
         <is>
@@ -48975,11 +48975,11 @@
       </c>
       <c r="O675" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P675" t="n">
-        <v>403</v>
+        <v>484</v>
       </c>
       <c r="Q675" t="n">
         <v>18</v>
@@ -49020,25 +49020,25 @@
       </c>
       <c r="H676" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I676" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J676" t="n">
-        <v>990</v>
+        <v>240</v>
       </c>
       <c r="K676" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L676" t="n">
         <v>8000</v>
       </c>
       <c r="M676" t="n">
-        <v>7475</v>
+        <v>8000</v>
       </c>
       <c r="N676" t="inlineStr">
         <is>
@@ -49047,11 +49047,11 @@
       </c>
       <c r="O676" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P676" t="n">
-        <v>415</v>
+        <v>444</v>
       </c>
       <c r="Q676" t="n">
         <v>18</v>
@@ -49092,25 +49092,25 @@
       </c>
       <c r="H677" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I677" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J677" t="n">
-        <v>570</v>
+        <v>340</v>
       </c>
       <c r="K677" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="L677" t="n">
-        <v>5000</v>
+        <v>7500</v>
       </c>
       <c r="M677" t="n">
-        <v>4763</v>
+        <v>7265</v>
       </c>
       <c r="N677" t="inlineStr">
         <is>
@@ -49119,11 +49119,11 @@
       </c>
       <c r="O677" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P677" t="n">
-        <v>265</v>
+        <v>404</v>
       </c>
       <c r="Q677" t="n">
         <v>18</v>
@@ -49169,20 +49169,20 @@
       </c>
       <c r="I678" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J678" t="n">
         <v>740</v>
       </c>
       <c r="K678" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="L678" t="n">
-        <v>5500</v>
+        <v>7500</v>
       </c>
       <c r="M678" t="n">
-        <v>5257</v>
+        <v>7257</v>
       </c>
       <c r="N678" t="inlineStr">
         <is>
@@ -49191,11 +49191,11 @@
       </c>
       <c r="O678" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P678" t="n">
-        <v>292</v>
+        <v>403</v>
       </c>
       <c r="Q678" t="n">
         <v>18</v>
@@ -49241,20 +49241,20 @@
       </c>
       <c r="I679" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J679" t="n">
-        <v>370</v>
+        <v>990</v>
       </c>
       <c r="K679" t="n">
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="L679" t="n">
-        <v>3500</v>
+        <v>8000</v>
       </c>
       <c r="M679" t="n">
-        <v>3189</v>
+        <v>7475</v>
       </c>
       <c r="N679" t="inlineStr">
         <is>
@@ -49263,11 +49263,11 @@
       </c>
       <c r="O679" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P679" t="n">
-        <v>177</v>
+        <v>415</v>
       </c>
       <c r="Q679" t="n">
         <v>18</v>
@@ -49313,20 +49313,20 @@
       </c>
       <c r="I680" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J680" t="n">
-        <v>430</v>
+        <v>570</v>
       </c>
       <c r="K680" t="n">
-        <v>3000</v>
+        <v>4500</v>
       </c>
       <c r="L680" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="M680" t="n">
-        <v>3209</v>
+        <v>4763</v>
       </c>
       <c r="N680" t="inlineStr">
         <is>
@@ -49335,11 +49335,11 @@
       </c>
       <c r="O680" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P680" t="n">
-        <v>178</v>
+        <v>265</v>
       </c>
       <c r="Q680" t="n">
         <v>18</v>
@@ -49365,7 +49365,7 @@
         </is>
       </c>
       <c r="D681" s="2" t="n">
-        <v>44252</v>
+        <v>44243</v>
       </c>
       <c r="E681" t="n">
         <v>13</v>
@@ -49380,25 +49380,25 @@
       </c>
       <c r="H681" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I681" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J681" t="n">
-        <v>720</v>
+        <v>740</v>
       </c>
       <c r="K681" t="n">
-        <v>11000</v>
+        <v>5000</v>
       </c>
       <c r="L681" t="n">
-        <v>12000</v>
+        <v>5500</v>
       </c>
       <c r="M681" t="n">
-        <v>11417</v>
+        <v>5257</v>
       </c>
       <c r="N681" t="inlineStr">
         <is>
@@ -49407,11 +49407,11 @@
       </c>
       <c r="O681" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P681" t="n">
-        <v>634</v>
+        <v>292</v>
       </c>
       <c r="Q681" t="n">
         <v>18</v>
@@ -49437,7 +49437,7 @@
         </is>
       </c>
       <c r="D682" s="2" t="n">
-        <v>44252</v>
+        <v>44243</v>
       </c>
       <c r="E682" t="n">
         <v>13</v>
@@ -49452,25 +49452,25 @@
       </c>
       <c r="H682" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I682" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J682" t="n">
-        <v>690</v>
+        <v>370</v>
       </c>
       <c r="K682" t="n">
-        <v>8000</v>
+        <v>3000</v>
       </c>
       <c r="L682" t="n">
-        <v>9000</v>
+        <v>3500</v>
       </c>
       <c r="M682" t="n">
-        <v>8406</v>
+        <v>3189</v>
       </c>
       <c r="N682" t="inlineStr">
         <is>
@@ -49479,11 +49479,11 @@
       </c>
       <c r="O682" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P682" t="n">
-        <v>467</v>
+        <v>177</v>
       </c>
       <c r="Q682" t="n">
         <v>18</v>
@@ -49509,7 +49509,7 @@
         </is>
       </c>
       <c r="D683" s="2" t="n">
-        <v>44252</v>
+        <v>44243</v>
       </c>
       <c r="E683" t="n">
         <v>13</v>
@@ -49524,25 +49524,25 @@
       </c>
       <c r="H683" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I683" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J683" t="n">
-        <v>440</v>
+        <v>430</v>
       </c>
       <c r="K683" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="L683" t="n">
-        <v>6000</v>
+        <v>3500</v>
       </c>
       <c r="M683" t="n">
-        <v>5545</v>
+        <v>3209</v>
       </c>
       <c r="N683" t="inlineStr">
         <is>
@@ -49551,11 +49551,11 @@
       </c>
       <c r="O683" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P683" t="n">
-        <v>308</v>
+        <v>178</v>
       </c>
       <c r="Q683" t="n">
         <v>18</v>
@@ -49596,7 +49596,7 @@
       </c>
       <c r="H684" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I684" t="inlineStr">
@@ -49605,16 +49605,16 @@
         </is>
       </c>
       <c r="J684" t="n">
-        <v>200</v>
+        <v>720</v>
       </c>
       <c r="K684" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="L684" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="M684" t="n">
-        <v>8000</v>
+        <v>11417</v>
       </c>
       <c r="N684" t="inlineStr">
         <is>
@@ -49623,11 +49623,11 @@
       </c>
       <c r="O684" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P684" t="n">
-        <v>444</v>
+        <v>634</v>
       </c>
       <c r="Q684" t="n">
         <v>18</v>
@@ -49668,7 +49668,7 @@
       </c>
       <c r="H685" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I685" t="inlineStr">
@@ -49677,16 +49677,16 @@
         </is>
       </c>
       <c r="J685" t="n">
-        <v>240</v>
+        <v>690</v>
       </c>
       <c r="K685" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L685" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="M685" t="n">
-        <v>6000</v>
+        <v>8406</v>
       </c>
       <c r="N685" t="inlineStr">
         <is>
@@ -49695,11 +49695,11 @@
       </c>
       <c r="O685" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P685" t="n">
-        <v>333</v>
+        <v>467</v>
       </c>
       <c r="Q685" t="n">
         <v>18</v>
@@ -49740,7 +49740,7 @@
       </c>
       <c r="H686" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I686" t="inlineStr">
@@ -49749,16 +49749,16 @@
         </is>
       </c>
       <c r="J686" t="n">
-        <v>180</v>
+        <v>440</v>
       </c>
       <c r="K686" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L686" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="M686" t="n">
-        <v>4000</v>
+        <v>5545</v>
       </c>
       <c r="N686" t="inlineStr">
         <is>
@@ -49767,11 +49767,11 @@
       </c>
       <c r="O686" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P686" t="n">
-        <v>222</v>
+        <v>308</v>
       </c>
       <c r="Q686" t="n">
         <v>18</v>
@@ -49797,7 +49797,7 @@
         </is>
       </c>
       <c r="D687" s="2" t="n">
-        <v>44166</v>
+        <v>44252</v>
       </c>
       <c r="E687" t="n">
         <v>13</v>
@@ -49812,7 +49812,7 @@
       </c>
       <c r="H687" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I687" t="inlineStr">
@@ -49821,16 +49821,16 @@
         </is>
       </c>
       <c r="J687" t="n">
-        <v>280</v>
+        <v>200</v>
       </c>
       <c r="K687" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="L687" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M687" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="N687" t="inlineStr">
         <is>
@@ -49839,11 +49839,11 @@
       </c>
       <c r="O687" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P687" t="n">
-        <v>556</v>
+        <v>444</v>
       </c>
       <c r="Q687" t="n">
         <v>18</v>
@@ -49869,7 +49869,7 @@
         </is>
       </c>
       <c r="D688" s="2" t="n">
-        <v>44166</v>
+        <v>44252</v>
       </c>
       <c r="E688" t="n">
         <v>13</v>
@@ -49884,25 +49884,25 @@
       </c>
       <c r="H688" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I688" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J688" t="n">
-        <v>180</v>
+        <v>240</v>
       </c>
       <c r="K688" t="n">
-        <v>11000</v>
+        <v>6000</v>
       </c>
       <c r="L688" t="n">
-        <v>11000</v>
+        <v>6000</v>
       </c>
       <c r="M688" t="n">
-        <v>11000</v>
+        <v>6000</v>
       </c>
       <c r="N688" t="inlineStr">
         <is>
@@ -49911,11 +49911,11 @@
       </c>
       <c r="O688" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P688" t="n">
-        <v>611</v>
+        <v>333</v>
       </c>
       <c r="Q688" t="n">
         <v>18</v>
@@ -49941,7 +49941,7 @@
         </is>
       </c>
       <c r="D689" s="2" t="n">
-        <v>44166</v>
+        <v>44252</v>
       </c>
       <c r="E689" t="n">
         <v>13</v>
@@ -49956,25 +49956,25 @@
       </c>
       <c r="H689" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I689" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J689" t="n">
-        <v>360</v>
+        <v>180</v>
       </c>
       <c r="K689" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="L689" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="M689" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="N689" t="inlineStr">
         <is>
@@ -49983,11 +49983,11 @@
       </c>
       <c r="O689" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P689" t="n">
-        <v>444</v>
+        <v>222</v>
       </c>
       <c r="Q689" t="n">
         <v>18</v>
@@ -50033,20 +50033,20 @@
       </c>
       <c r="I690" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J690" t="n">
-        <v>240</v>
+        <v>280</v>
       </c>
       <c r="K690" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="L690" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M690" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="N690" t="inlineStr">
         <is>
@@ -50055,11 +50055,11 @@
       </c>
       <c r="O690" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P690" t="n">
-        <v>444</v>
+        <v>556</v>
       </c>
       <c r="Q690" t="n">
         <v>18</v>
@@ -50105,20 +50105,20 @@
       </c>
       <c r="I691" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J691" t="n">
-        <v>240</v>
+        <v>180</v>
       </c>
       <c r="K691" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="L691" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="M691" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="N691" t="inlineStr">
         <is>
@@ -50127,11 +50127,11 @@
       </c>
       <c r="O691" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P691" t="n">
-        <v>333</v>
+        <v>611</v>
       </c>
       <c r="Q691" t="n">
         <v>18</v>
@@ -50177,20 +50177,20 @@
       </c>
       <c r="I692" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J692" t="n">
-        <v>135</v>
+        <v>360</v>
       </c>
       <c r="K692" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L692" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M692" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="N692" t="inlineStr">
         <is>
@@ -50199,11 +50199,11 @@
       </c>
       <c r="O692" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P692" t="n">
-        <v>333</v>
+        <v>444</v>
       </c>
       <c r="Q692" t="n">
         <v>18</v>
@@ -50229,7 +50229,7 @@
         </is>
       </c>
       <c r="D693" s="2" t="n">
-        <v>44168</v>
+        <v>44166</v>
       </c>
       <c r="E693" t="n">
         <v>13</v>
@@ -50249,20 +50249,20 @@
       </c>
       <c r="I693" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J693" t="n">
-        <v>1140</v>
+        <v>240</v>
       </c>
       <c r="K693" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="L693" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="M693" t="n">
-        <v>11579</v>
+        <v>8000</v>
       </c>
       <c r="N693" t="inlineStr">
         <is>
@@ -50271,11 +50271,11 @@
       </c>
       <c r="O693" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P693" t="n">
-        <v>643</v>
+        <v>444</v>
       </c>
       <c r="Q693" t="n">
         <v>18</v>
@@ -50301,7 +50301,7 @@
         </is>
       </c>
       <c r="D694" s="2" t="n">
-        <v>44168</v>
+        <v>44166</v>
       </c>
       <c r="E694" t="n">
         <v>13</v>
@@ -50321,20 +50321,20 @@
       </c>
       <c r="I694" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J694" t="n">
-        <v>1370</v>
+        <v>240</v>
       </c>
       <c r="K694" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="L694" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="M694" t="n">
-        <v>9577</v>
+        <v>6000</v>
       </c>
       <c r="N694" t="inlineStr">
         <is>
@@ -50343,11 +50343,11 @@
       </c>
       <c r="O694" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P694" t="n">
-        <v>532</v>
+        <v>333</v>
       </c>
       <c r="Q694" t="n">
         <v>18</v>
@@ -50373,7 +50373,7 @@
         </is>
       </c>
       <c r="D695" s="2" t="n">
-        <v>44168</v>
+        <v>44166</v>
       </c>
       <c r="E695" t="n">
         <v>13</v>
@@ -50397,16 +50397,16 @@
         </is>
       </c>
       <c r="J695" t="n">
-        <v>950</v>
+        <v>135</v>
       </c>
       <c r="K695" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="L695" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="M695" t="n">
-        <v>6800</v>
+        <v>6000</v>
       </c>
       <c r="N695" t="inlineStr">
         <is>
@@ -50415,11 +50415,11 @@
       </c>
       <c r="O695" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P695" t="n">
-        <v>378</v>
+        <v>333</v>
       </c>
       <c r="Q695" t="n">
         <v>18</v>
@@ -50465,20 +50465,20 @@
       </c>
       <c r="I696" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J696" t="n">
-        <v>720</v>
+        <v>1140</v>
       </c>
       <c r="K696" t="n">
-        <v>4500</v>
+        <v>11000</v>
       </c>
       <c r="L696" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="M696" t="n">
-        <v>4792</v>
+        <v>11579</v>
       </c>
       <c r="N696" t="inlineStr">
         <is>
@@ -50491,7 +50491,7 @@
         </is>
       </c>
       <c r="P696" t="n">
-        <v>266</v>
+        <v>643</v>
       </c>
       <c r="Q696" t="n">
         <v>18</v>
@@ -50517,7 +50517,7 @@
         </is>
       </c>
       <c r="D697" s="2" t="n">
-        <v>44369</v>
+        <v>44168</v>
       </c>
       <c r="E697" t="n">
         <v>13</v>
@@ -50537,20 +50537,20 @@
       </c>
       <c r="I697" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J697" t="n">
-        <v>290</v>
+        <v>1370</v>
       </c>
       <c r="K697" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="L697" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M697" t="n">
-        <v>8000</v>
+        <v>9577</v>
       </c>
       <c r="N697" t="inlineStr">
         <is>
@@ -50563,7 +50563,7 @@
         </is>
       </c>
       <c r="P697" t="n">
-        <v>444</v>
+        <v>532</v>
       </c>
       <c r="Q697" t="n">
         <v>18</v>
@@ -50589,7 +50589,7 @@
         </is>
       </c>
       <c r="D698" s="2" t="n">
-        <v>44369</v>
+        <v>44168</v>
       </c>
       <c r="E698" t="n">
         <v>13</v>
@@ -50609,20 +50609,20 @@
       </c>
       <c r="I698" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J698" t="n">
-        <v>580</v>
+        <v>950</v>
       </c>
       <c r="K698" t="n">
-        <v>11000</v>
+        <v>6500</v>
       </c>
       <c r="L698" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="M698" t="n">
-        <v>11000</v>
+        <v>6800</v>
       </c>
       <c r="N698" t="inlineStr">
         <is>
@@ -50631,11 +50631,11 @@
       </c>
       <c r="O698" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P698" t="n">
-        <v>611</v>
+        <v>378</v>
       </c>
       <c r="Q698" t="n">
         <v>18</v>
@@ -50661,7 +50661,7 @@
         </is>
       </c>
       <c r="D699" s="2" t="n">
-        <v>44369</v>
+        <v>44168</v>
       </c>
       <c r="E699" t="n">
         <v>13</v>
@@ -50681,20 +50681,20 @@
       </c>
       <c r="I699" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J699" t="n">
-        <v>320</v>
+        <v>720</v>
       </c>
       <c r="K699" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="L699" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="M699" t="n">
-        <v>7000</v>
+        <v>4792</v>
       </c>
       <c r="N699" t="inlineStr">
         <is>
@@ -50707,7 +50707,7 @@
         </is>
       </c>
       <c r="P699" t="n">
-        <v>389</v>
+        <v>266</v>
       </c>
       <c r="Q699" t="n">
         <v>18</v>
@@ -50753,20 +50753,20 @@
       </c>
       <c r="I700" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J700" t="n">
-        <v>490</v>
+        <v>290</v>
       </c>
       <c r="K700" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="L700" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M700" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="N700" t="inlineStr">
         <is>
@@ -50775,11 +50775,11 @@
       </c>
       <c r="O700" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P700" t="n">
-        <v>556</v>
+        <v>444</v>
       </c>
       <c r="Q700" t="n">
         <v>18</v>
@@ -50825,20 +50825,20 @@
       </c>
       <c r="I701" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J701" t="n">
-        <v>170</v>
+        <v>580</v>
       </c>
       <c r="K701" t="n">
-        <v>5000</v>
+        <v>11000</v>
       </c>
       <c r="L701" t="n">
-        <v>5000</v>
+        <v>11000</v>
       </c>
       <c r="M701" t="n">
-        <v>5000</v>
+        <v>11000</v>
       </c>
       <c r="N701" t="inlineStr">
         <is>
@@ -50847,11 +50847,11 @@
       </c>
       <c r="O701" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P701" t="n">
-        <v>278</v>
+        <v>611</v>
       </c>
       <c r="Q701" t="n">
         <v>18</v>
@@ -50897,20 +50897,20 @@
       </c>
       <c r="I702" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J702" t="n">
-        <v>370</v>
+        <v>320</v>
       </c>
       <c r="K702" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="L702" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M702" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="N702" t="inlineStr">
         <is>
@@ -50919,11 +50919,11 @@
       </c>
       <c r="O702" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P702" t="n">
-        <v>500</v>
+        <v>389</v>
       </c>
       <c r="Q702" t="n">
         <v>18</v>
@@ -50949,7 +50949,7 @@
         </is>
       </c>
       <c r="D703" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E703" t="n">
         <v>13</v>
@@ -50969,20 +50969,20 @@
       </c>
       <c r="I703" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J703" t="n">
-        <v>1060</v>
+        <v>490</v>
       </c>
       <c r="K703" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="L703" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M703" t="n">
-        <v>11547</v>
+        <v>10000</v>
       </c>
       <c r="N703" t="inlineStr">
         <is>
@@ -50995,7 +50995,7 @@
         </is>
       </c>
       <c r="P703" t="n">
-        <v>642</v>
+        <v>556</v>
       </c>
       <c r="Q703" t="n">
         <v>18</v>
@@ -51021,7 +51021,7 @@
         </is>
       </c>
       <c r="D704" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E704" t="n">
         <v>13</v>
@@ -51041,20 +51041,20 @@
       </c>
       <c r="I704" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J704" t="n">
-        <v>600</v>
+        <v>170</v>
       </c>
       <c r="K704" t="n">
         <v>5000</v>
       </c>
       <c r="L704" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="M704" t="n">
-        <v>5533</v>
+        <v>5000</v>
       </c>
       <c r="N704" t="inlineStr">
         <is>
@@ -51067,7 +51067,7 @@
         </is>
       </c>
       <c r="P704" t="n">
-        <v>307</v>
+        <v>278</v>
       </c>
       <c r="Q704" t="n">
         <v>18</v>
@@ -51093,7 +51093,7 @@
         </is>
       </c>
       <c r="D705" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E705" t="n">
         <v>13</v>
@@ -51113,20 +51113,20 @@
       </c>
       <c r="I705" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J705" t="n">
-        <v>960</v>
+        <v>370</v>
       </c>
       <c r="K705" t="n">
         <v>9000</v>
       </c>
       <c r="L705" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="M705" t="n">
-        <v>9542</v>
+        <v>9000</v>
       </c>
       <c r="N705" t="inlineStr">
         <is>
@@ -51139,7 +51139,7 @@
         </is>
       </c>
       <c r="P705" t="n">
-        <v>530</v>
+        <v>500</v>
       </c>
       <c r="Q705" t="n">
         <v>18</v>
@@ -51185,20 +51185,20 @@
       </c>
       <c r="I706" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J706" t="n">
-        <v>470</v>
+        <v>1060</v>
       </c>
       <c r="K706" t="n">
-        <v>3000</v>
+        <v>11000</v>
       </c>
       <c r="L706" t="n">
-        <v>4000</v>
+        <v>12000</v>
       </c>
       <c r="M706" t="n">
-        <v>3553</v>
+        <v>11547</v>
       </c>
       <c r="N706" t="inlineStr">
         <is>
@@ -51207,11 +51207,11 @@
       </c>
       <c r="O706" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P706" t="n">
-        <v>197</v>
+        <v>642</v>
       </c>
       <c r="Q706" t="n">
         <v>18</v>
@@ -51257,20 +51257,20 @@
       </c>
       <c r="I707" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J707" t="n">
-        <v>640</v>
+        <v>600</v>
       </c>
       <c r="K707" t="n">
+        <v>5000</v>
+      </c>
+      <c r="L707" t="n">
         <v>6000</v>
       </c>
-      <c r="L707" t="n">
-        <v>7000</v>
-      </c>
       <c r="M707" t="n">
-        <v>6531</v>
+        <v>5533</v>
       </c>
       <c r="N707" t="inlineStr">
         <is>
@@ -51279,11 +51279,11 @@
       </c>
       <c r="O707" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P707" t="n">
-        <v>363</v>
+        <v>307</v>
       </c>
       <c r="Q707" t="n">
         <v>18</v>
@@ -51309,7 +51309,7 @@
         </is>
       </c>
       <c r="D708" s="2" t="n">
-        <v>44221</v>
+        <v>44433</v>
       </c>
       <c r="E708" t="n">
         <v>13</v>
@@ -51329,20 +51329,20 @@
       </c>
       <c r="I708" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J708" t="n">
-        <v>580</v>
+        <v>960</v>
       </c>
       <c r="K708" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="L708" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="M708" t="n">
-        <v>12517</v>
+        <v>9542</v>
       </c>
       <c r="N708" t="inlineStr">
         <is>
@@ -51351,11 +51351,11 @@
       </c>
       <c r="O708" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P708" t="n">
-        <v>695</v>
+        <v>530</v>
       </c>
       <c r="Q708" t="n">
         <v>18</v>
@@ -51381,7 +51381,7 @@
         </is>
       </c>
       <c r="D709" s="2" t="n">
-        <v>44221</v>
+        <v>44433</v>
       </c>
       <c r="E709" t="n">
         <v>13</v>
@@ -51401,20 +51401,20 @@
       </c>
       <c r="I709" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J709" t="n">
-        <v>650</v>
+        <v>470</v>
       </c>
       <c r="K709" t="n">
-        <v>9500</v>
+        <v>3000</v>
       </c>
       <c r="L709" t="n">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="M709" t="n">
-        <v>9769</v>
+        <v>3553</v>
       </c>
       <c r="N709" t="inlineStr">
         <is>
@@ -51427,7 +51427,7 @@
         </is>
       </c>
       <c r="P709" t="n">
-        <v>543</v>
+        <v>197</v>
       </c>
       <c r="Q709" t="n">
         <v>18</v>
@@ -51453,7 +51453,7 @@
         </is>
       </c>
       <c r="D710" s="2" t="n">
-        <v>44221</v>
+        <v>44433</v>
       </c>
       <c r="E710" t="n">
         <v>13</v>
@@ -51477,16 +51477,16 @@
         </is>
       </c>
       <c r="J710" t="n">
-        <v>780</v>
+        <v>640</v>
       </c>
       <c r="K710" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="L710" t="n">
         <v>7000</v>
       </c>
       <c r="M710" t="n">
-        <v>6744</v>
+        <v>6531</v>
       </c>
       <c r="N710" t="inlineStr">
         <is>
@@ -51495,11 +51495,11 @@
       </c>
       <c r="O710" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P710" t="n">
-        <v>375</v>
+        <v>363</v>
       </c>
       <c r="Q710" t="n">
         <v>18</v>
@@ -51540,7 +51540,7 @@
       </c>
       <c r="H711" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I711" t="inlineStr">
@@ -51549,16 +51549,16 @@
         </is>
       </c>
       <c r="J711" t="n">
-        <v>380</v>
+        <v>580</v>
       </c>
       <c r="K711" t="n">
-        <v>9500</v>
+        <v>12000</v>
       </c>
       <c r="L711" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="M711" t="n">
-        <v>9737</v>
+        <v>12517</v>
       </c>
       <c r="N711" t="inlineStr">
         <is>
@@ -51567,11 +51567,11 @@
       </c>
       <c r="O711" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P711" t="n">
-        <v>541</v>
+        <v>695</v>
       </c>
       <c r="Q711" t="n">
         <v>18</v>
@@ -51612,7 +51612,7 @@
       </c>
       <c r="H712" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I712" t="inlineStr">
@@ -51621,16 +51621,16 @@
         </is>
       </c>
       <c r="J712" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="K712" t="n">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="L712" t="n">
-        <v>8500</v>
+        <v>10000</v>
       </c>
       <c r="M712" t="n">
-        <v>8280</v>
+        <v>9769</v>
       </c>
       <c r="N712" t="inlineStr">
         <is>
@@ -51639,11 +51639,11 @@
       </c>
       <c r="O712" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P712" t="n">
-        <v>460</v>
+        <v>543</v>
       </c>
       <c r="Q712" t="n">
         <v>18</v>
@@ -51684,7 +51684,7 @@
       </c>
       <c r="H713" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I713" t="inlineStr">
@@ -51693,16 +51693,16 @@
         </is>
       </c>
       <c r="J713" t="n">
-        <v>500</v>
+        <v>780</v>
       </c>
       <c r="K713" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="L713" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="M713" t="n">
-        <v>5280</v>
+        <v>6744</v>
       </c>
       <c r="N713" t="inlineStr">
         <is>
@@ -51711,11 +51711,11 @@
       </c>
       <c r="O713" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P713" t="n">
-        <v>293</v>
+        <v>375</v>
       </c>
       <c r="Q713" t="n">
         <v>18</v>
@@ -51741,7 +51741,7 @@
         </is>
       </c>
       <c r="D714" s="2" t="n">
-        <v>44371</v>
+        <v>44221</v>
       </c>
       <c r="E714" t="n">
         <v>13</v>
@@ -51756,7 +51756,7 @@
       </c>
       <c r="H714" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I714" t="inlineStr">
@@ -51765,16 +51765,16 @@
         </is>
       </c>
       <c r="J714" t="n">
-        <v>520</v>
+        <v>380</v>
       </c>
       <c r="K714" t="n">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="L714" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M714" t="n">
-        <v>8538</v>
+        <v>9737</v>
       </c>
       <c r="N714" t="inlineStr">
         <is>
@@ -51783,11 +51783,11 @@
       </c>
       <c r="O714" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P714" t="n">
-        <v>474</v>
+        <v>541</v>
       </c>
       <c r="Q714" t="n">
         <v>18</v>
@@ -51813,7 +51813,7 @@
         </is>
       </c>
       <c r="D715" s="2" t="n">
-        <v>44371</v>
+        <v>44221</v>
       </c>
       <c r="E715" t="n">
         <v>13</v>
@@ -51828,25 +51828,25 @@
       </c>
       <c r="H715" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I715" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J715" t="n">
-        <v>580</v>
+        <v>500</v>
       </c>
       <c r="K715" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="L715" t="n">
-        <v>12000</v>
+        <v>8500</v>
       </c>
       <c r="M715" t="n">
-        <v>11517</v>
+        <v>8280</v>
       </c>
       <c r="N715" t="inlineStr">
         <is>
@@ -51855,11 +51855,11 @@
       </c>
       <c r="O715" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P715" t="n">
-        <v>640</v>
+        <v>460</v>
       </c>
       <c r="Q715" t="n">
         <v>18</v>
@@ -51885,7 +51885,7 @@
         </is>
       </c>
       <c r="D716" s="2" t="n">
-        <v>44371</v>
+        <v>44221</v>
       </c>
       <c r="E716" t="n">
         <v>13</v>
@@ -51900,25 +51900,25 @@
       </c>
       <c r="H716" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I716" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J716" t="n">
-        <v>680</v>
+        <v>500</v>
       </c>
       <c r="K716" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="L716" t="n">
-        <v>7500</v>
+        <v>5500</v>
       </c>
       <c r="M716" t="n">
-        <v>7243</v>
+        <v>5280</v>
       </c>
       <c r="N716" t="inlineStr">
         <is>
@@ -51927,11 +51927,11 @@
       </c>
       <c r="O716" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P716" t="n">
-        <v>402</v>
+        <v>293</v>
       </c>
       <c r="Q716" t="n">
         <v>18</v>
@@ -51977,20 +51977,20 @@
       </c>
       <c r="I717" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J717" t="n">
-        <v>680</v>
+        <v>520</v>
       </c>
       <c r="K717" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="L717" t="n">
-        <v>10500</v>
+        <v>9000</v>
       </c>
       <c r="M717" t="n">
-        <v>10206</v>
+        <v>8538</v>
       </c>
       <c r="N717" t="inlineStr">
         <is>
@@ -51999,11 +51999,11 @@
       </c>
       <c r="O717" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P717" t="n">
-        <v>567</v>
+        <v>474</v>
       </c>
       <c r="Q717" t="n">
         <v>18</v>
@@ -52049,20 +52049,20 @@
       </c>
       <c r="I718" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J718" t="n">
-        <v>290</v>
+        <v>580</v>
       </c>
       <c r="K718" t="n">
-        <v>5000</v>
+        <v>11000</v>
       </c>
       <c r="L718" t="n">
-        <v>5500</v>
+        <v>12000</v>
       </c>
       <c r="M718" t="n">
-        <v>5207</v>
+        <v>11517</v>
       </c>
       <c r="N718" t="inlineStr">
         <is>
@@ -52071,11 +52071,11 @@
       </c>
       <c r="O718" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P718" t="n">
-        <v>289</v>
+        <v>640</v>
       </c>
       <c r="Q718" t="n">
         <v>18</v>
@@ -52121,20 +52121,20 @@
       </c>
       <c r="I719" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J719" t="n">
-        <v>530</v>
+        <v>680</v>
       </c>
       <c r="K719" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L719" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="M719" t="n">
-        <v>6472</v>
+        <v>7243</v>
       </c>
       <c r="N719" t="inlineStr">
         <is>
@@ -52143,11 +52143,11 @@
       </c>
       <c r="O719" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P719" t="n">
-        <v>360</v>
+        <v>402</v>
       </c>
       <c r="Q719" t="n">
         <v>18</v>
@@ -52173,7 +52173,7 @@
         </is>
       </c>
       <c r="D720" s="2" t="n">
-        <v>44316</v>
+        <v>44371</v>
       </c>
       <c r="E720" t="n">
         <v>13</v>
@@ -52193,20 +52193,20 @@
       </c>
       <c r="I720" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J720" t="n">
-        <v>640</v>
+        <v>680</v>
       </c>
       <c r="K720" t="n">
-        <v>8500</v>
+        <v>10000</v>
       </c>
       <c r="L720" t="n">
-        <v>9000</v>
+        <v>10500</v>
       </c>
       <c r="M720" t="n">
-        <v>8781</v>
+        <v>10206</v>
       </c>
       <c r="N720" t="inlineStr">
         <is>
@@ -52215,11 +52215,11 @@
       </c>
       <c r="O720" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P720" t="n">
-        <v>488</v>
+        <v>567</v>
       </c>
       <c r="Q720" t="n">
         <v>18</v>
@@ -52245,7 +52245,7 @@
         </is>
       </c>
       <c r="D721" s="2" t="n">
-        <v>44316</v>
+        <v>44371</v>
       </c>
       <c r="E721" t="n">
         <v>13</v>
@@ -52265,20 +52265,20 @@
       </c>
       <c r="I721" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J721" t="n">
-        <v>580</v>
+        <v>290</v>
       </c>
       <c r="K721" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="L721" t="n">
-        <v>7500</v>
+        <v>5500</v>
       </c>
       <c r="M721" t="n">
-        <v>7241</v>
+        <v>5207</v>
       </c>
       <c r="N721" t="inlineStr">
         <is>
@@ -52287,11 +52287,11 @@
       </c>
       <c r="O721" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P721" t="n">
-        <v>402</v>
+        <v>289</v>
       </c>
       <c r="Q721" t="n">
         <v>18</v>
@@ -52317,7 +52317,7 @@
         </is>
       </c>
       <c r="D722" s="2" t="n">
-        <v>44316</v>
+        <v>44371</v>
       </c>
       <c r="E722" t="n">
         <v>13</v>
@@ -52341,16 +52341,16 @@
         </is>
       </c>
       <c r="J722" t="n">
-        <v>520</v>
+        <v>530</v>
       </c>
       <c r="K722" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="L722" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="M722" t="n">
-        <v>4760</v>
+        <v>6472</v>
       </c>
       <c r="N722" t="inlineStr">
         <is>
@@ -52359,11 +52359,11 @@
       </c>
       <c r="O722" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P722" t="n">
-        <v>264</v>
+        <v>360</v>
       </c>
       <c r="Q722" t="n">
         <v>18</v>
@@ -52389,7 +52389,7 @@
         </is>
       </c>
       <c r="D723" s="2" t="n">
-        <v>44279</v>
+        <v>44316</v>
       </c>
       <c r="E723" t="n">
         <v>13</v>
@@ -52409,20 +52409,20 @@
       </c>
       <c r="I723" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J723" t="n">
-        <v>580</v>
+        <v>640</v>
       </c>
       <c r="K723" t="n">
-        <v>8000</v>
+        <v>8500</v>
       </c>
       <c r="L723" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M723" t="n">
-        <v>8000</v>
+        <v>8781</v>
       </c>
       <c r="N723" t="inlineStr">
         <is>
@@ -52431,11 +52431,11 @@
       </c>
       <c r="O723" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P723" t="n">
-        <v>444</v>
+        <v>488</v>
       </c>
       <c r="Q723" t="n">
         <v>18</v>
@@ -52461,7 +52461,7 @@
         </is>
       </c>
       <c r="D724" s="2" t="n">
-        <v>44279</v>
+        <v>44316</v>
       </c>
       <c r="E724" t="n">
         <v>13</v>
@@ -52481,20 +52481,20 @@
       </c>
       <c r="I724" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J724" t="n">
-        <v>650</v>
+        <v>580</v>
       </c>
       <c r="K724" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L724" t="n">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="M724" t="n">
-        <v>6000</v>
+        <v>7241</v>
       </c>
       <c r="N724" t="inlineStr">
         <is>
@@ -52503,11 +52503,11 @@
       </c>
       <c r="O724" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P724" t="n">
-        <v>333</v>
+        <v>402</v>
       </c>
       <c r="Q724" t="n">
         <v>18</v>
@@ -52533,7 +52533,7 @@
         </is>
       </c>
       <c r="D725" s="2" t="n">
-        <v>44279</v>
+        <v>44316</v>
       </c>
       <c r="E725" t="n">
         <v>13</v>
@@ -52553,20 +52553,20 @@
       </c>
       <c r="I725" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J725" t="n">
-        <v>470</v>
+        <v>520</v>
       </c>
       <c r="K725" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="L725" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M725" t="n">
-        <v>4000</v>
+        <v>4760</v>
       </c>
       <c r="N725" t="inlineStr">
         <is>
@@ -52575,11 +52575,11 @@
       </c>
       <c r="O725" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P725" t="n">
-        <v>222</v>
+        <v>264</v>
       </c>
       <c r="Q725" t="n">
         <v>18</v>
@@ -52620,25 +52620,25 @@
       </c>
       <c r="H726" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I726" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J726" t="n">
-        <v>220</v>
+        <v>580</v>
       </c>
       <c r="K726" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="L726" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="M726" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="N726" t="inlineStr">
         <is>
@@ -52647,11 +52647,11 @@
       </c>
       <c r="O726" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P726" t="n">
-        <v>278</v>
+        <v>444</v>
       </c>
       <c r="Q726" t="n">
         <v>18</v>
@@ -52692,25 +52692,25 @@
       </c>
       <c r="H727" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I727" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J727" t="n">
-        <v>300</v>
+        <v>650</v>
       </c>
       <c r="K727" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="L727" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="M727" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="N727" t="inlineStr">
         <is>
@@ -52719,11 +52719,11 @@
       </c>
       <c r="O727" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P727" t="n">
-        <v>222</v>
+        <v>333</v>
       </c>
       <c r="Q727" t="n">
         <v>18</v>
@@ -52764,25 +52764,25 @@
       </c>
       <c r="H728" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I728" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J728" t="n">
-        <v>200</v>
+        <v>470</v>
       </c>
       <c r="K728" t="n">
-        <v>2500</v>
+        <v>4000</v>
       </c>
       <c r="L728" t="n">
-        <v>2500</v>
+        <v>4000</v>
       </c>
       <c r="M728" t="n">
-        <v>2500</v>
+        <v>4000</v>
       </c>
       <c r="N728" t="inlineStr">
         <is>
@@ -52791,11 +52791,11 @@
       </c>
       <c r="O728" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P728" t="n">
-        <v>139</v>
+        <v>222</v>
       </c>
       <c r="Q728" t="n">
         <v>18</v>
@@ -52821,7 +52821,7 @@
         </is>
       </c>
       <c r="D729" s="2" t="n">
-        <v>44397</v>
+        <v>44279</v>
       </c>
       <c r="E729" t="n">
         <v>13</v>
@@ -52836,7 +52836,7 @@
       </c>
       <c r="H729" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I729" t="inlineStr">
@@ -52845,16 +52845,16 @@
         </is>
       </c>
       <c r="J729" t="n">
-        <v>180</v>
+        <v>220</v>
       </c>
       <c r="K729" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="L729" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="M729" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="N729" t="inlineStr">
         <is>
@@ -52863,11 +52863,11 @@
       </c>
       <c r="O729" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P729" t="n">
-        <v>556</v>
+        <v>278</v>
       </c>
       <c r="Q729" t="n">
         <v>18</v>
@@ -52893,7 +52893,7 @@
         </is>
       </c>
       <c r="D730" s="2" t="n">
-        <v>44397</v>
+        <v>44279</v>
       </c>
       <c r="E730" t="n">
         <v>13</v>
@@ -52908,25 +52908,25 @@
       </c>
       <c r="H730" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I730" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J730" t="n">
-        <v>1070</v>
+        <v>300</v>
       </c>
       <c r="K730" t="n">
-        <v>13000</v>
+        <v>4000</v>
       </c>
       <c r="L730" t="n">
-        <v>13500</v>
+        <v>4000</v>
       </c>
       <c r="M730" t="n">
-        <v>13290</v>
+        <v>4000</v>
       </c>
       <c r="N730" t="inlineStr">
         <is>
@@ -52935,11 +52935,11 @@
       </c>
       <c r="O730" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P730" t="n">
-        <v>738</v>
+        <v>222</v>
       </c>
       <c r="Q730" t="n">
         <v>18</v>
@@ -52965,7 +52965,7 @@
         </is>
       </c>
       <c r="D731" s="2" t="n">
-        <v>44397</v>
+        <v>44279</v>
       </c>
       <c r="E731" t="n">
         <v>13</v>
@@ -52980,25 +52980,25 @@
       </c>
       <c r="H731" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I731" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J731" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="K731" t="n">
-        <v>8000</v>
+        <v>2500</v>
       </c>
       <c r="L731" t="n">
-        <v>8000</v>
+        <v>2500</v>
       </c>
       <c r="M731" t="n">
-        <v>8000</v>
+        <v>2500</v>
       </c>
       <c r="N731" t="inlineStr">
         <is>
@@ -53007,11 +53007,11 @@
       </c>
       <c r="O731" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P731" t="n">
-        <v>444</v>
+        <v>139</v>
       </c>
       <c r="Q731" t="n">
         <v>18</v>
@@ -53057,20 +53057,20 @@
       </c>
       <c r="I732" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J732" t="n">
-        <v>960</v>
+        <v>180</v>
       </c>
       <c r="K732" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="L732" t="n">
-        <v>12500</v>
+        <v>10000</v>
       </c>
       <c r="M732" t="n">
-        <v>12292</v>
+        <v>10000</v>
       </c>
       <c r="N732" t="inlineStr">
         <is>
@@ -53079,11 +53079,11 @@
       </c>
       <c r="O732" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P732" t="n">
-        <v>683</v>
+        <v>556</v>
       </c>
       <c r="Q732" t="n">
         <v>18</v>
@@ -53129,20 +53129,20 @@
       </c>
       <c r="I733" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J733" t="n">
-        <v>200</v>
+        <v>1070</v>
       </c>
       <c r="K733" t="n">
-        <v>6000</v>
+        <v>13000</v>
       </c>
       <c r="L733" t="n">
-        <v>6000</v>
+        <v>13500</v>
       </c>
       <c r="M733" t="n">
-        <v>6000</v>
+        <v>13290</v>
       </c>
       <c r="N733" t="inlineStr">
         <is>
@@ -53151,11 +53151,11 @@
       </c>
       <c r="O733" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P733" t="n">
-        <v>333</v>
+        <v>738</v>
       </c>
       <c r="Q733" t="n">
         <v>18</v>
@@ -53201,20 +53201,20 @@
       </c>
       <c r="I734" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J734" t="n">
-        <v>580</v>
+        <v>250</v>
       </c>
       <c r="K734" t="n">
-        <v>9500</v>
+        <v>8000</v>
       </c>
       <c r="L734" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M734" t="n">
-        <v>9759</v>
+        <v>8000</v>
       </c>
       <c r="N734" t="inlineStr">
         <is>
@@ -53223,11 +53223,11 @@
       </c>
       <c r="O734" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P734" t="n">
-        <v>542</v>
+        <v>444</v>
       </c>
       <c r="Q734" t="n">
         <v>18</v>
@@ -53253,7 +53253,7 @@
         </is>
       </c>
       <c r="D735" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E735" t="n">
         <v>13</v>
@@ -53273,20 +53273,20 @@
       </c>
       <c r="I735" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J735" t="n">
-        <v>50</v>
+        <v>960</v>
       </c>
       <c r="K735" t="n">
         <v>12000</v>
       </c>
       <c r="L735" t="n">
-        <v>12000</v>
+        <v>12500</v>
       </c>
       <c r="M735" t="n">
-        <v>12000</v>
+        <v>12292</v>
       </c>
       <c r="N735" t="inlineStr">
         <is>
@@ -53299,7 +53299,7 @@
         </is>
       </c>
       <c r="P735" t="n">
-        <v>667</v>
+        <v>683</v>
       </c>
       <c r="Q735" t="n">
         <v>18</v>
@@ -53325,7 +53325,7 @@
         </is>
       </c>
       <c r="D736" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E736" t="n">
         <v>13</v>
@@ -53345,20 +53345,20 @@
       </c>
       <c r="I736" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J736" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="K736" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="L736" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="M736" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="N736" t="inlineStr">
         <is>
@@ -53367,11 +53367,11 @@
       </c>
       <c r="O736" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P736" t="n">
-        <v>556</v>
+        <v>333</v>
       </c>
       <c r="Q736" t="n">
         <v>18</v>
@@ -53397,7 +53397,7 @@
         </is>
       </c>
       <c r="D737" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E737" t="n">
         <v>13</v>
@@ -53421,16 +53421,16 @@
         </is>
       </c>
       <c r="J737" t="n">
-        <v>100</v>
+        <v>580</v>
       </c>
       <c r="K737" t="n">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="L737" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M737" t="n">
-        <v>8000</v>
+        <v>9759</v>
       </c>
       <c r="N737" t="inlineStr">
         <is>
@@ -53443,7 +53443,7 @@
         </is>
       </c>
       <c r="P737" t="n">
-        <v>444</v>
+        <v>542</v>
       </c>
       <c r="Q737" t="n">
         <v>18</v>
@@ -53469,7 +53469,7 @@
         </is>
       </c>
       <c r="D738" s="2" t="n">
-        <v>44277</v>
+        <v>44363</v>
       </c>
       <c r="E738" t="n">
         <v>13</v>
@@ -53493,16 +53493,16 @@
         </is>
       </c>
       <c r="J738" t="n">
-        <v>400</v>
+        <v>50</v>
       </c>
       <c r="K738" t="n">
-        <v>11500</v>
+        <v>12000</v>
       </c>
       <c r="L738" t="n">
         <v>12000</v>
       </c>
       <c r="M738" t="n">
-        <v>11850</v>
+        <v>12000</v>
       </c>
       <c r="N738" t="inlineStr">
         <is>
@@ -53511,11 +53511,11 @@
       </c>
       <c r="O738" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P738" t="n">
-        <v>658</v>
+        <v>667</v>
       </c>
       <c r="Q738" t="n">
         <v>18</v>
@@ -53541,7 +53541,7 @@
         </is>
       </c>
       <c r="D739" s="2" t="n">
-        <v>44277</v>
+        <v>44363</v>
       </c>
       <c r="E739" t="n">
         <v>13</v>
@@ -53565,16 +53565,16 @@
         </is>
       </c>
       <c r="J739" t="n">
-        <v>360</v>
+        <v>150</v>
       </c>
       <c r="K739" t="n">
-        <v>9500</v>
+        <v>10000</v>
       </c>
       <c r="L739" t="n">
         <v>10000</v>
       </c>
       <c r="M739" t="n">
-        <v>9833</v>
+        <v>10000</v>
       </c>
       <c r="N739" t="inlineStr">
         <is>
@@ -53583,11 +53583,11 @@
       </c>
       <c r="O739" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P739" t="n">
-        <v>546</v>
+        <v>556</v>
       </c>
       <c r="Q739" t="n">
         <v>18</v>
@@ -53613,7 +53613,7 @@
         </is>
       </c>
       <c r="D740" s="2" t="n">
-        <v>44277</v>
+        <v>44363</v>
       </c>
       <c r="E740" t="n">
         <v>13</v>
@@ -53637,16 +53637,16 @@
         </is>
       </c>
       <c r="J740" t="n">
-        <v>320</v>
+        <v>100</v>
       </c>
       <c r="K740" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L740" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="M740" t="n">
-        <v>7234</v>
+        <v>8000</v>
       </c>
       <c r="N740" t="inlineStr">
         <is>
@@ -53655,11 +53655,11 @@
       </c>
       <c r="O740" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P740" t="n">
-        <v>402</v>
+        <v>444</v>
       </c>
       <c r="Q740" t="n">
         <v>18</v>
@@ -53685,7 +53685,7 @@
         </is>
       </c>
       <c r="D741" s="2" t="n">
-        <v>44291</v>
+        <v>44277</v>
       </c>
       <c r="E741" t="n">
         <v>13</v>
@@ -53709,16 +53709,16 @@
         </is>
       </c>
       <c r="J741" t="n">
-        <v>520</v>
+        <v>400</v>
       </c>
       <c r="K741" t="n">
-        <v>19000</v>
+        <v>11500</v>
       </c>
       <c r="L741" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="M741" t="n">
-        <v>19538</v>
+        <v>11850</v>
       </c>
       <c r="N741" t="inlineStr">
         <is>
@@ -53731,7 +53731,7 @@
         </is>
       </c>
       <c r="P741" t="n">
-        <v>1085</v>
+        <v>658</v>
       </c>
       <c r="Q741" t="n">
         <v>18</v>
@@ -53757,7 +53757,7 @@
         </is>
       </c>
       <c r="D742" s="2" t="n">
-        <v>44291</v>
+        <v>44277</v>
       </c>
       <c r="E742" t="n">
         <v>13</v>
@@ -53781,16 +53781,16 @@
         </is>
       </c>
       <c r="J742" t="n">
-        <v>700</v>
+        <v>360</v>
       </c>
       <c r="K742" t="n">
-        <v>17000</v>
+        <v>9500</v>
       </c>
       <c r="L742" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="M742" t="n">
-        <v>17429</v>
+        <v>9833</v>
       </c>
       <c r="N742" t="inlineStr">
         <is>
@@ -53803,7 +53803,7 @@
         </is>
       </c>
       <c r="P742" t="n">
-        <v>968</v>
+        <v>546</v>
       </c>
       <c r="Q742" t="n">
         <v>18</v>
@@ -53829,7 +53829,7 @@
         </is>
       </c>
       <c r="D743" s="2" t="n">
-        <v>44291</v>
+        <v>44277</v>
       </c>
       <c r="E743" t="n">
         <v>13</v>
@@ -53853,16 +53853,16 @@
         </is>
       </c>
       <c r="J743" t="n">
-        <v>590</v>
+        <v>320</v>
       </c>
       <c r="K743" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="L743" t="n">
-        <v>15000</v>
+        <v>7500</v>
       </c>
       <c r="M743" t="n">
-        <v>14661</v>
+        <v>7234</v>
       </c>
       <c r="N743" t="inlineStr">
         <is>
@@ -53875,7 +53875,7 @@
         </is>
       </c>
       <c r="P743" t="n">
-        <v>814</v>
+        <v>402</v>
       </c>
       <c r="Q743" t="n">
         <v>18</v>
@@ -53901,7 +53901,7 @@
         </is>
       </c>
       <c r="D744" s="2" t="n">
-        <v>44273</v>
+        <v>44291</v>
       </c>
       <c r="E744" t="n">
         <v>13</v>
@@ -53925,16 +53925,16 @@
         </is>
       </c>
       <c r="J744" t="n">
-        <v>800</v>
+        <v>520</v>
       </c>
       <c r="K744" t="n">
-        <v>11500</v>
+        <v>19000</v>
       </c>
       <c r="L744" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="M744" t="n">
-        <v>11762</v>
+        <v>19538</v>
       </c>
       <c r="N744" t="inlineStr">
         <is>
@@ -53947,7 +53947,7 @@
         </is>
       </c>
       <c r="P744" t="n">
-        <v>653</v>
+        <v>1085</v>
       </c>
       <c r="Q744" t="n">
         <v>18</v>
@@ -53973,7 +53973,7 @@
         </is>
       </c>
       <c r="D745" s="2" t="n">
-        <v>44273</v>
+        <v>44291</v>
       </c>
       <c r="E745" t="n">
         <v>13</v>
@@ -53997,16 +53997,16 @@
         </is>
       </c>
       <c r="J745" t="n">
-        <v>860</v>
+        <v>700</v>
       </c>
       <c r="K745" t="n">
-        <v>9500</v>
+        <v>17000</v>
       </c>
       <c r="L745" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="M745" t="n">
-        <v>9767</v>
+        <v>17429</v>
       </c>
       <c r="N745" t="inlineStr">
         <is>
@@ -54019,7 +54019,7 @@
         </is>
       </c>
       <c r="P745" t="n">
-        <v>543</v>
+        <v>968</v>
       </c>
       <c r="Q745" t="n">
         <v>18</v>
@@ -54045,7 +54045,7 @@
         </is>
       </c>
       <c r="D746" s="2" t="n">
-        <v>44273</v>
+        <v>44291</v>
       </c>
       <c r="E746" t="n">
         <v>13</v>
@@ -54069,16 +54069,16 @@
         </is>
       </c>
       <c r="J746" t="n">
-        <v>550</v>
+        <v>590</v>
       </c>
       <c r="K746" t="n">
-        <v>8500</v>
+        <v>14000</v>
       </c>
       <c r="L746" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="M746" t="n">
-        <v>8727</v>
+        <v>14661</v>
       </c>
       <c r="N746" t="inlineStr">
         <is>
@@ -54091,7 +54091,7 @@
         </is>
       </c>
       <c r="P746" t="n">
-        <v>485</v>
+        <v>814</v>
       </c>
       <c r="Q746" t="n">
         <v>18</v>
@@ -54132,7 +54132,7 @@
       </c>
       <c r="H747" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I747" t="inlineStr">
@@ -54141,16 +54141,16 @@
         </is>
       </c>
       <c r="J747" t="n">
-        <v>180</v>
+        <v>800</v>
       </c>
       <c r="K747" t="n">
-        <v>7000</v>
+        <v>11500</v>
       </c>
       <c r="L747" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="M747" t="n">
-        <v>7000</v>
+        <v>11762</v>
       </c>
       <c r="N747" t="inlineStr">
         <is>
@@ -54159,11 +54159,11 @@
       </c>
       <c r="O747" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P747" t="n">
-        <v>389</v>
+        <v>653</v>
       </c>
       <c r="Q747" t="n">
         <v>18</v>
@@ -54204,7 +54204,7 @@
       </c>
       <c r="H748" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I748" t="inlineStr">
@@ -54213,16 +54213,16 @@
         </is>
       </c>
       <c r="J748" t="n">
-        <v>200</v>
+        <v>860</v>
       </c>
       <c r="K748" t="n">
-        <v>5000</v>
+        <v>9500</v>
       </c>
       <c r="L748" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="M748" t="n">
-        <v>5000</v>
+        <v>9767</v>
       </c>
       <c r="N748" t="inlineStr">
         <is>
@@ -54231,11 +54231,11 @@
       </c>
       <c r="O748" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P748" t="n">
-        <v>278</v>
+        <v>543</v>
       </c>
       <c r="Q748" t="n">
         <v>18</v>
@@ -54276,7 +54276,7 @@
       </c>
       <c r="H749" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I749" t="inlineStr">
@@ -54285,16 +54285,16 @@
         </is>
       </c>
       <c r="J749" t="n">
-        <v>170</v>
+        <v>550</v>
       </c>
       <c r="K749" t="n">
-        <v>4000</v>
+        <v>8500</v>
       </c>
       <c r="L749" t="n">
-        <v>4000</v>
+        <v>9000</v>
       </c>
       <c r="M749" t="n">
-        <v>4000</v>
+        <v>8727</v>
       </c>
       <c r="N749" t="inlineStr">
         <is>
@@ -54303,11 +54303,11 @@
       </c>
       <c r="O749" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P749" t="n">
-        <v>222</v>
+        <v>485</v>
       </c>
       <c r="Q749" t="n">
         <v>18</v>
@@ -54333,7 +54333,7 @@
         </is>
       </c>
       <c r="D750" s="2" t="n">
-        <v>44438</v>
+        <v>44273</v>
       </c>
       <c r="E750" t="n">
         <v>13</v>
@@ -54348,7 +54348,7 @@
       </c>
       <c r="H750" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I750" t="inlineStr">
@@ -54357,16 +54357,16 @@
         </is>
       </c>
       <c r="J750" t="n">
-        <v>530</v>
+        <v>180</v>
       </c>
       <c r="K750" t="n">
-        <v>7500</v>
+        <v>7000</v>
       </c>
       <c r="L750" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M750" t="n">
-        <v>7764</v>
+        <v>7000</v>
       </c>
       <c r="N750" t="inlineStr">
         <is>
@@ -54375,11 +54375,11 @@
       </c>
       <c r="O750" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P750" t="n">
-        <v>431</v>
+        <v>389</v>
       </c>
       <c r="Q750" t="n">
         <v>18</v>
@@ -54405,7 +54405,7 @@
         </is>
       </c>
       <c r="D751" s="2" t="n">
-        <v>44438</v>
+        <v>44273</v>
       </c>
       <c r="E751" t="n">
         <v>13</v>
@@ -54420,7 +54420,7 @@
       </c>
       <c r="H751" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I751" t="inlineStr">
@@ -54429,16 +54429,16 @@
         </is>
       </c>
       <c r="J751" t="n">
-        <v>630</v>
+        <v>200</v>
       </c>
       <c r="K751" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="L751" t="n">
-        <v>6500</v>
+        <v>5000</v>
       </c>
       <c r="M751" t="n">
-        <v>6222</v>
+        <v>5000</v>
       </c>
       <c r="N751" t="inlineStr">
         <is>
@@ -54447,11 +54447,11 @@
       </c>
       <c r="O751" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P751" t="n">
-        <v>346</v>
+        <v>278</v>
       </c>
       <c r="Q751" t="n">
         <v>18</v>
@@ -54477,7 +54477,7 @@
         </is>
       </c>
       <c r="D752" s="2" t="n">
-        <v>44438</v>
+        <v>44273</v>
       </c>
       <c r="E752" t="n">
         <v>13</v>
@@ -54492,7 +54492,7 @@
       </c>
       <c r="H752" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I752" t="inlineStr">
@@ -54501,16 +54501,16 @@
         </is>
       </c>
       <c r="J752" t="n">
-        <v>560</v>
+        <v>170</v>
       </c>
       <c r="K752" t="n">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="L752" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="M752" t="n">
-        <v>4804</v>
+        <v>4000</v>
       </c>
       <c r="N752" t="inlineStr">
         <is>
@@ -54519,11 +54519,11 @@
       </c>
       <c r="O752" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P752" t="n">
-        <v>267</v>
+        <v>222</v>
       </c>
       <c r="Q752" t="n">
         <v>18</v>
@@ -54549,7 +54549,7 @@
         </is>
       </c>
       <c r="D753" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E753" t="n">
         <v>13</v>
@@ -54573,16 +54573,16 @@
         </is>
       </c>
       <c r="J753" t="n">
-        <v>240</v>
+        <v>530</v>
       </c>
       <c r="K753" t="n">
-        <v>9000</v>
+        <v>7500</v>
       </c>
       <c r="L753" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="M753" t="n">
-        <v>9000</v>
+        <v>7764</v>
       </c>
       <c r="N753" t="inlineStr">
         <is>
@@ -54595,7 +54595,7 @@
         </is>
       </c>
       <c r="P753" t="n">
-        <v>500</v>
+        <v>431</v>
       </c>
       <c r="Q753" t="n">
         <v>18</v>
@@ -54621,7 +54621,7 @@
         </is>
       </c>
       <c r="D754" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E754" t="n">
         <v>13</v>
@@ -54641,20 +54641,20 @@
       </c>
       <c r="I754" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J754" t="n">
-        <v>280</v>
+        <v>630</v>
       </c>
       <c r="K754" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="L754" t="n">
-        <v>12000</v>
+        <v>6500</v>
       </c>
       <c r="M754" t="n">
-        <v>12000</v>
+        <v>6222</v>
       </c>
       <c r="N754" t="inlineStr">
         <is>
@@ -54663,11 +54663,11 @@
       </c>
       <c r="O754" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P754" t="n">
-        <v>667</v>
+        <v>346</v>
       </c>
       <c r="Q754" t="n">
         <v>18</v>
@@ -54693,7 +54693,7 @@
         </is>
       </c>
       <c r="D755" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E755" t="n">
         <v>13</v>
@@ -54713,20 +54713,20 @@
       </c>
       <c r="I755" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J755" t="n">
-        <v>480</v>
+        <v>560</v>
       </c>
       <c r="K755" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="L755" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="M755" t="n">
-        <v>7000</v>
+        <v>4804</v>
       </c>
       <c r="N755" t="inlineStr">
         <is>
@@ -54739,7 +54739,7 @@
         </is>
       </c>
       <c r="P755" t="n">
-        <v>389</v>
+        <v>267</v>
       </c>
       <c r="Q755" t="n">
         <v>18</v>
@@ -54785,20 +54785,20 @@
       </c>
       <c r="I756" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J756" t="n">
-        <v>400</v>
+        <v>240</v>
       </c>
       <c r="K756" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="L756" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="M756" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="N756" t="inlineStr">
         <is>
@@ -54807,11 +54807,11 @@
       </c>
       <c r="O756" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P756" t="n">
-        <v>556</v>
+        <v>500</v>
       </c>
       <c r="Q756" t="n">
         <v>18</v>
@@ -54857,20 +54857,20 @@
       </c>
       <c r="I757" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J757" t="n">
-        <v>370</v>
+        <v>280</v>
       </c>
       <c r="K757" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="L757" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="M757" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="N757" t="inlineStr">
         <is>
@@ -54883,7 +54883,7 @@
         </is>
       </c>
       <c r="P757" t="n">
-        <v>389</v>
+        <v>667</v>
       </c>
       <c r="Q757" t="n">
         <v>18</v>
@@ -54909,7 +54909,7 @@
         </is>
       </c>
       <c r="D758" s="2" t="n">
-        <v>44286</v>
+        <v>44372</v>
       </c>
       <c r="E758" t="n">
         <v>13</v>
@@ -54929,20 +54929,20 @@
       </c>
       <c r="I758" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J758" t="n">
-        <v>780</v>
+        <v>480</v>
       </c>
       <c r="K758" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="L758" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="M758" t="n">
-        <v>13513</v>
+        <v>7000</v>
       </c>
       <c r="N758" t="inlineStr">
         <is>
@@ -54955,7 +54955,7 @@
         </is>
       </c>
       <c r="P758" t="n">
-        <v>751</v>
+        <v>389</v>
       </c>
       <c r="Q758" t="n">
         <v>18</v>
@@ -54981,7 +54981,7 @@
         </is>
       </c>
       <c r="D759" s="2" t="n">
-        <v>44286</v>
+        <v>44372</v>
       </c>
       <c r="E759" t="n">
         <v>13</v>
@@ -55005,16 +55005,16 @@
         </is>
       </c>
       <c r="J759" t="n">
-        <v>1040</v>
+        <v>400</v>
       </c>
       <c r="K759" t="n">
         <v>10000</v>
       </c>
       <c r="L759" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="M759" t="n">
-        <v>10462</v>
+        <v>10000</v>
       </c>
       <c r="N759" t="inlineStr">
         <is>
@@ -55023,11 +55023,11 @@
       </c>
       <c r="O759" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P759" t="n">
-        <v>581</v>
+        <v>556</v>
       </c>
       <c r="Q759" t="n">
         <v>18</v>
@@ -55053,7 +55053,7 @@
         </is>
       </c>
       <c r="D760" s="2" t="n">
-        <v>44286</v>
+        <v>44372</v>
       </c>
       <c r="E760" t="n">
         <v>13</v>
@@ -55077,16 +55077,16 @@
         </is>
       </c>
       <c r="J760" t="n">
-        <v>550</v>
+        <v>370</v>
       </c>
       <c r="K760" t="n">
         <v>7000</v>
       </c>
       <c r="L760" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M760" t="n">
-        <v>7545</v>
+        <v>7000</v>
       </c>
       <c r="N760" t="inlineStr">
         <is>
@@ -55095,11 +55095,11 @@
       </c>
       <c r="O760" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P760" t="n">
-        <v>419</v>
+        <v>389</v>
       </c>
       <c r="Q760" t="n">
         <v>18</v>
@@ -55140,7 +55140,7 @@
       </c>
       <c r="H761" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I761" t="inlineStr">
@@ -55149,16 +55149,16 @@
         </is>
       </c>
       <c r="J761" t="n">
-        <v>580</v>
+        <v>780</v>
       </c>
       <c r="K761" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="L761" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="M761" t="n">
-        <v>7517</v>
+        <v>13513</v>
       </c>
       <c r="N761" t="inlineStr">
         <is>
@@ -55167,11 +55167,11 @@
       </c>
       <c r="O761" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P761" t="n">
-        <v>418</v>
+        <v>751</v>
       </c>
       <c r="Q761" t="n">
         <v>18</v>
@@ -55212,7 +55212,7 @@
       </c>
       <c r="H762" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I762" t="inlineStr">
@@ -55221,16 +55221,16 @@
         </is>
       </c>
       <c r="J762" t="n">
-        <v>550</v>
+        <v>1040</v>
       </c>
       <c r="K762" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="L762" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="M762" t="n">
-        <v>5455</v>
+        <v>10462</v>
       </c>
       <c r="N762" t="inlineStr">
         <is>
@@ -55239,11 +55239,11 @@
       </c>
       <c r="O762" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P762" t="n">
-        <v>303</v>
+        <v>581</v>
       </c>
       <c r="Q762" t="n">
         <v>18</v>
@@ -55284,7 +55284,7 @@
       </c>
       <c r="H763" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I763" t="inlineStr">
@@ -55293,16 +55293,16 @@
         </is>
       </c>
       <c r="J763" t="n">
-        <v>440</v>
+        <v>550</v>
       </c>
       <c r="K763" t="n">
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="L763" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="M763" t="n">
-        <v>3591</v>
+        <v>7545</v>
       </c>
       <c r="N763" t="inlineStr">
         <is>
@@ -55311,11 +55311,11 @@
       </c>
       <c r="O763" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P763" t="n">
-        <v>200</v>
+        <v>419</v>
       </c>
       <c r="Q763" t="n">
         <v>18</v>
@@ -55341,7 +55341,7 @@
         </is>
       </c>
       <c r="D764" s="2" t="n">
-        <v>44209</v>
+        <v>44286</v>
       </c>
       <c r="E764" t="n">
         <v>13</v>
@@ -55356,7 +55356,7 @@
       </c>
       <c r="H764" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I764" t="inlineStr">
@@ -55365,16 +55365,16 @@
         </is>
       </c>
       <c r="J764" t="n">
-        <v>960</v>
+        <v>580</v>
       </c>
       <c r="K764" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="L764" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="M764" t="n">
-        <v>12583</v>
+        <v>7517</v>
       </c>
       <c r="N764" t="inlineStr">
         <is>
@@ -55383,11 +55383,11 @@
       </c>
       <c r="O764" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P764" t="n">
-        <v>699</v>
+        <v>418</v>
       </c>
       <c r="Q764" t="n">
         <v>18</v>
@@ -55413,7 +55413,7 @@
         </is>
       </c>
       <c r="D765" s="2" t="n">
-        <v>44209</v>
+        <v>44286</v>
       </c>
       <c r="E765" t="n">
         <v>13</v>
@@ -55428,7 +55428,7 @@
       </c>
       <c r="H765" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I765" t="inlineStr">
@@ -55437,16 +55437,16 @@
         </is>
       </c>
       <c r="J765" t="n">
-        <v>1030</v>
+        <v>550</v>
       </c>
       <c r="K765" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="L765" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="M765" t="n">
-        <v>9466</v>
+        <v>5455</v>
       </c>
       <c r="N765" t="inlineStr">
         <is>
@@ -55455,11 +55455,11 @@
       </c>
       <c r="O765" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P765" t="n">
-        <v>526</v>
+        <v>303</v>
       </c>
       <c r="Q765" t="n">
         <v>18</v>
@@ -55485,7 +55485,7 @@
         </is>
       </c>
       <c r="D766" s="2" t="n">
-        <v>44209</v>
+        <v>44286</v>
       </c>
       <c r="E766" t="n">
         <v>13</v>
@@ -55500,7 +55500,7 @@
       </c>
       <c r="H766" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I766" t="inlineStr">
@@ -55509,16 +55509,16 @@
         </is>
       </c>
       <c r="J766" t="n">
-        <v>940</v>
+        <v>440</v>
       </c>
       <c r="K766" t="n">
-        <v>7000</v>
+        <v>3000</v>
       </c>
       <c r="L766" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="M766" t="n">
-        <v>7574</v>
+        <v>3591</v>
       </c>
       <c r="N766" t="inlineStr">
         <is>
@@ -55527,11 +55527,11 @@
       </c>
       <c r="O766" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P766" t="n">
-        <v>421</v>
+        <v>200</v>
       </c>
       <c r="Q766" t="n">
         <v>18</v>
@@ -55577,20 +55577,20 @@
       </c>
       <c r="I767" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J767" t="n">
-        <v>630</v>
+        <v>960</v>
       </c>
       <c r="K767" t="n">
-        <v>4000</v>
+        <v>12000</v>
       </c>
       <c r="L767" t="n">
-        <v>5000</v>
+        <v>13000</v>
       </c>
       <c r="M767" t="n">
-        <v>4444</v>
+        <v>12583</v>
       </c>
       <c r="N767" t="inlineStr">
         <is>
@@ -55603,7 +55603,7 @@
         </is>
       </c>
       <c r="P767" t="n">
-        <v>247</v>
+        <v>699</v>
       </c>
       <c r="Q767" t="n">
         <v>18</v>
@@ -55644,25 +55644,25 @@
       </c>
       <c r="H768" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I768" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J768" t="n">
-        <v>380</v>
+        <v>1030</v>
       </c>
       <c r="K768" t="n">
-        <v>9500</v>
+        <v>9000</v>
       </c>
       <c r="L768" t="n">
         <v>10000</v>
       </c>
       <c r="M768" t="n">
-        <v>9737</v>
+        <v>9466</v>
       </c>
       <c r="N768" t="inlineStr">
         <is>
@@ -55671,11 +55671,11 @@
       </c>
       <c r="O768" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P768" t="n">
-        <v>541</v>
+        <v>526</v>
       </c>
       <c r="Q768" t="n">
         <v>18</v>
@@ -55716,25 +55716,25 @@
       </c>
       <c r="H769" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I769" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J769" t="n">
-        <v>440</v>
+        <v>940</v>
       </c>
       <c r="K769" t="n">
-        <v>7500</v>
+        <v>7000</v>
       </c>
       <c r="L769" t="n">
         <v>8000</v>
       </c>
       <c r="M769" t="n">
-        <v>7773</v>
+        <v>7574</v>
       </c>
       <c r="N769" t="inlineStr">
         <is>
@@ -55743,11 +55743,11 @@
       </c>
       <c r="O769" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P769" t="n">
-        <v>432</v>
+        <v>421</v>
       </c>
       <c r="Q769" t="n">
         <v>18</v>
@@ -55788,16 +55788,16 @@
       </c>
       <c r="H770" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I770" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J770" t="n">
-        <v>470</v>
+        <v>630</v>
       </c>
       <c r="K770" t="n">
         <v>4000</v>
@@ -55806,7 +55806,7 @@
         <v>5000</v>
       </c>
       <c r="M770" t="n">
-        <v>4553</v>
+        <v>4444</v>
       </c>
       <c r="N770" t="inlineStr">
         <is>
@@ -55815,11 +55815,11 @@
       </c>
       <c r="O770" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P770" t="n">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="Q770" t="n">
         <v>18</v>
@@ -55845,7 +55845,7 @@
         </is>
       </c>
       <c r="D771" s="2" t="n">
-        <v>44160</v>
+        <v>44209</v>
       </c>
       <c r="E771" t="n">
         <v>13</v>
@@ -55860,7 +55860,7 @@
       </c>
       <c r="H771" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I771" t="inlineStr">
@@ -55869,16 +55869,16 @@
         </is>
       </c>
       <c r="J771" t="n">
-        <v>940</v>
+        <v>380</v>
       </c>
       <c r="K771" t="n">
-        <v>8500</v>
+        <v>9500</v>
       </c>
       <c r="L771" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M771" t="n">
-        <v>8766</v>
+        <v>9737</v>
       </c>
       <c r="N771" t="inlineStr">
         <is>
@@ -55887,11 +55887,11 @@
       </c>
       <c r="O771" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P771" t="n">
-        <v>487</v>
+        <v>541</v>
       </c>
       <c r="Q771" t="n">
         <v>18</v>
@@ -55917,7 +55917,7 @@
         </is>
       </c>
       <c r="D772" s="2" t="n">
-        <v>44160</v>
+        <v>44209</v>
       </c>
       <c r="E772" t="n">
         <v>13</v>
@@ -55932,7 +55932,7 @@
       </c>
       <c r="H772" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I772" t="inlineStr">
@@ -55941,16 +55941,16 @@
         </is>
       </c>
       <c r="J772" t="n">
-        <v>1020</v>
+        <v>440</v>
       </c>
       <c r="K772" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="L772" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M772" t="n">
-        <v>6706</v>
+        <v>7773</v>
       </c>
       <c r="N772" t="inlineStr">
         <is>
@@ -55959,11 +55959,11 @@
       </c>
       <c r="O772" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P772" t="n">
-        <v>373</v>
+        <v>432</v>
       </c>
       <c r="Q772" t="n">
         <v>18</v>
@@ -55989,7 +55989,7 @@
         </is>
       </c>
       <c r="D773" s="2" t="n">
-        <v>44160</v>
+        <v>44209</v>
       </c>
       <c r="E773" t="n">
         <v>13</v>
@@ -56004,7 +56004,7 @@
       </c>
       <c r="H773" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I773" t="inlineStr">
@@ -56013,16 +56013,16 @@
         </is>
       </c>
       <c r="J773" t="n">
-        <v>750</v>
+        <v>470</v>
       </c>
       <c r="K773" t="n">
+        <v>4000</v>
+      </c>
+      <c r="L773" t="n">
         <v>5000</v>
       </c>
-      <c r="L773" t="n">
-        <v>5500</v>
-      </c>
       <c r="M773" t="n">
-        <v>5267</v>
+        <v>4553</v>
       </c>
       <c r="N773" t="inlineStr">
         <is>
@@ -56031,11 +56031,11 @@
       </c>
       <c r="O773" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P773" t="n">
-        <v>293</v>
+        <v>253</v>
       </c>
       <c r="Q773" t="n">
         <v>18</v>
@@ -56081,20 +56081,20 @@
       </c>
       <c r="I774" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J774" t="n">
-        <v>980</v>
+        <v>940</v>
       </c>
       <c r="K774" t="n">
-        <v>3500</v>
+        <v>8500</v>
       </c>
       <c r="L774" t="n">
-        <v>4000</v>
+        <v>9000</v>
       </c>
       <c r="M774" t="n">
-        <v>3770</v>
+        <v>8766</v>
       </c>
       <c r="N774" t="inlineStr">
         <is>
@@ -56107,7 +56107,7 @@
         </is>
       </c>
       <c r="P774" t="n">
-        <v>209</v>
+        <v>487</v>
       </c>
       <c r="Q774" t="n">
         <v>18</v>
@@ -56133,7 +56133,7 @@
         </is>
       </c>
       <c r="D775" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E775" t="n">
         <v>13</v>
@@ -56153,20 +56153,20 @@
       </c>
       <c r="I775" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J775" t="n">
-        <v>560</v>
+        <v>1020</v>
       </c>
       <c r="K775" t="n">
-        <v>9500</v>
+        <v>6500</v>
       </c>
       <c r="L775" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="M775" t="n">
-        <v>9804</v>
+        <v>6706</v>
       </c>
       <c r="N775" t="inlineStr">
         <is>
@@ -56179,7 +56179,7 @@
         </is>
       </c>
       <c r="P775" t="n">
-        <v>545</v>
+        <v>373</v>
       </c>
       <c r="Q775" t="n">
         <v>18</v>
@@ -56205,7 +56205,7 @@
         </is>
       </c>
       <c r="D776" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E776" t="n">
         <v>13</v>
@@ -56225,20 +56225,20 @@
       </c>
       <c r="I776" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J776" t="n">
-        <v>940</v>
+        <v>750</v>
       </c>
       <c r="K776" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="L776" t="n">
-        <v>7500</v>
+        <v>5500</v>
       </c>
       <c r="M776" t="n">
-        <v>7298</v>
+        <v>5267</v>
       </c>
       <c r="N776" t="inlineStr">
         <is>
@@ -56251,7 +56251,7 @@
         </is>
       </c>
       <c r="P776" t="n">
-        <v>405</v>
+        <v>293</v>
       </c>
       <c r="Q776" t="n">
         <v>18</v>
@@ -56277,7 +56277,7 @@
         </is>
       </c>
       <c r="D777" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E777" t="n">
         <v>13</v>
@@ -56297,20 +56297,20 @@
       </c>
       <c r="I777" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J777" t="n">
-        <v>570</v>
+        <v>980</v>
       </c>
       <c r="K777" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="L777" t="n">
-        <v>5500</v>
+        <v>4000</v>
       </c>
       <c r="M777" t="n">
-        <v>5263</v>
+        <v>3770</v>
       </c>
       <c r="N777" t="inlineStr">
         <is>
@@ -56323,7 +56323,7 @@
         </is>
       </c>
       <c r="P777" t="n">
-        <v>292</v>
+        <v>209</v>
       </c>
       <c r="Q777" t="n">
         <v>18</v>
@@ -56349,7 +56349,7 @@
         </is>
       </c>
       <c r="D778" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E778" t="n">
         <v>13</v>
@@ -56373,16 +56373,16 @@
         </is>
       </c>
       <c r="J778" t="n">
-        <v>80</v>
+        <v>560</v>
       </c>
       <c r="K778" t="n">
-        <v>1100</v>
+        <v>9500</v>
       </c>
       <c r="L778" t="n">
-        <v>1100</v>
+        <v>10000</v>
       </c>
       <c r="M778" t="n">
-        <v>1100</v>
+        <v>9804</v>
       </c>
       <c r="N778" t="inlineStr">
         <is>
@@ -56391,11 +56391,11 @@
       </c>
       <c r="O778" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P778" t="n">
-        <v>61</v>
+        <v>545</v>
       </c>
       <c r="Q778" t="n">
         <v>18</v>
@@ -56421,7 +56421,7 @@
         </is>
       </c>
       <c r="D779" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E779" t="n">
         <v>13</v>
@@ -56445,16 +56445,16 @@
         </is>
       </c>
       <c r="J779" t="n">
-        <v>120</v>
+        <v>940</v>
       </c>
       <c r="K779" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="L779" t="n">
-        <v>9000</v>
+        <v>7500</v>
       </c>
       <c r="M779" t="n">
-        <v>9000</v>
+        <v>7298</v>
       </c>
       <c r="N779" t="inlineStr">
         <is>
@@ -56463,11 +56463,11 @@
       </c>
       <c r="O779" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P779" t="n">
-        <v>500</v>
+        <v>405</v>
       </c>
       <c r="Q779" t="n">
         <v>18</v>
@@ -56493,7 +56493,7 @@
         </is>
       </c>
       <c r="D780" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E780" t="n">
         <v>13</v>
@@ -56517,16 +56517,16 @@
         </is>
       </c>
       <c r="J780" t="n">
-        <v>50</v>
+        <v>570</v>
       </c>
       <c r="K780" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="L780" t="n">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="M780" t="n">
-        <v>7000</v>
+        <v>5263</v>
       </c>
       <c r="N780" t="inlineStr">
         <is>
@@ -56535,11 +56535,11 @@
       </c>
       <c r="O780" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P780" t="n">
-        <v>389</v>
+        <v>292</v>
       </c>
       <c r="Q780" t="n">
         <v>18</v>
@@ -56565,7 +56565,7 @@
         </is>
       </c>
       <c r="D781" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E781" t="n">
         <v>13</v>
@@ -56589,16 +56589,16 @@
         </is>
       </c>
       <c r="J781" t="n">
-        <v>1040</v>
+        <v>80</v>
       </c>
       <c r="K781" t="n">
-        <v>11000</v>
+        <v>1100</v>
       </c>
       <c r="L781" t="n">
-        <v>12000</v>
+        <v>1100</v>
       </c>
       <c r="M781" t="n">
-        <v>11538</v>
+        <v>1100</v>
       </c>
       <c r="N781" t="inlineStr">
         <is>
@@ -56607,11 +56607,11 @@
       </c>
       <c r="O781" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P781" t="n">
-        <v>641</v>
+        <v>61</v>
       </c>
       <c r="Q781" t="n">
         <v>18</v>
@@ -56637,7 +56637,7 @@
         </is>
       </c>
       <c r="D782" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E782" t="n">
         <v>13</v>
@@ -56661,16 +56661,16 @@
         </is>
       </c>
       <c r="J782" t="n">
-        <v>1030</v>
+        <v>120</v>
       </c>
       <c r="K782" t="n">
-        <v>9500</v>
+        <v>9000</v>
       </c>
       <c r="L782" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="M782" t="n">
-        <v>9782</v>
+        <v>9000</v>
       </c>
       <c r="N782" t="inlineStr">
         <is>
@@ -56679,11 +56679,11 @@
       </c>
       <c r="O782" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P782" t="n">
-        <v>543</v>
+        <v>500</v>
       </c>
       <c r="Q782" t="n">
         <v>18</v>
@@ -56709,7 +56709,7 @@
         </is>
       </c>
       <c r="D783" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E783" t="n">
         <v>13</v>
@@ -56733,16 +56733,16 @@
         </is>
       </c>
       <c r="J783" t="n">
-        <v>750</v>
+        <v>50</v>
       </c>
       <c r="K783" t="n">
-        <v>7500</v>
+        <v>7000</v>
       </c>
       <c r="L783" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M783" t="n">
-        <v>7733</v>
+        <v>7000</v>
       </c>
       <c r="N783" t="inlineStr">
         <is>
@@ -56751,11 +56751,11 @@
       </c>
       <c r="O783" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P783" t="n">
-        <v>430</v>
+        <v>389</v>
       </c>
       <c r="Q783" t="n">
         <v>18</v>
@@ -56781,7 +56781,7 @@
         </is>
       </c>
       <c r="D784" s="2" t="n">
-        <v>44215</v>
+        <v>44306</v>
       </c>
       <c r="E784" t="n">
         <v>13</v>
@@ -56805,16 +56805,16 @@
         </is>
       </c>
       <c r="J784" t="n">
-        <v>380</v>
+        <v>1040</v>
       </c>
       <c r="K784" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="L784" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="M784" t="n">
-        <v>14526</v>
+        <v>11538</v>
       </c>
       <c r="N784" t="inlineStr">
         <is>
@@ -56823,11 +56823,11 @@
       </c>
       <c r="O784" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P784" t="n">
-        <v>807</v>
+        <v>641</v>
       </c>
       <c r="Q784" t="n">
         <v>18</v>
@@ -56853,7 +56853,7 @@
         </is>
       </c>
       <c r="D785" s="2" t="n">
-        <v>44215</v>
+        <v>44306</v>
       </c>
       <c r="E785" t="n">
         <v>13</v>
@@ -56877,16 +56877,16 @@
         </is>
       </c>
       <c r="J785" t="n">
-        <v>510</v>
+        <v>1030</v>
       </c>
       <c r="K785" t="n">
-        <v>11000</v>
+        <v>9500</v>
       </c>
       <c r="L785" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M785" t="n">
-        <v>11412</v>
+        <v>9782</v>
       </c>
       <c r="N785" t="inlineStr">
         <is>
@@ -56895,11 +56895,11 @@
       </c>
       <c r="O785" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P785" t="n">
-        <v>634</v>
+        <v>543</v>
       </c>
       <c r="Q785" t="n">
         <v>18</v>
@@ -56925,7 +56925,7 @@
         </is>
       </c>
       <c r="D786" s="2" t="n">
-        <v>44215</v>
+        <v>44306</v>
       </c>
       <c r="E786" t="n">
         <v>13</v>
@@ -56940,25 +56940,25 @@
       </c>
       <c r="H786" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I786" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J786" t="n">
-        <v>780</v>
+        <v>750</v>
       </c>
       <c r="K786" t="n">
-        <v>9000</v>
+        <v>7500</v>
       </c>
       <c r="L786" t="n">
-        <v>9500</v>
+        <v>8000</v>
       </c>
       <c r="M786" t="n">
-        <v>9308</v>
+        <v>7733</v>
       </c>
       <c r="N786" t="inlineStr">
         <is>
@@ -56967,11 +56967,11 @@
       </c>
       <c r="O786" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P786" t="n">
-        <v>517</v>
+        <v>430</v>
       </c>
       <c r="Q786" t="n">
         <v>18</v>
@@ -57012,25 +57012,25 @@
       </c>
       <c r="H787" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I787" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J787" t="n">
-        <v>980</v>
+        <v>380</v>
       </c>
       <c r="K787" t="n">
-        <v>7500</v>
+        <v>14000</v>
       </c>
       <c r="L787" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="M787" t="n">
-        <v>7755</v>
+        <v>14526</v>
       </c>
       <c r="N787" t="inlineStr">
         <is>
@@ -57039,11 +57039,11 @@
       </c>
       <c r="O787" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P787" t="n">
-        <v>431</v>
+        <v>807</v>
       </c>
       <c r="Q787" t="n">
         <v>18</v>
@@ -57084,25 +57084,25 @@
       </c>
       <c r="H788" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I788" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J788" t="n">
-        <v>980</v>
+        <v>510</v>
       </c>
       <c r="K788" t="n">
-        <v>5500</v>
+        <v>11000</v>
       </c>
       <c r="L788" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="M788" t="n">
-        <v>5765</v>
+        <v>11412</v>
       </c>
       <c r="N788" t="inlineStr">
         <is>
@@ -57111,11 +57111,11 @@
       </c>
       <c r="O788" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P788" t="n">
-        <v>320</v>
+        <v>634</v>
       </c>
       <c r="Q788" t="n">
         <v>18</v>
@@ -57141,7 +57141,7 @@
         </is>
       </c>
       <c r="D789" s="2" t="n">
-        <v>44175</v>
+        <v>44215</v>
       </c>
       <c r="E789" t="n">
         <v>13</v>
@@ -57156,7 +57156,7 @@
       </c>
       <c r="H789" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I789" t="inlineStr">
@@ -57165,16 +57165,16 @@
         </is>
       </c>
       <c r="J789" t="n">
-        <v>1080</v>
+        <v>780</v>
       </c>
       <c r="K789" t="n">
+        <v>9000</v>
+      </c>
+      <c r="L789" t="n">
         <v>9500</v>
       </c>
-      <c r="L789" t="n">
-        <v>10000</v>
-      </c>
       <c r="M789" t="n">
-        <v>9778</v>
+        <v>9308</v>
       </c>
       <c r="N789" t="inlineStr">
         <is>
@@ -57183,11 +57183,11 @@
       </c>
       <c r="O789" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P789" t="n">
-        <v>543</v>
+        <v>517</v>
       </c>
       <c r="Q789" t="n">
         <v>18</v>
@@ -57213,7 +57213,7 @@
         </is>
       </c>
       <c r="D790" s="2" t="n">
-        <v>44175</v>
+        <v>44215</v>
       </c>
       <c r="E790" t="n">
         <v>13</v>
@@ -57228,7 +57228,7 @@
       </c>
       <c r="H790" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I790" t="inlineStr">
@@ -57237,16 +57237,16 @@
         </is>
       </c>
       <c r="J790" t="n">
-        <v>1280</v>
+        <v>980</v>
       </c>
       <c r="K790" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="L790" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="M790" t="n">
-        <v>7266</v>
+        <v>7755</v>
       </c>
       <c r="N790" t="inlineStr">
         <is>
@@ -57255,11 +57255,11 @@
       </c>
       <c r="O790" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P790" t="n">
-        <v>404</v>
+        <v>431</v>
       </c>
       <c r="Q790" t="n">
         <v>18</v>
@@ -57285,7 +57285,7 @@
         </is>
       </c>
       <c r="D791" s="2" t="n">
-        <v>44175</v>
+        <v>44215</v>
       </c>
       <c r="E791" t="n">
         <v>13</v>
@@ -57300,7 +57300,7 @@
       </c>
       <c r="H791" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I791" t="inlineStr">
@@ -57309,16 +57309,16 @@
         </is>
       </c>
       <c r="J791" t="n">
-        <v>880</v>
+        <v>980</v>
       </c>
       <c r="K791" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="L791" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="M791" t="n">
-        <v>5273</v>
+        <v>5765</v>
       </c>
       <c r="N791" t="inlineStr">
         <is>
@@ -57327,11 +57327,11 @@
       </c>
       <c r="O791" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P791" t="n">
-        <v>293</v>
+        <v>320</v>
       </c>
       <c r="Q791" t="n">
         <v>18</v>
@@ -57357,7 +57357,7 @@
         </is>
       </c>
       <c r="D792" s="2" t="n">
-        <v>44461</v>
+        <v>44175</v>
       </c>
       <c r="E792" t="n">
         <v>13</v>
@@ -57377,20 +57377,20 @@
       </c>
       <c r="I792" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J792" t="n">
-        <v>790</v>
+        <v>1080</v>
       </c>
       <c r="K792" t="n">
-        <v>19000</v>
+        <v>9500</v>
       </c>
       <c r="L792" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="M792" t="n">
-        <v>19519</v>
+        <v>9778</v>
       </c>
       <c r="N792" t="inlineStr">
         <is>
@@ -57399,11 +57399,11 @@
       </c>
       <c r="O792" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P792" t="n">
-        <v>1084</v>
+        <v>543</v>
       </c>
       <c r="Q792" t="n">
         <v>18</v>
@@ -57429,7 +57429,7 @@
         </is>
       </c>
       <c r="D793" s="2" t="n">
-        <v>44461</v>
+        <v>44175</v>
       </c>
       <c r="E793" t="n">
         <v>13</v>
@@ -57449,20 +57449,20 @@
       </c>
       <c r="I793" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J793" t="n">
-        <v>780</v>
+        <v>1280</v>
       </c>
       <c r="K793" t="n">
-        <v>17000</v>
+        <v>7000</v>
       </c>
       <c r="L793" t="n">
-        <v>18000</v>
+        <v>7500</v>
       </c>
       <c r="M793" t="n">
-        <v>17487</v>
+        <v>7266</v>
       </c>
       <c r="N793" t="inlineStr">
         <is>
@@ -57471,11 +57471,11 @@
       </c>
       <c r="O793" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P793" t="n">
-        <v>972</v>
+        <v>404</v>
       </c>
       <c r="Q793" t="n">
         <v>18</v>
@@ -57501,7 +57501,7 @@
         </is>
       </c>
       <c r="D794" s="2" t="n">
-        <v>44357</v>
+        <v>44175</v>
       </c>
       <c r="E794" t="n">
         <v>13</v>
@@ -57521,20 +57521,20 @@
       </c>
       <c r="I794" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J794" t="n">
-        <v>340</v>
+        <v>880</v>
       </c>
       <c r="K794" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="L794" t="n">
-        <v>13000</v>
+        <v>5500</v>
       </c>
       <c r="M794" t="n">
-        <v>12500</v>
+        <v>5273</v>
       </c>
       <c r="N794" t="inlineStr">
         <is>
@@ -57543,11 +57543,11 @@
       </c>
       <c r="O794" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P794" t="n">
-        <v>694</v>
+        <v>293</v>
       </c>
       <c r="Q794" t="n">
         <v>18</v>
@@ -57573,7 +57573,7 @@
         </is>
       </c>
       <c r="D795" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E795" t="n">
         <v>13</v>
@@ -57597,16 +57597,16 @@
         </is>
       </c>
       <c r="J795" t="n">
-        <v>300</v>
+        <v>790</v>
       </c>
       <c r="K795" t="n">
-        <v>10000</v>
+        <v>19000</v>
       </c>
       <c r="L795" t="n">
-        <v>11000</v>
+        <v>20000</v>
       </c>
       <c r="M795" t="n">
-        <v>10500</v>
+        <v>19519</v>
       </c>
       <c r="N795" t="inlineStr">
         <is>
@@ -57619,7 +57619,7 @@
         </is>
       </c>
       <c r="P795" t="n">
-        <v>583</v>
+        <v>1084</v>
       </c>
       <c r="Q795" t="n">
         <v>18</v>
@@ -57645,7 +57645,7 @@
         </is>
       </c>
       <c r="D796" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E796" t="n">
         <v>13</v>
@@ -57669,16 +57669,16 @@
         </is>
       </c>
       <c r="J796" t="n">
-        <v>240</v>
+        <v>780</v>
       </c>
       <c r="K796" t="n">
-        <v>9000</v>
+        <v>17000</v>
       </c>
       <c r="L796" t="n">
-        <v>9500</v>
+        <v>18000</v>
       </c>
       <c r="M796" t="n">
-        <v>9250</v>
+        <v>17487</v>
       </c>
       <c r="N796" t="inlineStr">
         <is>
@@ -57691,7 +57691,7 @@
         </is>
       </c>
       <c r="P796" t="n">
-        <v>514</v>
+        <v>972</v>
       </c>
       <c r="Q796" t="n">
         <v>18</v>
@@ -57737,20 +57737,20 @@
       </c>
       <c r="I797" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J797" t="n">
-        <v>200</v>
+        <v>340</v>
       </c>
       <c r="K797" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="L797" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="M797" t="n">
-        <v>8000</v>
+        <v>12500</v>
       </c>
       <c r="N797" t="inlineStr">
         <is>
@@ -57763,7 +57763,7 @@
         </is>
       </c>
       <c r="P797" t="n">
-        <v>444</v>
+        <v>694</v>
       </c>
       <c r="Q797" t="n">
         <v>18</v>
@@ -57789,7 +57789,7 @@
         </is>
       </c>
       <c r="D798" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E798" t="n">
         <v>13</v>
@@ -57809,20 +57809,20 @@
       </c>
       <c r="I798" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J798" t="n">
-        <v>1020</v>
+        <v>300</v>
       </c>
       <c r="K798" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="L798" t="n">
-        <v>17000</v>
+        <v>11000</v>
       </c>
       <c r="M798" t="n">
-        <v>16529</v>
+        <v>10500</v>
       </c>
       <c r="N798" t="inlineStr">
         <is>
@@ -57831,11 +57831,11 @@
       </c>
       <c r="O798" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P798" t="n">
-        <v>918</v>
+        <v>583</v>
       </c>
       <c r="Q798" t="n">
         <v>18</v>
@@ -57861,7 +57861,7 @@
         </is>
       </c>
       <c r="D799" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E799" t="n">
         <v>13</v>
@@ -57881,20 +57881,20 @@
       </c>
       <c r="I799" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J799" t="n">
-        <v>1010</v>
+        <v>240</v>
       </c>
       <c r="K799" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="L799" t="n">
-        <v>15000</v>
+        <v>9500</v>
       </c>
       <c r="M799" t="n">
-        <v>14406</v>
+        <v>9250</v>
       </c>
       <c r="N799" t="inlineStr">
         <is>
@@ -57903,11 +57903,11 @@
       </c>
       <c r="O799" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P799" t="n">
-        <v>800</v>
+        <v>514</v>
       </c>
       <c r="Q799" t="n">
         <v>18</v>
@@ -57933,7 +57933,7 @@
         </is>
       </c>
       <c r="D800" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E800" t="n">
         <v>13</v>
@@ -57953,20 +57953,20 @@
       </c>
       <c r="I800" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J800" t="n">
-        <v>770</v>
+        <v>200</v>
       </c>
       <c r="K800" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="L800" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="M800" t="n">
-        <v>10545</v>
+        <v>8000</v>
       </c>
       <c r="N800" t="inlineStr">
         <is>
@@ -57975,11 +57975,11 @@
       </c>
       <c r="O800" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P800" t="n">
-        <v>586</v>
+        <v>444</v>
       </c>
       <c r="Q800" t="n">
         <v>18</v>
@@ -58005,7 +58005,7 @@
         </is>
       </c>
       <c r="D801" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E801" t="n">
         <v>13</v>
@@ -58029,16 +58029,16 @@
         </is>
       </c>
       <c r="J801" t="n">
-        <v>920</v>
+        <v>1020</v>
       </c>
       <c r="K801" t="n">
-        <v>8500</v>
+        <v>16000</v>
       </c>
       <c r="L801" t="n">
-        <v>9000</v>
+        <v>17000</v>
       </c>
       <c r="M801" t="n">
-        <v>8783</v>
+        <v>16529</v>
       </c>
       <c r="N801" t="inlineStr">
         <is>
@@ -58047,11 +58047,11 @@
       </c>
       <c r="O801" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P801" t="n">
-        <v>488</v>
+        <v>918</v>
       </c>
       <c r="Q801" t="n">
         <v>18</v>
@@ -58077,7 +58077,7 @@
         </is>
       </c>
       <c r="D802" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E802" t="n">
         <v>13</v>
@@ -58101,16 +58101,16 @@
         </is>
       </c>
       <c r="J802" t="n">
-        <v>1000</v>
+        <v>1010</v>
       </c>
       <c r="K802" t="n">
-        <v>6000</v>
+        <v>14000</v>
       </c>
       <c r="L802" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="M802" t="n">
-        <v>6560</v>
+        <v>14406</v>
       </c>
       <c r="N802" t="inlineStr">
         <is>
@@ -58119,11 +58119,11 @@
       </c>
       <c r="O802" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P802" t="n">
-        <v>364</v>
+        <v>800</v>
       </c>
       <c r="Q802" t="n">
         <v>18</v>
@@ -58149,7 +58149,7 @@
         </is>
       </c>
       <c r="D803" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E803" t="n">
         <v>13</v>
@@ -58173,16 +58173,16 @@
         </is>
       </c>
       <c r="J803" t="n">
-        <v>1120</v>
+        <v>770</v>
       </c>
       <c r="K803" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="L803" t="n">
-        <v>5500</v>
+        <v>11000</v>
       </c>
       <c r="M803" t="n">
-        <v>5210</v>
+        <v>10545</v>
       </c>
       <c r="N803" t="inlineStr">
         <is>
@@ -58191,11 +58191,11 @@
       </c>
       <c r="O803" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P803" t="n">
-        <v>289</v>
+        <v>586</v>
       </c>
       <c r="Q803" t="n">
         <v>18</v>
@@ -58241,20 +58241,20 @@
       </c>
       <c r="I804" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J804" t="n">
-        <v>750</v>
+        <v>920</v>
       </c>
       <c r="K804" t="n">
-        <v>3500</v>
+        <v>8500</v>
       </c>
       <c r="L804" t="n">
-        <v>4000</v>
+        <v>9000</v>
       </c>
       <c r="M804" t="n">
-        <v>3767</v>
+        <v>8783</v>
       </c>
       <c r="N804" t="inlineStr">
         <is>
@@ -58267,7 +58267,7 @@
         </is>
       </c>
       <c r="P804" t="n">
-        <v>209</v>
+        <v>488</v>
       </c>
       <c r="Q804" t="n">
         <v>18</v>
@@ -58293,7 +58293,7 @@
         </is>
       </c>
       <c r="D805" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E805" t="n">
         <v>13</v>
@@ -58313,20 +58313,20 @@
       </c>
       <c r="I805" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J805" t="n">
-        <v>730</v>
+        <v>1000</v>
       </c>
       <c r="K805" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="L805" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="M805" t="n">
-        <v>12521</v>
+        <v>6560</v>
       </c>
       <c r="N805" t="inlineStr">
         <is>
@@ -58335,11 +58335,11 @@
       </c>
       <c r="O805" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P805" t="n">
-        <v>696</v>
+        <v>364</v>
       </c>
       <c r="Q805" t="n">
         <v>18</v>
@@ -58365,7 +58365,7 @@
         </is>
       </c>
       <c r="D806" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E806" t="n">
         <v>13</v>
@@ -58385,20 +58385,20 @@
       </c>
       <c r="I806" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J806" t="n">
-        <v>750</v>
+        <v>1120</v>
       </c>
       <c r="K806" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="L806" t="n">
-        <v>11000</v>
+        <v>5500</v>
       </c>
       <c r="M806" t="n">
-        <v>10533</v>
+        <v>5210</v>
       </c>
       <c r="N806" t="inlineStr">
         <is>
@@ -58407,11 +58407,11 @@
       </c>
       <c r="O806" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P806" t="n">
-        <v>585</v>
+        <v>289</v>
       </c>
       <c r="Q806" t="n">
         <v>18</v>
@@ -58437,7 +58437,7 @@
         </is>
       </c>
       <c r="D807" s="2" t="n">
-        <v>44411</v>
+        <v>44162</v>
       </c>
       <c r="E807" t="n">
         <v>13</v>
@@ -58457,20 +58457,20 @@
       </c>
       <c r="I807" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J807" t="n">
-        <v>370</v>
+        <v>750</v>
       </c>
       <c r="K807" t="n">
-        <v>8500</v>
+        <v>3500</v>
       </c>
       <c r="L807" t="n">
-        <v>9000</v>
+        <v>4000</v>
       </c>
       <c r="M807" t="n">
-        <v>8838</v>
+        <v>3767</v>
       </c>
       <c r="N807" t="inlineStr">
         <is>
@@ -58483,7 +58483,7 @@
         </is>
       </c>
       <c r="P807" t="n">
-        <v>491</v>
+        <v>209</v>
       </c>
       <c r="Q807" t="n">
         <v>18</v>
@@ -58509,7 +58509,7 @@
         </is>
       </c>
       <c r="D808" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E808" t="n">
         <v>13</v>
@@ -58533,7 +58533,7 @@
         </is>
       </c>
       <c r="J808" t="n">
-        <v>960</v>
+        <v>730</v>
       </c>
       <c r="K808" t="n">
         <v>12000</v>
@@ -58542,7 +58542,7 @@
         <v>13000</v>
       </c>
       <c r="M808" t="n">
-        <v>12583</v>
+        <v>12521</v>
       </c>
       <c r="N808" t="inlineStr">
         <is>
@@ -58555,7 +58555,7 @@
         </is>
       </c>
       <c r="P808" t="n">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="Q808" t="n">
         <v>18</v>
@@ -58581,7 +58581,7 @@
         </is>
       </c>
       <c r="D809" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E809" t="n">
         <v>13</v>
@@ -58605,16 +58605,16 @@
         </is>
       </c>
       <c r="J809" t="n">
-        <v>780</v>
+        <v>750</v>
       </c>
       <c r="K809" t="n">
-        <v>6500</v>
+        <v>10000</v>
       </c>
       <c r="L809" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="M809" t="n">
-        <v>6756</v>
+        <v>10533</v>
       </c>
       <c r="N809" t="inlineStr">
         <is>
@@ -58623,11 +58623,11 @@
       </c>
       <c r="O809" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P809" t="n">
-        <v>375</v>
+        <v>585</v>
       </c>
       <c r="Q809" t="n">
         <v>18</v>
@@ -58673,20 +58673,20 @@
       </c>
       <c r="I810" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J810" t="n">
-        <v>1130</v>
+        <v>370</v>
       </c>
       <c r="K810" t="n">
-        <v>10000</v>
+        <v>8500</v>
       </c>
       <c r="L810" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="M810" t="n">
-        <v>10575</v>
+        <v>8838</v>
       </c>
       <c r="N810" t="inlineStr">
         <is>
@@ -58695,11 +58695,11 @@
       </c>
       <c r="O810" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P810" t="n">
-        <v>588</v>
+        <v>491</v>
       </c>
       <c r="Q810" t="n">
         <v>18</v>
@@ -58745,20 +58745,20 @@
       </c>
       <c r="I811" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J811" t="n">
-        <v>360</v>
+        <v>960</v>
       </c>
       <c r="K811" t="n">
-        <v>4500</v>
+        <v>12000</v>
       </c>
       <c r="L811" t="n">
-        <v>5000</v>
+        <v>13000</v>
       </c>
       <c r="M811" t="n">
-        <v>4833</v>
+        <v>12583</v>
       </c>
       <c r="N811" t="inlineStr">
         <is>
@@ -58767,11 +58767,11 @@
       </c>
       <c r="O811" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P811" t="n">
-        <v>268</v>
+        <v>699</v>
       </c>
       <c r="Q811" t="n">
         <v>18</v>
@@ -58817,20 +58817,20 @@
       </c>
       <c r="I812" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J812" t="n">
-        <v>820</v>
+        <v>780</v>
       </c>
       <c r="K812" t="n">
+        <v>6500</v>
+      </c>
+      <c r="L812" t="n">
         <v>7000</v>
       </c>
-      <c r="L812" t="n">
-        <v>8000</v>
-      </c>
       <c r="M812" t="n">
-        <v>7451</v>
+        <v>6756</v>
       </c>
       <c r="N812" t="inlineStr">
         <is>
@@ -58839,11 +58839,11 @@
       </c>
       <c r="O812" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P812" t="n">
-        <v>414</v>
+        <v>375</v>
       </c>
       <c r="Q812" t="n">
         <v>18</v>
@@ -58869,7 +58869,7 @@
         </is>
       </c>
       <c r="D813" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E813" t="n">
         <v>13</v>
@@ -58889,20 +58889,20 @@
       </c>
       <c r="I813" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J813" t="n">
-        <v>440</v>
+        <v>1130</v>
       </c>
       <c r="K813" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="L813" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="M813" t="n">
-        <v>14545</v>
+        <v>10575</v>
       </c>
       <c r="N813" t="inlineStr">
         <is>
@@ -58911,11 +58911,11 @@
       </c>
       <c r="O813" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P813" t="n">
-        <v>808</v>
+        <v>588</v>
       </c>
       <c r="Q813" t="n">
         <v>18</v>
@@ -58941,7 +58941,7 @@
         </is>
       </c>
       <c r="D814" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E814" t="n">
         <v>13</v>
@@ -58956,25 +58956,25 @@
       </c>
       <c r="H814" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I814" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J814" t="n">
-        <v>310</v>
+        <v>360</v>
       </c>
       <c r="K814" t="n">
-        <v>11000</v>
+        <v>4500</v>
       </c>
       <c r="L814" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="M814" t="n">
-        <v>11484</v>
+        <v>4833</v>
       </c>
       <c r="N814" t="inlineStr">
         <is>
@@ -58983,11 +58983,11 @@
       </c>
       <c r="O814" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P814" t="n">
-        <v>638</v>
+        <v>268</v>
       </c>
       <c r="Q814" t="n">
         <v>18</v>
@@ -59013,7 +59013,7 @@
         </is>
       </c>
       <c r="D815" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E815" t="n">
         <v>13</v>
@@ -59028,25 +59028,25 @@
       </c>
       <c r="H815" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I815" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J815" t="n">
-        <v>470</v>
+        <v>820</v>
       </c>
       <c r="K815" t="n">
-        <v>9500</v>
+        <v>7000</v>
       </c>
       <c r="L815" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M815" t="n">
-        <v>9734</v>
+        <v>7451</v>
       </c>
       <c r="N815" t="inlineStr">
         <is>
@@ -59055,11 +59055,11 @@
       </c>
       <c r="O815" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P815" t="n">
-        <v>541</v>
+        <v>414</v>
       </c>
       <c r="Q815" t="n">
         <v>18</v>
@@ -59100,25 +59100,25 @@
       </c>
       <c r="H816" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I816" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J816" t="n">
-        <v>320</v>
+        <v>440</v>
       </c>
       <c r="K816" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="L816" t="n">
-        <v>7500</v>
+        <v>15000</v>
       </c>
       <c r="M816" t="n">
-        <v>7219</v>
+        <v>14545</v>
       </c>
       <c r="N816" t="inlineStr">
         <is>
@@ -59127,11 +59127,11 @@
       </c>
       <c r="O816" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P816" t="n">
-        <v>401</v>
+        <v>808</v>
       </c>
       <c r="Q816" t="n">
         <v>18</v>
@@ -59157,7 +59157,7 @@
         </is>
       </c>
       <c r="D817" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E817" t="n">
         <v>13</v>
@@ -59172,7 +59172,7 @@
       </c>
       <c r="H817" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I817" t="inlineStr">
@@ -59181,16 +59181,16 @@
         </is>
       </c>
       <c r="J817" t="n">
-        <v>760</v>
+        <v>310</v>
       </c>
       <c r="K817" t="n">
+        <v>11000</v>
+      </c>
+      <c r="L817" t="n">
         <v>12000</v>
       </c>
-      <c r="L817" t="n">
-        <v>13000</v>
-      </c>
       <c r="M817" t="n">
-        <v>12474</v>
+        <v>11484</v>
       </c>
       <c r="N817" t="inlineStr">
         <is>
@@ -59199,11 +59199,11 @@
       </c>
       <c r="O817" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P817" t="n">
-        <v>693</v>
+        <v>638</v>
       </c>
       <c r="Q817" t="n">
         <v>18</v>
@@ -59229,7 +59229,7 @@
         </is>
       </c>
       <c r="D818" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E818" t="n">
         <v>13</v>
@@ -59244,7 +59244,7 @@
       </c>
       <c r="H818" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I818" t="inlineStr">
@@ -59253,16 +59253,16 @@
         </is>
       </c>
       <c r="J818" t="n">
-        <v>890</v>
+        <v>470</v>
       </c>
       <c r="K818" t="n">
-        <v>9000</v>
+        <v>9500</v>
       </c>
       <c r="L818" t="n">
         <v>10000</v>
       </c>
       <c r="M818" t="n">
-        <v>9494</v>
+        <v>9734</v>
       </c>
       <c r="N818" t="inlineStr">
         <is>
@@ -59271,11 +59271,11 @@
       </c>
       <c r="O818" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P818" t="n">
-        <v>527</v>
+        <v>541</v>
       </c>
       <c r="Q818" t="n">
         <v>18</v>
@@ -59301,7 +59301,7 @@
         </is>
       </c>
       <c r="D819" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E819" t="n">
         <v>13</v>
@@ -59316,7 +59316,7 @@
       </c>
       <c r="H819" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I819" t="inlineStr">
@@ -59325,16 +59325,16 @@
         </is>
       </c>
       <c r="J819" t="n">
-        <v>630</v>
+        <v>320</v>
       </c>
       <c r="K819" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="L819" t="n">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="M819" t="n">
-        <v>5556</v>
+        <v>7219</v>
       </c>
       <c r="N819" t="inlineStr">
         <is>
@@ -59343,11 +59343,11 @@
       </c>
       <c r="O819" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P819" t="n">
-        <v>309</v>
+        <v>401</v>
       </c>
       <c r="Q819" t="n">
         <v>18</v>
@@ -59373,7 +59373,7 @@
         </is>
       </c>
       <c r="D820" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E820" t="n">
         <v>13</v>
@@ -59397,16 +59397,16 @@
         </is>
       </c>
       <c r="J820" t="n">
-        <v>1010</v>
+        <v>760</v>
       </c>
       <c r="K820" t="n">
-        <v>9500</v>
+        <v>12000</v>
       </c>
       <c r="L820" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="M820" t="n">
-        <v>9777</v>
+        <v>12474</v>
       </c>
       <c r="N820" t="inlineStr">
         <is>
@@ -59419,7 +59419,7 @@
         </is>
       </c>
       <c r="P820" t="n">
-        <v>543</v>
+        <v>693</v>
       </c>
       <c r="Q820" t="n">
         <v>18</v>
@@ -59445,7 +59445,7 @@
         </is>
       </c>
       <c r="D821" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E821" t="n">
         <v>13</v>
@@ -59469,16 +59469,16 @@
         </is>
       </c>
       <c r="J821" t="n">
-        <v>1360</v>
+        <v>890</v>
       </c>
       <c r="K821" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L821" t="n">
-        <v>7500</v>
+        <v>10000</v>
       </c>
       <c r="M821" t="n">
-        <v>7279</v>
+        <v>9494</v>
       </c>
       <c r="N821" t="inlineStr">
         <is>
@@ -59491,7 +59491,7 @@
         </is>
       </c>
       <c r="P821" t="n">
-        <v>404</v>
+        <v>527</v>
       </c>
       <c r="Q821" t="n">
         <v>18</v>
@@ -59517,7 +59517,7 @@
         </is>
       </c>
       <c r="D822" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E822" t="n">
         <v>13</v>
@@ -59541,16 +59541,16 @@
         </is>
       </c>
       <c r="J822" t="n">
-        <v>940</v>
+        <v>630</v>
       </c>
       <c r="K822" t="n">
         <v>5000</v>
       </c>
       <c r="L822" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="M822" t="n">
-        <v>5255</v>
+        <v>5556</v>
       </c>
       <c r="N822" t="inlineStr">
         <is>
@@ -59563,7 +59563,7 @@
         </is>
       </c>
       <c r="P822" t="n">
-        <v>292</v>
+        <v>309</v>
       </c>
       <c r="Q822" t="n">
         <v>18</v>
@@ -59589,7 +59589,7 @@
         </is>
       </c>
       <c r="D823" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E823" t="n">
         <v>13</v>
@@ -59613,16 +59613,16 @@
         </is>
       </c>
       <c r="J823" t="n">
-        <v>200</v>
+        <v>1010</v>
       </c>
       <c r="K823" t="n">
-        <v>9000</v>
+        <v>9500</v>
       </c>
       <c r="L823" t="n">
         <v>10000</v>
       </c>
       <c r="M823" t="n">
-        <v>9500</v>
+        <v>9777</v>
       </c>
       <c r="N823" t="inlineStr">
         <is>
@@ -59631,11 +59631,11 @@
       </c>
       <c r="O823" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P823" t="n">
-        <v>528</v>
+        <v>543</v>
       </c>
       <c r="Q823" t="n">
         <v>18</v>
@@ -59661,7 +59661,7 @@
         </is>
       </c>
       <c r="D824" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E824" t="n">
         <v>13</v>
@@ -59685,16 +59685,16 @@
         </is>
       </c>
       <c r="J824" t="n">
-        <v>240</v>
+        <v>1360</v>
       </c>
       <c r="K824" t="n">
         <v>7000</v>
       </c>
       <c r="L824" t="n">
-        <v>8000</v>
+        <v>7500</v>
       </c>
       <c r="M824" t="n">
-        <v>7500</v>
+        <v>7279</v>
       </c>
       <c r="N824" t="inlineStr">
         <is>
@@ -59703,11 +59703,11 @@
       </c>
       <c r="O824" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P824" t="n">
-        <v>417</v>
+        <v>404</v>
       </c>
       <c r="Q824" t="n">
         <v>18</v>
@@ -59733,7 +59733,7 @@
         </is>
       </c>
       <c r="D825" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E825" t="n">
         <v>13</v>
@@ -59757,16 +59757,16 @@
         </is>
       </c>
       <c r="J825" t="n">
-        <v>150</v>
+        <v>940</v>
       </c>
       <c r="K825" t="n">
         <v>5000</v>
       </c>
       <c r="L825" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="M825" t="n">
-        <v>5000</v>
+        <v>5255</v>
       </c>
       <c r="N825" t="inlineStr">
         <is>
@@ -59775,11 +59775,11 @@
       </c>
       <c r="O825" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P825" t="n">
-        <v>278</v>
+        <v>292</v>
       </c>
       <c r="Q825" t="n">
         <v>18</v>
@@ -59805,7 +59805,7 @@
         </is>
       </c>
       <c r="D826" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E826" t="n">
         <v>13</v>
@@ -59829,16 +59829,16 @@
         </is>
       </c>
       <c r="J826" t="n">
-        <v>470</v>
+        <v>200</v>
       </c>
       <c r="K826" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L826" t="n">
-        <v>7500</v>
+        <v>10000</v>
       </c>
       <c r="M826" t="n">
-        <v>7234</v>
+        <v>9500</v>
       </c>
       <c r="N826" t="inlineStr">
         <is>
@@ -59847,11 +59847,11 @@
       </c>
       <c r="O826" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P826" t="n">
-        <v>402</v>
+        <v>528</v>
       </c>
       <c r="Q826" t="n">
         <v>18</v>
@@ -59877,7 +59877,7 @@
         </is>
       </c>
       <c r="D827" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E827" t="n">
         <v>13</v>
@@ -59897,20 +59897,20 @@
       </c>
       <c r="I827" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J827" t="n">
-        <v>450</v>
+        <v>240</v>
       </c>
       <c r="K827" t="n">
-        <v>9500</v>
+        <v>7000</v>
       </c>
       <c r="L827" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M827" t="n">
-        <v>9722</v>
+        <v>7500</v>
       </c>
       <c r="N827" t="inlineStr">
         <is>
@@ -59919,11 +59919,11 @@
       </c>
       <c r="O827" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P827" t="n">
-        <v>540</v>
+        <v>417</v>
       </c>
       <c r="Q827" t="n">
         <v>18</v>
@@ -59949,7 +59949,7 @@
         </is>
       </c>
       <c r="D828" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E828" t="n">
         <v>13</v>
@@ -59969,20 +59969,20 @@
       </c>
       <c r="I828" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J828" t="n">
-        <v>550</v>
+        <v>150</v>
       </c>
       <c r="K828" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="L828" t="n">
-        <v>6500</v>
+        <v>5000</v>
       </c>
       <c r="M828" t="n">
-        <v>6227</v>
+        <v>5000</v>
       </c>
       <c r="N828" t="inlineStr">
         <is>
@@ -59991,11 +59991,11 @@
       </c>
       <c r="O828" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P828" t="n">
-        <v>346</v>
+        <v>278</v>
       </c>
       <c r="Q828" t="n">
         <v>18</v>
@@ -60041,20 +60041,20 @@
       </c>
       <c r="I829" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J829" t="n">
-        <v>780</v>
+        <v>470</v>
       </c>
       <c r="K829" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L829" t="n">
-        <v>8500</v>
+        <v>7500</v>
       </c>
       <c r="M829" t="n">
-        <v>8244</v>
+        <v>7234</v>
       </c>
       <c r="N829" t="inlineStr">
         <is>
@@ -60063,11 +60063,11 @@
       </c>
       <c r="O829" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P829" t="n">
-        <v>458</v>
+        <v>402</v>
       </c>
       <c r="Q829" t="n">
         <v>18</v>
@@ -60113,20 +60113,20 @@
       </c>
       <c r="I830" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J830" t="n">
-        <v>380</v>
+        <v>450</v>
       </c>
       <c r="K830" t="n">
-        <v>5000</v>
+        <v>9500</v>
       </c>
       <c r="L830" t="n">
-        <v>5500</v>
+        <v>10000</v>
       </c>
       <c r="M830" t="n">
-        <v>5237</v>
+        <v>9722</v>
       </c>
       <c r="N830" t="inlineStr">
         <is>
@@ -60135,11 +60135,11 @@
       </c>
       <c r="O830" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P830" t="n">
-        <v>291</v>
+        <v>540</v>
       </c>
       <c r="Q830" t="n">
         <v>18</v>
@@ -60185,20 +60185,20 @@
       </c>
       <c r="I831" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J831" t="n">
-        <v>580</v>
+        <v>550</v>
       </c>
       <c r="K831" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="L831" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="M831" t="n">
-        <v>7276</v>
+        <v>6227</v>
       </c>
       <c r="N831" t="inlineStr">
         <is>
@@ -60207,11 +60207,11 @@
       </c>
       <c r="O831" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P831" t="n">
-        <v>404</v>
+        <v>346</v>
       </c>
       <c r="Q831" t="n">
         <v>18</v>
@@ -60237,7 +60237,7 @@
         </is>
       </c>
       <c r="D832" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E832" t="n">
         <v>13</v>
@@ -60257,20 +60257,20 @@
       </c>
       <c r="I832" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J832" t="n">
-        <v>760</v>
+        <v>780</v>
       </c>
       <c r="K832" t="n">
-        <v>19000</v>
+        <v>8000</v>
       </c>
       <c r="L832" t="n">
-        <v>20000</v>
+        <v>8500</v>
       </c>
       <c r="M832" t="n">
-        <v>19526</v>
+        <v>8244</v>
       </c>
       <c r="N832" t="inlineStr">
         <is>
@@ -60279,11 +60279,11 @@
       </c>
       <c r="O832" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P832" t="n">
-        <v>1085</v>
+        <v>458</v>
       </c>
       <c r="Q832" t="n">
         <v>18</v>
@@ -60309,7 +60309,7 @@
         </is>
       </c>
       <c r="D833" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E833" t="n">
         <v>13</v>
@@ -60329,20 +60329,20 @@
       </c>
       <c r="I833" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J833" t="n">
-        <v>920</v>
+        <v>380</v>
       </c>
       <c r="K833" t="n">
-        <v>17000</v>
+        <v>5000</v>
       </c>
       <c r="L833" t="n">
-        <v>18000</v>
+        <v>5500</v>
       </c>
       <c r="M833" t="n">
-        <v>17522</v>
+        <v>5237</v>
       </c>
       <c r="N833" t="inlineStr">
         <is>
@@ -60355,7 +60355,7 @@
         </is>
       </c>
       <c r="P833" t="n">
-        <v>973</v>
+        <v>291</v>
       </c>
       <c r="Q833" t="n">
         <v>18</v>
@@ -60381,7 +60381,7 @@
         </is>
       </c>
       <c r="D834" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E834" t="n">
         <v>13</v>
@@ -60408,13 +60408,13 @@
         <v>580</v>
       </c>
       <c r="K834" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="L834" t="n">
-        <v>15000</v>
+        <v>7500</v>
       </c>
       <c r="M834" t="n">
-        <v>14517</v>
+        <v>7276</v>
       </c>
       <c r="N834" t="inlineStr">
         <is>
@@ -60423,11 +60423,11 @@
       </c>
       <c r="O834" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P834" t="n">
-        <v>806</v>
+        <v>404</v>
       </c>
       <c r="Q834" t="n">
         <v>18</v>
@@ -60453,7 +60453,7 @@
         </is>
       </c>
       <c r="D835" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E835" t="n">
         <v>13</v>
@@ -60477,16 +60477,16 @@
         </is>
       </c>
       <c r="J835" t="n">
-        <v>255</v>
+        <v>760</v>
       </c>
       <c r="K835" t="n">
-        <v>12000</v>
+        <v>19000</v>
       </c>
       <c r="L835" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="M835" t="n">
-        <v>12294</v>
+        <v>19526</v>
       </c>
       <c r="N835" t="inlineStr">
         <is>
@@ -60495,11 +60495,11 @@
       </c>
       <c r="O835" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P835" t="n">
-        <v>683</v>
+        <v>1085</v>
       </c>
       <c r="Q835" t="n">
         <v>18</v>
@@ -60525,7 +60525,7 @@
         </is>
       </c>
       <c r="D836" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E836" t="n">
         <v>13</v>
@@ -60549,16 +60549,16 @@
         </is>
       </c>
       <c r="J836" t="n">
-        <v>200</v>
+        <v>920</v>
       </c>
       <c r="K836" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="L836" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="M836" t="n">
-        <v>10000</v>
+        <v>17522</v>
       </c>
       <c r="N836" t="inlineStr">
         <is>
@@ -60567,11 +60567,11 @@
       </c>
       <c r="O836" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P836" t="n">
-        <v>556</v>
+        <v>973</v>
       </c>
       <c r="Q836" t="n">
         <v>18</v>
@@ -60597,7 +60597,7 @@
         </is>
       </c>
       <c r="D837" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E837" t="n">
         <v>13</v>
@@ -60621,16 +60621,16 @@
         </is>
       </c>
       <c r="J837" t="n">
-        <v>150</v>
+        <v>580</v>
       </c>
       <c r="K837" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="L837" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="M837" t="n">
-        <v>8000</v>
+        <v>14517</v>
       </c>
       <c r="N837" t="inlineStr">
         <is>
@@ -60639,11 +60639,11 @@
       </c>
       <c r="O837" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P837" t="n">
-        <v>444</v>
+        <v>806</v>
       </c>
       <c r="Q837" t="n">
         <v>18</v>
@@ -60669,7 +60669,7 @@
         </is>
       </c>
       <c r="D838" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E838" t="n">
         <v>13</v>
@@ -60693,16 +60693,16 @@
         </is>
       </c>
       <c r="J838" t="n">
-        <v>840</v>
+        <v>255</v>
       </c>
       <c r="K838" t="n">
+        <v>12000</v>
+      </c>
+      <c r="L838" t="n">
         <v>13000</v>
       </c>
-      <c r="L838" t="n">
-        <v>14000</v>
-      </c>
       <c r="M838" t="n">
-        <v>13548</v>
+        <v>12294</v>
       </c>
       <c r="N838" t="inlineStr">
         <is>
@@ -60711,11 +60711,11 @@
       </c>
       <c r="O838" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P838" t="n">
-        <v>753</v>
+        <v>683</v>
       </c>
       <c r="Q838" t="n">
         <v>18</v>
@@ -60741,7 +60741,7 @@
         </is>
       </c>
       <c r="D839" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E839" t="n">
         <v>13</v>
@@ -60765,16 +60765,16 @@
         </is>
       </c>
       <c r="J839" t="n">
-        <v>1130</v>
+        <v>200</v>
       </c>
       <c r="K839" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="L839" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M839" t="n">
-        <v>11575</v>
+        <v>10000</v>
       </c>
       <c r="N839" t="inlineStr">
         <is>
@@ -60783,11 +60783,11 @@
       </c>
       <c r="O839" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P839" t="n">
-        <v>643</v>
+        <v>556</v>
       </c>
       <c r="Q839" t="n">
         <v>18</v>
@@ -60813,7 +60813,7 @@
         </is>
       </c>
       <c r="D840" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E840" t="n">
         <v>13</v>
@@ -60837,16 +60837,16 @@
         </is>
       </c>
       <c r="J840" t="n">
-        <v>780</v>
+        <v>150</v>
       </c>
       <c r="K840" t="n">
         <v>8000</v>
       </c>
       <c r="L840" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="M840" t="n">
-        <v>8615</v>
+        <v>8000</v>
       </c>
       <c r="N840" t="inlineStr">
         <is>
@@ -60855,11 +60855,11 @@
       </c>
       <c r="O840" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P840" t="n">
-        <v>479</v>
+        <v>444</v>
       </c>
       <c r="Q840" t="n">
         <v>18</v>
@@ -60900,7 +60900,7 @@
       </c>
       <c r="H841" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I841" t="inlineStr">
@@ -60909,16 +60909,16 @@
         </is>
       </c>
       <c r="J841" t="n">
-        <v>590</v>
+        <v>840</v>
       </c>
       <c r="K841" t="n">
-        <v>9500</v>
+        <v>13000</v>
       </c>
       <c r="L841" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="M841" t="n">
-        <v>9788</v>
+        <v>13548</v>
       </c>
       <c r="N841" t="inlineStr">
         <is>
@@ -60927,11 +60927,11 @@
       </c>
       <c r="O841" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P841" t="n">
-        <v>544</v>
+        <v>753</v>
       </c>
       <c r="Q841" t="n">
         <v>18</v>
@@ -60972,7 +60972,7 @@
       </c>
       <c r="H842" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I842" t="inlineStr">
@@ -60981,16 +60981,16 @@
         </is>
       </c>
       <c r="J842" t="n">
-        <v>580</v>
+        <v>1130</v>
       </c>
       <c r="K842" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="L842" t="n">
-        <v>8500</v>
+        <v>12000</v>
       </c>
       <c r="M842" t="n">
-        <v>8259</v>
+        <v>11575</v>
       </c>
       <c r="N842" t="inlineStr">
         <is>
@@ -60999,11 +60999,11 @@
       </c>
       <c r="O842" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P842" t="n">
-        <v>459</v>
+        <v>643</v>
       </c>
       <c r="Q842" t="n">
         <v>18</v>
@@ -61044,7 +61044,7 @@
       </c>
       <c r="H843" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I843" t="inlineStr">
@@ -61053,16 +61053,16 @@
         </is>
       </c>
       <c r="J843" t="n">
-        <v>550</v>
+        <v>780</v>
       </c>
       <c r="K843" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="L843" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="M843" t="n">
-        <v>5545</v>
+        <v>8615</v>
       </c>
       <c r="N843" t="inlineStr">
         <is>
@@ -61071,11 +61071,11 @@
       </c>
       <c r="O843" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P843" t="n">
-        <v>308</v>
+        <v>479</v>
       </c>
       <c r="Q843" t="n">
         <v>18</v>
@@ -61101,7 +61101,7 @@
         </is>
       </c>
       <c r="D844" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E844" t="n">
         <v>13</v>
@@ -61116,7 +61116,7 @@
       </c>
       <c r="H844" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I844" t="inlineStr">
@@ -61125,16 +61125,16 @@
         </is>
       </c>
       <c r="J844" t="n">
-        <v>390</v>
+        <v>590</v>
       </c>
       <c r="K844" t="n">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="L844" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M844" t="n">
-        <v>8462</v>
+        <v>9788</v>
       </c>
       <c r="N844" t="inlineStr">
         <is>
@@ -61143,11 +61143,11 @@
       </c>
       <c r="O844" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P844" t="n">
-        <v>470</v>
+        <v>544</v>
       </c>
       <c r="Q844" t="n">
         <v>18</v>
@@ -61173,7 +61173,7 @@
         </is>
       </c>
       <c r="D845" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E845" t="n">
         <v>13</v>
@@ -61188,25 +61188,25 @@
       </c>
       <c r="H845" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I845" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J845" t="n">
-        <v>1040</v>
+        <v>580</v>
       </c>
       <c r="K845" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="L845" t="n">
-        <v>12000</v>
+        <v>8500</v>
       </c>
       <c r="M845" t="n">
-        <v>11538</v>
+        <v>8259</v>
       </c>
       <c r="N845" t="inlineStr">
         <is>
@@ -61215,11 +61215,11 @@
       </c>
       <c r="O845" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P845" t="n">
-        <v>641</v>
+        <v>459</v>
       </c>
       <c r="Q845" t="n">
         <v>18</v>
@@ -61245,7 +61245,7 @@
         </is>
       </c>
       <c r="D846" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E846" t="n">
         <v>13</v>
@@ -61260,25 +61260,25 @@
       </c>
       <c r="H846" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I846" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J846" t="n">
-        <v>450</v>
+        <v>550</v>
       </c>
       <c r="K846" t="n">
+        <v>5000</v>
+      </c>
+      <c r="L846" t="n">
         <v>6000</v>
       </c>
-      <c r="L846" t="n">
-        <v>7000</v>
-      </c>
       <c r="M846" t="n">
-        <v>6444</v>
+        <v>5545</v>
       </c>
       <c r="N846" t="inlineStr">
         <is>
@@ -61287,11 +61287,11 @@
       </c>
       <c r="O846" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P846" t="n">
-        <v>358</v>
+        <v>308</v>
       </c>
       <c r="Q846" t="n">
         <v>18</v>
@@ -61337,20 +61337,20 @@
       </c>
       <c r="I847" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J847" t="n">
-        <v>1030</v>
+        <v>390</v>
       </c>
       <c r="K847" t="n">
+        <v>8000</v>
+      </c>
+      <c r="L847" t="n">
         <v>9000</v>
       </c>
-      <c r="L847" t="n">
-        <v>10000</v>
-      </c>
       <c r="M847" t="n">
-        <v>9466</v>
+        <v>8462</v>
       </c>
       <c r="N847" t="inlineStr">
         <is>
@@ -61359,11 +61359,11 @@
       </c>
       <c r="O847" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P847" t="n">
-        <v>526</v>
+        <v>470</v>
       </c>
       <c r="Q847" t="n">
         <v>18</v>
@@ -61409,20 +61409,20 @@
       </c>
       <c r="I848" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J848" t="n">
-        <v>440</v>
+        <v>1040</v>
       </c>
       <c r="K848" t="n">
-        <v>4000</v>
+        <v>11000</v>
       </c>
       <c r="L848" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="M848" t="n">
-        <v>4591</v>
+        <v>11538</v>
       </c>
       <c r="N848" t="inlineStr">
         <is>
@@ -61431,11 +61431,11 @@
       </c>
       <c r="O848" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P848" t="n">
-        <v>255</v>
+        <v>641</v>
       </c>
       <c r="Q848" t="n">
         <v>18</v>
@@ -61481,20 +61481,20 @@
       </c>
       <c r="I849" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J849" t="n">
-        <v>820</v>
+        <v>450</v>
       </c>
       <c r="K849" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L849" t="n">
         <v>7000</v>
       </c>
-      <c r="L849" t="n">
-        <v>8000</v>
-      </c>
       <c r="M849" t="n">
-        <v>7537</v>
+        <v>6444</v>
       </c>
       <c r="N849" t="inlineStr">
         <is>
@@ -61503,11 +61503,11 @@
       </c>
       <c r="O849" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P849" t="n">
-        <v>419</v>
+        <v>358</v>
       </c>
       <c r="Q849" t="n">
         <v>18</v>
@@ -61533,7 +61533,7 @@
         </is>
       </c>
       <c r="D850" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E850" t="n">
         <v>13</v>
@@ -61553,20 +61553,20 @@
       </c>
       <c r="I850" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J850" t="n">
-        <v>500</v>
+        <v>1030</v>
       </c>
       <c r="K850" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="L850" t="n">
-        <v>8500</v>
+        <v>10000</v>
       </c>
       <c r="M850" t="n">
-        <v>8280</v>
+        <v>9466</v>
       </c>
       <c r="N850" t="inlineStr">
         <is>
@@ -61575,11 +61575,11 @@
       </c>
       <c r="O850" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P850" t="n">
-        <v>460</v>
+        <v>526</v>
       </c>
       <c r="Q850" t="n">
         <v>18</v>
@@ -61605,7 +61605,7 @@
         </is>
       </c>
       <c r="D851" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E851" t="n">
         <v>13</v>
@@ -61625,20 +61625,20 @@
       </c>
       <c r="I851" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J851" t="n">
-        <v>680</v>
+        <v>440</v>
       </c>
       <c r="K851" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="L851" t="n">
-        <v>7500</v>
+        <v>5000</v>
       </c>
       <c r="M851" t="n">
-        <v>7279</v>
+        <v>4591</v>
       </c>
       <c r="N851" t="inlineStr">
         <is>
@@ -61651,7 +61651,7 @@
         </is>
       </c>
       <c r="P851" t="n">
-        <v>404</v>
+        <v>255</v>
       </c>
       <c r="Q851" t="n">
         <v>18</v>
@@ -61677,7 +61677,7 @@
         </is>
       </c>
       <c r="D852" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E852" t="n">
         <v>13</v>
@@ -61692,25 +61692,25 @@
       </c>
       <c r="H852" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I852" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J852" t="n">
-        <v>420</v>
+        <v>820</v>
       </c>
       <c r="K852" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="L852" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M852" t="n">
-        <v>5786</v>
+        <v>7537</v>
       </c>
       <c r="N852" t="inlineStr">
         <is>
@@ -61719,11 +61719,11 @@
       </c>
       <c r="O852" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P852" t="n">
-        <v>321</v>
+        <v>419</v>
       </c>
       <c r="Q852" t="n">
         <v>18</v>
@@ -61764,25 +61764,25 @@
       </c>
       <c r="H853" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I853" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J853" t="n">
-        <v>420</v>
+        <v>500</v>
       </c>
       <c r="K853" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="L853" t="n">
-        <v>4500</v>
+        <v>8500</v>
       </c>
       <c r="M853" t="n">
-        <v>4214</v>
+        <v>8280</v>
       </c>
       <c r="N853" t="inlineStr">
         <is>
@@ -61791,11 +61791,11 @@
       </c>
       <c r="O853" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P853" t="n">
-        <v>234</v>
+        <v>460</v>
       </c>
       <c r="Q853" t="n">
         <v>18</v>
@@ -61836,43 +61836,259 @@
       </c>
       <c r="H854" t="inlineStr">
         <is>
+          <t>Larga vida</t>
+        </is>
+      </c>
+      <c r="I854" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J854" t="n">
+        <v>680</v>
+      </c>
+      <c r="K854" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L854" t="n">
+        <v>7500</v>
+      </c>
+      <c r="M854" t="n">
+        <v>7279</v>
+      </c>
+      <c r="N854" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O854" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="P854" t="n">
+        <v>404</v>
+      </c>
+      <c r="Q854" t="n">
+        <v>18</v>
+      </c>
+      <c r="R854" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="855">
+      <c r="A855" t="n">
+        <v>12</v>
+      </c>
+      <c r="B855" t="inlineStr">
+        <is>
+          <t>Mapocho Venta Directa de Santiago</t>
+        </is>
+      </c>
+      <c r="C855" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D855" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E855" t="n">
+        <v>13</v>
+      </c>
+      <c r="F855" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G855" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H855" t="inlineStr">
+        <is>
           <t>Semiduro</t>
         </is>
       </c>
-      <c r="I854" t="inlineStr">
+      <c r="I855" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J855" t="n">
+        <v>420</v>
+      </c>
+      <c r="K855" t="n">
+        <v>5500</v>
+      </c>
+      <c r="L855" t="n">
+        <v>6000</v>
+      </c>
+      <c r="M855" t="n">
+        <v>5786</v>
+      </c>
+      <c r="N855" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O855" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P855" t="n">
+        <v>321</v>
+      </c>
+      <c r="Q855" t="n">
+        <v>18</v>
+      </c>
+      <c r="R855" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="856">
+      <c r="A856" t="n">
+        <v>12</v>
+      </c>
+      <c r="B856" t="inlineStr">
+        <is>
+          <t>Mapocho Venta Directa de Santiago</t>
+        </is>
+      </c>
+      <c r="C856" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D856" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E856" t="n">
+        <v>13</v>
+      </c>
+      <c r="F856" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G856" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H856" t="inlineStr">
+        <is>
+          <t>Semiduro</t>
+        </is>
+      </c>
+      <c r="I856" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J856" t="n">
+        <v>420</v>
+      </c>
+      <c r="K856" t="n">
+        <v>4000</v>
+      </c>
+      <c r="L856" t="n">
+        <v>4500</v>
+      </c>
+      <c r="M856" t="n">
+        <v>4214</v>
+      </c>
+      <c r="N856" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O856" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P856" t="n">
+        <v>234</v>
+      </c>
+      <c r="Q856" t="n">
+        <v>18</v>
+      </c>
+      <c r="R856" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="857">
+      <c r="A857" t="n">
+        <v>12</v>
+      </c>
+      <c r="B857" t="inlineStr">
+        <is>
+          <t>Mapocho Venta Directa de Santiago</t>
+        </is>
+      </c>
+      <c r="C857" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D857" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E857" t="n">
+        <v>13</v>
+      </c>
+      <c r="F857" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G857" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H857" t="inlineStr">
+        <is>
+          <t>Semiduro</t>
+        </is>
+      </c>
+      <c r="I857" t="inlineStr">
         <is>
           <t>Tercera</t>
         </is>
       </c>
-      <c r="J854" t="n">
+      <c r="J857" t="n">
         <v>390</v>
       </c>
-      <c r="K854" t="n">
+      <c r="K857" t="n">
         <v>3000</v>
       </c>
-      <c r="L854" t="n">
+      <c r="L857" t="n">
         <v>3500</v>
       </c>
-      <c r="M854" t="n">
+      <c r="M857" t="n">
         <v>3269</v>
       </c>
-      <c r="N854" t="inlineStr">
-        <is>
-          <t>$/bandeja 18 kilos</t>
-        </is>
-      </c>
-      <c r="O854" t="inlineStr">
+      <c r="N857" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O857" t="inlineStr">
         <is>
           <t>Región de O'Higgins</t>
         </is>
       </c>
-      <c r="P854" t="n">
+      <c r="P857" t="n">
         <v>182</v>
       </c>
-      <c r="Q854" t="n">
-        <v>18</v>
-      </c>
-      <c r="R854" t="inlineStr">
+      <c r="Q857" t="n">
+        <v>18</v>
+      </c>
+      <c r="R857" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Tomate.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Tomate.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R889"/>
+  <dimension ref="A1:R895"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -54117,7 +54117,7 @@
         </is>
       </c>
       <c r="D747" s="2" t="n">
-        <v>44468</v>
+        <v>44476</v>
       </c>
       <c r="E747" t="n">
         <v>13</v>
@@ -54141,16 +54141,16 @@
         </is>
       </c>
       <c r="J747" t="n">
-        <v>850</v>
+        <v>580</v>
       </c>
       <c r="K747" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="L747" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="M747" t="n">
-        <v>14471</v>
+        <v>18483</v>
       </c>
       <c r="N747" t="inlineStr">
         <is>
@@ -54159,11 +54159,11 @@
       </c>
       <c r="O747" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P747" t="n">
-        <v>804</v>
+        <v>1027</v>
       </c>
       <c r="Q747" t="n">
         <v>18</v>
@@ -54189,7 +54189,7 @@
         </is>
       </c>
       <c r="D748" s="2" t="n">
-        <v>44468</v>
+        <v>44476</v>
       </c>
       <c r="E748" t="n">
         <v>13</v>
@@ -54209,20 +54209,20 @@
       </c>
       <c r="I748" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J748" t="n">
-        <v>780</v>
+        <v>760</v>
       </c>
       <c r="K748" t="n">
-        <v>12000</v>
+        <v>19000</v>
       </c>
       <c r="L748" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="M748" t="n">
-        <v>12513</v>
+        <v>19539</v>
       </c>
       <c r="N748" t="inlineStr">
         <is>
@@ -54235,7 +54235,7 @@
         </is>
       </c>
       <c r="P748" t="n">
-        <v>695</v>
+        <v>1086</v>
       </c>
       <c r="Q748" t="n">
         <v>18</v>
@@ -54261,7 +54261,7 @@
         </is>
       </c>
       <c r="D749" s="2" t="n">
-        <v>44468</v>
+        <v>44476</v>
       </c>
       <c r="E749" t="n">
         <v>13</v>
@@ -54281,20 +54281,20 @@
       </c>
       <c r="I749" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J749" t="n">
-        <v>840</v>
+        <v>470</v>
       </c>
       <c r="K749" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="L749" t="n">
-        <v>11000</v>
+        <v>17000</v>
       </c>
       <c r="M749" t="n">
-        <v>10417</v>
+        <v>16468</v>
       </c>
       <c r="N749" t="inlineStr">
         <is>
@@ -54303,11 +54303,11 @@
       </c>
       <c r="O749" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P749" t="n">
-        <v>579</v>
+        <v>915</v>
       </c>
       <c r="Q749" t="n">
         <v>18</v>
@@ -54333,7 +54333,7 @@
         </is>
       </c>
       <c r="D750" s="2" t="n">
-        <v>44386</v>
+        <v>44476</v>
       </c>
       <c r="E750" t="n">
         <v>13</v>
@@ -54353,11 +54353,11 @@
       </c>
       <c r="I750" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J750" t="n">
-        <v>690</v>
+        <v>930</v>
       </c>
       <c r="K750" t="n">
         <v>17000</v>
@@ -54366,7 +54366,7 @@
         <v>18000</v>
       </c>
       <c r="M750" t="n">
-        <v>17565</v>
+        <v>17484</v>
       </c>
       <c r="N750" t="inlineStr">
         <is>
@@ -54379,7 +54379,7 @@
         </is>
       </c>
       <c r="P750" t="n">
-        <v>976</v>
+        <v>971</v>
       </c>
       <c r="Q750" t="n">
         <v>18</v>
@@ -54405,7 +54405,7 @@
         </is>
       </c>
       <c r="D751" s="2" t="n">
-        <v>44386</v>
+        <v>44476</v>
       </c>
       <c r="E751" t="n">
         <v>13</v>
@@ -54425,20 +54425,20 @@
       </c>
       <c r="I751" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J751" t="n">
-        <v>420</v>
+        <v>550</v>
       </c>
       <c r="K751" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="L751" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="M751" t="n">
-        <v>11476</v>
+        <v>13455</v>
       </c>
       <c r="N751" t="inlineStr">
         <is>
@@ -54451,7 +54451,7 @@
         </is>
       </c>
       <c r="P751" t="n">
-        <v>638</v>
+        <v>748</v>
       </c>
       <c r="Q751" t="n">
         <v>18</v>
@@ -54477,7 +54477,7 @@
         </is>
       </c>
       <c r="D752" s="2" t="n">
-        <v>44386</v>
+        <v>44476</v>
       </c>
       <c r="E752" t="n">
         <v>13</v>
@@ -54497,20 +54497,20 @@
       </c>
       <c r="I752" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J752" t="n">
-        <v>870</v>
+        <v>840</v>
       </c>
       <c r="K752" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L752" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="M752" t="n">
-        <v>14575</v>
+        <v>15476</v>
       </c>
       <c r="N752" t="inlineStr">
         <is>
@@ -54523,7 +54523,7 @@
         </is>
       </c>
       <c r="P752" t="n">
-        <v>810</v>
+        <v>860</v>
       </c>
       <c r="Q752" t="n">
         <v>18</v>
@@ -54549,7 +54549,7 @@
         </is>
       </c>
       <c r="D753" s="2" t="n">
-        <v>44386</v>
+        <v>44468</v>
       </c>
       <c r="E753" t="n">
         <v>13</v>
@@ -54569,20 +54569,20 @@
       </c>
       <c r="I753" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J753" t="n">
-        <v>330</v>
+        <v>850</v>
       </c>
       <c r="K753" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="L753" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="M753" t="n">
-        <v>8606</v>
+        <v>14471</v>
       </c>
       <c r="N753" t="inlineStr">
         <is>
@@ -54591,11 +54591,11 @@
       </c>
       <c r="O753" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P753" t="n">
-        <v>478</v>
+        <v>804</v>
       </c>
       <c r="Q753" t="n">
         <v>18</v>
@@ -54621,7 +54621,7 @@
         </is>
       </c>
       <c r="D754" s="2" t="n">
-        <v>44386</v>
+        <v>44468</v>
       </c>
       <c r="E754" t="n">
         <v>13</v>
@@ -54641,20 +54641,20 @@
       </c>
       <c r="I754" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J754" t="n">
-        <v>630</v>
+        <v>780</v>
       </c>
       <c r="K754" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L754" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="M754" t="n">
-        <v>10524</v>
+        <v>12513</v>
       </c>
       <c r="N754" t="inlineStr">
         <is>
@@ -54667,7 +54667,7 @@
         </is>
       </c>
       <c r="P754" t="n">
-        <v>585</v>
+        <v>695</v>
       </c>
       <c r="Q754" t="n">
         <v>18</v>
@@ -54693,7 +54693,7 @@
         </is>
       </c>
       <c r="D755" s="2" t="n">
-        <v>44384</v>
+        <v>44468</v>
       </c>
       <c r="E755" t="n">
         <v>13</v>
@@ -54713,20 +54713,20 @@
       </c>
       <c r="I755" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J755" t="n">
-        <v>320</v>
+        <v>840</v>
       </c>
       <c r="K755" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="L755" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="M755" t="n">
-        <v>12500</v>
+        <v>10417</v>
       </c>
       <c r="N755" t="inlineStr">
         <is>
@@ -54739,7 +54739,7 @@
         </is>
       </c>
       <c r="P755" t="n">
-        <v>694</v>
+        <v>579</v>
       </c>
       <c r="Q755" t="n">
         <v>18</v>
@@ -54765,7 +54765,7 @@
         </is>
       </c>
       <c r="D756" s="2" t="n">
-        <v>44384</v>
+        <v>44386</v>
       </c>
       <c r="E756" t="n">
         <v>13</v>
@@ -54785,20 +54785,20 @@
       </c>
       <c r="I756" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J756" t="n">
-        <v>450</v>
+        <v>690</v>
       </c>
       <c r="K756" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="L756" t="n">
-        <v>11000</v>
+        <v>18000</v>
       </c>
       <c r="M756" t="n">
-        <v>10500</v>
+        <v>17565</v>
       </c>
       <c r="N756" t="inlineStr">
         <is>
@@ -54811,7 +54811,7 @@
         </is>
       </c>
       <c r="P756" t="n">
-        <v>583</v>
+        <v>976</v>
       </c>
       <c r="Q756" t="n">
         <v>18</v>
@@ -54837,7 +54837,7 @@
         </is>
       </c>
       <c r="D757" s="2" t="n">
-        <v>44384</v>
+        <v>44386</v>
       </c>
       <c r="E757" t="n">
         <v>13</v>
@@ -54857,20 +54857,20 @@
       </c>
       <c r="I757" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J757" t="n">
-        <v>160</v>
+        <v>420</v>
       </c>
       <c r="K757" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="L757" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="M757" t="n">
-        <v>8500</v>
+        <v>11476</v>
       </c>
       <c r="N757" t="inlineStr">
         <is>
@@ -54879,11 +54879,11 @@
       </c>
       <c r="O757" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P757" t="n">
-        <v>472</v>
+        <v>638</v>
       </c>
       <c r="Q757" t="n">
         <v>18</v>
@@ -54909,7 +54909,7 @@
         </is>
       </c>
       <c r="D758" s="2" t="n">
-        <v>44384</v>
+        <v>44386</v>
       </c>
       <c r="E758" t="n">
         <v>13</v>
@@ -54929,20 +54929,20 @@
       </c>
       <c r="I758" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J758" t="n">
-        <v>150</v>
+        <v>870</v>
       </c>
       <c r="K758" t="n">
-        <v>6000</v>
+        <v>14000</v>
       </c>
       <c r="L758" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="M758" t="n">
-        <v>6500</v>
+        <v>14575</v>
       </c>
       <c r="N758" t="inlineStr">
         <is>
@@ -54955,7 +54955,7 @@
         </is>
       </c>
       <c r="P758" t="n">
-        <v>361</v>
+        <v>810</v>
       </c>
       <c r="Q758" t="n">
         <v>18</v>
@@ -54981,7 +54981,7 @@
         </is>
       </c>
       <c r="D759" s="2" t="n">
-        <v>44263</v>
+        <v>44386</v>
       </c>
       <c r="E759" t="n">
         <v>13</v>
@@ -55001,36 +55001,36 @@
       </c>
       <c r="I759" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J759" t="n">
-        <v>150</v>
+        <v>330</v>
       </c>
       <c r="K759" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="L759" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="M759" t="n">
-        <v>11000</v>
+        <v>8606</v>
       </c>
       <c r="N759" t="inlineStr">
         <is>
-          <t>$/bandeja 20 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O759" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P759" t="n">
-        <v>550</v>
+        <v>478</v>
       </c>
       <c r="Q759" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R759" t="inlineStr">
         <is>
@@ -55053,7 +55053,7 @@
         </is>
       </c>
       <c r="D760" s="2" t="n">
-        <v>44263</v>
+        <v>44386</v>
       </c>
       <c r="E760" t="n">
         <v>13</v>
@@ -55073,36 +55073,36 @@
       </c>
       <c r="I760" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J760" t="n">
-        <v>200</v>
+        <v>630</v>
       </c>
       <c r="K760" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="L760" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="M760" t="n">
-        <v>9000</v>
+        <v>10524</v>
       </c>
       <c r="N760" t="inlineStr">
         <is>
-          <t>$/bandeja 20 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O760" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P760" t="n">
-        <v>450</v>
+        <v>585</v>
       </c>
       <c r="Q760" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R760" t="inlineStr">
         <is>
@@ -55125,7 +55125,7 @@
         </is>
       </c>
       <c r="D761" s="2" t="n">
-        <v>44263</v>
+        <v>44384</v>
       </c>
       <c r="E761" t="n">
         <v>13</v>
@@ -55145,36 +55145,36 @@
       </c>
       <c r="I761" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J761" t="n">
-        <v>250</v>
+        <v>320</v>
       </c>
       <c r="K761" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="L761" t="n">
-        <v>6000</v>
+        <v>13000</v>
       </c>
       <c r="M761" t="n">
-        <v>6000</v>
+        <v>12500</v>
       </c>
       <c r="N761" t="inlineStr">
         <is>
-          <t>$/bandeja 20 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O761" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P761" t="n">
-        <v>300</v>
+        <v>694</v>
       </c>
       <c r="Q761" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R761" t="inlineStr">
         <is>
@@ -55197,7 +55197,7 @@
         </is>
       </c>
       <c r="D762" s="2" t="n">
-        <v>44263</v>
+        <v>44384</v>
       </c>
       <c r="E762" t="n">
         <v>13</v>
@@ -55212,25 +55212,25 @@
       </c>
       <c r="H762" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I762" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J762" t="n">
-        <v>300</v>
+        <v>450</v>
       </c>
       <c r="K762" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="L762" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="M762" t="n">
-        <v>6000</v>
+        <v>10500</v>
       </c>
       <c r="N762" t="inlineStr">
         <is>
@@ -55239,11 +55239,11 @@
       </c>
       <c r="O762" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P762" t="n">
-        <v>333</v>
+        <v>583</v>
       </c>
       <c r="Q762" t="n">
         <v>18</v>
@@ -55269,7 +55269,7 @@
         </is>
       </c>
       <c r="D763" s="2" t="n">
-        <v>44263</v>
+        <v>44384</v>
       </c>
       <c r="E763" t="n">
         <v>13</v>
@@ -55284,25 +55284,25 @@
       </c>
       <c r="H763" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I763" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J763" t="n">
-        <v>500</v>
+        <v>160</v>
       </c>
       <c r="K763" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="L763" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="M763" t="n">
-        <v>5000</v>
+        <v>8500</v>
       </c>
       <c r="N763" t="inlineStr">
         <is>
@@ -55311,11 +55311,11 @@
       </c>
       <c r="O763" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P763" t="n">
-        <v>278</v>
+        <v>472</v>
       </c>
       <c r="Q763" t="n">
         <v>18</v>
@@ -55341,7 +55341,7 @@
         </is>
       </c>
       <c r="D764" s="2" t="n">
-        <v>44263</v>
+        <v>44384</v>
       </c>
       <c r="E764" t="n">
         <v>13</v>
@@ -55356,25 +55356,25 @@
       </c>
       <c r="H764" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I764" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J764" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="K764" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="L764" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="M764" t="n">
-        <v>4000</v>
+        <v>6500</v>
       </c>
       <c r="N764" t="inlineStr">
         <is>
@@ -55383,11 +55383,11 @@
       </c>
       <c r="O764" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P764" t="n">
-        <v>222</v>
+        <v>361</v>
       </c>
       <c r="Q764" t="n">
         <v>18</v>
@@ -55413,7 +55413,7 @@
         </is>
       </c>
       <c r="D765" s="2" t="n">
-        <v>44363</v>
+        <v>44263</v>
       </c>
       <c r="E765" t="n">
         <v>13</v>
@@ -55437,32 +55437,32 @@
         </is>
       </c>
       <c r="J765" t="n">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="K765" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="L765" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="M765" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="N765" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 20 kilos</t>
         </is>
       </c>
       <c r="O765" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P765" t="n">
-        <v>667</v>
+        <v>550</v>
       </c>
       <c r="Q765" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R765" t="inlineStr">
         <is>
@@ -55485,7 +55485,7 @@
         </is>
       </c>
       <c r="D766" s="2" t="n">
-        <v>44363</v>
+        <v>44263</v>
       </c>
       <c r="E766" t="n">
         <v>13</v>
@@ -55509,32 +55509,32 @@
         </is>
       </c>
       <c r="J766" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="K766" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="L766" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="M766" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="N766" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 20 kilos</t>
         </is>
       </c>
       <c r="O766" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P766" t="n">
-        <v>556</v>
+        <v>450</v>
       </c>
       <c r="Q766" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R766" t="inlineStr">
         <is>
@@ -55557,7 +55557,7 @@
         </is>
       </c>
       <c r="D767" s="2" t="n">
-        <v>44363</v>
+        <v>44263</v>
       </c>
       <c r="E767" t="n">
         <v>13</v>
@@ -55581,32 +55581,32 @@
         </is>
       </c>
       <c r="J767" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="K767" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L767" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="M767" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="N767" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 20 kilos</t>
         </is>
       </c>
       <c r="O767" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P767" t="n">
-        <v>444</v>
+        <v>300</v>
       </c>
       <c r="Q767" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R767" t="inlineStr">
         <is>
@@ -55629,7 +55629,7 @@
         </is>
       </c>
       <c r="D768" s="2" t="n">
-        <v>44306</v>
+        <v>44263</v>
       </c>
       <c r="E768" t="n">
         <v>13</v>
@@ -55644,7 +55644,7 @@
       </c>
       <c r="H768" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I768" t="inlineStr">
@@ -55653,16 +55653,16 @@
         </is>
       </c>
       <c r="J768" t="n">
-        <v>1040</v>
+        <v>300</v>
       </c>
       <c r="K768" t="n">
-        <v>11000</v>
+        <v>6000</v>
       </c>
       <c r="L768" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="M768" t="n">
-        <v>11538</v>
+        <v>6000</v>
       </c>
       <c r="N768" t="inlineStr">
         <is>
@@ -55671,11 +55671,11 @@
       </c>
       <c r="O768" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P768" t="n">
-        <v>641</v>
+        <v>333</v>
       </c>
       <c r="Q768" t="n">
         <v>18</v>
@@ -55701,7 +55701,7 @@
         </is>
       </c>
       <c r="D769" s="2" t="n">
-        <v>44306</v>
+        <v>44263</v>
       </c>
       <c r="E769" t="n">
         <v>13</v>
@@ -55716,7 +55716,7 @@
       </c>
       <c r="H769" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I769" t="inlineStr">
@@ -55725,16 +55725,16 @@
         </is>
       </c>
       <c r="J769" t="n">
-        <v>1030</v>
+        <v>500</v>
       </c>
       <c r="K769" t="n">
-        <v>9500</v>
+        <v>5000</v>
       </c>
       <c r="L769" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="M769" t="n">
-        <v>9782</v>
+        <v>5000</v>
       </c>
       <c r="N769" t="inlineStr">
         <is>
@@ -55743,11 +55743,11 @@
       </c>
       <c r="O769" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P769" t="n">
-        <v>543</v>
+        <v>278</v>
       </c>
       <c r="Q769" t="n">
         <v>18</v>
@@ -55773,7 +55773,7 @@
         </is>
       </c>
       <c r="D770" s="2" t="n">
-        <v>44306</v>
+        <v>44263</v>
       </c>
       <c r="E770" t="n">
         <v>13</v>
@@ -55788,7 +55788,7 @@
       </c>
       <c r="H770" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I770" t="inlineStr">
@@ -55797,16 +55797,16 @@
         </is>
       </c>
       <c r="J770" t="n">
-        <v>750</v>
+        <v>200</v>
       </c>
       <c r="K770" t="n">
-        <v>7500</v>
+        <v>4000</v>
       </c>
       <c r="L770" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="M770" t="n">
-        <v>7733</v>
+        <v>4000</v>
       </c>
       <c r="N770" t="inlineStr">
         <is>
@@ -55815,11 +55815,11 @@
       </c>
       <c r="O770" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P770" t="n">
-        <v>430</v>
+        <v>222</v>
       </c>
       <c r="Q770" t="n">
         <v>18</v>
@@ -55845,7 +55845,7 @@
         </is>
       </c>
       <c r="D771" s="2" t="n">
-        <v>44369</v>
+        <v>44363</v>
       </c>
       <c r="E771" t="n">
         <v>13</v>
@@ -55869,16 +55869,16 @@
         </is>
       </c>
       <c r="J771" t="n">
-        <v>290</v>
+        <v>50</v>
       </c>
       <c r="K771" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="L771" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="M771" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="N771" t="inlineStr">
         <is>
@@ -55887,11 +55887,11 @@
       </c>
       <c r="O771" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P771" t="n">
-        <v>444</v>
+        <v>667</v>
       </c>
       <c r="Q771" t="n">
         <v>18</v>
@@ -55917,7 +55917,7 @@
         </is>
       </c>
       <c r="D772" s="2" t="n">
-        <v>44369</v>
+        <v>44363</v>
       </c>
       <c r="E772" t="n">
         <v>13</v>
@@ -55937,20 +55937,20 @@
       </c>
       <c r="I772" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J772" t="n">
-        <v>580</v>
+        <v>150</v>
       </c>
       <c r="K772" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="L772" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="M772" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="N772" t="inlineStr">
         <is>
@@ -55963,7 +55963,7 @@
         </is>
       </c>
       <c r="P772" t="n">
-        <v>611</v>
+        <v>556</v>
       </c>
       <c r="Q772" t="n">
         <v>18</v>
@@ -55989,7 +55989,7 @@
         </is>
       </c>
       <c r="D773" s="2" t="n">
-        <v>44369</v>
+        <v>44363</v>
       </c>
       <c r="E773" t="n">
         <v>13</v>
@@ -56009,20 +56009,20 @@
       </c>
       <c r="I773" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J773" t="n">
-        <v>320</v>
+        <v>100</v>
       </c>
       <c r="K773" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L773" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M773" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="N773" t="inlineStr">
         <is>
@@ -56031,11 +56031,11 @@
       </c>
       <c r="O773" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P773" t="n">
-        <v>389</v>
+        <v>444</v>
       </c>
       <c r="Q773" t="n">
         <v>18</v>
@@ -56061,7 +56061,7 @@
         </is>
       </c>
       <c r="D774" s="2" t="n">
-        <v>44369</v>
+        <v>44306</v>
       </c>
       <c r="E774" t="n">
         <v>13</v>
@@ -56081,20 +56081,20 @@
       </c>
       <c r="I774" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J774" t="n">
-        <v>490</v>
+        <v>1040</v>
       </c>
       <c r="K774" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="L774" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M774" t="n">
-        <v>10000</v>
+        <v>11538</v>
       </c>
       <c r="N774" t="inlineStr">
         <is>
@@ -56103,11 +56103,11 @@
       </c>
       <c r="O774" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P774" t="n">
-        <v>556</v>
+        <v>641</v>
       </c>
       <c r="Q774" t="n">
         <v>18</v>
@@ -56133,7 +56133,7 @@
         </is>
       </c>
       <c r="D775" s="2" t="n">
-        <v>44369</v>
+        <v>44306</v>
       </c>
       <c r="E775" t="n">
         <v>13</v>
@@ -56153,20 +56153,20 @@
       </c>
       <c r="I775" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J775" t="n">
-        <v>170</v>
+        <v>1030</v>
       </c>
       <c r="K775" t="n">
-        <v>5000</v>
+        <v>9500</v>
       </c>
       <c r="L775" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="M775" t="n">
-        <v>5000</v>
+        <v>9782</v>
       </c>
       <c r="N775" t="inlineStr">
         <is>
@@ -56179,7 +56179,7 @@
         </is>
       </c>
       <c r="P775" t="n">
-        <v>278</v>
+        <v>543</v>
       </c>
       <c r="Q775" t="n">
         <v>18</v>
@@ -56205,7 +56205,7 @@
         </is>
       </c>
       <c r="D776" s="2" t="n">
-        <v>44369</v>
+        <v>44306</v>
       </c>
       <c r="E776" t="n">
         <v>13</v>
@@ -56229,16 +56229,16 @@
         </is>
       </c>
       <c r="J776" t="n">
-        <v>370</v>
+        <v>750</v>
       </c>
       <c r="K776" t="n">
-        <v>9000</v>
+        <v>7500</v>
       </c>
       <c r="L776" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="M776" t="n">
-        <v>9000</v>
+        <v>7733</v>
       </c>
       <c r="N776" t="inlineStr">
         <is>
@@ -56247,11 +56247,11 @@
       </c>
       <c r="O776" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P776" t="n">
-        <v>500</v>
+        <v>430</v>
       </c>
       <c r="Q776" t="n">
         <v>18</v>
@@ -56277,7 +56277,7 @@
         </is>
       </c>
       <c r="D777" s="2" t="n">
-        <v>44172</v>
+        <v>44369</v>
       </c>
       <c r="E777" t="n">
         <v>13</v>
@@ -56301,16 +56301,16 @@
         </is>
       </c>
       <c r="J777" t="n">
-        <v>430</v>
+        <v>290</v>
       </c>
       <c r="K777" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="L777" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="M777" t="n">
-        <v>13419</v>
+        <v>8000</v>
       </c>
       <c r="N777" t="inlineStr">
         <is>
@@ -56319,11 +56319,11 @@
       </c>
       <c r="O777" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P777" t="n">
-        <v>746</v>
+        <v>444</v>
       </c>
       <c r="Q777" t="n">
         <v>18</v>
@@ -56349,7 +56349,7 @@
         </is>
       </c>
       <c r="D778" s="2" t="n">
-        <v>44172</v>
+        <v>44369</v>
       </c>
       <c r="E778" t="n">
         <v>13</v>
@@ -56369,20 +56369,20 @@
       </c>
       <c r="I778" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J778" t="n">
-        <v>720</v>
+        <v>580</v>
       </c>
       <c r="K778" t="n">
         <v>11000</v>
       </c>
       <c r="L778" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="M778" t="n">
-        <v>11444</v>
+        <v>11000</v>
       </c>
       <c r="N778" t="inlineStr">
         <is>
@@ -56391,11 +56391,11 @@
       </c>
       <c r="O778" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P778" t="n">
-        <v>636</v>
+        <v>611</v>
       </c>
       <c r="Q778" t="n">
         <v>18</v>
@@ -56421,7 +56421,7 @@
         </is>
       </c>
       <c r="D779" s="2" t="n">
-        <v>44172</v>
+        <v>44369</v>
       </c>
       <c r="E779" t="n">
         <v>13</v>
@@ -56441,20 +56441,20 @@
       </c>
       <c r="I779" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J779" t="n">
-        <v>540</v>
+        <v>320</v>
       </c>
       <c r="K779" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="L779" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="M779" t="n">
-        <v>9556</v>
+        <v>7000</v>
       </c>
       <c r="N779" t="inlineStr">
         <is>
@@ -56463,11 +56463,11 @@
       </c>
       <c r="O779" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P779" t="n">
-        <v>531</v>
+        <v>389</v>
       </c>
       <c r="Q779" t="n">
         <v>18</v>
@@ -56493,7 +56493,7 @@
         </is>
       </c>
       <c r="D780" s="2" t="n">
-        <v>44301</v>
+        <v>44369</v>
       </c>
       <c r="E780" t="n">
         <v>13</v>
@@ -56513,20 +56513,20 @@
       </c>
       <c r="I780" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J780" t="n">
-        <v>360</v>
+        <v>490</v>
       </c>
       <c r="K780" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="L780" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M780" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="N780" t="inlineStr">
         <is>
@@ -56535,11 +56535,11 @@
       </c>
       <c r="O780" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P780" t="n">
-        <v>667</v>
+        <v>556</v>
       </c>
       <c r="Q780" t="n">
         <v>18</v>
@@ -56565,7 +56565,7 @@
         </is>
       </c>
       <c r="D781" s="2" t="n">
-        <v>44301</v>
+        <v>44369</v>
       </c>
       <c r="E781" t="n">
         <v>13</v>
@@ -56585,20 +56585,20 @@
       </c>
       <c r="I781" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J781" t="n">
-        <v>640</v>
+        <v>170</v>
       </c>
       <c r="K781" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="L781" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="M781" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="N781" t="inlineStr">
         <is>
@@ -56607,11 +56607,11 @@
       </c>
       <c r="O781" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P781" t="n">
-        <v>556</v>
+        <v>278</v>
       </c>
       <c r="Q781" t="n">
         <v>18</v>
@@ -56637,7 +56637,7 @@
         </is>
       </c>
       <c r="D782" s="2" t="n">
-        <v>44301</v>
+        <v>44369</v>
       </c>
       <c r="E782" t="n">
         <v>13</v>
@@ -56661,7 +56661,7 @@
         </is>
       </c>
       <c r="J782" t="n">
-        <v>240</v>
+        <v>370</v>
       </c>
       <c r="K782" t="n">
         <v>9000</v>
@@ -56679,7 +56679,7 @@
       </c>
       <c r="O782" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P782" t="n">
@@ -56709,7 +56709,7 @@
         </is>
       </c>
       <c r="D783" s="2" t="n">
-        <v>44301</v>
+        <v>44172</v>
       </c>
       <c r="E783" t="n">
         <v>13</v>
@@ -56729,20 +56729,20 @@
       </c>
       <c r="I783" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J783" t="n">
-        <v>160</v>
+        <v>430</v>
       </c>
       <c r="K783" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="L783" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="M783" t="n">
-        <v>7500</v>
+        <v>13419</v>
       </c>
       <c r="N783" t="inlineStr">
         <is>
@@ -56755,7 +56755,7 @@
         </is>
       </c>
       <c r="P783" t="n">
-        <v>417</v>
+        <v>746</v>
       </c>
       <c r="Q783" t="n">
         <v>18</v>
@@ -56781,7 +56781,7 @@
         </is>
       </c>
       <c r="D784" s="2" t="n">
-        <v>44357</v>
+        <v>44172</v>
       </c>
       <c r="E784" t="n">
         <v>13</v>
@@ -56801,20 +56801,20 @@
       </c>
       <c r="I784" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J784" t="n">
-        <v>340</v>
+        <v>720</v>
       </c>
       <c r="K784" t="n">
+        <v>11000</v>
+      </c>
+      <c r="L784" t="n">
         <v>12000</v>
       </c>
-      <c r="L784" t="n">
-        <v>13000</v>
-      </c>
       <c r="M784" t="n">
-        <v>12500</v>
+        <v>11444</v>
       </c>
       <c r="N784" t="inlineStr">
         <is>
@@ -56823,11 +56823,11 @@
       </c>
       <c r="O784" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P784" t="n">
-        <v>694</v>
+        <v>636</v>
       </c>
       <c r="Q784" t="n">
         <v>18</v>
@@ -56853,7 +56853,7 @@
         </is>
       </c>
       <c r="D785" s="2" t="n">
-        <v>44357</v>
+        <v>44172</v>
       </c>
       <c r="E785" t="n">
         <v>13</v>
@@ -56873,20 +56873,20 @@
       </c>
       <c r="I785" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J785" t="n">
-        <v>300</v>
+        <v>540</v>
       </c>
       <c r="K785" t="n">
+        <v>9000</v>
+      </c>
+      <c r="L785" t="n">
         <v>10000</v>
       </c>
-      <c r="L785" t="n">
-        <v>11000</v>
-      </c>
       <c r="M785" t="n">
-        <v>10500</v>
+        <v>9556</v>
       </c>
       <c r="N785" t="inlineStr">
         <is>
@@ -56895,11 +56895,11 @@
       </c>
       <c r="O785" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P785" t="n">
-        <v>583</v>
+        <v>531</v>
       </c>
       <c r="Q785" t="n">
         <v>18</v>
@@ -56925,7 +56925,7 @@
         </is>
       </c>
       <c r="D786" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E786" t="n">
         <v>13</v>
@@ -56945,20 +56945,20 @@
       </c>
       <c r="I786" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J786" t="n">
-        <v>240</v>
+        <v>360</v>
       </c>
       <c r="K786" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="L786" t="n">
-        <v>9500</v>
+        <v>12000</v>
       </c>
       <c r="M786" t="n">
-        <v>9250</v>
+        <v>12000</v>
       </c>
       <c r="N786" t="inlineStr">
         <is>
@@ -56967,11 +56967,11 @@
       </c>
       <c r="O786" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P786" t="n">
-        <v>514</v>
+        <v>667</v>
       </c>
       <c r="Q786" t="n">
         <v>18</v>
@@ -56997,7 +56997,7 @@
         </is>
       </c>
       <c r="D787" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E787" t="n">
         <v>13</v>
@@ -57017,20 +57017,20 @@
       </c>
       <c r="I787" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J787" t="n">
-        <v>200</v>
+        <v>640</v>
       </c>
       <c r="K787" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="L787" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M787" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="N787" t="inlineStr">
         <is>
@@ -57039,11 +57039,11 @@
       </c>
       <c r="O787" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P787" t="n">
-        <v>444</v>
+        <v>556</v>
       </c>
       <c r="Q787" t="n">
         <v>18</v>
@@ -57069,7 +57069,7 @@
         </is>
       </c>
       <c r="D788" s="2" t="n">
-        <v>44328</v>
+        <v>44301</v>
       </c>
       <c r="E788" t="n">
         <v>13</v>
@@ -57089,20 +57089,20 @@
       </c>
       <c r="I788" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J788" t="n">
-        <v>960</v>
+        <v>240</v>
       </c>
       <c r="K788" t="n">
         <v>9000</v>
       </c>
       <c r="L788" t="n">
-        <v>9500</v>
+        <v>9000</v>
       </c>
       <c r="M788" t="n">
-        <v>9302</v>
+        <v>9000</v>
       </c>
       <c r="N788" t="inlineStr">
         <is>
@@ -57111,11 +57111,11 @@
       </c>
       <c r="O788" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P788" t="n">
-        <v>517</v>
+        <v>500</v>
       </c>
       <c r="Q788" t="n">
         <v>18</v>
@@ -57141,7 +57141,7 @@
         </is>
       </c>
       <c r="D789" s="2" t="n">
-        <v>44328</v>
+        <v>44301</v>
       </c>
       <c r="E789" t="n">
         <v>13</v>
@@ -57161,21 +57161,21 @@
       </c>
       <c r="I789" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J789" t="n">
-        <v>410</v>
+        <v>160</v>
       </c>
       <c r="K789" t="n">
         <v>7000</v>
       </c>
       <c r="L789" t="n">
+        <v>8000</v>
+      </c>
+      <c r="M789" t="n">
         <v>7500</v>
       </c>
-      <c r="M789" t="n">
-        <v>7232</v>
-      </c>
       <c r="N789" t="inlineStr">
         <is>
           <t>$/bandeja 18 kilos</t>
@@ -57183,11 +57183,11 @@
       </c>
       <c r="O789" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P789" t="n">
-        <v>402</v>
+        <v>417</v>
       </c>
       <c r="Q789" t="n">
         <v>18</v>
@@ -57213,7 +57213,7 @@
         </is>
       </c>
       <c r="D790" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E790" t="n">
         <v>13</v>
@@ -57233,20 +57233,20 @@
       </c>
       <c r="I790" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J790" t="n">
-        <v>230</v>
+        <v>340</v>
       </c>
       <c r="K790" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="L790" t="n">
-        <v>5500</v>
+        <v>13000</v>
       </c>
       <c r="M790" t="n">
-        <v>5283</v>
+        <v>12500</v>
       </c>
       <c r="N790" t="inlineStr">
         <is>
@@ -57255,11 +57255,11 @@
       </c>
       <c r="O790" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P790" t="n">
-        <v>294</v>
+        <v>694</v>
       </c>
       <c r="Q790" t="n">
         <v>18</v>
@@ -57285,7 +57285,7 @@
         </is>
       </c>
       <c r="D791" s="2" t="n">
-        <v>44321</v>
+        <v>44357</v>
       </c>
       <c r="E791" t="n">
         <v>13</v>
@@ -57305,20 +57305,20 @@
       </c>
       <c r="I791" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J791" t="n">
-        <v>380</v>
+        <v>300</v>
       </c>
       <c r="K791" t="n">
         <v>10000</v>
       </c>
       <c r="L791" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M791" t="n">
-        <v>10000</v>
+        <v>10500</v>
       </c>
       <c r="N791" t="inlineStr">
         <is>
@@ -57327,11 +57327,11 @@
       </c>
       <c r="O791" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P791" t="n">
-        <v>556</v>
+        <v>583</v>
       </c>
       <c r="Q791" t="n">
         <v>18</v>
@@ -57357,7 +57357,7 @@
         </is>
       </c>
       <c r="D792" s="2" t="n">
-        <v>44321</v>
+        <v>44357</v>
       </c>
       <c r="E792" t="n">
         <v>13</v>
@@ -57377,20 +57377,20 @@
       </c>
       <c r="I792" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J792" t="n">
-        <v>420</v>
+        <v>240</v>
       </c>
       <c r="K792" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="L792" t="n">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="M792" t="n">
-        <v>8000</v>
+        <v>9250</v>
       </c>
       <c r="N792" t="inlineStr">
         <is>
@@ -57399,11 +57399,11 @@
       </c>
       <c r="O792" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P792" t="n">
-        <v>444</v>
+        <v>514</v>
       </c>
       <c r="Q792" t="n">
         <v>18</v>
@@ -57429,7 +57429,7 @@
         </is>
       </c>
       <c r="D793" s="2" t="n">
-        <v>44321</v>
+        <v>44357</v>
       </c>
       <c r="E793" t="n">
         <v>13</v>
@@ -57449,20 +57449,20 @@
       </c>
       <c r="I793" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J793" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K793" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="L793" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="M793" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="N793" t="inlineStr">
         <is>
@@ -57471,11 +57471,11 @@
       </c>
       <c r="O793" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P793" t="n">
-        <v>278</v>
+        <v>444</v>
       </c>
       <c r="Q793" t="n">
         <v>18</v>
@@ -57501,7 +57501,7 @@
         </is>
       </c>
       <c r="D794" s="2" t="n">
-        <v>44321</v>
+        <v>44328</v>
       </c>
       <c r="E794" t="n">
         <v>13</v>
@@ -57516,7 +57516,7 @@
       </c>
       <c r="H794" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I794" t="inlineStr">
@@ -57525,16 +57525,16 @@
         </is>
       </c>
       <c r="J794" t="n">
-        <v>220</v>
+        <v>960</v>
       </c>
       <c r="K794" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L794" t="n">
-        <v>7000</v>
+        <v>9500</v>
       </c>
       <c r="M794" t="n">
-        <v>7000</v>
+        <v>9302</v>
       </c>
       <c r="N794" t="inlineStr">
         <is>
@@ -57543,11 +57543,11 @@
       </c>
       <c r="O794" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P794" t="n">
-        <v>389</v>
+        <v>517</v>
       </c>
       <c r="Q794" t="n">
         <v>18</v>
@@ -57573,7 +57573,7 @@
         </is>
       </c>
       <c r="D795" s="2" t="n">
-        <v>44321</v>
+        <v>44328</v>
       </c>
       <c r="E795" t="n">
         <v>13</v>
@@ -57588,7 +57588,7 @@
       </c>
       <c r="H795" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I795" t="inlineStr">
@@ -57597,16 +57597,16 @@
         </is>
       </c>
       <c r="J795" t="n">
-        <v>250</v>
+        <v>410</v>
       </c>
       <c r="K795" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L795" t="n">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="M795" t="n">
-        <v>6000</v>
+        <v>7232</v>
       </c>
       <c r="N795" t="inlineStr">
         <is>
@@ -57615,11 +57615,11 @@
       </c>
       <c r="O795" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P795" t="n">
-        <v>333</v>
+        <v>402</v>
       </c>
       <c r="Q795" t="n">
         <v>18</v>
@@ -57645,7 +57645,7 @@
         </is>
       </c>
       <c r="D796" s="2" t="n">
-        <v>44321</v>
+        <v>44328</v>
       </c>
       <c r="E796" t="n">
         <v>13</v>
@@ -57660,7 +57660,7 @@
       </c>
       <c r="H796" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I796" t="inlineStr">
@@ -57669,16 +57669,16 @@
         </is>
       </c>
       <c r="J796" t="n">
-        <v>300</v>
+        <v>230</v>
       </c>
       <c r="K796" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="L796" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="M796" t="n">
-        <v>4500</v>
+        <v>5283</v>
       </c>
       <c r="N796" t="inlineStr">
         <is>
@@ -57687,11 +57687,11 @@
       </c>
       <c r="O796" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P796" t="n">
-        <v>250</v>
+        <v>294</v>
       </c>
       <c r="Q796" t="n">
         <v>18</v>
@@ -57717,7 +57717,7 @@
         </is>
       </c>
       <c r="D797" s="2" t="n">
-        <v>44223</v>
+        <v>44321</v>
       </c>
       <c r="E797" t="n">
         <v>13</v>
@@ -57741,16 +57741,16 @@
         </is>
       </c>
       <c r="J797" t="n">
-        <v>820</v>
+        <v>380</v>
       </c>
       <c r="K797" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="L797" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="M797" t="n">
-        <v>12463</v>
+        <v>10000</v>
       </c>
       <c r="N797" t="inlineStr">
         <is>
@@ -57759,11 +57759,11 @@
       </c>
       <c r="O797" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P797" t="n">
-        <v>692</v>
+        <v>556</v>
       </c>
       <c r="Q797" t="n">
         <v>18</v>
@@ -57789,7 +57789,7 @@
         </is>
       </c>
       <c r="D798" s="2" t="n">
-        <v>44223</v>
+        <v>44321</v>
       </c>
       <c r="E798" t="n">
         <v>13</v>
@@ -57813,16 +57813,16 @@
         </is>
       </c>
       <c r="J798" t="n">
-        <v>930</v>
+        <v>420</v>
       </c>
       <c r="K798" t="n">
-        <v>9500</v>
+        <v>8000</v>
       </c>
       <c r="L798" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M798" t="n">
-        <v>9769</v>
+        <v>8000</v>
       </c>
       <c r="N798" t="inlineStr">
         <is>
@@ -57831,11 +57831,11 @@
       </c>
       <c r="O798" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P798" t="n">
-        <v>543</v>
+        <v>444</v>
       </c>
       <c r="Q798" t="n">
         <v>18</v>
@@ -57861,7 +57861,7 @@
         </is>
       </c>
       <c r="D799" s="2" t="n">
-        <v>44223</v>
+        <v>44321</v>
       </c>
       <c r="E799" t="n">
         <v>13</v>
@@ -57885,16 +57885,16 @@
         </is>
       </c>
       <c r="J799" t="n">
-        <v>570</v>
+        <v>300</v>
       </c>
       <c r="K799" t="n">
-        <v>7500</v>
+        <v>5000</v>
       </c>
       <c r="L799" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="M799" t="n">
-        <v>7807</v>
+        <v>5000</v>
       </c>
       <c r="N799" t="inlineStr">
         <is>
@@ -57903,11 +57903,11 @@
       </c>
       <c r="O799" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P799" t="n">
-        <v>434</v>
+        <v>278</v>
       </c>
       <c r="Q799" t="n">
         <v>18</v>
@@ -57933,7 +57933,7 @@
         </is>
       </c>
       <c r="D800" s="2" t="n">
-        <v>44223</v>
+        <v>44321</v>
       </c>
       <c r="E800" t="n">
         <v>13</v>
@@ -57957,16 +57957,16 @@
         </is>
       </c>
       <c r="J800" t="n">
-        <v>360</v>
+        <v>220</v>
       </c>
       <c r="K800" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L800" t="n">
-        <v>8500</v>
+        <v>7000</v>
       </c>
       <c r="M800" t="n">
-        <v>8222</v>
+        <v>7000</v>
       </c>
       <c r="N800" t="inlineStr">
         <is>
@@ -57979,7 +57979,7 @@
         </is>
       </c>
       <c r="P800" t="n">
-        <v>457</v>
+        <v>389</v>
       </c>
       <c r="Q800" t="n">
         <v>18</v>
@@ -58005,7 +58005,7 @@
         </is>
       </c>
       <c r="D801" s="2" t="n">
-        <v>44223</v>
+        <v>44321</v>
       </c>
       <c r="E801" t="n">
         <v>13</v>
@@ -58029,16 +58029,16 @@
         </is>
       </c>
       <c r="J801" t="n">
-        <v>490</v>
+        <v>250</v>
       </c>
       <c r="K801" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="L801" t="n">
-        <v>7500</v>
+        <v>6000</v>
       </c>
       <c r="M801" t="n">
-        <v>7214</v>
+        <v>6000</v>
       </c>
       <c r="N801" t="inlineStr">
         <is>
@@ -58051,7 +58051,7 @@
         </is>
       </c>
       <c r="P801" t="n">
-        <v>401</v>
+        <v>333</v>
       </c>
       <c r="Q801" t="n">
         <v>18</v>
@@ -58077,7 +58077,7 @@
         </is>
       </c>
       <c r="D802" s="2" t="n">
-        <v>44223</v>
+        <v>44321</v>
       </c>
       <c r="E802" t="n">
         <v>13</v>
@@ -58101,16 +58101,16 @@
         </is>
       </c>
       <c r="J802" t="n">
-        <v>370</v>
+        <v>300</v>
       </c>
       <c r="K802" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="L802" t="n">
-        <v>5500</v>
+        <v>4500</v>
       </c>
       <c r="M802" t="n">
-        <v>5230</v>
+        <v>4500</v>
       </c>
       <c r="N802" t="inlineStr">
         <is>
@@ -58123,7 +58123,7 @@
         </is>
       </c>
       <c r="P802" t="n">
-        <v>291</v>
+        <v>250</v>
       </c>
       <c r="Q802" t="n">
         <v>18</v>
@@ -58149,7 +58149,7 @@
         </is>
       </c>
       <c r="D803" s="2" t="n">
-        <v>44298</v>
+        <v>44223</v>
       </c>
       <c r="E803" t="n">
         <v>13</v>
@@ -58173,16 +58173,16 @@
         </is>
       </c>
       <c r="J803" t="n">
-        <v>340</v>
+        <v>820</v>
       </c>
       <c r="K803" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="L803" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="M803" t="n">
-        <v>14000</v>
+        <v>12463</v>
       </c>
       <c r="N803" t="inlineStr">
         <is>
@@ -58195,7 +58195,7 @@
         </is>
       </c>
       <c r="P803" t="n">
-        <v>778</v>
+        <v>692</v>
       </c>
       <c r="Q803" t="n">
         <v>18</v>
@@ -58221,7 +58221,7 @@
         </is>
       </c>
       <c r="D804" s="2" t="n">
-        <v>44298</v>
+        <v>44223</v>
       </c>
       <c r="E804" t="n">
         <v>13</v>
@@ -58245,16 +58245,16 @@
         </is>
       </c>
       <c r="J804" t="n">
-        <v>500</v>
+        <v>930</v>
       </c>
       <c r="K804" t="n">
-        <v>12000</v>
+        <v>9500</v>
       </c>
       <c r="L804" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M804" t="n">
-        <v>12000</v>
+        <v>9769</v>
       </c>
       <c r="N804" t="inlineStr">
         <is>
@@ -58267,7 +58267,7 @@
         </is>
       </c>
       <c r="P804" t="n">
-        <v>667</v>
+        <v>543</v>
       </c>
       <c r="Q804" t="n">
         <v>18</v>
@@ -58293,7 +58293,7 @@
         </is>
       </c>
       <c r="D805" s="2" t="n">
-        <v>44298</v>
+        <v>44223</v>
       </c>
       <c r="E805" t="n">
         <v>13</v>
@@ -58317,16 +58317,16 @@
         </is>
       </c>
       <c r="J805" t="n">
-        <v>280</v>
+        <v>570</v>
       </c>
       <c r="K805" t="n">
-        <v>10000</v>
+        <v>7500</v>
       </c>
       <c r="L805" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M805" t="n">
-        <v>10000</v>
+        <v>7807</v>
       </c>
       <c r="N805" t="inlineStr">
         <is>
@@ -58339,7 +58339,7 @@
         </is>
       </c>
       <c r="P805" t="n">
-        <v>556</v>
+        <v>434</v>
       </c>
       <c r="Q805" t="n">
         <v>18</v>
@@ -58365,7 +58365,7 @@
         </is>
       </c>
       <c r="D806" s="2" t="n">
-        <v>44298</v>
+        <v>44223</v>
       </c>
       <c r="E806" t="n">
         <v>13</v>
@@ -58380,25 +58380,25 @@
       </c>
       <c r="H806" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I806" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J806" t="n">
-        <v>160</v>
+        <v>360</v>
       </c>
       <c r="K806" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="L806" t="n">
-        <v>9000</v>
+        <v>8500</v>
       </c>
       <c r="M806" t="n">
-        <v>9000</v>
+        <v>8222</v>
       </c>
       <c r="N806" t="inlineStr">
         <is>
@@ -58407,11 +58407,11 @@
       </c>
       <c r="O806" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P806" t="n">
-        <v>500</v>
+        <v>457</v>
       </c>
       <c r="Q806" t="n">
         <v>18</v>
@@ -58437,7 +58437,7 @@
         </is>
       </c>
       <c r="D807" s="2" t="n">
-        <v>44397</v>
+        <v>44223</v>
       </c>
       <c r="E807" t="n">
         <v>13</v>
@@ -58452,25 +58452,25 @@
       </c>
       <c r="H807" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I807" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J807" t="n">
-        <v>180</v>
+        <v>490</v>
       </c>
       <c r="K807" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="L807" t="n">
-        <v>10000</v>
+        <v>7500</v>
       </c>
       <c r="M807" t="n">
-        <v>10000</v>
+        <v>7214</v>
       </c>
       <c r="N807" t="inlineStr">
         <is>
@@ -58479,11 +58479,11 @@
       </c>
       <c r="O807" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P807" t="n">
-        <v>556</v>
+        <v>401</v>
       </c>
       <c r="Q807" t="n">
         <v>18</v>
@@ -58509,7 +58509,7 @@
         </is>
       </c>
       <c r="D808" s="2" t="n">
-        <v>44397</v>
+        <v>44223</v>
       </c>
       <c r="E808" t="n">
         <v>13</v>
@@ -58524,25 +58524,25 @@
       </c>
       <c r="H808" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I808" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J808" t="n">
-        <v>1070</v>
+        <v>370</v>
       </c>
       <c r="K808" t="n">
-        <v>13000</v>
+        <v>5000</v>
       </c>
       <c r="L808" t="n">
-        <v>13500</v>
+        <v>5500</v>
       </c>
       <c r="M808" t="n">
-        <v>13290</v>
+        <v>5230</v>
       </c>
       <c r="N808" t="inlineStr">
         <is>
@@ -58551,11 +58551,11 @@
       </c>
       <c r="O808" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P808" t="n">
-        <v>738</v>
+        <v>291</v>
       </c>
       <c r="Q808" t="n">
         <v>18</v>
@@ -58581,7 +58581,7 @@
         </is>
       </c>
       <c r="D809" s="2" t="n">
-        <v>44397</v>
+        <v>44298</v>
       </c>
       <c r="E809" t="n">
         <v>13</v>
@@ -58601,20 +58601,20 @@
       </c>
       <c r="I809" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J809" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="K809" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="L809" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="M809" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="N809" t="inlineStr">
         <is>
@@ -58623,11 +58623,11 @@
       </c>
       <c r="O809" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P809" t="n">
-        <v>444</v>
+        <v>778</v>
       </c>
       <c r="Q809" t="n">
         <v>18</v>
@@ -58653,7 +58653,7 @@
         </is>
       </c>
       <c r="D810" s="2" t="n">
-        <v>44397</v>
+        <v>44298</v>
       </c>
       <c r="E810" t="n">
         <v>13</v>
@@ -58677,16 +58677,16 @@
         </is>
       </c>
       <c r="J810" t="n">
-        <v>960</v>
+        <v>500</v>
       </c>
       <c r="K810" t="n">
         <v>12000</v>
       </c>
       <c r="L810" t="n">
-        <v>12500</v>
+        <v>12000</v>
       </c>
       <c r="M810" t="n">
-        <v>12292</v>
+        <v>12000</v>
       </c>
       <c r="N810" t="inlineStr">
         <is>
@@ -58695,11 +58695,11 @@
       </c>
       <c r="O810" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P810" t="n">
-        <v>683</v>
+        <v>667</v>
       </c>
       <c r="Q810" t="n">
         <v>18</v>
@@ -58725,7 +58725,7 @@
         </is>
       </c>
       <c r="D811" s="2" t="n">
-        <v>44397</v>
+        <v>44298</v>
       </c>
       <c r="E811" t="n">
         <v>13</v>
@@ -58749,16 +58749,16 @@
         </is>
       </c>
       <c r="J811" t="n">
-        <v>200</v>
+        <v>280</v>
       </c>
       <c r="K811" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="L811" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="M811" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="N811" t="inlineStr">
         <is>
@@ -58767,11 +58767,11 @@
       </c>
       <c r="O811" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P811" t="n">
-        <v>333</v>
+        <v>556</v>
       </c>
       <c r="Q811" t="n">
         <v>18</v>
@@ -58797,7 +58797,7 @@
         </is>
       </c>
       <c r="D812" s="2" t="n">
-        <v>44397</v>
+        <v>44298</v>
       </c>
       <c r="E812" t="n">
         <v>13</v>
@@ -58817,20 +58817,20 @@
       </c>
       <c r="I812" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J812" t="n">
-        <v>580</v>
+        <v>160</v>
       </c>
       <c r="K812" t="n">
-        <v>9500</v>
+        <v>9000</v>
       </c>
       <c r="L812" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="M812" t="n">
-        <v>9759</v>
+        <v>9000</v>
       </c>
       <c r="N812" t="inlineStr">
         <is>
@@ -58839,11 +58839,11 @@
       </c>
       <c r="O812" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P812" t="n">
-        <v>542</v>
+        <v>500</v>
       </c>
       <c r="Q812" t="n">
         <v>18</v>
@@ -58869,7 +58869,7 @@
         </is>
       </c>
       <c r="D813" s="2" t="n">
-        <v>44414</v>
+        <v>44397</v>
       </c>
       <c r="E813" t="n">
         <v>13</v>
@@ -58893,16 +58893,16 @@
         </is>
       </c>
       <c r="J813" t="n">
-        <v>380</v>
+        <v>180</v>
       </c>
       <c r="K813" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="L813" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M813" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="N813" t="inlineStr">
         <is>
@@ -58915,7 +58915,7 @@
         </is>
       </c>
       <c r="P813" t="n">
-        <v>500</v>
+        <v>556</v>
       </c>
       <c r="Q813" t="n">
         <v>18</v>
@@ -58941,7 +58941,7 @@
         </is>
       </c>
       <c r="D814" s="2" t="n">
-        <v>44414</v>
+        <v>44397</v>
       </c>
       <c r="E814" t="n">
         <v>13</v>
@@ -58965,16 +58965,16 @@
         </is>
       </c>
       <c r="J814" t="n">
-        <v>1720</v>
+        <v>1070</v>
       </c>
       <c r="K814" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="L814" t="n">
-        <v>13000</v>
+        <v>13500</v>
       </c>
       <c r="M814" t="n">
-        <v>11942</v>
+        <v>13290</v>
       </c>
       <c r="N814" t="inlineStr">
         <is>
@@ -58987,7 +58987,7 @@
         </is>
       </c>
       <c r="P814" t="n">
-        <v>663</v>
+        <v>738</v>
       </c>
       <c r="Q814" t="n">
         <v>18</v>
@@ -59013,7 +59013,7 @@
         </is>
       </c>
       <c r="D815" s="2" t="n">
-        <v>44414</v>
+        <v>44397</v>
       </c>
       <c r="E815" t="n">
         <v>13</v>
@@ -59037,16 +59037,16 @@
         </is>
       </c>
       <c r="J815" t="n">
-        <v>520</v>
+        <v>250</v>
       </c>
       <c r="K815" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L815" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M815" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="N815" t="inlineStr">
         <is>
@@ -59059,7 +59059,7 @@
         </is>
       </c>
       <c r="P815" t="n">
-        <v>389</v>
+        <v>444</v>
       </c>
       <c r="Q815" t="n">
         <v>18</v>
@@ -59085,7 +59085,7 @@
         </is>
       </c>
       <c r="D816" s="2" t="n">
-        <v>44414</v>
+        <v>44397</v>
       </c>
       <c r="E816" t="n">
         <v>13</v>
@@ -59109,16 +59109,16 @@
         </is>
       </c>
       <c r="J816" t="n">
-        <v>2190</v>
+        <v>960</v>
       </c>
       <c r="K816" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L816" t="n">
-        <v>11000</v>
+        <v>12500</v>
       </c>
       <c r="M816" t="n">
-        <v>10479</v>
+        <v>12292</v>
       </c>
       <c r="N816" t="inlineStr">
         <is>
@@ -59131,7 +59131,7 @@
         </is>
       </c>
       <c r="P816" t="n">
-        <v>582</v>
+        <v>683</v>
       </c>
       <c r="Q816" t="n">
         <v>18</v>
@@ -59157,7 +59157,7 @@
         </is>
       </c>
       <c r="D817" s="2" t="n">
-        <v>44414</v>
+        <v>44397</v>
       </c>
       <c r="E817" t="n">
         <v>13</v>
@@ -59181,16 +59181,16 @@
         </is>
       </c>
       <c r="J817" t="n">
-        <v>1180</v>
+        <v>200</v>
       </c>
       <c r="K817" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="L817" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="M817" t="n">
-        <v>8335</v>
+        <v>6000</v>
       </c>
       <c r="N817" t="inlineStr">
         <is>
@@ -59199,11 +59199,11 @@
       </c>
       <c r="O817" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P817" t="n">
-        <v>463</v>
+        <v>333</v>
       </c>
       <c r="Q817" t="n">
         <v>18</v>
@@ -59229,7 +59229,7 @@
         </is>
       </c>
       <c r="D818" s="2" t="n">
-        <v>44414</v>
+        <v>44397</v>
       </c>
       <c r="E818" t="n">
         <v>13</v>
@@ -59249,20 +59249,20 @@
       </c>
       <c r="I818" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J818" t="n">
-        <v>650</v>
+        <v>580</v>
       </c>
       <c r="K818" t="n">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="L818" t="n">
-        <v>8500</v>
+        <v>10000</v>
       </c>
       <c r="M818" t="n">
-        <v>8285</v>
+        <v>9759</v>
       </c>
       <c r="N818" t="inlineStr">
         <is>
@@ -59275,7 +59275,7 @@
         </is>
       </c>
       <c r="P818" t="n">
-        <v>460</v>
+        <v>542</v>
       </c>
       <c r="Q818" t="n">
         <v>18</v>
@@ -59301,7 +59301,7 @@
         </is>
       </c>
       <c r="D819" s="2" t="n">
-        <v>44333</v>
+        <v>44414</v>
       </c>
       <c r="E819" t="n">
         <v>13</v>
@@ -59321,20 +59321,20 @@
       </c>
       <c r="I819" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J819" t="n">
-        <v>180</v>
+        <v>380</v>
       </c>
       <c r="K819" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="L819" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="M819" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="N819" t="inlineStr">
         <is>
@@ -59343,11 +59343,11 @@
       </c>
       <c r="O819" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P819" t="n">
-        <v>556</v>
+        <v>500</v>
       </c>
       <c r="Q819" t="n">
         <v>18</v>
@@ -59373,7 +59373,7 @@
         </is>
       </c>
       <c r="D820" s="2" t="n">
-        <v>44333</v>
+        <v>44414</v>
       </c>
       <c r="E820" t="n">
         <v>13</v>
@@ -59393,20 +59393,20 @@
       </c>
       <c r="I820" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J820" t="n">
-        <v>300</v>
+        <v>1720</v>
       </c>
       <c r="K820" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="L820" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="M820" t="n">
-        <v>8000</v>
+        <v>11942</v>
       </c>
       <c r="N820" t="inlineStr">
         <is>
@@ -59415,11 +59415,11 @@
       </c>
       <c r="O820" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P820" t="n">
-        <v>444</v>
+        <v>663</v>
       </c>
       <c r="Q820" t="n">
         <v>18</v>
@@ -59445,7 +59445,7 @@
         </is>
       </c>
       <c r="D821" s="2" t="n">
-        <v>44333</v>
+        <v>44414</v>
       </c>
       <c r="E821" t="n">
         <v>13</v>
@@ -59465,20 +59465,20 @@
       </c>
       <c r="I821" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J821" t="n">
-        <v>340</v>
+        <v>520</v>
       </c>
       <c r="K821" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L821" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M821" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="N821" t="inlineStr">
         <is>
@@ -59487,11 +59487,11 @@
       </c>
       <c r="O821" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P821" t="n">
-        <v>333</v>
+        <v>389</v>
       </c>
       <c r="Q821" t="n">
         <v>18</v>
@@ -59517,7 +59517,7 @@
         </is>
       </c>
       <c r="D822" s="2" t="n">
-        <v>44314</v>
+        <v>44414</v>
       </c>
       <c r="E822" t="n">
         <v>13</v>
@@ -59537,20 +59537,20 @@
       </c>
       <c r="I822" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J822" t="n">
-        <v>830</v>
+        <v>2190</v>
       </c>
       <c r="K822" t="n">
-        <v>9500</v>
+        <v>10000</v>
       </c>
       <c r="L822" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M822" t="n">
-        <v>9771</v>
+        <v>10479</v>
       </c>
       <c r="N822" t="inlineStr">
         <is>
@@ -59559,11 +59559,11 @@
       </c>
       <c r="O822" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P822" t="n">
-        <v>543</v>
+        <v>582</v>
       </c>
       <c r="Q822" t="n">
         <v>18</v>
@@ -59589,7 +59589,7 @@
         </is>
       </c>
       <c r="D823" s="2" t="n">
-        <v>44314</v>
+        <v>44414</v>
       </c>
       <c r="E823" t="n">
         <v>13</v>
@@ -59609,20 +59609,20 @@
       </c>
       <c r="I823" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J823" t="n">
-        <v>1000</v>
+        <v>1180</v>
       </c>
       <c r="K823" t="n">
-        <v>7500</v>
+        <v>7000</v>
       </c>
       <c r="L823" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M823" t="n">
-        <v>7780</v>
+        <v>8335</v>
       </c>
       <c r="N823" t="inlineStr">
         <is>
@@ -59631,11 +59631,11 @@
       </c>
       <c r="O823" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P823" t="n">
-        <v>432</v>
+        <v>463</v>
       </c>
       <c r="Q823" t="n">
         <v>18</v>
@@ -59661,7 +59661,7 @@
         </is>
       </c>
       <c r="D824" s="2" t="n">
-        <v>44314</v>
+        <v>44414</v>
       </c>
       <c r="E824" t="n">
         <v>13</v>
@@ -59681,20 +59681,20 @@
       </c>
       <c r="I824" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J824" t="n">
-        <v>880</v>
+        <v>650</v>
       </c>
       <c r="K824" t="n">
-        <v>4500</v>
+        <v>8000</v>
       </c>
       <c r="L824" t="n">
-        <v>5000</v>
+        <v>8500</v>
       </c>
       <c r="M824" t="n">
-        <v>4773</v>
+        <v>8285</v>
       </c>
       <c r="N824" t="inlineStr">
         <is>
@@ -59703,11 +59703,11 @@
       </c>
       <c r="O824" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P824" t="n">
-        <v>265</v>
+        <v>460</v>
       </c>
       <c r="Q824" t="n">
         <v>18</v>
@@ -59733,7 +59733,7 @@
         </is>
       </c>
       <c r="D825" s="2" t="n">
-        <v>44392</v>
+        <v>44333</v>
       </c>
       <c r="E825" t="n">
         <v>13</v>
@@ -59753,20 +59753,20 @@
       </c>
       <c r="I825" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J825" t="n">
         <v>180</v>
       </c>
       <c r="K825" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="L825" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M825" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="N825" t="inlineStr">
         <is>
@@ -59775,11 +59775,11 @@
       </c>
       <c r="O825" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P825" t="n">
-        <v>500</v>
+        <v>556</v>
       </c>
       <c r="Q825" t="n">
         <v>18</v>
@@ -59805,7 +59805,7 @@
         </is>
       </c>
       <c r="D826" s="2" t="n">
-        <v>44392</v>
+        <v>44333</v>
       </c>
       <c r="E826" t="n">
         <v>13</v>
@@ -59825,20 +59825,20 @@
       </c>
       <c r="I826" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J826" t="n">
-        <v>1040</v>
+        <v>300</v>
       </c>
       <c r="K826" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="L826" t="n">
-        <v>16000</v>
+        <v>8000</v>
       </c>
       <c r="M826" t="n">
-        <v>15538</v>
+        <v>8000</v>
       </c>
       <c r="N826" t="inlineStr">
         <is>
@@ -59847,11 +59847,11 @@
       </c>
       <c r="O826" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P826" t="n">
-        <v>863</v>
+        <v>444</v>
       </c>
       <c r="Q826" t="n">
         <v>18</v>
@@ -59877,7 +59877,7 @@
         </is>
       </c>
       <c r="D827" s="2" t="n">
-        <v>44392</v>
+        <v>44333</v>
       </c>
       <c r="E827" t="n">
         <v>13</v>
@@ -59897,20 +59897,20 @@
       </c>
       <c r="I827" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J827" t="n">
-        <v>620</v>
+        <v>340</v>
       </c>
       <c r="K827" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L827" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="M827" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="N827" t="inlineStr">
         <is>
@@ -59919,11 +59919,11 @@
       </c>
       <c r="O827" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P827" t="n">
-        <v>444</v>
+        <v>333</v>
       </c>
       <c r="Q827" t="n">
         <v>18</v>
@@ -59949,7 +59949,7 @@
         </is>
       </c>
       <c r="D828" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E828" t="n">
         <v>13</v>
@@ -59969,20 +59969,20 @@
       </c>
       <c r="I828" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J828" t="n">
-        <v>1160</v>
+        <v>830</v>
       </c>
       <c r="K828" t="n">
-        <v>13000</v>
+        <v>9500</v>
       </c>
       <c r="L828" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="M828" t="n">
-        <v>13517</v>
+        <v>9771</v>
       </c>
       <c r="N828" t="inlineStr">
         <is>
@@ -59991,11 +59991,11 @@
       </c>
       <c r="O828" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P828" t="n">
-        <v>751</v>
+        <v>543</v>
       </c>
       <c r="Q828" t="n">
         <v>18</v>
@@ -60021,7 +60021,7 @@
         </is>
       </c>
       <c r="D829" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E829" t="n">
         <v>13</v>
@@ -60041,20 +60041,20 @@
       </c>
       <c r="I829" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J829" t="n">
-        <v>270</v>
+        <v>1000</v>
       </c>
       <c r="K829" t="n">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="L829" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M829" t="n">
-        <v>6000</v>
+        <v>7780</v>
       </c>
       <c r="N829" t="inlineStr">
         <is>
@@ -60067,7 +60067,7 @@
         </is>
       </c>
       <c r="P829" t="n">
-        <v>333</v>
+        <v>432</v>
       </c>
       <c r="Q829" t="n">
         <v>18</v>
@@ -60093,7 +60093,7 @@
         </is>
       </c>
       <c r="D830" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E830" t="n">
         <v>13</v>
@@ -60117,16 +60117,16 @@
         </is>
       </c>
       <c r="J830" t="n">
-        <v>1100</v>
+        <v>880</v>
       </c>
       <c r="K830" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="L830" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="M830" t="n">
-        <v>7473</v>
+        <v>4773</v>
       </c>
       <c r="N830" t="inlineStr">
         <is>
@@ -60135,11 +60135,11 @@
       </c>
       <c r="O830" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P830" t="n">
-        <v>415</v>
+        <v>265</v>
       </c>
       <c r="Q830" t="n">
         <v>18</v>
@@ -60165,7 +60165,7 @@
         </is>
       </c>
       <c r="D831" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E831" t="n">
         <v>13</v>
@@ -60189,16 +60189,16 @@
         </is>
       </c>
       <c r="J831" t="n">
-        <v>390</v>
+        <v>180</v>
       </c>
       <c r="K831" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="L831" t="n">
         <v>9000</v>
       </c>
       <c r="M831" t="n">
-        <v>8462</v>
+        <v>9000</v>
       </c>
       <c r="N831" t="inlineStr">
         <is>
@@ -60211,7 +60211,7 @@
         </is>
       </c>
       <c r="P831" t="n">
-        <v>470</v>
+        <v>500</v>
       </c>
       <c r="Q831" t="n">
         <v>18</v>
@@ -60237,7 +60237,7 @@
         </is>
       </c>
       <c r="D832" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E832" t="n">
         <v>13</v>
@@ -60264,13 +60264,13 @@
         <v>1040</v>
       </c>
       <c r="K832" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="L832" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="M832" t="n">
-        <v>11538</v>
+        <v>15538</v>
       </c>
       <c r="N832" t="inlineStr">
         <is>
@@ -60283,7 +60283,7 @@
         </is>
       </c>
       <c r="P832" t="n">
-        <v>641</v>
+        <v>863</v>
       </c>
       <c r="Q832" t="n">
         <v>18</v>
@@ -60309,7 +60309,7 @@
         </is>
       </c>
       <c r="D833" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E833" t="n">
         <v>13</v>
@@ -60333,16 +60333,16 @@
         </is>
       </c>
       <c r="J833" t="n">
-        <v>450</v>
+        <v>620</v>
       </c>
       <c r="K833" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L833" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M833" t="n">
-        <v>6444</v>
+        <v>8000</v>
       </c>
       <c r="N833" t="inlineStr">
         <is>
@@ -60355,7 +60355,7 @@
         </is>
       </c>
       <c r="P833" t="n">
-        <v>358</v>
+        <v>444</v>
       </c>
       <c r="Q833" t="n">
         <v>18</v>
@@ -60381,7 +60381,7 @@
         </is>
       </c>
       <c r="D834" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E834" t="n">
         <v>13</v>
@@ -60405,16 +60405,16 @@
         </is>
       </c>
       <c r="J834" t="n">
-        <v>1030</v>
+        <v>1160</v>
       </c>
       <c r="K834" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="L834" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="M834" t="n">
-        <v>9466</v>
+        <v>13517</v>
       </c>
       <c r="N834" t="inlineStr">
         <is>
@@ -60427,7 +60427,7 @@
         </is>
       </c>
       <c r="P834" t="n">
-        <v>526</v>
+        <v>751</v>
       </c>
       <c r="Q834" t="n">
         <v>18</v>
@@ -60453,7 +60453,7 @@
         </is>
       </c>
       <c r="D835" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E835" t="n">
         <v>13</v>
@@ -60477,16 +60477,16 @@
         </is>
       </c>
       <c r="J835" t="n">
-        <v>440</v>
+        <v>270</v>
       </c>
       <c r="K835" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="L835" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M835" t="n">
-        <v>4591</v>
+        <v>6000</v>
       </c>
       <c r="N835" t="inlineStr">
         <is>
@@ -60499,7 +60499,7 @@
         </is>
       </c>
       <c r="P835" t="n">
-        <v>255</v>
+        <v>333</v>
       </c>
       <c r="Q835" t="n">
         <v>18</v>
@@ -60525,7 +60525,7 @@
         </is>
       </c>
       <c r="D836" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E836" t="n">
         <v>13</v>
@@ -60549,7 +60549,7 @@
         </is>
       </c>
       <c r="J836" t="n">
-        <v>820</v>
+        <v>1100</v>
       </c>
       <c r="K836" t="n">
         <v>7000</v>
@@ -60558,7 +60558,7 @@
         <v>8000</v>
       </c>
       <c r="M836" t="n">
-        <v>7537</v>
+        <v>7473</v>
       </c>
       <c r="N836" t="inlineStr">
         <is>
@@ -60571,7 +60571,7 @@
         </is>
       </c>
       <c r="P836" t="n">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="Q836" t="n">
         <v>18</v>
@@ -60597,7 +60597,7 @@
         </is>
       </c>
       <c r="D837" s="2" t="n">
-        <v>44390</v>
+        <v>44425</v>
       </c>
       <c r="E837" t="n">
         <v>13</v>
@@ -60621,20 +60621,20 @@
         </is>
       </c>
       <c r="J837" t="n">
-        <v>120</v>
+        <v>390</v>
       </c>
       <c r="K837" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="L837" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="M837" t="n">
-        <v>15000</v>
+        <v>8462</v>
       </c>
       <c r="N837" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O837" t="inlineStr">
@@ -60643,7 +60643,7 @@
         </is>
       </c>
       <c r="P837" t="n">
-        <v>833</v>
+        <v>470</v>
       </c>
       <c r="Q837" t="n">
         <v>18</v>
@@ -60669,7 +60669,7 @@
         </is>
       </c>
       <c r="D838" s="2" t="n">
-        <v>44390</v>
+        <v>44425</v>
       </c>
       <c r="E838" t="n">
         <v>13</v>
@@ -60693,20 +60693,20 @@
         </is>
       </c>
       <c r="J838" t="n">
-        <v>630</v>
+        <v>1040</v>
       </c>
       <c r="K838" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="L838" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="M838" t="n">
-        <v>16556</v>
+        <v>11538</v>
       </c>
       <c r="N838" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O838" t="inlineStr">
@@ -60715,7 +60715,7 @@
         </is>
       </c>
       <c r="P838" t="n">
-        <v>920</v>
+        <v>641</v>
       </c>
       <c r="Q838" t="n">
         <v>18</v>
@@ -60741,7 +60741,7 @@
         </is>
       </c>
       <c r="D839" s="2" t="n">
-        <v>44390</v>
+        <v>44425</v>
       </c>
       <c r="E839" t="n">
         <v>13</v>
@@ -60765,20 +60765,20 @@
         </is>
       </c>
       <c r="J839" t="n">
-        <v>250</v>
+        <v>450</v>
       </c>
       <c r="K839" t="n">
-        <v>13000</v>
+        <v>6000</v>
       </c>
       <c r="L839" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="M839" t="n">
-        <v>13000</v>
+        <v>6444</v>
       </c>
       <c r="N839" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O839" t="inlineStr">
@@ -60787,7 +60787,7 @@
         </is>
       </c>
       <c r="P839" t="n">
-        <v>722</v>
+        <v>358</v>
       </c>
       <c r="Q839" t="n">
         <v>18</v>
@@ -60813,7 +60813,7 @@
         </is>
       </c>
       <c r="D840" s="2" t="n">
-        <v>44390</v>
+        <v>44425</v>
       </c>
       <c r="E840" t="n">
         <v>13</v>
@@ -60837,20 +60837,20 @@
         </is>
       </c>
       <c r="J840" t="n">
-        <v>980</v>
+        <v>1030</v>
       </c>
       <c r="K840" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="L840" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="M840" t="n">
-        <v>14592</v>
+        <v>9466</v>
       </c>
       <c r="N840" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O840" t="inlineStr">
@@ -60859,7 +60859,7 @@
         </is>
       </c>
       <c r="P840" t="n">
-        <v>811</v>
+        <v>526</v>
       </c>
       <c r="Q840" t="n">
         <v>18</v>
@@ -60885,7 +60885,7 @@
         </is>
       </c>
       <c r="D841" s="2" t="n">
-        <v>44390</v>
+        <v>44425</v>
       </c>
       <c r="E841" t="n">
         <v>13</v>
@@ -60909,29 +60909,29 @@
         </is>
       </c>
       <c r="J841" t="n">
-        <v>810</v>
+        <v>440</v>
       </c>
       <c r="K841" t="n">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="L841" t="n">
-        <v>11000</v>
+        <v>5000</v>
       </c>
       <c r="M841" t="n">
-        <v>10519</v>
+        <v>4591</v>
       </c>
       <c r="N841" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O841" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P841" t="n">
-        <v>584</v>
+        <v>255</v>
       </c>
       <c r="Q841" t="n">
         <v>18</v>
@@ -60957,7 +60957,7 @@
         </is>
       </c>
       <c r="D842" s="2" t="n">
-        <v>44187</v>
+        <v>44425</v>
       </c>
       <c r="E842" t="n">
         <v>13</v>
@@ -60977,20 +60977,20 @@
       </c>
       <c r="I842" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J842" t="n">
-        <v>1080</v>
+        <v>820</v>
       </c>
       <c r="K842" t="n">
-        <v>20000</v>
+        <v>7000</v>
       </c>
       <c r="L842" t="n">
-        <v>21000</v>
+        <v>8000</v>
       </c>
       <c r="M842" t="n">
-        <v>20556</v>
+        <v>7537</v>
       </c>
       <c r="N842" t="inlineStr">
         <is>
@@ -60999,11 +60999,11 @@
       </c>
       <c r="O842" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P842" t="n">
-        <v>1142</v>
+        <v>419</v>
       </c>
       <c r="Q842" t="n">
         <v>18</v>
@@ -61029,7 +61029,7 @@
         </is>
       </c>
       <c r="D843" s="2" t="n">
-        <v>44187</v>
+        <v>44390</v>
       </c>
       <c r="E843" t="n">
         <v>13</v>
@@ -61049,24 +61049,24 @@
       </c>
       <c r="I843" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J843" t="n">
-        <v>1350</v>
+        <v>120</v>
       </c>
       <c r="K843" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="L843" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="M843" t="n">
-        <v>17481</v>
+        <v>15000</v>
       </c>
       <c r="N843" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O843" t="inlineStr">
@@ -61075,7 +61075,7 @@
         </is>
       </c>
       <c r="P843" t="n">
-        <v>971</v>
+        <v>833</v>
       </c>
       <c r="Q843" t="n">
         <v>18</v>
@@ -61101,7 +61101,7 @@
         </is>
       </c>
       <c r="D844" s="2" t="n">
-        <v>44187</v>
+        <v>44390</v>
       </c>
       <c r="E844" t="n">
         <v>13</v>
@@ -61121,33 +61121,33 @@
       </c>
       <c r="I844" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J844" t="n">
-        <v>1150</v>
+        <v>630</v>
       </c>
       <c r="K844" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="L844" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="M844" t="n">
-        <v>12522</v>
+        <v>16556</v>
       </c>
       <c r="N844" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O844" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P844" t="n">
-        <v>696</v>
+        <v>920</v>
       </c>
       <c r="Q844" t="n">
         <v>18</v>
@@ -61173,7 +61173,7 @@
         </is>
       </c>
       <c r="D845" s="2" t="n">
-        <v>44466</v>
+        <v>44390</v>
       </c>
       <c r="E845" t="n">
         <v>13</v>
@@ -61193,33 +61193,33 @@
       </c>
       <c r="I845" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J845" t="n">
-        <v>280</v>
+        <v>250</v>
       </c>
       <c r="K845" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="L845" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="M845" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="N845" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O845" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P845" t="n">
-        <v>778</v>
+        <v>722</v>
       </c>
       <c r="Q845" t="n">
         <v>18</v>
@@ -61245,7 +61245,7 @@
         </is>
       </c>
       <c r="D846" s="2" t="n">
-        <v>44466</v>
+        <v>44390</v>
       </c>
       <c r="E846" t="n">
         <v>13</v>
@@ -61269,20 +61269,20 @@
         </is>
       </c>
       <c r="J846" t="n">
-        <v>450</v>
+        <v>980</v>
       </c>
       <c r="K846" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L846" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="M846" t="n">
-        <v>12000</v>
+        <v>14592</v>
       </c>
       <c r="N846" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O846" t="inlineStr">
@@ -61291,7 +61291,7 @@
         </is>
       </c>
       <c r="P846" t="n">
-        <v>667</v>
+        <v>811</v>
       </c>
       <c r="Q846" t="n">
         <v>18</v>
@@ -61317,7 +61317,7 @@
         </is>
       </c>
       <c r="D847" s="2" t="n">
-        <v>44466</v>
+        <v>44390</v>
       </c>
       <c r="E847" t="n">
         <v>13</v>
@@ -61341,20 +61341,20 @@
         </is>
       </c>
       <c r="J847" t="n">
-        <v>500</v>
+        <v>810</v>
       </c>
       <c r="K847" t="n">
         <v>10000</v>
       </c>
       <c r="L847" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M847" t="n">
-        <v>10000</v>
+        <v>10519</v>
       </c>
       <c r="N847" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O847" t="inlineStr">
@@ -61363,7 +61363,7 @@
         </is>
       </c>
       <c r="P847" t="n">
-        <v>556</v>
+        <v>584</v>
       </c>
       <c r="Q847" t="n">
         <v>18</v>
@@ -61389,7 +61389,7 @@
         </is>
       </c>
       <c r="D848" s="2" t="n">
-        <v>44270</v>
+        <v>44187</v>
       </c>
       <c r="E848" t="n">
         <v>13</v>
@@ -61413,16 +61413,16 @@
         </is>
       </c>
       <c r="J848" t="n">
-        <v>520</v>
+        <v>1080</v>
       </c>
       <c r="K848" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="L848" t="n">
-        <v>13000</v>
+        <v>21000</v>
       </c>
       <c r="M848" t="n">
-        <v>12615</v>
+        <v>20556</v>
       </c>
       <c r="N848" t="inlineStr">
         <is>
@@ -61435,7 +61435,7 @@
         </is>
       </c>
       <c r="P848" t="n">
-        <v>701</v>
+        <v>1142</v>
       </c>
       <c r="Q848" t="n">
         <v>18</v>
@@ -61461,7 +61461,7 @@
         </is>
       </c>
       <c r="D849" s="2" t="n">
-        <v>44270</v>
+        <v>44187</v>
       </c>
       <c r="E849" t="n">
         <v>13</v>
@@ -61485,16 +61485,16 @@
         </is>
       </c>
       <c r="J849" t="n">
-        <v>500</v>
+        <v>1350</v>
       </c>
       <c r="K849" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="L849" t="n">
-        <v>11000</v>
+        <v>18000</v>
       </c>
       <c r="M849" t="n">
-        <v>10560</v>
+        <v>17481</v>
       </c>
       <c r="N849" t="inlineStr">
         <is>
@@ -61507,7 +61507,7 @@
         </is>
       </c>
       <c r="P849" t="n">
-        <v>587</v>
+        <v>971</v>
       </c>
       <c r="Q849" t="n">
         <v>18</v>
@@ -61533,7 +61533,7 @@
         </is>
       </c>
       <c r="D850" s="2" t="n">
-        <v>44270</v>
+        <v>44187</v>
       </c>
       <c r="E850" t="n">
         <v>13</v>
@@ -61557,16 +61557,16 @@
         </is>
       </c>
       <c r="J850" t="n">
-        <v>310</v>
+        <v>1150</v>
       </c>
       <c r="K850" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="L850" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="M850" t="n">
-        <v>7548</v>
+        <v>12522</v>
       </c>
       <c r="N850" t="inlineStr">
         <is>
@@ -61579,7 +61579,7 @@
         </is>
       </c>
       <c r="P850" t="n">
-        <v>419</v>
+        <v>696</v>
       </c>
       <c r="Q850" t="n">
         <v>18</v>
@@ -61605,7 +61605,7 @@
         </is>
       </c>
       <c r="D851" s="2" t="n">
-        <v>44250</v>
+        <v>44466</v>
       </c>
       <c r="E851" t="n">
         <v>13</v>
@@ -61629,16 +61629,16 @@
         </is>
       </c>
       <c r="J851" t="n">
-        <v>530</v>
+        <v>280</v>
       </c>
       <c r="K851" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L851" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="M851" t="n">
-        <v>12528</v>
+        <v>14000</v>
       </c>
       <c r="N851" t="inlineStr">
         <is>
@@ -61647,11 +61647,11 @@
       </c>
       <c r="O851" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P851" t="n">
-        <v>696</v>
+        <v>778</v>
       </c>
       <c r="Q851" t="n">
         <v>18</v>
@@ -61677,7 +61677,7 @@
         </is>
       </c>
       <c r="D852" s="2" t="n">
-        <v>44250</v>
+        <v>44466</v>
       </c>
       <c r="E852" t="n">
         <v>13</v>
@@ -61701,16 +61701,16 @@
         </is>
       </c>
       <c r="J852" t="n">
-        <v>580</v>
+        <v>450</v>
       </c>
       <c r="K852" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="L852" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M852" t="n">
-        <v>9483</v>
+        <v>12000</v>
       </c>
       <c r="N852" t="inlineStr">
         <is>
@@ -61719,11 +61719,11 @@
       </c>
       <c r="O852" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P852" t="n">
-        <v>527</v>
+        <v>667</v>
       </c>
       <c r="Q852" t="n">
         <v>18</v>
@@ -61749,7 +61749,7 @@
         </is>
       </c>
       <c r="D853" s="2" t="n">
-        <v>44250</v>
+        <v>44466</v>
       </c>
       <c r="E853" t="n">
         <v>13</v>
@@ -61773,16 +61773,16 @@
         </is>
       </c>
       <c r="J853" t="n">
-        <v>440</v>
+        <v>500</v>
       </c>
       <c r="K853" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="L853" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M853" t="n">
-        <v>6545</v>
+        <v>10000</v>
       </c>
       <c r="N853" t="inlineStr">
         <is>
@@ -61791,11 +61791,11 @@
       </c>
       <c r="O853" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P853" t="n">
-        <v>364</v>
+        <v>556</v>
       </c>
       <c r="Q853" t="n">
         <v>18</v>
@@ -61821,7 +61821,7 @@
         </is>
       </c>
       <c r="D854" s="2" t="n">
-        <v>44250</v>
+        <v>44270</v>
       </c>
       <c r="E854" t="n">
         <v>13</v>
@@ -61836,7 +61836,7 @@
       </c>
       <c r="H854" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I854" t="inlineStr">
@@ -61845,16 +61845,16 @@
         </is>
       </c>
       <c r="J854" t="n">
-        <v>190</v>
+        <v>520</v>
       </c>
       <c r="K854" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="L854" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="M854" t="n">
-        <v>8000</v>
+        <v>12615</v>
       </c>
       <c r="N854" t="inlineStr">
         <is>
@@ -61863,11 +61863,11 @@
       </c>
       <c r="O854" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P854" t="n">
-        <v>444</v>
+        <v>701</v>
       </c>
       <c r="Q854" t="n">
         <v>18</v>
@@ -61893,7 +61893,7 @@
         </is>
       </c>
       <c r="D855" s="2" t="n">
-        <v>44250</v>
+        <v>44270</v>
       </c>
       <c r="E855" t="n">
         <v>13</v>
@@ -61908,25 +61908,25 @@
       </c>
       <c r="H855" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I855" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J855" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="K855" t="n">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="L855" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="M855" t="n">
-        <v>5067</v>
+        <v>10560</v>
       </c>
       <c r="N855" t="inlineStr">
         <is>
@@ -61935,11 +61935,11 @@
       </c>
       <c r="O855" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P855" t="n">
-        <v>282</v>
+        <v>587</v>
       </c>
       <c r="Q855" t="n">
         <v>18</v>
@@ -61965,7 +61965,7 @@
         </is>
       </c>
       <c r="D856" s="2" t="n">
-        <v>44438</v>
+        <v>44270</v>
       </c>
       <c r="E856" t="n">
         <v>13</v>
@@ -61985,20 +61985,20 @@
       </c>
       <c r="I856" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J856" t="n">
-        <v>530</v>
+        <v>310</v>
       </c>
       <c r="K856" t="n">
-        <v>7500</v>
+        <v>7000</v>
       </c>
       <c r="L856" t="n">
         <v>8000</v>
       </c>
       <c r="M856" t="n">
-        <v>7764</v>
+        <v>7548</v>
       </c>
       <c r="N856" t="inlineStr">
         <is>
@@ -62011,7 +62011,7 @@
         </is>
       </c>
       <c r="P856" t="n">
-        <v>431</v>
+        <v>419</v>
       </c>
       <c r="Q856" t="n">
         <v>18</v>
@@ -62037,7 +62037,7 @@
         </is>
       </c>
       <c r="D857" s="2" t="n">
-        <v>44438</v>
+        <v>44250</v>
       </c>
       <c r="E857" t="n">
         <v>13</v>
@@ -62057,20 +62057,20 @@
       </c>
       <c r="I857" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J857" t="n">
-        <v>630</v>
+        <v>530</v>
       </c>
       <c r="K857" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="L857" t="n">
-        <v>6500</v>
+        <v>13000</v>
       </c>
       <c r="M857" t="n">
-        <v>6222</v>
+        <v>12528</v>
       </c>
       <c r="N857" t="inlineStr">
         <is>
@@ -62083,7 +62083,7 @@
         </is>
       </c>
       <c r="P857" t="n">
-        <v>346</v>
+        <v>696</v>
       </c>
       <c r="Q857" t="n">
         <v>18</v>
@@ -62109,7 +62109,7 @@
         </is>
       </c>
       <c r="D858" s="2" t="n">
-        <v>44438</v>
+        <v>44250</v>
       </c>
       <c r="E858" t="n">
         <v>13</v>
@@ -62129,20 +62129,20 @@
       </c>
       <c r="I858" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J858" t="n">
-        <v>560</v>
+        <v>580</v>
       </c>
       <c r="K858" t="n">
-        <v>4500</v>
+        <v>9000</v>
       </c>
       <c r="L858" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="M858" t="n">
-        <v>4804</v>
+        <v>9483</v>
       </c>
       <c r="N858" t="inlineStr">
         <is>
@@ -62155,7 +62155,7 @@
         </is>
       </c>
       <c r="P858" t="n">
-        <v>267</v>
+        <v>527</v>
       </c>
       <c r="Q858" t="n">
         <v>18</v>
@@ -62181,7 +62181,7 @@
         </is>
       </c>
       <c r="D859" s="2" t="n">
-        <v>44201</v>
+        <v>44250</v>
       </c>
       <c r="E859" t="n">
         <v>13</v>
@@ -62201,20 +62201,20 @@
       </c>
       <c r="I859" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J859" t="n">
-        <v>720</v>
+        <v>440</v>
       </c>
       <c r="K859" t="n">
-        <v>17000</v>
+        <v>6000</v>
       </c>
       <c r="L859" t="n">
-        <v>18000</v>
+        <v>7000</v>
       </c>
       <c r="M859" t="n">
-        <v>17444</v>
+        <v>6545</v>
       </c>
       <c r="N859" t="inlineStr">
         <is>
@@ -62227,7 +62227,7 @@
         </is>
       </c>
       <c r="P859" t="n">
-        <v>969</v>
+        <v>364</v>
       </c>
       <c r="Q859" t="n">
         <v>18</v>
@@ -62253,7 +62253,7 @@
         </is>
       </c>
       <c r="D860" s="2" t="n">
-        <v>44201</v>
+        <v>44250</v>
       </c>
       <c r="E860" t="n">
         <v>13</v>
@@ -62268,25 +62268,25 @@
       </c>
       <c r="H860" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I860" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J860" t="n">
-        <v>580</v>
+        <v>190</v>
       </c>
       <c r="K860" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="L860" t="n">
-        <v>16000</v>
+        <v>8000</v>
       </c>
       <c r="M860" t="n">
-        <v>15483</v>
+        <v>8000</v>
       </c>
       <c r="N860" t="inlineStr">
         <is>
@@ -62295,11 +62295,11 @@
       </c>
       <c r="O860" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P860" t="n">
-        <v>860</v>
+        <v>444</v>
       </c>
       <c r="Q860" t="n">
         <v>18</v>
@@ -62325,7 +62325,7 @@
         </is>
       </c>
       <c r="D861" s="2" t="n">
-        <v>44201</v>
+        <v>44250</v>
       </c>
       <c r="E861" t="n">
         <v>13</v>
@@ -62340,7 +62340,7 @@
       </c>
       <c r="H861" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I861" t="inlineStr">
@@ -62349,16 +62349,16 @@
         </is>
       </c>
       <c r="J861" t="n">
-        <v>460</v>
+        <v>450</v>
       </c>
       <c r="K861" t="n">
-        <v>12000</v>
+        <v>4000</v>
       </c>
       <c r="L861" t="n">
-        <v>13000</v>
+        <v>6000</v>
       </c>
       <c r="M861" t="n">
-        <v>12457</v>
+        <v>5067</v>
       </c>
       <c r="N861" t="inlineStr">
         <is>
@@ -62367,11 +62367,11 @@
       </c>
       <c r="O861" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P861" t="n">
-        <v>692</v>
+        <v>282</v>
       </c>
       <c r="Q861" t="n">
         <v>18</v>
@@ -62397,7 +62397,7 @@
         </is>
       </c>
       <c r="D862" s="2" t="n">
-        <v>44461</v>
+        <v>44438</v>
       </c>
       <c r="E862" t="n">
         <v>13</v>
@@ -62421,16 +62421,16 @@
         </is>
       </c>
       <c r="J862" t="n">
-        <v>880</v>
+        <v>530</v>
       </c>
       <c r="K862" t="n">
-        <v>22000</v>
+        <v>7500</v>
       </c>
       <c r="L862" t="n">
-        <v>23000</v>
+        <v>8000</v>
       </c>
       <c r="M862" t="n">
-        <v>22466</v>
+        <v>7764</v>
       </c>
       <c r="N862" t="inlineStr">
         <is>
@@ -62439,11 +62439,11 @@
       </c>
       <c r="O862" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P862" t="n">
-        <v>1248</v>
+        <v>431</v>
       </c>
       <c r="Q862" t="n">
         <v>18</v>
@@ -62469,7 +62469,7 @@
         </is>
       </c>
       <c r="D863" s="2" t="n">
-        <v>44461</v>
+        <v>44438</v>
       </c>
       <c r="E863" t="n">
         <v>13</v>
@@ -62493,16 +62493,16 @@
         </is>
       </c>
       <c r="J863" t="n">
-        <v>790</v>
+        <v>630</v>
       </c>
       <c r="K863" t="n">
-        <v>19000</v>
+        <v>6000</v>
       </c>
       <c r="L863" t="n">
-        <v>20000</v>
+        <v>6500</v>
       </c>
       <c r="M863" t="n">
-        <v>19519</v>
+        <v>6222</v>
       </c>
       <c r="N863" t="inlineStr">
         <is>
@@ -62511,11 +62511,11 @@
       </c>
       <c r="O863" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P863" t="n">
-        <v>1084</v>
+        <v>346</v>
       </c>
       <c r="Q863" t="n">
         <v>18</v>
@@ -62541,7 +62541,7 @@
         </is>
       </c>
       <c r="D864" s="2" t="n">
-        <v>44461</v>
+        <v>44438</v>
       </c>
       <c r="E864" t="n">
         <v>13</v>
@@ -62565,16 +62565,16 @@
         </is>
       </c>
       <c r="J864" t="n">
-        <v>780</v>
+        <v>560</v>
       </c>
       <c r="K864" t="n">
-        <v>17000</v>
+        <v>4500</v>
       </c>
       <c r="L864" t="n">
-        <v>18000</v>
+        <v>5000</v>
       </c>
       <c r="M864" t="n">
-        <v>17487</v>
+        <v>4804</v>
       </c>
       <c r="N864" t="inlineStr">
         <is>
@@ -62583,11 +62583,11 @@
       </c>
       <c r="O864" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P864" t="n">
-        <v>972</v>
+        <v>267</v>
       </c>
       <c r="Q864" t="n">
         <v>18</v>
@@ -62613,7 +62613,7 @@
         </is>
       </c>
       <c r="D865" s="2" t="n">
-        <v>44193</v>
+        <v>44201</v>
       </c>
       <c r="E865" t="n">
         <v>13</v>
@@ -62637,16 +62637,16 @@
         </is>
       </c>
       <c r="J865" t="n">
-        <v>400</v>
+        <v>720</v>
       </c>
       <c r="K865" t="n">
+        <v>17000</v>
+      </c>
+      <c r="L865" t="n">
         <v>18000</v>
       </c>
-      <c r="L865" t="n">
-        <v>19000</v>
-      </c>
       <c r="M865" t="n">
-        <v>18550</v>
+        <v>17444</v>
       </c>
       <c r="N865" t="inlineStr">
         <is>
@@ -62655,11 +62655,11 @@
       </c>
       <c r="O865" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P865" t="n">
-        <v>1031</v>
+        <v>969</v>
       </c>
       <c r="Q865" t="n">
         <v>18</v>
@@ -62685,7 +62685,7 @@
         </is>
       </c>
       <c r="D866" s="2" t="n">
-        <v>44193</v>
+        <v>44201</v>
       </c>
       <c r="E866" t="n">
         <v>13</v>
@@ -62709,16 +62709,16 @@
         </is>
       </c>
       <c r="J866" t="n">
-        <v>500</v>
+        <v>580</v>
       </c>
       <c r="K866" t="n">
+        <v>15000</v>
+      </c>
+      <c r="L866" t="n">
         <v>16000</v>
       </c>
-      <c r="L866" t="n">
-        <v>17000</v>
-      </c>
       <c r="M866" t="n">
-        <v>16560</v>
+        <v>15483</v>
       </c>
       <c r="N866" t="inlineStr">
         <is>
@@ -62727,11 +62727,11 @@
       </c>
       <c r="O866" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P866" t="n">
-        <v>920</v>
+        <v>860</v>
       </c>
       <c r="Q866" t="n">
         <v>18</v>
@@ -62757,7 +62757,7 @@
         </is>
       </c>
       <c r="D867" s="2" t="n">
-        <v>44193</v>
+        <v>44201</v>
       </c>
       <c r="E867" t="n">
         <v>13</v>
@@ -62781,16 +62781,16 @@
         </is>
       </c>
       <c r="J867" t="n">
-        <v>520</v>
+        <v>460</v>
       </c>
       <c r="K867" t="n">
+        <v>12000</v>
+      </c>
+      <c r="L867" t="n">
         <v>13000</v>
       </c>
-      <c r="L867" t="n">
-        <v>14000</v>
-      </c>
       <c r="M867" t="n">
-        <v>13577</v>
+        <v>12457</v>
       </c>
       <c r="N867" t="inlineStr">
         <is>
@@ -62799,11 +62799,11 @@
       </c>
       <c r="O867" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P867" t="n">
-        <v>754</v>
+        <v>692</v>
       </c>
       <c r="Q867" t="n">
         <v>18</v>
@@ -62829,7 +62829,7 @@
         </is>
       </c>
       <c r="D868" s="2" t="n">
-        <v>44286</v>
+        <v>44461</v>
       </c>
       <c r="E868" t="n">
         <v>13</v>
@@ -62853,16 +62853,16 @@
         </is>
       </c>
       <c r="J868" t="n">
-        <v>780</v>
+        <v>880</v>
       </c>
       <c r="K868" t="n">
-        <v>13000</v>
+        <v>22000</v>
       </c>
       <c r="L868" t="n">
-        <v>14000</v>
+        <v>23000</v>
       </c>
       <c r="M868" t="n">
-        <v>13513</v>
+        <v>22466</v>
       </c>
       <c r="N868" t="inlineStr">
         <is>
@@ -62871,11 +62871,11 @@
       </c>
       <c r="O868" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P868" t="n">
-        <v>751</v>
+        <v>1248</v>
       </c>
       <c r="Q868" t="n">
         <v>18</v>
@@ -62901,7 +62901,7 @@
         </is>
       </c>
       <c r="D869" s="2" t="n">
-        <v>44286</v>
+        <v>44461</v>
       </c>
       <c r="E869" t="n">
         <v>13</v>
@@ -62925,16 +62925,16 @@
         </is>
       </c>
       <c r="J869" t="n">
-        <v>1040</v>
+        <v>790</v>
       </c>
       <c r="K869" t="n">
-        <v>10000</v>
+        <v>19000</v>
       </c>
       <c r="L869" t="n">
-        <v>11000</v>
+        <v>20000</v>
       </c>
       <c r="M869" t="n">
-        <v>10462</v>
+        <v>19519</v>
       </c>
       <c r="N869" t="inlineStr">
         <is>
@@ -62943,11 +62943,11 @@
       </c>
       <c r="O869" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P869" t="n">
-        <v>581</v>
+        <v>1084</v>
       </c>
       <c r="Q869" t="n">
         <v>18</v>
@@ -62973,7 +62973,7 @@
         </is>
       </c>
       <c r="D870" s="2" t="n">
-        <v>44286</v>
+        <v>44461</v>
       </c>
       <c r="E870" t="n">
         <v>13</v>
@@ -62997,16 +62997,16 @@
         </is>
       </c>
       <c r="J870" t="n">
-        <v>550</v>
+        <v>780</v>
       </c>
       <c r="K870" t="n">
-        <v>7000</v>
+        <v>17000</v>
       </c>
       <c r="L870" t="n">
-        <v>8000</v>
+        <v>18000</v>
       </c>
       <c r="M870" t="n">
-        <v>7545</v>
+        <v>17487</v>
       </c>
       <c r="N870" t="inlineStr">
         <is>
@@ -63015,11 +63015,11 @@
       </c>
       <c r="O870" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P870" t="n">
-        <v>419</v>
+        <v>972</v>
       </c>
       <c r="Q870" t="n">
         <v>18</v>
@@ -63045,7 +63045,7 @@
         </is>
       </c>
       <c r="D871" s="2" t="n">
-        <v>44286</v>
+        <v>44193</v>
       </c>
       <c r="E871" t="n">
         <v>13</v>
@@ -63060,7 +63060,7 @@
       </c>
       <c r="H871" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I871" t="inlineStr">
@@ -63069,16 +63069,16 @@
         </is>
       </c>
       <c r="J871" t="n">
-        <v>580</v>
+        <v>400</v>
       </c>
       <c r="K871" t="n">
-        <v>7000</v>
+        <v>18000</v>
       </c>
       <c r="L871" t="n">
-        <v>8000</v>
+        <v>19000</v>
       </c>
       <c r="M871" t="n">
-        <v>7517</v>
+        <v>18550</v>
       </c>
       <c r="N871" t="inlineStr">
         <is>
@@ -63087,11 +63087,11 @@
       </c>
       <c r="O871" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P871" t="n">
-        <v>418</v>
+        <v>1031</v>
       </c>
       <c r="Q871" t="n">
         <v>18</v>
@@ -63117,7 +63117,7 @@
         </is>
       </c>
       <c r="D872" s="2" t="n">
-        <v>44286</v>
+        <v>44193</v>
       </c>
       <c r="E872" t="n">
         <v>13</v>
@@ -63132,7 +63132,7 @@
       </c>
       <c r="H872" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I872" t="inlineStr">
@@ -63141,16 +63141,16 @@
         </is>
       </c>
       <c r="J872" t="n">
-        <v>550</v>
+        <v>500</v>
       </c>
       <c r="K872" t="n">
-        <v>5000</v>
+        <v>16000</v>
       </c>
       <c r="L872" t="n">
-        <v>6000</v>
+        <v>17000</v>
       </c>
       <c r="M872" t="n">
-        <v>5455</v>
+        <v>16560</v>
       </c>
       <c r="N872" t="inlineStr">
         <is>
@@ -63159,11 +63159,11 @@
       </c>
       <c r="O872" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P872" t="n">
-        <v>303</v>
+        <v>920</v>
       </c>
       <c r="Q872" t="n">
         <v>18</v>
@@ -63189,7 +63189,7 @@
         </is>
       </c>
       <c r="D873" s="2" t="n">
-        <v>44286</v>
+        <v>44193</v>
       </c>
       <c r="E873" t="n">
         <v>13</v>
@@ -63204,7 +63204,7 @@
       </c>
       <c r="H873" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I873" t="inlineStr">
@@ -63213,16 +63213,16 @@
         </is>
       </c>
       <c r="J873" t="n">
-        <v>440</v>
+        <v>520</v>
       </c>
       <c r="K873" t="n">
-        <v>3000</v>
+        <v>13000</v>
       </c>
       <c r="L873" t="n">
-        <v>4000</v>
+        <v>14000</v>
       </c>
       <c r="M873" t="n">
-        <v>3591</v>
+        <v>13577</v>
       </c>
       <c r="N873" t="inlineStr">
         <is>
@@ -63231,11 +63231,11 @@
       </c>
       <c r="O873" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P873" t="n">
-        <v>200</v>
+        <v>754</v>
       </c>
       <c r="Q873" t="n">
         <v>18</v>
@@ -63261,7 +63261,7 @@
         </is>
       </c>
       <c r="D874" s="2" t="n">
-        <v>44389</v>
+        <v>44286</v>
       </c>
       <c r="E874" t="n">
         <v>13</v>
@@ -63285,16 +63285,16 @@
         </is>
       </c>
       <c r="J874" t="n">
-        <v>460</v>
+        <v>780</v>
       </c>
       <c r="K874" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="L874" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="M874" t="n">
-        <v>18000</v>
+        <v>13513</v>
       </c>
       <c r="N874" t="inlineStr">
         <is>
@@ -63303,11 +63303,11 @@
       </c>
       <c r="O874" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P874" t="n">
-        <v>1000</v>
+        <v>751</v>
       </c>
       <c r="Q874" t="n">
         <v>18</v>
@@ -63333,7 +63333,7 @@
         </is>
       </c>
       <c r="D875" s="2" t="n">
-        <v>44389</v>
+        <v>44286</v>
       </c>
       <c r="E875" t="n">
         <v>13</v>
@@ -63353,36 +63353,36 @@
       </c>
       <c r="I875" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J875" t="n">
-        <v>400</v>
+        <v>1040</v>
       </c>
       <c r="K875" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="L875" t="n">
-        <v>20000</v>
+        <v>11000</v>
       </c>
       <c r="M875" t="n">
-        <v>20000</v>
+        <v>10462</v>
       </c>
       <c r="N875" t="inlineStr">
         <is>
-          <t>$/bandeja 20 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O875" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P875" t="n">
-        <v>1000</v>
+        <v>581</v>
       </c>
       <c r="Q875" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R875" t="inlineStr">
         <is>
@@ -63405,7 +63405,7 @@
         </is>
       </c>
       <c r="D876" s="2" t="n">
-        <v>44389</v>
+        <v>44286</v>
       </c>
       <c r="E876" t="n">
         <v>13</v>
@@ -63425,20 +63425,20 @@
       </c>
       <c r="I876" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J876" t="n">
-        <v>490</v>
+        <v>550</v>
       </c>
       <c r="K876" t="n">
-        <v>16000</v>
+        <v>7000</v>
       </c>
       <c r="L876" t="n">
-        <v>16000</v>
+        <v>8000</v>
       </c>
       <c r="M876" t="n">
-        <v>16000</v>
+        <v>7545</v>
       </c>
       <c r="N876" t="inlineStr">
         <is>
@@ -63447,11 +63447,11 @@
       </c>
       <c r="O876" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P876" t="n">
-        <v>889</v>
+        <v>419</v>
       </c>
       <c r="Q876" t="n">
         <v>18</v>
@@ -63477,7 +63477,7 @@
         </is>
       </c>
       <c r="D877" s="2" t="n">
-        <v>44389</v>
+        <v>44286</v>
       </c>
       <c r="E877" t="n">
         <v>13</v>
@@ -63492,41 +63492,41 @@
       </c>
       <c r="H877" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I877" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J877" t="n">
-        <v>480</v>
+        <v>580</v>
       </c>
       <c r="K877" t="n">
-        <v>18000</v>
+        <v>7000</v>
       </c>
       <c r="L877" t="n">
-        <v>18000</v>
+        <v>8000</v>
       </c>
       <c r="M877" t="n">
-        <v>18000</v>
+        <v>7517</v>
       </c>
       <c r="N877" t="inlineStr">
         <is>
-          <t>$/bandeja 20 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O877" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P877" t="n">
-        <v>900</v>
+        <v>418</v>
       </c>
       <c r="Q877" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R877" t="inlineStr">
         <is>
@@ -63549,7 +63549,7 @@
         </is>
       </c>
       <c r="D878" s="2" t="n">
-        <v>44389</v>
+        <v>44286</v>
       </c>
       <c r="E878" t="n">
         <v>13</v>
@@ -63564,25 +63564,25 @@
       </c>
       <c r="H878" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I878" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J878" t="n">
-        <v>310</v>
+        <v>550</v>
       </c>
       <c r="K878" t="n">
-        <v>14000</v>
+        <v>5000</v>
       </c>
       <c r="L878" t="n">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="M878" t="n">
-        <v>14000</v>
+        <v>5455</v>
       </c>
       <c r="N878" t="inlineStr">
         <is>
@@ -63591,11 +63591,11 @@
       </c>
       <c r="O878" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P878" t="n">
-        <v>778</v>
+        <v>303</v>
       </c>
       <c r="Q878" t="n">
         <v>18</v>
@@ -63621,7 +63621,7 @@
         </is>
       </c>
       <c r="D879" s="2" t="n">
-        <v>44312</v>
+        <v>44286</v>
       </c>
       <c r="E879" t="n">
         <v>13</v>
@@ -63636,25 +63636,25 @@
       </c>
       <c r="H879" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I879" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J879" t="n">
-        <v>480</v>
+        <v>440</v>
       </c>
       <c r="K879" t="n">
-        <v>12000</v>
+        <v>3000</v>
       </c>
       <c r="L879" t="n">
-        <v>12000</v>
+        <v>4000</v>
       </c>
       <c r="M879" t="n">
-        <v>12000</v>
+        <v>3591</v>
       </c>
       <c r="N879" t="inlineStr">
         <is>
@@ -63663,11 +63663,11 @@
       </c>
       <c r="O879" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P879" t="n">
-        <v>667</v>
+        <v>200</v>
       </c>
       <c r="Q879" t="n">
         <v>18</v>
@@ -63693,7 +63693,7 @@
         </is>
       </c>
       <c r="D880" s="2" t="n">
-        <v>44312</v>
+        <v>44389</v>
       </c>
       <c r="E880" t="n">
         <v>13</v>
@@ -63713,20 +63713,20 @@
       </c>
       <c r="I880" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J880" t="n">
-        <v>560</v>
+        <v>460</v>
       </c>
       <c r="K880" t="n">
-        <v>9000</v>
+        <v>18000</v>
       </c>
       <c r="L880" t="n">
-        <v>9000</v>
+        <v>18000</v>
       </c>
       <c r="M880" t="n">
-        <v>9000</v>
+        <v>18000</v>
       </c>
       <c r="N880" t="inlineStr">
         <is>
@@ -63735,11 +63735,11 @@
       </c>
       <c r="O880" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P880" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="Q880" t="n">
         <v>18</v>
@@ -63765,7 +63765,7 @@
         </is>
       </c>
       <c r="D881" s="2" t="n">
-        <v>44312</v>
+        <v>44389</v>
       </c>
       <c r="E881" t="n">
         <v>13</v>
@@ -63785,36 +63785,36 @@
       </c>
       <c r="I881" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J881" t="n">
-        <v>440</v>
+        <v>400</v>
       </c>
       <c r="K881" t="n">
-        <v>7000</v>
+        <v>20000</v>
       </c>
       <c r="L881" t="n">
-        <v>7000</v>
+        <v>20000</v>
       </c>
       <c r="M881" t="n">
-        <v>7000</v>
+        <v>20000</v>
       </c>
       <c r="N881" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 20 kilos</t>
         </is>
       </c>
       <c r="O881" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P881" t="n">
-        <v>389</v>
+        <v>1000</v>
       </c>
       <c r="Q881" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R881" t="inlineStr">
         <is>
@@ -63837,7 +63837,7 @@
         </is>
       </c>
       <c r="D882" s="2" t="n">
-        <v>44326</v>
+        <v>44389</v>
       </c>
       <c r="E882" t="n">
         <v>13</v>
@@ -63857,20 +63857,20 @@
       </c>
       <c r="I882" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J882" t="n">
-        <v>480</v>
+        <v>490</v>
       </c>
       <c r="K882" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="L882" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="M882" t="n">
-        <v>12625</v>
+        <v>16000</v>
       </c>
       <c r="N882" t="inlineStr">
         <is>
@@ -63879,11 +63879,11 @@
       </c>
       <c r="O882" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P882" t="n">
-        <v>701</v>
+        <v>889</v>
       </c>
       <c r="Q882" t="n">
         <v>18</v>
@@ -63909,7 +63909,7 @@
         </is>
       </c>
       <c r="D883" s="2" t="n">
-        <v>44326</v>
+        <v>44389</v>
       </c>
       <c r="E883" t="n">
         <v>13</v>
@@ -63933,32 +63933,32 @@
         </is>
       </c>
       <c r="J883" t="n">
-        <v>470</v>
+        <v>480</v>
       </c>
       <c r="K883" t="n">
-        <v>9000</v>
+        <v>18000</v>
       </c>
       <c r="L883" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="M883" t="n">
-        <v>9617</v>
+        <v>18000</v>
       </c>
       <c r="N883" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 20 kilos</t>
         </is>
       </c>
       <c r="O883" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P883" t="n">
-        <v>534</v>
+        <v>900</v>
       </c>
       <c r="Q883" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R883" t="inlineStr">
         <is>
@@ -63981,7 +63981,7 @@
         </is>
       </c>
       <c r="D884" s="2" t="n">
-        <v>44326</v>
+        <v>44389</v>
       </c>
       <c r="E884" t="n">
         <v>13</v>
@@ -64005,16 +64005,16 @@
         </is>
       </c>
       <c r="J884" t="n">
-        <v>290</v>
+        <v>310</v>
       </c>
       <c r="K884" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="L884" t="n">
-        <v>7500</v>
+        <v>14000</v>
       </c>
       <c r="M884" t="n">
-        <v>7259</v>
+        <v>14000</v>
       </c>
       <c r="N884" t="inlineStr">
         <is>
@@ -64023,11 +64023,11 @@
       </c>
       <c r="O884" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P884" t="n">
-        <v>403</v>
+        <v>778</v>
       </c>
       <c r="Q884" t="n">
         <v>18</v>
@@ -64053,7 +64053,7 @@
         </is>
       </c>
       <c r="D885" s="2" t="n">
-        <v>44432</v>
+        <v>44312</v>
       </c>
       <c r="E885" t="n">
         <v>13</v>
@@ -64077,16 +64077,16 @@
         </is>
       </c>
       <c r="J885" t="n">
-        <v>1180</v>
+        <v>480</v>
       </c>
       <c r="K885" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="L885" t="n">
         <v>12000</v>
       </c>
       <c r="M885" t="n">
-        <v>11525</v>
+        <v>12000</v>
       </c>
       <c r="N885" t="inlineStr">
         <is>
@@ -64095,11 +64095,11 @@
       </c>
       <c r="O885" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P885" t="n">
-        <v>640</v>
+        <v>667</v>
       </c>
       <c r="Q885" t="n">
         <v>18</v>
@@ -64125,7 +64125,7 @@
         </is>
       </c>
       <c r="D886" s="2" t="n">
-        <v>44432</v>
+        <v>44312</v>
       </c>
       <c r="E886" t="n">
         <v>13</v>
@@ -64149,16 +64149,16 @@
         </is>
       </c>
       <c r="J886" t="n">
-        <v>820</v>
+        <v>560</v>
       </c>
       <c r="K886" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="L886" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="M886" t="n">
-        <v>5463</v>
+        <v>9000</v>
       </c>
       <c r="N886" t="inlineStr">
         <is>
@@ -64171,7 +64171,7 @@
         </is>
       </c>
       <c r="P886" t="n">
-        <v>304</v>
+        <v>500</v>
       </c>
       <c r="Q886" t="n">
         <v>18</v>
@@ -64197,7 +64197,7 @@
         </is>
       </c>
       <c r="D887" s="2" t="n">
-        <v>44432</v>
+        <v>44312</v>
       </c>
       <c r="E887" t="n">
         <v>13</v>
@@ -64217,20 +64217,20 @@
       </c>
       <c r="I887" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J887" t="n">
-        <v>1220</v>
+        <v>440</v>
       </c>
       <c r="K887" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="L887" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="M887" t="n">
-        <v>9541</v>
+        <v>7000</v>
       </c>
       <c r="N887" t="inlineStr">
         <is>
@@ -64239,11 +64239,11 @@
       </c>
       <c r="O887" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P887" t="n">
-        <v>530</v>
+        <v>389</v>
       </c>
       <c r="Q887" t="n">
         <v>18</v>
@@ -64269,7 +64269,7 @@
         </is>
       </c>
       <c r="D888" s="2" t="n">
-        <v>44432</v>
+        <v>44326</v>
       </c>
       <c r="E888" t="n">
         <v>13</v>
@@ -64289,20 +64289,20 @@
       </c>
       <c r="I888" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J888" t="n">
-        <v>450</v>
+        <v>480</v>
       </c>
       <c r="K888" t="n">
-        <v>3000</v>
+        <v>12000</v>
       </c>
       <c r="L888" t="n">
-        <v>4000</v>
+        <v>13000</v>
       </c>
       <c r="M888" t="n">
-        <v>3600</v>
+        <v>12625</v>
       </c>
       <c r="N888" t="inlineStr">
         <is>
@@ -64315,7 +64315,7 @@
         </is>
       </c>
       <c r="P888" t="n">
-        <v>200</v>
+        <v>701</v>
       </c>
       <c r="Q888" t="n">
         <v>18</v>
@@ -64341,58 +64341,490 @@
         </is>
       </c>
       <c r="D889" s="2" t="n">
+        <v>44326</v>
+      </c>
+      <c r="E889" t="n">
+        <v>13</v>
+      </c>
+      <c r="F889" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G889" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H889" t="inlineStr">
+        <is>
+          <t>Larga vida</t>
+        </is>
+      </c>
+      <c r="I889" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J889" t="n">
+        <v>470</v>
+      </c>
+      <c r="K889" t="n">
+        <v>9000</v>
+      </c>
+      <c r="L889" t="n">
+        <v>10000</v>
+      </c>
+      <c r="M889" t="n">
+        <v>9617</v>
+      </c>
+      <c r="N889" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O889" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="P889" t="n">
+        <v>534</v>
+      </c>
+      <c r="Q889" t="n">
+        <v>18</v>
+      </c>
+      <c r="R889" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="890">
+      <c r="A890" t="n">
+        <v>12</v>
+      </c>
+      <c r="B890" t="inlineStr">
+        <is>
+          <t>Mapocho Venta Directa de Santiago</t>
+        </is>
+      </c>
+      <c r="C890" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D890" s="2" t="n">
+        <v>44326</v>
+      </c>
+      <c r="E890" t="n">
+        <v>13</v>
+      </c>
+      <c r="F890" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G890" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H890" t="inlineStr">
+        <is>
+          <t>Larga vida</t>
+        </is>
+      </c>
+      <c r="I890" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J890" t="n">
+        <v>290</v>
+      </c>
+      <c r="K890" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L890" t="n">
+        <v>7500</v>
+      </c>
+      <c r="M890" t="n">
+        <v>7259</v>
+      </c>
+      <c r="N890" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O890" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="P890" t="n">
+        <v>403</v>
+      </c>
+      <c r="Q890" t="n">
+        <v>18</v>
+      </c>
+      <c r="R890" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="891">
+      <c r="A891" t="n">
+        <v>12</v>
+      </c>
+      <c r="B891" t="inlineStr">
+        <is>
+          <t>Mapocho Venta Directa de Santiago</t>
+        </is>
+      </c>
+      <c r="C891" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D891" s="2" t="n">
         <v>44432</v>
       </c>
-      <c r="E889" t="n">
-        <v>13</v>
-      </c>
-      <c r="F889" t="n">
-        <v>100112020</v>
-      </c>
-      <c r="G889" t="inlineStr">
-        <is>
-          <t>Tomate</t>
-        </is>
-      </c>
-      <c r="H889" t="inlineStr">
-        <is>
-          <t>Larga vida</t>
-        </is>
-      </c>
-      <c r="I889" t="inlineStr">
+      <c r="E891" t="n">
+        <v>13</v>
+      </c>
+      <c r="F891" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G891" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H891" t="inlineStr">
+        <is>
+          <t>Larga vida</t>
+        </is>
+      </c>
+      <c r="I891" t="inlineStr">
+        <is>
+          <t>Extra</t>
+        </is>
+      </c>
+      <c r="J891" t="n">
+        <v>1180</v>
+      </c>
+      <c r="K891" t="n">
+        <v>11000</v>
+      </c>
+      <c r="L891" t="n">
+        <v>12000</v>
+      </c>
+      <c r="M891" t="n">
+        <v>11525</v>
+      </c>
+      <c r="N891" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O891" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P891" t="n">
+        <v>640</v>
+      </c>
+      <c r="Q891" t="n">
+        <v>18</v>
+      </c>
+      <c r="R891" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="892">
+      <c r="A892" t="n">
+        <v>12</v>
+      </c>
+      <c r="B892" t="inlineStr">
+        <is>
+          <t>Mapocho Venta Directa de Santiago</t>
+        </is>
+      </c>
+      <c r="C892" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D892" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E892" t="n">
+        <v>13</v>
+      </c>
+      <c r="F892" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G892" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H892" t="inlineStr">
+        <is>
+          <t>Larga vida</t>
+        </is>
+      </c>
+      <c r="I892" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J892" t="n">
+        <v>820</v>
+      </c>
+      <c r="K892" t="n">
+        <v>5000</v>
+      </c>
+      <c r="L892" t="n">
+        <v>6000</v>
+      </c>
+      <c r="M892" t="n">
+        <v>5463</v>
+      </c>
+      <c r="N892" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O892" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="P892" t="n">
+        <v>304</v>
+      </c>
+      <c r="Q892" t="n">
+        <v>18</v>
+      </c>
+      <c r="R892" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="893">
+      <c r="A893" t="n">
+        <v>12</v>
+      </c>
+      <c r="B893" t="inlineStr">
+        <is>
+          <t>Mapocho Venta Directa de Santiago</t>
+        </is>
+      </c>
+      <c r="C893" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D893" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E893" t="n">
+        <v>13</v>
+      </c>
+      <c r="F893" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G893" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H893" t="inlineStr">
+        <is>
+          <t>Larga vida</t>
+        </is>
+      </c>
+      <c r="I893" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J893" t="n">
+        <v>1220</v>
+      </c>
+      <c r="K893" t="n">
+        <v>9000</v>
+      </c>
+      <c r="L893" t="n">
+        <v>10000</v>
+      </c>
+      <c r="M893" t="n">
+        <v>9541</v>
+      </c>
+      <c r="N893" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O893" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P893" t="n">
+        <v>530</v>
+      </c>
+      <c r="Q893" t="n">
+        <v>18</v>
+      </c>
+      <c r="R893" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="894">
+      <c r="A894" t="n">
+        <v>12</v>
+      </c>
+      <c r="B894" t="inlineStr">
+        <is>
+          <t>Mapocho Venta Directa de Santiago</t>
+        </is>
+      </c>
+      <c r="C894" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D894" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E894" t="n">
+        <v>13</v>
+      </c>
+      <c r="F894" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G894" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H894" t="inlineStr">
+        <is>
+          <t>Larga vida</t>
+        </is>
+      </c>
+      <c r="I894" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="J889" t="n">
+      <c r="J894" t="n">
+        <v>450</v>
+      </c>
+      <c r="K894" t="n">
+        <v>3000</v>
+      </c>
+      <c r="L894" t="n">
+        <v>4000</v>
+      </c>
+      <c r="M894" t="n">
+        <v>3600</v>
+      </c>
+      <c r="N894" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O894" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="P894" t="n">
+        <v>200</v>
+      </c>
+      <c r="Q894" t="n">
+        <v>18</v>
+      </c>
+      <c r="R894" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="895">
+      <c r="A895" t="n">
+        <v>12</v>
+      </c>
+      <c r="B895" t="inlineStr">
+        <is>
+          <t>Mapocho Venta Directa de Santiago</t>
+        </is>
+      </c>
+      <c r="C895" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D895" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E895" t="n">
+        <v>13</v>
+      </c>
+      <c r="F895" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G895" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H895" t="inlineStr">
+        <is>
+          <t>Larga vida</t>
+        </is>
+      </c>
+      <c r="I895" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J895" t="n">
         <v>840</v>
       </c>
-      <c r="K889" t="n">
+      <c r="K895" t="n">
         <v>6000</v>
       </c>
-      <c r="L889" t="n">
+      <c r="L895" t="n">
         <v>7000</v>
       </c>
-      <c r="M889" t="n">
+      <c r="M895" t="n">
         <v>6548</v>
       </c>
-      <c r="N889" t="inlineStr">
-        <is>
-          <t>$/bandeja 18 kilos</t>
-        </is>
-      </c>
-      <c r="O889" t="inlineStr">
+      <c r="N895" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O895" t="inlineStr">
         <is>
           <t>Región de Arica y Parinacota</t>
         </is>
       </c>
-      <c r="P889" t="n">
+      <c r="P895" t="n">
         <v>364</v>
       </c>
-      <c r="Q889" t="n">
-        <v>18</v>
-      </c>
-      <c r="R889" t="inlineStr">
+      <c r="Q895" t="n">
+        <v>18</v>
+      </c>
+      <c r="R895" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Tomate.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Tomate.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R938"/>
+  <dimension ref="A1:R944"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -59805,7 +59805,7 @@
         </is>
       </c>
       <c r="D826" s="2" t="n">
-        <v>44172</v>
+        <v>44491</v>
       </c>
       <c r="E826" t="n">
         <v>13</v>
@@ -59829,16 +59829,16 @@
         </is>
       </c>
       <c r="J826" t="n">
-        <v>430</v>
+        <v>660</v>
       </c>
       <c r="K826" t="n">
-        <v>13000</v>
+        <v>19000</v>
       </c>
       <c r="L826" t="n">
-        <v>14000</v>
+        <v>19500</v>
       </c>
       <c r="M826" t="n">
-        <v>13419</v>
+        <v>19265</v>
       </c>
       <c r="N826" t="inlineStr">
         <is>
@@ -59847,11 +59847,11 @@
       </c>
       <c r="O826" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P826" t="n">
-        <v>746</v>
+        <v>1070</v>
       </c>
       <c r="Q826" t="n">
         <v>18</v>
@@ -59877,7 +59877,7 @@
         </is>
       </c>
       <c r="D827" s="2" t="n">
-        <v>44172</v>
+        <v>44491</v>
       </c>
       <c r="E827" t="n">
         <v>13</v>
@@ -59897,20 +59897,20 @@
       </c>
       <c r="I827" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J827" t="n">
-        <v>720</v>
+        <v>650</v>
       </c>
       <c r="K827" t="n">
-        <v>11000</v>
+        <v>17000</v>
       </c>
       <c r="L827" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="M827" t="n">
-        <v>11444</v>
+        <v>17000</v>
       </c>
       <c r="N827" t="inlineStr">
         <is>
@@ -59919,11 +59919,11 @@
       </c>
       <c r="O827" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P827" t="n">
-        <v>636</v>
+        <v>944</v>
       </c>
       <c r="Q827" t="n">
         <v>18</v>
@@ -59949,7 +59949,7 @@
         </is>
       </c>
       <c r="D828" s="2" t="n">
-        <v>44172</v>
+        <v>44491</v>
       </c>
       <c r="E828" t="n">
         <v>13</v>
@@ -59969,20 +59969,20 @@
       </c>
       <c r="I828" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J828" t="n">
-        <v>540</v>
+        <v>760</v>
       </c>
       <c r="K828" t="n">
-        <v>9000</v>
+        <v>16000</v>
       </c>
       <c r="L828" t="n">
-        <v>10000</v>
+        <v>16500</v>
       </c>
       <c r="M828" t="n">
-        <v>9556</v>
+        <v>16270</v>
       </c>
       <c r="N828" t="inlineStr">
         <is>
@@ -59991,11 +59991,11 @@
       </c>
       <c r="O828" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P828" t="n">
-        <v>531</v>
+        <v>904</v>
       </c>
       <c r="Q828" t="n">
         <v>18</v>
@@ -60021,7 +60021,7 @@
         </is>
       </c>
       <c r="D829" s="2" t="n">
-        <v>44301</v>
+        <v>44491</v>
       </c>
       <c r="E829" t="n">
         <v>13</v>
@@ -60041,20 +60041,20 @@
       </c>
       <c r="I829" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J829" t="n">
-        <v>360</v>
+        <v>580</v>
       </c>
       <c r="K829" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="L829" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="M829" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="N829" t="inlineStr">
         <is>
@@ -60063,11 +60063,11 @@
       </c>
       <c r="O829" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P829" t="n">
-        <v>667</v>
+        <v>833</v>
       </c>
       <c r="Q829" t="n">
         <v>18</v>
@@ -60093,7 +60093,7 @@
         </is>
       </c>
       <c r="D830" s="2" t="n">
-        <v>44301</v>
+        <v>44491</v>
       </c>
       <c r="E830" t="n">
         <v>13</v>
@@ -60113,20 +60113,20 @@
       </c>
       <c r="I830" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J830" t="n">
-        <v>640</v>
+        <v>700</v>
       </c>
       <c r="K830" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="L830" t="n">
-        <v>10000</v>
+        <v>13500</v>
       </c>
       <c r="M830" t="n">
-        <v>10000</v>
+        <v>13214</v>
       </c>
       <c r="N830" t="inlineStr">
         <is>
@@ -60135,11 +60135,11 @@
       </c>
       <c r="O830" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P830" t="n">
-        <v>556</v>
+        <v>734</v>
       </c>
       <c r="Q830" t="n">
         <v>18</v>
@@ -60165,7 +60165,7 @@
         </is>
       </c>
       <c r="D831" s="2" t="n">
-        <v>44301</v>
+        <v>44491</v>
       </c>
       <c r="E831" t="n">
         <v>13</v>
@@ -60189,16 +60189,16 @@
         </is>
       </c>
       <c r="J831" t="n">
-        <v>240</v>
+        <v>600</v>
       </c>
       <c r="K831" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="L831" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="M831" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="N831" t="inlineStr">
         <is>
@@ -60207,11 +60207,11 @@
       </c>
       <c r="O831" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P831" t="n">
-        <v>500</v>
+        <v>722</v>
       </c>
       <c r="Q831" t="n">
         <v>18</v>
@@ -60237,7 +60237,7 @@
         </is>
       </c>
       <c r="D832" s="2" t="n">
-        <v>44301</v>
+        <v>44172</v>
       </c>
       <c r="E832" t="n">
         <v>13</v>
@@ -60257,20 +60257,20 @@
       </c>
       <c r="I832" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J832" t="n">
-        <v>160</v>
+        <v>430</v>
       </c>
       <c r="K832" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="L832" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="M832" t="n">
-        <v>7500</v>
+        <v>13419</v>
       </c>
       <c r="N832" t="inlineStr">
         <is>
@@ -60283,7 +60283,7 @@
         </is>
       </c>
       <c r="P832" t="n">
-        <v>417</v>
+        <v>746</v>
       </c>
       <c r="Q832" t="n">
         <v>18</v>
@@ -60309,7 +60309,7 @@
         </is>
       </c>
       <c r="D833" s="2" t="n">
-        <v>44357</v>
+        <v>44172</v>
       </c>
       <c r="E833" t="n">
         <v>13</v>
@@ -60329,20 +60329,20 @@
       </c>
       <c r="I833" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J833" t="n">
-        <v>340</v>
+        <v>720</v>
       </c>
       <c r="K833" t="n">
+        <v>11000</v>
+      </c>
+      <c r="L833" t="n">
         <v>12000</v>
       </c>
-      <c r="L833" t="n">
-        <v>13000</v>
-      </c>
       <c r="M833" t="n">
-        <v>12500</v>
+        <v>11444</v>
       </c>
       <c r="N833" t="inlineStr">
         <is>
@@ -60351,11 +60351,11 @@
       </c>
       <c r="O833" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P833" t="n">
-        <v>694</v>
+        <v>636</v>
       </c>
       <c r="Q833" t="n">
         <v>18</v>
@@ -60381,7 +60381,7 @@
         </is>
       </c>
       <c r="D834" s="2" t="n">
-        <v>44357</v>
+        <v>44172</v>
       </c>
       <c r="E834" t="n">
         <v>13</v>
@@ -60401,20 +60401,20 @@
       </c>
       <c r="I834" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J834" t="n">
-        <v>300</v>
+        <v>540</v>
       </c>
       <c r="K834" t="n">
+        <v>9000</v>
+      </c>
+      <c r="L834" t="n">
         <v>10000</v>
       </c>
-      <c r="L834" t="n">
-        <v>11000</v>
-      </c>
       <c r="M834" t="n">
-        <v>10500</v>
+        <v>9556</v>
       </c>
       <c r="N834" t="inlineStr">
         <is>
@@ -60423,11 +60423,11 @@
       </c>
       <c r="O834" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P834" t="n">
-        <v>583</v>
+        <v>531</v>
       </c>
       <c r="Q834" t="n">
         <v>18</v>
@@ -60453,7 +60453,7 @@
         </is>
       </c>
       <c r="D835" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E835" t="n">
         <v>13</v>
@@ -60473,20 +60473,20 @@
       </c>
       <c r="I835" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J835" t="n">
-        <v>240</v>
+        <v>360</v>
       </c>
       <c r="K835" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="L835" t="n">
-        <v>9500</v>
+        <v>12000</v>
       </c>
       <c r="M835" t="n">
-        <v>9250</v>
+        <v>12000</v>
       </c>
       <c r="N835" t="inlineStr">
         <is>
@@ -60495,11 +60495,11 @@
       </c>
       <c r="O835" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P835" t="n">
-        <v>514</v>
+        <v>667</v>
       </c>
       <c r="Q835" t="n">
         <v>18</v>
@@ -60525,7 +60525,7 @@
         </is>
       </c>
       <c r="D836" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E836" t="n">
         <v>13</v>
@@ -60545,20 +60545,20 @@
       </c>
       <c r="I836" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J836" t="n">
-        <v>200</v>
+        <v>640</v>
       </c>
       <c r="K836" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="L836" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M836" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="N836" t="inlineStr">
         <is>
@@ -60567,11 +60567,11 @@
       </c>
       <c r="O836" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P836" t="n">
-        <v>444</v>
+        <v>556</v>
       </c>
       <c r="Q836" t="n">
         <v>18</v>
@@ -60597,7 +60597,7 @@
         </is>
       </c>
       <c r="D837" s="2" t="n">
-        <v>44328</v>
+        <v>44301</v>
       </c>
       <c r="E837" t="n">
         <v>13</v>
@@ -60617,20 +60617,20 @@
       </c>
       <c r="I837" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J837" t="n">
-        <v>960</v>
+        <v>240</v>
       </c>
       <c r="K837" t="n">
         <v>9000</v>
       </c>
       <c r="L837" t="n">
-        <v>9500</v>
+        <v>9000</v>
       </c>
       <c r="M837" t="n">
-        <v>9302</v>
+        <v>9000</v>
       </c>
       <c r="N837" t="inlineStr">
         <is>
@@ -60639,11 +60639,11 @@
       </c>
       <c r="O837" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P837" t="n">
-        <v>517</v>
+        <v>500</v>
       </c>
       <c r="Q837" t="n">
         <v>18</v>
@@ -60669,7 +60669,7 @@
         </is>
       </c>
       <c r="D838" s="2" t="n">
-        <v>44328</v>
+        <v>44301</v>
       </c>
       <c r="E838" t="n">
         <v>13</v>
@@ -60689,21 +60689,21 @@
       </c>
       <c r="I838" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J838" t="n">
-        <v>410</v>
+        <v>160</v>
       </c>
       <c r="K838" t="n">
         <v>7000</v>
       </c>
       <c r="L838" t="n">
+        <v>8000</v>
+      </c>
+      <c r="M838" t="n">
         <v>7500</v>
       </c>
-      <c r="M838" t="n">
-        <v>7232</v>
-      </c>
       <c r="N838" t="inlineStr">
         <is>
           <t>$/bandeja 18 kilos</t>
@@ -60711,11 +60711,11 @@
       </c>
       <c r="O838" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P838" t="n">
-        <v>402</v>
+        <v>417</v>
       </c>
       <c r="Q838" t="n">
         <v>18</v>
@@ -60741,7 +60741,7 @@
         </is>
       </c>
       <c r="D839" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E839" t="n">
         <v>13</v>
@@ -60761,20 +60761,20 @@
       </c>
       <c r="I839" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J839" t="n">
-        <v>230</v>
+        <v>340</v>
       </c>
       <c r="K839" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="L839" t="n">
-        <v>5500</v>
+        <v>13000</v>
       </c>
       <c r="M839" t="n">
-        <v>5283</v>
+        <v>12500</v>
       </c>
       <c r="N839" t="inlineStr">
         <is>
@@ -60783,11 +60783,11 @@
       </c>
       <c r="O839" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P839" t="n">
-        <v>294</v>
+        <v>694</v>
       </c>
       <c r="Q839" t="n">
         <v>18</v>
@@ -60813,7 +60813,7 @@
         </is>
       </c>
       <c r="D840" s="2" t="n">
-        <v>44321</v>
+        <v>44357</v>
       </c>
       <c r="E840" t="n">
         <v>13</v>
@@ -60833,20 +60833,20 @@
       </c>
       <c r="I840" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J840" t="n">
-        <v>380</v>
+        <v>300</v>
       </c>
       <c r="K840" t="n">
         <v>10000</v>
       </c>
       <c r="L840" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M840" t="n">
-        <v>10000</v>
+        <v>10500</v>
       </c>
       <c r="N840" t="inlineStr">
         <is>
@@ -60855,11 +60855,11 @@
       </c>
       <c r="O840" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P840" t="n">
-        <v>556</v>
+        <v>583</v>
       </c>
       <c r="Q840" t="n">
         <v>18</v>
@@ -60885,7 +60885,7 @@
         </is>
       </c>
       <c r="D841" s="2" t="n">
-        <v>44321</v>
+        <v>44357</v>
       </c>
       <c r="E841" t="n">
         <v>13</v>
@@ -60905,20 +60905,20 @@
       </c>
       <c r="I841" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J841" t="n">
-        <v>420</v>
+        <v>240</v>
       </c>
       <c r="K841" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="L841" t="n">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="M841" t="n">
-        <v>8000</v>
+        <v>9250</v>
       </c>
       <c r="N841" t="inlineStr">
         <is>
@@ -60927,11 +60927,11 @@
       </c>
       <c r="O841" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P841" t="n">
-        <v>444</v>
+        <v>514</v>
       </c>
       <c r="Q841" t="n">
         <v>18</v>
@@ -60957,7 +60957,7 @@
         </is>
       </c>
       <c r="D842" s="2" t="n">
-        <v>44321</v>
+        <v>44357</v>
       </c>
       <c r="E842" t="n">
         <v>13</v>
@@ -60977,20 +60977,20 @@
       </c>
       <c r="I842" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J842" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K842" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="L842" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="M842" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="N842" t="inlineStr">
         <is>
@@ -60999,11 +60999,11 @@
       </c>
       <c r="O842" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P842" t="n">
-        <v>278</v>
+        <v>444</v>
       </c>
       <c r="Q842" t="n">
         <v>18</v>
@@ -61029,7 +61029,7 @@
         </is>
       </c>
       <c r="D843" s="2" t="n">
-        <v>44321</v>
+        <v>44328</v>
       </c>
       <c r="E843" t="n">
         <v>13</v>
@@ -61044,7 +61044,7 @@
       </c>
       <c r="H843" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I843" t="inlineStr">
@@ -61053,16 +61053,16 @@
         </is>
       </c>
       <c r="J843" t="n">
-        <v>220</v>
+        <v>960</v>
       </c>
       <c r="K843" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L843" t="n">
-        <v>7000</v>
+        <v>9500</v>
       </c>
       <c r="M843" t="n">
-        <v>7000</v>
+        <v>9302</v>
       </c>
       <c r="N843" t="inlineStr">
         <is>
@@ -61071,11 +61071,11 @@
       </c>
       <c r="O843" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P843" t="n">
-        <v>389</v>
+        <v>517</v>
       </c>
       <c r="Q843" t="n">
         <v>18</v>
@@ -61101,7 +61101,7 @@
         </is>
       </c>
       <c r="D844" s="2" t="n">
-        <v>44321</v>
+        <v>44328</v>
       </c>
       <c r="E844" t="n">
         <v>13</v>
@@ -61116,7 +61116,7 @@
       </c>
       <c r="H844" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I844" t="inlineStr">
@@ -61125,16 +61125,16 @@
         </is>
       </c>
       <c r="J844" t="n">
-        <v>250</v>
+        <v>410</v>
       </c>
       <c r="K844" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L844" t="n">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="M844" t="n">
-        <v>6000</v>
+        <v>7232</v>
       </c>
       <c r="N844" t="inlineStr">
         <is>
@@ -61143,11 +61143,11 @@
       </c>
       <c r="O844" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P844" t="n">
-        <v>333</v>
+        <v>402</v>
       </c>
       <c r="Q844" t="n">
         <v>18</v>
@@ -61173,7 +61173,7 @@
         </is>
       </c>
       <c r="D845" s="2" t="n">
-        <v>44321</v>
+        <v>44328</v>
       </c>
       <c r="E845" t="n">
         <v>13</v>
@@ -61188,7 +61188,7 @@
       </c>
       <c r="H845" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I845" t="inlineStr">
@@ -61197,16 +61197,16 @@
         </is>
       </c>
       <c r="J845" t="n">
-        <v>300</v>
+        <v>230</v>
       </c>
       <c r="K845" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="L845" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="M845" t="n">
-        <v>4500</v>
+        <v>5283</v>
       </c>
       <c r="N845" t="inlineStr">
         <is>
@@ -61215,11 +61215,11 @@
       </c>
       <c r="O845" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P845" t="n">
-        <v>250</v>
+        <v>294</v>
       </c>
       <c r="Q845" t="n">
         <v>18</v>
@@ -61245,7 +61245,7 @@
         </is>
       </c>
       <c r="D846" s="2" t="n">
-        <v>44223</v>
+        <v>44321</v>
       </c>
       <c r="E846" t="n">
         <v>13</v>
@@ -61269,16 +61269,16 @@
         </is>
       </c>
       <c r="J846" t="n">
-        <v>820</v>
+        <v>380</v>
       </c>
       <c r="K846" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="L846" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="M846" t="n">
-        <v>12463</v>
+        <v>10000</v>
       </c>
       <c r="N846" t="inlineStr">
         <is>
@@ -61287,11 +61287,11 @@
       </c>
       <c r="O846" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P846" t="n">
-        <v>692</v>
+        <v>556</v>
       </c>
       <c r="Q846" t="n">
         <v>18</v>
@@ -61317,7 +61317,7 @@
         </is>
       </c>
       <c r="D847" s="2" t="n">
-        <v>44223</v>
+        <v>44321</v>
       </c>
       <c r="E847" t="n">
         <v>13</v>
@@ -61341,16 +61341,16 @@
         </is>
       </c>
       <c r="J847" t="n">
-        <v>930</v>
+        <v>420</v>
       </c>
       <c r="K847" t="n">
-        <v>9500</v>
+        <v>8000</v>
       </c>
       <c r="L847" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M847" t="n">
-        <v>9769</v>
+        <v>8000</v>
       </c>
       <c r="N847" t="inlineStr">
         <is>
@@ -61359,11 +61359,11 @@
       </c>
       <c r="O847" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P847" t="n">
-        <v>543</v>
+        <v>444</v>
       </c>
       <c r="Q847" t="n">
         <v>18</v>
@@ -61389,7 +61389,7 @@
         </is>
       </c>
       <c r="D848" s="2" t="n">
-        <v>44223</v>
+        <v>44321</v>
       </c>
       <c r="E848" t="n">
         <v>13</v>
@@ -61413,16 +61413,16 @@
         </is>
       </c>
       <c r="J848" t="n">
-        <v>570</v>
+        <v>300</v>
       </c>
       <c r="K848" t="n">
-        <v>7500</v>
+        <v>5000</v>
       </c>
       <c r="L848" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="M848" t="n">
-        <v>7807</v>
+        <v>5000</v>
       </c>
       <c r="N848" t="inlineStr">
         <is>
@@ -61431,11 +61431,11 @@
       </c>
       <c r="O848" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P848" t="n">
-        <v>434</v>
+        <v>278</v>
       </c>
       <c r="Q848" t="n">
         <v>18</v>
@@ -61461,7 +61461,7 @@
         </is>
       </c>
       <c r="D849" s="2" t="n">
-        <v>44223</v>
+        <v>44321</v>
       </c>
       <c r="E849" t="n">
         <v>13</v>
@@ -61485,16 +61485,16 @@
         </is>
       </c>
       <c r="J849" t="n">
-        <v>360</v>
+        <v>220</v>
       </c>
       <c r="K849" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L849" t="n">
-        <v>8500</v>
+        <v>7000</v>
       </c>
       <c r="M849" t="n">
-        <v>8222</v>
+        <v>7000</v>
       </c>
       <c r="N849" t="inlineStr">
         <is>
@@ -61507,7 +61507,7 @@
         </is>
       </c>
       <c r="P849" t="n">
-        <v>457</v>
+        <v>389</v>
       </c>
       <c r="Q849" t="n">
         <v>18</v>
@@ -61533,7 +61533,7 @@
         </is>
       </c>
       <c r="D850" s="2" t="n">
-        <v>44223</v>
+        <v>44321</v>
       </c>
       <c r="E850" t="n">
         <v>13</v>
@@ -61557,16 +61557,16 @@
         </is>
       </c>
       <c r="J850" t="n">
-        <v>490</v>
+        <v>250</v>
       </c>
       <c r="K850" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="L850" t="n">
-        <v>7500</v>
+        <v>6000</v>
       </c>
       <c r="M850" t="n">
-        <v>7214</v>
+        <v>6000</v>
       </c>
       <c r="N850" t="inlineStr">
         <is>
@@ -61579,7 +61579,7 @@
         </is>
       </c>
       <c r="P850" t="n">
-        <v>401</v>
+        <v>333</v>
       </c>
       <c r="Q850" t="n">
         <v>18</v>
@@ -61605,7 +61605,7 @@
         </is>
       </c>
       <c r="D851" s="2" t="n">
-        <v>44223</v>
+        <v>44321</v>
       </c>
       <c r="E851" t="n">
         <v>13</v>
@@ -61629,16 +61629,16 @@
         </is>
       </c>
       <c r="J851" t="n">
-        <v>370</v>
+        <v>300</v>
       </c>
       <c r="K851" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="L851" t="n">
-        <v>5500</v>
+        <v>4500</v>
       </c>
       <c r="M851" t="n">
-        <v>5230</v>
+        <v>4500</v>
       </c>
       <c r="N851" t="inlineStr">
         <is>
@@ -61651,7 +61651,7 @@
         </is>
       </c>
       <c r="P851" t="n">
-        <v>291</v>
+        <v>250</v>
       </c>
       <c r="Q851" t="n">
         <v>18</v>
@@ -61677,7 +61677,7 @@
         </is>
       </c>
       <c r="D852" s="2" t="n">
-        <v>44298</v>
+        <v>44223</v>
       </c>
       <c r="E852" t="n">
         <v>13</v>
@@ -61701,16 +61701,16 @@
         </is>
       </c>
       <c r="J852" t="n">
-        <v>340</v>
+        <v>820</v>
       </c>
       <c r="K852" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="L852" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="M852" t="n">
-        <v>14000</v>
+        <v>12463</v>
       </c>
       <c r="N852" t="inlineStr">
         <is>
@@ -61723,7 +61723,7 @@
         </is>
       </c>
       <c r="P852" t="n">
-        <v>778</v>
+        <v>692</v>
       </c>
       <c r="Q852" t="n">
         <v>18</v>
@@ -61749,7 +61749,7 @@
         </is>
       </c>
       <c r="D853" s="2" t="n">
-        <v>44298</v>
+        <v>44223</v>
       </c>
       <c r="E853" t="n">
         <v>13</v>
@@ -61773,16 +61773,16 @@
         </is>
       </c>
       <c r="J853" t="n">
-        <v>500</v>
+        <v>930</v>
       </c>
       <c r="K853" t="n">
-        <v>12000</v>
+        <v>9500</v>
       </c>
       <c r="L853" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M853" t="n">
-        <v>12000</v>
+        <v>9769</v>
       </c>
       <c r="N853" t="inlineStr">
         <is>
@@ -61795,7 +61795,7 @@
         </is>
       </c>
       <c r="P853" t="n">
-        <v>667</v>
+        <v>543</v>
       </c>
       <c r="Q853" t="n">
         <v>18</v>
@@ -61821,7 +61821,7 @@
         </is>
       </c>
       <c r="D854" s="2" t="n">
-        <v>44298</v>
+        <v>44223</v>
       </c>
       <c r="E854" t="n">
         <v>13</v>
@@ -61845,16 +61845,16 @@
         </is>
       </c>
       <c r="J854" t="n">
-        <v>280</v>
+        <v>570</v>
       </c>
       <c r="K854" t="n">
-        <v>10000</v>
+        <v>7500</v>
       </c>
       <c r="L854" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M854" t="n">
-        <v>10000</v>
+        <v>7807</v>
       </c>
       <c r="N854" t="inlineStr">
         <is>
@@ -61867,7 +61867,7 @@
         </is>
       </c>
       <c r="P854" t="n">
-        <v>556</v>
+        <v>434</v>
       </c>
       <c r="Q854" t="n">
         <v>18</v>
@@ -61893,7 +61893,7 @@
         </is>
       </c>
       <c r="D855" s="2" t="n">
-        <v>44298</v>
+        <v>44223</v>
       </c>
       <c r="E855" t="n">
         <v>13</v>
@@ -61908,25 +61908,25 @@
       </c>
       <c r="H855" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I855" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J855" t="n">
-        <v>160</v>
+        <v>360</v>
       </c>
       <c r="K855" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="L855" t="n">
-        <v>9000</v>
+        <v>8500</v>
       </c>
       <c r="M855" t="n">
-        <v>9000</v>
+        <v>8222</v>
       </c>
       <c r="N855" t="inlineStr">
         <is>
@@ -61935,11 +61935,11 @@
       </c>
       <c r="O855" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P855" t="n">
-        <v>500</v>
+        <v>457</v>
       </c>
       <c r="Q855" t="n">
         <v>18</v>
@@ -61965,7 +61965,7 @@
         </is>
       </c>
       <c r="D856" s="2" t="n">
-        <v>44397</v>
+        <v>44223</v>
       </c>
       <c r="E856" t="n">
         <v>13</v>
@@ -61980,25 +61980,25 @@
       </c>
       <c r="H856" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I856" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J856" t="n">
-        <v>180</v>
+        <v>490</v>
       </c>
       <c r="K856" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="L856" t="n">
-        <v>10000</v>
+        <v>7500</v>
       </c>
       <c r="M856" t="n">
-        <v>10000</v>
+        <v>7214</v>
       </c>
       <c r="N856" t="inlineStr">
         <is>
@@ -62007,11 +62007,11 @@
       </c>
       <c r="O856" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P856" t="n">
-        <v>556</v>
+        <v>401</v>
       </c>
       <c r="Q856" t="n">
         <v>18</v>
@@ -62037,7 +62037,7 @@
         </is>
       </c>
       <c r="D857" s="2" t="n">
-        <v>44397</v>
+        <v>44223</v>
       </c>
       <c r="E857" t="n">
         <v>13</v>
@@ -62052,25 +62052,25 @@
       </c>
       <c r="H857" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I857" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J857" t="n">
-        <v>1070</v>
+        <v>370</v>
       </c>
       <c r="K857" t="n">
-        <v>13000</v>
+        <v>5000</v>
       </c>
       <c r="L857" t="n">
-        <v>13500</v>
+        <v>5500</v>
       </c>
       <c r="M857" t="n">
-        <v>13290</v>
+        <v>5230</v>
       </c>
       <c r="N857" t="inlineStr">
         <is>
@@ -62079,11 +62079,11 @@
       </c>
       <c r="O857" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P857" t="n">
-        <v>738</v>
+        <v>291</v>
       </c>
       <c r="Q857" t="n">
         <v>18</v>
@@ -62109,7 +62109,7 @@
         </is>
       </c>
       <c r="D858" s="2" t="n">
-        <v>44397</v>
+        <v>44298</v>
       </c>
       <c r="E858" t="n">
         <v>13</v>
@@ -62129,20 +62129,20 @@
       </c>
       <c r="I858" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J858" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="K858" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="L858" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="M858" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="N858" t="inlineStr">
         <is>
@@ -62151,11 +62151,11 @@
       </c>
       <c r="O858" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P858" t="n">
-        <v>444</v>
+        <v>778</v>
       </c>
       <c r="Q858" t="n">
         <v>18</v>
@@ -62181,7 +62181,7 @@
         </is>
       </c>
       <c r="D859" s="2" t="n">
-        <v>44397</v>
+        <v>44298</v>
       </c>
       <c r="E859" t="n">
         <v>13</v>
@@ -62205,16 +62205,16 @@
         </is>
       </c>
       <c r="J859" t="n">
-        <v>960</v>
+        <v>500</v>
       </c>
       <c r="K859" t="n">
         <v>12000</v>
       </c>
       <c r="L859" t="n">
-        <v>12500</v>
+        <v>12000</v>
       </c>
       <c r="M859" t="n">
-        <v>12292</v>
+        <v>12000</v>
       </c>
       <c r="N859" t="inlineStr">
         <is>
@@ -62223,11 +62223,11 @@
       </c>
       <c r="O859" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P859" t="n">
-        <v>683</v>
+        <v>667</v>
       </c>
       <c r="Q859" t="n">
         <v>18</v>
@@ -62253,7 +62253,7 @@
         </is>
       </c>
       <c r="D860" s="2" t="n">
-        <v>44397</v>
+        <v>44298</v>
       </c>
       <c r="E860" t="n">
         <v>13</v>
@@ -62277,16 +62277,16 @@
         </is>
       </c>
       <c r="J860" t="n">
-        <v>200</v>
+        <v>280</v>
       </c>
       <c r="K860" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="L860" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="M860" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="N860" t="inlineStr">
         <is>
@@ -62295,11 +62295,11 @@
       </c>
       <c r="O860" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P860" t="n">
-        <v>333</v>
+        <v>556</v>
       </c>
       <c r="Q860" t="n">
         <v>18</v>
@@ -62325,7 +62325,7 @@
         </is>
       </c>
       <c r="D861" s="2" t="n">
-        <v>44397</v>
+        <v>44298</v>
       </c>
       <c r="E861" t="n">
         <v>13</v>
@@ -62345,20 +62345,20 @@
       </c>
       <c r="I861" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J861" t="n">
-        <v>580</v>
+        <v>160</v>
       </c>
       <c r="K861" t="n">
-        <v>9500</v>
+        <v>9000</v>
       </c>
       <c r="L861" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="M861" t="n">
-        <v>9759</v>
+        <v>9000</v>
       </c>
       <c r="N861" t="inlineStr">
         <is>
@@ -62367,11 +62367,11 @@
       </c>
       <c r="O861" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P861" t="n">
-        <v>542</v>
+        <v>500</v>
       </c>
       <c r="Q861" t="n">
         <v>18</v>
@@ -62397,7 +62397,7 @@
         </is>
       </c>
       <c r="D862" s="2" t="n">
-        <v>44414</v>
+        <v>44397</v>
       </c>
       <c r="E862" t="n">
         <v>13</v>
@@ -62421,16 +62421,16 @@
         </is>
       </c>
       <c r="J862" t="n">
-        <v>380</v>
+        <v>180</v>
       </c>
       <c r="K862" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="L862" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M862" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="N862" t="inlineStr">
         <is>
@@ -62443,7 +62443,7 @@
         </is>
       </c>
       <c r="P862" t="n">
-        <v>500</v>
+        <v>556</v>
       </c>
       <c r="Q862" t="n">
         <v>18</v>
@@ -62469,7 +62469,7 @@
         </is>
       </c>
       <c r="D863" s="2" t="n">
-        <v>44414</v>
+        <v>44397</v>
       </c>
       <c r="E863" t="n">
         <v>13</v>
@@ -62493,16 +62493,16 @@
         </is>
       </c>
       <c r="J863" t="n">
-        <v>1720</v>
+        <v>1070</v>
       </c>
       <c r="K863" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="L863" t="n">
-        <v>13000</v>
+        <v>13500</v>
       </c>
       <c r="M863" t="n">
-        <v>11942</v>
+        <v>13290</v>
       </c>
       <c r="N863" t="inlineStr">
         <is>
@@ -62515,7 +62515,7 @@
         </is>
       </c>
       <c r="P863" t="n">
-        <v>663</v>
+        <v>738</v>
       </c>
       <c r="Q863" t="n">
         <v>18</v>
@@ -62541,7 +62541,7 @@
         </is>
       </c>
       <c r="D864" s="2" t="n">
-        <v>44414</v>
+        <v>44397</v>
       </c>
       <c r="E864" t="n">
         <v>13</v>
@@ -62565,16 +62565,16 @@
         </is>
       </c>
       <c r="J864" t="n">
-        <v>520</v>
+        <v>250</v>
       </c>
       <c r="K864" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L864" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M864" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="N864" t="inlineStr">
         <is>
@@ -62587,7 +62587,7 @@
         </is>
       </c>
       <c r="P864" t="n">
-        <v>389</v>
+        <v>444</v>
       </c>
       <c r="Q864" t="n">
         <v>18</v>
@@ -62613,7 +62613,7 @@
         </is>
       </c>
       <c r="D865" s="2" t="n">
-        <v>44414</v>
+        <v>44397</v>
       </c>
       <c r="E865" t="n">
         <v>13</v>
@@ -62637,16 +62637,16 @@
         </is>
       </c>
       <c r="J865" t="n">
-        <v>2190</v>
+        <v>960</v>
       </c>
       <c r="K865" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L865" t="n">
-        <v>11000</v>
+        <v>12500</v>
       </c>
       <c r="M865" t="n">
-        <v>10479</v>
+        <v>12292</v>
       </c>
       <c r="N865" t="inlineStr">
         <is>
@@ -62659,7 +62659,7 @@
         </is>
       </c>
       <c r="P865" t="n">
-        <v>582</v>
+        <v>683</v>
       </c>
       <c r="Q865" t="n">
         <v>18</v>
@@ -62685,7 +62685,7 @@
         </is>
       </c>
       <c r="D866" s="2" t="n">
-        <v>44414</v>
+        <v>44397</v>
       </c>
       <c r="E866" t="n">
         <v>13</v>
@@ -62709,16 +62709,16 @@
         </is>
       </c>
       <c r="J866" t="n">
-        <v>1180</v>
+        <v>200</v>
       </c>
       <c r="K866" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="L866" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="M866" t="n">
-        <v>8335</v>
+        <v>6000</v>
       </c>
       <c r="N866" t="inlineStr">
         <is>
@@ -62727,11 +62727,11 @@
       </c>
       <c r="O866" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P866" t="n">
-        <v>463</v>
+        <v>333</v>
       </c>
       <c r="Q866" t="n">
         <v>18</v>
@@ -62757,7 +62757,7 @@
         </is>
       </c>
       <c r="D867" s="2" t="n">
-        <v>44414</v>
+        <v>44397</v>
       </c>
       <c r="E867" t="n">
         <v>13</v>
@@ -62777,20 +62777,20 @@
       </c>
       <c r="I867" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J867" t="n">
-        <v>650</v>
+        <v>580</v>
       </c>
       <c r="K867" t="n">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="L867" t="n">
-        <v>8500</v>
+        <v>10000</v>
       </c>
       <c r="M867" t="n">
-        <v>8285</v>
+        <v>9759</v>
       </c>
       <c r="N867" t="inlineStr">
         <is>
@@ -62803,7 +62803,7 @@
         </is>
       </c>
       <c r="P867" t="n">
-        <v>460</v>
+        <v>542</v>
       </c>
       <c r="Q867" t="n">
         <v>18</v>
@@ -62829,7 +62829,7 @@
         </is>
       </c>
       <c r="D868" s="2" t="n">
-        <v>44333</v>
+        <v>44414</v>
       </c>
       <c r="E868" t="n">
         <v>13</v>
@@ -62849,20 +62849,20 @@
       </c>
       <c r="I868" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J868" t="n">
-        <v>180</v>
+        <v>380</v>
       </c>
       <c r="K868" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="L868" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="M868" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="N868" t="inlineStr">
         <is>
@@ -62871,11 +62871,11 @@
       </c>
       <c r="O868" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P868" t="n">
-        <v>556</v>
+        <v>500</v>
       </c>
       <c r="Q868" t="n">
         <v>18</v>
@@ -62901,7 +62901,7 @@
         </is>
       </c>
       <c r="D869" s="2" t="n">
-        <v>44333</v>
+        <v>44414</v>
       </c>
       <c r="E869" t="n">
         <v>13</v>
@@ -62921,20 +62921,20 @@
       </c>
       <c r="I869" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J869" t="n">
-        <v>300</v>
+        <v>1720</v>
       </c>
       <c r="K869" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="L869" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="M869" t="n">
-        <v>8000</v>
+        <v>11942</v>
       </c>
       <c r="N869" t="inlineStr">
         <is>
@@ -62943,11 +62943,11 @@
       </c>
       <c r="O869" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P869" t="n">
-        <v>444</v>
+        <v>663</v>
       </c>
       <c r="Q869" t="n">
         <v>18</v>
@@ -62973,7 +62973,7 @@
         </is>
       </c>
       <c r="D870" s="2" t="n">
-        <v>44333</v>
+        <v>44414</v>
       </c>
       <c r="E870" t="n">
         <v>13</v>
@@ -62993,20 +62993,20 @@
       </c>
       <c r="I870" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J870" t="n">
-        <v>340</v>
+        <v>520</v>
       </c>
       <c r="K870" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L870" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M870" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="N870" t="inlineStr">
         <is>
@@ -63015,11 +63015,11 @@
       </c>
       <c r="O870" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P870" t="n">
-        <v>333</v>
+        <v>389</v>
       </c>
       <c r="Q870" t="n">
         <v>18</v>
@@ -63045,7 +63045,7 @@
         </is>
       </c>
       <c r="D871" s="2" t="n">
-        <v>44314</v>
+        <v>44414</v>
       </c>
       <c r="E871" t="n">
         <v>13</v>
@@ -63065,20 +63065,20 @@
       </c>
       <c r="I871" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J871" t="n">
-        <v>830</v>
+        <v>2190</v>
       </c>
       <c r="K871" t="n">
-        <v>9500</v>
+        <v>10000</v>
       </c>
       <c r="L871" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M871" t="n">
-        <v>9771</v>
+        <v>10479</v>
       </c>
       <c r="N871" t="inlineStr">
         <is>
@@ -63087,11 +63087,11 @@
       </c>
       <c r="O871" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P871" t="n">
-        <v>543</v>
+        <v>582</v>
       </c>
       <c r="Q871" t="n">
         <v>18</v>
@@ -63117,7 +63117,7 @@
         </is>
       </c>
       <c r="D872" s="2" t="n">
-        <v>44314</v>
+        <v>44414</v>
       </c>
       <c r="E872" t="n">
         <v>13</v>
@@ -63137,20 +63137,20 @@
       </c>
       <c r="I872" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J872" t="n">
-        <v>1000</v>
+        <v>1180</v>
       </c>
       <c r="K872" t="n">
-        <v>7500</v>
+        <v>7000</v>
       </c>
       <c r="L872" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M872" t="n">
-        <v>7780</v>
+        <v>8335</v>
       </c>
       <c r="N872" t="inlineStr">
         <is>
@@ -63159,11 +63159,11 @@
       </c>
       <c r="O872" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P872" t="n">
-        <v>432</v>
+        <v>463</v>
       </c>
       <c r="Q872" t="n">
         <v>18</v>
@@ -63189,7 +63189,7 @@
         </is>
       </c>
       <c r="D873" s="2" t="n">
-        <v>44314</v>
+        <v>44414</v>
       </c>
       <c r="E873" t="n">
         <v>13</v>
@@ -63209,20 +63209,20 @@
       </c>
       <c r="I873" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J873" t="n">
-        <v>880</v>
+        <v>650</v>
       </c>
       <c r="K873" t="n">
-        <v>4500</v>
+        <v>8000</v>
       </c>
       <c r="L873" t="n">
-        <v>5000</v>
+        <v>8500</v>
       </c>
       <c r="M873" t="n">
-        <v>4773</v>
+        <v>8285</v>
       </c>
       <c r="N873" t="inlineStr">
         <is>
@@ -63231,11 +63231,11 @@
       </c>
       <c r="O873" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P873" t="n">
-        <v>265</v>
+        <v>460</v>
       </c>
       <c r="Q873" t="n">
         <v>18</v>
@@ -63261,7 +63261,7 @@
         </is>
       </c>
       <c r="D874" s="2" t="n">
-        <v>44392</v>
+        <v>44333</v>
       </c>
       <c r="E874" t="n">
         <v>13</v>
@@ -63281,20 +63281,20 @@
       </c>
       <c r="I874" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J874" t="n">
         <v>180</v>
       </c>
       <c r="K874" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="L874" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M874" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="N874" t="inlineStr">
         <is>
@@ -63303,11 +63303,11 @@
       </c>
       <c r="O874" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P874" t="n">
-        <v>500</v>
+        <v>556</v>
       </c>
       <c r="Q874" t="n">
         <v>18</v>
@@ -63333,7 +63333,7 @@
         </is>
       </c>
       <c r="D875" s="2" t="n">
-        <v>44392</v>
+        <v>44333</v>
       </c>
       <c r="E875" t="n">
         <v>13</v>
@@ -63353,20 +63353,20 @@
       </c>
       <c r="I875" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J875" t="n">
-        <v>1040</v>
+        <v>300</v>
       </c>
       <c r="K875" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="L875" t="n">
-        <v>16000</v>
+        <v>8000</v>
       </c>
       <c r="M875" t="n">
-        <v>15538</v>
+        <v>8000</v>
       </c>
       <c r="N875" t="inlineStr">
         <is>
@@ -63375,11 +63375,11 @@
       </c>
       <c r="O875" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P875" t="n">
-        <v>863</v>
+        <v>444</v>
       </c>
       <c r="Q875" t="n">
         <v>18</v>
@@ -63405,7 +63405,7 @@
         </is>
       </c>
       <c r="D876" s="2" t="n">
-        <v>44392</v>
+        <v>44333</v>
       </c>
       <c r="E876" t="n">
         <v>13</v>
@@ -63425,20 +63425,20 @@
       </c>
       <c r="I876" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J876" t="n">
-        <v>620</v>
+        <v>340</v>
       </c>
       <c r="K876" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L876" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="M876" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="N876" t="inlineStr">
         <is>
@@ -63447,11 +63447,11 @@
       </c>
       <c r="O876" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P876" t="n">
-        <v>444</v>
+        <v>333</v>
       </c>
       <c r="Q876" t="n">
         <v>18</v>
@@ -63477,7 +63477,7 @@
         </is>
       </c>
       <c r="D877" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E877" t="n">
         <v>13</v>
@@ -63497,20 +63497,20 @@
       </c>
       <c r="I877" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J877" t="n">
-        <v>1160</v>
+        <v>830</v>
       </c>
       <c r="K877" t="n">
-        <v>13000</v>
+        <v>9500</v>
       </c>
       <c r="L877" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="M877" t="n">
-        <v>13517</v>
+        <v>9771</v>
       </c>
       <c r="N877" t="inlineStr">
         <is>
@@ -63519,11 +63519,11 @@
       </c>
       <c r="O877" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P877" t="n">
-        <v>751</v>
+        <v>543</v>
       </c>
       <c r="Q877" t="n">
         <v>18</v>
@@ -63549,7 +63549,7 @@
         </is>
       </c>
       <c r="D878" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E878" t="n">
         <v>13</v>
@@ -63569,20 +63569,20 @@
       </c>
       <c r="I878" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J878" t="n">
-        <v>270</v>
+        <v>1000</v>
       </c>
       <c r="K878" t="n">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="L878" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M878" t="n">
-        <v>6000</v>
+        <v>7780</v>
       </c>
       <c r="N878" t="inlineStr">
         <is>
@@ -63595,7 +63595,7 @@
         </is>
       </c>
       <c r="P878" t="n">
-        <v>333</v>
+        <v>432</v>
       </c>
       <c r="Q878" t="n">
         <v>18</v>
@@ -63621,7 +63621,7 @@
         </is>
       </c>
       <c r="D879" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E879" t="n">
         <v>13</v>
@@ -63645,16 +63645,16 @@
         </is>
       </c>
       <c r="J879" t="n">
-        <v>1100</v>
+        <v>880</v>
       </c>
       <c r="K879" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="L879" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="M879" t="n">
-        <v>7473</v>
+        <v>4773</v>
       </c>
       <c r="N879" t="inlineStr">
         <is>
@@ -63663,11 +63663,11 @@
       </c>
       <c r="O879" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P879" t="n">
-        <v>415</v>
+        <v>265</v>
       </c>
       <c r="Q879" t="n">
         <v>18</v>
@@ -63693,7 +63693,7 @@
         </is>
       </c>
       <c r="D880" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E880" t="n">
         <v>13</v>
@@ -63717,16 +63717,16 @@
         </is>
       </c>
       <c r="J880" t="n">
-        <v>390</v>
+        <v>180</v>
       </c>
       <c r="K880" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="L880" t="n">
         <v>9000</v>
       </c>
       <c r="M880" t="n">
-        <v>8462</v>
+        <v>9000</v>
       </c>
       <c r="N880" t="inlineStr">
         <is>
@@ -63739,7 +63739,7 @@
         </is>
       </c>
       <c r="P880" t="n">
-        <v>470</v>
+        <v>500</v>
       </c>
       <c r="Q880" t="n">
         <v>18</v>
@@ -63765,7 +63765,7 @@
         </is>
       </c>
       <c r="D881" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E881" t="n">
         <v>13</v>
@@ -63792,13 +63792,13 @@
         <v>1040</v>
       </c>
       <c r="K881" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="L881" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="M881" t="n">
-        <v>11538</v>
+        <v>15538</v>
       </c>
       <c r="N881" t="inlineStr">
         <is>
@@ -63811,7 +63811,7 @@
         </is>
       </c>
       <c r="P881" t="n">
-        <v>641</v>
+        <v>863</v>
       </c>
       <c r="Q881" t="n">
         <v>18</v>
@@ -63837,7 +63837,7 @@
         </is>
       </c>
       <c r="D882" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E882" t="n">
         <v>13</v>
@@ -63861,16 +63861,16 @@
         </is>
       </c>
       <c r="J882" t="n">
-        <v>450</v>
+        <v>620</v>
       </c>
       <c r="K882" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L882" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M882" t="n">
-        <v>6444</v>
+        <v>8000</v>
       </c>
       <c r="N882" t="inlineStr">
         <is>
@@ -63883,7 +63883,7 @@
         </is>
       </c>
       <c r="P882" t="n">
-        <v>358</v>
+        <v>444</v>
       </c>
       <c r="Q882" t="n">
         <v>18</v>
@@ -63909,7 +63909,7 @@
         </is>
       </c>
       <c r="D883" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E883" t="n">
         <v>13</v>
@@ -63933,16 +63933,16 @@
         </is>
       </c>
       <c r="J883" t="n">
-        <v>1030</v>
+        <v>1160</v>
       </c>
       <c r="K883" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="L883" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="M883" t="n">
-        <v>9466</v>
+        <v>13517</v>
       </c>
       <c r="N883" t="inlineStr">
         <is>
@@ -63955,7 +63955,7 @@
         </is>
       </c>
       <c r="P883" t="n">
-        <v>526</v>
+        <v>751</v>
       </c>
       <c r="Q883" t="n">
         <v>18</v>
@@ -63981,7 +63981,7 @@
         </is>
       </c>
       <c r="D884" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E884" t="n">
         <v>13</v>
@@ -64005,16 +64005,16 @@
         </is>
       </c>
       <c r="J884" t="n">
-        <v>440</v>
+        <v>270</v>
       </c>
       <c r="K884" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="L884" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M884" t="n">
-        <v>4591</v>
+        <v>6000</v>
       </c>
       <c r="N884" t="inlineStr">
         <is>
@@ -64027,7 +64027,7 @@
         </is>
       </c>
       <c r="P884" t="n">
-        <v>255</v>
+        <v>333</v>
       </c>
       <c r="Q884" t="n">
         <v>18</v>
@@ -64053,7 +64053,7 @@
         </is>
       </c>
       <c r="D885" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E885" t="n">
         <v>13</v>
@@ -64077,7 +64077,7 @@
         </is>
       </c>
       <c r="J885" t="n">
-        <v>820</v>
+        <v>1100</v>
       </c>
       <c r="K885" t="n">
         <v>7000</v>
@@ -64086,7 +64086,7 @@
         <v>8000</v>
       </c>
       <c r="M885" t="n">
-        <v>7537</v>
+        <v>7473</v>
       </c>
       <c r="N885" t="inlineStr">
         <is>
@@ -64099,7 +64099,7 @@
         </is>
       </c>
       <c r="P885" t="n">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="Q885" t="n">
         <v>18</v>
@@ -64125,7 +64125,7 @@
         </is>
       </c>
       <c r="D886" s="2" t="n">
-        <v>44390</v>
+        <v>44425</v>
       </c>
       <c r="E886" t="n">
         <v>13</v>
@@ -64149,20 +64149,20 @@
         </is>
       </c>
       <c r="J886" t="n">
-        <v>120</v>
+        <v>390</v>
       </c>
       <c r="K886" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="L886" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="M886" t="n">
-        <v>15000</v>
+        <v>8462</v>
       </c>
       <c r="N886" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O886" t="inlineStr">
@@ -64171,7 +64171,7 @@
         </is>
       </c>
       <c r="P886" t="n">
-        <v>833</v>
+        <v>470</v>
       </c>
       <c r="Q886" t="n">
         <v>18</v>
@@ -64197,7 +64197,7 @@
         </is>
       </c>
       <c r="D887" s="2" t="n">
-        <v>44390</v>
+        <v>44425</v>
       </c>
       <c r="E887" t="n">
         <v>13</v>
@@ -64221,20 +64221,20 @@
         </is>
       </c>
       <c r="J887" t="n">
-        <v>630</v>
+        <v>1040</v>
       </c>
       <c r="K887" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="L887" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="M887" t="n">
-        <v>16556</v>
+        <v>11538</v>
       </c>
       <c r="N887" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O887" t="inlineStr">
@@ -64243,7 +64243,7 @@
         </is>
       </c>
       <c r="P887" t="n">
-        <v>920</v>
+        <v>641</v>
       </c>
       <c r="Q887" t="n">
         <v>18</v>
@@ -64269,7 +64269,7 @@
         </is>
       </c>
       <c r="D888" s="2" t="n">
-        <v>44390</v>
+        <v>44425</v>
       </c>
       <c r="E888" t="n">
         <v>13</v>
@@ -64293,20 +64293,20 @@
         </is>
       </c>
       <c r="J888" t="n">
-        <v>250</v>
+        <v>450</v>
       </c>
       <c r="K888" t="n">
-        <v>13000</v>
+        <v>6000</v>
       </c>
       <c r="L888" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="M888" t="n">
-        <v>13000</v>
+        <v>6444</v>
       </c>
       <c r="N888" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O888" t="inlineStr">
@@ -64315,7 +64315,7 @@
         </is>
       </c>
       <c r="P888" t="n">
-        <v>722</v>
+        <v>358</v>
       </c>
       <c r="Q888" t="n">
         <v>18</v>
@@ -64341,7 +64341,7 @@
         </is>
       </c>
       <c r="D889" s="2" t="n">
-        <v>44390</v>
+        <v>44425</v>
       </c>
       <c r="E889" t="n">
         <v>13</v>
@@ -64365,20 +64365,20 @@
         </is>
       </c>
       <c r="J889" t="n">
-        <v>980</v>
+        <v>1030</v>
       </c>
       <c r="K889" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="L889" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="M889" t="n">
-        <v>14592</v>
+        <v>9466</v>
       </c>
       <c r="N889" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O889" t="inlineStr">
@@ -64387,7 +64387,7 @@
         </is>
       </c>
       <c r="P889" t="n">
-        <v>811</v>
+        <v>526</v>
       </c>
       <c r="Q889" t="n">
         <v>18</v>
@@ -64413,7 +64413,7 @@
         </is>
       </c>
       <c r="D890" s="2" t="n">
-        <v>44390</v>
+        <v>44425</v>
       </c>
       <c r="E890" t="n">
         <v>13</v>
@@ -64437,29 +64437,29 @@
         </is>
       </c>
       <c r="J890" t="n">
-        <v>810</v>
+        <v>440</v>
       </c>
       <c r="K890" t="n">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="L890" t="n">
-        <v>11000</v>
+        <v>5000</v>
       </c>
       <c r="M890" t="n">
-        <v>10519</v>
+        <v>4591</v>
       </c>
       <c r="N890" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O890" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P890" t="n">
-        <v>584</v>
+        <v>255</v>
       </c>
       <c r="Q890" t="n">
         <v>18</v>
@@ -64485,7 +64485,7 @@
         </is>
       </c>
       <c r="D891" s="2" t="n">
-        <v>44187</v>
+        <v>44425</v>
       </c>
       <c r="E891" t="n">
         <v>13</v>
@@ -64505,20 +64505,20 @@
       </c>
       <c r="I891" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J891" t="n">
-        <v>1080</v>
+        <v>820</v>
       </c>
       <c r="K891" t="n">
-        <v>20000</v>
+        <v>7000</v>
       </c>
       <c r="L891" t="n">
-        <v>21000</v>
+        <v>8000</v>
       </c>
       <c r="M891" t="n">
-        <v>20556</v>
+        <v>7537</v>
       </c>
       <c r="N891" t="inlineStr">
         <is>
@@ -64527,11 +64527,11 @@
       </c>
       <c r="O891" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P891" t="n">
-        <v>1142</v>
+        <v>419</v>
       </c>
       <c r="Q891" t="n">
         <v>18</v>
@@ -64557,7 +64557,7 @@
         </is>
       </c>
       <c r="D892" s="2" t="n">
-        <v>44187</v>
+        <v>44390</v>
       </c>
       <c r="E892" t="n">
         <v>13</v>
@@ -64577,24 +64577,24 @@
       </c>
       <c r="I892" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J892" t="n">
-        <v>1350</v>
+        <v>120</v>
       </c>
       <c r="K892" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="L892" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="M892" t="n">
-        <v>17481</v>
+        <v>15000</v>
       </c>
       <c r="N892" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O892" t="inlineStr">
@@ -64603,7 +64603,7 @@
         </is>
       </c>
       <c r="P892" t="n">
-        <v>971</v>
+        <v>833</v>
       </c>
       <c r="Q892" t="n">
         <v>18</v>
@@ -64629,7 +64629,7 @@
         </is>
       </c>
       <c r="D893" s="2" t="n">
-        <v>44187</v>
+        <v>44390</v>
       </c>
       <c r="E893" t="n">
         <v>13</v>
@@ -64649,33 +64649,33 @@
       </c>
       <c r="I893" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J893" t="n">
-        <v>1150</v>
+        <v>630</v>
       </c>
       <c r="K893" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="L893" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="M893" t="n">
-        <v>12522</v>
+        <v>16556</v>
       </c>
       <c r="N893" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O893" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P893" t="n">
-        <v>696</v>
+        <v>920</v>
       </c>
       <c r="Q893" t="n">
         <v>18</v>
@@ -64701,7 +64701,7 @@
         </is>
       </c>
       <c r="D894" s="2" t="n">
-        <v>44466</v>
+        <v>44390</v>
       </c>
       <c r="E894" t="n">
         <v>13</v>
@@ -64721,33 +64721,33 @@
       </c>
       <c r="I894" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J894" t="n">
-        <v>280</v>
+        <v>250</v>
       </c>
       <c r="K894" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="L894" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="M894" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="N894" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O894" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P894" t="n">
-        <v>778</v>
+        <v>722</v>
       </c>
       <c r="Q894" t="n">
         <v>18</v>
@@ -64773,7 +64773,7 @@
         </is>
       </c>
       <c r="D895" s="2" t="n">
-        <v>44466</v>
+        <v>44390</v>
       </c>
       <c r="E895" t="n">
         <v>13</v>
@@ -64797,20 +64797,20 @@
         </is>
       </c>
       <c r="J895" t="n">
-        <v>450</v>
+        <v>980</v>
       </c>
       <c r="K895" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L895" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="M895" t="n">
-        <v>12000</v>
+        <v>14592</v>
       </c>
       <c r="N895" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O895" t="inlineStr">
@@ -64819,7 +64819,7 @@
         </is>
       </c>
       <c r="P895" t="n">
-        <v>667</v>
+        <v>811</v>
       </c>
       <c r="Q895" t="n">
         <v>18</v>
@@ -64845,7 +64845,7 @@
         </is>
       </c>
       <c r="D896" s="2" t="n">
-        <v>44466</v>
+        <v>44390</v>
       </c>
       <c r="E896" t="n">
         <v>13</v>
@@ -64869,20 +64869,20 @@
         </is>
       </c>
       <c r="J896" t="n">
-        <v>500</v>
+        <v>810</v>
       </c>
       <c r="K896" t="n">
         <v>10000</v>
       </c>
       <c r="L896" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M896" t="n">
-        <v>10000</v>
+        <v>10519</v>
       </c>
       <c r="N896" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O896" t="inlineStr">
@@ -64891,7 +64891,7 @@
         </is>
       </c>
       <c r="P896" t="n">
-        <v>556</v>
+        <v>584</v>
       </c>
       <c r="Q896" t="n">
         <v>18</v>
@@ -64917,7 +64917,7 @@
         </is>
       </c>
       <c r="D897" s="2" t="n">
-        <v>44270</v>
+        <v>44187</v>
       </c>
       <c r="E897" t="n">
         <v>13</v>
@@ -64941,16 +64941,16 @@
         </is>
       </c>
       <c r="J897" t="n">
-        <v>520</v>
+        <v>1080</v>
       </c>
       <c r="K897" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="L897" t="n">
-        <v>13000</v>
+        <v>21000</v>
       </c>
       <c r="M897" t="n">
-        <v>12615</v>
+        <v>20556</v>
       </c>
       <c r="N897" t="inlineStr">
         <is>
@@ -64963,7 +64963,7 @@
         </is>
       </c>
       <c r="P897" t="n">
-        <v>701</v>
+        <v>1142</v>
       </c>
       <c r="Q897" t="n">
         <v>18</v>
@@ -64989,7 +64989,7 @@
         </is>
       </c>
       <c r="D898" s="2" t="n">
-        <v>44270</v>
+        <v>44187</v>
       </c>
       <c r="E898" t="n">
         <v>13</v>
@@ -65013,16 +65013,16 @@
         </is>
       </c>
       <c r="J898" t="n">
-        <v>500</v>
+        <v>1350</v>
       </c>
       <c r="K898" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="L898" t="n">
-        <v>11000</v>
+        <v>18000</v>
       </c>
       <c r="M898" t="n">
-        <v>10560</v>
+        <v>17481</v>
       </c>
       <c r="N898" t="inlineStr">
         <is>
@@ -65035,7 +65035,7 @@
         </is>
       </c>
       <c r="P898" t="n">
-        <v>587</v>
+        <v>971</v>
       </c>
       <c r="Q898" t="n">
         <v>18</v>
@@ -65061,7 +65061,7 @@
         </is>
       </c>
       <c r="D899" s="2" t="n">
-        <v>44270</v>
+        <v>44187</v>
       </c>
       <c r="E899" t="n">
         <v>13</v>
@@ -65085,16 +65085,16 @@
         </is>
       </c>
       <c r="J899" t="n">
-        <v>310</v>
+        <v>1150</v>
       </c>
       <c r="K899" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="L899" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="M899" t="n">
-        <v>7548</v>
+        <v>12522</v>
       </c>
       <c r="N899" t="inlineStr">
         <is>
@@ -65107,7 +65107,7 @@
         </is>
       </c>
       <c r="P899" t="n">
-        <v>419</v>
+        <v>696</v>
       </c>
       <c r="Q899" t="n">
         <v>18</v>
@@ -65133,7 +65133,7 @@
         </is>
       </c>
       <c r="D900" s="2" t="n">
-        <v>44250</v>
+        <v>44466</v>
       </c>
       <c r="E900" t="n">
         <v>13</v>
@@ -65157,16 +65157,16 @@
         </is>
       </c>
       <c r="J900" t="n">
-        <v>530</v>
+        <v>280</v>
       </c>
       <c r="K900" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L900" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="M900" t="n">
-        <v>12528</v>
+        <v>14000</v>
       </c>
       <c r="N900" t="inlineStr">
         <is>
@@ -65175,11 +65175,11 @@
       </c>
       <c r="O900" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P900" t="n">
-        <v>696</v>
+        <v>778</v>
       </c>
       <c r="Q900" t="n">
         <v>18</v>
@@ -65205,7 +65205,7 @@
         </is>
       </c>
       <c r="D901" s="2" t="n">
-        <v>44250</v>
+        <v>44466</v>
       </c>
       <c r="E901" t="n">
         <v>13</v>
@@ -65229,16 +65229,16 @@
         </is>
       </c>
       <c r="J901" t="n">
-        <v>580</v>
+        <v>450</v>
       </c>
       <c r="K901" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="L901" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M901" t="n">
-        <v>9483</v>
+        <v>12000</v>
       </c>
       <c r="N901" t="inlineStr">
         <is>
@@ -65247,11 +65247,11 @@
       </c>
       <c r="O901" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P901" t="n">
-        <v>527</v>
+        <v>667</v>
       </c>
       <c r="Q901" t="n">
         <v>18</v>
@@ -65277,7 +65277,7 @@
         </is>
       </c>
       <c r="D902" s="2" t="n">
-        <v>44250</v>
+        <v>44466</v>
       </c>
       <c r="E902" t="n">
         <v>13</v>
@@ -65301,16 +65301,16 @@
         </is>
       </c>
       <c r="J902" t="n">
-        <v>440</v>
+        <v>500</v>
       </c>
       <c r="K902" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="L902" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M902" t="n">
-        <v>6545</v>
+        <v>10000</v>
       </c>
       <c r="N902" t="inlineStr">
         <is>
@@ -65319,11 +65319,11 @@
       </c>
       <c r="O902" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P902" t="n">
-        <v>364</v>
+        <v>556</v>
       </c>
       <c r="Q902" t="n">
         <v>18</v>
@@ -65349,7 +65349,7 @@
         </is>
       </c>
       <c r="D903" s="2" t="n">
-        <v>44250</v>
+        <v>44270</v>
       </c>
       <c r="E903" t="n">
         <v>13</v>
@@ -65364,7 +65364,7 @@
       </c>
       <c r="H903" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I903" t="inlineStr">
@@ -65373,16 +65373,16 @@
         </is>
       </c>
       <c r="J903" t="n">
-        <v>190</v>
+        <v>520</v>
       </c>
       <c r="K903" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="L903" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="M903" t="n">
-        <v>8000</v>
+        <v>12615</v>
       </c>
       <c r="N903" t="inlineStr">
         <is>
@@ -65391,11 +65391,11 @@
       </c>
       <c r="O903" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P903" t="n">
-        <v>444</v>
+        <v>701</v>
       </c>
       <c r="Q903" t="n">
         <v>18</v>
@@ -65421,7 +65421,7 @@
         </is>
       </c>
       <c r="D904" s="2" t="n">
-        <v>44250</v>
+        <v>44270</v>
       </c>
       <c r="E904" t="n">
         <v>13</v>
@@ -65436,25 +65436,25 @@
       </c>
       <c r="H904" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I904" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J904" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="K904" t="n">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="L904" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="M904" t="n">
-        <v>5067</v>
+        <v>10560</v>
       </c>
       <c r="N904" t="inlineStr">
         <is>
@@ -65463,11 +65463,11 @@
       </c>
       <c r="O904" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P904" t="n">
-        <v>282</v>
+        <v>587</v>
       </c>
       <c r="Q904" t="n">
         <v>18</v>
@@ -65493,7 +65493,7 @@
         </is>
       </c>
       <c r="D905" s="2" t="n">
-        <v>44438</v>
+        <v>44270</v>
       </c>
       <c r="E905" t="n">
         <v>13</v>
@@ -65513,20 +65513,20 @@
       </c>
       <c r="I905" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J905" t="n">
-        <v>530</v>
+        <v>310</v>
       </c>
       <c r="K905" t="n">
-        <v>7500</v>
+        <v>7000</v>
       </c>
       <c r="L905" t="n">
         <v>8000</v>
       </c>
       <c r="M905" t="n">
-        <v>7764</v>
+        <v>7548</v>
       </c>
       <c r="N905" t="inlineStr">
         <is>
@@ -65539,7 +65539,7 @@
         </is>
       </c>
       <c r="P905" t="n">
-        <v>431</v>
+        <v>419</v>
       </c>
       <c r="Q905" t="n">
         <v>18</v>
@@ -65565,7 +65565,7 @@
         </is>
       </c>
       <c r="D906" s="2" t="n">
-        <v>44438</v>
+        <v>44250</v>
       </c>
       <c r="E906" t="n">
         <v>13</v>
@@ -65585,20 +65585,20 @@
       </c>
       <c r="I906" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J906" t="n">
-        <v>630</v>
+        <v>530</v>
       </c>
       <c r="K906" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="L906" t="n">
-        <v>6500</v>
+        <v>13000</v>
       </c>
       <c r="M906" t="n">
-        <v>6222</v>
+        <v>12528</v>
       </c>
       <c r="N906" t="inlineStr">
         <is>
@@ -65611,7 +65611,7 @@
         </is>
       </c>
       <c r="P906" t="n">
-        <v>346</v>
+        <v>696</v>
       </c>
       <c r="Q906" t="n">
         <v>18</v>
@@ -65637,7 +65637,7 @@
         </is>
       </c>
       <c r="D907" s="2" t="n">
-        <v>44438</v>
+        <v>44250</v>
       </c>
       <c r="E907" t="n">
         <v>13</v>
@@ -65657,20 +65657,20 @@
       </c>
       <c r="I907" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J907" t="n">
-        <v>560</v>
+        <v>580</v>
       </c>
       <c r="K907" t="n">
-        <v>4500</v>
+        <v>9000</v>
       </c>
       <c r="L907" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="M907" t="n">
-        <v>4804</v>
+        <v>9483</v>
       </c>
       <c r="N907" t="inlineStr">
         <is>
@@ -65683,7 +65683,7 @@
         </is>
       </c>
       <c r="P907" t="n">
-        <v>267</v>
+        <v>527</v>
       </c>
       <c r="Q907" t="n">
         <v>18</v>
@@ -65709,7 +65709,7 @@
         </is>
       </c>
       <c r="D908" s="2" t="n">
-        <v>44201</v>
+        <v>44250</v>
       </c>
       <c r="E908" t="n">
         <v>13</v>
@@ -65729,20 +65729,20 @@
       </c>
       <c r="I908" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J908" t="n">
-        <v>720</v>
+        <v>440</v>
       </c>
       <c r="K908" t="n">
-        <v>17000</v>
+        <v>6000</v>
       </c>
       <c r="L908" t="n">
-        <v>18000</v>
+        <v>7000</v>
       </c>
       <c r="M908" t="n">
-        <v>17444</v>
+        <v>6545</v>
       </c>
       <c r="N908" t="inlineStr">
         <is>
@@ -65755,7 +65755,7 @@
         </is>
       </c>
       <c r="P908" t="n">
-        <v>969</v>
+        <v>364</v>
       </c>
       <c r="Q908" t="n">
         <v>18</v>
@@ -65781,7 +65781,7 @@
         </is>
       </c>
       <c r="D909" s="2" t="n">
-        <v>44201</v>
+        <v>44250</v>
       </c>
       <c r="E909" t="n">
         <v>13</v>
@@ -65796,25 +65796,25 @@
       </c>
       <c r="H909" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I909" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J909" t="n">
-        <v>580</v>
+        <v>190</v>
       </c>
       <c r="K909" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="L909" t="n">
-        <v>16000</v>
+        <v>8000</v>
       </c>
       <c r="M909" t="n">
-        <v>15483</v>
+        <v>8000</v>
       </c>
       <c r="N909" t="inlineStr">
         <is>
@@ -65823,11 +65823,11 @@
       </c>
       <c r="O909" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P909" t="n">
-        <v>860</v>
+        <v>444</v>
       </c>
       <c r="Q909" t="n">
         <v>18</v>
@@ -65853,7 +65853,7 @@
         </is>
       </c>
       <c r="D910" s="2" t="n">
-        <v>44201</v>
+        <v>44250</v>
       </c>
       <c r="E910" t="n">
         <v>13</v>
@@ -65868,7 +65868,7 @@
       </c>
       <c r="H910" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I910" t="inlineStr">
@@ -65877,16 +65877,16 @@
         </is>
       </c>
       <c r="J910" t="n">
-        <v>460</v>
+        <v>450</v>
       </c>
       <c r="K910" t="n">
-        <v>12000</v>
+        <v>4000</v>
       </c>
       <c r="L910" t="n">
-        <v>13000</v>
+        <v>6000</v>
       </c>
       <c r="M910" t="n">
-        <v>12457</v>
+        <v>5067</v>
       </c>
       <c r="N910" t="inlineStr">
         <is>
@@ -65895,11 +65895,11 @@
       </c>
       <c r="O910" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P910" t="n">
-        <v>692</v>
+        <v>282</v>
       </c>
       <c r="Q910" t="n">
         <v>18</v>
@@ -65925,7 +65925,7 @@
         </is>
       </c>
       <c r="D911" s="2" t="n">
-        <v>44461</v>
+        <v>44438</v>
       </c>
       <c r="E911" t="n">
         <v>13</v>
@@ -65949,16 +65949,16 @@
         </is>
       </c>
       <c r="J911" t="n">
-        <v>880</v>
+        <v>530</v>
       </c>
       <c r="K911" t="n">
-        <v>22000</v>
+        <v>7500</v>
       </c>
       <c r="L911" t="n">
-        <v>23000</v>
+        <v>8000</v>
       </c>
       <c r="M911" t="n">
-        <v>22466</v>
+        <v>7764</v>
       </c>
       <c r="N911" t="inlineStr">
         <is>
@@ -65967,11 +65967,11 @@
       </c>
       <c r="O911" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P911" t="n">
-        <v>1248</v>
+        <v>431</v>
       </c>
       <c r="Q911" t="n">
         <v>18</v>
@@ -65997,7 +65997,7 @@
         </is>
       </c>
       <c r="D912" s="2" t="n">
-        <v>44461</v>
+        <v>44438</v>
       </c>
       <c r="E912" t="n">
         <v>13</v>
@@ -66021,16 +66021,16 @@
         </is>
       </c>
       <c r="J912" t="n">
-        <v>790</v>
+        <v>630</v>
       </c>
       <c r="K912" t="n">
-        <v>19000</v>
+        <v>6000</v>
       </c>
       <c r="L912" t="n">
-        <v>20000</v>
+        <v>6500</v>
       </c>
       <c r="M912" t="n">
-        <v>19519</v>
+        <v>6222</v>
       </c>
       <c r="N912" t="inlineStr">
         <is>
@@ -66039,11 +66039,11 @@
       </c>
       <c r="O912" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P912" t="n">
-        <v>1084</v>
+        <v>346</v>
       </c>
       <c r="Q912" t="n">
         <v>18</v>
@@ -66069,7 +66069,7 @@
         </is>
       </c>
       <c r="D913" s="2" t="n">
-        <v>44461</v>
+        <v>44438</v>
       </c>
       <c r="E913" t="n">
         <v>13</v>
@@ -66093,16 +66093,16 @@
         </is>
       </c>
       <c r="J913" t="n">
-        <v>780</v>
+        <v>560</v>
       </c>
       <c r="K913" t="n">
-        <v>17000</v>
+        <v>4500</v>
       </c>
       <c r="L913" t="n">
-        <v>18000</v>
+        <v>5000</v>
       </c>
       <c r="M913" t="n">
-        <v>17487</v>
+        <v>4804</v>
       </c>
       <c r="N913" t="inlineStr">
         <is>
@@ -66111,11 +66111,11 @@
       </c>
       <c r="O913" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P913" t="n">
-        <v>972</v>
+        <v>267</v>
       </c>
       <c r="Q913" t="n">
         <v>18</v>
@@ -66141,7 +66141,7 @@
         </is>
       </c>
       <c r="D914" s="2" t="n">
-        <v>44193</v>
+        <v>44201</v>
       </c>
       <c r="E914" t="n">
         <v>13</v>
@@ -66165,16 +66165,16 @@
         </is>
       </c>
       <c r="J914" t="n">
-        <v>400</v>
+        <v>720</v>
       </c>
       <c r="K914" t="n">
+        <v>17000</v>
+      </c>
+      <c r="L914" t="n">
         <v>18000</v>
       </c>
-      <c r="L914" t="n">
-        <v>19000</v>
-      </c>
       <c r="M914" t="n">
-        <v>18550</v>
+        <v>17444</v>
       </c>
       <c r="N914" t="inlineStr">
         <is>
@@ -66183,11 +66183,11 @@
       </c>
       <c r="O914" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P914" t="n">
-        <v>1031</v>
+        <v>969</v>
       </c>
       <c r="Q914" t="n">
         <v>18</v>
@@ -66213,7 +66213,7 @@
         </is>
       </c>
       <c r="D915" s="2" t="n">
-        <v>44193</v>
+        <v>44201</v>
       </c>
       <c r="E915" t="n">
         <v>13</v>
@@ -66237,16 +66237,16 @@
         </is>
       </c>
       <c r="J915" t="n">
-        <v>500</v>
+        <v>580</v>
       </c>
       <c r="K915" t="n">
+        <v>15000</v>
+      </c>
+      <c r="L915" t="n">
         <v>16000</v>
       </c>
-      <c r="L915" t="n">
-        <v>17000</v>
-      </c>
       <c r="M915" t="n">
-        <v>16560</v>
+        <v>15483</v>
       </c>
       <c r="N915" t="inlineStr">
         <is>
@@ -66255,11 +66255,11 @@
       </c>
       <c r="O915" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P915" t="n">
-        <v>920</v>
+        <v>860</v>
       </c>
       <c r="Q915" t="n">
         <v>18</v>
@@ -66285,7 +66285,7 @@
         </is>
       </c>
       <c r="D916" s="2" t="n">
-        <v>44193</v>
+        <v>44201</v>
       </c>
       <c r="E916" t="n">
         <v>13</v>
@@ -66309,16 +66309,16 @@
         </is>
       </c>
       <c r="J916" t="n">
-        <v>520</v>
+        <v>460</v>
       </c>
       <c r="K916" t="n">
+        <v>12000</v>
+      </c>
+      <c r="L916" t="n">
         <v>13000</v>
       </c>
-      <c r="L916" t="n">
-        <v>14000</v>
-      </c>
       <c r="M916" t="n">
-        <v>13577</v>
+        <v>12457</v>
       </c>
       <c r="N916" t="inlineStr">
         <is>
@@ -66327,11 +66327,11 @@
       </c>
       <c r="O916" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P916" t="n">
-        <v>754</v>
+        <v>692</v>
       </c>
       <c r="Q916" t="n">
         <v>18</v>
@@ -66357,7 +66357,7 @@
         </is>
       </c>
       <c r="D917" s="2" t="n">
-        <v>44286</v>
+        <v>44461</v>
       </c>
       <c r="E917" t="n">
         <v>13</v>
@@ -66381,16 +66381,16 @@
         </is>
       </c>
       <c r="J917" t="n">
-        <v>780</v>
+        <v>880</v>
       </c>
       <c r="K917" t="n">
-        <v>13000</v>
+        <v>22000</v>
       </c>
       <c r="L917" t="n">
-        <v>14000</v>
+        <v>23000</v>
       </c>
       <c r="M917" t="n">
-        <v>13513</v>
+        <v>22466</v>
       </c>
       <c r="N917" t="inlineStr">
         <is>
@@ -66399,11 +66399,11 @@
       </c>
       <c r="O917" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P917" t="n">
-        <v>751</v>
+        <v>1248</v>
       </c>
       <c r="Q917" t="n">
         <v>18</v>
@@ -66429,7 +66429,7 @@
         </is>
       </c>
       <c r="D918" s="2" t="n">
-        <v>44286</v>
+        <v>44461</v>
       </c>
       <c r="E918" t="n">
         <v>13</v>
@@ -66453,16 +66453,16 @@
         </is>
       </c>
       <c r="J918" t="n">
-        <v>1040</v>
+        <v>790</v>
       </c>
       <c r="K918" t="n">
-        <v>10000</v>
+        <v>19000</v>
       </c>
       <c r="L918" t="n">
-        <v>11000</v>
+        <v>20000</v>
       </c>
       <c r="M918" t="n">
-        <v>10462</v>
+        <v>19519</v>
       </c>
       <c r="N918" t="inlineStr">
         <is>
@@ -66471,11 +66471,11 @@
       </c>
       <c r="O918" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P918" t="n">
-        <v>581</v>
+        <v>1084</v>
       </c>
       <c r="Q918" t="n">
         <v>18</v>
@@ -66501,7 +66501,7 @@
         </is>
       </c>
       <c r="D919" s="2" t="n">
-        <v>44286</v>
+        <v>44461</v>
       </c>
       <c r="E919" t="n">
         <v>13</v>
@@ -66525,16 +66525,16 @@
         </is>
       </c>
       <c r="J919" t="n">
-        <v>550</v>
+        <v>780</v>
       </c>
       <c r="K919" t="n">
-        <v>7000</v>
+        <v>17000</v>
       </c>
       <c r="L919" t="n">
-        <v>8000</v>
+        <v>18000</v>
       </c>
       <c r="M919" t="n">
-        <v>7545</v>
+        <v>17487</v>
       </c>
       <c r="N919" t="inlineStr">
         <is>
@@ -66543,11 +66543,11 @@
       </c>
       <c r="O919" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P919" t="n">
-        <v>419</v>
+        <v>972</v>
       </c>
       <c r="Q919" t="n">
         <v>18</v>
@@ -66573,7 +66573,7 @@
         </is>
       </c>
       <c r="D920" s="2" t="n">
-        <v>44286</v>
+        <v>44193</v>
       </c>
       <c r="E920" t="n">
         <v>13</v>
@@ -66588,7 +66588,7 @@
       </c>
       <c r="H920" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I920" t="inlineStr">
@@ -66597,16 +66597,16 @@
         </is>
       </c>
       <c r="J920" t="n">
-        <v>580</v>
+        <v>400</v>
       </c>
       <c r="K920" t="n">
-        <v>7000</v>
+        <v>18000</v>
       </c>
       <c r="L920" t="n">
-        <v>8000</v>
+        <v>19000</v>
       </c>
       <c r="M920" t="n">
-        <v>7517</v>
+        <v>18550</v>
       </c>
       <c r="N920" t="inlineStr">
         <is>
@@ -66615,11 +66615,11 @@
       </c>
       <c r="O920" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P920" t="n">
-        <v>418</v>
+        <v>1031</v>
       </c>
       <c r="Q920" t="n">
         <v>18</v>
@@ -66645,7 +66645,7 @@
         </is>
       </c>
       <c r="D921" s="2" t="n">
-        <v>44286</v>
+        <v>44193</v>
       </c>
       <c r="E921" t="n">
         <v>13</v>
@@ -66660,7 +66660,7 @@
       </c>
       <c r="H921" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I921" t="inlineStr">
@@ -66669,16 +66669,16 @@
         </is>
       </c>
       <c r="J921" t="n">
-        <v>550</v>
+        <v>500</v>
       </c>
       <c r="K921" t="n">
-        <v>5000</v>
+        <v>16000</v>
       </c>
       <c r="L921" t="n">
-        <v>6000</v>
+        <v>17000</v>
       </c>
       <c r="M921" t="n">
-        <v>5455</v>
+        <v>16560</v>
       </c>
       <c r="N921" t="inlineStr">
         <is>
@@ -66687,11 +66687,11 @@
       </c>
       <c r="O921" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P921" t="n">
-        <v>303</v>
+        <v>920</v>
       </c>
       <c r="Q921" t="n">
         <v>18</v>
@@ -66717,7 +66717,7 @@
         </is>
       </c>
       <c r="D922" s="2" t="n">
-        <v>44286</v>
+        <v>44193</v>
       </c>
       <c r="E922" t="n">
         <v>13</v>
@@ -66732,7 +66732,7 @@
       </c>
       <c r="H922" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I922" t="inlineStr">
@@ -66741,16 +66741,16 @@
         </is>
       </c>
       <c r="J922" t="n">
-        <v>440</v>
+        <v>520</v>
       </c>
       <c r="K922" t="n">
-        <v>3000</v>
+        <v>13000</v>
       </c>
       <c r="L922" t="n">
-        <v>4000</v>
+        <v>14000</v>
       </c>
       <c r="M922" t="n">
-        <v>3591</v>
+        <v>13577</v>
       </c>
       <c r="N922" t="inlineStr">
         <is>
@@ -66759,11 +66759,11 @@
       </c>
       <c r="O922" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P922" t="n">
-        <v>200</v>
+        <v>754</v>
       </c>
       <c r="Q922" t="n">
         <v>18</v>
@@ -66789,7 +66789,7 @@
         </is>
       </c>
       <c r="D923" s="2" t="n">
-        <v>44389</v>
+        <v>44286</v>
       </c>
       <c r="E923" t="n">
         <v>13</v>
@@ -66813,16 +66813,16 @@
         </is>
       </c>
       <c r="J923" t="n">
-        <v>460</v>
+        <v>780</v>
       </c>
       <c r="K923" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="L923" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="M923" t="n">
-        <v>18000</v>
+        <v>13513</v>
       </c>
       <c r="N923" t="inlineStr">
         <is>
@@ -66831,11 +66831,11 @@
       </c>
       <c r="O923" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P923" t="n">
-        <v>1000</v>
+        <v>751</v>
       </c>
       <c r="Q923" t="n">
         <v>18</v>
@@ -66861,7 +66861,7 @@
         </is>
       </c>
       <c r="D924" s="2" t="n">
-        <v>44389</v>
+        <v>44286</v>
       </c>
       <c r="E924" t="n">
         <v>13</v>
@@ -66881,36 +66881,36 @@
       </c>
       <c r="I924" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J924" t="n">
-        <v>400</v>
+        <v>1040</v>
       </c>
       <c r="K924" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="L924" t="n">
-        <v>20000</v>
+        <v>11000</v>
       </c>
       <c r="M924" t="n">
-        <v>20000</v>
+        <v>10462</v>
       </c>
       <c r="N924" t="inlineStr">
         <is>
-          <t>$/bandeja 20 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O924" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P924" t="n">
-        <v>1000</v>
+        <v>581</v>
       </c>
       <c r="Q924" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R924" t="inlineStr">
         <is>
@@ -66933,7 +66933,7 @@
         </is>
       </c>
       <c r="D925" s="2" t="n">
-        <v>44389</v>
+        <v>44286</v>
       </c>
       <c r="E925" t="n">
         <v>13</v>
@@ -66953,20 +66953,20 @@
       </c>
       <c r="I925" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J925" t="n">
-        <v>490</v>
+        <v>550</v>
       </c>
       <c r="K925" t="n">
-        <v>16000</v>
+        <v>7000</v>
       </c>
       <c r="L925" t="n">
-        <v>16000</v>
+        <v>8000</v>
       </c>
       <c r="M925" t="n">
-        <v>16000</v>
+        <v>7545</v>
       </c>
       <c r="N925" t="inlineStr">
         <is>
@@ -66975,11 +66975,11 @@
       </c>
       <c r="O925" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P925" t="n">
-        <v>889</v>
+        <v>419</v>
       </c>
       <c r="Q925" t="n">
         <v>18</v>
@@ -67005,7 +67005,7 @@
         </is>
       </c>
       <c r="D926" s="2" t="n">
-        <v>44389</v>
+        <v>44286</v>
       </c>
       <c r="E926" t="n">
         <v>13</v>
@@ -67020,41 +67020,41 @@
       </c>
       <c r="H926" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I926" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J926" t="n">
-        <v>480</v>
+        <v>580</v>
       </c>
       <c r="K926" t="n">
-        <v>18000</v>
+        <v>7000</v>
       </c>
       <c r="L926" t="n">
-        <v>18000</v>
+        <v>8000</v>
       </c>
       <c r="M926" t="n">
-        <v>18000</v>
+        <v>7517</v>
       </c>
       <c r="N926" t="inlineStr">
         <is>
-          <t>$/bandeja 20 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O926" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P926" t="n">
-        <v>900</v>
+        <v>418</v>
       </c>
       <c r="Q926" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R926" t="inlineStr">
         <is>
@@ -67077,7 +67077,7 @@
         </is>
       </c>
       <c r="D927" s="2" t="n">
-        <v>44389</v>
+        <v>44286</v>
       </c>
       <c r="E927" t="n">
         <v>13</v>
@@ -67092,25 +67092,25 @@
       </c>
       <c r="H927" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I927" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J927" t="n">
-        <v>310</v>
+        <v>550</v>
       </c>
       <c r="K927" t="n">
-        <v>14000</v>
+        <v>5000</v>
       </c>
       <c r="L927" t="n">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="M927" t="n">
-        <v>14000</v>
+        <v>5455</v>
       </c>
       <c r="N927" t="inlineStr">
         <is>
@@ -67119,11 +67119,11 @@
       </c>
       <c r="O927" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P927" t="n">
-        <v>778</v>
+        <v>303</v>
       </c>
       <c r="Q927" t="n">
         <v>18</v>
@@ -67149,7 +67149,7 @@
         </is>
       </c>
       <c r="D928" s="2" t="n">
-        <v>44312</v>
+        <v>44286</v>
       </c>
       <c r="E928" t="n">
         <v>13</v>
@@ -67164,25 +67164,25 @@
       </c>
       <c r="H928" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I928" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J928" t="n">
-        <v>480</v>
+        <v>440</v>
       </c>
       <c r="K928" t="n">
-        <v>12000</v>
+        <v>3000</v>
       </c>
       <c r="L928" t="n">
-        <v>12000</v>
+        <v>4000</v>
       </c>
       <c r="M928" t="n">
-        <v>12000</v>
+        <v>3591</v>
       </c>
       <c r="N928" t="inlineStr">
         <is>
@@ -67191,11 +67191,11 @@
       </c>
       <c r="O928" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P928" t="n">
-        <v>667</v>
+        <v>200</v>
       </c>
       <c r="Q928" t="n">
         <v>18</v>
@@ -67221,7 +67221,7 @@
         </is>
       </c>
       <c r="D929" s="2" t="n">
-        <v>44312</v>
+        <v>44389</v>
       </c>
       <c r="E929" t="n">
         <v>13</v>
@@ -67241,20 +67241,20 @@
       </c>
       <c r="I929" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J929" t="n">
-        <v>560</v>
+        <v>460</v>
       </c>
       <c r="K929" t="n">
-        <v>9000</v>
+        <v>18000</v>
       </c>
       <c r="L929" t="n">
-        <v>9000</v>
+        <v>18000</v>
       </c>
       <c r="M929" t="n">
-        <v>9000</v>
+        <v>18000</v>
       </c>
       <c r="N929" t="inlineStr">
         <is>
@@ -67263,11 +67263,11 @@
       </c>
       <c r="O929" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P929" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="Q929" t="n">
         <v>18</v>
@@ -67293,7 +67293,7 @@
         </is>
       </c>
       <c r="D930" s="2" t="n">
-        <v>44312</v>
+        <v>44389</v>
       </c>
       <c r="E930" t="n">
         <v>13</v>
@@ -67313,36 +67313,36 @@
       </c>
       <c r="I930" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J930" t="n">
-        <v>440</v>
+        <v>400</v>
       </c>
       <c r="K930" t="n">
-        <v>7000</v>
+        <v>20000</v>
       </c>
       <c r="L930" t="n">
-        <v>7000</v>
+        <v>20000</v>
       </c>
       <c r="M930" t="n">
-        <v>7000</v>
+        <v>20000</v>
       </c>
       <c r="N930" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 20 kilos</t>
         </is>
       </c>
       <c r="O930" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P930" t="n">
-        <v>389</v>
+        <v>1000</v>
       </c>
       <c r="Q930" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R930" t="inlineStr">
         <is>
@@ -67365,7 +67365,7 @@
         </is>
       </c>
       <c r="D931" s="2" t="n">
-        <v>44326</v>
+        <v>44389</v>
       </c>
       <c r="E931" t="n">
         <v>13</v>
@@ -67385,20 +67385,20 @@
       </c>
       <c r="I931" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J931" t="n">
-        <v>480</v>
+        <v>490</v>
       </c>
       <c r="K931" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="L931" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="M931" t="n">
-        <v>12625</v>
+        <v>16000</v>
       </c>
       <c r="N931" t="inlineStr">
         <is>
@@ -67407,11 +67407,11 @@
       </c>
       <c r="O931" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P931" t="n">
-        <v>701</v>
+        <v>889</v>
       </c>
       <c r="Q931" t="n">
         <v>18</v>
@@ -67437,7 +67437,7 @@
         </is>
       </c>
       <c r="D932" s="2" t="n">
-        <v>44326</v>
+        <v>44389</v>
       </c>
       <c r="E932" t="n">
         <v>13</v>
@@ -67461,32 +67461,32 @@
         </is>
       </c>
       <c r="J932" t="n">
-        <v>470</v>
+        <v>480</v>
       </c>
       <c r="K932" t="n">
-        <v>9000</v>
+        <v>18000</v>
       </c>
       <c r="L932" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="M932" t="n">
-        <v>9617</v>
+        <v>18000</v>
       </c>
       <c r="N932" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 20 kilos</t>
         </is>
       </c>
       <c r="O932" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P932" t="n">
-        <v>534</v>
+        <v>900</v>
       </c>
       <c r="Q932" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R932" t="inlineStr">
         <is>
@@ -67509,7 +67509,7 @@
         </is>
       </c>
       <c r="D933" s="2" t="n">
-        <v>44326</v>
+        <v>44389</v>
       </c>
       <c r="E933" t="n">
         <v>13</v>
@@ -67533,16 +67533,16 @@
         </is>
       </c>
       <c r="J933" t="n">
-        <v>290</v>
+        <v>310</v>
       </c>
       <c r="K933" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="L933" t="n">
-        <v>7500</v>
+        <v>14000</v>
       </c>
       <c r="M933" t="n">
-        <v>7259</v>
+        <v>14000</v>
       </c>
       <c r="N933" t="inlineStr">
         <is>
@@ -67551,11 +67551,11 @@
       </c>
       <c r="O933" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P933" t="n">
-        <v>403</v>
+        <v>778</v>
       </c>
       <c r="Q933" t="n">
         <v>18</v>
@@ -67581,7 +67581,7 @@
         </is>
       </c>
       <c r="D934" s="2" t="n">
-        <v>44432</v>
+        <v>44312</v>
       </c>
       <c r="E934" t="n">
         <v>13</v>
@@ -67605,16 +67605,16 @@
         </is>
       </c>
       <c r="J934" t="n">
-        <v>1180</v>
+        <v>480</v>
       </c>
       <c r="K934" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="L934" t="n">
         <v>12000</v>
       </c>
       <c r="M934" t="n">
-        <v>11525</v>
+        <v>12000</v>
       </c>
       <c r="N934" t="inlineStr">
         <is>
@@ -67623,11 +67623,11 @@
       </c>
       <c r="O934" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P934" t="n">
-        <v>640</v>
+        <v>667</v>
       </c>
       <c r="Q934" t="n">
         <v>18</v>
@@ -67653,7 +67653,7 @@
         </is>
       </c>
       <c r="D935" s="2" t="n">
-        <v>44432</v>
+        <v>44312</v>
       </c>
       <c r="E935" t="n">
         <v>13</v>
@@ -67677,16 +67677,16 @@
         </is>
       </c>
       <c r="J935" t="n">
-        <v>820</v>
+        <v>560</v>
       </c>
       <c r="K935" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="L935" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="M935" t="n">
-        <v>5463</v>
+        <v>9000</v>
       </c>
       <c r="N935" t="inlineStr">
         <is>
@@ -67699,7 +67699,7 @@
         </is>
       </c>
       <c r="P935" t="n">
-        <v>304</v>
+        <v>500</v>
       </c>
       <c r="Q935" t="n">
         <v>18</v>
@@ -67725,7 +67725,7 @@
         </is>
       </c>
       <c r="D936" s="2" t="n">
-        <v>44432</v>
+        <v>44312</v>
       </c>
       <c r="E936" t="n">
         <v>13</v>
@@ -67745,20 +67745,20 @@
       </c>
       <c r="I936" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J936" t="n">
-        <v>1220</v>
+        <v>440</v>
       </c>
       <c r="K936" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="L936" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="M936" t="n">
-        <v>9541</v>
+        <v>7000</v>
       </c>
       <c r="N936" t="inlineStr">
         <is>
@@ -67767,11 +67767,11 @@
       </c>
       <c r="O936" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P936" t="n">
-        <v>530</v>
+        <v>389</v>
       </c>
       <c r="Q936" t="n">
         <v>18</v>
@@ -67797,7 +67797,7 @@
         </is>
       </c>
       <c r="D937" s="2" t="n">
-        <v>44432</v>
+        <v>44326</v>
       </c>
       <c r="E937" t="n">
         <v>13</v>
@@ -67817,20 +67817,20 @@
       </c>
       <c r="I937" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J937" t="n">
-        <v>450</v>
+        <v>480</v>
       </c>
       <c r="K937" t="n">
-        <v>3000</v>
+        <v>12000</v>
       </c>
       <c r="L937" t="n">
-        <v>4000</v>
+        <v>13000</v>
       </c>
       <c r="M937" t="n">
-        <v>3600</v>
+        <v>12625</v>
       </c>
       <c r="N937" t="inlineStr">
         <is>
@@ -67843,7 +67843,7 @@
         </is>
       </c>
       <c r="P937" t="n">
-        <v>200</v>
+        <v>701</v>
       </c>
       <c r="Q937" t="n">
         <v>18</v>
@@ -67869,58 +67869,490 @@
         </is>
       </c>
       <c r="D938" s="2" t="n">
+        <v>44326</v>
+      </c>
+      <c r="E938" t="n">
+        <v>13</v>
+      </c>
+      <c r="F938" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G938" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H938" t="inlineStr">
+        <is>
+          <t>Larga vida</t>
+        </is>
+      </c>
+      <c r="I938" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J938" t="n">
+        <v>470</v>
+      </c>
+      <c r="K938" t="n">
+        <v>9000</v>
+      </c>
+      <c r="L938" t="n">
+        <v>10000</v>
+      </c>
+      <c r="M938" t="n">
+        <v>9617</v>
+      </c>
+      <c r="N938" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O938" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="P938" t="n">
+        <v>534</v>
+      </c>
+      <c r="Q938" t="n">
+        <v>18</v>
+      </c>
+      <c r="R938" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="939">
+      <c r="A939" t="n">
+        <v>12</v>
+      </c>
+      <c r="B939" t="inlineStr">
+        <is>
+          <t>Mapocho Venta Directa de Santiago</t>
+        </is>
+      </c>
+      <c r="C939" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D939" s="2" t="n">
+        <v>44326</v>
+      </c>
+      <c r="E939" t="n">
+        <v>13</v>
+      </c>
+      <c r="F939" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G939" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H939" t="inlineStr">
+        <is>
+          <t>Larga vida</t>
+        </is>
+      </c>
+      <c r="I939" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J939" t="n">
+        <v>290</v>
+      </c>
+      <c r="K939" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L939" t="n">
+        <v>7500</v>
+      </c>
+      <c r="M939" t="n">
+        <v>7259</v>
+      </c>
+      <c r="N939" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O939" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="P939" t="n">
+        <v>403</v>
+      </c>
+      <c r="Q939" t="n">
+        <v>18</v>
+      </c>
+      <c r="R939" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="940">
+      <c r="A940" t="n">
+        <v>12</v>
+      </c>
+      <c r="B940" t="inlineStr">
+        <is>
+          <t>Mapocho Venta Directa de Santiago</t>
+        </is>
+      </c>
+      <c r="C940" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D940" s="2" t="n">
         <v>44432</v>
       </c>
-      <c r="E938" t="n">
-        <v>13</v>
-      </c>
-      <c r="F938" t="n">
-        <v>100112020</v>
-      </c>
-      <c r="G938" t="inlineStr">
-        <is>
-          <t>Tomate</t>
-        </is>
-      </c>
-      <c r="H938" t="inlineStr">
-        <is>
-          <t>Larga vida</t>
-        </is>
-      </c>
-      <c r="I938" t="inlineStr">
+      <c r="E940" t="n">
+        <v>13</v>
+      </c>
+      <c r="F940" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G940" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H940" t="inlineStr">
+        <is>
+          <t>Larga vida</t>
+        </is>
+      </c>
+      <c r="I940" t="inlineStr">
+        <is>
+          <t>Extra</t>
+        </is>
+      </c>
+      <c r="J940" t="n">
+        <v>1180</v>
+      </c>
+      <c r="K940" t="n">
+        <v>11000</v>
+      </c>
+      <c r="L940" t="n">
+        <v>12000</v>
+      </c>
+      <c r="M940" t="n">
+        <v>11525</v>
+      </c>
+      <c r="N940" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O940" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P940" t="n">
+        <v>640</v>
+      </c>
+      <c r="Q940" t="n">
+        <v>18</v>
+      </c>
+      <c r="R940" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="941">
+      <c r="A941" t="n">
+        <v>12</v>
+      </c>
+      <c r="B941" t="inlineStr">
+        <is>
+          <t>Mapocho Venta Directa de Santiago</t>
+        </is>
+      </c>
+      <c r="C941" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D941" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E941" t="n">
+        <v>13</v>
+      </c>
+      <c r="F941" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G941" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H941" t="inlineStr">
+        <is>
+          <t>Larga vida</t>
+        </is>
+      </c>
+      <c r="I941" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J941" t="n">
+        <v>820</v>
+      </c>
+      <c r="K941" t="n">
+        <v>5000</v>
+      </c>
+      <c r="L941" t="n">
+        <v>6000</v>
+      </c>
+      <c r="M941" t="n">
+        <v>5463</v>
+      </c>
+      <c r="N941" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O941" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="P941" t="n">
+        <v>304</v>
+      </c>
+      <c r="Q941" t="n">
+        <v>18</v>
+      </c>
+      <c r="R941" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="942">
+      <c r="A942" t="n">
+        <v>12</v>
+      </c>
+      <c r="B942" t="inlineStr">
+        <is>
+          <t>Mapocho Venta Directa de Santiago</t>
+        </is>
+      </c>
+      <c r="C942" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D942" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E942" t="n">
+        <v>13</v>
+      </c>
+      <c r="F942" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G942" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H942" t="inlineStr">
+        <is>
+          <t>Larga vida</t>
+        </is>
+      </c>
+      <c r="I942" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J942" t="n">
+        <v>1220</v>
+      </c>
+      <c r="K942" t="n">
+        <v>9000</v>
+      </c>
+      <c r="L942" t="n">
+        <v>10000</v>
+      </c>
+      <c r="M942" t="n">
+        <v>9541</v>
+      </c>
+      <c r="N942" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O942" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P942" t="n">
+        <v>530</v>
+      </c>
+      <c r="Q942" t="n">
+        <v>18</v>
+      </c>
+      <c r="R942" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="943">
+      <c r="A943" t="n">
+        <v>12</v>
+      </c>
+      <c r="B943" t="inlineStr">
+        <is>
+          <t>Mapocho Venta Directa de Santiago</t>
+        </is>
+      </c>
+      <c r="C943" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D943" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E943" t="n">
+        <v>13</v>
+      </c>
+      <c r="F943" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G943" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H943" t="inlineStr">
+        <is>
+          <t>Larga vida</t>
+        </is>
+      </c>
+      <c r="I943" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="J938" t="n">
+      <c r="J943" t="n">
+        <v>450</v>
+      </c>
+      <c r="K943" t="n">
+        <v>3000</v>
+      </c>
+      <c r="L943" t="n">
+        <v>4000</v>
+      </c>
+      <c r="M943" t="n">
+        <v>3600</v>
+      </c>
+      <c r="N943" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O943" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="P943" t="n">
+        <v>200</v>
+      </c>
+      <c r="Q943" t="n">
+        <v>18</v>
+      </c>
+      <c r="R943" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="944">
+      <c r="A944" t="n">
+        <v>12</v>
+      </c>
+      <c r="B944" t="inlineStr">
+        <is>
+          <t>Mapocho Venta Directa de Santiago</t>
+        </is>
+      </c>
+      <c r="C944" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D944" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E944" t="n">
+        <v>13</v>
+      </c>
+      <c r="F944" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G944" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H944" t="inlineStr">
+        <is>
+          <t>Larga vida</t>
+        </is>
+      </c>
+      <c r="I944" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J944" t="n">
         <v>840</v>
       </c>
-      <c r="K938" t="n">
+      <c r="K944" t="n">
         <v>6000</v>
       </c>
-      <c r="L938" t="n">
+      <c r="L944" t="n">
         <v>7000</v>
       </c>
-      <c r="M938" t="n">
+      <c r="M944" t="n">
         <v>6548</v>
       </c>
-      <c r="N938" t="inlineStr">
-        <is>
-          <t>$/bandeja 18 kilos</t>
-        </is>
-      </c>
-      <c r="O938" t="inlineStr">
+      <c r="N944" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O944" t="inlineStr">
         <is>
           <t>Región de Arica y Parinacota</t>
         </is>
       </c>
-      <c r="P938" t="n">
+      <c r="P944" t="n">
         <v>364</v>
       </c>
-      <c r="Q938" t="n">
-        <v>18</v>
-      </c>
-      <c r="R938" t="inlineStr">
+      <c r="Q944" t="n">
+        <v>18</v>
+      </c>
+      <c r="R944" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Tomate.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Tomate.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R980"/>
+  <dimension ref="A1:R987"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -60381,7 +60381,7 @@
         </is>
       </c>
       <c r="D834" s="2" t="n">
-        <v>44481</v>
+        <v>44504</v>
       </c>
       <c r="E834" t="n">
         <v>13</v>
@@ -60405,16 +60405,16 @@
         </is>
       </c>
       <c r="J834" t="n">
-        <v>430</v>
+        <v>940</v>
       </c>
       <c r="K834" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="L834" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="M834" t="n">
-        <v>16500</v>
+        <v>19468</v>
       </c>
       <c r="N834" t="inlineStr">
         <is>
@@ -60423,11 +60423,11 @@
       </c>
       <c r="O834" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P834" t="n">
-        <v>917</v>
+        <v>1082</v>
       </c>
       <c r="Q834" t="n">
         <v>18</v>
@@ -60453,7 +60453,7 @@
         </is>
       </c>
       <c r="D835" s="2" t="n">
-        <v>44481</v>
+        <v>44504</v>
       </c>
       <c r="E835" t="n">
         <v>13</v>
@@ -60473,20 +60473,20 @@
       </c>
       <c r="I835" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J835" t="n">
-        <v>520</v>
+        <v>600</v>
       </c>
       <c r="K835" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="L835" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="M835" t="n">
-        <v>14500</v>
+        <v>17000</v>
       </c>
       <c r="N835" t="inlineStr">
         <is>
@@ -60499,7 +60499,7 @@
         </is>
       </c>
       <c r="P835" t="n">
-        <v>806</v>
+        <v>944</v>
       </c>
       <c r="Q835" t="n">
         <v>18</v>
@@ -60525,7 +60525,7 @@
         </is>
       </c>
       <c r="D836" s="2" t="n">
-        <v>44481</v>
+        <v>44504</v>
       </c>
       <c r="E836" t="n">
         <v>13</v>
@@ -60545,20 +60545,20 @@
       </c>
       <c r="I836" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J836" t="n">
-        <v>250</v>
+        <v>1210</v>
       </c>
       <c r="K836" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="L836" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="M836" t="n">
-        <v>12500</v>
+        <v>17504</v>
       </c>
       <c r="N836" t="inlineStr">
         <is>
@@ -60567,11 +60567,11 @@
       </c>
       <c r="O836" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P836" t="n">
-        <v>694</v>
+        <v>972</v>
       </c>
       <c r="Q836" t="n">
         <v>18</v>
@@ -60597,7 +60597,7 @@
         </is>
       </c>
       <c r="D837" s="2" t="n">
-        <v>44384</v>
+        <v>44504</v>
       </c>
       <c r="E837" t="n">
         <v>13</v>
@@ -60617,20 +60617,20 @@
       </c>
       <c r="I837" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J837" t="n">
-        <v>320</v>
+        <v>710</v>
       </c>
       <c r="K837" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="L837" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M837" t="n">
-        <v>12500</v>
+        <v>15000</v>
       </c>
       <c r="N837" t="inlineStr">
         <is>
@@ -60643,7 +60643,7 @@
         </is>
       </c>
       <c r="P837" t="n">
-        <v>694</v>
+        <v>833</v>
       </c>
       <c r="Q837" t="n">
         <v>18</v>
@@ -60669,7 +60669,7 @@
         </is>
       </c>
       <c r="D838" s="2" t="n">
-        <v>44384</v>
+        <v>44504</v>
       </c>
       <c r="E838" t="n">
         <v>13</v>
@@ -60689,20 +60689,20 @@
       </c>
       <c r="I838" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J838" t="n">
-        <v>450</v>
+        <v>980</v>
       </c>
       <c r="K838" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="L838" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="M838" t="n">
-        <v>10500</v>
+        <v>15388</v>
       </c>
       <c r="N838" t="inlineStr">
         <is>
@@ -60711,11 +60711,11 @@
       </c>
       <c r="O838" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P838" t="n">
-        <v>583</v>
+        <v>855</v>
       </c>
       <c r="Q838" t="n">
         <v>18</v>
@@ -60741,7 +60741,7 @@
         </is>
       </c>
       <c r="D839" s="2" t="n">
-        <v>44384</v>
+        <v>44504</v>
       </c>
       <c r="E839" t="n">
         <v>13</v>
@@ -60765,16 +60765,16 @@
         </is>
       </c>
       <c r="J839" t="n">
-        <v>160</v>
+        <v>650</v>
       </c>
       <c r="K839" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="L839" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="M839" t="n">
-        <v>8500</v>
+        <v>12000</v>
       </c>
       <c r="N839" t="inlineStr">
         <is>
@@ -60787,7 +60787,7 @@
         </is>
       </c>
       <c r="P839" t="n">
-        <v>472</v>
+        <v>667</v>
       </c>
       <c r="Q839" t="n">
         <v>18</v>
@@ -60813,7 +60813,7 @@
         </is>
       </c>
       <c r="D840" s="2" t="n">
-        <v>44384</v>
+        <v>44504</v>
       </c>
       <c r="E840" t="n">
         <v>13</v>
@@ -60837,16 +60837,16 @@
         </is>
       </c>
       <c r="J840" t="n">
-        <v>150</v>
+        <v>450</v>
       </c>
       <c r="K840" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="L840" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M840" t="n">
-        <v>6500</v>
+        <v>10000</v>
       </c>
       <c r="N840" t="inlineStr">
         <is>
@@ -60859,7 +60859,7 @@
         </is>
       </c>
       <c r="P840" t="n">
-        <v>361</v>
+        <v>556</v>
       </c>
       <c r="Q840" t="n">
         <v>18</v>
@@ -60885,7 +60885,7 @@
         </is>
       </c>
       <c r="D841" s="2" t="n">
-        <v>44246</v>
+        <v>44481</v>
       </c>
       <c r="E841" t="n">
         <v>13</v>
@@ -60909,16 +60909,16 @@
         </is>
       </c>
       <c r="J841" t="n">
-        <v>1130</v>
+        <v>430</v>
       </c>
       <c r="K841" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="L841" t="n">
-        <v>12500</v>
+        <v>17000</v>
       </c>
       <c r="M841" t="n">
-        <v>12288</v>
+        <v>16500</v>
       </c>
       <c r="N841" t="inlineStr">
         <is>
@@ -60927,11 +60927,11 @@
       </c>
       <c r="O841" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P841" t="n">
-        <v>683</v>
+        <v>917</v>
       </c>
       <c r="Q841" t="n">
         <v>18</v>
@@ -60957,7 +60957,7 @@
         </is>
       </c>
       <c r="D842" s="2" t="n">
-        <v>44246</v>
+        <v>44481</v>
       </c>
       <c r="E842" t="n">
         <v>13</v>
@@ -60981,16 +60981,16 @@
         </is>
       </c>
       <c r="J842" t="n">
-        <v>1200</v>
+        <v>520</v>
       </c>
       <c r="K842" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="L842" t="n">
-        <v>10500</v>
+        <v>15000</v>
       </c>
       <c r="M842" t="n">
-        <v>10292</v>
+        <v>14500</v>
       </c>
       <c r="N842" t="inlineStr">
         <is>
@@ -60999,11 +60999,11 @@
       </c>
       <c r="O842" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P842" t="n">
-        <v>572</v>
+        <v>806</v>
       </c>
       <c r="Q842" t="n">
         <v>18</v>
@@ -61029,7 +61029,7 @@
         </is>
       </c>
       <c r="D843" s="2" t="n">
-        <v>44246</v>
+        <v>44481</v>
       </c>
       <c r="E843" t="n">
         <v>13</v>
@@ -61053,16 +61053,16 @@
         </is>
       </c>
       <c r="J843" t="n">
-        <v>360</v>
+        <v>250</v>
       </c>
       <c r="K843" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="L843" t="n">
-        <v>7500</v>
+        <v>13000</v>
       </c>
       <c r="M843" t="n">
-        <v>7333</v>
+        <v>12500</v>
       </c>
       <c r="N843" t="inlineStr">
         <is>
@@ -61071,11 +61071,11 @@
       </c>
       <c r="O843" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P843" t="n">
-        <v>407</v>
+        <v>694</v>
       </c>
       <c r="Q843" t="n">
         <v>18</v>
@@ -61101,7 +61101,7 @@
         </is>
       </c>
       <c r="D844" s="2" t="n">
-        <v>44487</v>
+        <v>44384</v>
       </c>
       <c r="E844" t="n">
         <v>13</v>
@@ -61125,16 +61125,16 @@
         </is>
       </c>
       <c r="J844" t="n">
-        <v>890</v>
+        <v>320</v>
       </c>
       <c r="K844" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="L844" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="M844" t="n">
-        <v>16539</v>
+        <v>12500</v>
       </c>
       <c r="N844" t="inlineStr">
         <is>
@@ -61147,7 +61147,7 @@
         </is>
       </c>
       <c r="P844" t="n">
-        <v>919</v>
+        <v>694</v>
       </c>
       <c r="Q844" t="n">
         <v>18</v>
@@ -61173,7 +61173,7 @@
         </is>
       </c>
       <c r="D845" s="2" t="n">
-        <v>44487</v>
+        <v>44384</v>
       </c>
       <c r="E845" t="n">
         <v>13</v>
@@ -61197,16 +61197,16 @@
         </is>
       </c>
       <c r="J845" t="n">
-        <v>940</v>
+        <v>450</v>
       </c>
       <c r="K845" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="L845" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="M845" t="n">
-        <v>14468</v>
+        <v>10500</v>
       </c>
       <c r="N845" t="inlineStr">
         <is>
@@ -61219,7 +61219,7 @@
         </is>
       </c>
       <c r="P845" t="n">
-        <v>804</v>
+        <v>583</v>
       </c>
       <c r="Q845" t="n">
         <v>18</v>
@@ -61245,7 +61245,7 @@
         </is>
       </c>
       <c r="D846" s="2" t="n">
-        <v>44487</v>
+        <v>44384</v>
       </c>
       <c r="E846" t="n">
         <v>13</v>
@@ -61269,16 +61269,16 @@
         </is>
       </c>
       <c r="J846" t="n">
-        <v>740</v>
+        <v>160</v>
       </c>
       <c r="K846" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="L846" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="M846" t="n">
-        <v>10446</v>
+        <v>8500</v>
       </c>
       <c r="N846" t="inlineStr">
         <is>
@@ -61291,7 +61291,7 @@
         </is>
       </c>
       <c r="P846" t="n">
-        <v>580</v>
+        <v>472</v>
       </c>
       <c r="Q846" t="n">
         <v>18</v>
@@ -61317,7 +61317,7 @@
         </is>
       </c>
       <c r="D847" s="2" t="n">
-        <v>44425</v>
+        <v>44384</v>
       </c>
       <c r="E847" t="n">
         <v>13</v>
@@ -61337,20 +61337,20 @@
       </c>
       <c r="I847" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J847" t="n">
-        <v>390</v>
+        <v>150</v>
       </c>
       <c r="K847" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L847" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M847" t="n">
-        <v>8462</v>
+        <v>6500</v>
       </c>
       <c r="N847" t="inlineStr">
         <is>
@@ -61359,11 +61359,11 @@
       </c>
       <c r="O847" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P847" t="n">
-        <v>470</v>
+        <v>361</v>
       </c>
       <c r="Q847" t="n">
         <v>18</v>
@@ -61389,7 +61389,7 @@
         </is>
       </c>
       <c r="D848" s="2" t="n">
-        <v>44425</v>
+        <v>44246</v>
       </c>
       <c r="E848" t="n">
         <v>13</v>
@@ -61413,16 +61413,16 @@
         </is>
       </c>
       <c r="J848" t="n">
-        <v>1040</v>
+        <v>1130</v>
       </c>
       <c r="K848" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="L848" t="n">
-        <v>12000</v>
+        <v>12500</v>
       </c>
       <c r="M848" t="n">
-        <v>11538</v>
+        <v>12288</v>
       </c>
       <c r="N848" t="inlineStr">
         <is>
@@ -61431,11 +61431,11 @@
       </c>
       <c r="O848" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P848" t="n">
-        <v>641</v>
+        <v>683</v>
       </c>
       <c r="Q848" t="n">
         <v>18</v>
@@ -61461,7 +61461,7 @@
         </is>
       </c>
       <c r="D849" s="2" t="n">
-        <v>44425</v>
+        <v>44246</v>
       </c>
       <c r="E849" t="n">
         <v>13</v>
@@ -61485,16 +61485,16 @@
         </is>
       </c>
       <c r="J849" t="n">
-        <v>450</v>
+        <v>1200</v>
       </c>
       <c r="K849" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="L849" t="n">
-        <v>7000</v>
+        <v>10500</v>
       </c>
       <c r="M849" t="n">
-        <v>6444</v>
+        <v>10292</v>
       </c>
       <c r="N849" t="inlineStr">
         <is>
@@ -61507,7 +61507,7 @@
         </is>
       </c>
       <c r="P849" t="n">
-        <v>358</v>
+        <v>572</v>
       </c>
       <c r="Q849" t="n">
         <v>18</v>
@@ -61533,7 +61533,7 @@
         </is>
       </c>
       <c r="D850" s="2" t="n">
-        <v>44425</v>
+        <v>44246</v>
       </c>
       <c r="E850" t="n">
         <v>13</v>
@@ -61553,20 +61553,20 @@
       </c>
       <c r="I850" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J850" t="n">
-        <v>1030</v>
+        <v>360</v>
       </c>
       <c r="K850" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="L850" t="n">
-        <v>10000</v>
+        <v>7500</v>
       </c>
       <c r="M850" t="n">
-        <v>9466</v>
+        <v>7333</v>
       </c>
       <c r="N850" t="inlineStr">
         <is>
@@ -61575,11 +61575,11 @@
       </c>
       <c r="O850" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P850" t="n">
-        <v>526</v>
+        <v>407</v>
       </c>
       <c r="Q850" t="n">
         <v>18</v>
@@ -61605,7 +61605,7 @@
         </is>
       </c>
       <c r="D851" s="2" t="n">
-        <v>44425</v>
+        <v>44487</v>
       </c>
       <c r="E851" t="n">
         <v>13</v>
@@ -61625,20 +61625,20 @@
       </c>
       <c r="I851" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J851" t="n">
-        <v>440</v>
+        <v>890</v>
       </c>
       <c r="K851" t="n">
-        <v>4000</v>
+        <v>16000</v>
       </c>
       <c r="L851" t="n">
-        <v>5000</v>
+        <v>17000</v>
       </c>
       <c r="M851" t="n">
-        <v>4591</v>
+        <v>16539</v>
       </c>
       <c r="N851" t="inlineStr">
         <is>
@@ -61647,11 +61647,11 @@
       </c>
       <c r="O851" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P851" t="n">
-        <v>255</v>
+        <v>919</v>
       </c>
       <c r="Q851" t="n">
         <v>18</v>
@@ -61677,7 +61677,7 @@
         </is>
       </c>
       <c r="D852" s="2" t="n">
-        <v>44425</v>
+        <v>44487</v>
       </c>
       <c r="E852" t="n">
         <v>13</v>
@@ -61697,20 +61697,20 @@
       </c>
       <c r="I852" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J852" t="n">
-        <v>820</v>
+        <v>940</v>
       </c>
       <c r="K852" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="L852" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="M852" t="n">
-        <v>7537</v>
+        <v>14468</v>
       </c>
       <c r="N852" t="inlineStr">
         <is>
@@ -61723,7 +61723,7 @@
         </is>
       </c>
       <c r="P852" t="n">
-        <v>419</v>
+        <v>804</v>
       </c>
       <c r="Q852" t="n">
         <v>18</v>
@@ -61749,7 +61749,7 @@
         </is>
       </c>
       <c r="D853" s="2" t="n">
-        <v>44343</v>
+        <v>44487</v>
       </c>
       <c r="E853" t="n">
         <v>13</v>
@@ -61769,20 +61769,20 @@
       </c>
       <c r="I853" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J853" t="n">
         <v>740</v>
       </c>
       <c r="K853" t="n">
+        <v>10000</v>
+      </c>
+      <c r="L853" t="n">
         <v>11000</v>
       </c>
-      <c r="L853" t="n">
-        <v>12000</v>
-      </c>
       <c r="M853" t="n">
-        <v>11622</v>
+        <v>10446</v>
       </c>
       <c r="N853" t="inlineStr">
         <is>
@@ -61791,11 +61791,11 @@
       </c>
       <c r="O853" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P853" t="n">
-        <v>646</v>
+        <v>580</v>
       </c>
       <c r="Q853" t="n">
         <v>18</v>
@@ -61821,7 +61821,7 @@
         </is>
       </c>
       <c r="D854" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E854" t="n">
         <v>13</v>
@@ -61845,16 +61845,16 @@
         </is>
       </c>
       <c r="J854" t="n">
-        <v>250</v>
+        <v>390</v>
       </c>
       <c r="K854" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="L854" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="M854" t="n">
-        <v>13000</v>
+        <v>8462</v>
       </c>
       <c r="N854" t="inlineStr">
         <is>
@@ -61863,11 +61863,11 @@
       </c>
       <c r="O854" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P854" t="n">
-        <v>722</v>
+        <v>470</v>
       </c>
       <c r="Q854" t="n">
         <v>18</v>
@@ -61893,7 +61893,7 @@
         </is>
       </c>
       <c r="D855" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E855" t="n">
         <v>13</v>
@@ -61913,20 +61913,20 @@
       </c>
       <c r="I855" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J855" t="n">
         <v>1040</v>
       </c>
       <c r="K855" t="n">
-        <v>9500</v>
+        <v>11000</v>
       </c>
       <c r="L855" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M855" t="n">
-        <v>9769</v>
+        <v>11538</v>
       </c>
       <c r="N855" t="inlineStr">
         <is>
@@ -61935,11 +61935,11 @@
       </c>
       <c r="O855" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P855" t="n">
-        <v>543</v>
+        <v>641</v>
       </c>
       <c r="Q855" t="n">
         <v>18</v>
@@ -61965,7 +61965,7 @@
         </is>
       </c>
       <c r="D856" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E856" t="n">
         <v>13</v>
@@ -61989,16 +61989,16 @@
         </is>
       </c>
       <c r="J856" t="n">
-        <v>380</v>
+        <v>450</v>
       </c>
       <c r="K856" t="n">
-        <v>11000</v>
+        <v>6000</v>
       </c>
       <c r="L856" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="M856" t="n">
-        <v>11000</v>
+        <v>6444</v>
       </c>
       <c r="N856" t="inlineStr">
         <is>
@@ -62007,11 +62007,11 @@
       </c>
       <c r="O856" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P856" t="n">
-        <v>611</v>
+        <v>358</v>
       </c>
       <c r="Q856" t="n">
         <v>18</v>
@@ -62037,7 +62037,7 @@
         </is>
       </c>
       <c r="D857" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E857" t="n">
         <v>13</v>
@@ -62057,20 +62057,20 @@
       </c>
       <c r="I857" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J857" t="n">
-        <v>670</v>
+        <v>1030</v>
       </c>
       <c r="K857" t="n">
-        <v>6500</v>
+        <v>9000</v>
       </c>
       <c r="L857" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M857" t="n">
-        <v>6784</v>
+        <v>9466</v>
       </c>
       <c r="N857" t="inlineStr">
         <is>
@@ -62079,11 +62079,11 @@
       </c>
       <c r="O857" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P857" t="n">
-        <v>377</v>
+        <v>526</v>
       </c>
       <c r="Q857" t="n">
         <v>18</v>
@@ -62109,7 +62109,7 @@
         </is>
       </c>
       <c r="D858" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E858" t="n">
         <v>13</v>
@@ -62133,16 +62133,16 @@
         </is>
       </c>
       <c r="J858" t="n">
-        <v>160</v>
+        <v>440</v>
       </c>
       <c r="K858" t="n">
-        <v>9000</v>
+        <v>4000</v>
       </c>
       <c r="L858" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="M858" t="n">
-        <v>9000</v>
+        <v>4591</v>
       </c>
       <c r="N858" t="inlineStr">
         <is>
@@ -62151,11 +62151,11 @@
       </c>
       <c r="O858" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P858" t="n">
-        <v>500</v>
+        <v>255</v>
       </c>
       <c r="Q858" t="n">
         <v>18</v>
@@ -62181,7 +62181,7 @@
         </is>
       </c>
       <c r="D859" s="2" t="n">
-        <v>44370</v>
+        <v>44425</v>
       </c>
       <c r="E859" t="n">
         <v>13</v>
@@ -62201,20 +62201,20 @@
       </c>
       <c r="I859" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J859" t="n">
-        <v>470</v>
+        <v>820</v>
       </c>
       <c r="K859" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="L859" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="M859" t="n">
-        <v>11000</v>
+        <v>7537</v>
       </c>
       <c r="N859" t="inlineStr">
         <is>
@@ -62223,11 +62223,11 @@
       </c>
       <c r="O859" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P859" t="n">
-        <v>611</v>
+        <v>419</v>
       </c>
       <c r="Q859" t="n">
         <v>18</v>
@@ -62253,7 +62253,7 @@
         </is>
       </c>
       <c r="D860" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E860" t="n">
         <v>13</v>
@@ -62273,20 +62273,20 @@
       </c>
       <c r="I860" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J860" t="n">
-        <v>560</v>
+        <v>740</v>
       </c>
       <c r="K860" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="L860" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M860" t="n">
-        <v>10000</v>
+        <v>11622</v>
       </c>
       <c r="N860" t="inlineStr">
         <is>
@@ -62295,11 +62295,11 @@
       </c>
       <c r="O860" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P860" t="n">
-        <v>556</v>
+        <v>646</v>
       </c>
       <c r="Q860" t="n">
         <v>18</v>
@@ -62325,7 +62325,7 @@
         </is>
       </c>
       <c r="D861" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E861" t="n">
         <v>13</v>
@@ -62345,20 +62345,20 @@
       </c>
       <c r="I861" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J861" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K861" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="L861" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="M861" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="N861" t="inlineStr">
         <is>
@@ -62367,11 +62367,11 @@
       </c>
       <c r="O861" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P861" t="n">
-        <v>500</v>
+        <v>722</v>
       </c>
       <c r="Q861" t="n">
         <v>18</v>
@@ -62397,7 +62397,7 @@
         </is>
       </c>
       <c r="D862" s="2" t="n">
-        <v>44449</v>
+        <v>44343</v>
       </c>
       <c r="E862" t="n">
         <v>13</v>
@@ -62417,20 +62417,20 @@
       </c>
       <c r="I862" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J862" t="n">
-        <v>790</v>
+        <v>1040</v>
       </c>
       <c r="K862" t="n">
-        <v>19000</v>
+        <v>9500</v>
       </c>
       <c r="L862" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="M862" t="n">
-        <v>19481</v>
+        <v>9769</v>
       </c>
       <c r="N862" t="inlineStr">
         <is>
@@ -62439,11 +62439,11 @@
       </c>
       <c r="O862" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P862" t="n">
-        <v>1082</v>
+        <v>543</v>
       </c>
       <c r="Q862" t="n">
         <v>18</v>
@@ -62469,7 +62469,7 @@
         </is>
       </c>
       <c r="D863" s="2" t="n">
-        <v>44449</v>
+        <v>44343</v>
       </c>
       <c r="E863" t="n">
         <v>13</v>
@@ -62493,16 +62493,16 @@
         </is>
       </c>
       <c r="J863" t="n">
-        <v>800</v>
+        <v>380</v>
       </c>
       <c r="K863" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="L863" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="M863" t="n">
-        <v>15500</v>
+        <v>11000</v>
       </c>
       <c r="N863" t="inlineStr">
         <is>
@@ -62511,11 +62511,11 @@
       </c>
       <c r="O863" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P863" t="n">
-        <v>861</v>
+        <v>611</v>
       </c>
       <c r="Q863" t="n">
         <v>18</v>
@@ -62541,7 +62541,7 @@
         </is>
       </c>
       <c r="D864" s="2" t="n">
-        <v>44449</v>
+        <v>44343</v>
       </c>
       <c r="E864" t="n">
         <v>13</v>
@@ -62561,20 +62561,20 @@
       </c>
       <c r="I864" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J864" t="n">
-        <v>1130</v>
+        <v>670</v>
       </c>
       <c r="K864" t="n">
-        <v>22000</v>
+        <v>6500</v>
       </c>
       <c r="L864" t="n">
-        <v>23000</v>
+        <v>7000</v>
       </c>
       <c r="M864" t="n">
-        <v>22487</v>
+        <v>6784</v>
       </c>
       <c r="N864" t="inlineStr">
         <is>
@@ -62583,11 +62583,11 @@
       </c>
       <c r="O864" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P864" t="n">
-        <v>1249</v>
+        <v>377</v>
       </c>
       <c r="Q864" t="n">
         <v>18</v>
@@ -62613,7 +62613,7 @@
         </is>
       </c>
       <c r="D865" s="2" t="n">
-        <v>44449</v>
+        <v>44343</v>
       </c>
       <c r="E865" t="n">
         <v>13</v>
@@ -62637,16 +62637,16 @@
         </is>
       </c>
       <c r="J865" t="n">
-        <v>810</v>
+        <v>160</v>
       </c>
       <c r="K865" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="L865" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="M865" t="n">
-        <v>11432</v>
+        <v>9000</v>
       </c>
       <c r="N865" t="inlineStr">
         <is>
@@ -62655,11 +62655,11 @@
       </c>
       <c r="O865" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P865" t="n">
-        <v>635</v>
+        <v>500</v>
       </c>
       <c r="Q865" t="n">
         <v>18</v>
@@ -62685,7 +62685,7 @@
         </is>
       </c>
       <c r="D866" s="2" t="n">
-        <v>44449</v>
+        <v>44370</v>
       </c>
       <c r="E866" t="n">
         <v>13</v>
@@ -62705,20 +62705,20 @@
       </c>
       <c r="I866" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J866" t="n">
-        <v>860</v>
+        <v>470</v>
       </c>
       <c r="K866" t="n">
-        <v>19000</v>
+        <v>11000</v>
       </c>
       <c r="L866" t="n">
-        <v>20000</v>
+        <v>11000</v>
       </c>
       <c r="M866" t="n">
-        <v>19523</v>
+        <v>11000</v>
       </c>
       <c r="N866" t="inlineStr">
         <is>
@@ -62727,11 +62727,11 @@
       </c>
       <c r="O866" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P866" t="n">
-        <v>1085</v>
+        <v>611</v>
       </c>
       <c r="Q866" t="n">
         <v>18</v>
@@ -62757,7 +62757,7 @@
         </is>
       </c>
       <c r="D867" s="2" t="n">
-        <v>44168</v>
+        <v>44370</v>
       </c>
       <c r="E867" t="n">
         <v>13</v>
@@ -62777,20 +62777,20 @@
       </c>
       <c r="I867" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J867" t="n">
-        <v>1140</v>
+        <v>560</v>
       </c>
       <c r="K867" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="L867" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M867" t="n">
-        <v>11579</v>
+        <v>10000</v>
       </c>
       <c r="N867" t="inlineStr">
         <is>
@@ -62803,7 +62803,7 @@
         </is>
       </c>
       <c r="P867" t="n">
-        <v>643</v>
+        <v>556</v>
       </c>
       <c r="Q867" t="n">
         <v>18</v>
@@ -62829,7 +62829,7 @@
         </is>
       </c>
       <c r="D868" s="2" t="n">
-        <v>44168</v>
+        <v>44370</v>
       </c>
       <c r="E868" t="n">
         <v>13</v>
@@ -62849,20 +62849,20 @@
       </c>
       <c r="I868" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J868" t="n">
-        <v>1370</v>
+        <v>340</v>
       </c>
       <c r="K868" t="n">
         <v>9000</v>
       </c>
       <c r="L868" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="M868" t="n">
-        <v>9577</v>
+        <v>9000</v>
       </c>
       <c r="N868" t="inlineStr">
         <is>
@@ -62875,7 +62875,7 @@
         </is>
       </c>
       <c r="P868" t="n">
-        <v>532</v>
+        <v>500</v>
       </c>
       <c r="Q868" t="n">
         <v>18</v>
@@ -62901,7 +62901,7 @@
         </is>
       </c>
       <c r="D869" s="2" t="n">
-        <v>44168</v>
+        <v>44449</v>
       </c>
       <c r="E869" t="n">
         <v>13</v>
@@ -62921,20 +62921,20 @@
       </c>
       <c r="I869" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J869" t="n">
-        <v>950</v>
+        <v>790</v>
       </c>
       <c r="K869" t="n">
-        <v>6500</v>
+        <v>19000</v>
       </c>
       <c r="L869" t="n">
-        <v>7000</v>
+        <v>20000</v>
       </c>
       <c r="M869" t="n">
-        <v>6800</v>
+        <v>19481</v>
       </c>
       <c r="N869" t="inlineStr">
         <is>
@@ -62947,7 +62947,7 @@
         </is>
       </c>
       <c r="P869" t="n">
-        <v>378</v>
+        <v>1082</v>
       </c>
       <c r="Q869" t="n">
         <v>18</v>
@@ -62973,7 +62973,7 @@
         </is>
       </c>
       <c r="D870" s="2" t="n">
-        <v>44168</v>
+        <v>44449</v>
       </c>
       <c r="E870" t="n">
         <v>13</v>
@@ -62993,20 +62993,20 @@
       </c>
       <c r="I870" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J870" t="n">
-        <v>720</v>
+        <v>800</v>
       </c>
       <c r="K870" t="n">
-        <v>4500</v>
+        <v>15000</v>
       </c>
       <c r="L870" t="n">
-        <v>5000</v>
+        <v>16000</v>
       </c>
       <c r="M870" t="n">
-        <v>4792</v>
+        <v>15500</v>
       </c>
       <c r="N870" t="inlineStr">
         <is>
@@ -63019,7 +63019,7 @@
         </is>
       </c>
       <c r="P870" t="n">
-        <v>266</v>
+        <v>861</v>
       </c>
       <c r="Q870" t="n">
         <v>18</v>
@@ -63045,7 +63045,7 @@
         </is>
       </c>
       <c r="D871" s="2" t="n">
-        <v>44175</v>
+        <v>44449</v>
       </c>
       <c r="E871" t="n">
         <v>13</v>
@@ -63065,20 +63065,20 @@
       </c>
       <c r="I871" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J871" t="n">
-        <v>1080</v>
+        <v>1130</v>
       </c>
       <c r="K871" t="n">
-        <v>9500</v>
+        <v>22000</v>
       </c>
       <c r="L871" t="n">
-        <v>10000</v>
+        <v>23000</v>
       </c>
       <c r="M871" t="n">
-        <v>9778</v>
+        <v>22487</v>
       </c>
       <c r="N871" t="inlineStr">
         <is>
@@ -63087,11 +63087,11 @@
       </c>
       <c r="O871" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P871" t="n">
-        <v>543</v>
+        <v>1249</v>
       </c>
       <c r="Q871" t="n">
         <v>18</v>
@@ -63117,7 +63117,7 @@
         </is>
       </c>
       <c r="D872" s="2" t="n">
-        <v>44175</v>
+        <v>44449</v>
       </c>
       <c r="E872" t="n">
         <v>13</v>
@@ -63137,20 +63137,20 @@
       </c>
       <c r="I872" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J872" t="n">
-        <v>1280</v>
+        <v>810</v>
       </c>
       <c r="K872" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="L872" t="n">
-        <v>7500</v>
+        <v>12000</v>
       </c>
       <c r="M872" t="n">
-        <v>7266</v>
+        <v>11432</v>
       </c>
       <c r="N872" t="inlineStr">
         <is>
@@ -63163,7 +63163,7 @@
         </is>
       </c>
       <c r="P872" t="n">
-        <v>404</v>
+        <v>635</v>
       </c>
       <c r="Q872" t="n">
         <v>18</v>
@@ -63189,7 +63189,7 @@
         </is>
       </c>
       <c r="D873" s="2" t="n">
-        <v>44175</v>
+        <v>44449</v>
       </c>
       <c r="E873" t="n">
         <v>13</v>
@@ -63213,16 +63213,16 @@
         </is>
       </c>
       <c r="J873" t="n">
-        <v>880</v>
+        <v>860</v>
       </c>
       <c r="K873" t="n">
-        <v>5000</v>
+        <v>19000</v>
       </c>
       <c r="L873" t="n">
-        <v>5500</v>
+        <v>20000</v>
       </c>
       <c r="M873" t="n">
-        <v>5273</v>
+        <v>19523</v>
       </c>
       <c r="N873" t="inlineStr">
         <is>
@@ -63231,11 +63231,11 @@
       </c>
       <c r="O873" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P873" t="n">
-        <v>293</v>
+        <v>1085</v>
       </c>
       <c r="Q873" t="n">
         <v>18</v>
@@ -63261,7 +63261,7 @@
         </is>
       </c>
       <c r="D874" s="2" t="n">
-        <v>44392</v>
+        <v>44168</v>
       </c>
       <c r="E874" t="n">
         <v>13</v>
@@ -63285,16 +63285,16 @@
         </is>
       </c>
       <c r="J874" t="n">
-        <v>180</v>
+        <v>1140</v>
       </c>
       <c r="K874" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="L874" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="M874" t="n">
-        <v>9000</v>
+        <v>11579</v>
       </c>
       <c r="N874" t="inlineStr">
         <is>
@@ -63307,7 +63307,7 @@
         </is>
       </c>
       <c r="P874" t="n">
-        <v>500</v>
+        <v>643</v>
       </c>
       <c r="Q874" t="n">
         <v>18</v>
@@ -63333,7 +63333,7 @@
         </is>
       </c>
       <c r="D875" s="2" t="n">
-        <v>44392</v>
+        <v>44168</v>
       </c>
       <c r="E875" t="n">
         <v>13</v>
@@ -63353,20 +63353,20 @@
       </c>
       <c r="I875" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J875" t="n">
-        <v>1040</v>
+        <v>1370</v>
       </c>
       <c r="K875" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="L875" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="M875" t="n">
-        <v>15538</v>
+        <v>9577</v>
       </c>
       <c r="N875" t="inlineStr">
         <is>
@@ -63375,11 +63375,11 @@
       </c>
       <c r="O875" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P875" t="n">
-        <v>863</v>
+        <v>532</v>
       </c>
       <c r="Q875" t="n">
         <v>18</v>
@@ -63405,7 +63405,7 @@
         </is>
       </c>
       <c r="D876" s="2" t="n">
-        <v>44392</v>
+        <v>44168</v>
       </c>
       <c r="E876" t="n">
         <v>13</v>
@@ -63425,20 +63425,20 @@
       </c>
       <c r="I876" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J876" t="n">
-        <v>620</v>
+        <v>950</v>
       </c>
       <c r="K876" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="L876" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M876" t="n">
-        <v>8000</v>
+        <v>6800</v>
       </c>
       <c r="N876" t="inlineStr">
         <is>
@@ -63451,7 +63451,7 @@
         </is>
       </c>
       <c r="P876" t="n">
-        <v>444</v>
+        <v>378</v>
       </c>
       <c r="Q876" t="n">
         <v>18</v>
@@ -63477,7 +63477,7 @@
         </is>
       </c>
       <c r="D877" s="2" t="n">
-        <v>44392</v>
+        <v>44168</v>
       </c>
       <c r="E877" t="n">
         <v>13</v>
@@ -63497,20 +63497,20 @@
       </c>
       <c r="I877" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J877" t="n">
-        <v>1160</v>
+        <v>720</v>
       </c>
       <c r="K877" t="n">
-        <v>13000</v>
+        <v>4500</v>
       </c>
       <c r="L877" t="n">
-        <v>14000</v>
+        <v>5000</v>
       </c>
       <c r="M877" t="n">
-        <v>13517</v>
+        <v>4792</v>
       </c>
       <c r="N877" t="inlineStr">
         <is>
@@ -63519,11 +63519,11 @@
       </c>
       <c r="O877" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P877" t="n">
-        <v>751</v>
+        <v>266</v>
       </c>
       <c r="Q877" t="n">
         <v>18</v>
@@ -63549,7 +63549,7 @@
         </is>
       </c>
       <c r="D878" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E878" t="n">
         <v>13</v>
@@ -63569,20 +63569,20 @@
       </c>
       <c r="I878" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J878" t="n">
-        <v>270</v>
+        <v>1080</v>
       </c>
       <c r="K878" t="n">
-        <v>6000</v>
+        <v>9500</v>
       </c>
       <c r="L878" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="M878" t="n">
-        <v>6000</v>
+        <v>9778</v>
       </c>
       <c r="N878" t="inlineStr">
         <is>
@@ -63595,7 +63595,7 @@
         </is>
       </c>
       <c r="P878" t="n">
-        <v>333</v>
+        <v>543</v>
       </c>
       <c r="Q878" t="n">
         <v>18</v>
@@ -63621,7 +63621,7 @@
         </is>
       </c>
       <c r="D879" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E879" t="n">
         <v>13</v>
@@ -63641,20 +63641,20 @@
       </c>
       <c r="I879" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J879" t="n">
-        <v>1100</v>
+        <v>1280</v>
       </c>
       <c r="K879" t="n">
         <v>7000</v>
       </c>
       <c r="L879" t="n">
-        <v>8000</v>
+        <v>7500</v>
       </c>
       <c r="M879" t="n">
-        <v>7473</v>
+        <v>7266</v>
       </c>
       <c r="N879" t="inlineStr">
         <is>
@@ -63663,11 +63663,11 @@
       </c>
       <c r="O879" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P879" t="n">
-        <v>415</v>
+        <v>404</v>
       </c>
       <c r="Q879" t="n">
         <v>18</v>
@@ -63693,7 +63693,7 @@
         </is>
       </c>
       <c r="D880" s="2" t="n">
-        <v>44286</v>
+        <v>44175</v>
       </c>
       <c r="E880" t="n">
         <v>13</v>
@@ -63713,20 +63713,20 @@
       </c>
       <c r="I880" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J880" t="n">
-        <v>780</v>
+        <v>880</v>
       </c>
       <c r="K880" t="n">
-        <v>13000</v>
+        <v>5000</v>
       </c>
       <c r="L880" t="n">
-        <v>14000</v>
+        <v>5500</v>
       </c>
       <c r="M880" t="n">
-        <v>13513</v>
+        <v>5273</v>
       </c>
       <c r="N880" t="inlineStr">
         <is>
@@ -63739,7 +63739,7 @@
         </is>
       </c>
       <c r="P880" t="n">
-        <v>751</v>
+        <v>293</v>
       </c>
       <c r="Q880" t="n">
         <v>18</v>
@@ -63765,7 +63765,7 @@
         </is>
       </c>
       <c r="D881" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E881" t="n">
         <v>13</v>
@@ -63785,20 +63785,20 @@
       </c>
       <c r="I881" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J881" t="n">
-        <v>1040</v>
+        <v>180</v>
       </c>
       <c r="K881" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="L881" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="M881" t="n">
-        <v>10462</v>
+        <v>9000</v>
       </c>
       <c r="N881" t="inlineStr">
         <is>
@@ -63811,7 +63811,7 @@
         </is>
       </c>
       <c r="P881" t="n">
-        <v>581</v>
+        <v>500</v>
       </c>
       <c r="Q881" t="n">
         <v>18</v>
@@ -63837,7 +63837,7 @@
         </is>
       </c>
       <c r="D882" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E882" t="n">
         <v>13</v>
@@ -63857,20 +63857,20 @@
       </c>
       <c r="I882" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J882" t="n">
-        <v>550</v>
+        <v>1040</v>
       </c>
       <c r="K882" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="L882" t="n">
-        <v>8000</v>
+        <v>16000</v>
       </c>
       <c r="M882" t="n">
-        <v>7545</v>
+        <v>15538</v>
       </c>
       <c r="N882" t="inlineStr">
         <is>
@@ -63879,11 +63879,11 @@
       </c>
       <c r="O882" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P882" t="n">
-        <v>419</v>
+        <v>863</v>
       </c>
       <c r="Q882" t="n">
         <v>18</v>
@@ -63909,7 +63909,7 @@
         </is>
       </c>
       <c r="D883" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E883" t="n">
         <v>13</v>
@@ -63924,25 +63924,25 @@
       </c>
       <c r="H883" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I883" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J883" t="n">
-        <v>580</v>
+        <v>620</v>
       </c>
       <c r="K883" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L883" t="n">
         <v>8000</v>
       </c>
       <c r="M883" t="n">
-        <v>7517</v>
+        <v>8000</v>
       </c>
       <c r="N883" t="inlineStr">
         <is>
@@ -63951,11 +63951,11 @@
       </c>
       <c r="O883" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P883" t="n">
-        <v>418</v>
+        <v>444</v>
       </c>
       <c r="Q883" t="n">
         <v>18</v>
@@ -63981,7 +63981,7 @@
         </is>
       </c>
       <c r="D884" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E884" t="n">
         <v>13</v>
@@ -63996,7 +63996,7 @@
       </c>
       <c r="H884" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I884" t="inlineStr">
@@ -64005,16 +64005,16 @@
         </is>
       </c>
       <c r="J884" t="n">
-        <v>550</v>
+        <v>1160</v>
       </c>
       <c r="K884" t="n">
-        <v>5000</v>
+        <v>13000</v>
       </c>
       <c r="L884" t="n">
-        <v>6000</v>
+        <v>14000</v>
       </c>
       <c r="M884" t="n">
-        <v>5455</v>
+        <v>13517</v>
       </c>
       <c r="N884" t="inlineStr">
         <is>
@@ -64023,11 +64023,11 @@
       </c>
       <c r="O884" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P884" t="n">
-        <v>303</v>
+        <v>751</v>
       </c>
       <c r="Q884" t="n">
         <v>18</v>
@@ -64053,7 +64053,7 @@
         </is>
       </c>
       <c r="D885" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E885" t="n">
         <v>13</v>
@@ -64068,7 +64068,7 @@
       </c>
       <c r="H885" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I885" t="inlineStr">
@@ -64077,16 +64077,16 @@
         </is>
       </c>
       <c r="J885" t="n">
-        <v>440</v>
+        <v>270</v>
       </c>
       <c r="K885" t="n">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="L885" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="M885" t="n">
-        <v>3591</v>
+        <v>6000</v>
       </c>
       <c r="N885" t="inlineStr">
         <is>
@@ -64095,11 +64095,11 @@
       </c>
       <c r="O885" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P885" t="n">
-        <v>200</v>
+        <v>333</v>
       </c>
       <c r="Q885" t="n">
         <v>18</v>
@@ -64125,7 +64125,7 @@
         </is>
       </c>
       <c r="D886" s="2" t="n">
-        <v>44473</v>
+        <v>44392</v>
       </c>
       <c r="E886" t="n">
         <v>13</v>
@@ -64145,20 +64145,20 @@
       </c>
       <c r="I886" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J886" t="n">
-        <v>420</v>
+        <v>1100</v>
       </c>
       <c r="K886" t="n">
-        <v>19000</v>
+        <v>7000</v>
       </c>
       <c r="L886" t="n">
-        <v>20000</v>
+        <v>8000</v>
       </c>
       <c r="M886" t="n">
-        <v>19429</v>
+        <v>7473</v>
       </c>
       <c r="N886" t="inlineStr">
         <is>
@@ -64171,7 +64171,7 @@
         </is>
       </c>
       <c r="P886" t="n">
-        <v>1079</v>
+        <v>415</v>
       </c>
       <c r="Q886" t="n">
         <v>18</v>
@@ -64197,7 +64197,7 @@
         </is>
       </c>
       <c r="D887" s="2" t="n">
-        <v>44473</v>
+        <v>44286</v>
       </c>
       <c r="E887" t="n">
         <v>13</v>
@@ -64217,20 +64217,20 @@
       </c>
       <c r="I887" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J887" t="n">
-        <v>500</v>
+        <v>780</v>
       </c>
       <c r="K887" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="L887" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="M887" t="n">
-        <v>16560</v>
+        <v>13513</v>
       </c>
       <c r="N887" t="inlineStr">
         <is>
@@ -64239,11 +64239,11 @@
       </c>
       <c r="O887" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P887" t="n">
-        <v>920</v>
+        <v>751</v>
       </c>
       <c r="Q887" t="n">
         <v>18</v>
@@ -64269,7 +64269,7 @@
         </is>
       </c>
       <c r="D888" s="2" t="n">
-        <v>44473</v>
+        <v>44286</v>
       </c>
       <c r="E888" t="n">
         <v>13</v>
@@ -64289,20 +64289,20 @@
       </c>
       <c r="I888" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J888" t="n">
-        <v>320</v>
+        <v>1040</v>
       </c>
       <c r="K888" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="L888" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="M888" t="n">
-        <v>13562</v>
+        <v>10462</v>
       </c>
       <c r="N888" t="inlineStr">
         <is>
@@ -64311,11 +64311,11 @@
       </c>
       <c r="O888" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P888" t="n">
-        <v>753</v>
+        <v>581</v>
       </c>
       <c r="Q888" t="n">
         <v>18</v>
@@ -64341,7 +64341,7 @@
         </is>
       </c>
       <c r="D889" s="2" t="n">
-        <v>44400</v>
+        <v>44286</v>
       </c>
       <c r="E889" t="n">
         <v>13</v>
@@ -64361,20 +64361,20 @@
       </c>
       <c r="I889" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J889" t="n">
-        <v>450</v>
+        <v>550</v>
       </c>
       <c r="K889" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L889" t="n">
         <v>8000</v>
       </c>
-      <c r="L889" t="n">
-        <v>8500</v>
-      </c>
       <c r="M889" t="n">
-        <v>8278</v>
+        <v>7545</v>
       </c>
       <c r="N889" t="inlineStr">
         <is>
@@ -64387,7 +64387,7 @@
         </is>
       </c>
       <c r="P889" t="n">
-        <v>460</v>
+        <v>419</v>
       </c>
       <c r="Q889" t="n">
         <v>18</v>
@@ -64413,7 +64413,7 @@
         </is>
       </c>
       <c r="D890" s="2" t="n">
-        <v>44400</v>
+        <v>44286</v>
       </c>
       <c r="E890" t="n">
         <v>13</v>
@@ -64428,7 +64428,7 @@
       </c>
       <c r="H890" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I890" t="inlineStr">
@@ -64437,16 +64437,16 @@
         </is>
       </c>
       <c r="J890" t="n">
-        <v>960</v>
+        <v>580</v>
       </c>
       <c r="K890" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="L890" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="M890" t="n">
-        <v>12583</v>
+        <v>7517</v>
       </c>
       <c r="N890" t="inlineStr">
         <is>
@@ -64455,11 +64455,11 @@
       </c>
       <c r="O890" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P890" t="n">
-        <v>699</v>
+        <v>418</v>
       </c>
       <c r="Q890" t="n">
         <v>18</v>
@@ -64485,7 +64485,7 @@
         </is>
       </c>
       <c r="D891" s="2" t="n">
-        <v>44400</v>
+        <v>44286</v>
       </c>
       <c r="E891" t="n">
         <v>13</v>
@@ -64500,7 +64500,7 @@
       </c>
       <c r="H891" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I891" t="inlineStr">
@@ -64509,16 +64509,16 @@
         </is>
       </c>
       <c r="J891" t="n">
-        <v>620</v>
+        <v>550</v>
       </c>
       <c r="K891" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="L891" t="n">
-        <v>7500</v>
+        <v>6000</v>
       </c>
       <c r="M891" t="n">
-        <v>7274</v>
+        <v>5455</v>
       </c>
       <c r="N891" t="inlineStr">
         <is>
@@ -64527,11 +64527,11 @@
       </c>
       <c r="O891" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P891" t="n">
-        <v>404</v>
+        <v>303</v>
       </c>
       <c r="Q891" t="n">
         <v>18</v>
@@ -64557,7 +64557,7 @@
         </is>
       </c>
       <c r="D892" s="2" t="n">
-        <v>44400</v>
+        <v>44286</v>
       </c>
       <c r="E892" t="n">
         <v>13</v>
@@ -64572,25 +64572,25 @@
       </c>
       <c r="H892" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I892" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J892" t="n">
-        <v>920</v>
+        <v>440</v>
       </c>
       <c r="K892" t="n">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="L892" t="n">
-        <v>11000</v>
+        <v>4000</v>
       </c>
       <c r="M892" t="n">
-        <v>10522</v>
+        <v>3591</v>
       </c>
       <c r="N892" t="inlineStr">
         <is>
@@ -64599,11 +64599,11 @@
       </c>
       <c r="O892" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P892" t="n">
-        <v>585</v>
+        <v>200</v>
       </c>
       <c r="Q892" t="n">
         <v>18</v>
@@ -64629,7 +64629,7 @@
         </is>
       </c>
       <c r="D893" s="2" t="n">
-        <v>44400</v>
+        <v>44473</v>
       </c>
       <c r="E893" t="n">
         <v>13</v>
@@ -64649,20 +64649,20 @@
       </c>
       <c r="I893" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J893" t="n">
-        <v>230</v>
+        <v>420</v>
       </c>
       <c r="K893" t="n">
-        <v>5000</v>
+        <v>19000</v>
       </c>
       <c r="L893" t="n">
-        <v>5500</v>
+        <v>20000</v>
       </c>
       <c r="M893" t="n">
-        <v>5283</v>
+        <v>19429</v>
       </c>
       <c r="N893" t="inlineStr">
         <is>
@@ -64671,11 +64671,11 @@
       </c>
       <c r="O893" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P893" t="n">
-        <v>294</v>
+        <v>1079</v>
       </c>
       <c r="Q893" t="n">
         <v>18</v>
@@ -64701,7 +64701,7 @@
         </is>
       </c>
       <c r="D894" s="2" t="n">
-        <v>44400</v>
+        <v>44473</v>
       </c>
       <c r="E894" t="n">
         <v>13</v>
@@ -64721,20 +64721,20 @@
       </c>
       <c r="I894" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J894" t="n">
-        <v>260</v>
+        <v>500</v>
       </c>
       <c r="K894" t="n">
-        <v>8000</v>
+        <v>16000</v>
       </c>
       <c r="L894" t="n">
-        <v>9000</v>
+        <v>17000</v>
       </c>
       <c r="M894" t="n">
-        <v>8538</v>
+        <v>16560</v>
       </c>
       <c r="N894" t="inlineStr">
         <is>
@@ -64747,7 +64747,7 @@
         </is>
       </c>
       <c r="P894" t="n">
-        <v>474</v>
+        <v>920</v>
       </c>
       <c r="Q894" t="n">
         <v>18</v>
@@ -64773,7 +64773,7 @@
         </is>
       </c>
       <c r="D895" s="2" t="n">
-        <v>44484</v>
+        <v>44473</v>
       </c>
       <c r="E895" t="n">
         <v>13</v>
@@ -64793,20 +64793,20 @@
       </c>
       <c r="I895" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J895" t="n">
-        <v>600</v>
+        <v>320</v>
       </c>
       <c r="K895" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="L895" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="M895" t="n">
-        <v>18000</v>
+        <v>13562</v>
       </c>
       <c r="N895" t="inlineStr">
         <is>
@@ -64815,11 +64815,11 @@
       </c>
       <c r="O895" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P895" t="n">
-        <v>1000</v>
+        <v>753</v>
       </c>
       <c r="Q895" t="n">
         <v>18</v>
@@ -64845,7 +64845,7 @@
         </is>
       </c>
       <c r="D896" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E896" t="n">
         <v>13</v>
@@ -64869,16 +64869,16 @@
         </is>
       </c>
       <c r="J896" t="n">
-        <v>600</v>
+        <v>450</v>
       </c>
       <c r="K896" t="n">
-        <v>16000</v>
+        <v>8000</v>
       </c>
       <c r="L896" t="n">
-        <v>16000</v>
+        <v>8500</v>
       </c>
       <c r="M896" t="n">
-        <v>16000</v>
+        <v>8278</v>
       </c>
       <c r="N896" t="inlineStr">
         <is>
@@ -64887,11 +64887,11 @@
       </c>
       <c r="O896" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P896" t="n">
-        <v>889</v>
+        <v>460</v>
       </c>
       <c r="Q896" t="n">
         <v>18</v>
@@ -64917,7 +64917,7 @@
         </is>
       </c>
       <c r="D897" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E897" t="n">
         <v>13</v>
@@ -64937,20 +64937,20 @@
       </c>
       <c r="I897" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J897" t="n">
-        <v>700</v>
+        <v>960</v>
       </c>
       <c r="K897" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="L897" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="M897" t="n">
-        <v>17000</v>
+        <v>12583</v>
       </c>
       <c r="N897" t="inlineStr">
         <is>
@@ -64959,11 +64959,11 @@
       </c>
       <c r="O897" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P897" t="n">
-        <v>944</v>
+        <v>699</v>
       </c>
       <c r="Q897" t="n">
         <v>18</v>
@@ -64989,7 +64989,7 @@
         </is>
       </c>
       <c r="D898" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E898" t="n">
         <v>13</v>
@@ -65013,16 +65013,16 @@
         </is>
       </c>
       <c r="J898" t="n">
-        <v>650</v>
+        <v>620</v>
       </c>
       <c r="K898" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="L898" t="n">
-        <v>15000</v>
+        <v>7500</v>
       </c>
       <c r="M898" t="n">
-        <v>15000</v>
+        <v>7274</v>
       </c>
       <c r="N898" t="inlineStr">
         <is>
@@ -65031,11 +65031,11 @@
       </c>
       <c r="O898" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P898" t="n">
-        <v>833</v>
+        <v>404</v>
       </c>
       <c r="Q898" t="n">
         <v>18</v>
@@ -65061,7 +65061,7 @@
         </is>
       </c>
       <c r="D899" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E899" t="n">
         <v>13</v>
@@ -65081,20 +65081,20 @@
       </c>
       <c r="I899" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J899" t="n">
-        <v>650</v>
+        <v>920</v>
       </c>
       <c r="K899" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="L899" t="n">
         <v>11000</v>
       </c>
       <c r="M899" t="n">
-        <v>11000</v>
+        <v>10522</v>
       </c>
       <c r="N899" t="inlineStr">
         <is>
@@ -65103,11 +65103,11 @@
       </c>
       <c r="O899" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P899" t="n">
-        <v>611</v>
+        <v>585</v>
       </c>
       <c r="Q899" t="n">
         <v>18</v>
@@ -65133,7 +65133,7 @@
         </is>
       </c>
       <c r="D900" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E900" t="n">
         <v>13</v>
@@ -65157,16 +65157,16 @@
         </is>
       </c>
       <c r="J900" t="n">
-        <v>700</v>
+        <v>230</v>
       </c>
       <c r="K900" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="L900" t="n">
-        <v>10000</v>
+        <v>5500</v>
       </c>
       <c r="M900" t="n">
-        <v>10000</v>
+        <v>5283</v>
       </c>
       <c r="N900" t="inlineStr">
         <is>
@@ -65175,11 +65175,11 @@
       </c>
       <c r="O900" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P900" t="n">
-        <v>556</v>
+        <v>294</v>
       </c>
       <c r="Q900" t="n">
         <v>18</v>
@@ -65205,7 +65205,7 @@
         </is>
       </c>
       <c r="D901" s="2" t="n">
-        <v>44181</v>
+        <v>44400</v>
       </c>
       <c r="E901" t="n">
         <v>13</v>
@@ -65225,20 +65225,20 @@
       </c>
       <c r="I901" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J901" t="n">
-        <v>1050</v>
+        <v>260</v>
       </c>
       <c r="K901" t="n">
-        <v>9500</v>
+        <v>8000</v>
       </c>
       <c r="L901" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="M901" t="n">
-        <v>9810</v>
+        <v>8538</v>
       </c>
       <c r="N901" t="inlineStr">
         <is>
@@ -65247,11 +65247,11 @@
       </c>
       <c r="O901" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P901" t="n">
-        <v>545</v>
+        <v>474</v>
       </c>
       <c r="Q901" t="n">
         <v>18</v>
@@ -65277,7 +65277,7 @@
         </is>
       </c>
       <c r="D902" s="2" t="n">
-        <v>44181</v>
+        <v>44484</v>
       </c>
       <c r="E902" t="n">
         <v>13</v>
@@ -65297,20 +65297,20 @@
       </c>
       <c r="I902" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J902" t="n">
-        <v>1100</v>
+        <v>600</v>
       </c>
       <c r="K902" t="n">
-        <v>8500</v>
+        <v>18000</v>
       </c>
       <c r="L902" t="n">
-        <v>9000</v>
+        <v>18000</v>
       </c>
       <c r="M902" t="n">
-        <v>8764</v>
+        <v>18000</v>
       </c>
       <c r="N902" t="inlineStr">
         <is>
@@ -65323,7 +65323,7 @@
         </is>
       </c>
       <c r="P902" t="n">
-        <v>487</v>
+        <v>1000</v>
       </c>
       <c r="Q902" t="n">
         <v>18</v>
@@ -65349,7 +65349,7 @@
         </is>
       </c>
       <c r="D903" s="2" t="n">
-        <v>44181</v>
+        <v>44484</v>
       </c>
       <c r="E903" t="n">
         <v>13</v>
@@ -65369,20 +65369,20 @@
       </c>
       <c r="I903" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J903" t="n">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="K903" t="n">
-        <v>6000</v>
+        <v>16000</v>
       </c>
       <c r="L903" t="n">
-        <v>6500</v>
+        <v>16000</v>
       </c>
       <c r="M903" t="n">
-        <v>6233</v>
+        <v>16000</v>
       </c>
       <c r="N903" t="inlineStr">
         <is>
@@ -65391,11 +65391,11 @@
       </c>
       <c r="O903" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P903" t="n">
-        <v>346</v>
+        <v>889</v>
       </c>
       <c r="Q903" t="n">
         <v>18</v>
@@ -65421,7 +65421,7 @@
         </is>
       </c>
       <c r="D904" s="2" t="n">
-        <v>44494</v>
+        <v>44484</v>
       </c>
       <c r="E904" t="n">
         <v>13</v>
@@ -65441,20 +65441,20 @@
       </c>
       <c r="I904" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J904" t="n">
-        <v>630</v>
+        <v>700</v>
       </c>
       <c r="K904" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="L904" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="M904" t="n">
-        <v>19603</v>
+        <v>17000</v>
       </c>
       <c r="N904" t="inlineStr">
         <is>
@@ -65467,7 +65467,7 @@
         </is>
       </c>
       <c r="P904" t="n">
-        <v>1089</v>
+        <v>944</v>
       </c>
       <c r="Q904" t="n">
         <v>18</v>
@@ -65493,7 +65493,7 @@
         </is>
       </c>
       <c r="D905" s="2" t="n">
-        <v>44494</v>
+        <v>44484</v>
       </c>
       <c r="E905" t="n">
         <v>13</v>
@@ -65517,16 +65517,16 @@
         </is>
       </c>
       <c r="J905" t="n">
-        <v>660</v>
+        <v>650</v>
       </c>
       <c r="K905" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="L905" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="M905" t="n">
-        <v>17530</v>
+        <v>15000</v>
       </c>
       <c r="N905" t="inlineStr">
         <is>
@@ -65535,11 +65535,11 @@
       </c>
       <c r="O905" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P905" t="n">
-        <v>974</v>
+        <v>833</v>
       </c>
       <c r="Q905" t="n">
         <v>18</v>
@@ -65565,7 +65565,7 @@
         </is>
       </c>
       <c r="D906" s="2" t="n">
-        <v>44494</v>
+        <v>44484</v>
       </c>
       <c r="E906" t="n">
         <v>13</v>
@@ -65592,13 +65592,13 @@
         <v>650</v>
       </c>
       <c r="K906" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="L906" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="M906" t="n">
-        <v>13538</v>
+        <v>11000</v>
       </c>
       <c r="N906" t="inlineStr">
         <is>
@@ -65611,7 +65611,7 @@
         </is>
       </c>
       <c r="P906" t="n">
-        <v>752</v>
+        <v>611</v>
       </c>
       <c r="Q906" t="n">
         <v>18</v>
@@ -65637,7 +65637,7 @@
         </is>
       </c>
       <c r="D907" s="2" t="n">
-        <v>44494</v>
+        <v>44484</v>
       </c>
       <c r="E907" t="n">
         <v>13</v>
@@ -65657,20 +65657,20 @@
       </c>
       <c r="I907" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J907" t="n">
-        <v>580</v>
+        <v>700</v>
       </c>
       <c r="K907" t="n">
         <v>10000</v>
       </c>
       <c r="L907" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="M907" t="n">
-        <v>10483</v>
+        <v>10000</v>
       </c>
       <c r="N907" t="inlineStr">
         <is>
@@ -65679,11 +65679,11 @@
       </c>
       <c r="O907" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P907" t="n">
-        <v>582</v>
+        <v>556</v>
       </c>
       <c r="Q907" t="n">
         <v>18</v>
@@ -65709,7 +65709,7 @@
         </is>
       </c>
       <c r="D908" s="2" t="n">
-        <v>44342</v>
+        <v>44181</v>
       </c>
       <c r="E908" t="n">
         <v>13</v>
@@ -65733,7 +65733,7 @@
         </is>
       </c>
       <c r="J908" t="n">
-        <v>480</v>
+        <v>1050</v>
       </c>
       <c r="K908" t="n">
         <v>9500</v>
@@ -65742,7 +65742,7 @@
         <v>10000</v>
       </c>
       <c r="M908" t="n">
-        <v>9812</v>
+        <v>9810</v>
       </c>
       <c r="N908" t="inlineStr">
         <is>
@@ -65781,7 +65781,7 @@
         </is>
       </c>
       <c r="D909" s="2" t="n">
-        <v>44342</v>
+        <v>44181</v>
       </c>
       <c r="E909" t="n">
         <v>13</v>
@@ -65801,20 +65801,20 @@
       </c>
       <c r="I909" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J909" t="n">
-        <v>520</v>
+        <v>1100</v>
       </c>
       <c r="K909" t="n">
-        <v>11000</v>
+        <v>8500</v>
       </c>
       <c r="L909" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="M909" t="n">
-        <v>11558</v>
+        <v>8764</v>
       </c>
       <c r="N909" t="inlineStr">
         <is>
@@ -65823,11 +65823,11 @@
       </c>
       <c r="O909" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P909" t="n">
-        <v>642</v>
+        <v>487</v>
       </c>
       <c r="Q909" t="n">
         <v>18</v>
@@ -65853,7 +65853,7 @@
         </is>
       </c>
       <c r="D910" s="2" t="n">
-        <v>44342</v>
+        <v>44181</v>
       </c>
       <c r="E910" t="n">
         <v>13</v>
@@ -65873,20 +65873,20 @@
       </c>
       <c r="I910" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J910" t="n">
-        <v>580</v>
+        <v>900</v>
       </c>
       <c r="K910" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="L910" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="M910" t="n">
-        <v>7259</v>
+        <v>6233</v>
       </c>
       <c r="N910" t="inlineStr">
         <is>
@@ -65899,7 +65899,7 @@
         </is>
       </c>
       <c r="P910" t="n">
-        <v>403</v>
+        <v>346</v>
       </c>
       <c r="Q910" t="n">
         <v>18</v>
@@ -65925,7 +65925,7 @@
         </is>
       </c>
       <c r="D911" s="2" t="n">
-        <v>44342</v>
+        <v>44494</v>
       </c>
       <c r="E911" t="n">
         <v>13</v>
@@ -65945,20 +65945,20 @@
       </c>
       <c r="I911" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J911" t="n">
-        <v>580</v>
+        <v>630</v>
       </c>
       <c r="K911" t="n">
-        <v>9000</v>
+        <v>19000</v>
       </c>
       <c r="L911" t="n">
-        <v>9500</v>
+        <v>20000</v>
       </c>
       <c r="M911" t="n">
-        <v>9241</v>
+        <v>19603</v>
       </c>
       <c r="N911" t="inlineStr">
         <is>
@@ -65967,11 +65967,11 @@
       </c>
       <c r="O911" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P911" t="n">
-        <v>513</v>
+        <v>1089</v>
       </c>
       <c r="Q911" t="n">
         <v>18</v>
@@ -65997,7 +65997,7 @@
         </is>
       </c>
       <c r="D912" s="2" t="n">
-        <v>44342</v>
+        <v>44494</v>
       </c>
       <c r="E912" t="n">
         <v>13</v>
@@ -66017,20 +66017,20 @@
       </c>
       <c r="I912" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J912" t="n">
-        <v>540</v>
+        <v>660</v>
       </c>
       <c r="K912" t="n">
-        <v>5000</v>
+        <v>17000</v>
       </c>
       <c r="L912" t="n">
-        <v>5500</v>
+        <v>18000</v>
       </c>
       <c r="M912" t="n">
-        <v>5222</v>
+        <v>17530</v>
       </c>
       <c r="N912" t="inlineStr">
         <is>
@@ -66043,7 +66043,7 @@
         </is>
       </c>
       <c r="P912" t="n">
-        <v>290</v>
+        <v>974</v>
       </c>
       <c r="Q912" t="n">
         <v>18</v>
@@ -66069,7 +66069,7 @@
         </is>
       </c>
       <c r="D913" s="2" t="n">
-        <v>44445</v>
+        <v>44494</v>
       </c>
       <c r="E913" t="n">
         <v>13</v>
@@ -66089,20 +66089,20 @@
       </c>
       <c r="I913" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J913" t="n">
-        <v>400</v>
+        <v>650</v>
       </c>
       <c r="K913" t="n">
-        <v>23000</v>
+        <v>13000</v>
       </c>
       <c r="L913" t="n">
-        <v>23000</v>
+        <v>14000</v>
       </c>
       <c r="M913" t="n">
-        <v>23000</v>
+        <v>13538</v>
       </c>
       <c r="N913" t="inlineStr">
         <is>
@@ -66111,11 +66111,11 @@
       </c>
       <c r="O913" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P913" t="n">
-        <v>1278</v>
+        <v>752</v>
       </c>
       <c r="Q913" t="n">
         <v>18</v>
@@ -66141,7 +66141,7 @@
         </is>
       </c>
       <c r="D914" s="2" t="n">
-        <v>44445</v>
+        <v>44494</v>
       </c>
       <c r="E914" t="n">
         <v>13</v>
@@ -66161,20 +66161,20 @@
       </c>
       <c r="I914" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J914" t="n">
-        <v>380</v>
+        <v>580</v>
       </c>
       <c r="K914" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="L914" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="M914" t="n">
-        <v>15000</v>
+        <v>10483</v>
       </c>
       <c r="N914" t="inlineStr">
         <is>
@@ -66187,7 +66187,7 @@
         </is>
       </c>
       <c r="P914" t="n">
-        <v>833</v>
+        <v>582</v>
       </c>
       <c r="Q914" t="n">
         <v>18</v>
@@ -66213,7 +66213,7 @@
         </is>
       </c>
       <c r="D915" s="2" t="n">
-        <v>44445</v>
+        <v>44342</v>
       </c>
       <c r="E915" t="n">
         <v>13</v>
@@ -66233,20 +66233,20 @@
       </c>
       <c r="I915" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J915" t="n">
-        <v>560</v>
+        <v>480</v>
       </c>
       <c r="K915" t="n">
-        <v>20000</v>
+        <v>9500</v>
       </c>
       <c r="L915" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="M915" t="n">
-        <v>20000</v>
+        <v>9812</v>
       </c>
       <c r="N915" t="inlineStr">
         <is>
@@ -66255,11 +66255,11 @@
       </c>
       <c r="O915" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P915" t="n">
-        <v>1111</v>
+        <v>545</v>
       </c>
       <c r="Q915" t="n">
         <v>18</v>
@@ -66285,7 +66285,7 @@
         </is>
       </c>
       <c r="D916" s="2" t="n">
-        <v>44445</v>
+        <v>44342</v>
       </c>
       <c r="E916" t="n">
         <v>13</v>
@@ -66305,20 +66305,20 @@
       </c>
       <c r="I916" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J916" t="n">
-        <v>420</v>
+        <v>520</v>
       </c>
       <c r="K916" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="L916" t="n">
         <v>12000</v>
       </c>
       <c r="M916" t="n">
-        <v>12000</v>
+        <v>11558</v>
       </c>
       <c r="N916" t="inlineStr">
         <is>
@@ -66327,11 +66327,11 @@
       </c>
       <c r="O916" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P916" t="n">
-        <v>667</v>
+        <v>642</v>
       </c>
       <c r="Q916" t="n">
         <v>18</v>
@@ -66357,7 +66357,7 @@
         </is>
       </c>
       <c r="D917" s="2" t="n">
-        <v>44445</v>
+        <v>44342</v>
       </c>
       <c r="E917" t="n">
         <v>13</v>
@@ -66377,20 +66377,20 @@
       </c>
       <c r="I917" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J917" t="n">
-        <v>320</v>
+        <v>580</v>
       </c>
       <c r="K917" t="n">
-        <v>18000</v>
+        <v>7000</v>
       </c>
       <c r="L917" t="n">
-        <v>18000</v>
+        <v>7500</v>
       </c>
       <c r="M917" t="n">
-        <v>18000</v>
+        <v>7259</v>
       </c>
       <c r="N917" t="inlineStr">
         <is>
@@ -66399,11 +66399,11 @@
       </c>
       <c r="O917" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P917" t="n">
-        <v>1000</v>
+        <v>403</v>
       </c>
       <c r="Q917" t="n">
         <v>18</v>
@@ -66429,7 +66429,7 @@
         </is>
       </c>
       <c r="D918" s="2" t="n">
-        <v>44328</v>
+        <v>44342</v>
       </c>
       <c r="E918" t="n">
         <v>13</v>
@@ -66449,11 +66449,11 @@
       </c>
       <c r="I918" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J918" t="n">
-        <v>960</v>
+        <v>580</v>
       </c>
       <c r="K918" t="n">
         <v>9000</v>
@@ -66462,7 +66462,7 @@
         <v>9500</v>
       </c>
       <c r="M918" t="n">
-        <v>9302</v>
+        <v>9241</v>
       </c>
       <c r="N918" t="inlineStr">
         <is>
@@ -66471,11 +66471,11 @@
       </c>
       <c r="O918" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P918" t="n">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="Q918" t="n">
         <v>18</v>
@@ -66501,7 +66501,7 @@
         </is>
       </c>
       <c r="D919" s="2" t="n">
-        <v>44328</v>
+        <v>44342</v>
       </c>
       <c r="E919" t="n">
         <v>13</v>
@@ -66521,20 +66521,20 @@
       </c>
       <c r="I919" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J919" t="n">
-        <v>410</v>
+        <v>540</v>
       </c>
       <c r="K919" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="L919" t="n">
-        <v>7500</v>
+        <v>5500</v>
       </c>
       <c r="M919" t="n">
-        <v>7232</v>
+        <v>5222</v>
       </c>
       <c r="N919" t="inlineStr">
         <is>
@@ -66547,7 +66547,7 @@
         </is>
       </c>
       <c r="P919" t="n">
-        <v>402</v>
+        <v>290</v>
       </c>
       <c r="Q919" t="n">
         <v>18</v>
@@ -66573,7 +66573,7 @@
         </is>
       </c>
       <c r="D920" s="2" t="n">
-        <v>44328</v>
+        <v>44445</v>
       </c>
       <c r="E920" t="n">
         <v>13</v>
@@ -66593,20 +66593,20 @@
       </c>
       <c r="I920" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J920" t="n">
-        <v>230</v>
+        <v>400</v>
       </c>
       <c r="K920" t="n">
-        <v>5000</v>
+        <v>23000</v>
       </c>
       <c r="L920" t="n">
-        <v>5500</v>
+        <v>23000</v>
       </c>
       <c r="M920" t="n">
-        <v>5283</v>
+        <v>23000</v>
       </c>
       <c r="N920" t="inlineStr">
         <is>
@@ -66615,11 +66615,11 @@
       </c>
       <c r="O920" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P920" t="n">
-        <v>294</v>
+        <v>1278</v>
       </c>
       <c r="Q920" t="n">
         <v>18</v>
@@ -66645,7 +66645,7 @@
         </is>
       </c>
       <c r="D921" s="2" t="n">
-        <v>44301</v>
+        <v>44445</v>
       </c>
       <c r="E921" t="n">
         <v>13</v>
@@ -66665,20 +66665,20 @@
       </c>
       <c r="I921" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J921" t="n">
-        <v>360</v>
+        <v>380</v>
       </c>
       <c r="K921" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="L921" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="M921" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="N921" t="inlineStr">
         <is>
@@ -66687,11 +66687,11 @@
       </c>
       <c r="O921" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P921" t="n">
-        <v>667</v>
+        <v>833</v>
       </c>
       <c r="Q921" t="n">
         <v>18</v>
@@ -66717,7 +66717,7 @@
         </is>
       </c>
       <c r="D922" s="2" t="n">
-        <v>44301</v>
+        <v>44445</v>
       </c>
       <c r="E922" t="n">
         <v>13</v>
@@ -66741,16 +66741,16 @@
         </is>
       </c>
       <c r="J922" t="n">
-        <v>640</v>
+        <v>560</v>
       </c>
       <c r="K922" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="L922" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="M922" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="N922" t="inlineStr">
         <is>
@@ -66759,11 +66759,11 @@
       </c>
       <c r="O922" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P922" t="n">
-        <v>556</v>
+        <v>1111</v>
       </c>
       <c r="Q922" t="n">
         <v>18</v>
@@ -66789,7 +66789,7 @@
         </is>
       </c>
       <c r="D923" s="2" t="n">
-        <v>44301</v>
+        <v>44445</v>
       </c>
       <c r="E923" t="n">
         <v>13</v>
@@ -66813,16 +66813,16 @@
         </is>
       </c>
       <c r="J923" t="n">
-        <v>240</v>
+        <v>420</v>
       </c>
       <c r="K923" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="L923" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="M923" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="N923" t="inlineStr">
         <is>
@@ -66831,11 +66831,11 @@
       </c>
       <c r="O923" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P923" t="n">
-        <v>500</v>
+        <v>667</v>
       </c>
       <c r="Q923" t="n">
         <v>18</v>
@@ -66861,7 +66861,7 @@
         </is>
       </c>
       <c r="D924" s="2" t="n">
-        <v>44301</v>
+        <v>44445</v>
       </c>
       <c r="E924" t="n">
         <v>13</v>
@@ -66881,20 +66881,20 @@
       </c>
       <c r="I924" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J924" t="n">
-        <v>160</v>
+        <v>320</v>
       </c>
       <c r="K924" t="n">
-        <v>7000</v>
+        <v>18000</v>
       </c>
       <c r="L924" t="n">
-        <v>8000</v>
+        <v>18000</v>
       </c>
       <c r="M924" t="n">
-        <v>7500</v>
+        <v>18000</v>
       </c>
       <c r="N924" t="inlineStr">
         <is>
@@ -66903,11 +66903,11 @@
       </c>
       <c r="O924" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P924" t="n">
-        <v>417</v>
+        <v>1000</v>
       </c>
       <c r="Q924" t="n">
         <v>18</v>
@@ -66933,7 +66933,7 @@
         </is>
       </c>
       <c r="D925" s="2" t="n">
-        <v>44330</v>
+        <v>44328</v>
       </c>
       <c r="E925" t="n">
         <v>13</v>
@@ -66957,16 +66957,16 @@
         </is>
       </c>
       <c r="J925" t="n">
-        <v>770</v>
+        <v>960</v>
       </c>
       <c r="K925" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="L925" t="n">
-        <v>12000</v>
+        <v>9500</v>
       </c>
       <c r="M925" t="n">
-        <v>11545</v>
+        <v>9302</v>
       </c>
       <c r="N925" t="inlineStr">
         <is>
@@ -66975,11 +66975,11 @@
       </c>
       <c r="O925" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P925" t="n">
-        <v>641</v>
+        <v>517</v>
       </c>
       <c r="Q925" t="n">
         <v>18</v>
@@ -67005,7 +67005,7 @@
         </is>
       </c>
       <c r="D926" s="2" t="n">
-        <v>44330</v>
+        <v>44328</v>
       </c>
       <c r="E926" t="n">
         <v>13</v>
@@ -67029,16 +67029,16 @@
         </is>
       </c>
       <c r="J926" t="n">
-        <v>900</v>
+        <v>410</v>
       </c>
       <c r="K926" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L926" t="n">
-        <v>9000</v>
+        <v>7500</v>
       </c>
       <c r="M926" t="n">
-        <v>8556</v>
+        <v>7232</v>
       </c>
       <c r="N926" t="inlineStr">
         <is>
@@ -67047,11 +67047,11 @@
       </c>
       <c r="O926" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P926" t="n">
-        <v>475</v>
+        <v>402</v>
       </c>
       <c r="Q926" t="n">
         <v>18</v>
@@ -67077,7 +67077,7 @@
         </is>
       </c>
       <c r="D927" s="2" t="n">
-        <v>44330</v>
+        <v>44328</v>
       </c>
       <c r="E927" t="n">
         <v>13</v>
@@ -67101,16 +67101,16 @@
         </is>
       </c>
       <c r="J927" t="n">
-        <v>600</v>
+        <v>230</v>
       </c>
       <c r="K927" t="n">
         <v>5000</v>
       </c>
       <c r="L927" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="M927" t="n">
-        <v>5533</v>
+        <v>5283</v>
       </c>
       <c r="N927" t="inlineStr">
         <is>
@@ -67119,11 +67119,11 @@
       </c>
       <c r="O927" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P927" t="n">
-        <v>307</v>
+        <v>294</v>
       </c>
       <c r="Q927" t="n">
         <v>18</v>
@@ -67149,7 +67149,7 @@
         </is>
       </c>
       <c r="D928" s="2" t="n">
-        <v>44270</v>
+        <v>44301</v>
       </c>
       <c r="E928" t="n">
         <v>13</v>
@@ -67173,16 +67173,16 @@
         </is>
       </c>
       <c r="J928" t="n">
-        <v>520</v>
+        <v>360</v>
       </c>
       <c r="K928" t="n">
         <v>12000</v>
       </c>
       <c r="L928" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="M928" t="n">
-        <v>12615</v>
+        <v>12000</v>
       </c>
       <c r="N928" t="inlineStr">
         <is>
@@ -67191,11 +67191,11 @@
       </c>
       <c r="O928" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P928" t="n">
-        <v>701</v>
+        <v>667</v>
       </c>
       <c r="Q928" t="n">
         <v>18</v>
@@ -67221,7 +67221,7 @@
         </is>
       </c>
       <c r="D929" s="2" t="n">
-        <v>44270</v>
+        <v>44301</v>
       </c>
       <c r="E929" t="n">
         <v>13</v>
@@ -67245,16 +67245,16 @@
         </is>
       </c>
       <c r="J929" t="n">
-        <v>500</v>
+        <v>640</v>
       </c>
       <c r="K929" t="n">
         <v>10000</v>
       </c>
       <c r="L929" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="M929" t="n">
-        <v>10560</v>
+        <v>10000</v>
       </c>
       <c r="N929" t="inlineStr">
         <is>
@@ -67263,11 +67263,11 @@
       </c>
       <c r="O929" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P929" t="n">
-        <v>587</v>
+        <v>556</v>
       </c>
       <c r="Q929" t="n">
         <v>18</v>
@@ -67293,7 +67293,7 @@
         </is>
       </c>
       <c r="D930" s="2" t="n">
-        <v>44270</v>
+        <v>44301</v>
       </c>
       <c r="E930" t="n">
         <v>13</v>
@@ -67317,16 +67317,16 @@
         </is>
       </c>
       <c r="J930" t="n">
-        <v>310</v>
+        <v>240</v>
       </c>
       <c r="K930" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L930" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M930" t="n">
-        <v>7548</v>
+        <v>9000</v>
       </c>
       <c r="N930" t="inlineStr">
         <is>
@@ -67335,11 +67335,11 @@
       </c>
       <c r="O930" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P930" t="n">
-        <v>419</v>
+        <v>500</v>
       </c>
       <c r="Q930" t="n">
         <v>18</v>
@@ -67365,7 +67365,7 @@
         </is>
       </c>
       <c r="D931" s="2" t="n">
-        <v>44295</v>
+        <v>44301</v>
       </c>
       <c r="E931" t="n">
         <v>13</v>
@@ -67385,20 +67385,20 @@
       </c>
       <c r="I931" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J931" t="n">
-        <v>640</v>
+        <v>160</v>
       </c>
       <c r="K931" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="L931" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="M931" t="n">
-        <v>13562</v>
+        <v>7500</v>
       </c>
       <c r="N931" t="inlineStr">
         <is>
@@ -67407,11 +67407,11 @@
       </c>
       <c r="O931" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P931" t="n">
-        <v>753</v>
+        <v>417</v>
       </c>
       <c r="Q931" t="n">
         <v>18</v>
@@ -67437,7 +67437,7 @@
         </is>
       </c>
       <c r="D932" s="2" t="n">
-        <v>44295</v>
+        <v>44330</v>
       </c>
       <c r="E932" t="n">
         <v>13</v>
@@ -67457,11 +67457,11 @@
       </c>
       <c r="I932" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J932" t="n">
-        <v>880</v>
+        <v>770</v>
       </c>
       <c r="K932" t="n">
         <v>11000</v>
@@ -67479,7 +67479,7 @@
       </c>
       <c r="O932" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P932" t="n">
@@ -67509,7 +67509,7 @@
         </is>
       </c>
       <c r="D933" s="2" t="n">
-        <v>44295</v>
+        <v>44330</v>
       </c>
       <c r="E933" t="n">
         <v>13</v>
@@ -67529,20 +67529,20 @@
       </c>
       <c r="I933" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J933" t="n">
-        <v>390</v>
+        <v>900</v>
       </c>
       <c r="K933" t="n">
+        <v>8000</v>
+      </c>
+      <c r="L933" t="n">
         <v>9000</v>
       </c>
-      <c r="L933" t="n">
-        <v>10000</v>
-      </c>
       <c r="M933" t="n">
-        <v>9462</v>
+        <v>8556</v>
       </c>
       <c r="N933" t="inlineStr">
         <is>
@@ -67551,11 +67551,11 @@
       </c>
       <c r="O933" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P933" t="n">
-        <v>526</v>
+        <v>475</v>
       </c>
       <c r="Q933" t="n">
         <v>18</v>
@@ -67581,7 +67581,7 @@
         </is>
       </c>
       <c r="D934" s="2" t="n">
-        <v>44217</v>
+        <v>44330</v>
       </c>
       <c r="E934" t="n">
         <v>13</v>
@@ -67601,20 +67601,20 @@
       </c>
       <c r="I934" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J934" t="n">
-        <v>630</v>
+        <v>600</v>
       </c>
       <c r="K934" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="L934" t="n">
-        <v>13000</v>
+        <v>6000</v>
       </c>
       <c r="M934" t="n">
-        <v>12556</v>
+        <v>5533</v>
       </c>
       <c r="N934" t="inlineStr">
         <is>
@@ -67623,11 +67623,11 @@
       </c>
       <c r="O934" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P934" t="n">
-        <v>698</v>
+        <v>307</v>
       </c>
       <c r="Q934" t="n">
         <v>18</v>
@@ -67653,7 +67653,7 @@
         </is>
       </c>
       <c r="D935" s="2" t="n">
-        <v>44217</v>
+        <v>44270</v>
       </c>
       <c r="E935" t="n">
         <v>13</v>
@@ -67673,20 +67673,20 @@
       </c>
       <c r="I935" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J935" t="n">
-        <v>1190</v>
+        <v>520</v>
       </c>
       <c r="K935" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L935" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="M935" t="n">
-        <v>10454</v>
+        <v>12615</v>
       </c>
       <c r="N935" t="inlineStr">
         <is>
@@ -67699,7 +67699,7 @@
         </is>
       </c>
       <c r="P935" t="n">
-        <v>581</v>
+        <v>701</v>
       </c>
       <c r="Q935" t="n">
         <v>18</v>
@@ -67725,7 +67725,7 @@
         </is>
       </c>
       <c r="D936" s="2" t="n">
-        <v>44217</v>
+        <v>44270</v>
       </c>
       <c r="E936" t="n">
         <v>13</v>
@@ -67745,20 +67745,20 @@
       </c>
       <c r="I936" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J936" t="n">
-        <v>630</v>
+        <v>500</v>
       </c>
       <c r="K936" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L936" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="M936" t="n">
-        <v>7397</v>
+        <v>10560</v>
       </c>
       <c r="N936" t="inlineStr">
         <is>
@@ -67771,7 +67771,7 @@
         </is>
       </c>
       <c r="P936" t="n">
-        <v>411</v>
+        <v>587</v>
       </c>
       <c r="Q936" t="n">
         <v>18</v>
@@ -67797,7 +67797,7 @@
         </is>
       </c>
       <c r="D937" s="2" t="n">
-        <v>44217</v>
+        <v>44270</v>
       </c>
       <c r="E937" t="n">
         <v>13</v>
@@ -67812,25 +67812,25 @@
       </c>
       <c r="H937" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I937" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J937" t="n">
-        <v>340</v>
+        <v>310</v>
       </c>
       <c r="K937" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="L937" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M937" t="n">
-        <v>9588</v>
+        <v>7548</v>
       </c>
       <c r="N937" t="inlineStr">
         <is>
@@ -67839,11 +67839,11 @@
       </c>
       <c r="O937" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P937" t="n">
-        <v>533</v>
+        <v>419</v>
       </c>
       <c r="Q937" t="n">
         <v>18</v>
@@ -67869,7 +67869,7 @@
         </is>
       </c>
       <c r="D938" s="2" t="n">
-        <v>44217</v>
+        <v>44295</v>
       </c>
       <c r="E938" t="n">
         <v>13</v>
@@ -67884,25 +67884,25 @@
       </c>
       <c r="H938" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I938" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J938" t="n">
-        <v>195</v>
+        <v>640</v>
       </c>
       <c r="K938" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="L938" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="M938" t="n">
-        <v>7487</v>
+        <v>13562</v>
       </c>
       <c r="N938" t="inlineStr">
         <is>
@@ -67911,11 +67911,11 @@
       </c>
       <c r="O938" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P938" t="n">
-        <v>416</v>
+        <v>753</v>
       </c>
       <c r="Q938" t="n">
         <v>18</v>
@@ -67941,7 +67941,7 @@
         </is>
       </c>
       <c r="D939" s="2" t="n">
-        <v>44217</v>
+        <v>44295</v>
       </c>
       <c r="E939" t="n">
         <v>13</v>
@@ -67956,25 +67956,25 @@
       </c>
       <c r="H939" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I939" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J939" t="n">
-        <v>370</v>
+        <v>880</v>
       </c>
       <c r="K939" t="n">
-        <v>4000</v>
+        <v>11000</v>
       </c>
       <c r="L939" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="M939" t="n">
-        <v>4405</v>
+        <v>11545</v>
       </c>
       <c r="N939" t="inlineStr">
         <is>
@@ -67983,11 +67983,11 @@
       </c>
       <c r="O939" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P939" t="n">
-        <v>245</v>
+        <v>641</v>
       </c>
       <c r="Q939" t="n">
         <v>18</v>
@@ -68013,7 +68013,7 @@
         </is>
       </c>
       <c r="D940" s="2" t="n">
-        <v>44421</v>
+        <v>44295</v>
       </c>
       <c r="E940" t="n">
         <v>13</v>
@@ -68033,11 +68033,11 @@
       </c>
       <c r="I940" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J940" t="n">
-        <v>660</v>
+        <v>390</v>
       </c>
       <c r="K940" t="n">
         <v>9000</v>
@@ -68046,7 +68046,7 @@
         <v>10000</v>
       </c>
       <c r="M940" t="n">
-        <v>9667</v>
+        <v>9462</v>
       </c>
       <c r="N940" t="inlineStr">
         <is>
@@ -68059,7 +68059,7 @@
         </is>
       </c>
       <c r="P940" t="n">
-        <v>537</v>
+        <v>526</v>
       </c>
       <c r="Q940" t="n">
         <v>18</v>
@@ -68085,7 +68085,7 @@
         </is>
       </c>
       <c r="D941" s="2" t="n">
-        <v>44421</v>
+        <v>44217</v>
       </c>
       <c r="E941" t="n">
         <v>13</v>
@@ -68109,7 +68109,7 @@
         </is>
       </c>
       <c r="J941" t="n">
-        <v>1010</v>
+        <v>630</v>
       </c>
       <c r="K941" t="n">
         <v>12000</v>
@@ -68118,7 +68118,7 @@
         <v>13000</v>
       </c>
       <c r="M941" t="n">
-        <v>12554</v>
+        <v>12556</v>
       </c>
       <c r="N941" t="inlineStr">
         <is>
@@ -68127,11 +68127,11 @@
       </c>
       <c r="O941" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P941" t="n">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="Q941" t="n">
         <v>18</v>
@@ -68157,7 +68157,7 @@
         </is>
       </c>
       <c r="D942" s="2" t="n">
-        <v>44421</v>
+        <v>44217</v>
       </c>
       <c r="E942" t="n">
         <v>13</v>
@@ -68181,16 +68181,16 @@
         </is>
       </c>
       <c r="J942" t="n">
-        <v>940</v>
+        <v>1190</v>
       </c>
       <c r="K942" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L942" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="M942" t="n">
-        <v>7596</v>
+        <v>10454</v>
       </c>
       <c r="N942" t="inlineStr">
         <is>
@@ -68203,7 +68203,7 @@
         </is>
       </c>
       <c r="P942" t="n">
-        <v>422</v>
+        <v>581</v>
       </c>
       <c r="Q942" t="n">
         <v>18</v>
@@ -68229,7 +68229,7 @@
         </is>
       </c>
       <c r="D943" s="2" t="n">
-        <v>44421</v>
+        <v>44217</v>
       </c>
       <c r="E943" t="n">
         <v>13</v>
@@ -68249,20 +68249,20 @@
       </c>
       <c r="I943" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J943" t="n">
-        <v>1160</v>
+        <v>630</v>
       </c>
       <c r="K943" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="L943" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M943" t="n">
-        <v>9517</v>
+        <v>7397</v>
       </c>
       <c r="N943" t="inlineStr">
         <is>
@@ -68271,11 +68271,11 @@
       </c>
       <c r="O943" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P943" t="n">
-        <v>529</v>
+        <v>411</v>
       </c>
       <c r="Q943" t="n">
         <v>18</v>
@@ -68301,7 +68301,7 @@
         </is>
       </c>
       <c r="D944" s="2" t="n">
-        <v>44421</v>
+        <v>44217</v>
       </c>
       <c r="E944" t="n">
         <v>13</v>
@@ -68316,25 +68316,25 @@
       </c>
       <c r="H944" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I944" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J944" t="n">
-        <v>520</v>
+        <v>340</v>
       </c>
       <c r="K944" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="L944" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="M944" t="n">
-        <v>5577</v>
+        <v>9588</v>
       </c>
       <c r="N944" t="inlineStr">
         <is>
@@ -68343,11 +68343,11 @@
       </c>
       <c r="O944" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P944" t="n">
-        <v>310</v>
+        <v>533</v>
       </c>
       <c r="Q944" t="n">
         <v>18</v>
@@ -68373,7 +68373,7 @@
         </is>
       </c>
       <c r="D945" s="2" t="n">
-        <v>44421</v>
+        <v>44217</v>
       </c>
       <c r="E945" t="n">
         <v>13</v>
@@ -68388,16 +68388,16 @@
       </c>
       <c r="H945" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I945" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J945" t="n">
-        <v>500</v>
+        <v>195</v>
       </c>
       <c r="K945" t="n">
         <v>7000</v>
@@ -68406,7 +68406,7 @@
         <v>8000</v>
       </c>
       <c r="M945" t="n">
-        <v>7560</v>
+        <v>7487</v>
       </c>
       <c r="N945" t="inlineStr">
         <is>
@@ -68415,11 +68415,11 @@
       </c>
       <c r="O945" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P945" t="n">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="Q945" t="n">
         <v>18</v>
@@ -68445,7 +68445,7 @@
         </is>
       </c>
       <c r="D946" s="2" t="n">
-        <v>44383</v>
+        <v>44217</v>
       </c>
       <c r="E946" t="n">
         <v>13</v>
@@ -68460,25 +68460,25 @@
       </c>
       <c r="H946" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I946" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J946" t="n">
-        <v>210</v>
+        <v>370</v>
       </c>
       <c r="K946" t="n">
-        <v>12000</v>
+        <v>4000</v>
       </c>
       <c r="L946" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="M946" t="n">
-        <v>12000</v>
+        <v>4405</v>
       </c>
       <c r="N946" t="inlineStr">
         <is>
@@ -68487,11 +68487,11 @@
       </c>
       <c r="O946" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P946" t="n">
-        <v>667</v>
+        <v>245</v>
       </c>
       <c r="Q946" t="n">
         <v>18</v>
@@ -68517,7 +68517,7 @@
         </is>
       </c>
       <c r="D947" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E947" t="n">
         <v>13</v>
@@ -68537,20 +68537,20 @@
       </c>
       <c r="I947" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J947" t="n">
-        <v>600</v>
+        <v>660</v>
       </c>
       <c r="K947" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="L947" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="M947" t="n">
-        <v>11000</v>
+        <v>9667</v>
       </c>
       <c r="N947" t="inlineStr">
         <is>
@@ -68559,11 +68559,11 @@
       </c>
       <c r="O947" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P947" t="n">
-        <v>611</v>
+        <v>537</v>
       </c>
       <c r="Q947" t="n">
         <v>18</v>
@@ -68589,7 +68589,7 @@
         </is>
       </c>
       <c r="D948" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E948" t="n">
         <v>13</v>
@@ -68609,20 +68609,20 @@
       </c>
       <c r="I948" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J948" t="n">
-        <v>420</v>
+        <v>1010</v>
       </c>
       <c r="K948" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="L948" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="M948" t="n">
-        <v>9000</v>
+        <v>12554</v>
       </c>
       <c r="N948" t="inlineStr">
         <is>
@@ -68635,7 +68635,7 @@
         </is>
       </c>
       <c r="P948" t="n">
-        <v>500</v>
+        <v>697</v>
       </c>
       <c r="Q948" t="n">
         <v>18</v>
@@ -68661,7 +68661,7 @@
         </is>
       </c>
       <c r="D949" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E949" t="n">
         <v>13</v>
@@ -68681,20 +68681,20 @@
       </c>
       <c r="I949" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J949" t="n">
-        <v>160</v>
+        <v>940</v>
       </c>
       <c r="K949" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L949" t="n">
         <v>8000</v>
       </c>
       <c r="M949" t="n">
-        <v>8000</v>
+        <v>7596</v>
       </c>
       <c r="N949" t="inlineStr">
         <is>
@@ -68703,11 +68703,11 @@
       </c>
       <c r="O949" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P949" t="n">
-        <v>444</v>
+        <v>422</v>
       </c>
       <c r="Q949" t="n">
         <v>18</v>
@@ -68733,7 +68733,7 @@
         </is>
       </c>
       <c r="D950" s="2" t="n">
-        <v>44244</v>
+        <v>44421</v>
       </c>
       <c r="E950" t="n">
         <v>13</v>
@@ -68753,20 +68753,20 @@
       </c>
       <c r="I950" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J950" t="n">
-        <v>760</v>
+        <v>1160</v>
       </c>
       <c r="K950" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="L950" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="M950" t="n">
-        <v>12474</v>
+        <v>9517</v>
       </c>
       <c r="N950" t="inlineStr">
         <is>
@@ -68775,11 +68775,11 @@
       </c>
       <c r="O950" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P950" t="n">
-        <v>693</v>
+        <v>529</v>
       </c>
       <c r="Q950" t="n">
         <v>18</v>
@@ -68805,7 +68805,7 @@
         </is>
       </c>
       <c r="D951" s="2" t="n">
-        <v>44244</v>
+        <v>44421</v>
       </c>
       <c r="E951" t="n">
         <v>13</v>
@@ -68825,20 +68825,20 @@
       </c>
       <c r="I951" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J951" t="n">
-        <v>890</v>
+        <v>520</v>
       </c>
       <c r="K951" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="L951" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="M951" t="n">
-        <v>9494</v>
+        <v>5577</v>
       </c>
       <c r="N951" t="inlineStr">
         <is>
@@ -68851,7 +68851,7 @@
         </is>
       </c>
       <c r="P951" t="n">
-        <v>527</v>
+        <v>310</v>
       </c>
       <c r="Q951" t="n">
         <v>18</v>
@@ -68877,7 +68877,7 @@
         </is>
       </c>
       <c r="D952" s="2" t="n">
-        <v>44244</v>
+        <v>44421</v>
       </c>
       <c r="E952" t="n">
         <v>13</v>
@@ -68901,16 +68901,16 @@
         </is>
       </c>
       <c r="J952" t="n">
-        <v>630</v>
+        <v>500</v>
       </c>
       <c r="K952" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="L952" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M952" t="n">
-        <v>5556</v>
+        <v>7560</v>
       </c>
       <c r="N952" t="inlineStr">
         <is>
@@ -68919,11 +68919,11 @@
       </c>
       <c r="O952" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P952" t="n">
-        <v>309</v>
+        <v>420</v>
       </c>
       <c r="Q952" t="n">
         <v>18</v>
@@ -68949,7 +68949,7 @@
         </is>
       </c>
       <c r="D953" s="2" t="n">
-        <v>44307</v>
+        <v>44383</v>
       </c>
       <c r="E953" t="n">
         <v>13</v>
@@ -68973,16 +68973,16 @@
         </is>
       </c>
       <c r="J953" t="n">
-        <v>780</v>
+        <v>210</v>
       </c>
       <c r="K953" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="L953" t="n">
         <v>12000</v>
       </c>
       <c r="M953" t="n">
-        <v>11615</v>
+        <v>12000</v>
       </c>
       <c r="N953" t="inlineStr">
         <is>
@@ -68991,11 +68991,11 @@
       </c>
       <c r="O953" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P953" t="n">
-        <v>645</v>
+        <v>667</v>
       </c>
       <c r="Q953" t="n">
         <v>18</v>
@@ -69021,7 +69021,7 @@
         </is>
       </c>
       <c r="D954" s="2" t="n">
-        <v>44307</v>
+        <v>44383</v>
       </c>
       <c r="E954" t="n">
         <v>13</v>
@@ -69045,16 +69045,16 @@
         </is>
       </c>
       <c r="J954" t="n">
-        <v>790</v>
+        <v>600</v>
       </c>
       <c r="K954" t="n">
-        <v>9500</v>
+        <v>11000</v>
       </c>
       <c r="L954" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M954" t="n">
-        <v>9722</v>
+        <v>11000</v>
       </c>
       <c r="N954" t="inlineStr">
         <is>
@@ -69063,11 +69063,11 @@
       </c>
       <c r="O954" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P954" t="n">
-        <v>540</v>
+        <v>611</v>
       </c>
       <c r="Q954" t="n">
         <v>18</v>
@@ -69093,7 +69093,7 @@
         </is>
       </c>
       <c r="D955" s="2" t="n">
-        <v>44307</v>
+        <v>44383</v>
       </c>
       <c r="E955" t="n">
         <v>13</v>
@@ -69117,16 +69117,16 @@
         </is>
       </c>
       <c r="J955" t="n">
-        <v>560</v>
+        <v>420</v>
       </c>
       <c r="K955" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="L955" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M955" t="n">
-        <v>7741</v>
+        <v>9000</v>
       </c>
       <c r="N955" t="inlineStr">
         <is>
@@ -69135,11 +69135,11 @@
       </c>
       <c r="O955" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P955" t="n">
-        <v>430</v>
+        <v>500</v>
       </c>
       <c r="Q955" t="n">
         <v>18</v>
@@ -69165,7 +69165,7 @@
         </is>
       </c>
       <c r="D956" s="2" t="n">
-        <v>44273</v>
+        <v>44383</v>
       </c>
       <c r="E956" t="n">
         <v>13</v>
@@ -69185,20 +69185,20 @@
       </c>
       <c r="I956" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J956" t="n">
-        <v>800</v>
+        <v>160</v>
       </c>
       <c r="K956" t="n">
-        <v>11500</v>
+        <v>8000</v>
       </c>
       <c r="L956" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="M956" t="n">
-        <v>11762</v>
+        <v>8000</v>
       </c>
       <c r="N956" t="inlineStr">
         <is>
@@ -69207,11 +69207,11 @@
       </c>
       <c r="O956" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P956" t="n">
-        <v>653</v>
+        <v>444</v>
       </c>
       <c r="Q956" t="n">
         <v>18</v>
@@ -69237,7 +69237,7 @@
         </is>
       </c>
       <c r="D957" s="2" t="n">
-        <v>44273</v>
+        <v>44244</v>
       </c>
       <c r="E957" t="n">
         <v>13</v>
@@ -69257,20 +69257,20 @@
       </c>
       <c r="I957" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J957" t="n">
-        <v>860</v>
+        <v>760</v>
       </c>
       <c r="K957" t="n">
-        <v>9500</v>
+        <v>12000</v>
       </c>
       <c r="L957" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="M957" t="n">
-        <v>9767</v>
+        <v>12474</v>
       </c>
       <c r="N957" t="inlineStr">
         <is>
@@ -69283,7 +69283,7 @@
         </is>
       </c>
       <c r="P957" t="n">
-        <v>543</v>
+        <v>693</v>
       </c>
       <c r="Q957" t="n">
         <v>18</v>
@@ -69309,7 +69309,7 @@
         </is>
       </c>
       <c r="D958" s="2" t="n">
-        <v>44273</v>
+        <v>44244</v>
       </c>
       <c r="E958" t="n">
         <v>13</v>
@@ -69329,20 +69329,20 @@
       </c>
       <c r="I958" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J958" t="n">
-        <v>550</v>
+        <v>890</v>
       </c>
       <c r="K958" t="n">
-        <v>8500</v>
+        <v>9000</v>
       </c>
       <c r="L958" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M958" t="n">
-        <v>8727</v>
+        <v>9494</v>
       </c>
       <c r="N958" t="inlineStr">
         <is>
@@ -69355,7 +69355,7 @@
         </is>
       </c>
       <c r="P958" t="n">
-        <v>485</v>
+        <v>527</v>
       </c>
       <c r="Q958" t="n">
         <v>18</v>
@@ -69381,7 +69381,7 @@
         </is>
       </c>
       <c r="D959" s="2" t="n">
-        <v>44273</v>
+        <v>44244</v>
       </c>
       <c r="E959" t="n">
         <v>13</v>
@@ -69396,25 +69396,25 @@
       </c>
       <c r="H959" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I959" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J959" t="n">
-        <v>180</v>
+        <v>630</v>
       </c>
       <c r="K959" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="L959" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="M959" t="n">
-        <v>7000</v>
+        <v>5556</v>
       </c>
       <c r="N959" t="inlineStr">
         <is>
@@ -69423,11 +69423,11 @@
       </c>
       <c r="O959" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P959" t="n">
-        <v>389</v>
+        <v>309</v>
       </c>
       <c r="Q959" t="n">
         <v>18</v>
@@ -69453,7 +69453,7 @@
         </is>
       </c>
       <c r="D960" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E960" t="n">
         <v>13</v>
@@ -69468,25 +69468,25 @@
       </c>
       <c r="H960" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I960" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J960" t="n">
-        <v>200</v>
+        <v>780</v>
       </c>
       <c r="K960" t="n">
-        <v>5000</v>
+        <v>11000</v>
       </c>
       <c r="L960" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="M960" t="n">
-        <v>5000</v>
+        <v>11615</v>
       </c>
       <c r="N960" t="inlineStr">
         <is>
@@ -69495,11 +69495,11 @@
       </c>
       <c r="O960" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P960" t="n">
-        <v>278</v>
+        <v>645</v>
       </c>
       <c r="Q960" t="n">
         <v>18</v>
@@ -69525,7 +69525,7 @@
         </is>
       </c>
       <c r="D961" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E961" t="n">
         <v>13</v>
@@ -69540,25 +69540,25 @@
       </c>
       <c r="H961" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I961" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J961" t="n">
-        <v>170</v>
+        <v>790</v>
       </c>
       <c r="K961" t="n">
-        <v>4000</v>
+        <v>9500</v>
       </c>
       <c r="L961" t="n">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="M961" t="n">
-        <v>4000</v>
+        <v>9722</v>
       </c>
       <c r="N961" t="inlineStr">
         <is>
@@ -69567,11 +69567,11 @@
       </c>
       <c r="O961" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P961" t="n">
-        <v>222</v>
+        <v>540</v>
       </c>
       <c r="Q961" t="n">
         <v>18</v>
@@ -69597,7 +69597,7 @@
         </is>
       </c>
       <c r="D962" s="2" t="n">
-        <v>44433</v>
+        <v>44307</v>
       </c>
       <c r="E962" t="n">
         <v>13</v>
@@ -69617,20 +69617,20 @@
       </c>
       <c r="I962" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J962" t="n">
-        <v>1060</v>
+        <v>560</v>
       </c>
       <c r="K962" t="n">
-        <v>11000</v>
+        <v>7500</v>
       </c>
       <c r="L962" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="M962" t="n">
-        <v>11547</v>
+        <v>7741</v>
       </c>
       <c r="N962" t="inlineStr">
         <is>
@@ -69639,11 +69639,11 @@
       </c>
       <c r="O962" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P962" t="n">
-        <v>642</v>
+        <v>430</v>
       </c>
       <c r="Q962" t="n">
         <v>18</v>
@@ -69669,7 +69669,7 @@
         </is>
       </c>
       <c r="D963" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E963" t="n">
         <v>13</v>
@@ -69689,20 +69689,20 @@
       </c>
       <c r="I963" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J963" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="K963" t="n">
-        <v>5000</v>
+        <v>11500</v>
       </c>
       <c r="L963" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="M963" t="n">
-        <v>5533</v>
+        <v>11762</v>
       </c>
       <c r="N963" t="inlineStr">
         <is>
@@ -69715,7 +69715,7 @@
         </is>
       </c>
       <c r="P963" t="n">
-        <v>307</v>
+        <v>653</v>
       </c>
       <c r="Q963" t="n">
         <v>18</v>
@@ -69741,7 +69741,7 @@
         </is>
       </c>
       <c r="D964" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E964" t="n">
         <v>13</v>
@@ -69765,16 +69765,16 @@
         </is>
       </c>
       <c r="J964" t="n">
-        <v>960</v>
+        <v>860</v>
       </c>
       <c r="K964" t="n">
-        <v>9000</v>
+        <v>9500</v>
       </c>
       <c r="L964" t="n">
         <v>10000</v>
       </c>
       <c r="M964" t="n">
-        <v>9542</v>
+        <v>9767</v>
       </c>
       <c r="N964" t="inlineStr">
         <is>
@@ -69783,11 +69783,11 @@
       </c>
       <c r="O964" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P964" t="n">
-        <v>530</v>
+        <v>543</v>
       </c>
       <c r="Q964" t="n">
         <v>18</v>
@@ -69813,7 +69813,7 @@
         </is>
       </c>
       <c r="D965" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E965" t="n">
         <v>13</v>
@@ -69837,16 +69837,16 @@
         </is>
       </c>
       <c r="J965" t="n">
-        <v>470</v>
+        <v>550</v>
       </c>
       <c r="K965" t="n">
-        <v>3000</v>
+        <v>8500</v>
       </c>
       <c r="L965" t="n">
-        <v>4000</v>
+        <v>9000</v>
       </c>
       <c r="M965" t="n">
-        <v>3553</v>
+        <v>8727</v>
       </c>
       <c r="N965" t="inlineStr">
         <is>
@@ -69859,7 +69859,7 @@
         </is>
       </c>
       <c r="P965" t="n">
-        <v>197</v>
+        <v>485</v>
       </c>
       <c r="Q965" t="n">
         <v>18</v>
@@ -69885,7 +69885,7 @@
         </is>
       </c>
       <c r="D966" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E966" t="n">
         <v>13</v>
@@ -69900,25 +69900,25 @@
       </c>
       <c r="H966" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I966" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J966" t="n">
-        <v>640</v>
+        <v>180</v>
       </c>
       <c r="K966" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L966" t="n">
         <v>7000</v>
       </c>
       <c r="M966" t="n">
-        <v>6531</v>
+        <v>7000</v>
       </c>
       <c r="N966" t="inlineStr">
         <is>
@@ -69927,11 +69927,11 @@
       </c>
       <c r="O966" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P966" t="n">
-        <v>363</v>
+        <v>389</v>
       </c>
       <c r="Q966" t="n">
         <v>18</v>
@@ -69957,7 +69957,7 @@
         </is>
       </c>
       <c r="D967" s="2" t="n">
-        <v>44302</v>
+        <v>44273</v>
       </c>
       <c r="E967" t="n">
         <v>13</v>
@@ -69972,25 +69972,25 @@
       </c>
       <c r="H967" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I967" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J967" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="K967" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="L967" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="M967" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="N967" t="inlineStr">
         <is>
@@ -69999,11 +69999,11 @@
       </c>
       <c r="O967" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P967" t="n">
-        <v>667</v>
+        <v>278</v>
       </c>
       <c r="Q967" t="n">
         <v>18</v>
@@ -70029,7 +70029,7 @@
         </is>
       </c>
       <c r="D968" s="2" t="n">
-        <v>44302</v>
+        <v>44273</v>
       </c>
       <c r="E968" t="n">
         <v>13</v>
@@ -70044,25 +70044,25 @@
       </c>
       <c r="H968" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I968" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J968" t="n">
-        <v>480</v>
+        <v>170</v>
       </c>
       <c r="K968" t="n">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="L968" t="n">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="M968" t="n">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="N968" t="inlineStr">
         <is>
@@ -70071,11 +70071,11 @@
       </c>
       <c r="O968" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P968" t="n">
-        <v>556</v>
+        <v>222</v>
       </c>
       <c r="Q968" t="n">
         <v>18</v>
@@ -70101,7 +70101,7 @@
         </is>
       </c>
       <c r="D969" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E969" t="n">
         <v>13</v>
@@ -70121,20 +70121,20 @@
       </c>
       <c r="I969" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J969" t="n">
-        <v>360</v>
+        <v>1060</v>
       </c>
       <c r="K969" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="L969" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="M969" t="n">
-        <v>8000</v>
+        <v>11547</v>
       </c>
       <c r="N969" t="inlineStr">
         <is>
@@ -70143,11 +70143,11 @@
       </c>
       <c r="O969" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P969" t="n">
-        <v>444</v>
+        <v>642</v>
       </c>
       <c r="Q969" t="n">
         <v>18</v>
@@ -70173,7 +70173,7 @@
         </is>
       </c>
       <c r="D970" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E970" t="n">
         <v>13</v>
@@ -70193,20 +70193,20 @@
       </c>
       <c r="I970" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J970" t="n">
-        <v>180</v>
+        <v>600</v>
       </c>
       <c r="K970" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="L970" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="M970" t="n">
-        <v>7000</v>
+        <v>5533</v>
       </c>
       <c r="N970" t="inlineStr">
         <is>
@@ -70215,11 +70215,11 @@
       </c>
       <c r="O970" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P970" t="n">
-        <v>389</v>
+        <v>307</v>
       </c>
       <c r="Q970" t="n">
         <v>18</v>
@@ -70245,7 +70245,7 @@
         </is>
       </c>
       <c r="D971" s="2" t="n">
-        <v>44179</v>
+        <v>44433</v>
       </c>
       <c r="E971" t="n">
         <v>13</v>
@@ -70265,20 +70265,20 @@
       </c>
       <c r="I971" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J971" t="n">
-        <v>180</v>
+        <v>960</v>
       </c>
       <c r="K971" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="L971" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="M971" t="n">
-        <v>13000</v>
+        <v>9542</v>
       </c>
       <c r="N971" t="inlineStr">
         <is>
@@ -70287,11 +70287,11 @@
       </c>
       <c r="O971" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P971" t="n">
-        <v>722</v>
+        <v>530</v>
       </c>
       <c r="Q971" t="n">
         <v>18</v>
@@ -70317,7 +70317,7 @@
         </is>
       </c>
       <c r="D972" s="2" t="n">
-        <v>44179</v>
+        <v>44433</v>
       </c>
       <c r="E972" t="n">
         <v>13</v>
@@ -70337,20 +70337,20 @@
       </c>
       <c r="I972" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J972" t="n">
-        <v>210</v>
+        <v>470</v>
       </c>
       <c r="K972" t="n">
-        <v>11000</v>
+        <v>3000</v>
       </c>
       <c r="L972" t="n">
-        <v>11000</v>
+        <v>4000</v>
       </c>
       <c r="M972" t="n">
-        <v>11000</v>
+        <v>3553</v>
       </c>
       <c r="N972" t="inlineStr">
         <is>
@@ -70359,11 +70359,11 @@
       </c>
       <c r="O972" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P972" t="n">
-        <v>611</v>
+        <v>197</v>
       </c>
       <c r="Q972" t="n">
         <v>18</v>
@@ -70389,7 +70389,7 @@
         </is>
       </c>
       <c r="D973" s="2" t="n">
-        <v>44179</v>
+        <v>44433</v>
       </c>
       <c r="E973" t="n">
         <v>13</v>
@@ -70413,16 +70413,16 @@
         </is>
       </c>
       <c r="J973" t="n">
-        <v>150</v>
+        <v>640</v>
       </c>
       <c r="K973" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="L973" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M973" t="n">
-        <v>9000</v>
+        <v>6531</v>
       </c>
       <c r="N973" t="inlineStr">
         <is>
@@ -70431,11 +70431,11 @@
       </c>
       <c r="O973" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P973" t="n">
-        <v>500</v>
+        <v>363</v>
       </c>
       <c r="Q973" t="n">
         <v>18</v>
@@ -70461,7 +70461,7 @@
         </is>
       </c>
       <c r="D974" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E974" t="n">
         <v>13</v>
@@ -70481,20 +70481,20 @@
       </c>
       <c r="I974" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J974" t="n">
-        <v>130</v>
+        <v>240</v>
       </c>
       <c r="K974" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="L974" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="M974" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="N974" t="inlineStr">
         <is>
@@ -70507,7 +70507,7 @@
         </is>
       </c>
       <c r="P974" t="n">
-        <v>389</v>
+        <v>667</v>
       </c>
       <c r="Q974" t="n">
         <v>18</v>
@@ -70533,7 +70533,7 @@
         </is>
       </c>
       <c r="D975" s="2" t="n">
-        <v>44491</v>
+        <v>44302</v>
       </c>
       <c r="E975" t="n">
         <v>13</v>
@@ -70553,20 +70553,20 @@
       </c>
       <c r="I975" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J975" t="n">
-        <v>660</v>
+        <v>480</v>
       </c>
       <c r="K975" t="n">
-        <v>19000</v>
+        <v>10000</v>
       </c>
       <c r="L975" t="n">
-        <v>19500</v>
+        <v>10000</v>
       </c>
       <c r="M975" t="n">
-        <v>19265</v>
+        <v>10000</v>
       </c>
       <c r="N975" t="inlineStr">
         <is>
@@ -70575,11 +70575,11 @@
       </c>
       <c r="O975" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P975" t="n">
-        <v>1070</v>
+        <v>556</v>
       </c>
       <c r="Q975" t="n">
         <v>18</v>
@@ -70605,7 +70605,7 @@
         </is>
       </c>
       <c r="D976" s="2" t="n">
-        <v>44491</v>
+        <v>44302</v>
       </c>
       <c r="E976" t="n">
         <v>13</v>
@@ -70625,20 +70625,20 @@
       </c>
       <c r="I976" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J976" t="n">
-        <v>650</v>
+        <v>360</v>
       </c>
       <c r="K976" t="n">
-        <v>17000</v>
+        <v>8000</v>
       </c>
       <c r="L976" t="n">
-        <v>17000</v>
+        <v>8000</v>
       </c>
       <c r="M976" t="n">
-        <v>17000</v>
+        <v>8000</v>
       </c>
       <c r="N976" t="inlineStr">
         <is>
@@ -70647,11 +70647,11 @@
       </c>
       <c r="O976" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P976" t="n">
-        <v>944</v>
+        <v>444</v>
       </c>
       <c r="Q976" t="n">
         <v>18</v>
@@ -70677,7 +70677,7 @@
         </is>
       </c>
       <c r="D977" s="2" t="n">
-        <v>44491</v>
+        <v>44302</v>
       </c>
       <c r="E977" t="n">
         <v>13</v>
@@ -70697,20 +70697,20 @@
       </c>
       <c r="I977" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J977" t="n">
-        <v>760</v>
+        <v>180</v>
       </c>
       <c r="K977" t="n">
-        <v>16000</v>
+        <v>7000</v>
       </c>
       <c r="L977" t="n">
-        <v>16500</v>
+        <v>7000</v>
       </c>
       <c r="M977" t="n">
-        <v>16270</v>
+        <v>7000</v>
       </c>
       <c r="N977" t="inlineStr">
         <is>
@@ -70719,11 +70719,11 @@
       </c>
       <c r="O977" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P977" t="n">
-        <v>904</v>
+        <v>389</v>
       </c>
       <c r="Q977" t="n">
         <v>18</v>
@@ -70749,7 +70749,7 @@
         </is>
       </c>
       <c r="D978" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E978" t="n">
         <v>13</v>
@@ -70769,20 +70769,20 @@
       </c>
       <c r="I978" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J978" t="n">
-        <v>580</v>
+        <v>180</v>
       </c>
       <c r="K978" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="L978" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="M978" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="N978" t="inlineStr">
         <is>
@@ -70791,11 +70791,11 @@
       </c>
       <c r="O978" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P978" t="n">
-        <v>833</v>
+        <v>722</v>
       </c>
       <c r="Q978" t="n">
         <v>18</v>
@@ -70821,7 +70821,7 @@
         </is>
       </c>
       <c r="D979" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E979" t="n">
         <v>13</v>
@@ -70841,20 +70841,20 @@
       </c>
       <c r="I979" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J979" t="n">
-        <v>700</v>
+        <v>210</v>
       </c>
       <c r="K979" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="L979" t="n">
-        <v>13500</v>
+        <v>11000</v>
       </c>
       <c r="M979" t="n">
-        <v>13214</v>
+        <v>11000</v>
       </c>
       <c r="N979" t="inlineStr">
         <is>
@@ -70863,11 +70863,11 @@
       </c>
       <c r="O979" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P979" t="n">
-        <v>734</v>
+        <v>611</v>
       </c>
       <c r="Q979" t="n">
         <v>18</v>
@@ -70893,58 +70893,562 @@
         </is>
       </c>
       <c r="D980" s="2" t="n">
+        <v>44179</v>
+      </c>
+      <c r="E980" t="n">
+        <v>13</v>
+      </c>
+      <c r="F980" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G980" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H980" t="inlineStr">
+        <is>
+          <t>Larga vida</t>
+        </is>
+      </c>
+      <c r="I980" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J980" t="n">
+        <v>150</v>
+      </c>
+      <c r="K980" t="n">
+        <v>9000</v>
+      </c>
+      <c r="L980" t="n">
+        <v>9000</v>
+      </c>
+      <c r="M980" t="n">
+        <v>9000</v>
+      </c>
+      <c r="N980" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O980" t="inlineStr">
+        <is>
+          <t>Limache</t>
+        </is>
+      </c>
+      <c r="P980" t="n">
+        <v>500</v>
+      </c>
+      <c r="Q980" t="n">
+        <v>18</v>
+      </c>
+      <c r="R980" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="981">
+      <c r="A981" t="n">
+        <v>12</v>
+      </c>
+      <c r="B981" t="inlineStr">
+        <is>
+          <t>Mapocho Venta Directa de Santiago</t>
+        </is>
+      </c>
+      <c r="C981" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D981" s="2" t="n">
+        <v>44179</v>
+      </c>
+      <c r="E981" t="n">
+        <v>13</v>
+      </c>
+      <c r="F981" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G981" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H981" t="inlineStr">
+        <is>
+          <t>Larga vida</t>
+        </is>
+      </c>
+      <c r="I981" t="inlineStr">
+        <is>
+          <t>Tercera</t>
+        </is>
+      </c>
+      <c r="J981" t="n">
+        <v>130</v>
+      </c>
+      <c r="K981" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L981" t="n">
+        <v>7000</v>
+      </c>
+      <c r="M981" t="n">
+        <v>7000</v>
+      </c>
+      <c r="N981" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O981" t="inlineStr">
+        <is>
+          <t>Limache</t>
+        </is>
+      </c>
+      <c r="P981" t="n">
+        <v>389</v>
+      </c>
+      <c r="Q981" t="n">
+        <v>18</v>
+      </c>
+      <c r="R981" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="982">
+      <c r="A982" t="n">
+        <v>12</v>
+      </c>
+      <c r="B982" t="inlineStr">
+        <is>
+          <t>Mapocho Venta Directa de Santiago</t>
+        </is>
+      </c>
+      <c r="C982" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D982" s="2" t="n">
         <v>44491</v>
       </c>
-      <c r="E980" t="n">
-        <v>13</v>
-      </c>
-      <c r="F980" t="n">
-        <v>100112020</v>
-      </c>
-      <c r="G980" t="inlineStr">
-        <is>
-          <t>Tomate</t>
-        </is>
-      </c>
-      <c r="H980" t="inlineStr">
-        <is>
-          <t>Larga vida</t>
-        </is>
-      </c>
-      <c r="I980" t="inlineStr">
+      <c r="E982" t="n">
+        <v>13</v>
+      </c>
+      <c r="F982" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G982" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H982" t="inlineStr">
+        <is>
+          <t>Larga vida</t>
+        </is>
+      </c>
+      <c r="I982" t="inlineStr">
+        <is>
+          <t>Extra</t>
+        </is>
+      </c>
+      <c r="J982" t="n">
+        <v>660</v>
+      </c>
+      <c r="K982" t="n">
+        <v>19000</v>
+      </c>
+      <c r="L982" t="n">
+        <v>19500</v>
+      </c>
+      <c r="M982" t="n">
+        <v>19265</v>
+      </c>
+      <c r="N982" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O982" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="P982" t="n">
+        <v>1070</v>
+      </c>
+      <c r="Q982" t="n">
+        <v>18</v>
+      </c>
+      <c r="R982" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="983">
+      <c r="A983" t="n">
+        <v>12</v>
+      </c>
+      <c r="B983" t="inlineStr">
+        <is>
+          <t>Mapocho Venta Directa de Santiago</t>
+        </is>
+      </c>
+      <c r="C983" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D983" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E983" t="n">
+        <v>13</v>
+      </c>
+      <c r="F983" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G983" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H983" t="inlineStr">
+        <is>
+          <t>Larga vida</t>
+        </is>
+      </c>
+      <c r="I983" t="inlineStr">
+        <is>
+          <t>Extra</t>
+        </is>
+      </c>
+      <c r="J983" t="n">
+        <v>650</v>
+      </c>
+      <c r="K983" t="n">
+        <v>17000</v>
+      </c>
+      <c r="L983" t="n">
+        <v>17000</v>
+      </c>
+      <c r="M983" t="n">
+        <v>17000</v>
+      </c>
+      <c r="N983" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O983" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P983" t="n">
+        <v>944</v>
+      </c>
+      <c r="Q983" t="n">
+        <v>18</v>
+      </c>
+      <c r="R983" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="984">
+      <c r="A984" t="n">
+        <v>12</v>
+      </c>
+      <c r="B984" t="inlineStr">
+        <is>
+          <t>Mapocho Venta Directa de Santiago</t>
+        </is>
+      </c>
+      <c r="C984" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D984" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E984" t="n">
+        <v>13</v>
+      </c>
+      <c r="F984" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G984" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H984" t="inlineStr">
+        <is>
+          <t>Larga vida</t>
+        </is>
+      </c>
+      <c r="I984" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J984" t="n">
+        <v>760</v>
+      </c>
+      <c r="K984" t="n">
+        <v>16000</v>
+      </c>
+      <c r="L984" t="n">
+        <v>16500</v>
+      </c>
+      <c r="M984" t="n">
+        <v>16270</v>
+      </c>
+      <c r="N984" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O984" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="P984" t="n">
+        <v>904</v>
+      </c>
+      <c r="Q984" t="n">
+        <v>18</v>
+      </c>
+      <c r="R984" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="985">
+      <c r="A985" t="n">
+        <v>12</v>
+      </c>
+      <c r="B985" t="inlineStr">
+        <is>
+          <t>Mapocho Venta Directa de Santiago</t>
+        </is>
+      </c>
+      <c r="C985" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D985" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E985" t="n">
+        <v>13</v>
+      </c>
+      <c r="F985" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G985" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H985" t="inlineStr">
+        <is>
+          <t>Larga vida</t>
+        </is>
+      </c>
+      <c r="I985" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J985" t="n">
+        <v>580</v>
+      </c>
+      <c r="K985" t="n">
+        <v>15000</v>
+      </c>
+      <c r="L985" t="n">
+        <v>15000</v>
+      </c>
+      <c r="M985" t="n">
+        <v>15000</v>
+      </c>
+      <c r="N985" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O985" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P985" t="n">
+        <v>833</v>
+      </c>
+      <c r="Q985" t="n">
+        <v>18</v>
+      </c>
+      <c r="R985" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="986">
+      <c r="A986" t="n">
+        <v>12</v>
+      </c>
+      <c r="B986" t="inlineStr">
+        <is>
+          <t>Mapocho Venta Directa de Santiago</t>
+        </is>
+      </c>
+      <c r="C986" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D986" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E986" t="n">
+        <v>13</v>
+      </c>
+      <c r="F986" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G986" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H986" t="inlineStr">
+        <is>
+          <t>Larga vida</t>
+        </is>
+      </c>
+      <c r="I986" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="J980" t="n">
+      <c r="J986" t="n">
+        <v>700</v>
+      </c>
+      <c r="K986" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L986" t="n">
+        <v>13500</v>
+      </c>
+      <c r="M986" t="n">
+        <v>13214</v>
+      </c>
+      <c r="N986" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O986" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="P986" t="n">
+        <v>734</v>
+      </c>
+      <c r="Q986" t="n">
+        <v>18</v>
+      </c>
+      <c r="R986" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="987">
+      <c r="A987" t="n">
+        <v>12</v>
+      </c>
+      <c r="B987" t="inlineStr">
+        <is>
+          <t>Mapocho Venta Directa de Santiago</t>
+        </is>
+      </c>
+      <c r="C987" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D987" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E987" t="n">
+        <v>13</v>
+      </c>
+      <c r="F987" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G987" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H987" t="inlineStr">
+        <is>
+          <t>Larga vida</t>
+        </is>
+      </c>
+      <c r="I987" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J987" t="n">
         <v>600</v>
       </c>
-      <c r="K980" t="n">
+      <c r="K987" t="n">
         <v>13000</v>
       </c>
-      <c r="L980" t="n">
+      <c r="L987" t="n">
         <v>13000</v>
       </c>
-      <c r="M980" t="n">
+      <c r="M987" t="n">
         <v>13000</v>
       </c>
-      <c r="N980" t="inlineStr">
-        <is>
-          <t>$/bandeja 18 kilos</t>
-        </is>
-      </c>
-      <c r="O980" t="inlineStr">
+      <c r="N987" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O987" t="inlineStr">
         <is>
           <t>Región de Arica y Parinacota</t>
         </is>
       </c>
-      <c r="P980" t="n">
+      <c r="P987" t="n">
         <v>722</v>
       </c>
-      <c r="Q980" t="n">
-        <v>18</v>
-      </c>
-      <c r="R980" t="inlineStr">
+      <c r="Q987" t="n">
+        <v>18</v>
+      </c>
+      <c r="R987" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Tomate.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Tomate.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R987"/>
+  <dimension ref="A1:R993"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -61605,7 +61605,7 @@
         </is>
       </c>
       <c r="D851" s="2" t="n">
-        <v>44487</v>
+        <v>44505</v>
       </c>
       <c r="E851" t="n">
         <v>13</v>
@@ -61629,16 +61629,16 @@
         </is>
       </c>
       <c r="J851" t="n">
-        <v>890</v>
+        <v>1550</v>
       </c>
       <c r="K851" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="L851" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="M851" t="n">
-        <v>16539</v>
+        <v>19484</v>
       </c>
       <c r="N851" t="inlineStr">
         <is>
@@ -61647,11 +61647,11 @@
       </c>
       <c r="O851" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P851" t="n">
-        <v>919</v>
+        <v>1082</v>
       </c>
       <c r="Q851" t="n">
         <v>18</v>
@@ -61677,7 +61677,7 @@
         </is>
       </c>
       <c r="D852" s="2" t="n">
-        <v>44487</v>
+        <v>44505</v>
       </c>
       <c r="E852" t="n">
         <v>13</v>
@@ -61697,20 +61697,20 @@
       </c>
       <c r="I852" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J852" t="n">
-        <v>940</v>
+        <v>960</v>
       </c>
       <c r="K852" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="L852" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="M852" t="n">
-        <v>14468</v>
+        <v>16573</v>
       </c>
       <c r="N852" t="inlineStr">
         <is>
@@ -61723,7 +61723,7 @@
         </is>
       </c>
       <c r="P852" t="n">
-        <v>804</v>
+        <v>921</v>
       </c>
       <c r="Q852" t="n">
         <v>18</v>
@@ -61749,7 +61749,7 @@
         </is>
       </c>
       <c r="D853" s="2" t="n">
-        <v>44487</v>
+        <v>44505</v>
       </c>
       <c r="E853" t="n">
         <v>13</v>
@@ -61769,20 +61769,20 @@
       </c>
       <c r="I853" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J853" t="n">
-        <v>740</v>
+        <v>910</v>
       </c>
       <c r="K853" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="L853" t="n">
-        <v>11000</v>
+        <v>19000</v>
       </c>
       <c r="M853" t="n">
-        <v>10446</v>
+        <v>18451</v>
       </c>
       <c r="N853" t="inlineStr">
         <is>
@@ -61791,11 +61791,11 @@
       </c>
       <c r="O853" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P853" t="n">
-        <v>580</v>
+        <v>1025</v>
       </c>
       <c r="Q853" t="n">
         <v>18</v>
@@ -61821,7 +61821,7 @@
         </is>
       </c>
       <c r="D854" s="2" t="n">
-        <v>44425</v>
+        <v>44505</v>
       </c>
       <c r="E854" t="n">
         <v>13</v>
@@ -61841,20 +61841,20 @@
       </c>
       <c r="I854" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J854" t="n">
-        <v>390</v>
+        <v>970</v>
       </c>
       <c r="K854" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="L854" t="n">
-        <v>9000</v>
+        <v>16000</v>
       </c>
       <c r="M854" t="n">
-        <v>8462</v>
+        <v>15773</v>
       </c>
       <c r="N854" t="inlineStr">
         <is>
@@ -61863,11 +61863,11 @@
       </c>
       <c r="O854" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P854" t="n">
-        <v>470</v>
+        <v>876</v>
       </c>
       <c r="Q854" t="n">
         <v>18</v>
@@ -61893,7 +61893,7 @@
         </is>
       </c>
       <c r="D855" s="2" t="n">
-        <v>44425</v>
+        <v>44505</v>
       </c>
       <c r="E855" t="n">
         <v>13</v>
@@ -61913,20 +61913,20 @@
       </c>
       <c r="I855" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J855" t="n">
-        <v>1040</v>
+        <v>900</v>
       </c>
       <c r="K855" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="L855" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="M855" t="n">
-        <v>11538</v>
+        <v>13556</v>
       </c>
       <c r="N855" t="inlineStr">
         <is>
@@ -61935,11 +61935,11 @@
       </c>
       <c r="O855" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P855" t="n">
-        <v>641</v>
+        <v>753</v>
       </c>
       <c r="Q855" t="n">
         <v>18</v>
@@ -61965,7 +61965,7 @@
         </is>
       </c>
       <c r="D856" s="2" t="n">
-        <v>44425</v>
+        <v>44505</v>
       </c>
       <c r="E856" t="n">
         <v>13</v>
@@ -61985,20 +61985,20 @@
       </c>
       <c r="I856" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J856" t="n">
-        <v>450</v>
+        <v>860</v>
       </c>
       <c r="K856" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="L856" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="M856" t="n">
-        <v>6444</v>
+        <v>12523</v>
       </c>
       <c r="N856" t="inlineStr">
         <is>
@@ -62007,11 +62007,11 @@
       </c>
       <c r="O856" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P856" t="n">
-        <v>358</v>
+        <v>696</v>
       </c>
       <c r="Q856" t="n">
         <v>18</v>
@@ -62037,7 +62037,7 @@
         </is>
       </c>
       <c r="D857" s="2" t="n">
-        <v>44425</v>
+        <v>44487</v>
       </c>
       <c r="E857" t="n">
         <v>13</v>
@@ -62057,20 +62057,20 @@
       </c>
       <c r="I857" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J857" t="n">
-        <v>1030</v>
+        <v>890</v>
       </c>
       <c r="K857" t="n">
-        <v>9000</v>
+        <v>16000</v>
       </c>
       <c r="L857" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="M857" t="n">
-        <v>9466</v>
+        <v>16539</v>
       </c>
       <c r="N857" t="inlineStr">
         <is>
@@ -62083,7 +62083,7 @@
         </is>
       </c>
       <c r="P857" t="n">
-        <v>526</v>
+        <v>919</v>
       </c>
       <c r="Q857" t="n">
         <v>18</v>
@@ -62109,7 +62109,7 @@
         </is>
       </c>
       <c r="D858" s="2" t="n">
-        <v>44425</v>
+        <v>44487</v>
       </c>
       <c r="E858" t="n">
         <v>13</v>
@@ -62129,20 +62129,20 @@
       </c>
       <c r="I858" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J858" t="n">
-        <v>440</v>
+        <v>940</v>
       </c>
       <c r="K858" t="n">
-        <v>4000</v>
+        <v>14000</v>
       </c>
       <c r="L858" t="n">
-        <v>5000</v>
+        <v>15000</v>
       </c>
       <c r="M858" t="n">
-        <v>4591</v>
+        <v>14468</v>
       </c>
       <c r="N858" t="inlineStr">
         <is>
@@ -62151,11 +62151,11 @@
       </c>
       <c r="O858" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P858" t="n">
-        <v>255</v>
+        <v>804</v>
       </c>
       <c r="Q858" t="n">
         <v>18</v>
@@ -62181,7 +62181,7 @@
         </is>
       </c>
       <c r="D859" s="2" t="n">
-        <v>44425</v>
+        <v>44487</v>
       </c>
       <c r="E859" t="n">
         <v>13</v>
@@ -62205,16 +62205,16 @@
         </is>
       </c>
       <c r="J859" t="n">
-        <v>820</v>
+        <v>740</v>
       </c>
       <c r="K859" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L859" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="M859" t="n">
-        <v>7537</v>
+        <v>10446</v>
       </c>
       <c r="N859" t="inlineStr">
         <is>
@@ -62227,7 +62227,7 @@
         </is>
       </c>
       <c r="P859" t="n">
-        <v>419</v>
+        <v>580</v>
       </c>
       <c r="Q859" t="n">
         <v>18</v>
@@ -62253,7 +62253,7 @@
         </is>
       </c>
       <c r="D860" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E860" t="n">
         <v>13</v>
@@ -62277,16 +62277,16 @@
         </is>
       </c>
       <c r="J860" t="n">
-        <v>740</v>
+        <v>390</v>
       </c>
       <c r="K860" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="L860" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="M860" t="n">
-        <v>11622</v>
+        <v>8462</v>
       </c>
       <c r="N860" t="inlineStr">
         <is>
@@ -62295,11 +62295,11 @@
       </c>
       <c r="O860" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P860" t="n">
-        <v>646</v>
+        <v>470</v>
       </c>
       <c r="Q860" t="n">
         <v>18</v>
@@ -62325,7 +62325,7 @@
         </is>
       </c>
       <c r="D861" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E861" t="n">
         <v>13</v>
@@ -62349,16 +62349,16 @@
         </is>
       </c>
       <c r="J861" t="n">
-        <v>250</v>
+        <v>1040</v>
       </c>
       <c r="K861" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="L861" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="M861" t="n">
-        <v>13000</v>
+        <v>11538</v>
       </c>
       <c r="N861" t="inlineStr">
         <is>
@@ -62371,7 +62371,7 @@
         </is>
       </c>
       <c r="P861" t="n">
-        <v>722</v>
+        <v>641</v>
       </c>
       <c r="Q861" t="n">
         <v>18</v>
@@ -62397,7 +62397,7 @@
         </is>
       </c>
       <c r="D862" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E862" t="n">
         <v>13</v>
@@ -62421,16 +62421,16 @@
         </is>
       </c>
       <c r="J862" t="n">
-        <v>1040</v>
+        <v>450</v>
       </c>
       <c r="K862" t="n">
-        <v>9500</v>
+        <v>6000</v>
       </c>
       <c r="L862" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="M862" t="n">
-        <v>9769</v>
+        <v>6444</v>
       </c>
       <c r="N862" t="inlineStr">
         <is>
@@ -62439,11 +62439,11 @@
       </c>
       <c r="O862" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P862" t="n">
-        <v>543</v>
+        <v>358</v>
       </c>
       <c r="Q862" t="n">
         <v>18</v>
@@ -62469,7 +62469,7 @@
         </is>
       </c>
       <c r="D863" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E863" t="n">
         <v>13</v>
@@ -62493,16 +62493,16 @@
         </is>
       </c>
       <c r="J863" t="n">
-        <v>380</v>
+        <v>1030</v>
       </c>
       <c r="K863" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="L863" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="M863" t="n">
-        <v>11000</v>
+        <v>9466</v>
       </c>
       <c r="N863" t="inlineStr">
         <is>
@@ -62515,7 +62515,7 @@
         </is>
       </c>
       <c r="P863" t="n">
-        <v>611</v>
+        <v>526</v>
       </c>
       <c r="Q863" t="n">
         <v>18</v>
@@ -62541,7 +62541,7 @@
         </is>
       </c>
       <c r="D864" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E864" t="n">
         <v>13</v>
@@ -62565,16 +62565,16 @@
         </is>
       </c>
       <c r="J864" t="n">
-        <v>670</v>
+        <v>440</v>
       </c>
       <c r="K864" t="n">
-        <v>6500</v>
+        <v>4000</v>
       </c>
       <c r="L864" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="M864" t="n">
-        <v>6784</v>
+        <v>4591</v>
       </c>
       <c r="N864" t="inlineStr">
         <is>
@@ -62583,11 +62583,11 @@
       </c>
       <c r="O864" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P864" t="n">
-        <v>377</v>
+        <v>255</v>
       </c>
       <c r="Q864" t="n">
         <v>18</v>
@@ -62613,7 +62613,7 @@
         </is>
       </c>
       <c r="D865" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E865" t="n">
         <v>13</v>
@@ -62637,16 +62637,16 @@
         </is>
       </c>
       <c r="J865" t="n">
-        <v>160</v>
+        <v>820</v>
       </c>
       <c r="K865" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="L865" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="M865" t="n">
-        <v>9000</v>
+        <v>7537</v>
       </c>
       <c r="N865" t="inlineStr">
         <is>
@@ -62659,7 +62659,7 @@
         </is>
       </c>
       <c r="P865" t="n">
-        <v>500</v>
+        <v>419</v>
       </c>
       <c r="Q865" t="n">
         <v>18</v>
@@ -62685,7 +62685,7 @@
         </is>
       </c>
       <c r="D866" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E866" t="n">
         <v>13</v>
@@ -62709,16 +62709,16 @@
         </is>
       </c>
       <c r="J866" t="n">
-        <v>470</v>
+        <v>740</v>
       </c>
       <c r="K866" t="n">
         <v>11000</v>
       </c>
       <c r="L866" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="M866" t="n">
-        <v>11000</v>
+        <v>11622</v>
       </c>
       <c r="N866" t="inlineStr">
         <is>
@@ -62727,11 +62727,11 @@
       </c>
       <c r="O866" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P866" t="n">
-        <v>611</v>
+        <v>646</v>
       </c>
       <c r="Q866" t="n">
         <v>18</v>
@@ -62757,7 +62757,7 @@
         </is>
       </c>
       <c r="D867" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E867" t="n">
         <v>13</v>
@@ -62777,20 +62777,20 @@
       </c>
       <c r="I867" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J867" t="n">
-        <v>560</v>
+        <v>250</v>
       </c>
       <c r="K867" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="L867" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="M867" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="N867" t="inlineStr">
         <is>
@@ -62799,11 +62799,11 @@
       </c>
       <c r="O867" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P867" t="n">
-        <v>556</v>
+        <v>722</v>
       </c>
       <c r="Q867" t="n">
         <v>18</v>
@@ -62829,7 +62829,7 @@
         </is>
       </c>
       <c r="D868" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E868" t="n">
         <v>13</v>
@@ -62849,20 +62849,20 @@
       </c>
       <c r="I868" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J868" t="n">
-        <v>340</v>
+        <v>1040</v>
       </c>
       <c r="K868" t="n">
-        <v>9000</v>
+        <v>9500</v>
       </c>
       <c r="L868" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M868" t="n">
-        <v>9000</v>
+        <v>9769</v>
       </c>
       <c r="N868" t="inlineStr">
         <is>
@@ -62871,11 +62871,11 @@
       </c>
       <c r="O868" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P868" t="n">
-        <v>500</v>
+        <v>543</v>
       </c>
       <c r="Q868" t="n">
         <v>18</v>
@@ -62901,7 +62901,7 @@
         </is>
       </c>
       <c r="D869" s="2" t="n">
-        <v>44449</v>
+        <v>44343</v>
       </c>
       <c r="E869" t="n">
         <v>13</v>
@@ -62921,20 +62921,20 @@
       </c>
       <c r="I869" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J869" t="n">
-        <v>790</v>
+        <v>380</v>
       </c>
       <c r="K869" t="n">
-        <v>19000</v>
+        <v>11000</v>
       </c>
       <c r="L869" t="n">
-        <v>20000</v>
+        <v>11000</v>
       </c>
       <c r="M869" t="n">
-        <v>19481</v>
+        <v>11000</v>
       </c>
       <c r="N869" t="inlineStr">
         <is>
@@ -62943,11 +62943,11 @@
       </c>
       <c r="O869" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P869" t="n">
-        <v>1082</v>
+        <v>611</v>
       </c>
       <c r="Q869" t="n">
         <v>18</v>
@@ -62973,7 +62973,7 @@
         </is>
       </c>
       <c r="D870" s="2" t="n">
-        <v>44449</v>
+        <v>44343</v>
       </c>
       <c r="E870" t="n">
         <v>13</v>
@@ -62993,20 +62993,20 @@
       </c>
       <c r="I870" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J870" t="n">
-        <v>800</v>
+        <v>670</v>
       </c>
       <c r="K870" t="n">
-        <v>15000</v>
+        <v>6500</v>
       </c>
       <c r="L870" t="n">
-        <v>16000</v>
+        <v>7000</v>
       </c>
       <c r="M870" t="n">
-        <v>15500</v>
+        <v>6784</v>
       </c>
       <c r="N870" t="inlineStr">
         <is>
@@ -63015,11 +63015,11 @@
       </c>
       <c r="O870" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P870" t="n">
-        <v>861</v>
+        <v>377</v>
       </c>
       <c r="Q870" t="n">
         <v>18</v>
@@ -63045,7 +63045,7 @@
         </is>
       </c>
       <c r="D871" s="2" t="n">
-        <v>44449</v>
+        <v>44343</v>
       </c>
       <c r="E871" t="n">
         <v>13</v>
@@ -63065,20 +63065,20 @@
       </c>
       <c r="I871" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J871" t="n">
-        <v>1130</v>
+        <v>160</v>
       </c>
       <c r="K871" t="n">
-        <v>22000</v>
+        <v>9000</v>
       </c>
       <c r="L871" t="n">
-        <v>23000</v>
+        <v>9000</v>
       </c>
       <c r="M871" t="n">
-        <v>22487</v>
+        <v>9000</v>
       </c>
       <c r="N871" t="inlineStr">
         <is>
@@ -63091,7 +63091,7 @@
         </is>
       </c>
       <c r="P871" t="n">
-        <v>1249</v>
+        <v>500</v>
       </c>
       <c r="Q871" t="n">
         <v>18</v>
@@ -63117,7 +63117,7 @@
         </is>
       </c>
       <c r="D872" s="2" t="n">
-        <v>44449</v>
+        <v>44370</v>
       </c>
       <c r="E872" t="n">
         <v>13</v>
@@ -63137,20 +63137,20 @@
       </c>
       <c r="I872" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J872" t="n">
-        <v>810</v>
+        <v>470</v>
       </c>
       <c r="K872" t="n">
         <v>11000</v>
       </c>
       <c r="L872" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="M872" t="n">
-        <v>11432</v>
+        <v>11000</v>
       </c>
       <c r="N872" t="inlineStr">
         <is>
@@ -63163,7 +63163,7 @@
         </is>
       </c>
       <c r="P872" t="n">
-        <v>635</v>
+        <v>611</v>
       </c>
       <c r="Q872" t="n">
         <v>18</v>
@@ -63189,7 +63189,7 @@
         </is>
       </c>
       <c r="D873" s="2" t="n">
-        <v>44449</v>
+        <v>44370</v>
       </c>
       <c r="E873" t="n">
         <v>13</v>
@@ -63209,20 +63209,20 @@
       </c>
       <c r="I873" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J873" t="n">
-        <v>860</v>
+        <v>560</v>
       </c>
       <c r="K873" t="n">
-        <v>19000</v>
+        <v>10000</v>
       </c>
       <c r="L873" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="M873" t="n">
-        <v>19523</v>
+        <v>10000</v>
       </c>
       <c r="N873" t="inlineStr">
         <is>
@@ -63231,11 +63231,11 @@
       </c>
       <c r="O873" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P873" t="n">
-        <v>1085</v>
+        <v>556</v>
       </c>
       <c r="Q873" t="n">
         <v>18</v>
@@ -63261,7 +63261,7 @@
         </is>
       </c>
       <c r="D874" s="2" t="n">
-        <v>44168</v>
+        <v>44370</v>
       </c>
       <c r="E874" t="n">
         <v>13</v>
@@ -63281,20 +63281,20 @@
       </c>
       <c r="I874" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J874" t="n">
-        <v>1140</v>
+        <v>340</v>
       </c>
       <c r="K874" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="L874" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="M874" t="n">
-        <v>11579</v>
+        <v>9000</v>
       </c>
       <c r="N874" t="inlineStr">
         <is>
@@ -63307,7 +63307,7 @@
         </is>
       </c>
       <c r="P874" t="n">
-        <v>643</v>
+        <v>500</v>
       </c>
       <c r="Q874" t="n">
         <v>18</v>
@@ -63333,7 +63333,7 @@
         </is>
       </c>
       <c r="D875" s="2" t="n">
-        <v>44168</v>
+        <v>44449</v>
       </c>
       <c r="E875" t="n">
         <v>13</v>
@@ -63353,20 +63353,20 @@
       </c>
       <c r="I875" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J875" t="n">
-        <v>1370</v>
+        <v>790</v>
       </c>
       <c r="K875" t="n">
-        <v>9000</v>
+        <v>19000</v>
       </c>
       <c r="L875" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="M875" t="n">
-        <v>9577</v>
+        <v>19481</v>
       </c>
       <c r="N875" t="inlineStr">
         <is>
@@ -63379,7 +63379,7 @@
         </is>
       </c>
       <c r="P875" t="n">
-        <v>532</v>
+        <v>1082</v>
       </c>
       <c r="Q875" t="n">
         <v>18</v>
@@ -63405,7 +63405,7 @@
         </is>
       </c>
       <c r="D876" s="2" t="n">
-        <v>44168</v>
+        <v>44449</v>
       </c>
       <c r="E876" t="n">
         <v>13</v>
@@ -63425,20 +63425,20 @@
       </c>
       <c r="I876" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J876" t="n">
-        <v>950</v>
+        <v>800</v>
       </c>
       <c r="K876" t="n">
-        <v>6500</v>
+        <v>15000</v>
       </c>
       <c r="L876" t="n">
-        <v>7000</v>
+        <v>16000</v>
       </c>
       <c r="M876" t="n">
-        <v>6800</v>
+        <v>15500</v>
       </c>
       <c r="N876" t="inlineStr">
         <is>
@@ -63451,7 +63451,7 @@
         </is>
       </c>
       <c r="P876" t="n">
-        <v>378</v>
+        <v>861</v>
       </c>
       <c r="Q876" t="n">
         <v>18</v>
@@ -63477,7 +63477,7 @@
         </is>
       </c>
       <c r="D877" s="2" t="n">
-        <v>44168</v>
+        <v>44449</v>
       </c>
       <c r="E877" t="n">
         <v>13</v>
@@ -63497,20 +63497,20 @@
       </c>
       <c r="I877" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J877" t="n">
-        <v>720</v>
+        <v>1130</v>
       </c>
       <c r="K877" t="n">
-        <v>4500</v>
+        <v>22000</v>
       </c>
       <c r="L877" t="n">
-        <v>5000</v>
+        <v>23000</v>
       </c>
       <c r="M877" t="n">
-        <v>4792</v>
+        <v>22487</v>
       </c>
       <c r="N877" t="inlineStr">
         <is>
@@ -63519,11 +63519,11 @@
       </c>
       <c r="O877" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P877" t="n">
-        <v>266</v>
+        <v>1249</v>
       </c>
       <c r="Q877" t="n">
         <v>18</v>
@@ -63549,7 +63549,7 @@
         </is>
       </c>
       <c r="D878" s="2" t="n">
-        <v>44175</v>
+        <v>44449</v>
       </c>
       <c r="E878" t="n">
         <v>13</v>
@@ -63569,20 +63569,20 @@
       </c>
       <c r="I878" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J878" t="n">
-        <v>1080</v>
+        <v>810</v>
       </c>
       <c r="K878" t="n">
-        <v>9500</v>
+        <v>11000</v>
       </c>
       <c r="L878" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M878" t="n">
-        <v>9778</v>
+        <v>11432</v>
       </c>
       <c r="N878" t="inlineStr">
         <is>
@@ -63595,7 +63595,7 @@
         </is>
       </c>
       <c r="P878" t="n">
-        <v>543</v>
+        <v>635</v>
       </c>
       <c r="Q878" t="n">
         <v>18</v>
@@ -63621,7 +63621,7 @@
         </is>
       </c>
       <c r="D879" s="2" t="n">
-        <v>44175</v>
+        <v>44449</v>
       </c>
       <c r="E879" t="n">
         <v>13</v>
@@ -63641,20 +63641,20 @@
       </c>
       <c r="I879" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J879" t="n">
-        <v>1280</v>
+        <v>860</v>
       </c>
       <c r="K879" t="n">
-        <v>7000</v>
+        <v>19000</v>
       </c>
       <c r="L879" t="n">
-        <v>7500</v>
+        <v>20000</v>
       </c>
       <c r="M879" t="n">
-        <v>7266</v>
+        <v>19523</v>
       </c>
       <c r="N879" t="inlineStr">
         <is>
@@ -63663,11 +63663,11 @@
       </c>
       <c r="O879" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P879" t="n">
-        <v>404</v>
+        <v>1085</v>
       </c>
       <c r="Q879" t="n">
         <v>18</v>
@@ -63693,7 +63693,7 @@
         </is>
       </c>
       <c r="D880" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E880" t="n">
         <v>13</v>
@@ -63713,20 +63713,20 @@
       </c>
       <c r="I880" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J880" t="n">
-        <v>880</v>
+        <v>1140</v>
       </c>
       <c r="K880" t="n">
-        <v>5000</v>
+        <v>11000</v>
       </c>
       <c r="L880" t="n">
-        <v>5500</v>
+        <v>12000</v>
       </c>
       <c r="M880" t="n">
-        <v>5273</v>
+        <v>11579</v>
       </c>
       <c r="N880" t="inlineStr">
         <is>
@@ -63739,7 +63739,7 @@
         </is>
       </c>
       <c r="P880" t="n">
-        <v>293</v>
+        <v>643</v>
       </c>
       <c r="Q880" t="n">
         <v>18</v>
@@ -63765,7 +63765,7 @@
         </is>
       </c>
       <c r="D881" s="2" t="n">
-        <v>44392</v>
+        <v>44168</v>
       </c>
       <c r="E881" t="n">
         <v>13</v>
@@ -63785,20 +63785,20 @@
       </c>
       <c r="I881" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J881" t="n">
-        <v>180</v>
+        <v>1370</v>
       </c>
       <c r="K881" t="n">
         <v>9000</v>
       </c>
       <c r="L881" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M881" t="n">
-        <v>9000</v>
+        <v>9577</v>
       </c>
       <c r="N881" t="inlineStr">
         <is>
@@ -63811,7 +63811,7 @@
         </is>
       </c>
       <c r="P881" t="n">
-        <v>500</v>
+        <v>532</v>
       </c>
       <c r="Q881" t="n">
         <v>18</v>
@@ -63837,7 +63837,7 @@
         </is>
       </c>
       <c r="D882" s="2" t="n">
-        <v>44392</v>
+        <v>44168</v>
       </c>
       <c r="E882" t="n">
         <v>13</v>
@@ -63857,20 +63857,20 @@
       </c>
       <c r="I882" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J882" t="n">
-        <v>1040</v>
+        <v>950</v>
       </c>
       <c r="K882" t="n">
-        <v>15000</v>
+        <v>6500</v>
       </c>
       <c r="L882" t="n">
-        <v>16000</v>
+        <v>7000</v>
       </c>
       <c r="M882" t="n">
-        <v>15538</v>
+        <v>6800</v>
       </c>
       <c r="N882" t="inlineStr">
         <is>
@@ -63879,11 +63879,11 @@
       </c>
       <c r="O882" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P882" t="n">
-        <v>863</v>
+        <v>378</v>
       </c>
       <c r="Q882" t="n">
         <v>18</v>
@@ -63909,7 +63909,7 @@
         </is>
       </c>
       <c r="D883" s="2" t="n">
-        <v>44392</v>
+        <v>44168</v>
       </c>
       <c r="E883" t="n">
         <v>13</v>
@@ -63929,20 +63929,20 @@
       </c>
       <c r="I883" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J883" t="n">
-        <v>620</v>
+        <v>720</v>
       </c>
       <c r="K883" t="n">
-        <v>8000</v>
+        <v>4500</v>
       </c>
       <c r="L883" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="M883" t="n">
-        <v>8000</v>
+        <v>4792</v>
       </c>
       <c r="N883" t="inlineStr">
         <is>
@@ -63955,7 +63955,7 @@
         </is>
       </c>
       <c r="P883" t="n">
-        <v>444</v>
+        <v>266</v>
       </c>
       <c r="Q883" t="n">
         <v>18</v>
@@ -63981,7 +63981,7 @@
         </is>
       </c>
       <c r="D884" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E884" t="n">
         <v>13</v>
@@ -64001,20 +64001,20 @@
       </c>
       <c r="I884" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J884" t="n">
-        <v>1160</v>
+        <v>1080</v>
       </c>
       <c r="K884" t="n">
-        <v>13000</v>
+        <v>9500</v>
       </c>
       <c r="L884" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="M884" t="n">
-        <v>13517</v>
+        <v>9778</v>
       </c>
       <c r="N884" t="inlineStr">
         <is>
@@ -64023,11 +64023,11 @@
       </c>
       <c r="O884" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P884" t="n">
-        <v>751</v>
+        <v>543</v>
       </c>
       <c r="Q884" t="n">
         <v>18</v>
@@ -64053,7 +64053,7 @@
         </is>
       </c>
       <c r="D885" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E885" t="n">
         <v>13</v>
@@ -64073,20 +64073,20 @@
       </c>
       <c r="I885" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J885" t="n">
-        <v>270</v>
+        <v>1280</v>
       </c>
       <c r="K885" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L885" t="n">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="M885" t="n">
-        <v>6000</v>
+        <v>7266</v>
       </c>
       <c r="N885" t="inlineStr">
         <is>
@@ -64099,7 +64099,7 @@
         </is>
       </c>
       <c r="P885" t="n">
-        <v>333</v>
+        <v>404</v>
       </c>
       <c r="Q885" t="n">
         <v>18</v>
@@ -64125,7 +64125,7 @@
         </is>
       </c>
       <c r="D886" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E886" t="n">
         <v>13</v>
@@ -64149,16 +64149,16 @@
         </is>
       </c>
       <c r="J886" t="n">
-        <v>1100</v>
+        <v>880</v>
       </c>
       <c r="K886" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="L886" t="n">
-        <v>8000</v>
+        <v>5500</v>
       </c>
       <c r="M886" t="n">
-        <v>7473</v>
+        <v>5273</v>
       </c>
       <c r="N886" t="inlineStr">
         <is>
@@ -64167,11 +64167,11 @@
       </c>
       <c r="O886" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P886" t="n">
-        <v>415</v>
+        <v>293</v>
       </c>
       <c r="Q886" t="n">
         <v>18</v>
@@ -64197,7 +64197,7 @@
         </is>
       </c>
       <c r="D887" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E887" t="n">
         <v>13</v>
@@ -64221,16 +64221,16 @@
         </is>
       </c>
       <c r="J887" t="n">
-        <v>780</v>
+        <v>180</v>
       </c>
       <c r="K887" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="L887" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="M887" t="n">
-        <v>13513</v>
+        <v>9000</v>
       </c>
       <c r="N887" t="inlineStr">
         <is>
@@ -64243,7 +64243,7 @@
         </is>
       </c>
       <c r="P887" t="n">
-        <v>751</v>
+        <v>500</v>
       </c>
       <c r="Q887" t="n">
         <v>18</v>
@@ -64269,7 +64269,7 @@
         </is>
       </c>
       <c r="D888" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E888" t="n">
         <v>13</v>
@@ -64289,20 +64289,20 @@
       </c>
       <c r="I888" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J888" t="n">
         <v>1040</v>
       </c>
       <c r="K888" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="L888" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="M888" t="n">
-        <v>10462</v>
+        <v>15538</v>
       </c>
       <c r="N888" t="inlineStr">
         <is>
@@ -64311,11 +64311,11 @@
       </c>
       <c r="O888" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P888" t="n">
-        <v>581</v>
+        <v>863</v>
       </c>
       <c r="Q888" t="n">
         <v>18</v>
@@ -64341,7 +64341,7 @@
         </is>
       </c>
       <c r="D889" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E889" t="n">
         <v>13</v>
@@ -64361,20 +64361,20 @@
       </c>
       <c r="I889" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J889" t="n">
-        <v>550</v>
+        <v>620</v>
       </c>
       <c r="K889" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L889" t="n">
         <v>8000</v>
       </c>
       <c r="M889" t="n">
-        <v>7545</v>
+        <v>8000</v>
       </c>
       <c r="N889" t="inlineStr">
         <is>
@@ -64387,7 +64387,7 @@
         </is>
       </c>
       <c r="P889" t="n">
-        <v>419</v>
+        <v>444</v>
       </c>
       <c r="Q889" t="n">
         <v>18</v>
@@ -64413,7 +64413,7 @@
         </is>
       </c>
       <c r="D890" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E890" t="n">
         <v>13</v>
@@ -64428,25 +64428,25 @@
       </c>
       <c r="H890" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I890" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J890" t="n">
-        <v>580</v>
+        <v>1160</v>
       </c>
       <c r="K890" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="L890" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="M890" t="n">
-        <v>7517</v>
+        <v>13517</v>
       </c>
       <c r="N890" t="inlineStr">
         <is>
@@ -64455,11 +64455,11 @@
       </c>
       <c r="O890" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P890" t="n">
-        <v>418</v>
+        <v>751</v>
       </c>
       <c r="Q890" t="n">
         <v>18</v>
@@ -64485,7 +64485,7 @@
         </is>
       </c>
       <c r="D891" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E891" t="n">
         <v>13</v>
@@ -64500,25 +64500,25 @@
       </c>
       <c r="H891" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I891" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J891" t="n">
-        <v>550</v>
+        <v>270</v>
       </c>
       <c r="K891" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L891" t="n">
         <v>6000</v>
       </c>
       <c r="M891" t="n">
-        <v>5455</v>
+        <v>6000</v>
       </c>
       <c r="N891" t="inlineStr">
         <is>
@@ -64527,11 +64527,11 @@
       </c>
       <c r="O891" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P891" t="n">
-        <v>303</v>
+        <v>333</v>
       </c>
       <c r="Q891" t="n">
         <v>18</v>
@@ -64557,7 +64557,7 @@
         </is>
       </c>
       <c r="D892" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E892" t="n">
         <v>13</v>
@@ -64572,7 +64572,7 @@
       </c>
       <c r="H892" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I892" t="inlineStr">
@@ -64581,16 +64581,16 @@
         </is>
       </c>
       <c r="J892" t="n">
-        <v>440</v>
+        <v>1100</v>
       </c>
       <c r="K892" t="n">
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="L892" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="M892" t="n">
-        <v>3591</v>
+        <v>7473</v>
       </c>
       <c r="N892" t="inlineStr">
         <is>
@@ -64599,11 +64599,11 @@
       </c>
       <c r="O892" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P892" t="n">
-        <v>200</v>
+        <v>415</v>
       </c>
       <c r="Q892" t="n">
         <v>18</v>
@@ -64629,7 +64629,7 @@
         </is>
       </c>
       <c r="D893" s="2" t="n">
-        <v>44473</v>
+        <v>44286</v>
       </c>
       <c r="E893" t="n">
         <v>13</v>
@@ -64653,16 +64653,16 @@
         </is>
       </c>
       <c r="J893" t="n">
-        <v>420</v>
+        <v>780</v>
       </c>
       <c r="K893" t="n">
-        <v>19000</v>
+        <v>13000</v>
       </c>
       <c r="L893" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="M893" t="n">
-        <v>19429</v>
+        <v>13513</v>
       </c>
       <c r="N893" t="inlineStr">
         <is>
@@ -64671,11 +64671,11 @@
       </c>
       <c r="O893" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P893" t="n">
-        <v>1079</v>
+        <v>751</v>
       </c>
       <c r="Q893" t="n">
         <v>18</v>
@@ -64701,7 +64701,7 @@
         </is>
       </c>
       <c r="D894" s="2" t="n">
-        <v>44473</v>
+        <v>44286</v>
       </c>
       <c r="E894" t="n">
         <v>13</v>
@@ -64725,16 +64725,16 @@
         </is>
       </c>
       <c r="J894" t="n">
-        <v>500</v>
+        <v>1040</v>
       </c>
       <c r="K894" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="L894" t="n">
-        <v>17000</v>
+        <v>11000</v>
       </c>
       <c r="M894" t="n">
-        <v>16560</v>
+        <v>10462</v>
       </c>
       <c r="N894" t="inlineStr">
         <is>
@@ -64743,11 +64743,11 @@
       </c>
       <c r="O894" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P894" t="n">
-        <v>920</v>
+        <v>581</v>
       </c>
       <c r="Q894" t="n">
         <v>18</v>
@@ -64773,7 +64773,7 @@
         </is>
       </c>
       <c r="D895" s="2" t="n">
-        <v>44473</v>
+        <v>44286</v>
       </c>
       <c r="E895" t="n">
         <v>13</v>
@@ -64797,16 +64797,16 @@
         </is>
       </c>
       <c r="J895" t="n">
-        <v>320</v>
+        <v>550</v>
       </c>
       <c r="K895" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="L895" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="M895" t="n">
-        <v>13562</v>
+        <v>7545</v>
       </c>
       <c r="N895" t="inlineStr">
         <is>
@@ -64815,11 +64815,11 @@
       </c>
       <c r="O895" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P895" t="n">
-        <v>753</v>
+        <v>419</v>
       </c>
       <c r="Q895" t="n">
         <v>18</v>
@@ -64845,7 +64845,7 @@
         </is>
       </c>
       <c r="D896" s="2" t="n">
-        <v>44400</v>
+        <v>44286</v>
       </c>
       <c r="E896" t="n">
         <v>13</v>
@@ -64860,7 +64860,7 @@
       </c>
       <c r="H896" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I896" t="inlineStr">
@@ -64869,16 +64869,16 @@
         </is>
       </c>
       <c r="J896" t="n">
-        <v>450</v>
+        <v>580</v>
       </c>
       <c r="K896" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L896" t="n">
         <v>8000</v>
       </c>
-      <c r="L896" t="n">
-        <v>8500</v>
-      </c>
       <c r="M896" t="n">
-        <v>8278</v>
+        <v>7517</v>
       </c>
       <c r="N896" t="inlineStr">
         <is>
@@ -64887,11 +64887,11 @@
       </c>
       <c r="O896" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P896" t="n">
-        <v>460</v>
+        <v>418</v>
       </c>
       <c r="Q896" t="n">
         <v>18</v>
@@ -64917,7 +64917,7 @@
         </is>
       </c>
       <c r="D897" s="2" t="n">
-        <v>44400</v>
+        <v>44286</v>
       </c>
       <c r="E897" t="n">
         <v>13</v>
@@ -64932,25 +64932,25 @@
       </c>
       <c r="H897" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I897" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J897" t="n">
-        <v>960</v>
+        <v>550</v>
       </c>
       <c r="K897" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="L897" t="n">
-        <v>13000</v>
+        <v>6000</v>
       </c>
       <c r="M897" t="n">
-        <v>12583</v>
+        <v>5455</v>
       </c>
       <c r="N897" t="inlineStr">
         <is>
@@ -64959,11 +64959,11 @@
       </c>
       <c r="O897" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P897" t="n">
-        <v>699</v>
+        <v>303</v>
       </c>
       <c r="Q897" t="n">
         <v>18</v>
@@ -64989,7 +64989,7 @@
         </is>
       </c>
       <c r="D898" s="2" t="n">
-        <v>44400</v>
+        <v>44286</v>
       </c>
       <c r="E898" t="n">
         <v>13</v>
@@ -65004,25 +65004,25 @@
       </c>
       <c r="H898" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I898" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J898" t="n">
-        <v>620</v>
+        <v>440</v>
       </c>
       <c r="K898" t="n">
-        <v>7000</v>
+        <v>3000</v>
       </c>
       <c r="L898" t="n">
-        <v>7500</v>
+        <v>4000</v>
       </c>
       <c r="M898" t="n">
-        <v>7274</v>
+        <v>3591</v>
       </c>
       <c r="N898" t="inlineStr">
         <is>
@@ -65031,11 +65031,11 @@
       </c>
       <c r="O898" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P898" t="n">
-        <v>404</v>
+        <v>200</v>
       </c>
       <c r="Q898" t="n">
         <v>18</v>
@@ -65061,7 +65061,7 @@
         </is>
       </c>
       <c r="D899" s="2" t="n">
-        <v>44400</v>
+        <v>44473</v>
       </c>
       <c r="E899" t="n">
         <v>13</v>
@@ -65081,20 +65081,20 @@
       </c>
       <c r="I899" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J899" t="n">
-        <v>920</v>
+        <v>420</v>
       </c>
       <c r="K899" t="n">
-        <v>10000</v>
+        <v>19000</v>
       </c>
       <c r="L899" t="n">
-        <v>11000</v>
+        <v>20000</v>
       </c>
       <c r="M899" t="n">
-        <v>10522</v>
+        <v>19429</v>
       </c>
       <c r="N899" t="inlineStr">
         <is>
@@ -65107,7 +65107,7 @@
         </is>
       </c>
       <c r="P899" t="n">
-        <v>585</v>
+        <v>1079</v>
       </c>
       <c r="Q899" t="n">
         <v>18</v>
@@ -65133,7 +65133,7 @@
         </is>
       </c>
       <c r="D900" s="2" t="n">
-        <v>44400</v>
+        <v>44473</v>
       </c>
       <c r="E900" t="n">
         <v>13</v>
@@ -65153,20 +65153,20 @@
       </c>
       <c r="I900" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J900" t="n">
-        <v>230</v>
+        <v>500</v>
       </c>
       <c r="K900" t="n">
-        <v>5000</v>
+        <v>16000</v>
       </c>
       <c r="L900" t="n">
-        <v>5500</v>
+        <v>17000</v>
       </c>
       <c r="M900" t="n">
-        <v>5283</v>
+        <v>16560</v>
       </c>
       <c r="N900" t="inlineStr">
         <is>
@@ -65175,11 +65175,11 @@
       </c>
       <c r="O900" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P900" t="n">
-        <v>294</v>
+        <v>920</v>
       </c>
       <c r="Q900" t="n">
         <v>18</v>
@@ -65205,7 +65205,7 @@
         </is>
       </c>
       <c r="D901" s="2" t="n">
-        <v>44400</v>
+        <v>44473</v>
       </c>
       <c r="E901" t="n">
         <v>13</v>
@@ -65229,16 +65229,16 @@
         </is>
       </c>
       <c r="J901" t="n">
-        <v>260</v>
+        <v>320</v>
       </c>
       <c r="K901" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="L901" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="M901" t="n">
-        <v>8538</v>
+        <v>13562</v>
       </c>
       <c r="N901" t="inlineStr">
         <is>
@@ -65251,7 +65251,7 @@
         </is>
       </c>
       <c r="P901" t="n">
-        <v>474</v>
+        <v>753</v>
       </c>
       <c r="Q901" t="n">
         <v>18</v>
@@ -65277,7 +65277,7 @@
         </is>
       </c>
       <c r="D902" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E902" t="n">
         <v>13</v>
@@ -65301,16 +65301,16 @@
         </is>
       </c>
       <c r="J902" t="n">
-        <v>600</v>
+        <v>450</v>
       </c>
       <c r="K902" t="n">
-        <v>18000</v>
+        <v>8000</v>
       </c>
       <c r="L902" t="n">
-        <v>18000</v>
+        <v>8500</v>
       </c>
       <c r="M902" t="n">
-        <v>18000</v>
+        <v>8278</v>
       </c>
       <c r="N902" t="inlineStr">
         <is>
@@ -65323,7 +65323,7 @@
         </is>
       </c>
       <c r="P902" t="n">
-        <v>1000</v>
+        <v>460</v>
       </c>
       <c r="Q902" t="n">
         <v>18</v>
@@ -65349,7 +65349,7 @@
         </is>
       </c>
       <c r="D903" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E903" t="n">
         <v>13</v>
@@ -65373,16 +65373,16 @@
         </is>
       </c>
       <c r="J903" t="n">
-        <v>600</v>
+        <v>960</v>
       </c>
       <c r="K903" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="L903" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="M903" t="n">
-        <v>16000</v>
+        <v>12583</v>
       </c>
       <c r="N903" t="inlineStr">
         <is>
@@ -65395,7 +65395,7 @@
         </is>
       </c>
       <c r="P903" t="n">
-        <v>889</v>
+        <v>699</v>
       </c>
       <c r="Q903" t="n">
         <v>18</v>
@@ -65421,7 +65421,7 @@
         </is>
       </c>
       <c r="D904" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E904" t="n">
         <v>13</v>
@@ -65445,16 +65445,16 @@
         </is>
       </c>
       <c r="J904" t="n">
-        <v>700</v>
+        <v>620</v>
       </c>
       <c r="K904" t="n">
-        <v>17000</v>
+        <v>7000</v>
       </c>
       <c r="L904" t="n">
-        <v>17000</v>
+        <v>7500</v>
       </c>
       <c r="M904" t="n">
-        <v>17000</v>
+        <v>7274</v>
       </c>
       <c r="N904" t="inlineStr">
         <is>
@@ -65467,7 +65467,7 @@
         </is>
       </c>
       <c r="P904" t="n">
-        <v>944</v>
+        <v>404</v>
       </c>
       <c r="Q904" t="n">
         <v>18</v>
@@ -65493,7 +65493,7 @@
         </is>
       </c>
       <c r="D905" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E905" t="n">
         <v>13</v>
@@ -65517,16 +65517,16 @@
         </is>
       </c>
       <c r="J905" t="n">
-        <v>650</v>
+        <v>920</v>
       </c>
       <c r="K905" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="L905" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="M905" t="n">
-        <v>15000</v>
+        <v>10522</v>
       </c>
       <c r="N905" t="inlineStr">
         <is>
@@ -65539,7 +65539,7 @@
         </is>
       </c>
       <c r="P905" t="n">
-        <v>833</v>
+        <v>585</v>
       </c>
       <c r="Q905" t="n">
         <v>18</v>
@@ -65565,7 +65565,7 @@
         </is>
       </c>
       <c r="D906" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E906" t="n">
         <v>13</v>
@@ -65589,16 +65589,16 @@
         </is>
       </c>
       <c r="J906" t="n">
-        <v>650</v>
+        <v>230</v>
       </c>
       <c r="K906" t="n">
-        <v>11000</v>
+        <v>5000</v>
       </c>
       <c r="L906" t="n">
-        <v>11000</v>
+        <v>5500</v>
       </c>
       <c r="M906" t="n">
-        <v>11000</v>
+        <v>5283</v>
       </c>
       <c r="N906" t="inlineStr">
         <is>
@@ -65611,7 +65611,7 @@
         </is>
       </c>
       <c r="P906" t="n">
-        <v>611</v>
+        <v>294</v>
       </c>
       <c r="Q906" t="n">
         <v>18</v>
@@ -65637,7 +65637,7 @@
         </is>
       </c>
       <c r="D907" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E907" t="n">
         <v>13</v>
@@ -65661,16 +65661,16 @@
         </is>
       </c>
       <c r="J907" t="n">
-        <v>700</v>
+        <v>260</v>
       </c>
       <c r="K907" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="L907" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="M907" t="n">
-        <v>10000</v>
+        <v>8538</v>
       </c>
       <c r="N907" t="inlineStr">
         <is>
@@ -65683,7 +65683,7 @@
         </is>
       </c>
       <c r="P907" t="n">
-        <v>556</v>
+        <v>474</v>
       </c>
       <c r="Q907" t="n">
         <v>18</v>
@@ -65709,7 +65709,7 @@
         </is>
       </c>
       <c r="D908" s="2" t="n">
-        <v>44181</v>
+        <v>44484</v>
       </c>
       <c r="E908" t="n">
         <v>13</v>
@@ -65733,16 +65733,16 @@
         </is>
       </c>
       <c r="J908" t="n">
-        <v>1050</v>
+        <v>600</v>
       </c>
       <c r="K908" t="n">
-        <v>9500</v>
+        <v>18000</v>
       </c>
       <c r="L908" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="M908" t="n">
-        <v>9810</v>
+        <v>18000</v>
       </c>
       <c r="N908" t="inlineStr">
         <is>
@@ -65755,7 +65755,7 @@
         </is>
       </c>
       <c r="P908" t="n">
-        <v>545</v>
+        <v>1000</v>
       </c>
       <c r="Q908" t="n">
         <v>18</v>
@@ -65781,7 +65781,7 @@
         </is>
       </c>
       <c r="D909" s="2" t="n">
-        <v>44181</v>
+        <v>44484</v>
       </c>
       <c r="E909" t="n">
         <v>13</v>
@@ -65801,20 +65801,20 @@
       </c>
       <c r="I909" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J909" t="n">
-        <v>1100</v>
+        <v>600</v>
       </c>
       <c r="K909" t="n">
-        <v>8500</v>
+        <v>16000</v>
       </c>
       <c r="L909" t="n">
-        <v>9000</v>
+        <v>16000</v>
       </c>
       <c r="M909" t="n">
-        <v>8764</v>
+        <v>16000</v>
       </c>
       <c r="N909" t="inlineStr">
         <is>
@@ -65823,11 +65823,11 @@
       </c>
       <c r="O909" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P909" t="n">
-        <v>487</v>
+        <v>889</v>
       </c>
       <c r="Q909" t="n">
         <v>18</v>
@@ -65853,7 +65853,7 @@
         </is>
       </c>
       <c r="D910" s="2" t="n">
-        <v>44181</v>
+        <v>44484</v>
       </c>
       <c r="E910" t="n">
         <v>13</v>
@@ -65873,20 +65873,20 @@
       </c>
       <c r="I910" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J910" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="K910" t="n">
-        <v>6000</v>
+        <v>17000</v>
       </c>
       <c r="L910" t="n">
-        <v>6500</v>
+        <v>17000</v>
       </c>
       <c r="M910" t="n">
-        <v>6233</v>
+        <v>17000</v>
       </c>
       <c r="N910" t="inlineStr">
         <is>
@@ -65899,7 +65899,7 @@
         </is>
       </c>
       <c r="P910" t="n">
-        <v>346</v>
+        <v>944</v>
       </c>
       <c r="Q910" t="n">
         <v>18</v>
@@ -65925,7 +65925,7 @@
         </is>
       </c>
       <c r="D911" s="2" t="n">
-        <v>44494</v>
+        <v>44484</v>
       </c>
       <c r="E911" t="n">
         <v>13</v>
@@ -65945,20 +65945,20 @@
       </c>
       <c r="I911" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J911" t="n">
-        <v>630</v>
+        <v>650</v>
       </c>
       <c r="K911" t="n">
-        <v>19000</v>
+        <v>15000</v>
       </c>
       <c r="L911" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="M911" t="n">
-        <v>19603</v>
+        <v>15000</v>
       </c>
       <c r="N911" t="inlineStr">
         <is>
@@ -65967,11 +65967,11 @@
       </c>
       <c r="O911" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P911" t="n">
-        <v>1089</v>
+        <v>833</v>
       </c>
       <c r="Q911" t="n">
         <v>18</v>
@@ -65997,7 +65997,7 @@
         </is>
       </c>
       <c r="D912" s="2" t="n">
-        <v>44494</v>
+        <v>44484</v>
       </c>
       <c r="E912" t="n">
         <v>13</v>
@@ -66017,20 +66017,20 @@
       </c>
       <c r="I912" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J912" t="n">
-        <v>660</v>
+        <v>650</v>
       </c>
       <c r="K912" t="n">
-        <v>17000</v>
+        <v>11000</v>
       </c>
       <c r="L912" t="n">
-        <v>18000</v>
+        <v>11000</v>
       </c>
       <c r="M912" t="n">
-        <v>17530</v>
+        <v>11000</v>
       </c>
       <c r="N912" t="inlineStr">
         <is>
@@ -66043,7 +66043,7 @@
         </is>
       </c>
       <c r="P912" t="n">
-        <v>974</v>
+        <v>611</v>
       </c>
       <c r="Q912" t="n">
         <v>18</v>
@@ -66069,7 +66069,7 @@
         </is>
       </c>
       <c r="D913" s="2" t="n">
-        <v>44494</v>
+        <v>44484</v>
       </c>
       <c r="E913" t="n">
         <v>13</v>
@@ -66093,16 +66093,16 @@
         </is>
       </c>
       <c r="J913" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="K913" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="L913" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="M913" t="n">
-        <v>13538</v>
+        <v>10000</v>
       </c>
       <c r="N913" t="inlineStr">
         <is>
@@ -66111,11 +66111,11 @@
       </c>
       <c r="O913" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P913" t="n">
-        <v>752</v>
+        <v>556</v>
       </c>
       <c r="Q913" t="n">
         <v>18</v>
@@ -66141,7 +66141,7 @@
         </is>
       </c>
       <c r="D914" s="2" t="n">
-        <v>44494</v>
+        <v>44181</v>
       </c>
       <c r="E914" t="n">
         <v>13</v>
@@ -66161,20 +66161,20 @@
       </c>
       <c r="I914" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J914" t="n">
-        <v>580</v>
+        <v>1050</v>
       </c>
       <c r="K914" t="n">
+        <v>9500</v>
+      </c>
+      <c r="L914" t="n">
         <v>10000</v>
       </c>
-      <c r="L914" t="n">
-        <v>11000</v>
-      </c>
       <c r="M914" t="n">
-        <v>10483</v>
+        <v>9810</v>
       </c>
       <c r="N914" t="inlineStr">
         <is>
@@ -66187,7 +66187,7 @@
         </is>
       </c>
       <c r="P914" t="n">
-        <v>582</v>
+        <v>545</v>
       </c>
       <c r="Q914" t="n">
         <v>18</v>
@@ -66213,7 +66213,7 @@
         </is>
       </c>
       <c r="D915" s="2" t="n">
-        <v>44342</v>
+        <v>44181</v>
       </c>
       <c r="E915" t="n">
         <v>13</v>
@@ -66233,20 +66233,20 @@
       </c>
       <c r="I915" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J915" t="n">
-        <v>480</v>
+        <v>1100</v>
       </c>
       <c r="K915" t="n">
-        <v>9500</v>
+        <v>8500</v>
       </c>
       <c r="L915" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="M915" t="n">
-        <v>9812</v>
+        <v>8764</v>
       </c>
       <c r="N915" t="inlineStr">
         <is>
@@ -66259,7 +66259,7 @@
         </is>
       </c>
       <c r="P915" t="n">
-        <v>545</v>
+        <v>487</v>
       </c>
       <c r="Q915" t="n">
         <v>18</v>
@@ -66285,7 +66285,7 @@
         </is>
       </c>
       <c r="D916" s="2" t="n">
-        <v>44342</v>
+        <v>44181</v>
       </c>
       <c r="E916" t="n">
         <v>13</v>
@@ -66305,20 +66305,20 @@
       </c>
       <c r="I916" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J916" t="n">
-        <v>520</v>
+        <v>900</v>
       </c>
       <c r="K916" t="n">
-        <v>11000</v>
+        <v>6000</v>
       </c>
       <c r="L916" t="n">
-        <v>12000</v>
+        <v>6500</v>
       </c>
       <c r="M916" t="n">
-        <v>11558</v>
+        <v>6233</v>
       </c>
       <c r="N916" t="inlineStr">
         <is>
@@ -66327,11 +66327,11 @@
       </c>
       <c r="O916" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P916" t="n">
-        <v>642</v>
+        <v>346</v>
       </c>
       <c r="Q916" t="n">
         <v>18</v>
@@ -66357,7 +66357,7 @@
         </is>
       </c>
       <c r="D917" s="2" t="n">
-        <v>44342</v>
+        <v>44494</v>
       </c>
       <c r="E917" t="n">
         <v>13</v>
@@ -66377,20 +66377,20 @@
       </c>
       <c r="I917" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J917" t="n">
-        <v>580</v>
+        <v>630</v>
       </c>
       <c r="K917" t="n">
-        <v>7000</v>
+        <v>19000</v>
       </c>
       <c r="L917" t="n">
-        <v>7500</v>
+        <v>20000</v>
       </c>
       <c r="M917" t="n">
-        <v>7259</v>
+        <v>19603</v>
       </c>
       <c r="N917" t="inlineStr">
         <is>
@@ -66403,7 +66403,7 @@
         </is>
       </c>
       <c r="P917" t="n">
-        <v>403</v>
+        <v>1089</v>
       </c>
       <c r="Q917" t="n">
         <v>18</v>
@@ -66429,7 +66429,7 @@
         </is>
       </c>
       <c r="D918" s="2" t="n">
-        <v>44342</v>
+        <v>44494</v>
       </c>
       <c r="E918" t="n">
         <v>13</v>
@@ -66453,16 +66453,16 @@
         </is>
       </c>
       <c r="J918" t="n">
-        <v>580</v>
+        <v>660</v>
       </c>
       <c r="K918" t="n">
-        <v>9000</v>
+        <v>17000</v>
       </c>
       <c r="L918" t="n">
-        <v>9500</v>
+        <v>18000</v>
       </c>
       <c r="M918" t="n">
-        <v>9241</v>
+        <v>17530</v>
       </c>
       <c r="N918" t="inlineStr">
         <is>
@@ -66471,11 +66471,11 @@
       </c>
       <c r="O918" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P918" t="n">
-        <v>513</v>
+        <v>974</v>
       </c>
       <c r="Q918" t="n">
         <v>18</v>
@@ -66501,7 +66501,7 @@
         </is>
       </c>
       <c r="D919" s="2" t="n">
-        <v>44342</v>
+        <v>44494</v>
       </c>
       <c r="E919" t="n">
         <v>13</v>
@@ -66525,16 +66525,16 @@
         </is>
       </c>
       <c r="J919" t="n">
-        <v>540</v>
+        <v>650</v>
       </c>
       <c r="K919" t="n">
-        <v>5000</v>
+        <v>13000</v>
       </c>
       <c r="L919" t="n">
-        <v>5500</v>
+        <v>14000</v>
       </c>
       <c r="M919" t="n">
-        <v>5222</v>
+        <v>13538</v>
       </c>
       <c r="N919" t="inlineStr">
         <is>
@@ -66547,7 +66547,7 @@
         </is>
       </c>
       <c r="P919" t="n">
-        <v>290</v>
+        <v>752</v>
       </c>
       <c r="Q919" t="n">
         <v>18</v>
@@ -66573,7 +66573,7 @@
         </is>
       </c>
       <c r="D920" s="2" t="n">
-        <v>44445</v>
+        <v>44494</v>
       </c>
       <c r="E920" t="n">
         <v>13</v>
@@ -66593,20 +66593,20 @@
       </c>
       <c r="I920" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J920" t="n">
-        <v>400</v>
+        <v>580</v>
       </c>
       <c r="K920" t="n">
-        <v>23000</v>
+        <v>10000</v>
       </c>
       <c r="L920" t="n">
-        <v>23000</v>
+        <v>11000</v>
       </c>
       <c r="M920" t="n">
-        <v>23000</v>
+        <v>10483</v>
       </c>
       <c r="N920" t="inlineStr">
         <is>
@@ -66615,11 +66615,11 @@
       </c>
       <c r="O920" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P920" t="n">
-        <v>1278</v>
+        <v>582</v>
       </c>
       <c r="Q920" t="n">
         <v>18</v>
@@ -66645,7 +66645,7 @@
         </is>
       </c>
       <c r="D921" s="2" t="n">
-        <v>44445</v>
+        <v>44342</v>
       </c>
       <c r="E921" t="n">
         <v>13</v>
@@ -66665,20 +66665,20 @@
       </c>
       <c r="I921" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J921" t="n">
-        <v>380</v>
+        <v>480</v>
       </c>
       <c r="K921" t="n">
-        <v>15000</v>
+        <v>9500</v>
       </c>
       <c r="L921" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="M921" t="n">
-        <v>15000</v>
+        <v>9812</v>
       </c>
       <c r="N921" t="inlineStr">
         <is>
@@ -66691,7 +66691,7 @@
         </is>
       </c>
       <c r="P921" t="n">
-        <v>833</v>
+        <v>545</v>
       </c>
       <c r="Q921" t="n">
         <v>18</v>
@@ -66717,7 +66717,7 @@
         </is>
       </c>
       <c r="D922" s="2" t="n">
-        <v>44445</v>
+        <v>44342</v>
       </c>
       <c r="E922" t="n">
         <v>13</v>
@@ -66737,20 +66737,20 @@
       </c>
       <c r="I922" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J922" t="n">
-        <v>560</v>
+        <v>520</v>
       </c>
       <c r="K922" t="n">
-        <v>20000</v>
+        <v>11000</v>
       </c>
       <c r="L922" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="M922" t="n">
-        <v>20000</v>
+        <v>11558</v>
       </c>
       <c r="N922" t="inlineStr">
         <is>
@@ -66763,7 +66763,7 @@
         </is>
       </c>
       <c r="P922" t="n">
-        <v>1111</v>
+        <v>642</v>
       </c>
       <c r="Q922" t="n">
         <v>18</v>
@@ -66789,7 +66789,7 @@
         </is>
       </c>
       <c r="D923" s="2" t="n">
-        <v>44445</v>
+        <v>44342</v>
       </c>
       <c r="E923" t="n">
         <v>13</v>
@@ -66809,20 +66809,20 @@
       </c>
       <c r="I923" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J923" t="n">
-        <v>420</v>
+        <v>580</v>
       </c>
       <c r="K923" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="L923" t="n">
-        <v>12000</v>
+        <v>7500</v>
       </c>
       <c r="M923" t="n">
-        <v>12000</v>
+        <v>7259</v>
       </c>
       <c r="N923" t="inlineStr">
         <is>
@@ -66835,7 +66835,7 @@
         </is>
       </c>
       <c r="P923" t="n">
-        <v>667</v>
+        <v>403</v>
       </c>
       <c r="Q923" t="n">
         <v>18</v>
@@ -66861,7 +66861,7 @@
         </is>
       </c>
       <c r="D924" s="2" t="n">
-        <v>44445</v>
+        <v>44342</v>
       </c>
       <c r="E924" t="n">
         <v>13</v>
@@ -66881,20 +66881,20 @@
       </c>
       <c r="I924" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J924" t="n">
-        <v>320</v>
+        <v>580</v>
       </c>
       <c r="K924" t="n">
-        <v>18000</v>
+        <v>9000</v>
       </c>
       <c r="L924" t="n">
-        <v>18000</v>
+        <v>9500</v>
       </c>
       <c r="M924" t="n">
-        <v>18000</v>
+        <v>9241</v>
       </c>
       <c r="N924" t="inlineStr">
         <is>
@@ -66907,7 +66907,7 @@
         </is>
       </c>
       <c r="P924" t="n">
-        <v>1000</v>
+        <v>513</v>
       </c>
       <c r="Q924" t="n">
         <v>18</v>
@@ -66933,7 +66933,7 @@
         </is>
       </c>
       <c r="D925" s="2" t="n">
-        <v>44328</v>
+        <v>44342</v>
       </c>
       <c r="E925" t="n">
         <v>13</v>
@@ -66953,20 +66953,20 @@
       </c>
       <c r="I925" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J925" t="n">
-        <v>960</v>
+        <v>540</v>
       </c>
       <c r="K925" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="L925" t="n">
-        <v>9500</v>
+        <v>5500</v>
       </c>
       <c r="M925" t="n">
-        <v>9302</v>
+        <v>5222</v>
       </c>
       <c r="N925" t="inlineStr">
         <is>
@@ -66979,7 +66979,7 @@
         </is>
       </c>
       <c r="P925" t="n">
-        <v>517</v>
+        <v>290</v>
       </c>
       <c r="Q925" t="n">
         <v>18</v>
@@ -67005,7 +67005,7 @@
         </is>
       </c>
       <c r="D926" s="2" t="n">
-        <v>44328</v>
+        <v>44445</v>
       </c>
       <c r="E926" t="n">
         <v>13</v>
@@ -67025,20 +67025,20 @@
       </c>
       <c r="I926" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J926" t="n">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="K926" t="n">
-        <v>7000</v>
+        <v>23000</v>
       </c>
       <c r="L926" t="n">
-        <v>7500</v>
+        <v>23000</v>
       </c>
       <c r="M926" t="n">
-        <v>7232</v>
+        <v>23000</v>
       </c>
       <c r="N926" t="inlineStr">
         <is>
@@ -67047,11 +67047,11 @@
       </c>
       <c r="O926" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P926" t="n">
-        <v>402</v>
+        <v>1278</v>
       </c>
       <c r="Q926" t="n">
         <v>18</v>
@@ -67077,7 +67077,7 @@
         </is>
       </c>
       <c r="D927" s="2" t="n">
-        <v>44328</v>
+        <v>44445</v>
       </c>
       <c r="E927" t="n">
         <v>13</v>
@@ -67097,20 +67097,20 @@
       </c>
       <c r="I927" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J927" t="n">
-        <v>230</v>
+        <v>380</v>
       </c>
       <c r="K927" t="n">
-        <v>5000</v>
+        <v>15000</v>
       </c>
       <c r="L927" t="n">
-        <v>5500</v>
+        <v>15000</v>
       </c>
       <c r="M927" t="n">
-        <v>5283</v>
+        <v>15000</v>
       </c>
       <c r="N927" t="inlineStr">
         <is>
@@ -67123,7 +67123,7 @@
         </is>
       </c>
       <c r="P927" t="n">
-        <v>294</v>
+        <v>833</v>
       </c>
       <c r="Q927" t="n">
         <v>18</v>
@@ -67149,7 +67149,7 @@
         </is>
       </c>
       <c r="D928" s="2" t="n">
-        <v>44301</v>
+        <v>44445</v>
       </c>
       <c r="E928" t="n">
         <v>13</v>
@@ -67169,20 +67169,20 @@
       </c>
       <c r="I928" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J928" t="n">
-        <v>360</v>
+        <v>560</v>
       </c>
       <c r="K928" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="L928" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="M928" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="N928" t="inlineStr">
         <is>
@@ -67191,11 +67191,11 @@
       </c>
       <c r="O928" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P928" t="n">
-        <v>667</v>
+        <v>1111</v>
       </c>
       <c r="Q928" t="n">
         <v>18</v>
@@ -67221,7 +67221,7 @@
         </is>
       </c>
       <c r="D929" s="2" t="n">
-        <v>44301</v>
+        <v>44445</v>
       </c>
       <c r="E929" t="n">
         <v>13</v>
@@ -67241,20 +67241,20 @@
       </c>
       <c r="I929" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J929" t="n">
-        <v>640</v>
+        <v>420</v>
       </c>
       <c r="K929" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L929" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M929" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="N929" t="inlineStr">
         <is>
@@ -67263,11 +67263,11 @@
       </c>
       <c r="O929" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P929" t="n">
-        <v>556</v>
+        <v>667</v>
       </c>
       <c r="Q929" t="n">
         <v>18</v>
@@ -67293,7 +67293,7 @@
         </is>
       </c>
       <c r="D930" s="2" t="n">
-        <v>44301</v>
+        <v>44445</v>
       </c>
       <c r="E930" t="n">
         <v>13</v>
@@ -67317,16 +67317,16 @@
         </is>
       </c>
       <c r="J930" t="n">
-        <v>240</v>
+        <v>320</v>
       </c>
       <c r="K930" t="n">
-        <v>9000</v>
+        <v>18000</v>
       </c>
       <c r="L930" t="n">
-        <v>9000</v>
+        <v>18000</v>
       </c>
       <c r="M930" t="n">
-        <v>9000</v>
+        <v>18000</v>
       </c>
       <c r="N930" t="inlineStr">
         <is>
@@ -67335,11 +67335,11 @@
       </c>
       <c r="O930" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P930" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="Q930" t="n">
         <v>18</v>
@@ -67365,7 +67365,7 @@
         </is>
       </c>
       <c r="D931" s="2" t="n">
-        <v>44301</v>
+        <v>44328</v>
       </c>
       <c r="E931" t="n">
         <v>13</v>
@@ -67385,20 +67385,20 @@
       </c>
       <c r="I931" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J931" t="n">
-        <v>160</v>
+        <v>960</v>
       </c>
       <c r="K931" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L931" t="n">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="M931" t="n">
-        <v>7500</v>
+        <v>9302</v>
       </c>
       <c r="N931" t="inlineStr">
         <is>
@@ -67407,11 +67407,11 @@
       </c>
       <c r="O931" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P931" t="n">
-        <v>417</v>
+        <v>517</v>
       </c>
       <c r="Q931" t="n">
         <v>18</v>
@@ -67437,7 +67437,7 @@
         </is>
       </c>
       <c r="D932" s="2" t="n">
-        <v>44330</v>
+        <v>44328</v>
       </c>
       <c r="E932" t="n">
         <v>13</v>
@@ -67457,20 +67457,20 @@
       </c>
       <c r="I932" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J932" t="n">
-        <v>770</v>
+        <v>410</v>
       </c>
       <c r="K932" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="L932" t="n">
-        <v>12000</v>
+        <v>7500</v>
       </c>
       <c r="M932" t="n">
-        <v>11545</v>
+        <v>7232</v>
       </c>
       <c r="N932" t="inlineStr">
         <is>
@@ -67479,11 +67479,11 @@
       </c>
       <c r="O932" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P932" t="n">
-        <v>641</v>
+        <v>402</v>
       </c>
       <c r="Q932" t="n">
         <v>18</v>
@@ -67509,7 +67509,7 @@
         </is>
       </c>
       <c r="D933" s="2" t="n">
-        <v>44330</v>
+        <v>44328</v>
       </c>
       <c r="E933" t="n">
         <v>13</v>
@@ -67529,20 +67529,20 @@
       </c>
       <c r="I933" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J933" t="n">
-        <v>900</v>
+        <v>230</v>
       </c>
       <c r="K933" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="L933" t="n">
-        <v>9000</v>
+        <v>5500</v>
       </c>
       <c r="M933" t="n">
-        <v>8556</v>
+        <v>5283</v>
       </c>
       <c r="N933" t="inlineStr">
         <is>
@@ -67551,11 +67551,11 @@
       </c>
       <c r="O933" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P933" t="n">
-        <v>475</v>
+        <v>294</v>
       </c>
       <c r="Q933" t="n">
         <v>18</v>
@@ -67581,7 +67581,7 @@
         </is>
       </c>
       <c r="D934" s="2" t="n">
-        <v>44330</v>
+        <v>44301</v>
       </c>
       <c r="E934" t="n">
         <v>13</v>
@@ -67601,20 +67601,20 @@
       </c>
       <c r="I934" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J934" t="n">
-        <v>600</v>
+        <v>360</v>
       </c>
       <c r="K934" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="L934" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="M934" t="n">
-        <v>5533</v>
+        <v>12000</v>
       </c>
       <c r="N934" t="inlineStr">
         <is>
@@ -67627,7 +67627,7 @@
         </is>
       </c>
       <c r="P934" t="n">
-        <v>307</v>
+        <v>667</v>
       </c>
       <c r="Q934" t="n">
         <v>18</v>
@@ -67653,7 +67653,7 @@
         </is>
       </c>
       <c r="D935" s="2" t="n">
-        <v>44270</v>
+        <v>44301</v>
       </c>
       <c r="E935" t="n">
         <v>13</v>
@@ -67673,20 +67673,20 @@
       </c>
       <c r="I935" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J935" t="n">
-        <v>520</v>
+        <v>640</v>
       </c>
       <c r="K935" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="L935" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="M935" t="n">
-        <v>12615</v>
+        <v>10000</v>
       </c>
       <c r="N935" t="inlineStr">
         <is>
@@ -67695,11 +67695,11 @@
       </c>
       <c r="O935" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P935" t="n">
-        <v>701</v>
+        <v>556</v>
       </c>
       <c r="Q935" t="n">
         <v>18</v>
@@ -67725,7 +67725,7 @@
         </is>
       </c>
       <c r="D936" s="2" t="n">
-        <v>44270</v>
+        <v>44301</v>
       </c>
       <c r="E936" t="n">
         <v>13</v>
@@ -67745,33 +67745,33 @@
       </c>
       <c r="I936" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J936" t="n">
+        <v>240</v>
+      </c>
+      <c r="K936" t="n">
+        <v>9000</v>
+      </c>
+      <c r="L936" t="n">
+        <v>9000</v>
+      </c>
+      <c r="M936" t="n">
+        <v>9000</v>
+      </c>
+      <c r="N936" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O936" t="inlineStr">
+        <is>
+          <t>Limache</t>
+        </is>
+      </c>
+      <c r="P936" t="n">
         <v>500</v>
-      </c>
-      <c r="K936" t="n">
-        <v>10000</v>
-      </c>
-      <c r="L936" t="n">
-        <v>11000</v>
-      </c>
-      <c r="M936" t="n">
-        <v>10560</v>
-      </c>
-      <c r="N936" t="inlineStr">
-        <is>
-          <t>$/bandeja 18 kilos</t>
-        </is>
-      </c>
-      <c r="O936" t="inlineStr">
-        <is>
-          <t>Provincia de Quillota</t>
-        </is>
-      </c>
-      <c r="P936" t="n">
-        <v>587</v>
       </c>
       <c r="Q936" t="n">
         <v>18</v>
@@ -67797,7 +67797,7 @@
         </is>
       </c>
       <c r="D937" s="2" t="n">
-        <v>44270</v>
+        <v>44301</v>
       </c>
       <c r="E937" t="n">
         <v>13</v>
@@ -67817,11 +67817,11 @@
       </c>
       <c r="I937" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J937" t="n">
-        <v>310</v>
+        <v>160</v>
       </c>
       <c r="K937" t="n">
         <v>7000</v>
@@ -67830,7 +67830,7 @@
         <v>8000</v>
       </c>
       <c r="M937" t="n">
-        <v>7548</v>
+        <v>7500</v>
       </c>
       <c r="N937" t="inlineStr">
         <is>
@@ -67839,11 +67839,11 @@
       </c>
       <c r="O937" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P937" t="n">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="Q937" t="n">
         <v>18</v>
@@ -67869,7 +67869,7 @@
         </is>
       </c>
       <c r="D938" s="2" t="n">
-        <v>44295</v>
+        <v>44330</v>
       </c>
       <c r="E938" t="n">
         <v>13</v>
@@ -67893,16 +67893,16 @@
         </is>
       </c>
       <c r="J938" t="n">
-        <v>640</v>
+        <v>770</v>
       </c>
       <c r="K938" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="L938" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="M938" t="n">
-        <v>13562</v>
+        <v>11545</v>
       </c>
       <c r="N938" t="inlineStr">
         <is>
@@ -67911,11 +67911,11 @@
       </c>
       <c r="O938" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P938" t="n">
-        <v>753</v>
+        <v>641</v>
       </c>
       <c r="Q938" t="n">
         <v>18</v>
@@ -67941,7 +67941,7 @@
         </is>
       </c>
       <c r="D939" s="2" t="n">
-        <v>44295</v>
+        <v>44330</v>
       </c>
       <c r="E939" t="n">
         <v>13</v>
@@ -67965,16 +67965,16 @@
         </is>
       </c>
       <c r="J939" t="n">
-        <v>880</v>
+        <v>900</v>
       </c>
       <c r="K939" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="L939" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="M939" t="n">
-        <v>11545</v>
+        <v>8556</v>
       </c>
       <c r="N939" t="inlineStr">
         <is>
@@ -67983,11 +67983,11 @@
       </c>
       <c r="O939" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P939" t="n">
-        <v>641</v>
+        <v>475</v>
       </c>
       <c r="Q939" t="n">
         <v>18</v>
@@ -68013,7 +68013,7 @@
         </is>
       </c>
       <c r="D940" s="2" t="n">
-        <v>44295</v>
+        <v>44330</v>
       </c>
       <c r="E940" t="n">
         <v>13</v>
@@ -68037,16 +68037,16 @@
         </is>
       </c>
       <c r="J940" t="n">
-        <v>390</v>
+        <v>600</v>
       </c>
       <c r="K940" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="L940" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="M940" t="n">
-        <v>9462</v>
+        <v>5533</v>
       </c>
       <c r="N940" t="inlineStr">
         <is>
@@ -68055,11 +68055,11 @@
       </c>
       <c r="O940" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P940" t="n">
-        <v>526</v>
+        <v>307</v>
       </c>
       <c r="Q940" t="n">
         <v>18</v>
@@ -68085,7 +68085,7 @@
         </is>
       </c>
       <c r="D941" s="2" t="n">
-        <v>44217</v>
+        <v>44270</v>
       </c>
       <c r="E941" t="n">
         <v>13</v>
@@ -68109,7 +68109,7 @@
         </is>
       </c>
       <c r="J941" t="n">
-        <v>630</v>
+        <v>520</v>
       </c>
       <c r="K941" t="n">
         <v>12000</v>
@@ -68118,7 +68118,7 @@
         <v>13000</v>
       </c>
       <c r="M941" t="n">
-        <v>12556</v>
+        <v>12615</v>
       </c>
       <c r="N941" t="inlineStr">
         <is>
@@ -68131,7 +68131,7 @@
         </is>
       </c>
       <c r="P941" t="n">
-        <v>698</v>
+        <v>701</v>
       </c>
       <c r="Q941" t="n">
         <v>18</v>
@@ -68157,7 +68157,7 @@
         </is>
       </c>
       <c r="D942" s="2" t="n">
-        <v>44217</v>
+        <v>44270</v>
       </c>
       <c r="E942" t="n">
         <v>13</v>
@@ -68181,7 +68181,7 @@
         </is>
       </c>
       <c r="J942" t="n">
-        <v>1190</v>
+        <v>500</v>
       </c>
       <c r="K942" t="n">
         <v>10000</v>
@@ -68190,7 +68190,7 @@
         <v>11000</v>
       </c>
       <c r="M942" t="n">
-        <v>10454</v>
+        <v>10560</v>
       </c>
       <c r="N942" t="inlineStr">
         <is>
@@ -68203,7 +68203,7 @@
         </is>
       </c>
       <c r="P942" t="n">
-        <v>581</v>
+        <v>587</v>
       </c>
       <c r="Q942" t="n">
         <v>18</v>
@@ -68229,7 +68229,7 @@
         </is>
       </c>
       <c r="D943" s="2" t="n">
-        <v>44217</v>
+        <v>44270</v>
       </c>
       <c r="E943" t="n">
         <v>13</v>
@@ -68253,7 +68253,7 @@
         </is>
       </c>
       <c r="J943" t="n">
-        <v>630</v>
+        <v>310</v>
       </c>
       <c r="K943" t="n">
         <v>7000</v>
@@ -68262,7 +68262,7 @@
         <v>8000</v>
       </c>
       <c r="M943" t="n">
-        <v>7397</v>
+        <v>7548</v>
       </c>
       <c r="N943" t="inlineStr">
         <is>
@@ -68275,7 +68275,7 @@
         </is>
       </c>
       <c r="P943" t="n">
-        <v>411</v>
+        <v>419</v>
       </c>
       <c r="Q943" t="n">
         <v>18</v>
@@ -68301,7 +68301,7 @@
         </is>
       </c>
       <c r="D944" s="2" t="n">
-        <v>44217</v>
+        <v>44295</v>
       </c>
       <c r="E944" t="n">
         <v>13</v>
@@ -68316,7 +68316,7 @@
       </c>
       <c r="H944" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I944" t="inlineStr">
@@ -68325,16 +68325,16 @@
         </is>
       </c>
       <c r="J944" t="n">
-        <v>340</v>
+        <v>640</v>
       </c>
       <c r="K944" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="L944" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="M944" t="n">
-        <v>9588</v>
+        <v>13562</v>
       </c>
       <c r="N944" t="inlineStr">
         <is>
@@ -68343,11 +68343,11 @@
       </c>
       <c r="O944" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P944" t="n">
-        <v>533</v>
+        <v>753</v>
       </c>
       <c r="Q944" t="n">
         <v>18</v>
@@ -68373,7 +68373,7 @@
         </is>
       </c>
       <c r="D945" s="2" t="n">
-        <v>44217</v>
+        <v>44295</v>
       </c>
       <c r="E945" t="n">
         <v>13</v>
@@ -68388,7 +68388,7 @@
       </c>
       <c r="H945" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I945" t="inlineStr">
@@ -68397,16 +68397,16 @@
         </is>
       </c>
       <c r="J945" t="n">
-        <v>195</v>
+        <v>880</v>
       </c>
       <c r="K945" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="L945" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="M945" t="n">
-        <v>7487</v>
+        <v>11545</v>
       </c>
       <c r="N945" t="inlineStr">
         <is>
@@ -68415,11 +68415,11 @@
       </c>
       <c r="O945" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P945" t="n">
-        <v>416</v>
+        <v>641</v>
       </c>
       <c r="Q945" t="n">
         <v>18</v>
@@ -68445,7 +68445,7 @@
         </is>
       </c>
       <c r="D946" s="2" t="n">
-        <v>44217</v>
+        <v>44295</v>
       </c>
       <c r="E946" t="n">
         <v>13</v>
@@ -68460,7 +68460,7 @@
       </c>
       <c r="H946" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I946" t="inlineStr">
@@ -68469,16 +68469,16 @@
         </is>
       </c>
       <c r="J946" t="n">
-        <v>370</v>
+        <v>390</v>
       </c>
       <c r="K946" t="n">
-        <v>4000</v>
+        <v>9000</v>
       </c>
       <c r="L946" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="M946" t="n">
-        <v>4405</v>
+        <v>9462</v>
       </c>
       <c r="N946" t="inlineStr">
         <is>
@@ -68487,11 +68487,11 @@
       </c>
       <c r="O946" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P946" t="n">
-        <v>245</v>
+        <v>526</v>
       </c>
       <c r="Q946" t="n">
         <v>18</v>
@@ -68517,7 +68517,7 @@
         </is>
       </c>
       <c r="D947" s="2" t="n">
-        <v>44421</v>
+        <v>44217</v>
       </c>
       <c r="E947" t="n">
         <v>13</v>
@@ -68541,16 +68541,16 @@
         </is>
       </c>
       <c r="J947" t="n">
-        <v>660</v>
+        <v>630</v>
       </c>
       <c r="K947" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="L947" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="M947" t="n">
-        <v>9667</v>
+        <v>12556</v>
       </c>
       <c r="N947" t="inlineStr">
         <is>
@@ -68563,7 +68563,7 @@
         </is>
       </c>
       <c r="P947" t="n">
-        <v>537</v>
+        <v>698</v>
       </c>
       <c r="Q947" t="n">
         <v>18</v>
@@ -68589,7 +68589,7 @@
         </is>
       </c>
       <c r="D948" s="2" t="n">
-        <v>44421</v>
+        <v>44217</v>
       </c>
       <c r="E948" t="n">
         <v>13</v>
@@ -68609,20 +68609,20 @@
       </c>
       <c r="I948" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J948" t="n">
-        <v>1010</v>
+        <v>1190</v>
       </c>
       <c r="K948" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="L948" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="M948" t="n">
-        <v>12554</v>
+        <v>10454</v>
       </c>
       <c r="N948" t="inlineStr">
         <is>
@@ -68631,11 +68631,11 @@
       </c>
       <c r="O948" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P948" t="n">
-        <v>697</v>
+        <v>581</v>
       </c>
       <c r="Q948" t="n">
         <v>18</v>
@@ -68661,7 +68661,7 @@
         </is>
       </c>
       <c r="D949" s="2" t="n">
-        <v>44421</v>
+        <v>44217</v>
       </c>
       <c r="E949" t="n">
         <v>13</v>
@@ -68681,11 +68681,11 @@
       </c>
       <c r="I949" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J949" t="n">
-        <v>940</v>
+        <v>630</v>
       </c>
       <c r="K949" t="n">
         <v>7000</v>
@@ -68694,7 +68694,7 @@
         <v>8000</v>
       </c>
       <c r="M949" t="n">
-        <v>7596</v>
+        <v>7397</v>
       </c>
       <c r="N949" t="inlineStr">
         <is>
@@ -68707,7 +68707,7 @@
         </is>
       </c>
       <c r="P949" t="n">
-        <v>422</v>
+        <v>411</v>
       </c>
       <c r="Q949" t="n">
         <v>18</v>
@@ -68733,7 +68733,7 @@
         </is>
       </c>
       <c r="D950" s="2" t="n">
-        <v>44421</v>
+        <v>44217</v>
       </c>
       <c r="E950" t="n">
         <v>13</v>
@@ -68748,16 +68748,16 @@
       </c>
       <c r="H950" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I950" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J950" t="n">
-        <v>1160</v>
+        <v>340</v>
       </c>
       <c r="K950" t="n">
         <v>9000</v>
@@ -68766,7 +68766,7 @@
         <v>10000</v>
       </c>
       <c r="M950" t="n">
-        <v>9517</v>
+        <v>9588</v>
       </c>
       <c r="N950" t="inlineStr">
         <is>
@@ -68775,11 +68775,11 @@
       </c>
       <c r="O950" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P950" t="n">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="Q950" t="n">
         <v>18</v>
@@ -68805,7 +68805,7 @@
         </is>
       </c>
       <c r="D951" s="2" t="n">
-        <v>44421</v>
+        <v>44217</v>
       </c>
       <c r="E951" t="n">
         <v>13</v>
@@ -68820,25 +68820,25 @@
       </c>
       <c r="H951" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I951" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J951" t="n">
-        <v>520</v>
+        <v>195</v>
       </c>
       <c r="K951" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="L951" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M951" t="n">
-        <v>5577</v>
+        <v>7487</v>
       </c>
       <c r="N951" t="inlineStr">
         <is>
@@ -68847,11 +68847,11 @@
       </c>
       <c r="O951" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P951" t="n">
-        <v>310</v>
+        <v>416</v>
       </c>
       <c r="Q951" t="n">
         <v>18</v>
@@ -68877,7 +68877,7 @@
         </is>
       </c>
       <c r="D952" s="2" t="n">
-        <v>44421</v>
+        <v>44217</v>
       </c>
       <c r="E952" t="n">
         <v>13</v>
@@ -68892,7 +68892,7 @@
       </c>
       <c r="H952" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I952" t="inlineStr">
@@ -68901,16 +68901,16 @@
         </is>
       </c>
       <c r="J952" t="n">
-        <v>500</v>
+        <v>370</v>
       </c>
       <c r="K952" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="L952" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="M952" t="n">
-        <v>7560</v>
+        <v>4405</v>
       </c>
       <c r="N952" t="inlineStr">
         <is>
@@ -68919,11 +68919,11 @@
       </c>
       <c r="O952" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P952" t="n">
-        <v>420</v>
+        <v>245</v>
       </c>
       <c r="Q952" t="n">
         <v>18</v>
@@ -68949,7 +68949,7 @@
         </is>
       </c>
       <c r="D953" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E953" t="n">
         <v>13</v>
@@ -68973,16 +68973,16 @@
         </is>
       </c>
       <c r="J953" t="n">
-        <v>210</v>
+        <v>660</v>
       </c>
       <c r="K953" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="L953" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M953" t="n">
-        <v>12000</v>
+        <v>9667</v>
       </c>
       <c r="N953" t="inlineStr">
         <is>
@@ -68991,11 +68991,11 @@
       </c>
       <c r="O953" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P953" t="n">
-        <v>667</v>
+        <v>537</v>
       </c>
       <c r="Q953" t="n">
         <v>18</v>
@@ -69021,7 +69021,7 @@
         </is>
       </c>
       <c r="D954" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E954" t="n">
         <v>13</v>
@@ -69041,20 +69041,20 @@
       </c>
       <c r="I954" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J954" t="n">
-        <v>600</v>
+        <v>1010</v>
       </c>
       <c r="K954" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="L954" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="M954" t="n">
-        <v>11000</v>
+        <v>12554</v>
       </c>
       <c r="N954" t="inlineStr">
         <is>
@@ -69067,7 +69067,7 @@
         </is>
       </c>
       <c r="P954" t="n">
-        <v>611</v>
+        <v>697</v>
       </c>
       <c r="Q954" t="n">
         <v>18</v>
@@ -69093,7 +69093,7 @@
         </is>
       </c>
       <c r="D955" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E955" t="n">
         <v>13</v>
@@ -69113,20 +69113,20 @@
       </c>
       <c r="I955" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J955" t="n">
-        <v>420</v>
+        <v>940</v>
       </c>
       <c r="K955" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="L955" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="M955" t="n">
-        <v>9000</v>
+        <v>7596</v>
       </c>
       <c r="N955" t="inlineStr">
         <is>
@@ -69135,11 +69135,11 @@
       </c>
       <c r="O955" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P955" t="n">
-        <v>500</v>
+        <v>422</v>
       </c>
       <c r="Q955" t="n">
         <v>18</v>
@@ -69165,7 +69165,7 @@
         </is>
       </c>
       <c r="D956" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E956" t="n">
         <v>13</v>
@@ -69185,20 +69185,20 @@
       </c>
       <c r="I956" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J956" t="n">
-        <v>160</v>
+        <v>1160</v>
       </c>
       <c r="K956" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="L956" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M956" t="n">
-        <v>8000</v>
+        <v>9517</v>
       </c>
       <c r="N956" t="inlineStr">
         <is>
@@ -69211,7 +69211,7 @@
         </is>
       </c>
       <c r="P956" t="n">
-        <v>444</v>
+        <v>529</v>
       </c>
       <c r="Q956" t="n">
         <v>18</v>
@@ -69237,7 +69237,7 @@
         </is>
       </c>
       <c r="D957" s="2" t="n">
-        <v>44244</v>
+        <v>44421</v>
       </c>
       <c r="E957" t="n">
         <v>13</v>
@@ -69257,20 +69257,20 @@
       </c>
       <c r="I957" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J957" t="n">
-        <v>760</v>
+        <v>520</v>
       </c>
       <c r="K957" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="L957" t="n">
-        <v>13000</v>
+        <v>6000</v>
       </c>
       <c r="M957" t="n">
-        <v>12474</v>
+        <v>5577</v>
       </c>
       <c r="N957" t="inlineStr">
         <is>
@@ -69283,7 +69283,7 @@
         </is>
       </c>
       <c r="P957" t="n">
-        <v>693</v>
+        <v>310</v>
       </c>
       <c r="Q957" t="n">
         <v>18</v>
@@ -69309,7 +69309,7 @@
         </is>
       </c>
       <c r="D958" s="2" t="n">
-        <v>44244</v>
+        <v>44421</v>
       </c>
       <c r="E958" t="n">
         <v>13</v>
@@ -69329,20 +69329,20 @@
       </c>
       <c r="I958" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J958" t="n">
-        <v>890</v>
+        <v>500</v>
       </c>
       <c r="K958" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="L958" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M958" t="n">
-        <v>9494</v>
+        <v>7560</v>
       </c>
       <c r="N958" t="inlineStr">
         <is>
@@ -69351,11 +69351,11 @@
       </c>
       <c r="O958" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P958" t="n">
-        <v>527</v>
+        <v>420</v>
       </c>
       <c r="Q958" t="n">
         <v>18</v>
@@ -69381,7 +69381,7 @@
         </is>
       </c>
       <c r="D959" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E959" t="n">
         <v>13</v>
@@ -69401,20 +69401,20 @@
       </c>
       <c r="I959" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J959" t="n">
-        <v>630</v>
+        <v>210</v>
       </c>
       <c r="K959" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="L959" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="M959" t="n">
-        <v>5556</v>
+        <v>12000</v>
       </c>
       <c r="N959" t="inlineStr">
         <is>
@@ -69423,11 +69423,11 @@
       </c>
       <c r="O959" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P959" t="n">
-        <v>309</v>
+        <v>667</v>
       </c>
       <c r="Q959" t="n">
         <v>18</v>
@@ -69453,7 +69453,7 @@
         </is>
       </c>
       <c r="D960" s="2" t="n">
-        <v>44307</v>
+        <v>44383</v>
       </c>
       <c r="E960" t="n">
         <v>13</v>
@@ -69473,20 +69473,20 @@
       </c>
       <c r="I960" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J960" t="n">
-        <v>780</v>
+        <v>600</v>
       </c>
       <c r="K960" t="n">
         <v>11000</v>
       </c>
       <c r="L960" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="M960" t="n">
-        <v>11615</v>
+        <v>11000</v>
       </c>
       <c r="N960" t="inlineStr">
         <is>
@@ -69495,11 +69495,11 @@
       </c>
       <c r="O960" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P960" t="n">
-        <v>645</v>
+        <v>611</v>
       </c>
       <c r="Q960" t="n">
         <v>18</v>
@@ -69525,7 +69525,7 @@
         </is>
       </c>
       <c r="D961" s="2" t="n">
-        <v>44307</v>
+        <v>44383</v>
       </c>
       <c r="E961" t="n">
         <v>13</v>
@@ -69545,20 +69545,20 @@
       </c>
       <c r="I961" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J961" t="n">
-        <v>790</v>
+        <v>420</v>
       </c>
       <c r="K961" t="n">
-        <v>9500</v>
+        <v>9000</v>
       </c>
       <c r="L961" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="M961" t="n">
-        <v>9722</v>
+        <v>9000</v>
       </c>
       <c r="N961" t="inlineStr">
         <is>
@@ -69567,11 +69567,11 @@
       </c>
       <c r="O961" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P961" t="n">
-        <v>540</v>
+        <v>500</v>
       </c>
       <c r="Q961" t="n">
         <v>18</v>
@@ -69597,7 +69597,7 @@
         </is>
       </c>
       <c r="D962" s="2" t="n">
-        <v>44307</v>
+        <v>44383</v>
       </c>
       <c r="E962" t="n">
         <v>13</v>
@@ -69617,20 +69617,20 @@
       </c>
       <c r="I962" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J962" t="n">
-        <v>560</v>
+        <v>160</v>
       </c>
       <c r="K962" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="L962" t="n">
         <v>8000</v>
       </c>
       <c r="M962" t="n">
-        <v>7741</v>
+        <v>8000</v>
       </c>
       <c r="N962" t="inlineStr">
         <is>
@@ -69639,11 +69639,11 @@
       </c>
       <c r="O962" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P962" t="n">
-        <v>430</v>
+        <v>444</v>
       </c>
       <c r="Q962" t="n">
         <v>18</v>
@@ -69669,7 +69669,7 @@
         </is>
       </c>
       <c r="D963" s="2" t="n">
-        <v>44273</v>
+        <v>44244</v>
       </c>
       <c r="E963" t="n">
         <v>13</v>
@@ -69693,16 +69693,16 @@
         </is>
       </c>
       <c r="J963" t="n">
-        <v>800</v>
+        <v>760</v>
       </c>
       <c r="K963" t="n">
-        <v>11500</v>
+        <v>12000</v>
       </c>
       <c r="L963" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="M963" t="n">
-        <v>11762</v>
+        <v>12474</v>
       </c>
       <c r="N963" t="inlineStr">
         <is>
@@ -69715,7 +69715,7 @@
         </is>
       </c>
       <c r="P963" t="n">
-        <v>653</v>
+        <v>693</v>
       </c>
       <c r="Q963" t="n">
         <v>18</v>
@@ -69741,7 +69741,7 @@
         </is>
       </c>
       <c r="D964" s="2" t="n">
-        <v>44273</v>
+        <v>44244</v>
       </c>
       <c r="E964" t="n">
         <v>13</v>
@@ -69765,16 +69765,16 @@
         </is>
       </c>
       <c r="J964" t="n">
-        <v>860</v>
+        <v>890</v>
       </c>
       <c r="K964" t="n">
-        <v>9500</v>
+        <v>9000</v>
       </c>
       <c r="L964" t="n">
         <v>10000</v>
       </c>
       <c r="M964" t="n">
-        <v>9767</v>
+        <v>9494</v>
       </c>
       <c r="N964" t="inlineStr">
         <is>
@@ -69787,7 +69787,7 @@
         </is>
       </c>
       <c r="P964" t="n">
-        <v>543</v>
+        <v>527</v>
       </c>
       <c r="Q964" t="n">
         <v>18</v>
@@ -69813,7 +69813,7 @@
         </is>
       </c>
       <c r="D965" s="2" t="n">
-        <v>44273</v>
+        <v>44244</v>
       </c>
       <c r="E965" t="n">
         <v>13</v>
@@ -69837,16 +69837,16 @@
         </is>
       </c>
       <c r="J965" t="n">
-        <v>550</v>
+        <v>630</v>
       </c>
       <c r="K965" t="n">
-        <v>8500</v>
+        <v>5000</v>
       </c>
       <c r="L965" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="M965" t="n">
-        <v>8727</v>
+        <v>5556</v>
       </c>
       <c r="N965" t="inlineStr">
         <is>
@@ -69859,7 +69859,7 @@
         </is>
       </c>
       <c r="P965" t="n">
-        <v>485</v>
+        <v>309</v>
       </c>
       <c r="Q965" t="n">
         <v>18</v>
@@ -69885,7 +69885,7 @@
         </is>
       </c>
       <c r="D966" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E966" t="n">
         <v>13</v>
@@ -69900,7 +69900,7 @@
       </c>
       <c r="H966" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I966" t="inlineStr">
@@ -69909,16 +69909,16 @@
         </is>
       </c>
       <c r="J966" t="n">
-        <v>180</v>
+        <v>780</v>
       </c>
       <c r="K966" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="L966" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="M966" t="n">
-        <v>7000</v>
+        <v>11615</v>
       </c>
       <c r="N966" t="inlineStr">
         <is>
@@ -69927,11 +69927,11 @@
       </c>
       <c r="O966" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P966" t="n">
-        <v>389</v>
+        <v>645</v>
       </c>
       <c r="Q966" t="n">
         <v>18</v>
@@ -69957,7 +69957,7 @@
         </is>
       </c>
       <c r="D967" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E967" t="n">
         <v>13</v>
@@ -69972,7 +69972,7 @@
       </c>
       <c r="H967" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I967" t="inlineStr">
@@ -69981,16 +69981,16 @@
         </is>
       </c>
       <c r="J967" t="n">
-        <v>200</v>
+        <v>790</v>
       </c>
       <c r="K967" t="n">
-        <v>5000</v>
+        <v>9500</v>
       </c>
       <c r="L967" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="M967" t="n">
-        <v>5000</v>
+        <v>9722</v>
       </c>
       <c r="N967" t="inlineStr">
         <is>
@@ -69999,11 +69999,11 @@
       </c>
       <c r="O967" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P967" t="n">
-        <v>278</v>
+        <v>540</v>
       </c>
       <c r="Q967" t="n">
         <v>18</v>
@@ -70029,7 +70029,7 @@
         </is>
       </c>
       <c r="D968" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E968" t="n">
         <v>13</v>
@@ -70044,7 +70044,7 @@
       </c>
       <c r="H968" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I968" t="inlineStr">
@@ -70053,16 +70053,16 @@
         </is>
       </c>
       <c r="J968" t="n">
-        <v>170</v>
+        <v>560</v>
       </c>
       <c r="K968" t="n">
-        <v>4000</v>
+        <v>7500</v>
       </c>
       <c r="L968" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="M968" t="n">
-        <v>4000</v>
+        <v>7741</v>
       </c>
       <c r="N968" t="inlineStr">
         <is>
@@ -70071,11 +70071,11 @@
       </c>
       <c r="O968" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P968" t="n">
-        <v>222</v>
+        <v>430</v>
       </c>
       <c r="Q968" t="n">
         <v>18</v>
@@ -70101,7 +70101,7 @@
         </is>
       </c>
       <c r="D969" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E969" t="n">
         <v>13</v>
@@ -70125,16 +70125,16 @@
         </is>
       </c>
       <c r="J969" t="n">
-        <v>1060</v>
+        <v>800</v>
       </c>
       <c r="K969" t="n">
-        <v>11000</v>
+        <v>11500</v>
       </c>
       <c r="L969" t="n">
         <v>12000</v>
       </c>
       <c r="M969" t="n">
-        <v>11547</v>
+        <v>11762</v>
       </c>
       <c r="N969" t="inlineStr">
         <is>
@@ -70143,11 +70143,11 @@
       </c>
       <c r="O969" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P969" t="n">
-        <v>642</v>
+        <v>653</v>
       </c>
       <c r="Q969" t="n">
         <v>18</v>
@@ -70173,7 +70173,7 @@
         </is>
       </c>
       <c r="D970" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E970" t="n">
         <v>13</v>
@@ -70197,16 +70197,16 @@
         </is>
       </c>
       <c r="J970" t="n">
-        <v>600</v>
+        <v>860</v>
       </c>
       <c r="K970" t="n">
-        <v>5000</v>
+        <v>9500</v>
       </c>
       <c r="L970" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="M970" t="n">
-        <v>5533</v>
+        <v>9767</v>
       </c>
       <c r="N970" t="inlineStr">
         <is>
@@ -70219,7 +70219,7 @@
         </is>
       </c>
       <c r="P970" t="n">
-        <v>307</v>
+        <v>543</v>
       </c>
       <c r="Q970" t="n">
         <v>18</v>
@@ -70245,7 +70245,7 @@
         </is>
       </c>
       <c r="D971" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E971" t="n">
         <v>13</v>
@@ -70265,20 +70265,20 @@
       </c>
       <c r="I971" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J971" t="n">
-        <v>960</v>
+        <v>550</v>
       </c>
       <c r="K971" t="n">
+        <v>8500</v>
+      </c>
+      <c r="L971" t="n">
         <v>9000</v>
       </c>
-      <c r="L971" t="n">
-        <v>10000</v>
-      </c>
       <c r="M971" t="n">
-        <v>9542</v>
+        <v>8727</v>
       </c>
       <c r="N971" t="inlineStr">
         <is>
@@ -70287,11 +70287,11 @@
       </c>
       <c r="O971" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P971" t="n">
-        <v>530</v>
+        <v>485</v>
       </c>
       <c r="Q971" t="n">
         <v>18</v>
@@ -70317,7 +70317,7 @@
         </is>
       </c>
       <c r="D972" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E972" t="n">
         <v>13</v>
@@ -70332,25 +70332,25 @@
       </c>
       <c r="H972" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I972" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J972" t="n">
-        <v>470</v>
+        <v>180</v>
       </c>
       <c r="K972" t="n">
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="L972" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="M972" t="n">
-        <v>3553</v>
+        <v>7000</v>
       </c>
       <c r="N972" t="inlineStr">
         <is>
@@ -70359,11 +70359,11 @@
       </c>
       <c r="O972" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P972" t="n">
-        <v>197</v>
+        <v>389</v>
       </c>
       <c r="Q972" t="n">
         <v>18</v>
@@ -70389,7 +70389,7 @@
         </is>
       </c>
       <c r="D973" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E973" t="n">
         <v>13</v>
@@ -70404,25 +70404,25 @@
       </c>
       <c r="H973" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I973" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J973" t="n">
-        <v>640</v>
+        <v>200</v>
       </c>
       <c r="K973" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="L973" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="M973" t="n">
-        <v>6531</v>
+        <v>5000</v>
       </c>
       <c r="N973" t="inlineStr">
         <is>
@@ -70431,11 +70431,11 @@
       </c>
       <c r="O973" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P973" t="n">
-        <v>363</v>
+        <v>278</v>
       </c>
       <c r="Q973" t="n">
         <v>18</v>
@@ -70461,7 +70461,7 @@
         </is>
       </c>
       <c r="D974" s="2" t="n">
-        <v>44302</v>
+        <v>44273</v>
       </c>
       <c r="E974" t="n">
         <v>13</v>
@@ -70476,25 +70476,25 @@
       </c>
       <c r="H974" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I974" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J974" t="n">
-        <v>240</v>
+        <v>170</v>
       </c>
       <c r="K974" t="n">
-        <v>12000</v>
+        <v>4000</v>
       </c>
       <c r="L974" t="n">
-        <v>12000</v>
+        <v>4000</v>
       </c>
       <c r="M974" t="n">
-        <v>12000</v>
+        <v>4000</v>
       </c>
       <c r="N974" t="inlineStr">
         <is>
@@ -70503,11 +70503,11 @@
       </c>
       <c r="O974" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P974" t="n">
-        <v>667</v>
+        <v>222</v>
       </c>
       <c r="Q974" t="n">
         <v>18</v>
@@ -70533,7 +70533,7 @@
         </is>
       </c>
       <c r="D975" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E975" t="n">
         <v>13</v>
@@ -70553,20 +70553,20 @@
       </c>
       <c r="I975" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J975" t="n">
-        <v>480</v>
+        <v>1060</v>
       </c>
       <c r="K975" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="L975" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M975" t="n">
-        <v>10000</v>
+        <v>11547</v>
       </c>
       <c r="N975" t="inlineStr">
         <is>
@@ -70575,11 +70575,11 @@
       </c>
       <c r="O975" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P975" t="n">
-        <v>556</v>
+        <v>642</v>
       </c>
       <c r="Q975" t="n">
         <v>18</v>
@@ -70605,7 +70605,7 @@
         </is>
       </c>
       <c r="D976" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E976" t="n">
         <v>13</v>
@@ -70625,20 +70625,20 @@
       </c>
       <c r="I976" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J976" t="n">
-        <v>360</v>
+        <v>600</v>
       </c>
       <c r="K976" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="L976" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="M976" t="n">
-        <v>8000</v>
+        <v>5533</v>
       </c>
       <c r="N976" t="inlineStr">
         <is>
@@ -70647,11 +70647,11 @@
       </c>
       <c r="O976" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P976" t="n">
-        <v>444</v>
+        <v>307</v>
       </c>
       <c r="Q976" t="n">
         <v>18</v>
@@ -70677,7 +70677,7 @@
         </is>
       </c>
       <c r="D977" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E977" t="n">
         <v>13</v>
@@ -70697,20 +70697,20 @@
       </c>
       <c r="I977" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J977" t="n">
-        <v>180</v>
+        <v>960</v>
       </c>
       <c r="K977" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L977" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M977" t="n">
-        <v>7000</v>
+        <v>9542</v>
       </c>
       <c r="N977" t="inlineStr">
         <is>
@@ -70719,11 +70719,11 @@
       </c>
       <c r="O977" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P977" t="n">
-        <v>389</v>
+        <v>530</v>
       </c>
       <c r="Q977" t="n">
         <v>18</v>
@@ -70749,7 +70749,7 @@
         </is>
       </c>
       <c r="D978" s="2" t="n">
-        <v>44179</v>
+        <v>44433</v>
       </c>
       <c r="E978" t="n">
         <v>13</v>
@@ -70769,20 +70769,20 @@
       </c>
       <c r="I978" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J978" t="n">
-        <v>180</v>
+        <v>470</v>
       </c>
       <c r="K978" t="n">
-        <v>13000</v>
+        <v>3000</v>
       </c>
       <c r="L978" t="n">
-        <v>13000</v>
+        <v>4000</v>
       </c>
       <c r="M978" t="n">
-        <v>13000</v>
+        <v>3553</v>
       </c>
       <c r="N978" t="inlineStr">
         <is>
@@ -70791,11 +70791,11 @@
       </c>
       <c r="O978" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P978" t="n">
-        <v>722</v>
+        <v>197</v>
       </c>
       <c r="Q978" t="n">
         <v>18</v>
@@ -70821,7 +70821,7 @@
         </is>
       </c>
       <c r="D979" s="2" t="n">
-        <v>44179</v>
+        <v>44433</v>
       </c>
       <c r="E979" t="n">
         <v>13</v>
@@ -70841,20 +70841,20 @@
       </c>
       <c r="I979" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J979" t="n">
-        <v>210</v>
+        <v>640</v>
       </c>
       <c r="K979" t="n">
-        <v>11000</v>
+        <v>6000</v>
       </c>
       <c r="L979" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="M979" t="n">
-        <v>11000</v>
+        <v>6531</v>
       </c>
       <c r="N979" t="inlineStr">
         <is>
@@ -70863,11 +70863,11 @@
       </c>
       <c r="O979" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P979" t="n">
-        <v>611</v>
+        <v>363</v>
       </c>
       <c r="Q979" t="n">
         <v>18</v>
@@ -70893,7 +70893,7 @@
         </is>
       </c>
       <c r="D980" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E980" t="n">
         <v>13</v>
@@ -70913,20 +70913,20 @@
       </c>
       <c r="I980" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J980" t="n">
-        <v>150</v>
+        <v>240</v>
       </c>
       <c r="K980" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="L980" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="M980" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="N980" t="inlineStr">
         <is>
@@ -70939,7 +70939,7 @@
         </is>
       </c>
       <c r="P980" t="n">
-        <v>500</v>
+        <v>667</v>
       </c>
       <c r="Q980" t="n">
         <v>18</v>
@@ -70965,7 +70965,7 @@
         </is>
       </c>
       <c r="D981" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E981" t="n">
         <v>13</v>
@@ -70985,20 +70985,20 @@
       </c>
       <c r="I981" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J981" t="n">
-        <v>130</v>
+        <v>480</v>
       </c>
       <c r="K981" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L981" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M981" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="N981" t="inlineStr">
         <is>
@@ -71011,7 +71011,7 @@
         </is>
       </c>
       <c r="P981" t="n">
-        <v>389</v>
+        <v>556</v>
       </c>
       <c r="Q981" t="n">
         <v>18</v>
@@ -71037,7 +71037,7 @@
         </is>
       </c>
       <c r="D982" s="2" t="n">
-        <v>44491</v>
+        <v>44302</v>
       </c>
       <c r="E982" t="n">
         <v>13</v>
@@ -71057,20 +71057,20 @@
       </c>
       <c r="I982" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J982" t="n">
-        <v>660</v>
+        <v>360</v>
       </c>
       <c r="K982" t="n">
-        <v>19000</v>
+        <v>8000</v>
       </c>
       <c r="L982" t="n">
-        <v>19500</v>
+        <v>8000</v>
       </c>
       <c r="M982" t="n">
-        <v>19265</v>
+        <v>8000</v>
       </c>
       <c r="N982" t="inlineStr">
         <is>
@@ -71079,11 +71079,11 @@
       </c>
       <c r="O982" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P982" t="n">
-        <v>1070</v>
+        <v>444</v>
       </c>
       <c r="Q982" t="n">
         <v>18</v>
@@ -71109,7 +71109,7 @@
         </is>
       </c>
       <c r="D983" s="2" t="n">
-        <v>44491</v>
+        <v>44302</v>
       </c>
       <c r="E983" t="n">
         <v>13</v>
@@ -71129,20 +71129,20 @@
       </c>
       <c r="I983" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J983" t="n">
-        <v>650</v>
+        <v>180</v>
       </c>
       <c r="K983" t="n">
-        <v>17000</v>
+        <v>7000</v>
       </c>
       <c r="L983" t="n">
-        <v>17000</v>
+        <v>7000</v>
       </c>
       <c r="M983" t="n">
-        <v>17000</v>
+        <v>7000</v>
       </c>
       <c r="N983" t="inlineStr">
         <is>
@@ -71151,11 +71151,11 @@
       </c>
       <c r="O983" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P983" t="n">
-        <v>944</v>
+        <v>389</v>
       </c>
       <c r="Q983" t="n">
         <v>18</v>
@@ -71181,7 +71181,7 @@
         </is>
       </c>
       <c r="D984" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E984" t="n">
         <v>13</v>
@@ -71201,20 +71201,20 @@
       </c>
       <c r="I984" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J984" t="n">
-        <v>760</v>
+        <v>180</v>
       </c>
       <c r="K984" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="L984" t="n">
-        <v>16500</v>
+        <v>13000</v>
       </c>
       <c r="M984" t="n">
-        <v>16270</v>
+        <v>13000</v>
       </c>
       <c r="N984" t="inlineStr">
         <is>
@@ -71223,11 +71223,11 @@
       </c>
       <c r="O984" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P984" t="n">
-        <v>904</v>
+        <v>722</v>
       </c>
       <c r="Q984" t="n">
         <v>18</v>
@@ -71253,7 +71253,7 @@
         </is>
       </c>
       <c r="D985" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E985" t="n">
         <v>13</v>
@@ -71277,16 +71277,16 @@
         </is>
       </c>
       <c r="J985" t="n">
-        <v>580</v>
+        <v>210</v>
       </c>
       <c r="K985" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="L985" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="M985" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="N985" t="inlineStr">
         <is>
@@ -71295,11 +71295,11 @@
       </c>
       <c r="O985" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P985" t="n">
-        <v>833</v>
+        <v>611</v>
       </c>
       <c r="Q985" t="n">
         <v>18</v>
@@ -71325,7 +71325,7 @@
         </is>
       </c>
       <c r="D986" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E986" t="n">
         <v>13</v>
@@ -71349,16 +71349,16 @@
         </is>
       </c>
       <c r="J986" t="n">
-        <v>700</v>
+        <v>150</v>
       </c>
       <c r="K986" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="L986" t="n">
-        <v>13500</v>
+        <v>9000</v>
       </c>
       <c r="M986" t="n">
-        <v>13214</v>
+        <v>9000</v>
       </c>
       <c r="N986" t="inlineStr">
         <is>
@@ -71367,11 +71367,11 @@
       </c>
       <c r="O986" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P986" t="n">
-        <v>734</v>
+        <v>500</v>
       </c>
       <c r="Q986" t="n">
         <v>18</v>
@@ -71397,58 +71397,490 @@
         </is>
       </c>
       <c r="D987" s="2" t="n">
+        <v>44179</v>
+      </c>
+      <c r="E987" t="n">
+        <v>13</v>
+      </c>
+      <c r="F987" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G987" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H987" t="inlineStr">
+        <is>
+          <t>Larga vida</t>
+        </is>
+      </c>
+      <c r="I987" t="inlineStr">
+        <is>
+          <t>Tercera</t>
+        </is>
+      </c>
+      <c r="J987" t="n">
+        <v>130</v>
+      </c>
+      <c r="K987" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L987" t="n">
+        <v>7000</v>
+      </c>
+      <c r="M987" t="n">
+        <v>7000</v>
+      </c>
+      <c r="N987" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O987" t="inlineStr">
+        <is>
+          <t>Limache</t>
+        </is>
+      </c>
+      <c r="P987" t="n">
+        <v>389</v>
+      </c>
+      <c r="Q987" t="n">
+        <v>18</v>
+      </c>
+      <c r="R987" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="988">
+      <c r="A988" t="n">
+        <v>12</v>
+      </c>
+      <c r="B988" t="inlineStr">
+        <is>
+          <t>Mapocho Venta Directa de Santiago</t>
+        </is>
+      </c>
+      <c r="C988" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D988" s="2" t="n">
         <v>44491</v>
       </c>
-      <c r="E987" t="n">
-        <v>13</v>
-      </c>
-      <c r="F987" t="n">
-        <v>100112020</v>
-      </c>
-      <c r="G987" t="inlineStr">
-        <is>
-          <t>Tomate</t>
-        </is>
-      </c>
-      <c r="H987" t="inlineStr">
-        <is>
-          <t>Larga vida</t>
-        </is>
-      </c>
-      <c r="I987" t="inlineStr">
+      <c r="E988" t="n">
+        <v>13</v>
+      </c>
+      <c r="F988" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G988" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H988" t="inlineStr">
+        <is>
+          <t>Larga vida</t>
+        </is>
+      </c>
+      <c r="I988" t="inlineStr">
+        <is>
+          <t>Extra</t>
+        </is>
+      </c>
+      <c r="J988" t="n">
+        <v>660</v>
+      </c>
+      <c r="K988" t="n">
+        <v>19000</v>
+      </c>
+      <c r="L988" t="n">
+        <v>19500</v>
+      </c>
+      <c r="M988" t="n">
+        <v>19265</v>
+      </c>
+      <c r="N988" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O988" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="P988" t="n">
+        <v>1070</v>
+      </c>
+      <c r="Q988" t="n">
+        <v>18</v>
+      </c>
+      <c r="R988" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="989">
+      <c r="A989" t="n">
+        <v>12</v>
+      </c>
+      <c r="B989" t="inlineStr">
+        <is>
+          <t>Mapocho Venta Directa de Santiago</t>
+        </is>
+      </c>
+      <c r="C989" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D989" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E989" t="n">
+        <v>13</v>
+      </c>
+      <c r="F989" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G989" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H989" t="inlineStr">
+        <is>
+          <t>Larga vida</t>
+        </is>
+      </c>
+      <c r="I989" t="inlineStr">
+        <is>
+          <t>Extra</t>
+        </is>
+      </c>
+      <c r="J989" t="n">
+        <v>650</v>
+      </c>
+      <c r="K989" t="n">
+        <v>17000</v>
+      </c>
+      <c r="L989" t="n">
+        <v>17000</v>
+      </c>
+      <c r="M989" t="n">
+        <v>17000</v>
+      </c>
+      <c r="N989" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O989" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P989" t="n">
+        <v>944</v>
+      </c>
+      <c r="Q989" t="n">
+        <v>18</v>
+      </c>
+      <c r="R989" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="990">
+      <c r="A990" t="n">
+        <v>12</v>
+      </c>
+      <c r="B990" t="inlineStr">
+        <is>
+          <t>Mapocho Venta Directa de Santiago</t>
+        </is>
+      </c>
+      <c r="C990" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D990" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E990" t="n">
+        <v>13</v>
+      </c>
+      <c r="F990" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G990" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H990" t="inlineStr">
+        <is>
+          <t>Larga vida</t>
+        </is>
+      </c>
+      <c r="I990" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J990" t="n">
+        <v>760</v>
+      </c>
+      <c r="K990" t="n">
+        <v>16000</v>
+      </c>
+      <c r="L990" t="n">
+        <v>16500</v>
+      </c>
+      <c r="M990" t="n">
+        <v>16270</v>
+      </c>
+      <c r="N990" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O990" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="P990" t="n">
+        <v>904</v>
+      </c>
+      <c r="Q990" t="n">
+        <v>18</v>
+      </c>
+      <c r="R990" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="991">
+      <c r="A991" t="n">
+        <v>12</v>
+      </c>
+      <c r="B991" t="inlineStr">
+        <is>
+          <t>Mapocho Venta Directa de Santiago</t>
+        </is>
+      </c>
+      <c r="C991" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D991" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E991" t="n">
+        <v>13</v>
+      </c>
+      <c r="F991" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G991" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H991" t="inlineStr">
+        <is>
+          <t>Larga vida</t>
+        </is>
+      </c>
+      <c r="I991" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J991" t="n">
+        <v>580</v>
+      </c>
+      <c r="K991" t="n">
+        <v>15000</v>
+      </c>
+      <c r="L991" t="n">
+        <v>15000</v>
+      </c>
+      <c r="M991" t="n">
+        <v>15000</v>
+      </c>
+      <c r="N991" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O991" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P991" t="n">
+        <v>833</v>
+      </c>
+      <c r="Q991" t="n">
+        <v>18</v>
+      </c>
+      <c r="R991" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="992">
+      <c r="A992" t="n">
+        <v>12</v>
+      </c>
+      <c r="B992" t="inlineStr">
+        <is>
+          <t>Mapocho Venta Directa de Santiago</t>
+        </is>
+      </c>
+      <c r="C992" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D992" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E992" t="n">
+        <v>13</v>
+      </c>
+      <c r="F992" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G992" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H992" t="inlineStr">
+        <is>
+          <t>Larga vida</t>
+        </is>
+      </c>
+      <c r="I992" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="J987" t="n">
+      <c r="J992" t="n">
+        <v>700</v>
+      </c>
+      <c r="K992" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L992" t="n">
+        <v>13500</v>
+      </c>
+      <c r="M992" t="n">
+        <v>13214</v>
+      </c>
+      <c r="N992" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O992" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="P992" t="n">
+        <v>734</v>
+      </c>
+      <c r="Q992" t="n">
+        <v>18</v>
+      </c>
+      <c r="R992" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="993">
+      <c r="A993" t="n">
+        <v>12</v>
+      </c>
+      <c r="B993" t="inlineStr">
+        <is>
+          <t>Mapocho Venta Directa de Santiago</t>
+        </is>
+      </c>
+      <c r="C993" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D993" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E993" t="n">
+        <v>13</v>
+      </c>
+      <c r="F993" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G993" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H993" t="inlineStr">
+        <is>
+          <t>Larga vida</t>
+        </is>
+      </c>
+      <c r="I993" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J993" t="n">
         <v>600</v>
       </c>
-      <c r="K987" t="n">
+      <c r="K993" t="n">
         <v>13000</v>
       </c>
-      <c r="L987" t="n">
+      <c r="L993" t="n">
         <v>13000</v>
       </c>
-      <c r="M987" t="n">
+      <c r="M993" t="n">
         <v>13000</v>
       </c>
-      <c r="N987" t="inlineStr">
-        <is>
-          <t>$/bandeja 18 kilos</t>
-        </is>
-      </c>
-      <c r="O987" t="inlineStr">
+      <c r="N993" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O993" t="inlineStr">
         <is>
           <t>Región de Arica y Parinacota</t>
         </is>
       </c>
-      <c r="P987" t="n">
+      <c r="P993" t="n">
         <v>722</v>
       </c>
-      <c r="Q987" t="n">
-        <v>18</v>
-      </c>
-      <c r="R987" t="inlineStr">
+      <c r="Q993" t="n">
+        <v>18</v>
+      </c>
+      <c r="R993" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Tomate.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Tomate.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R993"/>
+  <dimension ref="A1:R999"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -57933,7 +57933,7 @@
         </is>
       </c>
       <c r="D800" s="2" t="n">
-        <v>44333</v>
+        <v>44508</v>
       </c>
       <c r="E800" t="n">
         <v>13</v>
@@ -57953,20 +57953,20 @@
       </c>
       <c r="I800" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J800" t="n">
-        <v>180</v>
+        <v>990</v>
       </c>
       <c r="K800" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="L800" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="M800" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="N800" t="inlineStr">
         <is>
@@ -57975,11 +57975,11 @@
       </c>
       <c r="O800" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P800" t="n">
-        <v>556</v>
+        <v>889</v>
       </c>
       <c r="Q800" t="n">
         <v>18</v>
@@ -58005,7 +58005,7 @@
         </is>
       </c>
       <c r="D801" s="2" t="n">
-        <v>44333</v>
+        <v>44508</v>
       </c>
       <c r="E801" t="n">
         <v>13</v>
@@ -58025,20 +58025,20 @@
       </c>
       <c r="I801" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J801" t="n">
-        <v>300</v>
+        <v>710</v>
       </c>
       <c r="K801" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="L801" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="M801" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="N801" t="inlineStr">
         <is>
@@ -58047,11 +58047,11 @@
       </c>
       <c r="O801" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P801" t="n">
-        <v>444</v>
+        <v>667</v>
       </c>
       <c r="Q801" t="n">
         <v>18</v>
@@ -58077,7 +58077,7 @@
         </is>
       </c>
       <c r="D802" s="2" t="n">
-        <v>44333</v>
+        <v>44508</v>
       </c>
       <c r="E802" t="n">
         <v>13</v>
@@ -58097,20 +58097,20 @@
       </c>
       <c r="I802" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J802" t="n">
-        <v>340</v>
+        <v>1200</v>
       </c>
       <c r="K802" t="n">
-        <v>6000</v>
+        <v>15000</v>
       </c>
       <c r="L802" t="n">
-        <v>6000</v>
+        <v>15000</v>
       </c>
       <c r="M802" t="n">
-        <v>6000</v>
+        <v>15000</v>
       </c>
       <c r="N802" t="inlineStr">
         <is>
@@ -58119,11 +58119,11 @@
       </c>
       <c r="O802" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P802" t="n">
-        <v>333</v>
+        <v>833</v>
       </c>
       <c r="Q802" t="n">
         <v>18</v>
@@ -58149,7 +58149,7 @@
         </is>
       </c>
       <c r="D803" s="2" t="n">
-        <v>44323</v>
+        <v>44508</v>
       </c>
       <c r="E803" t="n">
         <v>13</v>
@@ -58169,20 +58169,20 @@
       </c>
       <c r="I803" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J803" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="K803" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="L803" t="n">
-        <v>8500</v>
+        <v>10000</v>
       </c>
       <c r="M803" t="n">
-        <v>8280</v>
+        <v>10000</v>
       </c>
       <c r="N803" t="inlineStr">
         <is>
@@ -58191,11 +58191,11 @@
       </c>
       <c r="O803" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P803" t="n">
-        <v>460</v>
+        <v>556</v>
       </c>
       <c r="Q803" t="n">
         <v>18</v>
@@ -58221,7 +58221,7 @@
         </is>
       </c>
       <c r="D804" s="2" t="n">
-        <v>44323</v>
+        <v>44508</v>
       </c>
       <c r="E804" t="n">
         <v>13</v>
@@ -58241,20 +58241,20 @@
       </c>
       <c r="I804" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J804" t="n">
-        <v>680</v>
+        <v>950</v>
       </c>
       <c r="K804" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L804" t="n">
-        <v>7500</v>
+        <v>10000</v>
       </c>
       <c r="M804" t="n">
-        <v>7279</v>
+        <v>10000</v>
       </c>
       <c r="N804" t="inlineStr">
         <is>
@@ -58267,7 +58267,7 @@
         </is>
       </c>
       <c r="P804" t="n">
-        <v>404</v>
+        <v>556</v>
       </c>
       <c r="Q804" t="n">
         <v>18</v>
@@ -58293,7 +58293,7 @@
         </is>
       </c>
       <c r="D805" s="2" t="n">
-        <v>44323</v>
+        <v>44508</v>
       </c>
       <c r="E805" t="n">
         <v>13</v>
@@ -58308,25 +58308,25 @@
       </c>
       <c r="H805" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I805" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J805" t="n">
-        <v>420</v>
+        <v>520</v>
       </c>
       <c r="K805" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="L805" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M805" t="n">
-        <v>5786</v>
+        <v>7000</v>
       </c>
       <c r="N805" t="inlineStr">
         <is>
@@ -58335,11 +58335,11 @@
       </c>
       <c r="O805" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P805" t="n">
-        <v>321</v>
+        <v>389</v>
       </c>
       <c r="Q805" t="n">
         <v>18</v>
@@ -58365,7 +58365,7 @@
         </is>
       </c>
       <c r="D806" s="2" t="n">
-        <v>44323</v>
+        <v>44333</v>
       </c>
       <c r="E806" t="n">
         <v>13</v>
@@ -58380,25 +58380,25 @@
       </c>
       <c r="H806" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I806" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J806" t="n">
-        <v>420</v>
+        <v>180</v>
       </c>
       <c r="K806" t="n">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="L806" t="n">
-        <v>4500</v>
+        <v>10000</v>
       </c>
       <c r="M806" t="n">
-        <v>4214</v>
+        <v>10000</v>
       </c>
       <c r="N806" t="inlineStr">
         <is>
@@ -58411,7 +58411,7 @@
         </is>
       </c>
       <c r="P806" t="n">
-        <v>234</v>
+        <v>556</v>
       </c>
       <c r="Q806" t="n">
         <v>18</v>
@@ -58437,7 +58437,7 @@
         </is>
       </c>
       <c r="D807" s="2" t="n">
-        <v>44323</v>
+        <v>44333</v>
       </c>
       <c r="E807" t="n">
         <v>13</v>
@@ -58452,25 +58452,25 @@
       </c>
       <c r="H807" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I807" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J807" t="n">
-        <v>390</v>
+        <v>300</v>
       </c>
       <c r="K807" t="n">
-        <v>3000</v>
+        <v>8000</v>
       </c>
       <c r="L807" t="n">
-        <v>3500</v>
+        <v>8000</v>
       </c>
       <c r="M807" t="n">
-        <v>3269</v>
+        <v>8000</v>
       </c>
       <c r="N807" t="inlineStr">
         <is>
@@ -58483,7 +58483,7 @@
         </is>
       </c>
       <c r="P807" t="n">
-        <v>182</v>
+        <v>444</v>
       </c>
       <c r="Q807" t="n">
         <v>18</v>
@@ -58509,7 +58509,7 @@
         </is>
       </c>
       <c r="D808" s="2" t="n">
-        <v>44306</v>
+        <v>44333</v>
       </c>
       <c r="E808" t="n">
         <v>13</v>
@@ -58529,20 +58529,20 @@
       </c>
       <c r="I808" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J808" t="n">
-        <v>1040</v>
+        <v>340</v>
       </c>
       <c r="K808" t="n">
-        <v>11000</v>
+        <v>6000</v>
       </c>
       <c r="L808" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="M808" t="n">
-        <v>11538</v>
+        <v>6000</v>
       </c>
       <c r="N808" t="inlineStr">
         <is>
@@ -58551,11 +58551,11 @@
       </c>
       <c r="O808" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P808" t="n">
-        <v>641</v>
+        <v>333</v>
       </c>
       <c r="Q808" t="n">
         <v>18</v>
@@ -58581,7 +58581,7 @@
         </is>
       </c>
       <c r="D809" s="2" t="n">
-        <v>44306</v>
+        <v>44323</v>
       </c>
       <c r="E809" t="n">
         <v>13</v>
@@ -58601,20 +58601,20 @@
       </c>
       <c r="I809" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J809" t="n">
-        <v>1030</v>
+        <v>500</v>
       </c>
       <c r="K809" t="n">
-        <v>9500</v>
+        <v>8000</v>
       </c>
       <c r="L809" t="n">
-        <v>10000</v>
+        <v>8500</v>
       </c>
       <c r="M809" t="n">
-        <v>9782</v>
+        <v>8280</v>
       </c>
       <c r="N809" t="inlineStr">
         <is>
@@ -58627,7 +58627,7 @@
         </is>
       </c>
       <c r="P809" t="n">
-        <v>543</v>
+        <v>460</v>
       </c>
       <c r="Q809" t="n">
         <v>18</v>
@@ -58653,7 +58653,7 @@
         </is>
       </c>
       <c r="D810" s="2" t="n">
-        <v>44306</v>
+        <v>44323</v>
       </c>
       <c r="E810" t="n">
         <v>13</v>
@@ -58673,20 +58673,20 @@
       </c>
       <c r="I810" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J810" t="n">
-        <v>750</v>
+        <v>680</v>
       </c>
       <c r="K810" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L810" t="n">
         <v>7500</v>
       </c>
-      <c r="L810" t="n">
-        <v>8000</v>
-      </c>
       <c r="M810" t="n">
-        <v>7733</v>
+        <v>7279</v>
       </c>
       <c r="N810" t="inlineStr">
         <is>
@@ -58699,7 +58699,7 @@
         </is>
       </c>
       <c r="P810" t="n">
-        <v>430</v>
+        <v>404</v>
       </c>
       <c r="Q810" t="n">
         <v>18</v>
@@ -58725,7 +58725,7 @@
         </is>
       </c>
       <c r="D811" s="2" t="n">
-        <v>44211</v>
+        <v>44323</v>
       </c>
       <c r="E811" t="n">
         <v>13</v>
@@ -58740,25 +58740,25 @@
       </c>
       <c r="H811" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I811" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J811" t="n">
-        <v>840</v>
+        <v>420</v>
       </c>
       <c r="K811" t="n">
-        <v>13000</v>
+        <v>5500</v>
       </c>
       <c r="L811" t="n">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="M811" t="n">
-        <v>13548</v>
+        <v>5786</v>
       </c>
       <c r="N811" t="inlineStr">
         <is>
@@ -58767,11 +58767,11 @@
       </c>
       <c r="O811" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P811" t="n">
-        <v>753</v>
+        <v>321</v>
       </c>
       <c r="Q811" t="n">
         <v>18</v>
@@ -58797,7 +58797,7 @@
         </is>
       </c>
       <c r="D812" s="2" t="n">
-        <v>44211</v>
+        <v>44323</v>
       </c>
       <c r="E812" t="n">
         <v>13</v>
@@ -58812,25 +58812,25 @@
       </c>
       <c r="H812" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I812" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J812" t="n">
-        <v>1130</v>
+        <v>420</v>
       </c>
       <c r="K812" t="n">
-        <v>11000</v>
+        <v>4000</v>
       </c>
       <c r="L812" t="n">
-        <v>12000</v>
+        <v>4500</v>
       </c>
       <c r="M812" t="n">
-        <v>11575</v>
+        <v>4214</v>
       </c>
       <c r="N812" t="inlineStr">
         <is>
@@ -58839,11 +58839,11 @@
       </c>
       <c r="O812" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P812" t="n">
-        <v>643</v>
+        <v>234</v>
       </c>
       <c r="Q812" t="n">
         <v>18</v>
@@ -58869,7 +58869,7 @@
         </is>
       </c>
       <c r="D813" s="2" t="n">
-        <v>44211</v>
+        <v>44323</v>
       </c>
       <c r="E813" t="n">
         <v>13</v>
@@ -58884,25 +58884,25 @@
       </c>
       <c r="H813" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I813" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J813" t="n">
-        <v>780</v>
+        <v>390</v>
       </c>
       <c r="K813" t="n">
-        <v>8000</v>
+        <v>3000</v>
       </c>
       <c r="L813" t="n">
-        <v>9000</v>
+        <v>3500</v>
       </c>
       <c r="M813" t="n">
-        <v>8615</v>
+        <v>3269</v>
       </c>
       <c r="N813" t="inlineStr">
         <is>
@@ -58911,11 +58911,11 @@
       </c>
       <c r="O813" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P813" t="n">
-        <v>479</v>
+        <v>182</v>
       </c>
       <c r="Q813" t="n">
         <v>18</v>
@@ -58941,7 +58941,7 @@
         </is>
       </c>
       <c r="D814" s="2" t="n">
-        <v>44211</v>
+        <v>44306</v>
       </c>
       <c r="E814" t="n">
         <v>13</v>
@@ -58956,7 +58956,7 @@
       </c>
       <c r="H814" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I814" t="inlineStr">
@@ -58965,16 +58965,16 @@
         </is>
       </c>
       <c r="J814" t="n">
-        <v>590</v>
+        <v>1040</v>
       </c>
       <c r="K814" t="n">
-        <v>9500</v>
+        <v>11000</v>
       </c>
       <c r="L814" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M814" t="n">
-        <v>9788</v>
+        <v>11538</v>
       </c>
       <c r="N814" t="inlineStr">
         <is>
@@ -58983,11 +58983,11 @@
       </c>
       <c r="O814" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P814" t="n">
-        <v>544</v>
+        <v>641</v>
       </c>
       <c r="Q814" t="n">
         <v>18</v>
@@ -59013,7 +59013,7 @@
         </is>
       </c>
       <c r="D815" s="2" t="n">
-        <v>44211</v>
+        <v>44306</v>
       </c>
       <c r="E815" t="n">
         <v>13</v>
@@ -59028,7 +59028,7 @@
       </c>
       <c r="H815" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I815" t="inlineStr">
@@ -59037,16 +59037,16 @@
         </is>
       </c>
       <c r="J815" t="n">
-        <v>580</v>
+        <v>1030</v>
       </c>
       <c r="K815" t="n">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="L815" t="n">
-        <v>8500</v>
+        <v>10000</v>
       </c>
       <c r="M815" t="n">
-        <v>8259</v>
+        <v>9782</v>
       </c>
       <c r="N815" t="inlineStr">
         <is>
@@ -59055,11 +59055,11 @@
       </c>
       <c r="O815" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P815" t="n">
-        <v>459</v>
+        <v>543</v>
       </c>
       <c r="Q815" t="n">
         <v>18</v>
@@ -59085,7 +59085,7 @@
         </is>
       </c>
       <c r="D816" s="2" t="n">
-        <v>44211</v>
+        <v>44306</v>
       </c>
       <c r="E816" t="n">
         <v>13</v>
@@ -59100,7 +59100,7 @@
       </c>
       <c r="H816" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I816" t="inlineStr">
@@ -59109,16 +59109,16 @@
         </is>
       </c>
       <c r="J816" t="n">
-        <v>550</v>
+        <v>750</v>
       </c>
       <c r="K816" t="n">
-        <v>5000</v>
+        <v>7500</v>
       </c>
       <c r="L816" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M816" t="n">
-        <v>5545</v>
+        <v>7733</v>
       </c>
       <c r="N816" t="inlineStr">
         <is>
@@ -59127,11 +59127,11 @@
       </c>
       <c r="O816" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P816" t="n">
-        <v>308</v>
+        <v>430</v>
       </c>
       <c r="Q816" t="n">
         <v>18</v>
@@ -59157,7 +59157,7 @@
         </is>
       </c>
       <c r="D817" s="2" t="n">
-        <v>44469</v>
+        <v>44211</v>
       </c>
       <c r="E817" t="n">
         <v>13</v>
@@ -59181,16 +59181,16 @@
         </is>
       </c>
       <c r="J817" t="n">
-        <v>780</v>
+        <v>840</v>
       </c>
       <c r="K817" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="L817" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="M817" t="n">
-        <v>15513</v>
+        <v>13548</v>
       </c>
       <c r="N817" t="inlineStr">
         <is>
@@ -59199,11 +59199,11 @@
       </c>
       <c r="O817" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P817" t="n">
-        <v>862</v>
+        <v>753</v>
       </c>
       <c r="Q817" t="n">
         <v>18</v>
@@ -59229,7 +59229,7 @@
         </is>
       </c>
       <c r="D818" s="2" t="n">
-        <v>44469</v>
+        <v>44211</v>
       </c>
       <c r="E818" t="n">
         <v>13</v>
@@ -59253,16 +59253,16 @@
         </is>
       </c>
       <c r="J818" t="n">
-        <v>800</v>
+        <v>1130</v>
       </c>
       <c r="K818" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="L818" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="M818" t="n">
-        <v>14500</v>
+        <v>11575</v>
       </c>
       <c r="N818" t="inlineStr">
         <is>
@@ -59271,11 +59271,11 @@
       </c>
       <c r="O818" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P818" t="n">
-        <v>806</v>
+        <v>643</v>
       </c>
       <c r="Q818" t="n">
         <v>18</v>
@@ -59301,7 +59301,7 @@
         </is>
       </c>
       <c r="D819" s="2" t="n">
-        <v>44469</v>
+        <v>44211</v>
       </c>
       <c r="E819" t="n">
         <v>13</v>
@@ -59325,16 +59325,16 @@
         </is>
       </c>
       <c r="J819" t="n">
-        <v>650</v>
+        <v>780</v>
       </c>
       <c r="K819" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="L819" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="M819" t="n">
-        <v>12462</v>
+        <v>8615</v>
       </c>
       <c r="N819" t="inlineStr">
         <is>
@@ -59343,11 +59343,11 @@
       </c>
       <c r="O819" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P819" t="n">
-        <v>692</v>
+        <v>479</v>
       </c>
       <c r="Q819" t="n">
         <v>18</v>
@@ -59373,7 +59373,7 @@
         </is>
       </c>
       <c r="D820" s="2" t="n">
-        <v>44215</v>
+        <v>44211</v>
       </c>
       <c r="E820" t="n">
         <v>13</v>
@@ -59388,7 +59388,7 @@
       </c>
       <c r="H820" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I820" t="inlineStr">
@@ -59397,16 +59397,16 @@
         </is>
       </c>
       <c r="J820" t="n">
-        <v>380</v>
+        <v>590</v>
       </c>
       <c r="K820" t="n">
-        <v>14000</v>
+        <v>9500</v>
       </c>
       <c r="L820" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="M820" t="n">
-        <v>14526</v>
+        <v>9788</v>
       </c>
       <c r="N820" t="inlineStr">
         <is>
@@ -59415,11 +59415,11 @@
       </c>
       <c r="O820" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P820" t="n">
-        <v>807</v>
+        <v>544</v>
       </c>
       <c r="Q820" t="n">
         <v>18</v>
@@ -59445,7 +59445,7 @@
         </is>
       </c>
       <c r="D821" s="2" t="n">
-        <v>44215</v>
+        <v>44211</v>
       </c>
       <c r="E821" t="n">
         <v>13</v>
@@ -59460,7 +59460,7 @@
       </c>
       <c r="H821" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I821" t="inlineStr">
@@ -59469,16 +59469,16 @@
         </is>
       </c>
       <c r="J821" t="n">
-        <v>510</v>
+        <v>580</v>
       </c>
       <c r="K821" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="L821" t="n">
-        <v>12000</v>
+        <v>8500</v>
       </c>
       <c r="M821" t="n">
-        <v>11412</v>
+        <v>8259</v>
       </c>
       <c r="N821" t="inlineStr">
         <is>
@@ -59487,11 +59487,11 @@
       </c>
       <c r="O821" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P821" t="n">
-        <v>634</v>
+        <v>459</v>
       </c>
       <c r="Q821" t="n">
         <v>18</v>
@@ -59517,7 +59517,7 @@
         </is>
       </c>
       <c r="D822" s="2" t="n">
-        <v>44215</v>
+        <v>44211</v>
       </c>
       <c r="E822" t="n">
         <v>13</v>
@@ -59537,20 +59537,20 @@
       </c>
       <c r="I822" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J822" t="n">
-        <v>780</v>
+        <v>550</v>
       </c>
       <c r="K822" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="L822" t="n">
-        <v>9500</v>
+        <v>6000</v>
       </c>
       <c r="M822" t="n">
-        <v>9308</v>
+        <v>5545</v>
       </c>
       <c r="N822" t="inlineStr">
         <is>
@@ -59563,7 +59563,7 @@
         </is>
       </c>
       <c r="P822" t="n">
-        <v>517</v>
+        <v>308</v>
       </c>
       <c r="Q822" t="n">
         <v>18</v>
@@ -59589,7 +59589,7 @@
         </is>
       </c>
       <c r="D823" s="2" t="n">
-        <v>44215</v>
+        <v>44469</v>
       </c>
       <c r="E823" t="n">
         <v>13</v>
@@ -59604,25 +59604,25 @@
       </c>
       <c r="H823" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I823" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J823" t="n">
-        <v>980</v>
+        <v>780</v>
       </c>
       <c r="K823" t="n">
-        <v>7500</v>
+        <v>15000</v>
       </c>
       <c r="L823" t="n">
-        <v>8000</v>
+        <v>16000</v>
       </c>
       <c r="M823" t="n">
-        <v>7755</v>
+        <v>15513</v>
       </c>
       <c r="N823" t="inlineStr">
         <is>
@@ -59631,11 +59631,11 @@
       </c>
       <c r="O823" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P823" t="n">
-        <v>431</v>
+        <v>862</v>
       </c>
       <c r="Q823" t="n">
         <v>18</v>
@@ -59661,7 +59661,7 @@
         </is>
       </c>
       <c r="D824" s="2" t="n">
-        <v>44215</v>
+        <v>44469</v>
       </c>
       <c r="E824" t="n">
         <v>13</v>
@@ -59676,25 +59676,25 @@
       </c>
       <c r="H824" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I824" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J824" t="n">
-        <v>980</v>
+        <v>800</v>
       </c>
       <c r="K824" t="n">
-        <v>5500</v>
+        <v>14000</v>
       </c>
       <c r="L824" t="n">
-        <v>6000</v>
+        <v>15000</v>
       </c>
       <c r="M824" t="n">
-        <v>5765</v>
+        <v>14500</v>
       </c>
       <c r="N824" t="inlineStr">
         <is>
@@ -59703,11 +59703,11 @@
       </c>
       <c r="O824" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P824" t="n">
-        <v>320</v>
+        <v>806</v>
       </c>
       <c r="Q824" t="n">
         <v>18</v>
@@ -59733,7 +59733,7 @@
         </is>
       </c>
       <c r="D825" s="2" t="n">
-        <v>44407</v>
+        <v>44469</v>
       </c>
       <c r="E825" t="n">
         <v>13</v>
@@ -59753,20 +59753,20 @@
       </c>
       <c r="I825" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J825" t="n">
-        <v>230</v>
+        <v>650</v>
       </c>
       <c r="K825" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L825" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="M825" t="n">
-        <v>10000</v>
+        <v>12462</v>
       </c>
       <c r="N825" t="inlineStr">
         <is>
@@ -59775,11 +59775,11 @@
       </c>
       <c r="O825" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P825" t="n">
-        <v>556</v>
+        <v>692</v>
       </c>
       <c r="Q825" t="n">
         <v>18</v>
@@ -59805,7 +59805,7 @@
         </is>
       </c>
       <c r="D826" s="2" t="n">
-        <v>44407</v>
+        <v>44215</v>
       </c>
       <c r="E826" t="n">
         <v>13</v>
@@ -59829,16 +59829,16 @@
         </is>
       </c>
       <c r="J826" t="n">
-        <v>720</v>
+        <v>380</v>
       </c>
       <c r="K826" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L826" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M826" t="n">
-        <v>12556</v>
+        <v>14526</v>
       </c>
       <c r="N826" t="inlineStr">
         <is>
@@ -59847,11 +59847,11 @@
       </c>
       <c r="O826" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P826" t="n">
-        <v>698</v>
+        <v>807</v>
       </c>
       <c r="Q826" t="n">
         <v>18</v>
@@ -59877,7 +59877,7 @@
         </is>
       </c>
       <c r="D827" s="2" t="n">
-        <v>44407</v>
+        <v>44215</v>
       </c>
       <c r="E827" t="n">
         <v>13</v>
@@ -59901,16 +59901,16 @@
         </is>
       </c>
       <c r="J827" t="n">
-        <v>280</v>
+        <v>510</v>
       </c>
       <c r="K827" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="L827" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="M827" t="n">
-        <v>8000</v>
+        <v>11412</v>
       </c>
       <c r="N827" t="inlineStr">
         <is>
@@ -59919,11 +59919,11 @@
       </c>
       <c r="O827" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P827" t="n">
-        <v>444</v>
+        <v>634</v>
       </c>
       <c r="Q827" t="n">
         <v>18</v>
@@ -59949,7 +59949,7 @@
         </is>
       </c>
       <c r="D828" s="2" t="n">
-        <v>44407</v>
+        <v>44215</v>
       </c>
       <c r="E828" t="n">
         <v>13</v>
@@ -59964,25 +59964,25 @@
       </c>
       <c r="H828" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I828" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J828" t="n">
-        <v>1000</v>
+        <v>780</v>
       </c>
       <c r="K828" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="L828" t="n">
-        <v>11000</v>
+        <v>9500</v>
       </c>
       <c r="M828" t="n">
-        <v>10560</v>
+        <v>9308</v>
       </c>
       <c r="N828" t="inlineStr">
         <is>
@@ -59991,11 +59991,11 @@
       </c>
       <c r="O828" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P828" t="n">
-        <v>587</v>
+        <v>517</v>
       </c>
       <c r="Q828" t="n">
         <v>18</v>
@@ -60021,7 +60021,7 @@
         </is>
       </c>
       <c r="D829" s="2" t="n">
-        <v>44407</v>
+        <v>44215</v>
       </c>
       <c r="E829" t="n">
         <v>13</v>
@@ -60036,25 +60036,25 @@
       </c>
       <c r="H829" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I829" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J829" t="n">
-        <v>340</v>
+        <v>980</v>
       </c>
       <c r="K829" t="n">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="L829" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M829" t="n">
-        <v>6000</v>
+        <v>7755</v>
       </c>
       <c r="N829" t="inlineStr">
         <is>
@@ -60063,11 +60063,11 @@
       </c>
       <c r="O829" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P829" t="n">
-        <v>333</v>
+        <v>431</v>
       </c>
       <c r="Q829" t="n">
         <v>18</v>
@@ -60093,7 +60093,7 @@
         </is>
       </c>
       <c r="D830" s="2" t="n">
-        <v>44407</v>
+        <v>44215</v>
       </c>
       <c r="E830" t="n">
         <v>13</v>
@@ -60108,7 +60108,7 @@
       </c>
       <c r="H830" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I830" t="inlineStr">
@@ -60117,16 +60117,16 @@
         </is>
       </c>
       <c r="J830" t="n">
-        <v>620</v>
+        <v>980</v>
       </c>
       <c r="K830" t="n">
-        <v>8500</v>
+        <v>5500</v>
       </c>
       <c r="L830" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="M830" t="n">
-        <v>8798</v>
+        <v>5765</v>
       </c>
       <c r="N830" t="inlineStr">
         <is>
@@ -60135,11 +60135,11 @@
       </c>
       <c r="O830" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P830" t="n">
-        <v>489</v>
+        <v>320</v>
       </c>
       <c r="Q830" t="n">
         <v>18</v>
@@ -60165,7 +60165,7 @@
         </is>
       </c>
       <c r="D831" s="2" t="n">
-        <v>44186</v>
+        <v>44407</v>
       </c>
       <c r="E831" t="n">
         <v>13</v>
@@ -60189,16 +60189,16 @@
         </is>
       </c>
       <c r="J831" t="n">
-        <v>630</v>
+        <v>230</v>
       </c>
       <c r="K831" t="n">
-        <v>19000</v>
+        <v>10000</v>
       </c>
       <c r="L831" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="M831" t="n">
-        <v>19556</v>
+        <v>10000</v>
       </c>
       <c r="N831" t="inlineStr">
         <is>
@@ -60211,7 +60211,7 @@
         </is>
       </c>
       <c r="P831" t="n">
-        <v>1086</v>
+        <v>556</v>
       </c>
       <c r="Q831" t="n">
         <v>18</v>
@@ -60237,7 +60237,7 @@
         </is>
       </c>
       <c r="D832" s="2" t="n">
-        <v>44186</v>
+        <v>44407</v>
       </c>
       <c r="E832" t="n">
         <v>13</v>
@@ -60257,20 +60257,20 @@
       </c>
       <c r="I832" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J832" t="n">
-        <v>680</v>
+        <v>720</v>
       </c>
       <c r="K832" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="L832" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="M832" t="n">
-        <v>16588</v>
+        <v>12556</v>
       </c>
       <c r="N832" t="inlineStr">
         <is>
@@ -60279,11 +60279,11 @@
       </c>
       <c r="O832" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P832" t="n">
-        <v>922</v>
+        <v>698</v>
       </c>
       <c r="Q832" t="n">
         <v>18</v>
@@ -60309,7 +60309,7 @@
         </is>
       </c>
       <c r="D833" s="2" t="n">
-        <v>44186</v>
+        <v>44407</v>
       </c>
       <c r="E833" t="n">
         <v>13</v>
@@ -60329,20 +60329,20 @@
       </c>
       <c r="I833" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J833" t="n">
-        <v>640</v>
+        <v>280</v>
       </c>
       <c r="K833" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="L833" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="M833" t="n">
-        <v>13531</v>
+        <v>8000</v>
       </c>
       <c r="N833" t="inlineStr">
         <is>
@@ -60355,7 +60355,7 @@
         </is>
       </c>
       <c r="P833" t="n">
-        <v>752</v>
+        <v>444</v>
       </c>
       <c r="Q833" t="n">
         <v>18</v>
@@ -60381,7 +60381,7 @@
         </is>
       </c>
       <c r="D834" s="2" t="n">
-        <v>44504</v>
+        <v>44407</v>
       </c>
       <c r="E834" t="n">
         <v>13</v>
@@ -60401,20 +60401,20 @@
       </c>
       <c r="I834" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J834" t="n">
-        <v>940</v>
+        <v>1000</v>
       </c>
       <c r="K834" t="n">
-        <v>19000</v>
+        <v>10000</v>
       </c>
       <c r="L834" t="n">
-        <v>20000</v>
+        <v>11000</v>
       </c>
       <c r="M834" t="n">
-        <v>19468</v>
+        <v>10560</v>
       </c>
       <c r="N834" t="inlineStr">
         <is>
@@ -60423,11 +60423,11 @@
       </c>
       <c r="O834" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P834" t="n">
-        <v>1082</v>
+        <v>587</v>
       </c>
       <c r="Q834" t="n">
         <v>18</v>
@@ -60453,7 +60453,7 @@
         </is>
       </c>
       <c r="D835" s="2" t="n">
-        <v>44504</v>
+        <v>44407</v>
       </c>
       <c r="E835" t="n">
         <v>13</v>
@@ -60473,20 +60473,20 @@
       </c>
       <c r="I835" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J835" t="n">
-        <v>600</v>
+        <v>340</v>
       </c>
       <c r="K835" t="n">
-        <v>17000</v>
+        <v>6000</v>
       </c>
       <c r="L835" t="n">
-        <v>17000</v>
+        <v>6000</v>
       </c>
       <c r="M835" t="n">
-        <v>17000</v>
+        <v>6000</v>
       </c>
       <c r="N835" t="inlineStr">
         <is>
@@ -60495,11 +60495,11 @@
       </c>
       <c r="O835" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P835" t="n">
-        <v>944</v>
+        <v>333</v>
       </c>
       <c r="Q835" t="n">
         <v>18</v>
@@ -60525,7 +60525,7 @@
         </is>
       </c>
       <c r="D836" s="2" t="n">
-        <v>44504</v>
+        <v>44407</v>
       </c>
       <c r="E836" t="n">
         <v>13</v>
@@ -60545,20 +60545,20 @@
       </c>
       <c r="I836" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J836" t="n">
-        <v>1210</v>
+        <v>620</v>
       </c>
       <c r="K836" t="n">
-        <v>17000</v>
+        <v>8500</v>
       </c>
       <c r="L836" t="n">
-        <v>18000</v>
+        <v>9000</v>
       </c>
       <c r="M836" t="n">
-        <v>17504</v>
+        <v>8798</v>
       </c>
       <c r="N836" t="inlineStr">
         <is>
@@ -60567,11 +60567,11 @@
       </c>
       <c r="O836" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P836" t="n">
-        <v>972</v>
+        <v>489</v>
       </c>
       <c r="Q836" t="n">
         <v>18</v>
@@ -60597,7 +60597,7 @@
         </is>
       </c>
       <c r="D837" s="2" t="n">
-        <v>44504</v>
+        <v>44186</v>
       </c>
       <c r="E837" t="n">
         <v>13</v>
@@ -60617,20 +60617,20 @@
       </c>
       <c r="I837" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J837" t="n">
-        <v>710</v>
+        <v>630</v>
       </c>
       <c r="K837" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="L837" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="M837" t="n">
-        <v>15000</v>
+        <v>19556</v>
       </c>
       <c r="N837" t="inlineStr">
         <is>
@@ -60639,11 +60639,11 @@
       </c>
       <c r="O837" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P837" t="n">
-        <v>833</v>
+        <v>1086</v>
       </c>
       <c r="Q837" t="n">
         <v>18</v>
@@ -60669,7 +60669,7 @@
         </is>
       </c>
       <c r="D838" s="2" t="n">
-        <v>44504</v>
+        <v>44186</v>
       </c>
       <c r="E838" t="n">
         <v>13</v>
@@ -60689,20 +60689,20 @@
       </c>
       <c r="I838" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J838" t="n">
-        <v>980</v>
+        <v>680</v>
       </c>
       <c r="K838" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="L838" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="M838" t="n">
-        <v>15388</v>
+        <v>16588</v>
       </c>
       <c r="N838" t="inlineStr">
         <is>
@@ -60715,7 +60715,7 @@
         </is>
       </c>
       <c r="P838" t="n">
-        <v>855</v>
+        <v>922</v>
       </c>
       <c r="Q838" t="n">
         <v>18</v>
@@ -60741,7 +60741,7 @@
         </is>
       </c>
       <c r="D839" s="2" t="n">
-        <v>44504</v>
+        <v>44186</v>
       </c>
       <c r="E839" t="n">
         <v>13</v>
@@ -60765,16 +60765,16 @@
         </is>
       </c>
       <c r="J839" t="n">
-        <v>650</v>
+        <v>640</v>
       </c>
       <c r="K839" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="L839" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="M839" t="n">
-        <v>12000</v>
+        <v>13531</v>
       </c>
       <c r="N839" t="inlineStr">
         <is>
@@ -60783,11 +60783,11 @@
       </c>
       <c r="O839" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P839" t="n">
-        <v>667</v>
+        <v>752</v>
       </c>
       <c r="Q839" t="n">
         <v>18</v>
@@ -60833,20 +60833,20 @@
       </c>
       <c r="I840" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J840" t="n">
-        <v>450</v>
+        <v>940</v>
       </c>
       <c r="K840" t="n">
-        <v>10000</v>
+        <v>19000</v>
       </c>
       <c r="L840" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="M840" t="n">
-        <v>10000</v>
+        <v>19468</v>
       </c>
       <c r="N840" t="inlineStr">
         <is>
@@ -60855,11 +60855,11 @@
       </c>
       <c r="O840" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P840" t="n">
-        <v>556</v>
+        <v>1082</v>
       </c>
       <c r="Q840" t="n">
         <v>18</v>
@@ -60885,7 +60885,7 @@
         </is>
       </c>
       <c r="D841" s="2" t="n">
-        <v>44481</v>
+        <v>44504</v>
       </c>
       <c r="E841" t="n">
         <v>13</v>
@@ -60909,16 +60909,16 @@
         </is>
       </c>
       <c r="J841" t="n">
-        <v>430</v>
+        <v>600</v>
       </c>
       <c r="K841" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="L841" t="n">
         <v>17000</v>
       </c>
       <c r="M841" t="n">
-        <v>16500</v>
+        <v>17000</v>
       </c>
       <c r="N841" t="inlineStr">
         <is>
@@ -60931,7 +60931,7 @@
         </is>
       </c>
       <c r="P841" t="n">
-        <v>917</v>
+        <v>944</v>
       </c>
       <c r="Q841" t="n">
         <v>18</v>
@@ -60957,7 +60957,7 @@
         </is>
       </c>
       <c r="D842" s="2" t="n">
-        <v>44481</v>
+        <v>44504</v>
       </c>
       <c r="E842" t="n">
         <v>13</v>
@@ -60981,16 +60981,16 @@
         </is>
       </c>
       <c r="J842" t="n">
-        <v>520</v>
+        <v>1210</v>
       </c>
       <c r="K842" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="L842" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="M842" t="n">
-        <v>14500</v>
+        <v>17504</v>
       </c>
       <c r="N842" t="inlineStr">
         <is>
@@ -60999,11 +60999,11 @@
       </c>
       <c r="O842" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P842" t="n">
-        <v>806</v>
+        <v>972</v>
       </c>
       <c r="Q842" t="n">
         <v>18</v>
@@ -61029,7 +61029,7 @@
         </is>
       </c>
       <c r="D843" s="2" t="n">
-        <v>44481</v>
+        <v>44504</v>
       </c>
       <c r="E843" t="n">
         <v>13</v>
@@ -61049,20 +61049,20 @@
       </c>
       <c r="I843" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J843" t="n">
-        <v>250</v>
+        <v>710</v>
       </c>
       <c r="K843" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="L843" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M843" t="n">
-        <v>12500</v>
+        <v>15000</v>
       </c>
       <c r="N843" t="inlineStr">
         <is>
@@ -61075,7 +61075,7 @@
         </is>
       </c>
       <c r="P843" t="n">
-        <v>694</v>
+        <v>833</v>
       </c>
       <c r="Q843" t="n">
         <v>18</v>
@@ -61101,7 +61101,7 @@
         </is>
       </c>
       <c r="D844" s="2" t="n">
-        <v>44384</v>
+        <v>44504</v>
       </c>
       <c r="E844" t="n">
         <v>13</v>
@@ -61121,20 +61121,20 @@
       </c>
       <c r="I844" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J844" t="n">
-        <v>320</v>
+        <v>980</v>
       </c>
       <c r="K844" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="L844" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="M844" t="n">
-        <v>12500</v>
+        <v>15388</v>
       </c>
       <c r="N844" t="inlineStr">
         <is>
@@ -61143,11 +61143,11 @@
       </c>
       <c r="O844" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P844" t="n">
-        <v>694</v>
+        <v>855</v>
       </c>
       <c r="Q844" t="n">
         <v>18</v>
@@ -61173,7 +61173,7 @@
         </is>
       </c>
       <c r="D845" s="2" t="n">
-        <v>44384</v>
+        <v>44504</v>
       </c>
       <c r="E845" t="n">
         <v>13</v>
@@ -61193,20 +61193,20 @@
       </c>
       <c r="I845" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J845" t="n">
-        <v>450</v>
+        <v>650</v>
       </c>
       <c r="K845" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L845" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="M845" t="n">
-        <v>10500</v>
+        <v>12000</v>
       </c>
       <c r="N845" t="inlineStr">
         <is>
@@ -61219,7 +61219,7 @@
         </is>
       </c>
       <c r="P845" t="n">
-        <v>583</v>
+        <v>667</v>
       </c>
       <c r="Q845" t="n">
         <v>18</v>
@@ -61245,7 +61245,7 @@
         </is>
       </c>
       <c r="D846" s="2" t="n">
-        <v>44384</v>
+        <v>44504</v>
       </c>
       <c r="E846" t="n">
         <v>13</v>
@@ -61265,20 +61265,20 @@
       </c>
       <c r="I846" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J846" t="n">
-        <v>160</v>
+        <v>450</v>
       </c>
       <c r="K846" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="L846" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M846" t="n">
-        <v>8500</v>
+        <v>10000</v>
       </c>
       <c r="N846" t="inlineStr">
         <is>
@@ -61291,7 +61291,7 @@
         </is>
       </c>
       <c r="P846" t="n">
-        <v>472</v>
+        <v>556</v>
       </c>
       <c r="Q846" t="n">
         <v>18</v>
@@ -61317,7 +61317,7 @@
         </is>
       </c>
       <c r="D847" s="2" t="n">
-        <v>44384</v>
+        <v>44481</v>
       </c>
       <c r="E847" t="n">
         <v>13</v>
@@ -61337,20 +61337,20 @@
       </c>
       <c r="I847" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J847" t="n">
-        <v>150</v>
+        <v>430</v>
       </c>
       <c r="K847" t="n">
-        <v>6000</v>
+        <v>16000</v>
       </c>
       <c r="L847" t="n">
-        <v>7000</v>
+        <v>17000</v>
       </c>
       <c r="M847" t="n">
-        <v>6500</v>
+        <v>16500</v>
       </c>
       <c r="N847" t="inlineStr">
         <is>
@@ -61363,7 +61363,7 @@
         </is>
       </c>
       <c r="P847" t="n">
-        <v>361</v>
+        <v>917</v>
       </c>
       <c r="Q847" t="n">
         <v>18</v>
@@ -61389,7 +61389,7 @@
         </is>
       </c>
       <c r="D848" s="2" t="n">
-        <v>44246</v>
+        <v>44481</v>
       </c>
       <c r="E848" t="n">
         <v>13</v>
@@ -61409,20 +61409,20 @@
       </c>
       <c r="I848" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J848" t="n">
-        <v>1130</v>
+        <v>520</v>
       </c>
       <c r="K848" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L848" t="n">
-        <v>12500</v>
+        <v>15000</v>
       </c>
       <c r="M848" t="n">
-        <v>12288</v>
+        <v>14500</v>
       </c>
       <c r="N848" t="inlineStr">
         <is>
@@ -61431,11 +61431,11 @@
       </c>
       <c r="O848" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P848" t="n">
-        <v>683</v>
+        <v>806</v>
       </c>
       <c r="Q848" t="n">
         <v>18</v>
@@ -61461,7 +61461,7 @@
         </is>
       </c>
       <c r="D849" s="2" t="n">
-        <v>44246</v>
+        <v>44481</v>
       </c>
       <c r="E849" t="n">
         <v>13</v>
@@ -61481,20 +61481,20 @@
       </c>
       <c r="I849" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J849" t="n">
-        <v>1200</v>
+        <v>250</v>
       </c>
       <c r="K849" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L849" t="n">
-        <v>10500</v>
+        <v>13000</v>
       </c>
       <c r="M849" t="n">
-        <v>10292</v>
+        <v>12500</v>
       </c>
       <c r="N849" t="inlineStr">
         <is>
@@ -61503,11 +61503,11 @@
       </c>
       <c r="O849" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P849" t="n">
-        <v>572</v>
+        <v>694</v>
       </c>
       <c r="Q849" t="n">
         <v>18</v>
@@ -61533,7 +61533,7 @@
         </is>
       </c>
       <c r="D850" s="2" t="n">
-        <v>44246</v>
+        <v>44384</v>
       </c>
       <c r="E850" t="n">
         <v>13</v>
@@ -61553,20 +61553,20 @@
       </c>
       <c r="I850" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J850" t="n">
-        <v>360</v>
+        <v>320</v>
       </c>
       <c r="K850" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="L850" t="n">
-        <v>7500</v>
+        <v>13000</v>
       </c>
       <c r="M850" t="n">
-        <v>7333</v>
+        <v>12500</v>
       </c>
       <c r="N850" t="inlineStr">
         <is>
@@ -61575,11 +61575,11 @@
       </c>
       <c r="O850" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P850" t="n">
-        <v>407</v>
+        <v>694</v>
       </c>
       <c r="Q850" t="n">
         <v>18</v>
@@ -61605,7 +61605,7 @@
         </is>
       </c>
       <c r="D851" s="2" t="n">
-        <v>44505</v>
+        <v>44384</v>
       </c>
       <c r="E851" t="n">
         <v>13</v>
@@ -61625,20 +61625,20 @@
       </c>
       <c r="I851" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J851" t="n">
-        <v>1550</v>
+        <v>450</v>
       </c>
       <c r="K851" t="n">
-        <v>19000</v>
+        <v>10000</v>
       </c>
       <c r="L851" t="n">
-        <v>20000</v>
+        <v>11000</v>
       </c>
       <c r="M851" t="n">
-        <v>19484</v>
+        <v>10500</v>
       </c>
       <c r="N851" t="inlineStr">
         <is>
@@ -61647,11 +61647,11 @@
       </c>
       <c r="O851" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P851" t="n">
-        <v>1082</v>
+        <v>583</v>
       </c>
       <c r="Q851" t="n">
         <v>18</v>
@@ -61677,7 +61677,7 @@
         </is>
       </c>
       <c r="D852" s="2" t="n">
-        <v>44505</v>
+        <v>44384</v>
       </c>
       <c r="E852" t="n">
         <v>13</v>
@@ -61697,20 +61697,20 @@
       </c>
       <c r="I852" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J852" t="n">
-        <v>960</v>
+        <v>160</v>
       </c>
       <c r="K852" t="n">
-        <v>16000</v>
+        <v>8000</v>
       </c>
       <c r="L852" t="n">
-        <v>17000</v>
+        <v>9000</v>
       </c>
       <c r="M852" t="n">
-        <v>16573</v>
+        <v>8500</v>
       </c>
       <c r="N852" t="inlineStr">
         <is>
@@ -61723,7 +61723,7 @@
         </is>
       </c>
       <c r="P852" t="n">
-        <v>921</v>
+        <v>472</v>
       </c>
       <c r="Q852" t="n">
         <v>18</v>
@@ -61749,7 +61749,7 @@
         </is>
       </c>
       <c r="D853" s="2" t="n">
-        <v>44505</v>
+        <v>44384</v>
       </c>
       <c r="E853" t="n">
         <v>13</v>
@@ -61769,20 +61769,20 @@
       </c>
       <c r="I853" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J853" t="n">
-        <v>910</v>
+        <v>150</v>
       </c>
       <c r="K853" t="n">
-        <v>18000</v>
+        <v>6000</v>
       </c>
       <c r="L853" t="n">
-        <v>19000</v>
+        <v>7000</v>
       </c>
       <c r="M853" t="n">
-        <v>18451</v>
+        <v>6500</v>
       </c>
       <c r="N853" t="inlineStr">
         <is>
@@ -61791,11 +61791,11 @@
       </c>
       <c r="O853" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P853" t="n">
-        <v>1025</v>
+        <v>361</v>
       </c>
       <c r="Q853" t="n">
         <v>18</v>
@@ -61821,7 +61821,7 @@
         </is>
       </c>
       <c r="D854" s="2" t="n">
-        <v>44505</v>
+        <v>44246</v>
       </c>
       <c r="E854" t="n">
         <v>13</v>
@@ -61841,20 +61841,20 @@
       </c>
       <c r="I854" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J854" t="n">
-        <v>970</v>
+        <v>1130</v>
       </c>
       <c r="K854" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="L854" t="n">
-        <v>16000</v>
+        <v>12500</v>
       </c>
       <c r="M854" t="n">
-        <v>15773</v>
+        <v>12288</v>
       </c>
       <c r="N854" t="inlineStr">
         <is>
@@ -61863,11 +61863,11 @@
       </c>
       <c r="O854" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P854" t="n">
-        <v>876</v>
+        <v>683</v>
       </c>
       <c r="Q854" t="n">
         <v>18</v>
@@ -61893,7 +61893,7 @@
         </is>
       </c>
       <c r="D855" s="2" t="n">
-        <v>44505</v>
+        <v>44246</v>
       </c>
       <c r="E855" t="n">
         <v>13</v>
@@ -61913,20 +61913,20 @@
       </c>
       <c r="I855" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J855" t="n">
-        <v>900</v>
+        <v>1200</v>
       </c>
       <c r="K855" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="L855" t="n">
-        <v>14000</v>
+        <v>10500</v>
       </c>
       <c r="M855" t="n">
-        <v>13556</v>
+        <v>10292</v>
       </c>
       <c r="N855" t="inlineStr">
         <is>
@@ -61939,7 +61939,7 @@
         </is>
       </c>
       <c r="P855" t="n">
-        <v>753</v>
+        <v>572</v>
       </c>
       <c r="Q855" t="n">
         <v>18</v>
@@ -61965,7 +61965,7 @@
         </is>
       </c>
       <c r="D856" s="2" t="n">
-        <v>44505</v>
+        <v>44246</v>
       </c>
       <c r="E856" t="n">
         <v>13</v>
@@ -61989,16 +61989,16 @@
         </is>
       </c>
       <c r="J856" t="n">
-        <v>860</v>
+        <v>360</v>
       </c>
       <c r="K856" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="L856" t="n">
-        <v>13000</v>
+        <v>7500</v>
       </c>
       <c r="M856" t="n">
-        <v>12523</v>
+        <v>7333</v>
       </c>
       <c r="N856" t="inlineStr">
         <is>
@@ -62007,11 +62007,11 @@
       </c>
       <c r="O856" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P856" t="n">
-        <v>696</v>
+        <v>407</v>
       </c>
       <c r="Q856" t="n">
         <v>18</v>
@@ -62037,7 +62037,7 @@
         </is>
       </c>
       <c r="D857" s="2" t="n">
-        <v>44487</v>
+        <v>44505</v>
       </c>
       <c r="E857" t="n">
         <v>13</v>
@@ -62061,16 +62061,16 @@
         </is>
       </c>
       <c r="J857" t="n">
-        <v>890</v>
+        <v>1550</v>
       </c>
       <c r="K857" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="L857" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="M857" t="n">
-        <v>16539</v>
+        <v>19484</v>
       </c>
       <c r="N857" t="inlineStr">
         <is>
@@ -62079,11 +62079,11 @@
       </c>
       <c r="O857" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P857" t="n">
-        <v>919</v>
+        <v>1082</v>
       </c>
       <c r="Q857" t="n">
         <v>18</v>
@@ -62109,7 +62109,7 @@
         </is>
       </c>
       <c r="D858" s="2" t="n">
-        <v>44487</v>
+        <v>44505</v>
       </c>
       <c r="E858" t="n">
         <v>13</v>
@@ -62129,20 +62129,20 @@
       </c>
       <c r="I858" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J858" t="n">
-        <v>940</v>
+        <v>960</v>
       </c>
       <c r="K858" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="L858" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="M858" t="n">
-        <v>14468</v>
+        <v>16573</v>
       </c>
       <c r="N858" t="inlineStr">
         <is>
@@ -62155,7 +62155,7 @@
         </is>
       </c>
       <c r="P858" t="n">
-        <v>804</v>
+        <v>921</v>
       </c>
       <c r="Q858" t="n">
         <v>18</v>
@@ -62181,7 +62181,7 @@
         </is>
       </c>
       <c r="D859" s="2" t="n">
-        <v>44487</v>
+        <v>44505</v>
       </c>
       <c r="E859" t="n">
         <v>13</v>
@@ -62201,20 +62201,20 @@
       </c>
       <c r="I859" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J859" t="n">
-        <v>740</v>
+        <v>910</v>
       </c>
       <c r="K859" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="L859" t="n">
-        <v>11000</v>
+        <v>19000</v>
       </c>
       <c r="M859" t="n">
-        <v>10446</v>
+        <v>18451</v>
       </c>
       <c r="N859" t="inlineStr">
         <is>
@@ -62223,11 +62223,11 @@
       </c>
       <c r="O859" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P859" t="n">
-        <v>580</v>
+        <v>1025</v>
       </c>
       <c r="Q859" t="n">
         <v>18</v>
@@ -62253,7 +62253,7 @@
         </is>
       </c>
       <c r="D860" s="2" t="n">
-        <v>44425</v>
+        <v>44505</v>
       </c>
       <c r="E860" t="n">
         <v>13</v>
@@ -62273,20 +62273,20 @@
       </c>
       <c r="I860" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J860" t="n">
-        <v>390</v>
+        <v>970</v>
       </c>
       <c r="K860" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="L860" t="n">
-        <v>9000</v>
+        <v>16000</v>
       </c>
       <c r="M860" t="n">
-        <v>8462</v>
+        <v>15773</v>
       </c>
       <c r="N860" t="inlineStr">
         <is>
@@ -62295,11 +62295,11 @@
       </c>
       <c r="O860" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P860" t="n">
-        <v>470</v>
+        <v>876</v>
       </c>
       <c r="Q860" t="n">
         <v>18</v>
@@ -62325,7 +62325,7 @@
         </is>
       </c>
       <c r="D861" s="2" t="n">
-        <v>44425</v>
+        <v>44505</v>
       </c>
       <c r="E861" t="n">
         <v>13</v>
@@ -62345,20 +62345,20 @@
       </c>
       <c r="I861" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J861" t="n">
-        <v>1040</v>
+        <v>900</v>
       </c>
       <c r="K861" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="L861" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="M861" t="n">
-        <v>11538</v>
+        <v>13556</v>
       </c>
       <c r="N861" t="inlineStr">
         <is>
@@ -62367,11 +62367,11 @@
       </c>
       <c r="O861" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P861" t="n">
-        <v>641</v>
+        <v>753</v>
       </c>
       <c r="Q861" t="n">
         <v>18</v>
@@ -62397,7 +62397,7 @@
         </is>
       </c>
       <c r="D862" s="2" t="n">
-        <v>44425</v>
+        <v>44505</v>
       </c>
       <c r="E862" t="n">
         <v>13</v>
@@ -62417,20 +62417,20 @@
       </c>
       <c r="I862" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J862" t="n">
-        <v>450</v>
+        <v>860</v>
       </c>
       <c r="K862" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="L862" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="M862" t="n">
-        <v>6444</v>
+        <v>12523</v>
       </c>
       <c r="N862" t="inlineStr">
         <is>
@@ -62439,11 +62439,11 @@
       </c>
       <c r="O862" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P862" t="n">
-        <v>358</v>
+        <v>696</v>
       </c>
       <c r="Q862" t="n">
         <v>18</v>
@@ -62469,7 +62469,7 @@
         </is>
       </c>
       <c r="D863" s="2" t="n">
-        <v>44425</v>
+        <v>44487</v>
       </c>
       <c r="E863" t="n">
         <v>13</v>
@@ -62489,20 +62489,20 @@
       </c>
       <c r="I863" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J863" t="n">
-        <v>1030</v>
+        <v>890</v>
       </c>
       <c r="K863" t="n">
-        <v>9000</v>
+        <v>16000</v>
       </c>
       <c r="L863" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="M863" t="n">
-        <v>9466</v>
+        <v>16539</v>
       </c>
       <c r="N863" t="inlineStr">
         <is>
@@ -62515,7 +62515,7 @@
         </is>
       </c>
       <c r="P863" t="n">
-        <v>526</v>
+        <v>919</v>
       </c>
       <c r="Q863" t="n">
         <v>18</v>
@@ -62541,7 +62541,7 @@
         </is>
       </c>
       <c r="D864" s="2" t="n">
-        <v>44425</v>
+        <v>44487</v>
       </c>
       <c r="E864" t="n">
         <v>13</v>
@@ -62561,20 +62561,20 @@
       </c>
       <c r="I864" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J864" t="n">
-        <v>440</v>
+        <v>940</v>
       </c>
       <c r="K864" t="n">
-        <v>4000</v>
+        <v>14000</v>
       </c>
       <c r="L864" t="n">
-        <v>5000</v>
+        <v>15000</v>
       </c>
       <c r="M864" t="n">
-        <v>4591</v>
+        <v>14468</v>
       </c>
       <c r="N864" t="inlineStr">
         <is>
@@ -62583,11 +62583,11 @@
       </c>
       <c r="O864" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P864" t="n">
-        <v>255</v>
+        <v>804</v>
       </c>
       <c r="Q864" t="n">
         <v>18</v>
@@ -62613,7 +62613,7 @@
         </is>
       </c>
       <c r="D865" s="2" t="n">
-        <v>44425</v>
+        <v>44487</v>
       </c>
       <c r="E865" t="n">
         <v>13</v>
@@ -62637,16 +62637,16 @@
         </is>
       </c>
       <c r="J865" t="n">
-        <v>820</v>
+        <v>740</v>
       </c>
       <c r="K865" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L865" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="M865" t="n">
-        <v>7537</v>
+        <v>10446</v>
       </c>
       <c r="N865" t="inlineStr">
         <is>
@@ -62659,7 +62659,7 @@
         </is>
       </c>
       <c r="P865" t="n">
-        <v>419</v>
+        <v>580</v>
       </c>
       <c r="Q865" t="n">
         <v>18</v>
@@ -62685,7 +62685,7 @@
         </is>
       </c>
       <c r="D866" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E866" t="n">
         <v>13</v>
@@ -62709,16 +62709,16 @@
         </is>
       </c>
       <c r="J866" t="n">
-        <v>740</v>
+        <v>390</v>
       </c>
       <c r="K866" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="L866" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="M866" t="n">
-        <v>11622</v>
+        <v>8462</v>
       </c>
       <c r="N866" t="inlineStr">
         <is>
@@ -62727,11 +62727,11 @@
       </c>
       <c r="O866" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P866" t="n">
-        <v>646</v>
+        <v>470</v>
       </c>
       <c r="Q866" t="n">
         <v>18</v>
@@ -62757,7 +62757,7 @@
         </is>
       </c>
       <c r="D867" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E867" t="n">
         <v>13</v>
@@ -62781,16 +62781,16 @@
         </is>
       </c>
       <c r="J867" t="n">
-        <v>250</v>
+        <v>1040</v>
       </c>
       <c r="K867" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="L867" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="M867" t="n">
-        <v>13000</v>
+        <v>11538</v>
       </c>
       <c r="N867" t="inlineStr">
         <is>
@@ -62803,7 +62803,7 @@
         </is>
       </c>
       <c r="P867" t="n">
-        <v>722</v>
+        <v>641</v>
       </c>
       <c r="Q867" t="n">
         <v>18</v>
@@ -62829,7 +62829,7 @@
         </is>
       </c>
       <c r="D868" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E868" t="n">
         <v>13</v>
@@ -62853,16 +62853,16 @@
         </is>
       </c>
       <c r="J868" t="n">
-        <v>1040</v>
+        <v>450</v>
       </c>
       <c r="K868" t="n">
-        <v>9500</v>
+        <v>6000</v>
       </c>
       <c r="L868" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="M868" t="n">
-        <v>9769</v>
+        <v>6444</v>
       </c>
       <c r="N868" t="inlineStr">
         <is>
@@ -62871,11 +62871,11 @@
       </c>
       <c r="O868" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P868" t="n">
-        <v>543</v>
+        <v>358</v>
       </c>
       <c r="Q868" t="n">
         <v>18</v>
@@ -62901,7 +62901,7 @@
         </is>
       </c>
       <c r="D869" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E869" t="n">
         <v>13</v>
@@ -62925,16 +62925,16 @@
         </is>
       </c>
       <c r="J869" t="n">
-        <v>380</v>
+        <v>1030</v>
       </c>
       <c r="K869" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="L869" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="M869" t="n">
-        <v>11000</v>
+        <v>9466</v>
       </c>
       <c r="N869" t="inlineStr">
         <is>
@@ -62947,7 +62947,7 @@
         </is>
       </c>
       <c r="P869" t="n">
-        <v>611</v>
+        <v>526</v>
       </c>
       <c r="Q869" t="n">
         <v>18</v>
@@ -62973,7 +62973,7 @@
         </is>
       </c>
       <c r="D870" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E870" t="n">
         <v>13</v>
@@ -62997,16 +62997,16 @@
         </is>
       </c>
       <c r="J870" t="n">
-        <v>670</v>
+        <v>440</v>
       </c>
       <c r="K870" t="n">
-        <v>6500</v>
+        <v>4000</v>
       </c>
       <c r="L870" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="M870" t="n">
-        <v>6784</v>
+        <v>4591</v>
       </c>
       <c r="N870" t="inlineStr">
         <is>
@@ -63015,11 +63015,11 @@
       </c>
       <c r="O870" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P870" t="n">
-        <v>377</v>
+        <v>255</v>
       </c>
       <c r="Q870" t="n">
         <v>18</v>
@@ -63045,7 +63045,7 @@
         </is>
       </c>
       <c r="D871" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E871" t="n">
         <v>13</v>
@@ -63069,16 +63069,16 @@
         </is>
       </c>
       <c r="J871" t="n">
-        <v>160</v>
+        <v>820</v>
       </c>
       <c r="K871" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="L871" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="M871" t="n">
-        <v>9000</v>
+        <v>7537</v>
       </c>
       <c r="N871" t="inlineStr">
         <is>
@@ -63091,7 +63091,7 @@
         </is>
       </c>
       <c r="P871" t="n">
-        <v>500</v>
+        <v>419</v>
       </c>
       <c r="Q871" t="n">
         <v>18</v>
@@ -63117,7 +63117,7 @@
         </is>
       </c>
       <c r="D872" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E872" t="n">
         <v>13</v>
@@ -63141,16 +63141,16 @@
         </is>
       </c>
       <c r="J872" t="n">
-        <v>470</v>
+        <v>740</v>
       </c>
       <c r="K872" t="n">
         <v>11000</v>
       </c>
       <c r="L872" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="M872" t="n">
-        <v>11000</v>
+        <v>11622</v>
       </c>
       <c r="N872" t="inlineStr">
         <is>
@@ -63159,11 +63159,11 @@
       </c>
       <c r="O872" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P872" t="n">
-        <v>611</v>
+        <v>646</v>
       </c>
       <c r="Q872" t="n">
         <v>18</v>
@@ -63189,7 +63189,7 @@
         </is>
       </c>
       <c r="D873" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E873" t="n">
         <v>13</v>
@@ -63209,20 +63209,20 @@
       </c>
       <c r="I873" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J873" t="n">
-        <v>560</v>
+        <v>250</v>
       </c>
       <c r="K873" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="L873" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="M873" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="N873" t="inlineStr">
         <is>
@@ -63231,11 +63231,11 @@
       </c>
       <c r="O873" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P873" t="n">
-        <v>556</v>
+        <v>722</v>
       </c>
       <c r="Q873" t="n">
         <v>18</v>
@@ -63261,7 +63261,7 @@
         </is>
       </c>
       <c r="D874" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E874" t="n">
         <v>13</v>
@@ -63281,20 +63281,20 @@
       </c>
       <c r="I874" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J874" t="n">
-        <v>340</v>
+        <v>1040</v>
       </c>
       <c r="K874" t="n">
-        <v>9000</v>
+        <v>9500</v>
       </c>
       <c r="L874" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M874" t="n">
-        <v>9000</v>
+        <v>9769</v>
       </c>
       <c r="N874" t="inlineStr">
         <is>
@@ -63303,11 +63303,11 @@
       </c>
       <c r="O874" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P874" t="n">
-        <v>500</v>
+        <v>543</v>
       </c>
       <c r="Q874" t="n">
         <v>18</v>
@@ -63333,7 +63333,7 @@
         </is>
       </c>
       <c r="D875" s="2" t="n">
-        <v>44449</v>
+        <v>44343</v>
       </c>
       <c r="E875" t="n">
         <v>13</v>
@@ -63353,20 +63353,20 @@
       </c>
       <c r="I875" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J875" t="n">
-        <v>790</v>
+        <v>380</v>
       </c>
       <c r="K875" t="n">
-        <v>19000</v>
+        <v>11000</v>
       </c>
       <c r="L875" t="n">
-        <v>20000</v>
+        <v>11000</v>
       </c>
       <c r="M875" t="n">
-        <v>19481</v>
+        <v>11000</v>
       </c>
       <c r="N875" t="inlineStr">
         <is>
@@ -63375,11 +63375,11 @@
       </c>
       <c r="O875" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P875" t="n">
-        <v>1082</v>
+        <v>611</v>
       </c>
       <c r="Q875" t="n">
         <v>18</v>
@@ -63405,7 +63405,7 @@
         </is>
       </c>
       <c r="D876" s="2" t="n">
-        <v>44449</v>
+        <v>44343</v>
       </c>
       <c r="E876" t="n">
         <v>13</v>
@@ -63425,20 +63425,20 @@
       </c>
       <c r="I876" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J876" t="n">
-        <v>800</v>
+        <v>670</v>
       </c>
       <c r="K876" t="n">
-        <v>15000</v>
+        <v>6500</v>
       </c>
       <c r="L876" t="n">
-        <v>16000</v>
+        <v>7000</v>
       </c>
       <c r="M876" t="n">
-        <v>15500</v>
+        <v>6784</v>
       </c>
       <c r="N876" t="inlineStr">
         <is>
@@ -63447,11 +63447,11 @@
       </c>
       <c r="O876" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P876" t="n">
-        <v>861</v>
+        <v>377</v>
       </c>
       <c r="Q876" t="n">
         <v>18</v>
@@ -63477,7 +63477,7 @@
         </is>
       </c>
       <c r="D877" s="2" t="n">
-        <v>44449</v>
+        <v>44343</v>
       </c>
       <c r="E877" t="n">
         <v>13</v>
@@ -63497,20 +63497,20 @@
       </c>
       <c r="I877" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J877" t="n">
-        <v>1130</v>
+        <v>160</v>
       </c>
       <c r="K877" t="n">
-        <v>22000</v>
+        <v>9000</v>
       </c>
       <c r="L877" t="n">
-        <v>23000</v>
+        <v>9000</v>
       </c>
       <c r="M877" t="n">
-        <v>22487</v>
+        <v>9000</v>
       </c>
       <c r="N877" t="inlineStr">
         <is>
@@ -63523,7 +63523,7 @@
         </is>
       </c>
       <c r="P877" t="n">
-        <v>1249</v>
+        <v>500</v>
       </c>
       <c r="Q877" t="n">
         <v>18</v>
@@ -63549,7 +63549,7 @@
         </is>
       </c>
       <c r="D878" s="2" t="n">
-        <v>44449</v>
+        <v>44370</v>
       </c>
       <c r="E878" t="n">
         <v>13</v>
@@ -63569,20 +63569,20 @@
       </c>
       <c r="I878" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J878" t="n">
-        <v>810</v>
+        <v>470</v>
       </c>
       <c r="K878" t="n">
         <v>11000</v>
       </c>
       <c r="L878" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="M878" t="n">
-        <v>11432</v>
+        <v>11000</v>
       </c>
       <c r="N878" t="inlineStr">
         <is>
@@ -63595,7 +63595,7 @@
         </is>
       </c>
       <c r="P878" t="n">
-        <v>635</v>
+        <v>611</v>
       </c>
       <c r="Q878" t="n">
         <v>18</v>
@@ -63621,7 +63621,7 @@
         </is>
       </c>
       <c r="D879" s="2" t="n">
-        <v>44449</v>
+        <v>44370</v>
       </c>
       <c r="E879" t="n">
         <v>13</v>
@@ -63641,20 +63641,20 @@
       </c>
       <c r="I879" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J879" t="n">
-        <v>860</v>
+        <v>560</v>
       </c>
       <c r="K879" t="n">
-        <v>19000</v>
+        <v>10000</v>
       </c>
       <c r="L879" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="M879" t="n">
-        <v>19523</v>
+        <v>10000</v>
       </c>
       <c r="N879" t="inlineStr">
         <is>
@@ -63663,11 +63663,11 @@
       </c>
       <c r="O879" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P879" t="n">
-        <v>1085</v>
+        <v>556</v>
       </c>
       <c r="Q879" t="n">
         <v>18</v>
@@ -63693,7 +63693,7 @@
         </is>
       </c>
       <c r="D880" s="2" t="n">
-        <v>44168</v>
+        <v>44370</v>
       </c>
       <c r="E880" t="n">
         <v>13</v>
@@ -63713,20 +63713,20 @@
       </c>
       <c r="I880" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J880" t="n">
-        <v>1140</v>
+        <v>340</v>
       </c>
       <c r="K880" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="L880" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="M880" t="n">
-        <v>11579</v>
+        <v>9000</v>
       </c>
       <c r="N880" t="inlineStr">
         <is>
@@ -63739,7 +63739,7 @@
         </is>
       </c>
       <c r="P880" t="n">
-        <v>643</v>
+        <v>500</v>
       </c>
       <c r="Q880" t="n">
         <v>18</v>
@@ -63765,7 +63765,7 @@
         </is>
       </c>
       <c r="D881" s="2" t="n">
-        <v>44168</v>
+        <v>44449</v>
       </c>
       <c r="E881" t="n">
         <v>13</v>
@@ -63785,20 +63785,20 @@
       </c>
       <c r="I881" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J881" t="n">
-        <v>1370</v>
+        <v>790</v>
       </c>
       <c r="K881" t="n">
-        <v>9000</v>
+        <v>19000</v>
       </c>
       <c r="L881" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="M881" t="n">
-        <v>9577</v>
+        <v>19481</v>
       </c>
       <c r="N881" t="inlineStr">
         <is>
@@ -63811,7 +63811,7 @@
         </is>
       </c>
       <c r="P881" t="n">
-        <v>532</v>
+        <v>1082</v>
       </c>
       <c r="Q881" t="n">
         <v>18</v>
@@ -63837,7 +63837,7 @@
         </is>
       </c>
       <c r="D882" s="2" t="n">
-        <v>44168</v>
+        <v>44449</v>
       </c>
       <c r="E882" t="n">
         <v>13</v>
@@ -63857,20 +63857,20 @@
       </c>
       <c r="I882" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J882" t="n">
-        <v>950</v>
+        <v>800</v>
       </c>
       <c r="K882" t="n">
-        <v>6500</v>
+        <v>15000</v>
       </c>
       <c r="L882" t="n">
-        <v>7000</v>
+        <v>16000</v>
       </c>
       <c r="M882" t="n">
-        <v>6800</v>
+        <v>15500</v>
       </c>
       <c r="N882" t="inlineStr">
         <is>
@@ -63883,7 +63883,7 @@
         </is>
       </c>
       <c r="P882" t="n">
-        <v>378</v>
+        <v>861</v>
       </c>
       <c r="Q882" t="n">
         <v>18</v>
@@ -63909,7 +63909,7 @@
         </is>
       </c>
       <c r="D883" s="2" t="n">
-        <v>44168</v>
+        <v>44449</v>
       </c>
       <c r="E883" t="n">
         <v>13</v>
@@ -63929,20 +63929,20 @@
       </c>
       <c r="I883" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J883" t="n">
-        <v>720</v>
+        <v>1130</v>
       </c>
       <c r="K883" t="n">
-        <v>4500</v>
+        <v>22000</v>
       </c>
       <c r="L883" t="n">
-        <v>5000</v>
+        <v>23000</v>
       </c>
       <c r="M883" t="n">
-        <v>4792</v>
+        <v>22487</v>
       </c>
       <c r="N883" t="inlineStr">
         <is>
@@ -63951,11 +63951,11 @@
       </c>
       <c r="O883" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P883" t="n">
-        <v>266</v>
+        <v>1249</v>
       </c>
       <c r="Q883" t="n">
         <v>18</v>
@@ -63981,7 +63981,7 @@
         </is>
       </c>
       <c r="D884" s="2" t="n">
-        <v>44175</v>
+        <v>44449</v>
       </c>
       <c r="E884" t="n">
         <v>13</v>
@@ -64001,20 +64001,20 @@
       </c>
       <c r="I884" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J884" t="n">
-        <v>1080</v>
+        <v>810</v>
       </c>
       <c r="K884" t="n">
-        <v>9500</v>
+        <v>11000</v>
       </c>
       <c r="L884" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M884" t="n">
-        <v>9778</v>
+        <v>11432</v>
       </c>
       <c r="N884" t="inlineStr">
         <is>
@@ -64027,7 +64027,7 @@
         </is>
       </c>
       <c r="P884" t="n">
-        <v>543</v>
+        <v>635</v>
       </c>
       <c r="Q884" t="n">
         <v>18</v>
@@ -64053,7 +64053,7 @@
         </is>
       </c>
       <c r="D885" s="2" t="n">
-        <v>44175</v>
+        <v>44449</v>
       </c>
       <c r="E885" t="n">
         <v>13</v>
@@ -64073,20 +64073,20 @@
       </c>
       <c r="I885" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J885" t="n">
-        <v>1280</v>
+        <v>860</v>
       </c>
       <c r="K885" t="n">
-        <v>7000</v>
+        <v>19000</v>
       </c>
       <c r="L885" t="n">
-        <v>7500</v>
+        <v>20000</v>
       </c>
       <c r="M885" t="n">
-        <v>7266</v>
+        <v>19523</v>
       </c>
       <c r="N885" t="inlineStr">
         <is>
@@ -64095,11 +64095,11 @@
       </c>
       <c r="O885" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P885" t="n">
-        <v>404</v>
+        <v>1085</v>
       </c>
       <c r="Q885" t="n">
         <v>18</v>
@@ -64125,7 +64125,7 @@
         </is>
       </c>
       <c r="D886" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E886" t="n">
         <v>13</v>
@@ -64145,20 +64145,20 @@
       </c>
       <c r="I886" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J886" t="n">
-        <v>880</v>
+        <v>1140</v>
       </c>
       <c r="K886" t="n">
-        <v>5000</v>
+        <v>11000</v>
       </c>
       <c r="L886" t="n">
-        <v>5500</v>
+        <v>12000</v>
       </c>
       <c r="M886" t="n">
-        <v>5273</v>
+        <v>11579</v>
       </c>
       <c r="N886" t="inlineStr">
         <is>
@@ -64171,7 +64171,7 @@
         </is>
       </c>
       <c r="P886" t="n">
-        <v>293</v>
+        <v>643</v>
       </c>
       <c r="Q886" t="n">
         <v>18</v>
@@ -64197,7 +64197,7 @@
         </is>
       </c>
       <c r="D887" s="2" t="n">
-        <v>44392</v>
+        <v>44168</v>
       </c>
       <c r="E887" t="n">
         <v>13</v>
@@ -64217,20 +64217,20 @@
       </c>
       <c r="I887" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J887" t="n">
-        <v>180</v>
+        <v>1370</v>
       </c>
       <c r="K887" t="n">
         <v>9000</v>
       </c>
       <c r="L887" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M887" t="n">
-        <v>9000</v>
+        <v>9577</v>
       </c>
       <c r="N887" t="inlineStr">
         <is>
@@ -64243,7 +64243,7 @@
         </is>
       </c>
       <c r="P887" t="n">
-        <v>500</v>
+        <v>532</v>
       </c>
       <c r="Q887" t="n">
         <v>18</v>
@@ -64269,7 +64269,7 @@
         </is>
       </c>
       <c r="D888" s="2" t="n">
-        <v>44392</v>
+        <v>44168</v>
       </c>
       <c r="E888" t="n">
         <v>13</v>
@@ -64289,20 +64289,20 @@
       </c>
       <c r="I888" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J888" t="n">
-        <v>1040</v>
+        <v>950</v>
       </c>
       <c r="K888" t="n">
-        <v>15000</v>
+        <v>6500</v>
       </c>
       <c r="L888" t="n">
-        <v>16000</v>
+        <v>7000</v>
       </c>
       <c r="M888" t="n">
-        <v>15538</v>
+        <v>6800</v>
       </c>
       <c r="N888" t="inlineStr">
         <is>
@@ -64311,11 +64311,11 @@
       </c>
       <c r="O888" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P888" t="n">
-        <v>863</v>
+        <v>378</v>
       </c>
       <c r="Q888" t="n">
         <v>18</v>
@@ -64341,7 +64341,7 @@
         </is>
       </c>
       <c r="D889" s="2" t="n">
-        <v>44392</v>
+        <v>44168</v>
       </c>
       <c r="E889" t="n">
         <v>13</v>
@@ -64361,20 +64361,20 @@
       </c>
       <c r="I889" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J889" t="n">
-        <v>620</v>
+        <v>720</v>
       </c>
       <c r="K889" t="n">
-        <v>8000</v>
+        <v>4500</v>
       </c>
       <c r="L889" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="M889" t="n">
-        <v>8000</v>
+        <v>4792</v>
       </c>
       <c r="N889" t="inlineStr">
         <is>
@@ -64387,7 +64387,7 @@
         </is>
       </c>
       <c r="P889" t="n">
-        <v>444</v>
+        <v>266</v>
       </c>
       <c r="Q889" t="n">
         <v>18</v>
@@ -64413,7 +64413,7 @@
         </is>
       </c>
       <c r="D890" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E890" t="n">
         <v>13</v>
@@ -64433,20 +64433,20 @@
       </c>
       <c r="I890" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J890" t="n">
-        <v>1160</v>
+        <v>1080</v>
       </c>
       <c r="K890" t="n">
-        <v>13000</v>
+        <v>9500</v>
       </c>
       <c r="L890" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="M890" t="n">
-        <v>13517</v>
+        <v>9778</v>
       </c>
       <c r="N890" t="inlineStr">
         <is>
@@ -64455,11 +64455,11 @@
       </c>
       <c r="O890" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P890" t="n">
-        <v>751</v>
+        <v>543</v>
       </c>
       <c r="Q890" t="n">
         <v>18</v>
@@ -64485,7 +64485,7 @@
         </is>
       </c>
       <c r="D891" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E891" t="n">
         <v>13</v>
@@ -64505,20 +64505,20 @@
       </c>
       <c r="I891" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J891" t="n">
-        <v>270</v>
+        <v>1280</v>
       </c>
       <c r="K891" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L891" t="n">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="M891" t="n">
-        <v>6000</v>
+        <v>7266</v>
       </c>
       <c r="N891" t="inlineStr">
         <is>
@@ -64531,7 +64531,7 @@
         </is>
       </c>
       <c r="P891" t="n">
-        <v>333</v>
+        <v>404</v>
       </c>
       <c r="Q891" t="n">
         <v>18</v>
@@ -64557,7 +64557,7 @@
         </is>
       </c>
       <c r="D892" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E892" t="n">
         <v>13</v>
@@ -64581,16 +64581,16 @@
         </is>
       </c>
       <c r="J892" t="n">
-        <v>1100</v>
+        <v>880</v>
       </c>
       <c r="K892" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="L892" t="n">
-        <v>8000</v>
+        <v>5500</v>
       </c>
       <c r="M892" t="n">
-        <v>7473</v>
+        <v>5273</v>
       </c>
       <c r="N892" t="inlineStr">
         <is>
@@ -64599,11 +64599,11 @@
       </c>
       <c r="O892" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P892" t="n">
-        <v>415</v>
+        <v>293</v>
       </c>
       <c r="Q892" t="n">
         <v>18</v>
@@ -64629,7 +64629,7 @@
         </is>
       </c>
       <c r="D893" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E893" t="n">
         <v>13</v>
@@ -64653,16 +64653,16 @@
         </is>
       </c>
       <c r="J893" t="n">
-        <v>780</v>
+        <v>180</v>
       </c>
       <c r="K893" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="L893" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="M893" t="n">
-        <v>13513</v>
+        <v>9000</v>
       </c>
       <c r="N893" t="inlineStr">
         <is>
@@ -64675,7 +64675,7 @@
         </is>
       </c>
       <c r="P893" t="n">
-        <v>751</v>
+        <v>500</v>
       </c>
       <c r="Q893" t="n">
         <v>18</v>
@@ -64701,7 +64701,7 @@
         </is>
       </c>
       <c r="D894" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E894" t="n">
         <v>13</v>
@@ -64721,20 +64721,20 @@
       </c>
       <c r="I894" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J894" t="n">
         <v>1040</v>
       </c>
       <c r="K894" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="L894" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="M894" t="n">
-        <v>10462</v>
+        <v>15538</v>
       </c>
       <c r="N894" t="inlineStr">
         <is>
@@ -64743,11 +64743,11 @@
       </c>
       <c r="O894" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P894" t="n">
-        <v>581</v>
+        <v>863</v>
       </c>
       <c r="Q894" t="n">
         <v>18</v>
@@ -64773,7 +64773,7 @@
         </is>
       </c>
       <c r="D895" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E895" t="n">
         <v>13</v>
@@ -64793,20 +64793,20 @@
       </c>
       <c r="I895" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J895" t="n">
-        <v>550</v>
+        <v>620</v>
       </c>
       <c r="K895" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L895" t="n">
         <v>8000</v>
       </c>
       <c r="M895" t="n">
-        <v>7545</v>
+        <v>8000</v>
       </c>
       <c r="N895" t="inlineStr">
         <is>
@@ -64819,7 +64819,7 @@
         </is>
       </c>
       <c r="P895" t="n">
-        <v>419</v>
+        <v>444</v>
       </c>
       <c r="Q895" t="n">
         <v>18</v>
@@ -64845,7 +64845,7 @@
         </is>
       </c>
       <c r="D896" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E896" t="n">
         <v>13</v>
@@ -64860,25 +64860,25 @@
       </c>
       <c r="H896" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I896" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J896" t="n">
-        <v>580</v>
+        <v>1160</v>
       </c>
       <c r="K896" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="L896" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="M896" t="n">
-        <v>7517</v>
+        <v>13517</v>
       </c>
       <c r="N896" t="inlineStr">
         <is>
@@ -64887,11 +64887,11 @@
       </c>
       <c r="O896" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P896" t="n">
-        <v>418</v>
+        <v>751</v>
       </c>
       <c r="Q896" t="n">
         <v>18</v>
@@ -64917,7 +64917,7 @@
         </is>
       </c>
       <c r="D897" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E897" t="n">
         <v>13</v>
@@ -64932,25 +64932,25 @@
       </c>
       <c r="H897" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I897" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J897" t="n">
-        <v>550</v>
+        <v>270</v>
       </c>
       <c r="K897" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L897" t="n">
         <v>6000</v>
       </c>
       <c r="M897" t="n">
-        <v>5455</v>
+        <v>6000</v>
       </c>
       <c r="N897" t="inlineStr">
         <is>
@@ -64959,11 +64959,11 @@
       </c>
       <c r="O897" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P897" t="n">
-        <v>303</v>
+        <v>333</v>
       </c>
       <c r="Q897" t="n">
         <v>18</v>
@@ -64989,7 +64989,7 @@
         </is>
       </c>
       <c r="D898" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E898" t="n">
         <v>13</v>
@@ -65004,7 +65004,7 @@
       </c>
       <c r="H898" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I898" t="inlineStr">
@@ -65013,16 +65013,16 @@
         </is>
       </c>
       <c r="J898" t="n">
-        <v>440</v>
+        <v>1100</v>
       </c>
       <c r="K898" t="n">
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="L898" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="M898" t="n">
-        <v>3591</v>
+        <v>7473</v>
       </c>
       <c r="N898" t="inlineStr">
         <is>
@@ -65031,11 +65031,11 @@
       </c>
       <c r="O898" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P898" t="n">
-        <v>200</v>
+        <v>415</v>
       </c>
       <c r="Q898" t="n">
         <v>18</v>
@@ -65061,7 +65061,7 @@
         </is>
       </c>
       <c r="D899" s="2" t="n">
-        <v>44473</v>
+        <v>44286</v>
       </c>
       <c r="E899" t="n">
         <v>13</v>
@@ -65085,16 +65085,16 @@
         </is>
       </c>
       <c r="J899" t="n">
-        <v>420</v>
+        <v>780</v>
       </c>
       <c r="K899" t="n">
-        <v>19000</v>
+        <v>13000</v>
       </c>
       <c r="L899" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="M899" t="n">
-        <v>19429</v>
+        <v>13513</v>
       </c>
       <c r="N899" t="inlineStr">
         <is>
@@ -65103,11 +65103,11 @@
       </c>
       <c r="O899" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P899" t="n">
-        <v>1079</v>
+        <v>751</v>
       </c>
       <c r="Q899" t="n">
         <v>18</v>
@@ -65133,7 +65133,7 @@
         </is>
       </c>
       <c r="D900" s="2" t="n">
-        <v>44473</v>
+        <v>44286</v>
       </c>
       <c r="E900" t="n">
         <v>13</v>
@@ -65157,16 +65157,16 @@
         </is>
       </c>
       <c r="J900" t="n">
-        <v>500</v>
+        <v>1040</v>
       </c>
       <c r="K900" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="L900" t="n">
-        <v>17000</v>
+        <v>11000</v>
       </c>
       <c r="M900" t="n">
-        <v>16560</v>
+        <v>10462</v>
       </c>
       <c r="N900" t="inlineStr">
         <is>
@@ -65175,11 +65175,11 @@
       </c>
       <c r="O900" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P900" t="n">
-        <v>920</v>
+        <v>581</v>
       </c>
       <c r="Q900" t="n">
         <v>18</v>
@@ -65205,7 +65205,7 @@
         </is>
       </c>
       <c r="D901" s="2" t="n">
-        <v>44473</v>
+        <v>44286</v>
       </c>
       <c r="E901" t="n">
         <v>13</v>
@@ -65229,16 +65229,16 @@
         </is>
       </c>
       <c r="J901" t="n">
-        <v>320</v>
+        <v>550</v>
       </c>
       <c r="K901" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="L901" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="M901" t="n">
-        <v>13562</v>
+        <v>7545</v>
       </c>
       <c r="N901" t="inlineStr">
         <is>
@@ -65247,11 +65247,11 @@
       </c>
       <c r="O901" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P901" t="n">
-        <v>753</v>
+        <v>419</v>
       </c>
       <c r="Q901" t="n">
         <v>18</v>
@@ -65277,7 +65277,7 @@
         </is>
       </c>
       <c r="D902" s="2" t="n">
-        <v>44400</v>
+        <v>44286</v>
       </c>
       <c r="E902" t="n">
         <v>13</v>
@@ -65292,7 +65292,7 @@
       </c>
       <c r="H902" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I902" t="inlineStr">
@@ -65301,16 +65301,16 @@
         </is>
       </c>
       <c r="J902" t="n">
-        <v>450</v>
+        <v>580</v>
       </c>
       <c r="K902" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L902" t="n">
         <v>8000</v>
       </c>
-      <c r="L902" t="n">
-        <v>8500</v>
-      </c>
       <c r="M902" t="n">
-        <v>8278</v>
+        <v>7517</v>
       </c>
       <c r="N902" t="inlineStr">
         <is>
@@ -65319,11 +65319,11 @@
       </c>
       <c r="O902" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P902" t="n">
-        <v>460</v>
+        <v>418</v>
       </c>
       <c r="Q902" t="n">
         <v>18</v>
@@ -65349,7 +65349,7 @@
         </is>
       </c>
       <c r="D903" s="2" t="n">
-        <v>44400</v>
+        <v>44286</v>
       </c>
       <c r="E903" t="n">
         <v>13</v>
@@ -65364,25 +65364,25 @@
       </c>
       <c r="H903" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I903" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J903" t="n">
-        <v>960</v>
+        <v>550</v>
       </c>
       <c r="K903" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="L903" t="n">
-        <v>13000</v>
+        <v>6000</v>
       </c>
       <c r="M903" t="n">
-        <v>12583</v>
+        <v>5455</v>
       </c>
       <c r="N903" t="inlineStr">
         <is>
@@ -65391,11 +65391,11 @@
       </c>
       <c r="O903" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P903" t="n">
-        <v>699</v>
+        <v>303</v>
       </c>
       <c r="Q903" t="n">
         <v>18</v>
@@ -65421,7 +65421,7 @@
         </is>
       </c>
       <c r="D904" s="2" t="n">
-        <v>44400</v>
+        <v>44286</v>
       </c>
       <c r="E904" t="n">
         <v>13</v>
@@ -65436,25 +65436,25 @@
       </c>
       <c r="H904" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I904" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J904" t="n">
-        <v>620</v>
+        <v>440</v>
       </c>
       <c r="K904" t="n">
-        <v>7000</v>
+        <v>3000</v>
       </c>
       <c r="L904" t="n">
-        <v>7500</v>
+        <v>4000</v>
       </c>
       <c r="M904" t="n">
-        <v>7274</v>
+        <v>3591</v>
       </c>
       <c r="N904" t="inlineStr">
         <is>
@@ -65463,11 +65463,11 @@
       </c>
       <c r="O904" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P904" t="n">
-        <v>404</v>
+        <v>200</v>
       </c>
       <c r="Q904" t="n">
         <v>18</v>
@@ -65493,7 +65493,7 @@
         </is>
       </c>
       <c r="D905" s="2" t="n">
-        <v>44400</v>
+        <v>44473</v>
       </c>
       <c r="E905" t="n">
         <v>13</v>
@@ -65513,20 +65513,20 @@
       </c>
       <c r="I905" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J905" t="n">
-        <v>920</v>
+        <v>420</v>
       </c>
       <c r="K905" t="n">
-        <v>10000</v>
+        <v>19000</v>
       </c>
       <c r="L905" t="n">
-        <v>11000</v>
+        <v>20000</v>
       </c>
       <c r="M905" t="n">
-        <v>10522</v>
+        <v>19429</v>
       </c>
       <c r="N905" t="inlineStr">
         <is>
@@ -65539,7 +65539,7 @@
         </is>
       </c>
       <c r="P905" t="n">
-        <v>585</v>
+        <v>1079</v>
       </c>
       <c r="Q905" t="n">
         <v>18</v>
@@ -65565,7 +65565,7 @@
         </is>
       </c>
       <c r="D906" s="2" t="n">
-        <v>44400</v>
+        <v>44473</v>
       </c>
       <c r="E906" t="n">
         <v>13</v>
@@ -65585,20 +65585,20 @@
       </c>
       <c r="I906" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J906" t="n">
-        <v>230</v>
+        <v>500</v>
       </c>
       <c r="K906" t="n">
-        <v>5000</v>
+        <v>16000</v>
       </c>
       <c r="L906" t="n">
-        <v>5500</v>
+        <v>17000</v>
       </c>
       <c r="M906" t="n">
-        <v>5283</v>
+        <v>16560</v>
       </c>
       <c r="N906" t="inlineStr">
         <is>
@@ -65607,11 +65607,11 @@
       </c>
       <c r="O906" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P906" t="n">
-        <v>294</v>
+        <v>920</v>
       </c>
       <c r="Q906" t="n">
         <v>18</v>
@@ -65637,7 +65637,7 @@
         </is>
       </c>
       <c r="D907" s="2" t="n">
-        <v>44400</v>
+        <v>44473</v>
       </c>
       <c r="E907" t="n">
         <v>13</v>
@@ -65661,16 +65661,16 @@
         </is>
       </c>
       <c r="J907" t="n">
-        <v>260</v>
+        <v>320</v>
       </c>
       <c r="K907" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="L907" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="M907" t="n">
-        <v>8538</v>
+        <v>13562</v>
       </c>
       <c r="N907" t="inlineStr">
         <is>
@@ -65683,7 +65683,7 @@
         </is>
       </c>
       <c r="P907" t="n">
-        <v>474</v>
+        <v>753</v>
       </c>
       <c r="Q907" t="n">
         <v>18</v>
@@ -65709,7 +65709,7 @@
         </is>
       </c>
       <c r="D908" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E908" t="n">
         <v>13</v>
@@ -65733,16 +65733,16 @@
         </is>
       </c>
       <c r="J908" t="n">
-        <v>600</v>
+        <v>450</v>
       </c>
       <c r="K908" t="n">
-        <v>18000</v>
+        <v>8000</v>
       </c>
       <c r="L908" t="n">
-        <v>18000</v>
+        <v>8500</v>
       </c>
       <c r="M908" t="n">
-        <v>18000</v>
+        <v>8278</v>
       </c>
       <c r="N908" t="inlineStr">
         <is>
@@ -65755,7 +65755,7 @@
         </is>
       </c>
       <c r="P908" t="n">
-        <v>1000</v>
+        <v>460</v>
       </c>
       <c r="Q908" t="n">
         <v>18</v>
@@ -65781,7 +65781,7 @@
         </is>
       </c>
       <c r="D909" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E909" t="n">
         <v>13</v>
@@ -65805,16 +65805,16 @@
         </is>
       </c>
       <c r="J909" t="n">
-        <v>600</v>
+        <v>960</v>
       </c>
       <c r="K909" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="L909" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="M909" t="n">
-        <v>16000</v>
+        <v>12583</v>
       </c>
       <c r="N909" t="inlineStr">
         <is>
@@ -65827,7 +65827,7 @@
         </is>
       </c>
       <c r="P909" t="n">
-        <v>889</v>
+        <v>699</v>
       </c>
       <c r="Q909" t="n">
         <v>18</v>
@@ -65853,7 +65853,7 @@
         </is>
       </c>
       <c r="D910" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E910" t="n">
         <v>13</v>
@@ -65877,16 +65877,16 @@
         </is>
       </c>
       <c r="J910" t="n">
-        <v>700</v>
+        <v>620</v>
       </c>
       <c r="K910" t="n">
-        <v>17000</v>
+        <v>7000</v>
       </c>
       <c r="L910" t="n">
-        <v>17000</v>
+        <v>7500</v>
       </c>
       <c r="M910" t="n">
-        <v>17000</v>
+        <v>7274</v>
       </c>
       <c r="N910" t="inlineStr">
         <is>
@@ -65899,7 +65899,7 @@
         </is>
       </c>
       <c r="P910" t="n">
-        <v>944</v>
+        <v>404</v>
       </c>
       <c r="Q910" t="n">
         <v>18</v>
@@ -65925,7 +65925,7 @@
         </is>
       </c>
       <c r="D911" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E911" t="n">
         <v>13</v>
@@ -65949,16 +65949,16 @@
         </is>
       </c>
       <c r="J911" t="n">
-        <v>650</v>
+        <v>920</v>
       </c>
       <c r="K911" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="L911" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="M911" t="n">
-        <v>15000</v>
+        <v>10522</v>
       </c>
       <c r="N911" t="inlineStr">
         <is>
@@ -65971,7 +65971,7 @@
         </is>
       </c>
       <c r="P911" t="n">
-        <v>833</v>
+        <v>585</v>
       </c>
       <c r="Q911" t="n">
         <v>18</v>
@@ -65997,7 +65997,7 @@
         </is>
       </c>
       <c r="D912" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E912" t="n">
         <v>13</v>
@@ -66021,16 +66021,16 @@
         </is>
       </c>
       <c r="J912" t="n">
-        <v>650</v>
+        <v>230</v>
       </c>
       <c r="K912" t="n">
-        <v>11000</v>
+        <v>5000</v>
       </c>
       <c r="L912" t="n">
-        <v>11000</v>
+        <v>5500</v>
       </c>
       <c r="M912" t="n">
-        <v>11000</v>
+        <v>5283</v>
       </c>
       <c r="N912" t="inlineStr">
         <is>
@@ -66043,7 +66043,7 @@
         </is>
       </c>
       <c r="P912" t="n">
-        <v>611</v>
+        <v>294</v>
       </c>
       <c r="Q912" t="n">
         <v>18</v>
@@ -66069,7 +66069,7 @@
         </is>
       </c>
       <c r="D913" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E913" t="n">
         <v>13</v>
@@ -66093,16 +66093,16 @@
         </is>
       </c>
       <c r="J913" t="n">
-        <v>700</v>
+        <v>260</v>
       </c>
       <c r="K913" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="L913" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="M913" t="n">
-        <v>10000</v>
+        <v>8538</v>
       </c>
       <c r="N913" t="inlineStr">
         <is>
@@ -66115,7 +66115,7 @@
         </is>
       </c>
       <c r="P913" t="n">
-        <v>556</v>
+        <v>474</v>
       </c>
       <c r="Q913" t="n">
         <v>18</v>
@@ -66141,7 +66141,7 @@
         </is>
       </c>
       <c r="D914" s="2" t="n">
-        <v>44181</v>
+        <v>44484</v>
       </c>
       <c r="E914" t="n">
         <v>13</v>
@@ -66165,16 +66165,16 @@
         </is>
       </c>
       <c r="J914" t="n">
-        <v>1050</v>
+        <v>600</v>
       </c>
       <c r="K914" t="n">
-        <v>9500</v>
+        <v>18000</v>
       </c>
       <c r="L914" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="M914" t="n">
-        <v>9810</v>
+        <v>18000</v>
       </c>
       <c r="N914" t="inlineStr">
         <is>
@@ -66187,7 +66187,7 @@
         </is>
       </c>
       <c r="P914" t="n">
-        <v>545</v>
+        <v>1000</v>
       </c>
       <c r="Q914" t="n">
         <v>18</v>
@@ -66213,7 +66213,7 @@
         </is>
       </c>
       <c r="D915" s="2" t="n">
-        <v>44181</v>
+        <v>44484</v>
       </c>
       <c r="E915" t="n">
         <v>13</v>
@@ -66233,20 +66233,20 @@
       </c>
       <c r="I915" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J915" t="n">
-        <v>1100</v>
+        <v>600</v>
       </c>
       <c r="K915" t="n">
-        <v>8500</v>
+        <v>16000</v>
       </c>
       <c r="L915" t="n">
-        <v>9000</v>
+        <v>16000</v>
       </c>
       <c r="M915" t="n">
-        <v>8764</v>
+        <v>16000</v>
       </c>
       <c r="N915" t="inlineStr">
         <is>
@@ -66255,11 +66255,11 @@
       </c>
       <c r="O915" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P915" t="n">
-        <v>487</v>
+        <v>889</v>
       </c>
       <c r="Q915" t="n">
         <v>18</v>
@@ -66285,7 +66285,7 @@
         </is>
       </c>
       <c r="D916" s="2" t="n">
-        <v>44181</v>
+        <v>44484</v>
       </c>
       <c r="E916" t="n">
         <v>13</v>
@@ -66305,20 +66305,20 @@
       </c>
       <c r="I916" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J916" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="K916" t="n">
-        <v>6000</v>
+        <v>17000</v>
       </c>
       <c r="L916" t="n">
-        <v>6500</v>
+        <v>17000</v>
       </c>
       <c r="M916" t="n">
-        <v>6233</v>
+        <v>17000</v>
       </c>
       <c r="N916" t="inlineStr">
         <is>
@@ -66331,7 +66331,7 @@
         </is>
       </c>
       <c r="P916" t="n">
-        <v>346</v>
+        <v>944</v>
       </c>
       <c r="Q916" t="n">
         <v>18</v>
@@ -66357,7 +66357,7 @@
         </is>
       </c>
       <c r="D917" s="2" t="n">
-        <v>44494</v>
+        <v>44484</v>
       </c>
       <c r="E917" t="n">
         <v>13</v>
@@ -66377,20 +66377,20 @@
       </c>
       <c r="I917" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J917" t="n">
-        <v>630</v>
+        <v>650</v>
       </c>
       <c r="K917" t="n">
-        <v>19000</v>
+        <v>15000</v>
       </c>
       <c r="L917" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="M917" t="n">
-        <v>19603</v>
+        <v>15000</v>
       </c>
       <c r="N917" t="inlineStr">
         <is>
@@ -66399,11 +66399,11 @@
       </c>
       <c r="O917" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P917" t="n">
-        <v>1089</v>
+        <v>833</v>
       </c>
       <c r="Q917" t="n">
         <v>18</v>
@@ -66429,7 +66429,7 @@
         </is>
       </c>
       <c r="D918" s="2" t="n">
-        <v>44494</v>
+        <v>44484</v>
       </c>
       <c r="E918" t="n">
         <v>13</v>
@@ -66449,20 +66449,20 @@
       </c>
       <c r="I918" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J918" t="n">
-        <v>660</v>
+        <v>650</v>
       </c>
       <c r="K918" t="n">
-        <v>17000</v>
+        <v>11000</v>
       </c>
       <c r="L918" t="n">
-        <v>18000</v>
+        <v>11000</v>
       </c>
       <c r="M918" t="n">
-        <v>17530</v>
+        <v>11000</v>
       </c>
       <c r="N918" t="inlineStr">
         <is>
@@ -66475,7 +66475,7 @@
         </is>
       </c>
       <c r="P918" t="n">
-        <v>974</v>
+        <v>611</v>
       </c>
       <c r="Q918" t="n">
         <v>18</v>
@@ -66501,7 +66501,7 @@
         </is>
       </c>
       <c r="D919" s="2" t="n">
-        <v>44494</v>
+        <v>44484</v>
       </c>
       <c r="E919" t="n">
         <v>13</v>
@@ -66525,16 +66525,16 @@
         </is>
       </c>
       <c r="J919" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="K919" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="L919" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="M919" t="n">
-        <v>13538</v>
+        <v>10000</v>
       </c>
       <c r="N919" t="inlineStr">
         <is>
@@ -66543,11 +66543,11 @@
       </c>
       <c r="O919" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P919" t="n">
-        <v>752</v>
+        <v>556</v>
       </c>
       <c r="Q919" t="n">
         <v>18</v>
@@ -66573,7 +66573,7 @@
         </is>
       </c>
       <c r="D920" s="2" t="n">
-        <v>44494</v>
+        <v>44181</v>
       </c>
       <c r="E920" t="n">
         <v>13</v>
@@ -66593,20 +66593,20 @@
       </c>
       <c r="I920" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J920" t="n">
-        <v>580</v>
+        <v>1050</v>
       </c>
       <c r="K920" t="n">
+        <v>9500</v>
+      </c>
+      <c r="L920" t="n">
         <v>10000</v>
       </c>
-      <c r="L920" t="n">
-        <v>11000</v>
-      </c>
       <c r="M920" t="n">
-        <v>10483</v>
+        <v>9810</v>
       </c>
       <c r="N920" t="inlineStr">
         <is>
@@ -66619,7 +66619,7 @@
         </is>
       </c>
       <c r="P920" t="n">
-        <v>582</v>
+        <v>545</v>
       </c>
       <c r="Q920" t="n">
         <v>18</v>
@@ -66645,7 +66645,7 @@
         </is>
       </c>
       <c r="D921" s="2" t="n">
-        <v>44342</v>
+        <v>44181</v>
       </c>
       <c r="E921" t="n">
         <v>13</v>
@@ -66665,20 +66665,20 @@
       </c>
       <c r="I921" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J921" t="n">
-        <v>480</v>
+        <v>1100</v>
       </c>
       <c r="K921" t="n">
-        <v>9500</v>
+        <v>8500</v>
       </c>
       <c r="L921" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="M921" t="n">
-        <v>9812</v>
+        <v>8764</v>
       </c>
       <c r="N921" t="inlineStr">
         <is>
@@ -66691,7 +66691,7 @@
         </is>
       </c>
       <c r="P921" t="n">
-        <v>545</v>
+        <v>487</v>
       </c>
       <c r="Q921" t="n">
         <v>18</v>
@@ -66717,7 +66717,7 @@
         </is>
       </c>
       <c r="D922" s="2" t="n">
-        <v>44342</v>
+        <v>44181</v>
       </c>
       <c r="E922" t="n">
         <v>13</v>
@@ -66737,20 +66737,20 @@
       </c>
       <c r="I922" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J922" t="n">
-        <v>520</v>
+        <v>900</v>
       </c>
       <c r="K922" t="n">
-        <v>11000</v>
+        <v>6000</v>
       </c>
       <c r="L922" t="n">
-        <v>12000</v>
+        <v>6500</v>
       </c>
       <c r="M922" t="n">
-        <v>11558</v>
+        <v>6233</v>
       </c>
       <c r="N922" t="inlineStr">
         <is>
@@ -66759,11 +66759,11 @@
       </c>
       <c r="O922" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P922" t="n">
-        <v>642</v>
+        <v>346</v>
       </c>
       <c r="Q922" t="n">
         <v>18</v>
@@ -66789,7 +66789,7 @@
         </is>
       </c>
       <c r="D923" s="2" t="n">
-        <v>44342</v>
+        <v>44494</v>
       </c>
       <c r="E923" t="n">
         <v>13</v>
@@ -66809,20 +66809,20 @@
       </c>
       <c r="I923" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J923" t="n">
-        <v>580</v>
+        <v>630</v>
       </c>
       <c r="K923" t="n">
-        <v>7000</v>
+        <v>19000</v>
       </c>
       <c r="L923" t="n">
-        <v>7500</v>
+        <v>20000</v>
       </c>
       <c r="M923" t="n">
-        <v>7259</v>
+        <v>19603</v>
       </c>
       <c r="N923" t="inlineStr">
         <is>
@@ -66835,7 +66835,7 @@
         </is>
       </c>
       <c r="P923" t="n">
-        <v>403</v>
+        <v>1089</v>
       </c>
       <c r="Q923" t="n">
         <v>18</v>
@@ -66861,7 +66861,7 @@
         </is>
       </c>
       <c r="D924" s="2" t="n">
-        <v>44342</v>
+        <v>44494</v>
       </c>
       <c r="E924" t="n">
         <v>13</v>
@@ -66885,16 +66885,16 @@
         </is>
       </c>
       <c r="J924" t="n">
-        <v>580</v>
+        <v>660</v>
       </c>
       <c r="K924" t="n">
-        <v>9000</v>
+        <v>17000</v>
       </c>
       <c r="L924" t="n">
-        <v>9500</v>
+        <v>18000</v>
       </c>
       <c r="M924" t="n">
-        <v>9241</v>
+        <v>17530</v>
       </c>
       <c r="N924" t="inlineStr">
         <is>
@@ -66903,11 +66903,11 @@
       </c>
       <c r="O924" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P924" t="n">
-        <v>513</v>
+        <v>974</v>
       </c>
       <c r="Q924" t="n">
         <v>18</v>
@@ -66933,7 +66933,7 @@
         </is>
       </c>
       <c r="D925" s="2" t="n">
-        <v>44342</v>
+        <v>44494</v>
       </c>
       <c r="E925" t="n">
         <v>13</v>
@@ -66957,16 +66957,16 @@
         </is>
       </c>
       <c r="J925" t="n">
-        <v>540</v>
+        <v>650</v>
       </c>
       <c r="K925" t="n">
-        <v>5000</v>
+        <v>13000</v>
       </c>
       <c r="L925" t="n">
-        <v>5500</v>
+        <v>14000</v>
       </c>
       <c r="M925" t="n">
-        <v>5222</v>
+        <v>13538</v>
       </c>
       <c r="N925" t="inlineStr">
         <is>
@@ -66979,7 +66979,7 @@
         </is>
       </c>
       <c r="P925" t="n">
-        <v>290</v>
+        <v>752</v>
       </c>
       <c r="Q925" t="n">
         <v>18</v>
@@ -67005,7 +67005,7 @@
         </is>
       </c>
       <c r="D926" s="2" t="n">
-        <v>44445</v>
+        <v>44494</v>
       </c>
       <c r="E926" t="n">
         <v>13</v>
@@ -67025,20 +67025,20 @@
       </c>
       <c r="I926" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J926" t="n">
-        <v>400</v>
+        <v>580</v>
       </c>
       <c r="K926" t="n">
-        <v>23000</v>
+        <v>10000</v>
       </c>
       <c r="L926" t="n">
-        <v>23000</v>
+        <v>11000</v>
       </c>
       <c r="M926" t="n">
-        <v>23000</v>
+        <v>10483</v>
       </c>
       <c r="N926" t="inlineStr">
         <is>
@@ -67047,11 +67047,11 @@
       </c>
       <c r="O926" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P926" t="n">
-        <v>1278</v>
+        <v>582</v>
       </c>
       <c r="Q926" t="n">
         <v>18</v>
@@ -67077,7 +67077,7 @@
         </is>
       </c>
       <c r="D927" s="2" t="n">
-        <v>44445</v>
+        <v>44342</v>
       </c>
       <c r="E927" t="n">
         <v>13</v>
@@ -67097,20 +67097,20 @@
       </c>
       <c r="I927" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J927" t="n">
-        <v>380</v>
+        <v>480</v>
       </c>
       <c r="K927" t="n">
-        <v>15000</v>
+        <v>9500</v>
       </c>
       <c r="L927" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="M927" t="n">
-        <v>15000</v>
+        <v>9812</v>
       </c>
       <c r="N927" t="inlineStr">
         <is>
@@ -67123,7 +67123,7 @@
         </is>
       </c>
       <c r="P927" t="n">
-        <v>833</v>
+        <v>545</v>
       </c>
       <c r="Q927" t="n">
         <v>18</v>
@@ -67149,7 +67149,7 @@
         </is>
       </c>
       <c r="D928" s="2" t="n">
-        <v>44445</v>
+        <v>44342</v>
       </c>
       <c r="E928" t="n">
         <v>13</v>
@@ -67169,20 +67169,20 @@
       </c>
       <c r="I928" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J928" t="n">
-        <v>560</v>
+        <v>520</v>
       </c>
       <c r="K928" t="n">
-        <v>20000</v>
+        <v>11000</v>
       </c>
       <c r="L928" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="M928" t="n">
-        <v>20000</v>
+        <v>11558</v>
       </c>
       <c r="N928" t="inlineStr">
         <is>
@@ -67195,7 +67195,7 @@
         </is>
       </c>
       <c r="P928" t="n">
-        <v>1111</v>
+        <v>642</v>
       </c>
       <c r="Q928" t="n">
         <v>18</v>
@@ -67221,7 +67221,7 @@
         </is>
       </c>
       <c r="D929" s="2" t="n">
-        <v>44445</v>
+        <v>44342</v>
       </c>
       <c r="E929" t="n">
         <v>13</v>
@@ -67241,20 +67241,20 @@
       </c>
       <c r="I929" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J929" t="n">
-        <v>420</v>
+        <v>580</v>
       </c>
       <c r="K929" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="L929" t="n">
-        <v>12000</v>
+        <v>7500</v>
       </c>
       <c r="M929" t="n">
-        <v>12000</v>
+        <v>7259</v>
       </c>
       <c r="N929" t="inlineStr">
         <is>
@@ -67267,7 +67267,7 @@
         </is>
       </c>
       <c r="P929" t="n">
-        <v>667</v>
+        <v>403</v>
       </c>
       <c r="Q929" t="n">
         <v>18</v>
@@ -67293,7 +67293,7 @@
         </is>
       </c>
       <c r="D930" s="2" t="n">
-        <v>44445</v>
+        <v>44342</v>
       </c>
       <c r="E930" t="n">
         <v>13</v>
@@ -67313,20 +67313,20 @@
       </c>
       <c r="I930" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J930" t="n">
-        <v>320</v>
+        <v>580</v>
       </c>
       <c r="K930" t="n">
-        <v>18000</v>
+        <v>9000</v>
       </c>
       <c r="L930" t="n">
-        <v>18000</v>
+        <v>9500</v>
       </c>
       <c r="M930" t="n">
-        <v>18000</v>
+        <v>9241</v>
       </c>
       <c r="N930" t="inlineStr">
         <is>
@@ -67339,7 +67339,7 @@
         </is>
       </c>
       <c r="P930" t="n">
-        <v>1000</v>
+        <v>513</v>
       </c>
       <c r="Q930" t="n">
         <v>18</v>
@@ -67365,7 +67365,7 @@
         </is>
       </c>
       <c r="D931" s="2" t="n">
-        <v>44328</v>
+        <v>44342</v>
       </c>
       <c r="E931" t="n">
         <v>13</v>
@@ -67385,20 +67385,20 @@
       </c>
       <c r="I931" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J931" t="n">
-        <v>960</v>
+        <v>540</v>
       </c>
       <c r="K931" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="L931" t="n">
-        <v>9500</v>
+        <v>5500</v>
       </c>
       <c r="M931" t="n">
-        <v>9302</v>
+        <v>5222</v>
       </c>
       <c r="N931" t="inlineStr">
         <is>
@@ -67411,7 +67411,7 @@
         </is>
       </c>
       <c r="P931" t="n">
-        <v>517</v>
+        <v>290</v>
       </c>
       <c r="Q931" t="n">
         <v>18</v>
@@ -67437,7 +67437,7 @@
         </is>
       </c>
       <c r="D932" s="2" t="n">
-        <v>44328</v>
+        <v>44445</v>
       </c>
       <c r="E932" t="n">
         <v>13</v>
@@ -67457,20 +67457,20 @@
       </c>
       <c r="I932" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J932" t="n">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="K932" t="n">
-        <v>7000</v>
+        <v>23000</v>
       </c>
       <c r="L932" t="n">
-        <v>7500</v>
+        <v>23000</v>
       </c>
       <c r="M932" t="n">
-        <v>7232</v>
+        <v>23000</v>
       </c>
       <c r="N932" t="inlineStr">
         <is>
@@ -67479,11 +67479,11 @@
       </c>
       <c r="O932" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P932" t="n">
-        <v>402</v>
+        <v>1278</v>
       </c>
       <c r="Q932" t="n">
         <v>18</v>
@@ -67509,7 +67509,7 @@
         </is>
       </c>
       <c r="D933" s="2" t="n">
-        <v>44328</v>
+        <v>44445</v>
       </c>
       <c r="E933" t="n">
         <v>13</v>
@@ -67529,20 +67529,20 @@
       </c>
       <c r="I933" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J933" t="n">
-        <v>230</v>
+        <v>380</v>
       </c>
       <c r="K933" t="n">
-        <v>5000</v>
+        <v>15000</v>
       </c>
       <c r="L933" t="n">
-        <v>5500</v>
+        <v>15000</v>
       </c>
       <c r="M933" t="n">
-        <v>5283</v>
+        <v>15000</v>
       </c>
       <c r="N933" t="inlineStr">
         <is>
@@ -67555,7 +67555,7 @@
         </is>
       </c>
       <c r="P933" t="n">
-        <v>294</v>
+        <v>833</v>
       </c>
       <c r="Q933" t="n">
         <v>18</v>
@@ -67581,7 +67581,7 @@
         </is>
       </c>
       <c r="D934" s="2" t="n">
-        <v>44301</v>
+        <v>44445</v>
       </c>
       <c r="E934" t="n">
         <v>13</v>
@@ -67601,20 +67601,20 @@
       </c>
       <c r="I934" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J934" t="n">
-        <v>360</v>
+        <v>560</v>
       </c>
       <c r="K934" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="L934" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="M934" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="N934" t="inlineStr">
         <is>
@@ -67623,11 +67623,11 @@
       </c>
       <c r="O934" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P934" t="n">
-        <v>667</v>
+        <v>1111</v>
       </c>
       <c r="Q934" t="n">
         <v>18</v>
@@ -67653,7 +67653,7 @@
         </is>
       </c>
       <c r="D935" s="2" t="n">
-        <v>44301</v>
+        <v>44445</v>
       </c>
       <c r="E935" t="n">
         <v>13</v>
@@ -67673,20 +67673,20 @@
       </c>
       <c r="I935" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J935" t="n">
-        <v>640</v>
+        <v>420</v>
       </c>
       <c r="K935" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L935" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M935" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="N935" t="inlineStr">
         <is>
@@ -67695,11 +67695,11 @@
       </c>
       <c r="O935" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P935" t="n">
-        <v>556</v>
+        <v>667</v>
       </c>
       <c r="Q935" t="n">
         <v>18</v>
@@ -67725,7 +67725,7 @@
         </is>
       </c>
       <c r="D936" s="2" t="n">
-        <v>44301</v>
+        <v>44445</v>
       </c>
       <c r="E936" t="n">
         <v>13</v>
@@ -67749,16 +67749,16 @@
         </is>
       </c>
       <c r="J936" t="n">
-        <v>240</v>
+        <v>320</v>
       </c>
       <c r="K936" t="n">
-        <v>9000</v>
+        <v>18000</v>
       </c>
       <c r="L936" t="n">
-        <v>9000</v>
+        <v>18000</v>
       </c>
       <c r="M936" t="n">
-        <v>9000</v>
+        <v>18000</v>
       </c>
       <c r="N936" t="inlineStr">
         <is>
@@ -67767,11 +67767,11 @@
       </c>
       <c r="O936" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P936" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="Q936" t="n">
         <v>18</v>
@@ -67797,7 +67797,7 @@
         </is>
       </c>
       <c r="D937" s="2" t="n">
-        <v>44301</v>
+        <v>44328</v>
       </c>
       <c r="E937" t="n">
         <v>13</v>
@@ -67817,20 +67817,20 @@
       </c>
       <c r="I937" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J937" t="n">
-        <v>160</v>
+        <v>960</v>
       </c>
       <c r="K937" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L937" t="n">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="M937" t="n">
-        <v>7500</v>
+        <v>9302</v>
       </c>
       <c r="N937" t="inlineStr">
         <is>
@@ -67839,11 +67839,11 @@
       </c>
       <c r="O937" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P937" t="n">
-        <v>417</v>
+        <v>517</v>
       </c>
       <c r="Q937" t="n">
         <v>18</v>
@@ -67869,7 +67869,7 @@
         </is>
       </c>
       <c r="D938" s="2" t="n">
-        <v>44330</v>
+        <v>44328</v>
       </c>
       <c r="E938" t="n">
         <v>13</v>
@@ -67889,20 +67889,20 @@
       </c>
       <c r="I938" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J938" t="n">
-        <v>770</v>
+        <v>410</v>
       </c>
       <c r="K938" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="L938" t="n">
-        <v>12000</v>
+        <v>7500</v>
       </c>
       <c r="M938" t="n">
-        <v>11545</v>
+        <v>7232</v>
       </c>
       <c r="N938" t="inlineStr">
         <is>
@@ -67911,11 +67911,11 @@
       </c>
       <c r="O938" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P938" t="n">
-        <v>641</v>
+        <v>402</v>
       </c>
       <c r="Q938" t="n">
         <v>18</v>
@@ -67941,7 +67941,7 @@
         </is>
       </c>
       <c r="D939" s="2" t="n">
-        <v>44330</v>
+        <v>44328</v>
       </c>
       <c r="E939" t="n">
         <v>13</v>
@@ -67961,20 +67961,20 @@
       </c>
       <c r="I939" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J939" t="n">
-        <v>900</v>
+        <v>230</v>
       </c>
       <c r="K939" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="L939" t="n">
-        <v>9000</v>
+        <v>5500</v>
       </c>
       <c r="M939" t="n">
-        <v>8556</v>
+        <v>5283</v>
       </c>
       <c r="N939" t="inlineStr">
         <is>
@@ -67983,11 +67983,11 @@
       </c>
       <c r="O939" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P939" t="n">
-        <v>475</v>
+        <v>294</v>
       </c>
       <c r="Q939" t="n">
         <v>18</v>
@@ -68013,7 +68013,7 @@
         </is>
       </c>
       <c r="D940" s="2" t="n">
-        <v>44330</v>
+        <v>44301</v>
       </c>
       <c r="E940" t="n">
         <v>13</v>
@@ -68033,20 +68033,20 @@
       </c>
       <c r="I940" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J940" t="n">
-        <v>600</v>
+        <v>360</v>
       </c>
       <c r="K940" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="L940" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="M940" t="n">
-        <v>5533</v>
+        <v>12000</v>
       </c>
       <c r="N940" t="inlineStr">
         <is>
@@ -68059,7 +68059,7 @@
         </is>
       </c>
       <c r="P940" t="n">
-        <v>307</v>
+        <v>667</v>
       </c>
       <c r="Q940" t="n">
         <v>18</v>
@@ -68085,7 +68085,7 @@
         </is>
       </c>
       <c r="D941" s="2" t="n">
-        <v>44270</v>
+        <v>44301</v>
       </c>
       <c r="E941" t="n">
         <v>13</v>
@@ -68105,20 +68105,20 @@
       </c>
       <c r="I941" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J941" t="n">
-        <v>520</v>
+        <v>640</v>
       </c>
       <c r="K941" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="L941" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="M941" t="n">
-        <v>12615</v>
+        <v>10000</v>
       </c>
       <c r="N941" t="inlineStr">
         <is>
@@ -68127,11 +68127,11 @@
       </c>
       <c r="O941" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P941" t="n">
-        <v>701</v>
+        <v>556</v>
       </c>
       <c r="Q941" t="n">
         <v>18</v>
@@ -68157,7 +68157,7 @@
         </is>
       </c>
       <c r="D942" s="2" t="n">
-        <v>44270</v>
+        <v>44301</v>
       </c>
       <c r="E942" t="n">
         <v>13</v>
@@ -68177,33 +68177,33 @@
       </c>
       <c r="I942" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J942" t="n">
+        <v>240</v>
+      </c>
+      <c r="K942" t="n">
+        <v>9000</v>
+      </c>
+      <c r="L942" t="n">
+        <v>9000</v>
+      </c>
+      <c r="M942" t="n">
+        <v>9000</v>
+      </c>
+      <c r="N942" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O942" t="inlineStr">
+        <is>
+          <t>Limache</t>
+        </is>
+      </c>
+      <c r="P942" t="n">
         <v>500</v>
-      </c>
-      <c r="K942" t="n">
-        <v>10000</v>
-      </c>
-      <c r="L942" t="n">
-        <v>11000</v>
-      </c>
-      <c r="M942" t="n">
-        <v>10560</v>
-      </c>
-      <c r="N942" t="inlineStr">
-        <is>
-          <t>$/bandeja 18 kilos</t>
-        </is>
-      </c>
-      <c r="O942" t="inlineStr">
-        <is>
-          <t>Provincia de Quillota</t>
-        </is>
-      </c>
-      <c r="P942" t="n">
-        <v>587</v>
       </c>
       <c r="Q942" t="n">
         <v>18</v>
@@ -68229,7 +68229,7 @@
         </is>
       </c>
       <c r="D943" s="2" t="n">
-        <v>44270</v>
+        <v>44301</v>
       </c>
       <c r="E943" t="n">
         <v>13</v>
@@ -68249,11 +68249,11 @@
       </c>
       <c r="I943" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J943" t="n">
-        <v>310</v>
+        <v>160</v>
       </c>
       <c r="K943" t="n">
         <v>7000</v>
@@ -68262,7 +68262,7 @@
         <v>8000</v>
       </c>
       <c r="M943" t="n">
-        <v>7548</v>
+        <v>7500</v>
       </c>
       <c r="N943" t="inlineStr">
         <is>
@@ -68271,11 +68271,11 @@
       </c>
       <c r="O943" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P943" t="n">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="Q943" t="n">
         <v>18</v>
@@ -68301,7 +68301,7 @@
         </is>
       </c>
       <c r="D944" s="2" t="n">
-        <v>44295</v>
+        <v>44330</v>
       </c>
       <c r="E944" t="n">
         <v>13</v>
@@ -68325,16 +68325,16 @@
         </is>
       </c>
       <c r="J944" t="n">
-        <v>640</v>
+        <v>770</v>
       </c>
       <c r="K944" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="L944" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="M944" t="n">
-        <v>13562</v>
+        <v>11545</v>
       </c>
       <c r="N944" t="inlineStr">
         <is>
@@ -68343,11 +68343,11 @@
       </c>
       <c r="O944" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P944" t="n">
-        <v>753</v>
+        <v>641</v>
       </c>
       <c r="Q944" t="n">
         <v>18</v>
@@ -68373,7 +68373,7 @@
         </is>
       </c>
       <c r="D945" s="2" t="n">
-        <v>44295</v>
+        <v>44330</v>
       </c>
       <c r="E945" t="n">
         <v>13</v>
@@ -68397,16 +68397,16 @@
         </is>
       </c>
       <c r="J945" t="n">
-        <v>880</v>
+        <v>900</v>
       </c>
       <c r="K945" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="L945" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="M945" t="n">
-        <v>11545</v>
+        <v>8556</v>
       </c>
       <c r="N945" t="inlineStr">
         <is>
@@ -68415,11 +68415,11 @@
       </c>
       <c r="O945" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P945" t="n">
-        <v>641</v>
+        <v>475</v>
       </c>
       <c r="Q945" t="n">
         <v>18</v>
@@ -68445,7 +68445,7 @@
         </is>
       </c>
       <c r="D946" s="2" t="n">
-        <v>44295</v>
+        <v>44330</v>
       </c>
       <c r="E946" t="n">
         <v>13</v>
@@ -68469,16 +68469,16 @@
         </is>
       </c>
       <c r="J946" t="n">
-        <v>390</v>
+        <v>600</v>
       </c>
       <c r="K946" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="L946" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="M946" t="n">
-        <v>9462</v>
+        <v>5533</v>
       </c>
       <c r="N946" t="inlineStr">
         <is>
@@ -68487,11 +68487,11 @@
       </c>
       <c r="O946" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P946" t="n">
-        <v>526</v>
+        <v>307</v>
       </c>
       <c r="Q946" t="n">
         <v>18</v>
@@ -68517,7 +68517,7 @@
         </is>
       </c>
       <c r="D947" s="2" t="n">
-        <v>44217</v>
+        <v>44270</v>
       </c>
       <c r="E947" t="n">
         <v>13</v>
@@ -68541,7 +68541,7 @@
         </is>
       </c>
       <c r="J947" t="n">
-        <v>630</v>
+        <v>520</v>
       </c>
       <c r="K947" t="n">
         <v>12000</v>
@@ -68550,7 +68550,7 @@
         <v>13000</v>
       </c>
       <c r="M947" t="n">
-        <v>12556</v>
+        <v>12615</v>
       </c>
       <c r="N947" t="inlineStr">
         <is>
@@ -68563,7 +68563,7 @@
         </is>
       </c>
       <c r="P947" t="n">
-        <v>698</v>
+        <v>701</v>
       </c>
       <c r="Q947" t="n">
         <v>18</v>
@@ -68589,7 +68589,7 @@
         </is>
       </c>
       <c r="D948" s="2" t="n">
-        <v>44217</v>
+        <v>44270</v>
       </c>
       <c r="E948" t="n">
         <v>13</v>
@@ -68613,7 +68613,7 @@
         </is>
       </c>
       <c r="J948" t="n">
-        <v>1190</v>
+        <v>500</v>
       </c>
       <c r="K948" t="n">
         <v>10000</v>
@@ -68622,7 +68622,7 @@
         <v>11000</v>
       </c>
       <c r="M948" t="n">
-        <v>10454</v>
+        <v>10560</v>
       </c>
       <c r="N948" t="inlineStr">
         <is>
@@ -68635,7 +68635,7 @@
         </is>
       </c>
       <c r="P948" t="n">
-        <v>581</v>
+        <v>587</v>
       </c>
       <c r="Q948" t="n">
         <v>18</v>
@@ -68661,7 +68661,7 @@
         </is>
       </c>
       <c r="D949" s="2" t="n">
-        <v>44217</v>
+        <v>44270</v>
       </c>
       <c r="E949" t="n">
         <v>13</v>
@@ -68685,7 +68685,7 @@
         </is>
       </c>
       <c r="J949" t="n">
-        <v>630</v>
+        <v>310</v>
       </c>
       <c r="K949" t="n">
         <v>7000</v>
@@ -68694,7 +68694,7 @@
         <v>8000</v>
       </c>
       <c r="M949" t="n">
-        <v>7397</v>
+        <v>7548</v>
       </c>
       <c r="N949" t="inlineStr">
         <is>
@@ -68707,7 +68707,7 @@
         </is>
       </c>
       <c r="P949" t="n">
-        <v>411</v>
+        <v>419</v>
       </c>
       <c r="Q949" t="n">
         <v>18</v>
@@ -68733,7 +68733,7 @@
         </is>
       </c>
       <c r="D950" s="2" t="n">
-        <v>44217</v>
+        <v>44295</v>
       </c>
       <c r="E950" t="n">
         <v>13</v>
@@ -68748,7 +68748,7 @@
       </c>
       <c r="H950" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I950" t="inlineStr">
@@ -68757,16 +68757,16 @@
         </is>
       </c>
       <c r="J950" t="n">
-        <v>340</v>
+        <v>640</v>
       </c>
       <c r="K950" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="L950" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="M950" t="n">
-        <v>9588</v>
+        <v>13562</v>
       </c>
       <c r="N950" t="inlineStr">
         <is>
@@ -68775,11 +68775,11 @@
       </c>
       <c r="O950" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P950" t="n">
-        <v>533</v>
+        <v>753</v>
       </c>
       <c r="Q950" t="n">
         <v>18</v>
@@ -68805,7 +68805,7 @@
         </is>
       </c>
       <c r="D951" s="2" t="n">
-        <v>44217</v>
+        <v>44295</v>
       </c>
       <c r="E951" t="n">
         <v>13</v>
@@ -68820,7 +68820,7 @@
       </c>
       <c r="H951" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I951" t="inlineStr">
@@ -68829,16 +68829,16 @@
         </is>
       </c>
       <c r="J951" t="n">
-        <v>195</v>
+        <v>880</v>
       </c>
       <c r="K951" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="L951" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="M951" t="n">
-        <v>7487</v>
+        <v>11545</v>
       </c>
       <c r="N951" t="inlineStr">
         <is>
@@ -68847,11 +68847,11 @@
       </c>
       <c r="O951" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P951" t="n">
-        <v>416</v>
+        <v>641</v>
       </c>
       <c r="Q951" t="n">
         <v>18</v>
@@ -68877,7 +68877,7 @@
         </is>
       </c>
       <c r="D952" s="2" t="n">
-        <v>44217</v>
+        <v>44295</v>
       </c>
       <c r="E952" t="n">
         <v>13</v>
@@ -68892,7 +68892,7 @@
       </c>
       <c r="H952" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I952" t="inlineStr">
@@ -68901,16 +68901,16 @@
         </is>
       </c>
       <c r="J952" t="n">
-        <v>370</v>
+        <v>390</v>
       </c>
       <c r="K952" t="n">
-        <v>4000</v>
+        <v>9000</v>
       </c>
       <c r="L952" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="M952" t="n">
-        <v>4405</v>
+        <v>9462</v>
       </c>
       <c r="N952" t="inlineStr">
         <is>
@@ -68919,11 +68919,11 @@
       </c>
       <c r="O952" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P952" t="n">
-        <v>245</v>
+        <v>526</v>
       </c>
       <c r="Q952" t="n">
         <v>18</v>
@@ -68949,7 +68949,7 @@
         </is>
       </c>
       <c r="D953" s="2" t="n">
-        <v>44421</v>
+        <v>44217</v>
       </c>
       <c r="E953" t="n">
         <v>13</v>
@@ -68973,16 +68973,16 @@
         </is>
       </c>
       <c r="J953" t="n">
-        <v>660</v>
+        <v>630</v>
       </c>
       <c r="K953" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="L953" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="M953" t="n">
-        <v>9667</v>
+        <v>12556</v>
       </c>
       <c r="N953" t="inlineStr">
         <is>
@@ -68995,7 +68995,7 @@
         </is>
       </c>
       <c r="P953" t="n">
-        <v>537</v>
+        <v>698</v>
       </c>
       <c r="Q953" t="n">
         <v>18</v>
@@ -69021,7 +69021,7 @@
         </is>
       </c>
       <c r="D954" s="2" t="n">
-        <v>44421</v>
+        <v>44217</v>
       </c>
       <c r="E954" t="n">
         <v>13</v>
@@ -69041,20 +69041,20 @@
       </c>
       <c r="I954" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J954" t="n">
-        <v>1010</v>
+        <v>1190</v>
       </c>
       <c r="K954" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="L954" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="M954" t="n">
-        <v>12554</v>
+        <v>10454</v>
       </c>
       <c r="N954" t="inlineStr">
         <is>
@@ -69063,11 +69063,11 @@
       </c>
       <c r="O954" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P954" t="n">
-        <v>697</v>
+        <v>581</v>
       </c>
       <c r="Q954" t="n">
         <v>18</v>
@@ -69093,7 +69093,7 @@
         </is>
       </c>
       <c r="D955" s="2" t="n">
-        <v>44421</v>
+        <v>44217</v>
       </c>
       <c r="E955" t="n">
         <v>13</v>
@@ -69113,11 +69113,11 @@
       </c>
       <c r="I955" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J955" t="n">
-        <v>940</v>
+        <v>630</v>
       </c>
       <c r="K955" t="n">
         <v>7000</v>
@@ -69126,7 +69126,7 @@
         <v>8000</v>
       </c>
       <c r="M955" t="n">
-        <v>7596</v>
+        <v>7397</v>
       </c>
       <c r="N955" t="inlineStr">
         <is>
@@ -69139,7 +69139,7 @@
         </is>
       </c>
       <c r="P955" t="n">
-        <v>422</v>
+        <v>411</v>
       </c>
       <c r="Q955" t="n">
         <v>18</v>
@@ -69165,7 +69165,7 @@
         </is>
       </c>
       <c r="D956" s="2" t="n">
-        <v>44421</v>
+        <v>44217</v>
       </c>
       <c r="E956" t="n">
         <v>13</v>
@@ -69180,16 +69180,16 @@
       </c>
       <c r="H956" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I956" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J956" t="n">
-        <v>1160</v>
+        <v>340</v>
       </c>
       <c r="K956" t="n">
         <v>9000</v>
@@ -69198,7 +69198,7 @@
         <v>10000</v>
       </c>
       <c r="M956" t="n">
-        <v>9517</v>
+        <v>9588</v>
       </c>
       <c r="N956" t="inlineStr">
         <is>
@@ -69207,11 +69207,11 @@
       </c>
       <c r="O956" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P956" t="n">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="Q956" t="n">
         <v>18</v>
@@ -69237,7 +69237,7 @@
         </is>
       </c>
       <c r="D957" s="2" t="n">
-        <v>44421</v>
+        <v>44217</v>
       </c>
       <c r="E957" t="n">
         <v>13</v>
@@ -69252,25 +69252,25 @@
       </c>
       <c r="H957" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I957" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J957" t="n">
-        <v>520</v>
+        <v>195</v>
       </c>
       <c r="K957" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="L957" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M957" t="n">
-        <v>5577</v>
+        <v>7487</v>
       </c>
       <c r="N957" t="inlineStr">
         <is>
@@ -69279,11 +69279,11 @@
       </c>
       <c r="O957" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P957" t="n">
-        <v>310</v>
+        <v>416</v>
       </c>
       <c r="Q957" t="n">
         <v>18</v>
@@ -69309,7 +69309,7 @@
         </is>
       </c>
       <c r="D958" s="2" t="n">
-        <v>44421</v>
+        <v>44217</v>
       </c>
       <c r="E958" t="n">
         <v>13</v>
@@ -69324,7 +69324,7 @@
       </c>
       <c r="H958" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I958" t="inlineStr">
@@ -69333,16 +69333,16 @@
         </is>
       </c>
       <c r="J958" t="n">
-        <v>500</v>
+        <v>370</v>
       </c>
       <c r="K958" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="L958" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="M958" t="n">
-        <v>7560</v>
+        <v>4405</v>
       </c>
       <c r="N958" t="inlineStr">
         <is>
@@ -69351,11 +69351,11 @@
       </c>
       <c r="O958" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P958" t="n">
-        <v>420</v>
+        <v>245</v>
       </c>
       <c r="Q958" t="n">
         <v>18</v>
@@ -69381,7 +69381,7 @@
         </is>
       </c>
       <c r="D959" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E959" t="n">
         <v>13</v>
@@ -69405,16 +69405,16 @@
         </is>
       </c>
       <c r="J959" t="n">
-        <v>210</v>
+        <v>660</v>
       </c>
       <c r="K959" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="L959" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M959" t="n">
-        <v>12000</v>
+        <v>9667</v>
       </c>
       <c r="N959" t="inlineStr">
         <is>
@@ -69423,11 +69423,11 @@
       </c>
       <c r="O959" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P959" t="n">
-        <v>667</v>
+        <v>537</v>
       </c>
       <c r="Q959" t="n">
         <v>18</v>
@@ -69453,7 +69453,7 @@
         </is>
       </c>
       <c r="D960" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E960" t="n">
         <v>13</v>
@@ -69473,20 +69473,20 @@
       </c>
       <c r="I960" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J960" t="n">
-        <v>600</v>
+        <v>1010</v>
       </c>
       <c r="K960" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="L960" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="M960" t="n">
-        <v>11000</v>
+        <v>12554</v>
       </c>
       <c r="N960" t="inlineStr">
         <is>
@@ -69499,7 +69499,7 @@
         </is>
       </c>
       <c r="P960" t="n">
-        <v>611</v>
+        <v>697</v>
       </c>
       <c r="Q960" t="n">
         <v>18</v>
@@ -69525,7 +69525,7 @@
         </is>
       </c>
       <c r="D961" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E961" t="n">
         <v>13</v>
@@ -69545,20 +69545,20 @@
       </c>
       <c r="I961" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J961" t="n">
-        <v>420</v>
+        <v>940</v>
       </c>
       <c r="K961" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="L961" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="M961" t="n">
-        <v>9000</v>
+        <v>7596</v>
       </c>
       <c r="N961" t="inlineStr">
         <is>
@@ -69567,11 +69567,11 @@
       </c>
       <c r="O961" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P961" t="n">
-        <v>500</v>
+        <v>422</v>
       </c>
       <c r="Q961" t="n">
         <v>18</v>
@@ -69597,7 +69597,7 @@
         </is>
       </c>
       <c r="D962" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E962" t="n">
         <v>13</v>
@@ -69617,20 +69617,20 @@
       </c>
       <c r="I962" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J962" t="n">
-        <v>160</v>
+        <v>1160</v>
       </c>
       <c r="K962" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="L962" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M962" t="n">
-        <v>8000</v>
+        <v>9517</v>
       </c>
       <c r="N962" t="inlineStr">
         <is>
@@ -69643,7 +69643,7 @@
         </is>
       </c>
       <c r="P962" t="n">
-        <v>444</v>
+        <v>529</v>
       </c>
       <c r="Q962" t="n">
         <v>18</v>
@@ -69669,7 +69669,7 @@
         </is>
       </c>
       <c r="D963" s="2" t="n">
-        <v>44244</v>
+        <v>44421</v>
       </c>
       <c r="E963" t="n">
         <v>13</v>
@@ -69689,20 +69689,20 @@
       </c>
       <c r="I963" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J963" t="n">
-        <v>760</v>
+        <v>520</v>
       </c>
       <c r="K963" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="L963" t="n">
-        <v>13000</v>
+        <v>6000</v>
       </c>
       <c r="M963" t="n">
-        <v>12474</v>
+        <v>5577</v>
       </c>
       <c r="N963" t="inlineStr">
         <is>
@@ -69715,7 +69715,7 @@
         </is>
       </c>
       <c r="P963" t="n">
-        <v>693</v>
+        <v>310</v>
       </c>
       <c r="Q963" t="n">
         <v>18</v>
@@ -69741,7 +69741,7 @@
         </is>
       </c>
       <c r="D964" s="2" t="n">
-        <v>44244</v>
+        <v>44421</v>
       </c>
       <c r="E964" t="n">
         <v>13</v>
@@ -69761,20 +69761,20 @@
       </c>
       <c r="I964" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J964" t="n">
-        <v>890</v>
+        <v>500</v>
       </c>
       <c r="K964" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="L964" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M964" t="n">
-        <v>9494</v>
+        <v>7560</v>
       </c>
       <c r="N964" t="inlineStr">
         <is>
@@ -69783,11 +69783,11 @@
       </c>
       <c r="O964" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P964" t="n">
-        <v>527</v>
+        <v>420</v>
       </c>
       <c r="Q964" t="n">
         <v>18</v>
@@ -69813,7 +69813,7 @@
         </is>
       </c>
       <c r="D965" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E965" t="n">
         <v>13</v>
@@ -69833,20 +69833,20 @@
       </c>
       <c r="I965" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J965" t="n">
-        <v>630</v>
+        <v>210</v>
       </c>
       <c r="K965" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="L965" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="M965" t="n">
-        <v>5556</v>
+        <v>12000</v>
       </c>
       <c r="N965" t="inlineStr">
         <is>
@@ -69855,11 +69855,11 @@
       </c>
       <c r="O965" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P965" t="n">
-        <v>309</v>
+        <v>667</v>
       </c>
       <c r="Q965" t="n">
         <v>18</v>
@@ -69885,7 +69885,7 @@
         </is>
       </c>
       <c r="D966" s="2" t="n">
-        <v>44307</v>
+        <v>44383</v>
       </c>
       <c r="E966" t="n">
         <v>13</v>
@@ -69905,20 +69905,20 @@
       </c>
       <c r="I966" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J966" t="n">
-        <v>780</v>
+        <v>600</v>
       </c>
       <c r="K966" t="n">
         <v>11000</v>
       </c>
       <c r="L966" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="M966" t="n">
-        <v>11615</v>
+        <v>11000</v>
       </c>
       <c r="N966" t="inlineStr">
         <is>
@@ -69927,11 +69927,11 @@
       </c>
       <c r="O966" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P966" t="n">
-        <v>645</v>
+        <v>611</v>
       </c>
       <c r="Q966" t="n">
         <v>18</v>
@@ -69957,7 +69957,7 @@
         </is>
       </c>
       <c r="D967" s="2" t="n">
-        <v>44307</v>
+        <v>44383</v>
       </c>
       <c r="E967" t="n">
         <v>13</v>
@@ -69977,20 +69977,20 @@
       </c>
       <c r="I967" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J967" t="n">
-        <v>790</v>
+        <v>420</v>
       </c>
       <c r="K967" t="n">
-        <v>9500</v>
+        <v>9000</v>
       </c>
       <c r="L967" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="M967" t="n">
-        <v>9722</v>
+        <v>9000</v>
       </c>
       <c r="N967" t="inlineStr">
         <is>
@@ -69999,11 +69999,11 @@
       </c>
       <c r="O967" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P967" t="n">
-        <v>540</v>
+        <v>500</v>
       </c>
       <c r="Q967" t="n">
         <v>18</v>
@@ -70029,7 +70029,7 @@
         </is>
       </c>
       <c r="D968" s="2" t="n">
-        <v>44307</v>
+        <v>44383</v>
       </c>
       <c r="E968" t="n">
         <v>13</v>
@@ -70049,20 +70049,20 @@
       </c>
       <c r="I968" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J968" t="n">
-        <v>560</v>
+        <v>160</v>
       </c>
       <c r="K968" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="L968" t="n">
         <v>8000</v>
       </c>
       <c r="M968" t="n">
-        <v>7741</v>
+        <v>8000</v>
       </c>
       <c r="N968" t="inlineStr">
         <is>
@@ -70071,11 +70071,11 @@
       </c>
       <c r="O968" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P968" t="n">
-        <v>430</v>
+        <v>444</v>
       </c>
       <c r="Q968" t="n">
         <v>18</v>
@@ -70101,7 +70101,7 @@
         </is>
       </c>
       <c r="D969" s="2" t="n">
-        <v>44273</v>
+        <v>44244</v>
       </c>
       <c r="E969" t="n">
         <v>13</v>
@@ -70125,16 +70125,16 @@
         </is>
       </c>
       <c r="J969" t="n">
-        <v>800</v>
+        <v>760</v>
       </c>
       <c r="K969" t="n">
-        <v>11500</v>
+        <v>12000</v>
       </c>
       <c r="L969" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="M969" t="n">
-        <v>11762</v>
+        <v>12474</v>
       </c>
       <c r="N969" t="inlineStr">
         <is>
@@ -70147,7 +70147,7 @@
         </is>
       </c>
       <c r="P969" t="n">
-        <v>653</v>
+        <v>693</v>
       </c>
       <c r="Q969" t="n">
         <v>18</v>
@@ -70173,7 +70173,7 @@
         </is>
       </c>
       <c r="D970" s="2" t="n">
-        <v>44273</v>
+        <v>44244</v>
       </c>
       <c r="E970" t="n">
         <v>13</v>
@@ -70197,16 +70197,16 @@
         </is>
       </c>
       <c r="J970" t="n">
-        <v>860</v>
+        <v>890</v>
       </c>
       <c r="K970" t="n">
-        <v>9500</v>
+        <v>9000</v>
       </c>
       <c r="L970" t="n">
         <v>10000</v>
       </c>
       <c r="M970" t="n">
-        <v>9767</v>
+        <v>9494</v>
       </c>
       <c r="N970" t="inlineStr">
         <is>
@@ -70219,7 +70219,7 @@
         </is>
       </c>
       <c r="P970" t="n">
-        <v>543</v>
+        <v>527</v>
       </c>
       <c r="Q970" t="n">
         <v>18</v>
@@ -70245,7 +70245,7 @@
         </is>
       </c>
       <c r="D971" s="2" t="n">
-        <v>44273</v>
+        <v>44244</v>
       </c>
       <c r="E971" t="n">
         <v>13</v>
@@ -70269,16 +70269,16 @@
         </is>
       </c>
       <c r="J971" t="n">
-        <v>550</v>
+        <v>630</v>
       </c>
       <c r="K971" t="n">
-        <v>8500</v>
+        <v>5000</v>
       </c>
       <c r="L971" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="M971" t="n">
-        <v>8727</v>
+        <v>5556</v>
       </c>
       <c r="N971" t="inlineStr">
         <is>
@@ -70291,7 +70291,7 @@
         </is>
       </c>
       <c r="P971" t="n">
-        <v>485</v>
+        <v>309</v>
       </c>
       <c r="Q971" t="n">
         <v>18</v>
@@ -70317,7 +70317,7 @@
         </is>
       </c>
       <c r="D972" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E972" t="n">
         <v>13</v>
@@ -70332,7 +70332,7 @@
       </c>
       <c r="H972" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I972" t="inlineStr">
@@ -70341,16 +70341,16 @@
         </is>
       </c>
       <c r="J972" t="n">
-        <v>180</v>
+        <v>780</v>
       </c>
       <c r="K972" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="L972" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="M972" t="n">
-        <v>7000</v>
+        <v>11615</v>
       </c>
       <c r="N972" t="inlineStr">
         <is>
@@ -70359,11 +70359,11 @@
       </c>
       <c r="O972" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P972" t="n">
-        <v>389</v>
+        <v>645</v>
       </c>
       <c r="Q972" t="n">
         <v>18</v>
@@ -70389,7 +70389,7 @@
         </is>
       </c>
       <c r="D973" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E973" t="n">
         <v>13</v>
@@ -70404,7 +70404,7 @@
       </c>
       <c r="H973" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I973" t="inlineStr">
@@ -70413,16 +70413,16 @@
         </is>
       </c>
       <c r="J973" t="n">
-        <v>200</v>
+        <v>790</v>
       </c>
       <c r="K973" t="n">
-        <v>5000</v>
+        <v>9500</v>
       </c>
       <c r="L973" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="M973" t="n">
-        <v>5000</v>
+        <v>9722</v>
       </c>
       <c r="N973" t="inlineStr">
         <is>
@@ -70431,11 +70431,11 @@
       </c>
       <c r="O973" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P973" t="n">
-        <v>278</v>
+        <v>540</v>
       </c>
       <c r="Q973" t="n">
         <v>18</v>
@@ -70461,7 +70461,7 @@
         </is>
       </c>
       <c r="D974" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E974" t="n">
         <v>13</v>
@@ -70476,7 +70476,7 @@
       </c>
       <c r="H974" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I974" t="inlineStr">
@@ -70485,16 +70485,16 @@
         </is>
       </c>
       <c r="J974" t="n">
-        <v>170</v>
+        <v>560</v>
       </c>
       <c r="K974" t="n">
-        <v>4000</v>
+        <v>7500</v>
       </c>
       <c r="L974" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="M974" t="n">
-        <v>4000</v>
+        <v>7741</v>
       </c>
       <c r="N974" t="inlineStr">
         <is>
@@ -70503,11 +70503,11 @@
       </c>
       <c r="O974" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P974" t="n">
-        <v>222</v>
+        <v>430</v>
       </c>
       <c r="Q974" t="n">
         <v>18</v>
@@ -70533,7 +70533,7 @@
         </is>
       </c>
       <c r="D975" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E975" t="n">
         <v>13</v>
@@ -70557,16 +70557,16 @@
         </is>
       </c>
       <c r="J975" t="n">
-        <v>1060</v>
+        <v>800</v>
       </c>
       <c r="K975" t="n">
-        <v>11000</v>
+        <v>11500</v>
       </c>
       <c r="L975" t="n">
         <v>12000</v>
       </c>
       <c r="M975" t="n">
-        <v>11547</v>
+        <v>11762</v>
       </c>
       <c r="N975" t="inlineStr">
         <is>
@@ -70575,11 +70575,11 @@
       </c>
       <c r="O975" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P975" t="n">
-        <v>642</v>
+        <v>653</v>
       </c>
       <c r="Q975" t="n">
         <v>18</v>
@@ -70605,7 +70605,7 @@
         </is>
       </c>
       <c r="D976" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E976" t="n">
         <v>13</v>
@@ -70629,16 +70629,16 @@
         </is>
       </c>
       <c r="J976" t="n">
-        <v>600</v>
+        <v>860</v>
       </c>
       <c r="K976" t="n">
-        <v>5000</v>
+        <v>9500</v>
       </c>
       <c r="L976" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="M976" t="n">
-        <v>5533</v>
+        <v>9767</v>
       </c>
       <c r="N976" t="inlineStr">
         <is>
@@ -70651,7 +70651,7 @@
         </is>
       </c>
       <c r="P976" t="n">
-        <v>307</v>
+        <v>543</v>
       </c>
       <c r="Q976" t="n">
         <v>18</v>
@@ -70677,7 +70677,7 @@
         </is>
       </c>
       <c r="D977" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E977" t="n">
         <v>13</v>
@@ -70697,20 +70697,20 @@
       </c>
       <c r="I977" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J977" t="n">
-        <v>960</v>
+        <v>550</v>
       </c>
       <c r="K977" t="n">
+        <v>8500</v>
+      </c>
+      <c r="L977" t="n">
         <v>9000</v>
       </c>
-      <c r="L977" t="n">
-        <v>10000</v>
-      </c>
       <c r="M977" t="n">
-        <v>9542</v>
+        <v>8727</v>
       </c>
       <c r="N977" t="inlineStr">
         <is>
@@ -70719,11 +70719,11 @@
       </c>
       <c r="O977" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P977" t="n">
-        <v>530</v>
+        <v>485</v>
       </c>
       <c r="Q977" t="n">
         <v>18</v>
@@ -70749,7 +70749,7 @@
         </is>
       </c>
       <c r="D978" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E978" t="n">
         <v>13</v>
@@ -70764,25 +70764,25 @@
       </c>
       <c r="H978" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I978" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J978" t="n">
-        <v>470</v>
+        <v>180</v>
       </c>
       <c r="K978" t="n">
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="L978" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="M978" t="n">
-        <v>3553</v>
+        <v>7000</v>
       </c>
       <c r="N978" t="inlineStr">
         <is>
@@ -70791,11 +70791,11 @@
       </c>
       <c r="O978" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P978" t="n">
-        <v>197</v>
+        <v>389</v>
       </c>
       <c r="Q978" t="n">
         <v>18</v>
@@ -70821,7 +70821,7 @@
         </is>
       </c>
       <c r="D979" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E979" t="n">
         <v>13</v>
@@ -70836,25 +70836,25 @@
       </c>
       <c r="H979" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I979" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J979" t="n">
-        <v>640</v>
+        <v>200</v>
       </c>
       <c r="K979" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="L979" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="M979" t="n">
-        <v>6531</v>
+        <v>5000</v>
       </c>
       <c r="N979" t="inlineStr">
         <is>
@@ -70863,11 +70863,11 @@
       </c>
       <c r="O979" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P979" t="n">
-        <v>363</v>
+        <v>278</v>
       </c>
       <c r="Q979" t="n">
         <v>18</v>
@@ -70893,7 +70893,7 @@
         </is>
       </c>
       <c r="D980" s="2" t="n">
-        <v>44302</v>
+        <v>44273</v>
       </c>
       <c r="E980" t="n">
         <v>13</v>
@@ -70908,25 +70908,25 @@
       </c>
       <c r="H980" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I980" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J980" t="n">
-        <v>240</v>
+        <v>170</v>
       </c>
       <c r="K980" t="n">
-        <v>12000</v>
+        <v>4000</v>
       </c>
       <c r="L980" t="n">
-        <v>12000</v>
+        <v>4000</v>
       </c>
       <c r="M980" t="n">
-        <v>12000</v>
+        <v>4000</v>
       </c>
       <c r="N980" t="inlineStr">
         <is>
@@ -70935,11 +70935,11 @@
       </c>
       <c r="O980" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P980" t="n">
-        <v>667</v>
+        <v>222</v>
       </c>
       <c r="Q980" t="n">
         <v>18</v>
@@ -70965,7 +70965,7 @@
         </is>
       </c>
       <c r="D981" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E981" t="n">
         <v>13</v>
@@ -70985,20 +70985,20 @@
       </c>
       <c r="I981" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J981" t="n">
-        <v>480</v>
+        <v>1060</v>
       </c>
       <c r="K981" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="L981" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M981" t="n">
-        <v>10000</v>
+        <v>11547</v>
       </c>
       <c r="N981" t="inlineStr">
         <is>
@@ -71007,11 +71007,11 @@
       </c>
       <c r="O981" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P981" t="n">
-        <v>556</v>
+        <v>642</v>
       </c>
       <c r="Q981" t="n">
         <v>18</v>
@@ -71037,7 +71037,7 @@
         </is>
       </c>
       <c r="D982" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E982" t="n">
         <v>13</v>
@@ -71057,20 +71057,20 @@
       </c>
       <c r="I982" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J982" t="n">
-        <v>360</v>
+        <v>600</v>
       </c>
       <c r="K982" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="L982" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="M982" t="n">
-        <v>8000</v>
+        <v>5533</v>
       </c>
       <c r="N982" t="inlineStr">
         <is>
@@ -71079,11 +71079,11 @@
       </c>
       <c r="O982" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P982" t="n">
-        <v>444</v>
+        <v>307</v>
       </c>
       <c r="Q982" t="n">
         <v>18</v>
@@ -71109,7 +71109,7 @@
         </is>
       </c>
       <c r="D983" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E983" t="n">
         <v>13</v>
@@ -71129,20 +71129,20 @@
       </c>
       <c r="I983" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J983" t="n">
-        <v>180</v>
+        <v>960</v>
       </c>
       <c r="K983" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L983" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M983" t="n">
-        <v>7000</v>
+        <v>9542</v>
       </c>
       <c r="N983" t="inlineStr">
         <is>
@@ -71151,11 +71151,11 @@
       </c>
       <c r="O983" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P983" t="n">
-        <v>389</v>
+        <v>530</v>
       </c>
       <c r="Q983" t="n">
         <v>18</v>
@@ -71181,7 +71181,7 @@
         </is>
       </c>
       <c r="D984" s="2" t="n">
-        <v>44179</v>
+        <v>44433</v>
       </c>
       <c r="E984" t="n">
         <v>13</v>
@@ -71201,20 +71201,20 @@
       </c>
       <c r="I984" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J984" t="n">
-        <v>180</v>
+        <v>470</v>
       </c>
       <c r="K984" t="n">
-        <v>13000</v>
+        <v>3000</v>
       </c>
       <c r="L984" t="n">
-        <v>13000</v>
+        <v>4000</v>
       </c>
       <c r="M984" t="n">
-        <v>13000</v>
+        <v>3553</v>
       </c>
       <c r="N984" t="inlineStr">
         <is>
@@ -71223,11 +71223,11 @@
       </c>
       <c r="O984" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P984" t="n">
-        <v>722</v>
+        <v>197</v>
       </c>
       <c r="Q984" t="n">
         <v>18</v>
@@ -71253,7 +71253,7 @@
         </is>
       </c>
       <c r="D985" s="2" t="n">
-        <v>44179</v>
+        <v>44433</v>
       </c>
       <c r="E985" t="n">
         <v>13</v>
@@ -71273,20 +71273,20 @@
       </c>
       <c r="I985" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J985" t="n">
-        <v>210</v>
+        <v>640</v>
       </c>
       <c r="K985" t="n">
-        <v>11000</v>
+        <v>6000</v>
       </c>
       <c r="L985" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="M985" t="n">
-        <v>11000</v>
+        <v>6531</v>
       </c>
       <c r="N985" t="inlineStr">
         <is>
@@ -71295,11 +71295,11 @@
       </c>
       <c r="O985" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P985" t="n">
-        <v>611</v>
+        <v>363</v>
       </c>
       <c r="Q985" t="n">
         <v>18</v>
@@ -71325,7 +71325,7 @@
         </is>
       </c>
       <c r="D986" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E986" t="n">
         <v>13</v>
@@ -71345,20 +71345,20 @@
       </c>
       <c r="I986" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J986" t="n">
-        <v>150</v>
+        <v>240</v>
       </c>
       <c r="K986" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="L986" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="M986" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="N986" t="inlineStr">
         <is>
@@ -71371,7 +71371,7 @@
         </is>
       </c>
       <c r="P986" t="n">
-        <v>500</v>
+        <v>667</v>
       </c>
       <c r="Q986" t="n">
         <v>18</v>
@@ -71397,7 +71397,7 @@
         </is>
       </c>
       <c r="D987" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E987" t="n">
         <v>13</v>
@@ -71417,20 +71417,20 @@
       </c>
       <c r="I987" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J987" t="n">
-        <v>130</v>
+        <v>480</v>
       </c>
       <c r="K987" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L987" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M987" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="N987" t="inlineStr">
         <is>
@@ -71443,7 +71443,7 @@
         </is>
       </c>
       <c r="P987" t="n">
-        <v>389</v>
+        <v>556</v>
       </c>
       <c r="Q987" t="n">
         <v>18</v>
@@ -71469,7 +71469,7 @@
         </is>
       </c>
       <c r="D988" s="2" t="n">
-        <v>44491</v>
+        <v>44302</v>
       </c>
       <c r="E988" t="n">
         <v>13</v>
@@ -71489,20 +71489,20 @@
       </c>
       <c r="I988" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J988" t="n">
-        <v>660</v>
+        <v>360</v>
       </c>
       <c r="K988" t="n">
-        <v>19000</v>
+        <v>8000</v>
       </c>
       <c r="L988" t="n">
-        <v>19500</v>
+        <v>8000</v>
       </c>
       <c r="M988" t="n">
-        <v>19265</v>
+        <v>8000</v>
       </c>
       <c r="N988" t="inlineStr">
         <is>
@@ -71511,11 +71511,11 @@
       </c>
       <c r="O988" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P988" t="n">
-        <v>1070</v>
+        <v>444</v>
       </c>
       <c r="Q988" t="n">
         <v>18</v>
@@ -71541,7 +71541,7 @@
         </is>
       </c>
       <c r="D989" s="2" t="n">
-        <v>44491</v>
+        <v>44302</v>
       </c>
       <c r="E989" t="n">
         <v>13</v>
@@ -71561,20 +71561,20 @@
       </c>
       <c r="I989" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J989" t="n">
-        <v>650</v>
+        <v>180</v>
       </c>
       <c r="K989" t="n">
-        <v>17000</v>
+        <v>7000</v>
       </c>
       <c r="L989" t="n">
-        <v>17000</v>
+        <v>7000</v>
       </c>
       <c r="M989" t="n">
-        <v>17000</v>
+        <v>7000</v>
       </c>
       <c r="N989" t="inlineStr">
         <is>
@@ -71583,11 +71583,11 @@
       </c>
       <c r="O989" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P989" t="n">
-        <v>944</v>
+        <v>389</v>
       </c>
       <c r="Q989" t="n">
         <v>18</v>
@@ -71613,7 +71613,7 @@
         </is>
       </c>
       <c r="D990" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E990" t="n">
         <v>13</v>
@@ -71633,20 +71633,20 @@
       </c>
       <c r="I990" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J990" t="n">
-        <v>760</v>
+        <v>180</v>
       </c>
       <c r="K990" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="L990" t="n">
-        <v>16500</v>
+        <v>13000</v>
       </c>
       <c r="M990" t="n">
-        <v>16270</v>
+        <v>13000</v>
       </c>
       <c r="N990" t="inlineStr">
         <is>
@@ -71655,11 +71655,11 @@
       </c>
       <c r="O990" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P990" t="n">
-        <v>904</v>
+        <v>722</v>
       </c>
       <c r="Q990" t="n">
         <v>18</v>
@@ -71685,7 +71685,7 @@
         </is>
       </c>
       <c r="D991" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E991" t="n">
         <v>13</v>
@@ -71709,16 +71709,16 @@
         </is>
       </c>
       <c r="J991" t="n">
-        <v>580</v>
+        <v>210</v>
       </c>
       <c r="K991" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="L991" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="M991" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="N991" t="inlineStr">
         <is>
@@ -71727,11 +71727,11 @@
       </c>
       <c r="O991" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P991" t="n">
-        <v>833</v>
+        <v>611</v>
       </c>
       <c r="Q991" t="n">
         <v>18</v>
@@ -71757,7 +71757,7 @@
         </is>
       </c>
       <c r="D992" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E992" t="n">
         <v>13</v>
@@ -71781,16 +71781,16 @@
         </is>
       </c>
       <c r="J992" t="n">
-        <v>700</v>
+        <v>150</v>
       </c>
       <c r="K992" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="L992" t="n">
-        <v>13500</v>
+        <v>9000</v>
       </c>
       <c r="M992" t="n">
-        <v>13214</v>
+        <v>9000</v>
       </c>
       <c r="N992" t="inlineStr">
         <is>
@@ -71799,11 +71799,11 @@
       </c>
       <c r="O992" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P992" t="n">
-        <v>734</v>
+        <v>500</v>
       </c>
       <c r="Q992" t="n">
         <v>18</v>
@@ -71829,58 +71829,490 @@
         </is>
       </c>
       <c r="D993" s="2" t="n">
+        <v>44179</v>
+      </c>
+      <c r="E993" t="n">
+        <v>13</v>
+      </c>
+      <c r="F993" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G993" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H993" t="inlineStr">
+        <is>
+          <t>Larga vida</t>
+        </is>
+      </c>
+      <c r="I993" t="inlineStr">
+        <is>
+          <t>Tercera</t>
+        </is>
+      </c>
+      <c r="J993" t="n">
+        <v>130</v>
+      </c>
+      <c r="K993" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L993" t="n">
+        <v>7000</v>
+      </c>
+      <c r="M993" t="n">
+        <v>7000</v>
+      </c>
+      <c r="N993" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O993" t="inlineStr">
+        <is>
+          <t>Limache</t>
+        </is>
+      </c>
+      <c r="P993" t="n">
+        <v>389</v>
+      </c>
+      <c r="Q993" t="n">
+        <v>18</v>
+      </c>
+      <c r="R993" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="994">
+      <c r="A994" t="n">
+        <v>12</v>
+      </c>
+      <c r="B994" t="inlineStr">
+        <is>
+          <t>Mapocho Venta Directa de Santiago</t>
+        </is>
+      </c>
+      <c r="C994" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D994" s="2" t="n">
         <v>44491</v>
       </c>
-      <c r="E993" t="n">
-        <v>13</v>
-      </c>
-      <c r="F993" t="n">
-        <v>100112020</v>
-      </c>
-      <c r="G993" t="inlineStr">
-        <is>
-          <t>Tomate</t>
-        </is>
-      </c>
-      <c r="H993" t="inlineStr">
-        <is>
-          <t>Larga vida</t>
-        </is>
-      </c>
-      <c r="I993" t="inlineStr">
+      <c r="E994" t="n">
+        <v>13</v>
+      </c>
+      <c r="F994" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G994" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H994" t="inlineStr">
+        <is>
+          <t>Larga vida</t>
+        </is>
+      </c>
+      <c r="I994" t="inlineStr">
+        <is>
+          <t>Extra</t>
+        </is>
+      </c>
+      <c r="J994" t="n">
+        <v>660</v>
+      </c>
+      <c r="K994" t="n">
+        <v>19000</v>
+      </c>
+      <c r="L994" t="n">
+        <v>19500</v>
+      </c>
+      <c r="M994" t="n">
+        <v>19265</v>
+      </c>
+      <c r="N994" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O994" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="P994" t="n">
+        <v>1070</v>
+      </c>
+      <c r="Q994" t="n">
+        <v>18</v>
+      </c>
+      <c r="R994" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="995">
+      <c r="A995" t="n">
+        <v>12</v>
+      </c>
+      <c r="B995" t="inlineStr">
+        <is>
+          <t>Mapocho Venta Directa de Santiago</t>
+        </is>
+      </c>
+      <c r="C995" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D995" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E995" t="n">
+        <v>13</v>
+      </c>
+      <c r="F995" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G995" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H995" t="inlineStr">
+        <is>
+          <t>Larga vida</t>
+        </is>
+      </c>
+      <c r="I995" t="inlineStr">
+        <is>
+          <t>Extra</t>
+        </is>
+      </c>
+      <c r="J995" t="n">
+        <v>650</v>
+      </c>
+      <c r="K995" t="n">
+        <v>17000</v>
+      </c>
+      <c r="L995" t="n">
+        <v>17000</v>
+      </c>
+      <c r="M995" t="n">
+        <v>17000</v>
+      </c>
+      <c r="N995" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O995" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P995" t="n">
+        <v>944</v>
+      </c>
+      <c r="Q995" t="n">
+        <v>18</v>
+      </c>
+      <c r="R995" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="996">
+      <c r="A996" t="n">
+        <v>12</v>
+      </c>
+      <c r="B996" t="inlineStr">
+        <is>
+          <t>Mapocho Venta Directa de Santiago</t>
+        </is>
+      </c>
+      <c r="C996" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D996" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E996" t="n">
+        <v>13</v>
+      </c>
+      <c r="F996" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G996" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H996" t="inlineStr">
+        <is>
+          <t>Larga vida</t>
+        </is>
+      </c>
+      <c r="I996" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J996" t="n">
+        <v>760</v>
+      </c>
+      <c r="K996" t="n">
+        <v>16000</v>
+      </c>
+      <c r="L996" t="n">
+        <v>16500</v>
+      </c>
+      <c r="M996" t="n">
+        <v>16270</v>
+      </c>
+      <c r="N996" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O996" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="P996" t="n">
+        <v>904</v>
+      </c>
+      <c r="Q996" t="n">
+        <v>18</v>
+      </c>
+      <c r="R996" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="997">
+      <c r="A997" t="n">
+        <v>12</v>
+      </c>
+      <c r="B997" t="inlineStr">
+        <is>
+          <t>Mapocho Venta Directa de Santiago</t>
+        </is>
+      </c>
+      <c r="C997" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D997" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E997" t="n">
+        <v>13</v>
+      </c>
+      <c r="F997" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G997" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H997" t="inlineStr">
+        <is>
+          <t>Larga vida</t>
+        </is>
+      </c>
+      <c r="I997" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J997" t="n">
+        <v>580</v>
+      </c>
+      <c r="K997" t="n">
+        <v>15000</v>
+      </c>
+      <c r="L997" t="n">
+        <v>15000</v>
+      </c>
+      <c r="M997" t="n">
+        <v>15000</v>
+      </c>
+      <c r="N997" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O997" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P997" t="n">
+        <v>833</v>
+      </c>
+      <c r="Q997" t="n">
+        <v>18</v>
+      </c>
+      <c r="R997" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="998">
+      <c r="A998" t="n">
+        <v>12</v>
+      </c>
+      <c r="B998" t="inlineStr">
+        <is>
+          <t>Mapocho Venta Directa de Santiago</t>
+        </is>
+      </c>
+      <c r="C998" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D998" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E998" t="n">
+        <v>13</v>
+      </c>
+      <c r="F998" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G998" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H998" t="inlineStr">
+        <is>
+          <t>Larga vida</t>
+        </is>
+      </c>
+      <c r="I998" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="J993" t="n">
+      <c r="J998" t="n">
+        <v>700</v>
+      </c>
+      <c r="K998" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L998" t="n">
+        <v>13500</v>
+      </c>
+      <c r="M998" t="n">
+        <v>13214</v>
+      </c>
+      <c r="N998" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O998" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="P998" t="n">
+        <v>734</v>
+      </c>
+      <c r="Q998" t="n">
+        <v>18</v>
+      </c>
+      <c r="R998" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="999">
+      <c r="A999" t="n">
+        <v>12</v>
+      </c>
+      <c r="B999" t="inlineStr">
+        <is>
+          <t>Mapocho Venta Directa de Santiago</t>
+        </is>
+      </c>
+      <c r="C999" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D999" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E999" t="n">
+        <v>13</v>
+      </c>
+      <c r="F999" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G999" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H999" t="inlineStr">
+        <is>
+          <t>Larga vida</t>
+        </is>
+      </c>
+      <c r="I999" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J999" t="n">
         <v>600</v>
       </c>
-      <c r="K993" t="n">
+      <c r="K999" t="n">
         <v>13000</v>
       </c>
-      <c r="L993" t="n">
+      <c r="L999" t="n">
         <v>13000</v>
       </c>
-      <c r="M993" t="n">
+      <c r="M999" t="n">
         <v>13000</v>
       </c>
-      <c r="N993" t="inlineStr">
-        <is>
-          <t>$/bandeja 18 kilos</t>
-        </is>
-      </c>
-      <c r="O993" t="inlineStr">
+      <c r="N999" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O999" t="inlineStr">
         <is>
           <t>Región de Arica y Parinacota</t>
         </is>
       </c>
-      <c r="P993" t="n">
+      <c r="P999" t="n">
         <v>722</v>
       </c>
-      <c r="Q993" t="n">
-        <v>18</v>
-      </c>
-      <c r="R993" t="inlineStr">
+      <c r="Q999" t="n">
+        <v>18</v>
+      </c>
+      <c r="R999" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Tomate.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Tomate.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R999"/>
+  <dimension ref="A1:R1005"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -69381,7 +69381,7 @@
         </is>
       </c>
       <c r="D959" s="2" t="n">
-        <v>44421</v>
+        <v>44509</v>
       </c>
       <c r="E959" t="n">
         <v>13</v>
@@ -69405,16 +69405,16 @@
         </is>
       </c>
       <c r="J959" t="n">
-        <v>660</v>
+        <v>1000</v>
       </c>
       <c r="K959" t="n">
-        <v>9000</v>
+        <v>18000</v>
       </c>
       <c r="L959" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="M959" t="n">
-        <v>9667</v>
+        <v>18000</v>
       </c>
       <c r="N959" t="inlineStr">
         <is>
@@ -69427,7 +69427,7 @@
         </is>
       </c>
       <c r="P959" t="n">
-        <v>537</v>
+        <v>1000</v>
       </c>
       <c r="Q959" t="n">
         <v>18</v>
@@ -69453,7 +69453,7 @@
         </is>
       </c>
       <c r="D960" s="2" t="n">
-        <v>44421</v>
+        <v>44509</v>
       </c>
       <c r="E960" t="n">
         <v>13</v>
@@ -69477,16 +69477,16 @@
         </is>
       </c>
       <c r="J960" t="n">
-        <v>1010</v>
+        <v>500</v>
       </c>
       <c r="K960" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="L960" t="n">
         <v>13000</v>
       </c>
       <c r="M960" t="n">
-        <v>12554</v>
+        <v>13000</v>
       </c>
       <c r="N960" t="inlineStr">
         <is>
@@ -69499,7 +69499,7 @@
         </is>
       </c>
       <c r="P960" t="n">
-        <v>697</v>
+        <v>722</v>
       </c>
       <c r="Q960" t="n">
         <v>18</v>
@@ -69525,7 +69525,7 @@
         </is>
       </c>
       <c r="D961" s="2" t="n">
-        <v>44421</v>
+        <v>44509</v>
       </c>
       <c r="E961" t="n">
         <v>13</v>
@@ -69549,16 +69549,16 @@
         </is>
       </c>
       <c r="J961" t="n">
-        <v>940</v>
+        <v>980</v>
       </c>
       <c r="K961" t="n">
-        <v>7000</v>
+        <v>17000</v>
       </c>
       <c r="L961" t="n">
-        <v>8000</v>
+        <v>17000</v>
       </c>
       <c r="M961" t="n">
-        <v>7596</v>
+        <v>17000</v>
       </c>
       <c r="N961" t="inlineStr">
         <is>
@@ -69571,7 +69571,7 @@
         </is>
       </c>
       <c r="P961" t="n">
-        <v>422</v>
+        <v>944</v>
       </c>
       <c r="Q961" t="n">
         <v>18</v>
@@ -69597,7 +69597,7 @@
         </is>
       </c>
       <c r="D962" s="2" t="n">
-        <v>44421</v>
+        <v>44509</v>
       </c>
       <c r="E962" t="n">
         <v>13</v>
@@ -69621,16 +69621,16 @@
         </is>
       </c>
       <c r="J962" t="n">
-        <v>1160</v>
+        <v>520</v>
       </c>
       <c r="K962" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="L962" t="n">
         <v>10000</v>
       </c>
       <c r="M962" t="n">
-        <v>9517</v>
+        <v>10000</v>
       </c>
       <c r="N962" t="inlineStr">
         <is>
@@ -69643,7 +69643,7 @@
         </is>
       </c>
       <c r="P962" t="n">
-        <v>529</v>
+        <v>556</v>
       </c>
       <c r="Q962" t="n">
         <v>18</v>
@@ -69669,7 +69669,7 @@
         </is>
       </c>
       <c r="D963" s="2" t="n">
-        <v>44421</v>
+        <v>44509</v>
       </c>
       <c r="E963" t="n">
         <v>13</v>
@@ -69693,16 +69693,16 @@
         </is>
       </c>
       <c r="J963" t="n">
-        <v>520</v>
+        <v>950</v>
       </c>
       <c r="K963" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="L963" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="M963" t="n">
-        <v>5577</v>
+        <v>12000</v>
       </c>
       <c r="N963" t="inlineStr">
         <is>
@@ -69715,7 +69715,7 @@
         </is>
       </c>
       <c r="P963" t="n">
-        <v>310</v>
+        <v>667</v>
       </c>
       <c r="Q963" t="n">
         <v>18</v>
@@ -69741,7 +69741,7 @@
         </is>
       </c>
       <c r="D964" s="2" t="n">
-        <v>44421</v>
+        <v>44509</v>
       </c>
       <c r="E964" t="n">
         <v>13</v>
@@ -69765,16 +69765,16 @@
         </is>
       </c>
       <c r="J964" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="K964" t="n">
         <v>7000</v>
       </c>
       <c r="L964" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M964" t="n">
-        <v>7560</v>
+        <v>7000</v>
       </c>
       <c r="N964" t="inlineStr">
         <is>
@@ -69787,7 +69787,7 @@
         </is>
       </c>
       <c r="P964" t="n">
-        <v>420</v>
+        <v>389</v>
       </c>
       <c r="Q964" t="n">
         <v>18</v>
@@ -69813,7 +69813,7 @@
         </is>
       </c>
       <c r="D965" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E965" t="n">
         <v>13</v>
@@ -69837,16 +69837,16 @@
         </is>
       </c>
       <c r="J965" t="n">
-        <v>210</v>
+        <v>660</v>
       </c>
       <c r="K965" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="L965" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M965" t="n">
-        <v>12000</v>
+        <v>9667</v>
       </c>
       <c r="N965" t="inlineStr">
         <is>
@@ -69855,11 +69855,11 @@
       </c>
       <c r="O965" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P965" t="n">
-        <v>667</v>
+        <v>537</v>
       </c>
       <c r="Q965" t="n">
         <v>18</v>
@@ -69885,7 +69885,7 @@
         </is>
       </c>
       <c r="D966" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E966" t="n">
         <v>13</v>
@@ -69905,20 +69905,20 @@
       </c>
       <c r="I966" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J966" t="n">
-        <v>600</v>
+        <v>1010</v>
       </c>
       <c r="K966" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="L966" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="M966" t="n">
-        <v>11000</v>
+        <v>12554</v>
       </c>
       <c r="N966" t="inlineStr">
         <is>
@@ -69931,7 +69931,7 @@
         </is>
       </c>
       <c r="P966" t="n">
-        <v>611</v>
+        <v>697</v>
       </c>
       <c r="Q966" t="n">
         <v>18</v>
@@ -69957,7 +69957,7 @@
         </is>
       </c>
       <c r="D967" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E967" t="n">
         <v>13</v>
@@ -69977,20 +69977,20 @@
       </c>
       <c r="I967" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J967" t="n">
-        <v>420</v>
+        <v>940</v>
       </c>
       <c r="K967" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="L967" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="M967" t="n">
-        <v>9000</v>
+        <v>7596</v>
       </c>
       <c r="N967" t="inlineStr">
         <is>
@@ -69999,11 +69999,11 @@
       </c>
       <c r="O967" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P967" t="n">
-        <v>500</v>
+        <v>422</v>
       </c>
       <c r="Q967" t="n">
         <v>18</v>
@@ -70029,7 +70029,7 @@
         </is>
       </c>
       <c r="D968" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E968" t="n">
         <v>13</v>
@@ -70049,20 +70049,20 @@
       </c>
       <c r="I968" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J968" t="n">
-        <v>160</v>
+        <v>1160</v>
       </c>
       <c r="K968" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="L968" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M968" t="n">
-        <v>8000</v>
+        <v>9517</v>
       </c>
       <c r="N968" t="inlineStr">
         <is>
@@ -70075,7 +70075,7 @@
         </is>
       </c>
       <c r="P968" t="n">
-        <v>444</v>
+        <v>529</v>
       </c>
       <c r="Q968" t="n">
         <v>18</v>
@@ -70101,7 +70101,7 @@
         </is>
       </c>
       <c r="D969" s="2" t="n">
-        <v>44244</v>
+        <v>44421</v>
       </c>
       <c r="E969" t="n">
         <v>13</v>
@@ -70121,20 +70121,20 @@
       </c>
       <c r="I969" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J969" t="n">
-        <v>760</v>
+        <v>520</v>
       </c>
       <c r="K969" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="L969" t="n">
-        <v>13000</v>
+        <v>6000</v>
       </c>
       <c r="M969" t="n">
-        <v>12474</v>
+        <v>5577</v>
       </c>
       <c r="N969" t="inlineStr">
         <is>
@@ -70147,7 +70147,7 @@
         </is>
       </c>
       <c r="P969" t="n">
-        <v>693</v>
+        <v>310</v>
       </c>
       <c r="Q969" t="n">
         <v>18</v>
@@ -70173,7 +70173,7 @@
         </is>
       </c>
       <c r="D970" s="2" t="n">
-        <v>44244</v>
+        <v>44421</v>
       </c>
       <c r="E970" t="n">
         <v>13</v>
@@ -70193,20 +70193,20 @@
       </c>
       <c r="I970" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J970" t="n">
-        <v>890</v>
+        <v>500</v>
       </c>
       <c r="K970" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="L970" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M970" t="n">
-        <v>9494</v>
+        <v>7560</v>
       </c>
       <c r="N970" t="inlineStr">
         <is>
@@ -70215,11 +70215,11 @@
       </c>
       <c r="O970" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P970" t="n">
-        <v>527</v>
+        <v>420</v>
       </c>
       <c r="Q970" t="n">
         <v>18</v>
@@ -70245,7 +70245,7 @@
         </is>
       </c>
       <c r="D971" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E971" t="n">
         <v>13</v>
@@ -70265,20 +70265,20 @@
       </c>
       <c r="I971" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J971" t="n">
-        <v>630</v>
+        <v>210</v>
       </c>
       <c r="K971" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="L971" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="M971" t="n">
-        <v>5556</v>
+        <v>12000</v>
       </c>
       <c r="N971" t="inlineStr">
         <is>
@@ -70287,11 +70287,11 @@
       </c>
       <c r="O971" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P971" t="n">
-        <v>309</v>
+        <v>667</v>
       </c>
       <c r="Q971" t="n">
         <v>18</v>
@@ -70317,7 +70317,7 @@
         </is>
       </c>
       <c r="D972" s="2" t="n">
-        <v>44307</v>
+        <v>44383</v>
       </c>
       <c r="E972" t="n">
         <v>13</v>
@@ -70337,20 +70337,20 @@
       </c>
       <c r="I972" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J972" t="n">
-        <v>780</v>
+        <v>600</v>
       </c>
       <c r="K972" t="n">
         <v>11000</v>
       </c>
       <c r="L972" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="M972" t="n">
-        <v>11615</v>
+        <v>11000</v>
       </c>
       <c r="N972" t="inlineStr">
         <is>
@@ -70359,11 +70359,11 @@
       </c>
       <c r="O972" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P972" t="n">
-        <v>645</v>
+        <v>611</v>
       </c>
       <c r="Q972" t="n">
         <v>18</v>
@@ -70389,7 +70389,7 @@
         </is>
       </c>
       <c r="D973" s="2" t="n">
-        <v>44307</v>
+        <v>44383</v>
       </c>
       <c r="E973" t="n">
         <v>13</v>
@@ -70409,20 +70409,20 @@
       </c>
       <c r="I973" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J973" t="n">
-        <v>790</v>
+        <v>420</v>
       </c>
       <c r="K973" t="n">
-        <v>9500</v>
+        <v>9000</v>
       </c>
       <c r="L973" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="M973" t="n">
-        <v>9722</v>
+        <v>9000</v>
       </c>
       <c r="N973" t="inlineStr">
         <is>
@@ -70431,11 +70431,11 @@
       </c>
       <c r="O973" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P973" t="n">
-        <v>540</v>
+        <v>500</v>
       </c>
       <c r="Q973" t="n">
         <v>18</v>
@@ -70461,7 +70461,7 @@
         </is>
       </c>
       <c r="D974" s="2" t="n">
-        <v>44307</v>
+        <v>44383</v>
       </c>
       <c r="E974" t="n">
         <v>13</v>
@@ -70481,20 +70481,20 @@
       </c>
       <c r="I974" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J974" t="n">
-        <v>560</v>
+        <v>160</v>
       </c>
       <c r="K974" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="L974" t="n">
         <v>8000</v>
       </c>
       <c r="M974" t="n">
-        <v>7741</v>
+        <v>8000</v>
       </c>
       <c r="N974" t="inlineStr">
         <is>
@@ -70503,11 +70503,11 @@
       </c>
       <c r="O974" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P974" t="n">
-        <v>430</v>
+        <v>444</v>
       </c>
       <c r="Q974" t="n">
         <v>18</v>
@@ -70533,7 +70533,7 @@
         </is>
       </c>
       <c r="D975" s="2" t="n">
-        <v>44273</v>
+        <v>44244</v>
       </c>
       <c r="E975" t="n">
         <v>13</v>
@@ -70557,16 +70557,16 @@
         </is>
       </c>
       <c r="J975" t="n">
-        <v>800</v>
+        <v>760</v>
       </c>
       <c r="K975" t="n">
-        <v>11500</v>
+        <v>12000</v>
       </c>
       <c r="L975" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="M975" t="n">
-        <v>11762</v>
+        <v>12474</v>
       </c>
       <c r="N975" t="inlineStr">
         <is>
@@ -70579,7 +70579,7 @@
         </is>
       </c>
       <c r="P975" t="n">
-        <v>653</v>
+        <v>693</v>
       </c>
       <c r="Q975" t="n">
         <v>18</v>
@@ -70605,7 +70605,7 @@
         </is>
       </c>
       <c r="D976" s="2" t="n">
-        <v>44273</v>
+        <v>44244</v>
       </c>
       <c r="E976" t="n">
         <v>13</v>
@@ -70629,16 +70629,16 @@
         </is>
       </c>
       <c r="J976" t="n">
-        <v>860</v>
+        <v>890</v>
       </c>
       <c r="K976" t="n">
-        <v>9500</v>
+        <v>9000</v>
       </c>
       <c r="L976" t="n">
         <v>10000</v>
       </c>
       <c r="M976" t="n">
-        <v>9767</v>
+        <v>9494</v>
       </c>
       <c r="N976" t="inlineStr">
         <is>
@@ -70651,7 +70651,7 @@
         </is>
       </c>
       <c r="P976" t="n">
-        <v>543</v>
+        <v>527</v>
       </c>
       <c r="Q976" t="n">
         <v>18</v>
@@ -70677,7 +70677,7 @@
         </is>
       </c>
       <c r="D977" s="2" t="n">
-        <v>44273</v>
+        <v>44244</v>
       </c>
       <c r="E977" t="n">
         <v>13</v>
@@ -70701,16 +70701,16 @@
         </is>
       </c>
       <c r="J977" t="n">
-        <v>550</v>
+        <v>630</v>
       </c>
       <c r="K977" t="n">
-        <v>8500</v>
+        <v>5000</v>
       </c>
       <c r="L977" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="M977" t="n">
-        <v>8727</v>
+        <v>5556</v>
       </c>
       <c r="N977" t="inlineStr">
         <is>
@@ -70723,7 +70723,7 @@
         </is>
       </c>
       <c r="P977" t="n">
-        <v>485</v>
+        <v>309</v>
       </c>
       <c r="Q977" t="n">
         <v>18</v>
@@ -70749,7 +70749,7 @@
         </is>
       </c>
       <c r="D978" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E978" t="n">
         <v>13</v>
@@ -70764,7 +70764,7 @@
       </c>
       <c r="H978" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I978" t="inlineStr">
@@ -70773,16 +70773,16 @@
         </is>
       </c>
       <c r="J978" t="n">
-        <v>180</v>
+        <v>780</v>
       </c>
       <c r="K978" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="L978" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="M978" t="n">
-        <v>7000</v>
+        <v>11615</v>
       </c>
       <c r="N978" t="inlineStr">
         <is>
@@ -70791,11 +70791,11 @@
       </c>
       <c r="O978" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P978" t="n">
-        <v>389</v>
+        <v>645</v>
       </c>
       <c r="Q978" t="n">
         <v>18</v>
@@ -70821,7 +70821,7 @@
         </is>
       </c>
       <c r="D979" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E979" t="n">
         <v>13</v>
@@ -70836,7 +70836,7 @@
       </c>
       <c r="H979" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I979" t="inlineStr">
@@ -70845,16 +70845,16 @@
         </is>
       </c>
       <c r="J979" t="n">
-        <v>200</v>
+        <v>790</v>
       </c>
       <c r="K979" t="n">
-        <v>5000</v>
+        <v>9500</v>
       </c>
       <c r="L979" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="M979" t="n">
-        <v>5000</v>
+        <v>9722</v>
       </c>
       <c r="N979" t="inlineStr">
         <is>
@@ -70863,11 +70863,11 @@
       </c>
       <c r="O979" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P979" t="n">
-        <v>278</v>
+        <v>540</v>
       </c>
       <c r="Q979" t="n">
         <v>18</v>
@@ -70893,7 +70893,7 @@
         </is>
       </c>
       <c r="D980" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E980" t="n">
         <v>13</v>
@@ -70908,7 +70908,7 @@
       </c>
       <c r="H980" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I980" t="inlineStr">
@@ -70917,16 +70917,16 @@
         </is>
       </c>
       <c r="J980" t="n">
-        <v>170</v>
+        <v>560</v>
       </c>
       <c r="K980" t="n">
-        <v>4000</v>
+        <v>7500</v>
       </c>
       <c r="L980" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="M980" t="n">
-        <v>4000</v>
+        <v>7741</v>
       </c>
       <c r="N980" t="inlineStr">
         <is>
@@ -70935,11 +70935,11 @@
       </c>
       <c r="O980" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P980" t="n">
-        <v>222</v>
+        <v>430</v>
       </c>
       <c r="Q980" t="n">
         <v>18</v>
@@ -70965,7 +70965,7 @@
         </is>
       </c>
       <c r="D981" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E981" t="n">
         <v>13</v>
@@ -70989,16 +70989,16 @@
         </is>
       </c>
       <c r="J981" t="n">
-        <v>1060</v>
+        <v>800</v>
       </c>
       <c r="K981" t="n">
-        <v>11000</v>
+        <v>11500</v>
       </c>
       <c r="L981" t="n">
         <v>12000</v>
       </c>
       <c r="M981" t="n">
-        <v>11547</v>
+        <v>11762</v>
       </c>
       <c r="N981" t="inlineStr">
         <is>
@@ -71007,11 +71007,11 @@
       </c>
       <c r="O981" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P981" t="n">
-        <v>642</v>
+        <v>653</v>
       </c>
       <c r="Q981" t="n">
         <v>18</v>
@@ -71037,7 +71037,7 @@
         </is>
       </c>
       <c r="D982" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E982" t="n">
         <v>13</v>
@@ -71061,16 +71061,16 @@
         </is>
       </c>
       <c r="J982" t="n">
-        <v>600</v>
+        <v>860</v>
       </c>
       <c r="K982" t="n">
-        <v>5000</v>
+        <v>9500</v>
       </c>
       <c r="L982" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="M982" t="n">
-        <v>5533</v>
+        <v>9767</v>
       </c>
       <c r="N982" t="inlineStr">
         <is>
@@ -71083,7 +71083,7 @@
         </is>
       </c>
       <c r="P982" t="n">
-        <v>307</v>
+        <v>543</v>
       </c>
       <c r="Q982" t="n">
         <v>18</v>
@@ -71109,7 +71109,7 @@
         </is>
       </c>
       <c r="D983" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E983" t="n">
         <v>13</v>
@@ -71129,20 +71129,20 @@
       </c>
       <c r="I983" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J983" t="n">
-        <v>960</v>
+        <v>550</v>
       </c>
       <c r="K983" t="n">
+        <v>8500</v>
+      </c>
+      <c r="L983" t="n">
         <v>9000</v>
       </c>
-      <c r="L983" t="n">
-        <v>10000</v>
-      </c>
       <c r="M983" t="n">
-        <v>9542</v>
+        <v>8727</v>
       </c>
       <c r="N983" t="inlineStr">
         <is>
@@ -71151,11 +71151,11 @@
       </c>
       <c r="O983" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P983" t="n">
-        <v>530</v>
+        <v>485</v>
       </c>
       <c r="Q983" t="n">
         <v>18</v>
@@ -71181,7 +71181,7 @@
         </is>
       </c>
       <c r="D984" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E984" t="n">
         <v>13</v>
@@ -71196,25 +71196,25 @@
       </c>
       <c r="H984" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I984" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J984" t="n">
-        <v>470</v>
+        <v>180</v>
       </c>
       <c r="K984" t="n">
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="L984" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="M984" t="n">
-        <v>3553</v>
+        <v>7000</v>
       </c>
       <c r="N984" t="inlineStr">
         <is>
@@ -71223,11 +71223,11 @@
       </c>
       <c r="O984" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P984" t="n">
-        <v>197</v>
+        <v>389</v>
       </c>
       <c r="Q984" t="n">
         <v>18</v>
@@ -71253,7 +71253,7 @@
         </is>
       </c>
       <c r="D985" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E985" t="n">
         <v>13</v>
@@ -71268,25 +71268,25 @@
       </c>
       <c r="H985" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I985" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J985" t="n">
-        <v>640</v>
+        <v>200</v>
       </c>
       <c r="K985" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="L985" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="M985" t="n">
-        <v>6531</v>
+        <v>5000</v>
       </c>
       <c r="N985" t="inlineStr">
         <is>
@@ -71295,11 +71295,11 @@
       </c>
       <c r="O985" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P985" t="n">
-        <v>363</v>
+        <v>278</v>
       </c>
       <c r="Q985" t="n">
         <v>18</v>
@@ -71325,7 +71325,7 @@
         </is>
       </c>
       <c r="D986" s="2" t="n">
-        <v>44302</v>
+        <v>44273</v>
       </c>
       <c r="E986" t="n">
         <v>13</v>
@@ -71340,25 +71340,25 @@
       </c>
       <c r="H986" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I986" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J986" t="n">
-        <v>240</v>
+        <v>170</v>
       </c>
       <c r="K986" t="n">
-        <v>12000</v>
+        <v>4000</v>
       </c>
       <c r="L986" t="n">
-        <v>12000</v>
+        <v>4000</v>
       </c>
       <c r="M986" t="n">
-        <v>12000</v>
+        <v>4000</v>
       </c>
       <c r="N986" t="inlineStr">
         <is>
@@ -71367,11 +71367,11 @@
       </c>
       <c r="O986" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P986" t="n">
-        <v>667</v>
+        <v>222</v>
       </c>
       <c r="Q986" t="n">
         <v>18</v>
@@ -71397,7 +71397,7 @@
         </is>
       </c>
       <c r="D987" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E987" t="n">
         <v>13</v>
@@ -71417,20 +71417,20 @@
       </c>
       <c r="I987" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J987" t="n">
-        <v>480</v>
+        <v>1060</v>
       </c>
       <c r="K987" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="L987" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M987" t="n">
-        <v>10000</v>
+        <v>11547</v>
       </c>
       <c r="N987" t="inlineStr">
         <is>
@@ -71439,11 +71439,11 @@
       </c>
       <c r="O987" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P987" t="n">
-        <v>556</v>
+        <v>642</v>
       </c>
       <c r="Q987" t="n">
         <v>18</v>
@@ -71469,7 +71469,7 @@
         </is>
       </c>
       <c r="D988" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E988" t="n">
         <v>13</v>
@@ -71489,20 +71489,20 @@
       </c>
       <c r="I988" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J988" t="n">
-        <v>360</v>
+        <v>600</v>
       </c>
       <c r="K988" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="L988" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="M988" t="n">
-        <v>8000</v>
+        <v>5533</v>
       </c>
       <c r="N988" t="inlineStr">
         <is>
@@ -71511,11 +71511,11 @@
       </c>
       <c r="O988" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P988" t="n">
-        <v>444</v>
+        <v>307</v>
       </c>
       <c r="Q988" t="n">
         <v>18</v>
@@ -71541,7 +71541,7 @@
         </is>
       </c>
       <c r="D989" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E989" t="n">
         <v>13</v>
@@ -71561,20 +71561,20 @@
       </c>
       <c r="I989" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J989" t="n">
-        <v>180</v>
+        <v>960</v>
       </c>
       <c r="K989" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L989" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M989" t="n">
-        <v>7000</v>
+        <v>9542</v>
       </c>
       <c r="N989" t="inlineStr">
         <is>
@@ -71583,11 +71583,11 @@
       </c>
       <c r="O989" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P989" t="n">
-        <v>389</v>
+        <v>530</v>
       </c>
       <c r="Q989" t="n">
         <v>18</v>
@@ -71613,7 +71613,7 @@
         </is>
       </c>
       <c r="D990" s="2" t="n">
-        <v>44179</v>
+        <v>44433</v>
       </c>
       <c r="E990" t="n">
         <v>13</v>
@@ -71633,20 +71633,20 @@
       </c>
       <c r="I990" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J990" t="n">
-        <v>180</v>
+        <v>470</v>
       </c>
       <c r="K990" t="n">
-        <v>13000</v>
+        <v>3000</v>
       </c>
       <c r="L990" t="n">
-        <v>13000</v>
+        <v>4000</v>
       </c>
       <c r="M990" t="n">
-        <v>13000</v>
+        <v>3553</v>
       </c>
       <c r="N990" t="inlineStr">
         <is>
@@ -71655,11 +71655,11 @@
       </c>
       <c r="O990" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P990" t="n">
-        <v>722</v>
+        <v>197</v>
       </c>
       <c r="Q990" t="n">
         <v>18</v>
@@ -71685,7 +71685,7 @@
         </is>
       </c>
       <c r="D991" s="2" t="n">
-        <v>44179</v>
+        <v>44433</v>
       </c>
       <c r="E991" t="n">
         <v>13</v>
@@ -71705,20 +71705,20 @@
       </c>
       <c r="I991" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J991" t="n">
-        <v>210</v>
+        <v>640</v>
       </c>
       <c r="K991" t="n">
-        <v>11000</v>
+        <v>6000</v>
       </c>
       <c r="L991" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="M991" t="n">
-        <v>11000</v>
+        <v>6531</v>
       </c>
       <c r="N991" t="inlineStr">
         <is>
@@ -71727,11 +71727,11 @@
       </c>
       <c r="O991" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P991" t="n">
-        <v>611</v>
+        <v>363</v>
       </c>
       <c r="Q991" t="n">
         <v>18</v>
@@ -71757,7 +71757,7 @@
         </is>
       </c>
       <c r="D992" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E992" t="n">
         <v>13</v>
@@ -71777,20 +71777,20 @@
       </c>
       <c r="I992" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J992" t="n">
-        <v>150</v>
+        <v>240</v>
       </c>
       <c r="K992" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="L992" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="M992" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="N992" t="inlineStr">
         <is>
@@ -71803,7 +71803,7 @@
         </is>
       </c>
       <c r="P992" t="n">
-        <v>500</v>
+        <v>667</v>
       </c>
       <c r="Q992" t="n">
         <v>18</v>
@@ -71829,7 +71829,7 @@
         </is>
       </c>
       <c r="D993" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E993" t="n">
         <v>13</v>
@@ -71849,20 +71849,20 @@
       </c>
       <c r="I993" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J993" t="n">
-        <v>130</v>
+        <v>480</v>
       </c>
       <c r="K993" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L993" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M993" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="N993" t="inlineStr">
         <is>
@@ -71875,7 +71875,7 @@
         </is>
       </c>
       <c r="P993" t="n">
-        <v>389</v>
+        <v>556</v>
       </c>
       <c r="Q993" t="n">
         <v>18</v>
@@ -71901,7 +71901,7 @@
         </is>
       </c>
       <c r="D994" s="2" t="n">
-        <v>44491</v>
+        <v>44302</v>
       </c>
       <c r="E994" t="n">
         <v>13</v>
@@ -71921,20 +71921,20 @@
       </c>
       <c r="I994" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J994" t="n">
-        <v>660</v>
+        <v>360</v>
       </c>
       <c r="K994" t="n">
-        <v>19000</v>
+        <v>8000</v>
       </c>
       <c r="L994" t="n">
-        <v>19500</v>
+        <v>8000</v>
       </c>
       <c r="M994" t="n">
-        <v>19265</v>
+        <v>8000</v>
       </c>
       <c r="N994" t="inlineStr">
         <is>
@@ -71943,11 +71943,11 @@
       </c>
       <c r="O994" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P994" t="n">
-        <v>1070</v>
+        <v>444</v>
       </c>
       <c r="Q994" t="n">
         <v>18</v>
@@ -71973,7 +71973,7 @@
         </is>
       </c>
       <c r="D995" s="2" t="n">
-        <v>44491</v>
+        <v>44302</v>
       </c>
       <c r="E995" t="n">
         <v>13</v>
@@ -71993,20 +71993,20 @@
       </c>
       <c r="I995" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J995" t="n">
-        <v>650</v>
+        <v>180</v>
       </c>
       <c r="K995" t="n">
-        <v>17000</v>
+        <v>7000</v>
       </c>
       <c r="L995" t="n">
-        <v>17000</v>
+        <v>7000</v>
       </c>
       <c r="M995" t="n">
-        <v>17000</v>
+        <v>7000</v>
       </c>
       <c r="N995" t="inlineStr">
         <is>
@@ -72015,11 +72015,11 @@
       </c>
       <c r="O995" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P995" t="n">
-        <v>944</v>
+        <v>389</v>
       </c>
       <c r="Q995" t="n">
         <v>18</v>
@@ -72045,7 +72045,7 @@
         </is>
       </c>
       <c r="D996" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E996" t="n">
         <v>13</v>
@@ -72065,20 +72065,20 @@
       </c>
       <c r="I996" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J996" t="n">
-        <v>760</v>
+        <v>180</v>
       </c>
       <c r="K996" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="L996" t="n">
-        <v>16500</v>
+        <v>13000</v>
       </c>
       <c r="M996" t="n">
-        <v>16270</v>
+        <v>13000</v>
       </c>
       <c r="N996" t="inlineStr">
         <is>
@@ -72087,11 +72087,11 @@
       </c>
       <c r="O996" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P996" t="n">
-        <v>904</v>
+        <v>722</v>
       </c>
       <c r="Q996" t="n">
         <v>18</v>
@@ -72117,7 +72117,7 @@
         </is>
       </c>
       <c r="D997" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E997" t="n">
         <v>13</v>
@@ -72141,16 +72141,16 @@
         </is>
       </c>
       <c r="J997" t="n">
-        <v>580</v>
+        <v>210</v>
       </c>
       <c r="K997" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="L997" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="M997" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="N997" t="inlineStr">
         <is>
@@ -72159,11 +72159,11 @@
       </c>
       <c r="O997" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P997" t="n">
-        <v>833</v>
+        <v>611</v>
       </c>
       <c r="Q997" t="n">
         <v>18</v>
@@ -72189,7 +72189,7 @@
         </is>
       </c>
       <c r="D998" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E998" t="n">
         <v>13</v>
@@ -72213,16 +72213,16 @@
         </is>
       </c>
       <c r="J998" t="n">
-        <v>700</v>
+        <v>150</v>
       </c>
       <c r="K998" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="L998" t="n">
-        <v>13500</v>
+        <v>9000</v>
       </c>
       <c r="M998" t="n">
-        <v>13214</v>
+        <v>9000</v>
       </c>
       <c r="N998" t="inlineStr">
         <is>
@@ -72231,11 +72231,11 @@
       </c>
       <c r="O998" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P998" t="n">
-        <v>734</v>
+        <v>500</v>
       </c>
       <c r="Q998" t="n">
         <v>18</v>
@@ -72261,58 +72261,490 @@
         </is>
       </c>
       <c r="D999" s="2" t="n">
+        <v>44179</v>
+      </c>
+      <c r="E999" t="n">
+        <v>13</v>
+      </c>
+      <c r="F999" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G999" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H999" t="inlineStr">
+        <is>
+          <t>Larga vida</t>
+        </is>
+      </c>
+      <c r="I999" t="inlineStr">
+        <is>
+          <t>Tercera</t>
+        </is>
+      </c>
+      <c r="J999" t="n">
+        <v>130</v>
+      </c>
+      <c r="K999" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L999" t="n">
+        <v>7000</v>
+      </c>
+      <c r="M999" t="n">
+        <v>7000</v>
+      </c>
+      <c r="N999" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O999" t="inlineStr">
+        <is>
+          <t>Limache</t>
+        </is>
+      </c>
+      <c r="P999" t="n">
+        <v>389</v>
+      </c>
+      <c r="Q999" t="n">
+        <v>18</v>
+      </c>
+      <c r="R999" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1000">
+      <c r="A1000" t="n">
+        <v>12</v>
+      </c>
+      <c r="B1000" t="inlineStr">
+        <is>
+          <t>Mapocho Venta Directa de Santiago</t>
+        </is>
+      </c>
+      <c r="C1000" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1000" s="2" t="n">
         <v>44491</v>
       </c>
-      <c r="E999" t="n">
-        <v>13</v>
-      </c>
-      <c r="F999" t="n">
-        <v>100112020</v>
-      </c>
-      <c r="G999" t="inlineStr">
-        <is>
-          <t>Tomate</t>
-        </is>
-      </c>
-      <c r="H999" t="inlineStr">
-        <is>
-          <t>Larga vida</t>
-        </is>
-      </c>
-      <c r="I999" t="inlineStr">
+      <c r="E1000" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1000" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G1000" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H1000" t="inlineStr">
+        <is>
+          <t>Larga vida</t>
+        </is>
+      </c>
+      <c r="I1000" t="inlineStr">
+        <is>
+          <t>Extra</t>
+        </is>
+      </c>
+      <c r="J1000" t="n">
+        <v>660</v>
+      </c>
+      <c r="K1000" t="n">
+        <v>19000</v>
+      </c>
+      <c r="L1000" t="n">
+        <v>19500</v>
+      </c>
+      <c r="M1000" t="n">
+        <v>19265</v>
+      </c>
+      <c r="N1000" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O1000" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="P1000" t="n">
+        <v>1070</v>
+      </c>
+      <c r="Q1000" t="n">
+        <v>18</v>
+      </c>
+      <c r="R1000" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1001">
+      <c r="A1001" t="n">
+        <v>12</v>
+      </c>
+      <c r="B1001" t="inlineStr">
+        <is>
+          <t>Mapocho Venta Directa de Santiago</t>
+        </is>
+      </c>
+      <c r="C1001" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1001" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E1001" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1001" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G1001" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H1001" t="inlineStr">
+        <is>
+          <t>Larga vida</t>
+        </is>
+      </c>
+      <c r="I1001" t="inlineStr">
+        <is>
+          <t>Extra</t>
+        </is>
+      </c>
+      <c r="J1001" t="n">
+        <v>650</v>
+      </c>
+      <c r="K1001" t="n">
+        <v>17000</v>
+      </c>
+      <c r="L1001" t="n">
+        <v>17000</v>
+      </c>
+      <c r="M1001" t="n">
+        <v>17000</v>
+      </c>
+      <c r="N1001" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O1001" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P1001" t="n">
+        <v>944</v>
+      </c>
+      <c r="Q1001" t="n">
+        <v>18</v>
+      </c>
+      <c r="R1001" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1002">
+      <c r="A1002" t="n">
+        <v>12</v>
+      </c>
+      <c r="B1002" t="inlineStr">
+        <is>
+          <t>Mapocho Venta Directa de Santiago</t>
+        </is>
+      </c>
+      <c r="C1002" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1002" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E1002" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1002" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G1002" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H1002" t="inlineStr">
+        <is>
+          <t>Larga vida</t>
+        </is>
+      </c>
+      <c r="I1002" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1002" t="n">
+        <v>760</v>
+      </c>
+      <c r="K1002" t="n">
+        <v>16000</v>
+      </c>
+      <c r="L1002" t="n">
+        <v>16500</v>
+      </c>
+      <c r="M1002" t="n">
+        <v>16270</v>
+      </c>
+      <c r="N1002" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O1002" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="P1002" t="n">
+        <v>904</v>
+      </c>
+      <c r="Q1002" t="n">
+        <v>18</v>
+      </c>
+      <c r="R1002" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1003">
+      <c r="A1003" t="n">
+        <v>12</v>
+      </c>
+      <c r="B1003" t="inlineStr">
+        <is>
+          <t>Mapocho Venta Directa de Santiago</t>
+        </is>
+      </c>
+      <c r="C1003" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1003" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E1003" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1003" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G1003" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H1003" t="inlineStr">
+        <is>
+          <t>Larga vida</t>
+        </is>
+      </c>
+      <c r="I1003" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1003" t="n">
+        <v>580</v>
+      </c>
+      <c r="K1003" t="n">
+        <v>15000</v>
+      </c>
+      <c r="L1003" t="n">
+        <v>15000</v>
+      </c>
+      <c r="M1003" t="n">
+        <v>15000</v>
+      </c>
+      <c r="N1003" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O1003" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P1003" t="n">
+        <v>833</v>
+      </c>
+      <c r="Q1003" t="n">
+        <v>18</v>
+      </c>
+      <c r="R1003" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1004">
+      <c r="A1004" t="n">
+        <v>12</v>
+      </c>
+      <c r="B1004" t="inlineStr">
+        <is>
+          <t>Mapocho Venta Directa de Santiago</t>
+        </is>
+      </c>
+      <c r="C1004" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1004" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E1004" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1004" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G1004" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H1004" t="inlineStr">
+        <is>
+          <t>Larga vida</t>
+        </is>
+      </c>
+      <c r="I1004" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="J999" t="n">
+      <c r="J1004" t="n">
+        <v>700</v>
+      </c>
+      <c r="K1004" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L1004" t="n">
+        <v>13500</v>
+      </c>
+      <c r="M1004" t="n">
+        <v>13214</v>
+      </c>
+      <c r="N1004" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O1004" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="P1004" t="n">
+        <v>734</v>
+      </c>
+      <c r="Q1004" t="n">
+        <v>18</v>
+      </c>
+      <c r="R1004" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1005">
+      <c r="A1005" t="n">
+        <v>12</v>
+      </c>
+      <c r="B1005" t="inlineStr">
+        <is>
+          <t>Mapocho Venta Directa de Santiago</t>
+        </is>
+      </c>
+      <c r="C1005" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1005" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E1005" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1005" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G1005" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H1005" t="inlineStr">
+        <is>
+          <t>Larga vida</t>
+        </is>
+      </c>
+      <c r="I1005" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J1005" t="n">
         <v>600</v>
       </c>
-      <c r="K999" t="n">
+      <c r="K1005" t="n">
         <v>13000</v>
       </c>
-      <c r="L999" t="n">
+      <c r="L1005" t="n">
         <v>13000</v>
       </c>
-      <c r="M999" t="n">
+      <c r="M1005" t="n">
         <v>13000</v>
       </c>
-      <c r="N999" t="inlineStr">
-        <is>
-          <t>$/bandeja 18 kilos</t>
-        </is>
-      </c>
-      <c r="O999" t="inlineStr">
+      <c r="N1005" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O1005" t="inlineStr">
         <is>
           <t>Región de Arica y Parinacota</t>
         </is>
       </c>
-      <c r="P999" t="n">
+      <c r="P1005" t="n">
         <v>722</v>
       </c>
-      <c r="Q999" t="n">
-        <v>18</v>
-      </c>
-      <c r="R999" t="inlineStr">
+      <c r="Q1005" t="n">
+        <v>18</v>
+      </c>
+      <c r="R1005" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Tomate.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Tomate.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1011"/>
+  <dimension ref="A1:R1017"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -59373,7 +59373,7 @@
         </is>
       </c>
       <c r="D820" s="2" t="n">
-        <v>44306</v>
+        <v>44511</v>
       </c>
       <c r="E820" t="n">
         <v>13</v>
@@ -59397,16 +59397,16 @@
         </is>
       </c>
       <c r="J820" t="n">
-        <v>1040</v>
+        <v>930</v>
       </c>
       <c r="K820" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="L820" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="M820" t="n">
-        <v>11538</v>
+        <v>15516</v>
       </c>
       <c r="N820" t="inlineStr">
         <is>
@@ -59419,7 +59419,7 @@
         </is>
       </c>
       <c r="P820" t="n">
-        <v>641</v>
+        <v>862</v>
       </c>
       <c r="Q820" t="n">
         <v>18</v>
@@ -59445,7 +59445,7 @@
         </is>
       </c>
       <c r="D821" s="2" t="n">
-        <v>44306</v>
+        <v>44511</v>
       </c>
       <c r="E821" t="n">
         <v>13</v>
@@ -59465,20 +59465,20 @@
       </c>
       <c r="I821" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J821" t="n">
-        <v>1030</v>
+        <v>550</v>
       </c>
       <c r="K821" t="n">
-        <v>9500</v>
+        <v>11000</v>
       </c>
       <c r="L821" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M821" t="n">
-        <v>9782</v>
+        <v>11000</v>
       </c>
       <c r="N821" t="inlineStr">
         <is>
@@ -59487,11 +59487,11 @@
       </c>
       <c r="O821" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P821" t="n">
-        <v>543</v>
+        <v>611</v>
       </c>
       <c r="Q821" t="n">
         <v>18</v>
@@ -59517,7 +59517,7 @@
         </is>
       </c>
       <c r="D822" s="2" t="n">
-        <v>44306</v>
+        <v>44511</v>
       </c>
       <c r="E822" t="n">
         <v>13</v>
@@ -59537,20 +59537,20 @@
       </c>
       <c r="I822" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J822" t="n">
-        <v>750</v>
+        <v>970</v>
       </c>
       <c r="K822" t="n">
-        <v>7500</v>
+        <v>13000</v>
       </c>
       <c r="L822" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="M822" t="n">
-        <v>7733</v>
+        <v>13464</v>
       </c>
       <c r="N822" t="inlineStr">
         <is>
@@ -59563,7 +59563,7 @@
         </is>
       </c>
       <c r="P822" t="n">
-        <v>430</v>
+        <v>748</v>
       </c>
       <c r="Q822" t="n">
         <v>18</v>
@@ -59589,7 +59589,7 @@
         </is>
       </c>
       <c r="D823" s="2" t="n">
-        <v>44211</v>
+        <v>44511</v>
       </c>
       <c r="E823" t="n">
         <v>13</v>
@@ -59609,20 +59609,20 @@
       </c>
       <c r="I823" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J823" t="n">
-        <v>840</v>
+        <v>410</v>
       </c>
       <c r="K823" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="L823" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="M823" t="n">
-        <v>13548</v>
+        <v>10000</v>
       </c>
       <c r="N823" t="inlineStr">
         <is>
@@ -59631,11 +59631,11 @@
       </c>
       <c r="O823" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P823" t="n">
-        <v>753</v>
+        <v>556</v>
       </c>
       <c r="Q823" t="n">
         <v>18</v>
@@ -59661,7 +59661,7 @@
         </is>
       </c>
       <c r="D824" s="2" t="n">
-        <v>44211</v>
+        <v>44511</v>
       </c>
       <c r="E824" t="n">
         <v>13</v>
@@ -59681,20 +59681,20 @@
       </c>
       <c r="I824" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J824" t="n">
-        <v>1130</v>
+        <v>1050</v>
       </c>
       <c r="K824" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="L824" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="M824" t="n">
-        <v>11575</v>
+        <v>8619</v>
       </c>
       <c r="N824" t="inlineStr">
         <is>
@@ -59707,7 +59707,7 @@
         </is>
       </c>
       <c r="P824" t="n">
-        <v>643</v>
+        <v>479</v>
       </c>
       <c r="Q824" t="n">
         <v>18</v>
@@ -59733,7 +59733,7 @@
         </is>
       </c>
       <c r="D825" s="2" t="n">
-        <v>44211</v>
+        <v>44511</v>
       </c>
       <c r="E825" t="n">
         <v>13</v>
@@ -59757,16 +59757,16 @@
         </is>
       </c>
       <c r="J825" t="n">
-        <v>780</v>
+        <v>440</v>
       </c>
       <c r="K825" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L825" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M825" t="n">
-        <v>8615</v>
+        <v>7000</v>
       </c>
       <c r="N825" t="inlineStr">
         <is>
@@ -59775,11 +59775,11 @@
       </c>
       <c r="O825" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P825" t="n">
-        <v>479</v>
+        <v>389</v>
       </c>
       <c r="Q825" t="n">
         <v>18</v>
@@ -59805,7 +59805,7 @@
         </is>
       </c>
       <c r="D826" s="2" t="n">
-        <v>44211</v>
+        <v>44306</v>
       </c>
       <c r="E826" t="n">
         <v>13</v>
@@ -59820,7 +59820,7 @@
       </c>
       <c r="H826" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I826" t="inlineStr">
@@ -59829,16 +59829,16 @@
         </is>
       </c>
       <c r="J826" t="n">
-        <v>590</v>
+        <v>1040</v>
       </c>
       <c r="K826" t="n">
-        <v>9500</v>
+        <v>11000</v>
       </c>
       <c r="L826" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M826" t="n">
-        <v>9788</v>
+        <v>11538</v>
       </c>
       <c r="N826" t="inlineStr">
         <is>
@@ -59847,11 +59847,11 @@
       </c>
       <c r="O826" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P826" t="n">
-        <v>544</v>
+        <v>641</v>
       </c>
       <c r="Q826" t="n">
         <v>18</v>
@@ -59877,7 +59877,7 @@
         </is>
       </c>
       <c r="D827" s="2" t="n">
-        <v>44211</v>
+        <v>44306</v>
       </c>
       <c r="E827" t="n">
         <v>13</v>
@@ -59892,7 +59892,7 @@
       </c>
       <c r="H827" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I827" t="inlineStr">
@@ -59901,16 +59901,16 @@
         </is>
       </c>
       <c r="J827" t="n">
-        <v>580</v>
+        <v>1030</v>
       </c>
       <c r="K827" t="n">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="L827" t="n">
-        <v>8500</v>
+        <v>10000</v>
       </c>
       <c r="M827" t="n">
-        <v>8259</v>
+        <v>9782</v>
       </c>
       <c r="N827" t="inlineStr">
         <is>
@@ -59919,11 +59919,11 @@
       </c>
       <c r="O827" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P827" t="n">
-        <v>459</v>
+        <v>543</v>
       </c>
       <c r="Q827" t="n">
         <v>18</v>
@@ -59949,7 +59949,7 @@
         </is>
       </c>
       <c r="D828" s="2" t="n">
-        <v>44211</v>
+        <v>44306</v>
       </c>
       <c r="E828" t="n">
         <v>13</v>
@@ -59964,7 +59964,7 @@
       </c>
       <c r="H828" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I828" t="inlineStr">
@@ -59973,16 +59973,16 @@
         </is>
       </c>
       <c r="J828" t="n">
-        <v>550</v>
+        <v>750</v>
       </c>
       <c r="K828" t="n">
-        <v>5000</v>
+        <v>7500</v>
       </c>
       <c r="L828" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M828" t="n">
-        <v>5545</v>
+        <v>7733</v>
       </c>
       <c r="N828" t="inlineStr">
         <is>
@@ -59991,11 +59991,11 @@
       </c>
       <c r="O828" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P828" t="n">
-        <v>308</v>
+        <v>430</v>
       </c>
       <c r="Q828" t="n">
         <v>18</v>
@@ -60021,7 +60021,7 @@
         </is>
       </c>
       <c r="D829" s="2" t="n">
-        <v>44469</v>
+        <v>44211</v>
       </c>
       <c r="E829" t="n">
         <v>13</v>
@@ -60045,16 +60045,16 @@
         </is>
       </c>
       <c r="J829" t="n">
-        <v>780</v>
+        <v>840</v>
       </c>
       <c r="K829" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="L829" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="M829" t="n">
-        <v>15513</v>
+        <v>13548</v>
       </c>
       <c r="N829" t="inlineStr">
         <is>
@@ -60063,11 +60063,11 @@
       </c>
       <c r="O829" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P829" t="n">
-        <v>862</v>
+        <v>753</v>
       </c>
       <c r="Q829" t="n">
         <v>18</v>
@@ -60093,7 +60093,7 @@
         </is>
       </c>
       <c r="D830" s="2" t="n">
-        <v>44469</v>
+        <v>44211</v>
       </c>
       <c r="E830" t="n">
         <v>13</v>
@@ -60117,16 +60117,16 @@
         </is>
       </c>
       <c r="J830" t="n">
-        <v>800</v>
+        <v>1130</v>
       </c>
       <c r="K830" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="L830" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="M830" t="n">
-        <v>14500</v>
+        <v>11575</v>
       </c>
       <c r="N830" t="inlineStr">
         <is>
@@ -60135,11 +60135,11 @@
       </c>
       <c r="O830" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P830" t="n">
-        <v>806</v>
+        <v>643</v>
       </c>
       <c r="Q830" t="n">
         <v>18</v>
@@ -60165,7 +60165,7 @@
         </is>
       </c>
       <c r="D831" s="2" t="n">
-        <v>44469</v>
+        <v>44211</v>
       </c>
       <c r="E831" t="n">
         <v>13</v>
@@ -60189,16 +60189,16 @@
         </is>
       </c>
       <c r="J831" t="n">
-        <v>650</v>
+        <v>780</v>
       </c>
       <c r="K831" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="L831" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="M831" t="n">
-        <v>12462</v>
+        <v>8615</v>
       </c>
       <c r="N831" t="inlineStr">
         <is>
@@ -60207,11 +60207,11 @@
       </c>
       <c r="O831" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P831" t="n">
-        <v>692</v>
+        <v>479</v>
       </c>
       <c r="Q831" t="n">
         <v>18</v>
@@ -60237,7 +60237,7 @@
         </is>
       </c>
       <c r="D832" s="2" t="n">
-        <v>44215</v>
+        <v>44211</v>
       </c>
       <c r="E832" t="n">
         <v>13</v>
@@ -60252,7 +60252,7 @@
       </c>
       <c r="H832" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I832" t="inlineStr">
@@ -60261,16 +60261,16 @@
         </is>
       </c>
       <c r="J832" t="n">
-        <v>380</v>
+        <v>590</v>
       </c>
       <c r="K832" t="n">
-        <v>14000</v>
+        <v>9500</v>
       </c>
       <c r="L832" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="M832" t="n">
-        <v>14526</v>
+        <v>9788</v>
       </c>
       <c r="N832" t="inlineStr">
         <is>
@@ -60279,11 +60279,11 @@
       </c>
       <c r="O832" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P832" t="n">
-        <v>807</v>
+        <v>544</v>
       </c>
       <c r="Q832" t="n">
         <v>18</v>
@@ -60309,7 +60309,7 @@
         </is>
       </c>
       <c r="D833" s="2" t="n">
-        <v>44215</v>
+        <v>44211</v>
       </c>
       <c r="E833" t="n">
         <v>13</v>
@@ -60324,7 +60324,7 @@
       </c>
       <c r="H833" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I833" t="inlineStr">
@@ -60333,16 +60333,16 @@
         </is>
       </c>
       <c r="J833" t="n">
-        <v>510</v>
+        <v>580</v>
       </c>
       <c r="K833" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="L833" t="n">
-        <v>12000</v>
+        <v>8500</v>
       </c>
       <c r="M833" t="n">
-        <v>11412</v>
+        <v>8259</v>
       </c>
       <c r="N833" t="inlineStr">
         <is>
@@ -60351,11 +60351,11 @@
       </c>
       <c r="O833" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P833" t="n">
-        <v>634</v>
+        <v>459</v>
       </c>
       <c r="Q833" t="n">
         <v>18</v>
@@ -60381,7 +60381,7 @@
         </is>
       </c>
       <c r="D834" s="2" t="n">
-        <v>44215</v>
+        <v>44211</v>
       </c>
       <c r="E834" t="n">
         <v>13</v>
@@ -60401,20 +60401,20 @@
       </c>
       <c r="I834" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J834" t="n">
-        <v>780</v>
+        <v>550</v>
       </c>
       <c r="K834" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="L834" t="n">
-        <v>9500</v>
+        <v>6000</v>
       </c>
       <c r="M834" t="n">
-        <v>9308</v>
+        <v>5545</v>
       </c>
       <c r="N834" t="inlineStr">
         <is>
@@ -60427,7 +60427,7 @@
         </is>
       </c>
       <c r="P834" t="n">
-        <v>517</v>
+        <v>308</v>
       </c>
       <c r="Q834" t="n">
         <v>18</v>
@@ -60453,7 +60453,7 @@
         </is>
       </c>
       <c r="D835" s="2" t="n">
-        <v>44215</v>
+        <v>44469</v>
       </c>
       <c r="E835" t="n">
         <v>13</v>
@@ -60468,25 +60468,25 @@
       </c>
       <c r="H835" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I835" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J835" t="n">
-        <v>980</v>
+        <v>780</v>
       </c>
       <c r="K835" t="n">
-        <v>7500</v>
+        <v>15000</v>
       </c>
       <c r="L835" t="n">
-        <v>8000</v>
+        <v>16000</v>
       </c>
       <c r="M835" t="n">
-        <v>7755</v>
+        <v>15513</v>
       </c>
       <c r="N835" t="inlineStr">
         <is>
@@ -60495,11 +60495,11 @@
       </c>
       <c r="O835" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P835" t="n">
-        <v>431</v>
+        <v>862</v>
       </c>
       <c r="Q835" t="n">
         <v>18</v>
@@ -60525,7 +60525,7 @@
         </is>
       </c>
       <c r="D836" s="2" t="n">
-        <v>44215</v>
+        <v>44469</v>
       </c>
       <c r="E836" t="n">
         <v>13</v>
@@ -60540,25 +60540,25 @@
       </c>
       <c r="H836" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I836" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J836" t="n">
-        <v>980</v>
+        <v>800</v>
       </c>
       <c r="K836" t="n">
-        <v>5500</v>
+        <v>14000</v>
       </c>
       <c r="L836" t="n">
-        <v>6000</v>
+        <v>15000</v>
       </c>
       <c r="M836" t="n">
-        <v>5765</v>
+        <v>14500</v>
       </c>
       <c r="N836" t="inlineStr">
         <is>
@@ -60567,11 +60567,11 @@
       </c>
       <c r="O836" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P836" t="n">
-        <v>320</v>
+        <v>806</v>
       </c>
       <c r="Q836" t="n">
         <v>18</v>
@@ -60597,7 +60597,7 @@
         </is>
       </c>
       <c r="D837" s="2" t="n">
-        <v>44407</v>
+        <v>44469</v>
       </c>
       <c r="E837" t="n">
         <v>13</v>
@@ -60617,20 +60617,20 @@
       </c>
       <c r="I837" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J837" t="n">
-        <v>230</v>
+        <v>650</v>
       </c>
       <c r="K837" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L837" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="M837" t="n">
-        <v>10000</v>
+        <v>12462</v>
       </c>
       <c r="N837" t="inlineStr">
         <is>
@@ -60639,11 +60639,11 @@
       </c>
       <c r="O837" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P837" t="n">
-        <v>556</v>
+        <v>692</v>
       </c>
       <c r="Q837" t="n">
         <v>18</v>
@@ -60669,7 +60669,7 @@
         </is>
       </c>
       <c r="D838" s="2" t="n">
-        <v>44407</v>
+        <v>44215</v>
       </c>
       <c r="E838" t="n">
         <v>13</v>
@@ -60693,16 +60693,16 @@
         </is>
       </c>
       <c r="J838" t="n">
-        <v>720</v>
+        <v>380</v>
       </c>
       <c r="K838" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L838" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M838" t="n">
-        <v>12556</v>
+        <v>14526</v>
       </c>
       <c r="N838" t="inlineStr">
         <is>
@@ -60711,11 +60711,11 @@
       </c>
       <c r="O838" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P838" t="n">
-        <v>698</v>
+        <v>807</v>
       </c>
       <c r="Q838" t="n">
         <v>18</v>
@@ -60741,7 +60741,7 @@
         </is>
       </c>
       <c r="D839" s="2" t="n">
-        <v>44407</v>
+        <v>44215</v>
       </c>
       <c r="E839" t="n">
         <v>13</v>
@@ -60765,16 +60765,16 @@
         </is>
       </c>
       <c r="J839" t="n">
-        <v>280</v>
+        <v>510</v>
       </c>
       <c r="K839" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="L839" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="M839" t="n">
-        <v>8000</v>
+        <v>11412</v>
       </c>
       <c r="N839" t="inlineStr">
         <is>
@@ -60783,11 +60783,11 @@
       </c>
       <c r="O839" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P839" t="n">
-        <v>444</v>
+        <v>634</v>
       </c>
       <c r="Q839" t="n">
         <v>18</v>
@@ -60813,7 +60813,7 @@
         </is>
       </c>
       <c r="D840" s="2" t="n">
-        <v>44407</v>
+        <v>44215</v>
       </c>
       <c r="E840" t="n">
         <v>13</v>
@@ -60828,25 +60828,25 @@
       </c>
       <c r="H840" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I840" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J840" t="n">
-        <v>1000</v>
+        <v>780</v>
       </c>
       <c r="K840" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="L840" t="n">
-        <v>11000</v>
+        <v>9500</v>
       </c>
       <c r="M840" t="n">
-        <v>10560</v>
+        <v>9308</v>
       </c>
       <c r="N840" t="inlineStr">
         <is>
@@ -60855,11 +60855,11 @@
       </c>
       <c r="O840" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P840" t="n">
-        <v>587</v>
+        <v>517</v>
       </c>
       <c r="Q840" t="n">
         <v>18</v>
@@ -60885,7 +60885,7 @@
         </is>
       </c>
       <c r="D841" s="2" t="n">
-        <v>44407</v>
+        <v>44215</v>
       </c>
       <c r="E841" t="n">
         <v>13</v>
@@ -60900,25 +60900,25 @@
       </c>
       <c r="H841" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I841" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J841" t="n">
-        <v>340</v>
+        <v>980</v>
       </c>
       <c r="K841" t="n">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="L841" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M841" t="n">
-        <v>6000</v>
+        <v>7755</v>
       </c>
       <c r="N841" t="inlineStr">
         <is>
@@ -60927,11 +60927,11 @@
       </c>
       <c r="O841" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P841" t="n">
-        <v>333</v>
+        <v>431</v>
       </c>
       <c r="Q841" t="n">
         <v>18</v>
@@ -60957,7 +60957,7 @@
         </is>
       </c>
       <c r="D842" s="2" t="n">
-        <v>44407</v>
+        <v>44215</v>
       </c>
       <c r="E842" t="n">
         <v>13</v>
@@ -60972,7 +60972,7 @@
       </c>
       <c r="H842" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I842" t="inlineStr">
@@ -60981,16 +60981,16 @@
         </is>
       </c>
       <c r="J842" t="n">
-        <v>620</v>
+        <v>980</v>
       </c>
       <c r="K842" t="n">
-        <v>8500</v>
+        <v>5500</v>
       </c>
       <c r="L842" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="M842" t="n">
-        <v>8798</v>
+        <v>5765</v>
       </c>
       <c r="N842" t="inlineStr">
         <is>
@@ -60999,11 +60999,11 @@
       </c>
       <c r="O842" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P842" t="n">
-        <v>489</v>
+        <v>320</v>
       </c>
       <c r="Q842" t="n">
         <v>18</v>
@@ -61029,7 +61029,7 @@
         </is>
       </c>
       <c r="D843" s="2" t="n">
-        <v>44186</v>
+        <v>44407</v>
       </c>
       <c r="E843" t="n">
         <v>13</v>
@@ -61053,16 +61053,16 @@
         </is>
       </c>
       <c r="J843" t="n">
-        <v>630</v>
+        <v>230</v>
       </c>
       <c r="K843" t="n">
-        <v>19000</v>
+        <v>10000</v>
       </c>
       <c r="L843" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="M843" t="n">
-        <v>19556</v>
+        <v>10000</v>
       </c>
       <c r="N843" t="inlineStr">
         <is>
@@ -61075,7 +61075,7 @@
         </is>
       </c>
       <c r="P843" t="n">
-        <v>1086</v>
+        <v>556</v>
       </c>
       <c r="Q843" t="n">
         <v>18</v>
@@ -61101,7 +61101,7 @@
         </is>
       </c>
       <c r="D844" s="2" t="n">
-        <v>44186</v>
+        <v>44407</v>
       </c>
       <c r="E844" t="n">
         <v>13</v>
@@ -61121,20 +61121,20 @@
       </c>
       <c r="I844" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J844" t="n">
-        <v>680</v>
+        <v>720</v>
       </c>
       <c r="K844" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="L844" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="M844" t="n">
-        <v>16588</v>
+        <v>12556</v>
       </c>
       <c r="N844" t="inlineStr">
         <is>
@@ -61143,11 +61143,11 @@
       </c>
       <c r="O844" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P844" t="n">
-        <v>922</v>
+        <v>698</v>
       </c>
       <c r="Q844" t="n">
         <v>18</v>
@@ -61173,7 +61173,7 @@
         </is>
       </c>
       <c r="D845" s="2" t="n">
-        <v>44186</v>
+        <v>44407</v>
       </c>
       <c r="E845" t="n">
         <v>13</v>
@@ -61193,20 +61193,20 @@
       </c>
       <c r="I845" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J845" t="n">
-        <v>640</v>
+        <v>280</v>
       </c>
       <c r="K845" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="L845" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="M845" t="n">
-        <v>13531</v>
+        <v>8000</v>
       </c>
       <c r="N845" t="inlineStr">
         <is>
@@ -61219,7 +61219,7 @@
         </is>
       </c>
       <c r="P845" t="n">
-        <v>752</v>
+        <v>444</v>
       </c>
       <c r="Q845" t="n">
         <v>18</v>
@@ -61245,7 +61245,7 @@
         </is>
       </c>
       <c r="D846" s="2" t="n">
-        <v>44504</v>
+        <v>44407</v>
       </c>
       <c r="E846" t="n">
         <v>13</v>
@@ -61265,20 +61265,20 @@
       </c>
       <c r="I846" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J846" t="n">
-        <v>940</v>
+        <v>1000</v>
       </c>
       <c r="K846" t="n">
-        <v>19000</v>
+        <v>10000</v>
       </c>
       <c r="L846" t="n">
-        <v>20000</v>
+        <v>11000</v>
       </c>
       <c r="M846" t="n">
-        <v>19468</v>
+        <v>10560</v>
       </c>
       <c r="N846" t="inlineStr">
         <is>
@@ -61287,11 +61287,11 @@
       </c>
       <c r="O846" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P846" t="n">
-        <v>1082</v>
+        <v>587</v>
       </c>
       <c r="Q846" t="n">
         <v>18</v>
@@ -61317,7 +61317,7 @@
         </is>
       </c>
       <c r="D847" s="2" t="n">
-        <v>44504</v>
+        <v>44407</v>
       </c>
       <c r="E847" t="n">
         <v>13</v>
@@ -61337,20 +61337,20 @@
       </c>
       <c r="I847" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J847" t="n">
-        <v>600</v>
+        <v>340</v>
       </c>
       <c r="K847" t="n">
-        <v>17000</v>
+        <v>6000</v>
       </c>
       <c r="L847" t="n">
-        <v>17000</v>
+        <v>6000</v>
       </c>
       <c r="M847" t="n">
-        <v>17000</v>
+        <v>6000</v>
       </c>
       <c r="N847" t="inlineStr">
         <is>
@@ -61359,11 +61359,11 @@
       </c>
       <c r="O847" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P847" t="n">
-        <v>944</v>
+        <v>333</v>
       </c>
       <c r="Q847" t="n">
         <v>18</v>
@@ -61389,7 +61389,7 @@
         </is>
       </c>
       <c r="D848" s="2" t="n">
-        <v>44504</v>
+        <v>44407</v>
       </c>
       <c r="E848" t="n">
         <v>13</v>
@@ -61409,20 +61409,20 @@
       </c>
       <c r="I848" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J848" t="n">
-        <v>1210</v>
+        <v>620</v>
       </c>
       <c r="K848" t="n">
-        <v>17000</v>
+        <v>8500</v>
       </c>
       <c r="L848" t="n">
-        <v>18000</v>
+        <v>9000</v>
       </c>
       <c r="M848" t="n">
-        <v>17504</v>
+        <v>8798</v>
       </c>
       <c r="N848" t="inlineStr">
         <is>
@@ -61431,11 +61431,11 @@
       </c>
       <c r="O848" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P848" t="n">
-        <v>972</v>
+        <v>489</v>
       </c>
       <c r="Q848" t="n">
         <v>18</v>
@@ -61461,7 +61461,7 @@
         </is>
       </c>
       <c r="D849" s="2" t="n">
-        <v>44504</v>
+        <v>44186</v>
       </c>
       <c r="E849" t="n">
         <v>13</v>
@@ -61481,20 +61481,20 @@
       </c>
       <c r="I849" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J849" t="n">
-        <v>710</v>
+        <v>630</v>
       </c>
       <c r="K849" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="L849" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="M849" t="n">
-        <v>15000</v>
+        <v>19556</v>
       </c>
       <c r="N849" t="inlineStr">
         <is>
@@ -61503,11 +61503,11 @@
       </c>
       <c r="O849" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P849" t="n">
-        <v>833</v>
+        <v>1086</v>
       </c>
       <c r="Q849" t="n">
         <v>18</v>
@@ -61533,7 +61533,7 @@
         </is>
       </c>
       <c r="D850" s="2" t="n">
-        <v>44504</v>
+        <v>44186</v>
       </c>
       <c r="E850" t="n">
         <v>13</v>
@@ -61553,20 +61553,20 @@
       </c>
       <c r="I850" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J850" t="n">
-        <v>980</v>
+        <v>680</v>
       </c>
       <c r="K850" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="L850" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="M850" t="n">
-        <v>15388</v>
+        <v>16588</v>
       </c>
       <c r="N850" t="inlineStr">
         <is>
@@ -61579,7 +61579,7 @@
         </is>
       </c>
       <c r="P850" t="n">
-        <v>855</v>
+        <v>922</v>
       </c>
       <c r="Q850" t="n">
         <v>18</v>
@@ -61605,7 +61605,7 @@
         </is>
       </c>
       <c r="D851" s="2" t="n">
-        <v>44504</v>
+        <v>44186</v>
       </c>
       <c r="E851" t="n">
         <v>13</v>
@@ -61629,16 +61629,16 @@
         </is>
       </c>
       <c r="J851" t="n">
-        <v>650</v>
+        <v>640</v>
       </c>
       <c r="K851" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="L851" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="M851" t="n">
-        <v>12000</v>
+        <v>13531</v>
       </c>
       <c r="N851" t="inlineStr">
         <is>
@@ -61647,11 +61647,11 @@
       </c>
       <c r="O851" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P851" t="n">
-        <v>667</v>
+        <v>752</v>
       </c>
       <c r="Q851" t="n">
         <v>18</v>
@@ -61697,20 +61697,20 @@
       </c>
       <c r="I852" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J852" t="n">
-        <v>450</v>
+        <v>940</v>
       </c>
       <c r="K852" t="n">
-        <v>10000</v>
+        <v>19000</v>
       </c>
       <c r="L852" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="M852" t="n">
-        <v>10000</v>
+        <v>19468</v>
       </c>
       <c r="N852" t="inlineStr">
         <is>
@@ -61719,11 +61719,11 @@
       </c>
       <c r="O852" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P852" t="n">
-        <v>556</v>
+        <v>1082</v>
       </c>
       <c r="Q852" t="n">
         <v>18</v>
@@ -61749,7 +61749,7 @@
         </is>
       </c>
       <c r="D853" s="2" t="n">
-        <v>44481</v>
+        <v>44504</v>
       </c>
       <c r="E853" t="n">
         <v>13</v>
@@ -61773,16 +61773,16 @@
         </is>
       </c>
       <c r="J853" t="n">
-        <v>430</v>
+        <v>600</v>
       </c>
       <c r="K853" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="L853" t="n">
         <v>17000</v>
       </c>
       <c r="M853" t="n">
-        <v>16500</v>
+        <v>17000</v>
       </c>
       <c r="N853" t="inlineStr">
         <is>
@@ -61795,7 +61795,7 @@
         </is>
       </c>
       <c r="P853" t="n">
-        <v>917</v>
+        <v>944</v>
       </c>
       <c r="Q853" t="n">
         <v>18</v>
@@ -61821,7 +61821,7 @@
         </is>
       </c>
       <c r="D854" s="2" t="n">
-        <v>44481</v>
+        <v>44504</v>
       </c>
       <c r="E854" t="n">
         <v>13</v>
@@ -61845,16 +61845,16 @@
         </is>
       </c>
       <c r="J854" t="n">
-        <v>520</v>
+        <v>1210</v>
       </c>
       <c r="K854" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="L854" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="M854" t="n">
-        <v>14500</v>
+        <v>17504</v>
       </c>
       <c r="N854" t="inlineStr">
         <is>
@@ -61863,11 +61863,11 @@
       </c>
       <c r="O854" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P854" t="n">
-        <v>806</v>
+        <v>972</v>
       </c>
       <c r="Q854" t="n">
         <v>18</v>
@@ -61893,7 +61893,7 @@
         </is>
       </c>
       <c r="D855" s="2" t="n">
-        <v>44481</v>
+        <v>44504</v>
       </c>
       <c r="E855" t="n">
         <v>13</v>
@@ -61913,20 +61913,20 @@
       </c>
       <c r="I855" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J855" t="n">
-        <v>250</v>
+        <v>710</v>
       </c>
       <c r="K855" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="L855" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M855" t="n">
-        <v>12500</v>
+        <v>15000</v>
       </c>
       <c r="N855" t="inlineStr">
         <is>
@@ -61939,7 +61939,7 @@
         </is>
       </c>
       <c r="P855" t="n">
-        <v>694</v>
+        <v>833</v>
       </c>
       <c r="Q855" t="n">
         <v>18</v>
@@ -61965,7 +61965,7 @@
         </is>
       </c>
       <c r="D856" s="2" t="n">
-        <v>44384</v>
+        <v>44504</v>
       </c>
       <c r="E856" t="n">
         <v>13</v>
@@ -61985,20 +61985,20 @@
       </c>
       <c r="I856" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J856" t="n">
-        <v>320</v>
+        <v>980</v>
       </c>
       <c r="K856" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="L856" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="M856" t="n">
-        <v>12500</v>
+        <v>15388</v>
       </c>
       <c r="N856" t="inlineStr">
         <is>
@@ -62007,11 +62007,11 @@
       </c>
       <c r="O856" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P856" t="n">
-        <v>694</v>
+        <v>855</v>
       </c>
       <c r="Q856" t="n">
         <v>18</v>
@@ -62037,7 +62037,7 @@
         </is>
       </c>
       <c r="D857" s="2" t="n">
-        <v>44384</v>
+        <v>44504</v>
       </c>
       <c r="E857" t="n">
         <v>13</v>
@@ -62057,20 +62057,20 @@
       </c>
       <c r="I857" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J857" t="n">
-        <v>450</v>
+        <v>650</v>
       </c>
       <c r="K857" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L857" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="M857" t="n">
-        <v>10500</v>
+        <v>12000</v>
       </c>
       <c r="N857" t="inlineStr">
         <is>
@@ -62083,7 +62083,7 @@
         </is>
       </c>
       <c r="P857" t="n">
-        <v>583</v>
+        <v>667</v>
       </c>
       <c r="Q857" t="n">
         <v>18</v>
@@ -62109,7 +62109,7 @@
         </is>
       </c>
       <c r="D858" s="2" t="n">
-        <v>44384</v>
+        <v>44504</v>
       </c>
       <c r="E858" t="n">
         <v>13</v>
@@ -62129,20 +62129,20 @@
       </c>
       <c r="I858" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J858" t="n">
-        <v>160</v>
+        <v>450</v>
       </c>
       <c r="K858" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="L858" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M858" t="n">
-        <v>8500</v>
+        <v>10000</v>
       </c>
       <c r="N858" t="inlineStr">
         <is>
@@ -62155,7 +62155,7 @@
         </is>
       </c>
       <c r="P858" t="n">
-        <v>472</v>
+        <v>556</v>
       </c>
       <c r="Q858" t="n">
         <v>18</v>
@@ -62181,7 +62181,7 @@
         </is>
       </c>
       <c r="D859" s="2" t="n">
-        <v>44384</v>
+        <v>44481</v>
       </c>
       <c r="E859" t="n">
         <v>13</v>
@@ -62201,20 +62201,20 @@
       </c>
       <c r="I859" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J859" t="n">
-        <v>150</v>
+        <v>430</v>
       </c>
       <c r="K859" t="n">
-        <v>6000</v>
+        <v>16000</v>
       </c>
       <c r="L859" t="n">
-        <v>7000</v>
+        <v>17000</v>
       </c>
       <c r="M859" t="n">
-        <v>6500</v>
+        <v>16500</v>
       </c>
       <c r="N859" t="inlineStr">
         <is>
@@ -62227,7 +62227,7 @@
         </is>
       </c>
       <c r="P859" t="n">
-        <v>361</v>
+        <v>917</v>
       </c>
       <c r="Q859" t="n">
         <v>18</v>
@@ -62253,7 +62253,7 @@
         </is>
       </c>
       <c r="D860" s="2" t="n">
-        <v>44246</v>
+        <v>44481</v>
       </c>
       <c r="E860" t="n">
         <v>13</v>
@@ -62273,20 +62273,20 @@
       </c>
       <c r="I860" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J860" t="n">
-        <v>1130</v>
+        <v>520</v>
       </c>
       <c r="K860" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L860" t="n">
-        <v>12500</v>
+        <v>15000</v>
       </c>
       <c r="M860" t="n">
-        <v>12288</v>
+        <v>14500</v>
       </c>
       <c r="N860" t="inlineStr">
         <is>
@@ -62295,11 +62295,11 @@
       </c>
       <c r="O860" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P860" t="n">
-        <v>683</v>
+        <v>806</v>
       </c>
       <c r="Q860" t="n">
         <v>18</v>
@@ -62325,7 +62325,7 @@
         </is>
       </c>
       <c r="D861" s="2" t="n">
-        <v>44246</v>
+        <v>44481</v>
       </c>
       <c r="E861" t="n">
         <v>13</v>
@@ -62345,20 +62345,20 @@
       </c>
       <c r="I861" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J861" t="n">
-        <v>1200</v>
+        <v>250</v>
       </c>
       <c r="K861" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L861" t="n">
-        <v>10500</v>
+        <v>13000</v>
       </c>
       <c r="M861" t="n">
-        <v>10292</v>
+        <v>12500</v>
       </c>
       <c r="N861" t="inlineStr">
         <is>
@@ -62367,11 +62367,11 @@
       </c>
       <c r="O861" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P861" t="n">
-        <v>572</v>
+        <v>694</v>
       </c>
       <c r="Q861" t="n">
         <v>18</v>
@@ -62397,7 +62397,7 @@
         </is>
       </c>
       <c r="D862" s="2" t="n">
-        <v>44246</v>
+        <v>44384</v>
       </c>
       <c r="E862" t="n">
         <v>13</v>
@@ -62417,20 +62417,20 @@
       </c>
       <c r="I862" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J862" t="n">
-        <v>360</v>
+        <v>320</v>
       </c>
       <c r="K862" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="L862" t="n">
-        <v>7500</v>
+        <v>13000</v>
       </c>
       <c r="M862" t="n">
-        <v>7333</v>
+        <v>12500</v>
       </c>
       <c r="N862" t="inlineStr">
         <is>
@@ -62439,11 +62439,11 @@
       </c>
       <c r="O862" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P862" t="n">
-        <v>407</v>
+        <v>694</v>
       </c>
       <c r="Q862" t="n">
         <v>18</v>
@@ -62469,7 +62469,7 @@
         </is>
       </c>
       <c r="D863" s="2" t="n">
-        <v>44505</v>
+        <v>44384</v>
       </c>
       <c r="E863" t="n">
         <v>13</v>
@@ -62489,20 +62489,20 @@
       </c>
       <c r="I863" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J863" t="n">
-        <v>1550</v>
+        <v>450</v>
       </c>
       <c r="K863" t="n">
-        <v>19000</v>
+        <v>10000</v>
       </c>
       <c r="L863" t="n">
-        <v>20000</v>
+        <v>11000</v>
       </c>
       <c r="M863" t="n">
-        <v>19484</v>
+        <v>10500</v>
       </c>
       <c r="N863" t="inlineStr">
         <is>
@@ -62511,11 +62511,11 @@
       </c>
       <c r="O863" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P863" t="n">
-        <v>1082</v>
+        <v>583</v>
       </c>
       <c r="Q863" t="n">
         <v>18</v>
@@ -62541,7 +62541,7 @@
         </is>
       </c>
       <c r="D864" s="2" t="n">
-        <v>44505</v>
+        <v>44384</v>
       </c>
       <c r="E864" t="n">
         <v>13</v>
@@ -62561,20 +62561,20 @@
       </c>
       <c r="I864" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J864" t="n">
-        <v>960</v>
+        <v>160</v>
       </c>
       <c r="K864" t="n">
-        <v>16000</v>
+        <v>8000</v>
       </c>
       <c r="L864" t="n">
-        <v>17000</v>
+        <v>9000</v>
       </c>
       <c r="M864" t="n">
-        <v>16573</v>
+        <v>8500</v>
       </c>
       <c r="N864" t="inlineStr">
         <is>
@@ -62587,7 +62587,7 @@
         </is>
       </c>
       <c r="P864" t="n">
-        <v>921</v>
+        <v>472</v>
       </c>
       <c r="Q864" t="n">
         <v>18</v>
@@ -62613,7 +62613,7 @@
         </is>
       </c>
       <c r="D865" s="2" t="n">
-        <v>44505</v>
+        <v>44384</v>
       </c>
       <c r="E865" t="n">
         <v>13</v>
@@ -62633,20 +62633,20 @@
       </c>
       <c r="I865" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J865" t="n">
-        <v>910</v>
+        <v>150</v>
       </c>
       <c r="K865" t="n">
-        <v>18000</v>
+        <v>6000</v>
       </c>
       <c r="L865" t="n">
-        <v>19000</v>
+        <v>7000</v>
       </c>
       <c r="M865" t="n">
-        <v>18451</v>
+        <v>6500</v>
       </c>
       <c r="N865" t="inlineStr">
         <is>
@@ -62655,11 +62655,11 @@
       </c>
       <c r="O865" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P865" t="n">
-        <v>1025</v>
+        <v>361</v>
       </c>
       <c r="Q865" t="n">
         <v>18</v>
@@ -62685,7 +62685,7 @@
         </is>
       </c>
       <c r="D866" s="2" t="n">
-        <v>44505</v>
+        <v>44246</v>
       </c>
       <c r="E866" t="n">
         <v>13</v>
@@ -62705,20 +62705,20 @@
       </c>
       <c r="I866" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J866" t="n">
-        <v>970</v>
+        <v>1130</v>
       </c>
       <c r="K866" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="L866" t="n">
-        <v>16000</v>
+        <v>12500</v>
       </c>
       <c r="M866" t="n">
-        <v>15773</v>
+        <v>12288</v>
       </c>
       <c r="N866" t="inlineStr">
         <is>
@@ -62727,11 +62727,11 @@
       </c>
       <c r="O866" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P866" t="n">
-        <v>876</v>
+        <v>683</v>
       </c>
       <c r="Q866" t="n">
         <v>18</v>
@@ -62757,7 +62757,7 @@
         </is>
       </c>
       <c r="D867" s="2" t="n">
-        <v>44505</v>
+        <v>44246</v>
       </c>
       <c r="E867" t="n">
         <v>13</v>
@@ -62777,20 +62777,20 @@
       </c>
       <c r="I867" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J867" t="n">
-        <v>900</v>
+        <v>1200</v>
       </c>
       <c r="K867" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="L867" t="n">
-        <v>14000</v>
+        <v>10500</v>
       </c>
       <c r="M867" t="n">
-        <v>13556</v>
+        <v>10292</v>
       </c>
       <c r="N867" t="inlineStr">
         <is>
@@ -62803,7 +62803,7 @@
         </is>
       </c>
       <c r="P867" t="n">
-        <v>753</v>
+        <v>572</v>
       </c>
       <c r="Q867" t="n">
         <v>18</v>
@@ -62829,7 +62829,7 @@
         </is>
       </c>
       <c r="D868" s="2" t="n">
-        <v>44505</v>
+        <v>44246</v>
       </c>
       <c r="E868" t="n">
         <v>13</v>
@@ -62853,16 +62853,16 @@
         </is>
       </c>
       <c r="J868" t="n">
-        <v>860</v>
+        <v>360</v>
       </c>
       <c r="K868" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="L868" t="n">
-        <v>13000</v>
+        <v>7500</v>
       </c>
       <c r="M868" t="n">
-        <v>12523</v>
+        <v>7333</v>
       </c>
       <c r="N868" t="inlineStr">
         <is>
@@ -62871,11 +62871,11 @@
       </c>
       <c r="O868" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P868" t="n">
-        <v>696</v>
+        <v>407</v>
       </c>
       <c r="Q868" t="n">
         <v>18</v>
@@ -62901,7 +62901,7 @@
         </is>
       </c>
       <c r="D869" s="2" t="n">
-        <v>44487</v>
+        <v>44505</v>
       </c>
       <c r="E869" t="n">
         <v>13</v>
@@ -62925,16 +62925,16 @@
         </is>
       </c>
       <c r="J869" t="n">
-        <v>890</v>
+        <v>1550</v>
       </c>
       <c r="K869" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="L869" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="M869" t="n">
-        <v>16539</v>
+        <v>19484</v>
       </c>
       <c r="N869" t="inlineStr">
         <is>
@@ -62943,11 +62943,11 @@
       </c>
       <c r="O869" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P869" t="n">
-        <v>919</v>
+        <v>1082</v>
       </c>
       <c r="Q869" t="n">
         <v>18</v>
@@ -62973,7 +62973,7 @@
         </is>
       </c>
       <c r="D870" s="2" t="n">
-        <v>44487</v>
+        <v>44505</v>
       </c>
       <c r="E870" t="n">
         <v>13</v>
@@ -62993,20 +62993,20 @@
       </c>
       <c r="I870" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J870" t="n">
-        <v>940</v>
+        <v>960</v>
       </c>
       <c r="K870" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="L870" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="M870" t="n">
-        <v>14468</v>
+        <v>16573</v>
       </c>
       <c r="N870" t="inlineStr">
         <is>
@@ -63019,7 +63019,7 @@
         </is>
       </c>
       <c r="P870" t="n">
-        <v>804</v>
+        <v>921</v>
       </c>
       <c r="Q870" t="n">
         <v>18</v>
@@ -63045,7 +63045,7 @@
         </is>
       </c>
       <c r="D871" s="2" t="n">
-        <v>44487</v>
+        <v>44505</v>
       </c>
       <c r="E871" t="n">
         <v>13</v>
@@ -63065,20 +63065,20 @@
       </c>
       <c r="I871" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J871" t="n">
-        <v>740</v>
+        <v>910</v>
       </c>
       <c r="K871" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="L871" t="n">
-        <v>11000</v>
+        <v>19000</v>
       </c>
       <c r="M871" t="n">
-        <v>10446</v>
+        <v>18451</v>
       </c>
       <c r="N871" t="inlineStr">
         <is>
@@ -63087,11 +63087,11 @@
       </c>
       <c r="O871" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P871" t="n">
-        <v>580</v>
+        <v>1025</v>
       </c>
       <c r="Q871" t="n">
         <v>18</v>
@@ -63117,7 +63117,7 @@
         </is>
       </c>
       <c r="D872" s="2" t="n">
-        <v>44425</v>
+        <v>44505</v>
       </c>
       <c r="E872" t="n">
         <v>13</v>
@@ -63137,20 +63137,20 @@
       </c>
       <c r="I872" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J872" t="n">
-        <v>390</v>
+        <v>970</v>
       </c>
       <c r="K872" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="L872" t="n">
-        <v>9000</v>
+        <v>16000</v>
       </c>
       <c r="M872" t="n">
-        <v>8462</v>
+        <v>15773</v>
       </c>
       <c r="N872" t="inlineStr">
         <is>
@@ -63159,11 +63159,11 @@
       </c>
       <c r="O872" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P872" t="n">
-        <v>470</v>
+        <v>876</v>
       </c>
       <c r="Q872" t="n">
         <v>18</v>
@@ -63189,7 +63189,7 @@
         </is>
       </c>
       <c r="D873" s="2" t="n">
-        <v>44425</v>
+        <v>44505</v>
       </c>
       <c r="E873" t="n">
         <v>13</v>
@@ -63209,20 +63209,20 @@
       </c>
       <c r="I873" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J873" t="n">
-        <v>1040</v>
+        <v>900</v>
       </c>
       <c r="K873" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="L873" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="M873" t="n">
-        <v>11538</v>
+        <v>13556</v>
       </c>
       <c r="N873" t="inlineStr">
         <is>
@@ -63231,11 +63231,11 @@
       </c>
       <c r="O873" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P873" t="n">
-        <v>641</v>
+        <v>753</v>
       </c>
       <c r="Q873" t="n">
         <v>18</v>
@@ -63261,7 +63261,7 @@
         </is>
       </c>
       <c r="D874" s="2" t="n">
-        <v>44425</v>
+        <v>44505</v>
       </c>
       <c r="E874" t="n">
         <v>13</v>
@@ -63281,20 +63281,20 @@
       </c>
       <c r="I874" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J874" t="n">
-        <v>450</v>
+        <v>860</v>
       </c>
       <c r="K874" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="L874" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="M874" t="n">
-        <v>6444</v>
+        <v>12523</v>
       </c>
       <c r="N874" t="inlineStr">
         <is>
@@ -63303,11 +63303,11 @@
       </c>
       <c r="O874" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P874" t="n">
-        <v>358</v>
+        <v>696</v>
       </c>
       <c r="Q874" t="n">
         <v>18</v>
@@ -63333,7 +63333,7 @@
         </is>
       </c>
       <c r="D875" s="2" t="n">
-        <v>44425</v>
+        <v>44487</v>
       </c>
       <c r="E875" t="n">
         <v>13</v>
@@ -63353,20 +63353,20 @@
       </c>
       <c r="I875" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J875" t="n">
-        <v>1030</v>
+        <v>890</v>
       </c>
       <c r="K875" t="n">
-        <v>9000</v>
+        <v>16000</v>
       </c>
       <c r="L875" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="M875" t="n">
-        <v>9466</v>
+        <v>16539</v>
       </c>
       <c r="N875" t="inlineStr">
         <is>
@@ -63379,7 +63379,7 @@
         </is>
       </c>
       <c r="P875" t="n">
-        <v>526</v>
+        <v>919</v>
       </c>
       <c r="Q875" t="n">
         <v>18</v>
@@ -63405,7 +63405,7 @@
         </is>
       </c>
       <c r="D876" s="2" t="n">
-        <v>44425</v>
+        <v>44487</v>
       </c>
       <c r="E876" t="n">
         <v>13</v>
@@ -63425,20 +63425,20 @@
       </c>
       <c r="I876" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J876" t="n">
-        <v>440</v>
+        <v>940</v>
       </c>
       <c r="K876" t="n">
-        <v>4000</v>
+        <v>14000</v>
       </c>
       <c r="L876" t="n">
-        <v>5000</v>
+        <v>15000</v>
       </c>
       <c r="M876" t="n">
-        <v>4591</v>
+        <v>14468</v>
       </c>
       <c r="N876" t="inlineStr">
         <is>
@@ -63447,11 +63447,11 @@
       </c>
       <c r="O876" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P876" t="n">
-        <v>255</v>
+        <v>804</v>
       </c>
       <c r="Q876" t="n">
         <v>18</v>
@@ -63477,7 +63477,7 @@
         </is>
       </c>
       <c r="D877" s="2" t="n">
-        <v>44425</v>
+        <v>44487</v>
       </c>
       <c r="E877" t="n">
         <v>13</v>
@@ -63501,16 +63501,16 @@
         </is>
       </c>
       <c r="J877" t="n">
-        <v>820</v>
+        <v>740</v>
       </c>
       <c r="K877" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L877" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="M877" t="n">
-        <v>7537</v>
+        <v>10446</v>
       </c>
       <c r="N877" t="inlineStr">
         <is>
@@ -63523,7 +63523,7 @@
         </is>
       </c>
       <c r="P877" t="n">
-        <v>419</v>
+        <v>580</v>
       </c>
       <c r="Q877" t="n">
         <v>18</v>
@@ -63549,7 +63549,7 @@
         </is>
       </c>
       <c r="D878" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E878" t="n">
         <v>13</v>
@@ -63573,16 +63573,16 @@
         </is>
       </c>
       <c r="J878" t="n">
-        <v>740</v>
+        <v>390</v>
       </c>
       <c r="K878" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="L878" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="M878" t="n">
-        <v>11622</v>
+        <v>8462</v>
       </c>
       <c r="N878" t="inlineStr">
         <is>
@@ -63591,11 +63591,11 @@
       </c>
       <c r="O878" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P878" t="n">
-        <v>646</v>
+        <v>470</v>
       </c>
       <c r="Q878" t="n">
         <v>18</v>
@@ -63621,7 +63621,7 @@
         </is>
       </c>
       <c r="D879" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E879" t="n">
         <v>13</v>
@@ -63645,16 +63645,16 @@
         </is>
       </c>
       <c r="J879" t="n">
-        <v>250</v>
+        <v>1040</v>
       </c>
       <c r="K879" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="L879" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="M879" t="n">
-        <v>13000</v>
+        <v>11538</v>
       </c>
       <c r="N879" t="inlineStr">
         <is>
@@ -63667,7 +63667,7 @@
         </is>
       </c>
       <c r="P879" t="n">
-        <v>722</v>
+        <v>641</v>
       </c>
       <c r="Q879" t="n">
         <v>18</v>
@@ -63693,7 +63693,7 @@
         </is>
       </c>
       <c r="D880" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E880" t="n">
         <v>13</v>
@@ -63717,16 +63717,16 @@
         </is>
       </c>
       <c r="J880" t="n">
-        <v>1040</v>
+        <v>450</v>
       </c>
       <c r="K880" t="n">
-        <v>9500</v>
+        <v>6000</v>
       </c>
       <c r="L880" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="M880" t="n">
-        <v>9769</v>
+        <v>6444</v>
       </c>
       <c r="N880" t="inlineStr">
         <is>
@@ -63735,11 +63735,11 @@
       </c>
       <c r="O880" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P880" t="n">
-        <v>543</v>
+        <v>358</v>
       </c>
       <c r="Q880" t="n">
         <v>18</v>
@@ -63765,7 +63765,7 @@
         </is>
       </c>
       <c r="D881" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E881" t="n">
         <v>13</v>
@@ -63789,16 +63789,16 @@
         </is>
       </c>
       <c r="J881" t="n">
-        <v>380</v>
+        <v>1030</v>
       </c>
       <c r="K881" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="L881" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="M881" t="n">
-        <v>11000</v>
+        <v>9466</v>
       </c>
       <c r="N881" t="inlineStr">
         <is>
@@ -63811,7 +63811,7 @@
         </is>
       </c>
       <c r="P881" t="n">
-        <v>611</v>
+        <v>526</v>
       </c>
       <c r="Q881" t="n">
         <v>18</v>
@@ -63837,7 +63837,7 @@
         </is>
       </c>
       <c r="D882" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E882" t="n">
         <v>13</v>
@@ -63861,16 +63861,16 @@
         </is>
       </c>
       <c r="J882" t="n">
-        <v>670</v>
+        <v>440</v>
       </c>
       <c r="K882" t="n">
-        <v>6500</v>
+        <v>4000</v>
       </c>
       <c r="L882" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="M882" t="n">
-        <v>6784</v>
+        <v>4591</v>
       </c>
       <c r="N882" t="inlineStr">
         <is>
@@ -63879,11 +63879,11 @@
       </c>
       <c r="O882" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P882" t="n">
-        <v>377</v>
+        <v>255</v>
       </c>
       <c r="Q882" t="n">
         <v>18</v>
@@ -63909,7 +63909,7 @@
         </is>
       </c>
       <c r="D883" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E883" t="n">
         <v>13</v>
@@ -63933,16 +63933,16 @@
         </is>
       </c>
       <c r="J883" t="n">
-        <v>160</v>
+        <v>820</v>
       </c>
       <c r="K883" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="L883" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="M883" t="n">
-        <v>9000</v>
+        <v>7537</v>
       </c>
       <c r="N883" t="inlineStr">
         <is>
@@ -63955,7 +63955,7 @@
         </is>
       </c>
       <c r="P883" t="n">
-        <v>500</v>
+        <v>419</v>
       </c>
       <c r="Q883" t="n">
         <v>18</v>
@@ -63981,7 +63981,7 @@
         </is>
       </c>
       <c r="D884" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E884" t="n">
         <v>13</v>
@@ -64005,16 +64005,16 @@
         </is>
       </c>
       <c r="J884" t="n">
-        <v>470</v>
+        <v>740</v>
       </c>
       <c r="K884" t="n">
         <v>11000</v>
       </c>
       <c r="L884" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="M884" t="n">
-        <v>11000</v>
+        <v>11622</v>
       </c>
       <c r="N884" t="inlineStr">
         <is>
@@ -64023,11 +64023,11 @@
       </c>
       <c r="O884" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P884" t="n">
-        <v>611</v>
+        <v>646</v>
       </c>
       <c r="Q884" t="n">
         <v>18</v>
@@ -64053,7 +64053,7 @@
         </is>
       </c>
       <c r="D885" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E885" t="n">
         <v>13</v>
@@ -64073,20 +64073,20 @@
       </c>
       <c r="I885" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J885" t="n">
-        <v>560</v>
+        <v>250</v>
       </c>
       <c r="K885" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="L885" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="M885" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="N885" t="inlineStr">
         <is>
@@ -64095,11 +64095,11 @@
       </c>
       <c r="O885" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P885" t="n">
-        <v>556</v>
+        <v>722</v>
       </c>
       <c r="Q885" t="n">
         <v>18</v>
@@ -64125,7 +64125,7 @@
         </is>
       </c>
       <c r="D886" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E886" t="n">
         <v>13</v>
@@ -64145,20 +64145,20 @@
       </c>
       <c r="I886" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J886" t="n">
-        <v>340</v>
+        <v>1040</v>
       </c>
       <c r="K886" t="n">
-        <v>9000</v>
+        <v>9500</v>
       </c>
       <c r="L886" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M886" t="n">
-        <v>9000</v>
+        <v>9769</v>
       </c>
       <c r="N886" t="inlineStr">
         <is>
@@ -64167,11 +64167,11 @@
       </c>
       <c r="O886" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P886" t="n">
-        <v>500</v>
+        <v>543</v>
       </c>
       <c r="Q886" t="n">
         <v>18</v>
@@ -64197,7 +64197,7 @@
         </is>
       </c>
       <c r="D887" s="2" t="n">
-        <v>44449</v>
+        <v>44343</v>
       </c>
       <c r="E887" t="n">
         <v>13</v>
@@ -64217,20 +64217,20 @@
       </c>
       <c r="I887" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J887" t="n">
-        <v>790</v>
+        <v>380</v>
       </c>
       <c r="K887" t="n">
-        <v>19000</v>
+        <v>11000</v>
       </c>
       <c r="L887" t="n">
-        <v>20000</v>
+        <v>11000</v>
       </c>
       <c r="M887" t="n">
-        <v>19481</v>
+        <v>11000</v>
       </c>
       <c r="N887" t="inlineStr">
         <is>
@@ -64239,11 +64239,11 @@
       </c>
       <c r="O887" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P887" t="n">
-        <v>1082</v>
+        <v>611</v>
       </c>
       <c r="Q887" t="n">
         <v>18</v>
@@ -64269,7 +64269,7 @@
         </is>
       </c>
       <c r="D888" s="2" t="n">
-        <v>44449</v>
+        <v>44343</v>
       </c>
       <c r="E888" t="n">
         <v>13</v>
@@ -64289,20 +64289,20 @@
       </c>
       <c r="I888" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J888" t="n">
-        <v>800</v>
+        <v>670</v>
       </c>
       <c r="K888" t="n">
-        <v>15000</v>
+        <v>6500</v>
       </c>
       <c r="L888" t="n">
-        <v>16000</v>
+        <v>7000</v>
       </c>
       <c r="M888" t="n">
-        <v>15500</v>
+        <v>6784</v>
       </c>
       <c r="N888" t="inlineStr">
         <is>
@@ -64311,11 +64311,11 @@
       </c>
       <c r="O888" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P888" t="n">
-        <v>861</v>
+        <v>377</v>
       </c>
       <c r="Q888" t="n">
         <v>18</v>
@@ -64341,7 +64341,7 @@
         </is>
       </c>
       <c r="D889" s="2" t="n">
-        <v>44449</v>
+        <v>44343</v>
       </c>
       <c r="E889" t="n">
         <v>13</v>
@@ -64361,20 +64361,20 @@
       </c>
       <c r="I889" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J889" t="n">
-        <v>1130</v>
+        <v>160</v>
       </c>
       <c r="K889" t="n">
-        <v>22000</v>
+        <v>9000</v>
       </c>
       <c r="L889" t="n">
-        <v>23000</v>
+        <v>9000</v>
       </c>
       <c r="M889" t="n">
-        <v>22487</v>
+        <v>9000</v>
       </c>
       <c r="N889" t="inlineStr">
         <is>
@@ -64387,7 +64387,7 @@
         </is>
       </c>
       <c r="P889" t="n">
-        <v>1249</v>
+        <v>500</v>
       </c>
       <c r="Q889" t="n">
         <v>18</v>
@@ -64413,7 +64413,7 @@
         </is>
       </c>
       <c r="D890" s="2" t="n">
-        <v>44449</v>
+        <v>44370</v>
       </c>
       <c r="E890" t="n">
         <v>13</v>
@@ -64433,20 +64433,20 @@
       </c>
       <c r="I890" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J890" t="n">
-        <v>810</v>
+        <v>470</v>
       </c>
       <c r="K890" t="n">
         <v>11000</v>
       </c>
       <c r="L890" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="M890" t="n">
-        <v>11432</v>
+        <v>11000</v>
       </c>
       <c r="N890" t="inlineStr">
         <is>
@@ -64459,7 +64459,7 @@
         </is>
       </c>
       <c r="P890" t="n">
-        <v>635</v>
+        <v>611</v>
       </c>
       <c r="Q890" t="n">
         <v>18</v>
@@ -64485,7 +64485,7 @@
         </is>
       </c>
       <c r="D891" s="2" t="n">
-        <v>44449</v>
+        <v>44370</v>
       </c>
       <c r="E891" t="n">
         <v>13</v>
@@ -64505,20 +64505,20 @@
       </c>
       <c r="I891" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J891" t="n">
-        <v>860</v>
+        <v>560</v>
       </c>
       <c r="K891" t="n">
-        <v>19000</v>
+        <v>10000</v>
       </c>
       <c r="L891" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="M891" t="n">
-        <v>19523</v>
+        <v>10000</v>
       </c>
       <c r="N891" t="inlineStr">
         <is>
@@ -64527,11 +64527,11 @@
       </c>
       <c r="O891" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P891" t="n">
-        <v>1085</v>
+        <v>556</v>
       </c>
       <c r="Q891" t="n">
         <v>18</v>
@@ -64557,7 +64557,7 @@
         </is>
       </c>
       <c r="D892" s="2" t="n">
-        <v>44168</v>
+        <v>44370</v>
       </c>
       <c r="E892" t="n">
         <v>13</v>
@@ -64577,20 +64577,20 @@
       </c>
       <c r="I892" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J892" t="n">
-        <v>1140</v>
+        <v>340</v>
       </c>
       <c r="K892" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="L892" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="M892" t="n">
-        <v>11579</v>
+        <v>9000</v>
       </c>
       <c r="N892" t="inlineStr">
         <is>
@@ -64603,7 +64603,7 @@
         </is>
       </c>
       <c r="P892" t="n">
-        <v>643</v>
+        <v>500</v>
       </c>
       <c r="Q892" t="n">
         <v>18</v>
@@ -64629,7 +64629,7 @@
         </is>
       </c>
       <c r="D893" s="2" t="n">
-        <v>44168</v>
+        <v>44449</v>
       </c>
       <c r="E893" t="n">
         <v>13</v>
@@ -64649,20 +64649,20 @@
       </c>
       <c r="I893" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J893" t="n">
-        <v>1370</v>
+        <v>790</v>
       </c>
       <c r="K893" t="n">
-        <v>9000</v>
+        <v>19000</v>
       </c>
       <c r="L893" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="M893" t="n">
-        <v>9577</v>
+        <v>19481</v>
       </c>
       <c r="N893" t="inlineStr">
         <is>
@@ -64675,7 +64675,7 @@
         </is>
       </c>
       <c r="P893" t="n">
-        <v>532</v>
+        <v>1082</v>
       </c>
       <c r="Q893" t="n">
         <v>18</v>
@@ -64701,7 +64701,7 @@
         </is>
       </c>
       <c r="D894" s="2" t="n">
-        <v>44168</v>
+        <v>44449</v>
       </c>
       <c r="E894" t="n">
         <v>13</v>
@@ -64721,20 +64721,20 @@
       </c>
       <c r="I894" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J894" t="n">
-        <v>950</v>
+        <v>800</v>
       </c>
       <c r="K894" t="n">
-        <v>6500</v>
+        <v>15000</v>
       </c>
       <c r="L894" t="n">
-        <v>7000</v>
+        <v>16000</v>
       </c>
       <c r="M894" t="n">
-        <v>6800</v>
+        <v>15500</v>
       </c>
       <c r="N894" t="inlineStr">
         <is>
@@ -64747,7 +64747,7 @@
         </is>
       </c>
       <c r="P894" t="n">
-        <v>378</v>
+        <v>861</v>
       </c>
       <c r="Q894" t="n">
         <v>18</v>
@@ -64773,7 +64773,7 @@
         </is>
       </c>
       <c r="D895" s="2" t="n">
-        <v>44168</v>
+        <v>44449</v>
       </c>
       <c r="E895" t="n">
         <v>13</v>
@@ -64793,20 +64793,20 @@
       </c>
       <c r="I895" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J895" t="n">
-        <v>720</v>
+        <v>1130</v>
       </c>
       <c r="K895" t="n">
-        <v>4500</v>
+        <v>22000</v>
       </c>
       <c r="L895" t="n">
-        <v>5000</v>
+        <v>23000</v>
       </c>
       <c r="M895" t="n">
-        <v>4792</v>
+        <v>22487</v>
       </c>
       <c r="N895" t="inlineStr">
         <is>
@@ -64815,11 +64815,11 @@
       </c>
       <c r="O895" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P895" t="n">
-        <v>266</v>
+        <v>1249</v>
       </c>
       <c r="Q895" t="n">
         <v>18</v>
@@ -64845,7 +64845,7 @@
         </is>
       </c>
       <c r="D896" s="2" t="n">
-        <v>44175</v>
+        <v>44449</v>
       </c>
       <c r="E896" t="n">
         <v>13</v>
@@ -64865,20 +64865,20 @@
       </c>
       <c r="I896" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J896" t="n">
-        <v>1080</v>
+        <v>810</v>
       </c>
       <c r="K896" t="n">
-        <v>9500</v>
+        <v>11000</v>
       </c>
       <c r="L896" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M896" t="n">
-        <v>9778</v>
+        <v>11432</v>
       </c>
       <c r="N896" t="inlineStr">
         <is>
@@ -64891,7 +64891,7 @@
         </is>
       </c>
       <c r="P896" t="n">
-        <v>543</v>
+        <v>635</v>
       </c>
       <c r="Q896" t="n">
         <v>18</v>
@@ -64917,7 +64917,7 @@
         </is>
       </c>
       <c r="D897" s="2" t="n">
-        <v>44175</v>
+        <v>44449</v>
       </c>
       <c r="E897" t="n">
         <v>13</v>
@@ -64937,20 +64937,20 @@
       </c>
       <c r="I897" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J897" t="n">
-        <v>1280</v>
+        <v>860</v>
       </c>
       <c r="K897" t="n">
-        <v>7000</v>
+        <v>19000</v>
       </c>
       <c r="L897" t="n">
-        <v>7500</v>
+        <v>20000</v>
       </c>
       <c r="M897" t="n">
-        <v>7266</v>
+        <v>19523</v>
       </c>
       <c r="N897" t="inlineStr">
         <is>
@@ -64959,11 +64959,11 @@
       </c>
       <c r="O897" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P897" t="n">
-        <v>404</v>
+        <v>1085</v>
       </c>
       <c r="Q897" t="n">
         <v>18</v>
@@ -64989,7 +64989,7 @@
         </is>
       </c>
       <c r="D898" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E898" t="n">
         <v>13</v>
@@ -65009,20 +65009,20 @@
       </c>
       <c r="I898" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J898" t="n">
-        <v>880</v>
+        <v>1140</v>
       </c>
       <c r="K898" t="n">
-        <v>5000</v>
+        <v>11000</v>
       </c>
       <c r="L898" t="n">
-        <v>5500</v>
+        <v>12000</v>
       </c>
       <c r="M898" t="n">
-        <v>5273</v>
+        <v>11579</v>
       </c>
       <c r="N898" t="inlineStr">
         <is>
@@ -65035,7 +65035,7 @@
         </is>
       </c>
       <c r="P898" t="n">
-        <v>293</v>
+        <v>643</v>
       </c>
       <c r="Q898" t="n">
         <v>18</v>
@@ -65061,7 +65061,7 @@
         </is>
       </c>
       <c r="D899" s="2" t="n">
-        <v>44392</v>
+        <v>44168</v>
       </c>
       <c r="E899" t="n">
         <v>13</v>
@@ -65081,20 +65081,20 @@
       </c>
       <c r="I899" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J899" t="n">
-        <v>180</v>
+        <v>1370</v>
       </c>
       <c r="K899" t="n">
         <v>9000</v>
       </c>
       <c r="L899" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M899" t="n">
-        <v>9000</v>
+        <v>9577</v>
       </c>
       <c r="N899" t="inlineStr">
         <is>
@@ -65107,7 +65107,7 @@
         </is>
       </c>
       <c r="P899" t="n">
-        <v>500</v>
+        <v>532</v>
       </c>
       <c r="Q899" t="n">
         <v>18</v>
@@ -65133,7 +65133,7 @@
         </is>
       </c>
       <c r="D900" s="2" t="n">
-        <v>44392</v>
+        <v>44168</v>
       </c>
       <c r="E900" t="n">
         <v>13</v>
@@ -65153,20 +65153,20 @@
       </c>
       <c r="I900" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J900" t="n">
-        <v>1040</v>
+        <v>950</v>
       </c>
       <c r="K900" t="n">
-        <v>15000</v>
+        <v>6500</v>
       </c>
       <c r="L900" t="n">
-        <v>16000</v>
+        <v>7000</v>
       </c>
       <c r="M900" t="n">
-        <v>15538</v>
+        <v>6800</v>
       </c>
       <c r="N900" t="inlineStr">
         <is>
@@ -65175,11 +65175,11 @@
       </c>
       <c r="O900" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P900" t="n">
-        <v>863</v>
+        <v>378</v>
       </c>
       <c r="Q900" t="n">
         <v>18</v>
@@ -65205,7 +65205,7 @@
         </is>
       </c>
       <c r="D901" s="2" t="n">
-        <v>44392</v>
+        <v>44168</v>
       </c>
       <c r="E901" t="n">
         <v>13</v>
@@ -65225,20 +65225,20 @@
       </c>
       <c r="I901" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J901" t="n">
-        <v>620</v>
+        <v>720</v>
       </c>
       <c r="K901" t="n">
-        <v>8000</v>
+        <v>4500</v>
       </c>
       <c r="L901" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="M901" t="n">
-        <v>8000</v>
+        <v>4792</v>
       </c>
       <c r="N901" t="inlineStr">
         <is>
@@ -65251,7 +65251,7 @@
         </is>
       </c>
       <c r="P901" t="n">
-        <v>444</v>
+        <v>266</v>
       </c>
       <c r="Q901" t="n">
         <v>18</v>
@@ -65277,7 +65277,7 @@
         </is>
       </c>
       <c r="D902" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E902" t="n">
         <v>13</v>
@@ -65297,20 +65297,20 @@
       </c>
       <c r="I902" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J902" t="n">
-        <v>1160</v>
+        <v>1080</v>
       </c>
       <c r="K902" t="n">
-        <v>13000</v>
+        <v>9500</v>
       </c>
       <c r="L902" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="M902" t="n">
-        <v>13517</v>
+        <v>9778</v>
       </c>
       <c r="N902" t="inlineStr">
         <is>
@@ -65319,11 +65319,11 @@
       </c>
       <c r="O902" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P902" t="n">
-        <v>751</v>
+        <v>543</v>
       </c>
       <c r="Q902" t="n">
         <v>18</v>
@@ -65349,7 +65349,7 @@
         </is>
       </c>
       <c r="D903" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E903" t="n">
         <v>13</v>
@@ -65369,20 +65369,20 @@
       </c>
       <c r="I903" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J903" t="n">
-        <v>270</v>
+        <v>1280</v>
       </c>
       <c r="K903" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L903" t="n">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="M903" t="n">
-        <v>6000</v>
+        <v>7266</v>
       </c>
       <c r="N903" t="inlineStr">
         <is>
@@ -65395,7 +65395,7 @@
         </is>
       </c>
       <c r="P903" t="n">
-        <v>333</v>
+        <v>404</v>
       </c>
       <c r="Q903" t="n">
         <v>18</v>
@@ -65421,7 +65421,7 @@
         </is>
       </c>
       <c r="D904" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E904" t="n">
         <v>13</v>
@@ -65445,16 +65445,16 @@
         </is>
       </c>
       <c r="J904" t="n">
-        <v>1100</v>
+        <v>880</v>
       </c>
       <c r="K904" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="L904" t="n">
-        <v>8000</v>
+        <v>5500</v>
       </c>
       <c r="M904" t="n">
-        <v>7473</v>
+        <v>5273</v>
       </c>
       <c r="N904" t="inlineStr">
         <is>
@@ -65463,11 +65463,11 @@
       </c>
       <c r="O904" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P904" t="n">
-        <v>415</v>
+        <v>293</v>
       </c>
       <c r="Q904" t="n">
         <v>18</v>
@@ -65493,7 +65493,7 @@
         </is>
       </c>
       <c r="D905" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E905" t="n">
         <v>13</v>
@@ -65517,16 +65517,16 @@
         </is>
       </c>
       <c r="J905" t="n">
-        <v>780</v>
+        <v>180</v>
       </c>
       <c r="K905" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="L905" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="M905" t="n">
-        <v>13513</v>
+        <v>9000</v>
       </c>
       <c r="N905" t="inlineStr">
         <is>
@@ -65539,7 +65539,7 @@
         </is>
       </c>
       <c r="P905" t="n">
-        <v>751</v>
+        <v>500</v>
       </c>
       <c r="Q905" t="n">
         <v>18</v>
@@ -65565,7 +65565,7 @@
         </is>
       </c>
       <c r="D906" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E906" t="n">
         <v>13</v>
@@ -65585,20 +65585,20 @@
       </c>
       <c r="I906" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J906" t="n">
         <v>1040</v>
       </c>
       <c r="K906" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="L906" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="M906" t="n">
-        <v>10462</v>
+        <v>15538</v>
       </c>
       <c r="N906" t="inlineStr">
         <is>
@@ -65607,11 +65607,11 @@
       </c>
       <c r="O906" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P906" t="n">
-        <v>581</v>
+        <v>863</v>
       </c>
       <c r="Q906" t="n">
         <v>18</v>
@@ -65637,7 +65637,7 @@
         </is>
       </c>
       <c r="D907" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E907" t="n">
         <v>13</v>
@@ -65657,20 +65657,20 @@
       </c>
       <c r="I907" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J907" t="n">
-        <v>550</v>
+        <v>620</v>
       </c>
       <c r="K907" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L907" t="n">
         <v>8000</v>
       </c>
       <c r="M907" t="n">
-        <v>7545</v>
+        <v>8000</v>
       </c>
       <c r="N907" t="inlineStr">
         <is>
@@ -65683,7 +65683,7 @@
         </is>
       </c>
       <c r="P907" t="n">
-        <v>419</v>
+        <v>444</v>
       </c>
       <c r="Q907" t="n">
         <v>18</v>
@@ -65709,7 +65709,7 @@
         </is>
       </c>
       <c r="D908" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E908" t="n">
         <v>13</v>
@@ -65724,25 +65724,25 @@
       </c>
       <c r="H908" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I908" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J908" t="n">
-        <v>580</v>
+        <v>1160</v>
       </c>
       <c r="K908" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="L908" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="M908" t="n">
-        <v>7517</v>
+        <v>13517</v>
       </c>
       <c r="N908" t="inlineStr">
         <is>
@@ -65751,11 +65751,11 @@
       </c>
       <c r="O908" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P908" t="n">
-        <v>418</v>
+        <v>751</v>
       </c>
       <c r="Q908" t="n">
         <v>18</v>
@@ -65781,7 +65781,7 @@
         </is>
       </c>
       <c r="D909" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E909" t="n">
         <v>13</v>
@@ -65796,25 +65796,25 @@
       </c>
       <c r="H909" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I909" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J909" t="n">
-        <v>550</v>
+        <v>270</v>
       </c>
       <c r="K909" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L909" t="n">
         <v>6000</v>
       </c>
       <c r="M909" t="n">
-        <v>5455</v>
+        <v>6000</v>
       </c>
       <c r="N909" t="inlineStr">
         <is>
@@ -65823,11 +65823,11 @@
       </c>
       <c r="O909" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P909" t="n">
-        <v>303</v>
+        <v>333</v>
       </c>
       <c r="Q909" t="n">
         <v>18</v>
@@ -65853,7 +65853,7 @@
         </is>
       </c>
       <c r="D910" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E910" t="n">
         <v>13</v>
@@ -65868,7 +65868,7 @@
       </c>
       <c r="H910" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I910" t="inlineStr">
@@ -65877,16 +65877,16 @@
         </is>
       </c>
       <c r="J910" t="n">
-        <v>440</v>
+        <v>1100</v>
       </c>
       <c r="K910" t="n">
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="L910" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="M910" t="n">
-        <v>3591</v>
+        <v>7473</v>
       </c>
       <c r="N910" t="inlineStr">
         <is>
@@ -65895,11 +65895,11 @@
       </c>
       <c r="O910" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P910" t="n">
-        <v>200</v>
+        <v>415</v>
       </c>
       <c r="Q910" t="n">
         <v>18</v>
@@ -65925,7 +65925,7 @@
         </is>
       </c>
       <c r="D911" s="2" t="n">
-        <v>44473</v>
+        <v>44286</v>
       </c>
       <c r="E911" t="n">
         <v>13</v>
@@ -65949,16 +65949,16 @@
         </is>
       </c>
       <c r="J911" t="n">
-        <v>420</v>
+        <v>780</v>
       </c>
       <c r="K911" t="n">
-        <v>19000</v>
+        <v>13000</v>
       </c>
       <c r="L911" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="M911" t="n">
-        <v>19429</v>
+        <v>13513</v>
       </c>
       <c r="N911" t="inlineStr">
         <is>
@@ -65967,11 +65967,11 @@
       </c>
       <c r="O911" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P911" t="n">
-        <v>1079</v>
+        <v>751</v>
       </c>
       <c r="Q911" t="n">
         <v>18</v>
@@ -65997,7 +65997,7 @@
         </is>
       </c>
       <c r="D912" s="2" t="n">
-        <v>44473</v>
+        <v>44286</v>
       </c>
       <c r="E912" t="n">
         <v>13</v>
@@ -66021,16 +66021,16 @@
         </is>
       </c>
       <c r="J912" t="n">
-        <v>500</v>
+        <v>1040</v>
       </c>
       <c r="K912" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="L912" t="n">
-        <v>17000</v>
+        <v>11000</v>
       </c>
       <c r="M912" t="n">
-        <v>16560</v>
+        <v>10462</v>
       </c>
       <c r="N912" t="inlineStr">
         <is>
@@ -66039,11 +66039,11 @@
       </c>
       <c r="O912" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P912" t="n">
-        <v>920</v>
+        <v>581</v>
       </c>
       <c r="Q912" t="n">
         <v>18</v>
@@ -66069,7 +66069,7 @@
         </is>
       </c>
       <c r="D913" s="2" t="n">
-        <v>44473</v>
+        <v>44286</v>
       </c>
       <c r="E913" t="n">
         <v>13</v>
@@ -66093,16 +66093,16 @@
         </is>
       </c>
       <c r="J913" t="n">
-        <v>320</v>
+        <v>550</v>
       </c>
       <c r="K913" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="L913" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="M913" t="n">
-        <v>13562</v>
+        <v>7545</v>
       </c>
       <c r="N913" t="inlineStr">
         <is>
@@ -66111,11 +66111,11 @@
       </c>
       <c r="O913" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P913" t="n">
-        <v>753</v>
+        <v>419</v>
       </c>
       <c r="Q913" t="n">
         <v>18</v>
@@ -66141,7 +66141,7 @@
         </is>
       </c>
       <c r="D914" s="2" t="n">
-        <v>44400</v>
+        <v>44286</v>
       </c>
       <c r="E914" t="n">
         <v>13</v>
@@ -66156,7 +66156,7 @@
       </c>
       <c r="H914" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I914" t="inlineStr">
@@ -66165,16 +66165,16 @@
         </is>
       </c>
       <c r="J914" t="n">
-        <v>450</v>
+        <v>580</v>
       </c>
       <c r="K914" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L914" t="n">
         <v>8000</v>
       </c>
-      <c r="L914" t="n">
-        <v>8500</v>
-      </c>
       <c r="M914" t="n">
-        <v>8278</v>
+        <v>7517</v>
       </c>
       <c r="N914" t="inlineStr">
         <is>
@@ -66183,11 +66183,11 @@
       </c>
       <c r="O914" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P914" t="n">
-        <v>460</v>
+        <v>418</v>
       </c>
       <c r="Q914" t="n">
         <v>18</v>
@@ -66213,7 +66213,7 @@
         </is>
       </c>
       <c r="D915" s="2" t="n">
-        <v>44400</v>
+        <v>44286</v>
       </c>
       <c r="E915" t="n">
         <v>13</v>
@@ -66228,25 +66228,25 @@
       </c>
       <c r="H915" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I915" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J915" t="n">
-        <v>960</v>
+        <v>550</v>
       </c>
       <c r="K915" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="L915" t="n">
-        <v>13000</v>
+        <v>6000</v>
       </c>
       <c r="M915" t="n">
-        <v>12583</v>
+        <v>5455</v>
       </c>
       <c r="N915" t="inlineStr">
         <is>
@@ -66255,11 +66255,11 @@
       </c>
       <c r="O915" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P915" t="n">
-        <v>699</v>
+        <v>303</v>
       </c>
       <c r="Q915" t="n">
         <v>18</v>
@@ -66285,7 +66285,7 @@
         </is>
       </c>
       <c r="D916" s="2" t="n">
-        <v>44400</v>
+        <v>44286</v>
       </c>
       <c r="E916" t="n">
         <v>13</v>
@@ -66300,25 +66300,25 @@
       </c>
       <c r="H916" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I916" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J916" t="n">
-        <v>620</v>
+        <v>440</v>
       </c>
       <c r="K916" t="n">
-        <v>7000</v>
+        <v>3000</v>
       </c>
       <c r="L916" t="n">
-        <v>7500</v>
+        <v>4000</v>
       </c>
       <c r="M916" t="n">
-        <v>7274</v>
+        <v>3591</v>
       </c>
       <c r="N916" t="inlineStr">
         <is>
@@ -66327,11 +66327,11 @@
       </c>
       <c r="O916" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P916" t="n">
-        <v>404</v>
+        <v>200</v>
       </c>
       <c r="Q916" t="n">
         <v>18</v>
@@ -66357,7 +66357,7 @@
         </is>
       </c>
       <c r="D917" s="2" t="n">
-        <v>44400</v>
+        <v>44473</v>
       </c>
       <c r="E917" t="n">
         <v>13</v>
@@ -66377,20 +66377,20 @@
       </c>
       <c r="I917" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J917" t="n">
-        <v>920</v>
+        <v>420</v>
       </c>
       <c r="K917" t="n">
-        <v>10000</v>
+        <v>19000</v>
       </c>
       <c r="L917" t="n">
-        <v>11000</v>
+        <v>20000</v>
       </c>
       <c r="M917" t="n">
-        <v>10522</v>
+        <v>19429</v>
       </c>
       <c r="N917" t="inlineStr">
         <is>
@@ -66403,7 +66403,7 @@
         </is>
       </c>
       <c r="P917" t="n">
-        <v>585</v>
+        <v>1079</v>
       </c>
       <c r="Q917" t="n">
         <v>18</v>
@@ -66429,7 +66429,7 @@
         </is>
       </c>
       <c r="D918" s="2" t="n">
-        <v>44400</v>
+        <v>44473</v>
       </c>
       <c r="E918" t="n">
         <v>13</v>
@@ -66449,20 +66449,20 @@
       </c>
       <c r="I918" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J918" t="n">
-        <v>230</v>
+        <v>500</v>
       </c>
       <c r="K918" t="n">
-        <v>5000</v>
+        <v>16000</v>
       </c>
       <c r="L918" t="n">
-        <v>5500</v>
+        <v>17000</v>
       </c>
       <c r="M918" t="n">
-        <v>5283</v>
+        <v>16560</v>
       </c>
       <c r="N918" t="inlineStr">
         <is>
@@ -66471,11 +66471,11 @@
       </c>
       <c r="O918" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P918" t="n">
-        <v>294</v>
+        <v>920</v>
       </c>
       <c r="Q918" t="n">
         <v>18</v>
@@ -66501,7 +66501,7 @@
         </is>
       </c>
       <c r="D919" s="2" t="n">
-        <v>44400</v>
+        <v>44473</v>
       </c>
       <c r="E919" t="n">
         <v>13</v>
@@ -66525,16 +66525,16 @@
         </is>
       </c>
       <c r="J919" t="n">
-        <v>260</v>
+        <v>320</v>
       </c>
       <c r="K919" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="L919" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="M919" t="n">
-        <v>8538</v>
+        <v>13562</v>
       </c>
       <c r="N919" t="inlineStr">
         <is>
@@ -66547,7 +66547,7 @@
         </is>
       </c>
       <c r="P919" t="n">
-        <v>474</v>
+        <v>753</v>
       </c>
       <c r="Q919" t="n">
         <v>18</v>
@@ -66573,7 +66573,7 @@
         </is>
       </c>
       <c r="D920" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E920" t="n">
         <v>13</v>
@@ -66597,16 +66597,16 @@
         </is>
       </c>
       <c r="J920" t="n">
-        <v>600</v>
+        <v>450</v>
       </c>
       <c r="K920" t="n">
-        <v>18000</v>
+        <v>8000</v>
       </c>
       <c r="L920" t="n">
-        <v>18000</v>
+        <v>8500</v>
       </c>
       <c r="M920" t="n">
-        <v>18000</v>
+        <v>8278</v>
       </c>
       <c r="N920" t="inlineStr">
         <is>
@@ -66619,7 +66619,7 @@
         </is>
       </c>
       <c r="P920" t="n">
-        <v>1000</v>
+        <v>460</v>
       </c>
       <c r="Q920" t="n">
         <v>18</v>
@@ -66645,7 +66645,7 @@
         </is>
       </c>
       <c r="D921" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E921" t="n">
         <v>13</v>
@@ -66669,16 +66669,16 @@
         </is>
       </c>
       <c r="J921" t="n">
-        <v>600</v>
+        <v>960</v>
       </c>
       <c r="K921" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="L921" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="M921" t="n">
-        <v>16000</v>
+        <v>12583</v>
       </c>
       <c r="N921" t="inlineStr">
         <is>
@@ -66691,7 +66691,7 @@
         </is>
       </c>
       <c r="P921" t="n">
-        <v>889</v>
+        <v>699</v>
       </c>
       <c r="Q921" t="n">
         <v>18</v>
@@ -66717,7 +66717,7 @@
         </is>
       </c>
       <c r="D922" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E922" t="n">
         <v>13</v>
@@ -66741,16 +66741,16 @@
         </is>
       </c>
       <c r="J922" t="n">
-        <v>700</v>
+        <v>620</v>
       </c>
       <c r="K922" t="n">
-        <v>17000</v>
+        <v>7000</v>
       </c>
       <c r="L922" t="n">
-        <v>17000</v>
+        <v>7500</v>
       </c>
       <c r="M922" t="n">
-        <v>17000</v>
+        <v>7274</v>
       </c>
       <c r="N922" t="inlineStr">
         <is>
@@ -66763,7 +66763,7 @@
         </is>
       </c>
       <c r="P922" t="n">
-        <v>944</v>
+        <v>404</v>
       </c>
       <c r="Q922" t="n">
         <v>18</v>
@@ -66789,7 +66789,7 @@
         </is>
       </c>
       <c r="D923" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E923" t="n">
         <v>13</v>
@@ -66813,16 +66813,16 @@
         </is>
       </c>
       <c r="J923" t="n">
-        <v>650</v>
+        <v>920</v>
       </c>
       <c r="K923" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="L923" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="M923" t="n">
-        <v>15000</v>
+        <v>10522</v>
       </c>
       <c r="N923" t="inlineStr">
         <is>
@@ -66835,7 +66835,7 @@
         </is>
       </c>
       <c r="P923" t="n">
-        <v>833</v>
+        <v>585</v>
       </c>
       <c r="Q923" t="n">
         <v>18</v>
@@ -66861,7 +66861,7 @@
         </is>
       </c>
       <c r="D924" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E924" t="n">
         <v>13</v>
@@ -66885,16 +66885,16 @@
         </is>
       </c>
       <c r="J924" t="n">
-        <v>650</v>
+        <v>230</v>
       </c>
       <c r="K924" t="n">
-        <v>11000</v>
+        <v>5000</v>
       </c>
       <c r="L924" t="n">
-        <v>11000</v>
+        <v>5500</v>
       </c>
       <c r="M924" t="n">
-        <v>11000</v>
+        <v>5283</v>
       </c>
       <c r="N924" t="inlineStr">
         <is>
@@ -66907,7 +66907,7 @@
         </is>
       </c>
       <c r="P924" t="n">
-        <v>611</v>
+        <v>294</v>
       </c>
       <c r="Q924" t="n">
         <v>18</v>
@@ -66933,7 +66933,7 @@
         </is>
       </c>
       <c r="D925" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E925" t="n">
         <v>13</v>
@@ -66957,16 +66957,16 @@
         </is>
       </c>
       <c r="J925" t="n">
-        <v>700</v>
+        <v>260</v>
       </c>
       <c r="K925" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="L925" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="M925" t="n">
-        <v>10000</v>
+        <v>8538</v>
       </c>
       <c r="N925" t="inlineStr">
         <is>
@@ -66979,7 +66979,7 @@
         </is>
       </c>
       <c r="P925" t="n">
-        <v>556</v>
+        <v>474</v>
       </c>
       <c r="Q925" t="n">
         <v>18</v>
@@ -67005,7 +67005,7 @@
         </is>
       </c>
       <c r="D926" s="2" t="n">
-        <v>44181</v>
+        <v>44484</v>
       </c>
       <c r="E926" t="n">
         <v>13</v>
@@ -67029,16 +67029,16 @@
         </is>
       </c>
       <c r="J926" t="n">
-        <v>1050</v>
+        <v>600</v>
       </c>
       <c r="K926" t="n">
-        <v>9500</v>
+        <v>18000</v>
       </c>
       <c r="L926" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="M926" t="n">
-        <v>9810</v>
+        <v>18000</v>
       </c>
       <c r="N926" t="inlineStr">
         <is>
@@ -67051,7 +67051,7 @@
         </is>
       </c>
       <c r="P926" t="n">
-        <v>545</v>
+        <v>1000</v>
       </c>
       <c r="Q926" t="n">
         <v>18</v>
@@ -67077,7 +67077,7 @@
         </is>
       </c>
       <c r="D927" s="2" t="n">
-        <v>44181</v>
+        <v>44484</v>
       </c>
       <c r="E927" t="n">
         <v>13</v>
@@ -67097,20 +67097,20 @@
       </c>
       <c r="I927" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J927" t="n">
-        <v>1100</v>
+        <v>600</v>
       </c>
       <c r="K927" t="n">
-        <v>8500</v>
+        <v>16000</v>
       </c>
       <c r="L927" t="n">
-        <v>9000</v>
+        <v>16000</v>
       </c>
       <c r="M927" t="n">
-        <v>8764</v>
+        <v>16000</v>
       </c>
       <c r="N927" t="inlineStr">
         <is>
@@ -67119,11 +67119,11 @@
       </c>
       <c r="O927" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P927" t="n">
-        <v>487</v>
+        <v>889</v>
       </c>
       <c r="Q927" t="n">
         <v>18</v>
@@ -67149,7 +67149,7 @@
         </is>
       </c>
       <c r="D928" s="2" t="n">
-        <v>44181</v>
+        <v>44484</v>
       </c>
       <c r="E928" t="n">
         <v>13</v>
@@ -67169,20 +67169,20 @@
       </c>
       <c r="I928" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J928" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="K928" t="n">
-        <v>6000</v>
+        <v>17000</v>
       </c>
       <c r="L928" t="n">
-        <v>6500</v>
+        <v>17000</v>
       </c>
       <c r="M928" t="n">
-        <v>6233</v>
+        <v>17000</v>
       </c>
       <c r="N928" t="inlineStr">
         <is>
@@ -67195,7 +67195,7 @@
         </is>
       </c>
       <c r="P928" t="n">
-        <v>346</v>
+        <v>944</v>
       </c>
       <c r="Q928" t="n">
         <v>18</v>
@@ -67221,7 +67221,7 @@
         </is>
       </c>
       <c r="D929" s="2" t="n">
-        <v>44494</v>
+        <v>44484</v>
       </c>
       <c r="E929" t="n">
         <v>13</v>
@@ -67241,20 +67241,20 @@
       </c>
       <c r="I929" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J929" t="n">
-        <v>630</v>
+        <v>650</v>
       </c>
       <c r="K929" t="n">
-        <v>19000</v>
+        <v>15000</v>
       </c>
       <c r="L929" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="M929" t="n">
-        <v>19603</v>
+        <v>15000</v>
       </c>
       <c r="N929" t="inlineStr">
         <is>
@@ -67263,11 +67263,11 @@
       </c>
       <c r="O929" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P929" t="n">
-        <v>1089</v>
+        <v>833</v>
       </c>
       <c r="Q929" t="n">
         <v>18</v>
@@ -67293,7 +67293,7 @@
         </is>
       </c>
       <c r="D930" s="2" t="n">
-        <v>44494</v>
+        <v>44484</v>
       </c>
       <c r="E930" t="n">
         <v>13</v>
@@ -67313,20 +67313,20 @@
       </c>
       <c r="I930" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J930" t="n">
-        <v>660</v>
+        <v>650</v>
       </c>
       <c r="K930" t="n">
-        <v>17000</v>
+        <v>11000</v>
       </c>
       <c r="L930" t="n">
-        <v>18000</v>
+        <v>11000</v>
       </c>
       <c r="M930" t="n">
-        <v>17530</v>
+        <v>11000</v>
       </c>
       <c r="N930" t="inlineStr">
         <is>
@@ -67339,7 +67339,7 @@
         </is>
       </c>
       <c r="P930" t="n">
-        <v>974</v>
+        <v>611</v>
       </c>
       <c r="Q930" t="n">
         <v>18</v>
@@ -67365,7 +67365,7 @@
         </is>
       </c>
       <c r="D931" s="2" t="n">
-        <v>44494</v>
+        <v>44484</v>
       </c>
       <c r="E931" t="n">
         <v>13</v>
@@ -67389,16 +67389,16 @@
         </is>
       </c>
       <c r="J931" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="K931" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="L931" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="M931" t="n">
-        <v>13538</v>
+        <v>10000</v>
       </c>
       <c r="N931" t="inlineStr">
         <is>
@@ -67407,11 +67407,11 @@
       </c>
       <c r="O931" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P931" t="n">
-        <v>752</v>
+        <v>556</v>
       </c>
       <c r="Q931" t="n">
         <v>18</v>
@@ -67437,7 +67437,7 @@
         </is>
       </c>
       <c r="D932" s="2" t="n">
-        <v>44494</v>
+        <v>44181</v>
       </c>
       <c r="E932" t="n">
         <v>13</v>
@@ -67457,20 +67457,20 @@
       </c>
       <c r="I932" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J932" t="n">
-        <v>580</v>
+        <v>1050</v>
       </c>
       <c r="K932" t="n">
+        <v>9500</v>
+      </c>
+      <c r="L932" t="n">
         <v>10000</v>
       </c>
-      <c r="L932" t="n">
-        <v>11000</v>
-      </c>
       <c r="M932" t="n">
-        <v>10483</v>
+        <v>9810</v>
       </c>
       <c r="N932" t="inlineStr">
         <is>
@@ -67483,7 +67483,7 @@
         </is>
       </c>
       <c r="P932" t="n">
-        <v>582</v>
+        <v>545</v>
       </c>
       <c r="Q932" t="n">
         <v>18</v>
@@ -67509,7 +67509,7 @@
         </is>
       </c>
       <c r="D933" s="2" t="n">
-        <v>44342</v>
+        <v>44181</v>
       </c>
       <c r="E933" t="n">
         <v>13</v>
@@ -67529,20 +67529,20 @@
       </c>
       <c r="I933" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J933" t="n">
-        <v>480</v>
+        <v>1100</v>
       </c>
       <c r="K933" t="n">
-        <v>9500</v>
+        <v>8500</v>
       </c>
       <c r="L933" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="M933" t="n">
-        <v>9812</v>
+        <v>8764</v>
       </c>
       <c r="N933" t="inlineStr">
         <is>
@@ -67555,7 +67555,7 @@
         </is>
       </c>
       <c r="P933" t="n">
-        <v>545</v>
+        <v>487</v>
       </c>
       <c r="Q933" t="n">
         <v>18</v>
@@ -67581,7 +67581,7 @@
         </is>
       </c>
       <c r="D934" s="2" t="n">
-        <v>44342</v>
+        <v>44181</v>
       </c>
       <c r="E934" t="n">
         <v>13</v>
@@ -67601,20 +67601,20 @@
       </c>
       <c r="I934" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J934" t="n">
-        <v>520</v>
+        <v>900</v>
       </c>
       <c r="K934" t="n">
-        <v>11000</v>
+        <v>6000</v>
       </c>
       <c r="L934" t="n">
-        <v>12000</v>
+        <v>6500</v>
       </c>
       <c r="M934" t="n">
-        <v>11558</v>
+        <v>6233</v>
       </c>
       <c r="N934" t="inlineStr">
         <is>
@@ -67623,11 +67623,11 @@
       </c>
       <c r="O934" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P934" t="n">
-        <v>642</v>
+        <v>346</v>
       </c>
       <c r="Q934" t="n">
         <v>18</v>
@@ -67653,7 +67653,7 @@
         </is>
       </c>
       <c r="D935" s="2" t="n">
-        <v>44342</v>
+        <v>44494</v>
       </c>
       <c r="E935" t="n">
         <v>13</v>
@@ -67673,20 +67673,20 @@
       </c>
       <c r="I935" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J935" t="n">
-        <v>580</v>
+        <v>630</v>
       </c>
       <c r="K935" t="n">
-        <v>7000</v>
+        <v>19000</v>
       </c>
       <c r="L935" t="n">
-        <v>7500</v>
+        <v>20000</v>
       </c>
       <c r="M935" t="n">
-        <v>7259</v>
+        <v>19603</v>
       </c>
       <c r="N935" t="inlineStr">
         <is>
@@ -67699,7 +67699,7 @@
         </is>
       </c>
       <c r="P935" t="n">
-        <v>403</v>
+        <v>1089</v>
       </c>
       <c r="Q935" t="n">
         <v>18</v>
@@ -67725,7 +67725,7 @@
         </is>
       </c>
       <c r="D936" s="2" t="n">
-        <v>44342</v>
+        <v>44494</v>
       </c>
       <c r="E936" t="n">
         <v>13</v>
@@ -67749,16 +67749,16 @@
         </is>
       </c>
       <c r="J936" t="n">
-        <v>580</v>
+        <v>660</v>
       </c>
       <c r="K936" t="n">
-        <v>9000</v>
+        <v>17000</v>
       </c>
       <c r="L936" t="n">
-        <v>9500</v>
+        <v>18000</v>
       </c>
       <c r="M936" t="n">
-        <v>9241</v>
+        <v>17530</v>
       </c>
       <c r="N936" t="inlineStr">
         <is>
@@ -67767,11 +67767,11 @@
       </c>
       <c r="O936" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P936" t="n">
-        <v>513</v>
+        <v>974</v>
       </c>
       <c r="Q936" t="n">
         <v>18</v>
@@ -67797,7 +67797,7 @@
         </is>
       </c>
       <c r="D937" s="2" t="n">
-        <v>44342</v>
+        <v>44494</v>
       </c>
       <c r="E937" t="n">
         <v>13</v>
@@ -67821,16 +67821,16 @@
         </is>
       </c>
       <c r="J937" t="n">
-        <v>540</v>
+        <v>650</v>
       </c>
       <c r="K937" t="n">
-        <v>5000</v>
+        <v>13000</v>
       </c>
       <c r="L937" t="n">
-        <v>5500</v>
+        <v>14000</v>
       </c>
       <c r="M937" t="n">
-        <v>5222</v>
+        <v>13538</v>
       </c>
       <c r="N937" t="inlineStr">
         <is>
@@ -67843,7 +67843,7 @@
         </is>
       </c>
       <c r="P937" t="n">
-        <v>290</v>
+        <v>752</v>
       </c>
       <c r="Q937" t="n">
         <v>18</v>
@@ -67869,7 +67869,7 @@
         </is>
       </c>
       <c r="D938" s="2" t="n">
-        <v>44445</v>
+        <v>44494</v>
       </c>
       <c r="E938" t="n">
         <v>13</v>
@@ -67889,20 +67889,20 @@
       </c>
       <c r="I938" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J938" t="n">
-        <v>400</v>
+        <v>580</v>
       </c>
       <c r="K938" t="n">
-        <v>23000</v>
+        <v>10000</v>
       </c>
       <c r="L938" t="n">
-        <v>23000</v>
+        <v>11000</v>
       </c>
       <c r="M938" t="n">
-        <v>23000</v>
+        <v>10483</v>
       </c>
       <c r="N938" t="inlineStr">
         <is>
@@ -67911,11 +67911,11 @@
       </c>
       <c r="O938" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P938" t="n">
-        <v>1278</v>
+        <v>582</v>
       </c>
       <c r="Q938" t="n">
         <v>18</v>
@@ -67941,7 +67941,7 @@
         </is>
       </c>
       <c r="D939" s="2" t="n">
-        <v>44445</v>
+        <v>44342</v>
       </c>
       <c r="E939" t="n">
         <v>13</v>
@@ -67961,20 +67961,20 @@
       </c>
       <c r="I939" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J939" t="n">
-        <v>380</v>
+        <v>480</v>
       </c>
       <c r="K939" t="n">
-        <v>15000</v>
+        <v>9500</v>
       </c>
       <c r="L939" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="M939" t="n">
-        <v>15000</v>
+        <v>9812</v>
       </c>
       <c r="N939" t="inlineStr">
         <is>
@@ -67987,7 +67987,7 @@
         </is>
       </c>
       <c r="P939" t="n">
-        <v>833</v>
+        <v>545</v>
       </c>
       <c r="Q939" t="n">
         <v>18</v>
@@ -68013,7 +68013,7 @@
         </is>
       </c>
       <c r="D940" s="2" t="n">
-        <v>44445</v>
+        <v>44342</v>
       </c>
       <c r="E940" t="n">
         <v>13</v>
@@ -68033,20 +68033,20 @@
       </c>
       <c r="I940" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J940" t="n">
-        <v>560</v>
+        <v>520</v>
       </c>
       <c r="K940" t="n">
-        <v>20000</v>
+        <v>11000</v>
       </c>
       <c r="L940" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="M940" t="n">
-        <v>20000</v>
+        <v>11558</v>
       </c>
       <c r="N940" t="inlineStr">
         <is>
@@ -68059,7 +68059,7 @@
         </is>
       </c>
       <c r="P940" t="n">
-        <v>1111</v>
+        <v>642</v>
       </c>
       <c r="Q940" t="n">
         <v>18</v>
@@ -68085,7 +68085,7 @@
         </is>
       </c>
       <c r="D941" s="2" t="n">
-        <v>44445</v>
+        <v>44342</v>
       </c>
       <c r="E941" t="n">
         <v>13</v>
@@ -68105,20 +68105,20 @@
       </c>
       <c r="I941" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J941" t="n">
-        <v>420</v>
+        <v>580</v>
       </c>
       <c r="K941" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="L941" t="n">
-        <v>12000</v>
+        <v>7500</v>
       </c>
       <c r="M941" t="n">
-        <v>12000</v>
+        <v>7259</v>
       </c>
       <c r="N941" t="inlineStr">
         <is>
@@ -68131,7 +68131,7 @@
         </is>
       </c>
       <c r="P941" t="n">
-        <v>667</v>
+        <v>403</v>
       </c>
       <c r="Q941" t="n">
         <v>18</v>
@@ -68157,7 +68157,7 @@
         </is>
       </c>
       <c r="D942" s="2" t="n">
-        <v>44445</v>
+        <v>44342</v>
       </c>
       <c r="E942" t="n">
         <v>13</v>
@@ -68177,20 +68177,20 @@
       </c>
       <c r="I942" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J942" t="n">
-        <v>320</v>
+        <v>580</v>
       </c>
       <c r="K942" t="n">
-        <v>18000</v>
+        <v>9000</v>
       </c>
       <c r="L942" t="n">
-        <v>18000</v>
+        <v>9500</v>
       </c>
       <c r="M942" t="n">
-        <v>18000</v>
+        <v>9241</v>
       </c>
       <c r="N942" t="inlineStr">
         <is>
@@ -68203,7 +68203,7 @@
         </is>
       </c>
       <c r="P942" t="n">
-        <v>1000</v>
+        <v>513</v>
       </c>
       <c r="Q942" t="n">
         <v>18</v>
@@ -68229,7 +68229,7 @@
         </is>
       </c>
       <c r="D943" s="2" t="n">
-        <v>44328</v>
+        <v>44342</v>
       </c>
       <c r="E943" t="n">
         <v>13</v>
@@ -68249,20 +68249,20 @@
       </c>
       <c r="I943" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J943" t="n">
-        <v>960</v>
+        <v>540</v>
       </c>
       <c r="K943" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="L943" t="n">
-        <v>9500</v>
+        <v>5500</v>
       </c>
       <c r="M943" t="n">
-        <v>9302</v>
+        <v>5222</v>
       </c>
       <c r="N943" t="inlineStr">
         <is>
@@ -68275,7 +68275,7 @@
         </is>
       </c>
       <c r="P943" t="n">
-        <v>517</v>
+        <v>290</v>
       </c>
       <c r="Q943" t="n">
         <v>18</v>
@@ -68301,7 +68301,7 @@
         </is>
       </c>
       <c r="D944" s="2" t="n">
-        <v>44328</v>
+        <v>44445</v>
       </c>
       <c r="E944" t="n">
         <v>13</v>
@@ -68321,20 +68321,20 @@
       </c>
       <c r="I944" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J944" t="n">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="K944" t="n">
-        <v>7000</v>
+        <v>23000</v>
       </c>
       <c r="L944" t="n">
-        <v>7500</v>
+        <v>23000</v>
       </c>
       <c r="M944" t="n">
-        <v>7232</v>
+        <v>23000</v>
       </c>
       <c r="N944" t="inlineStr">
         <is>
@@ -68343,11 +68343,11 @@
       </c>
       <c r="O944" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P944" t="n">
-        <v>402</v>
+        <v>1278</v>
       </c>
       <c r="Q944" t="n">
         <v>18</v>
@@ -68373,7 +68373,7 @@
         </is>
       </c>
       <c r="D945" s="2" t="n">
-        <v>44328</v>
+        <v>44445</v>
       </c>
       <c r="E945" t="n">
         <v>13</v>
@@ -68393,20 +68393,20 @@
       </c>
       <c r="I945" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J945" t="n">
-        <v>230</v>
+        <v>380</v>
       </c>
       <c r="K945" t="n">
-        <v>5000</v>
+        <v>15000</v>
       </c>
       <c r="L945" t="n">
-        <v>5500</v>
+        <v>15000</v>
       </c>
       <c r="M945" t="n">
-        <v>5283</v>
+        <v>15000</v>
       </c>
       <c r="N945" t="inlineStr">
         <is>
@@ -68419,7 +68419,7 @@
         </is>
       </c>
       <c r="P945" t="n">
-        <v>294</v>
+        <v>833</v>
       </c>
       <c r="Q945" t="n">
         <v>18</v>
@@ -68445,7 +68445,7 @@
         </is>
       </c>
       <c r="D946" s="2" t="n">
-        <v>44301</v>
+        <v>44445</v>
       </c>
       <c r="E946" t="n">
         <v>13</v>
@@ -68465,20 +68465,20 @@
       </c>
       <c r="I946" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J946" t="n">
-        <v>360</v>
+        <v>560</v>
       </c>
       <c r="K946" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="L946" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="M946" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="N946" t="inlineStr">
         <is>
@@ -68487,11 +68487,11 @@
       </c>
       <c r="O946" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P946" t="n">
-        <v>667</v>
+        <v>1111</v>
       </c>
       <c r="Q946" t="n">
         <v>18</v>
@@ -68517,7 +68517,7 @@
         </is>
       </c>
       <c r="D947" s="2" t="n">
-        <v>44301</v>
+        <v>44445</v>
       </c>
       <c r="E947" t="n">
         <v>13</v>
@@ -68537,20 +68537,20 @@
       </c>
       <c r="I947" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J947" t="n">
-        <v>640</v>
+        <v>420</v>
       </c>
       <c r="K947" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L947" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M947" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="N947" t="inlineStr">
         <is>
@@ -68559,11 +68559,11 @@
       </c>
       <c r="O947" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P947" t="n">
-        <v>556</v>
+        <v>667</v>
       </c>
       <c r="Q947" t="n">
         <v>18</v>
@@ -68589,7 +68589,7 @@
         </is>
       </c>
       <c r="D948" s="2" t="n">
-        <v>44301</v>
+        <v>44445</v>
       </c>
       <c r="E948" t="n">
         <v>13</v>
@@ -68613,16 +68613,16 @@
         </is>
       </c>
       <c r="J948" t="n">
-        <v>240</v>
+        <v>320</v>
       </c>
       <c r="K948" t="n">
-        <v>9000</v>
+        <v>18000</v>
       </c>
       <c r="L948" t="n">
-        <v>9000</v>
+        <v>18000</v>
       </c>
       <c r="M948" t="n">
-        <v>9000</v>
+        <v>18000</v>
       </c>
       <c r="N948" t="inlineStr">
         <is>
@@ -68631,11 +68631,11 @@
       </c>
       <c r="O948" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P948" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="Q948" t="n">
         <v>18</v>
@@ -68661,7 +68661,7 @@
         </is>
       </c>
       <c r="D949" s="2" t="n">
-        <v>44301</v>
+        <v>44328</v>
       </c>
       <c r="E949" t="n">
         <v>13</v>
@@ -68681,20 +68681,20 @@
       </c>
       <c r="I949" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J949" t="n">
-        <v>160</v>
+        <v>960</v>
       </c>
       <c r="K949" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L949" t="n">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="M949" t="n">
-        <v>7500</v>
+        <v>9302</v>
       </c>
       <c r="N949" t="inlineStr">
         <is>
@@ -68703,11 +68703,11 @@
       </c>
       <c r="O949" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P949" t="n">
-        <v>417</v>
+        <v>517</v>
       </c>
       <c r="Q949" t="n">
         <v>18</v>
@@ -68733,7 +68733,7 @@
         </is>
       </c>
       <c r="D950" s="2" t="n">
-        <v>44330</v>
+        <v>44328</v>
       </c>
       <c r="E950" t="n">
         <v>13</v>
@@ -68753,20 +68753,20 @@
       </c>
       <c r="I950" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J950" t="n">
-        <v>770</v>
+        <v>410</v>
       </c>
       <c r="K950" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="L950" t="n">
-        <v>12000</v>
+        <v>7500</v>
       </c>
       <c r="M950" t="n">
-        <v>11545</v>
+        <v>7232</v>
       </c>
       <c r="N950" t="inlineStr">
         <is>
@@ -68775,11 +68775,11 @@
       </c>
       <c r="O950" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P950" t="n">
-        <v>641</v>
+        <v>402</v>
       </c>
       <c r="Q950" t="n">
         <v>18</v>
@@ -68805,7 +68805,7 @@
         </is>
       </c>
       <c r="D951" s="2" t="n">
-        <v>44330</v>
+        <v>44328</v>
       </c>
       <c r="E951" t="n">
         <v>13</v>
@@ -68825,20 +68825,20 @@
       </c>
       <c r="I951" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J951" t="n">
-        <v>900</v>
+        <v>230</v>
       </c>
       <c r="K951" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="L951" t="n">
-        <v>9000</v>
+        <v>5500</v>
       </c>
       <c r="M951" t="n">
-        <v>8556</v>
+        <v>5283</v>
       </c>
       <c r="N951" t="inlineStr">
         <is>
@@ -68847,11 +68847,11 @@
       </c>
       <c r="O951" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P951" t="n">
-        <v>475</v>
+        <v>294</v>
       </c>
       <c r="Q951" t="n">
         <v>18</v>
@@ -68877,7 +68877,7 @@
         </is>
       </c>
       <c r="D952" s="2" t="n">
-        <v>44330</v>
+        <v>44301</v>
       </c>
       <c r="E952" t="n">
         <v>13</v>
@@ -68897,20 +68897,20 @@
       </c>
       <c r="I952" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J952" t="n">
-        <v>600</v>
+        <v>360</v>
       </c>
       <c r="K952" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="L952" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="M952" t="n">
-        <v>5533</v>
+        <v>12000</v>
       </c>
       <c r="N952" t="inlineStr">
         <is>
@@ -68923,7 +68923,7 @@
         </is>
       </c>
       <c r="P952" t="n">
-        <v>307</v>
+        <v>667</v>
       </c>
       <c r="Q952" t="n">
         <v>18</v>
@@ -68949,7 +68949,7 @@
         </is>
       </c>
       <c r="D953" s="2" t="n">
-        <v>44270</v>
+        <v>44301</v>
       </c>
       <c r="E953" t="n">
         <v>13</v>
@@ -68969,20 +68969,20 @@
       </c>
       <c r="I953" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J953" t="n">
-        <v>520</v>
+        <v>640</v>
       </c>
       <c r="K953" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="L953" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="M953" t="n">
-        <v>12615</v>
+        <v>10000</v>
       </c>
       <c r="N953" t="inlineStr">
         <is>
@@ -68991,11 +68991,11 @@
       </c>
       <c r="O953" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P953" t="n">
-        <v>701</v>
+        <v>556</v>
       </c>
       <c r="Q953" t="n">
         <v>18</v>
@@ -69021,7 +69021,7 @@
         </is>
       </c>
       <c r="D954" s="2" t="n">
-        <v>44270</v>
+        <v>44301</v>
       </c>
       <c r="E954" t="n">
         <v>13</v>
@@ -69041,33 +69041,33 @@
       </c>
       <c r="I954" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J954" t="n">
+        <v>240</v>
+      </c>
+      <c r="K954" t="n">
+        <v>9000</v>
+      </c>
+      <c r="L954" t="n">
+        <v>9000</v>
+      </c>
+      <c r="M954" t="n">
+        <v>9000</v>
+      </c>
+      <c r="N954" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O954" t="inlineStr">
+        <is>
+          <t>Limache</t>
+        </is>
+      </c>
+      <c r="P954" t="n">
         <v>500</v>
-      </c>
-      <c r="K954" t="n">
-        <v>10000</v>
-      </c>
-      <c r="L954" t="n">
-        <v>11000</v>
-      </c>
-      <c r="M954" t="n">
-        <v>10560</v>
-      </c>
-      <c r="N954" t="inlineStr">
-        <is>
-          <t>$/bandeja 18 kilos</t>
-        </is>
-      </c>
-      <c r="O954" t="inlineStr">
-        <is>
-          <t>Provincia de Quillota</t>
-        </is>
-      </c>
-      <c r="P954" t="n">
-        <v>587</v>
       </c>
       <c r="Q954" t="n">
         <v>18</v>
@@ -69093,7 +69093,7 @@
         </is>
       </c>
       <c r="D955" s="2" t="n">
-        <v>44270</v>
+        <v>44301</v>
       </c>
       <c r="E955" t="n">
         <v>13</v>
@@ -69113,11 +69113,11 @@
       </c>
       <c r="I955" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J955" t="n">
-        <v>310</v>
+        <v>160</v>
       </c>
       <c r="K955" t="n">
         <v>7000</v>
@@ -69126,7 +69126,7 @@
         <v>8000</v>
       </c>
       <c r="M955" t="n">
-        <v>7548</v>
+        <v>7500</v>
       </c>
       <c r="N955" t="inlineStr">
         <is>
@@ -69135,11 +69135,11 @@
       </c>
       <c r="O955" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P955" t="n">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="Q955" t="n">
         <v>18</v>
@@ -69165,7 +69165,7 @@
         </is>
       </c>
       <c r="D956" s="2" t="n">
-        <v>44295</v>
+        <v>44330</v>
       </c>
       <c r="E956" t="n">
         <v>13</v>
@@ -69189,16 +69189,16 @@
         </is>
       </c>
       <c r="J956" t="n">
-        <v>640</v>
+        <v>770</v>
       </c>
       <c r="K956" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="L956" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="M956" t="n">
-        <v>13562</v>
+        <v>11545</v>
       </c>
       <c r="N956" t="inlineStr">
         <is>
@@ -69207,11 +69207,11 @@
       </c>
       <c r="O956" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P956" t="n">
-        <v>753</v>
+        <v>641</v>
       </c>
       <c r="Q956" t="n">
         <v>18</v>
@@ -69237,7 +69237,7 @@
         </is>
       </c>
       <c r="D957" s="2" t="n">
-        <v>44295</v>
+        <v>44330</v>
       </c>
       <c r="E957" t="n">
         <v>13</v>
@@ -69261,16 +69261,16 @@
         </is>
       </c>
       <c r="J957" t="n">
-        <v>880</v>
+        <v>900</v>
       </c>
       <c r="K957" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="L957" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="M957" t="n">
-        <v>11545</v>
+        <v>8556</v>
       </c>
       <c r="N957" t="inlineStr">
         <is>
@@ -69279,11 +69279,11 @@
       </c>
       <c r="O957" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P957" t="n">
-        <v>641</v>
+        <v>475</v>
       </c>
       <c r="Q957" t="n">
         <v>18</v>
@@ -69309,7 +69309,7 @@
         </is>
       </c>
       <c r="D958" s="2" t="n">
-        <v>44295</v>
+        <v>44330</v>
       </c>
       <c r="E958" t="n">
         <v>13</v>
@@ -69333,16 +69333,16 @@
         </is>
       </c>
       <c r="J958" t="n">
-        <v>390</v>
+        <v>600</v>
       </c>
       <c r="K958" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="L958" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="M958" t="n">
-        <v>9462</v>
+        <v>5533</v>
       </c>
       <c r="N958" t="inlineStr">
         <is>
@@ -69351,11 +69351,11 @@
       </c>
       <c r="O958" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P958" t="n">
-        <v>526</v>
+        <v>307</v>
       </c>
       <c r="Q958" t="n">
         <v>18</v>
@@ -69381,7 +69381,7 @@
         </is>
       </c>
       <c r="D959" s="2" t="n">
-        <v>44217</v>
+        <v>44270</v>
       </c>
       <c r="E959" t="n">
         <v>13</v>
@@ -69405,7 +69405,7 @@
         </is>
       </c>
       <c r="J959" t="n">
-        <v>630</v>
+        <v>520</v>
       </c>
       <c r="K959" t="n">
         <v>12000</v>
@@ -69414,7 +69414,7 @@
         <v>13000</v>
       </c>
       <c r="M959" t="n">
-        <v>12556</v>
+        <v>12615</v>
       </c>
       <c r="N959" t="inlineStr">
         <is>
@@ -69427,7 +69427,7 @@
         </is>
       </c>
       <c r="P959" t="n">
-        <v>698</v>
+        <v>701</v>
       </c>
       <c r="Q959" t="n">
         <v>18</v>
@@ -69453,7 +69453,7 @@
         </is>
       </c>
       <c r="D960" s="2" t="n">
-        <v>44217</v>
+        <v>44270</v>
       </c>
       <c r="E960" t="n">
         <v>13</v>
@@ -69477,7 +69477,7 @@
         </is>
       </c>
       <c r="J960" t="n">
-        <v>1190</v>
+        <v>500</v>
       </c>
       <c r="K960" t="n">
         <v>10000</v>
@@ -69486,7 +69486,7 @@
         <v>11000</v>
       </c>
       <c r="M960" t="n">
-        <v>10454</v>
+        <v>10560</v>
       </c>
       <c r="N960" t="inlineStr">
         <is>
@@ -69499,7 +69499,7 @@
         </is>
       </c>
       <c r="P960" t="n">
-        <v>581</v>
+        <v>587</v>
       </c>
       <c r="Q960" t="n">
         <v>18</v>
@@ -69525,7 +69525,7 @@
         </is>
       </c>
       <c r="D961" s="2" t="n">
-        <v>44217</v>
+        <v>44270</v>
       </c>
       <c r="E961" t="n">
         <v>13</v>
@@ -69549,7 +69549,7 @@
         </is>
       </c>
       <c r="J961" t="n">
-        <v>630</v>
+        <v>310</v>
       </c>
       <c r="K961" t="n">
         <v>7000</v>
@@ -69558,7 +69558,7 @@
         <v>8000</v>
       </c>
       <c r="M961" t="n">
-        <v>7397</v>
+        <v>7548</v>
       </c>
       <c r="N961" t="inlineStr">
         <is>
@@ -69571,7 +69571,7 @@
         </is>
       </c>
       <c r="P961" t="n">
-        <v>411</v>
+        <v>419</v>
       </c>
       <c r="Q961" t="n">
         <v>18</v>
@@ -69597,7 +69597,7 @@
         </is>
       </c>
       <c r="D962" s="2" t="n">
-        <v>44217</v>
+        <v>44295</v>
       </c>
       <c r="E962" t="n">
         <v>13</v>
@@ -69612,7 +69612,7 @@
       </c>
       <c r="H962" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I962" t="inlineStr">
@@ -69621,16 +69621,16 @@
         </is>
       </c>
       <c r="J962" t="n">
-        <v>340</v>
+        <v>640</v>
       </c>
       <c r="K962" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="L962" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="M962" t="n">
-        <v>9588</v>
+        <v>13562</v>
       </c>
       <c r="N962" t="inlineStr">
         <is>
@@ -69639,11 +69639,11 @@
       </c>
       <c r="O962" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P962" t="n">
-        <v>533</v>
+        <v>753</v>
       </c>
       <c r="Q962" t="n">
         <v>18</v>
@@ -69669,7 +69669,7 @@
         </is>
       </c>
       <c r="D963" s="2" t="n">
-        <v>44217</v>
+        <v>44295</v>
       </c>
       <c r="E963" t="n">
         <v>13</v>
@@ -69684,7 +69684,7 @@
       </c>
       <c r="H963" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I963" t="inlineStr">
@@ -69693,16 +69693,16 @@
         </is>
       </c>
       <c r="J963" t="n">
-        <v>195</v>
+        <v>880</v>
       </c>
       <c r="K963" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="L963" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="M963" t="n">
-        <v>7487</v>
+        <v>11545</v>
       </c>
       <c r="N963" t="inlineStr">
         <is>
@@ -69711,11 +69711,11 @@
       </c>
       <c r="O963" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P963" t="n">
-        <v>416</v>
+        <v>641</v>
       </c>
       <c r="Q963" t="n">
         <v>18</v>
@@ -69741,7 +69741,7 @@
         </is>
       </c>
       <c r="D964" s="2" t="n">
-        <v>44217</v>
+        <v>44295</v>
       </c>
       <c r="E964" t="n">
         <v>13</v>
@@ -69756,7 +69756,7 @@
       </c>
       <c r="H964" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I964" t="inlineStr">
@@ -69765,16 +69765,16 @@
         </is>
       </c>
       <c r="J964" t="n">
-        <v>370</v>
+        <v>390</v>
       </c>
       <c r="K964" t="n">
-        <v>4000</v>
+        <v>9000</v>
       </c>
       <c r="L964" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="M964" t="n">
-        <v>4405</v>
+        <v>9462</v>
       </c>
       <c r="N964" t="inlineStr">
         <is>
@@ -69783,11 +69783,11 @@
       </c>
       <c r="O964" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P964" t="n">
-        <v>245</v>
+        <v>526</v>
       </c>
       <c r="Q964" t="n">
         <v>18</v>
@@ -69813,7 +69813,7 @@
         </is>
       </c>
       <c r="D965" s="2" t="n">
-        <v>44509</v>
+        <v>44217</v>
       </c>
       <c r="E965" t="n">
         <v>13</v>
@@ -69837,16 +69837,16 @@
         </is>
       </c>
       <c r="J965" t="n">
-        <v>1000</v>
+        <v>630</v>
       </c>
       <c r="K965" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="L965" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="M965" t="n">
-        <v>18000</v>
+        <v>12556</v>
       </c>
       <c r="N965" t="inlineStr">
         <is>
@@ -69859,7 +69859,7 @@
         </is>
       </c>
       <c r="P965" t="n">
-        <v>1000</v>
+        <v>698</v>
       </c>
       <c r="Q965" t="n">
         <v>18</v>
@@ -69885,7 +69885,7 @@
         </is>
       </c>
       <c r="D966" s="2" t="n">
-        <v>44509</v>
+        <v>44217</v>
       </c>
       <c r="E966" t="n">
         <v>13</v>
@@ -69905,20 +69905,20 @@
       </c>
       <c r="I966" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J966" t="n">
-        <v>500</v>
+        <v>1190</v>
       </c>
       <c r="K966" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="L966" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="M966" t="n">
-        <v>13000</v>
+        <v>10454</v>
       </c>
       <c r="N966" t="inlineStr">
         <is>
@@ -69927,11 +69927,11 @@
       </c>
       <c r="O966" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P966" t="n">
-        <v>722</v>
+        <v>581</v>
       </c>
       <c r="Q966" t="n">
         <v>18</v>
@@ -69957,7 +69957,7 @@
         </is>
       </c>
       <c r="D967" s="2" t="n">
-        <v>44509</v>
+        <v>44217</v>
       </c>
       <c r="E967" t="n">
         <v>13</v>
@@ -69977,20 +69977,20 @@
       </c>
       <c r="I967" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J967" t="n">
-        <v>980</v>
+        <v>630</v>
       </c>
       <c r="K967" t="n">
-        <v>17000</v>
+        <v>7000</v>
       </c>
       <c r="L967" t="n">
-        <v>17000</v>
+        <v>8000</v>
       </c>
       <c r="M967" t="n">
-        <v>17000</v>
+        <v>7397</v>
       </c>
       <c r="N967" t="inlineStr">
         <is>
@@ -70003,7 +70003,7 @@
         </is>
       </c>
       <c r="P967" t="n">
-        <v>944</v>
+        <v>411</v>
       </c>
       <c r="Q967" t="n">
         <v>18</v>
@@ -70029,7 +70029,7 @@
         </is>
       </c>
       <c r="D968" s="2" t="n">
-        <v>44509</v>
+        <v>44217</v>
       </c>
       <c r="E968" t="n">
         <v>13</v>
@@ -70044,25 +70044,25 @@
       </c>
       <c r="H968" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I968" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J968" t="n">
-        <v>520</v>
+        <v>340</v>
       </c>
       <c r="K968" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="L968" t="n">
         <v>10000</v>
       </c>
       <c r="M968" t="n">
-        <v>10000</v>
+        <v>9588</v>
       </c>
       <c r="N968" t="inlineStr">
         <is>
@@ -70071,11 +70071,11 @@
       </c>
       <c r="O968" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P968" t="n">
-        <v>556</v>
+        <v>533</v>
       </c>
       <c r="Q968" t="n">
         <v>18</v>
@@ -70101,7 +70101,7 @@
         </is>
       </c>
       <c r="D969" s="2" t="n">
-        <v>44509</v>
+        <v>44217</v>
       </c>
       <c r="E969" t="n">
         <v>13</v>
@@ -70116,25 +70116,25 @@
       </c>
       <c r="H969" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I969" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J969" t="n">
-        <v>950</v>
+        <v>195</v>
       </c>
       <c r="K969" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="L969" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="M969" t="n">
-        <v>12000</v>
+        <v>7487</v>
       </c>
       <c r="N969" t="inlineStr">
         <is>
@@ -70143,11 +70143,11 @@
       </c>
       <c r="O969" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P969" t="n">
-        <v>667</v>
+        <v>416</v>
       </c>
       <c r="Q969" t="n">
         <v>18</v>
@@ -70173,7 +70173,7 @@
         </is>
       </c>
       <c r="D970" s="2" t="n">
-        <v>44509</v>
+        <v>44217</v>
       </c>
       <c r="E970" t="n">
         <v>13</v>
@@ -70188,7 +70188,7 @@
       </c>
       <c r="H970" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I970" t="inlineStr">
@@ -70197,16 +70197,16 @@
         </is>
       </c>
       <c r="J970" t="n">
-        <v>450</v>
+        <v>370</v>
       </c>
       <c r="K970" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="L970" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="M970" t="n">
-        <v>7000</v>
+        <v>4405</v>
       </c>
       <c r="N970" t="inlineStr">
         <is>
@@ -70215,11 +70215,11 @@
       </c>
       <c r="O970" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P970" t="n">
-        <v>389</v>
+        <v>245</v>
       </c>
       <c r="Q970" t="n">
         <v>18</v>
@@ -70245,7 +70245,7 @@
         </is>
       </c>
       <c r="D971" s="2" t="n">
-        <v>44421</v>
+        <v>44509</v>
       </c>
       <c r="E971" t="n">
         <v>13</v>
@@ -70269,16 +70269,16 @@
         </is>
       </c>
       <c r="J971" t="n">
-        <v>660</v>
+        <v>1000</v>
       </c>
       <c r="K971" t="n">
-        <v>9000</v>
+        <v>18000</v>
       </c>
       <c r="L971" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="M971" t="n">
-        <v>9667</v>
+        <v>18000</v>
       </c>
       <c r="N971" t="inlineStr">
         <is>
@@ -70291,7 +70291,7 @@
         </is>
       </c>
       <c r="P971" t="n">
-        <v>537</v>
+        <v>1000</v>
       </c>
       <c r="Q971" t="n">
         <v>18</v>
@@ -70317,7 +70317,7 @@
         </is>
       </c>
       <c r="D972" s="2" t="n">
-        <v>44421</v>
+        <v>44509</v>
       </c>
       <c r="E972" t="n">
         <v>13</v>
@@ -70341,16 +70341,16 @@
         </is>
       </c>
       <c r="J972" t="n">
-        <v>1010</v>
+        <v>500</v>
       </c>
       <c r="K972" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="L972" t="n">
         <v>13000</v>
       </c>
       <c r="M972" t="n">
-        <v>12554</v>
+        <v>13000</v>
       </c>
       <c r="N972" t="inlineStr">
         <is>
@@ -70363,7 +70363,7 @@
         </is>
       </c>
       <c r="P972" t="n">
-        <v>697</v>
+        <v>722</v>
       </c>
       <c r="Q972" t="n">
         <v>18</v>
@@ -70389,7 +70389,7 @@
         </is>
       </c>
       <c r="D973" s="2" t="n">
-        <v>44421</v>
+        <v>44509</v>
       </c>
       <c r="E973" t="n">
         <v>13</v>
@@ -70413,16 +70413,16 @@
         </is>
       </c>
       <c r="J973" t="n">
-        <v>940</v>
+        <v>980</v>
       </c>
       <c r="K973" t="n">
-        <v>7000</v>
+        <v>17000</v>
       </c>
       <c r="L973" t="n">
-        <v>8000</v>
+        <v>17000</v>
       </c>
       <c r="M973" t="n">
-        <v>7596</v>
+        <v>17000</v>
       </c>
       <c r="N973" t="inlineStr">
         <is>
@@ -70435,7 +70435,7 @@
         </is>
       </c>
       <c r="P973" t="n">
-        <v>422</v>
+        <v>944</v>
       </c>
       <c r="Q973" t="n">
         <v>18</v>
@@ -70461,7 +70461,7 @@
         </is>
       </c>
       <c r="D974" s="2" t="n">
-        <v>44421</v>
+        <v>44509</v>
       </c>
       <c r="E974" t="n">
         <v>13</v>
@@ -70485,16 +70485,16 @@
         </is>
       </c>
       <c r="J974" t="n">
-        <v>1160</v>
+        <v>520</v>
       </c>
       <c r="K974" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="L974" t="n">
         <v>10000</v>
       </c>
       <c r="M974" t="n">
-        <v>9517</v>
+        <v>10000</v>
       </c>
       <c r="N974" t="inlineStr">
         <is>
@@ -70507,7 +70507,7 @@
         </is>
       </c>
       <c r="P974" t="n">
-        <v>529</v>
+        <v>556</v>
       </c>
       <c r="Q974" t="n">
         <v>18</v>
@@ -70533,7 +70533,7 @@
         </is>
       </c>
       <c r="D975" s="2" t="n">
-        <v>44421</v>
+        <v>44509</v>
       </c>
       <c r="E975" t="n">
         <v>13</v>
@@ -70557,16 +70557,16 @@
         </is>
       </c>
       <c r="J975" t="n">
-        <v>520</v>
+        <v>950</v>
       </c>
       <c r="K975" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="L975" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="M975" t="n">
-        <v>5577</v>
+        <v>12000</v>
       </c>
       <c r="N975" t="inlineStr">
         <is>
@@ -70579,7 +70579,7 @@
         </is>
       </c>
       <c r="P975" t="n">
-        <v>310</v>
+        <v>667</v>
       </c>
       <c r="Q975" t="n">
         <v>18</v>
@@ -70605,7 +70605,7 @@
         </is>
       </c>
       <c r="D976" s="2" t="n">
-        <v>44421</v>
+        <v>44509</v>
       </c>
       <c r="E976" t="n">
         <v>13</v>
@@ -70629,16 +70629,16 @@
         </is>
       </c>
       <c r="J976" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="K976" t="n">
         <v>7000</v>
       </c>
       <c r="L976" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M976" t="n">
-        <v>7560</v>
+        <v>7000</v>
       </c>
       <c r="N976" t="inlineStr">
         <is>
@@ -70651,7 +70651,7 @@
         </is>
       </c>
       <c r="P976" t="n">
-        <v>420</v>
+        <v>389</v>
       </c>
       <c r="Q976" t="n">
         <v>18</v>
@@ -70677,7 +70677,7 @@
         </is>
       </c>
       <c r="D977" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E977" t="n">
         <v>13</v>
@@ -70701,16 +70701,16 @@
         </is>
       </c>
       <c r="J977" t="n">
-        <v>210</v>
+        <v>660</v>
       </c>
       <c r="K977" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="L977" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M977" t="n">
-        <v>12000</v>
+        <v>9667</v>
       </c>
       <c r="N977" t="inlineStr">
         <is>
@@ -70719,11 +70719,11 @@
       </c>
       <c r="O977" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P977" t="n">
-        <v>667</v>
+        <v>537</v>
       </c>
       <c r="Q977" t="n">
         <v>18</v>
@@ -70749,7 +70749,7 @@
         </is>
       </c>
       <c r="D978" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E978" t="n">
         <v>13</v>
@@ -70769,20 +70769,20 @@
       </c>
       <c r="I978" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J978" t="n">
-        <v>600</v>
+        <v>1010</v>
       </c>
       <c r="K978" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="L978" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="M978" t="n">
-        <v>11000</v>
+        <v>12554</v>
       </c>
       <c r="N978" t="inlineStr">
         <is>
@@ -70795,7 +70795,7 @@
         </is>
       </c>
       <c r="P978" t="n">
-        <v>611</v>
+        <v>697</v>
       </c>
       <c r="Q978" t="n">
         <v>18</v>
@@ -70821,7 +70821,7 @@
         </is>
       </c>
       <c r="D979" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E979" t="n">
         <v>13</v>
@@ -70841,20 +70841,20 @@
       </c>
       <c r="I979" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J979" t="n">
-        <v>420</v>
+        <v>940</v>
       </c>
       <c r="K979" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="L979" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="M979" t="n">
-        <v>9000</v>
+        <v>7596</v>
       </c>
       <c r="N979" t="inlineStr">
         <is>
@@ -70863,11 +70863,11 @@
       </c>
       <c r="O979" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P979" t="n">
-        <v>500</v>
+        <v>422</v>
       </c>
       <c r="Q979" t="n">
         <v>18</v>
@@ -70893,7 +70893,7 @@
         </is>
       </c>
       <c r="D980" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E980" t="n">
         <v>13</v>
@@ -70913,20 +70913,20 @@
       </c>
       <c r="I980" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J980" t="n">
-        <v>160</v>
+        <v>1160</v>
       </c>
       <c r="K980" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="L980" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M980" t="n">
-        <v>8000</v>
+        <v>9517</v>
       </c>
       <c r="N980" t="inlineStr">
         <is>
@@ -70939,7 +70939,7 @@
         </is>
       </c>
       <c r="P980" t="n">
-        <v>444</v>
+        <v>529</v>
       </c>
       <c r="Q980" t="n">
         <v>18</v>
@@ -70965,7 +70965,7 @@
         </is>
       </c>
       <c r="D981" s="2" t="n">
-        <v>44244</v>
+        <v>44421</v>
       </c>
       <c r="E981" t="n">
         <v>13</v>
@@ -70985,20 +70985,20 @@
       </c>
       <c r="I981" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J981" t="n">
-        <v>760</v>
+        <v>520</v>
       </c>
       <c r="K981" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="L981" t="n">
-        <v>13000</v>
+        <v>6000</v>
       </c>
       <c r="M981" t="n">
-        <v>12474</v>
+        <v>5577</v>
       </c>
       <c r="N981" t="inlineStr">
         <is>
@@ -71011,7 +71011,7 @@
         </is>
       </c>
       <c r="P981" t="n">
-        <v>693</v>
+        <v>310</v>
       </c>
       <c r="Q981" t="n">
         <v>18</v>
@@ -71037,7 +71037,7 @@
         </is>
       </c>
       <c r="D982" s="2" t="n">
-        <v>44244</v>
+        <v>44421</v>
       </c>
       <c r="E982" t="n">
         <v>13</v>
@@ -71057,20 +71057,20 @@
       </c>
       <c r="I982" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J982" t="n">
-        <v>890</v>
+        <v>500</v>
       </c>
       <c r="K982" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="L982" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M982" t="n">
-        <v>9494</v>
+        <v>7560</v>
       </c>
       <c r="N982" t="inlineStr">
         <is>
@@ -71079,11 +71079,11 @@
       </c>
       <c r="O982" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P982" t="n">
-        <v>527</v>
+        <v>420</v>
       </c>
       <c r="Q982" t="n">
         <v>18</v>
@@ -71109,7 +71109,7 @@
         </is>
       </c>
       <c r="D983" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E983" t="n">
         <v>13</v>
@@ -71129,20 +71129,20 @@
       </c>
       <c r="I983" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J983" t="n">
-        <v>630</v>
+        <v>210</v>
       </c>
       <c r="K983" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="L983" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="M983" t="n">
-        <v>5556</v>
+        <v>12000</v>
       </c>
       <c r="N983" t="inlineStr">
         <is>
@@ -71151,11 +71151,11 @@
       </c>
       <c r="O983" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P983" t="n">
-        <v>309</v>
+        <v>667</v>
       </c>
       <c r="Q983" t="n">
         <v>18</v>
@@ -71181,7 +71181,7 @@
         </is>
       </c>
       <c r="D984" s="2" t="n">
-        <v>44307</v>
+        <v>44383</v>
       </c>
       <c r="E984" t="n">
         <v>13</v>
@@ -71201,20 +71201,20 @@
       </c>
       <c r="I984" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J984" t="n">
-        <v>780</v>
+        <v>600</v>
       </c>
       <c r="K984" t="n">
         <v>11000</v>
       </c>
       <c r="L984" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="M984" t="n">
-        <v>11615</v>
+        <v>11000</v>
       </c>
       <c r="N984" t="inlineStr">
         <is>
@@ -71223,11 +71223,11 @@
       </c>
       <c r="O984" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P984" t="n">
-        <v>645</v>
+        <v>611</v>
       </c>
       <c r="Q984" t="n">
         <v>18</v>
@@ -71253,7 +71253,7 @@
         </is>
       </c>
       <c r="D985" s="2" t="n">
-        <v>44307</v>
+        <v>44383</v>
       </c>
       <c r="E985" t="n">
         <v>13</v>
@@ -71273,20 +71273,20 @@
       </c>
       <c r="I985" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J985" t="n">
-        <v>790</v>
+        <v>420</v>
       </c>
       <c r="K985" t="n">
-        <v>9500</v>
+        <v>9000</v>
       </c>
       <c r="L985" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="M985" t="n">
-        <v>9722</v>
+        <v>9000</v>
       </c>
       <c r="N985" t="inlineStr">
         <is>
@@ -71295,11 +71295,11 @@
       </c>
       <c r="O985" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P985" t="n">
-        <v>540</v>
+        <v>500</v>
       </c>
       <c r="Q985" t="n">
         <v>18</v>
@@ -71325,7 +71325,7 @@
         </is>
       </c>
       <c r="D986" s="2" t="n">
-        <v>44307</v>
+        <v>44383</v>
       </c>
       <c r="E986" t="n">
         <v>13</v>
@@ -71345,20 +71345,20 @@
       </c>
       <c r="I986" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J986" t="n">
-        <v>560</v>
+        <v>160</v>
       </c>
       <c r="K986" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="L986" t="n">
         <v>8000</v>
       </c>
       <c r="M986" t="n">
-        <v>7741</v>
+        <v>8000</v>
       </c>
       <c r="N986" t="inlineStr">
         <is>
@@ -71367,11 +71367,11 @@
       </c>
       <c r="O986" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P986" t="n">
-        <v>430</v>
+        <v>444</v>
       </c>
       <c r="Q986" t="n">
         <v>18</v>
@@ -71397,7 +71397,7 @@
         </is>
       </c>
       <c r="D987" s="2" t="n">
-        <v>44273</v>
+        <v>44244</v>
       </c>
       <c r="E987" t="n">
         <v>13</v>
@@ -71421,16 +71421,16 @@
         </is>
       </c>
       <c r="J987" t="n">
-        <v>800</v>
+        <v>760</v>
       </c>
       <c r="K987" t="n">
-        <v>11500</v>
+        <v>12000</v>
       </c>
       <c r="L987" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="M987" t="n">
-        <v>11762</v>
+        <v>12474</v>
       </c>
       <c r="N987" t="inlineStr">
         <is>
@@ -71443,7 +71443,7 @@
         </is>
       </c>
       <c r="P987" t="n">
-        <v>653</v>
+        <v>693</v>
       </c>
       <c r="Q987" t="n">
         <v>18</v>
@@ -71469,7 +71469,7 @@
         </is>
       </c>
       <c r="D988" s="2" t="n">
-        <v>44273</v>
+        <v>44244</v>
       </c>
       <c r="E988" t="n">
         <v>13</v>
@@ -71493,16 +71493,16 @@
         </is>
       </c>
       <c r="J988" t="n">
-        <v>860</v>
+        <v>890</v>
       </c>
       <c r="K988" t="n">
-        <v>9500</v>
+        <v>9000</v>
       </c>
       <c r="L988" t="n">
         <v>10000</v>
       </c>
       <c r="M988" t="n">
-        <v>9767</v>
+        <v>9494</v>
       </c>
       <c r="N988" t="inlineStr">
         <is>
@@ -71515,7 +71515,7 @@
         </is>
       </c>
       <c r="P988" t="n">
-        <v>543</v>
+        <v>527</v>
       </c>
       <c r="Q988" t="n">
         <v>18</v>
@@ -71541,7 +71541,7 @@
         </is>
       </c>
       <c r="D989" s="2" t="n">
-        <v>44273</v>
+        <v>44244</v>
       </c>
       <c r="E989" t="n">
         <v>13</v>
@@ -71565,16 +71565,16 @@
         </is>
       </c>
       <c r="J989" t="n">
-        <v>550</v>
+        <v>630</v>
       </c>
       <c r="K989" t="n">
-        <v>8500</v>
+        <v>5000</v>
       </c>
       <c r="L989" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="M989" t="n">
-        <v>8727</v>
+        <v>5556</v>
       </c>
       <c r="N989" t="inlineStr">
         <is>
@@ -71587,7 +71587,7 @@
         </is>
       </c>
       <c r="P989" t="n">
-        <v>485</v>
+        <v>309</v>
       </c>
       <c r="Q989" t="n">
         <v>18</v>
@@ -71613,7 +71613,7 @@
         </is>
       </c>
       <c r="D990" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E990" t="n">
         <v>13</v>
@@ -71628,7 +71628,7 @@
       </c>
       <c r="H990" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I990" t="inlineStr">
@@ -71637,16 +71637,16 @@
         </is>
       </c>
       <c r="J990" t="n">
-        <v>180</v>
+        <v>780</v>
       </c>
       <c r="K990" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="L990" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="M990" t="n">
-        <v>7000</v>
+        <v>11615</v>
       </c>
       <c r="N990" t="inlineStr">
         <is>
@@ -71655,11 +71655,11 @@
       </c>
       <c r="O990" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P990" t="n">
-        <v>389</v>
+        <v>645</v>
       </c>
       <c r="Q990" t="n">
         <v>18</v>
@@ -71685,7 +71685,7 @@
         </is>
       </c>
       <c r="D991" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E991" t="n">
         <v>13</v>
@@ -71700,7 +71700,7 @@
       </c>
       <c r="H991" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I991" t="inlineStr">
@@ -71709,16 +71709,16 @@
         </is>
       </c>
       <c r="J991" t="n">
-        <v>200</v>
+        <v>790</v>
       </c>
       <c r="K991" t="n">
-        <v>5000</v>
+        <v>9500</v>
       </c>
       <c r="L991" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="M991" t="n">
-        <v>5000</v>
+        <v>9722</v>
       </c>
       <c r="N991" t="inlineStr">
         <is>
@@ -71727,11 +71727,11 @@
       </c>
       <c r="O991" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P991" t="n">
-        <v>278</v>
+        <v>540</v>
       </c>
       <c r="Q991" t="n">
         <v>18</v>
@@ -71757,7 +71757,7 @@
         </is>
       </c>
       <c r="D992" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E992" t="n">
         <v>13</v>
@@ -71772,7 +71772,7 @@
       </c>
       <c r="H992" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I992" t="inlineStr">
@@ -71781,16 +71781,16 @@
         </is>
       </c>
       <c r="J992" t="n">
-        <v>170</v>
+        <v>560</v>
       </c>
       <c r="K992" t="n">
-        <v>4000</v>
+        <v>7500</v>
       </c>
       <c r="L992" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="M992" t="n">
-        <v>4000</v>
+        <v>7741</v>
       </c>
       <c r="N992" t="inlineStr">
         <is>
@@ -71799,11 +71799,11 @@
       </c>
       <c r="O992" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P992" t="n">
-        <v>222</v>
+        <v>430</v>
       </c>
       <c r="Q992" t="n">
         <v>18</v>
@@ -71829,7 +71829,7 @@
         </is>
       </c>
       <c r="D993" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E993" t="n">
         <v>13</v>
@@ -71853,16 +71853,16 @@
         </is>
       </c>
       <c r="J993" t="n">
-        <v>1060</v>
+        <v>800</v>
       </c>
       <c r="K993" t="n">
-        <v>11000</v>
+        <v>11500</v>
       </c>
       <c r="L993" t="n">
         <v>12000</v>
       </c>
       <c r="M993" t="n">
-        <v>11547</v>
+        <v>11762</v>
       </c>
       <c r="N993" t="inlineStr">
         <is>
@@ -71871,11 +71871,11 @@
       </c>
       <c r="O993" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P993" t="n">
-        <v>642</v>
+        <v>653</v>
       </c>
       <c r="Q993" t="n">
         <v>18</v>
@@ -71901,7 +71901,7 @@
         </is>
       </c>
       <c r="D994" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E994" t="n">
         <v>13</v>
@@ -71925,16 +71925,16 @@
         </is>
       </c>
       <c r="J994" t="n">
-        <v>600</v>
+        <v>860</v>
       </c>
       <c r="K994" t="n">
-        <v>5000</v>
+        <v>9500</v>
       </c>
       <c r="L994" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="M994" t="n">
-        <v>5533</v>
+        <v>9767</v>
       </c>
       <c r="N994" t="inlineStr">
         <is>
@@ -71947,7 +71947,7 @@
         </is>
       </c>
       <c r="P994" t="n">
-        <v>307</v>
+        <v>543</v>
       </c>
       <c r="Q994" t="n">
         <v>18</v>
@@ -71973,7 +71973,7 @@
         </is>
       </c>
       <c r="D995" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E995" t="n">
         <v>13</v>
@@ -71993,20 +71993,20 @@
       </c>
       <c r="I995" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J995" t="n">
-        <v>960</v>
+        <v>550</v>
       </c>
       <c r="K995" t="n">
+        <v>8500</v>
+      </c>
+      <c r="L995" t="n">
         <v>9000</v>
       </c>
-      <c r="L995" t="n">
-        <v>10000</v>
-      </c>
       <c r="M995" t="n">
-        <v>9542</v>
+        <v>8727</v>
       </c>
       <c r="N995" t="inlineStr">
         <is>
@@ -72015,11 +72015,11 @@
       </c>
       <c r="O995" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P995" t="n">
-        <v>530</v>
+        <v>485</v>
       </c>
       <c r="Q995" t="n">
         <v>18</v>
@@ -72045,7 +72045,7 @@
         </is>
       </c>
       <c r="D996" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E996" t="n">
         <v>13</v>
@@ -72060,25 +72060,25 @@
       </c>
       <c r="H996" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I996" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J996" t="n">
-        <v>470</v>
+        <v>180</v>
       </c>
       <c r="K996" t="n">
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="L996" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="M996" t="n">
-        <v>3553</v>
+        <v>7000</v>
       </c>
       <c r="N996" t="inlineStr">
         <is>
@@ -72087,11 +72087,11 @@
       </c>
       <c r="O996" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P996" t="n">
-        <v>197</v>
+        <v>389</v>
       </c>
       <c r="Q996" t="n">
         <v>18</v>
@@ -72117,7 +72117,7 @@
         </is>
       </c>
       <c r="D997" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E997" t="n">
         <v>13</v>
@@ -72132,25 +72132,25 @@
       </c>
       <c r="H997" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I997" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J997" t="n">
-        <v>640</v>
+        <v>200</v>
       </c>
       <c r="K997" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="L997" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="M997" t="n">
-        <v>6531</v>
+        <v>5000</v>
       </c>
       <c r="N997" t="inlineStr">
         <is>
@@ -72159,11 +72159,11 @@
       </c>
       <c r="O997" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P997" t="n">
-        <v>363</v>
+        <v>278</v>
       </c>
       <c r="Q997" t="n">
         <v>18</v>
@@ -72189,7 +72189,7 @@
         </is>
       </c>
       <c r="D998" s="2" t="n">
-        <v>44302</v>
+        <v>44273</v>
       </c>
       <c r="E998" t="n">
         <v>13</v>
@@ -72204,25 +72204,25 @@
       </c>
       <c r="H998" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I998" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J998" t="n">
-        <v>240</v>
+        <v>170</v>
       </c>
       <c r="K998" t="n">
-        <v>12000</v>
+        <v>4000</v>
       </c>
       <c r="L998" t="n">
-        <v>12000</v>
+        <v>4000</v>
       </c>
       <c r="M998" t="n">
-        <v>12000</v>
+        <v>4000</v>
       </c>
       <c r="N998" t="inlineStr">
         <is>
@@ -72231,11 +72231,11 @@
       </c>
       <c r="O998" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P998" t="n">
-        <v>667</v>
+        <v>222</v>
       </c>
       <c r="Q998" t="n">
         <v>18</v>
@@ -72261,7 +72261,7 @@
         </is>
       </c>
       <c r="D999" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E999" t="n">
         <v>13</v>
@@ -72281,20 +72281,20 @@
       </c>
       <c r="I999" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J999" t="n">
-        <v>480</v>
+        <v>1060</v>
       </c>
       <c r="K999" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="L999" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M999" t="n">
-        <v>10000</v>
+        <v>11547</v>
       </c>
       <c r="N999" t="inlineStr">
         <is>
@@ -72303,11 +72303,11 @@
       </c>
       <c r="O999" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P999" t="n">
-        <v>556</v>
+        <v>642</v>
       </c>
       <c r="Q999" t="n">
         <v>18</v>
@@ -72333,7 +72333,7 @@
         </is>
       </c>
       <c r="D1000" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E1000" t="n">
         <v>13</v>
@@ -72353,20 +72353,20 @@
       </c>
       <c r="I1000" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1000" t="n">
-        <v>360</v>
+        <v>600</v>
       </c>
       <c r="K1000" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="L1000" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="M1000" t="n">
-        <v>8000</v>
+        <v>5533</v>
       </c>
       <c r="N1000" t="inlineStr">
         <is>
@@ -72375,11 +72375,11 @@
       </c>
       <c r="O1000" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P1000" t="n">
-        <v>444</v>
+        <v>307</v>
       </c>
       <c r="Q1000" t="n">
         <v>18</v>
@@ -72405,7 +72405,7 @@
         </is>
       </c>
       <c r="D1001" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E1001" t="n">
         <v>13</v>
@@ -72425,20 +72425,20 @@
       </c>
       <c r="I1001" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1001" t="n">
-        <v>180</v>
+        <v>960</v>
       </c>
       <c r="K1001" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L1001" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M1001" t="n">
-        <v>7000</v>
+        <v>9542</v>
       </c>
       <c r="N1001" t="inlineStr">
         <is>
@@ -72447,11 +72447,11 @@
       </c>
       <c r="O1001" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1001" t="n">
-        <v>389</v>
+        <v>530</v>
       </c>
       <c r="Q1001" t="n">
         <v>18</v>
@@ -72477,7 +72477,7 @@
         </is>
       </c>
       <c r="D1002" s="2" t="n">
-        <v>44179</v>
+        <v>44433</v>
       </c>
       <c r="E1002" t="n">
         <v>13</v>
@@ -72497,20 +72497,20 @@
       </c>
       <c r="I1002" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1002" t="n">
-        <v>180</v>
+        <v>470</v>
       </c>
       <c r="K1002" t="n">
-        <v>13000</v>
+        <v>3000</v>
       </c>
       <c r="L1002" t="n">
-        <v>13000</v>
+        <v>4000</v>
       </c>
       <c r="M1002" t="n">
-        <v>13000</v>
+        <v>3553</v>
       </c>
       <c r="N1002" t="inlineStr">
         <is>
@@ -72519,11 +72519,11 @@
       </c>
       <c r="O1002" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P1002" t="n">
-        <v>722</v>
+        <v>197</v>
       </c>
       <c r="Q1002" t="n">
         <v>18</v>
@@ -72549,7 +72549,7 @@
         </is>
       </c>
       <c r="D1003" s="2" t="n">
-        <v>44179</v>
+        <v>44433</v>
       </c>
       <c r="E1003" t="n">
         <v>13</v>
@@ -72569,20 +72569,20 @@
       </c>
       <c r="I1003" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1003" t="n">
-        <v>210</v>
+        <v>640</v>
       </c>
       <c r="K1003" t="n">
-        <v>11000</v>
+        <v>6000</v>
       </c>
       <c r="L1003" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="M1003" t="n">
-        <v>11000</v>
+        <v>6531</v>
       </c>
       <c r="N1003" t="inlineStr">
         <is>
@@ -72591,11 +72591,11 @@
       </c>
       <c r="O1003" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1003" t="n">
-        <v>611</v>
+        <v>363</v>
       </c>
       <c r="Q1003" t="n">
         <v>18</v>
@@ -72621,7 +72621,7 @@
         </is>
       </c>
       <c r="D1004" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E1004" t="n">
         <v>13</v>
@@ -72641,20 +72641,20 @@
       </c>
       <c r="I1004" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1004" t="n">
-        <v>150</v>
+        <v>240</v>
       </c>
       <c r="K1004" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="L1004" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="M1004" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="N1004" t="inlineStr">
         <is>
@@ -72667,7 +72667,7 @@
         </is>
       </c>
       <c r="P1004" t="n">
-        <v>500</v>
+        <v>667</v>
       </c>
       <c r="Q1004" t="n">
         <v>18</v>
@@ -72693,7 +72693,7 @@
         </is>
       </c>
       <c r="D1005" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E1005" t="n">
         <v>13</v>
@@ -72713,20 +72713,20 @@
       </c>
       <c r="I1005" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1005" t="n">
-        <v>130</v>
+        <v>480</v>
       </c>
       <c r="K1005" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L1005" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M1005" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="N1005" t="inlineStr">
         <is>
@@ -72739,7 +72739,7 @@
         </is>
       </c>
       <c r="P1005" t="n">
-        <v>389</v>
+        <v>556</v>
       </c>
       <c r="Q1005" t="n">
         <v>18</v>
@@ -72765,7 +72765,7 @@
         </is>
       </c>
       <c r="D1006" s="2" t="n">
-        <v>44491</v>
+        <v>44302</v>
       </c>
       <c r="E1006" t="n">
         <v>13</v>
@@ -72785,20 +72785,20 @@
       </c>
       <c r="I1006" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1006" t="n">
-        <v>660</v>
+        <v>360</v>
       </c>
       <c r="K1006" t="n">
-        <v>19000</v>
+        <v>8000</v>
       </c>
       <c r="L1006" t="n">
-        <v>19500</v>
+        <v>8000</v>
       </c>
       <c r="M1006" t="n">
-        <v>19265</v>
+        <v>8000</v>
       </c>
       <c r="N1006" t="inlineStr">
         <is>
@@ -72807,11 +72807,11 @@
       </c>
       <c r="O1006" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P1006" t="n">
-        <v>1070</v>
+        <v>444</v>
       </c>
       <c r="Q1006" t="n">
         <v>18</v>
@@ -72837,7 +72837,7 @@
         </is>
       </c>
       <c r="D1007" s="2" t="n">
-        <v>44491</v>
+        <v>44302</v>
       </c>
       <c r="E1007" t="n">
         <v>13</v>
@@ -72857,20 +72857,20 @@
       </c>
       <c r="I1007" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J1007" t="n">
-        <v>650</v>
+        <v>180</v>
       </c>
       <c r="K1007" t="n">
-        <v>17000</v>
+        <v>7000</v>
       </c>
       <c r="L1007" t="n">
-        <v>17000</v>
+        <v>7000</v>
       </c>
       <c r="M1007" t="n">
-        <v>17000</v>
+        <v>7000</v>
       </c>
       <c r="N1007" t="inlineStr">
         <is>
@@ -72879,11 +72879,11 @@
       </c>
       <c r="O1007" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P1007" t="n">
-        <v>944</v>
+        <v>389</v>
       </c>
       <c r="Q1007" t="n">
         <v>18</v>
@@ -72909,7 +72909,7 @@
         </is>
       </c>
       <c r="D1008" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E1008" t="n">
         <v>13</v>
@@ -72929,20 +72929,20 @@
       </c>
       <c r="I1008" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1008" t="n">
-        <v>760</v>
+        <v>180</v>
       </c>
       <c r="K1008" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="L1008" t="n">
-        <v>16500</v>
+        <v>13000</v>
       </c>
       <c r="M1008" t="n">
-        <v>16270</v>
+        <v>13000</v>
       </c>
       <c r="N1008" t="inlineStr">
         <is>
@@ -72951,11 +72951,11 @@
       </c>
       <c r="O1008" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P1008" t="n">
-        <v>904</v>
+        <v>722</v>
       </c>
       <c r="Q1008" t="n">
         <v>18</v>
@@ -72981,7 +72981,7 @@
         </is>
       </c>
       <c r="D1009" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E1009" t="n">
         <v>13</v>
@@ -73005,16 +73005,16 @@
         </is>
       </c>
       <c r="J1009" t="n">
-        <v>580</v>
+        <v>210</v>
       </c>
       <c r="K1009" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="L1009" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="M1009" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="N1009" t="inlineStr">
         <is>
@@ -73023,11 +73023,11 @@
       </c>
       <c r="O1009" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P1009" t="n">
-        <v>833</v>
+        <v>611</v>
       </c>
       <c r="Q1009" t="n">
         <v>18</v>
@@ -73053,7 +73053,7 @@
         </is>
       </c>
       <c r="D1010" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E1010" t="n">
         <v>13</v>
@@ -73077,16 +73077,16 @@
         </is>
       </c>
       <c r="J1010" t="n">
-        <v>700</v>
+        <v>150</v>
       </c>
       <c r="K1010" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="L1010" t="n">
-        <v>13500</v>
+        <v>9000</v>
       </c>
       <c r="M1010" t="n">
-        <v>13214</v>
+        <v>9000</v>
       </c>
       <c r="N1010" t="inlineStr">
         <is>
@@ -73095,11 +73095,11 @@
       </c>
       <c r="O1010" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P1010" t="n">
-        <v>734</v>
+        <v>500</v>
       </c>
       <c r="Q1010" t="n">
         <v>18</v>
@@ -73125,58 +73125,490 @@
         </is>
       </c>
       <c r="D1011" s="2" t="n">
+        <v>44179</v>
+      </c>
+      <c r="E1011" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1011" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G1011" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H1011" t="inlineStr">
+        <is>
+          <t>Larga vida</t>
+        </is>
+      </c>
+      <c r="I1011" t="inlineStr">
+        <is>
+          <t>Tercera</t>
+        </is>
+      </c>
+      <c r="J1011" t="n">
+        <v>130</v>
+      </c>
+      <c r="K1011" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L1011" t="n">
+        <v>7000</v>
+      </c>
+      <c r="M1011" t="n">
+        <v>7000</v>
+      </c>
+      <c r="N1011" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O1011" t="inlineStr">
+        <is>
+          <t>Limache</t>
+        </is>
+      </c>
+      <c r="P1011" t="n">
+        <v>389</v>
+      </c>
+      <c r="Q1011" t="n">
+        <v>18</v>
+      </c>
+      <c r="R1011" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1012">
+      <c r="A1012" t="n">
+        <v>12</v>
+      </c>
+      <c r="B1012" t="inlineStr">
+        <is>
+          <t>Mapocho Venta Directa de Santiago</t>
+        </is>
+      </c>
+      <c r="C1012" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1012" s="2" t="n">
         <v>44491</v>
       </c>
-      <c r="E1011" t="n">
-        <v>13</v>
-      </c>
-      <c r="F1011" t="n">
-        <v>100112020</v>
-      </c>
-      <c r="G1011" t="inlineStr">
-        <is>
-          <t>Tomate</t>
-        </is>
-      </c>
-      <c r="H1011" t="inlineStr">
-        <is>
-          <t>Larga vida</t>
-        </is>
-      </c>
-      <c r="I1011" t="inlineStr">
+      <c r="E1012" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1012" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G1012" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H1012" t="inlineStr">
+        <is>
+          <t>Larga vida</t>
+        </is>
+      </c>
+      <c r="I1012" t="inlineStr">
+        <is>
+          <t>Extra</t>
+        </is>
+      </c>
+      <c r="J1012" t="n">
+        <v>660</v>
+      </c>
+      <c r="K1012" t="n">
+        <v>19000</v>
+      </c>
+      <c r="L1012" t="n">
+        <v>19500</v>
+      </c>
+      <c r="M1012" t="n">
+        <v>19265</v>
+      </c>
+      <c r="N1012" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O1012" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="P1012" t="n">
+        <v>1070</v>
+      </c>
+      <c r="Q1012" t="n">
+        <v>18</v>
+      </c>
+      <c r="R1012" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1013">
+      <c r="A1013" t="n">
+        <v>12</v>
+      </c>
+      <c r="B1013" t="inlineStr">
+        <is>
+          <t>Mapocho Venta Directa de Santiago</t>
+        </is>
+      </c>
+      <c r="C1013" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1013" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E1013" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1013" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G1013" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H1013" t="inlineStr">
+        <is>
+          <t>Larga vida</t>
+        </is>
+      </c>
+      <c r="I1013" t="inlineStr">
+        <is>
+          <t>Extra</t>
+        </is>
+      </c>
+      <c r="J1013" t="n">
+        <v>650</v>
+      </c>
+      <c r="K1013" t="n">
+        <v>17000</v>
+      </c>
+      <c r="L1013" t="n">
+        <v>17000</v>
+      </c>
+      <c r="M1013" t="n">
+        <v>17000</v>
+      </c>
+      <c r="N1013" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O1013" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P1013" t="n">
+        <v>944</v>
+      </c>
+      <c r="Q1013" t="n">
+        <v>18</v>
+      </c>
+      <c r="R1013" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1014">
+      <c r="A1014" t="n">
+        <v>12</v>
+      </c>
+      <c r="B1014" t="inlineStr">
+        <is>
+          <t>Mapocho Venta Directa de Santiago</t>
+        </is>
+      </c>
+      <c r="C1014" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1014" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E1014" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1014" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G1014" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H1014" t="inlineStr">
+        <is>
+          <t>Larga vida</t>
+        </is>
+      </c>
+      <c r="I1014" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1014" t="n">
+        <v>760</v>
+      </c>
+      <c r="K1014" t="n">
+        <v>16000</v>
+      </c>
+      <c r="L1014" t="n">
+        <v>16500</v>
+      </c>
+      <c r="M1014" t="n">
+        <v>16270</v>
+      </c>
+      <c r="N1014" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O1014" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="P1014" t="n">
+        <v>904</v>
+      </c>
+      <c r="Q1014" t="n">
+        <v>18</v>
+      </c>
+      <c r="R1014" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1015">
+      <c r="A1015" t="n">
+        <v>12</v>
+      </c>
+      <c r="B1015" t="inlineStr">
+        <is>
+          <t>Mapocho Venta Directa de Santiago</t>
+        </is>
+      </c>
+      <c r="C1015" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1015" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E1015" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1015" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G1015" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H1015" t="inlineStr">
+        <is>
+          <t>Larga vida</t>
+        </is>
+      </c>
+      <c r="I1015" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1015" t="n">
+        <v>580</v>
+      </c>
+      <c r="K1015" t="n">
+        <v>15000</v>
+      </c>
+      <c r="L1015" t="n">
+        <v>15000</v>
+      </c>
+      <c r="M1015" t="n">
+        <v>15000</v>
+      </c>
+      <c r="N1015" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O1015" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P1015" t="n">
+        <v>833</v>
+      </c>
+      <c r="Q1015" t="n">
+        <v>18</v>
+      </c>
+      <c r="R1015" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1016">
+      <c r="A1016" t="n">
+        <v>12</v>
+      </c>
+      <c r="B1016" t="inlineStr">
+        <is>
+          <t>Mapocho Venta Directa de Santiago</t>
+        </is>
+      </c>
+      <c r="C1016" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1016" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E1016" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1016" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G1016" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H1016" t="inlineStr">
+        <is>
+          <t>Larga vida</t>
+        </is>
+      </c>
+      <c r="I1016" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="J1011" t="n">
+      <c r="J1016" t="n">
+        <v>700</v>
+      </c>
+      <c r="K1016" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L1016" t="n">
+        <v>13500</v>
+      </c>
+      <c r="M1016" t="n">
+        <v>13214</v>
+      </c>
+      <c r="N1016" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O1016" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="P1016" t="n">
+        <v>734</v>
+      </c>
+      <c r="Q1016" t="n">
+        <v>18</v>
+      </c>
+      <c r="R1016" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1017">
+      <c r="A1017" t="n">
+        <v>12</v>
+      </c>
+      <c r="B1017" t="inlineStr">
+        <is>
+          <t>Mapocho Venta Directa de Santiago</t>
+        </is>
+      </c>
+      <c r="C1017" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1017" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E1017" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1017" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G1017" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H1017" t="inlineStr">
+        <is>
+          <t>Larga vida</t>
+        </is>
+      </c>
+      <c r="I1017" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J1017" t="n">
         <v>600</v>
       </c>
-      <c r="K1011" t="n">
+      <c r="K1017" t="n">
         <v>13000</v>
       </c>
-      <c r="L1011" t="n">
+      <c r="L1017" t="n">
         <v>13000</v>
       </c>
-      <c r="M1011" t="n">
+      <c r="M1017" t="n">
         <v>13000</v>
       </c>
-      <c r="N1011" t="inlineStr">
-        <is>
-          <t>$/bandeja 18 kilos</t>
-        </is>
-      </c>
-      <c r="O1011" t="inlineStr">
+      <c r="N1017" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O1017" t="inlineStr">
         <is>
           <t>Región de Arica y Parinacota</t>
         </is>
       </c>
-      <c r="P1011" t="n">
+      <c r="P1017" t="n">
         <v>722</v>
       </c>
-      <c r="Q1011" t="n">
-        <v>18</v>
-      </c>
-      <c r="R1011" t="inlineStr">
+      <c r="Q1017" t="n">
+        <v>18</v>
+      </c>
+      <c r="R1017" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Tomate.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Tomate.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1023"/>
+  <dimension ref="A1:R1029"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -69813,7 +69813,7 @@
         </is>
       </c>
       <c r="D965" s="2" t="n">
-        <v>44270</v>
+        <v>44516</v>
       </c>
       <c r="E965" t="n">
         <v>13</v>
@@ -69837,16 +69837,16 @@
         </is>
       </c>
       <c r="J965" t="n">
-        <v>520</v>
+        <v>1150</v>
       </c>
       <c r="K965" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="L965" t="n">
-        <v>13000</v>
+        <v>19000</v>
       </c>
       <c r="M965" t="n">
-        <v>12615</v>
+        <v>18435</v>
       </c>
       <c r="N965" t="inlineStr">
         <is>
@@ -69859,7 +69859,7 @@
         </is>
       </c>
       <c r="P965" t="n">
-        <v>701</v>
+        <v>1024</v>
       </c>
       <c r="Q965" t="n">
         <v>18</v>
@@ -69885,7 +69885,7 @@
         </is>
       </c>
       <c r="D966" s="2" t="n">
-        <v>44270</v>
+        <v>44516</v>
       </c>
       <c r="E966" t="n">
         <v>13</v>
@@ -69905,20 +69905,20 @@
       </c>
       <c r="I966" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J966" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="K966" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="L966" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="M966" t="n">
-        <v>10560</v>
+        <v>16000</v>
       </c>
       <c r="N966" t="inlineStr">
         <is>
@@ -69927,11 +69927,11 @@
       </c>
       <c r="O966" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P966" t="n">
-        <v>587</v>
+        <v>889</v>
       </c>
       <c r="Q966" t="n">
         <v>18</v>
@@ -69957,7 +69957,7 @@
         </is>
       </c>
       <c r="D967" s="2" t="n">
-        <v>44270</v>
+        <v>44516</v>
       </c>
       <c r="E967" t="n">
         <v>13</v>
@@ -69977,20 +69977,20 @@
       </c>
       <c r="I967" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J967" t="n">
-        <v>310</v>
+        <v>1050</v>
       </c>
       <c r="K967" t="n">
-        <v>7000</v>
+        <v>17000</v>
       </c>
       <c r="L967" t="n">
-        <v>8000</v>
+        <v>18000</v>
       </c>
       <c r="M967" t="n">
-        <v>7548</v>
+        <v>17429</v>
       </c>
       <c r="N967" t="inlineStr">
         <is>
@@ -70003,7 +70003,7 @@
         </is>
       </c>
       <c r="P967" t="n">
-        <v>419</v>
+        <v>968</v>
       </c>
       <c r="Q967" t="n">
         <v>18</v>
@@ -70029,7 +70029,7 @@
         </is>
       </c>
       <c r="D968" s="2" t="n">
-        <v>44295</v>
+        <v>44516</v>
       </c>
       <c r="E968" t="n">
         <v>13</v>
@@ -70049,20 +70049,20 @@
       </c>
       <c r="I968" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J968" t="n">
-        <v>640</v>
+        <v>730</v>
       </c>
       <c r="K968" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="L968" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M968" t="n">
-        <v>13562</v>
+        <v>15000</v>
       </c>
       <c r="N968" t="inlineStr">
         <is>
@@ -70071,11 +70071,11 @@
       </c>
       <c r="O968" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P968" t="n">
-        <v>753</v>
+        <v>833</v>
       </c>
       <c r="Q968" t="n">
         <v>18</v>
@@ -70101,7 +70101,7 @@
         </is>
       </c>
       <c r="D969" s="2" t="n">
-        <v>44295</v>
+        <v>44516</v>
       </c>
       <c r="E969" t="n">
         <v>13</v>
@@ -70121,20 +70121,20 @@
       </c>
       <c r="I969" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J969" t="n">
-        <v>880</v>
+        <v>1050</v>
       </c>
       <c r="K969" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="L969" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="M969" t="n">
-        <v>11545</v>
+        <v>14571</v>
       </c>
       <c r="N969" t="inlineStr">
         <is>
@@ -70147,7 +70147,7 @@
         </is>
       </c>
       <c r="P969" t="n">
-        <v>641</v>
+        <v>810</v>
       </c>
       <c r="Q969" t="n">
         <v>18</v>
@@ -70173,7 +70173,7 @@
         </is>
       </c>
       <c r="D970" s="2" t="n">
-        <v>44295</v>
+        <v>44516</v>
       </c>
       <c r="E970" t="n">
         <v>13</v>
@@ -70197,16 +70197,16 @@
         </is>
       </c>
       <c r="J970" t="n">
-        <v>390</v>
+        <v>650</v>
       </c>
       <c r="K970" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="L970" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="M970" t="n">
-        <v>9462</v>
+        <v>13000</v>
       </c>
       <c r="N970" t="inlineStr">
         <is>
@@ -70215,11 +70215,11 @@
       </c>
       <c r="O970" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P970" t="n">
-        <v>526</v>
+        <v>722</v>
       </c>
       <c r="Q970" t="n">
         <v>18</v>
@@ -70245,7 +70245,7 @@
         </is>
       </c>
       <c r="D971" s="2" t="n">
-        <v>44217</v>
+        <v>44270</v>
       </c>
       <c r="E971" t="n">
         <v>13</v>
@@ -70269,7 +70269,7 @@
         </is>
       </c>
       <c r="J971" t="n">
-        <v>630</v>
+        <v>520</v>
       </c>
       <c r="K971" t="n">
         <v>12000</v>
@@ -70278,7 +70278,7 @@
         <v>13000</v>
       </c>
       <c r="M971" t="n">
-        <v>12556</v>
+        <v>12615</v>
       </c>
       <c r="N971" t="inlineStr">
         <is>
@@ -70291,7 +70291,7 @@
         </is>
       </c>
       <c r="P971" t="n">
-        <v>698</v>
+        <v>701</v>
       </c>
       <c r="Q971" t="n">
         <v>18</v>
@@ -70317,7 +70317,7 @@
         </is>
       </c>
       <c r="D972" s="2" t="n">
-        <v>44217</v>
+        <v>44270</v>
       </c>
       <c r="E972" t="n">
         <v>13</v>
@@ -70341,7 +70341,7 @@
         </is>
       </c>
       <c r="J972" t="n">
-        <v>1190</v>
+        <v>500</v>
       </c>
       <c r="K972" t="n">
         <v>10000</v>
@@ -70350,7 +70350,7 @@
         <v>11000</v>
       </c>
       <c r="M972" t="n">
-        <v>10454</v>
+        <v>10560</v>
       </c>
       <c r="N972" t="inlineStr">
         <is>
@@ -70363,7 +70363,7 @@
         </is>
       </c>
       <c r="P972" t="n">
-        <v>581</v>
+        <v>587</v>
       </c>
       <c r="Q972" t="n">
         <v>18</v>
@@ -70389,7 +70389,7 @@
         </is>
       </c>
       <c r="D973" s="2" t="n">
-        <v>44217</v>
+        <v>44270</v>
       </c>
       <c r="E973" t="n">
         <v>13</v>
@@ -70413,7 +70413,7 @@
         </is>
       </c>
       <c r="J973" t="n">
-        <v>630</v>
+        <v>310</v>
       </c>
       <c r="K973" t="n">
         <v>7000</v>
@@ -70422,7 +70422,7 @@
         <v>8000</v>
       </c>
       <c r="M973" t="n">
-        <v>7397</v>
+        <v>7548</v>
       </c>
       <c r="N973" t="inlineStr">
         <is>
@@ -70435,7 +70435,7 @@
         </is>
       </c>
       <c r="P973" t="n">
-        <v>411</v>
+        <v>419</v>
       </c>
       <c r="Q973" t="n">
         <v>18</v>
@@ -70461,7 +70461,7 @@
         </is>
       </c>
       <c r="D974" s="2" t="n">
-        <v>44217</v>
+        <v>44295</v>
       </c>
       <c r="E974" t="n">
         <v>13</v>
@@ -70476,7 +70476,7 @@
       </c>
       <c r="H974" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I974" t="inlineStr">
@@ -70485,16 +70485,16 @@
         </is>
       </c>
       <c r="J974" t="n">
-        <v>340</v>
+        <v>640</v>
       </c>
       <c r="K974" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="L974" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="M974" t="n">
-        <v>9588</v>
+        <v>13562</v>
       </c>
       <c r="N974" t="inlineStr">
         <is>
@@ -70503,11 +70503,11 @@
       </c>
       <c r="O974" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P974" t="n">
-        <v>533</v>
+        <v>753</v>
       </c>
       <c r="Q974" t="n">
         <v>18</v>
@@ -70533,7 +70533,7 @@
         </is>
       </c>
       <c r="D975" s="2" t="n">
-        <v>44217</v>
+        <v>44295</v>
       </c>
       <c r="E975" t="n">
         <v>13</v>
@@ -70548,7 +70548,7 @@
       </c>
       <c r="H975" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I975" t="inlineStr">
@@ -70557,16 +70557,16 @@
         </is>
       </c>
       <c r="J975" t="n">
-        <v>195</v>
+        <v>880</v>
       </c>
       <c r="K975" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="L975" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="M975" t="n">
-        <v>7487</v>
+        <v>11545</v>
       </c>
       <c r="N975" t="inlineStr">
         <is>
@@ -70575,11 +70575,11 @@
       </c>
       <c r="O975" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P975" t="n">
-        <v>416</v>
+        <v>641</v>
       </c>
       <c r="Q975" t="n">
         <v>18</v>
@@ -70605,7 +70605,7 @@
         </is>
       </c>
       <c r="D976" s="2" t="n">
-        <v>44217</v>
+        <v>44295</v>
       </c>
       <c r="E976" t="n">
         <v>13</v>
@@ -70620,7 +70620,7 @@
       </c>
       <c r="H976" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I976" t="inlineStr">
@@ -70629,16 +70629,16 @@
         </is>
       </c>
       <c r="J976" t="n">
-        <v>370</v>
+        <v>390</v>
       </c>
       <c r="K976" t="n">
-        <v>4000</v>
+        <v>9000</v>
       </c>
       <c r="L976" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="M976" t="n">
-        <v>4405</v>
+        <v>9462</v>
       </c>
       <c r="N976" t="inlineStr">
         <is>
@@ -70647,11 +70647,11 @@
       </c>
       <c r="O976" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P976" t="n">
-        <v>245</v>
+        <v>526</v>
       </c>
       <c r="Q976" t="n">
         <v>18</v>
@@ -70677,7 +70677,7 @@
         </is>
       </c>
       <c r="D977" s="2" t="n">
-        <v>44509</v>
+        <v>44217</v>
       </c>
       <c r="E977" t="n">
         <v>13</v>
@@ -70701,16 +70701,16 @@
         </is>
       </c>
       <c r="J977" t="n">
-        <v>1000</v>
+        <v>630</v>
       </c>
       <c r="K977" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="L977" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="M977" t="n">
-        <v>18000</v>
+        <v>12556</v>
       </c>
       <c r="N977" t="inlineStr">
         <is>
@@ -70723,7 +70723,7 @@
         </is>
       </c>
       <c r="P977" t="n">
-        <v>1000</v>
+        <v>698</v>
       </c>
       <c r="Q977" t="n">
         <v>18</v>
@@ -70749,7 +70749,7 @@
         </is>
       </c>
       <c r="D978" s="2" t="n">
-        <v>44509</v>
+        <v>44217</v>
       </c>
       <c r="E978" t="n">
         <v>13</v>
@@ -70769,20 +70769,20 @@
       </c>
       <c r="I978" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J978" t="n">
-        <v>500</v>
+        <v>1190</v>
       </c>
       <c r="K978" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="L978" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="M978" t="n">
-        <v>13000</v>
+        <v>10454</v>
       </c>
       <c r="N978" t="inlineStr">
         <is>
@@ -70791,11 +70791,11 @@
       </c>
       <c r="O978" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P978" t="n">
-        <v>722</v>
+        <v>581</v>
       </c>
       <c r="Q978" t="n">
         <v>18</v>
@@ -70821,7 +70821,7 @@
         </is>
       </c>
       <c r="D979" s="2" t="n">
-        <v>44509</v>
+        <v>44217</v>
       </c>
       <c r="E979" t="n">
         <v>13</v>
@@ -70841,20 +70841,20 @@
       </c>
       <c r="I979" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J979" t="n">
-        <v>980</v>
+        <v>630</v>
       </c>
       <c r="K979" t="n">
-        <v>17000</v>
+        <v>7000</v>
       </c>
       <c r="L979" t="n">
-        <v>17000</v>
+        <v>8000</v>
       </c>
       <c r="M979" t="n">
-        <v>17000</v>
+        <v>7397</v>
       </c>
       <c r="N979" t="inlineStr">
         <is>
@@ -70867,7 +70867,7 @@
         </is>
       </c>
       <c r="P979" t="n">
-        <v>944</v>
+        <v>411</v>
       </c>
       <c r="Q979" t="n">
         <v>18</v>
@@ -70893,7 +70893,7 @@
         </is>
       </c>
       <c r="D980" s="2" t="n">
-        <v>44509</v>
+        <v>44217</v>
       </c>
       <c r="E980" t="n">
         <v>13</v>
@@ -70908,25 +70908,25 @@
       </c>
       <c r="H980" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I980" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J980" t="n">
-        <v>520</v>
+        <v>340</v>
       </c>
       <c r="K980" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="L980" t="n">
         <v>10000</v>
       </c>
       <c r="M980" t="n">
-        <v>10000</v>
+        <v>9588</v>
       </c>
       <c r="N980" t="inlineStr">
         <is>
@@ -70935,11 +70935,11 @@
       </c>
       <c r="O980" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P980" t="n">
-        <v>556</v>
+        <v>533</v>
       </c>
       <c r="Q980" t="n">
         <v>18</v>
@@ -70965,7 +70965,7 @@
         </is>
       </c>
       <c r="D981" s="2" t="n">
-        <v>44509</v>
+        <v>44217</v>
       </c>
       <c r="E981" t="n">
         <v>13</v>
@@ -70980,25 +70980,25 @@
       </c>
       <c r="H981" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I981" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J981" t="n">
-        <v>950</v>
+        <v>195</v>
       </c>
       <c r="K981" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="L981" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="M981" t="n">
-        <v>12000</v>
+        <v>7487</v>
       </c>
       <c r="N981" t="inlineStr">
         <is>
@@ -71007,11 +71007,11 @@
       </c>
       <c r="O981" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P981" t="n">
-        <v>667</v>
+        <v>416</v>
       </c>
       <c r="Q981" t="n">
         <v>18</v>
@@ -71037,7 +71037,7 @@
         </is>
       </c>
       <c r="D982" s="2" t="n">
-        <v>44509</v>
+        <v>44217</v>
       </c>
       <c r="E982" t="n">
         <v>13</v>
@@ -71052,7 +71052,7 @@
       </c>
       <c r="H982" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I982" t="inlineStr">
@@ -71061,16 +71061,16 @@
         </is>
       </c>
       <c r="J982" t="n">
-        <v>450</v>
+        <v>370</v>
       </c>
       <c r="K982" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="L982" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="M982" t="n">
-        <v>7000</v>
+        <v>4405</v>
       </c>
       <c r="N982" t="inlineStr">
         <is>
@@ -71079,11 +71079,11 @@
       </c>
       <c r="O982" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P982" t="n">
-        <v>389</v>
+        <v>245</v>
       </c>
       <c r="Q982" t="n">
         <v>18</v>
@@ -71109,7 +71109,7 @@
         </is>
       </c>
       <c r="D983" s="2" t="n">
-        <v>44421</v>
+        <v>44509</v>
       </c>
       <c r="E983" t="n">
         <v>13</v>
@@ -71133,16 +71133,16 @@
         </is>
       </c>
       <c r="J983" t="n">
-        <v>660</v>
+        <v>1000</v>
       </c>
       <c r="K983" t="n">
-        <v>9000</v>
+        <v>18000</v>
       </c>
       <c r="L983" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="M983" t="n">
-        <v>9667</v>
+        <v>18000</v>
       </c>
       <c r="N983" t="inlineStr">
         <is>
@@ -71155,7 +71155,7 @@
         </is>
       </c>
       <c r="P983" t="n">
-        <v>537</v>
+        <v>1000</v>
       </c>
       <c r="Q983" t="n">
         <v>18</v>
@@ -71181,7 +71181,7 @@
         </is>
       </c>
       <c r="D984" s="2" t="n">
-        <v>44421</v>
+        <v>44509</v>
       </c>
       <c r="E984" t="n">
         <v>13</v>
@@ -71205,16 +71205,16 @@
         </is>
       </c>
       <c r="J984" t="n">
-        <v>1010</v>
+        <v>500</v>
       </c>
       <c r="K984" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="L984" t="n">
         <v>13000</v>
       </c>
       <c r="M984" t="n">
-        <v>12554</v>
+        <v>13000</v>
       </c>
       <c r="N984" t="inlineStr">
         <is>
@@ -71227,7 +71227,7 @@
         </is>
       </c>
       <c r="P984" t="n">
-        <v>697</v>
+        <v>722</v>
       </c>
       <c r="Q984" t="n">
         <v>18</v>
@@ -71253,7 +71253,7 @@
         </is>
       </c>
       <c r="D985" s="2" t="n">
-        <v>44421</v>
+        <v>44509</v>
       </c>
       <c r="E985" t="n">
         <v>13</v>
@@ -71277,16 +71277,16 @@
         </is>
       </c>
       <c r="J985" t="n">
-        <v>940</v>
+        <v>980</v>
       </c>
       <c r="K985" t="n">
-        <v>7000</v>
+        <v>17000</v>
       </c>
       <c r="L985" t="n">
-        <v>8000</v>
+        <v>17000</v>
       </c>
       <c r="M985" t="n">
-        <v>7596</v>
+        <v>17000</v>
       </c>
       <c r="N985" t="inlineStr">
         <is>
@@ -71299,7 +71299,7 @@
         </is>
       </c>
       <c r="P985" t="n">
-        <v>422</v>
+        <v>944</v>
       </c>
       <c r="Q985" t="n">
         <v>18</v>
@@ -71325,7 +71325,7 @@
         </is>
       </c>
       <c r="D986" s="2" t="n">
-        <v>44421</v>
+        <v>44509</v>
       </c>
       <c r="E986" t="n">
         <v>13</v>
@@ -71349,16 +71349,16 @@
         </is>
       </c>
       <c r="J986" t="n">
-        <v>1160</v>
+        <v>520</v>
       </c>
       <c r="K986" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="L986" t="n">
         <v>10000</v>
       </c>
       <c r="M986" t="n">
-        <v>9517</v>
+        <v>10000</v>
       </c>
       <c r="N986" t="inlineStr">
         <is>
@@ -71371,7 +71371,7 @@
         </is>
       </c>
       <c r="P986" t="n">
-        <v>529</v>
+        <v>556</v>
       </c>
       <c r="Q986" t="n">
         <v>18</v>
@@ -71397,7 +71397,7 @@
         </is>
       </c>
       <c r="D987" s="2" t="n">
-        <v>44421</v>
+        <v>44509</v>
       </c>
       <c r="E987" t="n">
         <v>13</v>
@@ -71421,16 +71421,16 @@
         </is>
       </c>
       <c r="J987" t="n">
-        <v>520</v>
+        <v>950</v>
       </c>
       <c r="K987" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="L987" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="M987" t="n">
-        <v>5577</v>
+        <v>12000</v>
       </c>
       <c r="N987" t="inlineStr">
         <is>
@@ -71443,7 +71443,7 @@
         </is>
       </c>
       <c r="P987" t="n">
-        <v>310</v>
+        <v>667</v>
       </c>
       <c r="Q987" t="n">
         <v>18</v>
@@ -71469,7 +71469,7 @@
         </is>
       </c>
       <c r="D988" s="2" t="n">
-        <v>44421</v>
+        <v>44509</v>
       </c>
       <c r="E988" t="n">
         <v>13</v>
@@ -71493,16 +71493,16 @@
         </is>
       </c>
       <c r="J988" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="K988" t="n">
         <v>7000</v>
       </c>
       <c r="L988" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M988" t="n">
-        <v>7560</v>
+        <v>7000</v>
       </c>
       <c r="N988" t="inlineStr">
         <is>
@@ -71515,7 +71515,7 @@
         </is>
       </c>
       <c r="P988" t="n">
-        <v>420</v>
+        <v>389</v>
       </c>
       <c r="Q988" t="n">
         <v>18</v>
@@ -71541,7 +71541,7 @@
         </is>
       </c>
       <c r="D989" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E989" t="n">
         <v>13</v>
@@ -71565,16 +71565,16 @@
         </is>
       </c>
       <c r="J989" t="n">
-        <v>210</v>
+        <v>660</v>
       </c>
       <c r="K989" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="L989" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M989" t="n">
-        <v>12000</v>
+        <v>9667</v>
       </c>
       <c r="N989" t="inlineStr">
         <is>
@@ -71583,11 +71583,11 @@
       </c>
       <c r="O989" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P989" t="n">
-        <v>667</v>
+        <v>537</v>
       </c>
       <c r="Q989" t="n">
         <v>18</v>
@@ -71613,7 +71613,7 @@
         </is>
       </c>
       <c r="D990" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E990" t="n">
         <v>13</v>
@@ -71633,20 +71633,20 @@
       </c>
       <c r="I990" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J990" t="n">
-        <v>600</v>
+        <v>1010</v>
       </c>
       <c r="K990" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="L990" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="M990" t="n">
-        <v>11000</v>
+        <v>12554</v>
       </c>
       <c r="N990" t="inlineStr">
         <is>
@@ -71659,7 +71659,7 @@
         </is>
       </c>
       <c r="P990" t="n">
-        <v>611</v>
+        <v>697</v>
       </c>
       <c r="Q990" t="n">
         <v>18</v>
@@ -71685,7 +71685,7 @@
         </is>
       </c>
       <c r="D991" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E991" t="n">
         <v>13</v>
@@ -71705,20 +71705,20 @@
       </c>
       <c r="I991" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J991" t="n">
-        <v>420</v>
+        <v>940</v>
       </c>
       <c r="K991" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="L991" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="M991" t="n">
-        <v>9000</v>
+        <v>7596</v>
       </c>
       <c r="N991" t="inlineStr">
         <is>
@@ -71727,11 +71727,11 @@
       </c>
       <c r="O991" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P991" t="n">
-        <v>500</v>
+        <v>422</v>
       </c>
       <c r="Q991" t="n">
         <v>18</v>
@@ -71757,7 +71757,7 @@
         </is>
       </c>
       <c r="D992" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E992" t="n">
         <v>13</v>
@@ -71777,20 +71777,20 @@
       </c>
       <c r="I992" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J992" t="n">
-        <v>160</v>
+        <v>1160</v>
       </c>
       <c r="K992" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="L992" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M992" t="n">
-        <v>8000</v>
+        <v>9517</v>
       </c>
       <c r="N992" t="inlineStr">
         <is>
@@ -71803,7 +71803,7 @@
         </is>
       </c>
       <c r="P992" t="n">
-        <v>444</v>
+        <v>529</v>
       </c>
       <c r="Q992" t="n">
         <v>18</v>
@@ -71829,7 +71829,7 @@
         </is>
       </c>
       <c r="D993" s="2" t="n">
-        <v>44244</v>
+        <v>44421</v>
       </c>
       <c r="E993" t="n">
         <v>13</v>
@@ -71849,20 +71849,20 @@
       </c>
       <c r="I993" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J993" t="n">
-        <v>760</v>
+        <v>520</v>
       </c>
       <c r="K993" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="L993" t="n">
-        <v>13000</v>
+        <v>6000</v>
       </c>
       <c r="M993" t="n">
-        <v>12474</v>
+        <v>5577</v>
       </c>
       <c r="N993" t="inlineStr">
         <is>
@@ -71875,7 +71875,7 @@
         </is>
       </c>
       <c r="P993" t="n">
-        <v>693</v>
+        <v>310</v>
       </c>
       <c r="Q993" t="n">
         <v>18</v>
@@ -71901,7 +71901,7 @@
         </is>
       </c>
       <c r="D994" s="2" t="n">
-        <v>44244</v>
+        <v>44421</v>
       </c>
       <c r="E994" t="n">
         <v>13</v>
@@ -71921,20 +71921,20 @@
       </c>
       <c r="I994" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J994" t="n">
-        <v>890</v>
+        <v>500</v>
       </c>
       <c r="K994" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="L994" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M994" t="n">
-        <v>9494</v>
+        <v>7560</v>
       </c>
       <c r="N994" t="inlineStr">
         <is>
@@ -71943,11 +71943,11 @@
       </c>
       <c r="O994" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P994" t="n">
-        <v>527</v>
+        <v>420</v>
       </c>
       <c r="Q994" t="n">
         <v>18</v>
@@ -71973,7 +71973,7 @@
         </is>
       </c>
       <c r="D995" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E995" t="n">
         <v>13</v>
@@ -71993,20 +71993,20 @@
       </c>
       <c r="I995" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J995" t="n">
-        <v>630</v>
+        <v>210</v>
       </c>
       <c r="K995" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="L995" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="M995" t="n">
-        <v>5556</v>
+        <v>12000</v>
       </c>
       <c r="N995" t="inlineStr">
         <is>
@@ -72015,11 +72015,11 @@
       </c>
       <c r="O995" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P995" t="n">
-        <v>309</v>
+        <v>667</v>
       </c>
       <c r="Q995" t="n">
         <v>18</v>
@@ -72045,7 +72045,7 @@
         </is>
       </c>
       <c r="D996" s="2" t="n">
-        <v>44307</v>
+        <v>44383</v>
       </c>
       <c r="E996" t="n">
         <v>13</v>
@@ -72065,20 +72065,20 @@
       </c>
       <c r="I996" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J996" t="n">
-        <v>780</v>
+        <v>600</v>
       </c>
       <c r="K996" t="n">
         <v>11000</v>
       </c>
       <c r="L996" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="M996" t="n">
-        <v>11615</v>
+        <v>11000</v>
       </c>
       <c r="N996" t="inlineStr">
         <is>
@@ -72087,11 +72087,11 @@
       </c>
       <c r="O996" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P996" t="n">
-        <v>645</v>
+        <v>611</v>
       </c>
       <c r="Q996" t="n">
         <v>18</v>
@@ -72117,7 +72117,7 @@
         </is>
       </c>
       <c r="D997" s="2" t="n">
-        <v>44307</v>
+        <v>44383</v>
       </c>
       <c r="E997" t="n">
         <v>13</v>
@@ -72137,20 +72137,20 @@
       </c>
       <c r="I997" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J997" t="n">
-        <v>790</v>
+        <v>420</v>
       </c>
       <c r="K997" t="n">
-        <v>9500</v>
+        <v>9000</v>
       </c>
       <c r="L997" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="M997" t="n">
-        <v>9722</v>
+        <v>9000</v>
       </c>
       <c r="N997" t="inlineStr">
         <is>
@@ -72159,11 +72159,11 @@
       </c>
       <c r="O997" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P997" t="n">
-        <v>540</v>
+        <v>500</v>
       </c>
       <c r="Q997" t="n">
         <v>18</v>
@@ -72189,7 +72189,7 @@
         </is>
       </c>
       <c r="D998" s="2" t="n">
-        <v>44307</v>
+        <v>44383</v>
       </c>
       <c r="E998" t="n">
         <v>13</v>
@@ -72209,20 +72209,20 @@
       </c>
       <c r="I998" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J998" t="n">
-        <v>560</v>
+        <v>160</v>
       </c>
       <c r="K998" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="L998" t="n">
         <v>8000</v>
       </c>
       <c r="M998" t="n">
-        <v>7741</v>
+        <v>8000</v>
       </c>
       <c r="N998" t="inlineStr">
         <is>
@@ -72231,11 +72231,11 @@
       </c>
       <c r="O998" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P998" t="n">
-        <v>430</v>
+        <v>444</v>
       </c>
       <c r="Q998" t="n">
         <v>18</v>
@@ -72261,7 +72261,7 @@
         </is>
       </c>
       <c r="D999" s="2" t="n">
-        <v>44273</v>
+        <v>44244</v>
       </c>
       <c r="E999" t="n">
         <v>13</v>
@@ -72285,16 +72285,16 @@
         </is>
       </c>
       <c r="J999" t="n">
-        <v>800</v>
+        <v>760</v>
       </c>
       <c r="K999" t="n">
-        <v>11500</v>
+        <v>12000</v>
       </c>
       <c r="L999" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="M999" t="n">
-        <v>11762</v>
+        <v>12474</v>
       </c>
       <c r="N999" t="inlineStr">
         <is>
@@ -72307,7 +72307,7 @@
         </is>
       </c>
       <c r="P999" t="n">
-        <v>653</v>
+        <v>693</v>
       </c>
       <c r="Q999" t="n">
         <v>18</v>
@@ -72333,7 +72333,7 @@
         </is>
       </c>
       <c r="D1000" s="2" t="n">
-        <v>44273</v>
+        <v>44244</v>
       </c>
       <c r="E1000" t="n">
         <v>13</v>
@@ -72357,16 +72357,16 @@
         </is>
       </c>
       <c r="J1000" t="n">
-        <v>860</v>
+        <v>890</v>
       </c>
       <c r="K1000" t="n">
-        <v>9500</v>
+        <v>9000</v>
       </c>
       <c r="L1000" t="n">
         <v>10000</v>
       </c>
       <c r="M1000" t="n">
-        <v>9767</v>
+        <v>9494</v>
       </c>
       <c r="N1000" t="inlineStr">
         <is>
@@ -72379,7 +72379,7 @@
         </is>
       </c>
       <c r="P1000" t="n">
-        <v>543</v>
+        <v>527</v>
       </c>
       <c r="Q1000" t="n">
         <v>18</v>
@@ -72405,7 +72405,7 @@
         </is>
       </c>
       <c r="D1001" s="2" t="n">
-        <v>44273</v>
+        <v>44244</v>
       </c>
       <c r="E1001" t="n">
         <v>13</v>
@@ -72429,16 +72429,16 @@
         </is>
       </c>
       <c r="J1001" t="n">
-        <v>550</v>
+        <v>630</v>
       </c>
       <c r="K1001" t="n">
-        <v>8500</v>
+        <v>5000</v>
       </c>
       <c r="L1001" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="M1001" t="n">
-        <v>8727</v>
+        <v>5556</v>
       </c>
       <c r="N1001" t="inlineStr">
         <is>
@@ -72451,7 +72451,7 @@
         </is>
       </c>
       <c r="P1001" t="n">
-        <v>485</v>
+        <v>309</v>
       </c>
       <c r="Q1001" t="n">
         <v>18</v>
@@ -72477,7 +72477,7 @@
         </is>
       </c>
       <c r="D1002" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E1002" t="n">
         <v>13</v>
@@ -72492,7 +72492,7 @@
       </c>
       <c r="H1002" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I1002" t="inlineStr">
@@ -72501,16 +72501,16 @@
         </is>
       </c>
       <c r="J1002" t="n">
-        <v>180</v>
+        <v>780</v>
       </c>
       <c r="K1002" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="L1002" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="M1002" t="n">
-        <v>7000</v>
+        <v>11615</v>
       </c>
       <c r="N1002" t="inlineStr">
         <is>
@@ -72519,11 +72519,11 @@
       </c>
       <c r="O1002" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P1002" t="n">
-        <v>389</v>
+        <v>645</v>
       </c>
       <c r="Q1002" t="n">
         <v>18</v>
@@ -72549,7 +72549,7 @@
         </is>
       </c>
       <c r="D1003" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E1003" t="n">
         <v>13</v>
@@ -72564,7 +72564,7 @@
       </c>
       <c r="H1003" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I1003" t="inlineStr">
@@ -72573,16 +72573,16 @@
         </is>
       </c>
       <c r="J1003" t="n">
-        <v>200</v>
+        <v>790</v>
       </c>
       <c r="K1003" t="n">
-        <v>5000</v>
+        <v>9500</v>
       </c>
       <c r="L1003" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="M1003" t="n">
-        <v>5000</v>
+        <v>9722</v>
       </c>
       <c r="N1003" t="inlineStr">
         <is>
@@ -72591,11 +72591,11 @@
       </c>
       <c r="O1003" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P1003" t="n">
-        <v>278</v>
+        <v>540</v>
       </c>
       <c r="Q1003" t="n">
         <v>18</v>
@@ -72621,7 +72621,7 @@
         </is>
       </c>
       <c r="D1004" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E1004" t="n">
         <v>13</v>
@@ -72636,7 +72636,7 @@
       </c>
       <c r="H1004" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I1004" t="inlineStr">
@@ -72645,16 +72645,16 @@
         </is>
       </c>
       <c r="J1004" t="n">
-        <v>170</v>
+        <v>560</v>
       </c>
       <c r="K1004" t="n">
-        <v>4000</v>
+        <v>7500</v>
       </c>
       <c r="L1004" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="M1004" t="n">
-        <v>4000</v>
+        <v>7741</v>
       </c>
       <c r="N1004" t="inlineStr">
         <is>
@@ -72663,11 +72663,11 @@
       </c>
       <c r="O1004" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P1004" t="n">
-        <v>222</v>
+        <v>430</v>
       </c>
       <c r="Q1004" t="n">
         <v>18</v>
@@ -72693,7 +72693,7 @@
         </is>
       </c>
       <c r="D1005" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E1005" t="n">
         <v>13</v>
@@ -72717,16 +72717,16 @@
         </is>
       </c>
       <c r="J1005" t="n">
-        <v>1060</v>
+        <v>800</v>
       </c>
       <c r="K1005" t="n">
-        <v>11000</v>
+        <v>11500</v>
       </c>
       <c r="L1005" t="n">
         <v>12000</v>
       </c>
       <c r="M1005" t="n">
-        <v>11547</v>
+        <v>11762</v>
       </c>
       <c r="N1005" t="inlineStr">
         <is>
@@ -72735,11 +72735,11 @@
       </c>
       <c r="O1005" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P1005" t="n">
-        <v>642</v>
+        <v>653</v>
       </c>
       <c r="Q1005" t="n">
         <v>18</v>
@@ -72765,7 +72765,7 @@
         </is>
       </c>
       <c r="D1006" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E1006" t="n">
         <v>13</v>
@@ -72789,16 +72789,16 @@
         </is>
       </c>
       <c r="J1006" t="n">
-        <v>600</v>
+        <v>860</v>
       </c>
       <c r="K1006" t="n">
-        <v>5000</v>
+        <v>9500</v>
       </c>
       <c r="L1006" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="M1006" t="n">
-        <v>5533</v>
+        <v>9767</v>
       </c>
       <c r="N1006" t="inlineStr">
         <is>
@@ -72811,7 +72811,7 @@
         </is>
       </c>
       <c r="P1006" t="n">
-        <v>307</v>
+        <v>543</v>
       </c>
       <c r="Q1006" t="n">
         <v>18</v>
@@ -72837,7 +72837,7 @@
         </is>
       </c>
       <c r="D1007" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E1007" t="n">
         <v>13</v>
@@ -72857,20 +72857,20 @@
       </c>
       <c r="I1007" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1007" t="n">
-        <v>960</v>
+        <v>550</v>
       </c>
       <c r="K1007" t="n">
+        <v>8500</v>
+      </c>
+      <c r="L1007" t="n">
         <v>9000</v>
       </c>
-      <c r="L1007" t="n">
-        <v>10000</v>
-      </c>
       <c r="M1007" t="n">
-        <v>9542</v>
+        <v>8727</v>
       </c>
       <c r="N1007" t="inlineStr">
         <is>
@@ -72879,11 +72879,11 @@
       </c>
       <c r="O1007" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P1007" t="n">
-        <v>530</v>
+        <v>485</v>
       </c>
       <c r="Q1007" t="n">
         <v>18</v>
@@ -72909,7 +72909,7 @@
         </is>
       </c>
       <c r="D1008" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E1008" t="n">
         <v>13</v>
@@ -72924,25 +72924,25 @@
       </c>
       <c r="H1008" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I1008" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1008" t="n">
-        <v>470</v>
+        <v>180</v>
       </c>
       <c r="K1008" t="n">
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="L1008" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="M1008" t="n">
-        <v>3553</v>
+        <v>7000</v>
       </c>
       <c r="N1008" t="inlineStr">
         <is>
@@ -72951,11 +72951,11 @@
       </c>
       <c r="O1008" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1008" t="n">
-        <v>197</v>
+        <v>389</v>
       </c>
       <c r="Q1008" t="n">
         <v>18</v>
@@ -72981,7 +72981,7 @@
         </is>
       </c>
       <c r="D1009" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E1009" t="n">
         <v>13</v>
@@ -72996,25 +72996,25 @@
       </c>
       <c r="H1009" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I1009" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1009" t="n">
-        <v>640</v>
+        <v>200</v>
       </c>
       <c r="K1009" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="L1009" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="M1009" t="n">
-        <v>6531</v>
+        <v>5000</v>
       </c>
       <c r="N1009" t="inlineStr">
         <is>
@@ -73023,11 +73023,11 @@
       </c>
       <c r="O1009" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1009" t="n">
-        <v>363</v>
+        <v>278</v>
       </c>
       <c r="Q1009" t="n">
         <v>18</v>
@@ -73053,7 +73053,7 @@
         </is>
       </c>
       <c r="D1010" s="2" t="n">
-        <v>44302</v>
+        <v>44273</v>
       </c>
       <c r="E1010" t="n">
         <v>13</v>
@@ -73068,25 +73068,25 @@
       </c>
       <c r="H1010" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I1010" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1010" t="n">
-        <v>240</v>
+        <v>170</v>
       </c>
       <c r="K1010" t="n">
-        <v>12000</v>
+        <v>4000</v>
       </c>
       <c r="L1010" t="n">
-        <v>12000</v>
+        <v>4000</v>
       </c>
       <c r="M1010" t="n">
-        <v>12000</v>
+        <v>4000</v>
       </c>
       <c r="N1010" t="inlineStr">
         <is>
@@ -73095,11 +73095,11 @@
       </c>
       <c r="O1010" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1010" t="n">
-        <v>667</v>
+        <v>222</v>
       </c>
       <c r="Q1010" t="n">
         <v>18</v>
@@ -73125,7 +73125,7 @@
         </is>
       </c>
       <c r="D1011" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E1011" t="n">
         <v>13</v>
@@ -73145,20 +73145,20 @@
       </c>
       <c r="I1011" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1011" t="n">
-        <v>480</v>
+        <v>1060</v>
       </c>
       <c r="K1011" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="L1011" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M1011" t="n">
-        <v>10000</v>
+        <v>11547</v>
       </c>
       <c r="N1011" t="inlineStr">
         <is>
@@ -73167,11 +73167,11 @@
       </c>
       <c r="O1011" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1011" t="n">
-        <v>556</v>
+        <v>642</v>
       </c>
       <c r="Q1011" t="n">
         <v>18</v>
@@ -73197,7 +73197,7 @@
         </is>
       </c>
       <c r="D1012" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E1012" t="n">
         <v>13</v>
@@ -73217,20 +73217,20 @@
       </c>
       <c r="I1012" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1012" t="n">
-        <v>360</v>
+        <v>600</v>
       </c>
       <c r="K1012" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="L1012" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="M1012" t="n">
-        <v>8000</v>
+        <v>5533</v>
       </c>
       <c r="N1012" t="inlineStr">
         <is>
@@ -73239,11 +73239,11 @@
       </c>
       <c r="O1012" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P1012" t="n">
-        <v>444</v>
+        <v>307</v>
       </c>
       <c r="Q1012" t="n">
         <v>18</v>
@@ -73269,7 +73269,7 @@
         </is>
       </c>
       <c r="D1013" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E1013" t="n">
         <v>13</v>
@@ -73289,20 +73289,20 @@
       </c>
       <c r="I1013" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1013" t="n">
-        <v>180</v>
+        <v>960</v>
       </c>
       <c r="K1013" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L1013" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M1013" t="n">
-        <v>7000</v>
+        <v>9542</v>
       </c>
       <c r="N1013" t="inlineStr">
         <is>
@@ -73311,11 +73311,11 @@
       </c>
       <c r="O1013" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1013" t="n">
-        <v>389</v>
+        <v>530</v>
       </c>
       <c r="Q1013" t="n">
         <v>18</v>
@@ -73341,7 +73341,7 @@
         </is>
       </c>
       <c r="D1014" s="2" t="n">
-        <v>44179</v>
+        <v>44433</v>
       </c>
       <c r="E1014" t="n">
         <v>13</v>
@@ -73361,20 +73361,20 @@
       </c>
       <c r="I1014" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1014" t="n">
-        <v>180</v>
+        <v>470</v>
       </c>
       <c r="K1014" t="n">
-        <v>13000</v>
+        <v>3000</v>
       </c>
       <c r="L1014" t="n">
-        <v>13000</v>
+        <v>4000</v>
       </c>
       <c r="M1014" t="n">
-        <v>13000</v>
+        <v>3553</v>
       </c>
       <c r="N1014" t="inlineStr">
         <is>
@@ -73383,11 +73383,11 @@
       </c>
       <c r="O1014" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P1014" t="n">
-        <v>722</v>
+        <v>197</v>
       </c>
       <c r="Q1014" t="n">
         <v>18</v>
@@ -73413,7 +73413,7 @@
         </is>
       </c>
       <c r="D1015" s="2" t="n">
-        <v>44179</v>
+        <v>44433</v>
       </c>
       <c r="E1015" t="n">
         <v>13</v>
@@ -73433,20 +73433,20 @@
       </c>
       <c r="I1015" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1015" t="n">
-        <v>210</v>
+        <v>640</v>
       </c>
       <c r="K1015" t="n">
-        <v>11000</v>
+        <v>6000</v>
       </c>
       <c r="L1015" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="M1015" t="n">
-        <v>11000</v>
+        <v>6531</v>
       </c>
       <c r="N1015" t="inlineStr">
         <is>
@@ -73455,11 +73455,11 @@
       </c>
       <c r="O1015" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1015" t="n">
-        <v>611</v>
+        <v>363</v>
       </c>
       <c r="Q1015" t="n">
         <v>18</v>
@@ -73485,7 +73485,7 @@
         </is>
       </c>
       <c r="D1016" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E1016" t="n">
         <v>13</v>
@@ -73505,20 +73505,20 @@
       </c>
       <c r="I1016" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1016" t="n">
-        <v>150</v>
+        <v>240</v>
       </c>
       <c r="K1016" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="L1016" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="M1016" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="N1016" t="inlineStr">
         <is>
@@ -73531,7 +73531,7 @@
         </is>
       </c>
       <c r="P1016" t="n">
-        <v>500</v>
+        <v>667</v>
       </c>
       <c r="Q1016" t="n">
         <v>18</v>
@@ -73557,7 +73557,7 @@
         </is>
       </c>
       <c r="D1017" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E1017" t="n">
         <v>13</v>
@@ -73577,20 +73577,20 @@
       </c>
       <c r="I1017" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1017" t="n">
-        <v>130</v>
+        <v>480</v>
       </c>
       <c r="K1017" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L1017" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M1017" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="N1017" t="inlineStr">
         <is>
@@ -73603,7 +73603,7 @@
         </is>
       </c>
       <c r="P1017" t="n">
-        <v>389</v>
+        <v>556</v>
       </c>
       <c r="Q1017" t="n">
         <v>18</v>
@@ -73629,7 +73629,7 @@
         </is>
       </c>
       <c r="D1018" s="2" t="n">
-        <v>44491</v>
+        <v>44302</v>
       </c>
       <c r="E1018" t="n">
         <v>13</v>
@@ -73649,20 +73649,20 @@
       </c>
       <c r="I1018" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1018" t="n">
-        <v>660</v>
+        <v>360</v>
       </c>
       <c r="K1018" t="n">
-        <v>19000</v>
+        <v>8000</v>
       </c>
       <c r="L1018" t="n">
-        <v>19500</v>
+        <v>8000</v>
       </c>
       <c r="M1018" t="n">
-        <v>19265</v>
+        <v>8000</v>
       </c>
       <c r="N1018" t="inlineStr">
         <is>
@@ -73671,11 +73671,11 @@
       </c>
       <c r="O1018" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P1018" t="n">
-        <v>1070</v>
+        <v>444</v>
       </c>
       <c r="Q1018" t="n">
         <v>18</v>
@@ -73701,7 +73701,7 @@
         </is>
       </c>
       <c r="D1019" s="2" t="n">
-        <v>44491</v>
+        <v>44302</v>
       </c>
       <c r="E1019" t="n">
         <v>13</v>
@@ -73721,20 +73721,20 @@
       </c>
       <c r="I1019" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J1019" t="n">
-        <v>650</v>
+        <v>180</v>
       </c>
       <c r="K1019" t="n">
-        <v>17000</v>
+        <v>7000</v>
       </c>
       <c r="L1019" t="n">
-        <v>17000</v>
+        <v>7000</v>
       </c>
       <c r="M1019" t="n">
-        <v>17000</v>
+        <v>7000</v>
       </c>
       <c r="N1019" t="inlineStr">
         <is>
@@ -73743,11 +73743,11 @@
       </c>
       <c r="O1019" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P1019" t="n">
-        <v>944</v>
+        <v>389</v>
       </c>
       <c r="Q1019" t="n">
         <v>18</v>
@@ -73773,7 +73773,7 @@
         </is>
       </c>
       <c r="D1020" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E1020" t="n">
         <v>13</v>
@@ -73793,20 +73793,20 @@
       </c>
       <c r="I1020" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1020" t="n">
-        <v>760</v>
+        <v>180</v>
       </c>
       <c r="K1020" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="L1020" t="n">
-        <v>16500</v>
+        <v>13000</v>
       </c>
       <c r="M1020" t="n">
-        <v>16270</v>
+        <v>13000</v>
       </c>
       <c r="N1020" t="inlineStr">
         <is>
@@ -73815,11 +73815,11 @@
       </c>
       <c r="O1020" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P1020" t="n">
-        <v>904</v>
+        <v>722</v>
       </c>
       <c r="Q1020" t="n">
         <v>18</v>
@@ -73845,7 +73845,7 @@
         </is>
       </c>
       <c r="D1021" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E1021" t="n">
         <v>13</v>
@@ -73869,16 +73869,16 @@
         </is>
       </c>
       <c r="J1021" t="n">
-        <v>580</v>
+        <v>210</v>
       </c>
       <c r="K1021" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="L1021" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="M1021" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="N1021" t="inlineStr">
         <is>
@@ -73887,11 +73887,11 @@
       </c>
       <c r="O1021" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P1021" t="n">
-        <v>833</v>
+        <v>611</v>
       </c>
       <c r="Q1021" t="n">
         <v>18</v>
@@ -73917,7 +73917,7 @@
         </is>
       </c>
       <c r="D1022" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E1022" t="n">
         <v>13</v>
@@ -73941,16 +73941,16 @@
         </is>
       </c>
       <c r="J1022" t="n">
-        <v>700</v>
+        <v>150</v>
       </c>
       <c r="K1022" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="L1022" t="n">
-        <v>13500</v>
+        <v>9000</v>
       </c>
       <c r="M1022" t="n">
-        <v>13214</v>
+        <v>9000</v>
       </c>
       <c r="N1022" t="inlineStr">
         <is>
@@ -73959,11 +73959,11 @@
       </c>
       <c r="O1022" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P1022" t="n">
-        <v>734</v>
+        <v>500</v>
       </c>
       <c r="Q1022" t="n">
         <v>18</v>
@@ -73989,58 +73989,490 @@
         </is>
       </c>
       <c r="D1023" s="2" t="n">
+        <v>44179</v>
+      </c>
+      <c r="E1023" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1023" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G1023" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H1023" t="inlineStr">
+        <is>
+          <t>Larga vida</t>
+        </is>
+      </c>
+      <c r="I1023" t="inlineStr">
+        <is>
+          <t>Tercera</t>
+        </is>
+      </c>
+      <c r="J1023" t="n">
+        <v>130</v>
+      </c>
+      <c r="K1023" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L1023" t="n">
+        <v>7000</v>
+      </c>
+      <c r="M1023" t="n">
+        <v>7000</v>
+      </c>
+      <c r="N1023" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O1023" t="inlineStr">
+        <is>
+          <t>Limache</t>
+        </is>
+      </c>
+      <c r="P1023" t="n">
+        <v>389</v>
+      </c>
+      <c r="Q1023" t="n">
+        <v>18</v>
+      </c>
+      <c r="R1023" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1024">
+      <c r="A1024" t="n">
+        <v>12</v>
+      </c>
+      <c r="B1024" t="inlineStr">
+        <is>
+          <t>Mapocho Venta Directa de Santiago</t>
+        </is>
+      </c>
+      <c r="C1024" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1024" s="2" t="n">
         <v>44491</v>
       </c>
-      <c r="E1023" t="n">
-        <v>13</v>
-      </c>
-      <c r="F1023" t="n">
-        <v>100112020</v>
-      </c>
-      <c r="G1023" t="inlineStr">
-        <is>
-          <t>Tomate</t>
-        </is>
-      </c>
-      <c r="H1023" t="inlineStr">
-        <is>
-          <t>Larga vida</t>
-        </is>
-      </c>
-      <c r="I1023" t="inlineStr">
+      <c r="E1024" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1024" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G1024" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H1024" t="inlineStr">
+        <is>
+          <t>Larga vida</t>
+        </is>
+      </c>
+      <c r="I1024" t="inlineStr">
+        <is>
+          <t>Extra</t>
+        </is>
+      </c>
+      <c r="J1024" t="n">
+        <v>660</v>
+      </c>
+      <c r="K1024" t="n">
+        <v>19000</v>
+      </c>
+      <c r="L1024" t="n">
+        <v>19500</v>
+      </c>
+      <c r="M1024" t="n">
+        <v>19265</v>
+      </c>
+      <c r="N1024" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O1024" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="P1024" t="n">
+        <v>1070</v>
+      </c>
+      <c r="Q1024" t="n">
+        <v>18</v>
+      </c>
+      <c r="R1024" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1025">
+      <c r="A1025" t="n">
+        <v>12</v>
+      </c>
+      <c r="B1025" t="inlineStr">
+        <is>
+          <t>Mapocho Venta Directa de Santiago</t>
+        </is>
+      </c>
+      <c r="C1025" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1025" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E1025" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1025" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G1025" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H1025" t="inlineStr">
+        <is>
+          <t>Larga vida</t>
+        </is>
+      </c>
+      <c r="I1025" t="inlineStr">
+        <is>
+          <t>Extra</t>
+        </is>
+      </c>
+      <c r="J1025" t="n">
+        <v>650</v>
+      </c>
+      <c r="K1025" t="n">
+        <v>17000</v>
+      </c>
+      <c r="L1025" t="n">
+        <v>17000</v>
+      </c>
+      <c r="M1025" t="n">
+        <v>17000</v>
+      </c>
+      <c r="N1025" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O1025" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P1025" t="n">
+        <v>944</v>
+      </c>
+      <c r="Q1025" t="n">
+        <v>18</v>
+      </c>
+      <c r="R1025" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1026">
+      <c r="A1026" t="n">
+        <v>12</v>
+      </c>
+      <c r="B1026" t="inlineStr">
+        <is>
+          <t>Mapocho Venta Directa de Santiago</t>
+        </is>
+      </c>
+      <c r="C1026" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1026" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E1026" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1026" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G1026" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H1026" t="inlineStr">
+        <is>
+          <t>Larga vida</t>
+        </is>
+      </c>
+      <c r="I1026" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1026" t="n">
+        <v>760</v>
+      </c>
+      <c r="K1026" t="n">
+        <v>16000</v>
+      </c>
+      <c r="L1026" t="n">
+        <v>16500</v>
+      </c>
+      <c r="M1026" t="n">
+        <v>16270</v>
+      </c>
+      <c r="N1026" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O1026" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="P1026" t="n">
+        <v>904</v>
+      </c>
+      <c r="Q1026" t="n">
+        <v>18</v>
+      </c>
+      <c r="R1026" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1027">
+      <c r="A1027" t="n">
+        <v>12</v>
+      </c>
+      <c r="B1027" t="inlineStr">
+        <is>
+          <t>Mapocho Venta Directa de Santiago</t>
+        </is>
+      </c>
+      <c r="C1027" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1027" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E1027" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1027" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G1027" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H1027" t="inlineStr">
+        <is>
+          <t>Larga vida</t>
+        </is>
+      </c>
+      <c r="I1027" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1027" t="n">
+        <v>580</v>
+      </c>
+      <c r="K1027" t="n">
+        <v>15000</v>
+      </c>
+      <c r="L1027" t="n">
+        <v>15000</v>
+      </c>
+      <c r="M1027" t="n">
+        <v>15000</v>
+      </c>
+      <c r="N1027" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O1027" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P1027" t="n">
+        <v>833</v>
+      </c>
+      <c r="Q1027" t="n">
+        <v>18</v>
+      </c>
+      <c r="R1027" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1028">
+      <c r="A1028" t="n">
+        <v>12</v>
+      </c>
+      <c r="B1028" t="inlineStr">
+        <is>
+          <t>Mapocho Venta Directa de Santiago</t>
+        </is>
+      </c>
+      <c r="C1028" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1028" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E1028" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1028" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G1028" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H1028" t="inlineStr">
+        <is>
+          <t>Larga vida</t>
+        </is>
+      </c>
+      <c r="I1028" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="J1023" t="n">
+      <c r="J1028" t="n">
+        <v>700</v>
+      </c>
+      <c r="K1028" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L1028" t="n">
+        <v>13500</v>
+      </c>
+      <c r="M1028" t="n">
+        <v>13214</v>
+      </c>
+      <c r="N1028" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O1028" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="P1028" t="n">
+        <v>734</v>
+      </c>
+      <c r="Q1028" t="n">
+        <v>18</v>
+      </c>
+      <c r="R1028" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1029">
+      <c r="A1029" t="n">
+        <v>12</v>
+      </c>
+      <c r="B1029" t="inlineStr">
+        <is>
+          <t>Mapocho Venta Directa de Santiago</t>
+        </is>
+      </c>
+      <c r="C1029" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1029" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E1029" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1029" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G1029" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H1029" t="inlineStr">
+        <is>
+          <t>Larga vida</t>
+        </is>
+      </c>
+      <c r="I1029" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J1029" t="n">
         <v>600</v>
       </c>
-      <c r="K1023" t="n">
+      <c r="K1029" t="n">
         <v>13000</v>
       </c>
-      <c r="L1023" t="n">
+      <c r="L1029" t="n">
         <v>13000</v>
       </c>
-      <c r="M1023" t="n">
+      <c r="M1029" t="n">
         <v>13000</v>
       </c>
-      <c r="N1023" t="inlineStr">
-        <is>
-          <t>$/bandeja 18 kilos</t>
-        </is>
-      </c>
-      <c r="O1023" t="inlineStr">
+      <c r="N1029" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O1029" t="inlineStr">
         <is>
           <t>Región de Arica y Parinacota</t>
         </is>
       </c>
-      <c r="P1023" t="n">
+      <c r="P1029" t="n">
         <v>722</v>
       </c>
-      <c r="Q1023" t="n">
-        <v>18</v>
-      </c>
-      <c r="R1023" t="inlineStr">
+      <c r="Q1029" t="n">
+        <v>18</v>
+      </c>
+      <c r="R1029" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Tomate.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Tomate.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1044"/>
+  <dimension ref="A1:R1047"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -64197,7 +64197,7 @@
         </is>
       </c>
       <c r="D887" s="2" t="n">
-        <v>44246</v>
+        <v>44522</v>
       </c>
       <c r="E887" t="n">
         <v>13</v>
@@ -64221,16 +64221,16 @@
         </is>
       </c>
       <c r="J887" t="n">
-        <v>1130</v>
+        <v>840</v>
       </c>
       <c r="K887" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="L887" t="n">
-        <v>12500</v>
+        <v>15000</v>
       </c>
       <c r="M887" t="n">
-        <v>12288</v>
+        <v>15000</v>
       </c>
       <c r="N887" t="inlineStr">
         <is>
@@ -64243,7 +64243,7 @@
         </is>
       </c>
       <c r="P887" t="n">
-        <v>683</v>
+        <v>833</v>
       </c>
       <c r="Q887" t="n">
         <v>18</v>
@@ -64269,7 +64269,7 @@
         </is>
       </c>
       <c r="D888" s="2" t="n">
-        <v>44246</v>
+        <v>44522</v>
       </c>
       <c r="E888" t="n">
         <v>13</v>
@@ -64293,16 +64293,16 @@
         </is>
       </c>
       <c r="J888" t="n">
-        <v>1200</v>
+        <v>710</v>
       </c>
       <c r="K888" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="L888" t="n">
-        <v>10500</v>
+        <v>14000</v>
       </c>
       <c r="M888" t="n">
-        <v>10292</v>
+        <v>14000</v>
       </c>
       <c r="N888" t="inlineStr">
         <is>
@@ -64315,7 +64315,7 @@
         </is>
       </c>
       <c r="P888" t="n">
-        <v>572</v>
+        <v>778</v>
       </c>
       <c r="Q888" t="n">
         <v>18</v>
@@ -64341,7 +64341,7 @@
         </is>
       </c>
       <c r="D889" s="2" t="n">
-        <v>44246</v>
+        <v>44522</v>
       </c>
       <c r="E889" t="n">
         <v>13</v>
@@ -64365,16 +64365,16 @@
         </is>
       </c>
       <c r="J889" t="n">
-        <v>360</v>
+        <v>650</v>
       </c>
       <c r="K889" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="L889" t="n">
-        <v>7500</v>
+        <v>12000</v>
       </c>
       <c r="M889" t="n">
-        <v>7333</v>
+        <v>12000</v>
       </c>
       <c r="N889" t="inlineStr">
         <is>
@@ -64387,7 +64387,7 @@
         </is>
       </c>
       <c r="P889" t="n">
-        <v>407</v>
+        <v>667</v>
       </c>
       <c r="Q889" t="n">
         <v>18</v>
@@ -64413,7 +64413,7 @@
         </is>
       </c>
       <c r="D890" s="2" t="n">
-        <v>44491</v>
+        <v>44246</v>
       </c>
       <c r="E890" t="n">
         <v>13</v>
@@ -64437,16 +64437,16 @@
         </is>
       </c>
       <c r="J890" t="n">
-        <v>660</v>
+        <v>1130</v>
       </c>
       <c r="K890" t="n">
-        <v>19000</v>
+        <v>12000</v>
       </c>
       <c r="L890" t="n">
-        <v>19500</v>
+        <v>12500</v>
       </c>
       <c r="M890" t="n">
-        <v>19265</v>
+        <v>12288</v>
       </c>
       <c r="N890" t="inlineStr">
         <is>
@@ -64459,7 +64459,7 @@
         </is>
       </c>
       <c r="P890" t="n">
-        <v>1070</v>
+        <v>683</v>
       </c>
       <c r="Q890" t="n">
         <v>18</v>
@@ -64485,7 +64485,7 @@
         </is>
       </c>
       <c r="D891" s="2" t="n">
-        <v>44491</v>
+        <v>44246</v>
       </c>
       <c r="E891" t="n">
         <v>13</v>
@@ -64505,20 +64505,20 @@
       </c>
       <c r="I891" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J891" t="n">
-        <v>650</v>
+        <v>1200</v>
       </c>
       <c r="K891" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="L891" t="n">
-        <v>17000</v>
+        <v>10500</v>
       </c>
       <c r="M891" t="n">
-        <v>17000</v>
+        <v>10292</v>
       </c>
       <c r="N891" t="inlineStr">
         <is>
@@ -64527,11 +64527,11 @@
       </c>
       <c r="O891" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P891" t="n">
-        <v>944</v>
+        <v>572</v>
       </c>
       <c r="Q891" t="n">
         <v>18</v>
@@ -64557,7 +64557,7 @@
         </is>
       </c>
       <c r="D892" s="2" t="n">
-        <v>44491</v>
+        <v>44246</v>
       </c>
       <c r="E892" t="n">
         <v>13</v>
@@ -64577,20 +64577,20 @@
       </c>
       <c r="I892" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J892" t="n">
-        <v>760</v>
+        <v>360</v>
       </c>
       <c r="K892" t="n">
-        <v>16000</v>
+        <v>7000</v>
       </c>
       <c r="L892" t="n">
-        <v>16500</v>
+        <v>7500</v>
       </c>
       <c r="M892" t="n">
-        <v>16270</v>
+        <v>7333</v>
       </c>
       <c r="N892" t="inlineStr">
         <is>
@@ -64603,7 +64603,7 @@
         </is>
       </c>
       <c r="P892" t="n">
-        <v>904</v>
+        <v>407</v>
       </c>
       <c r="Q892" t="n">
         <v>18</v>
@@ -64649,20 +64649,20 @@
       </c>
       <c r="I893" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J893" t="n">
-        <v>580</v>
+        <v>660</v>
       </c>
       <c r="K893" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="L893" t="n">
-        <v>15000</v>
+        <v>19500</v>
       </c>
       <c r="M893" t="n">
-        <v>15000</v>
+        <v>19265</v>
       </c>
       <c r="N893" t="inlineStr">
         <is>
@@ -64671,11 +64671,11 @@
       </c>
       <c r="O893" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P893" t="n">
-        <v>833</v>
+        <v>1070</v>
       </c>
       <c r="Q893" t="n">
         <v>18</v>
@@ -64721,20 +64721,20 @@
       </c>
       <c r="I894" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J894" t="n">
-        <v>700</v>
+        <v>650</v>
       </c>
       <c r="K894" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="L894" t="n">
-        <v>13500</v>
+        <v>17000</v>
       </c>
       <c r="M894" t="n">
-        <v>13214</v>
+        <v>17000</v>
       </c>
       <c r="N894" t="inlineStr">
         <is>
@@ -64743,11 +64743,11 @@
       </c>
       <c r="O894" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P894" t="n">
-        <v>734</v>
+        <v>944</v>
       </c>
       <c r="Q894" t="n">
         <v>18</v>
@@ -64793,20 +64793,20 @@
       </c>
       <c r="I895" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J895" t="n">
-        <v>600</v>
+        <v>760</v>
       </c>
       <c r="K895" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="L895" t="n">
-        <v>13000</v>
+        <v>16500</v>
       </c>
       <c r="M895" t="n">
-        <v>13000</v>
+        <v>16270</v>
       </c>
       <c r="N895" t="inlineStr">
         <is>
@@ -64815,11 +64815,11 @@
       </c>
       <c r="O895" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P895" t="n">
-        <v>722</v>
+        <v>904</v>
       </c>
       <c r="Q895" t="n">
         <v>18</v>
@@ -64845,7 +64845,7 @@
         </is>
       </c>
       <c r="D896" s="2" t="n">
-        <v>44272</v>
+        <v>44491</v>
       </c>
       <c r="E896" t="n">
         <v>13</v>
@@ -64865,20 +64865,20 @@
       </c>
       <c r="I896" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J896" t="n">
-        <v>700</v>
+        <v>580</v>
       </c>
       <c r="K896" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="L896" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="M896" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="N896" t="inlineStr">
         <is>
@@ -64887,11 +64887,11 @@
       </c>
       <c r="O896" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P896" t="n">
-        <v>556</v>
+        <v>833</v>
       </c>
       <c r="Q896" t="n">
         <v>18</v>
@@ -64917,7 +64917,7 @@
         </is>
       </c>
       <c r="D897" s="2" t="n">
-        <v>44272</v>
+        <v>44491</v>
       </c>
       <c r="E897" t="n">
         <v>13</v>
@@ -64937,20 +64937,20 @@
       </c>
       <c r="I897" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J897" t="n">
-        <v>640</v>
+        <v>700</v>
       </c>
       <c r="K897" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="L897" t="n">
-        <v>8500</v>
+        <v>13500</v>
       </c>
       <c r="M897" t="n">
-        <v>8203</v>
+        <v>13214</v>
       </c>
       <c r="N897" t="inlineStr">
         <is>
@@ -64959,11 +64959,11 @@
       </c>
       <c r="O897" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P897" t="n">
-        <v>456</v>
+        <v>734</v>
       </c>
       <c r="Q897" t="n">
         <v>18</v>
@@ -64989,7 +64989,7 @@
         </is>
       </c>
       <c r="D898" s="2" t="n">
-        <v>44272</v>
+        <v>44491</v>
       </c>
       <c r="E898" t="n">
         <v>13</v>
@@ -65013,16 +65013,16 @@
         </is>
       </c>
       <c r="J898" t="n">
-        <v>395</v>
+        <v>600</v>
       </c>
       <c r="K898" t="n">
-        <v>4500</v>
+        <v>13000</v>
       </c>
       <c r="L898" t="n">
-        <v>5000</v>
+        <v>13000</v>
       </c>
       <c r="M898" t="n">
-        <v>4715</v>
+        <v>13000</v>
       </c>
       <c r="N898" t="inlineStr">
         <is>
@@ -65031,11 +65031,11 @@
       </c>
       <c r="O898" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P898" t="n">
-        <v>262</v>
+        <v>722</v>
       </c>
       <c r="Q898" t="n">
         <v>18</v>
@@ -65061,7 +65061,7 @@
         </is>
       </c>
       <c r="D899" s="2" t="n">
-        <v>44305</v>
+        <v>44272</v>
       </c>
       <c r="E899" t="n">
         <v>13</v>
@@ -65085,20 +65085,20 @@
         </is>
       </c>
       <c r="J899" t="n">
-        <v>180</v>
+        <v>700</v>
       </c>
       <c r="K899" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="L899" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="M899" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="N899" t="inlineStr">
         <is>
-          <t>$/bandeja 20 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O899" t="inlineStr">
@@ -65107,10 +65107,10 @@
         </is>
       </c>
       <c r="P899" t="n">
-        <v>800</v>
+        <v>556</v>
       </c>
       <c r="Q899" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R899" t="inlineStr">
         <is>
@@ -65133,7 +65133,7 @@
         </is>
       </c>
       <c r="D900" s="2" t="n">
-        <v>44305</v>
+        <v>44272</v>
       </c>
       <c r="E900" t="n">
         <v>13</v>
@@ -65157,20 +65157,20 @@
         </is>
       </c>
       <c r="J900" t="n">
-        <v>300</v>
+        <v>640</v>
       </c>
       <c r="K900" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="L900" t="n">
-        <v>15000</v>
+        <v>8500</v>
       </c>
       <c r="M900" t="n">
-        <v>15000</v>
+        <v>8203</v>
       </c>
       <c r="N900" t="inlineStr">
         <is>
-          <t>$/bandeja 20 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O900" t="inlineStr">
@@ -65179,10 +65179,10 @@
         </is>
       </c>
       <c r="P900" t="n">
-        <v>750</v>
+        <v>456</v>
       </c>
       <c r="Q900" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R900" t="inlineStr">
         <is>
@@ -65205,7 +65205,7 @@
         </is>
       </c>
       <c r="D901" s="2" t="n">
-        <v>44305</v>
+        <v>44272</v>
       </c>
       <c r="E901" t="n">
         <v>13</v>
@@ -65229,20 +65229,20 @@
         </is>
       </c>
       <c r="J901" t="n">
-        <v>280</v>
+        <v>395</v>
       </c>
       <c r="K901" t="n">
-        <v>13000</v>
+        <v>4500</v>
       </c>
       <c r="L901" t="n">
-        <v>13000</v>
+        <v>5000</v>
       </c>
       <c r="M901" t="n">
-        <v>13000</v>
+        <v>4715</v>
       </c>
       <c r="N901" t="inlineStr">
         <is>
-          <t>$/bandeja 20 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O901" t="inlineStr">
@@ -65251,10 +65251,10 @@
         </is>
       </c>
       <c r="P901" t="n">
-        <v>650</v>
+        <v>262</v>
       </c>
       <c r="Q901" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R901" t="inlineStr">
         <is>
@@ -65277,7 +65277,7 @@
         </is>
       </c>
       <c r="D902" s="2" t="n">
-        <v>44166</v>
+        <v>44305</v>
       </c>
       <c r="E902" t="n">
         <v>13</v>
@@ -65301,20 +65301,20 @@
         </is>
       </c>
       <c r="J902" t="n">
-        <v>280</v>
+        <v>180</v>
       </c>
       <c r="K902" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="L902" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="M902" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="N902" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 20 kilos</t>
         </is>
       </c>
       <c r="O902" t="inlineStr">
@@ -65323,10 +65323,10 @@
         </is>
       </c>
       <c r="P902" t="n">
-        <v>556</v>
+        <v>800</v>
       </c>
       <c r="Q902" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R902" t="inlineStr">
         <is>
@@ -65349,7 +65349,7 @@
         </is>
       </c>
       <c r="D903" s="2" t="n">
-        <v>44166</v>
+        <v>44305</v>
       </c>
       <c r="E903" t="n">
         <v>13</v>
@@ -65369,36 +65369,36 @@
       </c>
       <c r="I903" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J903" t="n">
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="K903" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="L903" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="M903" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="N903" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 20 kilos</t>
         </is>
       </c>
       <c r="O903" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P903" t="n">
-        <v>611</v>
+        <v>750</v>
       </c>
       <c r="Q903" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R903" t="inlineStr">
         <is>
@@ -65421,7 +65421,7 @@
         </is>
       </c>
       <c r="D904" s="2" t="n">
-        <v>44166</v>
+        <v>44305</v>
       </c>
       <c r="E904" t="n">
         <v>13</v>
@@ -65441,24 +65441,24 @@
       </c>
       <c r="I904" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J904" t="n">
-        <v>360</v>
+        <v>280</v>
       </c>
       <c r="K904" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="L904" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="M904" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="N904" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 20 kilos</t>
         </is>
       </c>
       <c r="O904" t="inlineStr">
@@ -65467,10 +65467,10 @@
         </is>
       </c>
       <c r="P904" t="n">
-        <v>444</v>
+        <v>650</v>
       </c>
       <c r="Q904" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R904" t="inlineStr">
         <is>
@@ -65513,20 +65513,20 @@
       </c>
       <c r="I905" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J905" t="n">
-        <v>240</v>
+        <v>280</v>
       </c>
       <c r="K905" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="L905" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M905" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="N905" t="inlineStr">
         <is>
@@ -65535,11 +65535,11 @@
       </c>
       <c r="O905" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P905" t="n">
-        <v>444</v>
+        <v>556</v>
       </c>
       <c r="Q905" t="n">
         <v>18</v>
@@ -65585,20 +65585,20 @@
       </c>
       <c r="I906" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J906" t="n">
-        <v>240</v>
+        <v>180</v>
       </c>
       <c r="K906" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="L906" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="M906" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="N906" t="inlineStr">
         <is>
@@ -65607,11 +65607,11 @@
       </c>
       <c r="O906" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P906" t="n">
-        <v>333</v>
+        <v>611</v>
       </c>
       <c r="Q906" t="n">
         <v>18</v>
@@ -65657,20 +65657,20 @@
       </c>
       <c r="I907" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J907" t="n">
-        <v>135</v>
+        <v>360</v>
       </c>
       <c r="K907" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L907" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M907" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="N907" t="inlineStr">
         <is>
@@ -65679,11 +65679,11 @@
       </c>
       <c r="O907" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P907" t="n">
-        <v>333</v>
+        <v>444</v>
       </c>
       <c r="Q907" t="n">
         <v>18</v>
@@ -65709,7 +65709,7 @@
         </is>
       </c>
       <c r="D908" s="2" t="n">
-        <v>44225</v>
+        <v>44166</v>
       </c>
       <c r="E908" t="n">
         <v>13</v>
@@ -65729,20 +65729,20 @@
       </c>
       <c r="I908" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J908" t="n">
-        <v>1050</v>
+        <v>240</v>
       </c>
       <c r="K908" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="L908" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="M908" t="n">
-        <v>11571</v>
+        <v>8000</v>
       </c>
       <c r="N908" t="inlineStr">
         <is>
@@ -65751,11 +65751,11 @@
       </c>
       <c r="O908" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P908" t="n">
-        <v>643</v>
+        <v>444</v>
       </c>
       <c r="Q908" t="n">
         <v>18</v>
@@ -65781,7 +65781,7 @@
         </is>
       </c>
       <c r="D909" s="2" t="n">
-        <v>44225</v>
+        <v>44166</v>
       </c>
       <c r="E909" t="n">
         <v>13</v>
@@ -65801,20 +65801,20 @@
       </c>
       <c r="I909" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J909" t="n">
-        <v>1040</v>
+        <v>240</v>
       </c>
       <c r="K909" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="L909" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="M909" t="n">
-        <v>9462</v>
+        <v>6000</v>
       </c>
       <c r="N909" t="inlineStr">
         <is>
@@ -65823,11 +65823,11 @@
       </c>
       <c r="O909" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P909" t="n">
-        <v>526</v>
+        <v>333</v>
       </c>
       <c r="Q909" t="n">
         <v>18</v>
@@ -65853,7 +65853,7 @@
         </is>
       </c>
       <c r="D910" s="2" t="n">
-        <v>44225</v>
+        <v>44166</v>
       </c>
       <c r="E910" t="n">
         <v>13</v>
@@ -65877,16 +65877,16 @@
         </is>
       </c>
       <c r="J910" t="n">
-        <v>1130</v>
+        <v>135</v>
       </c>
       <c r="K910" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L910" t="n">
         <v>6000</v>
       </c>
       <c r="M910" t="n">
-        <v>5487</v>
+        <v>6000</v>
       </c>
       <c r="N910" t="inlineStr">
         <is>
@@ -65895,11 +65895,11 @@
       </c>
       <c r="O910" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P910" t="n">
-        <v>305</v>
+        <v>333</v>
       </c>
       <c r="Q910" t="n">
         <v>18</v>
@@ -65925,7 +65925,7 @@
         </is>
       </c>
       <c r="D911" s="2" t="n">
-        <v>44447</v>
+        <v>44225</v>
       </c>
       <c r="E911" t="n">
         <v>13</v>
@@ -65949,16 +65949,16 @@
         </is>
       </c>
       <c r="J911" t="n">
-        <v>530</v>
+        <v>1050</v>
       </c>
       <c r="K911" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="L911" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="M911" t="n">
-        <v>14472</v>
+        <v>11571</v>
       </c>
       <c r="N911" t="inlineStr">
         <is>
@@ -65971,7 +65971,7 @@
         </is>
       </c>
       <c r="P911" t="n">
-        <v>804</v>
+        <v>643</v>
       </c>
       <c r="Q911" t="n">
         <v>18</v>
@@ -65997,7 +65997,7 @@
         </is>
       </c>
       <c r="D912" s="2" t="n">
-        <v>44447</v>
+        <v>44225</v>
       </c>
       <c r="E912" t="n">
         <v>13</v>
@@ -66021,16 +66021,16 @@
         </is>
       </c>
       <c r="J912" t="n">
-        <v>410</v>
+        <v>1040</v>
       </c>
       <c r="K912" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="L912" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="M912" t="n">
-        <v>12512</v>
+        <v>9462</v>
       </c>
       <c r="N912" t="inlineStr">
         <is>
@@ -66043,7 +66043,7 @@
         </is>
       </c>
       <c r="P912" t="n">
-        <v>695</v>
+        <v>526</v>
       </c>
       <c r="Q912" t="n">
         <v>18</v>
@@ -66069,7 +66069,7 @@
         </is>
       </c>
       <c r="D913" s="2" t="n">
-        <v>44447</v>
+        <v>44225</v>
       </c>
       <c r="E913" t="n">
         <v>13</v>
@@ -66089,20 +66089,20 @@
       </c>
       <c r="I913" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J913" t="n">
-        <v>970</v>
+        <v>1130</v>
       </c>
       <c r="K913" t="n">
-        <v>22000</v>
+        <v>5000</v>
       </c>
       <c r="L913" t="n">
-        <v>23000</v>
+        <v>6000</v>
       </c>
       <c r="M913" t="n">
-        <v>22464</v>
+        <v>5487</v>
       </c>
       <c r="N913" t="inlineStr">
         <is>
@@ -66111,11 +66111,11 @@
       </c>
       <c r="O913" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P913" t="n">
-        <v>1248</v>
+        <v>305</v>
       </c>
       <c r="Q913" t="n">
         <v>18</v>
@@ -66161,20 +66161,20 @@
       </c>
       <c r="I914" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J914" t="n">
-        <v>850</v>
+        <v>530</v>
       </c>
       <c r="K914" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="L914" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="M914" t="n">
-        <v>18941</v>
+        <v>14472</v>
       </c>
       <c r="N914" t="inlineStr">
         <is>
@@ -66183,11 +66183,11 @@
       </c>
       <c r="O914" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P914" t="n">
-        <v>1052</v>
+        <v>804</v>
       </c>
       <c r="Q914" t="n">
         <v>18</v>
@@ -66213,7 +66213,7 @@
         </is>
       </c>
       <c r="D915" s="2" t="n">
-        <v>44425</v>
+        <v>44447</v>
       </c>
       <c r="E915" t="n">
         <v>13</v>
@@ -66233,20 +66233,20 @@
       </c>
       <c r="I915" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J915" t="n">
-        <v>390</v>
+        <v>410</v>
       </c>
       <c r="K915" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="L915" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="M915" t="n">
-        <v>8462</v>
+        <v>12512</v>
       </c>
       <c r="N915" t="inlineStr">
         <is>
@@ -66259,7 +66259,7 @@
         </is>
       </c>
       <c r="P915" t="n">
-        <v>470</v>
+        <v>695</v>
       </c>
       <c r="Q915" t="n">
         <v>18</v>
@@ -66285,7 +66285,7 @@
         </is>
       </c>
       <c r="D916" s="2" t="n">
-        <v>44425</v>
+        <v>44447</v>
       </c>
       <c r="E916" t="n">
         <v>13</v>
@@ -66305,20 +66305,20 @@
       </c>
       <c r="I916" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J916" t="n">
-        <v>1040</v>
+        <v>970</v>
       </c>
       <c r="K916" t="n">
-        <v>11000</v>
+        <v>22000</v>
       </c>
       <c r="L916" t="n">
-        <v>12000</v>
+        <v>23000</v>
       </c>
       <c r="M916" t="n">
-        <v>11538</v>
+        <v>22464</v>
       </c>
       <c r="N916" t="inlineStr">
         <is>
@@ -66331,7 +66331,7 @@
         </is>
       </c>
       <c r="P916" t="n">
-        <v>641</v>
+        <v>1248</v>
       </c>
       <c r="Q916" t="n">
         <v>18</v>
@@ -66357,7 +66357,7 @@
         </is>
       </c>
       <c r="D917" s="2" t="n">
-        <v>44425</v>
+        <v>44447</v>
       </c>
       <c r="E917" t="n">
         <v>13</v>
@@ -66377,20 +66377,20 @@
       </c>
       <c r="I917" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J917" t="n">
-        <v>450</v>
+        <v>850</v>
       </c>
       <c r="K917" t="n">
-        <v>6000</v>
+        <v>18000</v>
       </c>
       <c r="L917" t="n">
-        <v>7000</v>
+        <v>20000</v>
       </c>
       <c r="M917" t="n">
-        <v>6444</v>
+        <v>18941</v>
       </c>
       <c r="N917" t="inlineStr">
         <is>
@@ -66399,11 +66399,11 @@
       </c>
       <c r="O917" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P917" t="n">
-        <v>358</v>
+        <v>1052</v>
       </c>
       <c r="Q917" t="n">
         <v>18</v>
@@ -66449,20 +66449,20 @@
       </c>
       <c r="I918" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J918" t="n">
-        <v>1030</v>
+        <v>390</v>
       </c>
       <c r="K918" t="n">
+        <v>8000</v>
+      </c>
+      <c r="L918" t="n">
         <v>9000</v>
       </c>
-      <c r="L918" t="n">
-        <v>10000</v>
-      </c>
       <c r="M918" t="n">
-        <v>9466</v>
+        <v>8462</v>
       </c>
       <c r="N918" t="inlineStr">
         <is>
@@ -66471,11 +66471,11 @@
       </c>
       <c r="O918" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P918" t="n">
-        <v>526</v>
+        <v>470</v>
       </c>
       <c r="Q918" t="n">
         <v>18</v>
@@ -66521,20 +66521,20 @@
       </c>
       <c r="I919" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J919" t="n">
-        <v>440</v>
+        <v>1040</v>
       </c>
       <c r="K919" t="n">
-        <v>4000</v>
+        <v>11000</v>
       </c>
       <c r="L919" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="M919" t="n">
-        <v>4591</v>
+        <v>11538</v>
       </c>
       <c r="N919" t="inlineStr">
         <is>
@@ -66543,11 +66543,11 @@
       </c>
       <c r="O919" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P919" t="n">
-        <v>255</v>
+        <v>641</v>
       </c>
       <c r="Q919" t="n">
         <v>18</v>
@@ -66593,20 +66593,20 @@
       </c>
       <c r="I920" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J920" t="n">
-        <v>820</v>
+        <v>450</v>
       </c>
       <c r="K920" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L920" t="n">
         <v>7000</v>
       </c>
-      <c r="L920" t="n">
-        <v>8000</v>
-      </c>
       <c r="M920" t="n">
-        <v>7537</v>
+        <v>6444</v>
       </c>
       <c r="N920" t="inlineStr">
         <is>
@@ -66615,11 +66615,11 @@
       </c>
       <c r="O920" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P920" t="n">
-        <v>419</v>
+        <v>358</v>
       </c>
       <c r="Q920" t="n">
         <v>18</v>
@@ -66645,7 +66645,7 @@
         </is>
       </c>
       <c r="D921" s="2" t="n">
-        <v>44315</v>
+        <v>44425</v>
       </c>
       <c r="E921" t="n">
         <v>13</v>
@@ -66665,11 +66665,11 @@
       </c>
       <c r="I921" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J921" t="n">
-        <v>820</v>
+        <v>1030</v>
       </c>
       <c r="K921" t="n">
         <v>9000</v>
@@ -66678,7 +66678,7 @@
         <v>10000</v>
       </c>
       <c r="M921" t="n">
-        <v>9537</v>
+        <v>9466</v>
       </c>
       <c r="N921" t="inlineStr">
         <is>
@@ -66687,11 +66687,11 @@
       </c>
       <c r="O921" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P921" t="n">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="Q921" t="n">
         <v>18</v>
@@ -66717,7 +66717,7 @@
         </is>
       </c>
       <c r="D922" s="2" t="n">
-        <v>44315</v>
+        <v>44425</v>
       </c>
       <c r="E922" t="n">
         <v>13</v>
@@ -66737,20 +66737,20 @@
       </c>
       <c r="I922" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J922" t="n">
-        <v>1080</v>
+        <v>440</v>
       </c>
       <c r="K922" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="L922" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="M922" t="n">
-        <v>7556</v>
+        <v>4591</v>
       </c>
       <c r="N922" t="inlineStr">
         <is>
@@ -66763,7 +66763,7 @@
         </is>
       </c>
       <c r="P922" t="n">
-        <v>420</v>
+        <v>255</v>
       </c>
       <c r="Q922" t="n">
         <v>18</v>
@@ -66789,7 +66789,7 @@
         </is>
       </c>
       <c r="D923" s="2" t="n">
-        <v>44315</v>
+        <v>44425</v>
       </c>
       <c r="E923" t="n">
         <v>13</v>
@@ -66813,16 +66813,16 @@
         </is>
       </c>
       <c r="J923" t="n">
-        <v>780</v>
+        <v>820</v>
       </c>
       <c r="K923" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="L923" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M923" t="n">
-        <v>5513</v>
+        <v>7537</v>
       </c>
       <c r="N923" t="inlineStr">
         <is>
@@ -66831,11 +66831,11 @@
       </c>
       <c r="O923" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P923" t="n">
-        <v>306</v>
+        <v>419</v>
       </c>
       <c r="Q923" t="n">
         <v>18</v>
@@ -66861,7 +66861,7 @@
         </is>
       </c>
       <c r="D924" s="2" t="n">
-        <v>44348</v>
+        <v>44315</v>
       </c>
       <c r="E924" t="n">
         <v>13</v>
@@ -66885,16 +66885,16 @@
         </is>
       </c>
       <c r="J924" t="n">
-        <v>680</v>
+        <v>820</v>
       </c>
       <c r="K924" t="n">
+        <v>9000</v>
+      </c>
+      <c r="L924" t="n">
         <v>10000</v>
       </c>
-      <c r="L924" t="n">
-        <v>11000</v>
-      </c>
       <c r="M924" t="n">
-        <v>10412</v>
+        <v>9537</v>
       </c>
       <c r="N924" t="inlineStr">
         <is>
@@ -66903,11 +66903,11 @@
       </c>
       <c r="O924" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P924" t="n">
-        <v>578</v>
+        <v>530</v>
       </c>
       <c r="Q924" t="n">
         <v>18</v>
@@ -66933,7 +66933,7 @@
         </is>
       </c>
       <c r="D925" s="2" t="n">
-        <v>44348</v>
+        <v>44315</v>
       </c>
       <c r="E925" t="n">
         <v>13</v>
@@ -66953,20 +66953,20 @@
       </c>
       <c r="I925" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J925" t="n">
-        <v>400</v>
+        <v>1080</v>
       </c>
       <c r="K925" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="L925" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="M925" t="n">
-        <v>12550</v>
+        <v>7556</v>
       </c>
       <c r="N925" t="inlineStr">
         <is>
@@ -66975,11 +66975,11 @@
       </c>
       <c r="O925" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P925" t="n">
-        <v>697</v>
+        <v>420</v>
       </c>
       <c r="Q925" t="n">
         <v>18</v>
@@ -67005,7 +67005,7 @@
         </is>
       </c>
       <c r="D926" s="2" t="n">
-        <v>44348</v>
+        <v>44315</v>
       </c>
       <c r="E926" t="n">
         <v>13</v>
@@ -67025,20 +67025,20 @@
       </c>
       <c r="I926" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J926" t="n">
-        <v>840</v>
+        <v>780</v>
       </c>
       <c r="K926" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="L926" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="M926" t="n">
-        <v>8548</v>
+        <v>5513</v>
       </c>
       <c r="N926" t="inlineStr">
         <is>
@@ -67047,11 +67047,11 @@
       </c>
       <c r="O926" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P926" t="n">
-        <v>475</v>
+        <v>306</v>
       </c>
       <c r="Q926" t="n">
         <v>18</v>
@@ -67097,7 +67097,7 @@
       </c>
       <c r="I927" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J927" t="n">
@@ -67110,7 +67110,7 @@
         <v>11000</v>
       </c>
       <c r="M927" t="n">
-        <v>10441</v>
+        <v>10412</v>
       </c>
       <c r="N927" t="inlineStr">
         <is>
@@ -67119,11 +67119,11 @@
       </c>
       <c r="O927" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P927" t="n">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="Q927" t="n">
         <v>18</v>
@@ -67169,20 +67169,20 @@
       </c>
       <c r="I928" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J928" t="n">
-        <v>720</v>
+        <v>400</v>
       </c>
       <c r="K928" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="L928" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="M928" t="n">
-        <v>6583</v>
+        <v>12550</v>
       </c>
       <c r="N928" t="inlineStr">
         <is>
@@ -67191,11 +67191,11 @@
       </c>
       <c r="O928" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P928" t="n">
-        <v>366</v>
+        <v>697</v>
       </c>
       <c r="Q928" t="n">
         <v>18</v>
@@ -67241,11 +67241,11 @@
       </c>
       <c r="I929" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J929" t="n">
-        <v>440</v>
+        <v>840</v>
       </c>
       <c r="K929" t="n">
         <v>8000</v>
@@ -67254,7 +67254,7 @@
         <v>9000</v>
       </c>
       <c r="M929" t="n">
-        <v>8545</v>
+        <v>8548</v>
       </c>
       <c r="N929" t="inlineStr">
         <is>
@@ -67263,7 +67263,7 @@
       </c>
       <c r="O929" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P929" t="n">
@@ -67293,7 +67293,7 @@
         </is>
       </c>
       <c r="D930" s="2" t="n">
-        <v>44322</v>
+        <v>44348</v>
       </c>
       <c r="E930" t="n">
         <v>13</v>
@@ -67313,20 +67313,20 @@
       </c>
       <c r="I930" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J930" t="n">
-        <v>630</v>
+        <v>680</v>
       </c>
       <c r="K930" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="L930" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M930" t="n">
-        <v>9603</v>
+        <v>10441</v>
       </c>
       <c r="N930" t="inlineStr">
         <is>
@@ -67335,11 +67335,11 @@
       </c>
       <c r="O930" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P930" t="n">
-        <v>534</v>
+        <v>580</v>
       </c>
       <c r="Q930" t="n">
         <v>18</v>
@@ -67365,7 +67365,7 @@
         </is>
       </c>
       <c r="D931" s="2" t="n">
-        <v>44322</v>
+        <v>44348</v>
       </c>
       <c r="E931" t="n">
         <v>13</v>
@@ -67385,20 +67385,20 @@
       </c>
       <c r="I931" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J931" t="n">
-        <v>750</v>
+        <v>720</v>
       </c>
       <c r="K931" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L931" t="n">
-        <v>8500</v>
+        <v>7000</v>
       </c>
       <c r="M931" t="n">
-        <v>8273</v>
+        <v>6583</v>
       </c>
       <c r="N931" t="inlineStr">
         <is>
@@ -67407,11 +67407,11 @@
       </c>
       <c r="O931" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P931" t="n">
-        <v>460</v>
+        <v>366</v>
       </c>
       <c r="Q931" t="n">
         <v>18</v>
@@ -67437,7 +67437,7 @@
         </is>
       </c>
       <c r="D932" s="2" t="n">
-        <v>44322</v>
+        <v>44348</v>
       </c>
       <c r="E932" t="n">
         <v>13</v>
@@ -67461,16 +67461,16 @@
         </is>
       </c>
       <c r="J932" t="n">
-        <v>500</v>
+        <v>440</v>
       </c>
       <c r="K932" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L932" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="M932" t="n">
-        <v>7280</v>
+        <v>8545</v>
       </c>
       <c r="N932" t="inlineStr">
         <is>
@@ -67479,11 +67479,11 @@
       </c>
       <c r="O932" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P932" t="n">
-        <v>404</v>
+        <v>475</v>
       </c>
       <c r="Q932" t="n">
         <v>18</v>
@@ -67524,7 +67524,7 @@
       </c>
       <c r="H933" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I933" t="inlineStr">
@@ -67533,16 +67533,16 @@
         </is>
       </c>
       <c r="J933" t="n">
-        <v>410</v>
+        <v>630</v>
       </c>
       <c r="K933" t="n">
-        <v>6500</v>
+        <v>9000</v>
       </c>
       <c r="L933" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M933" t="n">
-        <v>6780</v>
+        <v>9603</v>
       </c>
       <c r="N933" t="inlineStr">
         <is>
@@ -67555,7 +67555,7 @@
         </is>
       </c>
       <c r="P933" t="n">
-        <v>377</v>
+        <v>534</v>
       </c>
       <c r="Q933" t="n">
         <v>18</v>
@@ -67596,7 +67596,7 @@
       </c>
       <c r="H934" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I934" t="inlineStr">
@@ -67605,16 +67605,16 @@
         </is>
       </c>
       <c r="J934" t="n">
-        <v>530</v>
+        <v>750</v>
       </c>
       <c r="K934" t="n">
-        <v>5500</v>
+        <v>8000</v>
       </c>
       <c r="L934" t="n">
-        <v>6000</v>
+        <v>8500</v>
       </c>
       <c r="M934" t="n">
-        <v>5764</v>
+        <v>8273</v>
       </c>
       <c r="N934" t="inlineStr">
         <is>
@@ -67627,7 +67627,7 @@
         </is>
       </c>
       <c r="P934" t="n">
-        <v>320</v>
+        <v>460</v>
       </c>
       <c r="Q934" t="n">
         <v>18</v>
@@ -67668,7 +67668,7 @@
       </c>
       <c r="H935" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I935" t="inlineStr">
@@ -67677,16 +67677,16 @@
         </is>
       </c>
       <c r="J935" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K935" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="L935" t="n">
-        <v>4500</v>
+        <v>7500</v>
       </c>
       <c r="M935" t="n">
-        <v>4275</v>
+        <v>7280</v>
       </c>
       <c r="N935" t="inlineStr">
         <is>
@@ -67699,7 +67699,7 @@
         </is>
       </c>
       <c r="P935" t="n">
-        <v>238</v>
+        <v>404</v>
       </c>
       <c r="Q935" t="n">
         <v>18</v>
@@ -67725,7 +67725,7 @@
         </is>
       </c>
       <c r="D936" s="2" t="n">
-        <v>44495</v>
+        <v>44322</v>
       </c>
       <c r="E936" t="n">
         <v>13</v>
@@ -67740,7 +67740,7 @@
       </c>
       <c r="H936" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I936" t="inlineStr">
@@ -67749,16 +67749,16 @@
         </is>
       </c>
       <c r="J936" t="n">
-        <v>1360</v>
+        <v>410</v>
       </c>
       <c r="K936" t="n">
-        <v>15000</v>
+        <v>6500</v>
       </c>
       <c r="L936" t="n">
-        <v>16000</v>
+        <v>7000</v>
       </c>
       <c r="M936" t="n">
-        <v>15478</v>
+        <v>6780</v>
       </c>
       <c r="N936" t="inlineStr">
         <is>
@@ -67771,7 +67771,7 @@
         </is>
       </c>
       <c r="P936" t="n">
-        <v>860</v>
+        <v>377</v>
       </c>
       <c r="Q936" t="n">
         <v>18</v>
@@ -67797,7 +67797,7 @@
         </is>
       </c>
       <c r="D937" s="2" t="n">
-        <v>44495</v>
+        <v>44322</v>
       </c>
       <c r="E937" t="n">
         <v>13</v>
@@ -67812,25 +67812,25 @@
       </c>
       <c r="H937" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I937" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J937" t="n">
-        <v>780</v>
+        <v>530</v>
       </c>
       <c r="K937" t="n">
-        <v>14000</v>
+        <v>5500</v>
       </c>
       <c r="L937" t="n">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="M937" t="n">
-        <v>14000</v>
+        <v>5764</v>
       </c>
       <c r="N937" t="inlineStr">
         <is>
@@ -67839,11 +67839,11 @@
       </c>
       <c r="O937" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P937" t="n">
-        <v>778</v>
+        <v>320</v>
       </c>
       <c r="Q937" t="n">
         <v>18</v>
@@ -67869,7 +67869,7 @@
         </is>
       </c>
       <c r="D938" s="2" t="n">
-        <v>44495</v>
+        <v>44322</v>
       </c>
       <c r="E938" t="n">
         <v>13</v>
@@ -67884,25 +67884,25 @@
       </c>
       <c r="H938" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I938" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J938" t="n">
-        <v>950</v>
+        <v>400</v>
       </c>
       <c r="K938" t="n">
-        <v>14000</v>
+        <v>4000</v>
       </c>
       <c r="L938" t="n">
-        <v>14000</v>
+        <v>4500</v>
       </c>
       <c r="M938" t="n">
-        <v>14000</v>
+        <v>4275</v>
       </c>
       <c r="N938" t="inlineStr">
         <is>
@@ -67915,7 +67915,7 @@
         </is>
       </c>
       <c r="P938" t="n">
-        <v>778</v>
+        <v>238</v>
       </c>
       <c r="Q938" t="n">
         <v>18</v>
@@ -67961,20 +67961,20 @@
       </c>
       <c r="I939" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J939" t="n">
-        <v>850</v>
+        <v>1360</v>
       </c>
       <c r="K939" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="L939" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="M939" t="n">
-        <v>13000</v>
+        <v>15478</v>
       </c>
       <c r="N939" t="inlineStr">
         <is>
@@ -67983,11 +67983,11 @@
       </c>
       <c r="O939" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P939" t="n">
-        <v>722</v>
+        <v>860</v>
       </c>
       <c r="Q939" t="n">
         <v>18</v>
@@ -68033,20 +68033,20 @@
       </c>
       <c r="I940" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J940" t="n">
-        <v>1000</v>
+        <v>780</v>
       </c>
       <c r="K940" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="L940" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="M940" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="N940" t="inlineStr">
         <is>
@@ -68055,11 +68055,11 @@
       </c>
       <c r="O940" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P940" t="n">
-        <v>444</v>
+        <v>778</v>
       </c>
       <c r="Q940" t="n">
         <v>18</v>
@@ -68105,20 +68105,20 @@
       </c>
       <c r="I941" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J941" t="n">
-        <v>800</v>
+        <v>950</v>
       </c>
       <c r="K941" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="L941" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="M941" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="N941" t="inlineStr">
         <is>
@@ -68127,11 +68127,11 @@
       </c>
       <c r="O941" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P941" t="n">
-        <v>556</v>
+        <v>778</v>
       </c>
       <c r="Q941" t="n">
         <v>18</v>
@@ -68177,20 +68177,20 @@
       </c>
       <c r="I942" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J942" t="n">
-        <v>550</v>
+        <v>850</v>
       </c>
       <c r="K942" t="n">
-        <v>6000</v>
+        <v>13000</v>
       </c>
       <c r="L942" t="n">
-        <v>6000</v>
+        <v>13000</v>
       </c>
       <c r="M942" t="n">
-        <v>6000</v>
+        <v>13000</v>
       </c>
       <c r="N942" t="inlineStr">
         <is>
@@ -68203,7 +68203,7 @@
         </is>
       </c>
       <c r="P942" t="n">
-        <v>333</v>
+        <v>722</v>
       </c>
       <c r="Q942" t="n">
         <v>18</v>
@@ -68229,7 +68229,7 @@
         </is>
       </c>
       <c r="D943" s="2" t="n">
-        <v>44232</v>
+        <v>44495</v>
       </c>
       <c r="E943" t="n">
         <v>13</v>
@@ -68249,20 +68249,20 @@
       </c>
       <c r="I943" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J943" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="K943" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="L943" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="M943" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="N943" t="inlineStr">
         <is>
@@ -68271,11 +68271,11 @@
       </c>
       <c r="O943" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P943" t="n">
-        <v>667</v>
+        <v>444</v>
       </c>
       <c r="Q943" t="n">
         <v>18</v>
@@ -68301,7 +68301,7 @@
         </is>
       </c>
       <c r="D944" s="2" t="n">
-        <v>44232</v>
+        <v>44495</v>
       </c>
       <c r="E944" t="n">
         <v>13</v>
@@ -68321,20 +68321,20 @@
       </c>
       <c r="I944" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J944" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="K944" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="L944" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M944" t="n">
-        <v>8500</v>
+        <v>10000</v>
       </c>
       <c r="N944" t="inlineStr">
         <is>
@@ -68343,11 +68343,11 @@
       </c>
       <c r="O944" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P944" t="n">
-        <v>472</v>
+        <v>556</v>
       </c>
       <c r="Q944" t="n">
         <v>18</v>
@@ -68373,7 +68373,7 @@
         </is>
       </c>
       <c r="D945" s="2" t="n">
-        <v>44232</v>
+        <v>44495</v>
       </c>
       <c r="E945" t="n">
         <v>13</v>
@@ -68393,20 +68393,20 @@
       </c>
       <c r="I945" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J945" t="n">
-        <v>250</v>
+        <v>550</v>
       </c>
       <c r="K945" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="L945" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="M945" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="N945" t="inlineStr">
         <is>
@@ -68415,11 +68415,11 @@
       </c>
       <c r="O945" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P945" t="n">
-        <v>500</v>
+        <v>333</v>
       </c>
       <c r="Q945" t="n">
         <v>18</v>
@@ -68465,20 +68465,20 @@
       </c>
       <c r="I946" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J946" t="n">
-        <v>325</v>
+        <v>150</v>
       </c>
       <c r="K946" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="L946" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="M946" t="n">
-        <v>6538</v>
+        <v>12000</v>
       </c>
       <c r="N946" t="inlineStr">
         <is>
@@ -68491,7 +68491,7 @@
         </is>
       </c>
       <c r="P946" t="n">
-        <v>363</v>
+        <v>667</v>
       </c>
       <c r="Q946" t="n">
         <v>18</v>
@@ -68537,20 +68537,20 @@
       </c>
       <c r="I947" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J947" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="K947" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L947" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M947" t="n">
-        <v>7000</v>
+        <v>8500</v>
       </c>
       <c r="N947" t="inlineStr">
         <is>
@@ -68559,11 +68559,11 @@
       </c>
       <c r="O947" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P947" t="n">
-        <v>389</v>
+        <v>472</v>
       </c>
       <c r="Q947" t="n">
         <v>18</v>
@@ -68589,7 +68589,7 @@
         </is>
       </c>
       <c r="D948" s="2" t="n">
-        <v>44327</v>
+        <v>44232</v>
       </c>
       <c r="E948" t="n">
         <v>13</v>
@@ -68609,20 +68609,20 @@
       </c>
       <c r="I948" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J948" t="n">
-        <v>680</v>
+        <v>250</v>
       </c>
       <c r="K948" t="n">
         <v>9000</v>
       </c>
       <c r="L948" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="M948" t="n">
-        <v>9588</v>
+        <v>9000</v>
       </c>
       <c r="N948" t="inlineStr">
         <is>
@@ -68631,11 +68631,11 @@
       </c>
       <c r="O948" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P948" t="n">
-        <v>533</v>
+        <v>500</v>
       </c>
       <c r="Q948" t="n">
         <v>18</v>
@@ -68661,7 +68661,7 @@
         </is>
       </c>
       <c r="D949" s="2" t="n">
-        <v>44327</v>
+        <v>44232</v>
       </c>
       <c r="E949" t="n">
         <v>13</v>
@@ -68681,36 +68681,36 @@
       </c>
       <c r="I949" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J949" t="n">
-        <v>210</v>
+        <v>325</v>
       </c>
       <c r="K949" t="n">
-        <v>15000</v>
+        <v>6000</v>
       </c>
       <c r="L949" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="M949" t="n">
-        <v>15000</v>
+        <v>6538</v>
       </c>
       <c r="N949" t="inlineStr">
         <is>
-          <t>$/bandeja 20 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O949" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P949" t="n">
-        <v>750</v>
+        <v>363</v>
       </c>
       <c r="Q949" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R949" t="inlineStr">
         <is>
@@ -68733,7 +68733,7 @@
         </is>
       </c>
       <c r="D950" s="2" t="n">
-        <v>44327</v>
+        <v>44232</v>
       </c>
       <c r="E950" t="n">
         <v>13</v>
@@ -68753,20 +68753,20 @@
       </c>
       <c r="I950" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J950" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="K950" t="n">
         <v>7000</v>
       </c>
       <c r="L950" t="n">
-        <v>7500</v>
+        <v>7000</v>
       </c>
       <c r="M950" t="n">
-        <v>7280</v>
+        <v>7000</v>
       </c>
       <c r="N950" t="inlineStr">
         <is>
@@ -68775,11 +68775,11 @@
       </c>
       <c r="O950" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P950" t="n">
-        <v>404</v>
+        <v>389</v>
       </c>
       <c r="Q950" t="n">
         <v>18</v>
@@ -68825,36 +68825,36 @@
       </c>
       <c r="I951" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J951" t="n">
-        <v>320</v>
+        <v>680</v>
       </c>
       <c r="K951" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="L951" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M951" t="n">
-        <v>12000</v>
+        <v>9588</v>
       </c>
       <c r="N951" t="inlineStr">
         <is>
-          <t>$/bandeja 20 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O951" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P951" t="n">
-        <v>600</v>
+        <v>533</v>
       </c>
       <c r="Q951" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R951" t="inlineStr">
         <is>
@@ -68897,36 +68897,36 @@
       </c>
       <c r="I952" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J952" t="n">
-        <v>460</v>
+        <v>210</v>
       </c>
       <c r="K952" t="n">
-        <v>5000</v>
+        <v>15000</v>
       </c>
       <c r="L952" t="n">
-        <v>6000</v>
+        <v>15000</v>
       </c>
       <c r="M952" t="n">
-        <v>5522</v>
+        <v>15000</v>
       </c>
       <c r="N952" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 20 kilos</t>
         </is>
       </c>
       <c r="O952" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P952" t="n">
-        <v>307</v>
+        <v>750</v>
       </c>
       <c r="Q952" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R952" t="inlineStr">
         <is>
@@ -68969,36 +68969,36 @@
       </c>
       <c r="I953" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J953" t="n">
-        <v>180</v>
+        <v>500</v>
       </c>
       <c r="K953" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="L953" t="n">
-        <v>10000</v>
+        <v>7500</v>
       </c>
       <c r="M953" t="n">
-        <v>10000</v>
+        <v>7280</v>
       </c>
       <c r="N953" t="inlineStr">
         <is>
-          <t>$/bandeja 20 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O953" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P953" t="n">
-        <v>500</v>
+        <v>404</v>
       </c>
       <c r="Q953" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R953" t="inlineStr">
         <is>
@@ -69021,7 +69021,7 @@
         </is>
       </c>
       <c r="D954" s="2" t="n">
-        <v>44510</v>
+        <v>44327</v>
       </c>
       <c r="E954" t="n">
         <v>13</v>
@@ -69041,36 +69041,36 @@
       </c>
       <c r="I954" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J954" t="n">
-        <v>960</v>
+        <v>320</v>
       </c>
       <c r="K954" t="n">
-        <v>17500</v>
+        <v>12000</v>
       </c>
       <c r="L954" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="M954" t="n">
-        <v>17766</v>
+        <v>12000</v>
       </c>
       <c r="N954" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 20 kilos</t>
         </is>
       </c>
       <c r="O954" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P954" t="n">
-        <v>987</v>
+        <v>600</v>
       </c>
       <c r="Q954" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R954" t="inlineStr">
         <is>
@@ -69093,7 +69093,7 @@
         </is>
       </c>
       <c r="D955" s="2" t="n">
-        <v>44510</v>
+        <v>44327</v>
       </c>
       <c r="E955" t="n">
         <v>13</v>
@@ -69113,20 +69113,20 @@
       </c>
       <c r="I955" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J955" t="n">
-        <v>600</v>
+        <v>460</v>
       </c>
       <c r="K955" t="n">
-        <v>14000</v>
+        <v>5000</v>
       </c>
       <c r="L955" t="n">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="M955" t="n">
-        <v>14000</v>
+        <v>5522</v>
       </c>
       <c r="N955" t="inlineStr">
         <is>
@@ -69135,11 +69135,11 @@
       </c>
       <c r="O955" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P955" t="n">
-        <v>778</v>
+        <v>307</v>
       </c>
       <c r="Q955" t="n">
         <v>18</v>
@@ -69165,7 +69165,7 @@
         </is>
       </c>
       <c r="D956" s="2" t="n">
-        <v>44510</v>
+        <v>44327</v>
       </c>
       <c r="E956" t="n">
         <v>13</v>
@@ -69185,36 +69185,36 @@
       </c>
       <c r="I956" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J956" t="n">
-        <v>890</v>
+        <v>180</v>
       </c>
       <c r="K956" t="n">
-        <v>16500</v>
+        <v>10000</v>
       </c>
       <c r="L956" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="M956" t="n">
-        <v>16753</v>
+        <v>10000</v>
       </c>
       <c r="N956" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 20 kilos</t>
         </is>
       </c>
       <c r="O956" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P956" t="n">
-        <v>931</v>
+        <v>500</v>
       </c>
       <c r="Q956" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R956" t="inlineStr">
         <is>
@@ -69257,20 +69257,20 @@
       </c>
       <c r="I957" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J957" t="n">
-        <v>710</v>
+        <v>960</v>
       </c>
       <c r="K957" t="n">
-        <v>12000</v>
+        <v>17500</v>
       </c>
       <c r="L957" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="M957" t="n">
-        <v>12000</v>
+        <v>17766</v>
       </c>
       <c r="N957" t="inlineStr">
         <is>
@@ -69279,11 +69279,11 @@
       </c>
       <c r="O957" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P957" t="n">
-        <v>667</v>
+        <v>987</v>
       </c>
       <c r="Q957" t="n">
         <v>18</v>
@@ -69329,20 +69329,20 @@
       </c>
       <c r="I958" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J958" t="n">
-        <v>910</v>
+        <v>600</v>
       </c>
       <c r="K958" t="n">
-        <v>11500</v>
+        <v>14000</v>
       </c>
       <c r="L958" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="M958" t="n">
-        <v>11775</v>
+        <v>14000</v>
       </c>
       <c r="N958" t="inlineStr">
         <is>
@@ -69351,11 +69351,11 @@
       </c>
       <c r="O958" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P958" t="n">
-        <v>654</v>
+        <v>778</v>
       </c>
       <c r="Q958" t="n">
         <v>18</v>
@@ -69401,20 +69401,20 @@
       </c>
       <c r="I959" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J959" t="n">
-        <v>650</v>
+        <v>890</v>
       </c>
       <c r="K959" t="n">
-        <v>8000</v>
+        <v>16500</v>
       </c>
       <c r="L959" t="n">
-        <v>8000</v>
+        <v>17000</v>
       </c>
       <c r="M959" t="n">
-        <v>8000</v>
+        <v>16753</v>
       </c>
       <c r="N959" t="inlineStr">
         <is>
@@ -69423,11 +69423,11 @@
       </c>
       <c r="O959" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P959" t="n">
-        <v>444</v>
+        <v>931</v>
       </c>
       <c r="Q959" t="n">
         <v>18</v>
@@ -69453,7 +69453,7 @@
         </is>
       </c>
       <c r="D960" s="2" t="n">
-        <v>44161</v>
+        <v>44510</v>
       </c>
       <c r="E960" t="n">
         <v>13</v>
@@ -69473,20 +69473,20 @@
       </c>
       <c r="I960" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J960" t="n">
-        <v>1100</v>
+        <v>710</v>
       </c>
       <c r="K960" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="L960" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="M960" t="n">
-        <v>8564</v>
+        <v>12000</v>
       </c>
       <c r="N960" t="inlineStr">
         <is>
@@ -69495,11 +69495,11 @@
       </c>
       <c r="O960" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P960" t="n">
-        <v>476</v>
+        <v>667</v>
       </c>
       <c r="Q960" t="n">
         <v>18</v>
@@ -69525,7 +69525,7 @@
         </is>
       </c>
       <c r="D961" s="2" t="n">
-        <v>44161</v>
+        <v>44510</v>
       </c>
       <c r="E961" t="n">
         <v>13</v>
@@ -69545,20 +69545,20 @@
       </c>
       <c r="I961" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J961" t="n">
-        <v>1480</v>
+        <v>910</v>
       </c>
       <c r="K961" t="n">
-        <v>6000</v>
+        <v>11500</v>
       </c>
       <c r="L961" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="M961" t="n">
-        <v>6459</v>
+        <v>11775</v>
       </c>
       <c r="N961" t="inlineStr">
         <is>
@@ -69571,7 +69571,7 @@
         </is>
       </c>
       <c r="P961" t="n">
-        <v>359</v>
+        <v>654</v>
       </c>
       <c r="Q961" t="n">
         <v>18</v>
@@ -69597,7 +69597,7 @@
         </is>
       </c>
       <c r="D962" s="2" t="n">
-        <v>44161</v>
+        <v>44510</v>
       </c>
       <c r="E962" t="n">
         <v>13</v>
@@ -69621,16 +69621,16 @@
         </is>
       </c>
       <c r="J962" t="n">
-        <v>1160</v>
+        <v>650</v>
       </c>
       <c r="K962" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="L962" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="M962" t="n">
-        <v>4483</v>
+        <v>8000</v>
       </c>
       <c r="N962" t="inlineStr">
         <is>
@@ -69639,11 +69639,11 @@
       </c>
       <c r="O962" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P962" t="n">
-        <v>249</v>
+        <v>444</v>
       </c>
       <c r="Q962" t="n">
         <v>18</v>
@@ -69669,7 +69669,7 @@
         </is>
       </c>
       <c r="D963" s="2" t="n">
-        <v>44468</v>
+        <v>44161</v>
       </c>
       <c r="E963" t="n">
         <v>13</v>
@@ -69693,16 +69693,16 @@
         </is>
       </c>
       <c r="J963" t="n">
-        <v>850</v>
+        <v>1100</v>
       </c>
       <c r="K963" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="L963" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="M963" t="n">
-        <v>14471</v>
+        <v>8564</v>
       </c>
       <c r="N963" t="inlineStr">
         <is>
@@ -69711,11 +69711,11 @@
       </c>
       <c r="O963" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P963" t="n">
-        <v>804</v>
+        <v>476</v>
       </c>
       <c r="Q963" t="n">
         <v>18</v>
@@ -69741,7 +69741,7 @@
         </is>
       </c>
       <c r="D964" s="2" t="n">
-        <v>44468</v>
+        <v>44161</v>
       </c>
       <c r="E964" t="n">
         <v>13</v>
@@ -69765,16 +69765,16 @@
         </is>
       </c>
       <c r="J964" t="n">
-        <v>780</v>
+        <v>1480</v>
       </c>
       <c r="K964" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="L964" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="M964" t="n">
-        <v>12513</v>
+        <v>6459</v>
       </c>
       <c r="N964" t="inlineStr">
         <is>
@@ -69783,11 +69783,11 @@
       </c>
       <c r="O964" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P964" t="n">
-        <v>695</v>
+        <v>359</v>
       </c>
       <c r="Q964" t="n">
         <v>18</v>
@@ -69813,7 +69813,7 @@
         </is>
       </c>
       <c r="D965" s="2" t="n">
-        <v>44468</v>
+        <v>44161</v>
       </c>
       <c r="E965" t="n">
         <v>13</v>
@@ -69837,16 +69837,16 @@
         </is>
       </c>
       <c r="J965" t="n">
-        <v>840</v>
+        <v>1160</v>
       </c>
       <c r="K965" t="n">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="L965" t="n">
-        <v>11000</v>
+        <v>5000</v>
       </c>
       <c r="M965" t="n">
-        <v>10417</v>
+        <v>4483</v>
       </c>
       <c r="N965" t="inlineStr">
         <is>
@@ -69855,11 +69855,11 @@
       </c>
       <c r="O965" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P965" t="n">
-        <v>579</v>
+        <v>249</v>
       </c>
       <c r="Q965" t="n">
         <v>18</v>
@@ -69885,7 +69885,7 @@
         </is>
       </c>
       <c r="D966" s="2" t="n">
-        <v>44517</v>
+        <v>44468</v>
       </c>
       <c r="E966" t="n">
         <v>13</v>
@@ -69909,16 +69909,16 @@
         </is>
       </c>
       <c r="J966" t="n">
-        <v>1130</v>
+        <v>850</v>
       </c>
       <c r="K966" t="n">
+        <v>14000</v>
+      </c>
+      <c r="L966" t="n">
         <v>15000</v>
       </c>
-      <c r="L966" t="n">
-        <v>16000</v>
-      </c>
       <c r="M966" t="n">
-        <v>15425</v>
+        <v>14471</v>
       </c>
       <c r="N966" t="inlineStr">
         <is>
@@ -69927,11 +69927,11 @@
       </c>
       <c r="O966" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P966" t="n">
-        <v>857</v>
+        <v>804</v>
       </c>
       <c r="Q966" t="n">
         <v>18</v>
@@ -69957,7 +69957,7 @@
         </is>
       </c>
       <c r="D967" s="2" t="n">
-        <v>44517</v>
+        <v>44468</v>
       </c>
       <c r="E967" t="n">
         <v>13</v>
@@ -69977,20 +69977,20 @@
       </c>
       <c r="I967" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J967" t="n">
-        <v>650</v>
+        <v>780</v>
       </c>
       <c r="K967" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="L967" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="M967" t="n">
-        <v>15000</v>
+        <v>12513</v>
       </c>
       <c r="N967" t="inlineStr">
         <is>
@@ -70003,7 +70003,7 @@
         </is>
       </c>
       <c r="P967" t="n">
-        <v>833</v>
+        <v>695</v>
       </c>
       <c r="Q967" t="n">
         <v>18</v>
@@ -70029,7 +70029,7 @@
         </is>
       </c>
       <c r="D968" s="2" t="n">
-        <v>44517</v>
+        <v>44468</v>
       </c>
       <c r="E968" t="n">
         <v>13</v>
@@ -70049,20 +70049,20 @@
       </c>
       <c r="I968" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J968" t="n">
-        <v>1180</v>
+        <v>840</v>
       </c>
       <c r="K968" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="L968" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="M968" t="n">
-        <v>13492</v>
+        <v>10417</v>
       </c>
       <c r="N968" t="inlineStr">
         <is>
@@ -70071,11 +70071,11 @@
       </c>
       <c r="O968" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P968" t="n">
-        <v>750</v>
+        <v>579</v>
       </c>
       <c r="Q968" t="n">
         <v>18</v>
@@ -70121,20 +70121,20 @@
       </c>
       <c r="I969" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J969" t="n">
-        <v>600</v>
+        <v>1130</v>
       </c>
       <c r="K969" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="L969" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="M969" t="n">
-        <v>13000</v>
+        <v>15425</v>
       </c>
       <c r="N969" t="inlineStr">
         <is>
@@ -70143,11 +70143,11 @@
       </c>
       <c r="O969" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P969" t="n">
-        <v>722</v>
+        <v>857</v>
       </c>
       <c r="Q969" t="n">
         <v>18</v>
@@ -70193,20 +70193,20 @@
       </c>
       <c r="I970" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J970" t="n">
-        <v>1030</v>
+        <v>650</v>
       </c>
       <c r="K970" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="L970" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="M970" t="n">
-        <v>11631</v>
+        <v>15000</v>
       </c>
       <c r="N970" t="inlineStr">
         <is>
@@ -70215,11 +70215,11 @@
       </c>
       <c r="O970" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P970" t="n">
-        <v>646</v>
+        <v>833</v>
       </c>
       <c r="Q970" t="n">
         <v>18</v>
@@ -70265,20 +70265,20 @@
       </c>
       <c r="I971" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J971" t="n">
-        <v>580</v>
+        <v>1180</v>
       </c>
       <c r="K971" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="L971" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="M971" t="n">
-        <v>11000</v>
+        <v>13492</v>
       </c>
       <c r="N971" t="inlineStr">
         <is>
@@ -70287,11 +70287,11 @@
       </c>
       <c r="O971" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P971" t="n">
-        <v>611</v>
+        <v>750</v>
       </c>
       <c r="Q971" t="n">
         <v>18</v>
@@ -70317,7 +70317,7 @@
         </is>
       </c>
       <c r="D972" s="2" t="n">
-        <v>44238</v>
+        <v>44517</v>
       </c>
       <c r="E972" t="n">
         <v>13</v>
@@ -70337,20 +70337,20 @@
       </c>
       <c r="I972" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J972" t="n">
-        <v>295</v>
+        <v>600</v>
       </c>
       <c r="K972" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="L972" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="M972" t="n">
-        <v>9508</v>
+        <v>13000</v>
       </c>
       <c r="N972" t="inlineStr">
         <is>
@@ -70359,11 +70359,11 @@
       </c>
       <c r="O972" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P972" t="n">
-        <v>528</v>
+        <v>722</v>
       </c>
       <c r="Q972" t="n">
         <v>18</v>
@@ -70389,7 +70389,7 @@
         </is>
       </c>
       <c r="D973" s="2" t="n">
-        <v>44238</v>
+        <v>44517</v>
       </c>
       <c r="E973" t="n">
         <v>13</v>
@@ -70409,20 +70409,20 @@
       </c>
       <c r="I973" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J973" t="n">
-        <v>60</v>
+        <v>1030</v>
       </c>
       <c r="K973" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="L973" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="M973" t="n">
-        <v>9000</v>
+        <v>11631</v>
       </c>
       <c r="N973" t="inlineStr">
         <is>
@@ -70431,11 +70431,11 @@
       </c>
       <c r="O973" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P973" t="n">
-        <v>500</v>
+        <v>646</v>
       </c>
       <c r="Q973" t="n">
         <v>18</v>
@@ -70461,7 +70461,7 @@
         </is>
       </c>
       <c r="D974" s="2" t="n">
-        <v>44238</v>
+        <v>44517</v>
       </c>
       <c r="E974" t="n">
         <v>13</v>
@@ -70481,20 +70481,20 @@
       </c>
       <c r="I974" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J974" t="n">
-        <v>360</v>
+        <v>580</v>
       </c>
       <c r="K974" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="L974" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="M974" t="n">
-        <v>7333</v>
+        <v>11000</v>
       </c>
       <c r="N974" t="inlineStr">
         <is>
@@ -70503,11 +70503,11 @@
       </c>
       <c r="O974" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P974" t="n">
-        <v>407</v>
+        <v>611</v>
       </c>
       <c r="Q974" t="n">
         <v>18</v>
@@ -70553,20 +70553,20 @@
       </c>
       <c r="I975" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J975" t="n">
-        <v>150</v>
+        <v>295</v>
       </c>
       <c r="K975" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L975" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M975" t="n">
-        <v>7000</v>
+        <v>9508</v>
       </c>
       <c r="N975" t="inlineStr">
         <is>
@@ -70575,11 +70575,11 @@
       </c>
       <c r="O975" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P975" t="n">
-        <v>389</v>
+        <v>528</v>
       </c>
       <c r="Q975" t="n">
         <v>18</v>
@@ -70625,20 +70625,20 @@
       </c>
       <c r="I976" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J976" t="n">
-        <v>180</v>
+        <v>60</v>
       </c>
       <c r="K976" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="L976" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="M976" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="N976" t="inlineStr">
         <is>
@@ -70647,11 +70647,11 @@
       </c>
       <c r="O976" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P976" t="n">
-        <v>278</v>
+        <v>500</v>
       </c>
       <c r="Q976" t="n">
         <v>18</v>
@@ -70697,20 +70697,20 @@
       </c>
       <c r="I977" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J977" t="n">
-        <v>100</v>
+        <v>360</v>
       </c>
       <c r="K977" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="L977" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="M977" t="n">
-        <v>5000</v>
+        <v>7333</v>
       </c>
       <c r="N977" t="inlineStr">
         <is>
@@ -70719,11 +70719,11 @@
       </c>
       <c r="O977" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P977" t="n">
-        <v>278</v>
+        <v>407</v>
       </c>
       <c r="Q977" t="n">
         <v>18</v>
@@ -70749,7 +70749,7 @@
         </is>
       </c>
       <c r="D978" s="2" t="n">
-        <v>44391</v>
+        <v>44238</v>
       </c>
       <c r="E978" t="n">
         <v>13</v>
@@ -70769,20 +70769,20 @@
       </c>
       <c r="I978" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J978" t="n">
-        <v>750</v>
+        <v>150</v>
       </c>
       <c r="K978" t="n">
-        <v>16000</v>
+        <v>7000</v>
       </c>
       <c r="L978" t="n">
-        <v>17000</v>
+        <v>7000</v>
       </c>
       <c r="M978" t="n">
-        <v>16600</v>
+        <v>7000</v>
       </c>
       <c r="N978" t="inlineStr">
         <is>
@@ -70791,11 +70791,11 @@
       </c>
       <c r="O978" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P978" t="n">
-        <v>922</v>
+        <v>389</v>
       </c>
       <c r="Q978" t="n">
         <v>18</v>
@@ -70821,7 +70821,7 @@
         </is>
       </c>
       <c r="D979" s="2" t="n">
-        <v>44391</v>
+        <v>44238</v>
       </c>
       <c r="E979" t="n">
         <v>13</v>
@@ -70841,20 +70841,20 @@
       </c>
       <c r="I979" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J979" t="n">
-        <v>840</v>
+        <v>180</v>
       </c>
       <c r="K979" t="n">
-        <v>14000</v>
+        <v>5000</v>
       </c>
       <c r="L979" t="n">
-        <v>15000</v>
+        <v>5000</v>
       </c>
       <c r="M979" t="n">
-        <v>14548</v>
+        <v>5000</v>
       </c>
       <c r="N979" t="inlineStr">
         <is>
@@ -70863,11 +70863,11 @@
       </c>
       <c r="O979" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P979" t="n">
-        <v>808</v>
+        <v>278</v>
       </c>
       <c r="Q979" t="n">
         <v>18</v>
@@ -70893,7 +70893,7 @@
         </is>
       </c>
       <c r="D980" s="2" t="n">
-        <v>44391</v>
+        <v>44238</v>
       </c>
       <c r="E980" t="n">
         <v>13</v>
@@ -70917,16 +70917,16 @@
         </is>
       </c>
       <c r="J980" t="n">
-        <v>370</v>
+        <v>100</v>
       </c>
       <c r="K980" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="L980" t="n">
-        <v>11000</v>
+        <v>5000</v>
       </c>
       <c r="M980" t="n">
-        <v>10459</v>
+        <v>5000</v>
       </c>
       <c r="N980" t="inlineStr">
         <is>
@@ -70935,11 +70935,11 @@
       </c>
       <c r="O980" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P980" t="n">
-        <v>581</v>
+        <v>278</v>
       </c>
       <c r="Q980" t="n">
         <v>18</v>
@@ -70965,7 +70965,7 @@
         </is>
       </c>
       <c r="D981" s="2" t="n">
-        <v>44236</v>
+        <v>44391</v>
       </c>
       <c r="E981" t="n">
         <v>13</v>
@@ -70989,16 +70989,16 @@
         </is>
       </c>
       <c r="J981" t="n">
-        <v>125</v>
+        <v>750</v>
       </c>
       <c r="K981" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="L981" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="M981" t="n">
-        <v>10000</v>
+        <v>16600</v>
       </c>
       <c r="N981" t="inlineStr">
         <is>
@@ -71007,11 +71007,11 @@
       </c>
       <c r="O981" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P981" t="n">
-        <v>556</v>
+        <v>922</v>
       </c>
       <c r="Q981" t="n">
         <v>18</v>
@@ -71037,7 +71037,7 @@
         </is>
       </c>
       <c r="D982" s="2" t="n">
-        <v>44236</v>
+        <v>44391</v>
       </c>
       <c r="E982" t="n">
         <v>13</v>
@@ -71061,16 +71061,16 @@
         </is>
       </c>
       <c r="J982" t="n">
-        <v>225</v>
+        <v>840</v>
       </c>
       <c r="K982" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="L982" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="M982" t="n">
-        <v>8000</v>
+        <v>14548</v>
       </c>
       <c r="N982" t="inlineStr">
         <is>
@@ -71079,11 +71079,11 @@
       </c>
       <c r="O982" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P982" t="n">
-        <v>444</v>
+        <v>808</v>
       </c>
       <c r="Q982" t="n">
         <v>18</v>
@@ -71109,7 +71109,7 @@
         </is>
       </c>
       <c r="D983" s="2" t="n">
-        <v>44236</v>
+        <v>44391</v>
       </c>
       <c r="E983" t="n">
         <v>13</v>
@@ -71133,16 +71133,16 @@
         </is>
       </c>
       <c r="J983" t="n">
-        <v>150</v>
+        <v>370</v>
       </c>
       <c r="K983" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="L983" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="M983" t="n">
-        <v>6000</v>
+        <v>10459</v>
       </c>
       <c r="N983" t="inlineStr">
         <is>
@@ -71151,11 +71151,11 @@
       </c>
       <c r="O983" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P983" t="n">
-        <v>333</v>
+        <v>581</v>
       </c>
       <c r="Q983" t="n">
         <v>18</v>
@@ -71181,7 +71181,7 @@
         </is>
       </c>
       <c r="D984" s="2" t="n">
-        <v>44389</v>
+        <v>44236</v>
       </c>
       <c r="E984" t="n">
         <v>13</v>
@@ -71205,16 +71205,16 @@
         </is>
       </c>
       <c r="J984" t="n">
-        <v>460</v>
+        <v>125</v>
       </c>
       <c r="K984" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="L984" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="M984" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="N984" t="inlineStr">
         <is>
@@ -71223,11 +71223,11 @@
       </c>
       <c r="O984" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P984" t="n">
-        <v>1000</v>
+        <v>556</v>
       </c>
       <c r="Q984" t="n">
         <v>18</v>
@@ -71253,7 +71253,7 @@
         </is>
       </c>
       <c r="D985" s="2" t="n">
-        <v>44389</v>
+        <v>44236</v>
       </c>
       <c r="E985" t="n">
         <v>13</v>
@@ -71273,36 +71273,36 @@
       </c>
       <c r="I985" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J985" t="n">
-        <v>400</v>
+        <v>225</v>
       </c>
       <c r="K985" t="n">
-        <v>20000</v>
+        <v>8000</v>
       </c>
       <c r="L985" t="n">
-        <v>20000</v>
+        <v>8000</v>
       </c>
       <c r="M985" t="n">
-        <v>20000</v>
+        <v>8000</v>
       </c>
       <c r="N985" t="inlineStr">
         <is>
-          <t>$/bandeja 20 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O985" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P985" t="n">
-        <v>1000</v>
+        <v>444</v>
       </c>
       <c r="Q985" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R985" t="inlineStr">
         <is>
@@ -71325,7 +71325,7 @@
         </is>
       </c>
       <c r="D986" s="2" t="n">
-        <v>44389</v>
+        <v>44236</v>
       </c>
       <c r="E986" t="n">
         <v>13</v>
@@ -71345,20 +71345,20 @@
       </c>
       <c r="I986" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J986" t="n">
-        <v>490</v>
+        <v>150</v>
       </c>
       <c r="K986" t="n">
-        <v>16000</v>
+        <v>6000</v>
       </c>
       <c r="L986" t="n">
-        <v>16000</v>
+        <v>6000</v>
       </c>
       <c r="M986" t="n">
-        <v>16000</v>
+        <v>6000</v>
       </c>
       <c r="N986" t="inlineStr">
         <is>
@@ -71367,11 +71367,11 @@
       </c>
       <c r="O986" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P986" t="n">
-        <v>889</v>
+        <v>333</v>
       </c>
       <c r="Q986" t="n">
         <v>18</v>
@@ -71417,11 +71417,11 @@
       </c>
       <c r="I987" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J987" t="n">
-        <v>480</v>
+        <v>460</v>
       </c>
       <c r="K987" t="n">
         <v>18000</v>
@@ -71434,7 +71434,7 @@
       </c>
       <c r="N987" t="inlineStr">
         <is>
-          <t>$/bandeja 20 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O987" t="inlineStr">
@@ -71443,10 +71443,10 @@
         </is>
       </c>
       <c r="P987" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="Q987" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R987" t="inlineStr">
         <is>
@@ -71489,24 +71489,24 @@
       </c>
       <c r="I988" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J988" t="n">
-        <v>310</v>
+        <v>400</v>
       </c>
       <c r="K988" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="L988" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="M988" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="N988" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 20 kilos</t>
         </is>
       </c>
       <c r="O988" t="inlineStr">
@@ -71515,10 +71515,10 @@
         </is>
       </c>
       <c r="P988" t="n">
-        <v>778</v>
+        <v>1000</v>
       </c>
       <c r="Q988" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R988" t="inlineStr">
         <is>
@@ -71541,7 +71541,7 @@
         </is>
       </c>
       <c r="D989" s="2" t="n">
-        <v>44251</v>
+        <v>44389</v>
       </c>
       <c r="E989" t="n">
         <v>13</v>
@@ -71561,20 +71561,20 @@
       </c>
       <c r="I989" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J989" t="n">
-        <v>420</v>
+        <v>490</v>
       </c>
       <c r="K989" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="L989" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="M989" t="n">
-        <v>12429</v>
+        <v>16000</v>
       </c>
       <c r="N989" t="inlineStr">
         <is>
@@ -71583,11 +71583,11 @@
       </c>
       <c r="O989" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P989" t="n">
-        <v>690</v>
+        <v>889</v>
       </c>
       <c r="Q989" t="n">
         <v>18</v>
@@ -71613,7 +71613,7 @@
         </is>
       </c>
       <c r="D990" s="2" t="n">
-        <v>44251</v>
+        <v>44389</v>
       </c>
       <c r="E990" t="n">
         <v>13</v>
@@ -71637,32 +71637,32 @@
         </is>
       </c>
       <c r="J990" t="n">
-        <v>680</v>
+        <v>480</v>
       </c>
       <c r="K990" t="n">
-        <v>9000</v>
+        <v>18000</v>
       </c>
       <c r="L990" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="M990" t="n">
-        <v>9559</v>
+        <v>18000</v>
       </c>
       <c r="N990" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 20 kilos</t>
         </is>
       </c>
       <c r="O990" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P990" t="n">
-        <v>531</v>
+        <v>900</v>
       </c>
       <c r="Q990" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R990" t="inlineStr">
         <is>
@@ -71685,7 +71685,7 @@
         </is>
       </c>
       <c r="D991" s="2" t="n">
-        <v>44251</v>
+        <v>44389</v>
       </c>
       <c r="E991" t="n">
         <v>13</v>
@@ -71709,16 +71709,16 @@
         </is>
       </c>
       <c r="J991" t="n">
-        <v>460</v>
+        <v>310</v>
       </c>
       <c r="K991" t="n">
-        <v>6500</v>
+        <v>14000</v>
       </c>
       <c r="L991" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="M991" t="n">
-        <v>6772</v>
+        <v>14000</v>
       </c>
       <c r="N991" t="inlineStr">
         <is>
@@ -71727,11 +71727,11 @@
       </c>
       <c r="O991" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P991" t="n">
-        <v>376</v>
+        <v>778</v>
       </c>
       <c r="Q991" t="n">
         <v>18</v>
@@ -71772,7 +71772,7 @@
       </c>
       <c r="H992" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I992" t="inlineStr">
@@ -71781,16 +71781,16 @@
         </is>
       </c>
       <c r="J992" t="n">
-        <v>160</v>
+        <v>420</v>
       </c>
       <c r="K992" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="L992" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="M992" t="n">
-        <v>8000</v>
+        <v>12429</v>
       </c>
       <c r="N992" t="inlineStr">
         <is>
@@ -71799,11 +71799,11 @@
       </c>
       <c r="O992" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P992" t="n">
-        <v>444</v>
+        <v>690</v>
       </c>
       <c r="Q992" t="n">
         <v>18</v>
@@ -71844,7 +71844,7 @@
       </c>
       <c r="H993" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I993" t="inlineStr">
@@ -71853,16 +71853,16 @@
         </is>
       </c>
       <c r="J993" t="n">
-        <v>210</v>
+        <v>680</v>
       </c>
       <c r="K993" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="L993" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="M993" t="n">
-        <v>6000</v>
+        <v>9559</v>
       </c>
       <c r="N993" t="inlineStr">
         <is>
@@ -71871,11 +71871,11 @@
       </c>
       <c r="O993" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P993" t="n">
-        <v>333</v>
+        <v>531</v>
       </c>
       <c r="Q993" t="n">
         <v>18</v>
@@ -71916,7 +71916,7 @@
       </c>
       <c r="H994" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I994" t="inlineStr">
@@ -71925,16 +71925,16 @@
         </is>
       </c>
       <c r="J994" t="n">
-        <v>200</v>
+        <v>460</v>
       </c>
       <c r="K994" t="n">
-        <v>4000</v>
+        <v>6500</v>
       </c>
       <c r="L994" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="M994" t="n">
-        <v>4000</v>
+        <v>6772</v>
       </c>
       <c r="N994" t="inlineStr">
         <is>
@@ -71943,11 +71943,11 @@
       </c>
       <c r="O994" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P994" t="n">
-        <v>222</v>
+        <v>376</v>
       </c>
       <c r="Q994" t="n">
         <v>18</v>
@@ -71973,7 +71973,7 @@
         </is>
       </c>
       <c r="D995" s="2" t="n">
-        <v>44340</v>
+        <v>44251</v>
       </c>
       <c r="E995" t="n">
         <v>13</v>
@@ -71988,7 +71988,7 @@
       </c>
       <c r="H995" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I995" t="inlineStr">
@@ -71997,16 +71997,16 @@
         </is>
       </c>
       <c r="J995" t="n">
-        <v>400</v>
+        <v>160</v>
       </c>
       <c r="K995" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="L995" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M995" t="n">
-        <v>9550</v>
+        <v>8000</v>
       </c>
       <c r="N995" t="inlineStr">
         <is>
@@ -72015,11 +72015,11 @@
       </c>
       <c r="O995" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P995" t="n">
-        <v>531</v>
+        <v>444</v>
       </c>
       <c r="Q995" t="n">
         <v>18</v>
@@ -72045,7 +72045,7 @@
         </is>
       </c>
       <c r="D996" s="2" t="n">
-        <v>44340</v>
+        <v>44251</v>
       </c>
       <c r="E996" t="n">
         <v>13</v>
@@ -72060,25 +72060,25 @@
       </c>
       <c r="H996" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I996" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J996" t="n">
-        <v>380</v>
+        <v>210</v>
       </c>
       <c r="K996" t="n">
-        <v>13000</v>
+        <v>6000</v>
       </c>
       <c r="L996" t="n">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="M996" t="n">
-        <v>13474</v>
+        <v>6000</v>
       </c>
       <c r="N996" t="inlineStr">
         <is>
@@ -72087,11 +72087,11 @@
       </c>
       <c r="O996" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P996" t="n">
-        <v>749</v>
+        <v>333</v>
       </c>
       <c r="Q996" t="n">
         <v>18</v>
@@ -72117,7 +72117,7 @@
         </is>
       </c>
       <c r="D997" s="2" t="n">
-        <v>44340</v>
+        <v>44251</v>
       </c>
       <c r="E997" t="n">
         <v>13</v>
@@ -72132,25 +72132,25 @@
       </c>
       <c r="H997" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I997" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J997" t="n">
-        <v>460</v>
+        <v>200</v>
       </c>
       <c r="K997" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="L997" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="M997" t="n">
-        <v>7522</v>
+        <v>4000</v>
       </c>
       <c r="N997" t="inlineStr">
         <is>
@@ -72159,11 +72159,11 @@
       </c>
       <c r="O997" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P997" t="n">
-        <v>418</v>
+        <v>222</v>
       </c>
       <c r="Q997" t="n">
         <v>18</v>
@@ -72209,20 +72209,20 @@
       </c>
       <c r="I998" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J998" t="n">
-        <v>440</v>
+        <v>400</v>
       </c>
       <c r="K998" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="L998" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M998" t="n">
-        <v>11568</v>
+        <v>9550</v>
       </c>
       <c r="N998" t="inlineStr">
         <is>
@@ -72231,11 +72231,11 @@
       </c>
       <c r="O998" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P998" t="n">
-        <v>643</v>
+        <v>531</v>
       </c>
       <c r="Q998" t="n">
         <v>18</v>
@@ -72281,20 +72281,20 @@
       </c>
       <c r="I999" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J999" t="n">
-        <v>400</v>
+        <v>380</v>
       </c>
       <c r="K999" t="n">
-        <v>5000</v>
+        <v>13000</v>
       </c>
       <c r="L999" t="n">
-        <v>6000</v>
+        <v>14000</v>
       </c>
       <c r="M999" t="n">
-        <v>5550</v>
+        <v>13474</v>
       </c>
       <c r="N999" t="inlineStr">
         <is>
@@ -72303,11 +72303,11 @@
       </c>
       <c r="O999" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P999" t="n">
-        <v>308</v>
+        <v>749</v>
       </c>
       <c r="Q999" t="n">
         <v>18</v>
@@ -72353,20 +72353,20 @@
       </c>
       <c r="I1000" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1000" t="n">
-        <v>340</v>
+        <v>460</v>
       </c>
       <c r="K1000" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="L1000" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M1000" t="n">
-        <v>9588</v>
+        <v>7522</v>
       </c>
       <c r="N1000" t="inlineStr">
         <is>
@@ -72375,11 +72375,11 @@
       </c>
       <c r="O1000" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P1000" t="n">
-        <v>533</v>
+        <v>418</v>
       </c>
       <c r="Q1000" t="n">
         <v>18</v>
@@ -72405,7 +72405,7 @@
         </is>
       </c>
       <c r="D1001" s="2" t="n">
-        <v>44515</v>
+        <v>44340</v>
       </c>
       <c r="E1001" t="n">
         <v>13</v>
@@ -72425,20 +72425,20 @@
       </c>
       <c r="I1001" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1001" t="n">
-        <v>1150</v>
+        <v>440</v>
       </c>
       <c r="K1001" t="n">
-        <v>17000</v>
+        <v>11000</v>
       </c>
       <c r="L1001" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="M1001" t="n">
-        <v>17435</v>
+        <v>11568</v>
       </c>
       <c r="N1001" t="inlineStr">
         <is>
@@ -72447,11 +72447,11 @@
       </c>
       <c r="O1001" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1001" t="n">
-        <v>969</v>
+        <v>643</v>
       </c>
       <c r="Q1001" t="n">
         <v>18</v>
@@ -72477,7 +72477,7 @@
         </is>
       </c>
       <c r="D1002" s="2" t="n">
-        <v>44515</v>
+        <v>44340</v>
       </c>
       <c r="E1002" t="n">
         <v>13</v>
@@ -72497,20 +72497,20 @@
       </c>
       <c r="I1002" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1002" t="n">
-        <v>1050</v>
+        <v>400</v>
       </c>
       <c r="K1002" t="n">
-        <v>15000</v>
+        <v>5000</v>
       </c>
       <c r="L1002" t="n">
-        <v>16000</v>
+        <v>6000</v>
       </c>
       <c r="M1002" t="n">
-        <v>15524</v>
+        <v>5550</v>
       </c>
       <c r="N1002" t="inlineStr">
         <is>
@@ -72523,7 +72523,7 @@
         </is>
       </c>
       <c r="P1002" t="n">
-        <v>862</v>
+        <v>308</v>
       </c>
       <c r="Q1002" t="n">
         <v>18</v>
@@ -72549,7 +72549,7 @@
         </is>
       </c>
       <c r="D1003" s="2" t="n">
-        <v>44515</v>
+        <v>44340</v>
       </c>
       <c r="E1003" t="n">
         <v>13</v>
@@ -72573,16 +72573,16 @@
         </is>
       </c>
       <c r="J1003" t="n">
-        <v>1050</v>
+        <v>340</v>
       </c>
       <c r="K1003" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="L1003" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="M1003" t="n">
-        <v>12619</v>
+        <v>9588</v>
       </c>
       <c r="N1003" t="inlineStr">
         <is>
@@ -72591,11 +72591,11 @@
       </c>
       <c r="O1003" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1003" t="n">
-        <v>701</v>
+        <v>533</v>
       </c>
       <c r="Q1003" t="n">
         <v>18</v>
@@ -72621,7 +72621,7 @@
         </is>
       </c>
       <c r="D1004" s="2" t="n">
-        <v>44330</v>
+        <v>44515</v>
       </c>
       <c r="E1004" t="n">
         <v>13</v>
@@ -72645,16 +72645,16 @@
         </is>
       </c>
       <c r="J1004" t="n">
-        <v>770</v>
+        <v>1150</v>
       </c>
       <c r="K1004" t="n">
-        <v>11000</v>
+        <v>17000</v>
       </c>
       <c r="L1004" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="M1004" t="n">
-        <v>11545</v>
+        <v>17435</v>
       </c>
       <c r="N1004" t="inlineStr">
         <is>
@@ -72663,11 +72663,11 @@
       </c>
       <c r="O1004" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P1004" t="n">
-        <v>641</v>
+        <v>969</v>
       </c>
       <c r="Q1004" t="n">
         <v>18</v>
@@ -72693,7 +72693,7 @@
         </is>
       </c>
       <c r="D1005" s="2" t="n">
-        <v>44330</v>
+        <v>44515</v>
       </c>
       <c r="E1005" t="n">
         <v>13</v>
@@ -72717,16 +72717,16 @@
         </is>
       </c>
       <c r="J1005" t="n">
-        <v>900</v>
+        <v>1050</v>
       </c>
       <c r="K1005" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="L1005" t="n">
-        <v>9000</v>
+        <v>16000</v>
       </c>
       <c r="M1005" t="n">
-        <v>8556</v>
+        <v>15524</v>
       </c>
       <c r="N1005" t="inlineStr">
         <is>
@@ -72735,11 +72735,11 @@
       </c>
       <c r="O1005" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P1005" t="n">
-        <v>475</v>
+        <v>862</v>
       </c>
       <c r="Q1005" t="n">
         <v>18</v>
@@ -72765,7 +72765,7 @@
         </is>
       </c>
       <c r="D1006" s="2" t="n">
-        <v>44330</v>
+        <v>44515</v>
       </c>
       <c r="E1006" t="n">
         <v>13</v>
@@ -72789,16 +72789,16 @@
         </is>
       </c>
       <c r="J1006" t="n">
-        <v>600</v>
+        <v>1050</v>
       </c>
       <c r="K1006" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="L1006" t="n">
-        <v>6000</v>
+        <v>13000</v>
       </c>
       <c r="M1006" t="n">
-        <v>5533</v>
+        <v>12619</v>
       </c>
       <c r="N1006" t="inlineStr">
         <is>
@@ -72807,11 +72807,11 @@
       </c>
       <c r="O1006" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P1006" t="n">
-        <v>307</v>
+        <v>701</v>
       </c>
       <c r="Q1006" t="n">
         <v>18</v>
@@ -72837,7 +72837,7 @@
         </is>
       </c>
       <c r="D1007" s="2" t="n">
-        <v>44432</v>
+        <v>44330</v>
       </c>
       <c r="E1007" t="n">
         <v>13</v>
@@ -72861,7 +72861,7 @@
         </is>
       </c>
       <c r="J1007" t="n">
-        <v>1180</v>
+        <v>770</v>
       </c>
       <c r="K1007" t="n">
         <v>11000</v>
@@ -72870,7 +72870,7 @@
         <v>12000</v>
       </c>
       <c r="M1007" t="n">
-        <v>11525</v>
+        <v>11545</v>
       </c>
       <c r="N1007" t="inlineStr">
         <is>
@@ -72879,11 +72879,11 @@
       </c>
       <c r="O1007" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P1007" t="n">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="Q1007" t="n">
         <v>18</v>
@@ -72909,7 +72909,7 @@
         </is>
       </c>
       <c r="D1008" s="2" t="n">
-        <v>44432</v>
+        <v>44330</v>
       </c>
       <c r="E1008" t="n">
         <v>13</v>
@@ -72933,16 +72933,16 @@
         </is>
       </c>
       <c r="J1008" t="n">
-        <v>820</v>
+        <v>900</v>
       </c>
       <c r="K1008" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="L1008" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="M1008" t="n">
-        <v>5463</v>
+        <v>8556</v>
       </c>
       <c r="N1008" t="inlineStr">
         <is>
@@ -72951,11 +72951,11 @@
       </c>
       <c r="O1008" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P1008" t="n">
-        <v>304</v>
+        <v>475</v>
       </c>
       <c r="Q1008" t="n">
         <v>18</v>
@@ -72981,7 +72981,7 @@
         </is>
       </c>
       <c r="D1009" s="2" t="n">
-        <v>44432</v>
+        <v>44330</v>
       </c>
       <c r="E1009" t="n">
         <v>13</v>
@@ -73001,20 +73001,20 @@
       </c>
       <c r="I1009" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1009" t="n">
-        <v>1220</v>
+        <v>600</v>
       </c>
       <c r="K1009" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="L1009" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="M1009" t="n">
-        <v>9541</v>
+        <v>5533</v>
       </c>
       <c r="N1009" t="inlineStr">
         <is>
@@ -73023,11 +73023,11 @@
       </c>
       <c r="O1009" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P1009" t="n">
-        <v>530</v>
+        <v>307</v>
       </c>
       <c r="Q1009" t="n">
         <v>18</v>
@@ -73073,20 +73073,20 @@
       </c>
       <c r="I1010" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1010" t="n">
-        <v>450</v>
+        <v>1180</v>
       </c>
       <c r="K1010" t="n">
-        <v>3000</v>
+        <v>11000</v>
       </c>
       <c r="L1010" t="n">
-        <v>4000</v>
+        <v>12000</v>
       </c>
       <c r="M1010" t="n">
-        <v>3600</v>
+        <v>11525</v>
       </c>
       <c r="N1010" t="inlineStr">
         <is>
@@ -73095,11 +73095,11 @@
       </c>
       <c r="O1010" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1010" t="n">
-        <v>200</v>
+        <v>640</v>
       </c>
       <c r="Q1010" t="n">
         <v>18</v>
@@ -73145,20 +73145,20 @@
       </c>
       <c r="I1011" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1011" t="n">
-        <v>840</v>
+        <v>820</v>
       </c>
       <c r="K1011" t="n">
+        <v>5000</v>
+      </c>
+      <c r="L1011" t="n">
         <v>6000</v>
       </c>
-      <c r="L1011" t="n">
-        <v>7000</v>
-      </c>
       <c r="M1011" t="n">
-        <v>6548</v>
+        <v>5463</v>
       </c>
       <c r="N1011" t="inlineStr">
         <is>
@@ -73167,11 +73167,11 @@
       </c>
       <c r="O1011" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P1011" t="n">
-        <v>364</v>
+        <v>304</v>
       </c>
       <c r="Q1011" t="n">
         <v>18</v>
@@ -73197,7 +73197,7 @@
         </is>
       </c>
       <c r="D1012" s="2" t="n">
-        <v>44181</v>
+        <v>44432</v>
       </c>
       <c r="E1012" t="n">
         <v>13</v>
@@ -73217,20 +73217,20 @@
       </c>
       <c r="I1012" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1012" t="n">
-        <v>1050</v>
+        <v>1220</v>
       </c>
       <c r="K1012" t="n">
-        <v>9500</v>
+        <v>9000</v>
       </c>
       <c r="L1012" t="n">
         <v>10000</v>
       </c>
       <c r="M1012" t="n">
-        <v>9810</v>
+        <v>9541</v>
       </c>
       <c r="N1012" t="inlineStr">
         <is>
@@ -73239,11 +73239,11 @@
       </c>
       <c r="O1012" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1012" t="n">
-        <v>545</v>
+        <v>530</v>
       </c>
       <c r="Q1012" t="n">
         <v>18</v>
@@ -73269,7 +73269,7 @@
         </is>
       </c>
       <c r="D1013" s="2" t="n">
-        <v>44181</v>
+        <v>44432</v>
       </c>
       <c r="E1013" t="n">
         <v>13</v>
@@ -73289,20 +73289,20 @@
       </c>
       <c r="I1013" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1013" t="n">
-        <v>1100</v>
+        <v>450</v>
       </c>
       <c r="K1013" t="n">
-        <v>8500</v>
+        <v>3000</v>
       </c>
       <c r="L1013" t="n">
-        <v>9000</v>
+        <v>4000</v>
       </c>
       <c r="M1013" t="n">
-        <v>8764</v>
+        <v>3600</v>
       </c>
       <c r="N1013" t="inlineStr">
         <is>
@@ -73315,7 +73315,7 @@
         </is>
       </c>
       <c r="P1013" t="n">
-        <v>487</v>
+        <v>200</v>
       </c>
       <c r="Q1013" t="n">
         <v>18</v>
@@ -73341,7 +73341,7 @@
         </is>
       </c>
       <c r="D1014" s="2" t="n">
-        <v>44181</v>
+        <v>44432</v>
       </c>
       <c r="E1014" t="n">
         <v>13</v>
@@ -73365,16 +73365,16 @@
         </is>
       </c>
       <c r="J1014" t="n">
-        <v>900</v>
+        <v>840</v>
       </c>
       <c r="K1014" t="n">
         <v>6000</v>
       </c>
       <c r="L1014" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="M1014" t="n">
-        <v>6233</v>
+        <v>6548</v>
       </c>
       <c r="N1014" t="inlineStr">
         <is>
@@ -73383,11 +73383,11 @@
       </c>
       <c r="O1014" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1014" t="n">
-        <v>346</v>
+        <v>364</v>
       </c>
       <c r="Q1014" t="n">
         <v>18</v>
@@ -73413,7 +73413,7 @@
         </is>
       </c>
       <c r="D1015" s="2" t="n">
-        <v>44194</v>
+        <v>44181</v>
       </c>
       <c r="E1015" t="n">
         <v>13</v>
@@ -73437,16 +73437,16 @@
         </is>
       </c>
       <c r="J1015" t="n">
-        <v>830</v>
+        <v>1050</v>
       </c>
       <c r="K1015" t="n">
-        <v>18000</v>
+        <v>9500</v>
       </c>
       <c r="L1015" t="n">
-        <v>19000</v>
+        <v>10000</v>
       </c>
       <c r="M1015" t="n">
-        <v>18458</v>
+        <v>9810</v>
       </c>
       <c r="N1015" t="inlineStr">
         <is>
@@ -73459,7 +73459,7 @@
         </is>
       </c>
       <c r="P1015" t="n">
-        <v>1025</v>
+        <v>545</v>
       </c>
       <c r="Q1015" t="n">
         <v>18</v>
@@ -73485,7 +73485,7 @@
         </is>
       </c>
       <c r="D1016" s="2" t="n">
-        <v>44194</v>
+        <v>44181</v>
       </c>
       <c r="E1016" t="n">
         <v>13</v>
@@ -73509,16 +73509,16 @@
         </is>
       </c>
       <c r="J1016" t="n">
-        <v>1180</v>
+        <v>1100</v>
       </c>
       <c r="K1016" t="n">
-        <v>16000</v>
+        <v>8500</v>
       </c>
       <c r="L1016" t="n">
-        <v>17000</v>
+        <v>9000</v>
       </c>
       <c r="M1016" t="n">
-        <v>16525</v>
+        <v>8764</v>
       </c>
       <c r="N1016" t="inlineStr">
         <is>
@@ -73531,7 +73531,7 @@
         </is>
       </c>
       <c r="P1016" t="n">
-        <v>918</v>
+        <v>487</v>
       </c>
       <c r="Q1016" t="n">
         <v>18</v>
@@ -73557,7 +73557,7 @@
         </is>
       </c>
       <c r="D1017" s="2" t="n">
-        <v>44194</v>
+        <v>44181</v>
       </c>
       <c r="E1017" t="n">
         <v>13</v>
@@ -73581,16 +73581,16 @@
         </is>
       </c>
       <c r="J1017" t="n">
-        <v>960</v>
+        <v>900</v>
       </c>
       <c r="K1017" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="L1017" t="n">
-        <v>13000</v>
+        <v>6500</v>
       </c>
       <c r="M1017" t="n">
-        <v>12583</v>
+        <v>6233</v>
       </c>
       <c r="N1017" t="inlineStr">
         <is>
@@ -73603,7 +73603,7 @@
         </is>
       </c>
       <c r="P1017" t="n">
-        <v>699</v>
+        <v>346</v>
       </c>
       <c r="Q1017" t="n">
         <v>18</v>
@@ -73629,7 +73629,7 @@
         </is>
       </c>
       <c r="D1018" s="2" t="n">
-        <v>44271</v>
+        <v>44194</v>
       </c>
       <c r="E1018" t="n">
         <v>13</v>
@@ -73653,16 +73653,16 @@
         </is>
       </c>
       <c r="J1018" t="n">
-        <v>850</v>
+        <v>830</v>
       </c>
       <c r="K1018" t="n">
-        <v>9000</v>
+        <v>18000</v>
       </c>
       <c r="L1018" t="n">
-        <v>10000</v>
+        <v>19000</v>
       </c>
       <c r="M1018" t="n">
-        <v>9529</v>
+        <v>18458</v>
       </c>
       <c r="N1018" t="inlineStr">
         <is>
@@ -73675,7 +73675,7 @@
         </is>
       </c>
       <c r="P1018" t="n">
-        <v>529</v>
+        <v>1025</v>
       </c>
       <c r="Q1018" t="n">
         <v>18</v>
@@ -73701,7 +73701,7 @@
         </is>
       </c>
       <c r="D1019" s="2" t="n">
-        <v>44271</v>
+        <v>44194</v>
       </c>
       <c r="E1019" t="n">
         <v>13</v>
@@ -73725,16 +73725,16 @@
         </is>
       </c>
       <c r="J1019" t="n">
-        <v>1160</v>
+        <v>1180</v>
       </c>
       <c r="K1019" t="n">
-        <v>7000</v>
+        <v>16000</v>
       </c>
       <c r="L1019" t="n">
-        <v>8000</v>
+        <v>17000</v>
       </c>
       <c r="M1019" t="n">
-        <v>7517</v>
+        <v>16525</v>
       </c>
       <c r="N1019" t="inlineStr">
         <is>
@@ -73747,7 +73747,7 @@
         </is>
       </c>
       <c r="P1019" t="n">
-        <v>418</v>
+        <v>918</v>
       </c>
       <c r="Q1019" t="n">
         <v>18</v>
@@ -73773,7 +73773,7 @@
         </is>
       </c>
       <c r="D1020" s="2" t="n">
-        <v>44271</v>
+        <v>44194</v>
       </c>
       <c r="E1020" t="n">
         <v>13</v>
@@ -73797,16 +73797,16 @@
         </is>
       </c>
       <c r="J1020" t="n">
-        <v>630</v>
+        <v>960</v>
       </c>
       <c r="K1020" t="n">
-        <v>4000</v>
+        <v>12000</v>
       </c>
       <c r="L1020" t="n">
-        <v>4500</v>
+        <v>13000</v>
       </c>
       <c r="M1020" t="n">
-        <v>4278</v>
+        <v>12583</v>
       </c>
       <c r="N1020" t="inlineStr">
         <is>
@@ -73819,7 +73819,7 @@
         </is>
       </c>
       <c r="P1020" t="n">
-        <v>238</v>
+        <v>699</v>
       </c>
       <c r="Q1020" t="n">
         <v>18</v>
@@ -73860,7 +73860,7 @@
       </c>
       <c r="H1021" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I1021" t="inlineStr">
@@ -73869,16 +73869,16 @@
         </is>
       </c>
       <c r="J1021" t="n">
-        <v>340</v>
+        <v>850</v>
       </c>
       <c r="K1021" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="L1021" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M1021" t="n">
-        <v>6412</v>
+        <v>9529</v>
       </c>
       <c r="N1021" t="inlineStr">
         <is>
@@ -73887,11 +73887,11 @@
       </c>
       <c r="O1021" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P1021" t="n">
-        <v>356</v>
+        <v>529</v>
       </c>
       <c r="Q1021" t="n">
         <v>18</v>
@@ -73932,7 +73932,7 @@
       </c>
       <c r="H1022" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I1022" t="inlineStr">
@@ -73941,16 +73941,16 @@
         </is>
       </c>
       <c r="J1022" t="n">
-        <v>390</v>
+        <v>1160</v>
       </c>
       <c r="K1022" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="L1022" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="M1022" t="n">
-        <v>4718</v>
+        <v>7517</v>
       </c>
       <c r="N1022" t="inlineStr">
         <is>
@@ -73959,11 +73959,11 @@
       </c>
       <c r="O1022" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P1022" t="n">
-        <v>262</v>
+        <v>418</v>
       </c>
       <c r="Q1022" t="n">
         <v>18</v>
@@ -74004,7 +74004,7 @@
       </c>
       <c r="H1023" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I1023" t="inlineStr">
@@ -74013,16 +74013,16 @@
         </is>
       </c>
       <c r="J1023" t="n">
-        <v>410</v>
+        <v>630</v>
       </c>
       <c r="K1023" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="L1023" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="M1023" t="n">
-        <v>3793</v>
+        <v>4278</v>
       </c>
       <c r="N1023" t="inlineStr">
         <is>
@@ -74031,11 +74031,11 @@
       </c>
       <c r="O1023" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P1023" t="n">
-        <v>211</v>
+        <v>238</v>
       </c>
       <c r="Q1023" t="n">
         <v>18</v>
@@ -74061,7 +74061,7 @@
         </is>
       </c>
       <c r="D1024" s="2" t="n">
-        <v>44307</v>
+        <v>44271</v>
       </c>
       <c r="E1024" t="n">
         <v>13</v>
@@ -74076,7 +74076,7 @@
       </c>
       <c r="H1024" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I1024" t="inlineStr">
@@ -74085,16 +74085,16 @@
         </is>
       </c>
       <c r="J1024" t="n">
-        <v>780</v>
+        <v>340</v>
       </c>
       <c r="K1024" t="n">
-        <v>11000</v>
+        <v>6000</v>
       </c>
       <c r="L1024" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="M1024" t="n">
-        <v>11615</v>
+        <v>6412</v>
       </c>
       <c r="N1024" t="inlineStr">
         <is>
@@ -74103,11 +74103,11 @@
       </c>
       <c r="O1024" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1024" t="n">
-        <v>645</v>
+        <v>356</v>
       </c>
       <c r="Q1024" t="n">
         <v>18</v>
@@ -74133,7 +74133,7 @@
         </is>
       </c>
       <c r="D1025" s="2" t="n">
-        <v>44307</v>
+        <v>44271</v>
       </c>
       <c r="E1025" t="n">
         <v>13</v>
@@ -74148,7 +74148,7 @@
       </c>
       <c r="H1025" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I1025" t="inlineStr">
@@ -74157,16 +74157,16 @@
         </is>
       </c>
       <c r="J1025" t="n">
-        <v>790</v>
+        <v>390</v>
       </c>
       <c r="K1025" t="n">
-        <v>9500</v>
+        <v>4500</v>
       </c>
       <c r="L1025" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="M1025" t="n">
-        <v>9722</v>
+        <v>4718</v>
       </c>
       <c r="N1025" t="inlineStr">
         <is>
@@ -74175,11 +74175,11 @@
       </c>
       <c r="O1025" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1025" t="n">
-        <v>540</v>
+        <v>262</v>
       </c>
       <c r="Q1025" t="n">
         <v>18</v>
@@ -74205,7 +74205,7 @@
         </is>
       </c>
       <c r="D1026" s="2" t="n">
-        <v>44307</v>
+        <v>44271</v>
       </c>
       <c r="E1026" t="n">
         <v>13</v>
@@ -74220,7 +74220,7 @@
       </c>
       <c r="H1026" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I1026" t="inlineStr">
@@ -74229,16 +74229,16 @@
         </is>
       </c>
       <c r="J1026" t="n">
-        <v>560</v>
+        <v>410</v>
       </c>
       <c r="K1026" t="n">
-        <v>7500</v>
+        <v>3500</v>
       </c>
       <c r="L1026" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="M1026" t="n">
-        <v>7741</v>
+        <v>3793</v>
       </c>
       <c r="N1026" t="inlineStr">
         <is>
@@ -74247,11 +74247,11 @@
       </c>
       <c r="O1026" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1026" t="n">
-        <v>430</v>
+        <v>211</v>
       </c>
       <c r="Q1026" t="n">
         <v>18</v>
@@ -74277,7 +74277,7 @@
         </is>
       </c>
       <c r="D1027" s="2" t="n">
-        <v>44400</v>
+        <v>44307</v>
       </c>
       <c r="E1027" t="n">
         <v>13</v>
@@ -74301,16 +74301,16 @@
         </is>
       </c>
       <c r="J1027" t="n">
-        <v>450</v>
+        <v>780</v>
       </c>
       <c r="K1027" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="L1027" t="n">
-        <v>8500</v>
+        <v>12000</v>
       </c>
       <c r="M1027" t="n">
-        <v>8278</v>
+        <v>11615</v>
       </c>
       <c r="N1027" t="inlineStr">
         <is>
@@ -74323,7 +74323,7 @@
         </is>
       </c>
       <c r="P1027" t="n">
-        <v>460</v>
+        <v>645</v>
       </c>
       <c r="Q1027" t="n">
         <v>18</v>
@@ -74349,7 +74349,7 @@
         </is>
       </c>
       <c r="D1028" s="2" t="n">
-        <v>44400</v>
+        <v>44307</v>
       </c>
       <c r="E1028" t="n">
         <v>13</v>
@@ -74369,20 +74369,20 @@
       </c>
       <c r="I1028" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1028" t="n">
-        <v>960</v>
+        <v>790</v>
       </c>
       <c r="K1028" t="n">
-        <v>12000</v>
+        <v>9500</v>
       </c>
       <c r="L1028" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="M1028" t="n">
-        <v>12583</v>
+        <v>9722</v>
       </c>
       <c r="N1028" t="inlineStr">
         <is>
@@ -74391,11 +74391,11 @@
       </c>
       <c r="O1028" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P1028" t="n">
-        <v>699</v>
+        <v>540</v>
       </c>
       <c r="Q1028" t="n">
         <v>18</v>
@@ -74421,7 +74421,7 @@
         </is>
       </c>
       <c r="D1029" s="2" t="n">
-        <v>44400</v>
+        <v>44307</v>
       </c>
       <c r="E1029" t="n">
         <v>13</v>
@@ -74441,20 +74441,20 @@
       </c>
       <c r="I1029" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1029" t="n">
-        <v>620</v>
+        <v>560</v>
       </c>
       <c r="K1029" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="L1029" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="M1029" t="n">
-        <v>7274</v>
+        <v>7741</v>
       </c>
       <c r="N1029" t="inlineStr">
         <is>
@@ -74467,7 +74467,7 @@
         </is>
       </c>
       <c r="P1029" t="n">
-        <v>404</v>
+        <v>430</v>
       </c>
       <c r="Q1029" t="n">
         <v>18</v>
@@ -74513,20 +74513,20 @@
       </c>
       <c r="I1030" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1030" t="n">
-        <v>920</v>
+        <v>450</v>
       </c>
       <c r="K1030" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="L1030" t="n">
-        <v>11000</v>
+        <v>8500</v>
       </c>
       <c r="M1030" t="n">
-        <v>10522</v>
+        <v>8278</v>
       </c>
       <c r="N1030" t="inlineStr">
         <is>
@@ -74535,11 +74535,11 @@
       </c>
       <c r="O1030" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P1030" t="n">
-        <v>585</v>
+        <v>460</v>
       </c>
       <c r="Q1030" t="n">
         <v>18</v>
@@ -74585,20 +74585,20 @@
       </c>
       <c r="I1031" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1031" t="n">
-        <v>230</v>
+        <v>960</v>
       </c>
       <c r="K1031" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="L1031" t="n">
-        <v>5500</v>
+        <v>13000</v>
       </c>
       <c r="M1031" t="n">
-        <v>5283</v>
+        <v>12583</v>
       </c>
       <c r="N1031" t="inlineStr">
         <is>
@@ -74607,11 +74607,11 @@
       </c>
       <c r="O1031" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1031" t="n">
-        <v>294</v>
+        <v>699</v>
       </c>
       <c r="Q1031" t="n">
         <v>18</v>
@@ -74657,20 +74657,20 @@
       </c>
       <c r="I1032" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1032" t="n">
-        <v>260</v>
+        <v>620</v>
       </c>
       <c r="K1032" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L1032" t="n">
-        <v>9000</v>
+        <v>7500</v>
       </c>
       <c r="M1032" t="n">
-        <v>8538</v>
+        <v>7274</v>
       </c>
       <c r="N1032" t="inlineStr">
         <is>
@@ -74679,11 +74679,11 @@
       </c>
       <c r="O1032" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P1032" t="n">
-        <v>474</v>
+        <v>404</v>
       </c>
       <c r="Q1032" t="n">
         <v>18</v>
@@ -74709,7 +74709,7 @@
         </is>
       </c>
       <c r="D1033" s="2" t="n">
-        <v>44309</v>
+        <v>44400</v>
       </c>
       <c r="E1033" t="n">
         <v>13</v>
@@ -74729,20 +74729,20 @@
       </c>
       <c r="I1033" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1033" t="n">
-        <v>660</v>
+        <v>920</v>
       </c>
       <c r="K1033" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="L1033" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="M1033" t="n">
-        <v>12394</v>
+        <v>10522</v>
       </c>
       <c r="N1033" t="inlineStr">
         <is>
@@ -74751,11 +74751,11 @@
       </c>
       <c r="O1033" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1033" t="n">
-        <v>689</v>
+        <v>585</v>
       </c>
       <c r="Q1033" t="n">
         <v>18</v>
@@ -74781,7 +74781,7 @@
         </is>
       </c>
       <c r="D1034" s="2" t="n">
-        <v>44309</v>
+        <v>44400</v>
       </c>
       <c r="E1034" t="n">
         <v>13</v>
@@ -74801,20 +74801,20 @@
       </c>
       <c r="I1034" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1034" t="n">
-        <v>970</v>
+        <v>230</v>
       </c>
       <c r="K1034" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="L1034" t="n">
-        <v>11000</v>
+        <v>5500</v>
       </c>
       <c r="M1034" t="n">
-        <v>10536</v>
+        <v>5283</v>
       </c>
       <c r="N1034" t="inlineStr">
         <is>
@@ -74827,7 +74827,7 @@
         </is>
       </c>
       <c r="P1034" t="n">
-        <v>585</v>
+        <v>294</v>
       </c>
       <c r="Q1034" t="n">
         <v>18</v>
@@ -74853,7 +74853,7 @@
         </is>
       </c>
       <c r="D1035" s="2" t="n">
-        <v>44309</v>
+        <v>44400</v>
       </c>
       <c r="E1035" t="n">
         <v>13</v>
@@ -74877,7 +74877,7 @@
         </is>
       </c>
       <c r="J1035" t="n">
-        <v>530</v>
+        <v>260</v>
       </c>
       <c r="K1035" t="n">
         <v>8000</v>
@@ -74886,7 +74886,7 @@
         <v>9000</v>
       </c>
       <c r="M1035" t="n">
-        <v>8528</v>
+        <v>8538</v>
       </c>
       <c r="N1035" t="inlineStr">
         <is>
@@ -74895,7 +74895,7 @@
       </c>
       <c r="O1035" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1035" t="n">
@@ -74925,7 +74925,7 @@
         </is>
       </c>
       <c r="D1036" s="2" t="n">
-        <v>44508</v>
+        <v>44309</v>
       </c>
       <c r="E1036" t="n">
         <v>13</v>
@@ -74949,16 +74949,16 @@
         </is>
       </c>
       <c r="J1036" t="n">
-        <v>990</v>
+        <v>660</v>
       </c>
       <c r="K1036" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="L1036" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="M1036" t="n">
-        <v>16000</v>
+        <v>12394</v>
       </c>
       <c r="N1036" t="inlineStr">
         <is>
@@ -74971,7 +74971,7 @@
         </is>
       </c>
       <c r="P1036" t="n">
-        <v>889</v>
+        <v>689</v>
       </c>
       <c r="Q1036" t="n">
         <v>18</v>
@@ -74997,7 +74997,7 @@
         </is>
       </c>
       <c r="D1037" s="2" t="n">
-        <v>44508</v>
+        <v>44309</v>
       </c>
       <c r="E1037" t="n">
         <v>13</v>
@@ -75017,20 +75017,20 @@
       </c>
       <c r="I1037" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1037" t="n">
-        <v>710</v>
+        <v>970</v>
       </c>
       <c r="K1037" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="L1037" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="M1037" t="n">
-        <v>12000</v>
+        <v>10536</v>
       </c>
       <c r="N1037" t="inlineStr">
         <is>
@@ -75039,11 +75039,11 @@
       </c>
       <c r="O1037" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P1037" t="n">
-        <v>667</v>
+        <v>585</v>
       </c>
       <c r="Q1037" t="n">
         <v>18</v>
@@ -75069,7 +75069,7 @@
         </is>
       </c>
       <c r="D1038" s="2" t="n">
-        <v>44508</v>
+        <v>44309</v>
       </c>
       <c r="E1038" t="n">
         <v>13</v>
@@ -75089,20 +75089,20 @@
       </c>
       <c r="I1038" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1038" t="n">
-        <v>1200</v>
+        <v>530</v>
       </c>
       <c r="K1038" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="L1038" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="M1038" t="n">
-        <v>15000</v>
+        <v>8528</v>
       </c>
       <c r="N1038" t="inlineStr">
         <is>
@@ -75115,7 +75115,7 @@
         </is>
       </c>
       <c r="P1038" t="n">
-        <v>833</v>
+        <v>474</v>
       </c>
       <c r="Q1038" t="n">
         <v>18</v>
@@ -75161,20 +75161,20 @@
       </c>
       <c r="I1039" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1039" t="n">
-        <v>600</v>
+        <v>990</v>
       </c>
       <c r="K1039" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="L1039" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="M1039" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="N1039" t="inlineStr">
         <is>
@@ -75183,11 +75183,11 @@
       </c>
       <c r="O1039" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P1039" t="n">
-        <v>556</v>
+        <v>889</v>
       </c>
       <c r="Q1039" t="n">
         <v>18</v>
@@ -75233,20 +75233,20 @@
       </c>
       <c r="I1040" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1040" t="n">
-        <v>950</v>
+        <v>710</v>
       </c>
       <c r="K1040" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L1040" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M1040" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="N1040" t="inlineStr">
         <is>
@@ -75255,11 +75255,11 @@
       </c>
       <c r="O1040" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1040" t="n">
-        <v>556</v>
+        <v>667</v>
       </c>
       <c r="Q1040" t="n">
         <v>18</v>
@@ -75305,20 +75305,20 @@
       </c>
       <c r="I1041" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1041" t="n">
-        <v>520</v>
+        <v>1200</v>
       </c>
       <c r="K1041" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="L1041" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="M1041" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="N1041" t="inlineStr">
         <is>
@@ -75327,11 +75327,11 @@
       </c>
       <c r="O1041" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P1041" t="n">
-        <v>389</v>
+        <v>833</v>
       </c>
       <c r="Q1041" t="n">
         <v>18</v>
@@ -75357,7 +75357,7 @@
         </is>
       </c>
       <c r="D1042" s="2" t="n">
-        <v>44201</v>
+        <v>44508</v>
       </c>
       <c r="E1042" t="n">
         <v>13</v>
@@ -75377,20 +75377,20 @@
       </c>
       <c r="I1042" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1042" t="n">
-        <v>720</v>
+        <v>600</v>
       </c>
       <c r="K1042" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="L1042" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="M1042" t="n">
-        <v>17444</v>
+        <v>10000</v>
       </c>
       <c r="N1042" t="inlineStr">
         <is>
@@ -75399,11 +75399,11 @@
       </c>
       <c r="O1042" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1042" t="n">
-        <v>969</v>
+        <v>556</v>
       </c>
       <c r="Q1042" t="n">
         <v>18</v>
@@ -75429,7 +75429,7 @@
         </is>
       </c>
       <c r="D1043" s="2" t="n">
-        <v>44201</v>
+        <v>44508</v>
       </c>
       <c r="E1043" t="n">
         <v>13</v>
@@ -75449,20 +75449,20 @@
       </c>
       <c r="I1043" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1043" t="n">
-        <v>580</v>
+        <v>950</v>
       </c>
       <c r="K1043" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="L1043" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="M1043" t="n">
-        <v>15483</v>
+        <v>10000</v>
       </c>
       <c r="N1043" t="inlineStr">
         <is>
@@ -75475,7 +75475,7 @@
         </is>
       </c>
       <c r="P1043" t="n">
-        <v>860</v>
+        <v>556</v>
       </c>
       <c r="Q1043" t="n">
         <v>18</v>
@@ -75501,58 +75501,274 @@
         </is>
       </c>
       <c r="D1044" s="2" t="n">
+        <v>44508</v>
+      </c>
+      <c r="E1044" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1044" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G1044" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H1044" t="inlineStr">
+        <is>
+          <t>Larga vida</t>
+        </is>
+      </c>
+      <c r="I1044" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J1044" t="n">
+        <v>520</v>
+      </c>
+      <c r="K1044" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L1044" t="n">
+        <v>7000</v>
+      </c>
+      <c r="M1044" t="n">
+        <v>7000</v>
+      </c>
+      <c r="N1044" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O1044" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P1044" t="n">
+        <v>389</v>
+      </c>
+      <c r="Q1044" t="n">
+        <v>18</v>
+      </c>
+      <c r="R1044" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1045">
+      <c r="A1045" t="n">
+        <v>12</v>
+      </c>
+      <c r="B1045" t="inlineStr">
+        <is>
+          <t>Mapocho Venta Directa de Santiago</t>
+        </is>
+      </c>
+      <c r="C1045" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1045" s="2" t="n">
         <v>44201</v>
       </c>
-      <c r="E1044" t="n">
-        <v>13</v>
-      </c>
-      <c r="F1044" t="n">
-        <v>100112020</v>
-      </c>
-      <c r="G1044" t="inlineStr">
-        <is>
-          <t>Tomate</t>
-        </is>
-      </c>
-      <c r="H1044" t="inlineStr">
-        <is>
-          <t>Larga vida</t>
-        </is>
-      </c>
-      <c r="I1044" t="inlineStr">
+      <c r="E1045" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1045" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G1045" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H1045" t="inlineStr">
+        <is>
+          <t>Larga vida</t>
+        </is>
+      </c>
+      <c r="I1045" t="inlineStr">
+        <is>
+          <t>Extra</t>
+        </is>
+      </c>
+      <c r="J1045" t="n">
+        <v>720</v>
+      </c>
+      <c r="K1045" t="n">
+        <v>17000</v>
+      </c>
+      <c r="L1045" t="n">
+        <v>18000</v>
+      </c>
+      <c r="M1045" t="n">
+        <v>17444</v>
+      </c>
+      <c r="N1045" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O1045" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="P1045" t="n">
+        <v>969</v>
+      </c>
+      <c r="Q1045" t="n">
+        <v>18</v>
+      </c>
+      <c r="R1045" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1046">
+      <c r="A1046" t="n">
+        <v>12</v>
+      </c>
+      <c r="B1046" t="inlineStr">
+        <is>
+          <t>Mapocho Venta Directa de Santiago</t>
+        </is>
+      </c>
+      <c r="C1046" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1046" s="2" t="n">
+        <v>44201</v>
+      </c>
+      <c r="E1046" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1046" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G1046" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H1046" t="inlineStr">
+        <is>
+          <t>Larga vida</t>
+        </is>
+      </c>
+      <c r="I1046" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1046" t="n">
+        <v>580</v>
+      </c>
+      <c r="K1046" t="n">
+        <v>15000</v>
+      </c>
+      <c r="L1046" t="n">
+        <v>16000</v>
+      </c>
+      <c r="M1046" t="n">
+        <v>15483</v>
+      </c>
+      <c r="N1046" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O1046" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="P1046" t="n">
+        <v>860</v>
+      </c>
+      <c r="Q1046" t="n">
+        <v>18</v>
+      </c>
+      <c r="R1046" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1047">
+      <c r="A1047" t="n">
+        <v>12</v>
+      </c>
+      <c r="B1047" t="inlineStr">
+        <is>
+          <t>Mapocho Venta Directa de Santiago</t>
+        </is>
+      </c>
+      <c r="C1047" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1047" s="2" t="n">
+        <v>44201</v>
+      </c>
+      <c r="E1047" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1047" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G1047" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H1047" t="inlineStr">
+        <is>
+          <t>Larga vida</t>
+        </is>
+      </c>
+      <c r="I1047" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="J1044" t="n">
+      <c r="J1047" t="n">
         <v>460</v>
       </c>
-      <c r="K1044" t="n">
+      <c r="K1047" t="n">
         <v>12000</v>
       </c>
-      <c r="L1044" t="n">
+      <c r="L1047" t="n">
         <v>13000</v>
       </c>
-      <c r="M1044" t="n">
+      <c r="M1047" t="n">
         <v>12457</v>
       </c>
-      <c r="N1044" t="inlineStr">
-        <is>
-          <t>$/bandeja 18 kilos</t>
-        </is>
-      </c>
-      <c r="O1044" t="inlineStr">
+      <c r="N1047" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O1047" t="inlineStr">
         <is>
           <t>Provincia de Quillota</t>
         </is>
       </c>
-      <c r="P1044" t="n">
+      <c r="P1047" t="n">
         <v>692</v>
       </c>
-      <c r="Q1044" t="n">
-        <v>18</v>
-      </c>
-      <c r="R1044" t="inlineStr">
+      <c r="Q1047" t="n">
+        <v>18</v>
+      </c>
+      <c r="R1047" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Tomate.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Tomate.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1099"/>
+  <dimension ref="A1:R1102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -65133,7 +65133,7 @@
         </is>
       </c>
       <c r="D900" s="2" t="n">
-        <v>44321</v>
+        <v>44543</v>
       </c>
       <c r="E900" t="n">
         <v>13</v>
@@ -65157,16 +65157,16 @@
         </is>
       </c>
       <c r="J900" t="n">
-        <v>380</v>
+        <v>950</v>
       </c>
       <c r="K900" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="L900" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="M900" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="N900" t="inlineStr">
         <is>
@@ -65179,7 +65179,7 @@
         </is>
       </c>
       <c r="P900" t="n">
-        <v>556</v>
+        <v>722</v>
       </c>
       <c r="Q900" t="n">
         <v>18</v>
@@ -65205,7 +65205,7 @@
         </is>
       </c>
       <c r="D901" s="2" t="n">
-        <v>44321</v>
+        <v>44543</v>
       </c>
       <c r="E901" t="n">
         <v>13</v>
@@ -65229,16 +65229,16 @@
         </is>
       </c>
       <c r="J901" t="n">
-        <v>420</v>
+        <v>980</v>
       </c>
       <c r="K901" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="L901" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="M901" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="N901" t="inlineStr">
         <is>
@@ -65251,7 +65251,7 @@
         </is>
       </c>
       <c r="P901" t="n">
-        <v>444</v>
+        <v>667</v>
       </c>
       <c r="Q901" t="n">
         <v>18</v>
@@ -65277,7 +65277,7 @@
         </is>
       </c>
       <c r="D902" s="2" t="n">
-        <v>44321</v>
+        <v>44543</v>
       </c>
       <c r="E902" t="n">
         <v>13</v>
@@ -65301,16 +65301,16 @@
         </is>
       </c>
       <c r="J902" t="n">
-        <v>300</v>
+        <v>850</v>
       </c>
       <c r="K902" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="L902" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="M902" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="N902" t="inlineStr">
         <is>
@@ -65323,7 +65323,7 @@
         </is>
       </c>
       <c r="P902" t="n">
-        <v>278</v>
+        <v>556</v>
       </c>
       <c r="Q902" t="n">
         <v>18</v>
@@ -65364,7 +65364,7 @@
       </c>
       <c r="H903" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I903" t="inlineStr">
@@ -65373,16 +65373,16 @@
         </is>
       </c>
       <c r="J903" t="n">
-        <v>220</v>
+        <v>380</v>
       </c>
       <c r="K903" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L903" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M903" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="N903" t="inlineStr">
         <is>
@@ -65391,11 +65391,11 @@
       </c>
       <c r="O903" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P903" t="n">
-        <v>389</v>
+        <v>556</v>
       </c>
       <c r="Q903" t="n">
         <v>18</v>
@@ -65436,7 +65436,7 @@
       </c>
       <c r="H904" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I904" t="inlineStr">
@@ -65445,16 +65445,16 @@
         </is>
       </c>
       <c r="J904" t="n">
-        <v>250</v>
+        <v>420</v>
       </c>
       <c r="K904" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L904" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M904" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="N904" t="inlineStr">
         <is>
@@ -65463,11 +65463,11 @@
       </c>
       <c r="O904" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P904" t="n">
-        <v>333</v>
+        <v>444</v>
       </c>
       <c r="Q904" t="n">
         <v>18</v>
@@ -65508,7 +65508,7 @@
       </c>
       <c r="H905" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I905" t="inlineStr">
@@ -65520,13 +65520,13 @@
         <v>300</v>
       </c>
       <c r="K905" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="L905" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="M905" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="N905" t="inlineStr">
         <is>
@@ -65535,11 +65535,11 @@
       </c>
       <c r="O905" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P905" t="n">
-        <v>250</v>
+        <v>278</v>
       </c>
       <c r="Q905" t="n">
         <v>18</v>
@@ -65565,7 +65565,7 @@
         </is>
       </c>
       <c r="D906" s="2" t="n">
-        <v>44385</v>
+        <v>44321</v>
       </c>
       <c r="E906" t="n">
         <v>13</v>
@@ -65580,7 +65580,7 @@
       </c>
       <c r="H906" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I906" t="inlineStr">
@@ -65589,16 +65589,16 @@
         </is>
       </c>
       <c r="J906" t="n">
-        <v>260</v>
+        <v>220</v>
       </c>
       <c r="K906" t="n">
-        <v>17000</v>
+        <v>7000</v>
       </c>
       <c r="L906" t="n">
-        <v>17000</v>
+        <v>7000</v>
       </c>
       <c r="M906" t="n">
-        <v>17000</v>
+        <v>7000</v>
       </c>
       <c r="N906" t="inlineStr">
         <is>
@@ -65607,11 +65607,11 @@
       </c>
       <c r="O906" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P906" t="n">
-        <v>944</v>
+        <v>389</v>
       </c>
       <c r="Q906" t="n">
         <v>18</v>
@@ -65637,7 +65637,7 @@
         </is>
       </c>
       <c r="D907" s="2" t="n">
-        <v>44385</v>
+        <v>44321</v>
       </c>
       <c r="E907" t="n">
         <v>13</v>
@@ -65652,41 +65652,41 @@
       </c>
       <c r="H907" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I907" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J907" t="n">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="K907" t="n">
-        <v>20000</v>
+        <v>6000</v>
       </c>
       <c r="L907" t="n">
-        <v>20000</v>
+        <v>6000</v>
       </c>
       <c r="M907" t="n">
-        <v>20000</v>
+        <v>6000</v>
       </c>
       <c r="N907" t="inlineStr">
         <is>
-          <t>$/bandeja 20 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O907" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P907" t="n">
-        <v>1000</v>
+        <v>333</v>
       </c>
       <c r="Q907" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R907" t="inlineStr">
         <is>
@@ -65709,7 +65709,7 @@
         </is>
       </c>
       <c r="D908" s="2" t="n">
-        <v>44385</v>
+        <v>44321</v>
       </c>
       <c r="E908" t="n">
         <v>13</v>
@@ -65724,25 +65724,25 @@
       </c>
       <c r="H908" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I908" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J908" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="K908" t="n">
-        <v>14000</v>
+        <v>4500</v>
       </c>
       <c r="L908" t="n">
-        <v>14000</v>
+        <v>4500</v>
       </c>
       <c r="M908" t="n">
-        <v>14000</v>
+        <v>4500</v>
       </c>
       <c r="N908" t="inlineStr">
         <is>
@@ -65751,11 +65751,11 @@
       </c>
       <c r="O908" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P908" t="n">
-        <v>778</v>
+        <v>250</v>
       </c>
       <c r="Q908" t="n">
         <v>18</v>
@@ -65801,20 +65801,20 @@
       </c>
       <c r="I909" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J909" t="n">
-        <v>370</v>
+        <v>260</v>
       </c>
       <c r="K909" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="L909" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="M909" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="N909" t="inlineStr">
         <is>
@@ -65827,7 +65827,7 @@
         </is>
       </c>
       <c r="P909" t="n">
-        <v>833</v>
+        <v>944</v>
       </c>
       <c r="Q909" t="n">
         <v>18</v>
@@ -65873,20 +65873,20 @@
       </c>
       <c r="I910" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J910" t="n">
-        <v>280</v>
+        <v>220</v>
       </c>
       <c r="K910" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="L910" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="M910" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="N910" t="inlineStr">
         <is>
@@ -65899,7 +65899,7 @@
         </is>
       </c>
       <c r="P910" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="Q910" t="n">
         <v>20</v>
@@ -65945,20 +65945,20 @@
       </c>
       <c r="I911" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J911" t="n">
-        <v>280</v>
+        <v>350</v>
       </c>
       <c r="K911" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="L911" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="M911" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="N911" t="inlineStr">
         <is>
@@ -65971,7 +65971,7 @@
         </is>
       </c>
       <c r="P911" t="n">
-        <v>556</v>
+        <v>778</v>
       </c>
       <c r="Q911" t="n">
         <v>18</v>
@@ -66017,20 +66017,20 @@
       </c>
       <c r="I912" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J912" t="n">
-        <v>310</v>
+        <v>370</v>
       </c>
       <c r="K912" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="L912" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="M912" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="N912" t="inlineStr">
         <is>
@@ -66043,7 +66043,7 @@
         </is>
       </c>
       <c r="P912" t="n">
-        <v>667</v>
+        <v>833</v>
       </c>
       <c r="Q912" t="n">
         <v>18</v>
@@ -66069,7 +66069,7 @@
         </is>
       </c>
       <c r="D913" s="2" t="n">
-        <v>44278</v>
+        <v>44385</v>
       </c>
       <c r="E913" t="n">
         <v>13</v>
@@ -66089,36 +66089,36 @@
       </c>
       <c r="I913" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J913" t="n">
-        <v>730</v>
+        <v>280</v>
       </c>
       <c r="K913" t="n">
-        <v>8000</v>
+        <v>18000</v>
       </c>
       <c r="L913" t="n">
-        <v>8500</v>
+        <v>18000</v>
       </c>
       <c r="M913" t="n">
-        <v>8192</v>
+        <v>18000</v>
       </c>
       <c r="N913" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 20 kilos</t>
         </is>
       </c>
       <c r="O913" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P913" t="n">
-        <v>455</v>
+        <v>900</v>
       </c>
       <c r="Q913" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R913" t="inlineStr">
         <is>
@@ -66141,7 +66141,7 @@
         </is>
       </c>
       <c r="D914" s="2" t="n">
-        <v>44278</v>
+        <v>44385</v>
       </c>
       <c r="E914" t="n">
         <v>13</v>
@@ -66161,20 +66161,20 @@
       </c>
       <c r="I914" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J914" t="n">
-        <v>1220</v>
+        <v>280</v>
       </c>
       <c r="K914" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="L914" t="n">
-        <v>6500</v>
+        <v>10000</v>
       </c>
       <c r="M914" t="n">
-        <v>6238</v>
+        <v>10000</v>
       </c>
       <c r="N914" t="inlineStr">
         <is>
@@ -66187,7 +66187,7 @@
         </is>
       </c>
       <c r="P914" t="n">
-        <v>347</v>
+        <v>556</v>
       </c>
       <c r="Q914" t="n">
         <v>18</v>
@@ -66213,7 +66213,7 @@
         </is>
       </c>
       <c r="D915" s="2" t="n">
-        <v>44278</v>
+        <v>44385</v>
       </c>
       <c r="E915" t="n">
         <v>13</v>
@@ -66237,16 +66237,16 @@
         </is>
       </c>
       <c r="J915" t="n">
-        <v>570</v>
+        <v>310</v>
       </c>
       <c r="K915" t="n">
-        <v>3500</v>
+        <v>12000</v>
       </c>
       <c r="L915" t="n">
-        <v>4000</v>
+        <v>12000</v>
       </c>
       <c r="M915" t="n">
-        <v>3807</v>
+        <v>12000</v>
       </c>
       <c r="N915" t="inlineStr">
         <is>
@@ -66255,11 +66255,11 @@
       </c>
       <c r="O915" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P915" t="n">
-        <v>212</v>
+        <v>667</v>
       </c>
       <c r="Q915" t="n">
         <v>18</v>
@@ -66300,7 +66300,7 @@
       </c>
       <c r="H916" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I916" t="inlineStr">
@@ -66309,16 +66309,16 @@
         </is>
       </c>
       <c r="J916" t="n">
-        <v>400</v>
+        <v>730</v>
       </c>
       <c r="K916" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="L916" t="n">
-        <v>5500</v>
+        <v>8500</v>
       </c>
       <c r="M916" t="n">
-        <v>5275</v>
+        <v>8192</v>
       </c>
       <c r="N916" t="inlineStr">
         <is>
@@ -66327,11 +66327,11 @@
       </c>
       <c r="O916" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P916" t="n">
-        <v>293</v>
+        <v>455</v>
       </c>
       <c r="Q916" t="n">
         <v>18</v>
@@ -66372,7 +66372,7 @@
       </c>
       <c r="H917" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I917" t="inlineStr">
@@ -66381,16 +66381,16 @@
         </is>
       </c>
       <c r="J917" t="n">
-        <v>440</v>
+        <v>1220</v>
       </c>
       <c r="K917" t="n">
-        <v>3500</v>
+        <v>6000</v>
       </c>
       <c r="L917" t="n">
-        <v>4000</v>
+        <v>6500</v>
       </c>
       <c r="M917" t="n">
-        <v>3705</v>
+        <v>6238</v>
       </c>
       <c r="N917" t="inlineStr">
         <is>
@@ -66399,11 +66399,11 @@
       </c>
       <c r="O917" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P917" t="n">
-        <v>206</v>
+        <v>347</v>
       </c>
       <c r="Q917" t="n">
         <v>18</v>
@@ -66444,7 +66444,7 @@
       </c>
       <c r="H918" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I918" t="inlineStr">
@@ -66453,16 +66453,16 @@
         </is>
       </c>
       <c r="J918" t="n">
-        <v>310</v>
+        <v>570</v>
       </c>
       <c r="K918" t="n">
-        <v>2500</v>
+        <v>3500</v>
       </c>
       <c r="L918" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="M918" t="n">
-        <v>2806</v>
+        <v>3807</v>
       </c>
       <c r="N918" t="inlineStr">
         <is>
@@ -66471,11 +66471,11 @@
       </c>
       <c r="O918" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P918" t="n">
-        <v>156</v>
+        <v>212</v>
       </c>
       <c r="Q918" t="n">
         <v>18</v>
@@ -66501,7 +66501,7 @@
         </is>
       </c>
       <c r="D919" s="2" t="n">
-        <v>44308</v>
+        <v>44278</v>
       </c>
       <c r="E919" t="n">
         <v>13</v>
@@ -66516,7 +66516,7 @@
       </c>
       <c r="H919" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I919" t="inlineStr">
@@ -66525,16 +66525,16 @@
         </is>
       </c>
       <c r="J919" t="n">
-        <v>640</v>
+        <v>400</v>
       </c>
       <c r="K919" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="L919" t="n">
-        <v>12500</v>
+        <v>5500</v>
       </c>
       <c r="M919" t="n">
-        <v>12281</v>
+        <v>5275</v>
       </c>
       <c r="N919" t="inlineStr">
         <is>
@@ -66543,11 +66543,11 @@
       </c>
       <c r="O919" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P919" t="n">
-        <v>682</v>
+        <v>293</v>
       </c>
       <c r="Q919" t="n">
         <v>18</v>
@@ -66573,7 +66573,7 @@
         </is>
       </c>
       <c r="D920" s="2" t="n">
-        <v>44308</v>
+        <v>44278</v>
       </c>
       <c r="E920" t="n">
         <v>13</v>
@@ -66588,7 +66588,7 @@
       </c>
       <c r="H920" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I920" t="inlineStr">
@@ -66597,16 +66597,16 @@
         </is>
       </c>
       <c r="J920" t="n">
-        <v>690</v>
+        <v>440</v>
       </c>
       <c r="K920" t="n">
-        <v>10000</v>
+        <v>3500</v>
       </c>
       <c r="L920" t="n">
-        <v>10500</v>
+        <v>4000</v>
       </c>
       <c r="M920" t="n">
-        <v>10210</v>
+        <v>3705</v>
       </c>
       <c r="N920" t="inlineStr">
         <is>
@@ -66615,11 +66615,11 @@
       </c>
       <c r="O920" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P920" t="n">
-        <v>567</v>
+        <v>206</v>
       </c>
       <c r="Q920" t="n">
         <v>18</v>
@@ -66645,7 +66645,7 @@
         </is>
       </c>
       <c r="D921" s="2" t="n">
-        <v>44308</v>
+        <v>44278</v>
       </c>
       <c r="E921" t="n">
         <v>13</v>
@@ -66660,7 +66660,7 @@
       </c>
       <c r="H921" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I921" t="inlineStr">
@@ -66669,16 +66669,16 @@
         </is>
       </c>
       <c r="J921" t="n">
-        <v>500</v>
+        <v>310</v>
       </c>
       <c r="K921" t="n">
-        <v>7500</v>
+        <v>2500</v>
       </c>
       <c r="L921" t="n">
-        <v>8000</v>
+        <v>3000</v>
       </c>
       <c r="M921" t="n">
-        <v>7780</v>
+        <v>2806</v>
       </c>
       <c r="N921" t="inlineStr">
         <is>
@@ -66687,11 +66687,11 @@
       </c>
       <c r="O921" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P921" t="n">
-        <v>432</v>
+        <v>156</v>
       </c>
       <c r="Q921" t="n">
         <v>18</v>
@@ -66717,7 +66717,7 @@
         </is>
       </c>
       <c r="D922" s="2" t="n">
-        <v>44281</v>
+        <v>44308</v>
       </c>
       <c r="E922" t="n">
         <v>13</v>
@@ -66741,16 +66741,16 @@
         </is>
       </c>
       <c r="J922" t="n">
-        <v>620</v>
+        <v>640</v>
       </c>
       <c r="K922" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="L922" t="n">
-        <v>12000</v>
+        <v>12500</v>
       </c>
       <c r="M922" t="n">
-        <v>11548</v>
+        <v>12281</v>
       </c>
       <c r="N922" t="inlineStr">
         <is>
@@ -66763,7 +66763,7 @@
         </is>
       </c>
       <c r="P922" t="n">
-        <v>642</v>
+        <v>682</v>
       </c>
       <c r="Q922" t="n">
         <v>18</v>
@@ -66789,7 +66789,7 @@
         </is>
       </c>
       <c r="D923" s="2" t="n">
-        <v>44281</v>
+        <v>44308</v>
       </c>
       <c r="E923" t="n">
         <v>13</v>
@@ -66813,16 +66813,16 @@
         </is>
       </c>
       <c r="J923" t="n">
-        <v>660</v>
+        <v>690</v>
       </c>
       <c r="K923" t="n">
-        <v>9500</v>
+        <v>10000</v>
       </c>
       <c r="L923" t="n">
-        <v>10000</v>
+        <v>10500</v>
       </c>
       <c r="M923" t="n">
-        <v>9735</v>
+        <v>10210</v>
       </c>
       <c r="N923" t="inlineStr">
         <is>
@@ -66835,7 +66835,7 @@
         </is>
       </c>
       <c r="P923" t="n">
-        <v>541</v>
+        <v>567</v>
       </c>
       <c r="Q923" t="n">
         <v>18</v>
@@ -66861,7 +66861,7 @@
         </is>
       </c>
       <c r="D924" s="2" t="n">
-        <v>44281</v>
+        <v>44308</v>
       </c>
       <c r="E924" t="n">
         <v>13</v>
@@ -66885,7 +66885,7 @@
         </is>
       </c>
       <c r="J924" t="n">
-        <v>370</v>
+        <v>500</v>
       </c>
       <c r="K924" t="n">
         <v>7500</v>
@@ -66894,7 +66894,7 @@
         <v>8000</v>
       </c>
       <c r="M924" t="n">
-        <v>7797</v>
+        <v>7780</v>
       </c>
       <c r="N924" t="inlineStr">
         <is>
@@ -66907,7 +66907,7 @@
         </is>
       </c>
       <c r="P924" t="n">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="Q924" t="n">
         <v>18</v>
@@ -66933,7 +66933,7 @@
         </is>
       </c>
       <c r="D925" s="2" t="n">
-        <v>44187</v>
+        <v>44281</v>
       </c>
       <c r="E925" t="n">
         <v>13</v>
@@ -66957,16 +66957,16 @@
         </is>
       </c>
       <c r="J925" t="n">
-        <v>1080</v>
+        <v>620</v>
       </c>
       <c r="K925" t="n">
-        <v>20000</v>
+        <v>11000</v>
       </c>
       <c r="L925" t="n">
-        <v>21000</v>
+        <v>12000</v>
       </c>
       <c r="M925" t="n">
-        <v>20556</v>
+        <v>11548</v>
       </c>
       <c r="N925" t="inlineStr">
         <is>
@@ -66979,7 +66979,7 @@
         </is>
       </c>
       <c r="P925" t="n">
-        <v>1142</v>
+        <v>642</v>
       </c>
       <c r="Q925" t="n">
         <v>18</v>
@@ -67005,7 +67005,7 @@
         </is>
       </c>
       <c r="D926" s="2" t="n">
-        <v>44187</v>
+        <v>44281</v>
       </c>
       <c r="E926" t="n">
         <v>13</v>
@@ -67029,16 +67029,16 @@
         </is>
       </c>
       <c r="J926" t="n">
-        <v>1350</v>
+        <v>660</v>
       </c>
       <c r="K926" t="n">
-        <v>17000</v>
+        <v>9500</v>
       </c>
       <c r="L926" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="M926" t="n">
-        <v>17481</v>
+        <v>9735</v>
       </c>
       <c r="N926" t="inlineStr">
         <is>
@@ -67051,7 +67051,7 @@
         </is>
       </c>
       <c r="P926" t="n">
-        <v>971</v>
+        <v>541</v>
       </c>
       <c r="Q926" t="n">
         <v>18</v>
@@ -67077,7 +67077,7 @@
         </is>
       </c>
       <c r="D927" s="2" t="n">
-        <v>44187</v>
+        <v>44281</v>
       </c>
       <c r="E927" t="n">
         <v>13</v>
@@ -67101,16 +67101,16 @@
         </is>
       </c>
       <c r="J927" t="n">
-        <v>1150</v>
+        <v>370</v>
       </c>
       <c r="K927" t="n">
-        <v>12000</v>
+        <v>7500</v>
       </c>
       <c r="L927" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="M927" t="n">
-        <v>12522</v>
+        <v>7797</v>
       </c>
       <c r="N927" t="inlineStr">
         <is>
@@ -67123,7 +67123,7 @@
         </is>
       </c>
       <c r="P927" t="n">
-        <v>696</v>
+        <v>433</v>
       </c>
       <c r="Q927" t="n">
         <v>18</v>
@@ -67149,7 +67149,7 @@
         </is>
       </c>
       <c r="D928" s="2" t="n">
-        <v>44474</v>
+        <v>44187</v>
       </c>
       <c r="E928" t="n">
         <v>13</v>
@@ -67173,16 +67173,16 @@
         </is>
       </c>
       <c r="J928" t="n">
-        <v>500</v>
+        <v>1080</v>
       </c>
       <c r="K928" t="n">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="L928" t="n">
-        <v>19000</v>
+        <v>21000</v>
       </c>
       <c r="M928" t="n">
-        <v>19000</v>
+        <v>20556</v>
       </c>
       <c r="N928" t="inlineStr">
         <is>
@@ -67195,7 +67195,7 @@
         </is>
       </c>
       <c r="P928" t="n">
-        <v>1056</v>
+        <v>1142</v>
       </c>
       <c r="Q928" t="n">
         <v>18</v>
@@ -67221,7 +67221,7 @@
         </is>
       </c>
       <c r="D929" s="2" t="n">
-        <v>44474</v>
+        <v>44187</v>
       </c>
       <c r="E929" t="n">
         <v>13</v>
@@ -67241,20 +67241,20 @@
       </c>
       <c r="I929" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J929" t="n">
-        <v>1040</v>
+        <v>1350</v>
       </c>
       <c r="K929" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="L929" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="M929" t="n">
-        <v>19529</v>
+        <v>17481</v>
       </c>
       <c r="N929" t="inlineStr">
         <is>
@@ -67263,11 +67263,11 @@
       </c>
       <c r="O929" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P929" t="n">
-        <v>1085</v>
+        <v>971</v>
       </c>
       <c r="Q929" t="n">
         <v>18</v>
@@ -67293,7 +67293,7 @@
         </is>
       </c>
       <c r="D930" s="2" t="n">
-        <v>44474</v>
+        <v>44187</v>
       </c>
       <c r="E930" t="n">
         <v>13</v>
@@ -67313,20 +67313,20 @@
       </c>
       <c r="I930" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J930" t="n">
-        <v>400</v>
+        <v>1150</v>
       </c>
       <c r="K930" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="L930" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="M930" t="n">
-        <v>17000</v>
+        <v>12522</v>
       </c>
       <c r="N930" t="inlineStr">
         <is>
@@ -67339,7 +67339,7 @@
         </is>
       </c>
       <c r="P930" t="n">
-        <v>944</v>
+        <v>696</v>
       </c>
       <c r="Q930" t="n">
         <v>18</v>
@@ -67385,20 +67385,20 @@
       </c>
       <c r="I931" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J931" t="n">
-        <v>1030</v>
+        <v>500</v>
       </c>
       <c r="K931" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="L931" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="M931" t="n">
-        <v>17369</v>
+        <v>19000</v>
       </c>
       <c r="N931" t="inlineStr">
         <is>
@@ -67407,11 +67407,11 @@
       </c>
       <c r="O931" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P931" t="n">
-        <v>965</v>
+        <v>1056</v>
       </c>
       <c r="Q931" t="n">
         <v>18</v>
@@ -67457,20 +67457,20 @@
       </c>
       <c r="I932" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J932" t="n">
-        <v>350</v>
+        <v>1040</v>
       </c>
       <c r="K932" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="L932" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="M932" t="n">
-        <v>15000</v>
+        <v>19529</v>
       </c>
       <c r="N932" t="inlineStr">
         <is>
@@ -67479,11 +67479,11 @@
       </c>
       <c r="O932" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P932" t="n">
-        <v>833</v>
+        <v>1085</v>
       </c>
       <c r="Q932" t="n">
         <v>18</v>
@@ -67529,20 +67529,20 @@
       </c>
       <c r="I933" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J933" t="n">
-        <v>960</v>
+        <v>400</v>
       </c>
       <c r="K933" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="L933" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="M933" t="n">
-        <v>15531</v>
+        <v>17000</v>
       </c>
       <c r="N933" t="inlineStr">
         <is>
@@ -67551,11 +67551,11 @@
       </c>
       <c r="O933" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P933" t="n">
-        <v>863</v>
+        <v>944</v>
       </c>
       <c r="Q933" t="n">
         <v>18</v>
@@ -67581,7 +67581,7 @@
         </is>
       </c>
       <c r="D934" s="2" t="n">
-        <v>44446</v>
+        <v>44474</v>
       </c>
       <c r="E934" t="n">
         <v>13</v>
@@ -67601,20 +67601,20 @@
       </c>
       <c r="I934" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J934" t="n">
-        <v>630</v>
+        <v>1030</v>
       </c>
       <c r="K934" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="L934" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="M934" t="n">
-        <v>14444</v>
+        <v>17369</v>
       </c>
       <c r="N934" t="inlineStr">
         <is>
@@ -67623,11 +67623,11 @@
       </c>
       <c r="O934" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P934" t="n">
-        <v>802</v>
+        <v>965</v>
       </c>
       <c r="Q934" t="n">
         <v>18</v>
@@ -67653,7 +67653,7 @@
         </is>
       </c>
       <c r="D935" s="2" t="n">
-        <v>44446</v>
+        <v>44474</v>
       </c>
       <c r="E935" t="n">
         <v>13</v>
@@ -67673,20 +67673,20 @@
       </c>
       <c r="I935" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J935" t="n">
-        <v>650</v>
+        <v>350</v>
       </c>
       <c r="K935" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="L935" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M935" t="n">
-        <v>12538</v>
+        <v>15000</v>
       </c>
       <c r="N935" t="inlineStr">
         <is>
@@ -67699,7 +67699,7 @@
         </is>
       </c>
       <c r="P935" t="n">
-        <v>697</v>
+        <v>833</v>
       </c>
       <c r="Q935" t="n">
         <v>18</v>
@@ -67725,7 +67725,7 @@
         </is>
       </c>
       <c r="D936" s="2" t="n">
-        <v>44446</v>
+        <v>44474</v>
       </c>
       <c r="E936" t="n">
         <v>13</v>
@@ -67745,20 +67745,20 @@
       </c>
       <c r="I936" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J936" t="n">
-        <v>950</v>
+        <v>960</v>
       </c>
       <c r="K936" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="L936" t="n">
-        <v>23000</v>
+        <v>16000</v>
       </c>
       <c r="M936" t="n">
-        <v>22526</v>
+        <v>15531</v>
       </c>
       <c r="N936" t="inlineStr">
         <is>
@@ -67771,7 +67771,7 @@
         </is>
       </c>
       <c r="P936" t="n">
-        <v>1251</v>
+        <v>863</v>
       </c>
       <c r="Q936" t="n">
         <v>18</v>
@@ -67817,20 +67817,20 @@
       </c>
       <c r="I937" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J937" t="n">
-        <v>730</v>
+        <v>630</v>
       </c>
       <c r="K937" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="L937" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="M937" t="n">
-        <v>18904</v>
+        <v>14444</v>
       </c>
       <c r="N937" t="inlineStr">
         <is>
@@ -67839,11 +67839,11 @@
       </c>
       <c r="O937" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P937" t="n">
-        <v>1050</v>
+        <v>802</v>
       </c>
       <c r="Q937" t="n">
         <v>18</v>
@@ -67869,7 +67869,7 @@
         </is>
       </c>
       <c r="D938" s="2" t="n">
-        <v>44350</v>
+        <v>44446</v>
       </c>
       <c r="E938" t="n">
         <v>13</v>
@@ -67889,20 +67889,20 @@
       </c>
       <c r="I938" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J938" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="K938" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L938" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="M938" t="n">
-        <v>10440</v>
+        <v>12538</v>
       </c>
       <c r="N938" t="inlineStr">
         <is>
@@ -67915,7 +67915,7 @@
         </is>
       </c>
       <c r="P938" t="n">
-        <v>580</v>
+        <v>697</v>
       </c>
       <c r="Q938" t="n">
         <v>18</v>
@@ -67941,7 +67941,7 @@
         </is>
       </c>
       <c r="D939" s="2" t="n">
-        <v>44350</v>
+        <v>44446</v>
       </c>
       <c r="E939" t="n">
         <v>13</v>
@@ -67961,20 +67961,20 @@
       </c>
       <c r="I939" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J939" t="n">
-        <v>780</v>
+        <v>950</v>
       </c>
       <c r="K939" t="n">
-        <v>13000</v>
+        <v>22000</v>
       </c>
       <c r="L939" t="n">
-        <v>14000</v>
+        <v>23000</v>
       </c>
       <c r="M939" t="n">
-        <v>13641</v>
+        <v>22526</v>
       </c>
       <c r="N939" t="inlineStr">
         <is>
@@ -67987,7 +67987,7 @@
         </is>
       </c>
       <c r="P939" t="n">
-        <v>758</v>
+        <v>1251</v>
       </c>
       <c r="Q939" t="n">
         <v>18</v>
@@ -68013,7 +68013,7 @@
         </is>
       </c>
       <c r="D940" s="2" t="n">
-        <v>44350</v>
+        <v>44446</v>
       </c>
       <c r="E940" t="n">
         <v>13</v>
@@ -68033,20 +68033,20 @@
       </c>
       <c r="I940" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J940" t="n">
-        <v>520</v>
+        <v>730</v>
       </c>
       <c r="K940" t="n">
-        <v>8000</v>
+        <v>18000</v>
       </c>
       <c r="L940" t="n">
-        <v>9000</v>
+        <v>20000</v>
       </c>
       <c r="M940" t="n">
-        <v>8577</v>
+        <v>18904</v>
       </c>
       <c r="N940" t="inlineStr">
         <is>
@@ -68055,11 +68055,11 @@
       </c>
       <c r="O940" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P940" t="n">
-        <v>476</v>
+        <v>1050</v>
       </c>
       <c r="Q940" t="n">
         <v>18</v>
@@ -68105,11 +68105,11 @@
       </c>
       <c r="I941" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J941" t="n">
-        <v>1190</v>
+        <v>500</v>
       </c>
       <c r="K941" t="n">
         <v>10000</v>
@@ -68118,7 +68118,7 @@
         <v>11000</v>
       </c>
       <c r="M941" t="n">
-        <v>10538</v>
+        <v>10440</v>
       </c>
       <c r="N941" t="inlineStr">
         <is>
@@ -68127,11 +68127,11 @@
       </c>
       <c r="O941" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P941" t="n">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="Q941" t="n">
         <v>18</v>
@@ -68177,20 +68177,20 @@
       </c>
       <c r="I942" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J942" t="n">
-        <v>460</v>
+        <v>780</v>
       </c>
       <c r="K942" t="n">
-        <v>5000</v>
+        <v>13000</v>
       </c>
       <c r="L942" t="n">
-        <v>6000</v>
+        <v>14000</v>
       </c>
       <c r="M942" t="n">
-        <v>5609</v>
+        <v>13641</v>
       </c>
       <c r="N942" t="inlineStr">
         <is>
@@ -68199,11 +68199,11 @@
       </c>
       <c r="O942" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P942" t="n">
-        <v>312</v>
+        <v>758</v>
       </c>
       <c r="Q942" t="n">
         <v>18</v>
@@ -68249,20 +68249,20 @@
       </c>
       <c r="I943" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J943" t="n">
-        <v>750</v>
+        <v>520</v>
       </c>
       <c r="K943" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L943" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M943" t="n">
-        <v>7533</v>
+        <v>8577</v>
       </c>
       <c r="N943" t="inlineStr">
         <is>
@@ -68271,11 +68271,11 @@
       </c>
       <c r="O943" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P943" t="n">
-        <v>418</v>
+        <v>476</v>
       </c>
       <c r="Q943" t="n">
         <v>18</v>
@@ -68301,7 +68301,7 @@
         </is>
       </c>
       <c r="D944" s="2" t="n">
-        <v>44529</v>
+        <v>44350</v>
       </c>
       <c r="E944" t="n">
         <v>13</v>
@@ -68321,20 +68321,20 @@
       </c>
       <c r="I944" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J944" t="n">
-        <v>950</v>
+        <v>1190</v>
       </c>
       <c r="K944" t="n">
-        <v>10500</v>
+        <v>10000</v>
       </c>
       <c r="L944" t="n">
         <v>11000</v>
       </c>
       <c r="M944" t="n">
-        <v>10816</v>
+        <v>10538</v>
       </c>
       <c r="N944" t="inlineStr">
         <is>
@@ -68343,11 +68343,11 @@
       </c>
       <c r="O944" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P944" t="n">
-        <v>601</v>
+        <v>585</v>
       </c>
       <c r="Q944" t="n">
         <v>18</v>
@@ -68373,7 +68373,7 @@
         </is>
       </c>
       <c r="D945" s="2" t="n">
-        <v>44529</v>
+        <v>44350</v>
       </c>
       <c r="E945" t="n">
         <v>13</v>
@@ -68393,20 +68393,20 @@
       </c>
       <c r="I945" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J945" t="n">
-        <v>960</v>
+        <v>460</v>
       </c>
       <c r="K945" t="n">
-        <v>9500</v>
+        <v>5000</v>
       </c>
       <c r="L945" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="M945" t="n">
-        <v>9792</v>
+        <v>5609</v>
       </c>
       <c r="N945" t="inlineStr">
         <is>
@@ -68419,7 +68419,7 @@
         </is>
       </c>
       <c r="P945" t="n">
-        <v>544</v>
+        <v>312</v>
       </c>
       <c r="Q945" t="n">
         <v>18</v>
@@ -68445,7 +68445,7 @@
         </is>
       </c>
       <c r="D946" s="2" t="n">
-        <v>44529</v>
+        <v>44350</v>
       </c>
       <c r="E946" t="n">
         <v>13</v>
@@ -68469,16 +68469,16 @@
         </is>
       </c>
       <c r="J946" t="n">
-        <v>820</v>
+        <v>750</v>
       </c>
       <c r="K946" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="L946" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M946" t="n">
-        <v>6768</v>
+        <v>7533</v>
       </c>
       <c r="N946" t="inlineStr">
         <is>
@@ -68487,11 +68487,11 @@
       </c>
       <c r="O946" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P946" t="n">
-        <v>376</v>
+        <v>418</v>
       </c>
       <c r="Q946" t="n">
         <v>18</v>
@@ -68537,20 +68537,20 @@
       </c>
       <c r="I947" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J947" t="n">
-        <v>590</v>
+        <v>950</v>
       </c>
       <c r="K947" t="n">
-        <v>4500</v>
+        <v>10500</v>
       </c>
       <c r="L947" t="n">
-        <v>5000</v>
+        <v>11000</v>
       </c>
       <c r="M947" t="n">
-        <v>4771</v>
+        <v>10816</v>
       </c>
       <c r="N947" t="inlineStr">
         <is>
@@ -68563,7 +68563,7 @@
         </is>
       </c>
       <c r="P947" t="n">
-        <v>265</v>
+        <v>601</v>
       </c>
       <c r="Q947" t="n">
         <v>18</v>
@@ -68589,7 +68589,7 @@
         </is>
       </c>
       <c r="D948" s="2" t="n">
-        <v>44405</v>
+        <v>44529</v>
       </c>
       <c r="E948" t="n">
         <v>13</v>
@@ -68609,20 +68609,20 @@
       </c>
       <c r="I948" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J948" t="n">
-        <v>790</v>
+        <v>960</v>
       </c>
       <c r="K948" t="n">
-        <v>12000</v>
+        <v>9500</v>
       </c>
       <c r="L948" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="M948" t="n">
-        <v>12570</v>
+        <v>9792</v>
       </c>
       <c r="N948" t="inlineStr">
         <is>
@@ -68631,11 +68631,11 @@
       </c>
       <c r="O948" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P948" t="n">
-        <v>698</v>
+        <v>544</v>
       </c>
       <c r="Q948" t="n">
         <v>18</v>
@@ -68661,7 +68661,7 @@
         </is>
       </c>
       <c r="D949" s="2" t="n">
-        <v>44405</v>
+        <v>44529</v>
       </c>
       <c r="E949" t="n">
         <v>13</v>
@@ -68681,20 +68681,20 @@
       </c>
       <c r="I949" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J949" t="n">
-        <v>630</v>
+        <v>820</v>
       </c>
       <c r="K949" t="n">
-        <v>10000</v>
+        <v>6500</v>
       </c>
       <c r="L949" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="M949" t="n">
-        <v>10556</v>
+        <v>6768</v>
       </c>
       <c r="N949" t="inlineStr">
         <is>
@@ -68703,11 +68703,11 @@
       </c>
       <c r="O949" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P949" t="n">
-        <v>586</v>
+        <v>376</v>
       </c>
       <c r="Q949" t="n">
         <v>18</v>
@@ -68733,7 +68733,7 @@
         </is>
       </c>
       <c r="D950" s="2" t="n">
-        <v>44405</v>
+        <v>44529</v>
       </c>
       <c r="E950" t="n">
         <v>13</v>
@@ -68753,20 +68753,20 @@
       </c>
       <c r="I950" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J950" t="n">
-        <v>420</v>
+        <v>590</v>
       </c>
       <c r="K950" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="L950" t="n">
-        <v>7500</v>
+        <v>5000</v>
       </c>
       <c r="M950" t="n">
-        <v>7286</v>
+        <v>4771</v>
       </c>
       <c r="N950" t="inlineStr">
         <is>
@@ -68775,11 +68775,11 @@
       </c>
       <c r="O950" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P950" t="n">
-        <v>405</v>
+        <v>265</v>
       </c>
       <c r="Q950" t="n">
         <v>18</v>
@@ -68805,7 +68805,7 @@
         </is>
       </c>
       <c r="D951" s="2" t="n">
-        <v>44413</v>
+        <v>44405</v>
       </c>
       <c r="E951" t="n">
         <v>13</v>
@@ -68829,16 +68829,16 @@
         </is>
       </c>
       <c r="J951" t="n">
-        <v>280</v>
+        <v>790</v>
       </c>
       <c r="K951" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="L951" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="M951" t="n">
-        <v>8571</v>
+        <v>12570</v>
       </c>
       <c r="N951" t="inlineStr">
         <is>
@@ -68847,11 +68847,11 @@
       </c>
       <c r="O951" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P951" t="n">
-        <v>476</v>
+        <v>698</v>
       </c>
       <c r="Q951" t="n">
         <v>18</v>
@@ -68877,7 +68877,7 @@
         </is>
       </c>
       <c r="D952" s="2" t="n">
-        <v>44413</v>
+        <v>44405</v>
       </c>
       <c r="E952" t="n">
         <v>13</v>
@@ -68897,20 +68897,20 @@
       </c>
       <c r="I952" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J952" t="n">
-        <v>1460</v>
+        <v>630</v>
       </c>
       <c r="K952" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="L952" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="M952" t="n">
-        <v>12425</v>
+        <v>10556</v>
       </c>
       <c r="N952" t="inlineStr">
         <is>
@@ -68923,7 +68923,7 @@
         </is>
       </c>
       <c r="P952" t="n">
-        <v>690</v>
+        <v>586</v>
       </c>
       <c r="Q952" t="n">
         <v>18</v>
@@ -68949,7 +68949,7 @@
         </is>
       </c>
       <c r="D953" s="2" t="n">
-        <v>44413</v>
+        <v>44405</v>
       </c>
       <c r="E953" t="n">
         <v>13</v>
@@ -68969,20 +68969,20 @@
       </c>
       <c r="I953" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J953" t="n">
-        <v>670</v>
+        <v>420</v>
       </c>
       <c r="K953" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L953" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="M953" t="n">
-        <v>6522</v>
+        <v>7286</v>
       </c>
       <c r="N953" t="inlineStr">
         <is>
@@ -68991,11 +68991,11 @@
       </c>
       <c r="O953" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P953" t="n">
-        <v>362</v>
+        <v>405</v>
       </c>
       <c r="Q953" t="n">
         <v>18</v>
@@ -69041,20 +69041,20 @@
       </c>
       <c r="I954" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J954" t="n">
-        <v>2140</v>
+        <v>280</v>
       </c>
       <c r="K954" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="L954" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="M954" t="n">
-        <v>10416</v>
+        <v>8571</v>
       </c>
       <c r="N954" t="inlineStr">
         <is>
@@ -69063,11 +69063,11 @@
       </c>
       <c r="O954" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P954" t="n">
-        <v>579</v>
+        <v>476</v>
       </c>
       <c r="Q954" t="n">
         <v>18</v>
@@ -69113,20 +69113,20 @@
       </c>
       <c r="I955" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J955" t="n">
-        <v>480</v>
+        <v>1460</v>
       </c>
       <c r="K955" t="n">
-        <v>4000</v>
+        <v>12000</v>
       </c>
       <c r="L955" t="n">
-        <v>4500</v>
+        <v>13000</v>
       </c>
       <c r="M955" t="n">
-        <v>4312</v>
+        <v>12425</v>
       </c>
       <c r="N955" t="inlineStr">
         <is>
@@ -69135,11 +69135,11 @@
       </c>
       <c r="O955" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P955" t="n">
-        <v>240</v>
+        <v>690</v>
       </c>
       <c r="Q955" t="n">
         <v>18</v>
@@ -69185,11 +69185,11 @@
       </c>
       <c r="I956" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J956" t="n">
-        <v>1000</v>
+        <v>670</v>
       </c>
       <c r="K956" t="n">
         <v>6000</v>
@@ -69198,7 +69198,7 @@
         <v>7000</v>
       </c>
       <c r="M956" t="n">
-        <v>6390</v>
+        <v>6522</v>
       </c>
       <c r="N956" t="inlineStr">
         <is>
@@ -69207,11 +69207,11 @@
       </c>
       <c r="O956" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P956" t="n">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="Q956" t="n">
         <v>18</v>
@@ -69237,7 +69237,7 @@
         </is>
       </c>
       <c r="D957" s="2" t="n">
-        <v>44238</v>
+        <v>44413</v>
       </c>
       <c r="E957" t="n">
         <v>13</v>
@@ -69257,20 +69257,20 @@
       </c>
       <c r="I957" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J957" t="n">
-        <v>295</v>
+        <v>2140</v>
       </c>
       <c r="K957" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="L957" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M957" t="n">
-        <v>9508</v>
+        <v>10416</v>
       </c>
       <c r="N957" t="inlineStr">
         <is>
@@ -69279,11 +69279,11 @@
       </c>
       <c r="O957" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P957" t="n">
-        <v>528</v>
+        <v>579</v>
       </c>
       <c r="Q957" t="n">
         <v>18</v>
@@ -69309,7 +69309,7 @@
         </is>
       </c>
       <c r="D958" s="2" t="n">
-        <v>44238</v>
+        <v>44413</v>
       </c>
       <c r="E958" t="n">
         <v>13</v>
@@ -69329,20 +69329,20 @@
       </c>
       <c r="I958" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J958" t="n">
-        <v>60</v>
+        <v>480</v>
       </c>
       <c r="K958" t="n">
-        <v>9000</v>
+        <v>4000</v>
       </c>
       <c r="L958" t="n">
-        <v>9000</v>
+        <v>4500</v>
       </c>
       <c r="M958" t="n">
-        <v>9000</v>
+        <v>4312</v>
       </c>
       <c r="N958" t="inlineStr">
         <is>
@@ -69351,11 +69351,11 @@
       </c>
       <c r="O958" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P958" t="n">
-        <v>500</v>
+        <v>240</v>
       </c>
       <c r="Q958" t="n">
         <v>18</v>
@@ -69381,7 +69381,7 @@
         </is>
       </c>
       <c r="D959" s="2" t="n">
-        <v>44238</v>
+        <v>44413</v>
       </c>
       <c r="E959" t="n">
         <v>13</v>
@@ -69401,20 +69401,20 @@
       </c>
       <c r="I959" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J959" t="n">
-        <v>360</v>
+        <v>1000</v>
       </c>
       <c r="K959" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L959" t="n">
         <v>7000</v>
       </c>
-      <c r="L959" t="n">
-        <v>8000</v>
-      </c>
       <c r="M959" t="n">
-        <v>7333</v>
+        <v>6390</v>
       </c>
       <c r="N959" t="inlineStr">
         <is>
@@ -69423,11 +69423,11 @@
       </c>
       <c r="O959" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P959" t="n">
-        <v>407</v>
+        <v>355</v>
       </c>
       <c r="Q959" t="n">
         <v>18</v>
@@ -69473,20 +69473,20 @@
       </c>
       <c r="I960" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J960" t="n">
-        <v>150</v>
+        <v>295</v>
       </c>
       <c r="K960" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L960" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M960" t="n">
-        <v>7000</v>
+        <v>9508</v>
       </c>
       <c r="N960" t="inlineStr">
         <is>
@@ -69495,11 +69495,11 @@
       </c>
       <c r="O960" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P960" t="n">
-        <v>389</v>
+        <v>528</v>
       </c>
       <c r="Q960" t="n">
         <v>18</v>
@@ -69545,20 +69545,20 @@
       </c>
       <c r="I961" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J961" t="n">
-        <v>180</v>
+        <v>60</v>
       </c>
       <c r="K961" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="L961" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="M961" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="N961" t="inlineStr">
         <is>
@@ -69567,11 +69567,11 @@
       </c>
       <c r="O961" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P961" t="n">
-        <v>278</v>
+        <v>500</v>
       </c>
       <c r="Q961" t="n">
         <v>18</v>
@@ -69617,20 +69617,20 @@
       </c>
       <c r="I962" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J962" t="n">
-        <v>100</v>
+        <v>360</v>
       </c>
       <c r="K962" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="L962" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="M962" t="n">
-        <v>5000</v>
+        <v>7333</v>
       </c>
       <c r="N962" t="inlineStr">
         <is>
@@ -69639,11 +69639,11 @@
       </c>
       <c r="O962" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P962" t="n">
-        <v>278</v>
+        <v>407</v>
       </c>
       <c r="Q962" t="n">
         <v>18</v>
@@ -69669,7 +69669,7 @@
         </is>
       </c>
       <c r="D963" s="2" t="n">
-        <v>44257</v>
+        <v>44238</v>
       </c>
       <c r="E963" t="n">
         <v>13</v>
@@ -69689,20 +69689,20 @@
       </c>
       <c r="I963" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J963" t="n">
-        <v>440</v>
+        <v>150</v>
       </c>
       <c r="K963" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="L963" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="M963" t="n">
-        <v>14545</v>
+        <v>7000</v>
       </c>
       <c r="N963" t="inlineStr">
         <is>
@@ -69711,11 +69711,11 @@
       </c>
       <c r="O963" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P963" t="n">
-        <v>808</v>
+        <v>389</v>
       </c>
       <c r="Q963" t="n">
         <v>18</v>
@@ -69741,7 +69741,7 @@
         </is>
       </c>
       <c r="D964" s="2" t="n">
-        <v>44257</v>
+        <v>44238</v>
       </c>
       <c r="E964" t="n">
         <v>13</v>
@@ -69756,25 +69756,25 @@
       </c>
       <c r="H964" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I964" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J964" t="n">
-        <v>310</v>
+        <v>180</v>
       </c>
       <c r="K964" t="n">
-        <v>11000</v>
+        <v>5000</v>
       </c>
       <c r="L964" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="M964" t="n">
-        <v>11484</v>
+        <v>5000</v>
       </c>
       <c r="N964" t="inlineStr">
         <is>
@@ -69783,11 +69783,11 @@
       </c>
       <c r="O964" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P964" t="n">
-        <v>638</v>
+        <v>278</v>
       </c>
       <c r="Q964" t="n">
         <v>18</v>
@@ -69813,7 +69813,7 @@
         </is>
       </c>
       <c r="D965" s="2" t="n">
-        <v>44257</v>
+        <v>44238</v>
       </c>
       <c r="E965" t="n">
         <v>13</v>
@@ -69828,25 +69828,25 @@
       </c>
       <c r="H965" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I965" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J965" t="n">
-        <v>470</v>
+        <v>100</v>
       </c>
       <c r="K965" t="n">
-        <v>9500</v>
+        <v>5000</v>
       </c>
       <c r="L965" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="M965" t="n">
-        <v>9734</v>
+        <v>5000</v>
       </c>
       <c r="N965" t="inlineStr">
         <is>
@@ -69855,11 +69855,11 @@
       </c>
       <c r="O965" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P965" t="n">
-        <v>541</v>
+        <v>278</v>
       </c>
       <c r="Q965" t="n">
         <v>18</v>
@@ -69900,25 +69900,25 @@
       </c>
       <c r="H966" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I966" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J966" t="n">
-        <v>320</v>
+        <v>440</v>
       </c>
       <c r="K966" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="L966" t="n">
-        <v>7500</v>
+        <v>15000</v>
       </c>
       <c r="M966" t="n">
-        <v>7219</v>
+        <v>14545</v>
       </c>
       <c r="N966" t="inlineStr">
         <is>
@@ -69927,11 +69927,11 @@
       </c>
       <c r="O966" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P966" t="n">
-        <v>401</v>
+        <v>808</v>
       </c>
       <c r="Q966" t="n">
         <v>18</v>
@@ -69957,7 +69957,7 @@
         </is>
       </c>
       <c r="D967" s="2" t="n">
-        <v>44411</v>
+        <v>44257</v>
       </c>
       <c r="E967" t="n">
         <v>13</v>
@@ -69972,7 +69972,7 @@
       </c>
       <c r="H967" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I967" t="inlineStr">
@@ -69981,16 +69981,16 @@
         </is>
       </c>
       <c r="J967" t="n">
-        <v>370</v>
+        <v>310</v>
       </c>
       <c r="K967" t="n">
-        <v>8500</v>
+        <v>11000</v>
       </c>
       <c r="L967" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="M967" t="n">
-        <v>8838</v>
+        <v>11484</v>
       </c>
       <c r="N967" t="inlineStr">
         <is>
@@ -69999,11 +69999,11 @@
       </c>
       <c r="O967" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P967" t="n">
-        <v>491</v>
+        <v>638</v>
       </c>
       <c r="Q967" t="n">
         <v>18</v>
@@ -70029,7 +70029,7 @@
         </is>
       </c>
       <c r="D968" s="2" t="n">
-        <v>44411</v>
+        <v>44257</v>
       </c>
       <c r="E968" t="n">
         <v>13</v>
@@ -70044,25 +70044,25 @@
       </c>
       <c r="H968" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I968" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J968" t="n">
-        <v>960</v>
+        <v>470</v>
       </c>
       <c r="K968" t="n">
-        <v>12000</v>
+        <v>9500</v>
       </c>
       <c r="L968" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="M968" t="n">
-        <v>12583</v>
+        <v>9734</v>
       </c>
       <c r="N968" t="inlineStr">
         <is>
@@ -70071,11 +70071,11 @@
       </c>
       <c r="O968" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P968" t="n">
-        <v>699</v>
+        <v>541</v>
       </c>
       <c r="Q968" t="n">
         <v>18</v>
@@ -70101,7 +70101,7 @@
         </is>
       </c>
       <c r="D969" s="2" t="n">
-        <v>44411</v>
+        <v>44257</v>
       </c>
       <c r="E969" t="n">
         <v>13</v>
@@ -70116,25 +70116,25 @@
       </c>
       <c r="H969" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I969" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J969" t="n">
-        <v>780</v>
+        <v>320</v>
       </c>
       <c r="K969" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="L969" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="M969" t="n">
-        <v>6756</v>
+        <v>7219</v>
       </c>
       <c r="N969" t="inlineStr">
         <is>
@@ -70143,11 +70143,11 @@
       </c>
       <c r="O969" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P969" t="n">
-        <v>375</v>
+        <v>401</v>
       </c>
       <c r="Q969" t="n">
         <v>18</v>
@@ -70193,20 +70193,20 @@
       </c>
       <c r="I970" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J970" t="n">
-        <v>1130</v>
+        <v>370</v>
       </c>
       <c r="K970" t="n">
-        <v>10000</v>
+        <v>8500</v>
       </c>
       <c r="L970" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="M970" t="n">
-        <v>10575</v>
+        <v>8838</v>
       </c>
       <c r="N970" t="inlineStr">
         <is>
@@ -70215,11 +70215,11 @@
       </c>
       <c r="O970" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P970" t="n">
-        <v>588</v>
+        <v>491</v>
       </c>
       <c r="Q970" t="n">
         <v>18</v>
@@ -70265,20 +70265,20 @@
       </c>
       <c r="I971" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J971" t="n">
-        <v>360</v>
+        <v>960</v>
       </c>
       <c r="K971" t="n">
-        <v>4500</v>
+        <v>12000</v>
       </c>
       <c r="L971" t="n">
-        <v>5000</v>
+        <v>13000</v>
       </c>
       <c r="M971" t="n">
-        <v>4833</v>
+        <v>12583</v>
       </c>
       <c r="N971" t="inlineStr">
         <is>
@@ -70287,11 +70287,11 @@
       </c>
       <c r="O971" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P971" t="n">
-        <v>268</v>
+        <v>699</v>
       </c>
       <c r="Q971" t="n">
         <v>18</v>
@@ -70337,20 +70337,20 @@
       </c>
       <c r="I972" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J972" t="n">
-        <v>820</v>
+        <v>780</v>
       </c>
       <c r="K972" t="n">
+        <v>6500</v>
+      </c>
+      <c r="L972" t="n">
         <v>7000</v>
       </c>
-      <c r="L972" t="n">
-        <v>8000</v>
-      </c>
       <c r="M972" t="n">
-        <v>7451</v>
+        <v>6756</v>
       </c>
       <c r="N972" t="inlineStr">
         <is>
@@ -70359,11 +70359,11 @@
       </c>
       <c r="O972" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P972" t="n">
-        <v>414</v>
+        <v>375</v>
       </c>
       <c r="Q972" t="n">
         <v>18</v>
@@ -70389,7 +70389,7 @@
         </is>
       </c>
       <c r="D973" s="2" t="n">
-        <v>44175</v>
+        <v>44411</v>
       </c>
       <c r="E973" t="n">
         <v>13</v>
@@ -70409,20 +70409,20 @@
       </c>
       <c r="I973" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J973" t="n">
-        <v>1080</v>
+        <v>1130</v>
       </c>
       <c r="K973" t="n">
-        <v>9500</v>
+        <v>10000</v>
       </c>
       <c r="L973" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M973" t="n">
-        <v>9778</v>
+        <v>10575</v>
       </c>
       <c r="N973" t="inlineStr">
         <is>
@@ -70431,11 +70431,11 @@
       </c>
       <c r="O973" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P973" t="n">
-        <v>543</v>
+        <v>588</v>
       </c>
       <c r="Q973" t="n">
         <v>18</v>
@@ -70461,7 +70461,7 @@
         </is>
       </c>
       <c r="D974" s="2" t="n">
-        <v>44175</v>
+        <v>44411</v>
       </c>
       <c r="E974" t="n">
         <v>13</v>
@@ -70481,20 +70481,20 @@
       </c>
       <c r="I974" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J974" t="n">
-        <v>1280</v>
+        <v>360</v>
       </c>
       <c r="K974" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="L974" t="n">
-        <v>7500</v>
+        <v>5000</v>
       </c>
       <c r="M974" t="n">
-        <v>7266</v>
+        <v>4833</v>
       </c>
       <c r="N974" t="inlineStr">
         <is>
@@ -70507,7 +70507,7 @@
         </is>
       </c>
       <c r="P974" t="n">
-        <v>404</v>
+        <v>268</v>
       </c>
       <c r="Q974" t="n">
         <v>18</v>
@@ -70533,7 +70533,7 @@
         </is>
       </c>
       <c r="D975" s="2" t="n">
-        <v>44175</v>
+        <v>44411</v>
       </c>
       <c r="E975" t="n">
         <v>13</v>
@@ -70557,16 +70557,16 @@
         </is>
       </c>
       <c r="J975" t="n">
-        <v>880</v>
+        <v>820</v>
       </c>
       <c r="K975" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="L975" t="n">
-        <v>5500</v>
+        <v>8000</v>
       </c>
       <c r="M975" t="n">
-        <v>5273</v>
+        <v>7451</v>
       </c>
       <c r="N975" t="inlineStr">
         <is>
@@ -70575,11 +70575,11 @@
       </c>
       <c r="O975" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P975" t="n">
-        <v>293</v>
+        <v>414</v>
       </c>
       <c r="Q975" t="n">
         <v>18</v>
@@ -70605,7 +70605,7 @@
         </is>
       </c>
       <c r="D976" s="2" t="n">
-        <v>44196</v>
+        <v>44175</v>
       </c>
       <c r="E976" t="n">
         <v>13</v>
@@ -70629,16 +70629,16 @@
         </is>
       </c>
       <c r="J976" t="n">
-        <v>1130</v>
+        <v>1080</v>
       </c>
       <c r="K976" t="n">
-        <v>15000</v>
+        <v>9500</v>
       </c>
       <c r="L976" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="M976" t="n">
-        <v>15575</v>
+        <v>9778</v>
       </c>
       <c r="N976" t="inlineStr">
         <is>
@@ -70647,11 +70647,11 @@
       </c>
       <c r="O976" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P976" t="n">
-        <v>865</v>
+        <v>543</v>
       </c>
       <c r="Q976" t="n">
         <v>18</v>
@@ -70677,7 +70677,7 @@
         </is>
       </c>
       <c r="D977" s="2" t="n">
-        <v>44196</v>
+        <v>44175</v>
       </c>
       <c r="E977" t="n">
         <v>13</v>
@@ -70701,16 +70701,16 @@
         </is>
       </c>
       <c r="J977" t="n">
-        <v>1400</v>
+        <v>1280</v>
       </c>
       <c r="K977" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="L977" t="n">
-        <v>14000</v>
+        <v>7500</v>
       </c>
       <c r="M977" t="n">
-        <v>13514</v>
+        <v>7266</v>
       </c>
       <c r="N977" t="inlineStr">
         <is>
@@ -70719,11 +70719,11 @@
       </c>
       <c r="O977" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P977" t="n">
-        <v>751</v>
+        <v>404</v>
       </c>
       <c r="Q977" t="n">
         <v>18</v>
@@ -70749,7 +70749,7 @@
         </is>
       </c>
       <c r="D978" s="2" t="n">
-        <v>44196</v>
+        <v>44175</v>
       </c>
       <c r="E978" t="n">
         <v>13</v>
@@ -70773,16 +70773,16 @@
         </is>
       </c>
       <c r="J978" t="n">
-        <v>1180</v>
+        <v>880</v>
       </c>
       <c r="K978" t="n">
-        <v>7500</v>
+        <v>5000</v>
       </c>
       <c r="L978" t="n">
-        <v>8000</v>
+        <v>5500</v>
       </c>
       <c r="M978" t="n">
-        <v>7746</v>
+        <v>5273</v>
       </c>
       <c r="N978" t="inlineStr">
         <is>
@@ -70791,11 +70791,11 @@
       </c>
       <c r="O978" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P978" t="n">
-        <v>430</v>
+        <v>293</v>
       </c>
       <c r="Q978" t="n">
         <v>18</v>
@@ -70841,20 +70841,20 @@
       </c>
       <c r="I979" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J979" t="n">
-        <v>520</v>
+        <v>1130</v>
       </c>
       <c r="K979" t="n">
-        <v>4500</v>
+        <v>15000</v>
       </c>
       <c r="L979" t="n">
-        <v>5000</v>
+        <v>16000</v>
       </c>
       <c r="M979" t="n">
-        <v>4788</v>
+        <v>15575</v>
       </c>
       <c r="N979" t="inlineStr">
         <is>
@@ -70867,7 +70867,7 @@
         </is>
       </c>
       <c r="P979" t="n">
-        <v>266</v>
+        <v>865</v>
       </c>
       <c r="Q979" t="n">
         <v>18</v>
@@ -70893,7 +70893,7 @@
         </is>
       </c>
       <c r="D980" s="2" t="n">
-        <v>44200</v>
+        <v>44196</v>
       </c>
       <c r="E980" t="n">
         <v>13</v>
@@ -70913,20 +70913,20 @@
       </c>
       <c r="I980" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J980" t="n">
-        <v>260</v>
+        <v>1400</v>
       </c>
       <c r="K980" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="L980" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="M980" t="n">
-        <v>20000</v>
+        <v>13514</v>
       </c>
       <c r="N980" t="inlineStr">
         <is>
@@ -70939,7 +70939,7 @@
         </is>
       </c>
       <c r="P980" t="n">
-        <v>1111</v>
+        <v>751</v>
       </c>
       <c r="Q980" t="n">
         <v>18</v>
@@ -70965,7 +70965,7 @@
         </is>
       </c>
       <c r="D981" s="2" t="n">
-        <v>44200</v>
+        <v>44196</v>
       </c>
       <c r="E981" t="n">
         <v>13</v>
@@ -70985,20 +70985,20 @@
       </c>
       <c r="I981" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J981" t="n">
-        <v>200</v>
+        <v>1180</v>
       </c>
       <c r="K981" t="n">
-        <v>18000</v>
+        <v>7500</v>
       </c>
       <c r="L981" t="n">
-        <v>18000</v>
+        <v>8000</v>
       </c>
       <c r="M981" t="n">
-        <v>18000</v>
+        <v>7746</v>
       </c>
       <c r="N981" t="inlineStr">
         <is>
@@ -71011,7 +71011,7 @@
         </is>
       </c>
       <c r="P981" t="n">
-        <v>1000</v>
+        <v>430</v>
       </c>
       <c r="Q981" t="n">
         <v>18</v>
@@ -71037,7 +71037,7 @@
         </is>
       </c>
       <c r="D982" s="2" t="n">
-        <v>44200</v>
+        <v>44196</v>
       </c>
       <c r="E982" t="n">
         <v>13</v>
@@ -71057,20 +71057,20 @@
       </c>
       <c r="I982" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J982" t="n">
-        <v>150</v>
+        <v>520</v>
       </c>
       <c r="K982" t="n">
-        <v>16000</v>
+        <v>4500</v>
       </c>
       <c r="L982" t="n">
-        <v>16000</v>
+        <v>5000</v>
       </c>
       <c r="M982" t="n">
-        <v>16000</v>
+        <v>4788</v>
       </c>
       <c r="N982" t="inlineStr">
         <is>
@@ -71083,7 +71083,7 @@
         </is>
       </c>
       <c r="P982" t="n">
-        <v>889</v>
+        <v>266</v>
       </c>
       <c r="Q982" t="n">
         <v>18</v>
@@ -71109,7 +71109,7 @@
         </is>
       </c>
       <c r="D983" s="2" t="n">
-        <v>44459</v>
+        <v>44200</v>
       </c>
       <c r="E983" t="n">
         <v>13</v>
@@ -71133,16 +71133,16 @@
         </is>
       </c>
       <c r="J983" t="n">
-        <v>830</v>
+        <v>260</v>
       </c>
       <c r="K983" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="L983" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="M983" t="n">
-        <v>17542</v>
+        <v>20000</v>
       </c>
       <c r="N983" t="inlineStr">
         <is>
@@ -71151,11 +71151,11 @@
       </c>
       <c r="O983" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P983" t="n">
-        <v>975</v>
+        <v>1111</v>
       </c>
       <c r="Q983" t="n">
         <v>18</v>
@@ -71181,7 +71181,7 @@
         </is>
       </c>
       <c r="D984" s="2" t="n">
-        <v>44459</v>
+        <v>44200</v>
       </c>
       <c r="E984" t="n">
         <v>13</v>
@@ -71205,16 +71205,16 @@
         </is>
       </c>
       <c r="J984" t="n">
-        <v>1020</v>
+        <v>200</v>
       </c>
       <c r="K984" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="L984" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="M984" t="n">
-        <v>15539</v>
+        <v>18000</v>
       </c>
       <c r="N984" t="inlineStr">
         <is>
@@ -71223,11 +71223,11 @@
       </c>
       <c r="O984" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P984" t="n">
-        <v>863</v>
+        <v>1000</v>
       </c>
       <c r="Q984" t="n">
         <v>18</v>
@@ -71253,7 +71253,7 @@
         </is>
       </c>
       <c r="D985" s="2" t="n">
-        <v>44459</v>
+        <v>44200</v>
       </c>
       <c r="E985" t="n">
         <v>13</v>
@@ -71277,16 +71277,16 @@
         </is>
       </c>
       <c r="J985" t="n">
-        <v>980</v>
+        <v>150</v>
       </c>
       <c r="K985" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="L985" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="M985" t="n">
-        <v>12490</v>
+        <v>16000</v>
       </c>
       <c r="N985" t="inlineStr">
         <is>
@@ -71295,11 +71295,11 @@
       </c>
       <c r="O985" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P985" t="n">
-        <v>694</v>
+        <v>889</v>
       </c>
       <c r="Q985" t="n">
         <v>18</v>
@@ -71325,7 +71325,7 @@
         </is>
       </c>
       <c r="D986" s="2" t="n">
-        <v>44188</v>
+        <v>44459</v>
       </c>
       <c r="E986" t="n">
         <v>13</v>
@@ -71349,16 +71349,16 @@
         </is>
       </c>
       <c r="J986" t="n">
-        <v>1000</v>
+        <v>830</v>
       </c>
       <c r="K986" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="L986" t="n">
-        <v>21000</v>
+        <v>18000</v>
       </c>
       <c r="M986" t="n">
-        <v>20600</v>
+        <v>17542</v>
       </c>
       <c r="N986" t="inlineStr">
         <is>
@@ -71367,11 +71367,11 @@
       </c>
       <c r="O986" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P986" t="n">
-        <v>1144</v>
+        <v>975</v>
       </c>
       <c r="Q986" t="n">
         <v>18</v>
@@ -71397,7 +71397,7 @@
         </is>
       </c>
       <c r="D987" s="2" t="n">
-        <v>44188</v>
+        <v>44459</v>
       </c>
       <c r="E987" t="n">
         <v>13</v>
@@ -71421,16 +71421,16 @@
         </is>
       </c>
       <c r="J987" t="n">
-        <v>1150</v>
+        <v>1020</v>
       </c>
       <c r="K987" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="L987" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="M987" t="n">
-        <v>18435</v>
+        <v>15539</v>
       </c>
       <c r="N987" t="inlineStr">
         <is>
@@ -71439,11 +71439,11 @@
       </c>
       <c r="O987" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P987" t="n">
-        <v>1024</v>
+        <v>863</v>
       </c>
       <c r="Q987" t="n">
         <v>18</v>
@@ -71469,7 +71469,7 @@
         </is>
       </c>
       <c r="D988" s="2" t="n">
-        <v>44188</v>
+        <v>44459</v>
       </c>
       <c r="E988" t="n">
         <v>13</v>
@@ -71493,16 +71493,16 @@
         </is>
       </c>
       <c r="J988" t="n">
-        <v>880</v>
+        <v>980</v>
       </c>
       <c r="K988" t="n">
+        <v>12000</v>
+      </c>
+      <c r="L988" t="n">
         <v>13000</v>
       </c>
-      <c r="L988" t="n">
-        <v>14000</v>
-      </c>
       <c r="M988" t="n">
-        <v>13545</v>
+        <v>12490</v>
       </c>
       <c r="N988" t="inlineStr">
         <is>
@@ -71511,11 +71511,11 @@
       </c>
       <c r="O988" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P988" t="n">
-        <v>752</v>
+        <v>694</v>
       </c>
       <c r="Q988" t="n">
         <v>18</v>
@@ -71541,7 +71541,7 @@
         </is>
       </c>
       <c r="D989" s="2" t="n">
-        <v>44258</v>
+        <v>44188</v>
       </c>
       <c r="E989" t="n">
         <v>13</v>
@@ -71565,16 +71565,16 @@
         </is>
       </c>
       <c r="J989" t="n">
-        <v>430</v>
+        <v>1000</v>
       </c>
       <c r="K989" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="L989" t="n">
-        <v>15000</v>
+        <v>21000</v>
       </c>
       <c r="M989" t="n">
-        <v>14581</v>
+        <v>20600</v>
       </c>
       <c r="N989" t="inlineStr">
         <is>
@@ -71583,11 +71583,11 @@
       </c>
       <c r="O989" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P989" t="n">
-        <v>810</v>
+        <v>1144</v>
       </c>
       <c r="Q989" t="n">
         <v>18</v>
@@ -71613,7 +71613,7 @@
         </is>
       </c>
       <c r="D990" s="2" t="n">
-        <v>44258</v>
+        <v>44188</v>
       </c>
       <c r="E990" t="n">
         <v>13</v>
@@ -71637,16 +71637,16 @@
         </is>
       </c>
       <c r="J990" t="n">
-        <v>550</v>
+        <v>1150</v>
       </c>
       <c r="K990" t="n">
-        <v>11000</v>
+        <v>18000</v>
       </c>
       <c r="L990" t="n">
-        <v>12000</v>
+        <v>19000</v>
       </c>
       <c r="M990" t="n">
-        <v>11455</v>
+        <v>18435</v>
       </c>
       <c r="N990" t="inlineStr">
         <is>
@@ -71655,11 +71655,11 @@
       </c>
       <c r="O990" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P990" t="n">
-        <v>636</v>
+        <v>1024</v>
       </c>
       <c r="Q990" t="n">
         <v>18</v>
@@ -71685,7 +71685,7 @@
         </is>
       </c>
       <c r="D991" s="2" t="n">
-        <v>44258</v>
+        <v>44188</v>
       </c>
       <c r="E991" t="n">
         <v>13</v>
@@ -71709,16 +71709,16 @@
         </is>
       </c>
       <c r="J991" t="n">
-        <v>390</v>
+        <v>880</v>
       </c>
       <c r="K991" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="L991" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="M991" t="n">
-        <v>9462</v>
+        <v>13545</v>
       </c>
       <c r="N991" t="inlineStr">
         <is>
@@ -71727,11 +71727,11 @@
       </c>
       <c r="O991" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P991" t="n">
-        <v>526</v>
+        <v>752</v>
       </c>
       <c r="Q991" t="n">
         <v>18</v>
@@ -71772,7 +71772,7 @@
       </c>
       <c r="H992" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I992" t="inlineStr">
@@ -71781,16 +71781,16 @@
         </is>
       </c>
       <c r="J992" t="n">
-        <v>220</v>
+        <v>430</v>
       </c>
       <c r="K992" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="L992" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="M992" t="n">
-        <v>11545</v>
+        <v>14581</v>
       </c>
       <c r="N992" t="inlineStr">
         <is>
@@ -71803,7 +71803,7 @@
         </is>
       </c>
       <c r="P992" t="n">
-        <v>641</v>
+        <v>810</v>
       </c>
       <c r="Q992" t="n">
         <v>18</v>
@@ -71844,7 +71844,7 @@
       </c>
       <c r="H993" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I993" t="inlineStr">
@@ -71853,16 +71853,16 @@
         </is>
       </c>
       <c r="J993" t="n">
-        <v>390</v>
+        <v>550</v>
       </c>
       <c r="K993" t="n">
-        <v>9500</v>
+        <v>11000</v>
       </c>
       <c r="L993" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M993" t="n">
-        <v>9821</v>
+        <v>11455</v>
       </c>
       <c r="N993" t="inlineStr">
         <is>
@@ -71875,7 +71875,7 @@
         </is>
       </c>
       <c r="P993" t="n">
-        <v>546</v>
+        <v>636</v>
       </c>
       <c r="Q993" t="n">
         <v>18</v>
@@ -71916,7 +71916,7 @@
       </c>
       <c r="H994" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I994" t="inlineStr">
@@ -71925,16 +71925,16 @@
         </is>
       </c>
       <c r="J994" t="n">
-        <v>360</v>
+        <v>390</v>
       </c>
       <c r="K994" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L994" t="n">
-        <v>7500</v>
+        <v>10000</v>
       </c>
       <c r="M994" t="n">
-        <v>7306</v>
+        <v>9462</v>
       </c>
       <c r="N994" t="inlineStr">
         <is>
@@ -71947,7 +71947,7 @@
         </is>
       </c>
       <c r="P994" t="n">
-        <v>406</v>
+        <v>526</v>
       </c>
       <c r="Q994" t="n">
         <v>18</v>
@@ -71973,7 +71973,7 @@
         </is>
       </c>
       <c r="D995" s="2" t="n">
-        <v>44298</v>
+        <v>44258</v>
       </c>
       <c r="E995" t="n">
         <v>13</v>
@@ -71988,7 +71988,7 @@
       </c>
       <c r="H995" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I995" t="inlineStr">
@@ -71997,16 +71997,16 @@
         </is>
       </c>
       <c r="J995" t="n">
-        <v>340</v>
+        <v>220</v>
       </c>
       <c r="K995" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="L995" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="M995" t="n">
-        <v>14000</v>
+        <v>11545</v>
       </c>
       <c r="N995" t="inlineStr">
         <is>
@@ -72015,11 +72015,11 @@
       </c>
       <c r="O995" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P995" t="n">
-        <v>778</v>
+        <v>641</v>
       </c>
       <c r="Q995" t="n">
         <v>18</v>
@@ -72045,7 +72045,7 @@
         </is>
       </c>
       <c r="D996" s="2" t="n">
-        <v>44298</v>
+        <v>44258</v>
       </c>
       <c r="E996" t="n">
         <v>13</v>
@@ -72060,7 +72060,7 @@
       </c>
       <c r="H996" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I996" t="inlineStr">
@@ -72069,16 +72069,16 @@
         </is>
       </c>
       <c r="J996" t="n">
-        <v>500</v>
+        <v>390</v>
       </c>
       <c r="K996" t="n">
-        <v>12000</v>
+        <v>9500</v>
       </c>
       <c r="L996" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M996" t="n">
-        <v>12000</v>
+        <v>9821</v>
       </c>
       <c r="N996" t="inlineStr">
         <is>
@@ -72087,11 +72087,11 @@
       </c>
       <c r="O996" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P996" t="n">
-        <v>667</v>
+        <v>546</v>
       </c>
       <c r="Q996" t="n">
         <v>18</v>
@@ -72117,7 +72117,7 @@
         </is>
       </c>
       <c r="D997" s="2" t="n">
-        <v>44298</v>
+        <v>44258</v>
       </c>
       <c r="E997" t="n">
         <v>13</v>
@@ -72132,7 +72132,7 @@
       </c>
       <c r="H997" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I997" t="inlineStr">
@@ -72141,16 +72141,16 @@
         </is>
       </c>
       <c r="J997" t="n">
-        <v>280</v>
+        <v>360</v>
       </c>
       <c r="K997" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="L997" t="n">
-        <v>10000</v>
+        <v>7500</v>
       </c>
       <c r="M997" t="n">
-        <v>10000</v>
+        <v>7306</v>
       </c>
       <c r="N997" t="inlineStr">
         <is>
@@ -72159,11 +72159,11 @@
       </c>
       <c r="O997" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P997" t="n">
-        <v>556</v>
+        <v>406</v>
       </c>
       <c r="Q997" t="n">
         <v>18</v>
@@ -72209,20 +72209,20 @@
       </c>
       <c r="I998" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J998" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K998" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="L998" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="M998" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="N998" t="inlineStr">
         <is>
@@ -72235,7 +72235,7 @@
         </is>
       </c>
       <c r="P998" t="n">
-        <v>500</v>
+        <v>778</v>
       </c>
       <c r="Q998" t="n">
         <v>18</v>
@@ -72261,7 +72261,7 @@
         </is>
       </c>
       <c r="D999" s="2" t="n">
-        <v>44432</v>
+        <v>44298</v>
       </c>
       <c r="E999" t="n">
         <v>13</v>
@@ -72281,20 +72281,20 @@
       </c>
       <c r="I999" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J999" t="n">
-        <v>1180</v>
+        <v>500</v>
       </c>
       <c r="K999" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="L999" t="n">
         <v>12000</v>
       </c>
       <c r="M999" t="n">
-        <v>11525</v>
+        <v>12000</v>
       </c>
       <c r="N999" t="inlineStr">
         <is>
@@ -72303,11 +72303,11 @@
       </c>
       <c r="O999" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P999" t="n">
-        <v>640</v>
+        <v>667</v>
       </c>
       <c r="Q999" t="n">
         <v>18</v>
@@ -72333,7 +72333,7 @@
         </is>
       </c>
       <c r="D1000" s="2" t="n">
-        <v>44432</v>
+        <v>44298</v>
       </c>
       <c r="E1000" t="n">
         <v>13</v>
@@ -72353,20 +72353,20 @@
       </c>
       <c r="I1000" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1000" t="n">
-        <v>820</v>
+        <v>280</v>
       </c>
       <c r="K1000" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="L1000" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="M1000" t="n">
-        <v>5463</v>
+        <v>10000</v>
       </c>
       <c r="N1000" t="inlineStr">
         <is>
@@ -72375,11 +72375,11 @@
       </c>
       <c r="O1000" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P1000" t="n">
-        <v>304</v>
+        <v>556</v>
       </c>
       <c r="Q1000" t="n">
         <v>18</v>
@@ -72405,7 +72405,7 @@
         </is>
       </c>
       <c r="D1001" s="2" t="n">
-        <v>44432</v>
+        <v>44298</v>
       </c>
       <c r="E1001" t="n">
         <v>13</v>
@@ -72425,20 +72425,20 @@
       </c>
       <c r="I1001" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J1001" t="n">
-        <v>1220</v>
+        <v>160</v>
       </c>
       <c r="K1001" t="n">
         <v>9000</v>
       </c>
       <c r="L1001" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="M1001" t="n">
-        <v>9541</v>
+        <v>9000</v>
       </c>
       <c r="N1001" t="inlineStr">
         <is>
@@ -72447,11 +72447,11 @@
       </c>
       <c r="O1001" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P1001" t="n">
-        <v>530</v>
+        <v>500</v>
       </c>
       <c r="Q1001" t="n">
         <v>18</v>
@@ -72497,20 +72497,20 @@
       </c>
       <c r="I1002" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1002" t="n">
-        <v>450</v>
+        <v>1180</v>
       </c>
       <c r="K1002" t="n">
-        <v>3000</v>
+        <v>11000</v>
       </c>
       <c r="L1002" t="n">
-        <v>4000</v>
+        <v>12000</v>
       </c>
       <c r="M1002" t="n">
-        <v>3600</v>
+        <v>11525</v>
       </c>
       <c r="N1002" t="inlineStr">
         <is>
@@ -72519,11 +72519,11 @@
       </c>
       <c r="O1002" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1002" t="n">
-        <v>200</v>
+        <v>640</v>
       </c>
       <c r="Q1002" t="n">
         <v>18</v>
@@ -72569,20 +72569,20 @@
       </c>
       <c r="I1003" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1003" t="n">
-        <v>840</v>
+        <v>820</v>
       </c>
       <c r="K1003" t="n">
+        <v>5000</v>
+      </c>
+      <c r="L1003" t="n">
         <v>6000</v>
       </c>
-      <c r="L1003" t="n">
-        <v>7000</v>
-      </c>
       <c r="M1003" t="n">
-        <v>6548</v>
+        <v>5463</v>
       </c>
       <c r="N1003" t="inlineStr">
         <is>
@@ -72591,11 +72591,11 @@
       </c>
       <c r="O1003" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P1003" t="n">
-        <v>364</v>
+        <v>304</v>
       </c>
       <c r="Q1003" t="n">
         <v>18</v>
@@ -72621,7 +72621,7 @@
         </is>
       </c>
       <c r="D1004" s="2" t="n">
-        <v>44428</v>
+        <v>44432</v>
       </c>
       <c r="E1004" t="n">
         <v>13</v>
@@ -72641,20 +72641,20 @@
       </c>
       <c r="I1004" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1004" t="n">
-        <v>580</v>
+        <v>1220</v>
       </c>
       <c r="K1004" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="L1004" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M1004" t="n">
-        <v>6517</v>
+        <v>9541</v>
       </c>
       <c r="N1004" t="inlineStr">
         <is>
@@ -72663,11 +72663,11 @@
       </c>
       <c r="O1004" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1004" t="n">
-        <v>362</v>
+        <v>530</v>
       </c>
       <c r="Q1004" t="n">
         <v>18</v>
@@ -72693,7 +72693,7 @@
         </is>
       </c>
       <c r="D1005" s="2" t="n">
-        <v>44428</v>
+        <v>44432</v>
       </c>
       <c r="E1005" t="n">
         <v>13</v>
@@ -72713,20 +72713,20 @@
       </c>
       <c r="I1005" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1005" t="n">
-        <v>1040</v>
+        <v>450</v>
       </c>
       <c r="K1005" t="n">
-        <v>11000</v>
+        <v>3000</v>
       </c>
       <c r="L1005" t="n">
-        <v>12000</v>
+        <v>4000</v>
       </c>
       <c r="M1005" t="n">
-        <v>11538</v>
+        <v>3600</v>
       </c>
       <c r="N1005" t="inlineStr">
         <is>
@@ -72735,11 +72735,11 @@
       </c>
       <c r="O1005" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P1005" t="n">
-        <v>641</v>
+        <v>200</v>
       </c>
       <c r="Q1005" t="n">
         <v>18</v>
@@ -72765,7 +72765,7 @@
         </is>
       </c>
       <c r="D1006" s="2" t="n">
-        <v>44428</v>
+        <v>44432</v>
       </c>
       <c r="E1006" t="n">
         <v>13</v>
@@ -72785,20 +72785,20 @@
       </c>
       <c r="I1006" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1006" t="n">
-        <v>480</v>
+        <v>840</v>
       </c>
       <c r="K1006" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="L1006" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="M1006" t="n">
-        <v>4781</v>
+        <v>6548</v>
       </c>
       <c r="N1006" t="inlineStr">
         <is>
@@ -72807,11 +72807,11 @@
       </c>
       <c r="O1006" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1006" t="n">
-        <v>266</v>
+        <v>364</v>
       </c>
       <c r="Q1006" t="n">
         <v>18</v>
@@ -72857,20 +72857,20 @@
       </c>
       <c r="I1007" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1007" t="n">
-        <v>1020</v>
+        <v>580</v>
       </c>
       <c r="K1007" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L1007" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M1007" t="n">
-        <v>8549</v>
+        <v>6517</v>
       </c>
       <c r="N1007" t="inlineStr">
         <is>
@@ -72879,11 +72879,11 @@
       </c>
       <c r="O1007" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P1007" t="n">
-        <v>475</v>
+        <v>362</v>
       </c>
       <c r="Q1007" t="n">
         <v>18</v>
@@ -72929,20 +72929,20 @@
       </c>
       <c r="I1008" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1008" t="n">
-        <v>290</v>
+        <v>1040</v>
       </c>
       <c r="K1008" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="L1008" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="M1008" t="n">
-        <v>6621</v>
+        <v>11538</v>
       </c>
       <c r="N1008" t="inlineStr">
         <is>
@@ -72955,7 +72955,7 @@
         </is>
       </c>
       <c r="P1008" t="n">
-        <v>368</v>
+        <v>641</v>
       </c>
       <c r="Q1008" t="n">
         <v>18</v>
@@ -72981,7 +72981,7 @@
         </is>
       </c>
       <c r="D1009" s="2" t="n">
-        <v>44340</v>
+        <v>44428</v>
       </c>
       <c r="E1009" t="n">
         <v>13</v>
@@ -73001,20 +73001,20 @@
       </c>
       <c r="I1009" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1009" t="n">
-        <v>400</v>
+        <v>480</v>
       </c>
       <c r="K1009" t="n">
-        <v>9000</v>
+        <v>4500</v>
       </c>
       <c r="L1009" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="M1009" t="n">
-        <v>9550</v>
+        <v>4781</v>
       </c>
       <c r="N1009" t="inlineStr">
         <is>
@@ -73027,7 +73027,7 @@
         </is>
       </c>
       <c r="P1009" t="n">
-        <v>531</v>
+        <v>266</v>
       </c>
       <c r="Q1009" t="n">
         <v>18</v>
@@ -73053,7 +73053,7 @@
         </is>
       </c>
       <c r="D1010" s="2" t="n">
-        <v>44340</v>
+        <v>44428</v>
       </c>
       <c r="E1010" t="n">
         <v>13</v>
@@ -73073,20 +73073,20 @@
       </c>
       <c r="I1010" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1010" t="n">
-        <v>380</v>
+        <v>1020</v>
       </c>
       <c r="K1010" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="L1010" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="M1010" t="n">
-        <v>13474</v>
+        <v>8549</v>
       </c>
       <c r="N1010" t="inlineStr">
         <is>
@@ -73099,7 +73099,7 @@
         </is>
       </c>
       <c r="P1010" t="n">
-        <v>749</v>
+        <v>475</v>
       </c>
       <c r="Q1010" t="n">
         <v>18</v>
@@ -73125,7 +73125,7 @@
         </is>
       </c>
       <c r="D1011" s="2" t="n">
-        <v>44340</v>
+        <v>44428</v>
       </c>
       <c r="E1011" t="n">
         <v>13</v>
@@ -73145,20 +73145,20 @@
       </c>
       <c r="I1011" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1011" t="n">
-        <v>460</v>
+        <v>290</v>
       </c>
       <c r="K1011" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L1011" t="n">
         <v>7000</v>
       </c>
-      <c r="L1011" t="n">
-        <v>8000</v>
-      </c>
       <c r="M1011" t="n">
-        <v>7522</v>
+        <v>6621</v>
       </c>
       <c r="N1011" t="inlineStr">
         <is>
@@ -73167,11 +73167,11 @@
       </c>
       <c r="O1011" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1011" t="n">
-        <v>418</v>
+        <v>368</v>
       </c>
       <c r="Q1011" t="n">
         <v>18</v>
@@ -73217,20 +73217,20 @@
       </c>
       <c r="I1012" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1012" t="n">
-        <v>440</v>
+        <v>400</v>
       </c>
       <c r="K1012" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="L1012" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M1012" t="n">
-        <v>11568</v>
+        <v>9550</v>
       </c>
       <c r="N1012" t="inlineStr">
         <is>
@@ -73239,11 +73239,11 @@
       </c>
       <c r="O1012" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P1012" t="n">
-        <v>643</v>
+        <v>531</v>
       </c>
       <c r="Q1012" t="n">
         <v>18</v>
@@ -73289,20 +73289,20 @@
       </c>
       <c r="I1013" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1013" t="n">
-        <v>400</v>
+        <v>380</v>
       </c>
       <c r="K1013" t="n">
-        <v>5000</v>
+        <v>13000</v>
       </c>
       <c r="L1013" t="n">
-        <v>6000</v>
+        <v>14000</v>
       </c>
       <c r="M1013" t="n">
-        <v>5550</v>
+        <v>13474</v>
       </c>
       <c r="N1013" t="inlineStr">
         <is>
@@ -73311,11 +73311,11 @@
       </c>
       <c r="O1013" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1013" t="n">
-        <v>308</v>
+        <v>749</v>
       </c>
       <c r="Q1013" t="n">
         <v>18</v>
@@ -73361,20 +73361,20 @@
       </c>
       <c r="I1014" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1014" t="n">
-        <v>340</v>
+        <v>460</v>
       </c>
       <c r="K1014" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="L1014" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M1014" t="n">
-        <v>9588</v>
+        <v>7522</v>
       </c>
       <c r="N1014" t="inlineStr">
         <is>
@@ -73383,11 +73383,11 @@
       </c>
       <c r="O1014" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P1014" t="n">
-        <v>533</v>
+        <v>418</v>
       </c>
       <c r="Q1014" t="n">
         <v>18</v>
@@ -73413,7 +73413,7 @@
         </is>
       </c>
       <c r="D1015" s="2" t="n">
-        <v>44224</v>
+        <v>44340</v>
       </c>
       <c r="E1015" t="n">
         <v>13</v>
@@ -73433,20 +73433,20 @@
       </c>
       <c r="I1015" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1015" t="n">
-        <v>1050</v>
+        <v>440</v>
       </c>
       <c r="K1015" t="n">
+        <v>11000</v>
+      </c>
+      <c r="L1015" t="n">
         <v>12000</v>
       </c>
-      <c r="L1015" t="n">
-        <v>13000</v>
-      </c>
       <c r="M1015" t="n">
-        <v>12571</v>
+        <v>11568</v>
       </c>
       <c r="N1015" t="inlineStr">
         <is>
@@ -73455,11 +73455,11 @@
       </c>
       <c r="O1015" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1015" t="n">
-        <v>698</v>
+        <v>643</v>
       </c>
       <c r="Q1015" t="n">
         <v>18</v>
@@ -73485,7 +73485,7 @@
         </is>
       </c>
       <c r="D1016" s="2" t="n">
-        <v>44224</v>
+        <v>44340</v>
       </c>
       <c r="E1016" t="n">
         <v>13</v>
@@ -73505,20 +73505,20 @@
       </c>
       <c r="I1016" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1016" t="n">
-        <v>1590</v>
+        <v>400</v>
       </c>
       <c r="K1016" t="n">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="L1016" t="n">
-        <v>9500</v>
+        <v>6000</v>
       </c>
       <c r="M1016" t="n">
-        <v>5009</v>
+        <v>5550</v>
       </c>
       <c r="N1016" t="inlineStr">
         <is>
@@ -73531,7 +73531,7 @@
         </is>
       </c>
       <c r="P1016" t="n">
-        <v>278</v>
+        <v>308</v>
       </c>
       <c r="Q1016" t="n">
         <v>18</v>
@@ -73557,7 +73557,7 @@
         </is>
       </c>
       <c r="D1017" s="2" t="n">
-        <v>44224</v>
+        <v>44340</v>
       </c>
       <c r="E1017" t="n">
         <v>13</v>
@@ -73581,16 +73581,16 @@
         </is>
       </c>
       <c r="J1017" t="n">
-        <v>1350</v>
+        <v>340</v>
       </c>
       <c r="K1017" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="L1017" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M1017" t="n">
-        <v>7778</v>
+        <v>9588</v>
       </c>
       <c r="N1017" t="inlineStr">
         <is>
@@ -73599,11 +73599,11 @@
       </c>
       <c r="O1017" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1017" t="n">
-        <v>432</v>
+        <v>533</v>
       </c>
       <c r="Q1017" t="n">
         <v>18</v>
@@ -73644,7 +73644,7 @@
       </c>
       <c r="H1018" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I1018" t="inlineStr">
@@ -73653,16 +73653,16 @@
         </is>
       </c>
       <c r="J1018" t="n">
-        <v>450</v>
+        <v>1050</v>
       </c>
       <c r="K1018" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="L1018" t="n">
-        <v>8500</v>
+        <v>13000</v>
       </c>
       <c r="M1018" t="n">
-        <v>8278</v>
+        <v>12571</v>
       </c>
       <c r="N1018" t="inlineStr">
         <is>
@@ -73671,11 +73671,11 @@
       </c>
       <c r="O1018" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P1018" t="n">
-        <v>460</v>
+        <v>698</v>
       </c>
       <c r="Q1018" t="n">
         <v>18</v>
@@ -73716,7 +73716,7 @@
       </c>
       <c r="H1019" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I1019" t="inlineStr">
@@ -73725,16 +73725,16 @@
         </is>
       </c>
       <c r="J1019" t="n">
-        <v>950</v>
+        <v>1590</v>
       </c>
       <c r="K1019" t="n">
-        <v>7000</v>
+        <v>1000</v>
       </c>
       <c r="L1019" t="n">
-        <v>7500</v>
+        <v>9500</v>
       </c>
       <c r="M1019" t="n">
-        <v>7263</v>
+        <v>5009</v>
       </c>
       <c r="N1019" t="inlineStr">
         <is>
@@ -73743,11 +73743,11 @@
       </c>
       <c r="O1019" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P1019" t="n">
-        <v>404</v>
+        <v>278</v>
       </c>
       <c r="Q1019" t="n">
         <v>18</v>
@@ -73788,7 +73788,7 @@
       </c>
       <c r="H1020" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I1020" t="inlineStr">
@@ -73797,16 +73797,16 @@
         </is>
       </c>
       <c r="J1020" t="n">
-        <v>870</v>
+        <v>1350</v>
       </c>
       <c r="K1020" t="n">
-        <v>5000</v>
+        <v>7500</v>
       </c>
       <c r="L1020" t="n">
-        <v>5500</v>
+        <v>8000</v>
       </c>
       <c r="M1020" t="n">
-        <v>5224</v>
+        <v>7778</v>
       </c>
       <c r="N1020" t="inlineStr">
         <is>
@@ -73815,11 +73815,11 @@
       </c>
       <c r="O1020" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P1020" t="n">
-        <v>290</v>
+        <v>432</v>
       </c>
       <c r="Q1020" t="n">
         <v>18</v>
@@ -73845,7 +73845,7 @@
         </is>
       </c>
       <c r="D1021" s="2" t="n">
-        <v>44329</v>
+        <v>44224</v>
       </c>
       <c r="E1021" t="n">
         <v>13</v>
@@ -73860,7 +73860,7 @@
       </c>
       <c r="H1021" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I1021" t="inlineStr">
@@ -73869,16 +73869,16 @@
         </is>
       </c>
       <c r="J1021" t="n">
-        <v>750</v>
+        <v>450</v>
       </c>
       <c r="K1021" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="L1021" t="n">
-        <v>11000</v>
+        <v>8500</v>
       </c>
       <c r="M1021" t="n">
-        <v>10533</v>
+        <v>8278</v>
       </c>
       <c r="N1021" t="inlineStr">
         <is>
@@ -73887,11 +73887,11 @@
       </c>
       <c r="O1021" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1021" t="n">
-        <v>585</v>
+        <v>460</v>
       </c>
       <c r="Q1021" t="n">
         <v>18</v>
@@ -73917,7 +73917,7 @@
         </is>
       </c>
       <c r="D1022" s="2" t="n">
-        <v>44329</v>
+        <v>44224</v>
       </c>
       <c r="E1022" t="n">
         <v>13</v>
@@ -73932,25 +73932,25 @@
       </c>
       <c r="H1022" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I1022" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1022" t="n">
-        <v>530</v>
+        <v>950</v>
       </c>
       <c r="K1022" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="L1022" t="n">
-        <v>15000</v>
+        <v>7500</v>
       </c>
       <c r="M1022" t="n">
-        <v>14528</v>
+        <v>7263</v>
       </c>
       <c r="N1022" t="inlineStr">
         <is>
@@ -73959,11 +73959,11 @@
       </c>
       <c r="O1022" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1022" t="n">
-        <v>807</v>
+        <v>404</v>
       </c>
       <c r="Q1022" t="n">
         <v>18</v>
@@ -73989,7 +73989,7 @@
         </is>
       </c>
       <c r="D1023" s="2" t="n">
-        <v>44329</v>
+        <v>44224</v>
       </c>
       <c r="E1023" t="n">
         <v>13</v>
@@ -74004,25 +74004,25 @@
       </c>
       <c r="H1023" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I1023" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1023" t="n">
-        <v>720</v>
+        <v>870</v>
       </c>
       <c r="K1023" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="L1023" t="n">
-        <v>8500</v>
+        <v>5500</v>
       </c>
       <c r="M1023" t="n">
-        <v>8278</v>
+        <v>5224</v>
       </c>
       <c r="N1023" t="inlineStr">
         <is>
@@ -74031,11 +74031,11 @@
       </c>
       <c r="O1023" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1023" t="n">
-        <v>460</v>
+        <v>290</v>
       </c>
       <c r="Q1023" t="n">
         <v>18</v>
@@ -74081,20 +74081,20 @@
       </c>
       <c r="I1024" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1024" t="n">
-        <v>570</v>
+        <v>750</v>
       </c>
       <c r="K1024" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="L1024" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="M1024" t="n">
-        <v>12561</v>
+        <v>10533</v>
       </c>
       <c r="N1024" t="inlineStr">
         <is>
@@ -74103,11 +74103,11 @@
       </c>
       <c r="O1024" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P1024" t="n">
-        <v>698</v>
+        <v>585</v>
       </c>
       <c r="Q1024" t="n">
         <v>18</v>
@@ -74153,20 +74153,20 @@
       </c>
       <c r="I1025" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1025" t="n">
-        <v>780</v>
+        <v>530</v>
       </c>
       <c r="K1025" t="n">
-        <v>6000</v>
+        <v>14000</v>
       </c>
       <c r="L1025" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="M1025" t="n">
-        <v>6513</v>
+        <v>14528</v>
       </c>
       <c r="N1025" t="inlineStr">
         <is>
@@ -74175,11 +74175,11 @@
       </c>
       <c r="O1025" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1025" t="n">
-        <v>362</v>
+        <v>807</v>
       </c>
       <c r="Q1025" t="n">
         <v>18</v>
@@ -74225,20 +74225,20 @@
       </c>
       <c r="I1026" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1026" t="n">
-        <v>500</v>
+        <v>720</v>
       </c>
       <c r="K1026" t="n">
         <v>8000</v>
       </c>
       <c r="L1026" t="n">
-        <v>9000</v>
+        <v>8500</v>
       </c>
       <c r="M1026" t="n">
-        <v>8560</v>
+        <v>8278</v>
       </c>
       <c r="N1026" t="inlineStr">
         <is>
@@ -74247,11 +74247,11 @@
       </c>
       <c r="O1026" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P1026" t="n">
-        <v>476</v>
+        <v>460</v>
       </c>
       <c r="Q1026" t="n">
         <v>18</v>
@@ -74277,7 +74277,7 @@
         </is>
       </c>
       <c r="D1027" s="2" t="n">
-        <v>44452</v>
+        <v>44329</v>
       </c>
       <c r="E1027" t="n">
         <v>13</v>
@@ -74301,16 +74301,16 @@
         </is>
       </c>
       <c r="J1027" t="n">
-        <v>680</v>
+        <v>570</v>
       </c>
       <c r="K1027" t="n">
-        <v>22000</v>
+        <v>12000</v>
       </c>
       <c r="L1027" t="n">
-        <v>23000</v>
+        <v>13000</v>
       </c>
       <c r="M1027" t="n">
-        <v>22515</v>
+        <v>12561</v>
       </c>
       <c r="N1027" t="inlineStr">
         <is>
@@ -74323,7 +74323,7 @@
         </is>
       </c>
       <c r="P1027" t="n">
-        <v>1251</v>
+        <v>698</v>
       </c>
       <c r="Q1027" t="n">
         <v>18</v>
@@ -74349,7 +74349,7 @@
         </is>
       </c>
       <c r="D1028" s="2" t="n">
-        <v>44452</v>
+        <v>44329</v>
       </c>
       <c r="E1028" t="n">
         <v>13</v>
@@ -74373,16 +74373,16 @@
         </is>
       </c>
       <c r="J1028" t="n">
-        <v>580</v>
+        <v>780</v>
       </c>
       <c r="K1028" t="n">
-        <v>19000</v>
+        <v>6000</v>
       </c>
       <c r="L1028" t="n">
-        <v>20000</v>
+        <v>7000</v>
       </c>
       <c r="M1028" t="n">
-        <v>19483</v>
+        <v>6513</v>
       </c>
       <c r="N1028" t="inlineStr">
         <is>
@@ -74391,11 +74391,11 @@
       </c>
       <c r="O1028" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P1028" t="n">
-        <v>1082</v>
+        <v>362</v>
       </c>
       <c r="Q1028" t="n">
         <v>18</v>
@@ -74421,7 +74421,7 @@
         </is>
       </c>
       <c r="D1029" s="2" t="n">
-        <v>44270</v>
+        <v>44329</v>
       </c>
       <c r="E1029" t="n">
         <v>13</v>
@@ -74441,20 +74441,20 @@
       </c>
       <c r="I1029" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1029" t="n">
-        <v>520</v>
+        <v>500</v>
       </c>
       <c r="K1029" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="L1029" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="M1029" t="n">
-        <v>12615</v>
+        <v>8560</v>
       </c>
       <c r="N1029" t="inlineStr">
         <is>
@@ -74463,11 +74463,11 @@
       </c>
       <c r="O1029" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1029" t="n">
-        <v>701</v>
+        <v>476</v>
       </c>
       <c r="Q1029" t="n">
         <v>18</v>
@@ -74493,7 +74493,7 @@
         </is>
       </c>
       <c r="D1030" s="2" t="n">
-        <v>44270</v>
+        <v>44452</v>
       </c>
       <c r="E1030" t="n">
         <v>13</v>
@@ -74517,16 +74517,16 @@
         </is>
       </c>
       <c r="J1030" t="n">
-        <v>500</v>
+        <v>680</v>
       </c>
       <c r="K1030" t="n">
-        <v>10000</v>
+        <v>22000</v>
       </c>
       <c r="L1030" t="n">
-        <v>11000</v>
+        <v>23000</v>
       </c>
       <c r="M1030" t="n">
-        <v>10560</v>
+        <v>22515</v>
       </c>
       <c r="N1030" t="inlineStr">
         <is>
@@ -74535,11 +74535,11 @@
       </c>
       <c r="O1030" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1030" t="n">
-        <v>587</v>
+        <v>1251</v>
       </c>
       <c r="Q1030" t="n">
         <v>18</v>
@@ -74565,7 +74565,7 @@
         </is>
       </c>
       <c r="D1031" s="2" t="n">
-        <v>44270</v>
+        <v>44452</v>
       </c>
       <c r="E1031" t="n">
         <v>13</v>
@@ -74589,16 +74589,16 @@
         </is>
       </c>
       <c r="J1031" t="n">
-        <v>310</v>
+        <v>580</v>
       </c>
       <c r="K1031" t="n">
-        <v>7000</v>
+        <v>19000</v>
       </c>
       <c r="L1031" t="n">
-        <v>8000</v>
+        <v>20000</v>
       </c>
       <c r="M1031" t="n">
-        <v>7548</v>
+        <v>19483</v>
       </c>
       <c r="N1031" t="inlineStr">
         <is>
@@ -74607,11 +74607,11 @@
       </c>
       <c r="O1031" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1031" t="n">
-        <v>419</v>
+        <v>1082</v>
       </c>
       <c r="Q1031" t="n">
         <v>18</v>
@@ -74637,7 +74637,7 @@
         </is>
       </c>
       <c r="D1032" s="2" t="n">
-        <v>44195</v>
+        <v>44270</v>
       </c>
       <c r="E1032" t="n">
         <v>13</v>
@@ -74661,16 +74661,16 @@
         </is>
       </c>
       <c r="J1032" t="n">
-        <v>880</v>
+        <v>520</v>
       </c>
       <c r="K1032" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="L1032" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="M1032" t="n">
-        <v>17545</v>
+        <v>12615</v>
       </c>
       <c r="N1032" t="inlineStr">
         <is>
@@ -74683,7 +74683,7 @@
         </is>
       </c>
       <c r="P1032" t="n">
-        <v>975</v>
+        <v>701</v>
       </c>
       <c r="Q1032" t="n">
         <v>18</v>
@@ -74709,7 +74709,7 @@
         </is>
       </c>
       <c r="D1033" s="2" t="n">
-        <v>44195</v>
+        <v>44270</v>
       </c>
       <c r="E1033" t="n">
         <v>13</v>
@@ -74733,16 +74733,16 @@
         </is>
       </c>
       <c r="J1033" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="K1033" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="L1033" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="M1033" t="n">
-        <v>15560</v>
+        <v>10560</v>
       </c>
       <c r="N1033" t="inlineStr">
         <is>
@@ -74755,7 +74755,7 @@
         </is>
       </c>
       <c r="P1033" t="n">
-        <v>864</v>
+        <v>587</v>
       </c>
       <c r="Q1033" t="n">
         <v>18</v>
@@ -74781,7 +74781,7 @@
         </is>
       </c>
       <c r="D1034" s="2" t="n">
-        <v>44195</v>
+        <v>44270</v>
       </c>
       <c r="E1034" t="n">
         <v>13</v>
@@ -74805,16 +74805,16 @@
         </is>
       </c>
       <c r="J1034" t="n">
-        <v>880</v>
+        <v>310</v>
       </c>
       <c r="K1034" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="L1034" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="M1034" t="n">
-        <v>11568</v>
+        <v>7548</v>
       </c>
       <c r="N1034" t="inlineStr">
         <is>
@@ -74827,7 +74827,7 @@
         </is>
       </c>
       <c r="P1034" t="n">
-        <v>643</v>
+        <v>419</v>
       </c>
       <c r="Q1034" t="n">
         <v>18</v>
@@ -74853,7 +74853,7 @@
         </is>
       </c>
       <c r="D1035" s="2" t="n">
-        <v>44473</v>
+        <v>44195</v>
       </c>
       <c r="E1035" t="n">
         <v>13</v>
@@ -74877,16 +74877,16 @@
         </is>
       </c>
       <c r="J1035" t="n">
-        <v>420</v>
+        <v>880</v>
       </c>
       <c r="K1035" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="L1035" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="M1035" t="n">
-        <v>19429</v>
+        <v>17545</v>
       </c>
       <c r="N1035" t="inlineStr">
         <is>
@@ -74895,11 +74895,11 @@
       </c>
       <c r="O1035" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P1035" t="n">
-        <v>1079</v>
+        <v>975</v>
       </c>
       <c r="Q1035" t="n">
         <v>18</v>
@@ -74925,7 +74925,7 @@
         </is>
       </c>
       <c r="D1036" s="2" t="n">
-        <v>44473</v>
+        <v>44195</v>
       </c>
       <c r="E1036" t="n">
         <v>13</v>
@@ -74949,16 +74949,16 @@
         </is>
       </c>
       <c r="J1036" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="K1036" t="n">
+        <v>15000</v>
+      </c>
+      <c r="L1036" t="n">
         <v>16000</v>
       </c>
-      <c r="L1036" t="n">
-        <v>17000</v>
-      </c>
       <c r="M1036" t="n">
-        <v>16560</v>
+        <v>15560</v>
       </c>
       <c r="N1036" t="inlineStr">
         <is>
@@ -74967,11 +74967,11 @@
       </c>
       <c r="O1036" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P1036" t="n">
-        <v>920</v>
+        <v>864</v>
       </c>
       <c r="Q1036" t="n">
         <v>18</v>
@@ -74997,7 +74997,7 @@
         </is>
       </c>
       <c r="D1037" s="2" t="n">
-        <v>44473</v>
+        <v>44195</v>
       </c>
       <c r="E1037" t="n">
         <v>13</v>
@@ -75021,16 +75021,16 @@
         </is>
       </c>
       <c r="J1037" t="n">
-        <v>320</v>
+        <v>880</v>
       </c>
       <c r="K1037" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="L1037" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="M1037" t="n">
-        <v>13562</v>
+        <v>11568</v>
       </c>
       <c r="N1037" t="inlineStr">
         <is>
@@ -75039,11 +75039,11 @@
       </c>
       <c r="O1037" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P1037" t="n">
-        <v>753</v>
+        <v>643</v>
       </c>
       <c r="Q1037" t="n">
         <v>18</v>
@@ -75069,7 +75069,7 @@
         </is>
       </c>
       <c r="D1038" s="2" t="n">
-        <v>44398</v>
+        <v>44473</v>
       </c>
       <c r="E1038" t="n">
         <v>13</v>
@@ -75093,16 +75093,16 @@
         </is>
       </c>
       <c r="J1038" t="n">
-        <v>480</v>
+        <v>420</v>
       </c>
       <c r="K1038" t="n">
-        <v>13000</v>
+        <v>19000</v>
       </c>
       <c r="L1038" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="M1038" t="n">
-        <v>13000</v>
+        <v>19429</v>
       </c>
       <c r="N1038" t="inlineStr">
         <is>
@@ -75115,7 +75115,7 @@
         </is>
       </c>
       <c r="P1038" t="n">
-        <v>722</v>
+        <v>1079</v>
       </c>
       <c r="Q1038" t="n">
         <v>18</v>
@@ -75141,7 +75141,7 @@
         </is>
       </c>
       <c r="D1039" s="2" t="n">
-        <v>44398</v>
+        <v>44473</v>
       </c>
       <c r="E1039" t="n">
         <v>13</v>
@@ -75168,13 +75168,13 @@
         <v>500</v>
       </c>
       <c r="K1039" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="L1039" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="M1039" t="n">
-        <v>12000</v>
+        <v>16560</v>
       </c>
       <c r="N1039" t="inlineStr">
         <is>
@@ -75187,7 +75187,7 @@
         </is>
       </c>
       <c r="P1039" t="n">
-        <v>667</v>
+        <v>920</v>
       </c>
       <c r="Q1039" t="n">
         <v>18</v>
@@ -75213,7 +75213,7 @@
         </is>
       </c>
       <c r="D1040" s="2" t="n">
-        <v>44398</v>
+        <v>44473</v>
       </c>
       <c r="E1040" t="n">
         <v>13</v>
@@ -75237,16 +75237,16 @@
         </is>
       </c>
       <c r="J1040" t="n">
-        <v>260</v>
+        <v>320</v>
       </c>
       <c r="K1040" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="L1040" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="M1040" t="n">
-        <v>10000</v>
+        <v>13562</v>
       </c>
       <c r="N1040" t="inlineStr">
         <is>
@@ -75259,7 +75259,7 @@
         </is>
       </c>
       <c r="P1040" t="n">
-        <v>556</v>
+        <v>753</v>
       </c>
       <c r="Q1040" t="n">
         <v>18</v>
@@ -75285,7 +75285,7 @@
         </is>
       </c>
       <c r="D1041" s="2" t="n">
-        <v>44536</v>
+        <v>44398</v>
       </c>
       <c r="E1041" t="n">
         <v>13</v>
@@ -75309,16 +75309,16 @@
         </is>
       </c>
       <c r="J1041" t="n">
-        <v>910</v>
+        <v>480</v>
       </c>
       <c r="K1041" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="L1041" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="M1041" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="N1041" t="inlineStr">
         <is>
@@ -75327,11 +75327,11 @@
       </c>
       <c r="O1041" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1041" t="n">
-        <v>833</v>
+        <v>722</v>
       </c>
       <c r="Q1041" t="n">
         <v>18</v>
@@ -75357,7 +75357,7 @@
         </is>
       </c>
       <c r="D1042" s="2" t="n">
-        <v>44536</v>
+        <v>44398</v>
       </c>
       <c r="E1042" t="n">
         <v>13</v>
@@ -75381,16 +75381,16 @@
         </is>
       </c>
       <c r="J1042" t="n">
-        <v>840</v>
+        <v>500</v>
       </c>
       <c r="K1042" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="L1042" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="M1042" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="N1042" t="inlineStr">
         <is>
@@ -75399,11 +75399,11 @@
       </c>
       <c r="O1042" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1042" t="n">
-        <v>722</v>
+        <v>667</v>
       </c>
       <c r="Q1042" t="n">
         <v>18</v>
@@ -75429,7 +75429,7 @@
         </is>
       </c>
       <c r="D1043" s="2" t="n">
-        <v>44536</v>
+        <v>44398</v>
       </c>
       <c r="E1043" t="n">
         <v>13</v>
@@ -75453,16 +75453,16 @@
         </is>
       </c>
       <c r="J1043" t="n">
-        <v>780</v>
+        <v>260</v>
       </c>
       <c r="K1043" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="L1043" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="M1043" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="N1043" t="inlineStr">
         <is>
@@ -75471,11 +75471,11 @@
       </c>
       <c r="O1043" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1043" t="n">
-        <v>611</v>
+        <v>556</v>
       </c>
       <c r="Q1043" t="n">
         <v>18</v>
@@ -75501,7 +75501,7 @@
         </is>
       </c>
       <c r="D1044" s="2" t="n">
-        <v>44302</v>
+        <v>44536</v>
       </c>
       <c r="E1044" t="n">
         <v>13</v>
@@ -75525,16 +75525,16 @@
         </is>
       </c>
       <c r="J1044" t="n">
-        <v>240</v>
+        <v>910</v>
       </c>
       <c r="K1044" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="L1044" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="M1044" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="N1044" t="inlineStr">
         <is>
@@ -75543,11 +75543,11 @@
       </c>
       <c r="O1044" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P1044" t="n">
-        <v>667</v>
+        <v>833</v>
       </c>
       <c r="Q1044" t="n">
         <v>18</v>
@@ -75573,7 +75573,7 @@
         </is>
       </c>
       <c r="D1045" s="2" t="n">
-        <v>44302</v>
+        <v>44536</v>
       </c>
       <c r="E1045" t="n">
         <v>13</v>
@@ -75597,16 +75597,16 @@
         </is>
       </c>
       <c r="J1045" t="n">
-        <v>480</v>
+        <v>840</v>
       </c>
       <c r="K1045" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="L1045" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="M1045" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="N1045" t="inlineStr">
         <is>
@@ -75615,11 +75615,11 @@
       </c>
       <c r="O1045" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P1045" t="n">
-        <v>556</v>
+        <v>722</v>
       </c>
       <c r="Q1045" t="n">
         <v>18</v>
@@ -75645,7 +75645,7 @@
         </is>
       </c>
       <c r="D1046" s="2" t="n">
-        <v>44302</v>
+        <v>44536</v>
       </c>
       <c r="E1046" t="n">
         <v>13</v>
@@ -75669,16 +75669,16 @@
         </is>
       </c>
       <c r="J1046" t="n">
-        <v>360</v>
+        <v>780</v>
       </c>
       <c r="K1046" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="L1046" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="M1046" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="N1046" t="inlineStr">
         <is>
@@ -75687,11 +75687,11 @@
       </c>
       <c r="O1046" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P1046" t="n">
-        <v>444</v>
+        <v>611</v>
       </c>
       <c r="Q1046" t="n">
         <v>18</v>
@@ -75737,20 +75737,20 @@
       </c>
       <c r="I1047" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1047" t="n">
-        <v>180</v>
+        <v>240</v>
       </c>
       <c r="K1047" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="L1047" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="M1047" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="N1047" t="inlineStr">
         <is>
@@ -75763,7 +75763,7 @@
         </is>
       </c>
       <c r="P1047" t="n">
-        <v>389</v>
+        <v>667</v>
       </c>
       <c r="Q1047" t="n">
         <v>18</v>
@@ -75789,7 +75789,7 @@
         </is>
       </c>
       <c r="D1048" s="2" t="n">
-        <v>44511</v>
+        <v>44302</v>
       </c>
       <c r="E1048" t="n">
         <v>13</v>
@@ -75809,20 +75809,20 @@
       </c>
       <c r="I1048" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1048" t="n">
-        <v>930</v>
+        <v>480</v>
       </c>
       <c r="K1048" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="L1048" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="M1048" t="n">
-        <v>15516</v>
+        <v>10000</v>
       </c>
       <c r="N1048" t="inlineStr">
         <is>
@@ -75831,11 +75831,11 @@
       </c>
       <c r="O1048" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P1048" t="n">
-        <v>862</v>
+        <v>556</v>
       </c>
       <c r="Q1048" t="n">
         <v>18</v>
@@ -75861,7 +75861,7 @@
         </is>
       </c>
       <c r="D1049" s="2" t="n">
-        <v>44511</v>
+        <v>44302</v>
       </c>
       <c r="E1049" t="n">
         <v>13</v>
@@ -75881,20 +75881,20 @@
       </c>
       <c r="I1049" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1049" t="n">
-        <v>550</v>
+        <v>360</v>
       </c>
       <c r="K1049" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="L1049" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="M1049" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="N1049" t="inlineStr">
         <is>
@@ -75903,11 +75903,11 @@
       </c>
       <c r="O1049" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P1049" t="n">
-        <v>611</v>
+        <v>444</v>
       </c>
       <c r="Q1049" t="n">
         <v>18</v>
@@ -75933,7 +75933,7 @@
         </is>
       </c>
       <c r="D1050" s="2" t="n">
-        <v>44511</v>
+        <v>44302</v>
       </c>
       <c r="E1050" t="n">
         <v>13</v>
@@ -75953,20 +75953,20 @@
       </c>
       <c r="I1050" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J1050" t="n">
-        <v>970</v>
+        <v>180</v>
       </c>
       <c r="K1050" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="L1050" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="M1050" t="n">
-        <v>13464</v>
+        <v>7000</v>
       </c>
       <c r="N1050" t="inlineStr">
         <is>
@@ -75975,11 +75975,11 @@
       </c>
       <c r="O1050" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P1050" t="n">
-        <v>748</v>
+        <v>389</v>
       </c>
       <c r="Q1050" t="n">
         <v>18</v>
@@ -76025,20 +76025,20 @@
       </c>
       <c r="I1051" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1051" t="n">
-        <v>410</v>
+        <v>930</v>
       </c>
       <c r="K1051" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="L1051" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="M1051" t="n">
-        <v>10000</v>
+        <v>15516</v>
       </c>
       <c r="N1051" t="inlineStr">
         <is>
@@ -76047,11 +76047,11 @@
       </c>
       <c r="O1051" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P1051" t="n">
-        <v>556</v>
+        <v>862</v>
       </c>
       <c r="Q1051" t="n">
         <v>18</v>
@@ -76097,20 +76097,20 @@
       </c>
       <c r="I1052" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1052" t="n">
-        <v>1050</v>
+        <v>550</v>
       </c>
       <c r="K1052" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="L1052" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="M1052" t="n">
-        <v>8619</v>
+        <v>11000</v>
       </c>
       <c r="N1052" t="inlineStr">
         <is>
@@ -76119,11 +76119,11 @@
       </c>
       <c r="O1052" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1052" t="n">
-        <v>479</v>
+        <v>611</v>
       </c>
       <c r="Q1052" t="n">
         <v>18</v>
@@ -76169,20 +76169,20 @@
       </c>
       <c r="I1053" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1053" t="n">
-        <v>440</v>
+        <v>970</v>
       </c>
       <c r="K1053" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="L1053" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="M1053" t="n">
-        <v>7000</v>
+        <v>13464</v>
       </c>
       <c r="N1053" t="inlineStr">
         <is>
@@ -76191,11 +76191,11 @@
       </c>
       <c r="O1053" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P1053" t="n">
-        <v>389</v>
+        <v>748</v>
       </c>
       <c r="Q1053" t="n">
         <v>18</v>
@@ -76221,7 +76221,7 @@
         </is>
       </c>
       <c r="D1054" s="2" t="n">
-        <v>44239</v>
+        <v>44511</v>
       </c>
       <c r="E1054" t="n">
         <v>13</v>
@@ -76241,20 +76241,20 @@
       </c>
       <c r="I1054" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1054" t="n">
-        <v>200</v>
+        <v>410</v>
       </c>
       <c r="K1054" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="L1054" t="n">
         <v>10000</v>
       </c>
       <c r="M1054" t="n">
-        <v>9500</v>
+        <v>10000</v>
       </c>
       <c r="N1054" t="inlineStr">
         <is>
@@ -76263,11 +76263,11 @@
       </c>
       <c r="O1054" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1054" t="n">
-        <v>528</v>
+        <v>556</v>
       </c>
       <c r="Q1054" t="n">
         <v>18</v>
@@ -76293,7 +76293,7 @@
         </is>
       </c>
       <c r="D1055" s="2" t="n">
-        <v>44239</v>
+        <v>44511</v>
       </c>
       <c r="E1055" t="n">
         <v>13</v>
@@ -76313,20 +76313,20 @@
       </c>
       <c r="I1055" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1055" t="n">
-        <v>240</v>
+        <v>1050</v>
       </c>
       <c r="K1055" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L1055" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M1055" t="n">
-        <v>7500</v>
+        <v>8619</v>
       </c>
       <c r="N1055" t="inlineStr">
         <is>
@@ -76335,11 +76335,11 @@
       </c>
       <c r="O1055" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P1055" t="n">
-        <v>417</v>
+        <v>479</v>
       </c>
       <c r="Q1055" t="n">
         <v>18</v>
@@ -76365,7 +76365,7 @@
         </is>
       </c>
       <c r="D1056" s="2" t="n">
-        <v>44239</v>
+        <v>44511</v>
       </c>
       <c r="E1056" t="n">
         <v>13</v>
@@ -76389,16 +76389,16 @@
         </is>
       </c>
       <c r="J1056" t="n">
-        <v>150</v>
+        <v>440</v>
       </c>
       <c r="K1056" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="L1056" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="M1056" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="N1056" t="inlineStr">
         <is>
@@ -76407,11 +76407,11 @@
       </c>
       <c r="O1056" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1056" t="n">
-        <v>278</v>
+        <v>389</v>
       </c>
       <c r="Q1056" t="n">
         <v>18</v>
@@ -76437,7 +76437,7 @@
         </is>
       </c>
       <c r="D1057" s="2" t="n">
-        <v>44344</v>
+        <v>44239</v>
       </c>
       <c r="E1057" t="n">
         <v>13</v>
@@ -76461,16 +76461,16 @@
         </is>
       </c>
       <c r="J1057" t="n">
-        <v>830</v>
+        <v>200</v>
       </c>
       <c r="K1057" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="L1057" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M1057" t="n">
-        <v>11542</v>
+        <v>9500</v>
       </c>
       <c r="N1057" t="inlineStr">
         <is>
@@ -76483,7 +76483,7 @@
         </is>
       </c>
       <c r="P1057" t="n">
-        <v>641</v>
+        <v>528</v>
       </c>
       <c r="Q1057" t="n">
         <v>18</v>
@@ -76509,7 +76509,7 @@
         </is>
       </c>
       <c r="D1058" s="2" t="n">
-        <v>44344</v>
+        <v>44239</v>
       </c>
       <c r="E1058" t="n">
         <v>13</v>
@@ -76533,16 +76533,16 @@
         </is>
       </c>
       <c r="J1058" t="n">
-        <v>1000</v>
+        <v>240</v>
       </c>
       <c r="K1058" t="n">
-        <v>9500</v>
+        <v>7000</v>
       </c>
       <c r="L1058" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M1058" t="n">
-        <v>9720</v>
+        <v>7500</v>
       </c>
       <c r="N1058" t="inlineStr">
         <is>
@@ -76555,7 +76555,7 @@
         </is>
       </c>
       <c r="P1058" t="n">
-        <v>540</v>
+        <v>417</v>
       </c>
       <c r="Q1058" t="n">
         <v>18</v>
@@ -76581,7 +76581,7 @@
         </is>
       </c>
       <c r="D1059" s="2" t="n">
-        <v>44344</v>
+        <v>44239</v>
       </c>
       <c r="E1059" t="n">
         <v>13</v>
@@ -76605,16 +76605,16 @@
         </is>
       </c>
       <c r="J1059" t="n">
-        <v>590</v>
+        <v>150</v>
       </c>
       <c r="K1059" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="L1059" t="n">
-        <v>6500</v>
+        <v>5000</v>
       </c>
       <c r="M1059" t="n">
-        <v>6246</v>
+        <v>5000</v>
       </c>
       <c r="N1059" t="inlineStr">
         <is>
@@ -76627,7 +76627,7 @@
         </is>
       </c>
       <c r="P1059" t="n">
-        <v>347</v>
+        <v>278</v>
       </c>
       <c r="Q1059" t="n">
         <v>18</v>
@@ -76653,7 +76653,7 @@
         </is>
       </c>
       <c r="D1060" s="2" t="n">
-        <v>44461</v>
+        <v>44344</v>
       </c>
       <c r="E1060" t="n">
         <v>13</v>
@@ -76677,16 +76677,16 @@
         </is>
       </c>
       <c r="J1060" t="n">
-        <v>880</v>
+        <v>830</v>
       </c>
       <c r="K1060" t="n">
-        <v>22000</v>
+        <v>11000</v>
       </c>
       <c r="L1060" t="n">
-        <v>23000</v>
+        <v>12000</v>
       </c>
       <c r="M1060" t="n">
-        <v>22466</v>
+        <v>11542</v>
       </c>
       <c r="N1060" t="inlineStr">
         <is>
@@ -76695,11 +76695,11 @@
       </c>
       <c r="O1060" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P1060" t="n">
-        <v>1248</v>
+        <v>641</v>
       </c>
       <c r="Q1060" t="n">
         <v>18</v>
@@ -76725,7 +76725,7 @@
         </is>
       </c>
       <c r="D1061" s="2" t="n">
-        <v>44461</v>
+        <v>44344</v>
       </c>
       <c r="E1061" t="n">
         <v>13</v>
@@ -76749,16 +76749,16 @@
         </is>
       </c>
       <c r="J1061" t="n">
-        <v>790</v>
+        <v>1000</v>
       </c>
       <c r="K1061" t="n">
-        <v>19000</v>
+        <v>9500</v>
       </c>
       <c r="L1061" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="M1061" t="n">
-        <v>19519</v>
+        <v>9720</v>
       </c>
       <c r="N1061" t="inlineStr">
         <is>
@@ -76767,11 +76767,11 @@
       </c>
       <c r="O1061" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P1061" t="n">
-        <v>1084</v>
+        <v>540</v>
       </c>
       <c r="Q1061" t="n">
         <v>18</v>
@@ -76797,7 +76797,7 @@
         </is>
       </c>
       <c r="D1062" s="2" t="n">
-        <v>44461</v>
+        <v>44344</v>
       </c>
       <c r="E1062" t="n">
         <v>13</v>
@@ -76821,16 +76821,16 @@
         </is>
       </c>
       <c r="J1062" t="n">
-        <v>780</v>
+        <v>590</v>
       </c>
       <c r="K1062" t="n">
-        <v>17000</v>
+        <v>6000</v>
       </c>
       <c r="L1062" t="n">
-        <v>18000</v>
+        <v>6500</v>
       </c>
       <c r="M1062" t="n">
-        <v>17487</v>
+        <v>6246</v>
       </c>
       <c r="N1062" t="inlineStr">
         <is>
@@ -76839,11 +76839,11 @@
       </c>
       <c r="O1062" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P1062" t="n">
-        <v>972</v>
+        <v>347</v>
       </c>
       <c r="Q1062" t="n">
         <v>18</v>
@@ -76869,7 +76869,7 @@
         </is>
       </c>
       <c r="D1063" s="2" t="n">
-        <v>44463</v>
+        <v>44461</v>
       </c>
       <c r="E1063" t="n">
         <v>13</v>
@@ -76893,16 +76893,16 @@
         </is>
       </c>
       <c r="J1063" t="n">
-        <v>700</v>
+        <v>880</v>
       </c>
       <c r="K1063" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="L1063" t="n">
-        <v>16000</v>
+        <v>23000</v>
       </c>
       <c r="M1063" t="n">
-        <v>15571</v>
+        <v>22466</v>
       </c>
       <c r="N1063" t="inlineStr">
         <is>
@@ -76915,7 +76915,7 @@
         </is>
       </c>
       <c r="P1063" t="n">
-        <v>865</v>
+        <v>1248</v>
       </c>
       <c r="Q1063" t="n">
         <v>18</v>
@@ -76941,7 +76941,7 @@
         </is>
       </c>
       <c r="D1064" s="2" t="n">
-        <v>44463</v>
+        <v>44461</v>
       </c>
       <c r="E1064" t="n">
         <v>13</v>
@@ -76968,13 +76968,13 @@
         <v>790</v>
       </c>
       <c r="K1064" t="n">
-        <v>13000</v>
+        <v>19000</v>
       </c>
       <c r="L1064" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="M1064" t="n">
-        <v>13519</v>
+        <v>19519</v>
       </c>
       <c r="N1064" t="inlineStr">
         <is>
@@ -76987,7 +76987,7 @@
         </is>
       </c>
       <c r="P1064" t="n">
-        <v>751</v>
+        <v>1084</v>
       </c>
       <c r="Q1064" t="n">
         <v>18</v>
@@ -77013,7 +77013,7 @@
         </is>
       </c>
       <c r="D1065" s="2" t="n">
-        <v>44463</v>
+        <v>44461</v>
       </c>
       <c r="E1065" t="n">
         <v>13</v>
@@ -77037,16 +77037,16 @@
         </is>
       </c>
       <c r="J1065" t="n">
-        <v>650</v>
+        <v>780</v>
       </c>
       <c r="K1065" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="L1065" t="n">
-        <v>11000</v>
+        <v>18000</v>
       </c>
       <c r="M1065" t="n">
-        <v>10538</v>
+        <v>17487</v>
       </c>
       <c r="N1065" t="inlineStr">
         <is>
@@ -77059,7 +77059,7 @@
         </is>
       </c>
       <c r="P1065" t="n">
-        <v>585</v>
+        <v>972</v>
       </c>
       <c r="Q1065" t="n">
         <v>18</v>
@@ -77085,7 +77085,7 @@
         </is>
       </c>
       <c r="D1066" s="2" t="n">
-        <v>44357</v>
+        <v>44463</v>
       </c>
       <c r="E1066" t="n">
         <v>13</v>
@@ -77109,16 +77109,16 @@
         </is>
       </c>
       <c r="J1066" t="n">
-        <v>340</v>
+        <v>700</v>
       </c>
       <c r="K1066" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="L1066" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="M1066" t="n">
-        <v>12500</v>
+        <v>15571</v>
       </c>
       <c r="N1066" t="inlineStr">
         <is>
@@ -77131,7 +77131,7 @@
         </is>
       </c>
       <c r="P1066" t="n">
-        <v>694</v>
+        <v>865</v>
       </c>
       <c r="Q1066" t="n">
         <v>18</v>
@@ -77157,7 +77157,7 @@
         </is>
       </c>
       <c r="D1067" s="2" t="n">
-        <v>44357</v>
+        <v>44463</v>
       </c>
       <c r="E1067" t="n">
         <v>13</v>
@@ -77181,16 +77181,16 @@
         </is>
       </c>
       <c r="J1067" t="n">
-        <v>300</v>
+        <v>790</v>
       </c>
       <c r="K1067" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="L1067" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="M1067" t="n">
-        <v>10500</v>
+        <v>13519</v>
       </c>
       <c r="N1067" t="inlineStr">
         <is>
@@ -77203,7 +77203,7 @@
         </is>
       </c>
       <c r="P1067" t="n">
-        <v>583</v>
+        <v>751</v>
       </c>
       <c r="Q1067" t="n">
         <v>18</v>
@@ -77229,7 +77229,7 @@
         </is>
       </c>
       <c r="D1068" s="2" t="n">
-        <v>44357</v>
+        <v>44463</v>
       </c>
       <c r="E1068" t="n">
         <v>13</v>
@@ -77253,16 +77253,16 @@
         </is>
       </c>
       <c r="J1068" t="n">
-        <v>240</v>
+        <v>650</v>
       </c>
       <c r="K1068" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="L1068" t="n">
-        <v>9500</v>
+        <v>11000</v>
       </c>
       <c r="M1068" t="n">
-        <v>9250</v>
+        <v>10538</v>
       </c>
       <c r="N1068" t="inlineStr">
         <is>
@@ -77275,7 +77275,7 @@
         </is>
       </c>
       <c r="P1068" t="n">
-        <v>514</v>
+        <v>585</v>
       </c>
       <c r="Q1068" t="n">
         <v>18</v>
@@ -77321,20 +77321,20 @@
       </c>
       <c r="I1069" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1069" t="n">
-        <v>200</v>
+        <v>340</v>
       </c>
       <c r="K1069" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="L1069" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="M1069" t="n">
-        <v>8000</v>
+        <v>12500</v>
       </c>
       <c r="N1069" t="inlineStr">
         <is>
@@ -77347,7 +77347,7 @@
         </is>
       </c>
       <c r="P1069" t="n">
-        <v>444</v>
+        <v>694</v>
       </c>
       <c r="Q1069" t="n">
         <v>18</v>
@@ -77373,7 +77373,7 @@
         </is>
       </c>
       <c r="D1070" s="2" t="n">
-        <v>44371</v>
+        <v>44357</v>
       </c>
       <c r="E1070" t="n">
         <v>13</v>
@@ -77393,20 +77393,20 @@
       </c>
       <c r="I1070" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1070" t="n">
-        <v>520</v>
+        <v>300</v>
       </c>
       <c r="K1070" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="L1070" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="M1070" t="n">
-        <v>8538</v>
+        <v>10500</v>
       </c>
       <c r="N1070" t="inlineStr">
         <is>
@@ -77415,11 +77415,11 @@
       </c>
       <c r="O1070" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1070" t="n">
-        <v>474</v>
+        <v>583</v>
       </c>
       <c r="Q1070" t="n">
         <v>18</v>
@@ -77445,7 +77445,7 @@
         </is>
       </c>
       <c r="D1071" s="2" t="n">
-        <v>44371</v>
+        <v>44357</v>
       </c>
       <c r="E1071" t="n">
         <v>13</v>
@@ -77465,20 +77465,20 @@
       </c>
       <c r="I1071" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1071" t="n">
-        <v>580</v>
+        <v>240</v>
       </c>
       <c r="K1071" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="L1071" t="n">
-        <v>12000</v>
+        <v>9500</v>
       </c>
       <c r="M1071" t="n">
-        <v>11517</v>
+        <v>9250</v>
       </c>
       <c r="N1071" t="inlineStr">
         <is>
@@ -77491,7 +77491,7 @@
         </is>
       </c>
       <c r="P1071" t="n">
-        <v>640</v>
+        <v>514</v>
       </c>
       <c r="Q1071" t="n">
         <v>18</v>
@@ -77517,7 +77517,7 @@
         </is>
       </c>
       <c r="D1072" s="2" t="n">
-        <v>44371</v>
+        <v>44357</v>
       </c>
       <c r="E1072" t="n">
         <v>13</v>
@@ -77537,20 +77537,20 @@
       </c>
       <c r="I1072" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J1072" t="n">
-        <v>680</v>
+        <v>200</v>
       </c>
       <c r="K1072" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L1072" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="M1072" t="n">
-        <v>7243</v>
+        <v>8000</v>
       </c>
       <c r="N1072" t="inlineStr">
         <is>
@@ -77559,11 +77559,11 @@
       </c>
       <c r="O1072" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1072" t="n">
-        <v>402</v>
+        <v>444</v>
       </c>
       <c r="Q1072" t="n">
         <v>18</v>
@@ -77609,20 +77609,20 @@
       </c>
       <c r="I1073" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1073" t="n">
-        <v>680</v>
+        <v>520</v>
       </c>
       <c r="K1073" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="L1073" t="n">
-        <v>10500</v>
+        <v>9000</v>
       </c>
       <c r="M1073" t="n">
-        <v>10206</v>
+        <v>8538</v>
       </c>
       <c r="N1073" t="inlineStr">
         <is>
@@ -77631,11 +77631,11 @@
       </c>
       <c r="O1073" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P1073" t="n">
-        <v>567</v>
+        <v>474</v>
       </c>
       <c r="Q1073" t="n">
         <v>18</v>
@@ -77681,20 +77681,20 @@
       </c>
       <c r="I1074" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1074" t="n">
-        <v>290</v>
+        <v>580</v>
       </c>
       <c r="K1074" t="n">
-        <v>5000</v>
+        <v>11000</v>
       </c>
       <c r="L1074" t="n">
-        <v>5500</v>
+        <v>12000</v>
       </c>
       <c r="M1074" t="n">
-        <v>5207</v>
+        <v>11517</v>
       </c>
       <c r="N1074" t="inlineStr">
         <is>
@@ -77703,11 +77703,11 @@
       </c>
       <c r="O1074" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1074" t="n">
-        <v>289</v>
+        <v>640</v>
       </c>
       <c r="Q1074" t="n">
         <v>18</v>
@@ -77753,20 +77753,20 @@
       </c>
       <c r="I1075" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1075" t="n">
-        <v>530</v>
+        <v>680</v>
       </c>
       <c r="K1075" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L1075" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="M1075" t="n">
-        <v>6472</v>
+        <v>7243</v>
       </c>
       <c r="N1075" t="inlineStr">
         <is>
@@ -77775,11 +77775,11 @@
       </c>
       <c r="O1075" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P1075" t="n">
-        <v>360</v>
+        <v>402</v>
       </c>
       <c r="Q1075" t="n">
         <v>18</v>
@@ -77805,7 +77805,7 @@
         </is>
       </c>
       <c r="D1076" s="2" t="n">
-        <v>44365</v>
+        <v>44371</v>
       </c>
       <c r="E1076" t="n">
         <v>13</v>
@@ -77825,20 +77825,20 @@
       </c>
       <c r="I1076" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1076" t="n">
-        <v>80</v>
+        <v>680</v>
       </c>
       <c r="K1076" t="n">
-        <v>1100</v>
+        <v>10000</v>
       </c>
       <c r="L1076" t="n">
-        <v>1100</v>
+        <v>10500</v>
       </c>
       <c r="M1076" t="n">
-        <v>1100</v>
+        <v>10206</v>
       </c>
       <c r="N1076" t="inlineStr">
         <is>
@@ -77851,7 +77851,7 @@
         </is>
       </c>
       <c r="P1076" t="n">
-        <v>61</v>
+        <v>567</v>
       </c>
       <c r="Q1076" t="n">
         <v>18</v>
@@ -77877,7 +77877,7 @@
         </is>
       </c>
       <c r="D1077" s="2" t="n">
-        <v>44365</v>
+        <v>44371</v>
       </c>
       <c r="E1077" t="n">
         <v>13</v>
@@ -77897,20 +77897,20 @@
       </c>
       <c r="I1077" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1077" t="n">
-        <v>120</v>
+        <v>290</v>
       </c>
       <c r="K1077" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="L1077" t="n">
-        <v>9000</v>
+        <v>5500</v>
       </c>
       <c r="M1077" t="n">
-        <v>9000</v>
+        <v>5207</v>
       </c>
       <c r="N1077" t="inlineStr">
         <is>
@@ -77919,11 +77919,11 @@
       </c>
       <c r="O1077" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P1077" t="n">
-        <v>500</v>
+        <v>289</v>
       </c>
       <c r="Q1077" t="n">
         <v>18</v>
@@ -77949,7 +77949,7 @@
         </is>
       </c>
       <c r="D1078" s="2" t="n">
-        <v>44365</v>
+        <v>44371</v>
       </c>
       <c r="E1078" t="n">
         <v>13</v>
@@ -77973,16 +77973,16 @@
         </is>
       </c>
       <c r="J1078" t="n">
-        <v>50</v>
+        <v>530</v>
       </c>
       <c r="K1078" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="L1078" t="n">
         <v>7000</v>
       </c>
       <c r="M1078" t="n">
-        <v>7000</v>
+        <v>6472</v>
       </c>
       <c r="N1078" t="inlineStr">
         <is>
@@ -77995,7 +77995,7 @@
         </is>
       </c>
       <c r="P1078" t="n">
-        <v>389</v>
+        <v>360</v>
       </c>
       <c r="Q1078" t="n">
         <v>18</v>
@@ -78021,7 +78021,7 @@
         </is>
       </c>
       <c r="D1079" s="2" t="n">
-        <v>44454</v>
+        <v>44365</v>
       </c>
       <c r="E1079" t="n">
         <v>13</v>
@@ -78045,16 +78045,16 @@
         </is>
       </c>
       <c r="J1079" t="n">
-        <v>890</v>
+        <v>80</v>
       </c>
       <c r="K1079" t="n">
-        <v>21000</v>
+        <v>1100</v>
       </c>
       <c r="L1079" t="n">
-        <v>22000</v>
+        <v>1100</v>
       </c>
       <c r="M1079" t="n">
-        <v>21506</v>
+        <v>1100</v>
       </c>
       <c r="N1079" t="inlineStr">
         <is>
@@ -78067,7 +78067,7 @@
         </is>
       </c>
       <c r="P1079" t="n">
-        <v>1195</v>
+        <v>61</v>
       </c>
       <c r="Q1079" t="n">
         <v>18</v>
@@ -78093,7 +78093,7 @@
         </is>
       </c>
       <c r="D1080" s="2" t="n">
-        <v>44454</v>
+        <v>44365</v>
       </c>
       <c r="E1080" t="n">
         <v>13</v>
@@ -78117,16 +78117,16 @@
         </is>
       </c>
       <c r="J1080" t="n">
-        <v>1170</v>
+        <v>120</v>
       </c>
       <c r="K1080" t="n">
-        <v>19000</v>
+        <v>9000</v>
       </c>
       <c r="L1080" t="n">
-        <v>20000</v>
+        <v>9000</v>
       </c>
       <c r="M1080" t="n">
-        <v>19427</v>
+        <v>9000</v>
       </c>
       <c r="N1080" t="inlineStr">
         <is>
@@ -78139,7 +78139,7 @@
         </is>
       </c>
       <c r="P1080" t="n">
-        <v>1079</v>
+        <v>500</v>
       </c>
       <c r="Q1080" t="n">
         <v>18</v>
@@ -78165,7 +78165,7 @@
         </is>
       </c>
       <c r="D1081" s="2" t="n">
-        <v>44454</v>
+        <v>44365</v>
       </c>
       <c r="E1081" t="n">
         <v>13</v>
@@ -78189,16 +78189,16 @@
         </is>
       </c>
       <c r="J1081" t="n">
-        <v>950</v>
+        <v>50</v>
       </c>
       <c r="K1081" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="L1081" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="M1081" t="n">
-        <v>14474</v>
+        <v>7000</v>
       </c>
       <c r="N1081" t="inlineStr">
         <is>
@@ -78211,7 +78211,7 @@
         </is>
       </c>
       <c r="P1081" t="n">
-        <v>804</v>
+        <v>389</v>
       </c>
       <c r="Q1081" t="n">
         <v>18</v>
@@ -78237,7 +78237,7 @@
         </is>
       </c>
       <c r="D1082" s="2" t="n">
-        <v>44194</v>
+        <v>44454</v>
       </c>
       <c r="E1082" t="n">
         <v>13</v>
@@ -78261,16 +78261,16 @@
         </is>
       </c>
       <c r="J1082" t="n">
-        <v>830</v>
+        <v>890</v>
       </c>
       <c r="K1082" t="n">
-        <v>18000</v>
+        <v>21000</v>
       </c>
       <c r="L1082" t="n">
-        <v>19000</v>
+        <v>22000</v>
       </c>
       <c r="M1082" t="n">
-        <v>18458</v>
+        <v>21506</v>
       </c>
       <c r="N1082" t="inlineStr">
         <is>
@@ -78279,11 +78279,11 @@
       </c>
       <c r="O1082" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1082" t="n">
-        <v>1025</v>
+        <v>1195</v>
       </c>
       <c r="Q1082" t="n">
         <v>18</v>
@@ -78309,7 +78309,7 @@
         </is>
       </c>
       <c r="D1083" s="2" t="n">
-        <v>44194</v>
+        <v>44454</v>
       </c>
       <c r="E1083" t="n">
         <v>13</v>
@@ -78333,16 +78333,16 @@
         </is>
       </c>
       <c r="J1083" t="n">
-        <v>1180</v>
+        <v>1170</v>
       </c>
       <c r="K1083" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="L1083" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="M1083" t="n">
-        <v>16525</v>
+        <v>19427</v>
       </c>
       <c r="N1083" t="inlineStr">
         <is>
@@ -78351,11 +78351,11 @@
       </c>
       <c r="O1083" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1083" t="n">
-        <v>918</v>
+        <v>1079</v>
       </c>
       <c r="Q1083" t="n">
         <v>18</v>
@@ -78381,7 +78381,7 @@
         </is>
       </c>
       <c r="D1084" s="2" t="n">
-        <v>44194</v>
+        <v>44454</v>
       </c>
       <c r="E1084" t="n">
         <v>13</v>
@@ -78405,16 +78405,16 @@
         </is>
       </c>
       <c r="J1084" t="n">
-        <v>960</v>
+        <v>950</v>
       </c>
       <c r="K1084" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L1084" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M1084" t="n">
-        <v>12583</v>
+        <v>14474</v>
       </c>
       <c r="N1084" t="inlineStr">
         <is>
@@ -78423,11 +78423,11 @@
       </c>
       <c r="O1084" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1084" t="n">
-        <v>699</v>
+        <v>804</v>
       </c>
       <c r="Q1084" t="n">
         <v>18</v>
@@ -78453,7 +78453,7 @@
         </is>
       </c>
       <c r="D1085" s="2" t="n">
-        <v>44313</v>
+        <v>44194</v>
       </c>
       <c r="E1085" t="n">
         <v>13</v>
@@ -78477,16 +78477,16 @@
         </is>
       </c>
       <c r="J1085" t="n">
-        <v>730</v>
+        <v>830</v>
       </c>
       <c r="K1085" t="n">
-        <v>9000</v>
+        <v>18000</v>
       </c>
       <c r="L1085" t="n">
-        <v>10000</v>
+        <v>19000</v>
       </c>
       <c r="M1085" t="n">
-        <v>9616</v>
+        <v>18458</v>
       </c>
       <c r="N1085" t="inlineStr">
         <is>
@@ -78499,7 +78499,7 @@
         </is>
       </c>
       <c r="P1085" t="n">
-        <v>534</v>
+        <v>1025</v>
       </c>
       <c r="Q1085" t="n">
         <v>18</v>
@@ -78525,7 +78525,7 @@
         </is>
       </c>
       <c r="D1086" s="2" t="n">
-        <v>44313</v>
+        <v>44194</v>
       </c>
       <c r="E1086" t="n">
         <v>13</v>
@@ -78549,16 +78549,16 @@
         </is>
       </c>
       <c r="J1086" t="n">
-        <v>1040</v>
+        <v>1180</v>
       </c>
       <c r="K1086" t="n">
-        <v>7000</v>
+        <v>16000</v>
       </c>
       <c r="L1086" t="n">
-        <v>8000</v>
+        <v>17000</v>
       </c>
       <c r="M1086" t="n">
-        <v>7538</v>
+        <v>16525</v>
       </c>
       <c r="N1086" t="inlineStr">
         <is>
@@ -78571,7 +78571,7 @@
         </is>
       </c>
       <c r="P1086" t="n">
-        <v>419</v>
+        <v>918</v>
       </c>
       <c r="Q1086" t="n">
         <v>18</v>
@@ -78597,7 +78597,7 @@
         </is>
       </c>
       <c r="D1087" s="2" t="n">
-        <v>44313</v>
+        <v>44194</v>
       </c>
       <c r="E1087" t="n">
         <v>13</v>
@@ -78621,16 +78621,16 @@
         </is>
       </c>
       <c r="J1087" t="n">
-        <v>720</v>
+        <v>960</v>
       </c>
       <c r="K1087" t="n">
-        <v>4500</v>
+        <v>12000</v>
       </c>
       <c r="L1087" t="n">
-        <v>5000</v>
+        <v>13000</v>
       </c>
       <c r="M1087" t="n">
-        <v>4792</v>
+        <v>12583</v>
       </c>
       <c r="N1087" t="inlineStr">
         <is>
@@ -78643,7 +78643,7 @@
         </is>
       </c>
       <c r="P1087" t="n">
-        <v>266</v>
+        <v>699</v>
       </c>
       <c r="Q1087" t="n">
         <v>18</v>
@@ -78669,7 +78669,7 @@
         </is>
       </c>
       <c r="D1088" s="2" t="n">
-        <v>44518</v>
+        <v>44313</v>
       </c>
       <c r="E1088" t="n">
         <v>13</v>
@@ -78693,16 +78693,16 @@
         </is>
       </c>
       <c r="J1088" t="n">
-        <v>1100</v>
+        <v>730</v>
       </c>
       <c r="K1088" t="n">
-        <v>16000</v>
+        <v>9000</v>
       </c>
       <c r="L1088" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="M1088" t="n">
-        <v>16000</v>
+        <v>9616</v>
       </c>
       <c r="N1088" t="inlineStr">
         <is>
@@ -78715,7 +78715,7 @@
         </is>
       </c>
       <c r="P1088" t="n">
-        <v>889</v>
+        <v>534</v>
       </c>
       <c r="Q1088" t="n">
         <v>18</v>
@@ -78741,7 +78741,7 @@
         </is>
       </c>
       <c r="D1089" s="2" t="n">
-        <v>44518</v>
+        <v>44313</v>
       </c>
       <c r="E1089" t="n">
         <v>13</v>
@@ -78761,20 +78761,20 @@
       </c>
       <c r="I1089" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1089" t="n">
-        <v>700</v>
+        <v>1040</v>
       </c>
       <c r="K1089" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="L1089" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="M1089" t="n">
-        <v>14000</v>
+        <v>7538</v>
       </c>
       <c r="N1089" t="inlineStr">
         <is>
@@ -78783,11 +78783,11 @@
       </c>
       <c r="O1089" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P1089" t="n">
-        <v>778</v>
+        <v>419</v>
       </c>
       <c r="Q1089" t="n">
         <v>18</v>
@@ -78813,7 +78813,7 @@
         </is>
       </c>
       <c r="D1090" s="2" t="n">
-        <v>44518</v>
+        <v>44313</v>
       </c>
       <c r="E1090" t="n">
         <v>13</v>
@@ -78833,20 +78833,20 @@
       </c>
       <c r="I1090" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1090" t="n">
-        <v>1200</v>
+        <v>720</v>
       </c>
       <c r="K1090" t="n">
-        <v>15000</v>
+        <v>4500</v>
       </c>
       <c r="L1090" t="n">
-        <v>15000</v>
+        <v>5000</v>
       </c>
       <c r="M1090" t="n">
-        <v>15000</v>
+        <v>4792</v>
       </c>
       <c r="N1090" t="inlineStr">
         <is>
@@ -78859,7 +78859,7 @@
         </is>
       </c>
       <c r="P1090" t="n">
-        <v>833</v>
+        <v>266</v>
       </c>
       <c r="Q1090" t="n">
         <v>18</v>
@@ -78905,20 +78905,20 @@
       </c>
       <c r="I1091" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1091" t="n">
-        <v>680</v>
+        <v>1100</v>
       </c>
       <c r="K1091" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="L1091" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="M1091" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="N1091" t="inlineStr">
         <is>
@@ -78927,11 +78927,11 @@
       </c>
       <c r="O1091" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P1091" t="n">
-        <v>667</v>
+        <v>889</v>
       </c>
       <c r="Q1091" t="n">
         <v>18</v>
@@ -78977,11 +78977,11 @@
       </c>
       <c r="I1092" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1092" t="n">
-        <v>950</v>
+        <v>700</v>
       </c>
       <c r="K1092" t="n">
         <v>14000</v>
@@ -78999,7 +78999,7 @@
       </c>
       <c r="O1092" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1092" t="n">
@@ -79049,20 +79049,20 @@
       </c>
       <c r="I1093" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1093" t="n">
-        <v>650</v>
+        <v>1200</v>
       </c>
       <c r="K1093" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="L1093" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="M1093" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="N1093" t="inlineStr">
         <is>
@@ -79071,11 +79071,11 @@
       </c>
       <c r="O1093" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P1093" t="n">
-        <v>556</v>
+        <v>833</v>
       </c>
       <c r="Q1093" t="n">
         <v>18</v>
@@ -79101,7 +79101,7 @@
         </is>
       </c>
       <c r="D1094" s="2" t="n">
-        <v>44540</v>
+        <v>44518</v>
       </c>
       <c r="E1094" t="n">
         <v>13</v>
@@ -79121,20 +79121,20 @@
       </c>
       <c r="I1094" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1094" t="n">
-        <v>980</v>
+        <v>680</v>
       </c>
       <c r="K1094" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="L1094" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="M1094" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="N1094" t="inlineStr">
         <is>
@@ -79143,11 +79143,11 @@
       </c>
       <c r="O1094" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1094" t="n">
-        <v>833</v>
+        <v>667</v>
       </c>
       <c r="Q1094" t="n">
         <v>18</v>
@@ -79173,7 +79173,7 @@
         </is>
       </c>
       <c r="D1095" s="2" t="n">
-        <v>44540</v>
+        <v>44518</v>
       </c>
       <c r="E1095" t="n">
         <v>13</v>
@@ -79193,20 +79193,20 @@
       </c>
       <c r="I1095" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1095" t="n">
-        <v>1100</v>
+        <v>950</v>
       </c>
       <c r="K1095" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L1095" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="M1095" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="N1095" t="inlineStr">
         <is>
@@ -79219,7 +79219,7 @@
         </is>
       </c>
       <c r="P1095" t="n">
-        <v>722</v>
+        <v>778</v>
       </c>
       <c r="Q1095" t="n">
         <v>18</v>
@@ -79245,7 +79245,7 @@
         </is>
       </c>
       <c r="D1096" s="2" t="n">
-        <v>44540</v>
+        <v>44518</v>
       </c>
       <c r="E1096" t="n">
         <v>13</v>
@@ -79269,16 +79269,16 @@
         </is>
       </c>
       <c r="J1096" t="n">
-        <v>950</v>
+        <v>650</v>
       </c>
       <c r="K1096" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="L1096" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="M1096" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="N1096" t="inlineStr">
         <is>
@@ -79287,11 +79287,11 @@
       </c>
       <c r="O1096" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1096" t="n">
-        <v>611</v>
+        <v>556</v>
       </c>
       <c r="Q1096" t="n">
         <v>18</v>
@@ -79317,7 +79317,7 @@
         </is>
       </c>
       <c r="D1097" s="2" t="n">
-        <v>44272</v>
+        <v>44540</v>
       </c>
       <c r="E1097" t="n">
         <v>13</v>
@@ -79341,16 +79341,16 @@
         </is>
       </c>
       <c r="J1097" t="n">
-        <v>700</v>
+        <v>980</v>
       </c>
       <c r="K1097" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="L1097" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="M1097" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="N1097" t="inlineStr">
         <is>
@@ -79359,11 +79359,11 @@
       </c>
       <c r="O1097" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P1097" t="n">
-        <v>556</v>
+        <v>833</v>
       </c>
       <c r="Q1097" t="n">
         <v>18</v>
@@ -79389,7 +79389,7 @@
         </is>
       </c>
       <c r="D1098" s="2" t="n">
-        <v>44272</v>
+        <v>44540</v>
       </c>
       <c r="E1098" t="n">
         <v>13</v>
@@ -79413,16 +79413,16 @@
         </is>
       </c>
       <c r="J1098" t="n">
-        <v>640</v>
+        <v>1100</v>
       </c>
       <c r="K1098" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="L1098" t="n">
-        <v>8500</v>
+        <v>13000</v>
       </c>
       <c r="M1098" t="n">
-        <v>8203</v>
+        <v>13000</v>
       </c>
       <c r="N1098" t="inlineStr">
         <is>
@@ -79431,11 +79431,11 @@
       </c>
       <c r="O1098" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P1098" t="n">
-        <v>456</v>
+        <v>722</v>
       </c>
       <c r="Q1098" t="n">
         <v>18</v>
@@ -79461,58 +79461,274 @@
         </is>
       </c>
       <c r="D1099" s="2" t="n">
+        <v>44540</v>
+      </c>
+      <c r="E1099" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1099" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G1099" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H1099" t="inlineStr">
+        <is>
+          <t>Larga vida</t>
+        </is>
+      </c>
+      <c r="I1099" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J1099" t="n">
+        <v>950</v>
+      </c>
+      <c r="K1099" t="n">
+        <v>11000</v>
+      </c>
+      <c r="L1099" t="n">
+        <v>11000</v>
+      </c>
+      <c r="M1099" t="n">
+        <v>11000</v>
+      </c>
+      <c r="N1099" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O1099" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="P1099" t="n">
+        <v>611</v>
+      </c>
+      <c r="Q1099" t="n">
+        <v>18</v>
+      </c>
+      <c r="R1099" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1100">
+      <c r="A1100" t="n">
+        <v>12</v>
+      </c>
+      <c r="B1100" t="inlineStr">
+        <is>
+          <t>Mapocho Venta Directa de Santiago</t>
+        </is>
+      </c>
+      <c r="C1100" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1100" s="2" t="n">
         <v>44272</v>
       </c>
-      <c r="E1099" t="n">
-        <v>13</v>
-      </c>
-      <c r="F1099" t="n">
-        <v>100112020</v>
-      </c>
-      <c r="G1099" t="inlineStr">
-        <is>
-          <t>Tomate</t>
-        </is>
-      </c>
-      <c r="H1099" t="inlineStr">
-        <is>
-          <t>Larga vida</t>
-        </is>
-      </c>
-      <c r="I1099" t="inlineStr">
+      <c r="E1100" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1100" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G1100" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H1100" t="inlineStr">
+        <is>
+          <t>Larga vida</t>
+        </is>
+      </c>
+      <c r="I1100" t="inlineStr">
+        <is>
+          <t>Extra</t>
+        </is>
+      </c>
+      <c r="J1100" t="n">
+        <v>700</v>
+      </c>
+      <c r="K1100" t="n">
+        <v>10000</v>
+      </c>
+      <c r="L1100" t="n">
+        <v>10000</v>
+      </c>
+      <c r="M1100" t="n">
+        <v>10000</v>
+      </c>
+      <c r="N1100" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O1100" t="inlineStr">
+        <is>
+          <t>Limache</t>
+        </is>
+      </c>
+      <c r="P1100" t="n">
+        <v>556</v>
+      </c>
+      <c r="Q1100" t="n">
+        <v>18</v>
+      </c>
+      <c r="R1100" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1101">
+      <c r="A1101" t="n">
+        <v>12</v>
+      </c>
+      <c r="B1101" t="inlineStr">
+        <is>
+          <t>Mapocho Venta Directa de Santiago</t>
+        </is>
+      </c>
+      <c r="C1101" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1101" s="2" t="n">
+        <v>44272</v>
+      </c>
+      <c r="E1101" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1101" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G1101" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H1101" t="inlineStr">
+        <is>
+          <t>Larga vida</t>
+        </is>
+      </c>
+      <c r="I1101" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1101" t="n">
+        <v>640</v>
+      </c>
+      <c r="K1101" t="n">
+        <v>8000</v>
+      </c>
+      <c r="L1101" t="n">
+        <v>8500</v>
+      </c>
+      <c r="M1101" t="n">
+        <v>8203</v>
+      </c>
+      <c r="N1101" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O1101" t="inlineStr">
+        <is>
+          <t>Limache</t>
+        </is>
+      </c>
+      <c r="P1101" t="n">
+        <v>456</v>
+      </c>
+      <c r="Q1101" t="n">
+        <v>18</v>
+      </c>
+      <c r="R1101" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1102">
+      <c r="A1102" t="n">
+        <v>12</v>
+      </c>
+      <c r="B1102" t="inlineStr">
+        <is>
+          <t>Mapocho Venta Directa de Santiago</t>
+        </is>
+      </c>
+      <c r="C1102" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1102" s="2" t="n">
+        <v>44272</v>
+      </c>
+      <c r="E1102" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1102" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G1102" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H1102" t="inlineStr">
+        <is>
+          <t>Larga vida</t>
+        </is>
+      </c>
+      <c r="I1102" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="J1099" t="n">
+      <c r="J1102" t="n">
         <v>395</v>
       </c>
-      <c r="K1099" t="n">
+      <c r="K1102" t="n">
         <v>4500</v>
       </c>
-      <c r="L1099" t="n">
+      <c r="L1102" t="n">
         <v>5000</v>
       </c>
-      <c r="M1099" t="n">
+      <c r="M1102" t="n">
         <v>4715</v>
       </c>
-      <c r="N1099" t="inlineStr">
-        <is>
-          <t>$/bandeja 18 kilos</t>
-        </is>
-      </c>
-      <c r="O1099" t="inlineStr">
+      <c r="N1102" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O1102" t="inlineStr">
         <is>
           <t>Limache</t>
         </is>
       </c>
-      <c r="P1099" t="n">
+      <c r="P1102" t="n">
         <v>262</v>
       </c>
-      <c r="Q1099" t="n">
-        <v>18</v>
-      </c>
-      <c r="R1099" t="inlineStr">
+      <c r="Q1102" t="n">
+        <v>18</v>
+      </c>
+      <c r="R1102" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Tomate.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Tomate.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1120"/>
+  <dimension ref="A1:R1123"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -65061,7 +65061,7 @@
         </is>
       </c>
       <c r="D899" s="2" t="n">
-        <v>44386</v>
+        <v>44551</v>
       </c>
       <c r="E899" t="n">
         <v>13</v>
@@ -65085,16 +65085,16 @@
         </is>
       </c>
       <c r="J899" t="n">
-        <v>690</v>
+        <v>1100</v>
       </c>
       <c r="K899" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="L899" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="M899" t="n">
-        <v>17565</v>
+        <v>15000</v>
       </c>
       <c r="N899" t="inlineStr">
         <is>
@@ -65103,11 +65103,11 @@
       </c>
       <c r="O899" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P899" t="n">
-        <v>976</v>
+        <v>833</v>
       </c>
       <c r="Q899" t="n">
         <v>18</v>
@@ -65133,7 +65133,7 @@
         </is>
       </c>
       <c r="D900" s="2" t="n">
-        <v>44386</v>
+        <v>44551</v>
       </c>
       <c r="E900" t="n">
         <v>13</v>
@@ -65157,16 +65157,16 @@
         </is>
       </c>
       <c r="J900" t="n">
-        <v>420</v>
+        <v>1200</v>
       </c>
       <c r="K900" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="L900" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="M900" t="n">
-        <v>11476</v>
+        <v>13000</v>
       </c>
       <c r="N900" t="inlineStr">
         <is>
@@ -65179,7 +65179,7 @@
         </is>
       </c>
       <c r="P900" t="n">
-        <v>638</v>
+        <v>722</v>
       </c>
       <c r="Q900" t="n">
         <v>18</v>
@@ -65205,7 +65205,7 @@
         </is>
       </c>
       <c r="D901" s="2" t="n">
-        <v>44386</v>
+        <v>44551</v>
       </c>
       <c r="E901" t="n">
         <v>13</v>
@@ -65225,20 +65225,20 @@
       </c>
       <c r="I901" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J901" t="n">
-        <v>870</v>
+        <v>950</v>
       </c>
       <c r="K901" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="L901" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="M901" t="n">
-        <v>14575</v>
+        <v>11000</v>
       </c>
       <c r="N901" t="inlineStr">
         <is>
@@ -65247,11 +65247,11 @@
       </c>
       <c r="O901" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P901" t="n">
-        <v>810</v>
+        <v>611</v>
       </c>
       <c r="Q901" t="n">
         <v>18</v>
@@ -65297,20 +65297,20 @@
       </c>
       <c r="I902" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J902" t="n">
-        <v>330</v>
+        <v>690</v>
       </c>
       <c r="K902" t="n">
-        <v>8000</v>
+        <v>17000</v>
       </c>
       <c r="L902" t="n">
-        <v>9000</v>
+        <v>18000</v>
       </c>
       <c r="M902" t="n">
-        <v>8606</v>
+        <v>17565</v>
       </c>
       <c r="N902" t="inlineStr">
         <is>
@@ -65319,11 +65319,11 @@
       </c>
       <c r="O902" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P902" t="n">
-        <v>478</v>
+        <v>976</v>
       </c>
       <c r="Q902" t="n">
         <v>18</v>
@@ -65369,20 +65369,20 @@
       </c>
       <c r="I903" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J903" t="n">
-        <v>630</v>
+        <v>420</v>
       </c>
       <c r="K903" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="L903" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="M903" t="n">
-        <v>10524</v>
+        <v>11476</v>
       </c>
       <c r="N903" t="inlineStr">
         <is>
@@ -65391,11 +65391,11 @@
       </c>
       <c r="O903" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P903" t="n">
-        <v>585</v>
+        <v>638</v>
       </c>
       <c r="Q903" t="n">
         <v>18</v>
@@ -65421,7 +65421,7 @@
         </is>
       </c>
       <c r="D904" s="2" t="n">
-        <v>44519</v>
+        <v>44386</v>
       </c>
       <c r="E904" t="n">
         <v>13</v>
@@ -65441,20 +65441,20 @@
       </c>
       <c r="I904" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J904" t="n">
-        <v>1360</v>
+        <v>870</v>
       </c>
       <c r="K904" t="n">
+        <v>14000</v>
+      </c>
+      <c r="L904" t="n">
         <v>15000</v>
       </c>
-      <c r="L904" t="n">
-        <v>16000</v>
-      </c>
       <c r="M904" t="n">
-        <v>15478</v>
+        <v>14575</v>
       </c>
       <c r="N904" t="inlineStr">
         <is>
@@ -65463,11 +65463,11 @@
       </c>
       <c r="O904" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P904" t="n">
-        <v>860</v>
+        <v>810</v>
       </c>
       <c r="Q904" t="n">
         <v>18</v>
@@ -65493,7 +65493,7 @@
         </is>
       </c>
       <c r="D905" s="2" t="n">
-        <v>44519</v>
+        <v>44386</v>
       </c>
       <c r="E905" t="n">
         <v>13</v>
@@ -65513,20 +65513,20 @@
       </c>
       <c r="I905" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J905" t="n">
-        <v>1050</v>
+        <v>330</v>
       </c>
       <c r="K905" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="L905" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="M905" t="n">
-        <v>14476</v>
+        <v>8606</v>
       </c>
       <c r="N905" t="inlineStr">
         <is>
@@ -65539,7 +65539,7 @@
         </is>
       </c>
       <c r="P905" t="n">
-        <v>804</v>
+        <v>478</v>
       </c>
       <c r="Q905" t="n">
         <v>18</v>
@@ -65565,7 +65565,7 @@
         </is>
       </c>
       <c r="D906" s="2" t="n">
-        <v>44519</v>
+        <v>44386</v>
       </c>
       <c r="E906" t="n">
         <v>13</v>
@@ -65589,16 +65589,16 @@
         </is>
       </c>
       <c r="J906" t="n">
-        <v>1020</v>
+        <v>630</v>
       </c>
       <c r="K906" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="L906" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="M906" t="n">
-        <v>13451</v>
+        <v>10524</v>
       </c>
       <c r="N906" t="inlineStr">
         <is>
@@ -65607,11 +65607,11 @@
       </c>
       <c r="O906" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P906" t="n">
-        <v>747</v>
+        <v>585</v>
       </c>
       <c r="Q906" t="n">
         <v>18</v>
@@ -65637,7 +65637,7 @@
         </is>
       </c>
       <c r="D907" s="2" t="n">
-        <v>44420</v>
+        <v>44519</v>
       </c>
       <c r="E907" t="n">
         <v>13</v>
@@ -65661,16 +65661,16 @@
         </is>
       </c>
       <c r="J907" t="n">
-        <v>770</v>
+        <v>1360</v>
       </c>
       <c r="K907" t="n">
-        <v>7500</v>
+        <v>15000</v>
       </c>
       <c r="L907" t="n">
-        <v>8000</v>
+        <v>16000</v>
       </c>
       <c r="M907" t="n">
-        <v>7760</v>
+        <v>15478</v>
       </c>
       <c r="N907" t="inlineStr">
         <is>
@@ -65683,7 +65683,7 @@
         </is>
       </c>
       <c r="P907" t="n">
-        <v>431</v>
+        <v>860</v>
       </c>
       <c r="Q907" t="n">
         <v>18</v>
@@ -65709,7 +65709,7 @@
         </is>
       </c>
       <c r="D908" s="2" t="n">
-        <v>44420</v>
+        <v>44519</v>
       </c>
       <c r="E908" t="n">
         <v>13</v>
@@ -65729,20 +65729,20 @@
       </c>
       <c r="I908" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J908" t="n">
-        <v>1040</v>
+        <v>1050</v>
       </c>
       <c r="K908" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="L908" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="M908" t="n">
-        <v>11538</v>
+        <v>14476</v>
       </c>
       <c r="N908" t="inlineStr">
         <is>
@@ -65751,11 +65751,11 @@
       </c>
       <c r="O908" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P908" t="n">
-        <v>641</v>
+        <v>804</v>
       </c>
       <c r="Q908" t="n">
         <v>18</v>
@@ -65781,7 +65781,7 @@
         </is>
       </c>
       <c r="D909" s="2" t="n">
-        <v>44420</v>
+        <v>44519</v>
       </c>
       <c r="E909" t="n">
         <v>13</v>
@@ -65801,20 +65801,20 @@
       </c>
       <c r="I909" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J909" t="n">
-        <v>990</v>
+        <v>1020</v>
       </c>
       <c r="K909" t="n">
-        <v>5000</v>
+        <v>13000</v>
       </c>
       <c r="L909" t="n">
-        <v>6000</v>
+        <v>14000</v>
       </c>
       <c r="M909" t="n">
-        <v>5596</v>
+        <v>13451</v>
       </c>
       <c r="N909" t="inlineStr">
         <is>
@@ -65827,7 +65827,7 @@
         </is>
       </c>
       <c r="P909" t="n">
-        <v>311</v>
+        <v>747</v>
       </c>
       <c r="Q909" t="n">
         <v>18</v>
@@ -65873,20 +65873,20 @@
       </c>
       <c r="I910" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J910" t="n">
-        <v>1220</v>
+        <v>770</v>
       </c>
       <c r="K910" t="n">
-        <v>9000</v>
+        <v>7500</v>
       </c>
       <c r="L910" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M910" t="n">
-        <v>9475</v>
+        <v>7760</v>
       </c>
       <c r="N910" t="inlineStr">
         <is>
@@ -65895,11 +65895,11 @@
       </c>
       <c r="O910" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P910" t="n">
-        <v>526</v>
+        <v>431</v>
       </c>
       <c r="Q910" t="n">
         <v>18</v>
@@ -65945,20 +65945,20 @@
       </c>
       <c r="I911" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J911" t="n">
-        <v>880</v>
+        <v>1040</v>
       </c>
       <c r="K911" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="L911" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="M911" t="n">
-        <v>6545</v>
+        <v>11538</v>
       </c>
       <c r="N911" t="inlineStr">
         <is>
@@ -65971,7 +65971,7 @@
         </is>
       </c>
       <c r="P911" t="n">
-        <v>364</v>
+        <v>641</v>
       </c>
       <c r="Q911" t="n">
         <v>18</v>
@@ -65997,7 +65997,7 @@
         </is>
       </c>
       <c r="D912" s="2" t="n">
-        <v>44414</v>
+        <v>44420</v>
       </c>
       <c r="E912" t="n">
         <v>13</v>
@@ -66017,20 +66017,20 @@
       </c>
       <c r="I912" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J912" t="n">
-        <v>380</v>
+        <v>990</v>
       </c>
       <c r="K912" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="L912" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="M912" t="n">
-        <v>9000</v>
+        <v>5596</v>
       </c>
       <c r="N912" t="inlineStr">
         <is>
@@ -66043,7 +66043,7 @@
         </is>
       </c>
       <c r="P912" t="n">
-        <v>500</v>
+        <v>311</v>
       </c>
       <c r="Q912" t="n">
         <v>18</v>
@@ -66069,7 +66069,7 @@
         </is>
       </c>
       <c r="D913" s="2" t="n">
-        <v>44414</v>
+        <v>44420</v>
       </c>
       <c r="E913" t="n">
         <v>13</v>
@@ -66089,20 +66089,20 @@
       </c>
       <c r="I913" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J913" t="n">
-        <v>1720</v>
+        <v>1220</v>
       </c>
       <c r="K913" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="L913" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="M913" t="n">
-        <v>11942</v>
+        <v>9475</v>
       </c>
       <c r="N913" t="inlineStr">
         <is>
@@ -66115,7 +66115,7 @@
         </is>
       </c>
       <c r="P913" t="n">
-        <v>663</v>
+        <v>526</v>
       </c>
       <c r="Q913" t="n">
         <v>18</v>
@@ -66141,7 +66141,7 @@
         </is>
       </c>
       <c r="D914" s="2" t="n">
-        <v>44414</v>
+        <v>44420</v>
       </c>
       <c r="E914" t="n">
         <v>13</v>
@@ -66161,20 +66161,20 @@
       </c>
       <c r="I914" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J914" t="n">
-        <v>520</v>
+        <v>880</v>
       </c>
       <c r="K914" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="L914" t="n">
         <v>7000</v>
       </c>
       <c r="M914" t="n">
-        <v>7000</v>
+        <v>6545</v>
       </c>
       <c r="N914" t="inlineStr">
         <is>
@@ -66183,11 +66183,11 @@
       </c>
       <c r="O914" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P914" t="n">
-        <v>389</v>
+        <v>364</v>
       </c>
       <c r="Q914" t="n">
         <v>18</v>
@@ -66233,20 +66233,20 @@
       </c>
       <c r="I915" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J915" t="n">
-        <v>2190</v>
+        <v>380</v>
       </c>
       <c r="K915" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="L915" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="M915" t="n">
-        <v>10479</v>
+        <v>9000</v>
       </c>
       <c r="N915" t="inlineStr">
         <is>
@@ -66255,11 +66255,11 @@
       </c>
       <c r="O915" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P915" t="n">
-        <v>582</v>
+        <v>500</v>
       </c>
       <c r="Q915" t="n">
         <v>18</v>
@@ -66305,20 +66305,20 @@
       </c>
       <c r="I916" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J916" t="n">
-        <v>1180</v>
+        <v>1720</v>
       </c>
       <c r="K916" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="L916" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="M916" t="n">
-        <v>8335</v>
+        <v>11942</v>
       </c>
       <c r="N916" t="inlineStr">
         <is>
@@ -66331,7 +66331,7 @@
         </is>
       </c>
       <c r="P916" t="n">
-        <v>463</v>
+        <v>663</v>
       </c>
       <c r="Q916" t="n">
         <v>18</v>
@@ -66377,20 +66377,20 @@
       </c>
       <c r="I917" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J917" t="n">
-        <v>650</v>
+        <v>520</v>
       </c>
       <c r="K917" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L917" t="n">
-        <v>8500</v>
+        <v>7000</v>
       </c>
       <c r="M917" t="n">
-        <v>8285</v>
+        <v>7000</v>
       </c>
       <c r="N917" t="inlineStr">
         <is>
@@ -66399,11 +66399,11 @@
       </c>
       <c r="O917" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P917" t="n">
-        <v>460</v>
+        <v>389</v>
       </c>
       <c r="Q917" t="n">
         <v>18</v>
@@ -66429,7 +66429,7 @@
         </is>
       </c>
       <c r="D918" s="2" t="n">
-        <v>44543</v>
+        <v>44414</v>
       </c>
       <c r="E918" t="n">
         <v>13</v>
@@ -66449,20 +66449,20 @@
       </c>
       <c r="I918" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J918" t="n">
-        <v>950</v>
+        <v>2190</v>
       </c>
       <c r="K918" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="L918" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="M918" t="n">
-        <v>13000</v>
+        <v>10479</v>
       </c>
       <c r="N918" t="inlineStr">
         <is>
@@ -66471,11 +66471,11 @@
       </c>
       <c r="O918" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P918" t="n">
-        <v>722</v>
+        <v>582</v>
       </c>
       <c r="Q918" t="n">
         <v>18</v>
@@ -66501,7 +66501,7 @@
         </is>
       </c>
       <c r="D919" s="2" t="n">
-        <v>44543</v>
+        <v>44414</v>
       </c>
       <c r="E919" t="n">
         <v>13</v>
@@ -66521,20 +66521,20 @@
       </c>
       <c r="I919" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J919" t="n">
-        <v>980</v>
+        <v>1180</v>
       </c>
       <c r="K919" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="L919" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="M919" t="n">
-        <v>12000</v>
+        <v>8335</v>
       </c>
       <c r="N919" t="inlineStr">
         <is>
@@ -66543,11 +66543,11 @@
       </c>
       <c r="O919" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P919" t="n">
-        <v>667</v>
+        <v>463</v>
       </c>
       <c r="Q919" t="n">
         <v>18</v>
@@ -66573,7 +66573,7 @@
         </is>
       </c>
       <c r="D920" s="2" t="n">
-        <v>44543</v>
+        <v>44414</v>
       </c>
       <c r="E920" t="n">
         <v>13</v>
@@ -66593,20 +66593,20 @@
       </c>
       <c r="I920" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J920" t="n">
-        <v>850</v>
+        <v>650</v>
       </c>
       <c r="K920" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="L920" t="n">
-        <v>10000</v>
+        <v>8500</v>
       </c>
       <c r="M920" t="n">
-        <v>10000</v>
+        <v>8285</v>
       </c>
       <c r="N920" t="inlineStr">
         <is>
@@ -66615,11 +66615,11 @@
       </c>
       <c r="O920" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P920" t="n">
-        <v>556</v>
+        <v>460</v>
       </c>
       <c r="Q920" t="n">
         <v>18</v>
@@ -66645,7 +66645,7 @@
         </is>
       </c>
       <c r="D921" s="2" t="n">
-        <v>44321</v>
+        <v>44543</v>
       </c>
       <c r="E921" t="n">
         <v>13</v>
@@ -66669,16 +66669,16 @@
         </is>
       </c>
       <c r="J921" t="n">
-        <v>380</v>
+        <v>950</v>
       </c>
       <c r="K921" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="L921" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="M921" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="N921" t="inlineStr">
         <is>
@@ -66691,7 +66691,7 @@
         </is>
       </c>
       <c r="P921" t="n">
-        <v>556</v>
+        <v>722</v>
       </c>
       <c r="Q921" t="n">
         <v>18</v>
@@ -66717,7 +66717,7 @@
         </is>
       </c>
       <c r="D922" s="2" t="n">
-        <v>44321</v>
+        <v>44543</v>
       </c>
       <c r="E922" t="n">
         <v>13</v>
@@ -66741,16 +66741,16 @@
         </is>
       </c>
       <c r="J922" t="n">
-        <v>420</v>
+        <v>980</v>
       </c>
       <c r="K922" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="L922" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="M922" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="N922" t="inlineStr">
         <is>
@@ -66763,7 +66763,7 @@
         </is>
       </c>
       <c r="P922" t="n">
-        <v>444</v>
+        <v>667</v>
       </c>
       <c r="Q922" t="n">
         <v>18</v>
@@ -66789,7 +66789,7 @@
         </is>
       </c>
       <c r="D923" s="2" t="n">
-        <v>44321</v>
+        <v>44543</v>
       </c>
       <c r="E923" t="n">
         <v>13</v>
@@ -66813,16 +66813,16 @@
         </is>
       </c>
       <c r="J923" t="n">
-        <v>300</v>
+        <v>850</v>
       </c>
       <c r="K923" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="L923" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="M923" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="N923" t="inlineStr">
         <is>
@@ -66835,7 +66835,7 @@
         </is>
       </c>
       <c r="P923" t="n">
-        <v>278</v>
+        <v>556</v>
       </c>
       <c r="Q923" t="n">
         <v>18</v>
@@ -66876,7 +66876,7 @@
       </c>
       <c r="H924" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I924" t="inlineStr">
@@ -66885,16 +66885,16 @@
         </is>
       </c>
       <c r="J924" t="n">
-        <v>220</v>
+        <v>380</v>
       </c>
       <c r="K924" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L924" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M924" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="N924" t="inlineStr">
         <is>
@@ -66903,11 +66903,11 @@
       </c>
       <c r="O924" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P924" t="n">
-        <v>389</v>
+        <v>556</v>
       </c>
       <c r="Q924" t="n">
         <v>18</v>
@@ -66948,7 +66948,7 @@
       </c>
       <c r="H925" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I925" t="inlineStr">
@@ -66957,16 +66957,16 @@
         </is>
       </c>
       <c r="J925" t="n">
-        <v>250</v>
+        <v>420</v>
       </c>
       <c r="K925" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L925" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M925" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="N925" t="inlineStr">
         <is>
@@ -66975,11 +66975,11 @@
       </c>
       <c r="O925" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P925" t="n">
-        <v>333</v>
+        <v>444</v>
       </c>
       <c r="Q925" t="n">
         <v>18</v>
@@ -67020,7 +67020,7 @@
       </c>
       <c r="H926" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I926" t="inlineStr">
@@ -67032,13 +67032,13 @@
         <v>300</v>
       </c>
       <c r="K926" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="L926" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="M926" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="N926" t="inlineStr">
         <is>
@@ -67047,11 +67047,11 @@
       </c>
       <c r="O926" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P926" t="n">
-        <v>250</v>
+        <v>278</v>
       </c>
       <c r="Q926" t="n">
         <v>18</v>
@@ -67077,7 +67077,7 @@
         </is>
       </c>
       <c r="D927" s="2" t="n">
-        <v>44385</v>
+        <v>44321</v>
       </c>
       <c r="E927" t="n">
         <v>13</v>
@@ -67092,7 +67092,7 @@
       </c>
       <c r="H927" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I927" t="inlineStr">
@@ -67101,16 +67101,16 @@
         </is>
       </c>
       <c r="J927" t="n">
-        <v>260</v>
+        <v>220</v>
       </c>
       <c r="K927" t="n">
-        <v>17000</v>
+        <v>7000</v>
       </c>
       <c r="L927" t="n">
-        <v>17000</v>
+        <v>7000</v>
       </c>
       <c r="M927" t="n">
-        <v>17000</v>
+        <v>7000</v>
       </c>
       <c r="N927" t="inlineStr">
         <is>
@@ -67119,11 +67119,11 @@
       </c>
       <c r="O927" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P927" t="n">
-        <v>944</v>
+        <v>389</v>
       </c>
       <c r="Q927" t="n">
         <v>18</v>
@@ -67149,7 +67149,7 @@
         </is>
       </c>
       <c r="D928" s="2" t="n">
-        <v>44385</v>
+        <v>44321</v>
       </c>
       <c r="E928" t="n">
         <v>13</v>
@@ -67164,41 +67164,41 @@
       </c>
       <c r="H928" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I928" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J928" t="n">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="K928" t="n">
-        <v>20000</v>
+        <v>6000</v>
       </c>
       <c r="L928" t="n">
-        <v>20000</v>
+        <v>6000</v>
       </c>
       <c r="M928" t="n">
-        <v>20000</v>
+        <v>6000</v>
       </c>
       <c r="N928" t="inlineStr">
         <is>
-          <t>$/bandeja 20 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O928" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P928" t="n">
-        <v>1000</v>
+        <v>333</v>
       </c>
       <c r="Q928" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R928" t="inlineStr">
         <is>
@@ -67221,7 +67221,7 @@
         </is>
       </c>
       <c r="D929" s="2" t="n">
-        <v>44385</v>
+        <v>44321</v>
       </c>
       <c r="E929" t="n">
         <v>13</v>
@@ -67236,25 +67236,25 @@
       </c>
       <c r="H929" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I929" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J929" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="K929" t="n">
-        <v>14000</v>
+        <v>4500</v>
       </c>
       <c r="L929" t="n">
-        <v>14000</v>
+        <v>4500</v>
       </c>
       <c r="M929" t="n">
-        <v>14000</v>
+        <v>4500</v>
       </c>
       <c r="N929" t="inlineStr">
         <is>
@@ -67263,11 +67263,11 @@
       </c>
       <c r="O929" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P929" t="n">
-        <v>778</v>
+        <v>250</v>
       </c>
       <c r="Q929" t="n">
         <v>18</v>
@@ -67313,20 +67313,20 @@
       </c>
       <c r="I930" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J930" t="n">
-        <v>370</v>
+        <v>260</v>
       </c>
       <c r="K930" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="L930" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="M930" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="N930" t="inlineStr">
         <is>
@@ -67339,7 +67339,7 @@
         </is>
       </c>
       <c r="P930" t="n">
-        <v>833</v>
+        <v>944</v>
       </c>
       <c r="Q930" t="n">
         <v>18</v>
@@ -67385,20 +67385,20 @@
       </c>
       <c r="I931" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J931" t="n">
-        <v>280</v>
+        <v>220</v>
       </c>
       <c r="K931" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="L931" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="M931" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="N931" t="inlineStr">
         <is>
@@ -67411,7 +67411,7 @@
         </is>
       </c>
       <c r="P931" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="Q931" t="n">
         <v>20</v>
@@ -67457,20 +67457,20 @@
       </c>
       <c r="I932" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J932" t="n">
-        <v>280</v>
+        <v>350</v>
       </c>
       <c r="K932" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="L932" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="M932" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="N932" t="inlineStr">
         <is>
@@ -67483,7 +67483,7 @@
         </is>
       </c>
       <c r="P932" t="n">
-        <v>556</v>
+        <v>778</v>
       </c>
       <c r="Q932" t="n">
         <v>18</v>
@@ -67529,20 +67529,20 @@
       </c>
       <c r="I933" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J933" t="n">
-        <v>310</v>
+        <v>370</v>
       </c>
       <c r="K933" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="L933" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="M933" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="N933" t="inlineStr">
         <is>
@@ -67555,7 +67555,7 @@
         </is>
       </c>
       <c r="P933" t="n">
-        <v>667</v>
+        <v>833</v>
       </c>
       <c r="Q933" t="n">
         <v>18</v>
@@ -67581,7 +67581,7 @@
         </is>
       </c>
       <c r="D934" s="2" t="n">
-        <v>44278</v>
+        <v>44385</v>
       </c>
       <c r="E934" t="n">
         <v>13</v>
@@ -67601,36 +67601,36 @@
       </c>
       <c r="I934" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J934" t="n">
-        <v>730</v>
+        <v>280</v>
       </c>
       <c r="K934" t="n">
-        <v>8000</v>
+        <v>18000</v>
       </c>
       <c r="L934" t="n">
-        <v>8500</v>
+        <v>18000</v>
       </c>
       <c r="M934" t="n">
-        <v>8192</v>
+        <v>18000</v>
       </c>
       <c r="N934" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 20 kilos</t>
         </is>
       </c>
       <c r="O934" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P934" t="n">
-        <v>455</v>
+        <v>900</v>
       </c>
       <c r="Q934" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R934" t="inlineStr">
         <is>
@@ -67653,7 +67653,7 @@
         </is>
       </c>
       <c r="D935" s="2" t="n">
-        <v>44278</v>
+        <v>44385</v>
       </c>
       <c r="E935" t="n">
         <v>13</v>
@@ -67673,20 +67673,20 @@
       </c>
       <c r="I935" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J935" t="n">
-        <v>1220</v>
+        <v>280</v>
       </c>
       <c r="K935" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="L935" t="n">
-        <v>6500</v>
+        <v>10000</v>
       </c>
       <c r="M935" t="n">
-        <v>6238</v>
+        <v>10000</v>
       </c>
       <c r="N935" t="inlineStr">
         <is>
@@ -67699,7 +67699,7 @@
         </is>
       </c>
       <c r="P935" t="n">
-        <v>347</v>
+        <v>556</v>
       </c>
       <c r="Q935" t="n">
         <v>18</v>
@@ -67725,7 +67725,7 @@
         </is>
       </c>
       <c r="D936" s="2" t="n">
-        <v>44278</v>
+        <v>44385</v>
       </c>
       <c r="E936" t="n">
         <v>13</v>
@@ -67749,16 +67749,16 @@
         </is>
       </c>
       <c r="J936" t="n">
-        <v>570</v>
+        <v>310</v>
       </c>
       <c r="K936" t="n">
-        <v>3500</v>
+        <v>12000</v>
       </c>
       <c r="L936" t="n">
-        <v>4000</v>
+        <v>12000</v>
       </c>
       <c r="M936" t="n">
-        <v>3807</v>
+        <v>12000</v>
       </c>
       <c r="N936" t="inlineStr">
         <is>
@@ -67767,11 +67767,11 @@
       </c>
       <c r="O936" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P936" t="n">
-        <v>212</v>
+        <v>667</v>
       </c>
       <c r="Q936" t="n">
         <v>18</v>
@@ -67812,7 +67812,7 @@
       </c>
       <c r="H937" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I937" t="inlineStr">
@@ -67821,16 +67821,16 @@
         </is>
       </c>
       <c r="J937" t="n">
-        <v>400</v>
+        <v>730</v>
       </c>
       <c r="K937" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="L937" t="n">
-        <v>5500</v>
+        <v>8500</v>
       </c>
       <c r="M937" t="n">
-        <v>5275</v>
+        <v>8192</v>
       </c>
       <c r="N937" t="inlineStr">
         <is>
@@ -67839,11 +67839,11 @@
       </c>
       <c r="O937" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P937" t="n">
-        <v>293</v>
+        <v>455</v>
       </c>
       <c r="Q937" t="n">
         <v>18</v>
@@ -67884,7 +67884,7 @@
       </c>
       <c r="H938" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I938" t="inlineStr">
@@ -67893,16 +67893,16 @@
         </is>
       </c>
       <c r="J938" t="n">
-        <v>440</v>
+        <v>1220</v>
       </c>
       <c r="K938" t="n">
-        <v>3500</v>
+        <v>6000</v>
       </c>
       <c r="L938" t="n">
-        <v>4000</v>
+        <v>6500</v>
       </c>
       <c r="M938" t="n">
-        <v>3705</v>
+        <v>6238</v>
       </c>
       <c r="N938" t="inlineStr">
         <is>
@@ -67911,11 +67911,11 @@
       </c>
       <c r="O938" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P938" t="n">
-        <v>206</v>
+        <v>347</v>
       </c>
       <c r="Q938" t="n">
         <v>18</v>
@@ -67956,7 +67956,7 @@
       </c>
       <c r="H939" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I939" t="inlineStr">
@@ -67965,16 +67965,16 @@
         </is>
       </c>
       <c r="J939" t="n">
-        <v>310</v>
+        <v>570</v>
       </c>
       <c r="K939" t="n">
-        <v>2500</v>
+        <v>3500</v>
       </c>
       <c r="L939" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="M939" t="n">
-        <v>2806</v>
+        <v>3807</v>
       </c>
       <c r="N939" t="inlineStr">
         <is>
@@ -67983,11 +67983,11 @@
       </c>
       <c r="O939" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P939" t="n">
-        <v>156</v>
+        <v>212</v>
       </c>
       <c r="Q939" t="n">
         <v>18</v>
@@ -68013,7 +68013,7 @@
         </is>
       </c>
       <c r="D940" s="2" t="n">
-        <v>44308</v>
+        <v>44278</v>
       </c>
       <c r="E940" t="n">
         <v>13</v>
@@ -68028,7 +68028,7 @@
       </c>
       <c r="H940" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I940" t="inlineStr">
@@ -68037,16 +68037,16 @@
         </is>
       </c>
       <c r="J940" t="n">
-        <v>640</v>
+        <v>400</v>
       </c>
       <c r="K940" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="L940" t="n">
-        <v>12500</v>
+        <v>5500</v>
       </c>
       <c r="M940" t="n">
-        <v>12281</v>
+        <v>5275</v>
       </c>
       <c r="N940" t="inlineStr">
         <is>
@@ -68055,11 +68055,11 @@
       </c>
       <c r="O940" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P940" t="n">
-        <v>682</v>
+        <v>293</v>
       </c>
       <c r="Q940" t="n">
         <v>18</v>
@@ -68085,7 +68085,7 @@
         </is>
       </c>
       <c r="D941" s="2" t="n">
-        <v>44308</v>
+        <v>44278</v>
       </c>
       <c r="E941" t="n">
         <v>13</v>
@@ -68100,7 +68100,7 @@
       </c>
       <c r="H941" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I941" t="inlineStr">
@@ -68109,16 +68109,16 @@
         </is>
       </c>
       <c r="J941" t="n">
-        <v>690</v>
+        <v>440</v>
       </c>
       <c r="K941" t="n">
-        <v>10000</v>
+        <v>3500</v>
       </c>
       <c r="L941" t="n">
-        <v>10500</v>
+        <v>4000</v>
       </c>
       <c r="M941" t="n">
-        <v>10210</v>
+        <v>3705</v>
       </c>
       <c r="N941" t="inlineStr">
         <is>
@@ -68127,11 +68127,11 @@
       </c>
       <c r="O941" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P941" t="n">
-        <v>567</v>
+        <v>206</v>
       </c>
       <c r="Q941" t="n">
         <v>18</v>
@@ -68157,7 +68157,7 @@
         </is>
       </c>
       <c r="D942" s="2" t="n">
-        <v>44308</v>
+        <v>44278</v>
       </c>
       <c r="E942" t="n">
         <v>13</v>
@@ -68172,7 +68172,7 @@
       </c>
       <c r="H942" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I942" t="inlineStr">
@@ -68181,16 +68181,16 @@
         </is>
       </c>
       <c r="J942" t="n">
-        <v>500</v>
+        <v>310</v>
       </c>
       <c r="K942" t="n">
-        <v>7500</v>
+        <v>2500</v>
       </c>
       <c r="L942" t="n">
-        <v>8000</v>
+        <v>3000</v>
       </c>
       <c r="M942" t="n">
-        <v>7780</v>
+        <v>2806</v>
       </c>
       <c r="N942" t="inlineStr">
         <is>
@@ -68199,11 +68199,11 @@
       </c>
       <c r="O942" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P942" t="n">
-        <v>432</v>
+        <v>156</v>
       </c>
       <c r="Q942" t="n">
         <v>18</v>
@@ -68229,7 +68229,7 @@
         </is>
       </c>
       <c r="D943" s="2" t="n">
-        <v>44281</v>
+        <v>44308</v>
       </c>
       <c r="E943" t="n">
         <v>13</v>
@@ -68253,16 +68253,16 @@
         </is>
       </c>
       <c r="J943" t="n">
-        <v>620</v>
+        <v>640</v>
       </c>
       <c r="K943" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="L943" t="n">
-        <v>12000</v>
+        <v>12500</v>
       </c>
       <c r="M943" t="n">
-        <v>11548</v>
+        <v>12281</v>
       </c>
       <c r="N943" t="inlineStr">
         <is>
@@ -68275,7 +68275,7 @@
         </is>
       </c>
       <c r="P943" t="n">
-        <v>642</v>
+        <v>682</v>
       </c>
       <c r="Q943" t="n">
         <v>18</v>
@@ -68301,7 +68301,7 @@
         </is>
       </c>
       <c r="D944" s="2" t="n">
-        <v>44281</v>
+        <v>44308</v>
       </c>
       <c r="E944" t="n">
         <v>13</v>
@@ -68325,16 +68325,16 @@
         </is>
       </c>
       <c r="J944" t="n">
-        <v>660</v>
+        <v>690</v>
       </c>
       <c r="K944" t="n">
-        <v>9500</v>
+        <v>10000</v>
       </c>
       <c r="L944" t="n">
-        <v>10000</v>
+        <v>10500</v>
       </c>
       <c r="M944" t="n">
-        <v>9735</v>
+        <v>10210</v>
       </c>
       <c r="N944" t="inlineStr">
         <is>
@@ -68347,7 +68347,7 @@
         </is>
       </c>
       <c r="P944" t="n">
-        <v>541</v>
+        <v>567</v>
       </c>
       <c r="Q944" t="n">
         <v>18</v>
@@ -68373,7 +68373,7 @@
         </is>
       </c>
       <c r="D945" s="2" t="n">
-        <v>44281</v>
+        <v>44308</v>
       </c>
       <c r="E945" t="n">
         <v>13</v>
@@ -68397,7 +68397,7 @@
         </is>
       </c>
       <c r="J945" t="n">
-        <v>370</v>
+        <v>500</v>
       </c>
       <c r="K945" t="n">
         <v>7500</v>
@@ -68406,7 +68406,7 @@
         <v>8000</v>
       </c>
       <c r="M945" t="n">
-        <v>7797</v>
+        <v>7780</v>
       </c>
       <c r="N945" t="inlineStr">
         <is>
@@ -68419,7 +68419,7 @@
         </is>
       </c>
       <c r="P945" t="n">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="Q945" t="n">
         <v>18</v>
@@ -68445,7 +68445,7 @@
         </is>
       </c>
       <c r="D946" s="2" t="n">
-        <v>44187</v>
+        <v>44281</v>
       </c>
       <c r="E946" t="n">
         <v>13</v>
@@ -68469,16 +68469,16 @@
         </is>
       </c>
       <c r="J946" t="n">
-        <v>1080</v>
+        <v>620</v>
       </c>
       <c r="K946" t="n">
-        <v>20000</v>
+        <v>11000</v>
       </c>
       <c r="L946" t="n">
-        <v>21000</v>
+        <v>12000</v>
       </c>
       <c r="M946" t="n">
-        <v>20556</v>
+        <v>11548</v>
       </c>
       <c r="N946" t="inlineStr">
         <is>
@@ -68491,7 +68491,7 @@
         </is>
       </c>
       <c r="P946" t="n">
-        <v>1142</v>
+        <v>642</v>
       </c>
       <c r="Q946" t="n">
         <v>18</v>
@@ -68517,7 +68517,7 @@
         </is>
       </c>
       <c r="D947" s="2" t="n">
-        <v>44187</v>
+        <v>44281</v>
       </c>
       <c r="E947" t="n">
         <v>13</v>
@@ -68541,16 +68541,16 @@
         </is>
       </c>
       <c r="J947" t="n">
-        <v>1350</v>
+        <v>660</v>
       </c>
       <c r="K947" t="n">
-        <v>17000</v>
+        <v>9500</v>
       </c>
       <c r="L947" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="M947" t="n">
-        <v>17481</v>
+        <v>9735</v>
       </c>
       <c r="N947" t="inlineStr">
         <is>
@@ -68563,7 +68563,7 @@
         </is>
       </c>
       <c r="P947" t="n">
-        <v>971</v>
+        <v>541</v>
       </c>
       <c r="Q947" t="n">
         <v>18</v>
@@ -68589,7 +68589,7 @@
         </is>
       </c>
       <c r="D948" s="2" t="n">
-        <v>44187</v>
+        <v>44281</v>
       </c>
       <c r="E948" t="n">
         <v>13</v>
@@ -68613,16 +68613,16 @@
         </is>
       </c>
       <c r="J948" t="n">
-        <v>1150</v>
+        <v>370</v>
       </c>
       <c r="K948" t="n">
-        <v>12000</v>
+        <v>7500</v>
       </c>
       <c r="L948" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="M948" t="n">
-        <v>12522</v>
+        <v>7797</v>
       </c>
       <c r="N948" t="inlineStr">
         <is>
@@ -68635,7 +68635,7 @@
         </is>
       </c>
       <c r="P948" t="n">
-        <v>696</v>
+        <v>433</v>
       </c>
       <c r="Q948" t="n">
         <v>18</v>
@@ -68661,7 +68661,7 @@
         </is>
       </c>
       <c r="D949" s="2" t="n">
-        <v>44474</v>
+        <v>44187</v>
       </c>
       <c r="E949" t="n">
         <v>13</v>
@@ -68685,16 +68685,16 @@
         </is>
       </c>
       <c r="J949" t="n">
-        <v>500</v>
+        <v>1080</v>
       </c>
       <c r="K949" t="n">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="L949" t="n">
-        <v>19000</v>
+        <v>21000</v>
       </c>
       <c r="M949" t="n">
-        <v>19000</v>
+        <v>20556</v>
       </c>
       <c r="N949" t="inlineStr">
         <is>
@@ -68707,7 +68707,7 @@
         </is>
       </c>
       <c r="P949" t="n">
-        <v>1056</v>
+        <v>1142</v>
       </c>
       <c r="Q949" t="n">
         <v>18</v>
@@ -68733,7 +68733,7 @@
         </is>
       </c>
       <c r="D950" s="2" t="n">
-        <v>44474</v>
+        <v>44187</v>
       </c>
       <c r="E950" t="n">
         <v>13</v>
@@ -68753,20 +68753,20 @@
       </c>
       <c r="I950" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J950" t="n">
-        <v>1040</v>
+        <v>1350</v>
       </c>
       <c r="K950" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="L950" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="M950" t="n">
-        <v>19529</v>
+        <v>17481</v>
       </c>
       <c r="N950" t="inlineStr">
         <is>
@@ -68775,11 +68775,11 @@
       </c>
       <c r="O950" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P950" t="n">
-        <v>1085</v>
+        <v>971</v>
       </c>
       <c r="Q950" t="n">
         <v>18</v>
@@ -68805,7 +68805,7 @@
         </is>
       </c>
       <c r="D951" s="2" t="n">
-        <v>44474</v>
+        <v>44187</v>
       </c>
       <c r="E951" t="n">
         <v>13</v>
@@ -68825,20 +68825,20 @@
       </c>
       <c r="I951" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J951" t="n">
-        <v>400</v>
+        <v>1150</v>
       </c>
       <c r="K951" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="L951" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="M951" t="n">
-        <v>17000</v>
+        <v>12522</v>
       </c>
       <c r="N951" t="inlineStr">
         <is>
@@ -68851,7 +68851,7 @@
         </is>
       </c>
       <c r="P951" t="n">
-        <v>944</v>
+        <v>696</v>
       </c>
       <c r="Q951" t="n">
         <v>18</v>
@@ -68897,20 +68897,20 @@
       </c>
       <c r="I952" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J952" t="n">
-        <v>1030</v>
+        <v>500</v>
       </c>
       <c r="K952" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="L952" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="M952" t="n">
-        <v>17369</v>
+        <v>19000</v>
       </c>
       <c r="N952" t="inlineStr">
         <is>
@@ -68919,11 +68919,11 @@
       </c>
       <c r="O952" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P952" t="n">
-        <v>965</v>
+        <v>1056</v>
       </c>
       <c r="Q952" t="n">
         <v>18</v>
@@ -68969,20 +68969,20 @@
       </c>
       <c r="I953" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J953" t="n">
-        <v>350</v>
+        <v>1040</v>
       </c>
       <c r="K953" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="L953" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="M953" t="n">
-        <v>15000</v>
+        <v>19529</v>
       </c>
       <c r="N953" t="inlineStr">
         <is>
@@ -68991,11 +68991,11 @@
       </c>
       <c r="O953" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P953" t="n">
-        <v>833</v>
+        <v>1085</v>
       </c>
       <c r="Q953" t="n">
         <v>18</v>
@@ -69041,20 +69041,20 @@
       </c>
       <c r="I954" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J954" t="n">
-        <v>960</v>
+        <v>400</v>
       </c>
       <c r="K954" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="L954" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="M954" t="n">
-        <v>15531</v>
+        <v>17000</v>
       </c>
       <c r="N954" t="inlineStr">
         <is>
@@ -69063,11 +69063,11 @@
       </c>
       <c r="O954" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P954" t="n">
-        <v>863</v>
+        <v>944</v>
       </c>
       <c r="Q954" t="n">
         <v>18</v>
@@ -69093,7 +69093,7 @@
         </is>
       </c>
       <c r="D955" s="2" t="n">
-        <v>44446</v>
+        <v>44474</v>
       </c>
       <c r="E955" t="n">
         <v>13</v>
@@ -69113,20 +69113,20 @@
       </c>
       <c r="I955" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J955" t="n">
-        <v>630</v>
+        <v>1030</v>
       </c>
       <c r="K955" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="L955" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="M955" t="n">
-        <v>14444</v>
+        <v>17369</v>
       </c>
       <c r="N955" t="inlineStr">
         <is>
@@ -69135,11 +69135,11 @@
       </c>
       <c r="O955" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P955" t="n">
-        <v>802</v>
+        <v>965</v>
       </c>
       <c r="Q955" t="n">
         <v>18</v>
@@ -69165,7 +69165,7 @@
         </is>
       </c>
       <c r="D956" s="2" t="n">
-        <v>44446</v>
+        <v>44474</v>
       </c>
       <c r="E956" t="n">
         <v>13</v>
@@ -69185,20 +69185,20 @@
       </c>
       <c r="I956" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J956" t="n">
-        <v>650</v>
+        <v>350</v>
       </c>
       <c r="K956" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="L956" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M956" t="n">
-        <v>12538</v>
+        <v>15000</v>
       </c>
       <c r="N956" t="inlineStr">
         <is>
@@ -69211,7 +69211,7 @@
         </is>
       </c>
       <c r="P956" t="n">
-        <v>697</v>
+        <v>833</v>
       </c>
       <c r="Q956" t="n">
         <v>18</v>
@@ -69237,7 +69237,7 @@
         </is>
       </c>
       <c r="D957" s="2" t="n">
-        <v>44446</v>
+        <v>44474</v>
       </c>
       <c r="E957" t="n">
         <v>13</v>
@@ -69257,20 +69257,20 @@
       </c>
       <c r="I957" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J957" t="n">
-        <v>950</v>
+        <v>960</v>
       </c>
       <c r="K957" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="L957" t="n">
-        <v>23000</v>
+        <v>16000</v>
       </c>
       <c r="M957" t="n">
-        <v>22526</v>
+        <v>15531</v>
       </c>
       <c r="N957" t="inlineStr">
         <is>
@@ -69283,7 +69283,7 @@
         </is>
       </c>
       <c r="P957" t="n">
-        <v>1251</v>
+        <v>863</v>
       </c>
       <c r="Q957" t="n">
         <v>18</v>
@@ -69329,20 +69329,20 @@
       </c>
       <c r="I958" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J958" t="n">
-        <v>730</v>
+        <v>630</v>
       </c>
       <c r="K958" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="L958" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="M958" t="n">
-        <v>18904</v>
+        <v>14444</v>
       </c>
       <c r="N958" t="inlineStr">
         <is>
@@ -69351,11 +69351,11 @@
       </c>
       <c r="O958" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P958" t="n">
-        <v>1050</v>
+        <v>802</v>
       </c>
       <c r="Q958" t="n">
         <v>18</v>
@@ -69381,7 +69381,7 @@
         </is>
       </c>
       <c r="D959" s="2" t="n">
-        <v>44350</v>
+        <v>44446</v>
       </c>
       <c r="E959" t="n">
         <v>13</v>
@@ -69401,20 +69401,20 @@
       </c>
       <c r="I959" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J959" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="K959" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L959" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="M959" t="n">
-        <v>10440</v>
+        <v>12538</v>
       </c>
       <c r="N959" t="inlineStr">
         <is>
@@ -69427,7 +69427,7 @@
         </is>
       </c>
       <c r="P959" t="n">
-        <v>580</v>
+        <v>697</v>
       </c>
       <c r="Q959" t="n">
         <v>18</v>
@@ -69453,7 +69453,7 @@
         </is>
       </c>
       <c r="D960" s="2" t="n">
-        <v>44350</v>
+        <v>44446</v>
       </c>
       <c r="E960" t="n">
         <v>13</v>
@@ -69473,20 +69473,20 @@
       </c>
       <c r="I960" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J960" t="n">
-        <v>780</v>
+        <v>950</v>
       </c>
       <c r="K960" t="n">
-        <v>13000</v>
+        <v>22000</v>
       </c>
       <c r="L960" t="n">
-        <v>14000</v>
+        <v>23000</v>
       </c>
       <c r="M960" t="n">
-        <v>13641</v>
+        <v>22526</v>
       </c>
       <c r="N960" t="inlineStr">
         <is>
@@ -69499,7 +69499,7 @@
         </is>
       </c>
       <c r="P960" t="n">
-        <v>758</v>
+        <v>1251</v>
       </c>
       <c r="Q960" t="n">
         <v>18</v>
@@ -69525,7 +69525,7 @@
         </is>
       </c>
       <c r="D961" s="2" t="n">
-        <v>44350</v>
+        <v>44446</v>
       </c>
       <c r="E961" t="n">
         <v>13</v>
@@ -69545,20 +69545,20 @@
       </c>
       <c r="I961" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J961" t="n">
-        <v>520</v>
+        <v>730</v>
       </c>
       <c r="K961" t="n">
-        <v>8000</v>
+        <v>18000</v>
       </c>
       <c r="L961" t="n">
-        <v>9000</v>
+        <v>20000</v>
       </c>
       <c r="M961" t="n">
-        <v>8577</v>
+        <v>18904</v>
       </c>
       <c r="N961" t="inlineStr">
         <is>
@@ -69567,11 +69567,11 @@
       </c>
       <c r="O961" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P961" t="n">
-        <v>476</v>
+        <v>1050</v>
       </c>
       <c r="Q961" t="n">
         <v>18</v>
@@ -69617,11 +69617,11 @@
       </c>
       <c r="I962" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J962" t="n">
-        <v>1190</v>
+        <v>500</v>
       </c>
       <c r="K962" t="n">
         <v>10000</v>
@@ -69630,7 +69630,7 @@
         <v>11000</v>
       </c>
       <c r="M962" t="n">
-        <v>10538</v>
+        <v>10440</v>
       </c>
       <c r="N962" t="inlineStr">
         <is>
@@ -69639,11 +69639,11 @@
       </c>
       <c r="O962" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P962" t="n">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="Q962" t="n">
         <v>18</v>
@@ -69689,20 +69689,20 @@
       </c>
       <c r="I963" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J963" t="n">
-        <v>460</v>
+        <v>780</v>
       </c>
       <c r="K963" t="n">
-        <v>5000</v>
+        <v>13000</v>
       </c>
       <c r="L963" t="n">
-        <v>6000</v>
+        <v>14000</v>
       </c>
       <c r="M963" t="n">
-        <v>5609</v>
+        <v>13641</v>
       </c>
       <c r="N963" t="inlineStr">
         <is>
@@ -69711,11 +69711,11 @@
       </c>
       <c r="O963" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P963" t="n">
-        <v>312</v>
+        <v>758</v>
       </c>
       <c r="Q963" t="n">
         <v>18</v>
@@ -69761,20 +69761,20 @@
       </c>
       <c r="I964" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J964" t="n">
-        <v>750</v>
+        <v>520</v>
       </c>
       <c r="K964" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L964" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M964" t="n">
-        <v>7533</v>
+        <v>8577</v>
       </c>
       <c r="N964" t="inlineStr">
         <is>
@@ -69783,11 +69783,11 @@
       </c>
       <c r="O964" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P964" t="n">
-        <v>418</v>
+        <v>476</v>
       </c>
       <c r="Q964" t="n">
         <v>18</v>
@@ -69813,7 +69813,7 @@
         </is>
       </c>
       <c r="D965" s="2" t="n">
-        <v>44529</v>
+        <v>44350</v>
       </c>
       <c r="E965" t="n">
         <v>13</v>
@@ -69833,20 +69833,20 @@
       </c>
       <c r="I965" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J965" t="n">
-        <v>950</v>
+        <v>1190</v>
       </c>
       <c r="K965" t="n">
-        <v>10500</v>
+        <v>10000</v>
       </c>
       <c r="L965" t="n">
         <v>11000</v>
       </c>
       <c r="M965" t="n">
-        <v>10816</v>
+        <v>10538</v>
       </c>
       <c r="N965" t="inlineStr">
         <is>
@@ -69855,11 +69855,11 @@
       </c>
       <c r="O965" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P965" t="n">
-        <v>601</v>
+        <v>585</v>
       </c>
       <c r="Q965" t="n">
         <v>18</v>
@@ -69885,7 +69885,7 @@
         </is>
       </c>
       <c r="D966" s="2" t="n">
-        <v>44529</v>
+        <v>44350</v>
       </c>
       <c r="E966" t="n">
         <v>13</v>
@@ -69905,20 +69905,20 @@
       </c>
       <c r="I966" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J966" t="n">
-        <v>960</v>
+        <v>460</v>
       </c>
       <c r="K966" t="n">
-        <v>9500</v>
+        <v>5000</v>
       </c>
       <c r="L966" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="M966" t="n">
-        <v>9792</v>
+        <v>5609</v>
       </c>
       <c r="N966" t="inlineStr">
         <is>
@@ -69931,7 +69931,7 @@
         </is>
       </c>
       <c r="P966" t="n">
-        <v>544</v>
+        <v>312</v>
       </c>
       <c r="Q966" t="n">
         <v>18</v>
@@ -69957,7 +69957,7 @@
         </is>
       </c>
       <c r="D967" s="2" t="n">
-        <v>44529</v>
+        <v>44350</v>
       </c>
       <c r="E967" t="n">
         <v>13</v>
@@ -69981,16 +69981,16 @@
         </is>
       </c>
       <c r="J967" t="n">
-        <v>820</v>
+        <v>750</v>
       </c>
       <c r="K967" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="L967" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M967" t="n">
-        <v>6768</v>
+        <v>7533</v>
       </c>
       <c r="N967" t="inlineStr">
         <is>
@@ -69999,11 +69999,11 @@
       </c>
       <c r="O967" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P967" t="n">
-        <v>376</v>
+        <v>418</v>
       </c>
       <c r="Q967" t="n">
         <v>18</v>
@@ -70049,20 +70049,20 @@
       </c>
       <c r="I968" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J968" t="n">
-        <v>590</v>
+        <v>950</v>
       </c>
       <c r="K968" t="n">
-        <v>4500</v>
+        <v>10500</v>
       </c>
       <c r="L968" t="n">
-        <v>5000</v>
+        <v>11000</v>
       </c>
       <c r="M968" t="n">
-        <v>4771</v>
+        <v>10816</v>
       </c>
       <c r="N968" t="inlineStr">
         <is>
@@ -70075,7 +70075,7 @@
         </is>
       </c>
       <c r="P968" t="n">
-        <v>265</v>
+        <v>601</v>
       </c>
       <c r="Q968" t="n">
         <v>18</v>
@@ -70101,7 +70101,7 @@
         </is>
       </c>
       <c r="D969" s="2" t="n">
-        <v>44405</v>
+        <v>44529</v>
       </c>
       <c r="E969" t="n">
         <v>13</v>
@@ -70121,20 +70121,20 @@
       </c>
       <c r="I969" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J969" t="n">
-        <v>790</v>
+        <v>960</v>
       </c>
       <c r="K969" t="n">
-        <v>12000</v>
+        <v>9500</v>
       </c>
       <c r="L969" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="M969" t="n">
-        <v>12570</v>
+        <v>9792</v>
       </c>
       <c r="N969" t="inlineStr">
         <is>
@@ -70143,11 +70143,11 @@
       </c>
       <c r="O969" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P969" t="n">
-        <v>698</v>
+        <v>544</v>
       </c>
       <c r="Q969" t="n">
         <v>18</v>
@@ -70173,7 +70173,7 @@
         </is>
       </c>
       <c r="D970" s="2" t="n">
-        <v>44405</v>
+        <v>44529</v>
       </c>
       <c r="E970" t="n">
         <v>13</v>
@@ -70193,20 +70193,20 @@
       </c>
       <c r="I970" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J970" t="n">
-        <v>630</v>
+        <v>820</v>
       </c>
       <c r="K970" t="n">
-        <v>10000</v>
+        <v>6500</v>
       </c>
       <c r="L970" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="M970" t="n">
-        <v>10556</v>
+        <v>6768</v>
       </c>
       <c r="N970" t="inlineStr">
         <is>
@@ -70215,11 +70215,11 @@
       </c>
       <c r="O970" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P970" t="n">
-        <v>586</v>
+        <v>376</v>
       </c>
       <c r="Q970" t="n">
         <v>18</v>
@@ -70245,7 +70245,7 @@
         </is>
       </c>
       <c r="D971" s="2" t="n">
-        <v>44405</v>
+        <v>44529</v>
       </c>
       <c r="E971" t="n">
         <v>13</v>
@@ -70265,20 +70265,20 @@
       </c>
       <c r="I971" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J971" t="n">
-        <v>420</v>
+        <v>590</v>
       </c>
       <c r="K971" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="L971" t="n">
-        <v>7500</v>
+        <v>5000</v>
       </c>
       <c r="M971" t="n">
-        <v>7286</v>
+        <v>4771</v>
       </c>
       <c r="N971" t="inlineStr">
         <is>
@@ -70287,11 +70287,11 @@
       </c>
       <c r="O971" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P971" t="n">
-        <v>405</v>
+        <v>265</v>
       </c>
       <c r="Q971" t="n">
         <v>18</v>
@@ -70317,7 +70317,7 @@
         </is>
       </c>
       <c r="D972" s="2" t="n">
-        <v>44413</v>
+        <v>44405</v>
       </c>
       <c r="E972" t="n">
         <v>13</v>
@@ -70341,16 +70341,16 @@
         </is>
       </c>
       <c r="J972" t="n">
-        <v>280</v>
+        <v>790</v>
       </c>
       <c r="K972" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="L972" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="M972" t="n">
-        <v>8571</v>
+        <v>12570</v>
       </c>
       <c r="N972" t="inlineStr">
         <is>
@@ -70359,11 +70359,11 @@
       </c>
       <c r="O972" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P972" t="n">
-        <v>476</v>
+        <v>698</v>
       </c>
       <c r="Q972" t="n">
         <v>18</v>
@@ -70389,7 +70389,7 @@
         </is>
       </c>
       <c r="D973" s="2" t="n">
-        <v>44413</v>
+        <v>44405</v>
       </c>
       <c r="E973" t="n">
         <v>13</v>
@@ -70409,20 +70409,20 @@
       </c>
       <c r="I973" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J973" t="n">
-        <v>1460</v>
+        <v>630</v>
       </c>
       <c r="K973" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="L973" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="M973" t="n">
-        <v>12425</v>
+        <v>10556</v>
       </c>
       <c r="N973" t="inlineStr">
         <is>
@@ -70435,7 +70435,7 @@
         </is>
       </c>
       <c r="P973" t="n">
-        <v>690</v>
+        <v>586</v>
       </c>
       <c r="Q973" t="n">
         <v>18</v>
@@ -70461,7 +70461,7 @@
         </is>
       </c>
       <c r="D974" s="2" t="n">
-        <v>44413</v>
+        <v>44405</v>
       </c>
       <c r="E974" t="n">
         <v>13</v>
@@ -70481,20 +70481,20 @@
       </c>
       <c r="I974" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J974" t="n">
-        <v>670</v>
+        <v>420</v>
       </c>
       <c r="K974" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L974" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="M974" t="n">
-        <v>6522</v>
+        <v>7286</v>
       </c>
       <c r="N974" t="inlineStr">
         <is>
@@ -70503,11 +70503,11 @@
       </c>
       <c r="O974" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P974" t="n">
-        <v>362</v>
+        <v>405</v>
       </c>
       <c r="Q974" t="n">
         <v>18</v>
@@ -70553,20 +70553,20 @@
       </c>
       <c r="I975" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J975" t="n">
-        <v>2140</v>
+        <v>280</v>
       </c>
       <c r="K975" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="L975" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="M975" t="n">
-        <v>10416</v>
+        <v>8571</v>
       </c>
       <c r="N975" t="inlineStr">
         <is>
@@ -70575,11 +70575,11 @@
       </c>
       <c r="O975" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P975" t="n">
-        <v>579</v>
+        <v>476</v>
       </c>
       <c r="Q975" t="n">
         <v>18</v>
@@ -70625,20 +70625,20 @@
       </c>
       <c r="I976" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J976" t="n">
-        <v>480</v>
+        <v>1460</v>
       </c>
       <c r="K976" t="n">
-        <v>4000</v>
+        <v>12000</v>
       </c>
       <c r="L976" t="n">
-        <v>4500</v>
+        <v>13000</v>
       </c>
       <c r="M976" t="n">
-        <v>4312</v>
+        <v>12425</v>
       </c>
       <c r="N976" t="inlineStr">
         <is>
@@ -70647,11 +70647,11 @@
       </c>
       <c r="O976" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P976" t="n">
-        <v>240</v>
+        <v>690</v>
       </c>
       <c r="Q976" t="n">
         <v>18</v>
@@ -70697,11 +70697,11 @@
       </c>
       <c r="I977" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J977" t="n">
-        <v>1000</v>
+        <v>670</v>
       </c>
       <c r="K977" t="n">
         <v>6000</v>
@@ -70710,7 +70710,7 @@
         <v>7000</v>
       </c>
       <c r="M977" t="n">
-        <v>6390</v>
+        <v>6522</v>
       </c>
       <c r="N977" t="inlineStr">
         <is>
@@ -70719,11 +70719,11 @@
       </c>
       <c r="O977" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P977" t="n">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="Q977" t="n">
         <v>18</v>
@@ -70749,7 +70749,7 @@
         </is>
       </c>
       <c r="D978" s="2" t="n">
-        <v>44238</v>
+        <v>44413</v>
       </c>
       <c r="E978" t="n">
         <v>13</v>
@@ -70769,20 +70769,20 @@
       </c>
       <c r="I978" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J978" t="n">
-        <v>295</v>
+        <v>2140</v>
       </c>
       <c r="K978" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="L978" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M978" t="n">
-        <v>9508</v>
+        <v>10416</v>
       </c>
       <c r="N978" t="inlineStr">
         <is>
@@ -70791,11 +70791,11 @@
       </c>
       <c r="O978" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P978" t="n">
-        <v>528</v>
+        <v>579</v>
       </c>
       <c r="Q978" t="n">
         <v>18</v>
@@ -70821,7 +70821,7 @@
         </is>
       </c>
       <c r="D979" s="2" t="n">
-        <v>44238</v>
+        <v>44413</v>
       </c>
       <c r="E979" t="n">
         <v>13</v>
@@ -70841,20 +70841,20 @@
       </c>
       <c r="I979" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J979" t="n">
-        <v>60</v>
+        <v>480</v>
       </c>
       <c r="K979" t="n">
-        <v>9000</v>
+        <v>4000</v>
       </c>
       <c r="L979" t="n">
-        <v>9000</v>
+        <v>4500</v>
       </c>
       <c r="M979" t="n">
-        <v>9000</v>
+        <v>4312</v>
       </c>
       <c r="N979" t="inlineStr">
         <is>
@@ -70863,11 +70863,11 @@
       </c>
       <c r="O979" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P979" t="n">
-        <v>500</v>
+        <v>240</v>
       </c>
       <c r="Q979" t="n">
         <v>18</v>
@@ -70893,7 +70893,7 @@
         </is>
       </c>
       <c r="D980" s="2" t="n">
-        <v>44238</v>
+        <v>44413</v>
       </c>
       <c r="E980" t="n">
         <v>13</v>
@@ -70913,20 +70913,20 @@
       </c>
       <c r="I980" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J980" t="n">
-        <v>360</v>
+        <v>1000</v>
       </c>
       <c r="K980" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L980" t="n">
         <v>7000</v>
       </c>
-      <c r="L980" t="n">
-        <v>8000</v>
-      </c>
       <c r="M980" t="n">
-        <v>7333</v>
+        <v>6390</v>
       </c>
       <c r="N980" t="inlineStr">
         <is>
@@ -70935,11 +70935,11 @@
       </c>
       <c r="O980" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P980" t="n">
-        <v>407</v>
+        <v>355</v>
       </c>
       <c r="Q980" t="n">
         <v>18</v>
@@ -70985,20 +70985,20 @@
       </c>
       <c r="I981" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J981" t="n">
-        <v>150</v>
+        <v>295</v>
       </c>
       <c r="K981" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L981" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M981" t="n">
-        <v>7000</v>
+        <v>9508</v>
       </c>
       <c r="N981" t="inlineStr">
         <is>
@@ -71007,11 +71007,11 @@
       </c>
       <c r="O981" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P981" t="n">
-        <v>389</v>
+        <v>528</v>
       </c>
       <c r="Q981" t="n">
         <v>18</v>
@@ -71057,20 +71057,20 @@
       </c>
       <c r="I982" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J982" t="n">
-        <v>180</v>
+        <v>60</v>
       </c>
       <c r="K982" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="L982" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="M982" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="N982" t="inlineStr">
         <is>
@@ -71079,11 +71079,11 @@
       </c>
       <c r="O982" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P982" t="n">
-        <v>278</v>
+        <v>500</v>
       </c>
       <c r="Q982" t="n">
         <v>18</v>
@@ -71129,20 +71129,20 @@
       </c>
       <c r="I983" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J983" t="n">
-        <v>100</v>
+        <v>360</v>
       </c>
       <c r="K983" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="L983" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="M983" t="n">
-        <v>5000</v>
+        <v>7333</v>
       </c>
       <c r="N983" t="inlineStr">
         <is>
@@ -71151,11 +71151,11 @@
       </c>
       <c r="O983" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P983" t="n">
-        <v>278</v>
+        <v>407</v>
       </c>
       <c r="Q983" t="n">
         <v>18</v>
@@ -71181,7 +71181,7 @@
         </is>
       </c>
       <c r="D984" s="2" t="n">
-        <v>44257</v>
+        <v>44238</v>
       </c>
       <c r="E984" t="n">
         <v>13</v>
@@ -71201,20 +71201,20 @@
       </c>
       <c r="I984" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J984" t="n">
-        <v>440</v>
+        <v>150</v>
       </c>
       <c r="K984" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="L984" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="M984" t="n">
-        <v>14545</v>
+        <v>7000</v>
       </c>
       <c r="N984" t="inlineStr">
         <is>
@@ -71223,11 +71223,11 @@
       </c>
       <c r="O984" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P984" t="n">
-        <v>808</v>
+        <v>389</v>
       </c>
       <c r="Q984" t="n">
         <v>18</v>
@@ -71253,7 +71253,7 @@
         </is>
       </c>
       <c r="D985" s="2" t="n">
-        <v>44257</v>
+        <v>44238</v>
       </c>
       <c r="E985" t="n">
         <v>13</v>
@@ -71268,25 +71268,25 @@
       </c>
       <c r="H985" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I985" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J985" t="n">
-        <v>310</v>
+        <v>180</v>
       </c>
       <c r="K985" t="n">
-        <v>11000</v>
+        <v>5000</v>
       </c>
       <c r="L985" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="M985" t="n">
-        <v>11484</v>
+        <v>5000</v>
       </c>
       <c r="N985" t="inlineStr">
         <is>
@@ -71295,11 +71295,11 @@
       </c>
       <c r="O985" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P985" t="n">
-        <v>638</v>
+        <v>278</v>
       </c>
       <c r="Q985" t="n">
         <v>18</v>
@@ -71325,7 +71325,7 @@
         </is>
       </c>
       <c r="D986" s="2" t="n">
-        <v>44257</v>
+        <v>44238</v>
       </c>
       <c r="E986" t="n">
         <v>13</v>
@@ -71340,25 +71340,25 @@
       </c>
       <c r="H986" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I986" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J986" t="n">
-        <v>470</v>
+        <v>100</v>
       </c>
       <c r="K986" t="n">
-        <v>9500</v>
+        <v>5000</v>
       </c>
       <c r="L986" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="M986" t="n">
-        <v>9734</v>
+        <v>5000</v>
       </c>
       <c r="N986" t="inlineStr">
         <is>
@@ -71367,11 +71367,11 @@
       </c>
       <c r="O986" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P986" t="n">
-        <v>541</v>
+        <v>278</v>
       </c>
       <c r="Q986" t="n">
         <v>18</v>
@@ -71412,25 +71412,25 @@
       </c>
       <c r="H987" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I987" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J987" t="n">
-        <v>320</v>
+        <v>440</v>
       </c>
       <c r="K987" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="L987" t="n">
-        <v>7500</v>
+        <v>15000</v>
       </c>
       <c r="M987" t="n">
-        <v>7219</v>
+        <v>14545</v>
       </c>
       <c r="N987" t="inlineStr">
         <is>
@@ -71439,11 +71439,11 @@
       </c>
       <c r="O987" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P987" t="n">
-        <v>401</v>
+        <v>808</v>
       </c>
       <c r="Q987" t="n">
         <v>18</v>
@@ -71469,7 +71469,7 @@
         </is>
       </c>
       <c r="D988" s="2" t="n">
-        <v>44411</v>
+        <v>44257</v>
       </c>
       <c r="E988" t="n">
         <v>13</v>
@@ -71484,7 +71484,7 @@
       </c>
       <c r="H988" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I988" t="inlineStr">
@@ -71493,16 +71493,16 @@
         </is>
       </c>
       <c r="J988" t="n">
-        <v>370</v>
+        <v>310</v>
       </c>
       <c r="K988" t="n">
-        <v>8500</v>
+        <v>11000</v>
       </c>
       <c r="L988" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="M988" t="n">
-        <v>8838</v>
+        <v>11484</v>
       </c>
       <c r="N988" t="inlineStr">
         <is>
@@ -71511,11 +71511,11 @@
       </c>
       <c r="O988" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P988" t="n">
-        <v>491</v>
+        <v>638</v>
       </c>
       <c r="Q988" t="n">
         <v>18</v>
@@ -71541,7 +71541,7 @@
         </is>
       </c>
       <c r="D989" s="2" t="n">
-        <v>44411</v>
+        <v>44257</v>
       </c>
       <c r="E989" t="n">
         <v>13</v>
@@ -71556,25 +71556,25 @@
       </c>
       <c r="H989" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I989" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J989" t="n">
-        <v>960</v>
+        <v>470</v>
       </c>
       <c r="K989" t="n">
-        <v>12000</v>
+        <v>9500</v>
       </c>
       <c r="L989" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="M989" t="n">
-        <v>12583</v>
+        <v>9734</v>
       </c>
       <c r="N989" t="inlineStr">
         <is>
@@ -71583,11 +71583,11 @@
       </c>
       <c r="O989" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P989" t="n">
-        <v>699</v>
+        <v>541</v>
       </c>
       <c r="Q989" t="n">
         <v>18</v>
@@ -71613,7 +71613,7 @@
         </is>
       </c>
       <c r="D990" s="2" t="n">
-        <v>44411</v>
+        <v>44257</v>
       </c>
       <c r="E990" t="n">
         <v>13</v>
@@ -71628,25 +71628,25 @@
       </c>
       <c r="H990" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I990" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J990" t="n">
-        <v>780</v>
+        <v>320</v>
       </c>
       <c r="K990" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="L990" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="M990" t="n">
-        <v>6756</v>
+        <v>7219</v>
       </c>
       <c r="N990" t="inlineStr">
         <is>
@@ -71655,11 +71655,11 @@
       </c>
       <c r="O990" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P990" t="n">
-        <v>375</v>
+        <v>401</v>
       </c>
       <c r="Q990" t="n">
         <v>18</v>
@@ -71705,20 +71705,20 @@
       </c>
       <c r="I991" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J991" t="n">
-        <v>1130</v>
+        <v>370</v>
       </c>
       <c r="K991" t="n">
-        <v>10000</v>
+        <v>8500</v>
       </c>
       <c r="L991" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="M991" t="n">
-        <v>10575</v>
+        <v>8838</v>
       </c>
       <c r="N991" t="inlineStr">
         <is>
@@ -71727,11 +71727,11 @@
       </c>
       <c r="O991" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P991" t="n">
-        <v>588</v>
+        <v>491</v>
       </c>
       <c r="Q991" t="n">
         <v>18</v>
@@ -71777,20 +71777,20 @@
       </c>
       <c r="I992" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J992" t="n">
-        <v>360</v>
+        <v>960</v>
       </c>
       <c r="K992" t="n">
-        <v>4500</v>
+        <v>12000</v>
       </c>
       <c r="L992" t="n">
-        <v>5000</v>
+        <v>13000</v>
       </c>
       <c r="M992" t="n">
-        <v>4833</v>
+        <v>12583</v>
       </c>
       <c r="N992" t="inlineStr">
         <is>
@@ -71799,11 +71799,11 @@
       </c>
       <c r="O992" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P992" t="n">
-        <v>268</v>
+        <v>699</v>
       </c>
       <c r="Q992" t="n">
         <v>18</v>
@@ -71849,20 +71849,20 @@
       </c>
       <c r="I993" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J993" t="n">
-        <v>820</v>
+        <v>780</v>
       </c>
       <c r="K993" t="n">
+        <v>6500</v>
+      </c>
+      <c r="L993" t="n">
         <v>7000</v>
       </c>
-      <c r="L993" t="n">
-        <v>8000</v>
-      </c>
       <c r="M993" t="n">
-        <v>7451</v>
+        <v>6756</v>
       </c>
       <c r="N993" t="inlineStr">
         <is>
@@ -71871,11 +71871,11 @@
       </c>
       <c r="O993" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P993" t="n">
-        <v>414</v>
+        <v>375</v>
       </c>
       <c r="Q993" t="n">
         <v>18</v>
@@ -71901,7 +71901,7 @@
         </is>
       </c>
       <c r="D994" s="2" t="n">
-        <v>44175</v>
+        <v>44411</v>
       </c>
       <c r="E994" t="n">
         <v>13</v>
@@ -71921,20 +71921,20 @@
       </c>
       <c r="I994" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J994" t="n">
-        <v>1080</v>
+        <v>1130</v>
       </c>
       <c r="K994" t="n">
-        <v>9500</v>
+        <v>10000</v>
       </c>
       <c r="L994" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M994" t="n">
-        <v>9778</v>
+        <v>10575</v>
       </c>
       <c r="N994" t="inlineStr">
         <is>
@@ -71943,11 +71943,11 @@
       </c>
       <c r="O994" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P994" t="n">
-        <v>543</v>
+        <v>588</v>
       </c>
       <c r="Q994" t="n">
         <v>18</v>
@@ -71973,7 +71973,7 @@
         </is>
       </c>
       <c r="D995" s="2" t="n">
-        <v>44175</v>
+        <v>44411</v>
       </c>
       <c r="E995" t="n">
         <v>13</v>
@@ -71993,20 +71993,20 @@
       </c>
       <c r="I995" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J995" t="n">
-        <v>1280</v>
+        <v>360</v>
       </c>
       <c r="K995" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="L995" t="n">
-        <v>7500</v>
+        <v>5000</v>
       </c>
       <c r="M995" t="n">
-        <v>7266</v>
+        <v>4833</v>
       </c>
       <c r="N995" t="inlineStr">
         <is>
@@ -72019,7 +72019,7 @@
         </is>
       </c>
       <c r="P995" t="n">
-        <v>404</v>
+        <v>268</v>
       </c>
       <c r="Q995" t="n">
         <v>18</v>
@@ -72045,7 +72045,7 @@
         </is>
       </c>
       <c r="D996" s="2" t="n">
-        <v>44175</v>
+        <v>44411</v>
       </c>
       <c r="E996" t="n">
         <v>13</v>
@@ -72069,16 +72069,16 @@
         </is>
       </c>
       <c r="J996" t="n">
-        <v>880</v>
+        <v>820</v>
       </c>
       <c r="K996" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="L996" t="n">
-        <v>5500</v>
+        <v>8000</v>
       </c>
       <c r="M996" t="n">
-        <v>5273</v>
+        <v>7451</v>
       </c>
       <c r="N996" t="inlineStr">
         <is>
@@ -72087,11 +72087,11 @@
       </c>
       <c r="O996" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P996" t="n">
-        <v>293</v>
+        <v>414</v>
       </c>
       <c r="Q996" t="n">
         <v>18</v>
@@ -72117,7 +72117,7 @@
         </is>
       </c>
       <c r="D997" s="2" t="n">
-        <v>44196</v>
+        <v>44175</v>
       </c>
       <c r="E997" t="n">
         <v>13</v>
@@ -72141,16 +72141,16 @@
         </is>
       </c>
       <c r="J997" t="n">
-        <v>1130</v>
+        <v>1080</v>
       </c>
       <c r="K997" t="n">
-        <v>15000</v>
+        <v>9500</v>
       </c>
       <c r="L997" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="M997" t="n">
-        <v>15575</v>
+        <v>9778</v>
       </c>
       <c r="N997" t="inlineStr">
         <is>
@@ -72159,11 +72159,11 @@
       </c>
       <c r="O997" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P997" t="n">
-        <v>865</v>
+        <v>543</v>
       </c>
       <c r="Q997" t="n">
         <v>18</v>
@@ -72189,7 +72189,7 @@
         </is>
       </c>
       <c r="D998" s="2" t="n">
-        <v>44196</v>
+        <v>44175</v>
       </c>
       <c r="E998" t="n">
         <v>13</v>
@@ -72213,16 +72213,16 @@
         </is>
       </c>
       <c r="J998" t="n">
-        <v>1400</v>
+        <v>1280</v>
       </c>
       <c r="K998" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="L998" t="n">
-        <v>14000</v>
+        <v>7500</v>
       </c>
       <c r="M998" t="n">
-        <v>13514</v>
+        <v>7266</v>
       </c>
       <c r="N998" t="inlineStr">
         <is>
@@ -72231,11 +72231,11 @@
       </c>
       <c r="O998" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P998" t="n">
-        <v>751</v>
+        <v>404</v>
       </c>
       <c r="Q998" t="n">
         <v>18</v>
@@ -72261,7 +72261,7 @@
         </is>
       </c>
       <c r="D999" s="2" t="n">
-        <v>44196</v>
+        <v>44175</v>
       </c>
       <c r="E999" t="n">
         <v>13</v>
@@ -72285,16 +72285,16 @@
         </is>
       </c>
       <c r="J999" t="n">
-        <v>1180</v>
+        <v>880</v>
       </c>
       <c r="K999" t="n">
-        <v>7500</v>
+        <v>5000</v>
       </c>
       <c r="L999" t="n">
-        <v>8000</v>
+        <v>5500</v>
       </c>
       <c r="M999" t="n">
-        <v>7746</v>
+        <v>5273</v>
       </c>
       <c r="N999" t="inlineStr">
         <is>
@@ -72303,11 +72303,11 @@
       </c>
       <c r="O999" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P999" t="n">
-        <v>430</v>
+        <v>293</v>
       </c>
       <c r="Q999" t="n">
         <v>18</v>
@@ -72353,20 +72353,20 @@
       </c>
       <c r="I1000" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1000" t="n">
-        <v>520</v>
+        <v>1130</v>
       </c>
       <c r="K1000" t="n">
-        <v>4500</v>
+        <v>15000</v>
       </c>
       <c r="L1000" t="n">
-        <v>5000</v>
+        <v>16000</v>
       </c>
       <c r="M1000" t="n">
-        <v>4788</v>
+        <v>15575</v>
       </c>
       <c r="N1000" t="inlineStr">
         <is>
@@ -72379,7 +72379,7 @@
         </is>
       </c>
       <c r="P1000" t="n">
-        <v>266</v>
+        <v>865</v>
       </c>
       <c r="Q1000" t="n">
         <v>18</v>
@@ -72405,7 +72405,7 @@
         </is>
       </c>
       <c r="D1001" s="2" t="n">
-        <v>44200</v>
+        <v>44196</v>
       </c>
       <c r="E1001" t="n">
         <v>13</v>
@@ -72425,20 +72425,20 @@
       </c>
       <c r="I1001" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1001" t="n">
-        <v>260</v>
+        <v>1400</v>
       </c>
       <c r="K1001" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="L1001" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="M1001" t="n">
-        <v>20000</v>
+        <v>13514</v>
       </c>
       <c r="N1001" t="inlineStr">
         <is>
@@ -72451,7 +72451,7 @@
         </is>
       </c>
       <c r="P1001" t="n">
-        <v>1111</v>
+        <v>751</v>
       </c>
       <c r="Q1001" t="n">
         <v>18</v>
@@ -72477,7 +72477,7 @@
         </is>
       </c>
       <c r="D1002" s="2" t="n">
-        <v>44200</v>
+        <v>44196</v>
       </c>
       <c r="E1002" t="n">
         <v>13</v>
@@ -72497,20 +72497,20 @@
       </c>
       <c r="I1002" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1002" t="n">
-        <v>200</v>
+        <v>1180</v>
       </c>
       <c r="K1002" t="n">
-        <v>18000</v>
+        <v>7500</v>
       </c>
       <c r="L1002" t="n">
-        <v>18000</v>
+        <v>8000</v>
       </c>
       <c r="M1002" t="n">
-        <v>18000</v>
+        <v>7746</v>
       </c>
       <c r="N1002" t="inlineStr">
         <is>
@@ -72523,7 +72523,7 @@
         </is>
       </c>
       <c r="P1002" t="n">
-        <v>1000</v>
+        <v>430</v>
       </c>
       <c r="Q1002" t="n">
         <v>18</v>
@@ -72549,7 +72549,7 @@
         </is>
       </c>
       <c r="D1003" s="2" t="n">
-        <v>44200</v>
+        <v>44196</v>
       </c>
       <c r="E1003" t="n">
         <v>13</v>
@@ -72569,20 +72569,20 @@
       </c>
       <c r="I1003" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J1003" t="n">
-        <v>150</v>
+        <v>520</v>
       </c>
       <c r="K1003" t="n">
-        <v>16000</v>
+        <v>4500</v>
       </c>
       <c r="L1003" t="n">
-        <v>16000</v>
+        <v>5000</v>
       </c>
       <c r="M1003" t="n">
-        <v>16000</v>
+        <v>4788</v>
       </c>
       <c r="N1003" t="inlineStr">
         <is>
@@ -72595,7 +72595,7 @@
         </is>
       </c>
       <c r="P1003" t="n">
-        <v>889</v>
+        <v>266</v>
       </c>
       <c r="Q1003" t="n">
         <v>18</v>
@@ -72621,7 +72621,7 @@
         </is>
       </c>
       <c r="D1004" s="2" t="n">
-        <v>44459</v>
+        <v>44200</v>
       </c>
       <c r="E1004" t="n">
         <v>13</v>
@@ -72645,16 +72645,16 @@
         </is>
       </c>
       <c r="J1004" t="n">
-        <v>830</v>
+        <v>260</v>
       </c>
       <c r="K1004" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="L1004" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="M1004" t="n">
-        <v>17542</v>
+        <v>20000</v>
       </c>
       <c r="N1004" t="inlineStr">
         <is>
@@ -72663,11 +72663,11 @@
       </c>
       <c r="O1004" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P1004" t="n">
-        <v>975</v>
+        <v>1111</v>
       </c>
       <c r="Q1004" t="n">
         <v>18</v>
@@ -72693,7 +72693,7 @@
         </is>
       </c>
       <c r="D1005" s="2" t="n">
-        <v>44459</v>
+        <v>44200</v>
       </c>
       <c r="E1005" t="n">
         <v>13</v>
@@ -72717,16 +72717,16 @@
         </is>
       </c>
       <c r="J1005" t="n">
-        <v>1020</v>
+        <v>200</v>
       </c>
       <c r="K1005" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="L1005" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="M1005" t="n">
-        <v>15539</v>
+        <v>18000</v>
       </c>
       <c r="N1005" t="inlineStr">
         <is>
@@ -72735,11 +72735,11 @@
       </c>
       <c r="O1005" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P1005" t="n">
-        <v>863</v>
+        <v>1000</v>
       </c>
       <c r="Q1005" t="n">
         <v>18</v>
@@ -72765,7 +72765,7 @@
         </is>
       </c>
       <c r="D1006" s="2" t="n">
-        <v>44459</v>
+        <v>44200</v>
       </c>
       <c r="E1006" t="n">
         <v>13</v>
@@ -72789,16 +72789,16 @@
         </is>
       </c>
       <c r="J1006" t="n">
-        <v>980</v>
+        <v>150</v>
       </c>
       <c r="K1006" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="L1006" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="M1006" t="n">
-        <v>12490</v>
+        <v>16000</v>
       </c>
       <c r="N1006" t="inlineStr">
         <is>
@@ -72807,11 +72807,11 @@
       </c>
       <c r="O1006" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P1006" t="n">
-        <v>694</v>
+        <v>889</v>
       </c>
       <c r="Q1006" t="n">
         <v>18</v>
@@ -72837,7 +72837,7 @@
         </is>
       </c>
       <c r="D1007" s="2" t="n">
-        <v>44188</v>
+        <v>44459</v>
       </c>
       <c r="E1007" t="n">
         <v>13</v>
@@ -72861,16 +72861,16 @@
         </is>
       </c>
       <c r="J1007" t="n">
-        <v>1000</v>
+        <v>830</v>
       </c>
       <c r="K1007" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="L1007" t="n">
-        <v>21000</v>
+        <v>18000</v>
       </c>
       <c r="M1007" t="n">
-        <v>20600</v>
+        <v>17542</v>
       </c>
       <c r="N1007" t="inlineStr">
         <is>
@@ -72879,11 +72879,11 @@
       </c>
       <c r="O1007" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1007" t="n">
-        <v>1144</v>
+        <v>975</v>
       </c>
       <c r="Q1007" t="n">
         <v>18</v>
@@ -72909,7 +72909,7 @@
         </is>
       </c>
       <c r="D1008" s="2" t="n">
-        <v>44188</v>
+        <v>44459</v>
       </c>
       <c r="E1008" t="n">
         <v>13</v>
@@ -72933,16 +72933,16 @@
         </is>
       </c>
       <c r="J1008" t="n">
-        <v>1150</v>
+        <v>1020</v>
       </c>
       <c r="K1008" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="L1008" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="M1008" t="n">
-        <v>18435</v>
+        <v>15539</v>
       </c>
       <c r="N1008" t="inlineStr">
         <is>
@@ -72951,11 +72951,11 @@
       </c>
       <c r="O1008" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1008" t="n">
-        <v>1024</v>
+        <v>863</v>
       </c>
       <c r="Q1008" t="n">
         <v>18</v>
@@ -72981,7 +72981,7 @@
         </is>
       </c>
       <c r="D1009" s="2" t="n">
-        <v>44188</v>
+        <v>44459</v>
       </c>
       <c r="E1009" t="n">
         <v>13</v>
@@ -73005,16 +73005,16 @@
         </is>
       </c>
       <c r="J1009" t="n">
-        <v>880</v>
+        <v>980</v>
       </c>
       <c r="K1009" t="n">
+        <v>12000</v>
+      </c>
+      <c r="L1009" t="n">
         <v>13000</v>
       </c>
-      <c r="L1009" t="n">
-        <v>14000</v>
-      </c>
       <c r="M1009" t="n">
-        <v>13545</v>
+        <v>12490</v>
       </c>
       <c r="N1009" t="inlineStr">
         <is>
@@ -73023,11 +73023,11 @@
       </c>
       <c r="O1009" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1009" t="n">
-        <v>752</v>
+        <v>694</v>
       </c>
       <c r="Q1009" t="n">
         <v>18</v>
@@ -73053,7 +73053,7 @@
         </is>
       </c>
       <c r="D1010" s="2" t="n">
-        <v>44258</v>
+        <v>44188</v>
       </c>
       <c r="E1010" t="n">
         <v>13</v>
@@ -73077,16 +73077,16 @@
         </is>
       </c>
       <c r="J1010" t="n">
-        <v>430</v>
+        <v>1000</v>
       </c>
       <c r="K1010" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="L1010" t="n">
-        <v>15000</v>
+        <v>21000</v>
       </c>
       <c r="M1010" t="n">
-        <v>14581</v>
+        <v>20600</v>
       </c>
       <c r="N1010" t="inlineStr">
         <is>
@@ -73095,11 +73095,11 @@
       </c>
       <c r="O1010" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P1010" t="n">
-        <v>810</v>
+        <v>1144</v>
       </c>
       <c r="Q1010" t="n">
         <v>18</v>
@@ -73125,7 +73125,7 @@
         </is>
       </c>
       <c r="D1011" s="2" t="n">
-        <v>44258</v>
+        <v>44188</v>
       </c>
       <c r="E1011" t="n">
         <v>13</v>
@@ -73149,16 +73149,16 @@
         </is>
       </c>
       <c r="J1011" t="n">
-        <v>550</v>
+        <v>1150</v>
       </c>
       <c r="K1011" t="n">
-        <v>11000</v>
+        <v>18000</v>
       </c>
       <c r="L1011" t="n">
-        <v>12000</v>
+        <v>19000</v>
       </c>
       <c r="M1011" t="n">
-        <v>11455</v>
+        <v>18435</v>
       </c>
       <c r="N1011" t="inlineStr">
         <is>
@@ -73167,11 +73167,11 @@
       </c>
       <c r="O1011" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P1011" t="n">
-        <v>636</v>
+        <v>1024</v>
       </c>
       <c r="Q1011" t="n">
         <v>18</v>
@@ -73197,7 +73197,7 @@
         </is>
       </c>
       <c r="D1012" s="2" t="n">
-        <v>44258</v>
+        <v>44188</v>
       </c>
       <c r="E1012" t="n">
         <v>13</v>
@@ -73221,16 +73221,16 @@
         </is>
       </c>
       <c r="J1012" t="n">
-        <v>390</v>
+        <v>880</v>
       </c>
       <c r="K1012" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="L1012" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="M1012" t="n">
-        <v>9462</v>
+        <v>13545</v>
       </c>
       <c r="N1012" t="inlineStr">
         <is>
@@ -73239,11 +73239,11 @@
       </c>
       <c r="O1012" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P1012" t="n">
-        <v>526</v>
+        <v>752</v>
       </c>
       <c r="Q1012" t="n">
         <v>18</v>
@@ -73284,7 +73284,7 @@
       </c>
       <c r="H1013" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I1013" t="inlineStr">
@@ -73293,16 +73293,16 @@
         </is>
       </c>
       <c r="J1013" t="n">
-        <v>220</v>
+        <v>430</v>
       </c>
       <c r="K1013" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="L1013" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="M1013" t="n">
-        <v>11545</v>
+        <v>14581</v>
       </c>
       <c r="N1013" t="inlineStr">
         <is>
@@ -73315,7 +73315,7 @@
         </is>
       </c>
       <c r="P1013" t="n">
-        <v>641</v>
+        <v>810</v>
       </c>
       <c r="Q1013" t="n">
         <v>18</v>
@@ -73356,7 +73356,7 @@
       </c>
       <c r="H1014" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I1014" t="inlineStr">
@@ -73365,16 +73365,16 @@
         </is>
       </c>
       <c r="J1014" t="n">
-        <v>390</v>
+        <v>550</v>
       </c>
       <c r="K1014" t="n">
-        <v>9500</v>
+        <v>11000</v>
       </c>
       <c r="L1014" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M1014" t="n">
-        <v>9821</v>
+        <v>11455</v>
       </c>
       <c r="N1014" t="inlineStr">
         <is>
@@ -73387,7 +73387,7 @@
         </is>
       </c>
       <c r="P1014" t="n">
-        <v>546</v>
+        <v>636</v>
       </c>
       <c r="Q1014" t="n">
         <v>18</v>
@@ -73428,7 +73428,7 @@
       </c>
       <c r="H1015" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I1015" t="inlineStr">
@@ -73437,16 +73437,16 @@
         </is>
       </c>
       <c r="J1015" t="n">
-        <v>360</v>
+        <v>390</v>
       </c>
       <c r="K1015" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L1015" t="n">
-        <v>7500</v>
+        <v>10000</v>
       </c>
       <c r="M1015" t="n">
-        <v>7306</v>
+        <v>9462</v>
       </c>
       <c r="N1015" t="inlineStr">
         <is>
@@ -73459,7 +73459,7 @@
         </is>
       </c>
       <c r="P1015" t="n">
-        <v>406</v>
+        <v>526</v>
       </c>
       <c r="Q1015" t="n">
         <v>18</v>
@@ -73485,7 +73485,7 @@
         </is>
       </c>
       <c r="D1016" s="2" t="n">
-        <v>44298</v>
+        <v>44258</v>
       </c>
       <c r="E1016" t="n">
         <v>13</v>
@@ -73500,7 +73500,7 @@
       </c>
       <c r="H1016" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I1016" t="inlineStr">
@@ -73509,16 +73509,16 @@
         </is>
       </c>
       <c r="J1016" t="n">
-        <v>340</v>
+        <v>220</v>
       </c>
       <c r="K1016" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="L1016" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="M1016" t="n">
-        <v>14000</v>
+        <v>11545</v>
       </c>
       <c r="N1016" t="inlineStr">
         <is>
@@ -73527,11 +73527,11 @@
       </c>
       <c r="O1016" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P1016" t="n">
-        <v>778</v>
+        <v>641</v>
       </c>
       <c r="Q1016" t="n">
         <v>18</v>
@@ -73557,7 +73557,7 @@
         </is>
       </c>
       <c r="D1017" s="2" t="n">
-        <v>44298</v>
+        <v>44258</v>
       </c>
       <c r="E1017" t="n">
         <v>13</v>
@@ -73572,7 +73572,7 @@
       </c>
       <c r="H1017" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I1017" t="inlineStr">
@@ -73581,16 +73581,16 @@
         </is>
       </c>
       <c r="J1017" t="n">
-        <v>500</v>
+        <v>390</v>
       </c>
       <c r="K1017" t="n">
-        <v>12000</v>
+        <v>9500</v>
       </c>
       <c r="L1017" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M1017" t="n">
-        <v>12000</v>
+        <v>9821</v>
       </c>
       <c r="N1017" t="inlineStr">
         <is>
@@ -73599,11 +73599,11 @@
       </c>
       <c r="O1017" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P1017" t="n">
-        <v>667</v>
+        <v>546</v>
       </c>
       <c r="Q1017" t="n">
         <v>18</v>
@@ -73629,7 +73629,7 @@
         </is>
       </c>
       <c r="D1018" s="2" t="n">
-        <v>44298</v>
+        <v>44258</v>
       </c>
       <c r="E1018" t="n">
         <v>13</v>
@@ -73644,7 +73644,7 @@
       </c>
       <c r="H1018" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I1018" t="inlineStr">
@@ -73653,16 +73653,16 @@
         </is>
       </c>
       <c r="J1018" t="n">
-        <v>280</v>
+        <v>360</v>
       </c>
       <c r="K1018" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="L1018" t="n">
-        <v>10000</v>
+        <v>7500</v>
       </c>
       <c r="M1018" t="n">
-        <v>10000</v>
+        <v>7306</v>
       </c>
       <c r="N1018" t="inlineStr">
         <is>
@@ -73671,11 +73671,11 @@
       </c>
       <c r="O1018" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P1018" t="n">
-        <v>556</v>
+        <v>406</v>
       </c>
       <c r="Q1018" t="n">
         <v>18</v>
@@ -73721,20 +73721,20 @@
       </c>
       <c r="I1019" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1019" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K1019" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="L1019" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="M1019" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="N1019" t="inlineStr">
         <is>
@@ -73747,7 +73747,7 @@
         </is>
       </c>
       <c r="P1019" t="n">
-        <v>500</v>
+        <v>778</v>
       </c>
       <c r="Q1019" t="n">
         <v>18</v>
@@ -73773,7 +73773,7 @@
         </is>
       </c>
       <c r="D1020" s="2" t="n">
-        <v>44432</v>
+        <v>44298</v>
       </c>
       <c r="E1020" t="n">
         <v>13</v>
@@ -73793,20 +73793,20 @@
       </c>
       <c r="I1020" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1020" t="n">
-        <v>1180</v>
+        <v>500</v>
       </c>
       <c r="K1020" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="L1020" t="n">
         <v>12000</v>
       </c>
       <c r="M1020" t="n">
-        <v>11525</v>
+        <v>12000</v>
       </c>
       <c r="N1020" t="inlineStr">
         <is>
@@ -73815,11 +73815,11 @@
       </c>
       <c r="O1020" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P1020" t="n">
-        <v>640</v>
+        <v>667</v>
       </c>
       <c r="Q1020" t="n">
         <v>18</v>
@@ -73845,7 +73845,7 @@
         </is>
       </c>
       <c r="D1021" s="2" t="n">
-        <v>44432</v>
+        <v>44298</v>
       </c>
       <c r="E1021" t="n">
         <v>13</v>
@@ -73865,20 +73865,20 @@
       </c>
       <c r="I1021" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1021" t="n">
-        <v>820</v>
+        <v>280</v>
       </c>
       <c r="K1021" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="L1021" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="M1021" t="n">
-        <v>5463</v>
+        <v>10000</v>
       </c>
       <c r="N1021" t="inlineStr">
         <is>
@@ -73887,11 +73887,11 @@
       </c>
       <c r="O1021" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P1021" t="n">
-        <v>304</v>
+        <v>556</v>
       </c>
       <c r="Q1021" t="n">
         <v>18</v>
@@ -73917,7 +73917,7 @@
         </is>
       </c>
       <c r="D1022" s="2" t="n">
-        <v>44432</v>
+        <v>44298</v>
       </c>
       <c r="E1022" t="n">
         <v>13</v>
@@ -73937,20 +73937,20 @@
       </c>
       <c r="I1022" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J1022" t="n">
-        <v>1220</v>
+        <v>160</v>
       </c>
       <c r="K1022" t="n">
         <v>9000</v>
       </c>
       <c r="L1022" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="M1022" t="n">
-        <v>9541</v>
+        <v>9000</v>
       </c>
       <c r="N1022" t="inlineStr">
         <is>
@@ -73959,11 +73959,11 @@
       </c>
       <c r="O1022" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P1022" t="n">
-        <v>530</v>
+        <v>500</v>
       </c>
       <c r="Q1022" t="n">
         <v>18</v>
@@ -74009,20 +74009,20 @@
       </c>
       <c r="I1023" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1023" t="n">
-        <v>450</v>
+        <v>1180</v>
       </c>
       <c r="K1023" t="n">
-        <v>3000</v>
+        <v>11000</v>
       </c>
       <c r="L1023" t="n">
-        <v>4000</v>
+        <v>12000</v>
       </c>
       <c r="M1023" t="n">
-        <v>3600</v>
+        <v>11525</v>
       </c>
       <c r="N1023" t="inlineStr">
         <is>
@@ -74031,11 +74031,11 @@
       </c>
       <c r="O1023" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1023" t="n">
-        <v>200</v>
+        <v>640</v>
       </c>
       <c r="Q1023" t="n">
         <v>18</v>
@@ -74081,20 +74081,20 @@
       </c>
       <c r="I1024" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1024" t="n">
-        <v>840</v>
+        <v>820</v>
       </c>
       <c r="K1024" t="n">
+        <v>5000</v>
+      </c>
+      <c r="L1024" t="n">
         <v>6000</v>
       </c>
-      <c r="L1024" t="n">
-        <v>7000</v>
-      </c>
       <c r="M1024" t="n">
-        <v>6548</v>
+        <v>5463</v>
       </c>
       <c r="N1024" t="inlineStr">
         <is>
@@ -74103,11 +74103,11 @@
       </c>
       <c r="O1024" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P1024" t="n">
-        <v>364</v>
+        <v>304</v>
       </c>
       <c r="Q1024" t="n">
         <v>18</v>
@@ -74133,7 +74133,7 @@
         </is>
       </c>
       <c r="D1025" s="2" t="n">
-        <v>44428</v>
+        <v>44432</v>
       </c>
       <c r="E1025" t="n">
         <v>13</v>
@@ -74153,20 +74153,20 @@
       </c>
       <c r="I1025" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1025" t="n">
-        <v>580</v>
+        <v>1220</v>
       </c>
       <c r="K1025" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="L1025" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M1025" t="n">
-        <v>6517</v>
+        <v>9541</v>
       </c>
       <c r="N1025" t="inlineStr">
         <is>
@@ -74175,11 +74175,11 @@
       </c>
       <c r="O1025" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1025" t="n">
-        <v>362</v>
+        <v>530</v>
       </c>
       <c r="Q1025" t="n">
         <v>18</v>
@@ -74205,7 +74205,7 @@
         </is>
       </c>
       <c r="D1026" s="2" t="n">
-        <v>44428</v>
+        <v>44432</v>
       </c>
       <c r="E1026" t="n">
         <v>13</v>
@@ -74225,20 +74225,20 @@
       </c>
       <c r="I1026" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1026" t="n">
-        <v>1040</v>
+        <v>450</v>
       </c>
       <c r="K1026" t="n">
-        <v>11000</v>
+        <v>3000</v>
       </c>
       <c r="L1026" t="n">
-        <v>12000</v>
+        <v>4000</v>
       </c>
       <c r="M1026" t="n">
-        <v>11538</v>
+        <v>3600</v>
       </c>
       <c r="N1026" t="inlineStr">
         <is>
@@ -74247,11 +74247,11 @@
       </c>
       <c r="O1026" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P1026" t="n">
-        <v>641</v>
+        <v>200</v>
       </c>
       <c r="Q1026" t="n">
         <v>18</v>
@@ -74277,7 +74277,7 @@
         </is>
       </c>
       <c r="D1027" s="2" t="n">
-        <v>44428</v>
+        <v>44432</v>
       </c>
       <c r="E1027" t="n">
         <v>13</v>
@@ -74297,20 +74297,20 @@
       </c>
       <c r="I1027" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1027" t="n">
-        <v>480</v>
+        <v>840</v>
       </c>
       <c r="K1027" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="L1027" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="M1027" t="n">
-        <v>4781</v>
+        <v>6548</v>
       </c>
       <c r="N1027" t="inlineStr">
         <is>
@@ -74319,11 +74319,11 @@
       </c>
       <c r="O1027" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1027" t="n">
-        <v>266</v>
+        <v>364</v>
       </c>
       <c r="Q1027" t="n">
         <v>18</v>
@@ -74369,20 +74369,20 @@
       </c>
       <c r="I1028" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1028" t="n">
-        <v>1020</v>
+        <v>580</v>
       </c>
       <c r="K1028" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L1028" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M1028" t="n">
-        <v>8549</v>
+        <v>6517</v>
       </c>
       <c r="N1028" t="inlineStr">
         <is>
@@ -74391,11 +74391,11 @@
       </c>
       <c r="O1028" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P1028" t="n">
-        <v>475</v>
+        <v>362</v>
       </c>
       <c r="Q1028" t="n">
         <v>18</v>
@@ -74441,20 +74441,20 @@
       </c>
       <c r="I1029" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1029" t="n">
-        <v>290</v>
+        <v>1040</v>
       </c>
       <c r="K1029" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="L1029" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="M1029" t="n">
-        <v>6621</v>
+        <v>11538</v>
       </c>
       <c r="N1029" t="inlineStr">
         <is>
@@ -74467,7 +74467,7 @@
         </is>
       </c>
       <c r="P1029" t="n">
-        <v>368</v>
+        <v>641</v>
       </c>
       <c r="Q1029" t="n">
         <v>18</v>
@@ -74493,7 +74493,7 @@
         </is>
       </c>
       <c r="D1030" s="2" t="n">
-        <v>44340</v>
+        <v>44428</v>
       </c>
       <c r="E1030" t="n">
         <v>13</v>
@@ -74513,20 +74513,20 @@
       </c>
       <c r="I1030" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1030" t="n">
-        <v>400</v>
+        <v>480</v>
       </c>
       <c r="K1030" t="n">
-        <v>9000</v>
+        <v>4500</v>
       </c>
       <c r="L1030" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="M1030" t="n">
-        <v>9550</v>
+        <v>4781</v>
       </c>
       <c r="N1030" t="inlineStr">
         <is>
@@ -74539,7 +74539,7 @@
         </is>
       </c>
       <c r="P1030" t="n">
-        <v>531</v>
+        <v>266</v>
       </c>
       <c r="Q1030" t="n">
         <v>18</v>
@@ -74565,7 +74565,7 @@
         </is>
       </c>
       <c r="D1031" s="2" t="n">
-        <v>44340</v>
+        <v>44428</v>
       </c>
       <c r="E1031" t="n">
         <v>13</v>
@@ -74585,20 +74585,20 @@
       </c>
       <c r="I1031" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1031" t="n">
-        <v>380</v>
+        <v>1020</v>
       </c>
       <c r="K1031" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="L1031" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="M1031" t="n">
-        <v>13474</v>
+        <v>8549</v>
       </c>
       <c r="N1031" t="inlineStr">
         <is>
@@ -74611,7 +74611,7 @@
         </is>
       </c>
       <c r="P1031" t="n">
-        <v>749</v>
+        <v>475</v>
       </c>
       <c r="Q1031" t="n">
         <v>18</v>
@@ -74637,7 +74637,7 @@
         </is>
       </c>
       <c r="D1032" s="2" t="n">
-        <v>44340</v>
+        <v>44428</v>
       </c>
       <c r="E1032" t="n">
         <v>13</v>
@@ -74657,20 +74657,20 @@
       </c>
       <c r="I1032" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1032" t="n">
-        <v>460</v>
+        <v>290</v>
       </c>
       <c r="K1032" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L1032" t="n">
         <v>7000</v>
       </c>
-      <c r="L1032" t="n">
-        <v>8000</v>
-      </c>
       <c r="M1032" t="n">
-        <v>7522</v>
+        <v>6621</v>
       </c>
       <c r="N1032" t="inlineStr">
         <is>
@@ -74679,11 +74679,11 @@
       </c>
       <c r="O1032" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1032" t="n">
-        <v>418</v>
+        <v>368</v>
       </c>
       <c r="Q1032" t="n">
         <v>18</v>
@@ -74729,20 +74729,20 @@
       </c>
       <c r="I1033" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1033" t="n">
-        <v>440</v>
+        <v>400</v>
       </c>
       <c r="K1033" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="L1033" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M1033" t="n">
-        <v>11568</v>
+        <v>9550</v>
       </c>
       <c r="N1033" t="inlineStr">
         <is>
@@ -74751,11 +74751,11 @@
       </c>
       <c r="O1033" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P1033" t="n">
-        <v>643</v>
+        <v>531</v>
       </c>
       <c r="Q1033" t="n">
         <v>18</v>
@@ -74801,20 +74801,20 @@
       </c>
       <c r="I1034" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1034" t="n">
-        <v>400</v>
+        <v>380</v>
       </c>
       <c r="K1034" t="n">
-        <v>5000</v>
+        <v>13000</v>
       </c>
       <c r="L1034" t="n">
-        <v>6000</v>
+        <v>14000</v>
       </c>
       <c r="M1034" t="n">
-        <v>5550</v>
+        <v>13474</v>
       </c>
       <c r="N1034" t="inlineStr">
         <is>
@@ -74823,11 +74823,11 @@
       </c>
       <c r="O1034" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1034" t="n">
-        <v>308</v>
+        <v>749</v>
       </c>
       <c r="Q1034" t="n">
         <v>18</v>
@@ -74873,20 +74873,20 @@
       </c>
       <c r="I1035" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1035" t="n">
-        <v>340</v>
+        <v>460</v>
       </c>
       <c r="K1035" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="L1035" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M1035" t="n">
-        <v>9588</v>
+        <v>7522</v>
       </c>
       <c r="N1035" t="inlineStr">
         <is>
@@ -74895,11 +74895,11 @@
       </c>
       <c r="O1035" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P1035" t="n">
-        <v>533</v>
+        <v>418</v>
       </c>
       <c r="Q1035" t="n">
         <v>18</v>
@@ -74925,7 +74925,7 @@
         </is>
       </c>
       <c r="D1036" s="2" t="n">
-        <v>44224</v>
+        <v>44340</v>
       </c>
       <c r="E1036" t="n">
         <v>13</v>
@@ -74945,20 +74945,20 @@
       </c>
       <c r="I1036" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1036" t="n">
-        <v>1050</v>
+        <v>440</v>
       </c>
       <c r="K1036" t="n">
+        <v>11000</v>
+      </c>
+      <c r="L1036" t="n">
         <v>12000</v>
       </c>
-      <c r="L1036" t="n">
-        <v>13000</v>
-      </c>
       <c r="M1036" t="n">
-        <v>12571</v>
+        <v>11568</v>
       </c>
       <c r="N1036" t="inlineStr">
         <is>
@@ -74967,11 +74967,11 @@
       </c>
       <c r="O1036" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1036" t="n">
-        <v>698</v>
+        <v>643</v>
       </c>
       <c r="Q1036" t="n">
         <v>18</v>
@@ -74997,7 +74997,7 @@
         </is>
       </c>
       <c r="D1037" s="2" t="n">
-        <v>44224</v>
+        <v>44340</v>
       </c>
       <c r="E1037" t="n">
         <v>13</v>
@@ -75017,20 +75017,20 @@
       </c>
       <c r="I1037" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1037" t="n">
-        <v>1590</v>
+        <v>400</v>
       </c>
       <c r="K1037" t="n">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="L1037" t="n">
-        <v>9500</v>
+        <v>6000</v>
       </c>
       <c r="M1037" t="n">
-        <v>5009</v>
+        <v>5550</v>
       </c>
       <c r="N1037" t="inlineStr">
         <is>
@@ -75043,7 +75043,7 @@
         </is>
       </c>
       <c r="P1037" t="n">
-        <v>278</v>
+        <v>308</v>
       </c>
       <c r="Q1037" t="n">
         <v>18</v>
@@ -75069,7 +75069,7 @@
         </is>
       </c>
       <c r="D1038" s="2" t="n">
-        <v>44224</v>
+        <v>44340</v>
       </c>
       <c r="E1038" t="n">
         <v>13</v>
@@ -75093,16 +75093,16 @@
         </is>
       </c>
       <c r="J1038" t="n">
-        <v>1350</v>
+        <v>340</v>
       </c>
       <c r="K1038" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="L1038" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M1038" t="n">
-        <v>7778</v>
+        <v>9588</v>
       </c>
       <c r="N1038" t="inlineStr">
         <is>
@@ -75111,11 +75111,11 @@
       </c>
       <c r="O1038" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1038" t="n">
-        <v>432</v>
+        <v>533</v>
       </c>
       <c r="Q1038" t="n">
         <v>18</v>
@@ -75156,7 +75156,7 @@
       </c>
       <c r="H1039" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I1039" t="inlineStr">
@@ -75165,16 +75165,16 @@
         </is>
       </c>
       <c r="J1039" t="n">
-        <v>450</v>
+        <v>1050</v>
       </c>
       <c r="K1039" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="L1039" t="n">
-        <v>8500</v>
+        <v>13000</v>
       </c>
       <c r="M1039" t="n">
-        <v>8278</v>
+        <v>12571</v>
       </c>
       <c r="N1039" t="inlineStr">
         <is>
@@ -75183,11 +75183,11 @@
       </c>
       <c r="O1039" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P1039" t="n">
-        <v>460</v>
+        <v>698</v>
       </c>
       <c r="Q1039" t="n">
         <v>18</v>
@@ -75228,7 +75228,7 @@
       </c>
       <c r="H1040" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I1040" t="inlineStr">
@@ -75237,16 +75237,16 @@
         </is>
       </c>
       <c r="J1040" t="n">
-        <v>950</v>
+        <v>1590</v>
       </c>
       <c r="K1040" t="n">
-        <v>7000</v>
+        <v>1000</v>
       </c>
       <c r="L1040" t="n">
-        <v>7500</v>
+        <v>9500</v>
       </c>
       <c r="M1040" t="n">
-        <v>7263</v>
+        <v>5009</v>
       </c>
       <c r="N1040" t="inlineStr">
         <is>
@@ -75255,11 +75255,11 @@
       </c>
       <c r="O1040" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P1040" t="n">
-        <v>404</v>
+        <v>278</v>
       </c>
       <c r="Q1040" t="n">
         <v>18</v>
@@ -75300,7 +75300,7 @@
       </c>
       <c r="H1041" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I1041" t="inlineStr">
@@ -75309,16 +75309,16 @@
         </is>
       </c>
       <c r="J1041" t="n">
-        <v>870</v>
+        <v>1350</v>
       </c>
       <c r="K1041" t="n">
-        <v>5000</v>
+        <v>7500</v>
       </c>
       <c r="L1041" t="n">
-        <v>5500</v>
+        <v>8000</v>
       </c>
       <c r="M1041" t="n">
-        <v>5224</v>
+        <v>7778</v>
       </c>
       <c r="N1041" t="inlineStr">
         <is>
@@ -75327,11 +75327,11 @@
       </c>
       <c r="O1041" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P1041" t="n">
-        <v>290</v>
+        <v>432</v>
       </c>
       <c r="Q1041" t="n">
         <v>18</v>
@@ -75357,7 +75357,7 @@
         </is>
       </c>
       <c r="D1042" s="2" t="n">
-        <v>44329</v>
+        <v>44224</v>
       </c>
       <c r="E1042" t="n">
         <v>13</v>
@@ -75372,7 +75372,7 @@
       </c>
       <c r="H1042" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I1042" t="inlineStr">
@@ -75381,16 +75381,16 @@
         </is>
       </c>
       <c r="J1042" t="n">
-        <v>750</v>
+        <v>450</v>
       </c>
       <c r="K1042" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="L1042" t="n">
-        <v>11000</v>
+        <v>8500</v>
       </c>
       <c r="M1042" t="n">
-        <v>10533</v>
+        <v>8278</v>
       </c>
       <c r="N1042" t="inlineStr">
         <is>
@@ -75399,11 +75399,11 @@
       </c>
       <c r="O1042" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1042" t="n">
-        <v>585</v>
+        <v>460</v>
       </c>
       <c r="Q1042" t="n">
         <v>18</v>
@@ -75429,7 +75429,7 @@
         </is>
       </c>
       <c r="D1043" s="2" t="n">
-        <v>44329</v>
+        <v>44224</v>
       </c>
       <c r="E1043" t="n">
         <v>13</v>
@@ -75444,25 +75444,25 @@
       </c>
       <c r="H1043" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I1043" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1043" t="n">
-        <v>530</v>
+        <v>950</v>
       </c>
       <c r="K1043" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="L1043" t="n">
-        <v>15000</v>
+        <v>7500</v>
       </c>
       <c r="M1043" t="n">
-        <v>14528</v>
+        <v>7263</v>
       </c>
       <c r="N1043" t="inlineStr">
         <is>
@@ -75471,11 +75471,11 @@
       </c>
       <c r="O1043" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1043" t="n">
-        <v>807</v>
+        <v>404</v>
       </c>
       <c r="Q1043" t="n">
         <v>18</v>
@@ -75501,7 +75501,7 @@
         </is>
       </c>
       <c r="D1044" s="2" t="n">
-        <v>44329</v>
+        <v>44224</v>
       </c>
       <c r="E1044" t="n">
         <v>13</v>
@@ -75516,25 +75516,25 @@
       </c>
       <c r="H1044" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I1044" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1044" t="n">
-        <v>720</v>
+        <v>870</v>
       </c>
       <c r="K1044" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="L1044" t="n">
-        <v>8500</v>
+        <v>5500</v>
       </c>
       <c r="M1044" t="n">
-        <v>8278</v>
+        <v>5224</v>
       </c>
       <c r="N1044" t="inlineStr">
         <is>
@@ -75543,11 +75543,11 @@
       </c>
       <c r="O1044" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1044" t="n">
-        <v>460</v>
+        <v>290</v>
       </c>
       <c r="Q1044" t="n">
         <v>18</v>
@@ -75593,20 +75593,20 @@
       </c>
       <c r="I1045" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1045" t="n">
-        <v>570</v>
+        <v>750</v>
       </c>
       <c r="K1045" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="L1045" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="M1045" t="n">
-        <v>12561</v>
+        <v>10533</v>
       </c>
       <c r="N1045" t="inlineStr">
         <is>
@@ -75615,11 +75615,11 @@
       </c>
       <c r="O1045" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P1045" t="n">
-        <v>698</v>
+        <v>585</v>
       </c>
       <c r="Q1045" t="n">
         <v>18</v>
@@ -75665,20 +75665,20 @@
       </c>
       <c r="I1046" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1046" t="n">
-        <v>780</v>
+        <v>530</v>
       </c>
       <c r="K1046" t="n">
-        <v>6000</v>
+        <v>14000</v>
       </c>
       <c r="L1046" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="M1046" t="n">
-        <v>6513</v>
+        <v>14528</v>
       </c>
       <c r="N1046" t="inlineStr">
         <is>
@@ -75687,11 +75687,11 @@
       </c>
       <c r="O1046" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1046" t="n">
-        <v>362</v>
+        <v>807</v>
       </c>
       <c r="Q1046" t="n">
         <v>18</v>
@@ -75737,20 +75737,20 @@
       </c>
       <c r="I1047" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1047" t="n">
-        <v>500</v>
+        <v>720</v>
       </c>
       <c r="K1047" t="n">
         <v>8000</v>
       </c>
       <c r="L1047" t="n">
-        <v>9000</v>
+        <v>8500</v>
       </c>
       <c r="M1047" t="n">
-        <v>8560</v>
+        <v>8278</v>
       </c>
       <c r="N1047" t="inlineStr">
         <is>
@@ -75759,11 +75759,11 @@
       </c>
       <c r="O1047" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P1047" t="n">
-        <v>476</v>
+        <v>460</v>
       </c>
       <c r="Q1047" t="n">
         <v>18</v>
@@ -75789,7 +75789,7 @@
         </is>
       </c>
       <c r="D1048" s="2" t="n">
-        <v>44452</v>
+        <v>44329</v>
       </c>
       <c r="E1048" t="n">
         <v>13</v>
@@ -75813,16 +75813,16 @@
         </is>
       </c>
       <c r="J1048" t="n">
-        <v>680</v>
+        <v>570</v>
       </c>
       <c r="K1048" t="n">
-        <v>22000</v>
+        <v>12000</v>
       </c>
       <c r="L1048" t="n">
-        <v>23000</v>
+        <v>13000</v>
       </c>
       <c r="M1048" t="n">
-        <v>22515</v>
+        <v>12561</v>
       </c>
       <c r="N1048" t="inlineStr">
         <is>
@@ -75835,7 +75835,7 @@
         </is>
       </c>
       <c r="P1048" t="n">
-        <v>1251</v>
+        <v>698</v>
       </c>
       <c r="Q1048" t="n">
         <v>18</v>
@@ -75861,7 +75861,7 @@
         </is>
       </c>
       <c r="D1049" s="2" t="n">
-        <v>44452</v>
+        <v>44329</v>
       </c>
       <c r="E1049" t="n">
         <v>13</v>
@@ -75885,16 +75885,16 @@
         </is>
       </c>
       <c r="J1049" t="n">
-        <v>580</v>
+        <v>780</v>
       </c>
       <c r="K1049" t="n">
-        <v>19000</v>
+        <v>6000</v>
       </c>
       <c r="L1049" t="n">
-        <v>20000</v>
+        <v>7000</v>
       </c>
       <c r="M1049" t="n">
-        <v>19483</v>
+        <v>6513</v>
       </c>
       <c r="N1049" t="inlineStr">
         <is>
@@ -75903,11 +75903,11 @@
       </c>
       <c r="O1049" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P1049" t="n">
-        <v>1082</v>
+        <v>362</v>
       </c>
       <c r="Q1049" t="n">
         <v>18</v>
@@ -75933,7 +75933,7 @@
         </is>
       </c>
       <c r="D1050" s="2" t="n">
-        <v>44270</v>
+        <v>44329</v>
       </c>
       <c r="E1050" t="n">
         <v>13</v>
@@ -75953,20 +75953,20 @@
       </c>
       <c r="I1050" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1050" t="n">
-        <v>520</v>
+        <v>500</v>
       </c>
       <c r="K1050" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="L1050" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="M1050" t="n">
-        <v>12615</v>
+        <v>8560</v>
       </c>
       <c r="N1050" t="inlineStr">
         <is>
@@ -75975,11 +75975,11 @@
       </c>
       <c r="O1050" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1050" t="n">
-        <v>701</v>
+        <v>476</v>
       </c>
       <c r="Q1050" t="n">
         <v>18</v>
@@ -76005,7 +76005,7 @@
         </is>
       </c>
       <c r="D1051" s="2" t="n">
-        <v>44270</v>
+        <v>44452</v>
       </c>
       <c r="E1051" t="n">
         <v>13</v>
@@ -76029,16 +76029,16 @@
         </is>
       </c>
       <c r="J1051" t="n">
-        <v>500</v>
+        <v>680</v>
       </c>
       <c r="K1051" t="n">
-        <v>10000</v>
+        <v>22000</v>
       </c>
       <c r="L1051" t="n">
-        <v>11000</v>
+        <v>23000</v>
       </c>
       <c r="M1051" t="n">
-        <v>10560</v>
+        <v>22515</v>
       </c>
       <c r="N1051" t="inlineStr">
         <is>
@@ -76047,11 +76047,11 @@
       </c>
       <c r="O1051" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1051" t="n">
-        <v>587</v>
+        <v>1251</v>
       </c>
       <c r="Q1051" t="n">
         <v>18</v>
@@ -76077,7 +76077,7 @@
         </is>
       </c>
       <c r="D1052" s="2" t="n">
-        <v>44270</v>
+        <v>44452</v>
       </c>
       <c r="E1052" t="n">
         <v>13</v>
@@ -76101,16 +76101,16 @@
         </is>
       </c>
       <c r="J1052" t="n">
-        <v>310</v>
+        <v>580</v>
       </c>
       <c r="K1052" t="n">
-        <v>7000</v>
+        <v>19000</v>
       </c>
       <c r="L1052" t="n">
-        <v>8000</v>
+        <v>20000</v>
       </c>
       <c r="M1052" t="n">
-        <v>7548</v>
+        <v>19483</v>
       </c>
       <c r="N1052" t="inlineStr">
         <is>
@@ -76119,11 +76119,11 @@
       </c>
       <c r="O1052" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1052" t="n">
-        <v>419</v>
+        <v>1082</v>
       </c>
       <c r="Q1052" t="n">
         <v>18</v>
@@ -76149,7 +76149,7 @@
         </is>
       </c>
       <c r="D1053" s="2" t="n">
-        <v>44195</v>
+        <v>44270</v>
       </c>
       <c r="E1053" t="n">
         <v>13</v>
@@ -76173,16 +76173,16 @@
         </is>
       </c>
       <c r="J1053" t="n">
-        <v>880</v>
+        <v>520</v>
       </c>
       <c r="K1053" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="L1053" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="M1053" t="n">
-        <v>17545</v>
+        <v>12615</v>
       </c>
       <c r="N1053" t="inlineStr">
         <is>
@@ -76195,7 +76195,7 @@
         </is>
       </c>
       <c r="P1053" t="n">
-        <v>975</v>
+        <v>701</v>
       </c>
       <c r="Q1053" t="n">
         <v>18</v>
@@ -76221,7 +76221,7 @@
         </is>
       </c>
       <c r="D1054" s="2" t="n">
-        <v>44195</v>
+        <v>44270</v>
       </c>
       <c r="E1054" t="n">
         <v>13</v>
@@ -76245,16 +76245,16 @@
         </is>
       </c>
       <c r="J1054" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="K1054" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="L1054" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="M1054" t="n">
-        <v>15560</v>
+        <v>10560</v>
       </c>
       <c r="N1054" t="inlineStr">
         <is>
@@ -76267,7 +76267,7 @@
         </is>
       </c>
       <c r="P1054" t="n">
-        <v>864</v>
+        <v>587</v>
       </c>
       <c r="Q1054" t="n">
         <v>18</v>
@@ -76293,7 +76293,7 @@
         </is>
       </c>
       <c r="D1055" s="2" t="n">
-        <v>44195</v>
+        <v>44270</v>
       </c>
       <c r="E1055" t="n">
         <v>13</v>
@@ -76317,16 +76317,16 @@
         </is>
       </c>
       <c r="J1055" t="n">
-        <v>880</v>
+        <v>310</v>
       </c>
       <c r="K1055" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="L1055" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="M1055" t="n">
-        <v>11568</v>
+        <v>7548</v>
       </c>
       <c r="N1055" t="inlineStr">
         <is>
@@ -76339,7 +76339,7 @@
         </is>
       </c>
       <c r="P1055" t="n">
-        <v>643</v>
+        <v>419</v>
       </c>
       <c r="Q1055" t="n">
         <v>18</v>
@@ -76365,7 +76365,7 @@
         </is>
       </c>
       <c r="D1056" s="2" t="n">
-        <v>44473</v>
+        <v>44195</v>
       </c>
       <c r="E1056" t="n">
         <v>13</v>
@@ -76389,16 +76389,16 @@
         </is>
       </c>
       <c r="J1056" t="n">
-        <v>420</v>
+        <v>880</v>
       </c>
       <c r="K1056" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="L1056" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="M1056" t="n">
-        <v>19429</v>
+        <v>17545</v>
       </c>
       <c r="N1056" t="inlineStr">
         <is>
@@ -76407,11 +76407,11 @@
       </c>
       <c r="O1056" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P1056" t="n">
-        <v>1079</v>
+        <v>975</v>
       </c>
       <c r="Q1056" t="n">
         <v>18</v>
@@ -76437,7 +76437,7 @@
         </is>
       </c>
       <c r="D1057" s="2" t="n">
-        <v>44473</v>
+        <v>44195</v>
       </c>
       <c r="E1057" t="n">
         <v>13</v>
@@ -76461,16 +76461,16 @@
         </is>
       </c>
       <c r="J1057" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="K1057" t="n">
+        <v>15000</v>
+      </c>
+      <c r="L1057" t="n">
         <v>16000</v>
       </c>
-      <c r="L1057" t="n">
-        <v>17000</v>
-      </c>
       <c r="M1057" t="n">
-        <v>16560</v>
+        <v>15560</v>
       </c>
       <c r="N1057" t="inlineStr">
         <is>
@@ -76479,11 +76479,11 @@
       </c>
       <c r="O1057" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P1057" t="n">
-        <v>920</v>
+        <v>864</v>
       </c>
       <c r="Q1057" t="n">
         <v>18</v>
@@ -76509,7 +76509,7 @@
         </is>
       </c>
       <c r="D1058" s="2" t="n">
-        <v>44473</v>
+        <v>44195</v>
       </c>
       <c r="E1058" t="n">
         <v>13</v>
@@ -76533,16 +76533,16 @@
         </is>
       </c>
       <c r="J1058" t="n">
-        <v>320</v>
+        <v>880</v>
       </c>
       <c r="K1058" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="L1058" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="M1058" t="n">
-        <v>13562</v>
+        <v>11568</v>
       </c>
       <c r="N1058" t="inlineStr">
         <is>
@@ -76551,11 +76551,11 @@
       </c>
       <c r="O1058" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P1058" t="n">
-        <v>753</v>
+        <v>643</v>
       </c>
       <c r="Q1058" t="n">
         <v>18</v>
@@ -76581,7 +76581,7 @@
         </is>
       </c>
       <c r="D1059" s="2" t="n">
-        <v>44398</v>
+        <v>44473</v>
       </c>
       <c r="E1059" t="n">
         <v>13</v>
@@ -76605,16 +76605,16 @@
         </is>
       </c>
       <c r="J1059" t="n">
-        <v>480</v>
+        <v>420</v>
       </c>
       <c r="K1059" t="n">
-        <v>13000</v>
+        <v>19000</v>
       </c>
       <c r="L1059" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="M1059" t="n">
-        <v>13000</v>
+        <v>19429</v>
       </c>
       <c r="N1059" t="inlineStr">
         <is>
@@ -76627,7 +76627,7 @@
         </is>
       </c>
       <c r="P1059" t="n">
-        <v>722</v>
+        <v>1079</v>
       </c>
       <c r="Q1059" t="n">
         <v>18</v>
@@ -76653,7 +76653,7 @@
         </is>
       </c>
       <c r="D1060" s="2" t="n">
-        <v>44398</v>
+        <v>44473</v>
       </c>
       <c r="E1060" t="n">
         <v>13</v>
@@ -76680,13 +76680,13 @@
         <v>500</v>
       </c>
       <c r="K1060" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="L1060" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="M1060" t="n">
-        <v>12000</v>
+        <v>16560</v>
       </c>
       <c r="N1060" t="inlineStr">
         <is>
@@ -76699,7 +76699,7 @@
         </is>
       </c>
       <c r="P1060" t="n">
-        <v>667</v>
+        <v>920</v>
       </c>
       <c r="Q1060" t="n">
         <v>18</v>
@@ -76725,7 +76725,7 @@
         </is>
       </c>
       <c r="D1061" s="2" t="n">
-        <v>44398</v>
+        <v>44473</v>
       </c>
       <c r="E1061" t="n">
         <v>13</v>
@@ -76749,16 +76749,16 @@
         </is>
       </c>
       <c r="J1061" t="n">
-        <v>260</v>
+        <v>320</v>
       </c>
       <c r="K1061" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="L1061" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="M1061" t="n">
-        <v>10000</v>
+        <v>13562</v>
       </c>
       <c r="N1061" t="inlineStr">
         <is>
@@ -76771,7 +76771,7 @@
         </is>
       </c>
       <c r="P1061" t="n">
-        <v>556</v>
+        <v>753</v>
       </c>
       <c r="Q1061" t="n">
         <v>18</v>
@@ -76797,7 +76797,7 @@
         </is>
       </c>
       <c r="D1062" s="2" t="n">
-        <v>44536</v>
+        <v>44398</v>
       </c>
       <c r="E1062" t="n">
         <v>13</v>
@@ -76821,16 +76821,16 @@
         </is>
       </c>
       <c r="J1062" t="n">
-        <v>910</v>
+        <v>480</v>
       </c>
       <c r="K1062" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="L1062" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="M1062" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="N1062" t="inlineStr">
         <is>
@@ -76839,11 +76839,11 @@
       </c>
       <c r="O1062" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1062" t="n">
-        <v>833</v>
+        <v>722</v>
       </c>
       <c r="Q1062" t="n">
         <v>18</v>
@@ -76869,7 +76869,7 @@
         </is>
       </c>
       <c r="D1063" s="2" t="n">
-        <v>44536</v>
+        <v>44398</v>
       </c>
       <c r="E1063" t="n">
         <v>13</v>
@@ -76893,16 +76893,16 @@
         </is>
       </c>
       <c r="J1063" t="n">
-        <v>840</v>
+        <v>500</v>
       </c>
       <c r="K1063" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="L1063" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="M1063" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="N1063" t="inlineStr">
         <is>
@@ -76911,11 +76911,11 @@
       </c>
       <c r="O1063" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1063" t="n">
-        <v>722</v>
+        <v>667</v>
       </c>
       <c r="Q1063" t="n">
         <v>18</v>
@@ -76941,7 +76941,7 @@
         </is>
       </c>
       <c r="D1064" s="2" t="n">
-        <v>44536</v>
+        <v>44398</v>
       </c>
       <c r="E1064" t="n">
         <v>13</v>
@@ -76965,16 +76965,16 @@
         </is>
       </c>
       <c r="J1064" t="n">
-        <v>780</v>
+        <v>260</v>
       </c>
       <c r="K1064" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="L1064" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="M1064" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="N1064" t="inlineStr">
         <is>
@@ -76983,11 +76983,11 @@
       </c>
       <c r="O1064" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1064" t="n">
-        <v>611</v>
+        <v>556</v>
       </c>
       <c r="Q1064" t="n">
         <v>18</v>
@@ -77013,7 +77013,7 @@
         </is>
       </c>
       <c r="D1065" s="2" t="n">
-        <v>44302</v>
+        <v>44536</v>
       </c>
       <c r="E1065" t="n">
         <v>13</v>
@@ -77037,16 +77037,16 @@
         </is>
       </c>
       <c r="J1065" t="n">
-        <v>240</v>
+        <v>910</v>
       </c>
       <c r="K1065" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="L1065" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="M1065" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="N1065" t="inlineStr">
         <is>
@@ -77055,11 +77055,11 @@
       </c>
       <c r="O1065" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P1065" t="n">
-        <v>667</v>
+        <v>833</v>
       </c>
       <c r="Q1065" t="n">
         <v>18</v>
@@ -77085,7 +77085,7 @@
         </is>
       </c>
       <c r="D1066" s="2" t="n">
-        <v>44302</v>
+        <v>44536</v>
       </c>
       <c r="E1066" t="n">
         <v>13</v>
@@ -77109,16 +77109,16 @@
         </is>
       </c>
       <c r="J1066" t="n">
-        <v>480</v>
+        <v>840</v>
       </c>
       <c r="K1066" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="L1066" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="M1066" t="n">
-        <v>10000</v>
+        <v>